--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10125,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H2"/>
@@ -10247,161 +10247,698 @@
       <c r="I5" s="53" t="n"/>
     </row>
     <row r="6" ht="99.75" customHeight="1">
-      <c r="B6" s="57" t="n"/>
-      <c r="C6" s="60" t="n"/>
-      <c r="D6" s="70" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="62" t="n"/>
-      <c r="G6" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H6" s="59" t="n"/>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C6" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
+      <c r="D6" s="70" t="inlineStr">
+        <is>
+          <t>Network Packet Capture - Start</t>
+        </is>
+      </c>
+      <c r="E6" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click on Start button</t>
+        </is>
+      </c>
+      <c r="F6" s="62" t="inlineStr">
+        <is>
+          <t>Packet capture starts successfully</t>
+        </is>
+      </c>
+      <c r="G6" s="58" t="inlineStr"/>
+      <c r="H6" s="59" t="inlineStr"/>
       <c r="I6" s="53" t="n"/>
     </row>
     <row r="7" ht="99.75" customHeight="1">
-      <c r="B7" s="57" t="n"/>
-      <c r="C7" s="60" t="n"/>
-      <c r="D7" s="70" t="n"/>
-      <c r="E7" s="61" t="n"/>
-      <c r="F7" s="62" t="n"/>
-      <c r="G7" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H7" s="59" t="n"/>
+      <c r="B7" s="57" t="inlineStr">
+        <is>
+          <t>F002</t>
+        </is>
+      </c>
+      <c r="C7" s="60" t="inlineStr">
+        <is>
+          <t>Packet capture is in progress</t>
+        </is>
+      </c>
+      <c r="D7" s="70" t="inlineStr">
+        <is>
+          <t>Network Packet Capture - Stop</t>
+        </is>
+      </c>
+      <c r="E7" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click on Stop button</t>
+        </is>
+      </c>
+      <c r="F7" s="62" t="inlineStr">
+        <is>
+          <t>1. Packet capture stops&lt;br&gt;2. .pcap file is generated&lt;br&gt;3. File is copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder opens automatically</t>
+        </is>
+      </c>
+      <c r="G7" s="58" t="inlineStr"/>
+      <c r="H7" s="59" t="inlineStr"/>
       <c r="I7" s="53" t="n"/>
     </row>
     <row r="8" ht="99.75" customHeight="1">
-      <c r="B8" s="57" t="n"/>
-      <c r="C8" s="60" t="n"/>
-      <c r="D8" s="70" t="n"/>
-      <c r="E8" s="61" t="n"/>
-      <c r="F8" s="62" t="n"/>
-      <c r="G8" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H8" s="59" t="n"/>
+      <c r="B8" s="57" t="inlineStr">
+        <is>
+          <t>F003</t>
+        </is>
+      </c>
+      <c r="C8" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
+      <c r="D8" s="70" t="inlineStr">
+        <is>
+          <t>Memory Leak Check - Table Display</t>
+        </is>
+      </c>
+      <c r="E8" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Memory Leak Check section</t>
+        </is>
+      </c>
+      <c r="F8" s="62" t="inlineStr">
+        <is>
+          <t>Protocol-specific Memory Leak Comparison Table is displayed</t>
+        </is>
+      </c>
+      <c r="G8" s="58" t="inlineStr"/>
+      <c r="H8" s="59" t="inlineStr"/>
       <c r="I8" s="53" t="n"/>
     </row>
     <row r="9" ht="99.75" customHeight="1">
-      <c r="B9" s="57" t="n"/>
-      <c r="C9" s="60" t="n"/>
-      <c r="D9" s="70" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="62" t="n"/>
-      <c r="G9" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H9" s="59" t="n"/>
+      <c r="B9" s="57" t="inlineStr">
+        <is>
+          <t>F004</t>
+        </is>
+      </c>
+      <c r="C9" s="60" t="inlineStr">
+        <is>
+          <t>Memory Leak Check section is open</t>
+        </is>
+      </c>
+      <c r="D9" s="70" t="inlineStr">
+        <is>
+          <t>Memory Leak Check - Comparison</t>
+        </is>
+      </c>
+      <c r="E9" s="61" t="inlineStr">
+        <is>
+          <t>1. Review the Memory Leak Comparison Table&lt;br&gt;2. Compare values to determine memory leak</t>
+        </is>
+      </c>
+      <c r="F9" s="62" t="inlineStr">
+        <is>
+          <t>User can easily determine if a memory leak has occurred based on the comparison table</t>
+        </is>
+      </c>
+      <c r="G9" s="58" t="inlineStr"/>
+      <c r="H9" s="59" t="inlineStr"/>
       <c r="I9" s="53" t="n"/>
     </row>
     <row r="10" ht="99.75" customHeight="1">
-      <c r="B10" s="57" t="n"/>
-      <c r="C10" s="60" t="n"/>
-      <c r="D10" s="70" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="62" t="n"/>
-      <c r="G10" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H10" s="59" t="n"/>
+      <c r="B10" s="57" t="inlineStr">
+        <is>
+          <t>F005</t>
+        </is>
+      </c>
+      <c r="C10" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
+      <c r="D10" s="70" t="inlineStr">
+        <is>
+          <t>Debug Log Collection</t>
+        </is>
+      </c>
+      <c r="E10" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button</t>
+        </is>
+      </c>
+      <c r="F10" s="62" t="inlineStr">
+        <is>
+          <t>1. Script executes successfully&lt;br&gt;2. Logs are collected&lt;br&gt;3. Logs are copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder opens automatically</t>
+        </is>
+      </c>
+      <c r="G10" s="58" t="inlineStr"/>
+      <c r="H10" s="59" t="inlineStr"/>
       <c r="I10" s="53" t="n"/>
     </row>
     <row r="11" ht="99.75" customHeight="1">
-      <c r="B11" s="57" t="n"/>
-      <c r="C11" s="60" t="n"/>
-      <c r="D11" s="70" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="62" t="n"/>
-      <c r="G11" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H11" s="59" t="n"/>
+      <c r="B11" s="57" t="inlineStr">
+        <is>
+          <t>F006</t>
+        </is>
+      </c>
+      <c r="C11" s="60" t="inlineStr">
+        <is>
+          <t>Debug Log Collection failed on first attempt</t>
+        </is>
+      </c>
+      <c r="D11" s="70" t="inlineStr">
+        <is>
+          <t>Debug Log Collection - Retry</t>
+        </is>
+      </c>
+      <c r="E11" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button again</t>
+        </is>
+      </c>
+      <c r="F11" s="62" t="inlineStr">
+        <is>
+          <t>1. Script executes successfully&lt;br&gt;2. Logs are collected&lt;br&gt;3. Logs are copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder opens with logs visible</t>
+        </is>
+      </c>
+      <c r="G11" s="58" t="inlineStr"/>
+      <c r="H11" s="59" t="inlineStr"/>
       <c r="I11" s="53" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="63" t="n"/>
-      <c r="B12" s="63" t="n"/>
-      <c r="C12" s="63" t="n"/>
-      <c r="D12" s="63" t="n"/>
-      <c r="E12" s="64" t="n"/>
-      <c r="F12" s="64" t="n"/>
-      <c r="G12" s="63" t="n"/>
-      <c r="H12" s="63" t="n"/>
+      <c r="B12" s="63" t="inlineStr">
+        <is>
+          <t>F007</t>
+        </is>
+      </c>
+      <c r="C12" s="63" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
+      <c r="D12" s="63" t="inlineStr">
+        <is>
+          <t>Diagnostic Code Details - ECC</t>
+        </is>
+      </c>
+      <c r="E12" s="64" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select ECC option</t>
+        </is>
+      </c>
+      <c r="F12" s="64" t="inlineStr">
+        <is>
+          <t>Relevant job-specific details for ECC are displayed</t>
+        </is>
+      </c>
+      <c r="G12" s="63" t="inlineStr"/>
+      <c r="H12" s="63" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Diagnostic Code Details - Network Protocols</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select Network Protocols option</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Relevant job-specific details for Network Protocols are displayed</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="B14" s="45" t="inlineStr">
         <is>
-          <t>Test Summary</t>
-        </is>
-      </c>
-      <c r="C14" s="67" t="n"/>
+          <t>F009</t>
+        </is>
+      </c>
+      <c r="C14" s="67" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Diagnostic Code Details - High Security Mode</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select High Security Mode option</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Relevant job-specific details for High Security Mode are displayed</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
       <c r="D15" s="45" t="inlineStr">
         <is>
-          <t>Test Case Count:</t>
-        </is>
-      </c>
+          <t>Diagnostic Code Details - Common Codes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select commonly used diagnostic codes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Relevant job-specific details for selected diagnostic codes are displayed</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
       <c r="D16" s="46" t="inlineStr">
         <is>
-          <t>Total Test Cases</t>
-        </is>
-      </c>
-      <c r="E16" s="71">
-        <f>COUNTA(B6:B6)</f>
-        <v/>
-      </c>
+          <t>08 Diagnostic Code Value - Get</t>
+        </is>
+      </c>
+      <c r="E16" s="71" t="inlineStr">
+        <is>
+          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Click on Get button</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Current value of the selected diagnostic code is displayed</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
       <c r="D17" s="65" t="inlineStr">
         <is>
-          <t>Total Test Case Passed</t>
-        </is>
-      </c>
-      <c r="E17" s="71">
-        <f>COUNTIF(G6:G6,"PASS")</f>
-        <v/>
-      </c>
+          <t>08 Diagnostic Code Value - Set</t>
+        </is>
+      </c>
+      <c r="E17" s="71" t="inlineStr">
+        <is>
+          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>The diagnostic code value is updated successfully</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
       <c r="D18" s="46" t="inlineStr">
         <is>
-          <t>Total Test Case Failed</t>
-        </is>
-      </c>
-      <c r="E18" s="71">
-        <f>COUNTIF(G6:G6,"FAIL")</f>
-        <v/>
-      </c>
+          <t>Protocol Configuration - Get</t>
+        </is>
+      </c>
+      <c r="E18" s="71" t="inlineStr">
+        <is>
+          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Click on Get button</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Current value of the selected protocol is displayed</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F014</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
       <c r="D19" s="68" t="inlineStr">
         <is>
-          <t>Total Test Case Not  Executed</t>
-        </is>
-      </c>
-      <c r="E19" s="71">
-        <f>COUNTIF(G6:G6,"Not Executed")</f>
-        <v/>
+          <t>Protocol Configuration - Set (Pending)</t>
+        </is>
+      </c>
+      <c r="E19" s="71" t="inlineStr">
+        <is>
+          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Enter a new value&lt;br&gt;5. Click on Set button</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Feature is marked as "Not Implemented" or similar message is displayed</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Feature pending implementation as per SRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Preconditions</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Test Condition</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Steps with description</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="45" t="n"/>
-      <c r="E21" s="69" t="n"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>--------------</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>---------------</t>
+        </is>
+      </c>
+      <c r="D21" s="45" t="inlineStr">
+        <is>
+          <t>----------------</t>
+        </is>
+      </c>
+      <c r="E21" s="69" t="inlineStr">
+        <is>
+          <t>------------------------</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>--------------</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>---------</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NF001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Desktop environment with application installed</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Desktop Compatibility</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1. Install application using Desktop zip file&lt;br&gt;2. Launch application&lt;br&gt;3. Test all major functions</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Application runs correctly on desktop environment</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NF002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Laptop environment with application installed</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Laptop Compatibility</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1. Install application using Laptop zip file&lt;br&gt;2. Launch application&lt;br&gt;3. Test all major functions</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Application runs correctly on laptop environment</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NF003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Performance - Time Saving</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1. Perform a complete diagnostic operation using the tool&lt;br&gt;2. Compare time taken with manual method</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tool reduces testing time by approximately 80% compared to manual methods</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NF004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Usability - GUI Intuitiveness</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1. Ask a new user to perform basic operations without instructions&lt;br&gt;2. Observe user's ability to navigate and use features</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>User can navigate and use basic features without significant confusion</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NF005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Usability - Error Handling</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1. Deliberately perform incorrect operations&lt;br&gt;2. Observe application's response</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Application provides clear error messages and doesn't crash</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NF006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Performance - Resource Usage</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1. Launch application&lt;br&gt;2. Monitor CPU and memory usage during operations</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Application uses reasonable system resources without excessive consumption</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NF007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Application is installed and launched</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Installation Process</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1. Extract zip file to preferred location&lt;br&gt;2. Launch application by double-clicking MultiFunctionalToolApplication</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Application installs and launches without errors</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10125,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H2"/>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>Packet capture starts successfully</t>
+          <t>Packet capture should start successfully with confirmation message</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>Packet capture is in progress</t>
+          <t>Packet capture is running</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>1. Packet capture stops&lt;br&gt;2. .pcap file is generated&lt;br&gt;3. File is copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder opens automatically</t>
+          <t>1. Packet capture should stop&lt;br&gt;2. .pcap file should be generated&lt;br&gt;3. File should be copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder should open automatically</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10319,17 +10319,17 @@
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Memory Leak Check - Table Display</t>
+          <t>Memory Leak Check</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Memory Leak Check section</t>
+          <t>1. Navigate to Memory Leak Check section&lt;br&gt;2. Select a protocol from the dropdown&lt;br&gt;3. View the Memory Leak Comparison Table</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Protocol-specific Memory Leak Comparison Table is displayed</t>
+          <t>Memory Leak Comparison Table should display protocol-specific information</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10344,22 +10344,22 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>Memory Leak Check section is open</t>
+          <t>Application is installed and launched</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Memory Leak Check - Comparison</t>
+          <t>Debug Log Collection</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Review the Memory Leak Comparison Table&lt;br&gt;2. Compare values to determine memory leak</t>
+          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>User can easily determine if a memory leak has occurred based on the comparison table</t>
+          <t>1. Script should execute&lt;br&gt;2. Logs should be collected&lt;br&gt;3. Logs should be copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder should open automatically</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10379,17 +10379,17 @@
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Debug Log Collection</t>
+          <t>Diagnostic Code Details - ECC</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select ECC option&lt;br&gt;3. View the details</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>1. Script executes successfully&lt;br&gt;2. Logs are collected&lt;br&gt;3. Logs are copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder opens automatically</t>
+          <t>Relevant job-specific details for ECC should be displayed</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10404,22 +10404,22 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>Debug Log Collection failed on first attempt</t>
+          <t>Application is installed and launched</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Debug Log Collection - Retry</t>
+          <t>Diagnostic Code Details - Network Protocols</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button again</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select Network Protocols option&lt;br&gt;3. View the details</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>1. Script executes successfully&lt;br&gt;2. Logs are collected&lt;br&gt;3. Logs are copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder opens with logs visible</t>
+          <t>Relevant job-specific details for Network Protocols should be displayed</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10440,17 +10440,17 @@
       </c>
       <c r="D12" s="63" t="inlineStr">
         <is>
-          <t>Diagnostic Code Details - ECC</t>
+          <t>Diagnostic Code Details - High Security Mode</t>
         </is>
       </c>
       <c r="E12" s="64" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select ECC option</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select High Security Mode option&lt;br&gt;3. View the details</t>
         </is>
       </c>
       <c r="F12" s="64" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for ECC are displayed</t>
+          <t>Relevant job-specific details for High Security Mode should be displayed</t>
         </is>
       </c>
       <c r="G12" s="63" t="inlineStr"/>
@@ -10469,17 +10469,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Diagnostic Code Details - Network Protocols</t>
+          <t>Diagnostic Code Details - Common Codes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select Network Protocols option</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select commonly used diagnostic codes&lt;br&gt;3. View the details</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for Network Protocols are displayed</t>
+          <t>Relevant job-specific details for selected common codes should be displayed</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -10498,17 +10498,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Diagnostic Code Details - High Security Mode</t>
+          <t>08 Diagnostic Code Value - Get</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select High Security Mode option</t>
+          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Click on Get button</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for High Security Mode are displayed</t>
+          <t>Current value of the selected 08 diagnostic code should be displayed</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -10527,17 +10527,17 @@
       </c>
       <c r="D15" s="45" t="inlineStr">
         <is>
-          <t>Diagnostic Code Details - Common Codes</t>
+          <t>08 Diagnostic Code Value - Set</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select commonly used diagnostic codes</t>
+          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for selected diagnostic codes are displayed</t>
+          <t>The 08 diagnostic code value should be updated with the new value</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -10556,17 +10556,17 @@
       </c>
       <c r="D16" s="46" t="inlineStr">
         <is>
-          <t>08 Diagnostic Code Value - Get</t>
+          <t>Protocol Configuration - Get</t>
         </is>
       </c>
       <c r="E16" s="71" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Click on Get button</t>
+          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Click on Get button</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Current value of the selected diagnostic code is displayed</t>
+          <t>Current value of the selected protocol should be displayed</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -10585,21 +10585,25 @@
       </c>
       <c r="D17" s="65" t="inlineStr">
         <is>
-          <t>08 Diagnostic Code Value - Set</t>
+          <t>Protocol Configuration - Set</t>
         </is>
       </c>
       <c r="E17" s="71" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
+          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Enter a new value&lt;br&gt;5. Click on Set button</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>The diagnostic code value is updated successfully</t>
+          <t>The protocol value should be updated with the new value (Note: This feature is pending implementation)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Feature pending implementation</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
@@ -10609,22 +10613,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Application is installed and launched</t>
+          <t>Desktop environment with network access</t>
         </is>
       </c>
       <c r="D18" s="46" t="inlineStr">
         <is>
-          <t>Protocol Configuration - Get</t>
+          <t>Installation on Desktop</t>
         </is>
       </c>
       <c r="E18" s="71" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Click on Get button</t>
+          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\&lt;br&gt;2. Extract contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Current value of the selected protocol is displayed</t>
+          <t>Application should install and launch successfully on desktop</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -10638,30 +10642,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Application is installed and launched</t>
+          <t>Laptop environment with network access</t>
         </is>
       </c>
       <c r="D19" s="68" t="inlineStr">
         <is>
-          <t>Protocol Configuration - Set (Pending)</t>
+          <t>Installation on Laptop</t>
         </is>
       </c>
       <c r="E19" s="71" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Enter a new value&lt;br&gt;5. Click on Set button</t>
+          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\&lt;br&gt;2. Extract contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Feature is marked as "Not Implemented" or similar message is displayed</t>
+          <t>Application should install and launch successfully on laptop</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Feature pending implementation as per SRS</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
@@ -10745,22 +10745,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Desktop environment with application installed</t>
+          <t>Application is installed and launched</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Desktop Compatibility</t>
+          <t>Performance - Network Packet Capture</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1. Install application using Desktop zip file&lt;br&gt;2. Launch application&lt;br&gt;3. Test all major functions</t>
+          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Start packet capture&lt;br&gt;3. Perform network operations for 5 minutes&lt;br&gt;4. Stop packet capture&lt;br&gt;5. Measure time to generate and copy .pcap file</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Application runs correctly on desktop environment</t>
+          <t>File generation and copying should complete within 30 seconds</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -10774,22 +10774,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Laptop environment with application installed</t>
+          <t>Application is installed and launched</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Laptop Compatibility</t>
+          <t>Performance - Debug Log Collection</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1. Install application using Laptop zip file&lt;br&gt;2. Launch application&lt;br&gt;3. Test all major functions</t>
+          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button&lt;br&gt;3. Measure time to collect and copy logs</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Application runs correctly on laptop environment</t>
+          <t>Log collection and copying should complete within 2 minutes</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -10808,17 +10808,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Performance - Time Saving</t>
+          <t>Performance - Response Time</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1. Perform a complete diagnostic operation using the tool&lt;br&gt;2. Compare time taken with manual method</t>
+          <t>1. Click on various sections of the application&lt;br&gt;2. Measure response time for UI updates</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tool reduces testing time by approximately 80% compared to manual methods</t>
+          <t>UI should respond within 1 second for all operations</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -10837,108 +10837,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Usability - GUI Intuitiveness</t>
+          <t>Usability - Navigation</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1. Ask a new user to perform basic operations without instructions&lt;br&gt;2. Observe user's ability to navigate and use features</t>
+          <t>1. Navigate through all sections of the application&lt;br&gt;2. Assess ease of navigation</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>User can navigate and use basic features without significant confusion</t>
+          <t>Navigation should be intuitive with clear section labels and logical flow</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>NF005</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Usability - Error Handling</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1. Deliberately perform incorrect operations&lt;br&gt;2. Observe application's response</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Application provides clear error messages and doesn't crash</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>NF006</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Performance - Resource Usage</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1. Launch application&lt;br&gt;2. Monitor CPU and memory usage during operations</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Application uses reasonable system resources without excessive consumption</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>NF007</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Installation Process</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1. Extract zip file to preferred location&lt;br&gt;2. Launch application by double-clicking MultiFunctionalToolApplication</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Application installs and launches without errors</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -326,6 +326,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -334,15 +343,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
@@ -612,10 +612,83 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="justify"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="0"/>
@@ -631,25 +704,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="justify"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -661,64 +719,6 @@
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1249,24 +1249,24 @@
       <c r="C1" s="118" t="n"/>
       <c r="D1" s="118" t="n"/>
       <c r="E1" s="119" t="n"/>
-      <c r="F1" s="76" t="n"/>
-      <c r="G1" s="76" t="n"/>
-      <c r="H1" s="76" t="n"/>
-      <c r="I1" s="76" t="n"/>
-      <c r="J1" s="76" t="n"/>
-      <c r="K1" s="76" t="n"/>
-      <c r="L1" s="76" t="n"/>
-      <c r="M1" s="76" t="n"/>
-      <c r="N1" s="76" t="n"/>
-      <c r="O1" s="76" t="n"/>
-      <c r="P1" s="76" t="n"/>
-      <c r="Q1" s="76" t="n"/>
-      <c r="R1" s="76" t="n"/>
-      <c r="S1" s="76" t="n"/>
-      <c r="T1" s="76" t="n"/>
+      <c r="F1" s="96" t="n"/>
+      <c r="G1" s="96" t="n"/>
+      <c r="H1" s="96" t="n"/>
+      <c r="I1" s="96" t="n"/>
+      <c r="J1" s="96" t="n"/>
+      <c r="K1" s="96" t="n"/>
+      <c r="L1" s="96" t="n"/>
+      <c r="M1" s="96" t="n"/>
+      <c r="N1" s="96" t="n"/>
+      <c r="O1" s="96" t="n"/>
+      <c r="P1" s="96" t="n"/>
+      <c r="Q1" s="96" t="n"/>
+      <c r="R1" s="96" t="n"/>
+      <c r="S1" s="96" t="n"/>
+      <c r="T1" s="96" t="n"/>
     </row>
     <row r="2" ht="17.5" customFormat="1" customHeight="1" s="18">
-      <c r="A2" s="75" t="n"/>
+      <c r="A2" s="95" t="n"/>
       <c r="B2" s="120" t="n"/>
       <c r="C2" s="120" t="n"/>
       <c r="D2" s="120" t="n"/>
@@ -1274,125 +1274,125 @@
       <c r="F2" s="120" t="n"/>
       <c r="G2" s="120" t="n"/>
       <c r="H2" s="120" t="n"/>
-      <c r="I2" s="76" t="n"/>
-      <c r="J2" s="76" t="n"/>
-      <c r="K2" s="76" t="n"/>
-      <c r="L2" s="76" t="n"/>
-      <c r="M2" s="76" t="n"/>
-      <c r="N2" s="76" t="n"/>
-      <c r="O2" s="76" t="n"/>
-      <c r="P2" s="76" t="n"/>
-      <c r="Q2" s="76" t="n"/>
-      <c r="R2" s="76" t="n"/>
-      <c r="S2" s="76" t="n"/>
-      <c r="T2" s="76" t="n"/>
+      <c r="I2" s="96" t="n"/>
+      <c r="J2" s="96" t="n"/>
+      <c r="K2" s="96" t="n"/>
+      <c r="L2" s="96" t="n"/>
+      <c r="M2" s="96" t="n"/>
+      <c r="N2" s="96" t="n"/>
+      <c r="O2" s="96" t="n"/>
+      <c r="P2" s="96" t="n"/>
+      <c r="Q2" s="96" t="n"/>
+      <c r="R2" s="96" t="n"/>
+      <c r="S2" s="96" t="n"/>
+      <c r="T2" s="96" t="n"/>
     </row>
     <row r="3" ht="15.5" customFormat="1" customHeight="1" s="18">
-      <c r="A3" s="79" t="inlineStr">
+      <c r="A3" s="81" t="inlineStr">
         <is>
           <t>Test Iteration Number                                                              :</t>
         </is>
       </c>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="120" t="n"/>
-      <c r="D3" s="74" t="inlineStr">
+      <c r="D3" s="80" t="inlineStr">
         <is>
           <t>3rd Iteration</t>
         </is>
       </c>
       <c r="E3" s="121" t="n"/>
-      <c r="F3" s="76" t="n"/>
-      <c r="G3" s="76" t="n"/>
-      <c r="H3" s="76" t="n"/>
-      <c r="I3" s="76" t="n"/>
-      <c r="J3" s="76" t="n"/>
-      <c r="K3" s="76" t="n"/>
-      <c r="L3" s="76" t="n"/>
-      <c r="M3" s="76" t="n"/>
-      <c r="N3" s="76" t="n"/>
-      <c r="O3" s="76" t="n"/>
-      <c r="Q3" s="76" t="n"/>
-      <c r="R3" s="76" t="n"/>
-      <c r="S3" s="76" t="n"/>
-      <c r="T3" s="76" t="n"/>
+      <c r="F3" s="96" t="n"/>
+      <c r="G3" s="96" t="n"/>
+      <c r="H3" s="96" t="n"/>
+      <c r="I3" s="96" t="n"/>
+      <c r="J3" s="96" t="n"/>
+      <c r="K3" s="96" t="n"/>
+      <c r="L3" s="96" t="n"/>
+      <c r="M3" s="96" t="n"/>
+      <c r="N3" s="96" t="n"/>
+      <c r="O3" s="96" t="n"/>
+      <c r="Q3" s="96" t="n"/>
+      <c r="R3" s="96" t="n"/>
+      <c r="S3" s="96" t="n"/>
+      <c r="T3" s="96" t="n"/>
     </row>
     <row r="4" ht="15.5" customFormat="1" customHeight="1" s="18">
-      <c r="A4" s="79" t="inlineStr">
+      <c r="A4" s="81" t="inlineStr">
         <is>
           <t>Test Plan Reference                                                                  :</t>
         </is>
       </c>
       <c r="B4" s="120" t="n"/>
       <c r="C4" s="120" t="n"/>
-      <c r="D4" s="74" t="n"/>
+      <c r="D4" s="80" t="n"/>
       <c r="E4" s="121" t="n"/>
-      <c r="F4" s="76" t="n"/>
-      <c r="G4" s="76" t="n"/>
-      <c r="H4" s="76" t="n"/>
-      <c r="I4" s="76" t="n"/>
-      <c r="J4" s="76" t="n"/>
-      <c r="K4" s="76" t="n"/>
-      <c r="L4" s="76" t="n"/>
-      <c r="M4" s="76" t="n"/>
-      <c r="N4" s="76" t="n"/>
-      <c r="O4" s="76" t="n"/>
-      <c r="P4" s="76" t="n"/>
-      <c r="Q4" s="76" t="n"/>
-      <c r="R4" s="76" t="n"/>
-      <c r="S4" s="76" t="n"/>
-      <c r="T4" s="76" t="n"/>
+      <c r="F4" s="96" t="n"/>
+      <c r="G4" s="96" t="n"/>
+      <c r="H4" s="96" t="n"/>
+      <c r="I4" s="96" t="n"/>
+      <c r="J4" s="96" t="n"/>
+      <c r="K4" s="96" t="n"/>
+      <c r="L4" s="96" t="n"/>
+      <c r="M4" s="96" t="n"/>
+      <c r="N4" s="96" t="n"/>
+      <c r="O4" s="96" t="n"/>
+      <c r="P4" s="96" t="n"/>
+      <c r="Q4" s="96" t="n"/>
+      <c r="R4" s="96" t="n"/>
+      <c r="S4" s="96" t="n"/>
+      <c r="T4" s="96" t="n"/>
     </row>
     <row r="5" ht="13.5" customFormat="1" customHeight="1" s="18">
-      <c r="A5" s="79" t="inlineStr">
+      <c r="A5" s="81" t="inlineStr">
         <is>
           <t>Test hardware and Software environment                                :</t>
         </is>
       </c>
       <c r="B5" s="120" t="n"/>
       <c r="C5" s="120" t="n"/>
-      <c r="D5" s="74" t="n"/>
+      <c r="D5" s="80" t="n"/>
       <c r="E5" s="121" t="n"/>
-      <c r="F5" s="76" t="n"/>
-      <c r="G5" s="76" t="n"/>
-      <c r="H5" s="76" t="n"/>
-      <c r="I5" s="76" t="n"/>
-      <c r="J5" s="76" t="n"/>
-      <c r="K5" s="76" t="n"/>
-      <c r="L5" s="76" t="n"/>
-      <c r="M5" s="76" t="n"/>
-      <c r="N5" s="76" t="n"/>
-      <c r="O5" s="76" t="n"/>
-      <c r="P5" s="76" t="n"/>
-      <c r="Q5" s="76" t="n"/>
-      <c r="R5" s="76" t="n"/>
-      <c r="S5" s="76" t="n"/>
-      <c r="T5" s="76" t="n"/>
+      <c r="F5" s="96" t="n"/>
+      <c r="G5" s="96" t="n"/>
+      <c r="H5" s="96" t="n"/>
+      <c r="I5" s="96" t="n"/>
+      <c r="J5" s="96" t="n"/>
+      <c r="K5" s="96" t="n"/>
+      <c r="L5" s="96" t="n"/>
+      <c r="M5" s="96" t="n"/>
+      <c r="N5" s="96" t="n"/>
+      <c r="O5" s="96" t="n"/>
+      <c r="P5" s="96" t="n"/>
+      <c r="Q5" s="96" t="n"/>
+      <c r="R5" s="96" t="n"/>
+      <c r="S5" s="96" t="n"/>
+      <c r="T5" s="96" t="n"/>
     </row>
     <row r="6" ht="15.5" customFormat="1" customHeight="1" s="18">
-      <c r="A6" s="79" t="inlineStr">
+      <c r="A6" s="81" t="inlineStr">
         <is>
           <t>Constraints If any                                                                       :</t>
         </is>
       </c>
       <c r="B6" s="120" t="n"/>
       <c r="C6" s="120" t="n"/>
-      <c r="D6" s="74" t="n"/>
+      <c r="D6" s="80" t="n"/>
       <c r="E6" s="121" t="n"/>
-      <c r="F6" s="76" t="n"/>
-      <c r="G6" s="76" t="n"/>
-      <c r="H6" s="76" t="n"/>
-      <c r="I6" s="76" t="n"/>
-      <c r="J6" s="76" t="n"/>
-      <c r="K6" s="76" t="n"/>
-      <c r="L6" s="76" t="n"/>
-      <c r="M6" s="76" t="n"/>
-      <c r="N6" s="76" t="n"/>
-      <c r="O6" s="76" t="n"/>
-      <c r="P6" s="76" t="n"/>
-      <c r="Q6" s="76" t="n"/>
-      <c r="R6" s="76" t="n"/>
-      <c r="S6" s="76" t="n"/>
-      <c r="T6" s="76" t="n"/>
+      <c r="F6" s="96" t="n"/>
+      <c r="G6" s="96" t="n"/>
+      <c r="H6" s="96" t="n"/>
+      <c r="I6" s="96" t="n"/>
+      <c r="J6" s="96" t="n"/>
+      <c r="K6" s="96" t="n"/>
+      <c r="L6" s="96" t="n"/>
+      <c r="M6" s="96" t="n"/>
+      <c r="N6" s="96" t="n"/>
+      <c r="O6" s="96" t="n"/>
+      <c r="P6" s="96" t="n"/>
+      <c r="Q6" s="96" t="n"/>
+      <c r="R6" s="96" t="n"/>
+      <c r="S6" s="96" t="n"/>
+      <c r="T6" s="96" t="n"/>
     </row>
     <row r="7" ht="31.5" customFormat="1" customHeight="1" s="18">
       <c r="A7" s="82" t="inlineStr">
@@ -1402,23 +1402,23 @@
       </c>
       <c r="B7" s="120" t="n"/>
       <c r="C7" s="120" t="n"/>
-      <c r="D7" s="74" t="n"/>
+      <c r="D7" s="80" t="n"/>
       <c r="E7" s="121" t="n"/>
-      <c r="F7" s="76" t="n"/>
-      <c r="G7" s="76" t="n"/>
-      <c r="H7" s="76" t="n"/>
-      <c r="I7" s="76" t="n"/>
-      <c r="J7" s="76" t="n"/>
-      <c r="K7" s="76" t="n"/>
-      <c r="L7" s="76" t="n"/>
-      <c r="M7" s="76" t="n"/>
-      <c r="N7" s="76" t="n"/>
-      <c r="O7" s="76" t="n"/>
-      <c r="P7" s="76" t="n"/>
-      <c r="Q7" s="76" t="n"/>
-      <c r="R7" s="76" t="n"/>
-      <c r="S7" s="76" t="n"/>
-      <c r="T7" s="76" t="n"/>
+      <c r="F7" s="96" t="n"/>
+      <c r="G7" s="96" t="n"/>
+      <c r="H7" s="96" t="n"/>
+      <c r="I7" s="96" t="n"/>
+      <c r="J7" s="96" t="n"/>
+      <c r="K7" s="96" t="n"/>
+      <c r="L7" s="96" t="n"/>
+      <c r="M7" s="96" t="n"/>
+      <c r="N7" s="96" t="n"/>
+      <c r="O7" s="96" t="n"/>
+      <c r="P7" s="96" t="n"/>
+      <c r="Q7" s="96" t="n"/>
+      <c r="R7" s="96" t="n"/>
+      <c r="S7" s="96" t="n"/>
+      <c r="T7" s="96" t="n"/>
     </row>
     <row r="8" ht="15.5" customFormat="1" customHeight="1" s="18">
       <c r="A8" s="82" t="inlineStr">
@@ -1428,23 +1428,23 @@
       </c>
       <c r="B8" s="120" t="n"/>
       <c r="C8" s="120" t="n"/>
-      <c r="D8" s="74" t="n"/>
+      <c r="D8" s="80" t="n"/>
       <c r="E8" s="121" t="n"/>
-      <c r="F8" s="76" t="n"/>
-      <c r="G8" s="76" t="n"/>
-      <c r="H8" s="76" t="n"/>
-      <c r="I8" s="76" t="n"/>
-      <c r="J8" s="76" t="n"/>
-      <c r="K8" s="76" t="n"/>
-      <c r="L8" s="76" t="n"/>
-      <c r="M8" s="76" t="n"/>
-      <c r="N8" s="76" t="n"/>
-      <c r="O8" s="76" t="n"/>
-      <c r="P8" s="76" t="n"/>
-      <c r="Q8" s="76" t="n"/>
-      <c r="R8" s="76" t="n"/>
-      <c r="S8" s="76" t="n"/>
-      <c r="T8" s="76" t="n"/>
+      <c r="F8" s="96" t="n"/>
+      <c r="G8" s="96" t="n"/>
+      <c r="H8" s="96" t="n"/>
+      <c r="I8" s="96" t="n"/>
+      <c r="J8" s="96" t="n"/>
+      <c r="K8" s="96" t="n"/>
+      <c r="L8" s="96" t="n"/>
+      <c r="M8" s="96" t="n"/>
+      <c r="N8" s="96" t="n"/>
+      <c r="O8" s="96" t="n"/>
+      <c r="P8" s="96" t="n"/>
+      <c r="Q8" s="96" t="n"/>
+      <c r="R8" s="96" t="n"/>
+      <c r="S8" s="96" t="n"/>
+      <c r="T8" s="96" t="n"/>
     </row>
     <row r="9" ht="15.75" customFormat="1" customHeight="1" s="18">
       <c r="A9" s="82" t="inlineStr">
@@ -1454,26 +1454,26 @@
       </c>
       <c r="B9" s="120" t="n"/>
       <c r="C9" s="120" t="n"/>
-      <c r="D9" s="74" t="n"/>
+      <c r="D9" s="80" t="n"/>
       <c r="E9" s="121" t="n"/>
-      <c r="F9" s="76" t="n"/>
-      <c r="G9" s="76" t="n"/>
-      <c r="H9" s="76" t="n"/>
-      <c r="I9" s="76" t="n"/>
-      <c r="J9" s="76" t="n"/>
-      <c r="K9" s="76" t="n"/>
-      <c r="L9" s="76" t="n"/>
-      <c r="M9" s="76" t="n"/>
-      <c r="N9" s="76" t="n"/>
-      <c r="O9" s="76" t="n"/>
-      <c r="P9" s="76" t="n"/>
-      <c r="Q9" s="76" t="n"/>
-      <c r="R9" s="76" t="n"/>
-      <c r="S9" s="76" t="n"/>
-      <c r="T9" s="76" t="n"/>
+      <c r="F9" s="96" t="n"/>
+      <c r="G9" s="96" t="n"/>
+      <c r="H9" s="96" t="n"/>
+      <c r="I9" s="96" t="n"/>
+      <c r="J9" s="96" t="n"/>
+      <c r="K9" s="96" t="n"/>
+      <c r="L9" s="96" t="n"/>
+      <c r="M9" s="96" t="n"/>
+      <c r="N9" s="96" t="n"/>
+      <c r="O9" s="96" t="n"/>
+      <c r="P9" s="96" t="n"/>
+      <c r="Q9" s="96" t="n"/>
+      <c r="R9" s="96" t="n"/>
+      <c r="S9" s="96" t="n"/>
+      <c r="T9" s="96" t="n"/>
     </row>
     <row r="10" ht="25.5" customFormat="1" customHeight="1" s="18">
-      <c r="A10" s="80" t="n"/>
+      <c r="A10" s="99" t="n"/>
       <c r="B10" s="120" t="n"/>
       <c r="C10" s="120" t="n"/>
       <c r="D10" s="120" t="n"/>
@@ -1481,18 +1481,18 @@
       <c r="F10" s="120" t="n"/>
       <c r="G10" s="120" t="n"/>
       <c r="H10" s="120" t="n"/>
-      <c r="I10" s="81" t="n"/>
-      <c r="J10" s="81" t="n"/>
-      <c r="K10" s="76" t="n"/>
-      <c r="L10" s="81" t="n"/>
-      <c r="M10" s="81" t="n"/>
-      <c r="N10" s="76" t="n"/>
-      <c r="O10" s="81" t="n"/>
-      <c r="P10" s="81" t="n"/>
-      <c r="Q10" s="76" t="n"/>
-      <c r="R10" s="81" t="n"/>
-      <c r="S10" s="81" t="n"/>
-      <c r="T10" s="76" t="n"/>
+      <c r="I10" s="100" t="n"/>
+      <c r="J10" s="100" t="n"/>
+      <c r="K10" s="96" t="n"/>
+      <c r="L10" s="100" t="n"/>
+      <c r="M10" s="100" t="n"/>
+      <c r="N10" s="96" t="n"/>
+      <c r="O10" s="100" t="n"/>
+      <c r="P10" s="100" t="n"/>
+      <c r="Q10" s="96" t="n"/>
+      <c r="R10" s="100" t="n"/>
+      <c r="S10" s="100" t="n"/>
+      <c r="T10" s="96" t="n"/>
     </row>
     <row r="11" ht="15.5" customFormat="1" customHeight="1" s="18">
       <c r="A11" s="5" t="inlineStr">
@@ -1500,29 +1500,29 @@
           <t>&lt;&lt;&lt;</t>
         </is>
       </c>
-      <c r="B11" s="80" t="n"/>
-      <c r="C11" s="80" t="n"/>
-      <c r="D11" s="80" t="n"/>
+      <c r="B11" s="99" t="n"/>
+      <c r="C11" s="99" t="n"/>
+      <c r="D11" s="99" t="n"/>
       <c r="E11" s="42" t="n"/>
       <c r="F11" s="6" t="n"/>
-      <c r="G11" s="80" t="n"/>
-      <c r="H11" s="80" t="n"/>
+      <c r="G11" s="99" t="n"/>
+      <c r="H11" s="99" t="n"/>
       <c r="I11" s="6" t="n"/>
-      <c r="J11" s="80" t="n"/>
-      <c r="K11" s="80" t="n"/>
+      <c r="J11" s="99" t="n"/>
+      <c r="K11" s="99" t="n"/>
       <c r="L11" s="6" t="n"/>
-      <c r="M11" s="80" t="n"/>
-      <c r="N11" s="80" t="n"/>
+      <c r="M11" s="99" t="n"/>
+      <c r="N11" s="99" t="n"/>
       <c r="O11" s="6" t="n"/>
-      <c r="P11" s="80" t="n"/>
-      <c r="Q11" s="80" t="n"/>
+      <c r="P11" s="99" t="n"/>
+      <c r="Q11" s="99" t="n"/>
       <c r="R11" s="6" t="n"/>
-      <c r="S11" s="80" t="n"/>
-      <c r="T11" s="80" t="n"/>
+      <c r="S11" s="99" t="n"/>
+      <c r="T11" s="99" t="n"/>
       <c r="U11" s="7" t="n"/>
     </row>
     <row r="12" ht="17.5" customFormat="1" customHeight="1" s="18">
-      <c r="A12" s="83" t="inlineStr">
+      <c r="A12" s="90" t="inlineStr">
         <is>
           <t>Test Case Results</t>
         </is>
@@ -1534,18 +1534,18 @@
       <c r="F12" s="120" t="n"/>
       <c r="G12" s="120" t="n"/>
       <c r="H12" s="120" t="n"/>
-      <c r="I12" s="84" t="n"/>
-      <c r="J12" s="84" t="n"/>
-      <c r="K12" s="76" t="n"/>
-      <c r="L12" s="84" t="n"/>
-      <c r="M12" s="84" t="n"/>
-      <c r="N12" s="76" t="n"/>
-      <c r="O12" s="84" t="n"/>
-      <c r="P12" s="84" t="n"/>
-      <c r="Q12" s="76" t="n"/>
-      <c r="R12" s="84" t="n"/>
-      <c r="S12" s="84" t="n"/>
-      <c r="T12" s="76" t="n"/>
+      <c r="I12" s="91" t="n"/>
+      <c r="J12" s="91" t="n"/>
+      <c r="K12" s="96" t="n"/>
+      <c r="L12" s="91" t="n"/>
+      <c r="M12" s="91" t="n"/>
+      <c r="N12" s="96" t="n"/>
+      <c r="O12" s="91" t="n"/>
+      <c r="P12" s="91" t="n"/>
+      <c r="Q12" s="96" t="n"/>
+      <c r="R12" s="91" t="n"/>
+      <c r="S12" s="91" t="n"/>
+      <c r="T12" s="96" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="122" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="R13" s="8" t="n"/>
       <c r="S13" s="8" t="n"/>
       <c r="T13" s="9" t="n"/>
-      <c r="U13" s="76" t="n"/>
+      <c r="U13" s="96" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="124" t="n"/>
@@ -1585,7 +1585,7 @@
           <t>Preconditions</t>
         </is>
       </c>
-      <c r="C14" s="90" t="inlineStr">
+      <c r="C14" s="83" t="inlineStr">
         <is>
           <t>Verification</t>
         </is>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="S14" s="118" t="n"/>
       <c r="T14" s="119" t="n"/>
-      <c r="U14" s="76" t="n"/>
+      <c r="U14" s="96" t="n"/>
     </row>
     <row r="15" ht="69.5" customHeight="1">
       <c r="A15" s="126" t="n"/>
@@ -1642,7 +1642,7 @@
           <t>Step with description</t>
         </is>
       </c>
-      <c r="E15" s="91" t="inlineStr">
+      <c r="E15" s="84" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
@@ -1737,7 +1737,7 @@
           <t>Remarks</t>
         </is>
       </c>
-      <c r="U15" s="76" t="n"/>
+      <c r="U15" s="96" t="n"/>
     </row>
     <row r="16" outlineLevel="1" ht="13" customHeight="1">
       <c r="A16" s="43">
@@ -1775,7 +1775,7 @@
       <c r="R16" s="13" t="n"/>
       <c r="S16" s="14" t="n"/>
       <c r="T16" s="14" t="n"/>
-      <c r="U16" s="76" t="n"/>
+      <c r="U16" s="96" t="n"/>
     </row>
     <row r="17" outlineLevel="1" ht="13" customHeight="1">
       <c r="A17" s="43">
@@ -1813,7 +1813,7 @@
       <c r="R17" s="13" t="n"/>
       <c r="S17" s="14" t="n"/>
       <c r="T17" s="14" t="n"/>
-      <c r="U17" s="76" t="n"/>
+      <c r="U17" s="96" t="n"/>
     </row>
     <row r="18" outlineLevel="1" ht="13" customFormat="1" customHeight="1" s="41">
       <c r="A18" s="43">
@@ -1889,7 +1889,7 @@
       <c r="R19" s="13" t="n"/>
       <c r="S19" s="14" t="n"/>
       <c r="T19" s="14" t="n"/>
-      <c r="U19" s="76" t="n"/>
+      <c r="U19" s="96" t="n"/>
     </row>
     <row r="20" outlineLevel="1" ht="13" customHeight="1">
       <c r="A20" s="43">
@@ -1927,7 +1927,7 @@
       <c r="R20" s="13" t="n"/>
       <c r="S20" s="14" t="n"/>
       <c r="T20" s="14" t="n"/>
-      <c r="U20" s="76" t="n"/>
+      <c r="U20" s="96" t="n"/>
     </row>
     <row r="21" outlineLevel="1" ht="13" customHeight="1">
       <c r="A21" s="43">
@@ -1965,7 +1965,7 @@
       <c r="R21" s="13" t="n"/>
       <c r="S21" s="14" t="n"/>
       <c r="T21" s="14" t="n"/>
-      <c r="U21" s="76" t="n"/>
+      <c r="U21" s="96" t="n"/>
     </row>
     <row r="22" outlineLevel="1" ht="13" customHeight="1">
       <c r="A22" s="43">
@@ -2003,7 +2003,7 @@
       <c r="R22" s="13" t="n"/>
       <c r="S22" s="14" t="n"/>
       <c r="T22" s="14" t="n"/>
-      <c r="U22" s="76" t="n"/>
+      <c r="U22" s="96" t="n"/>
     </row>
     <row r="23" outlineLevel="1" ht="13" customHeight="1">
       <c r="A23" s="43">
@@ -2041,7 +2041,7 @@
       <c r="R23" s="13" t="n"/>
       <c r="S23" s="14" t="n"/>
       <c r="T23" s="14" t="n"/>
-      <c r="U23" s="76" t="n"/>
+      <c r="U23" s="96" t="n"/>
     </row>
     <row r="24" outlineLevel="1" ht="13" customHeight="1">
       <c r="A24" s="43">
@@ -2079,7 +2079,7 @@
       <c r="R24" s="13" t="n"/>
       <c r="S24" s="14" t="n"/>
       <c r="T24" s="14" t="n"/>
-      <c r="U24" s="76" t="n"/>
+      <c r="U24" s="96" t="n"/>
     </row>
     <row r="25" outlineLevel="1" ht="13" customHeight="1">
       <c r="A25" s="43">
@@ -2117,7 +2117,7 @@
       <c r="R25" s="13" t="n"/>
       <c r="S25" s="14" t="n"/>
       <c r="T25" s="14" t="n"/>
-      <c r="U25" s="76" t="n"/>
+      <c r="U25" s="96" t="n"/>
     </row>
     <row r="26" outlineLevel="1" ht="13" customHeight="1">
       <c r="A26" s="43">
@@ -2155,7 +2155,7 @@
       <c r="R26" s="13" t="n"/>
       <c r="S26" s="14" t="n"/>
       <c r="T26" s="14" t="n"/>
-      <c r="U26" s="76" t="n"/>
+      <c r="U26" s="96" t="n"/>
     </row>
     <row r="27" outlineLevel="1" ht="13" customHeight="1">
       <c r="A27" s="43">
@@ -2193,7 +2193,7 @@
       <c r="R27" s="13" t="n"/>
       <c r="S27" s="14" t="n"/>
       <c r="T27" s="14" t="n"/>
-      <c r="U27" s="76" t="n"/>
+      <c r="U27" s="96" t="n"/>
     </row>
     <row r="28" outlineLevel="1" ht="13" customHeight="1">
       <c r="A28" s="43">
@@ -2231,7 +2231,7 @@
       <c r="R28" s="13" t="n"/>
       <c r="S28" s="14" t="n"/>
       <c r="T28" s="14" t="n"/>
-      <c r="U28" s="76" t="n"/>
+      <c r="U28" s="96" t="n"/>
     </row>
     <row r="29" outlineLevel="1" ht="13" customHeight="1">
       <c r="A29" s="43">
@@ -2269,7 +2269,7 @@
       <c r="R29" s="13" t="n"/>
       <c r="S29" s="14" t="n"/>
       <c r="T29" s="14" t="n"/>
-      <c r="U29" s="76" t="n"/>
+      <c r="U29" s="96" t="n"/>
     </row>
     <row r="30" outlineLevel="1" ht="13" customHeight="1">
       <c r="A30" s="43">
@@ -2307,7 +2307,7 @@
       <c r="R30" s="13" t="n"/>
       <c r="S30" s="14" t="n"/>
       <c r="T30" s="14" t="n"/>
-      <c r="U30" s="76" t="n"/>
+      <c r="U30" s="96" t="n"/>
     </row>
     <row r="31" outlineLevel="1" ht="13" customHeight="1">
       <c r="A31" s="43">
@@ -2345,7 +2345,7 @@
       <c r="R31" s="13" t="n"/>
       <c r="S31" s="14" t="n"/>
       <c r="T31" s="14" t="n"/>
-      <c r="U31" s="76" t="n"/>
+      <c r="U31" s="96" t="n"/>
     </row>
     <row r="32" outlineLevel="1" ht="13" customHeight="1">
       <c r="A32" s="43">
@@ -2383,7 +2383,7 @@
       <c r="R32" s="13" t="n"/>
       <c r="S32" s="14" t="n"/>
       <c r="T32" s="14" t="n"/>
-      <c r="U32" s="76" t="n"/>
+      <c r="U32" s="96" t="n"/>
     </row>
     <row r="33" outlineLevel="1" ht="13" customHeight="1">
       <c r="A33" s="43">
@@ -2421,7 +2421,7 @@
       <c r="R33" s="13" t="n"/>
       <c r="S33" s="14" t="n"/>
       <c r="T33" s="14" t="n"/>
-      <c r="U33" s="76" t="n"/>
+      <c r="U33" s="96" t="n"/>
     </row>
     <row r="34" outlineLevel="1" ht="13" customHeight="1">
       <c r="A34" s="43">
@@ -2459,7 +2459,7 @@
       <c r="R34" s="13" t="n"/>
       <c r="S34" s="14" t="n"/>
       <c r="T34" s="14" t="n"/>
-      <c r="U34" s="76" t="n"/>
+      <c r="U34" s="96" t="n"/>
     </row>
     <row r="35" outlineLevel="1" ht="13" customHeight="1">
       <c r="A35" s="43">
@@ -2497,7 +2497,7 @@
       <c r="R35" s="13" t="n"/>
       <c r="S35" s="14" t="n"/>
       <c r="T35" s="14" t="n"/>
-      <c r="U35" s="76" t="n"/>
+      <c r="U35" s="96" t="n"/>
     </row>
     <row r="36" outlineLevel="1" ht="13" customHeight="1">
       <c r="A36" s="43">
@@ -2535,7 +2535,7 @@
       <c r="R36" s="13" t="n"/>
       <c r="S36" s="14" t="n"/>
       <c r="T36" s="14" t="n"/>
-      <c r="U36" s="76" t="n"/>
+      <c r="U36" s="96" t="n"/>
     </row>
     <row r="37" outlineLevel="1" ht="13" customHeight="1">
       <c r="A37" s="43">
@@ -2573,7 +2573,7 @@
       <c r="R37" s="13" t="n"/>
       <c r="S37" s="14" t="n"/>
       <c r="T37" s="14" t="n"/>
-      <c r="U37" s="76" t="n"/>
+      <c r="U37" s="96" t="n"/>
     </row>
     <row r="38" outlineLevel="1" ht="13" customHeight="1">
       <c r="A38" s="43">
@@ -2611,7 +2611,7 @@
       <c r="R38" s="13" t="n"/>
       <c r="S38" s="14" t="n"/>
       <c r="T38" s="14" t="n"/>
-      <c r="U38" s="76" t="n"/>
+      <c r="U38" s="96" t="n"/>
     </row>
     <row r="39" outlineLevel="1" ht="13" customHeight="1">
       <c r="A39" s="43">
@@ -2649,7 +2649,7 @@
       <c r="R39" s="13" t="n"/>
       <c r="S39" s="14" t="n"/>
       <c r="T39" s="14" t="n"/>
-      <c r="U39" s="76" t="n"/>
+      <c r="U39" s="96" t="n"/>
     </row>
     <row r="40" collapsed="1" ht="13" customHeight="1">
       <c r="A40" s="43">
@@ -2687,7 +2687,7 @@
       <c r="R40" s="13" t="n"/>
       <c r="S40" s="14" t="n"/>
       <c r="T40" s="14" t="n"/>
-      <c r="U40" s="76" t="n"/>
+      <c r="U40" s="96" t="n"/>
     </row>
     <row r="41" outlineLevel="1" ht="13" customHeight="1">
       <c r="A41" s="43">
@@ -2725,7 +2725,7 @@
       <c r="R41" s="13" t="n"/>
       <c r="S41" s="14" t="n"/>
       <c r="T41" s="14" t="n"/>
-      <c r="U41" s="76" t="n"/>
+      <c r="U41" s="96" t="n"/>
     </row>
     <row r="42" outlineLevel="1" collapsed="1" ht="13" customHeight="1">
       <c r="A42" s="43">
@@ -2763,7 +2763,7 @@
       <c r="R42" s="13" t="n"/>
       <c r="S42" s="14" t="n"/>
       <c r="T42" s="14" t="n"/>
-      <c r="U42" s="76" t="n"/>
+      <c r="U42" s="96" t="n"/>
     </row>
     <row r="43" outlineLevel="1" ht="13" customHeight="1">
       <c r="A43" s="43">
@@ -2801,7 +2801,7 @@
       <c r="R43" s="13" t="n"/>
       <c r="S43" s="14" t="n"/>
       <c r="T43" s="14" t="n"/>
-      <c r="U43" s="76" t="n"/>
+      <c r="U43" s="96" t="n"/>
     </row>
     <row r="44" outlineLevel="1" ht="13" customHeight="1">
       <c r="A44" s="43">
@@ -2839,7 +2839,7 @@
       <c r="R44" s="13" t="n"/>
       <c r="S44" s="14" t="n"/>
       <c r="T44" s="14" t="n"/>
-      <c r="U44" s="76" t="n"/>
+      <c r="U44" s="96" t="n"/>
     </row>
     <row r="45" outlineLevel="1" ht="13" customHeight="1">
       <c r="A45" s="43">
@@ -2877,7 +2877,7 @@
       <c r="R45" s="13" t="n"/>
       <c r="S45" s="14" t="n"/>
       <c r="T45" s="14" t="n"/>
-      <c r="U45" s="76" t="n"/>
+      <c r="U45" s="96" t="n"/>
     </row>
     <row r="46" outlineLevel="1" ht="13" customHeight="1">
       <c r="A46" s="43">
@@ -2915,7 +2915,7 @@
       <c r="R46" s="13" t="n"/>
       <c r="S46" s="14" t="n"/>
       <c r="T46" s="14" t="n"/>
-      <c r="U46" s="76" t="n"/>
+      <c r="U46" s="96" t="n"/>
     </row>
     <row r="47" outlineLevel="1" ht="13" customHeight="1">
       <c r="A47" s="43">
@@ -2953,7 +2953,7 @@
       <c r="R47" s="13" t="n"/>
       <c r="S47" s="14" t="n"/>
       <c r="T47" s="14" t="n"/>
-      <c r="U47" s="76" t="n"/>
+      <c r="U47" s="96" t="n"/>
     </row>
     <row r="48" outlineLevel="1" ht="13" customHeight="1">
       <c r="A48" s="43">
@@ -2991,7 +2991,7 @@
       <c r="R48" s="13" t="n"/>
       <c r="S48" s="14" t="n"/>
       <c r="T48" s="14" t="n"/>
-      <c r="U48" s="76" t="n"/>
+      <c r="U48" s="96" t="n"/>
     </row>
     <row r="49" outlineLevel="1" ht="13" customHeight="1">
       <c r="A49" s="43">
@@ -3029,7 +3029,7 @@
       <c r="R49" s="13" t="n"/>
       <c r="S49" s="14" t="n"/>
       <c r="T49" s="14" t="n"/>
-      <c r="U49" s="76" t="n"/>
+      <c r="U49" s="96" t="n"/>
     </row>
     <row r="50" outlineLevel="1" ht="13" customHeight="1">
       <c r="A50" s="43">
@@ -3067,7 +3067,7 @@
       <c r="R50" s="13" t="n"/>
       <c r="S50" s="14" t="n"/>
       <c r="T50" s="14" t="n"/>
-      <c r="U50" s="76" t="n"/>
+      <c r="U50" s="96" t="n"/>
     </row>
     <row r="51" outlineLevel="1" ht="13" customHeight="1">
       <c r="A51" s="43">
@@ -3105,7 +3105,7 @@
       <c r="R51" s="13" t="n"/>
       <c r="S51" s="14" t="n"/>
       <c r="T51" s="14" t="n"/>
-      <c r="U51" s="76" t="n"/>
+      <c r="U51" s="96" t="n"/>
     </row>
     <row r="52" outlineLevel="1" ht="13" customHeight="1">
       <c r="A52" s="43">
@@ -3143,7 +3143,7 @@
       <c r="R52" s="13" t="n"/>
       <c r="S52" s="14" t="n"/>
       <c r="T52" s="14" t="n"/>
-      <c r="U52" s="76" t="n"/>
+      <c r="U52" s="96" t="n"/>
     </row>
     <row r="53" outlineLevel="1" ht="13" customHeight="1">
       <c r="A53" s="43">
@@ -3181,7 +3181,7 @@
       <c r="R53" s="13" t="n"/>
       <c r="S53" s="14" t="n"/>
       <c r="T53" s="14" t="n"/>
-      <c r="U53" s="76" t="n"/>
+      <c r="U53" s="96" t="n"/>
     </row>
     <row r="54" outlineLevel="1" ht="13" customHeight="1">
       <c r="A54" s="43">
@@ -3219,7 +3219,7 @@
       <c r="R54" s="13" t="n"/>
       <c r="S54" s="14" t="n"/>
       <c r="T54" s="14" t="n"/>
-      <c r="U54" s="76" t="n"/>
+      <c r="U54" s="96" t="n"/>
     </row>
     <row r="55" outlineLevel="1" ht="13" customHeight="1">
       <c r="A55" s="43">
@@ -3257,7 +3257,7 @@
       <c r="R55" s="13" t="n"/>
       <c r="S55" s="14" t="n"/>
       <c r="T55" s="14" t="n"/>
-      <c r="U55" s="76" t="n"/>
+      <c r="U55" s="96" t="n"/>
     </row>
     <row r="56" outlineLevel="1" ht="13" customHeight="1">
       <c r="A56" s="43">
@@ -3295,7 +3295,7 @@
       <c r="R56" s="13" t="n"/>
       <c r="S56" s="14" t="n"/>
       <c r="T56" s="14" t="n"/>
-      <c r="U56" s="76" t="n"/>
+      <c r="U56" s="96" t="n"/>
     </row>
     <row r="57" outlineLevel="1" ht="13" customHeight="1">
       <c r="A57" s="43">
@@ -3333,7 +3333,7 @@
       <c r="R57" s="13" t="n"/>
       <c r="S57" s="14" t="n"/>
       <c r="T57" s="14" t="n"/>
-      <c r="U57" s="76" t="n"/>
+      <c r="U57" s="96" t="n"/>
     </row>
     <row r="58" outlineLevel="1" ht="13" customHeight="1">
       <c r="A58" s="43">
@@ -3371,7 +3371,7 @@
       <c r="R58" s="13" t="n"/>
       <c r="S58" s="14" t="n"/>
       <c r="T58" s="14" t="n"/>
-      <c r="U58" s="76" t="n"/>
+      <c r="U58" s="96" t="n"/>
     </row>
     <row r="59" outlineLevel="1" ht="13" customHeight="1">
       <c r="A59" s="43">
@@ -3409,7 +3409,7 @@
       <c r="R59" s="13" t="n"/>
       <c r="S59" s="14" t="n"/>
       <c r="T59" s="14" t="n"/>
-      <c r="U59" s="76" t="n"/>
+      <c r="U59" s="96" t="n"/>
     </row>
     <row r="60" outlineLevel="1" ht="89.25" customHeight="1">
       <c r="A60" s="43">
@@ -3447,7 +3447,7 @@
       <c r="R60" s="13" t="n"/>
       <c r="S60" s="14" t="n"/>
       <c r="T60" s="14" t="n"/>
-      <c r="U60" s="76" t="n"/>
+      <c r="U60" s="96" t="n"/>
     </row>
     <row r="61" outlineLevel="1" ht="87.75" customHeight="1">
       <c r="A61" s="43">
@@ -3485,7 +3485,7 @@
       <c r="R61" s="13" t="n"/>
       <c r="S61" s="14" t="n"/>
       <c r="T61" s="14" t="n"/>
-      <c r="U61" s="76" t="n"/>
+      <c r="U61" s="96" t="n"/>
     </row>
     <row r="62" outlineLevel="1" ht="13" customHeight="1">
       <c r="A62" s="43">
@@ -3523,7 +3523,7 @@
       <c r="R62" s="13" t="n"/>
       <c r="S62" s="14" t="n"/>
       <c r="T62" s="14" t="n"/>
-      <c r="U62" s="76" t="n"/>
+      <c r="U62" s="96" t="n"/>
     </row>
     <row r="63" outlineLevel="1" ht="13" customHeight="1">
       <c r="A63" s="43">
@@ -3561,7 +3561,7 @@
       <c r="R63" s="13" t="n"/>
       <c r="S63" s="14" t="n"/>
       <c r="T63" s="14" t="n"/>
-      <c r="U63" s="76" t="n"/>
+      <c r="U63" s="96" t="n"/>
     </row>
     <row r="64" outlineLevel="1" ht="13" customHeight="1">
       <c r="A64" s="43">
@@ -3599,7 +3599,7 @@
       <c r="R64" s="13" t="n"/>
       <c r="S64" s="14" t="n"/>
       <c r="T64" s="14" t="n"/>
-      <c r="U64" s="76" t="n"/>
+      <c r="U64" s="96" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1">
       <c r="A65" s="43">
@@ -3637,7 +3637,7 @@
       <c r="R65" s="13" t="n"/>
       <c r="S65" s="14" t="n"/>
       <c r="T65" s="14" t="n"/>
-      <c r="U65" s="76" t="n"/>
+      <c r="U65" s="96" t="n"/>
     </row>
     <row r="66" outlineLevel="1" ht="13" customHeight="1">
       <c r="A66" s="43">
@@ -3675,7 +3675,7 @@
       <c r="R66" s="13" t="n"/>
       <c r="S66" s="14" t="n"/>
       <c r="T66" s="14" t="n"/>
-      <c r="U66" s="76" t="n"/>
+      <c r="U66" s="96" t="n"/>
     </row>
     <row r="67" outlineLevel="1" ht="13" customHeight="1">
       <c r="A67" s="43">
@@ -3713,7 +3713,7 @@
       <c r="R67" s="13" t="n"/>
       <c r="S67" s="14" t="n"/>
       <c r="T67" s="14" t="n"/>
-      <c r="U67" s="76" t="n"/>
+      <c r="U67" s="96" t="n"/>
     </row>
     <row r="68" outlineLevel="1" ht="13" customHeight="1">
       <c r="A68" s="43">
@@ -3751,7 +3751,7 @@
       <c r="R68" s="13" t="n"/>
       <c r="S68" s="14" t="n"/>
       <c r="T68" s="14" t="n"/>
-      <c r="U68" s="76" t="n"/>
+      <c r="U68" s="96" t="n"/>
     </row>
     <row r="69" outlineLevel="1" ht="13" customHeight="1">
       <c r="A69" s="43">
@@ -3789,7 +3789,7 @@
       <c r="R69" s="13" t="n"/>
       <c r="S69" s="14" t="n"/>
       <c r="T69" s="14" t="n"/>
-      <c r="U69" s="76" t="n"/>
+      <c r="U69" s="96" t="n"/>
     </row>
     <row r="70" outlineLevel="1" ht="13" customHeight="1">
       <c r="A70" s="43">
@@ -3827,7 +3827,7 @@
       <c r="R70" s="13" t="n"/>
       <c r="S70" s="14" t="n"/>
       <c r="T70" s="14" t="n"/>
-      <c r="U70" s="76" t="n"/>
+      <c r="U70" s="96" t="n"/>
     </row>
     <row r="71" outlineLevel="1" ht="13" customHeight="1">
       <c r="A71" s="43">
@@ -3865,7 +3865,7 @@
       <c r="R71" s="13" t="n"/>
       <c r="S71" s="14" t="n"/>
       <c r="T71" s="14" t="n"/>
-      <c r="U71" s="76" t="n"/>
+      <c r="U71" s="96" t="n"/>
     </row>
     <row r="72" outlineLevel="1" ht="13" customHeight="1">
       <c r="A72" s="43">
@@ -3903,7 +3903,7 @@
       <c r="R72" s="13" t="n"/>
       <c r="S72" s="14" t="n"/>
       <c r="T72" s="14" t="n"/>
-      <c r="U72" s="76" t="n"/>
+      <c r="U72" s="96" t="n"/>
     </row>
     <row r="73" outlineLevel="1" ht="13" customHeight="1">
       <c r="A73" s="43">
@@ -3941,7 +3941,7 @@
       <c r="R73" s="13" t="n"/>
       <c r="S73" s="14" t="n"/>
       <c r="T73" s="14" t="n"/>
-      <c r="U73" s="76" t="n"/>
+      <c r="U73" s="96" t="n"/>
     </row>
     <row r="74" outlineLevel="1" ht="13" customHeight="1">
       <c r="A74" s="43">
@@ -3979,7 +3979,7 @@
       <c r="R74" s="13" t="n"/>
       <c r="S74" s="14" t="n"/>
       <c r="T74" s="14" t="n"/>
-      <c r="U74" s="76" t="n"/>
+      <c r="U74" s="96" t="n"/>
     </row>
     <row r="75" outlineLevel="1" ht="13" customHeight="1">
       <c r="A75" s="43">
@@ -4017,7 +4017,7 @@
       <c r="R75" s="13" t="n"/>
       <c r="S75" s="14" t="n"/>
       <c r="T75" s="14" t="n"/>
-      <c r="U75" s="76" t="n"/>
+      <c r="U75" s="96" t="n"/>
     </row>
     <row r="76" outlineLevel="1" ht="13" customHeight="1">
       <c r="A76" s="43">
@@ -4055,7 +4055,7 @@
       <c r="R76" s="13" t="n"/>
       <c r="S76" s="14" t="n"/>
       <c r="T76" s="14" t="n"/>
-      <c r="U76" s="76" t="n"/>
+      <c r="U76" s="96" t="n"/>
     </row>
     <row r="77" outlineLevel="1" ht="13" customHeight="1">
       <c r="A77" s="43">
@@ -4093,7 +4093,7 @@
       <c r="R77" s="13" t="n"/>
       <c r="S77" s="14" t="n"/>
       <c r="T77" s="14" t="n"/>
-      <c r="U77" s="76" t="n"/>
+      <c r="U77" s="96" t="n"/>
     </row>
     <row r="78" outlineLevel="1" ht="13" customHeight="1">
       <c r="A78" s="43">
@@ -4131,7 +4131,7 @@
       <c r="R78" s="13" t="n"/>
       <c r="S78" s="14" t="n"/>
       <c r="T78" s="14" t="n"/>
-      <c r="U78" s="76" t="n"/>
+      <c r="U78" s="96" t="n"/>
     </row>
     <row r="79" outlineLevel="1" ht="13" customHeight="1">
       <c r="A79" s="43">
@@ -4169,7 +4169,7 @@
       <c r="R79" s="13" t="n"/>
       <c r="S79" s="14" t="n"/>
       <c r="T79" s="14" t="n"/>
-      <c r="U79" s="76" t="n"/>
+      <c r="U79" s="96" t="n"/>
     </row>
     <row r="80" outlineLevel="1" ht="13" customHeight="1">
       <c r="A80" s="43">
@@ -4207,7 +4207,7 @@
       <c r="R80" s="13" t="n"/>
       <c r="S80" s="14" t="n"/>
       <c r="T80" s="14" t="n"/>
-      <c r="U80" s="76" t="n"/>
+      <c r="U80" s="96" t="n"/>
     </row>
     <row r="81" outlineLevel="1" ht="13" customHeight="1">
       <c r="A81" s="43">
@@ -4245,7 +4245,7 @@
       <c r="R81" s="13" t="n"/>
       <c r="S81" s="14" t="n"/>
       <c r="T81" s="14" t="n"/>
-      <c r="U81" s="76" t="n"/>
+      <c r="U81" s="96" t="n"/>
     </row>
     <row r="82" outlineLevel="1" ht="13" customHeight="1">
       <c r="A82" s="43">
@@ -4283,7 +4283,7 @@
       <c r="R82" s="13" t="n"/>
       <c r="S82" s="14" t="n"/>
       <c r="T82" s="14" t="n"/>
-      <c r="U82" s="76" t="n"/>
+      <c r="U82" s="96" t="n"/>
     </row>
     <row r="83" outlineLevel="1" ht="13" customHeight="1">
       <c r="A83" s="43">
@@ -4321,7 +4321,7 @@
       <c r="R83" s="13" t="n"/>
       <c r="S83" s="14" t="n"/>
       <c r="T83" s="14" t="n"/>
-      <c r="U83" s="76" t="n"/>
+      <c r="U83" s="96" t="n"/>
     </row>
     <row r="84" outlineLevel="1" ht="13" customHeight="1">
       <c r="A84" s="43">
@@ -4359,7 +4359,7 @@
       <c r="R84" s="13" t="n"/>
       <c r="S84" s="14" t="n"/>
       <c r="T84" s="14" t="n"/>
-      <c r="U84" s="76" t="n"/>
+      <c r="U84" s="96" t="n"/>
     </row>
     <row r="85" outlineLevel="1" ht="13" customHeight="1">
       <c r="A85" s="43">
@@ -4397,7 +4397,7 @@
       <c r="R85" s="13" t="n"/>
       <c r="S85" s="14" t="n"/>
       <c r="T85" s="14" t="n"/>
-      <c r="U85" s="76" t="n"/>
+      <c r="U85" s="96" t="n"/>
     </row>
     <row r="86" outlineLevel="1" ht="13" customHeight="1">
       <c r="A86" s="43">
@@ -4435,7 +4435,7 @@
       <c r="R86" s="13" t="n"/>
       <c r="S86" s="14" t="n"/>
       <c r="T86" s="14" t="n"/>
-      <c r="U86" s="76" t="n"/>
+      <c r="U86" s="96" t="n"/>
     </row>
     <row r="87" outlineLevel="1" ht="13" customHeight="1">
       <c r="A87" s="43">
@@ -4473,7 +4473,7 @@
       <c r="R87" s="13" t="n"/>
       <c r="S87" s="14" t="n"/>
       <c r="T87" s="14" t="n"/>
-      <c r="U87" s="76" t="n"/>
+      <c r="U87" s="96" t="n"/>
     </row>
     <row r="88" outlineLevel="1" ht="13" customHeight="1">
       <c r="A88" s="43">
@@ -4511,7 +4511,7 @@
       <c r="R88" s="13" t="n"/>
       <c r="S88" s="14" t="n"/>
       <c r="T88" s="14" t="n"/>
-      <c r="U88" s="76" t="n"/>
+      <c r="U88" s="96" t="n"/>
     </row>
     <row r="89" outlineLevel="1" ht="13" customHeight="1">
       <c r="A89" s="43">
@@ -4549,7 +4549,7 @@
       <c r="R89" s="13" t="n"/>
       <c r="S89" s="14" t="n"/>
       <c r="T89" s="14" t="n"/>
-      <c r="U89" s="76" t="n"/>
+      <c r="U89" s="96" t="n"/>
     </row>
     <row r="90" collapsed="1" ht="13" customHeight="1">
       <c r="A90" s="43">
@@ -4587,7 +4587,7 @@
       <c r="R90" s="13" t="n"/>
       <c r="S90" s="14" t="n"/>
       <c r="T90" s="14" t="n"/>
-      <c r="U90" s="76" t="n"/>
+      <c r="U90" s="96" t="n"/>
     </row>
     <row r="91" outlineLevel="1" ht="13" customHeight="1">
       <c r="A91" s="43">
@@ -4625,7 +4625,7 @@
       <c r="R91" s="13" t="n"/>
       <c r="S91" s="14" t="n"/>
       <c r="T91" s="14" t="n"/>
-      <c r="U91" s="76" t="n"/>
+      <c r="U91" s="96" t="n"/>
     </row>
     <row r="92" outlineLevel="1" ht="13" customHeight="1">
       <c r="A92" s="43">
@@ -4663,7 +4663,7 @@
       <c r="R92" s="13" t="n"/>
       <c r="S92" s="14" t="n"/>
       <c r="T92" s="14" t="n"/>
-      <c r="U92" s="76" t="n"/>
+      <c r="U92" s="96" t="n"/>
     </row>
     <row r="93" outlineLevel="1" ht="13" customHeight="1">
       <c r="A93" s="43">
@@ -4701,7 +4701,7 @@
       <c r="R93" s="13" t="n"/>
       <c r="S93" s="14" t="n"/>
       <c r="T93" s="14" t="n"/>
-      <c r="U93" s="76" t="n"/>
+      <c r="U93" s="96" t="n"/>
     </row>
     <row r="94" outlineLevel="1" ht="13" customHeight="1">
       <c r="A94" s="43">
@@ -4739,7 +4739,7 @@
       <c r="R94" s="13" t="n"/>
       <c r="S94" s="14" t="n"/>
       <c r="T94" s="14" t="n"/>
-      <c r="U94" s="76" t="n"/>
+      <c r="U94" s="96" t="n"/>
     </row>
     <row r="95" outlineLevel="1" ht="13" customHeight="1">
       <c r="A95" s="43">
@@ -4777,7 +4777,7 @@
       <c r="R95" s="13" t="n"/>
       <c r="S95" s="14" t="n"/>
       <c r="T95" s="14" t="n"/>
-      <c r="U95" s="76" t="n"/>
+      <c r="U95" s="96" t="n"/>
     </row>
     <row r="96" outlineLevel="1" ht="13" customHeight="1">
       <c r="A96" s="43">
@@ -4815,7 +4815,7 @@
       <c r="R96" s="13" t="n"/>
       <c r="S96" s="14" t="n"/>
       <c r="T96" s="14" t="n"/>
-      <c r="U96" s="76" t="n"/>
+      <c r="U96" s="96" t="n"/>
     </row>
     <row r="97" outlineLevel="1" ht="13" customHeight="1">
       <c r="A97" s="43">
@@ -4853,7 +4853,7 @@
       <c r="R97" s="13" t="n"/>
       <c r="S97" s="14" t="n"/>
       <c r="T97" s="14" t="n"/>
-      <c r="U97" s="76" t="n"/>
+      <c r="U97" s="96" t="n"/>
     </row>
     <row r="98" outlineLevel="1" ht="13" customHeight="1">
       <c r="A98" s="43">
@@ -4891,7 +4891,7 @@
       <c r="R98" s="13" t="n"/>
       <c r="S98" s="14" t="n"/>
       <c r="T98" s="14" t="n"/>
-      <c r="U98" s="76" t="n"/>
+      <c r="U98" s="96" t="n"/>
     </row>
     <row r="99" outlineLevel="1" ht="13" customHeight="1">
       <c r="A99" s="43">
@@ -4929,7 +4929,7 @@
       <c r="R99" s="13" t="n"/>
       <c r="S99" s="14" t="n"/>
       <c r="T99" s="14" t="n"/>
-      <c r="U99" s="76" t="n"/>
+      <c r="U99" s="96" t="n"/>
     </row>
     <row r="100" outlineLevel="1" ht="13" customHeight="1">
       <c r="A100" s="43">
@@ -4967,7 +4967,7 @@
       <c r="R100" s="13" t="n"/>
       <c r="S100" s="14" t="n"/>
       <c r="T100" s="14" t="n"/>
-      <c r="U100" s="76" t="n"/>
+      <c r="U100" s="96" t="n"/>
     </row>
     <row r="101" outlineLevel="1" ht="13" customHeight="1">
       <c r="A101" s="43">
@@ -5005,7 +5005,7 @@
       <c r="R101" s="13" t="n"/>
       <c r="S101" s="14" t="n"/>
       <c r="T101" s="14" t="n"/>
-      <c r="U101" s="76" t="n"/>
+      <c r="U101" s="96" t="n"/>
     </row>
     <row r="102" outlineLevel="1" ht="13" customHeight="1">
       <c r="A102" s="43">
@@ -5043,7 +5043,7 @@
       <c r="R102" s="13" t="n"/>
       <c r="S102" s="14" t="n"/>
       <c r="T102" s="14" t="n"/>
-      <c r="U102" s="76" t="n"/>
+      <c r="U102" s="96" t="n"/>
     </row>
     <row r="103" outlineLevel="1" ht="13" customHeight="1">
       <c r="A103" s="43">
@@ -5081,7 +5081,7 @@
       <c r="R103" s="13" t="n"/>
       <c r="S103" s="14" t="n"/>
       <c r="T103" s="14" t="n"/>
-      <c r="U103" s="76" t="n"/>
+      <c r="U103" s="96" t="n"/>
     </row>
     <row r="104" outlineLevel="1" ht="13" customHeight="1">
       <c r="A104" s="43">
@@ -5119,7 +5119,7 @@
       <c r="R104" s="13" t="n"/>
       <c r="S104" s="14" t="n"/>
       <c r="T104" s="14" t="n"/>
-      <c r="U104" s="76" t="n"/>
+      <c r="U104" s="96" t="n"/>
     </row>
     <row r="105" outlineLevel="1" ht="13" customHeight="1">
       <c r="A105" s="43">
@@ -5157,7 +5157,7 @@
       <c r="R105" s="13" t="n"/>
       <c r="S105" s="14" t="n"/>
       <c r="T105" s="14" t="n"/>
-      <c r="U105" s="76" t="n"/>
+      <c r="U105" s="96" t="n"/>
     </row>
     <row r="106" outlineLevel="1" ht="13" customHeight="1">
       <c r="A106" s="43">
@@ -5195,7 +5195,7 @@
       <c r="R106" s="13" t="n"/>
       <c r="S106" s="14" t="n"/>
       <c r="T106" s="14" t="n"/>
-      <c r="U106" s="76" t="n"/>
+      <c r="U106" s="96" t="n"/>
     </row>
     <row r="107" outlineLevel="1" ht="13" customHeight="1">
       <c r="A107" s="43">
@@ -5233,7 +5233,7 @@
       <c r="R107" s="13" t="n"/>
       <c r="S107" s="14" t="n"/>
       <c r="T107" s="14" t="n"/>
-      <c r="U107" s="76" t="n"/>
+      <c r="U107" s="96" t="n"/>
     </row>
     <row r="108" outlineLevel="1" ht="13" customHeight="1">
       <c r="A108" s="43">
@@ -5271,7 +5271,7 @@
       <c r="R108" s="13" t="n"/>
       <c r="S108" s="14" t="n"/>
       <c r="T108" s="14" t="n"/>
-      <c r="U108" s="76" t="n"/>
+      <c r="U108" s="96" t="n"/>
     </row>
     <row r="109" outlineLevel="1" ht="13" customHeight="1">
       <c r="A109" s="43">
@@ -5309,7 +5309,7 @@
       <c r="R109" s="13" t="n"/>
       <c r="S109" s="14" t="n"/>
       <c r="T109" s="14" t="n"/>
-      <c r="U109" s="76" t="n"/>
+      <c r="U109" s="96" t="n"/>
     </row>
     <row r="110" outlineLevel="1" ht="13" customHeight="1">
       <c r="A110" s="43">
@@ -5347,7 +5347,7 @@
       <c r="R110" s="13" t="n"/>
       <c r="S110" s="14" t="n"/>
       <c r="T110" s="14" t="n"/>
-      <c r="U110" s="76" t="n"/>
+      <c r="U110" s="96" t="n"/>
     </row>
     <row r="111" outlineLevel="1" ht="13" customHeight="1">
       <c r="A111" s="43">
@@ -5385,7 +5385,7 @@
       <c r="R111" s="13" t="n"/>
       <c r="S111" s="14" t="n"/>
       <c r="T111" s="14" t="n"/>
-      <c r="U111" s="76" t="n"/>
+      <c r="U111" s="96" t="n"/>
     </row>
     <row r="112" outlineLevel="1" ht="13" customHeight="1">
       <c r="A112" s="43">
@@ -5423,7 +5423,7 @@
       <c r="R112" s="13" t="n"/>
       <c r="S112" s="14" t="n"/>
       <c r="T112" s="14" t="n"/>
-      <c r="U112" s="76" t="n"/>
+      <c r="U112" s="96" t="n"/>
     </row>
     <row r="113" outlineLevel="1" ht="13" customHeight="1">
       <c r="A113" s="43">
@@ -5461,7 +5461,7 @@
       <c r="R113" s="13" t="n"/>
       <c r="S113" s="14" t="n"/>
       <c r="T113" s="14" t="n"/>
-      <c r="U113" s="76" t="n"/>
+      <c r="U113" s="96" t="n"/>
     </row>
     <row r="114" outlineLevel="1" ht="13" customHeight="1">
       <c r="A114" s="43">
@@ -5499,7 +5499,7 @@
       <c r="R114" s="13" t="n"/>
       <c r="S114" s="14" t="n"/>
       <c r="T114" s="14" t="n"/>
-      <c r="U114" s="76" t="n"/>
+      <c r="U114" s="96" t="n"/>
     </row>
     <row r="115" collapsed="1" ht="13" customHeight="1">
       <c r="A115" s="43">
@@ -5537,7 +5537,7 @@
       <c r="R115" s="13" t="n"/>
       <c r="S115" s="14" t="n"/>
       <c r="T115" s="14" t="n"/>
-      <c r="U115" s="76" t="n"/>
+      <c r="U115" s="96" t="n"/>
     </row>
     <row r="116" outlineLevel="1" ht="13" customHeight="1">
       <c r="A116" s="43">
@@ -5575,7 +5575,7 @@
       <c r="R116" s="13" t="n"/>
       <c r="S116" s="14" t="n"/>
       <c r="T116" s="14" t="n"/>
-      <c r="U116" s="76" t="n"/>
+      <c r="U116" s="96" t="n"/>
     </row>
     <row r="117" outlineLevel="1" ht="13" customHeight="1">
       <c r="A117" s="43">
@@ -5613,7 +5613,7 @@
       <c r="R117" s="13" t="n"/>
       <c r="S117" s="14" t="n"/>
       <c r="T117" s="14" t="n"/>
-      <c r="U117" s="76" t="n"/>
+      <c r="U117" s="96" t="n"/>
     </row>
     <row r="118" outlineLevel="1" ht="13" customHeight="1">
       <c r="A118" s="43">
@@ -5651,7 +5651,7 @@
       <c r="R118" s="13" t="n"/>
       <c r="S118" s="14" t="n"/>
       <c r="T118" s="14" t="n"/>
-      <c r="U118" s="76" t="n"/>
+      <c r="U118" s="96" t="n"/>
     </row>
     <row r="119" outlineLevel="1" ht="13" customHeight="1">
       <c r="A119" s="43">
@@ -5689,7 +5689,7 @@
       <c r="R119" s="13" t="n"/>
       <c r="S119" s="14" t="n"/>
       <c r="T119" s="14" t="n"/>
-      <c r="U119" s="76" t="n"/>
+      <c r="U119" s="96" t="n"/>
     </row>
     <row r="120" outlineLevel="1" ht="13" customHeight="1">
       <c r="A120" s="43">
@@ -5727,7 +5727,7 @@
       <c r="R120" s="13" t="n"/>
       <c r="S120" s="14" t="n"/>
       <c r="T120" s="14" t="n"/>
-      <c r="U120" s="76" t="n"/>
+      <c r="U120" s="96" t="n"/>
     </row>
     <row r="121" outlineLevel="1" ht="13" customHeight="1">
       <c r="A121" s="43">
@@ -5765,7 +5765,7 @@
       <c r="R121" s="13" t="n"/>
       <c r="S121" s="14" t="n"/>
       <c r="T121" s="14" t="n"/>
-      <c r="U121" s="76" t="n"/>
+      <c r="U121" s="96" t="n"/>
     </row>
     <row r="122" outlineLevel="1" ht="13" customHeight="1">
       <c r="A122" s="43">
@@ -5803,7 +5803,7 @@
       <c r="R122" s="13" t="n"/>
       <c r="S122" s="14" t="n"/>
       <c r="T122" s="14" t="n"/>
-      <c r="U122" s="76" t="n"/>
+      <c r="U122" s="96" t="n"/>
     </row>
     <row r="123" outlineLevel="1" ht="13" customHeight="1">
       <c r="A123" s="43">
@@ -5841,7 +5841,7 @@
       <c r="R123" s="13" t="n"/>
       <c r="S123" s="14" t="n"/>
       <c r="T123" s="14" t="n"/>
-      <c r="U123" s="76" t="n"/>
+      <c r="U123" s="96" t="n"/>
     </row>
     <row r="124" outlineLevel="1" ht="13" customHeight="1">
       <c r="A124" s="43">
@@ -5879,7 +5879,7 @@
       <c r="R124" s="13" t="n"/>
       <c r="S124" s="14" t="n"/>
       <c r="T124" s="14" t="n"/>
-      <c r="U124" s="76" t="n"/>
+      <c r="U124" s="96" t="n"/>
     </row>
     <row r="125" outlineLevel="1" ht="13" customHeight="1">
       <c r="A125" s="43">
@@ -5917,7 +5917,7 @@
       <c r="R125" s="13" t="n"/>
       <c r="S125" s="14" t="n"/>
       <c r="T125" s="14" t="n"/>
-      <c r="U125" s="76" t="n"/>
+      <c r="U125" s="96" t="n"/>
     </row>
     <row r="126" outlineLevel="1" ht="13" customHeight="1">
       <c r="A126" s="43">
@@ -5955,7 +5955,7 @@
       <c r="R126" s="13" t="n"/>
       <c r="S126" s="14" t="n"/>
       <c r="T126" s="14" t="n"/>
-      <c r="U126" s="76" t="n"/>
+      <c r="U126" s="96" t="n"/>
     </row>
     <row r="127" outlineLevel="1" ht="13" customHeight="1">
       <c r="A127" s="43">
@@ -5993,7 +5993,7 @@
       <c r="R127" s="13" t="n"/>
       <c r="S127" s="14" t="n"/>
       <c r="T127" s="14" t="n"/>
-      <c r="U127" s="76" t="n"/>
+      <c r="U127" s="96" t="n"/>
     </row>
     <row r="128" outlineLevel="1" ht="13" customHeight="1">
       <c r="A128" s="43">
@@ -6031,7 +6031,7 @@
       <c r="R128" s="13" t="n"/>
       <c r="S128" s="14" t="n"/>
       <c r="T128" s="14" t="n"/>
-      <c r="U128" s="76" t="n"/>
+      <c r="U128" s="96" t="n"/>
     </row>
     <row r="129" outlineLevel="1" ht="13" customHeight="1">
       <c r="A129" s="43">
@@ -6069,7 +6069,7 @@
       <c r="R129" s="13" t="n"/>
       <c r="S129" s="14" t="n"/>
       <c r="T129" s="14" t="n"/>
-      <c r="U129" s="76" t="n"/>
+      <c r="U129" s="96" t="n"/>
     </row>
     <row r="130" outlineLevel="1" ht="13" customHeight="1">
       <c r="A130" s="43">
@@ -6107,7 +6107,7 @@
       <c r="R130" s="13" t="n"/>
       <c r="S130" s="14" t="n"/>
       <c r="T130" s="14" t="n"/>
-      <c r="U130" s="76" t="n"/>
+      <c r="U130" s="96" t="n"/>
     </row>
     <row r="131" outlineLevel="1" ht="13" customHeight="1">
       <c r="A131" s="43">
@@ -6145,7 +6145,7 @@
       <c r="R131" s="13" t="n"/>
       <c r="S131" s="14" t="n"/>
       <c r="T131" s="14" t="n"/>
-      <c r="U131" s="76" t="n"/>
+      <c r="U131" s="96" t="n"/>
     </row>
     <row r="132" outlineLevel="1" ht="13" customHeight="1">
       <c r="A132" s="43">
@@ -6183,7 +6183,7 @@
       <c r="R132" s="13" t="n"/>
       <c r="S132" s="14" t="n"/>
       <c r="T132" s="14" t="n"/>
-      <c r="U132" s="76" t="n"/>
+      <c r="U132" s="96" t="n"/>
     </row>
     <row r="133" outlineLevel="1" ht="13" customHeight="1">
       <c r="A133" s="43">
@@ -6221,7 +6221,7 @@
       <c r="R133" s="13" t="n"/>
       <c r="S133" s="14" t="n"/>
       <c r="T133" s="14" t="n"/>
-      <c r="U133" s="76" t="n"/>
+      <c r="U133" s="96" t="n"/>
     </row>
     <row r="134" outlineLevel="1" ht="13" customHeight="1">
       <c r="A134" s="43">
@@ -6259,7 +6259,7 @@
       <c r="R134" s="13" t="n"/>
       <c r="S134" s="14" t="n"/>
       <c r="T134" s="14" t="n"/>
-      <c r="U134" s="76" t="n"/>
+      <c r="U134" s="96" t="n"/>
     </row>
     <row r="135" outlineLevel="1" ht="13" customHeight="1">
       <c r="A135" s="43">
@@ -6297,7 +6297,7 @@
       <c r="R135" s="13" t="n"/>
       <c r="S135" s="14" t="n"/>
       <c r="T135" s="14" t="n"/>
-      <c r="U135" s="76" t="n"/>
+      <c r="U135" s="96" t="n"/>
     </row>
     <row r="136" outlineLevel="1" ht="13" customHeight="1">
       <c r="A136" s="43">
@@ -6335,7 +6335,7 @@
       <c r="R136" s="13" t="n"/>
       <c r="S136" s="14" t="n"/>
       <c r="T136" s="14" t="n"/>
-      <c r="U136" s="76" t="n"/>
+      <c r="U136" s="96" t="n"/>
     </row>
     <row r="137" outlineLevel="1" ht="13" customHeight="1">
       <c r="A137" s="43">
@@ -6373,7 +6373,7 @@
       <c r="R137" s="13" t="n"/>
       <c r="S137" s="14" t="n"/>
       <c r="T137" s="14" t="n"/>
-      <c r="U137" s="76" t="n"/>
+      <c r="U137" s="96" t="n"/>
     </row>
     <row r="138" outlineLevel="1" ht="13" customHeight="1">
       <c r="A138" s="43">
@@ -6411,7 +6411,7 @@
       <c r="R138" s="13" t="n"/>
       <c r="S138" s="14" t="n"/>
       <c r="T138" s="14" t="n"/>
-      <c r="U138" s="76" t="n"/>
+      <c r="U138" s="96" t="n"/>
     </row>
     <row r="139" outlineLevel="1" ht="13" customHeight="1">
       <c r="A139" s="43">
@@ -6449,7 +6449,7 @@
       <c r="R139" s="13" t="n"/>
       <c r="S139" s="14" t="n"/>
       <c r="T139" s="14" t="n"/>
-      <c r="U139" s="76" t="n"/>
+      <c r="U139" s="96" t="n"/>
     </row>
     <row r="140" ht="13" customHeight="1">
       <c r="A140" s="43">
@@ -6487,7 +6487,7 @@
       <c r="R140" s="13" t="n"/>
       <c r="S140" s="14" t="n"/>
       <c r="T140" s="14" t="n"/>
-      <c r="U140" s="76" t="n"/>
+      <c r="U140" s="96" t="n"/>
     </row>
     <row r="141" outlineLevel="1" ht="13" customHeight="1">
       <c r="A141" s="43">
@@ -6525,7 +6525,7 @@
       <c r="R141" s="13" t="n"/>
       <c r="S141" s="14" t="n"/>
       <c r="T141" s="14" t="n"/>
-      <c r="U141" s="76" t="n"/>
+      <c r="U141" s="96" t="n"/>
     </row>
     <row r="142" outlineLevel="1" ht="13" customHeight="1">
       <c r="A142" s="43">
@@ -6563,7 +6563,7 @@
       <c r="R142" s="13" t="n"/>
       <c r="S142" s="14" t="n"/>
       <c r="T142" s="14" t="n"/>
-      <c r="U142" s="76" t="n"/>
+      <c r="U142" s="96" t="n"/>
     </row>
     <row r="143" outlineLevel="1" ht="13" customHeight="1">
       <c r="A143" s="43">
@@ -6601,7 +6601,7 @@
       <c r="R143" s="13" t="n"/>
       <c r="S143" s="14" t="n"/>
       <c r="T143" s="14" t="n"/>
-      <c r="U143" s="76" t="n"/>
+      <c r="U143" s="96" t="n"/>
     </row>
     <row r="144" outlineLevel="1" ht="13" customHeight="1">
       <c r="A144" s="43">
@@ -6639,7 +6639,7 @@
       <c r="R144" s="13" t="n"/>
       <c r="S144" s="14" t="n"/>
       <c r="T144" s="14" t="n"/>
-      <c r="U144" s="76" t="n"/>
+      <c r="U144" s="96" t="n"/>
     </row>
     <row r="145" outlineLevel="1" ht="13" customHeight="1">
       <c r="A145" s="43">
@@ -6677,7 +6677,7 @@
       <c r="R145" s="13" t="n"/>
       <c r="S145" s="14" t="n"/>
       <c r="T145" s="14" t="n"/>
-      <c r="U145" s="76" t="n"/>
+      <c r="U145" s="96" t="n"/>
     </row>
     <row r="146" outlineLevel="1" ht="13" customHeight="1">
       <c r="A146" s="43">
@@ -6715,7 +6715,7 @@
       <c r="R146" s="13" t="n"/>
       <c r="S146" s="14" t="n"/>
       <c r="T146" s="14" t="n"/>
-      <c r="U146" s="76" t="n"/>
+      <c r="U146" s="96" t="n"/>
     </row>
     <row r="147" outlineLevel="1" ht="13" customHeight="1">
       <c r="A147" s="43">
@@ -6753,7 +6753,7 @@
       <c r="R147" s="13" t="n"/>
       <c r="S147" s="14" t="n"/>
       <c r="T147" s="14" t="n"/>
-      <c r="U147" s="76" t="n"/>
+      <c r="U147" s="96" t="n"/>
     </row>
     <row r="148" outlineLevel="1" ht="13" customHeight="1">
       <c r="A148" s="43">
@@ -6791,7 +6791,7 @@
       <c r="R148" s="13" t="n"/>
       <c r="S148" s="14" t="n"/>
       <c r="T148" s="14" t="n"/>
-      <c r="U148" s="76" t="n"/>
+      <c r="U148" s="96" t="n"/>
     </row>
     <row r="149" outlineLevel="1" ht="13" customHeight="1">
       <c r="A149" s="43">
@@ -6829,7 +6829,7 @@
       <c r="R149" s="13" t="n"/>
       <c r="S149" s="14" t="n"/>
       <c r="T149" s="14" t="n"/>
-      <c r="U149" s="76" t="n"/>
+      <c r="U149" s="96" t="n"/>
     </row>
     <row r="150" outlineLevel="1" ht="13" customHeight="1">
       <c r="A150" s="43">
@@ -6867,7 +6867,7 @@
       <c r="R150" s="13" t="n"/>
       <c r="S150" s="14" t="n"/>
       <c r="T150" s="14" t="n"/>
-      <c r="U150" s="76" t="n"/>
+      <c r="U150" s="96" t="n"/>
     </row>
     <row r="151" outlineLevel="1" ht="13" customHeight="1">
       <c r="A151" s="43">
@@ -6905,7 +6905,7 @@
       <c r="R151" s="13" t="n"/>
       <c r="S151" s="14" t="n"/>
       <c r="T151" s="14" t="n"/>
-      <c r="U151" s="76" t="n"/>
+      <c r="U151" s="96" t="n"/>
     </row>
     <row r="152" outlineLevel="1" ht="13" customHeight="1">
       <c r="A152" s="43">
@@ -6943,7 +6943,7 @@
       <c r="R152" s="13" t="n"/>
       <c r="S152" s="14" t="n"/>
       <c r="T152" s="14" t="n"/>
-      <c r="U152" s="76" t="n"/>
+      <c r="U152" s="96" t="n"/>
     </row>
     <row r="153" outlineLevel="1" ht="13" customHeight="1">
       <c r="A153" s="43">
@@ -6981,7 +6981,7 @@
       <c r="R153" s="13" t="n"/>
       <c r="S153" s="14" t="n"/>
       <c r="T153" s="14" t="n"/>
-      <c r="U153" s="76" t="n"/>
+      <c r="U153" s="96" t="n"/>
     </row>
     <row r="154" outlineLevel="1" ht="13" customHeight="1">
       <c r="A154" s="43">
@@ -7019,7 +7019,7 @@
       <c r="R154" s="13" t="n"/>
       <c r="S154" s="14" t="n"/>
       <c r="T154" s="14" t="n"/>
-      <c r="U154" s="76" t="n"/>
+      <c r="U154" s="96" t="n"/>
     </row>
     <row r="155" outlineLevel="1" ht="13" customHeight="1">
       <c r="A155" s="43">
@@ -7057,7 +7057,7 @@
       <c r="R155" s="13" t="n"/>
       <c r="S155" s="14" t="n"/>
       <c r="T155" s="14" t="n"/>
-      <c r="U155" s="76" t="n"/>
+      <c r="U155" s="96" t="n"/>
     </row>
     <row r="156" outlineLevel="1" ht="13" customHeight="1">
       <c r="A156" s="43">
@@ -7095,7 +7095,7 @@
       <c r="R156" s="13" t="n"/>
       <c r="S156" s="14" t="n"/>
       <c r="T156" s="14" t="n"/>
-      <c r="U156" s="76" t="n"/>
+      <c r="U156" s="96" t="n"/>
     </row>
     <row r="157" outlineLevel="1" ht="13" customHeight="1">
       <c r="A157" s="43">
@@ -7133,7 +7133,7 @@
       <c r="R157" s="13" t="n"/>
       <c r="S157" s="14" t="n"/>
       <c r="T157" s="14" t="n"/>
-      <c r="U157" s="76" t="n"/>
+      <c r="U157" s="96" t="n"/>
     </row>
     <row r="158" outlineLevel="1" ht="13" customHeight="1">
       <c r="A158" s="43">
@@ -7171,7 +7171,7 @@
       <c r="R158" s="13" t="n"/>
       <c r="S158" s="14" t="n"/>
       <c r="T158" s="14" t="n"/>
-      <c r="U158" s="76" t="n"/>
+      <c r="U158" s="96" t="n"/>
     </row>
     <row r="159" outlineLevel="1" ht="13" customHeight="1">
       <c r="A159" s="43">
@@ -7209,7 +7209,7 @@
       <c r="R159" s="13" t="n"/>
       <c r="S159" s="14" t="n"/>
       <c r="T159" s="14" t="n"/>
-      <c r="U159" s="76" t="n"/>
+      <c r="U159" s="96" t="n"/>
     </row>
     <row r="160" outlineLevel="1" ht="13" customHeight="1">
       <c r="A160" s="43">
@@ -7247,7 +7247,7 @@
       <c r="R160" s="13" t="n"/>
       <c r="S160" s="14" t="n"/>
       <c r="T160" s="14" t="n"/>
-      <c r="U160" s="76" t="n"/>
+      <c r="U160" s="96" t="n"/>
     </row>
     <row r="161" outlineLevel="1" ht="13" customHeight="1">
       <c r="A161" s="43">
@@ -7285,7 +7285,7 @@
       <c r="R161" s="13" t="n"/>
       <c r="S161" s="14" t="n"/>
       <c r="T161" s="14" t="n"/>
-      <c r="U161" s="76" t="n"/>
+      <c r="U161" s="96" t="n"/>
     </row>
     <row r="162" outlineLevel="1" ht="13" customHeight="1">
       <c r="A162" s="43">
@@ -7323,7 +7323,7 @@
       <c r="R162" s="13" t="n"/>
       <c r="S162" s="14" t="n"/>
       <c r="T162" s="14" t="n"/>
-      <c r="U162" s="76" t="n"/>
+      <c r="U162" s="96" t="n"/>
     </row>
     <row r="163" outlineLevel="1" ht="13" customHeight="1">
       <c r="A163" s="43">
@@ -7361,7 +7361,7 @@
       <c r="R163" s="13" t="n"/>
       <c r="S163" s="14" t="n"/>
       <c r="T163" s="14" t="n"/>
-      <c r="U163" s="76" t="n"/>
+      <c r="U163" s="96" t="n"/>
     </row>
     <row r="164" outlineLevel="1" ht="13" customHeight="1">
       <c r="A164" s="43">
@@ -7399,7 +7399,7 @@
       <c r="R164" s="13" t="n"/>
       <c r="S164" s="14" t="n"/>
       <c r="T164" s="14" t="n"/>
-      <c r="U164" s="76" t="n"/>
+      <c r="U164" s="96" t="n"/>
     </row>
     <row r="165" outlineLevel="1" ht="13" customHeight="1">
       <c r="A165" s="43">
@@ -7437,7 +7437,7 @@
       <c r="R165" s="13" t="n"/>
       <c r="S165" s="14" t="n"/>
       <c r="T165" s="14" t="n"/>
-      <c r="U165" s="76" t="n"/>
+      <c r="U165" s="96" t="n"/>
     </row>
     <row r="166" outlineLevel="1" ht="13" customHeight="1">
       <c r="A166" s="43">
@@ -7475,7 +7475,7 @@
       <c r="R166" s="13" t="n"/>
       <c r="S166" s="14" t="n"/>
       <c r="T166" s="14" t="n"/>
-      <c r="U166" s="76" t="n"/>
+      <c r="U166" s="96" t="n"/>
     </row>
     <row r="167" outlineLevel="1" ht="13" customHeight="1">
       <c r="A167" s="43">
@@ -7513,7 +7513,7 @@
       <c r="R167" s="13" t="n"/>
       <c r="S167" s="14" t="n"/>
       <c r="T167" s="14" t="n"/>
-      <c r="U167" s="76" t="n"/>
+      <c r="U167" s="96" t="n"/>
     </row>
     <row r="168" outlineLevel="1" ht="13" customHeight="1">
       <c r="A168" s="43">
@@ -7551,7 +7551,7 @@
       <c r="R168" s="13" t="n"/>
       <c r="S168" s="14" t="n"/>
       <c r="T168" s="14" t="n"/>
-      <c r="U168" s="76" t="n"/>
+      <c r="U168" s="96" t="n"/>
     </row>
     <row r="169" outlineLevel="1" ht="13" customHeight="1">
       <c r="A169" s="43">
@@ -7589,7 +7589,7 @@
       <c r="R169" s="13" t="n"/>
       <c r="S169" s="14" t="n"/>
       <c r="T169" s="14" t="n"/>
-      <c r="U169" s="76" t="n"/>
+      <c r="U169" s="96" t="n"/>
     </row>
     <row r="170" outlineLevel="1" ht="13" customHeight="1">
       <c r="A170" s="43">
@@ -7627,7 +7627,7 @@
       <c r="R170" s="13" t="n"/>
       <c r="S170" s="14" t="n"/>
       <c r="T170" s="14" t="n"/>
-      <c r="U170" s="76" t="n"/>
+      <c r="U170" s="96" t="n"/>
     </row>
     <row r="171" outlineLevel="1" ht="13" customHeight="1">
       <c r="A171" s="43">
@@ -7665,7 +7665,7 @@
       <c r="R171" s="13" t="n"/>
       <c r="S171" s="14" t="n"/>
       <c r="T171" s="14" t="n"/>
-      <c r="U171" s="76" t="n"/>
+      <c r="U171" s="96" t="n"/>
     </row>
     <row r="172" outlineLevel="1" ht="13" customHeight="1">
       <c r="A172" s="43">
@@ -7703,7 +7703,7 @@
       <c r="R172" s="13" t="n"/>
       <c r="S172" s="14" t="n"/>
       <c r="T172" s="14" t="n"/>
-      <c r="U172" s="76" t="n"/>
+      <c r="U172" s="96" t="n"/>
     </row>
     <row r="173" outlineLevel="1" ht="13" customHeight="1">
       <c r="A173" s="43">
@@ -7741,7 +7741,7 @@
       <c r="R173" s="13" t="n"/>
       <c r="S173" s="14" t="n"/>
       <c r="T173" s="14" t="n"/>
-      <c r="U173" s="76" t="n"/>
+      <c r="U173" s="96" t="n"/>
     </row>
     <row r="174" outlineLevel="1" ht="13" customHeight="1">
       <c r="A174" s="43">
@@ -7779,7 +7779,7 @@
       <c r="R174" s="13" t="n"/>
       <c r="S174" s="14" t="n"/>
       <c r="T174" s="14" t="n"/>
-      <c r="U174" s="76" t="n"/>
+      <c r="U174" s="96" t="n"/>
     </row>
     <row r="175" outlineLevel="1" ht="13" customHeight="1">
       <c r="A175" s="43">
@@ -7817,7 +7817,7 @@
       <c r="R175" s="13" t="n"/>
       <c r="S175" s="14" t="n"/>
       <c r="T175" s="14" t="n"/>
-      <c r="U175" s="76" t="n"/>
+      <c r="U175" s="96" t="n"/>
     </row>
     <row r="176" outlineLevel="1" ht="13" customHeight="1">
       <c r="A176" s="43">
@@ -7855,7 +7855,7 @@
       <c r="R176" s="13" t="n"/>
       <c r="S176" s="14" t="n"/>
       <c r="T176" s="14" t="n"/>
-      <c r="U176" s="76" t="n"/>
+      <c r="U176" s="96" t="n"/>
     </row>
     <row r="177" outlineLevel="1" ht="13" customHeight="1">
       <c r="A177" s="43">
@@ -7893,7 +7893,7 @@
       <c r="R177" s="13" t="n"/>
       <c r="S177" s="14" t="n"/>
       <c r="T177" s="14" t="n"/>
-      <c r="U177" s="76" t="n"/>
+      <c r="U177" s="96" t="n"/>
     </row>
     <row r="178" outlineLevel="1" ht="13" customHeight="1">
       <c r="A178" s="43">
@@ -7931,7 +7931,7 @@
       <c r="R178" s="13" t="n"/>
       <c r="S178" s="14" t="n"/>
       <c r="T178" s="14" t="n"/>
-      <c r="U178" s="76" t="n"/>
+      <c r="U178" s="96" t="n"/>
     </row>
     <row r="179" outlineLevel="1" ht="13" customHeight="1">
       <c r="A179" s="43">
@@ -7969,7 +7969,7 @@
       <c r="R179" s="13" t="n"/>
       <c r="S179" s="14" t="n"/>
       <c r="T179" s="14" t="n"/>
-      <c r="U179" s="76" t="n"/>
+      <c r="U179" s="96" t="n"/>
     </row>
     <row r="180" outlineLevel="1" ht="13" customHeight="1">
       <c r="A180" s="43">
@@ -8007,7 +8007,7 @@
       <c r="R180" s="13" t="n"/>
       <c r="S180" s="14" t="n"/>
       <c r="T180" s="14" t="n"/>
-      <c r="U180" s="76" t="n"/>
+      <c r="U180" s="96" t="n"/>
     </row>
     <row r="181" outlineLevel="1" ht="13" customHeight="1">
       <c r="A181" s="43">
@@ -8045,7 +8045,7 @@
       <c r="R181" s="13" t="n"/>
       <c r="S181" s="14" t="n"/>
       <c r="T181" s="14" t="n"/>
-      <c r="U181" s="76" t="n"/>
+      <c r="U181" s="96" t="n"/>
     </row>
     <row r="182" outlineLevel="1" ht="13" customHeight="1">
       <c r="A182" s="43">
@@ -8083,7 +8083,7 @@
       <c r="R182" s="13" t="n"/>
       <c r="S182" s="14" t="n"/>
       <c r="T182" s="14" t="n"/>
-      <c r="U182" s="76" t="n"/>
+      <c r="U182" s="96" t="n"/>
     </row>
     <row r="183" outlineLevel="1" ht="13" customHeight="1">
       <c r="A183" s="43">
@@ -8121,7 +8121,7 @@
       <c r="R183" s="13" t="n"/>
       <c r="S183" s="14" t="n"/>
       <c r="T183" s="14" t="n"/>
-      <c r="U183" s="76" t="n"/>
+      <c r="U183" s="96" t="n"/>
     </row>
     <row r="184" outlineLevel="1" ht="13" customHeight="1">
       <c r="A184" s="43">
@@ -8159,7 +8159,7 @@
       <c r="R184" s="13" t="n"/>
       <c r="S184" s="14" t="n"/>
       <c r="T184" s="14" t="n"/>
-      <c r="U184" s="76" t="n"/>
+      <c r="U184" s="96" t="n"/>
     </row>
     <row r="185" outlineLevel="1" ht="13" customHeight="1">
       <c r="A185" s="43">
@@ -8197,7 +8197,7 @@
       <c r="R185" s="13" t="n"/>
       <c r="S185" s="14" t="n"/>
       <c r="T185" s="14" t="n"/>
-      <c r="U185" s="76" t="n"/>
+      <c r="U185" s="96" t="n"/>
     </row>
     <row r="186" outlineLevel="1" ht="13" customHeight="1">
       <c r="A186" s="43">
@@ -8235,7 +8235,7 @@
       <c r="R186" s="13" t="n"/>
       <c r="S186" s="14" t="n"/>
       <c r="T186" s="14" t="n"/>
-      <c r="U186" s="76" t="n"/>
+      <c r="U186" s="96" t="n"/>
     </row>
     <row r="187" outlineLevel="1" ht="13" customHeight="1">
       <c r="A187" s="43">
@@ -8273,7 +8273,7 @@
       <c r="R187" s="13" t="n"/>
       <c r="S187" s="14" t="n"/>
       <c r="T187" s="14" t="n"/>
-      <c r="U187" s="76" t="n"/>
+      <c r="U187" s="96" t="n"/>
     </row>
     <row r="188" outlineLevel="1" ht="13" customHeight="1">
       <c r="A188" s="43">
@@ -8311,7 +8311,7 @@
       <c r="R188" s="13" t="n"/>
       <c r="S188" s="14" t="n"/>
       <c r="T188" s="14" t="n"/>
-      <c r="U188" s="76" t="n"/>
+      <c r="U188" s="96" t="n"/>
     </row>
     <row r="189" outlineLevel="1" ht="13" customHeight="1">
       <c r="A189" s="43">
@@ -8349,7 +8349,7 @@
       <c r="R189" s="13" t="n"/>
       <c r="S189" s="14" t="n"/>
       <c r="T189" s="14" t="n"/>
-      <c r="U189" s="76" t="n"/>
+      <c r="U189" s="96" t="n"/>
     </row>
     <row r="190" outlineLevel="1" ht="13" customHeight="1">
       <c r="A190" s="43">
@@ -8387,7 +8387,7 @@
       <c r="R190" s="13" t="n"/>
       <c r="S190" s="14" t="n"/>
       <c r="T190" s="14" t="n"/>
-      <c r="U190" s="76" t="n"/>
+      <c r="U190" s="96" t="n"/>
     </row>
     <row r="191" outlineLevel="1" ht="13" customHeight="1">
       <c r="A191" s="43">
@@ -8425,7 +8425,7 @@
       <c r="R191" s="13" t="n"/>
       <c r="S191" s="14" t="n"/>
       <c r="T191" s="14" t="n"/>
-      <c r="U191" s="76" t="n"/>
+      <c r="U191" s="96" t="n"/>
     </row>
     <row r="192" outlineLevel="1" ht="13" customHeight="1">
       <c r="A192" s="43">
@@ -8463,7 +8463,7 @@
       <c r="R192" s="13" t="n"/>
       <c r="S192" s="14" t="n"/>
       <c r="T192" s="14" t="n"/>
-      <c r="U192" s="76" t="n"/>
+      <c r="U192" s="96" t="n"/>
     </row>
     <row r="193" outlineLevel="1" ht="13" customHeight="1">
       <c r="A193" s="43">
@@ -8501,7 +8501,7 @@
       <c r="R193" s="13" t="n"/>
       <c r="S193" s="14" t="n"/>
       <c r="T193" s="14" t="n"/>
-      <c r="U193" s="76" t="n"/>
+      <c r="U193" s="96" t="n"/>
     </row>
     <row r="194" outlineLevel="1" ht="13" customHeight="1">
       <c r="A194" s="43">
@@ -8539,7 +8539,7 @@
       <c r="R194" s="13" t="n"/>
       <c r="S194" s="14" t="n"/>
       <c r="T194" s="14" t="n"/>
-      <c r="U194" s="76" t="n"/>
+      <c r="U194" s="96" t="n"/>
     </row>
     <row r="195" outlineLevel="1" ht="13" customHeight="1">
       <c r="A195" s="43">
@@ -8577,7 +8577,7 @@
       <c r="R195" s="13" t="n"/>
       <c r="S195" s="14" t="n"/>
       <c r="T195" s="14" t="n"/>
-      <c r="U195" s="76" t="n"/>
+      <c r="U195" s="96" t="n"/>
     </row>
     <row r="196" outlineLevel="1" ht="13" customHeight="1">
       <c r="A196" s="43">
@@ -8615,7 +8615,7 @@
       <c r="R196" s="13" t="n"/>
       <c r="S196" s="14" t="n"/>
       <c r="T196" s="14" t="n"/>
-      <c r="U196" s="76" t="n"/>
+      <c r="U196" s="96" t="n"/>
     </row>
     <row r="197" outlineLevel="1" ht="13" customHeight="1">
       <c r="A197" s="43">
@@ -8653,7 +8653,7 @@
       <c r="R197" s="13" t="n"/>
       <c r="S197" s="14" t="n"/>
       <c r="T197" s="14" t="n"/>
-      <c r="U197" s="76" t="n"/>
+      <c r="U197" s="96" t="n"/>
     </row>
     <row r="198" outlineLevel="1" ht="13" customHeight="1">
       <c r="A198" s="43">
@@ -8691,7 +8691,7 @@
       <c r="R198" s="13" t="n"/>
       <c r="S198" s="14" t="n"/>
       <c r="T198" s="14" t="n"/>
-      <c r="U198" s="76" t="n"/>
+      <c r="U198" s="96" t="n"/>
     </row>
     <row r="199" outlineLevel="1" ht="13" customHeight="1">
       <c r="A199" s="43">
@@ -8729,7 +8729,7 @@
       <c r="R199" s="13" t="n"/>
       <c r="S199" s="14" t="n"/>
       <c r="T199" s="14" t="n"/>
-      <c r="U199" s="76" t="n"/>
+      <c r="U199" s="96" t="n"/>
     </row>
     <row r="200" outlineLevel="1" ht="13" customHeight="1">
       <c r="A200" s="43">
@@ -8767,7 +8767,7 @@
       <c r="R200" s="13" t="n"/>
       <c r="S200" s="14" t="n"/>
       <c r="T200" s="14" t="n"/>
-      <c r="U200" s="76" t="n"/>
+      <c r="U200" s="96" t="n"/>
     </row>
     <row r="201" outlineLevel="1" ht="13" customHeight="1">
       <c r="A201" s="43">
@@ -8805,7 +8805,7 @@
       <c r="R201" s="13" t="n"/>
       <c r="S201" s="14" t="n"/>
       <c r="T201" s="14" t="n"/>
-      <c r="U201" s="76" t="n"/>
+      <c r="U201" s="96" t="n"/>
     </row>
     <row r="202" outlineLevel="1" ht="13" customHeight="1">
       <c r="A202" s="43">
@@ -8843,7 +8843,7 @@
       <c r="R202" s="13" t="n"/>
       <c r="S202" s="14" t="n"/>
       <c r="T202" s="14" t="n"/>
-      <c r="U202" s="76" t="n"/>
+      <c r="U202" s="96" t="n"/>
     </row>
     <row r="203" outlineLevel="1" ht="13" customHeight="1">
       <c r="A203" s="43">
@@ -8881,7 +8881,7 @@
       <c r="R203" s="13" t="n"/>
       <c r="S203" s="14" t="n"/>
       <c r="T203" s="14" t="n"/>
-      <c r="U203" s="76" t="n"/>
+      <c r="U203" s="96" t="n"/>
     </row>
     <row r="204" outlineLevel="1" ht="13" customHeight="1">
       <c r="A204" s="43">
@@ -8919,7 +8919,7 @@
       <c r="R204" s="13" t="n"/>
       <c r="S204" s="14" t="n"/>
       <c r="T204" s="14" t="n"/>
-      <c r="U204" s="76" t="n"/>
+      <c r="U204" s="96" t="n"/>
     </row>
     <row r="205" outlineLevel="1" ht="13" customHeight="1">
       <c r="A205" s="43">
@@ -8957,7 +8957,7 @@
       <c r="R205" s="13" t="n"/>
       <c r="S205" s="14" t="n"/>
       <c r="T205" s="14" t="n"/>
-      <c r="U205" s="76" t="n"/>
+      <c r="U205" s="96" t="n"/>
     </row>
     <row r="206" outlineLevel="1" ht="13" customHeight="1">
       <c r="A206" s="43">
@@ -8995,7 +8995,7 @@
       <c r="R206" s="13" t="n"/>
       <c r="S206" s="14" t="n"/>
       <c r="T206" s="14" t="n"/>
-      <c r="U206" s="76" t="n"/>
+      <c r="U206" s="96" t="n"/>
     </row>
     <row r="207" outlineLevel="1" ht="13" customHeight="1">
       <c r="A207" s="43">
@@ -9033,7 +9033,7 @@
       <c r="R207" s="13" t="n"/>
       <c r="S207" s="14" t="n"/>
       <c r="T207" s="14" t="n"/>
-      <c r="U207" s="76" t="n"/>
+      <c r="U207" s="96" t="n"/>
     </row>
     <row r="208" outlineLevel="1" ht="13" customHeight="1">
       <c r="A208" s="43">
@@ -9071,7 +9071,7 @@
       <c r="R208" s="13" t="n"/>
       <c r="S208" s="14" t="n"/>
       <c r="T208" s="14" t="n"/>
-      <c r="U208" s="76" t="n"/>
+      <c r="U208" s="96" t="n"/>
     </row>
     <row r="209" outlineLevel="1" ht="13" customHeight="1">
       <c r="A209" s="43">
@@ -9109,7 +9109,7 @@
       <c r="R209" s="13" t="n"/>
       <c r="S209" s="14" t="n"/>
       <c r="T209" s="14" t="n"/>
-      <c r="U209" s="76" t="n"/>
+      <c r="U209" s="96" t="n"/>
     </row>
     <row r="210" outlineLevel="1" ht="13" customHeight="1">
       <c r="A210" s="43">
@@ -9147,7 +9147,7 @@
       <c r="R210" s="13" t="n"/>
       <c r="S210" s="14" t="n"/>
       <c r="T210" s="14" t="n"/>
-      <c r="U210" s="76" t="n"/>
+      <c r="U210" s="96" t="n"/>
     </row>
     <row r="211" outlineLevel="1" ht="13" customHeight="1">
       <c r="A211" s="43">
@@ -9185,7 +9185,7 @@
       <c r="R211" s="13" t="n"/>
       <c r="S211" s="14" t="n"/>
       <c r="T211" s="14" t="n"/>
-      <c r="U211" s="76" t="n"/>
+      <c r="U211" s="96" t="n"/>
     </row>
     <row r="212" outlineLevel="1" ht="13" customHeight="1">
       <c r="A212" s="43">
@@ -9223,7 +9223,7 @@
       <c r="R212" s="13" t="n"/>
       <c r="S212" s="14" t="n"/>
       <c r="T212" s="14" t="n"/>
-      <c r="U212" s="76" t="n"/>
+      <c r="U212" s="96" t="n"/>
     </row>
     <row r="213" outlineLevel="1" ht="13" customHeight="1">
       <c r="A213" s="43">
@@ -9261,7 +9261,7 @@
       <c r="R213" s="13" t="n"/>
       <c r="S213" s="14" t="n"/>
       <c r="T213" s="14" t="n"/>
-      <c r="U213" s="76" t="n"/>
+      <c r="U213" s="96" t="n"/>
     </row>
     <row r="214" outlineLevel="1" ht="13" customHeight="1">
       <c r="A214" s="43">
@@ -9299,7 +9299,7 @@
       <c r="R214" s="13" t="n"/>
       <c r="S214" s="14" t="n"/>
       <c r="T214" s="14" t="n"/>
-      <c r="U214" s="76" t="n"/>
+      <c r="U214" s="96" t="n"/>
     </row>
     <row r="215" outlineLevel="1" ht="13" customHeight="1">
       <c r="A215" s="43">
@@ -9337,54 +9337,54 @@
       <c r="R215" s="13" t="n"/>
       <c r="S215" s="14" t="n"/>
       <c r="T215" s="14" t="n"/>
-      <c r="U215" s="76" t="n"/>
+      <c r="U215" s="96" t="n"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
-      <c r="A216" s="76" t="n"/>
-      <c r="B216" s="76" t="n"/>
-      <c r="C216" s="76" t="n"/>
-      <c r="D216" s="76" t="n"/>
-      <c r="E216" s="76" t="n"/>
-      <c r="F216" s="76" t="n"/>
-      <c r="G216" s="76" t="n"/>
-      <c r="H216" s="76" t="n"/>
-      <c r="I216" s="76" t="n"/>
-      <c r="J216" s="76" t="n"/>
-      <c r="K216" s="76" t="n"/>
-      <c r="L216" s="76" t="n"/>
-      <c r="M216" s="76" t="n"/>
-      <c r="N216" s="76" t="n"/>
-      <c r="O216" s="76" t="n"/>
-      <c r="P216" s="76" t="n"/>
-      <c r="Q216" s="76" t="n"/>
-      <c r="R216" s="76" t="n"/>
-      <c r="S216" s="76" t="n"/>
-      <c r="T216" s="76" t="n"/>
+      <c r="A216" s="96" t="n"/>
+      <c r="B216" s="96" t="n"/>
+      <c r="C216" s="96" t="n"/>
+      <c r="D216" s="96" t="n"/>
+      <c r="E216" s="96" t="n"/>
+      <c r="F216" s="96" t="n"/>
+      <c r="G216" s="96" t="n"/>
+      <c r="H216" s="96" t="n"/>
+      <c r="I216" s="96" t="n"/>
+      <c r="J216" s="96" t="n"/>
+      <c r="K216" s="96" t="n"/>
+      <c r="L216" s="96" t="n"/>
+      <c r="M216" s="96" t="n"/>
+      <c r="N216" s="96" t="n"/>
+      <c r="O216" s="96" t="n"/>
+      <c r="P216" s="96" t="n"/>
+      <c r="Q216" s="96" t="n"/>
+      <c r="R216" s="96" t="n"/>
+      <c r="S216" s="96" t="n"/>
+      <c r="T216" s="96" t="n"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
-      <c r="A217" s="76" t="n"/>
-      <c r="B217" s="76" t="n"/>
-      <c r="C217" s="76" t="n"/>
-      <c r="D217" s="76" t="n"/>
-      <c r="E217" s="76" t="n"/>
-      <c r="F217" s="76" t="n"/>
-      <c r="G217" s="76" t="n"/>
-      <c r="H217" s="76" t="n"/>
-      <c r="I217" s="76" t="n"/>
-      <c r="J217" s="76" t="n"/>
-      <c r="K217" s="76" t="n"/>
-      <c r="L217" s="76" t="n"/>
-      <c r="M217" s="76" t="n"/>
-      <c r="N217" s="76" t="n"/>
-      <c r="O217" s="76" t="n"/>
-      <c r="P217" s="76" t="n"/>
-      <c r="Q217" s="76" t="n"/>
-      <c r="R217" s="76" t="n"/>
-      <c r="S217" s="76" t="n"/>
-      <c r="T217" s="76" t="n"/>
+      <c r="A217" s="96" t="n"/>
+      <c r="B217" s="96" t="n"/>
+      <c r="C217" s="96" t="n"/>
+      <c r="D217" s="96" t="n"/>
+      <c r="E217" s="96" t="n"/>
+      <c r="F217" s="96" t="n"/>
+      <c r="G217" s="96" t="n"/>
+      <c r="H217" s="96" t="n"/>
+      <c r="I217" s="96" t="n"/>
+      <c r="J217" s="96" t="n"/>
+      <c r="K217" s="96" t="n"/>
+      <c r="L217" s="96" t="n"/>
+      <c r="M217" s="96" t="n"/>
+      <c r="N217" s="96" t="n"/>
+      <c r="O217" s="96" t="n"/>
+      <c r="P217" s="96" t="n"/>
+      <c r="Q217" s="96" t="n"/>
+      <c r="R217" s="96" t="n"/>
+      <c r="S217" s="96" t="n"/>
+      <c r="T217" s="96" t="n"/>
     </row>
     <row r="218" ht="17.5" customFormat="1" customHeight="1" s="18">
-      <c r="A218" s="83" t="inlineStr">
+      <c r="A218" s="90" t="inlineStr">
         <is>
           <t>Test Result Summary</t>
         </is>
@@ -9396,18 +9396,18 @@
       <c r="F218" s="120" t="n"/>
       <c r="G218" s="120" t="n"/>
       <c r="H218" s="120" t="n"/>
-      <c r="I218" s="84" t="n"/>
-      <c r="J218" s="84" t="n"/>
-      <c r="K218" s="76" t="n"/>
-      <c r="L218" s="84" t="n"/>
-      <c r="M218" s="84" t="n"/>
-      <c r="N218" s="76" t="n"/>
-      <c r="O218" s="84" t="n"/>
-      <c r="P218" s="84" t="n"/>
-      <c r="Q218" s="76" t="n"/>
-      <c r="R218" s="84" t="n"/>
-      <c r="S218" s="84" t="n"/>
-      <c r="T218" s="76" t="n"/>
+      <c r="I218" s="91" t="n"/>
+      <c r="J218" s="91" t="n"/>
+      <c r="K218" s="96" t="n"/>
+      <c r="L218" s="91" t="n"/>
+      <c r="M218" s="91" t="n"/>
+      <c r="N218" s="96" t="n"/>
+      <c r="O218" s="91" t="n"/>
+      <c r="P218" s="91" t="n"/>
+      <c r="Q218" s="96" t="n"/>
+      <c r="R218" s="91" t="n"/>
+      <c r="S218" s="91" t="n"/>
+      <c r="T218" s="96" t="n"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="19" t="inlineStr">
@@ -9419,24 +9419,24 @@
         <f>SUM(B220:B222)</f>
         <v/>
       </c>
-      <c r="C219" s="76" t="n"/>
-      <c r="D219" s="76" t="n"/>
-      <c r="E219" s="76" t="n"/>
-      <c r="F219" s="76" t="n"/>
-      <c r="G219" s="76" t="n"/>
-      <c r="H219" s="76" t="n"/>
-      <c r="I219" s="76" t="n"/>
-      <c r="J219" s="76" t="n"/>
-      <c r="K219" s="76" t="n"/>
-      <c r="L219" s="76" t="n"/>
-      <c r="M219" s="76" t="n"/>
-      <c r="N219" s="76" t="n"/>
-      <c r="O219" s="76" t="n"/>
-      <c r="P219" s="76" t="n"/>
-      <c r="Q219" s="76" t="n"/>
-      <c r="R219" s="76" t="n"/>
-      <c r="S219" s="76" t="n"/>
-      <c r="T219" s="76" t="n"/>
+      <c r="C219" s="96" t="n"/>
+      <c r="D219" s="96" t="n"/>
+      <c r="E219" s="96" t="n"/>
+      <c r="F219" s="96" t="n"/>
+      <c r="G219" s="96" t="n"/>
+      <c r="H219" s="96" t="n"/>
+      <c r="I219" s="96" t="n"/>
+      <c r="J219" s="96" t="n"/>
+      <c r="K219" s="96" t="n"/>
+      <c r="L219" s="96" t="n"/>
+      <c r="M219" s="96" t="n"/>
+      <c r="N219" s="96" t="n"/>
+      <c r="O219" s="96" t="n"/>
+      <c r="P219" s="96" t="n"/>
+      <c r="Q219" s="96" t="n"/>
+      <c r="R219" s="96" t="n"/>
+      <c r="S219" s="96" t="n"/>
+      <c r="T219" s="96" t="n"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="19" t="inlineStr">
@@ -9448,24 +9448,24 @@
         <f>COUNTIF(F16:F215,"Pass")</f>
         <v/>
       </c>
-      <c r="C220" s="76" t="n"/>
-      <c r="D220" s="76" t="n"/>
-      <c r="E220" s="76" t="n"/>
-      <c r="F220" s="76" t="n"/>
-      <c r="G220" s="76" t="n"/>
-      <c r="H220" s="76" t="n"/>
-      <c r="I220" s="76" t="n"/>
-      <c r="J220" s="76" t="n"/>
-      <c r="K220" s="76" t="n"/>
-      <c r="L220" s="76" t="n"/>
-      <c r="M220" s="76" t="n"/>
-      <c r="N220" s="76" t="n"/>
-      <c r="O220" s="76" t="n"/>
-      <c r="P220" s="76" t="n"/>
-      <c r="Q220" s="76" t="n"/>
-      <c r="R220" s="76" t="n"/>
-      <c r="S220" s="76" t="n"/>
-      <c r="T220" s="76" t="n"/>
+      <c r="C220" s="96" t="n"/>
+      <c r="D220" s="96" t="n"/>
+      <c r="E220" s="96" t="n"/>
+      <c r="F220" s="96" t="n"/>
+      <c r="G220" s="96" t="n"/>
+      <c r="H220" s="96" t="n"/>
+      <c r="I220" s="96" t="n"/>
+      <c r="J220" s="96" t="n"/>
+      <c r="K220" s="96" t="n"/>
+      <c r="L220" s="96" t="n"/>
+      <c r="M220" s="96" t="n"/>
+      <c r="N220" s="96" t="n"/>
+      <c r="O220" s="96" t="n"/>
+      <c r="P220" s="96" t="n"/>
+      <c r="Q220" s="96" t="n"/>
+      <c r="R220" s="96" t="n"/>
+      <c r="S220" s="96" t="n"/>
+      <c r="T220" s="96" t="n"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="19" t="inlineStr">
@@ -9477,24 +9477,24 @@
         <f>COUNTIF(F16:F215,"Fail")</f>
         <v/>
       </c>
-      <c r="C221" s="76" t="n"/>
-      <c r="D221" s="76" t="n"/>
-      <c r="E221" s="76" t="n"/>
-      <c r="F221" s="76" t="n"/>
-      <c r="G221" s="76" t="n"/>
-      <c r="H221" s="76" t="n"/>
-      <c r="I221" s="76" t="n"/>
-      <c r="J221" s="76" t="n"/>
-      <c r="K221" s="76" t="n"/>
-      <c r="L221" s="76" t="n"/>
-      <c r="M221" s="76" t="n"/>
-      <c r="N221" s="76" t="n"/>
-      <c r="O221" s="76" t="n"/>
-      <c r="P221" s="76" t="n"/>
-      <c r="Q221" s="76" t="n"/>
-      <c r="R221" s="76" t="n"/>
-      <c r="S221" s="76" t="n"/>
-      <c r="T221" s="76" t="n"/>
+      <c r="C221" s="96" t="n"/>
+      <c r="D221" s="96" t="n"/>
+      <c r="E221" s="96" t="n"/>
+      <c r="F221" s="96" t="n"/>
+      <c r="G221" s="96" t="n"/>
+      <c r="H221" s="96" t="n"/>
+      <c r="I221" s="96" t="n"/>
+      <c r="J221" s="96" t="n"/>
+      <c r="K221" s="96" t="n"/>
+      <c r="L221" s="96" t="n"/>
+      <c r="M221" s="96" t="n"/>
+      <c r="N221" s="96" t="n"/>
+      <c r="O221" s="96" t="n"/>
+      <c r="P221" s="96" t="n"/>
+      <c r="Q221" s="96" t="n"/>
+      <c r="R221" s="96" t="n"/>
+      <c r="S221" s="96" t="n"/>
+      <c r="T221" s="96" t="n"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="21" t="inlineStr">
@@ -9506,46 +9506,46 @@
         <f>COUNTIF(F16:F215,"Not Executed")</f>
         <v/>
       </c>
-      <c r="C222" s="76" t="n"/>
-      <c r="D222" s="76" t="n"/>
-      <c r="E222" s="76" t="n"/>
-      <c r="F222" s="76" t="n"/>
-      <c r="G222" s="76" t="n"/>
-      <c r="H222" s="76" t="n"/>
-      <c r="I222" s="76" t="n"/>
-      <c r="J222" s="76" t="n"/>
-      <c r="K222" s="76" t="n"/>
-      <c r="L222" s="76" t="n"/>
-      <c r="M222" s="76" t="n"/>
-      <c r="N222" s="76" t="n"/>
-      <c r="O222" s="76" t="n"/>
-      <c r="P222" s="76" t="n"/>
-      <c r="Q222" s="76" t="n"/>
-      <c r="R222" s="76" t="n"/>
-      <c r="S222" s="76" t="n"/>
-      <c r="T222" s="76" t="n"/>
+      <c r="C222" s="96" t="n"/>
+      <c r="D222" s="96" t="n"/>
+      <c r="E222" s="96" t="n"/>
+      <c r="F222" s="96" t="n"/>
+      <c r="G222" s="96" t="n"/>
+      <c r="H222" s="96" t="n"/>
+      <c r="I222" s="96" t="n"/>
+      <c r="J222" s="96" t="n"/>
+      <c r="K222" s="96" t="n"/>
+      <c r="L222" s="96" t="n"/>
+      <c r="M222" s="96" t="n"/>
+      <c r="N222" s="96" t="n"/>
+      <c r="O222" s="96" t="n"/>
+      <c r="P222" s="96" t="n"/>
+      <c r="Q222" s="96" t="n"/>
+      <c r="R222" s="96" t="n"/>
+      <c r="S222" s="96" t="n"/>
+      <c r="T222" s="96" t="n"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="23" t="n"/>
       <c r="B223" s="23" t="n"/>
-      <c r="C223" s="76" t="n"/>
-      <c r="D223" s="76" t="n"/>
-      <c r="E223" s="76" t="n"/>
-      <c r="F223" s="76" t="n"/>
-      <c r="G223" s="76" t="n"/>
-      <c r="H223" s="76" t="n"/>
-      <c r="I223" s="76" t="n"/>
-      <c r="J223" s="76" t="n"/>
-      <c r="K223" s="76" t="n"/>
-      <c r="L223" s="76" t="n"/>
-      <c r="M223" s="76" t="n"/>
-      <c r="N223" s="76" t="n"/>
-      <c r="O223" s="76" t="n"/>
-      <c r="P223" s="76" t="n"/>
-      <c r="Q223" s="76" t="n"/>
-      <c r="R223" s="76" t="n"/>
-      <c r="S223" s="76" t="n"/>
-      <c r="T223" s="76" t="n"/>
+      <c r="C223" s="96" t="n"/>
+      <c r="D223" s="96" t="n"/>
+      <c r="E223" s="96" t="n"/>
+      <c r="F223" s="96" t="n"/>
+      <c r="G223" s="96" t="n"/>
+      <c r="H223" s="96" t="n"/>
+      <c r="I223" s="96" t="n"/>
+      <c r="J223" s="96" t="n"/>
+      <c r="K223" s="96" t="n"/>
+      <c r="L223" s="96" t="n"/>
+      <c r="M223" s="96" t="n"/>
+      <c r="N223" s="96" t="n"/>
+      <c r="O223" s="96" t="n"/>
+      <c r="P223" s="96" t="n"/>
+      <c r="Q223" s="96" t="n"/>
+      <c r="R223" s="96" t="n"/>
+      <c r="S223" s="96" t="n"/>
+      <c r="T223" s="96" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="A224" s="19" t="inlineStr">
@@ -9558,22 +9558,22 @@
           <t>Number of tests failed</t>
         </is>
       </c>
-      <c r="C224" s="76" t="n"/>
-      <c r="D224" s="76" t="n"/>
-      <c r="E224" s="76" t="n"/>
-      <c r="F224" s="76" t="n"/>
+      <c r="C224" s="96" t="n"/>
+      <c r="D224" s="96" t="n"/>
+      <c r="E224" s="96" t="n"/>
+      <c r="F224" s="96" t="n"/>
       <c r="G224" s="24" t="n"/>
       <c r="H224" s="24" t="n"/>
-      <c r="I224" s="76" t="n"/>
+      <c r="I224" s="96" t="n"/>
       <c r="J224" s="24" t="n"/>
       <c r="K224" s="24" t="n"/>
-      <c r="L224" s="76" t="n"/>
+      <c r="L224" s="96" t="n"/>
       <c r="M224" s="24" t="n"/>
       <c r="N224" s="24" t="n"/>
-      <c r="O224" s="76" t="n"/>
+      <c r="O224" s="96" t="n"/>
       <c r="P224" s="24" t="n"/>
       <c r="Q224" s="24" t="n"/>
-      <c r="R224" s="76" t="n"/>
+      <c r="R224" s="96" t="n"/>
       <c r="S224" s="24" t="n"/>
       <c r="T224" s="24" t="n"/>
       <c r="U224" s="18" t="n"/>
@@ -9588,24 +9588,24 @@
         <f>COUNTIF(G16:G215,"Major")</f>
         <v/>
       </c>
-      <c r="C225" s="76" t="n"/>
-      <c r="D225" s="76" t="n"/>
-      <c r="E225" s="76" t="n"/>
-      <c r="F225" s="76" t="n"/>
-      <c r="G225" s="76" t="n"/>
-      <c r="H225" s="76" t="n"/>
-      <c r="I225" s="76" t="n"/>
-      <c r="J225" s="76" t="n"/>
-      <c r="K225" s="76" t="n"/>
-      <c r="L225" s="76" t="n"/>
-      <c r="M225" s="76" t="n"/>
-      <c r="N225" s="76" t="n"/>
-      <c r="O225" s="76" t="n"/>
-      <c r="P225" s="76" t="n"/>
-      <c r="Q225" s="76" t="n"/>
-      <c r="R225" s="76" t="n"/>
-      <c r="S225" s="76" t="n"/>
-      <c r="T225" s="76" t="n"/>
+      <c r="C225" s="96" t="n"/>
+      <c r="D225" s="96" t="n"/>
+      <c r="E225" s="96" t="n"/>
+      <c r="F225" s="96" t="n"/>
+      <c r="G225" s="96" t="n"/>
+      <c r="H225" s="96" t="n"/>
+      <c r="I225" s="96" t="n"/>
+      <c r="J225" s="96" t="n"/>
+      <c r="K225" s="96" t="n"/>
+      <c r="L225" s="96" t="n"/>
+      <c r="M225" s="96" t="n"/>
+      <c r="N225" s="96" t="n"/>
+      <c r="O225" s="96" t="n"/>
+      <c r="P225" s="96" t="n"/>
+      <c r="Q225" s="96" t="n"/>
+      <c r="R225" s="96" t="n"/>
+      <c r="S225" s="96" t="n"/>
+      <c r="T225" s="96" t="n"/>
       <c r="U225" s="18" t="n"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
@@ -9618,24 +9618,24 @@
         <f>COUNTIF(G16:G215,"Medium")</f>
         <v/>
       </c>
-      <c r="C226" s="76" t="n"/>
-      <c r="D226" s="76" t="n"/>
-      <c r="E226" s="76" t="n"/>
-      <c r="F226" s="76" t="n"/>
-      <c r="G226" s="76" t="n"/>
-      <c r="H226" s="76" t="n"/>
-      <c r="I226" s="76" t="n"/>
-      <c r="J226" s="76" t="n"/>
-      <c r="K226" s="76" t="n"/>
-      <c r="L226" s="76" t="n"/>
-      <c r="M226" s="76" t="n"/>
-      <c r="N226" s="76" t="n"/>
-      <c r="O226" s="76" t="n"/>
-      <c r="P226" s="76" t="n"/>
-      <c r="Q226" s="76" t="n"/>
-      <c r="R226" s="76" t="n"/>
-      <c r="S226" s="76" t="n"/>
-      <c r="T226" s="76" t="n"/>
+      <c r="C226" s="96" t="n"/>
+      <c r="D226" s="96" t="n"/>
+      <c r="E226" s="96" t="n"/>
+      <c r="F226" s="96" t="n"/>
+      <c r="G226" s="96" t="n"/>
+      <c r="H226" s="96" t="n"/>
+      <c r="I226" s="96" t="n"/>
+      <c r="J226" s="96" t="n"/>
+      <c r="K226" s="96" t="n"/>
+      <c r="L226" s="96" t="n"/>
+      <c r="M226" s="96" t="n"/>
+      <c r="N226" s="96" t="n"/>
+      <c r="O226" s="96" t="n"/>
+      <c r="P226" s="96" t="n"/>
+      <c r="Q226" s="96" t="n"/>
+      <c r="R226" s="96" t="n"/>
+      <c r="S226" s="96" t="n"/>
+      <c r="T226" s="96" t="n"/>
       <c r="U226" s="18" t="n"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
@@ -9648,47 +9648,47 @@
         <f>COUNTIF(G15:G215,"Minor")</f>
         <v/>
       </c>
-      <c r="C227" s="76" t="n"/>
-      <c r="D227" s="76" t="n"/>
-      <c r="E227" s="76" t="n"/>
-      <c r="F227" s="76" t="n"/>
-      <c r="G227" s="76" t="n"/>
-      <c r="H227" s="76" t="n"/>
-      <c r="I227" s="76" t="n"/>
-      <c r="J227" s="76" t="n"/>
-      <c r="K227" s="76" t="n"/>
-      <c r="L227" s="76" t="n"/>
-      <c r="M227" s="76" t="n"/>
-      <c r="N227" s="76" t="n"/>
-      <c r="O227" s="76" t="n"/>
-      <c r="P227" s="76" t="n"/>
-      <c r="Q227" s="76" t="n"/>
-      <c r="R227" s="76" t="n"/>
-      <c r="S227" s="76" t="n"/>
-      <c r="T227" s="76" t="n"/>
+      <c r="C227" s="96" t="n"/>
+      <c r="D227" s="96" t="n"/>
+      <c r="E227" s="96" t="n"/>
+      <c r="F227" s="96" t="n"/>
+      <c r="G227" s="96" t="n"/>
+      <c r="H227" s="96" t="n"/>
+      <c r="I227" s="96" t="n"/>
+      <c r="J227" s="96" t="n"/>
+      <c r="K227" s="96" t="n"/>
+      <c r="L227" s="96" t="n"/>
+      <c r="M227" s="96" t="n"/>
+      <c r="N227" s="96" t="n"/>
+      <c r="O227" s="96" t="n"/>
+      <c r="P227" s="96" t="n"/>
+      <c r="Q227" s="96" t="n"/>
+      <c r="R227" s="96" t="n"/>
+      <c r="S227" s="96" t="n"/>
+      <c r="T227" s="96" t="n"/>
       <c r="U227" s="18" t="n"/>
     </row>
     <row r="228" ht="8.25" customHeight="1">
       <c r="A228" s="26" t="n"/>
-      <c r="B228" s="76" t="n"/>
-      <c r="C228" s="76" t="n"/>
-      <c r="D228" s="76" t="n"/>
-      <c r="E228" s="76" t="n"/>
-      <c r="F228" s="76" t="n"/>
-      <c r="G228" s="76" t="n"/>
-      <c r="H228" s="76" t="n"/>
-      <c r="I228" s="76" t="n"/>
-      <c r="J228" s="76" t="n"/>
-      <c r="K228" s="76" t="n"/>
-      <c r="L228" s="76" t="n"/>
-      <c r="M228" s="76" t="n"/>
-      <c r="N228" s="76" t="n"/>
-      <c r="O228" s="76" t="n"/>
-      <c r="P228" s="76" t="n"/>
-      <c r="Q228" s="76" t="n"/>
-      <c r="R228" s="76" t="n"/>
-      <c r="S228" s="76" t="n"/>
-      <c r="T228" s="76" t="n"/>
+      <c r="B228" s="96" t="n"/>
+      <c r="C228" s="96" t="n"/>
+      <c r="D228" s="96" t="n"/>
+      <c r="E228" s="96" t="n"/>
+      <c r="F228" s="96" t="n"/>
+      <c r="G228" s="96" t="n"/>
+      <c r="H228" s="96" t="n"/>
+      <c r="I228" s="96" t="n"/>
+      <c r="J228" s="96" t="n"/>
+      <c r="K228" s="96" t="n"/>
+      <c r="L228" s="96" t="n"/>
+      <c r="M228" s="96" t="n"/>
+      <c r="N228" s="96" t="n"/>
+      <c r="O228" s="96" t="n"/>
+      <c r="P228" s="96" t="n"/>
+      <c r="Q228" s="96" t="n"/>
+      <c r="R228" s="96" t="n"/>
+      <c r="S228" s="96" t="n"/>
+      <c r="T228" s="96" t="n"/>
       <c r="U228" s="18" t="n"/>
     </row>
     <row r="229" ht="0.75" customHeight="1">
@@ -9700,47 +9700,47 @@
         <f>COUNTIF(#REF!,"P")</f>
         <v/>
       </c>
-      <c r="C229" s="76" t="n"/>
-      <c r="D229" s="76" t="n"/>
-      <c r="E229" s="76" t="n"/>
-      <c r="F229" s="76" t="n"/>
-      <c r="G229" s="76" t="n"/>
-      <c r="H229" s="76" t="n"/>
-      <c r="I229" s="76" t="n"/>
-      <c r="J229" s="76" t="n"/>
-      <c r="K229" s="76" t="n"/>
-      <c r="L229" s="76" t="n"/>
-      <c r="M229" s="76" t="n"/>
-      <c r="N229" s="76" t="n"/>
-      <c r="O229" s="76" t="n"/>
-      <c r="P229" s="76" t="n"/>
-      <c r="Q229" s="76" t="n"/>
-      <c r="R229" s="76" t="n"/>
-      <c r="S229" s="76" t="n"/>
-      <c r="T229" s="76" t="n"/>
+      <c r="C229" s="96" t="n"/>
+      <c r="D229" s="96" t="n"/>
+      <c r="E229" s="96" t="n"/>
+      <c r="F229" s="96" t="n"/>
+      <c r="G229" s="96" t="n"/>
+      <c r="H229" s="96" t="n"/>
+      <c r="I229" s="96" t="n"/>
+      <c r="J229" s="96" t="n"/>
+      <c r="K229" s="96" t="n"/>
+      <c r="L229" s="96" t="n"/>
+      <c r="M229" s="96" t="n"/>
+      <c r="N229" s="96" t="n"/>
+      <c r="O229" s="96" t="n"/>
+      <c r="P229" s="96" t="n"/>
+      <c r="Q229" s="96" t="n"/>
+      <c r="R229" s="96" t="n"/>
+      <c r="S229" s="96" t="n"/>
+      <c r="T229" s="96" t="n"/>
       <c r="U229" s="18" t="n"/>
     </row>
     <row r="230" ht="13" customHeight="1">
       <c r="A230" s="29" t="n"/>
-      <c r="B230" s="76" t="n"/>
-      <c r="C230" s="76" t="n"/>
-      <c r="D230" s="76" t="n"/>
-      <c r="E230" s="76" t="n"/>
-      <c r="F230" s="76" t="n"/>
-      <c r="G230" s="76" t="n"/>
-      <c r="H230" s="76" t="n"/>
-      <c r="I230" s="76" t="n"/>
-      <c r="J230" s="76" t="n"/>
-      <c r="K230" s="76" t="n"/>
-      <c r="L230" s="76" t="n"/>
-      <c r="M230" s="76" t="n"/>
-      <c r="N230" s="76" t="n"/>
-      <c r="O230" s="76" t="n"/>
-      <c r="P230" s="76" t="n"/>
-      <c r="Q230" s="76" t="n"/>
-      <c r="R230" s="76" t="n"/>
-      <c r="S230" s="76" t="n"/>
-      <c r="T230" s="76" t="n"/>
+      <c r="B230" s="96" t="n"/>
+      <c r="C230" s="96" t="n"/>
+      <c r="D230" s="96" t="n"/>
+      <c r="E230" s="96" t="n"/>
+      <c r="F230" s="96" t="n"/>
+      <c r="G230" s="96" t="n"/>
+      <c r="H230" s="96" t="n"/>
+      <c r="I230" s="96" t="n"/>
+      <c r="J230" s="96" t="n"/>
+      <c r="K230" s="96" t="n"/>
+      <c r="L230" s="96" t="n"/>
+      <c r="M230" s="96" t="n"/>
+      <c r="N230" s="96" t="n"/>
+      <c r="O230" s="96" t="n"/>
+      <c r="P230" s="96" t="n"/>
+      <c r="Q230" s="96" t="n"/>
+      <c r="R230" s="96" t="n"/>
+      <c r="S230" s="96" t="n"/>
+      <c r="T230" s="96" t="n"/>
       <c r="U230" s="18" t="n"/>
     </row>
     <row r="231" ht="46.5" customHeight="1">
@@ -10070,8 +10070,8 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="I14:K14"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I14:K14"/>
     <mergeCell ref="A218:H218"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="B232:E232"/>
@@ -10091,8 +10091,8 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:H10"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>
   <dataValidations xWindow="466" yWindow="396" count="5">
@@ -10125,10 +10125,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="7.81640625" defaultRowHeight="13" zeroHeight="1"/>
@@ -10170,12 +10170,12 @@
 Target: </t>
         </is>
       </c>
-      <c r="C2" s="92" t="n"/>
-      <c r="D2" s="92" t="n"/>
-      <c r="E2" s="92" t="n"/>
-      <c r="F2" s="92" t="n"/>
-      <c r="G2" s="92" t="n"/>
-      <c r="H2" s="93" t="n"/>
+      <c r="C2" s="86" t="n"/>
+      <c r="D2" s="86" t="n"/>
+      <c r="E2" s="86" t="n"/>
+      <c r="F2" s="86" t="n"/>
+      <c r="G2" s="86" t="n"/>
+      <c r="H2" s="87" t="n"/>
       <c r="I2" s="48" t="n"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
@@ -10249,7 +10249,7 @@
     <row r="6" ht="99.75" customHeight="1">
       <c r="B6" s="57" t="inlineStr">
         <is>
-          <t>F001</t>
+          <t>TC_F_001</t>
         </is>
       </c>
       <c r="C6" s="60" t="inlineStr">
@@ -10259,17 +10259,17 @@
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Network Packet Capture - Start</t>
+          <t>Verify application launches successfully</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click on Start button</t>
+          <t>1. Navigate to the appropriate zip file location&lt;br&gt;2. Extract the contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>Packet capture should start successfully with confirmation message</t>
+          <t>The application should launch successfully with all menu options visible</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10279,27 +10279,27 @@
     <row r="7" ht="99.75" customHeight="1">
       <c r="B7" s="57" t="inlineStr">
         <is>
-          <t>F002</t>
+          <t>TC_F_002</t>
         </is>
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>Packet capture is running</t>
+          <t>Application is running</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Network Packet Capture - Stop</t>
+          <t>Verify all main features are accessible from the interface</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click on Stop button</t>
+          <t>1. Observe the main interface&lt;br&gt;2. Check for Network Packet Capture&lt;br&gt;3. Check for Memory Leak Check&lt;br&gt;4. Check for Debug Log Collection&lt;br&gt;5. Check for Diagnostic Code Details&lt;br&gt;6. Check for 08 Diagnostic Code Value Access&lt;br&gt;7. Check for Protocol Configuration</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>1. Packet capture should stop&lt;br&gt;2. .pcap file should be generated&lt;br&gt;3. File should be copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder should open automatically</t>
+          <t>All six main features should be visible and accessible from the interface</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10309,27 +10309,27 @@
     <row r="8" ht="99.75" customHeight="1">
       <c r="B8" s="57" t="inlineStr">
         <is>
-          <t>F003</t>
+          <t>TC_F_003</t>
         </is>
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and launched</t>
+          <t>Application is running</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Memory Leak Check</t>
+          <t>Verify Network Packet Capture - Start function</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Memory Leak Check section&lt;br&gt;2. Select a protocol from the dropdown&lt;br&gt;3. View the Memory Leak Comparison Table</t>
+          <t>1. Navigate to Network Packet Capture feature&lt;br&gt;2. Click on Start button</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Memory Leak Comparison Table should display protocol-specific information</t>
+          <t>Packet capture should begin with visual indication that capture is in progress</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10339,27 +10339,27 @@
     <row r="9" ht="99.75" customHeight="1">
       <c r="B9" s="57" t="inlineStr">
         <is>
-          <t>F004</t>
+          <t>TC_F_004</t>
         </is>
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and launched</t>
+          <t>Network Packet Capture is in progress</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Debug Log Collection</t>
+          <t>Verify Network Packet Capture - Stop function</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button</t>
+          <t>1. With packet capture in progress&lt;br&gt;2. Click on Stop button</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>1. Script should execute&lt;br&gt;2. Logs should be collected&lt;br&gt;3. Logs should be copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder should open automatically</t>
+          <t>1. Packet capture should stop&lt;br&gt;2. A .pcap file should be generated&lt;br&gt;3. The file should be copied to MFP's Shared Folder&lt;br&gt;4. The shared folder should open automatically</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10369,27 +10369,27 @@
     <row r="10" ht="99.75" customHeight="1">
       <c r="B10" s="57" t="inlineStr">
         <is>
-          <t>F005</t>
+          <t>TC_F_005</t>
         </is>
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and launched</t>
+          <t>Application is running</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Diagnostic Code Details - ECC</t>
+          <t>Verify Memory Leak Check functionality</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select ECC option&lt;br&gt;3. View the details</t>
+          <t>1. Navigate to Memory Leak Check feature&lt;br&gt;2. Select a protocol from the available options&lt;br&gt;3. Initiate the memory leak check</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for ECC should be displayed</t>
+          <t>A Memory Leak Comparison Table should be displayed showing whether a memory leak has occurred</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10399,459 +10399,1557 @@
     <row r="11" ht="99.75" customHeight="1">
       <c r="B11" s="57" t="inlineStr">
         <is>
-          <t>F006</t>
+          <t>TC_F_006</t>
         </is>
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and launched</t>
+          <t>Application is running</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Diagnostic Code Details - Network Protocols</t>
+          <t>Verify Debug Log Collection functionality</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select Network Protocols option&lt;br&gt;3. View the details</t>
+          <t>1. Navigate to Debug Log Collection feature&lt;br&gt;2. Click the Run button</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for Network Protocols should be displayed</t>
+          <t>1. Script execution should begin&lt;br&gt;2. Logs should be collected&lt;br&gt;3. Logs should be copied to MFP's Shared Folder&lt;br&gt;4. The shared folder should open automatically</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
       <c r="H11" s="59" t="inlineStr"/>
       <c r="I11" s="53" t="n"/>
     </row>
-    <row r="12">
-      <c r="A12" s="63" t="n"/>
-      <c r="B12" s="63" t="inlineStr">
-        <is>
-          <t>F007</t>
-        </is>
-      </c>
-      <c r="C12" s="63" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D12" s="63" t="inlineStr">
-        <is>
-          <t>Diagnostic Code Details - High Security Mode</t>
-        </is>
-      </c>
-      <c r="E12" s="64" t="inlineStr">
-        <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select High Security Mode option&lt;br&gt;3. View the details</t>
-        </is>
-      </c>
-      <c r="F12" s="64" t="inlineStr">
-        <is>
-          <t>Relevant job-specific details for High Security Mode should be displayed</t>
-        </is>
-      </c>
-      <c r="G12" s="63" t="inlineStr"/>
-      <c r="H12" s="63" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>F008</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Diagnostic Code Details - Common Codes</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select commonly used diagnostic codes&lt;br&gt;3. View the details</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Relevant job-specific details for selected common codes should be displayed</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="45" t="inlineStr">
-        <is>
-          <t>F009</t>
-        </is>
-      </c>
-      <c r="C14" s="67" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>08 Diagnostic Code Value - Get</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Click on Get button</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Current value of the selected 08 diagnostic code should be displayed</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>F010</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D15" s="45" t="inlineStr">
-        <is>
-          <t>08 Diagnostic Code Value - Set</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>The 08 diagnostic code value should be updated with the new value</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>F011</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D16" s="46" t="inlineStr">
-        <is>
-          <t>Protocol Configuration - Get</t>
-        </is>
-      </c>
-      <c r="E16" s="71" t="inlineStr">
-        <is>
-          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Click on Get button</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Current value of the selected protocol should be displayed</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>F012</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D17" s="65" t="inlineStr">
-        <is>
-          <t>Protocol Configuration - Set</t>
-        </is>
-      </c>
-      <c r="E17" s="71" t="inlineStr">
-        <is>
-          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Enter a new value&lt;br&gt;5. Click on Set button</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>The protocol value should be updated with the new value (Note: This feature is pending implementation)</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Feature pending implementation</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>F013</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Desktop environment with network access</t>
-        </is>
-      </c>
-      <c r="D18" s="46" t="inlineStr">
-        <is>
-          <t>Installation on Desktop</t>
-        </is>
-      </c>
-      <c r="E18" s="71" t="inlineStr">
-        <is>
-          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\&lt;br&gt;2. Extract contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Application should install and launch successfully on desktop</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F014</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Laptop environment with network access</t>
-        </is>
-      </c>
-      <c r="D19" s="68" t="inlineStr">
-        <is>
-          <t>Installation on Laptop</t>
-        </is>
-      </c>
-      <c r="E19" s="71" t="inlineStr">
-        <is>
-          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\&lt;br&gt;2. Extract contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Application should install and launch successfully on laptop</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Test Case ID</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Preconditions</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Test Condition</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Steps with description</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Expected Result</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Actual Result</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>--------------</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>---------------</t>
-        </is>
-      </c>
-      <c r="D21" s="45" t="inlineStr">
-        <is>
-          <t>----------------</t>
-        </is>
-      </c>
-      <c r="E21" s="69" t="inlineStr">
-        <is>
-          <t>------------------------</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-----------------</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>--------------</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>---------</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>NF001</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Performance - Network Packet Capture</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Start packet capture&lt;br&gt;3. Perform network operations for 5 minutes&lt;br&gt;4. Stop packet capture&lt;br&gt;5. Measure time to generate and copy .pcap file</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>File generation and copying should complete within 30 seconds</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>NF002</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Performance - Debug Log Collection</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button&lt;br&gt;3. Measure time to collect and copy logs</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Log collection and copying should complete within 2 minutes</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>NF003</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Performance - Response Time</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1. Click on various sections of the application&lt;br&gt;2. Measure response time for UI updates</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>UI should respond within 1 second for all operations</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>NF004</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Application is installed and launched</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Usability - Navigation</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1. Navigate through all sections of the application&lt;br&gt;2. Assess ease of navigation</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Navigation should be intuitive with clear section labels and logical flow</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+    <row r="12" ht="99.75" customHeight="1">
+      <c r="B12" s="57" t="inlineStr">
+        <is>
+          <t>TC_F_007</t>
+        </is>
+      </c>
+      <c r="C12" s="60" t="inlineStr">
+        <is>
+          <t>Debug Log Collection folder is empty on first attempt</t>
+        </is>
+      </c>
+      <c r="D12" s="70" t="inlineStr">
+        <is>
+          <t>Verify Debug Log Collection retry functionality</t>
+        </is>
+      </c>
+      <c r="E12" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Debug Log Collection feature&lt;br&gt;2. Click the Run button&lt;br&gt;3. Observe that the folder is empty&lt;br&gt;4. Run the operation again</t>
+        </is>
+      </c>
+      <c r="F12" s="62" t="inlineStr">
+        <is>
+          <t>After the second attempt, debug logs should appear in the shared folder</t>
+        </is>
+      </c>
+      <c r="G12" s="58" t="inlineStr"/>
+      <c r="H12" s="59" t="inlineStr"/>
+      <c r="I12" s="53" t="n"/>
+    </row>
+    <row r="13" ht="99.75" customHeight="1">
+      <c r="B13" s="57" t="inlineStr">
+        <is>
+          <t>TC_F_008</t>
+        </is>
+      </c>
+      <c r="C13" s="60" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D13" s="70" t="inlineStr">
+        <is>
+          <t>Verify Diagnostic Code Details - ECC selection</t>
+        </is>
+      </c>
+      <c r="E13" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select ECC option&lt;br&gt;3. Choose a specific diagnostic code</t>
+        </is>
+      </c>
+      <c r="F13" s="62" t="inlineStr">
+        <is>
+          <t>Relevant job-specific details for the selected ECC diagnostic code should be displayed</t>
+        </is>
+      </c>
+      <c r="G13" s="58" t="inlineStr"/>
+      <c r="H13" s="59" t="inlineStr"/>
+      <c r="I13" s="53" t="n"/>
+    </row>
+    <row r="14" ht="99.75" customHeight="1">
+      <c r="B14" s="57" t="inlineStr">
+        <is>
+          <t>TC_F_009</t>
+        </is>
+      </c>
+      <c r="C14" s="60" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D14" s="70" t="inlineStr">
+        <is>
+          <t>Verify Diagnostic Code Details - Network Protocols selection</t>
+        </is>
+      </c>
+      <c r="E14" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select Network Protocols option&lt;br&gt;3. Choose a specific diagnostic code</t>
+        </is>
+      </c>
+      <c r="F14" s="62" t="inlineStr">
+        <is>
+          <t>Relevant job-specific details for the selected Network Protocols diagnostic code should be displayed</t>
+        </is>
+      </c>
+      <c r="G14" s="58" t="inlineStr"/>
+      <c r="H14" s="59" t="inlineStr"/>
+      <c r="I14" s="53" t="n"/>
+    </row>
+    <row r="15" ht="99.75" customHeight="1">
+      <c r="B15" s="57" t="inlineStr">
+        <is>
+          <t>TC_F_010</t>
+        </is>
+      </c>
+      <c r="C15" s="60" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D15" s="70" t="inlineStr">
+        <is>
+          <t>Verify Diagnostic Code Details - High Security Mode selection</t>
+        </is>
+      </c>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select High Security Mode option&lt;br&gt;3. Choose a specific diagnostic code</t>
+        </is>
+      </c>
+      <c r="F15" s="62" t="inlineStr">
+        <is>
+          <t>Relevant job-specific details for the selected High Security Mode diagnostic code should be displayed</t>
+        </is>
+      </c>
+      <c r="G15" s="58" t="inlineStr"/>
+      <c r="H15" s="59" t="inlineStr"/>
+      <c r="I15" s="53" t="n"/>
+    </row>
+    <row r="16" ht="99.75" customHeight="1">
+      <c r="B16" s="57" t="inlineStr">
+        <is>
+          <t>TC_F_011</t>
+        </is>
+      </c>
+      <c r="C16" s="60" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D16" s="70" t="inlineStr">
+        <is>
+          <t>Verify Diagnostic Code Details - Common Codes selection</t>
+        </is>
+      </c>
+      <c r="E16" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select Common Codes option&lt;br&gt;3. Choose a specific diagnostic code</t>
+        </is>
+      </c>
+      <c r="F16" s="62" t="inlineStr">
+        <is>
+          <t>Relevant job-specific details for the selected common diagnostic code should be displayed</t>
+        </is>
+      </c>
+      <c r="G16" s="58" t="inlineStr"/>
+      <c r="H16" s="59" t="inlineStr"/>
+      <c r="I16" s="53" t="n"/>
+    </row>
+    <row r="17" ht="99.75" customHeight="1">
+      <c r="B17" s="57" t="inlineStr">
+        <is>
+          <t>TC_F_012</t>
+        </is>
+      </c>
+      <c r="C17" s="60" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D17" s="70" t="inlineStr">
+        <is>
+          <t>Verify 08 Diagnostic Code Value - Get functionality</t>
+        </is>
+      </c>
+      <c r="E17" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to 08 Diagnostic Code Value Access feature&lt;br&gt;2. Select a specific diagnostic code&lt;br&gt;3. Click on Get button</t>
+        </is>
+      </c>
+      <c r="F17" s="62" t="inlineStr">
+        <is>
+          <t>The current value of the selected 08 diagnostic code should be displayed</t>
+        </is>
+      </c>
+      <c r="G17" s="58" t="inlineStr"/>
+      <c r="H17" s="59" t="inlineStr"/>
+      <c r="I17" s="53" t="n"/>
+    </row>
+    <row r="18" ht="99.75" customHeight="1">
+      <c r="B18" s="57" t="inlineStr">
+        <is>
+          <t>TC_F_013</t>
+        </is>
+      </c>
+      <c r="C18" s="60" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D18" s="70" t="inlineStr">
+        <is>
+          <t>Verify 08 Diagnostic Code Value - Set functionality</t>
+        </is>
+      </c>
+      <c r="E18" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to 08 Diagnostic Code Value Access feature&lt;br&gt;2. Select a specific diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
+        </is>
+      </c>
+      <c r="F18" s="62" t="inlineStr">
+        <is>
+          <t>The selected 08 diagnostic code should be updated with the new value</t>
+        </is>
+      </c>
+      <c r="G18" s="58" t="inlineStr"/>
+      <c r="H18" s="59" t="inlineStr"/>
+      <c r="I18" s="53" t="n"/>
+    </row>
+    <row r="19" ht="99.75" customHeight="1">
+      <c r="B19" s="57" t="inlineStr">
+        <is>
+          <t>TC_F_014</t>
+        </is>
+      </c>
+      <c r="C19" s="60" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D19" s="70" t="inlineStr">
+        <is>
+          <t>Verify Protocol Configuration - Get functionality</t>
+        </is>
+      </c>
+      <c r="E19" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Protocol Configuration feature&lt;br&gt;2. Select a protocol from the Protocol Selection Window&lt;br&gt;3. Click on Get button</t>
+        </is>
+      </c>
+      <c r="F19" s="62" t="inlineStr">
+        <is>
+          <t>The current value of the selected protocol should be displayed</t>
+        </is>
+      </c>
+      <c r="G19" s="58" t="inlineStr"/>
+      <c r="H19" s="59" t="inlineStr"/>
+      <c r="I19" s="53" t="n"/>
+    </row>
+    <row r="20" ht="99.75" customHeight="1">
+      <c r="B20" s="57" t="inlineStr">
+        <is>
+          <t>TC_F_015</t>
+        </is>
+      </c>
+      <c r="C20" s="60" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D20" s="70" t="inlineStr">
+        <is>
+          <t>Verify Protocol Configuration - Set functionality (pending implementation)</t>
+        </is>
+      </c>
+      <c r="E20" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Protocol Configuration feature&lt;br&gt;2. Select a protocol from the Protocol Selection Window&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
+        </is>
+      </c>
+      <c r="F20" s="62" t="inlineStr">
+        <is>
+          <t>A message should indicate that this feature is pending implementation</t>
+        </is>
+      </c>
+      <c r="G20" s="58" t="inlineStr"/>
+      <c r="H20" s="59" t="inlineStr"/>
+      <c r="I20" s="53" t="n"/>
+    </row>
+    <row r="21" ht="99.75" customHeight="1">
+      <c r="B21" s="57" t="inlineStr">
+        <is>
+          <t>TC_F_016</t>
+        </is>
+      </c>
+      <c r="C21" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed on a desktop</t>
+        </is>
+      </c>
+      <c r="D21" s="70" t="inlineStr">
+        <is>
+          <t>Verify desktop compatibility</t>
+        </is>
+      </c>
+      <c r="E21" s="61" t="inlineStr">
+        <is>
+          <t>1. Install the application using MultiFunctionalTool_For_Desktop.zip&lt;br&gt;2. Launch the application&lt;br&gt;3. Test each main feature</t>
+        </is>
+      </c>
+      <c r="F21" s="62" t="inlineStr">
+        <is>
+          <t>All features should function correctly on a desktop environment</t>
+        </is>
+      </c>
+      <c r="G21" s="58" t="inlineStr"/>
+      <c r="H21" s="59" t="inlineStr"/>
+      <c r="I21" s="53" t="n"/>
+    </row>
+    <row r="22" ht="99.75" customHeight="1">
+      <c r="B22" s="57" t="inlineStr">
+        <is>
+          <t>TC_F_017</t>
+        </is>
+      </c>
+      <c r="C22" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed on a laptop</t>
+        </is>
+      </c>
+      <c r="D22" s="70" t="inlineStr">
+        <is>
+          <t>Verify laptop compatibility</t>
+        </is>
+      </c>
+      <c r="E22" s="61" t="inlineStr">
+        <is>
+          <t>1. Install the application using MultiFunctionalTool_For_Laptop.zip&lt;br&gt;2. Launch the application&lt;br&gt;3. Test each main feature</t>
+        </is>
+      </c>
+      <c r="F22" s="62" t="inlineStr">
+        <is>
+          <t>All features should function correctly on a laptop environment</t>
+        </is>
+      </c>
+      <c r="G22" s="58" t="inlineStr"/>
+      <c r="H22" s="59" t="inlineStr"/>
+      <c r="I22" s="53" t="n"/>
+    </row>
+    <row r="23" ht="99.75" customHeight="1">
+      <c r="B23" s="57" t="inlineStr">
+        <is>
+          <t>TC_NF_018</t>
+        </is>
+      </c>
+      <c r="C23" s="60" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D23" s="70" t="inlineStr">
+        <is>
+          <t>Verify application response time</t>
+        </is>
+      </c>
+      <c r="E23" s="61" t="inlineStr">
+        <is>
+          <t>1. Launch the application&lt;br&gt;2. Measure the time taken for the application to start&lt;br&gt;3. Measure the response time when switching between features</t>
+        </is>
+      </c>
+      <c r="F23" s="62" t="inlineStr">
+        <is>
+          <t>1. Application should start within 5 seconds&lt;br&gt;2. Feature switching should occur within 2 seconds</t>
+        </is>
+      </c>
+      <c r="G23" s="58" t="inlineStr"/>
+      <c r="H23" s="59" t="inlineStr"/>
+      <c r="I23" s="53" t="n"/>
+    </row>
+    <row r="24" ht="99.75" customHeight="1">
+      <c r="B24" s="57" t="n"/>
+      <c r="C24" s="60" t="n"/>
+      <c r="D24" s="70" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="62" t="n"/>
+      <c r="G24" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H24" s="59" t="n"/>
+      <c r="I24" s="53" t="n"/>
+    </row>
+    <row r="25" ht="99.75" customHeight="1">
+      <c r="B25" s="57" t="n"/>
+      <c r="C25" s="60" t="n"/>
+      <c r="D25" s="70" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="62" t="n"/>
+      <c r="G25" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H25" s="59" t="n"/>
+      <c r="I25" s="53" t="n"/>
+    </row>
+    <row r="26" ht="99.75" customHeight="1">
+      <c r="B26" s="57" t="n"/>
+      <c r="C26" s="60" t="n"/>
+      <c r="D26" s="70" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="62" t="n"/>
+      <c r="G26" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H26" s="59" t="n"/>
+      <c r="I26" s="53" t="n"/>
+    </row>
+    <row r="27" ht="99.75" customHeight="1">
+      <c r="B27" s="57" t="n"/>
+      <c r="C27" s="60" t="n"/>
+      <c r="D27" s="70" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="62" t="n"/>
+      <c r="G27" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H27" s="59" t="n"/>
+      <c r="I27" s="53" t="n"/>
+    </row>
+    <row r="28" ht="99.75" customHeight="1">
+      <c r="B28" s="57" t="n"/>
+      <c r="C28" s="60" t="n"/>
+      <c r="D28" s="70" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="62" t="n"/>
+      <c r="G28" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H28" s="59" t="n"/>
+      <c r="I28" s="53" t="n"/>
+    </row>
+    <row r="29" ht="99.75" customHeight="1">
+      <c r="B29" s="57" t="n"/>
+      <c r="C29" s="60" t="n"/>
+      <c r="D29" s="70" t="n"/>
+      <c r="E29" s="61" t="n"/>
+      <c r="F29" s="62" t="n"/>
+      <c r="G29" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H29" s="59" t="n"/>
+      <c r="I29" s="53" t="n"/>
+    </row>
+    <row r="30" ht="99.75" customHeight="1">
+      <c r="B30" s="57" t="n"/>
+      <c r="C30" s="60" t="n"/>
+      <c r="D30" s="70" t="n"/>
+      <c r="E30" s="61" t="n"/>
+      <c r="F30" s="62" t="n"/>
+      <c r="G30" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H30" s="59" t="n"/>
+      <c r="I30" s="53" t="n"/>
+    </row>
+    <row r="31" ht="99.75" customHeight="1">
+      <c r="B31" s="57" t="n"/>
+      <c r="C31" s="60" t="n"/>
+      <c r="D31" s="70" t="n"/>
+      <c r="E31" s="61" t="n"/>
+      <c r="F31" s="62" t="n"/>
+      <c r="G31" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H31" s="59" t="n"/>
+      <c r="I31" s="53" t="n"/>
+    </row>
+    <row r="32" ht="99.75" customHeight="1">
+      <c r="B32" s="57" t="n"/>
+      <c r="C32" s="60" t="n"/>
+      <c r="D32" s="70" t="n"/>
+      <c r="E32" s="61" t="n"/>
+      <c r="F32" s="62" t="n"/>
+      <c r="G32" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H32" s="59" t="n"/>
+      <c r="I32" s="53" t="n"/>
+    </row>
+    <row r="33" ht="99.75" customHeight="1">
+      <c r="B33" s="57" t="n"/>
+      <c r="C33" s="60" t="n"/>
+      <c r="D33" s="70" t="n"/>
+      <c r="E33" s="61" t="n"/>
+      <c r="F33" s="62" t="n"/>
+      <c r="G33" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H33" s="59" t="n"/>
+      <c r="I33" s="53" t="n"/>
+    </row>
+    <row r="34" ht="99.75" customHeight="1">
+      <c r="B34" s="57" t="n"/>
+      <c r="C34" s="60" t="n"/>
+      <c r="D34" s="70" t="n"/>
+      <c r="E34" s="61" t="n"/>
+      <c r="F34" s="62" t="n"/>
+      <c r="G34" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H34" s="59" t="n"/>
+      <c r="I34" s="53" t="n"/>
+    </row>
+    <row r="35" ht="99.75" customHeight="1">
+      <c r="B35" s="57" t="n"/>
+      <c r="C35" s="60" t="n"/>
+      <c r="D35" s="70" t="n"/>
+      <c r="E35" s="61" t="n"/>
+      <c r="F35" s="62" t="n"/>
+      <c r="G35" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H35" s="59" t="n"/>
+      <c r="I35" s="53" t="n"/>
+    </row>
+    <row r="36" ht="99.75" customHeight="1">
+      <c r="B36" s="57" t="n"/>
+      <c r="C36" s="60" t="n"/>
+      <c r="D36" s="70" t="n"/>
+      <c r="E36" s="61" t="n"/>
+      <c r="F36" s="62" t="n"/>
+      <c r="G36" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H36" s="59" t="n"/>
+      <c r="I36" s="53" t="n"/>
+    </row>
+    <row r="37" ht="99.75" customHeight="1">
+      <c r="B37" s="57" t="n"/>
+      <c r="C37" s="60" t="n"/>
+      <c r="D37" s="70" t="n"/>
+      <c r="E37" s="61" t="n"/>
+      <c r="F37" s="62" t="n"/>
+      <c r="G37" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H37" s="59" t="n"/>
+      <c r="I37" s="53" t="n"/>
+    </row>
+    <row r="38" ht="99.75" customHeight="1">
+      <c r="B38" s="57" t="n"/>
+      <c r="C38" s="60" t="n"/>
+      <c r="D38" s="70" t="n"/>
+      <c r="E38" s="61" t="n"/>
+      <c r="F38" s="62" t="n"/>
+      <c r="G38" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H38" s="59" t="n"/>
+      <c r="I38" s="53" t="n"/>
+    </row>
+    <row r="39" ht="99.75" customHeight="1">
+      <c r="B39" s="57" t="n"/>
+      <c r="C39" s="60" t="n"/>
+      <c r="D39" s="70" t="n"/>
+      <c r="E39" s="61" t="n"/>
+      <c r="F39" s="62" t="n"/>
+      <c r="G39" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H39" s="59" t="n"/>
+      <c r="I39" s="53" t="n"/>
+    </row>
+    <row r="40" ht="99.75" customHeight="1">
+      <c r="B40" s="57" t="n"/>
+      <c r="C40" s="60" t="n"/>
+      <c r="D40" s="70" t="n"/>
+      <c r="E40" s="61" t="n"/>
+      <c r="F40" s="62" t="n"/>
+      <c r="G40" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H40" s="59" t="n"/>
+      <c r="I40" s="53" t="n"/>
+    </row>
+    <row r="41" ht="99.75" customHeight="1">
+      <c r="B41" s="57" t="n"/>
+      <c r="C41" s="60" t="n"/>
+      <c r="D41" s="70" t="n"/>
+      <c r="E41" s="61" t="n"/>
+      <c r="F41" s="62" t="n"/>
+      <c r="G41" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H41" s="59" t="n"/>
+      <c r="I41" s="53" t="n"/>
+    </row>
+    <row r="42" ht="99.75" customHeight="1">
+      <c r="B42" s="57" t="n"/>
+      <c r="C42" s="60" t="n"/>
+      <c r="D42" s="70" t="n"/>
+      <c r="E42" s="61" t="n"/>
+      <c r="F42" s="62" t="n"/>
+      <c r="G42" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H42" s="59" t="n"/>
+      <c r="I42" s="53" t="n"/>
+    </row>
+    <row r="43" ht="99.75" customHeight="1">
+      <c r="B43" s="57" t="n"/>
+      <c r="C43" s="60" t="n"/>
+      <c r="D43" s="70" t="n"/>
+      <c r="E43" s="61" t="n"/>
+      <c r="F43" s="62" t="n"/>
+      <c r="G43" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H43" s="59" t="n"/>
+      <c r="I43" s="53" t="n"/>
+    </row>
+    <row r="44" ht="99.75" customHeight="1">
+      <c r="B44" s="57" t="n"/>
+      <c r="C44" s="60" t="n"/>
+      <c r="D44" s="70" t="n"/>
+      <c r="E44" s="61" t="n"/>
+      <c r="F44" s="62" t="n"/>
+      <c r="G44" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H44" s="59" t="n"/>
+      <c r="I44" s="53" t="n"/>
+    </row>
+    <row r="45" ht="99.75" customHeight="1">
+      <c r="B45" s="57" t="n"/>
+      <c r="C45" s="60" t="n"/>
+      <c r="D45" s="70" t="n"/>
+      <c r="E45" s="61" t="n"/>
+      <c r="F45" s="62" t="n"/>
+      <c r="G45" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H45" s="59" t="n"/>
+      <c r="I45" s="53" t="n"/>
+    </row>
+    <row r="46" ht="99.75" customHeight="1">
+      <c r="B46" s="57" t="n"/>
+      <c r="C46" s="60" t="n"/>
+      <c r="D46" s="70" t="n"/>
+      <c r="E46" s="61" t="n"/>
+      <c r="F46" s="62" t="n"/>
+      <c r="G46" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H46" s="59" t="n"/>
+      <c r="I46" s="53" t="n"/>
+    </row>
+    <row r="47" ht="99.75" customHeight="1">
+      <c r="B47" s="57" t="n"/>
+      <c r="C47" s="60" t="n"/>
+      <c r="D47" s="70" t="n"/>
+      <c r="E47" s="61" t="n"/>
+      <c r="F47" s="62" t="n"/>
+      <c r="G47" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H47" s="59" t="n"/>
+      <c r="I47" s="53" t="n"/>
+    </row>
+    <row r="48" ht="99.75" customHeight="1">
+      <c r="B48" s="57" t="n"/>
+      <c r="C48" s="60" t="n"/>
+      <c r="D48" s="70" t="n"/>
+      <c r="E48" s="61" t="n"/>
+      <c r="F48" s="62" t="n"/>
+      <c r="G48" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H48" s="59" t="n"/>
+      <c r="I48" s="53" t="n"/>
+    </row>
+    <row r="49" ht="99.75" customHeight="1">
+      <c r="B49" s="57" t="n"/>
+      <c r="C49" s="60" t="n"/>
+      <c r="D49" s="70" t="n"/>
+      <c r="E49" s="61" t="n"/>
+      <c r="F49" s="62" t="n"/>
+      <c r="G49" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H49" s="59" t="n"/>
+      <c r="I49" s="53" t="n"/>
+    </row>
+    <row r="50" ht="99.75" customHeight="1">
+      <c r="B50" s="57" t="n"/>
+      <c r="C50" s="60" t="n"/>
+      <c r="D50" s="70" t="n"/>
+      <c r="E50" s="61" t="n"/>
+      <c r="F50" s="62" t="n"/>
+      <c r="G50" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H50" s="59" t="n"/>
+      <c r="I50" s="53" t="n"/>
+    </row>
+    <row r="51" ht="99.75" customHeight="1">
+      <c r="B51" s="57" t="n"/>
+      <c r="C51" s="60" t="n"/>
+      <c r="D51" s="70" t="n"/>
+      <c r="E51" s="61" t="n"/>
+      <c r="F51" s="62" t="n"/>
+      <c r="G51" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H51" s="59" t="n"/>
+      <c r="I51" s="53" t="n"/>
+    </row>
+    <row r="52" ht="99.75" customHeight="1">
+      <c r="B52" s="57" t="n"/>
+      <c r="C52" s="60" t="n"/>
+      <c r="D52" s="70" t="n"/>
+      <c r="E52" s="61" t="n"/>
+      <c r="F52" s="62" t="n"/>
+      <c r="G52" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H52" s="59" t="n"/>
+      <c r="I52" s="53" t="n"/>
+    </row>
+    <row r="53" ht="99.75" customHeight="1">
+      <c r="B53" s="57" t="n"/>
+      <c r="C53" s="60" t="n"/>
+      <c r="D53" s="70" t="n"/>
+      <c r="E53" s="61" t="n"/>
+      <c r="F53" s="62" t="n"/>
+      <c r="G53" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H53" s="59" t="n"/>
+      <c r="I53" s="53" t="n"/>
+    </row>
+    <row r="54" ht="99.75" customHeight="1">
+      <c r="B54" s="57" t="n"/>
+      <c r="C54" s="60" t="n"/>
+      <c r="D54" s="70" t="n"/>
+      <c r="E54" s="61" t="n"/>
+      <c r="F54" s="62" t="n"/>
+      <c r="G54" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H54" s="59" t="n"/>
+      <c r="I54" s="53" t="n"/>
+    </row>
+    <row r="55" ht="99.75" customHeight="1">
+      <c r="B55" s="57" t="n"/>
+      <c r="C55" s="60" t="n"/>
+      <c r="D55" s="70" t="n"/>
+      <c r="E55" s="61" t="n"/>
+      <c r="F55" s="62" t="n"/>
+      <c r="G55" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H55" s="59" t="n"/>
+      <c r="I55" s="53" t="n"/>
+    </row>
+    <row r="56" ht="99.75" customHeight="1">
+      <c r="B56" s="57" t="n"/>
+      <c r="C56" s="60" t="n"/>
+      <c r="D56" s="70" t="n"/>
+      <c r="E56" s="61" t="n"/>
+      <c r="F56" s="62" t="n"/>
+      <c r="G56" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H56" s="59" t="n"/>
+      <c r="I56" s="53" t="n"/>
+    </row>
+    <row r="57" ht="99.75" customHeight="1">
+      <c r="B57" s="57" t="n"/>
+      <c r="C57" s="60" t="n"/>
+      <c r="D57" s="70" t="n"/>
+      <c r="E57" s="61" t="n"/>
+      <c r="F57" s="62" t="n"/>
+      <c r="G57" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H57" s="59" t="n"/>
+      <c r="I57" s="53" t="n"/>
+    </row>
+    <row r="58" ht="99.75" customHeight="1">
+      <c r="B58" s="57" t="n"/>
+      <c r="C58" s="60" t="n"/>
+      <c r="D58" s="70" t="n"/>
+      <c r="E58" s="61" t="n"/>
+      <c r="F58" s="62" t="n"/>
+      <c r="G58" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H58" s="59" t="n"/>
+      <c r="I58" s="53" t="n"/>
+    </row>
+    <row r="59" ht="99.75" customHeight="1">
+      <c r="B59" s="57" t="n"/>
+      <c r="C59" s="60" t="n"/>
+      <c r="D59" s="70" t="n"/>
+      <c r="E59" s="61" t="n"/>
+      <c r="F59" s="62" t="n"/>
+      <c r="G59" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H59" s="59" t="n"/>
+      <c r="I59" s="53" t="n"/>
+    </row>
+    <row r="60" ht="99.75" customHeight="1">
+      <c r="B60" s="57" t="n"/>
+      <c r="C60" s="60" t="n"/>
+      <c r="D60" s="70" t="n"/>
+      <c r="E60" s="61" t="n"/>
+      <c r="F60" s="62" t="n"/>
+      <c r="G60" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H60" s="59" t="n"/>
+      <c r="I60" s="53" t="n"/>
+    </row>
+    <row r="61" ht="99.75" customHeight="1">
+      <c r="B61" s="57" t="n"/>
+      <c r="C61" s="60" t="n"/>
+      <c r="D61" s="70" t="n"/>
+      <c r="E61" s="61" t="n"/>
+      <c r="F61" s="62" t="n"/>
+      <c r="G61" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H61" s="59" t="n"/>
+      <c r="I61" s="53" t="n"/>
+    </row>
+    <row r="62" ht="99.75" customHeight="1">
+      <c r="B62" s="57" t="n"/>
+      <c r="C62" s="60" t="n"/>
+      <c r="D62" s="70" t="n"/>
+      <c r="E62" s="61" t="n"/>
+      <c r="F62" s="62" t="n"/>
+      <c r="G62" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H62" s="59" t="n"/>
+      <c r="I62" s="53" t="n"/>
+    </row>
+    <row r="63" ht="99.75" customHeight="1">
+      <c r="B63" s="57" t="n"/>
+      <c r="C63" s="60" t="n"/>
+      <c r="D63" s="70" t="n"/>
+      <c r="E63" s="61" t="n"/>
+      <c r="F63" s="62" t="n"/>
+      <c r="G63" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H63" s="59" t="n"/>
+      <c r="I63" s="53" t="n"/>
+    </row>
+    <row r="64" ht="99.75" customHeight="1">
+      <c r="B64" s="57" t="n"/>
+      <c r="C64" s="60" t="n"/>
+      <c r="D64" s="70" t="n"/>
+      <c r="E64" s="61" t="n"/>
+      <c r="F64" s="62" t="n"/>
+      <c r="G64" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H64" s="59" t="n"/>
+      <c r="I64" s="53" t="n"/>
+    </row>
+    <row r="65" ht="99.75" customHeight="1">
+      <c r="B65" s="57" t="n"/>
+      <c r="C65" s="60" t="n"/>
+      <c r="D65" s="70" t="n"/>
+      <c r="E65" s="61" t="n"/>
+      <c r="F65" s="62" t="n"/>
+      <c r="G65" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H65" s="59" t="n"/>
+      <c r="I65" s="53" t="n"/>
+    </row>
+    <row r="66" ht="99.75" customHeight="1">
+      <c r="B66" s="57" t="n"/>
+      <c r="C66" s="60" t="n"/>
+      <c r="D66" s="70" t="n"/>
+      <c r="E66" s="61" t="n"/>
+      <c r="F66" s="62" t="n"/>
+      <c r="G66" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H66" s="59" t="n"/>
+      <c r="I66" s="53" t="n"/>
+    </row>
+    <row r="67" ht="99.75" customHeight="1">
+      <c r="B67" s="57" t="n"/>
+      <c r="C67" s="60" t="n"/>
+      <c r="D67" s="70" t="n"/>
+      <c r="E67" s="61" t="n"/>
+      <c r="F67" s="62" t="n"/>
+      <c r="G67" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H67" s="59" t="n"/>
+      <c r="I67" s="53" t="n"/>
+    </row>
+    <row r="68" ht="99.75" customHeight="1">
+      <c r="B68" s="57" t="n"/>
+      <c r="C68" s="60" t="n"/>
+      <c r="D68" s="70" t="n"/>
+      <c r="E68" s="61" t="n"/>
+      <c r="F68" s="62" t="n"/>
+      <c r="G68" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H68" s="59" t="n"/>
+      <c r="I68" s="53" t="n"/>
+    </row>
+    <row r="69" ht="99.75" customHeight="1">
+      <c r="B69" s="57" t="n"/>
+      <c r="C69" s="60" t="n"/>
+      <c r="D69" s="70" t="n"/>
+      <c r="E69" s="61" t="n"/>
+      <c r="F69" s="62" t="n"/>
+      <c r="G69" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H69" s="59" t="n"/>
+      <c r="I69" s="53" t="n"/>
+    </row>
+    <row r="70" ht="99.75" customHeight="1">
+      <c r="B70" s="57" t="n"/>
+      <c r="C70" s="60" t="n"/>
+      <c r="D70" s="70" t="n"/>
+      <c r="E70" s="61" t="n"/>
+      <c r="F70" s="62" t="n"/>
+      <c r="G70" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H70" s="59" t="n"/>
+      <c r="I70" s="53" t="n"/>
+    </row>
+    <row r="71" ht="99.75" customHeight="1">
+      <c r="B71" s="57" t="n"/>
+      <c r="C71" s="60" t="n"/>
+      <c r="D71" s="70" t="n"/>
+      <c r="E71" s="61" t="n"/>
+      <c r="F71" s="62" t="n"/>
+      <c r="G71" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H71" s="59" t="n"/>
+      <c r="I71" s="53" t="n"/>
+    </row>
+    <row r="72" ht="99.75" customHeight="1">
+      <c r="B72" s="57" t="n"/>
+      <c r="C72" s="60" t="n"/>
+      <c r="D72" s="70" t="n"/>
+      <c r="E72" s="61" t="n"/>
+      <c r="F72" s="62" t="n"/>
+      <c r="G72" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H72" s="59" t="n"/>
+      <c r="I72" s="53" t="n"/>
+    </row>
+    <row r="73" ht="99.75" customHeight="1">
+      <c r="B73" s="57" t="n"/>
+      <c r="C73" s="60" t="n"/>
+      <c r="D73" s="70" t="n"/>
+      <c r="E73" s="61" t="n"/>
+      <c r="F73" s="62" t="n"/>
+      <c r="G73" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H73" s="59" t="n"/>
+      <c r="I73" s="53" t="n"/>
+    </row>
+    <row r="74" ht="99.75" customHeight="1">
+      <c r="B74" s="57" t="n"/>
+      <c r="C74" s="60" t="n"/>
+      <c r="D74" s="70" t="n"/>
+      <c r="E74" s="61" t="n"/>
+      <c r="F74" s="62" t="n"/>
+      <c r="G74" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H74" s="59" t="n"/>
+      <c r="I74" s="53" t="n"/>
+    </row>
+    <row r="75" ht="99.75" customHeight="1">
+      <c r="B75" s="57" t="n"/>
+      <c r="C75" s="60" t="n"/>
+      <c r="D75" s="70" t="n"/>
+      <c r="E75" s="61" t="n"/>
+      <c r="F75" s="62" t="n"/>
+      <c r="G75" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H75" s="59" t="n"/>
+      <c r="I75" s="53" t="n"/>
+    </row>
+    <row r="76" ht="99.75" customHeight="1">
+      <c r="B76" s="57" t="n"/>
+      <c r="C76" s="60" t="n"/>
+      <c r="D76" s="70" t="n"/>
+      <c r="E76" s="61" t="n"/>
+      <c r="F76" s="62" t="n"/>
+      <c r="G76" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H76" s="59" t="n"/>
+      <c r="I76" s="53" t="n"/>
+    </row>
+    <row r="77" ht="99.75" customHeight="1">
+      <c r="B77" s="57" t="n"/>
+      <c r="C77" s="60" t="n"/>
+      <c r="D77" s="70" t="n"/>
+      <c r="E77" s="61" t="n"/>
+      <c r="F77" s="62" t="n"/>
+      <c r="G77" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H77" s="59" t="n"/>
+      <c r="I77" s="53" t="n"/>
+    </row>
+    <row r="78" ht="99.75" customHeight="1">
+      <c r="B78" s="57" t="n"/>
+      <c r="C78" s="60" t="n"/>
+      <c r="D78" s="70" t="n"/>
+      <c r="E78" s="61" t="n"/>
+      <c r="F78" s="62" t="n"/>
+      <c r="G78" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H78" s="59" t="n"/>
+      <c r="I78" s="53" t="n"/>
+    </row>
+    <row r="79" ht="99.75" customHeight="1">
+      <c r="B79" s="57" t="n"/>
+      <c r="C79" s="60" t="n"/>
+      <c r="D79" s="70" t="n"/>
+      <c r="E79" s="61" t="n"/>
+      <c r="F79" s="62" t="n"/>
+      <c r="G79" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H79" s="59" t="n"/>
+      <c r="I79" s="53" t="n"/>
+    </row>
+    <row r="80" ht="99.75" customHeight="1">
+      <c r="B80" s="57" t="n"/>
+      <c r="C80" s="60" t="n"/>
+      <c r="D80" s="70" t="n"/>
+      <c r="E80" s="61" t="n"/>
+      <c r="F80" s="62" t="n"/>
+      <c r="G80" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H80" s="59" t="n"/>
+      <c r="I80" s="53" t="n"/>
+    </row>
+    <row r="81" ht="99.75" customHeight="1">
+      <c r="B81" s="57" t="n"/>
+      <c r="C81" s="60" t="n"/>
+      <c r="D81" s="70" t="n"/>
+      <c r="E81" s="61" t="n"/>
+      <c r="F81" s="62" t="n"/>
+      <c r="G81" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H81" s="59" t="n"/>
+      <c r="I81" s="53" t="n"/>
+    </row>
+    <row r="82" ht="99.75" customHeight="1">
+      <c r="B82" s="57" t="n"/>
+      <c r="C82" s="60" t="n"/>
+      <c r="D82" s="70" t="n"/>
+      <c r="E82" s="61" t="n"/>
+      <c r="F82" s="62" t="n"/>
+      <c r="G82" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H82" s="59" t="n"/>
+      <c r="I82" s="53" t="n"/>
+    </row>
+    <row r="83" ht="99.75" customHeight="1">
+      <c r="B83" s="57" t="n"/>
+      <c r="C83" s="60" t="n"/>
+      <c r="D83" s="70" t="n"/>
+      <c r="E83" s="61" t="n"/>
+      <c r="F83" s="62" t="n"/>
+      <c r="G83" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H83" s="59" t="n"/>
+      <c r="I83" s="53" t="n"/>
+    </row>
+    <row r="84" ht="99.75" customHeight="1">
+      <c r="B84" s="57" t="n"/>
+      <c r="C84" s="60" t="n"/>
+      <c r="D84" s="70" t="n"/>
+      <c r="E84" s="61" t="n"/>
+      <c r="F84" s="62" t="n"/>
+      <c r="G84" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H84" s="59" t="n"/>
+      <c r="I84" s="53" t="n"/>
+    </row>
+    <row r="85" ht="99.75" customHeight="1">
+      <c r="B85" s="57" t="n"/>
+      <c r="C85" s="60" t="n"/>
+      <c r="D85" s="70" t="n"/>
+      <c r="E85" s="61" t="n"/>
+      <c r="F85" s="62" t="n"/>
+      <c r="G85" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H85" s="59" t="n"/>
+      <c r="I85" s="53" t="n"/>
+    </row>
+    <row r="86" ht="99.75" customHeight="1">
+      <c r="B86" s="57" t="n"/>
+      <c r="C86" s="60" t="n"/>
+      <c r="D86" s="70" t="n"/>
+      <c r="E86" s="61" t="n"/>
+      <c r="F86" s="62" t="n"/>
+      <c r="G86" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H86" s="59" t="n"/>
+      <c r="I86" s="53" t="n"/>
+    </row>
+    <row r="87" ht="99.75" customHeight="1">
+      <c r="B87" s="57" t="n"/>
+      <c r="C87" s="60" t="n"/>
+      <c r="D87" s="70" t="n"/>
+      <c r="E87" s="61" t="n"/>
+      <c r="F87" s="62" t="n"/>
+      <c r="G87" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H87" s="59" t="n"/>
+      <c r="I87" s="53" t="n"/>
+    </row>
+    <row r="88" ht="99.75" customHeight="1">
+      <c r="B88" s="57" t="n"/>
+      <c r="C88" s="60" t="n"/>
+      <c r="D88" s="70" t="n"/>
+      <c r="E88" s="61" t="n"/>
+      <c r="F88" s="62" t="n"/>
+      <c r="G88" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H88" s="59" t="n"/>
+      <c r="I88" s="53" t="n"/>
+    </row>
+    <row r="89" ht="99.75" customHeight="1">
+      <c r="B89" s="57" t="n"/>
+      <c r="C89" s="60" t="n"/>
+      <c r="D89" s="70" t="n"/>
+      <c r="E89" s="61" t="n"/>
+      <c r="F89" s="62" t="n"/>
+      <c r="G89" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H89" s="59" t="n"/>
+      <c r="I89" s="53" t="n"/>
+    </row>
+    <row r="90" ht="99.75" customHeight="1">
+      <c r="B90" s="57" t="n"/>
+      <c r="C90" s="60" t="n"/>
+      <c r="D90" s="70" t="n"/>
+      <c r="E90" s="61" t="n"/>
+      <c r="F90" s="62" t="n"/>
+      <c r="G90" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H90" s="59" t="n"/>
+      <c r="I90" s="53" t="n"/>
+    </row>
+    <row r="91" ht="99.75" customHeight="1">
+      <c r="B91" s="57" t="n"/>
+      <c r="C91" s="60" t="n"/>
+      <c r="D91" s="70" t="n"/>
+      <c r="E91" s="61" t="n"/>
+      <c r="F91" s="62" t="n"/>
+      <c r="G91" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H91" s="59" t="n"/>
+      <c r="I91" s="53" t="n"/>
+    </row>
+    <row r="92" ht="99.75" customHeight="1">
+      <c r="B92" s="57" t="n"/>
+      <c r="C92" s="60" t="n"/>
+      <c r="D92" s="70" t="n"/>
+      <c r="E92" s="61" t="n"/>
+      <c r="F92" s="62" t="n"/>
+      <c r="G92" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H92" s="59" t="n"/>
+      <c r="I92" s="53" t="n"/>
+    </row>
+    <row r="93" ht="99.75" customHeight="1">
+      <c r="B93" s="57" t="n"/>
+      <c r="C93" s="60" t="n"/>
+      <c r="D93" s="70" t="n"/>
+      <c r="E93" s="61" t="n"/>
+      <c r="F93" s="62" t="n"/>
+      <c r="G93" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H93" s="59" t="n"/>
+      <c r="I93" s="53" t="n"/>
+    </row>
+    <row r="94" ht="99.75" customHeight="1">
+      <c r="B94" s="57" t="n"/>
+      <c r="C94" s="60" t="n"/>
+      <c r="D94" s="70" t="n"/>
+      <c r="E94" s="61" t="n"/>
+      <c r="F94" s="62" t="n"/>
+      <c r="G94" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H94" s="59" t="n"/>
+      <c r="I94" s="53" t="n"/>
+    </row>
+    <row r="95" ht="99.75" customHeight="1">
+      <c r="B95" s="57" t="n"/>
+      <c r="C95" s="60" t="n"/>
+      <c r="D95" s="70" t="n"/>
+      <c r="E95" s="61" t="n"/>
+      <c r="F95" s="62" t="n"/>
+      <c r="G95" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H95" s="59" t="n"/>
+      <c r="I95" s="53" t="n"/>
+    </row>
+    <row r="96" ht="99.75" customHeight="1">
+      <c r="B96" s="57" t="n"/>
+      <c r="C96" s="60" t="n"/>
+      <c r="D96" s="70" t="n"/>
+      <c r="E96" s="61" t="n"/>
+      <c r="F96" s="62" t="n"/>
+      <c r="G96" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H96" s="59" t="n"/>
+      <c r="I96" s="53" t="n"/>
+    </row>
+    <row r="97" ht="99.75" customHeight="1">
+      <c r="B97" s="57" t="n"/>
+      <c r="C97" s="60" t="n"/>
+      <c r="D97" s="70" t="n"/>
+      <c r="E97" s="61" t="n"/>
+      <c r="F97" s="62" t="n"/>
+      <c r="G97" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H97" s="59" t="n"/>
+      <c r="I97" s="53" t="n"/>
+    </row>
+    <row r="98" ht="99.75" customHeight="1">
+      <c r="B98" s="57" t="n"/>
+      <c r="C98" s="60" t="n"/>
+      <c r="D98" s="70" t="n"/>
+      <c r="E98" s="61" t="n"/>
+      <c r="F98" s="62" t="n"/>
+      <c r="G98" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H98" s="59" t="n"/>
+      <c r="I98" s="53" t="n"/>
+    </row>
+    <row r="99" ht="99.75" customHeight="1">
+      <c r="B99" s="57" t="n"/>
+      <c r="C99" s="60" t="n"/>
+      <c r="D99" s="70" t="n"/>
+      <c r="E99" s="61" t="n"/>
+      <c r="F99" s="62" t="n"/>
+      <c r="G99" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H99" s="59" t="n"/>
+      <c r="I99" s="53" t="n"/>
+    </row>
+    <row r="100" ht="99.75" customHeight="1">
+      <c r="B100" s="57" t="n"/>
+      <c r="C100" s="60" t="n"/>
+      <c r="D100" s="70" t="n"/>
+      <c r="E100" s="61" t="n"/>
+      <c r="F100" s="62" t="n"/>
+      <c r="G100" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H100" s="59" t="n"/>
+      <c r="I100" s="53" t="n"/>
+    </row>
+    <row r="101" ht="99.75" customHeight="1">
+      <c r="B101" s="57" t="n"/>
+      <c r="C101" s="60" t="n"/>
+      <c r="D101" s="70" t="n"/>
+      <c r="E101" s="61" t="n"/>
+      <c r="F101" s="62" t="n"/>
+      <c r="G101" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H101" s="59" t="n"/>
+      <c r="I101" s="53" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="63" t="n"/>
+      <c r="B102" s="63" t="n"/>
+      <c r="C102" s="63" t="n"/>
+      <c r="D102" s="63" t="n"/>
+      <c r="E102" s="64" t="n"/>
+      <c r="F102" s="64" t="n"/>
+      <c r="G102" s="63" t="n"/>
+      <c r="H102" s="63" t="n"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="45" t="inlineStr">
+        <is>
+          <t>Test Summary</t>
+        </is>
+      </c>
+      <c r="C104" s="67" t="n"/>
+    </row>
+    <row r="105">
+      <c r="D105" s="45" t="inlineStr">
+        <is>
+          <t>Test Case Count:</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" s="46" t="inlineStr">
+        <is>
+          <t>Total Test Cases</t>
+        </is>
+      </c>
+      <c r="E106" s="71">
+        <f>COUNTA(B6:B6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="D107" s="65" t="inlineStr">
+        <is>
+          <t>Total Test Case Passed</t>
+        </is>
+      </c>
+      <c r="E107" s="71">
+        <f>COUNTIF(G6:G6,"PASS")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" s="46" t="inlineStr">
+        <is>
+          <t>Total Test Case Failed</t>
+        </is>
+      </c>
+      <c r="E108" s="71">
+        <f>COUNTIF(G6:G6,"FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="D109" s="68" t="inlineStr">
+        <is>
+          <t>Total Test Case Not  Executed</t>
+        </is>
+      </c>
+      <c r="E109" s="71">
+        <f>COUNTIF(G6:G6,"Not Executed")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="D111" s="45" t="n"/>
+      <c r="E111" s="69" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10862,7 +11960,7 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G13:G17">
+  <conditionalFormatting sqref="G103:G107">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="2" stopIfTrue="1">
       <formula>"PASS"</formula>
     </cfRule>
@@ -10874,10 +11972,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="G6:G11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="G6:G101" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"PASS,FAIL,Not Executed"</formula1>
     </dataValidation>
-    <dataValidation sqref="H6:H12" showDropDown="0" showInputMessage="1" showErrorMessage="0" allowBlank="1" prompt="Comments by Test Engineer"/>
+    <dataValidation sqref="H6:H102" showDropDown="0" showInputMessage="1" showErrorMessage="0" allowBlank="1" prompt="Comments by Test Engineer"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B1" location="Summary!A1" display="Summary Sheet"/>

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10254,7 +10254,7 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on desktop/laptop</t>
+          <t>Application is installed on a desktop PC</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ to desktop&lt;br&gt;2. Extract the contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Navigate to \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ &lt;br&gt; 2. Copy MultiFunctionalTool_For_Desktop.zip to a local folder &lt;br&gt; 3. Extract the zip file &lt;br&gt; 4. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>Application launches successfully</t>
+          <t>Application launches successfully with all menu options visible</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on laptop</t>
+          <t>Application is installed on a laptop</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
@@ -10294,12 +10294,12 @@
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ to laptop&lt;br&gt;2. Extract the contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Navigate to \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ &lt;br&gt; 2. Copy MultiFunctionalTool_For_Laptop.zip to a local folder &lt;br&gt; 3. Extract the zip file &lt;br&gt; 4. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>Application launches successfully</t>
+          <t>Application launches successfully with all menu options visible</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10324,12 +10324,12 @@
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application&lt;br&gt;2. Check for Network Packet Capture feature&lt;br&gt;3. Check for Memory Leak Check feature&lt;br&gt;4. Check for Debug Log Collection feature&lt;br&gt;5. Check for Diagnostic Code Details feature&lt;br&gt;6. Check for 08 Diagnostic Code Value Access feature&lt;br&gt;7. Check for Protocol Configuration feature</t>
+          <t>1. Launch the application &lt;br&gt; 2. Check for Network Packet Capture option &lt;br&gt; 3. Check for Memory Leak Check option &lt;br&gt; 4. Check for Debug Log Collection option &lt;br&gt; 5. Check for Diagnostic Code Details option &lt;br&gt; 6. Check for 08 Diagnostic Code Value Access option &lt;br&gt; 7. Check for Protocol Configuration option</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>All six features are visible and accessible in the application interface</t>
+          <t>All six main features are visible and accessible from the main interface</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10354,12 +10354,12 @@
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click on Start Capture button&lt;br&gt;3. Observe the application behavior</t>
+          <t>1. Navigate to Network Packet Capture feature &lt;br&gt; 2. Click on Start Capture button</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>Packet capture starts successfully with appropriate indication</t>
+          <t>Packet capture starts successfully with visual indication</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. With packet capture in progress&lt;br&gt;2. Click on Stop Capture button&lt;br&gt;3. Observe the application behavior</t>
+          <t>1. With packet capture in progress &lt;br&gt; 2. Click on Stop Capture button</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
@@ -10409,17 +10409,17 @@
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify .pcap file is saved to MFP's Shared Folder</t>
+          <t>Verify .pcap file storage and access</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. After stopping packet capture&lt;br&gt;2. Check if the application automatically opens the MFP's Shared Folder&lt;br&gt;3. Verify the presence of the .pcap file</t>
+          <t>1. After stopping packet capture &lt;br&gt; 2. Check if the .pcap file is copied to MFP's Shared Folder &lt;br&gt; 3. Verify if the folder opens automatically</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>1. MFP's Shared Folder opens automatically&lt;br&gt;2. .pcap file is present in the folder</t>
+          <t>The .pcap file is saved in the MFP's Shared Folder and the folder opens automatically</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>Application is launched and MFP is connected</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
@@ -10444,12 +10444,12 @@
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Memory Leak Check section&lt;br&gt;2. Select a specific protocol&lt;br&gt;3. Initiate the memory leak check&lt;br&gt;4. Observe the results</t>
+          <t>1. Navigate to Memory Leak Check feature &lt;br&gt; 2. Select a protocol from the available options &lt;br&gt; 3. Initiate the memory leak check</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>Memory Leak Comparison Table is displayed with accurate information</t>
+          <t>Memory Leak Comparison Table is displayed with relevant data</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10469,17 +10469,17 @@
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify Memory Leak detection accuracy</t>
+          <t>Verify Memory Leak detection</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. After memory leak check completes&lt;br&gt;2. Review the comparison table&lt;br&gt;3. Verify if the tool correctly identifies memory leaks</t>
+          <t>1. After Memory Leak Check completes &lt;br&gt; 2. Review the comparison table results</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>Tool accurately indicates whether a memory leak has occurred</t>
+          <t>The table clearly indicates whether a memory leak has occurred</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10504,12 +10504,12 @@
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button&lt;br&gt;3. Wait for the operation to complete</t>
+          <t>1. Navigate to Debug Log Collection feature &lt;br&gt; 2. Click the Run button</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>Script execution starts and collects logs</t>
+          <t>Script execution begins and collects logs</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10524,22 +10524,22 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>Debug Log Collection is completed</t>
+          <t>Debug Log Collection is in progress</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify logs are saved to MFP's Shared Folder</t>
+          <t>Verify Debug Log storage and access</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. After debug log collection completes&lt;br&gt;2. Check if the application automatically opens the MFP's Shared Folder&lt;br&gt;3. Verify the presence of log files</t>
+          <t>1. After log collection completes &lt;br&gt; 2. Check if logs are copied to MFP's Shared Folder &lt;br&gt; 3. Verify if the folder opens automatically</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>1. MFP's Shared Folder opens automatically&lt;br&gt;2. Debug log files are present in the folder</t>
+          <t>Debug logs are saved in the MFP's Shared Folder and the folder opens automatically</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10564,12 +10564,12 @@
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. If the folder is empty after first attempt&lt;br&gt;2. Perform the debug logs operation again&lt;br&gt;3. Check the folder contents</t>
+          <t>1. If the folder is empty after first attempt &lt;br&gt; 2. Perform the debug logs operation again</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>Debug log files appear in the folder after second attempt</t>
+          <t>Debug logs are successfully collected on the second attempt</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10594,12 +10594,12 @@
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select ECC option&lt;br&gt;3. Observe the displayed information</t>
+          <t>1. Navigate to Diagnostic Code Details feature &lt;br&gt; 2. Select ECC option &lt;br&gt; 3. Choose a specific diagnostic code</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>Relevant ECC diagnostic details are displayed correctly</t>
+          <t>Relevant job-specific details for the selected ECC diagnostic code are displayed</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10624,12 +10624,12 @@
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select Network Protocols option&lt;br&gt;3. Observe the displayed information</t>
+          <t>1. Navigate to Diagnostic Code Details feature &lt;br&gt; 2. Select Network Protocols option &lt;br&gt; 3. Choose a specific diagnostic code</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>Relevant Network Protocols diagnostic details are displayed correctly</t>
+          <t>Relevant job-specific details for the selected Network Protocols diagnostic code are displayed</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10654,12 +10654,12 @@
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select High Security Mode option&lt;br&gt;3. Observe the displayed information</t>
+          <t>1. Navigate to Diagnostic Code Details feature &lt;br&gt; 2. Select High Security Mode option &lt;br&gt; 3. Choose a specific diagnostic code</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>Relevant High Security Mode diagnostic details are displayed correctly</t>
+          <t>Relevant job-specific details for the selected High Security Mode diagnostic code are displayed</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10684,12 +10684,12 @@
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select commonly used diagnostic codes&lt;br&gt;3. Observe the displayed information</t>
+          <t>1. Navigate to Diagnostic Code Details feature &lt;br&gt; 2. Select commonly used diagnostic codes option &lt;br&gt; 3. Choose a specific diagnostic code</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for selected diagnostic codes are displayed correctly</t>
+          <t>Relevant job-specific details for the selected commonly used diagnostic code are displayed</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10714,12 +10714,12 @@
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value Access section&lt;br&gt;2. Select a specific diagnostic code&lt;br&gt;3. Click on Get Value button&lt;br&gt;4. Observe the displayed value</t>
+          <t>1. Navigate to 08 Diagnostic Code Value Access feature &lt;br&gt; 2. Select a specific diagnostic code &lt;br&gt; 3. Click on Get Value button</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected 08 diagnostic code is displayed correctly</t>
+          <t>Current value of the selected 08 diagnostic code is displayed</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10744,12 +10744,12 @@
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value Access section&lt;br&gt;2. Select a specific diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set Value button&lt;br&gt;5. Get the value again to verify</t>
+          <t>1. Navigate to 08 Diagnostic Code Value Access feature &lt;br&gt; 2. Select a specific diagnostic code &lt;br&gt; 3. Enter a new value &lt;br&gt; 4. Click on Set Value button</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>The 08 diagnostic code value is updated successfully with the new value</t>
+          <t>The 08 diagnostic code value is updated successfully with confirmation message</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
@@ -10757,17 +10757,33 @@
       <c r="I22" s="53" t="n"/>
     </row>
     <row r="23" ht="99.75" customHeight="1">
-      <c r="B23" s="57" t="n"/>
-      <c r="C23" s="60" t="n"/>
-      <c r="D23" s="70" t="n"/>
-      <c r="E23" s="61" t="n"/>
-      <c r="F23" s="62" t="n"/>
-      <c r="G23" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H23" s="59" t="n"/>
+      <c r="B23" s="57" t="inlineStr">
+        <is>
+          <t>TC018</t>
+        </is>
+      </c>
+      <c r="C23" s="60" t="inlineStr">
+        <is>
+          <t>Application is launched and MFP is connected</t>
+        </is>
+      </c>
+      <c r="D23" s="70" t="inlineStr">
+        <is>
+          <t>Verify Protocol Configuration Get functionality</t>
+        </is>
+      </c>
+      <c r="E23" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Protocol Configuration feature &lt;br&gt; 2. Open Protocol Selection Window &lt;br&gt; 3. Select a protocol &lt;br&gt; 4. Click on Get Value button</t>
+        </is>
+      </c>
+      <c r="F23" s="62" t="inlineStr">
+        <is>
+          <t>Current value of the selected protocol is displayed</t>
+        </is>
+      </c>
+      <c r="G23" s="58" t="inlineStr"/>
+      <c r="H23" s="59" t="inlineStr"/>
       <c r="I23" s="53" t="n"/>
     </row>
     <row r="24" ht="99.75" customHeight="1">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10254,7 +10254,7 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on a desktop PC</t>
+          <t>Application is installed on a desktop computer</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ &lt;br&gt; 2. Copy MultiFunctionalTool_For_Desktop.zip to a local folder &lt;br&gt; 3. Extract the zip file &lt;br&gt; 4. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ to a preferred location&lt;br&gt;2. Extract the contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>Application launches successfully with all menu options visible</t>
+          <t>The application should launch successfully</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10294,12 +10294,12 @@
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ &lt;br&gt; 2. Copy MultiFunctionalTool_For_Laptop.zip to a local folder &lt;br&gt; 3. Extract the zip file &lt;br&gt; 4. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ to a preferred location&lt;br&gt;2. Extract the contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>Application launches successfully with all menu options visible</t>
+          <t>The application should launch successfully</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10319,17 +10319,17 @@
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify all main features are accessible</t>
+          <t>Verify all main features are accessible from the main interface</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application &lt;br&gt; 2. Check for Network Packet Capture option &lt;br&gt; 3. Check for Memory Leak Check option &lt;br&gt; 4. Check for Debug Log Collection option &lt;br&gt; 5. Check for Diagnostic Code Details option &lt;br&gt; 6. Check for 08 Diagnostic Code Value Access option &lt;br&gt; 7. Check for Protocol Configuration option</t>
+          <t>1. Launch the application&lt;br&gt;2. Check for Network Packet Capture feature&lt;br&gt;3. Check for Memory Leak Check feature&lt;br&gt;4. Check for Debug Log Collection feature&lt;br&gt;5. Check for Diagnostic Code Details feature&lt;br&gt;6. Check for 08 Diagnostic Code Value Access feature&lt;br&gt;7. Check for Protocol Configuration feature</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>All six main features are visible and accessible from the main interface</t>
+          <t>All six main features should be accessible from the main interface</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10344,22 +10344,22 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>Application is launched and MFP is connected</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture start functionality</t>
+          <t>Verify Network Packet Capture - Start function</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture feature &lt;br&gt; 2. Click on Start Capture button</t>
+          <t>1. Navigate to Network Packet Capture feature&lt;br&gt;2. Click on Start button</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>Packet capture starts successfully with visual indication</t>
+          <t>Packet capture should start successfully</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10374,22 +10374,22 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>Network Packet Capture is in progress</t>
+          <t>Network Packet Capture is running</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture stop functionality</t>
+          <t>Verify Network Packet Capture - Stop function</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. With packet capture in progress &lt;br&gt; 2. Click on Stop Capture button</t>
+          <t>1. With packet capture running, click on Stop button</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>Packet capture stops and generates a .pcap file</t>
+          <t>1. Packet capture should stop&lt;br&gt;2. A .pcap file should be generated&lt;br&gt;3. The file should be copied to the MFP's Shared Folder&lt;br&gt;4. The folder should open automatically</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10404,22 +10404,22 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>Network Packet Capture has completed</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify .pcap file storage and access</t>
+          <t>Verify Memory Leak Check functionality</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. After stopping packet capture &lt;br&gt; 2. Check if the .pcap file is copied to MFP's Shared Folder &lt;br&gt; 3. Verify if the folder opens automatically</t>
+          <t>1. Navigate to Memory Leak Check feature&lt;br&gt;2. Select a protocol from the available options&lt;br&gt;3. Run the memory leak check</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>The .pcap file is saved in the MFP's Shared Folder and the folder opens automatically</t>
+          <t>A protocol-specific Memory Leak Comparison Table should be displayed showing if a memory leak has occurred</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10439,17 +10439,17 @@
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify Memory Leak Check functionality</t>
+          <t>Verify Debug Log Collection functionality</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Memory Leak Check feature &lt;br&gt; 2. Select a protocol from the available options &lt;br&gt; 3. Initiate the memory leak check</t>
+          <t>1. Navigate to Debug Log Collection feature&lt;br&gt;2. Click on Run button</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>Memory Leak Comparison Table is displayed with relevant data</t>
+          <t>1. Script execution should start&lt;br&gt;2. Logs should be collected&lt;br&gt;3. Logs should be copied to the MFP's Shared Folder&lt;br&gt;4. The folder should open automatically</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10464,22 +10464,22 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>Memory Leak Check is completed</t>
+          <t>Debug Log Collection folder is empty on first attempt</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify Memory Leak detection</t>
+          <t>Verify Debug Log Collection retry functionality</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. After Memory Leak Check completes &lt;br&gt; 2. Review the comparison table results</t>
+          <t>1. Navigate to Debug Log Collection feature&lt;br&gt;2. Click on Run button&lt;br&gt;3. If folder is empty, run the operation again</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>The table clearly indicates whether a memory leak has occurred</t>
+          <t>After the second attempt, logs should be collected and visible in the MFP's Shared Folder</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10494,22 +10494,22 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>Application is launched and MFP is connected</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify Debug Log Collection functionality</t>
+          <t>Verify Diagnostic Code Details - ECC selection</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection feature &lt;br&gt; 2. Click the Run button</t>
+          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select ECC option</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>Script execution begins and collects logs</t>
+          <t>Relevant job-specific details for ECC should be displayed</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10524,22 +10524,22 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>Debug Log Collection is in progress</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify Debug Log storage and access</t>
+          <t>Verify Diagnostic Code Details - Network Protocols selection</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. After log collection completes &lt;br&gt; 2. Check if logs are copied to MFP's Shared Folder &lt;br&gt; 3. Verify if the folder opens automatically</t>
+          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select Network Protocols option</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>Debug logs are saved in the MFP's Shared Folder and the folder opens automatically</t>
+          <t>Relevant job-specific details for Network Protocols should be displayed</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10554,22 +10554,22 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>Debug Log Collection folder is empty on first attempt</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify retry functionality for Debug Log Collection</t>
+          <t>Verify Diagnostic Code Details - High Security Mode selection</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. If the folder is empty after first attempt &lt;br&gt; 2. Perform the debug logs operation again</t>
+          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select High Security Mode option</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>Debug logs are successfully collected on the second attempt</t>
+          <t>Relevant job-specific details for High Security Mode should be displayed</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10589,17 +10589,17 @@
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details for ECC</t>
+          <t>Verify Diagnostic Code Details - Common diagnostic codes selection</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details feature &lt;br&gt; 2. Select ECC option &lt;br&gt; 3. Choose a specific diagnostic code</t>
+          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select a common diagnostic code</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for the selected ECC diagnostic code are displayed</t>
+          <t>Relevant job-specific details for the selected diagnostic code should be displayed</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10619,17 +10619,17 @@
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details for Network Protocols</t>
+          <t>Verify 08 Diagnostic Code Value - Get functionality</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details feature &lt;br&gt; 2. Select Network Protocols option &lt;br&gt; 3. Choose a specific diagnostic code</t>
+          <t>1. Navigate to 08 Diagnostic Code Value Access feature&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Click on Get button</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for the selected Network Protocols diagnostic code are displayed</t>
+          <t>The current value of the selected 08 diagnostic code should be displayed</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10649,17 +10649,17 @@
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details for High Security Mode</t>
+          <t>Verify 08 Diagnostic Code Value - Set functionality</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details feature &lt;br&gt; 2. Select High Security Mode option &lt;br&gt; 3. Choose a specific diagnostic code</t>
+          <t>1. Navigate to 08 Diagnostic Code Value Access feature&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for the selected High Security Mode diagnostic code are displayed</t>
+          <t>The value of the selected 08 diagnostic code should be updated successfully</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10679,17 +10679,17 @@
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details for commonly used codes</t>
+          <t>Verify Protocol Configuration - Get functionality</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details feature &lt;br&gt; 2. Select commonly used diagnostic codes option &lt;br&gt; 3. Choose a specific diagnostic code</t>
+          <t>1. Navigate to Protocol Configuration feature&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Click on Get button</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for the selected commonly used diagnostic code are displayed</t>
+          <t>The current value of the selected protocol should be displayed</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10704,22 +10704,22 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>Application is launched and MFP is connected</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value Get functionality</t>
+          <t>Verify Protocol Configuration - Set functionality</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value Access feature &lt;br&gt; 2. Select a specific diagnostic code &lt;br&gt; 3. Click on Get Value button</t>
+          <t>1. Navigate to Protocol Configuration feature&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Enter a new value&lt;br&gt;5. Click on Set button</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected 08 diagnostic code is displayed</t>
+          <t>A message should indicate that this feature is not yet implemented</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10734,26 +10734,30 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>Application is launched and MFP is connected</t>
+          <t>Application is installed and MFP is connected</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value Set functionality</t>
+          <t>Verify application performance with multiple operations</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value Access feature &lt;br&gt; 2. Select a specific diagnostic code &lt;br&gt; 3. Enter a new value &lt;br&gt; 4. Click on Set Value button</t>
+          <t>1. Launch the application&lt;br&gt;2. Start Network Packet Capture&lt;br&gt;3. Open Memory Leak Check&lt;br&gt;4. Open Diagnostic Code Details&lt;br&gt;5. Stop Network Packet Capture</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>The 08 diagnostic code value is updated successfully with confirmation message</t>
+          <t>All operations should execute without significant delay or application crashes</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
-      <c r="H22" s="59" t="inlineStr"/>
+      <c r="H22" s="59" t="inlineStr">
+        <is>
+          <t>Performance test</t>
+        </is>
+      </c>
       <c r="I22" s="53" t="n"/>
     </row>
     <row r="23" ht="99.75" customHeight="1">
@@ -10764,26 +10768,30 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>Application is launched and MFP is connected</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration Get functionality</t>
+          <t>Verify application startup time</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration feature &lt;br&gt; 2. Open Protocol Selection Window &lt;br&gt; 3. Select a protocol &lt;br&gt; 4. Click on Get Value button</t>
+          <t>1. Double-click on MultiFunctionalToolApplication&lt;br&gt;2. Measure the time taken for the application to fully load</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected protocol is displayed</t>
+          <t>Application should start within 5 seconds</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
-      <c r="H23" s="59" t="inlineStr"/>
+      <c r="H23" s="59" t="inlineStr">
+        <is>
+          <t>Performance test</t>
+        </is>
+      </c>
       <c r="I23" s="53" t="n"/>
     </row>
     <row r="24" ht="99.75" customHeight="1">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10125,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H2"/>
@@ -10163,11 +10163,7 @@
     <row r="2" ht="81.75" customHeight="1">
       <c r="B2" s="128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Component: 
-MFP: 
-Build: 
-Date: 
-Target: </t>
+          <t>Component: Multi-Functional Tool Application</t>
         </is>
       </c>
       <c r="C2" s="80" t="n"/>
@@ -10182,7 +10178,11 @@
       <c r="B3" s="49" t="n"/>
       <c r="C3" s="49" t="n"/>
       <c r="D3" s="49" t="n"/>
-      <c r="E3" s="50" t="n"/>
+      <c r="E3" s="50" t="inlineStr">
+        <is>
+          <t>MFP: Any</t>
+        </is>
+      </c>
       <c r="F3" s="50" t="n"/>
       <c r="G3" s="49" t="n"/>
       <c r="H3" s="51" t="n"/>
@@ -10264,12 +10264,12 @@
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ to a preferred location&lt;br&gt;2. Extract the contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from specified tec-share location&lt;br&gt;2. Extract contents to preferred location&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>The application should launch successfully</t>
+          <t>Application launches successfully with all features accessible</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10294,12 +10294,12 @@
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ to a preferred location&lt;br&gt;2. Extract the contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from specified tec-share location&lt;br&gt;2. Extract contents to preferred location&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>The application should launch successfully</t>
+          <t>Application launches successfully with all features accessible</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10314,22 +10314,22 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify all main features are accessible from the main interface</t>
+          <t>Verify Network Packet Capture start functionality</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application&lt;br&gt;2. Check for Network Packet Capture feature&lt;br&gt;3. Check for Memory Leak Check feature&lt;br&gt;4. Check for Debug Log Collection feature&lt;br&gt;5. Check for Diagnostic Code Details feature&lt;br&gt;6. Check for 08 Diagnostic Code Value Access feature&lt;br&gt;7. Check for Protocol Configuration feature</t>
+          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click Start button</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>All six main features should be accessible from the main interface</t>
+          <t>Packet capture begins successfully</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10344,22 +10344,22 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Network Packet Capture is running</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture - Start function</t>
+          <t>Verify Network Packet Capture stop functionality</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture feature&lt;br&gt;2. Click on Start button</t>
+          <t>1. With packet capture running, click Stop button</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>Packet capture should start successfully</t>
+          <t>Packet capture stops and generates .pcap file</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10374,22 +10374,22 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>Network Packet Capture is running</t>
+          <t>Network Packet Capture has been completed</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture - Stop function</t>
+          <t>Verify .pcap file storage</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. With packet capture running, click on Stop button</t>
+          <t>1. Complete a packet capture session&lt;br&gt;2. Check MFP's Shared Folder</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>1. Packet capture should stop&lt;br&gt;2. A .pcap file should be generated&lt;br&gt;3. The file should be copied to the MFP's Shared Folder&lt;br&gt;4. The folder should open automatically</t>
+          <t>.pcap file is automatically copied to MFP's Shared Folder and folder opens automatically</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
@@ -10414,12 +10414,12 @@
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Memory Leak Check feature&lt;br&gt;2. Select a protocol from the available options&lt;br&gt;3. Run the memory leak check</t>
+          <t>1. Navigate to Memory Leak Check section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Initiate memory leak check</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>A protocol-specific Memory Leak Comparison Table should be displayed showing if a memory leak has occurred</t>
+          <t>Memory Leak Comparison Table is displayed with accurate information</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
@@ -10444,12 +10444,12 @@
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection feature&lt;br&gt;2. Click on Run button</t>
+          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click Run button</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>1. Script execution should start&lt;br&gt;2. Logs should be collected&lt;br&gt;3. Logs should be copied to the MFP's Shared Folder&lt;br&gt;4. The folder should open automatically</t>
+          <t>Script executes and begins collecting logs</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10464,22 +10464,22 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>Debug Log Collection folder is empty on first attempt</t>
+          <t>Debug Log Collection has been completed</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify Debug Log Collection retry functionality</t>
+          <t>Verify debug log storage</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection feature&lt;br&gt;2. Click on Run button&lt;br&gt;3. If folder is empty, run the operation again</t>
+          <t>1. Complete a debug log collection&lt;br&gt;2. Check MFP's Shared Folder</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>After the second attempt, logs should be collected and visible in the MFP's Shared Folder</t>
+          <t>Debug logs are copied to MFP's Shared Folder and folder opens automatically</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10494,22 +10494,22 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Debug Log Collection folder is empty on first attempt</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - ECC selection</t>
+          <t>Verify debug log collection retry functionality</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select ECC option</t>
+          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click Run button&lt;br&gt;3. If folder is empty, run operation again</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for ECC should be displayed</t>
+          <t>Debug logs are successfully collected on second attempt</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10524,22 +10524,22 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - Network Protocols selection</t>
+          <t>Verify Diagnostic Code Details - ECC</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select Network Protocols option</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select ECC option</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for Network Protocols should be displayed</t>
+          <t>Relevant ECC diagnostic details are displayed</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10554,22 +10554,22 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - High Security Mode selection</t>
+          <t>Verify Diagnostic Code Details - Network Protocols</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select High Security Mode option</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select Network Protocols option</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for High Security Mode should be displayed</t>
+          <t>Relevant Network Protocols diagnostic details are displayed</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10584,22 +10584,22 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - Common diagnostic codes selection</t>
+          <t>Verify Diagnostic Code Details - High Security Mode</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select a common diagnostic code</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select High Security Mode option</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for the selected diagnostic code should be displayed</t>
+          <t>Relevant High Security Mode diagnostic details are displayed</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10614,22 +10614,22 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value - Get functionality</t>
+          <t>Verify Diagnostic Code Details - Common codes</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value Access feature&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Click on Get button</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select a commonly used diagnostic code</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>The current value of the selected 08 diagnostic code should be displayed</t>
+          <t>Relevant job-specific details for the selected code are displayed</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10644,22 +10644,22 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value - Set functionality</t>
+          <t>Verify 08 Diagnostic Code Value - Get functionality</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value Access feature&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
+          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Click Get button</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>The value of the selected 08 diagnostic code should be updated successfully</t>
+          <t>Current value of the selected diagnostic code is displayed</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10674,22 +10674,22 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration - Get functionality</t>
+          <t>Verify 08 Diagnostic Code Value - Set functionality</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration feature&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Click on Get button</t>
+          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click Set button</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>The current value of the selected protocol should be displayed</t>
+          <t>Diagnostic code value is updated successfully</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10704,22 +10704,22 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration - Set functionality</t>
+          <t>Verify Protocol Configuration - Get functionality</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration feature&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Enter a new value&lt;br&gt;5. Click on Set button</t>
+          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Click Get button</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>A message should indicate that this feature is not yet implemented</t>
+          <t>Current value of the selected protocol is displayed</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10734,28 +10734,28 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and MFP is connected</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify application performance with multiple operations</t>
+          <t>Verify Protocol Configuration - Set functionality</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application&lt;br&gt;2. Start Network Packet Capture&lt;br&gt;3. Open Memory Leak Check&lt;br&gt;4. Open Diagnostic Code Details&lt;br&gt;5. Stop Network Packet Capture</t>
+          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Enter a new value&lt;br&gt;5. Click Set button</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>All operations should execute without significant delay or application crashes</t>
+          <t>Message indicating "Set protocol values operation still needs to be implemented" is displayed</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
       <c r="H22" s="59" t="inlineStr">
         <is>
-          <t>Performance test</t>
+          <t>Feature not yet implemented</t>
         </is>
       </c>
       <c r="I22" s="53" t="n"/>
@@ -10768,128 +10768,236 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Application is running with multiple features</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify application startup time</t>
+          <t>Verify GUI responsiveness</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Double-click on MultiFunctionalToolApplication&lt;br&gt;2. Measure the time taken for the application to fully load</t>
+          <t>1. Launch application&lt;br&gt;2. Navigate between different features rapidly&lt;br&gt;3. Perform operations in quick succession</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>Application should start within 5 seconds</t>
+          <t>GUI remains responsive with no freezing or significant delays</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
-      <c r="H23" s="59" t="inlineStr">
-        <is>
-          <t>Performance test</t>
-        </is>
-      </c>
+      <c r="H23" s="59" t="inlineStr"/>
       <c r="I23" s="53" t="n"/>
     </row>
     <row r="24" ht="99.75" customHeight="1">
-      <c r="B24" s="57" t="n"/>
-      <c r="C24" s="60" t="n"/>
-      <c r="D24" s="70" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="62" t="n"/>
-      <c r="G24" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H24" s="59" t="n"/>
+      <c r="B24" s="57" t="inlineStr">
+        <is>
+          <t>TC019</t>
+        </is>
+      </c>
+      <c r="C24" s="60" t="inlineStr">
+        <is>
+          <t>Application is running on a system with limited resources</t>
+        </is>
+      </c>
+      <c r="D24" s="70" t="inlineStr">
+        <is>
+          <t>Verify performance under resource constraints</t>
+        </is>
+      </c>
+      <c r="E24" s="61" t="inlineStr">
+        <is>
+          <t>1. Launch application on a system with minimal RAM/CPU&lt;br&gt;2. Perform all main functions sequentially</t>
+        </is>
+      </c>
+      <c r="F24" s="62" t="inlineStr">
+        <is>
+          <t>Application performs all functions without crashing or excessive resource usage</t>
+        </is>
+      </c>
+      <c r="G24" s="58" t="inlineStr"/>
+      <c r="H24" s="59" t="inlineStr"/>
       <c r="I24" s="53" t="n"/>
     </row>
     <row r="25" ht="99.75" customHeight="1">
-      <c r="B25" s="57" t="n"/>
-      <c r="C25" s="60" t="n"/>
-      <c r="D25" s="70" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="62" t="n"/>
-      <c r="G25" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H25" s="59" t="n"/>
+      <c r="B25" s="57" t="inlineStr">
+        <is>
+          <t>TC020</t>
+        </is>
+      </c>
+      <c r="C25" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D25" s="70" t="inlineStr">
+        <is>
+          <t>Verify time efficiency for packet capture</t>
+        </is>
+      </c>
+      <c r="E25" s="61" t="inlineStr">
+        <is>
+          <t>1. Measure time to complete packet capture manually&lt;br&gt;2. Measure time to complete same packet capture using the application</t>
+        </is>
+      </c>
+      <c r="F25" s="62" t="inlineStr">
+        <is>
+          <t>Application reduces testing time by approximately 80% compared to manual method</t>
+        </is>
+      </c>
+      <c r="G25" s="58" t="inlineStr"/>
+      <c r="H25" s="59" t="inlineStr"/>
       <c r="I25" s="53" t="n"/>
     </row>
     <row r="26" ht="99.75" customHeight="1">
-      <c r="B26" s="57" t="n"/>
-      <c r="C26" s="60" t="n"/>
-      <c r="D26" s="70" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="62" t="n"/>
-      <c r="G26" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H26" s="59" t="n"/>
+      <c r="B26" s="57" t="inlineStr">
+        <is>
+          <t>TC021</t>
+        </is>
+      </c>
+      <c r="C26" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D26" s="70" t="inlineStr">
+        <is>
+          <t>Verify usability for new users</t>
+        </is>
+      </c>
+      <c r="E26" s="61" t="inlineStr">
+        <is>
+          <t>1. Provide application to a user unfamiliar with it&lt;br&gt;2. Ask them to perform basic operations without instructions&lt;br&gt;3. Observe and record their experience</t>
+        </is>
+      </c>
+      <c r="F26" s="62" t="inlineStr">
+        <is>
+          <t>New user can navigate and use basic features without significant confusion</t>
+        </is>
+      </c>
+      <c r="G26" s="58" t="inlineStr"/>
+      <c r="H26" s="59" t="inlineStr"/>
       <c r="I26" s="53" t="n"/>
     </row>
     <row r="27" ht="99.75" customHeight="1">
-      <c r="B27" s="57" t="n"/>
-      <c r="C27" s="60" t="n"/>
-      <c r="D27" s="70" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="62" t="n"/>
-      <c r="G27" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H27" s="59" t="n"/>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t>TC022</t>
+        </is>
+      </c>
+      <c r="C27" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed on different Windows OS versions</t>
+        </is>
+      </c>
+      <c r="D27" s="70" t="inlineStr">
+        <is>
+          <t>Verify OS compatibility</t>
+        </is>
+      </c>
+      <c r="E27" s="61" t="inlineStr">
+        <is>
+          <t>1. Install and run application on Windows 7, 8, 10, and 11&lt;br&gt;2. Test core functionality on each OS</t>
+        </is>
+      </c>
+      <c r="F27" s="62" t="inlineStr">
+        <is>
+          <t>Application functions correctly on all tested Windows versions</t>
+        </is>
+      </c>
+      <c r="G27" s="58" t="inlineStr"/>
+      <c r="H27" s="59" t="inlineStr"/>
       <c r="I27" s="53" t="n"/>
     </row>
     <row r="28" ht="99.75" customHeight="1">
-      <c r="B28" s="57" t="n"/>
-      <c r="C28" s="60" t="n"/>
-      <c r="D28" s="70" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="62" t="n"/>
-      <c r="G28" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H28" s="59" t="n"/>
+      <c r="B28" s="57" t="inlineStr">
+        <is>
+          <t>TC023</t>
+        </is>
+      </c>
+      <c r="C28" s="60" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D28" s="70" t="inlineStr">
+        <is>
+          <t>Verify error handling for invalid inputs</t>
+        </is>
+      </c>
+      <c r="E28" s="61" t="inlineStr">
+        <is>
+          <t>1. Enter invalid values in input fields&lt;br&gt;2. Submit the invalid data</t>
+        </is>
+      </c>
+      <c r="F28" s="62" t="inlineStr">
+        <is>
+          <t>Application displays appropriate error messages without crashing</t>
+        </is>
+      </c>
+      <c r="G28" s="58" t="inlineStr"/>
+      <c r="H28" s="59" t="inlineStr"/>
       <c r="I28" s="53" t="n"/>
     </row>
     <row r="29" ht="99.75" customHeight="1">
-      <c r="B29" s="57" t="n"/>
-      <c r="C29" s="60" t="n"/>
-      <c r="D29" s="70" t="n"/>
-      <c r="E29" s="61" t="n"/>
-      <c r="F29" s="62" t="n"/>
-      <c r="G29" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H29" s="59" t="n"/>
+      <c r="B29" s="57" t="inlineStr">
+        <is>
+          <t>TC024</t>
+        </is>
+      </c>
+      <c r="C29" s="60" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D29" s="70" t="inlineStr">
+        <is>
+          <t>Verify simultaneous operations</t>
+        </is>
+      </c>
+      <c r="E29" s="61" t="inlineStr">
+        <is>
+          <t>1. Attempt to run multiple operations simultaneously&lt;br&gt;2. Observe application behavior</t>
+        </is>
+      </c>
+      <c r="F29" s="62" t="inlineStr">
+        <is>
+          <t>Application either handles concurrent operations correctly or provides clear feedback about limitations</t>
+        </is>
+      </c>
+      <c r="G29" s="58" t="inlineStr"/>
+      <c r="H29" s="59" t="inlineStr"/>
       <c r="I29" s="53" t="n"/>
     </row>
     <row r="30" ht="99.75" customHeight="1">
-      <c r="B30" s="57" t="n"/>
-      <c r="C30" s="60" t="n"/>
-      <c r="D30" s="70" t="n"/>
-      <c r="E30" s="61" t="n"/>
-      <c r="F30" s="62" t="n"/>
-      <c r="G30" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H30" s="59" t="n"/>
+      <c r="B30" s="57" t="inlineStr">
+        <is>
+          <t>TC025</t>
+        </is>
+      </c>
+      <c r="C30" s="60" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D30" s="70" t="inlineStr">
+        <is>
+          <t>Verify data persistence</t>
+        </is>
+      </c>
+      <c r="E30" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure settings in the application&lt;br&gt;2. Close and reopen the application</t>
+        </is>
+      </c>
+      <c r="F30" s="62" t="inlineStr">
+        <is>
+          <t>Previously configured settings are retained</t>
+        </is>
+      </c>
+      <c r="G30" s="58" t="inlineStr"/>
+      <c r="H30" s="59" t="inlineStr"/>
       <c r="I30" s="53" t="n"/>
     </row>
     <row r="31" ht="99.75" customHeight="1">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10125,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H2"/>
@@ -10163,7 +10163,11 @@
     <row r="2" ht="81.75" customHeight="1">
       <c r="B2" s="128" t="inlineStr">
         <is>
-          <t>Component: Multi-Functional Tool Application</t>
+          <t xml:space="preserve">Component: 
+MFP: 
+Build: 
+Date: 
+Target: </t>
         </is>
       </c>
       <c r="C2" s="80" t="n"/>
@@ -10178,11 +10182,7 @@
       <c r="B3" s="49" t="n"/>
       <c r="C3" s="49" t="n"/>
       <c r="D3" s="49" t="n"/>
-      <c r="E3" s="50" t="inlineStr">
-        <is>
-          <t>MFP: Any</t>
-        </is>
-      </c>
+      <c r="E3" s="50" t="n"/>
       <c r="F3" s="50" t="n"/>
       <c r="G3" s="49" t="n"/>
       <c r="H3" s="51" t="n"/>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on a desktop computer</t>
+          <t>Application is installed on a desktop or laptop</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from specified tec-share location&lt;br&gt;2. Extract contents to preferred location&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ to desktop&lt;br&gt;2. Extract the contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>Application launches successfully with all features accessible</t>
+          <t>Application launches successfully</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on a laptop</t>
+          <t>Application is installed on a desktop or laptop</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
@@ -10294,12 +10294,12 @@
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from specified tec-share location&lt;br&gt;2. Extract contents to preferred location&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ to laptop&lt;br&gt;2. Extract the contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>Application launches successfully with all features accessible</t>
+          <t>Application launches successfully</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10314,22 +10314,22 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Application is installed and launched</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture start functionality</t>
+          <t>Verify all main features are accessible</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click Start button</t>
+          <t>1. Launch the application&lt;br&gt;2. Check for Network Packet Capture feature&lt;br&gt;3. Check for Memory Leak Check feature&lt;br&gt;4. Check for Debug Log Collection feature&lt;br&gt;5. Check for Diagnostic Code Details feature&lt;br&gt;6. Check for 08 Diagnostic Code Value Access feature&lt;br&gt;7. Check for Protocol Configuration feature</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Packet capture begins successfully</t>
+          <t>All features should be visible and accessible in the GUI</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10344,22 +10344,22 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>Network Packet Capture is running</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture stop functionality</t>
+          <t>Verify Network Packet Capture - Start functionality</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. With packet capture running, click Stop button</t>
+          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click on Start button</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>Packet capture stops and generates .pcap file</t>
+          <t>Packet capture should start successfully</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10374,22 +10374,22 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>Network Packet Capture has been completed</t>
+          <t>Network Packet Capture is in progress</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify .pcap file storage</t>
+          <t>Verify Network Packet Capture - Stop functionality</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Complete a packet capture session&lt;br&gt;2. Check MFP's Shared Folder</t>
+          <t>1. With packet capture in progress&lt;br&gt;2. Click on Stop button</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>.pcap file is automatically copied to MFP's Shared Folder and folder opens automatically</t>
+          <t>1. Packet capture should stop&lt;br&gt;2. A .pcap file should be generated&lt;br&gt;3. The file should be copied to MFP's Shared Folder&lt;br&gt;4. The folder should open automatically</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
@@ -10414,12 +10414,12 @@
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Memory Leak Check section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Initiate memory leak check</t>
+          <t>1. Navigate to Memory Leak Check section&lt;br&gt;2. Select a protocol from the available options</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>Memory Leak Comparison Table is displayed with accurate information</t>
+          <t>A protocol-specific Memory Leak Comparison Table should be displayed</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
@@ -10444,12 +10444,12 @@
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click Run button</t>
+          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>Script executes and begins collecting logs</t>
+          <t>1. Script execution should start&lt;br&gt;2. Logs should be collected&lt;br&gt;3. Logs should be copied to MFP's Shared Folder&lt;br&gt;4. The folder should open automatically</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10464,22 +10464,22 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>Debug Log Collection has been completed</t>
+          <t>Debug Log Collection folder is empty on first attempt</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify debug log storage</t>
+          <t>Verify Debug Log Collection retry functionality</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Complete a debug log collection&lt;br&gt;2. Check MFP's Shared Folder</t>
+          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button&lt;br&gt;3. If folder is empty, click Run button again</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>Debug logs are copied to MFP's Shared Folder and folder opens automatically</t>
+          <t>Logs should be successfully collected and visible in the folder after second attempt</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10494,22 +10494,22 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>Debug Log Collection folder is empty on first attempt</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify debug log collection retry functionality</t>
+          <t>Verify Diagnostic Code Details - ECC selection</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click Run button&lt;br&gt;3. If folder is empty, run operation again</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select ECC option</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>Debug logs are successfully collected on second attempt</t>
+          <t>Relevant job-specific details for ECC should be displayed</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10524,22 +10524,22 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - ECC</t>
+          <t>Verify Diagnostic Code Details - Network Protocols selection</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select ECC option</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select Network Protocols option</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>Relevant ECC diagnostic details are displayed</t>
+          <t>Relevant job-specific details for Network Protocols should be displayed</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10554,22 +10554,22 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - Network Protocols</t>
+          <t>Verify Diagnostic Code Details - High Security Mode selection</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select Network Protocols option</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select High Security Mode option</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>Relevant Network Protocols diagnostic details are displayed</t>
+          <t>Relevant job-specific details for High Security Mode should be displayed</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10584,22 +10584,22 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - High Security Mode</t>
+          <t>Verify Diagnostic Code Details - Common diagnostic codes selection</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select High Security Mode option</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select a common diagnostic code</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>Relevant High Security Mode diagnostic details are displayed</t>
+          <t>Relevant job-specific details for the selected diagnostic code should be displayed</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10614,22 +10614,22 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - Common codes</t>
+          <t>Verify 08 Diagnostic Code Value - Get functionality</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select a commonly used diagnostic code</t>
+          <t>1. Navigate to 08 Diagnostic Code Value Access section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Click on Get button</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for the selected code are displayed</t>
+          <t>Current value of the selected diagnostic code should be displayed</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10644,22 +10644,22 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value - Get functionality</t>
+          <t>Verify 08 Diagnostic Code Value - Set functionality</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Click Get button</t>
+          <t>1. Navigate to 08 Diagnostic Code Value Access section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected diagnostic code is displayed</t>
+          <t>The diagnostic code value should be updated to the new value</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10674,22 +10674,22 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value - Set functionality</t>
+          <t>Verify Protocol Configuration - Get functionality</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click Set button</t>
+          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Click on Get button</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>Diagnostic code value is updated successfully</t>
+          <t>Current value of the selected protocol should be displayed</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10704,22 +10704,22 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration - Get functionality</t>
+          <t>Verify Protocol Configuration - Set functionality (pending implementation)</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Click Get button</t>
+          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected protocol is displayed</t>
+          <t>A message indicating this feature is pending implementation should be displayed</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10734,30 +10734,26 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Application is installed on both desktop and laptop</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration - Set functionality</t>
+          <t>Verify application compatibility across devices</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Enter a new value&lt;br&gt;5. Click Set button</t>
+          <t>1. Install and launch application on desktop&lt;br&gt;2. Test core features&lt;br&gt;3. Install and launch application on laptop&lt;br&gt;4. Test same core features</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>Message indicating "Set protocol values operation still needs to be implemented" is displayed</t>
+          <t>Application should function consistently on both platforms</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
-      <c r="H22" s="59" t="inlineStr">
-        <is>
-          <t>Feature not yet implemented</t>
-        </is>
-      </c>
+      <c r="H22" s="59" t="inlineStr"/>
       <c r="I22" s="53" t="n"/>
     </row>
     <row r="23" ht="99.75" customHeight="1">
@@ -10768,7 +10764,7 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>Application is running with multiple features</t>
+          <t>Application is launched</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
@@ -10778,12 +10774,12 @@
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Launch application&lt;br&gt;2. Navigate between different features rapidly&lt;br&gt;3. Perform operations in quick succession</t>
+          <t>1. Launch the application&lt;br&gt;2. Rapidly switch between different features&lt;br&gt;3. Click multiple buttons in quick succession</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>GUI remains responsive with no freezing or significant delays</t>
+          <t>GUI should remain responsive with no freezing or significant lag</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
@@ -10798,22 +10794,22 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>Application is running on a system with limited resources</t>
+          <t>Network Packet Capture is running</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Verify performance under resource constraints</t>
+          <t>Verify system performance during packet capture</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Launch application on a system with minimal RAM/CPU&lt;br&gt;2. Perform all main functions sequentially</t>
+          <t>1. Start Network Packet Capture&lt;br&gt;2. Let it run for at least 5 minutes&lt;br&gt;3. Monitor system resource usage</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>Application performs all functions without crashing or excessive resource usage</t>
+          <t>System should maintain normal performance with no significant resource drain</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10821,183 +10817,87 @@
       <c r="I24" s="53" t="n"/>
     </row>
     <row r="25" ht="99.75" customHeight="1">
-      <c r="B25" s="57" t="inlineStr">
-        <is>
-          <t>TC020</t>
-        </is>
-      </c>
-      <c r="C25" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D25" s="70" t="inlineStr">
-        <is>
-          <t>Verify time efficiency for packet capture</t>
-        </is>
-      </c>
-      <c r="E25" s="61" t="inlineStr">
-        <is>
-          <t>1. Measure time to complete packet capture manually&lt;br&gt;2. Measure time to complete same packet capture using the application</t>
-        </is>
-      </c>
-      <c r="F25" s="62" t="inlineStr">
-        <is>
-          <t>Application reduces testing time by approximately 80% compared to manual method</t>
-        </is>
-      </c>
-      <c r="G25" s="58" t="inlineStr"/>
-      <c r="H25" s="59" t="inlineStr"/>
+      <c r="B25" s="57" t="n"/>
+      <c r="C25" s="60" t="n"/>
+      <c r="D25" s="70" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="62" t="n"/>
+      <c r="G25" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H25" s="59" t="n"/>
       <c r="I25" s="53" t="n"/>
     </row>
     <row r="26" ht="99.75" customHeight="1">
-      <c r="B26" s="57" t="inlineStr">
-        <is>
-          <t>TC021</t>
-        </is>
-      </c>
-      <c r="C26" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D26" s="70" t="inlineStr">
-        <is>
-          <t>Verify usability for new users</t>
-        </is>
-      </c>
-      <c r="E26" s="61" t="inlineStr">
-        <is>
-          <t>1. Provide application to a user unfamiliar with it&lt;br&gt;2. Ask them to perform basic operations without instructions&lt;br&gt;3. Observe and record their experience</t>
-        </is>
-      </c>
-      <c r="F26" s="62" t="inlineStr">
-        <is>
-          <t>New user can navigate and use basic features without significant confusion</t>
-        </is>
-      </c>
-      <c r="G26" s="58" t="inlineStr"/>
-      <c r="H26" s="59" t="inlineStr"/>
+      <c r="B26" s="57" t="n"/>
+      <c r="C26" s="60" t="n"/>
+      <c r="D26" s="70" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="62" t="n"/>
+      <c r="G26" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H26" s="59" t="n"/>
       <c r="I26" s="53" t="n"/>
     </row>
     <row r="27" ht="99.75" customHeight="1">
-      <c r="B27" s="57" t="inlineStr">
-        <is>
-          <t>TC022</t>
-        </is>
-      </c>
-      <c r="C27" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed on different Windows OS versions</t>
-        </is>
-      </c>
-      <c r="D27" s="70" t="inlineStr">
-        <is>
-          <t>Verify OS compatibility</t>
-        </is>
-      </c>
-      <c r="E27" s="61" t="inlineStr">
-        <is>
-          <t>1. Install and run application on Windows 7, 8, 10, and 11&lt;br&gt;2. Test core functionality on each OS</t>
-        </is>
-      </c>
-      <c r="F27" s="62" t="inlineStr">
-        <is>
-          <t>Application functions correctly on all tested Windows versions</t>
-        </is>
-      </c>
-      <c r="G27" s="58" t="inlineStr"/>
-      <c r="H27" s="59" t="inlineStr"/>
+      <c r="B27" s="57" t="n"/>
+      <c r="C27" s="60" t="n"/>
+      <c r="D27" s="70" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="62" t="n"/>
+      <c r="G27" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H27" s="59" t="n"/>
       <c r="I27" s="53" t="n"/>
     </row>
     <row r="28" ht="99.75" customHeight="1">
-      <c r="B28" s="57" t="inlineStr">
-        <is>
-          <t>TC023</t>
-        </is>
-      </c>
-      <c r="C28" s="60" t="inlineStr">
-        <is>
-          <t>Application is running</t>
-        </is>
-      </c>
-      <c r="D28" s="70" t="inlineStr">
-        <is>
-          <t>Verify error handling for invalid inputs</t>
-        </is>
-      </c>
-      <c r="E28" s="61" t="inlineStr">
-        <is>
-          <t>1. Enter invalid values in input fields&lt;br&gt;2. Submit the invalid data</t>
-        </is>
-      </c>
-      <c r="F28" s="62" t="inlineStr">
-        <is>
-          <t>Application displays appropriate error messages without crashing</t>
-        </is>
-      </c>
-      <c r="G28" s="58" t="inlineStr"/>
-      <c r="H28" s="59" t="inlineStr"/>
+      <c r="B28" s="57" t="n"/>
+      <c r="C28" s="60" t="n"/>
+      <c r="D28" s="70" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="62" t="n"/>
+      <c r="G28" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H28" s="59" t="n"/>
       <c r="I28" s="53" t="n"/>
     </row>
     <row r="29" ht="99.75" customHeight="1">
-      <c r="B29" s="57" t="inlineStr">
-        <is>
-          <t>TC024</t>
-        </is>
-      </c>
-      <c r="C29" s="60" t="inlineStr">
-        <is>
-          <t>Application is running</t>
-        </is>
-      </c>
-      <c r="D29" s="70" t="inlineStr">
-        <is>
-          <t>Verify simultaneous operations</t>
-        </is>
-      </c>
-      <c r="E29" s="61" t="inlineStr">
-        <is>
-          <t>1. Attempt to run multiple operations simultaneously&lt;br&gt;2. Observe application behavior</t>
-        </is>
-      </c>
-      <c r="F29" s="62" t="inlineStr">
-        <is>
-          <t>Application either handles concurrent operations correctly or provides clear feedback about limitations</t>
-        </is>
-      </c>
-      <c r="G29" s="58" t="inlineStr"/>
-      <c r="H29" s="59" t="inlineStr"/>
+      <c r="B29" s="57" t="n"/>
+      <c r="C29" s="60" t="n"/>
+      <c r="D29" s="70" t="n"/>
+      <c r="E29" s="61" t="n"/>
+      <c r="F29" s="62" t="n"/>
+      <c r="G29" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H29" s="59" t="n"/>
       <c r="I29" s="53" t="n"/>
     </row>
     <row r="30" ht="99.75" customHeight="1">
-      <c r="B30" s="57" t="inlineStr">
-        <is>
-          <t>TC025</t>
-        </is>
-      </c>
-      <c r="C30" s="60" t="inlineStr">
-        <is>
-          <t>Application is running</t>
-        </is>
-      </c>
-      <c r="D30" s="70" t="inlineStr">
-        <is>
-          <t>Verify data persistence</t>
-        </is>
-      </c>
-      <c r="E30" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure settings in the application&lt;br&gt;2. Close and reopen the application</t>
-        </is>
-      </c>
-      <c r="F30" s="62" t="inlineStr">
-        <is>
-          <t>Previously configured settings are retained</t>
-        </is>
-      </c>
-      <c r="G30" s="58" t="inlineStr"/>
-      <c r="H30" s="59" t="inlineStr"/>
+      <c r="B30" s="57" t="n"/>
+      <c r="C30" s="60" t="n"/>
+      <c r="D30" s="70" t="n"/>
+      <c r="E30" s="61" t="n"/>
+      <c r="F30" s="62" t="n"/>
+      <c r="G30" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H30" s="59" t="n"/>
       <c r="I30" s="53" t="n"/>
     </row>
     <row r="31" ht="99.75" customHeight="1">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10125,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H2"/>
@@ -10163,11 +10163,7 @@
     <row r="2" ht="81.75" customHeight="1">
       <c r="B2" s="128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Component: 
-MFP: 
-Build: 
-Date: 
-Target: </t>
+          <t>Component: Multi-Functional Tool Application</t>
         </is>
       </c>
       <c r="C2" s="80" t="n"/>
@@ -10254,7 +10250,7 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on a desktop or laptop</t>
+          <t>Application is installed on a desktop computer</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
@@ -10264,12 +10260,12 @@
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ to desktop&lt;br&gt;2. Extract the contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from specified tec-share location&lt;br&gt;2. Extract contents to preferred location&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>Application launches successfully</t>
+          <t>Application launches successfully with all features accessible</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10284,7 +10280,7 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on a desktop or laptop</t>
+          <t>Application is installed on a laptop</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
@@ -10294,12 +10290,12 @@
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\ to laptop&lt;br&gt;2. Extract the contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from specified tec-share location&lt;br&gt;2. Extract contents to preferred location&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>Application launches successfully</t>
+          <t>Application launches successfully with all features accessible</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10314,22 +10310,22 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify all main features are accessible</t>
+          <t>Verify Network Packet Capture start functionality</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application&lt;br&gt;2. Check for Network Packet Capture feature&lt;br&gt;3. Check for Memory Leak Check feature&lt;br&gt;4. Check for Debug Log Collection feature&lt;br&gt;5. Check for Diagnostic Code Details feature&lt;br&gt;6. Check for 08 Diagnostic Code Value Access feature&lt;br&gt;7. Check for Protocol Configuration feature</t>
+          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click Start button</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>All features should be visible and accessible in the GUI</t>
+          <t>Packet capture begins successfully</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10344,22 +10340,22 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Network Packet Capture is running</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture - Start functionality</t>
+          <t>Verify Network Packet Capture stop functionality</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click on Start button</t>
+          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click Stop button</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>Packet capture should start successfully</t>
+          <t>1. Packet capture stops&lt;br&gt;2. .pcap file is generated&lt;br&gt;3. File is copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder opens automatically</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10374,22 +10370,22 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>Network Packet Capture is in progress</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture - Stop functionality</t>
+          <t>Verify Memory Leak Check functionality</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. With packet capture in progress&lt;br&gt;2. Click on Stop button</t>
+          <t>1. Navigate to Memory Leak Check section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Run the memory leak check</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>1. Packet capture should stop&lt;br&gt;2. A .pcap file should be generated&lt;br&gt;3. The file should be copied to MFP's Shared Folder&lt;br&gt;4. The folder should open automatically</t>
+          <t>Memory Leak Comparison Table is displayed with accurate information</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10404,22 +10400,22 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify Memory Leak Check functionality</t>
+          <t>Verify Debug Log Collection functionality</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Memory Leak Check section&lt;br&gt;2. Select a protocol from the available options</t>
+          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click Run button</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>A protocol-specific Memory Leak Comparison Table should be displayed</t>
+          <t>1. Script executes successfully&lt;br&gt;2. Logs are collected&lt;br&gt;3. Logs are copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder opens automatically</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10434,22 +10430,22 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Debug Log Collection has been run once with empty folder result</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify Debug Log Collection functionality</t>
+          <t>Verify Debug Log Collection retry functionality</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button</t>
+          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click Run button again</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>1. Script execution should start&lt;br&gt;2. Logs should be collected&lt;br&gt;3. Logs should be copied to MFP's Shared Folder&lt;br&gt;4. The folder should open automatically</t>
+          <t>1. Script executes successfully&lt;br&gt;2. Logs are collected&lt;br&gt;3. Logs are copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder opens with logs visible</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10464,22 +10460,22 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>Debug Log Collection folder is empty on first attempt</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify Debug Log Collection retry functionality</t>
+          <t>Verify Diagnostic Code Details for ECC</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button&lt;br&gt;3. If folder is empty, click Run button again</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select ECC option&lt;br&gt;3. Choose a specific diagnostic code</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>Logs should be successfully collected and visible in the folder after second attempt</t>
+          <t>Relevant job-specific details for the selected ECC diagnostic code are displayed</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10494,22 +10490,22 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - ECC selection</t>
+          <t>Verify Diagnostic Code Details for Network Protocols</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select ECC option</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select Network Protocols option&lt;br&gt;3. Choose a specific diagnostic code</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for ECC should be displayed</t>
+          <t>Relevant job-specific details for the selected Network Protocols diagnostic code are displayed</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10524,22 +10520,22 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - Network Protocols selection</t>
+          <t>Verify Diagnostic Code Details for High Security Mode</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select Network Protocols option</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select High Security Mode option&lt;br&gt;3. Choose a specific diagnostic code</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for Network Protocols should be displayed</t>
+          <t>Relevant job-specific details for the selected High Security Mode diagnostic code are displayed</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10554,22 +10550,22 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - High Security Mode selection</t>
+          <t>Verify 08 Diagnostic Code Value Get functionality</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select High Security Mode option</t>
+          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Click Get button</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for High Security Mode should be displayed</t>
+          <t>Current value of the selected 08 diagnostic code is displayed</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10584,22 +10580,22 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - Common diagnostic codes selection</t>
+          <t>Verify 08 Diagnostic Code Value Set functionality</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select a common diagnostic code</t>
+          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click Set button</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for the selected diagnostic code should be displayed</t>
+          <t>The 08 diagnostic code value is updated successfully</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10614,22 +10610,22 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value - Get functionality</t>
+          <t>Verify Protocol Configuration Get functionality</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value Access section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Click on Get button</t>
+          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Click Get button</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected diagnostic code should be displayed</t>
+          <t>Current value of the selected protocol is displayed</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10644,22 +10640,22 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value - Set functionality</t>
+          <t>Verify Protocol Configuration Set functionality</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value Access section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
+          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click Set button</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>The diagnostic code value should be updated to the new value</t>
+          <t>Message indicating that Set protocol values operation is not yet implemented</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10674,22 +10670,22 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration - Get functionality</t>
+          <t>Verify GUI responsiveness</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Click on Get button</t>
+          <t>1. Launch the application&lt;br&gt;2. Navigate through all sections&lt;br&gt;3. Interact with all UI elements</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected protocol should be displayed</t>
+          <t>UI responds promptly to all user interactions with no noticeable lag</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10704,22 +10700,22 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration - Set functionality (pending implementation)</t>
+          <t>Verify application performance during packet capture</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
+          <t>1. Start packet capture&lt;br&gt;2. Perform other operations in the application simultaneously&lt;br&gt;3. Stop packet capture</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>A message indicating this feature is pending implementation should be displayed</t>
+          <t>Application remains responsive during packet capture with no performance degradation</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10734,22 +10730,22 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on both desktop and laptop</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify application compatibility across devices</t>
+          <t>Verify error handling for invalid inputs</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Install and launch application on desktop&lt;br&gt;2. Test core features&lt;br&gt;3. Install and launch application on laptop&lt;br&gt;4. Test same core features</t>
+          <t>1. Enter invalid values in input fields&lt;br&gt;2. Submit the invalid data</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>Application should function consistently on both platforms</t>
+          <t>Application displays appropriate error messages without crashing</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
@@ -10764,22 +10760,22 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>Application is launched</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify GUI responsiveness</t>
+          <t>Verify compatibility with different screen resolutions</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application&lt;br&gt;2. Rapidly switch between different features&lt;br&gt;3. Click multiple buttons in quick succession</t>
+          <t>1. Run application on displays with different resolutions&lt;br&gt;2. Check UI layout and element visibility</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>GUI should remain responsive with no freezing or significant lag</t>
+          <t>UI elements are properly displayed and accessible on all tested resolutions</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
@@ -10794,22 +10790,22 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>Network Packet Capture is running</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Verify system performance during packet capture</t>
+          <t>Verify usability for first-time users</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Start Network Packet Capture&lt;br&gt;2. Let it run for at least 5 minutes&lt;br&gt;3. Monitor system resource usage</t>
+          <t>1. Have a first-time user navigate through the application&lt;br&gt;2. Ask them to perform basic tasks without instructions</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>System should maintain normal performance with no significant resource drain</t>
+          <t>User can successfully navigate and perform basic tasks with minimal confusion</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10817,17 +10813,33 @@
       <c r="I24" s="53" t="n"/>
     </row>
     <row r="25" ht="99.75" customHeight="1">
-      <c r="B25" s="57" t="n"/>
-      <c r="C25" s="60" t="n"/>
-      <c r="D25" s="70" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="62" t="n"/>
-      <c r="G25" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H25" s="59" t="n"/>
+      <c r="B25" s="57" t="inlineStr">
+        <is>
+          <t>TC020</t>
+        </is>
+      </c>
+      <c r="C25" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D25" s="70" t="inlineStr">
+        <is>
+          <t>Verify time efficiency improvement</t>
+        </is>
+      </c>
+      <c r="E25" s="61" t="inlineStr">
+        <is>
+          <t>1. Measure time to perform diagnostic tasks manually&lt;br&gt;2. Measure time to perform same tasks using the application&lt;br&gt;3. Calculate time savings</t>
+        </is>
+      </c>
+      <c r="F25" s="62" t="inlineStr">
+        <is>
+          <t>Application reduces testing time by approximately 80% compared to manual methods</t>
+        </is>
+      </c>
+      <c r="G25" s="58" t="inlineStr"/>
+      <c r="H25" s="59" t="inlineStr"/>
       <c r="I25" s="53" t="n"/>
     </row>
     <row r="26" ht="99.75" customHeight="1">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -326,6 +326,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -334,15 +343,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
@@ -612,6 +612,56 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0" hidden="0"/>
@@ -628,15 +678,24 @@
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
@@ -645,6 +704,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
@@ -655,71 +720,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1249,24 +1249,24 @@
       <c r="C1" s="118" t="n"/>
       <c r="D1" s="118" t="n"/>
       <c r="E1" s="119" t="n"/>
-      <c r="F1" s="103" t="n"/>
-      <c r="G1" s="103" t="n"/>
-      <c r="H1" s="103" t="n"/>
-      <c r="I1" s="103" t="n"/>
-      <c r="J1" s="103" t="n"/>
-      <c r="K1" s="103" t="n"/>
-      <c r="L1" s="103" t="n"/>
-      <c r="M1" s="103" t="n"/>
-      <c r="N1" s="103" t="n"/>
-      <c r="O1" s="103" t="n"/>
-      <c r="P1" s="103" t="n"/>
-      <c r="Q1" s="103" t="n"/>
-      <c r="R1" s="103" t="n"/>
-      <c r="S1" s="103" t="n"/>
-      <c r="T1" s="103" t="n"/>
+      <c r="F1" s="96" t="n"/>
+      <c r="G1" s="96" t="n"/>
+      <c r="H1" s="96" t="n"/>
+      <c r="I1" s="96" t="n"/>
+      <c r="J1" s="96" t="n"/>
+      <c r="K1" s="96" t="n"/>
+      <c r="L1" s="96" t="n"/>
+      <c r="M1" s="96" t="n"/>
+      <c r="N1" s="96" t="n"/>
+      <c r="O1" s="96" t="n"/>
+      <c r="P1" s="96" t="n"/>
+      <c r="Q1" s="96" t="n"/>
+      <c r="R1" s="96" t="n"/>
+      <c r="S1" s="96" t="n"/>
+      <c r="T1" s="96" t="n"/>
     </row>
     <row r="2" ht="17.5" customFormat="1" customHeight="1" s="18">
-      <c r="A2" s="102" t="n"/>
+      <c r="A2" s="95" t="n"/>
       <c r="B2" s="120" t="n"/>
       <c r="C2" s="120" t="n"/>
       <c r="D2" s="120" t="n"/>
@@ -1274,206 +1274,206 @@
       <c r="F2" s="120" t="n"/>
       <c r="G2" s="120" t="n"/>
       <c r="H2" s="120" t="n"/>
-      <c r="I2" s="103" t="n"/>
-      <c r="J2" s="103" t="n"/>
-      <c r="K2" s="103" t="n"/>
-      <c r="L2" s="103" t="n"/>
-      <c r="M2" s="103" t="n"/>
-      <c r="N2" s="103" t="n"/>
-      <c r="O2" s="103" t="n"/>
-      <c r="P2" s="103" t="n"/>
-      <c r="Q2" s="103" t="n"/>
-      <c r="R2" s="103" t="n"/>
-      <c r="S2" s="103" t="n"/>
-      <c r="T2" s="103" t="n"/>
+      <c r="I2" s="96" t="n"/>
+      <c r="J2" s="96" t="n"/>
+      <c r="K2" s="96" t="n"/>
+      <c r="L2" s="96" t="n"/>
+      <c r="M2" s="96" t="n"/>
+      <c r="N2" s="96" t="n"/>
+      <c r="O2" s="96" t="n"/>
+      <c r="P2" s="96" t="n"/>
+      <c r="Q2" s="96" t="n"/>
+      <c r="R2" s="96" t="n"/>
+      <c r="S2" s="96" t="n"/>
+      <c r="T2" s="96" t="n"/>
     </row>
     <row r="3" ht="15.5" customFormat="1" customHeight="1" s="18">
-      <c r="A3" s="101" t="inlineStr">
+      <c r="A3" s="81" t="inlineStr">
         <is>
           <t>Test Iteration Number                                                              :</t>
         </is>
       </c>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="120" t="n"/>
-      <c r="D3" s="88" t="inlineStr">
+      <c r="D3" s="80" t="inlineStr">
         <is>
           <t>3rd Iteration</t>
         </is>
       </c>
       <c r="E3" s="121" t="n"/>
-      <c r="F3" s="103" t="n"/>
-      <c r="G3" s="103" t="n"/>
-      <c r="H3" s="103" t="n"/>
-      <c r="I3" s="103" t="n"/>
-      <c r="J3" s="103" t="n"/>
-      <c r="K3" s="103" t="n"/>
-      <c r="L3" s="103" t="n"/>
-      <c r="M3" s="103" t="n"/>
-      <c r="N3" s="103" t="n"/>
-      <c r="O3" s="103" t="n"/>
-      <c r="Q3" s="103" t="n"/>
-      <c r="R3" s="103" t="n"/>
-      <c r="S3" s="103" t="n"/>
-      <c r="T3" s="103" t="n"/>
+      <c r="F3" s="96" t="n"/>
+      <c r="G3" s="96" t="n"/>
+      <c r="H3" s="96" t="n"/>
+      <c r="I3" s="96" t="n"/>
+      <c r="J3" s="96" t="n"/>
+      <c r="K3" s="96" t="n"/>
+      <c r="L3" s="96" t="n"/>
+      <c r="M3" s="96" t="n"/>
+      <c r="N3" s="96" t="n"/>
+      <c r="O3" s="96" t="n"/>
+      <c r="Q3" s="96" t="n"/>
+      <c r="R3" s="96" t="n"/>
+      <c r="S3" s="96" t="n"/>
+      <c r="T3" s="96" t="n"/>
     </row>
     <row r="4" ht="15.5" customFormat="1" customHeight="1" s="18">
-      <c r="A4" s="101" t="inlineStr">
+      <c r="A4" s="81" t="inlineStr">
         <is>
           <t>Test Plan Reference                                                                  :</t>
         </is>
       </c>
       <c r="B4" s="120" t="n"/>
       <c r="C4" s="120" t="n"/>
-      <c r="D4" s="88" t="n"/>
+      <c r="D4" s="80" t="n"/>
       <c r="E4" s="121" t="n"/>
-      <c r="F4" s="103" t="n"/>
-      <c r="G4" s="103" t="n"/>
-      <c r="H4" s="103" t="n"/>
-      <c r="I4" s="103" t="n"/>
-      <c r="J4" s="103" t="n"/>
-      <c r="K4" s="103" t="n"/>
-      <c r="L4" s="103" t="n"/>
-      <c r="M4" s="103" t="n"/>
-      <c r="N4" s="103" t="n"/>
-      <c r="O4" s="103" t="n"/>
-      <c r="P4" s="103" t="n"/>
-      <c r="Q4" s="103" t="n"/>
-      <c r="R4" s="103" t="n"/>
-      <c r="S4" s="103" t="n"/>
-      <c r="T4" s="103" t="n"/>
+      <c r="F4" s="96" t="n"/>
+      <c r="G4" s="96" t="n"/>
+      <c r="H4" s="96" t="n"/>
+      <c r="I4" s="96" t="n"/>
+      <c r="J4" s="96" t="n"/>
+      <c r="K4" s="96" t="n"/>
+      <c r="L4" s="96" t="n"/>
+      <c r="M4" s="96" t="n"/>
+      <c r="N4" s="96" t="n"/>
+      <c r="O4" s="96" t="n"/>
+      <c r="P4" s="96" t="n"/>
+      <c r="Q4" s="96" t="n"/>
+      <c r="R4" s="96" t="n"/>
+      <c r="S4" s="96" t="n"/>
+      <c r="T4" s="96" t="n"/>
     </row>
     <row r="5" ht="13.5" customFormat="1" customHeight="1" s="18">
-      <c r="A5" s="101" t="inlineStr">
+      <c r="A5" s="81" t="inlineStr">
         <is>
           <t>Test hardware and Software environment                                :</t>
         </is>
       </c>
       <c r="B5" s="120" t="n"/>
       <c r="C5" s="120" t="n"/>
-      <c r="D5" s="88" t="n"/>
+      <c r="D5" s="80" t="n"/>
       <c r="E5" s="121" t="n"/>
-      <c r="F5" s="103" t="n"/>
-      <c r="G5" s="103" t="n"/>
-      <c r="H5" s="103" t="n"/>
-      <c r="I5" s="103" t="n"/>
-      <c r="J5" s="103" t="n"/>
-      <c r="K5" s="103" t="n"/>
-      <c r="L5" s="103" t="n"/>
-      <c r="M5" s="103" t="n"/>
-      <c r="N5" s="103" t="n"/>
-      <c r="O5" s="103" t="n"/>
-      <c r="P5" s="103" t="n"/>
-      <c r="Q5" s="103" t="n"/>
-      <c r="R5" s="103" t="n"/>
-      <c r="S5" s="103" t="n"/>
-      <c r="T5" s="103" t="n"/>
+      <c r="F5" s="96" t="n"/>
+      <c r="G5" s="96" t="n"/>
+      <c r="H5" s="96" t="n"/>
+      <c r="I5" s="96" t="n"/>
+      <c r="J5" s="96" t="n"/>
+      <c r="K5" s="96" t="n"/>
+      <c r="L5" s="96" t="n"/>
+      <c r="M5" s="96" t="n"/>
+      <c r="N5" s="96" t="n"/>
+      <c r="O5" s="96" t="n"/>
+      <c r="P5" s="96" t="n"/>
+      <c r="Q5" s="96" t="n"/>
+      <c r="R5" s="96" t="n"/>
+      <c r="S5" s="96" t="n"/>
+      <c r="T5" s="96" t="n"/>
     </row>
     <row r="6" ht="15.5" customFormat="1" customHeight="1" s="18">
-      <c r="A6" s="101" t="inlineStr">
+      <c r="A6" s="81" t="inlineStr">
         <is>
           <t>Constraints If any                                                                       :</t>
         </is>
       </c>
       <c r="B6" s="120" t="n"/>
       <c r="C6" s="120" t="n"/>
-      <c r="D6" s="88" t="n"/>
+      <c r="D6" s="80" t="n"/>
       <c r="E6" s="121" t="n"/>
-      <c r="F6" s="103" t="n"/>
-      <c r="G6" s="103" t="n"/>
-      <c r="H6" s="103" t="n"/>
-      <c r="I6" s="103" t="n"/>
-      <c r="J6" s="103" t="n"/>
-      <c r="K6" s="103" t="n"/>
-      <c r="L6" s="103" t="n"/>
-      <c r="M6" s="103" t="n"/>
-      <c r="N6" s="103" t="n"/>
-      <c r="O6" s="103" t="n"/>
-      <c r="P6" s="103" t="n"/>
-      <c r="Q6" s="103" t="n"/>
-      <c r="R6" s="103" t="n"/>
-      <c r="S6" s="103" t="n"/>
-      <c r="T6" s="103" t="n"/>
+      <c r="F6" s="96" t="n"/>
+      <c r="G6" s="96" t="n"/>
+      <c r="H6" s="96" t="n"/>
+      <c r="I6" s="96" t="n"/>
+      <c r="J6" s="96" t="n"/>
+      <c r="K6" s="96" t="n"/>
+      <c r="L6" s="96" t="n"/>
+      <c r="M6" s="96" t="n"/>
+      <c r="N6" s="96" t="n"/>
+      <c r="O6" s="96" t="n"/>
+      <c r="P6" s="96" t="n"/>
+      <c r="Q6" s="96" t="n"/>
+      <c r="R6" s="96" t="n"/>
+      <c r="S6" s="96" t="n"/>
+      <c r="T6" s="96" t="n"/>
     </row>
     <row r="7" ht="31.5" customFormat="1" customHeight="1" s="18">
-      <c r="A7" s="94" t="inlineStr">
+      <c r="A7" s="82" t="inlineStr">
         <is>
           <t xml:space="preserve">Deviations If any from SRS, SDS/HLD&amp;LLD, Preceding documents                                                                                  :       </t>
         </is>
       </c>
       <c r="B7" s="120" t="n"/>
       <c r="C7" s="120" t="n"/>
-      <c r="D7" s="88" t="n"/>
+      <c r="D7" s="80" t="n"/>
       <c r="E7" s="121" t="n"/>
-      <c r="F7" s="103" t="n"/>
-      <c r="G7" s="103" t="n"/>
-      <c r="H7" s="103" t="n"/>
-      <c r="I7" s="103" t="n"/>
-      <c r="J7" s="103" t="n"/>
-      <c r="K7" s="103" t="n"/>
-      <c r="L7" s="103" t="n"/>
-      <c r="M7" s="103" t="n"/>
-      <c r="N7" s="103" t="n"/>
-      <c r="O7" s="103" t="n"/>
-      <c r="P7" s="103" t="n"/>
-      <c r="Q7" s="103" t="n"/>
-      <c r="R7" s="103" t="n"/>
-      <c r="S7" s="103" t="n"/>
-      <c r="T7" s="103" t="n"/>
+      <c r="F7" s="96" t="n"/>
+      <c r="G7" s="96" t="n"/>
+      <c r="H7" s="96" t="n"/>
+      <c r="I7" s="96" t="n"/>
+      <c r="J7" s="96" t="n"/>
+      <c r="K7" s="96" t="n"/>
+      <c r="L7" s="96" t="n"/>
+      <c r="M7" s="96" t="n"/>
+      <c r="N7" s="96" t="n"/>
+      <c r="O7" s="96" t="n"/>
+      <c r="P7" s="96" t="n"/>
+      <c r="Q7" s="96" t="n"/>
+      <c r="R7" s="96" t="n"/>
+      <c r="S7" s="96" t="n"/>
+      <c r="T7" s="96" t="n"/>
     </row>
     <row r="8" ht="15.5" customFormat="1" customHeight="1" s="18">
-      <c r="A8" s="94" t="inlineStr">
+      <c r="A8" s="82" t="inlineStr">
         <is>
           <t>Effort Spent on Conducting Testing (in Person Days)             :</t>
         </is>
       </c>
       <c r="B8" s="120" t="n"/>
       <c r="C8" s="120" t="n"/>
-      <c r="D8" s="88" t="n"/>
+      <c r="D8" s="80" t="n"/>
       <c r="E8" s="121" t="n"/>
-      <c r="F8" s="103" t="n"/>
-      <c r="G8" s="103" t="n"/>
-      <c r="H8" s="103" t="n"/>
-      <c r="I8" s="103" t="n"/>
-      <c r="J8" s="103" t="n"/>
-      <c r="K8" s="103" t="n"/>
-      <c r="L8" s="103" t="n"/>
-      <c r="M8" s="103" t="n"/>
-      <c r="N8" s="103" t="n"/>
-      <c r="O8" s="103" t="n"/>
-      <c r="P8" s="103" t="n"/>
-      <c r="Q8" s="103" t="n"/>
-      <c r="R8" s="103" t="n"/>
-      <c r="S8" s="103" t="n"/>
-      <c r="T8" s="103" t="n"/>
+      <c r="F8" s="96" t="n"/>
+      <c r="G8" s="96" t="n"/>
+      <c r="H8" s="96" t="n"/>
+      <c r="I8" s="96" t="n"/>
+      <c r="J8" s="96" t="n"/>
+      <c r="K8" s="96" t="n"/>
+      <c r="L8" s="96" t="n"/>
+      <c r="M8" s="96" t="n"/>
+      <c r="N8" s="96" t="n"/>
+      <c r="O8" s="96" t="n"/>
+      <c r="P8" s="96" t="n"/>
+      <c r="Q8" s="96" t="n"/>
+      <c r="R8" s="96" t="n"/>
+      <c r="S8" s="96" t="n"/>
+      <c r="T8" s="96" t="n"/>
     </row>
     <row r="9" ht="15.75" customFormat="1" customHeight="1" s="18">
-      <c r="A9" s="94" t="inlineStr">
+      <c r="A9" s="82" t="inlineStr">
         <is>
           <t>Effort spent on  Preparation of Test Report/Review               :</t>
         </is>
       </c>
       <c r="B9" s="120" t="n"/>
       <c r="C9" s="120" t="n"/>
-      <c r="D9" s="88" t="n"/>
+      <c r="D9" s="80" t="n"/>
       <c r="E9" s="121" t="n"/>
-      <c r="F9" s="103" t="n"/>
-      <c r="G9" s="103" t="n"/>
-      <c r="H9" s="103" t="n"/>
-      <c r="I9" s="103" t="n"/>
-      <c r="J9" s="103" t="n"/>
-      <c r="K9" s="103" t="n"/>
-      <c r="L9" s="103" t="n"/>
-      <c r="M9" s="103" t="n"/>
-      <c r="N9" s="103" t="n"/>
-      <c r="O9" s="103" t="n"/>
-      <c r="P9" s="103" t="n"/>
-      <c r="Q9" s="103" t="n"/>
-      <c r="R9" s="103" t="n"/>
-      <c r="S9" s="103" t="n"/>
-      <c r="T9" s="103" t="n"/>
+      <c r="F9" s="96" t="n"/>
+      <c r="G9" s="96" t="n"/>
+      <c r="H9" s="96" t="n"/>
+      <c r="I9" s="96" t="n"/>
+      <c r="J9" s="96" t="n"/>
+      <c r="K9" s="96" t="n"/>
+      <c r="L9" s="96" t="n"/>
+      <c r="M9" s="96" t="n"/>
+      <c r="N9" s="96" t="n"/>
+      <c r="O9" s="96" t="n"/>
+      <c r="P9" s="96" t="n"/>
+      <c r="Q9" s="96" t="n"/>
+      <c r="R9" s="96" t="n"/>
+      <c r="S9" s="96" t="n"/>
+      <c r="T9" s="96" t="n"/>
     </row>
     <row r="10" ht="25.5" customFormat="1" customHeight="1" s="18">
-      <c r="A10" s="92" t="n"/>
+      <c r="A10" s="99" t="n"/>
       <c r="B10" s="120" t="n"/>
       <c r="C10" s="120" t="n"/>
       <c r="D10" s="120" t="n"/>
@@ -1481,18 +1481,18 @@
       <c r="F10" s="120" t="n"/>
       <c r="G10" s="120" t="n"/>
       <c r="H10" s="120" t="n"/>
-      <c r="I10" s="93" t="n"/>
-      <c r="J10" s="93" t="n"/>
-      <c r="K10" s="103" t="n"/>
-      <c r="L10" s="93" t="n"/>
-      <c r="M10" s="93" t="n"/>
-      <c r="N10" s="103" t="n"/>
-      <c r="O10" s="93" t="n"/>
-      <c r="P10" s="93" t="n"/>
-      <c r="Q10" s="103" t="n"/>
-      <c r="R10" s="93" t="n"/>
-      <c r="S10" s="93" t="n"/>
-      <c r="T10" s="103" t="n"/>
+      <c r="I10" s="100" t="n"/>
+      <c r="J10" s="100" t="n"/>
+      <c r="K10" s="96" t="n"/>
+      <c r="L10" s="100" t="n"/>
+      <c r="M10" s="100" t="n"/>
+      <c r="N10" s="96" t="n"/>
+      <c r="O10" s="100" t="n"/>
+      <c r="P10" s="100" t="n"/>
+      <c r="Q10" s="96" t="n"/>
+      <c r="R10" s="100" t="n"/>
+      <c r="S10" s="100" t="n"/>
+      <c r="T10" s="96" t="n"/>
     </row>
     <row r="11" ht="15.5" customFormat="1" customHeight="1" s="18">
       <c r="A11" s="5" t="inlineStr">
@@ -1500,29 +1500,29 @@
           <t>&lt;&lt;&lt;</t>
         </is>
       </c>
-      <c r="B11" s="92" t="n"/>
-      <c r="C11" s="92" t="n"/>
-      <c r="D11" s="92" t="n"/>
+      <c r="B11" s="99" t="n"/>
+      <c r="C11" s="99" t="n"/>
+      <c r="D11" s="99" t="n"/>
       <c r="E11" s="42" t="n"/>
       <c r="F11" s="6" t="n"/>
-      <c r="G11" s="92" t="n"/>
-      <c r="H11" s="92" t="n"/>
+      <c r="G11" s="99" t="n"/>
+      <c r="H11" s="99" t="n"/>
       <c r="I11" s="6" t="n"/>
-      <c r="J11" s="92" t="n"/>
-      <c r="K11" s="92" t="n"/>
+      <c r="J11" s="99" t="n"/>
+      <c r="K11" s="99" t="n"/>
       <c r="L11" s="6" t="n"/>
-      <c r="M11" s="92" t="n"/>
-      <c r="N11" s="92" t="n"/>
+      <c r="M11" s="99" t="n"/>
+      <c r="N11" s="99" t="n"/>
       <c r="O11" s="6" t="n"/>
-      <c r="P11" s="92" t="n"/>
-      <c r="Q11" s="92" t="n"/>
+      <c r="P11" s="99" t="n"/>
+      <c r="Q11" s="99" t="n"/>
       <c r="R11" s="6" t="n"/>
-      <c r="S11" s="92" t="n"/>
-      <c r="T11" s="92" t="n"/>
+      <c r="S11" s="99" t="n"/>
+      <c r="T11" s="99" t="n"/>
       <c r="U11" s="7" t="n"/>
     </row>
     <row r="12" ht="17.5" customFormat="1" customHeight="1" s="18">
-      <c r="A12" s="76" t="inlineStr">
+      <c r="A12" s="90" t="inlineStr">
         <is>
           <t>Test Case Results</t>
         </is>
@@ -1534,18 +1534,18 @@
       <c r="F12" s="120" t="n"/>
       <c r="G12" s="120" t="n"/>
       <c r="H12" s="120" t="n"/>
-      <c r="I12" s="77" t="n"/>
-      <c r="J12" s="77" t="n"/>
-      <c r="K12" s="103" t="n"/>
-      <c r="L12" s="77" t="n"/>
-      <c r="M12" s="77" t="n"/>
-      <c r="N12" s="103" t="n"/>
-      <c r="O12" s="77" t="n"/>
-      <c r="P12" s="77" t="n"/>
-      <c r="Q12" s="103" t="n"/>
-      <c r="R12" s="77" t="n"/>
-      <c r="S12" s="77" t="n"/>
-      <c r="T12" s="103" t="n"/>
+      <c r="I12" s="91" t="n"/>
+      <c r="J12" s="91" t="n"/>
+      <c r="K12" s="96" t="n"/>
+      <c r="L12" s="91" t="n"/>
+      <c r="M12" s="91" t="n"/>
+      <c r="N12" s="96" t="n"/>
+      <c r="O12" s="91" t="n"/>
+      <c r="P12" s="91" t="n"/>
+      <c r="Q12" s="96" t="n"/>
+      <c r="R12" s="91" t="n"/>
+      <c r="S12" s="91" t="n"/>
+      <c r="T12" s="96" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="122" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="R13" s="8" t="n"/>
       <c r="S13" s="8" t="n"/>
       <c r="T13" s="9" t="n"/>
-      <c r="U13" s="103" t="n"/>
+      <c r="U13" s="96" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="124" t="n"/>
@@ -1585,64 +1585,64 @@
           <t>Preconditions</t>
         </is>
       </c>
-      <c r="C14" s="78" t="inlineStr">
+      <c r="C14" s="83" t="inlineStr">
         <is>
           <t>Verification</t>
         </is>
       </c>
       <c r="D14" s="118" t="n"/>
       <c r="E14" s="118" t="n"/>
-      <c r="F14" s="75" t="inlineStr">
+      <c r="F14" s="89" t="inlineStr">
         <is>
           <t>Iteration 1</t>
         </is>
       </c>
       <c r="G14" s="118" t="n"/>
       <c r="H14" s="119" t="n"/>
-      <c r="I14" s="75" t="inlineStr">
+      <c r="I14" s="89" t="inlineStr">
         <is>
           <t>Iteration 2</t>
         </is>
       </c>
       <c r="J14" s="118" t="n"/>
       <c r="K14" s="119" t="n"/>
-      <c r="L14" s="75" t="inlineStr">
+      <c r="L14" s="89" t="inlineStr">
         <is>
           <t>Iteration 3</t>
         </is>
       </c>
       <c r="M14" s="118" t="n"/>
       <c r="N14" s="119" t="n"/>
-      <c r="O14" s="75" t="inlineStr">
+      <c r="O14" s="89" t="inlineStr">
         <is>
           <t>Iteration 4</t>
         </is>
       </c>
       <c r="P14" s="118" t="n"/>
       <c r="Q14" s="119" t="n"/>
-      <c r="R14" s="75" t="inlineStr">
+      <c r="R14" s="89" t="inlineStr">
         <is>
           <t>Iteration 5</t>
         </is>
       </c>
       <c r="S14" s="118" t="n"/>
       <c r="T14" s="119" t="n"/>
-      <c r="U14" s="103" t="n"/>
+      <c r="U14" s="96" t="n"/>
     </row>
     <row r="15" ht="69.5" customHeight="1">
       <c r="A15" s="126" t="n"/>
       <c r="B15" s="127" t="n"/>
-      <c r="C15" s="75" t="inlineStr">
+      <c r="C15" s="89" t="inlineStr">
         <is>
           <t>Test Condition</t>
         </is>
       </c>
-      <c r="D15" s="75" t="inlineStr">
+      <c r="D15" s="89" t="inlineStr">
         <is>
           <t>Step with description</t>
         </is>
       </c>
-      <c r="E15" s="79" t="inlineStr">
+      <c r="E15" s="84" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
@@ -1737,7 +1737,7 @@
           <t>Remarks</t>
         </is>
       </c>
-      <c r="U15" s="103" t="n"/>
+      <c r="U15" s="96" t="n"/>
     </row>
     <row r="16" outlineLevel="1" ht="13" customHeight="1">
       <c r="A16" s="43">
@@ -1775,7 +1775,7 @@
       <c r="R16" s="13" t="n"/>
       <c r="S16" s="14" t="n"/>
       <c r="T16" s="14" t="n"/>
-      <c r="U16" s="103" t="n"/>
+      <c r="U16" s="96" t="n"/>
     </row>
     <row r="17" outlineLevel="1" ht="13" customHeight="1">
       <c r="A17" s="43">
@@ -1813,7 +1813,7 @@
       <c r="R17" s="13" t="n"/>
       <c r="S17" s="14" t="n"/>
       <c r="T17" s="14" t="n"/>
-      <c r="U17" s="103" t="n"/>
+      <c r="U17" s="96" t="n"/>
     </row>
     <row r="18" outlineLevel="1" ht="13" customFormat="1" customHeight="1" s="41">
       <c r="A18" s="43">
@@ -1889,7 +1889,7 @@
       <c r="R19" s="13" t="n"/>
       <c r="S19" s="14" t="n"/>
       <c r="T19" s="14" t="n"/>
-      <c r="U19" s="103" t="n"/>
+      <c r="U19" s="96" t="n"/>
     </row>
     <row r="20" outlineLevel="1" ht="13" customHeight="1">
       <c r="A20" s="43">
@@ -1927,7 +1927,7 @@
       <c r="R20" s="13" t="n"/>
       <c r="S20" s="14" t="n"/>
       <c r="T20" s="14" t="n"/>
-      <c r="U20" s="103" t="n"/>
+      <c r="U20" s="96" t="n"/>
     </row>
     <row r="21" outlineLevel="1" ht="13" customHeight="1">
       <c r="A21" s="43">
@@ -1965,7 +1965,7 @@
       <c r="R21" s="13" t="n"/>
       <c r="S21" s="14" t="n"/>
       <c r="T21" s="14" t="n"/>
-      <c r="U21" s="103" t="n"/>
+      <c r="U21" s="96" t="n"/>
     </row>
     <row r="22" outlineLevel="1" ht="13" customHeight="1">
       <c r="A22" s="43">
@@ -2003,7 +2003,7 @@
       <c r="R22" s="13" t="n"/>
       <c r="S22" s="14" t="n"/>
       <c r="T22" s="14" t="n"/>
-      <c r="U22" s="103" t="n"/>
+      <c r="U22" s="96" t="n"/>
     </row>
     <row r="23" outlineLevel="1" ht="13" customHeight="1">
       <c r="A23" s="43">
@@ -2041,7 +2041,7 @@
       <c r="R23" s="13" t="n"/>
       <c r="S23" s="14" t="n"/>
       <c r="T23" s="14" t="n"/>
-      <c r="U23" s="103" t="n"/>
+      <c r="U23" s="96" t="n"/>
     </row>
     <row r="24" outlineLevel="1" ht="13" customHeight="1">
       <c r="A24" s="43">
@@ -2079,7 +2079,7 @@
       <c r="R24" s="13" t="n"/>
       <c r="S24" s="14" t="n"/>
       <c r="T24" s="14" t="n"/>
-      <c r="U24" s="103" t="n"/>
+      <c r="U24" s="96" t="n"/>
     </row>
     <row r="25" outlineLevel="1" ht="13" customHeight="1">
       <c r="A25" s="43">
@@ -2117,7 +2117,7 @@
       <c r="R25" s="13" t="n"/>
       <c r="S25" s="14" t="n"/>
       <c r="T25" s="14" t="n"/>
-      <c r="U25" s="103" t="n"/>
+      <c r="U25" s="96" t="n"/>
     </row>
     <row r="26" outlineLevel="1" ht="13" customHeight="1">
       <c r="A26" s="43">
@@ -2155,7 +2155,7 @@
       <c r="R26" s="13" t="n"/>
       <c r="S26" s="14" t="n"/>
       <c r="T26" s="14" t="n"/>
-      <c r="U26" s="103" t="n"/>
+      <c r="U26" s="96" t="n"/>
     </row>
     <row r="27" outlineLevel="1" ht="13" customHeight="1">
       <c r="A27" s="43">
@@ -2193,7 +2193,7 @@
       <c r="R27" s="13" t="n"/>
       <c r="S27" s="14" t="n"/>
       <c r="T27" s="14" t="n"/>
-      <c r="U27" s="103" t="n"/>
+      <c r="U27" s="96" t="n"/>
     </row>
     <row r="28" outlineLevel="1" ht="13" customHeight="1">
       <c r="A28" s="43">
@@ -2231,7 +2231,7 @@
       <c r="R28" s="13" t="n"/>
       <c r="S28" s="14" t="n"/>
       <c r="T28" s="14" t="n"/>
-      <c r="U28" s="103" t="n"/>
+      <c r="U28" s="96" t="n"/>
     </row>
     <row r="29" outlineLevel="1" ht="13" customHeight="1">
       <c r="A29" s="43">
@@ -2269,7 +2269,7 @@
       <c r="R29" s="13" t="n"/>
       <c r="S29" s="14" t="n"/>
       <c r="T29" s="14" t="n"/>
-      <c r="U29" s="103" t="n"/>
+      <c r="U29" s="96" t="n"/>
     </row>
     <row r="30" outlineLevel="1" ht="13" customHeight="1">
       <c r="A30" s="43">
@@ -2307,7 +2307,7 @@
       <c r="R30" s="13" t="n"/>
       <c r="S30" s="14" t="n"/>
       <c r="T30" s="14" t="n"/>
-      <c r="U30" s="103" t="n"/>
+      <c r="U30" s="96" t="n"/>
     </row>
     <row r="31" outlineLevel="1" ht="13" customHeight="1">
       <c r="A31" s="43">
@@ -2345,7 +2345,7 @@
       <c r="R31" s="13" t="n"/>
       <c r="S31" s="14" t="n"/>
       <c r="T31" s="14" t="n"/>
-      <c r="U31" s="103" t="n"/>
+      <c r="U31" s="96" t="n"/>
     </row>
     <row r="32" outlineLevel="1" ht="13" customHeight="1">
       <c r="A32" s="43">
@@ -2383,7 +2383,7 @@
       <c r="R32" s="13" t="n"/>
       <c r="S32" s="14" t="n"/>
       <c r="T32" s="14" t="n"/>
-      <c r="U32" s="103" t="n"/>
+      <c r="U32" s="96" t="n"/>
     </row>
     <row r="33" outlineLevel="1" ht="13" customHeight="1">
       <c r="A33" s="43">
@@ -2421,7 +2421,7 @@
       <c r="R33" s="13" t="n"/>
       <c r="S33" s="14" t="n"/>
       <c r="T33" s="14" t="n"/>
-      <c r="U33" s="103" t="n"/>
+      <c r="U33" s="96" t="n"/>
     </row>
     <row r="34" outlineLevel="1" ht="13" customHeight="1">
       <c r="A34" s="43">
@@ -2459,7 +2459,7 @@
       <c r="R34" s="13" t="n"/>
       <c r="S34" s="14" t="n"/>
       <c r="T34" s="14" t="n"/>
-      <c r="U34" s="103" t="n"/>
+      <c r="U34" s="96" t="n"/>
     </row>
     <row r="35" outlineLevel="1" ht="13" customHeight="1">
       <c r="A35" s="43">
@@ -2497,7 +2497,7 @@
       <c r="R35" s="13" t="n"/>
       <c r="S35" s="14" t="n"/>
       <c r="T35" s="14" t="n"/>
-      <c r="U35" s="103" t="n"/>
+      <c r="U35" s="96" t="n"/>
     </row>
     <row r="36" outlineLevel="1" ht="13" customHeight="1">
       <c r="A36" s="43">
@@ -2535,7 +2535,7 @@
       <c r="R36" s="13" t="n"/>
       <c r="S36" s="14" t="n"/>
       <c r="T36" s="14" t="n"/>
-      <c r="U36" s="103" t="n"/>
+      <c r="U36" s="96" t="n"/>
     </row>
     <row r="37" outlineLevel="1" ht="13" customHeight="1">
       <c r="A37" s="43">
@@ -2573,7 +2573,7 @@
       <c r="R37" s="13" t="n"/>
       <c r="S37" s="14" t="n"/>
       <c r="T37" s="14" t="n"/>
-      <c r="U37" s="103" t="n"/>
+      <c r="U37" s="96" t="n"/>
     </row>
     <row r="38" outlineLevel="1" ht="13" customHeight="1">
       <c r="A38" s="43">
@@ -2611,7 +2611,7 @@
       <c r="R38" s="13" t="n"/>
       <c r="S38" s="14" t="n"/>
       <c r="T38" s="14" t="n"/>
-      <c r="U38" s="103" t="n"/>
+      <c r="U38" s="96" t="n"/>
     </row>
     <row r="39" outlineLevel="1" ht="13" customHeight="1">
       <c r="A39" s="43">
@@ -2649,7 +2649,7 @@
       <c r="R39" s="13" t="n"/>
       <c r="S39" s="14" t="n"/>
       <c r="T39" s="14" t="n"/>
-      <c r="U39" s="103" t="n"/>
+      <c r="U39" s="96" t="n"/>
     </row>
     <row r="40" collapsed="1" ht="13" customHeight="1">
       <c r="A40" s="43">
@@ -2687,7 +2687,7 @@
       <c r="R40" s="13" t="n"/>
       <c r="S40" s="14" t="n"/>
       <c r="T40" s="14" t="n"/>
-      <c r="U40" s="103" t="n"/>
+      <c r="U40" s="96" t="n"/>
     </row>
     <row r="41" outlineLevel="1" ht="13" customHeight="1">
       <c r="A41" s="43">
@@ -2725,7 +2725,7 @@
       <c r="R41" s="13" t="n"/>
       <c r="S41" s="14" t="n"/>
       <c r="T41" s="14" t="n"/>
-      <c r="U41" s="103" t="n"/>
+      <c r="U41" s="96" t="n"/>
     </row>
     <row r="42" outlineLevel="1" collapsed="1" ht="13" customHeight="1">
       <c r="A42" s="43">
@@ -2763,7 +2763,7 @@
       <c r="R42" s="13" t="n"/>
       <c r="S42" s="14" t="n"/>
       <c r="T42" s="14" t="n"/>
-      <c r="U42" s="103" t="n"/>
+      <c r="U42" s="96" t="n"/>
     </row>
     <row r="43" outlineLevel="1" ht="13" customHeight="1">
       <c r="A43" s="43">
@@ -2801,7 +2801,7 @@
       <c r="R43" s="13" t="n"/>
       <c r="S43" s="14" t="n"/>
       <c r="T43" s="14" t="n"/>
-      <c r="U43" s="103" t="n"/>
+      <c r="U43" s="96" t="n"/>
     </row>
     <row r="44" outlineLevel="1" ht="13" customHeight="1">
       <c r="A44" s="43">
@@ -2839,7 +2839,7 @@
       <c r="R44" s="13" t="n"/>
       <c r="S44" s="14" t="n"/>
       <c r="T44" s="14" t="n"/>
-      <c r="U44" s="103" t="n"/>
+      <c r="U44" s="96" t="n"/>
     </row>
     <row r="45" outlineLevel="1" ht="13" customHeight="1">
       <c r="A45" s="43">
@@ -2877,7 +2877,7 @@
       <c r="R45" s="13" t="n"/>
       <c r="S45" s="14" t="n"/>
       <c r="T45" s="14" t="n"/>
-      <c r="U45" s="103" t="n"/>
+      <c r="U45" s="96" t="n"/>
     </row>
     <row r="46" outlineLevel="1" ht="13" customHeight="1">
       <c r="A46" s="43">
@@ -2915,7 +2915,7 @@
       <c r="R46" s="13" t="n"/>
       <c r="S46" s="14" t="n"/>
       <c r="T46" s="14" t="n"/>
-      <c r="U46" s="103" t="n"/>
+      <c r="U46" s="96" t="n"/>
     </row>
     <row r="47" outlineLevel="1" ht="13" customHeight="1">
       <c r="A47" s="43">
@@ -2953,7 +2953,7 @@
       <c r="R47" s="13" t="n"/>
       <c r="S47" s="14" t="n"/>
       <c r="T47" s="14" t="n"/>
-      <c r="U47" s="103" t="n"/>
+      <c r="U47" s="96" t="n"/>
     </row>
     <row r="48" outlineLevel="1" ht="13" customHeight="1">
       <c r="A48" s="43">
@@ -2991,7 +2991,7 @@
       <c r="R48" s="13" t="n"/>
       <c r="S48" s="14" t="n"/>
       <c r="T48" s="14" t="n"/>
-      <c r="U48" s="103" t="n"/>
+      <c r="U48" s="96" t="n"/>
     </row>
     <row r="49" outlineLevel="1" ht="13" customHeight="1">
       <c r="A49" s="43">
@@ -3029,7 +3029,7 @@
       <c r="R49" s="13" t="n"/>
       <c r="S49" s="14" t="n"/>
       <c r="T49" s="14" t="n"/>
-      <c r="U49" s="103" t="n"/>
+      <c r="U49" s="96" t="n"/>
     </row>
     <row r="50" outlineLevel="1" ht="13" customHeight="1">
       <c r="A50" s="43">
@@ -3067,7 +3067,7 @@
       <c r="R50" s="13" t="n"/>
       <c r="S50" s="14" t="n"/>
       <c r="T50" s="14" t="n"/>
-      <c r="U50" s="103" t="n"/>
+      <c r="U50" s="96" t="n"/>
     </row>
     <row r="51" outlineLevel="1" ht="13" customHeight="1">
       <c r="A51" s="43">
@@ -3105,7 +3105,7 @@
       <c r="R51" s="13" t="n"/>
       <c r="S51" s="14" t="n"/>
       <c r="T51" s="14" t="n"/>
-      <c r="U51" s="103" t="n"/>
+      <c r="U51" s="96" t="n"/>
     </row>
     <row r="52" outlineLevel="1" ht="13" customHeight="1">
       <c r="A52" s="43">
@@ -3143,7 +3143,7 @@
       <c r="R52" s="13" t="n"/>
       <c r="S52" s="14" t="n"/>
       <c r="T52" s="14" t="n"/>
-      <c r="U52" s="103" t="n"/>
+      <c r="U52" s="96" t="n"/>
     </row>
     <row r="53" outlineLevel="1" ht="13" customHeight="1">
       <c r="A53" s="43">
@@ -3181,7 +3181,7 @@
       <c r="R53" s="13" t="n"/>
       <c r="S53" s="14" t="n"/>
       <c r="T53" s="14" t="n"/>
-      <c r="U53" s="103" t="n"/>
+      <c r="U53" s="96" t="n"/>
     </row>
     <row r="54" outlineLevel="1" ht="13" customHeight="1">
       <c r="A54" s="43">
@@ -3219,7 +3219,7 @@
       <c r="R54" s="13" t="n"/>
       <c r="S54" s="14" t="n"/>
       <c r="T54" s="14" t="n"/>
-      <c r="U54" s="103" t="n"/>
+      <c r="U54" s="96" t="n"/>
     </row>
     <row r="55" outlineLevel="1" ht="13" customHeight="1">
       <c r="A55" s="43">
@@ -3257,7 +3257,7 @@
       <c r="R55" s="13" t="n"/>
       <c r="S55" s="14" t="n"/>
       <c r="T55" s="14" t="n"/>
-      <c r="U55" s="103" t="n"/>
+      <c r="U55" s="96" t="n"/>
     </row>
     <row r="56" outlineLevel="1" ht="13" customHeight="1">
       <c r="A56" s="43">
@@ -3295,7 +3295,7 @@
       <c r="R56" s="13" t="n"/>
       <c r="S56" s="14" t="n"/>
       <c r="T56" s="14" t="n"/>
-      <c r="U56" s="103" t="n"/>
+      <c r="U56" s="96" t="n"/>
     </row>
     <row r="57" outlineLevel="1" ht="13" customHeight="1">
       <c r="A57" s="43">
@@ -3333,7 +3333,7 @@
       <c r="R57" s="13" t="n"/>
       <c r="S57" s="14" t="n"/>
       <c r="T57" s="14" t="n"/>
-      <c r="U57" s="103" t="n"/>
+      <c r="U57" s="96" t="n"/>
     </row>
     <row r="58" outlineLevel="1" ht="13" customHeight="1">
       <c r="A58" s="43">
@@ -3371,7 +3371,7 @@
       <c r="R58" s="13" t="n"/>
       <c r="S58" s="14" t="n"/>
       <c r="T58" s="14" t="n"/>
-      <c r="U58" s="103" t="n"/>
+      <c r="U58" s="96" t="n"/>
     </row>
     <row r="59" outlineLevel="1" ht="13" customHeight="1">
       <c r="A59" s="43">
@@ -3409,7 +3409,7 @@
       <c r="R59" s="13" t="n"/>
       <c r="S59" s="14" t="n"/>
       <c r="T59" s="14" t="n"/>
-      <c r="U59" s="103" t="n"/>
+      <c r="U59" s="96" t="n"/>
     </row>
     <row r="60" outlineLevel="1" ht="89.25" customHeight="1">
       <c r="A60" s="43">
@@ -3447,7 +3447,7 @@
       <c r="R60" s="13" t="n"/>
       <c r="S60" s="14" t="n"/>
       <c r="T60" s="14" t="n"/>
-      <c r="U60" s="103" t="n"/>
+      <c r="U60" s="96" t="n"/>
     </row>
     <row r="61" outlineLevel="1" ht="87.75" customHeight="1">
       <c r="A61" s="43">
@@ -3485,7 +3485,7 @@
       <c r="R61" s="13" t="n"/>
       <c r="S61" s="14" t="n"/>
       <c r="T61" s="14" t="n"/>
-      <c r="U61" s="103" t="n"/>
+      <c r="U61" s="96" t="n"/>
     </row>
     <row r="62" outlineLevel="1" ht="13" customHeight="1">
       <c r="A62" s="43">
@@ -3523,7 +3523,7 @@
       <c r="R62" s="13" t="n"/>
       <c r="S62" s="14" t="n"/>
       <c r="T62" s="14" t="n"/>
-      <c r="U62" s="103" t="n"/>
+      <c r="U62" s="96" t="n"/>
     </row>
     <row r="63" outlineLevel="1" ht="13" customHeight="1">
       <c r="A63" s="43">
@@ -3561,7 +3561,7 @@
       <c r="R63" s="13" t="n"/>
       <c r="S63" s="14" t="n"/>
       <c r="T63" s="14" t="n"/>
-      <c r="U63" s="103" t="n"/>
+      <c r="U63" s="96" t="n"/>
     </row>
     <row r="64" outlineLevel="1" ht="13" customHeight="1">
       <c r="A64" s="43">
@@ -3599,7 +3599,7 @@
       <c r="R64" s="13" t="n"/>
       <c r="S64" s="14" t="n"/>
       <c r="T64" s="14" t="n"/>
-      <c r="U64" s="103" t="n"/>
+      <c r="U64" s="96" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1">
       <c r="A65" s="43">
@@ -3637,7 +3637,7 @@
       <c r="R65" s="13" t="n"/>
       <c r="S65" s="14" t="n"/>
       <c r="T65" s="14" t="n"/>
-      <c r="U65" s="103" t="n"/>
+      <c r="U65" s="96" t="n"/>
     </row>
     <row r="66" outlineLevel="1" ht="13" customHeight="1">
       <c r="A66" s="43">
@@ -3675,7 +3675,7 @@
       <c r="R66" s="13" t="n"/>
       <c r="S66" s="14" t="n"/>
       <c r="T66" s="14" t="n"/>
-      <c r="U66" s="103" t="n"/>
+      <c r="U66" s="96" t="n"/>
     </row>
     <row r="67" outlineLevel="1" ht="13" customHeight="1">
       <c r="A67" s="43">
@@ -3713,7 +3713,7 @@
       <c r="R67" s="13" t="n"/>
       <c r="S67" s="14" t="n"/>
       <c r="T67" s="14" t="n"/>
-      <c r="U67" s="103" t="n"/>
+      <c r="U67" s="96" t="n"/>
     </row>
     <row r="68" outlineLevel="1" ht="13" customHeight="1">
       <c r="A68" s="43">
@@ -3751,7 +3751,7 @@
       <c r="R68" s="13" t="n"/>
       <c r="S68" s="14" t="n"/>
       <c r="T68" s="14" t="n"/>
-      <c r="U68" s="103" t="n"/>
+      <c r="U68" s="96" t="n"/>
     </row>
     <row r="69" outlineLevel="1" ht="13" customHeight="1">
       <c r="A69" s="43">
@@ -3789,7 +3789,7 @@
       <c r="R69" s="13" t="n"/>
       <c r="S69" s="14" t="n"/>
       <c r="T69" s="14" t="n"/>
-      <c r="U69" s="103" t="n"/>
+      <c r="U69" s="96" t="n"/>
     </row>
     <row r="70" outlineLevel="1" ht="13" customHeight="1">
       <c r="A70" s="43">
@@ -3827,7 +3827,7 @@
       <c r="R70" s="13" t="n"/>
       <c r="S70" s="14" t="n"/>
       <c r="T70" s="14" t="n"/>
-      <c r="U70" s="103" t="n"/>
+      <c r="U70" s="96" t="n"/>
     </row>
     <row r="71" outlineLevel="1" ht="13" customHeight="1">
       <c r="A71" s="43">
@@ -3865,7 +3865,7 @@
       <c r="R71" s="13" t="n"/>
       <c r="S71" s="14" t="n"/>
       <c r="T71" s="14" t="n"/>
-      <c r="U71" s="103" t="n"/>
+      <c r="U71" s="96" t="n"/>
     </row>
     <row r="72" outlineLevel="1" ht="13" customHeight="1">
       <c r="A72" s="43">
@@ -3903,7 +3903,7 @@
       <c r="R72" s="13" t="n"/>
       <c r="S72" s="14" t="n"/>
       <c r="T72" s="14" t="n"/>
-      <c r="U72" s="103" t="n"/>
+      <c r="U72" s="96" t="n"/>
     </row>
     <row r="73" outlineLevel="1" ht="13" customHeight="1">
       <c r="A73" s="43">
@@ -3941,7 +3941,7 @@
       <c r="R73" s="13" t="n"/>
       <c r="S73" s="14" t="n"/>
       <c r="T73" s="14" t="n"/>
-      <c r="U73" s="103" t="n"/>
+      <c r="U73" s="96" t="n"/>
     </row>
     <row r="74" outlineLevel="1" ht="13" customHeight="1">
       <c r="A74" s="43">
@@ -3979,7 +3979,7 @@
       <c r="R74" s="13" t="n"/>
       <c r="S74" s="14" t="n"/>
       <c r="T74" s="14" t="n"/>
-      <c r="U74" s="103" t="n"/>
+      <c r="U74" s="96" t="n"/>
     </row>
     <row r="75" outlineLevel="1" ht="13" customHeight="1">
       <c r="A75" s="43">
@@ -4017,7 +4017,7 @@
       <c r="R75" s="13" t="n"/>
       <c r="S75" s="14" t="n"/>
       <c r="T75" s="14" t="n"/>
-      <c r="U75" s="103" t="n"/>
+      <c r="U75" s="96" t="n"/>
     </row>
     <row r="76" outlineLevel="1" ht="13" customHeight="1">
       <c r="A76" s="43">
@@ -4055,7 +4055,7 @@
       <c r="R76" s="13" t="n"/>
       <c r="S76" s="14" t="n"/>
       <c r="T76" s="14" t="n"/>
-      <c r="U76" s="103" t="n"/>
+      <c r="U76" s="96" t="n"/>
     </row>
     <row r="77" outlineLevel="1" ht="13" customHeight="1">
       <c r="A77" s="43">
@@ -4093,7 +4093,7 @@
       <c r="R77" s="13" t="n"/>
       <c r="S77" s="14" t="n"/>
       <c r="T77" s="14" t="n"/>
-      <c r="U77" s="103" t="n"/>
+      <c r="U77" s="96" t="n"/>
     </row>
     <row r="78" outlineLevel="1" ht="13" customHeight="1">
       <c r="A78" s="43">
@@ -4131,7 +4131,7 @@
       <c r="R78" s="13" t="n"/>
       <c r="S78" s="14" t="n"/>
       <c r="T78" s="14" t="n"/>
-      <c r="U78" s="103" t="n"/>
+      <c r="U78" s="96" t="n"/>
     </row>
     <row r="79" outlineLevel="1" ht="13" customHeight="1">
       <c r="A79" s="43">
@@ -4169,7 +4169,7 @@
       <c r="R79" s="13" t="n"/>
       <c r="S79" s="14" t="n"/>
       <c r="T79" s="14" t="n"/>
-      <c r="U79" s="103" t="n"/>
+      <c r="U79" s="96" t="n"/>
     </row>
     <row r="80" outlineLevel="1" ht="13" customHeight="1">
       <c r="A80" s="43">
@@ -4207,7 +4207,7 @@
       <c r="R80" s="13" t="n"/>
       <c r="S80" s="14" t="n"/>
       <c r="T80" s="14" t="n"/>
-      <c r="U80" s="103" t="n"/>
+      <c r="U80" s="96" t="n"/>
     </row>
     <row r="81" outlineLevel="1" ht="13" customHeight="1">
       <c r="A81" s="43">
@@ -4245,7 +4245,7 @@
       <c r="R81" s="13" t="n"/>
       <c r="S81" s="14" t="n"/>
       <c r="T81" s="14" t="n"/>
-      <c r="U81" s="103" t="n"/>
+      <c r="U81" s="96" t="n"/>
     </row>
     <row r="82" outlineLevel="1" ht="13" customHeight="1">
       <c r="A82" s="43">
@@ -4283,7 +4283,7 @@
       <c r="R82" s="13" t="n"/>
       <c r="S82" s="14" t="n"/>
       <c r="T82" s="14" t="n"/>
-      <c r="U82" s="103" t="n"/>
+      <c r="U82" s="96" t="n"/>
     </row>
     <row r="83" outlineLevel="1" ht="13" customHeight="1">
       <c r="A83" s="43">
@@ -4321,7 +4321,7 @@
       <c r="R83" s="13" t="n"/>
       <c r="S83" s="14" t="n"/>
       <c r="T83" s="14" t="n"/>
-      <c r="U83" s="103" t="n"/>
+      <c r="U83" s="96" t="n"/>
     </row>
     <row r="84" outlineLevel="1" ht="13" customHeight="1">
       <c r="A84" s="43">
@@ -4359,7 +4359,7 @@
       <c r="R84" s="13" t="n"/>
       <c r="S84" s="14" t="n"/>
       <c r="T84" s="14" t="n"/>
-      <c r="U84" s="103" t="n"/>
+      <c r="U84" s="96" t="n"/>
     </row>
     <row r="85" outlineLevel="1" ht="13" customHeight="1">
       <c r="A85" s="43">
@@ -4397,7 +4397,7 @@
       <c r="R85" s="13" t="n"/>
       <c r="S85" s="14" t="n"/>
       <c r="T85" s="14" t="n"/>
-      <c r="U85" s="103" t="n"/>
+      <c r="U85" s="96" t="n"/>
     </row>
     <row r="86" outlineLevel="1" ht="13" customHeight="1">
       <c r="A86" s="43">
@@ -4435,7 +4435,7 @@
       <c r="R86" s="13" t="n"/>
       <c r="S86" s="14" t="n"/>
       <c r="T86" s="14" t="n"/>
-      <c r="U86" s="103" t="n"/>
+      <c r="U86" s="96" t="n"/>
     </row>
     <row r="87" outlineLevel="1" ht="13" customHeight="1">
       <c r="A87" s="43">
@@ -4473,7 +4473,7 @@
       <c r="R87" s="13" t="n"/>
       <c r="S87" s="14" t="n"/>
       <c r="T87" s="14" t="n"/>
-      <c r="U87" s="103" t="n"/>
+      <c r="U87" s="96" t="n"/>
     </row>
     <row r="88" outlineLevel="1" ht="13" customHeight="1">
       <c r="A88" s="43">
@@ -4511,7 +4511,7 @@
       <c r="R88" s="13" t="n"/>
       <c r="S88" s="14" t="n"/>
       <c r="T88" s="14" t="n"/>
-      <c r="U88" s="103" t="n"/>
+      <c r="U88" s="96" t="n"/>
     </row>
     <row r="89" outlineLevel="1" ht="13" customHeight="1">
       <c r="A89" s="43">
@@ -4549,7 +4549,7 @@
       <c r="R89" s="13" t="n"/>
       <c r="S89" s="14" t="n"/>
       <c r="T89" s="14" t="n"/>
-      <c r="U89" s="103" t="n"/>
+      <c r="U89" s="96" t="n"/>
     </row>
     <row r="90" collapsed="1" ht="13" customHeight="1">
       <c r="A90" s="43">
@@ -4587,7 +4587,7 @@
       <c r="R90" s="13" t="n"/>
       <c r="S90" s="14" t="n"/>
       <c r="T90" s="14" t="n"/>
-      <c r="U90" s="103" t="n"/>
+      <c r="U90" s="96" t="n"/>
     </row>
     <row r="91" outlineLevel="1" ht="13" customHeight="1">
       <c r="A91" s="43">
@@ -4625,7 +4625,7 @@
       <c r="R91" s="13" t="n"/>
       <c r="S91" s="14" t="n"/>
       <c r="T91" s="14" t="n"/>
-      <c r="U91" s="103" t="n"/>
+      <c r="U91" s="96" t="n"/>
     </row>
     <row r="92" outlineLevel="1" ht="13" customHeight="1">
       <c r="A92" s="43">
@@ -4663,7 +4663,7 @@
       <c r="R92" s="13" t="n"/>
       <c r="S92" s="14" t="n"/>
       <c r="T92" s="14" t="n"/>
-      <c r="U92" s="103" t="n"/>
+      <c r="U92" s="96" t="n"/>
     </row>
     <row r="93" outlineLevel="1" ht="13" customHeight="1">
       <c r="A93" s="43">
@@ -4701,7 +4701,7 @@
       <c r="R93" s="13" t="n"/>
       <c r="S93" s="14" t="n"/>
       <c r="T93" s="14" t="n"/>
-      <c r="U93" s="103" t="n"/>
+      <c r="U93" s="96" t="n"/>
     </row>
     <row r="94" outlineLevel="1" ht="13" customHeight="1">
       <c r="A94" s="43">
@@ -4739,7 +4739,7 @@
       <c r="R94" s="13" t="n"/>
       <c r="S94" s="14" t="n"/>
       <c r="T94" s="14" t="n"/>
-      <c r="U94" s="103" t="n"/>
+      <c r="U94" s="96" t="n"/>
     </row>
     <row r="95" outlineLevel="1" ht="13" customHeight="1">
       <c r="A95" s="43">
@@ -4777,7 +4777,7 @@
       <c r="R95" s="13" t="n"/>
       <c r="S95" s="14" t="n"/>
       <c r="T95" s="14" t="n"/>
-      <c r="U95" s="103" t="n"/>
+      <c r="U95" s="96" t="n"/>
     </row>
     <row r="96" outlineLevel="1" ht="13" customHeight="1">
       <c r="A96" s="43">
@@ -4815,7 +4815,7 @@
       <c r="R96" s="13" t="n"/>
       <c r="S96" s="14" t="n"/>
       <c r="T96" s="14" t="n"/>
-      <c r="U96" s="103" t="n"/>
+      <c r="U96" s="96" t="n"/>
     </row>
     <row r="97" outlineLevel="1" ht="13" customHeight="1">
       <c r="A97" s="43">
@@ -4853,7 +4853,7 @@
       <c r="R97" s="13" t="n"/>
       <c r="S97" s="14" t="n"/>
       <c r="T97" s="14" t="n"/>
-      <c r="U97" s="103" t="n"/>
+      <c r="U97" s="96" t="n"/>
     </row>
     <row r="98" outlineLevel="1" ht="13" customHeight="1">
       <c r="A98" s="43">
@@ -4891,7 +4891,7 @@
       <c r="R98" s="13" t="n"/>
       <c r="S98" s="14" t="n"/>
       <c r="T98" s="14" t="n"/>
-      <c r="U98" s="103" t="n"/>
+      <c r="U98" s="96" t="n"/>
     </row>
     <row r="99" outlineLevel="1" ht="13" customHeight="1">
       <c r="A99" s="43">
@@ -4929,7 +4929,7 @@
       <c r="R99" s="13" t="n"/>
       <c r="S99" s="14" t="n"/>
       <c r="T99" s="14" t="n"/>
-      <c r="U99" s="103" t="n"/>
+      <c r="U99" s="96" t="n"/>
     </row>
     <row r="100" outlineLevel="1" ht="13" customHeight="1">
       <c r="A100" s="43">
@@ -4967,7 +4967,7 @@
       <c r="R100" s="13" t="n"/>
       <c r="S100" s="14" t="n"/>
       <c r="T100" s="14" t="n"/>
-      <c r="U100" s="103" t="n"/>
+      <c r="U100" s="96" t="n"/>
     </row>
     <row r="101" outlineLevel="1" ht="13" customHeight="1">
       <c r="A101" s="43">
@@ -5005,7 +5005,7 @@
       <c r="R101" s="13" t="n"/>
       <c r="S101" s="14" t="n"/>
       <c r="T101" s="14" t="n"/>
-      <c r="U101" s="103" t="n"/>
+      <c r="U101" s="96" t="n"/>
     </row>
     <row r="102" outlineLevel="1" ht="13" customHeight="1">
       <c r="A102" s="43">
@@ -5043,7 +5043,7 @@
       <c r="R102" s="13" t="n"/>
       <c r="S102" s="14" t="n"/>
       <c r="T102" s="14" t="n"/>
-      <c r="U102" s="103" t="n"/>
+      <c r="U102" s="96" t="n"/>
     </row>
     <row r="103" outlineLevel="1" ht="13" customHeight="1">
       <c r="A103" s="43">
@@ -5081,7 +5081,7 @@
       <c r="R103" s="13" t="n"/>
       <c r="S103" s="14" t="n"/>
       <c r="T103" s="14" t="n"/>
-      <c r="U103" s="103" t="n"/>
+      <c r="U103" s="96" t="n"/>
     </row>
     <row r="104" outlineLevel="1" ht="13" customHeight="1">
       <c r="A104" s="43">
@@ -5119,7 +5119,7 @@
       <c r="R104" s="13" t="n"/>
       <c r="S104" s="14" t="n"/>
       <c r="T104" s="14" t="n"/>
-      <c r="U104" s="103" t="n"/>
+      <c r="U104" s="96" t="n"/>
     </row>
     <row r="105" outlineLevel="1" ht="13" customHeight="1">
       <c r="A105" s="43">
@@ -5157,7 +5157,7 @@
       <c r="R105" s="13" t="n"/>
       <c r="S105" s="14" t="n"/>
       <c r="T105" s="14" t="n"/>
-      <c r="U105" s="103" t="n"/>
+      <c r="U105" s="96" t="n"/>
     </row>
     <row r="106" outlineLevel="1" ht="13" customHeight="1">
       <c r="A106" s="43">
@@ -5195,7 +5195,7 @@
       <c r="R106" s="13" t="n"/>
       <c r="S106" s="14" t="n"/>
       <c r="T106" s="14" t="n"/>
-      <c r="U106" s="103" t="n"/>
+      <c r="U106" s="96" t="n"/>
     </row>
     <row r="107" outlineLevel="1" ht="13" customHeight="1">
       <c r="A107" s="43">
@@ -5233,7 +5233,7 @@
       <c r="R107" s="13" t="n"/>
       <c r="S107" s="14" t="n"/>
       <c r="T107" s="14" t="n"/>
-      <c r="U107" s="103" t="n"/>
+      <c r="U107" s="96" t="n"/>
     </row>
     <row r="108" outlineLevel="1" ht="13" customHeight="1">
       <c r="A108" s="43">
@@ -5271,7 +5271,7 @@
       <c r="R108" s="13" t="n"/>
       <c r="S108" s="14" t="n"/>
       <c r="T108" s="14" t="n"/>
-      <c r="U108" s="103" t="n"/>
+      <c r="U108" s="96" t="n"/>
     </row>
     <row r="109" outlineLevel="1" ht="13" customHeight="1">
       <c r="A109" s="43">
@@ -5309,7 +5309,7 @@
       <c r="R109" s="13" t="n"/>
       <c r="S109" s="14" t="n"/>
       <c r="T109" s="14" t="n"/>
-      <c r="U109" s="103" t="n"/>
+      <c r="U109" s="96" t="n"/>
     </row>
     <row r="110" outlineLevel="1" ht="13" customHeight="1">
       <c r="A110" s="43">
@@ -5347,7 +5347,7 @@
       <c r="R110" s="13" t="n"/>
       <c r="S110" s="14" t="n"/>
       <c r="T110" s="14" t="n"/>
-      <c r="U110" s="103" t="n"/>
+      <c r="U110" s="96" t="n"/>
     </row>
     <row r="111" outlineLevel="1" ht="13" customHeight="1">
       <c r="A111" s="43">
@@ -5385,7 +5385,7 @@
       <c r="R111" s="13" t="n"/>
       <c r="S111" s="14" t="n"/>
       <c r="T111" s="14" t="n"/>
-      <c r="U111" s="103" t="n"/>
+      <c r="U111" s="96" t="n"/>
     </row>
     <row r="112" outlineLevel="1" ht="13" customHeight="1">
       <c r="A112" s="43">
@@ -5423,7 +5423,7 @@
       <c r="R112" s="13" t="n"/>
       <c r="S112" s="14" t="n"/>
       <c r="T112" s="14" t="n"/>
-      <c r="U112" s="103" t="n"/>
+      <c r="U112" s="96" t="n"/>
     </row>
     <row r="113" outlineLevel="1" ht="13" customHeight="1">
       <c r="A113" s="43">
@@ -5461,7 +5461,7 @@
       <c r="R113" s="13" t="n"/>
       <c r="S113" s="14" t="n"/>
       <c r="T113" s="14" t="n"/>
-      <c r="U113" s="103" t="n"/>
+      <c r="U113" s="96" t="n"/>
     </row>
     <row r="114" outlineLevel="1" ht="13" customHeight="1">
       <c r="A114" s="43">
@@ -5499,7 +5499,7 @@
       <c r="R114" s="13" t="n"/>
       <c r="S114" s="14" t="n"/>
       <c r="T114" s="14" t="n"/>
-      <c r="U114" s="103" t="n"/>
+      <c r="U114" s="96" t="n"/>
     </row>
     <row r="115" collapsed="1" ht="13" customHeight="1">
       <c r="A115" s="43">
@@ -5537,7 +5537,7 @@
       <c r="R115" s="13" t="n"/>
       <c r="S115" s="14" t="n"/>
       <c r="T115" s="14" t="n"/>
-      <c r="U115" s="103" t="n"/>
+      <c r="U115" s="96" t="n"/>
     </row>
     <row r="116" outlineLevel="1" ht="13" customHeight="1">
       <c r="A116" s="43">
@@ -5575,7 +5575,7 @@
       <c r="R116" s="13" t="n"/>
       <c r="S116" s="14" t="n"/>
       <c r="T116" s="14" t="n"/>
-      <c r="U116" s="103" t="n"/>
+      <c r="U116" s="96" t="n"/>
     </row>
     <row r="117" outlineLevel="1" ht="13" customHeight="1">
       <c r="A117" s="43">
@@ -5613,7 +5613,7 @@
       <c r="R117" s="13" t="n"/>
       <c r="S117" s="14" t="n"/>
       <c r="T117" s="14" t="n"/>
-      <c r="U117" s="103" t="n"/>
+      <c r="U117" s="96" t="n"/>
     </row>
     <row r="118" outlineLevel="1" ht="13" customHeight="1">
       <c r="A118" s="43">
@@ -5651,7 +5651,7 @@
       <c r="R118" s="13" t="n"/>
       <c r="S118" s="14" t="n"/>
       <c r="T118" s="14" t="n"/>
-      <c r="U118" s="103" t="n"/>
+      <c r="U118" s="96" t="n"/>
     </row>
     <row r="119" outlineLevel="1" ht="13" customHeight="1">
       <c r="A119" s="43">
@@ -5689,7 +5689,7 @@
       <c r="R119" s="13" t="n"/>
       <c r="S119" s="14" t="n"/>
       <c r="T119" s="14" t="n"/>
-      <c r="U119" s="103" t="n"/>
+      <c r="U119" s="96" t="n"/>
     </row>
     <row r="120" outlineLevel="1" ht="13" customHeight="1">
       <c r="A120" s="43">
@@ -5727,7 +5727,7 @@
       <c r="R120" s="13" t="n"/>
       <c r="S120" s="14" t="n"/>
       <c r="T120" s="14" t="n"/>
-      <c r="U120" s="103" t="n"/>
+      <c r="U120" s="96" t="n"/>
     </row>
     <row r="121" outlineLevel="1" ht="13" customHeight="1">
       <c r="A121" s="43">
@@ -5765,7 +5765,7 @@
       <c r="R121" s="13" t="n"/>
       <c r="S121" s="14" t="n"/>
       <c r="T121" s="14" t="n"/>
-      <c r="U121" s="103" t="n"/>
+      <c r="U121" s="96" t="n"/>
     </row>
     <row r="122" outlineLevel="1" ht="13" customHeight="1">
       <c r="A122" s="43">
@@ -5803,7 +5803,7 @@
       <c r="R122" s="13" t="n"/>
       <c r="S122" s="14" t="n"/>
       <c r="T122" s="14" t="n"/>
-      <c r="U122" s="103" t="n"/>
+      <c r="U122" s="96" t="n"/>
     </row>
     <row r="123" outlineLevel="1" ht="13" customHeight="1">
       <c r="A123" s="43">
@@ -5841,7 +5841,7 @@
       <c r="R123" s="13" t="n"/>
       <c r="S123" s="14" t="n"/>
       <c r="T123" s="14" t="n"/>
-      <c r="U123" s="103" t="n"/>
+      <c r="U123" s="96" t="n"/>
     </row>
     <row r="124" outlineLevel="1" ht="13" customHeight="1">
       <c r="A124" s="43">
@@ -5879,7 +5879,7 @@
       <c r="R124" s="13" t="n"/>
       <c r="S124" s="14" t="n"/>
       <c r="T124" s="14" t="n"/>
-      <c r="U124" s="103" t="n"/>
+      <c r="U124" s="96" t="n"/>
     </row>
     <row r="125" outlineLevel="1" ht="13" customHeight="1">
       <c r="A125" s="43">
@@ -5917,7 +5917,7 @@
       <c r="R125" s="13" t="n"/>
       <c r="S125" s="14" t="n"/>
       <c r="T125" s="14" t="n"/>
-      <c r="U125" s="103" t="n"/>
+      <c r="U125" s="96" t="n"/>
     </row>
     <row r="126" outlineLevel="1" ht="13" customHeight="1">
       <c r="A126" s="43">
@@ -5955,7 +5955,7 @@
       <c r="R126" s="13" t="n"/>
       <c r="S126" s="14" t="n"/>
       <c r="T126" s="14" t="n"/>
-      <c r="U126" s="103" t="n"/>
+      <c r="U126" s="96" t="n"/>
     </row>
     <row r="127" outlineLevel="1" ht="13" customHeight="1">
       <c r="A127" s="43">
@@ -5993,7 +5993,7 @@
       <c r="R127" s="13" t="n"/>
       <c r="S127" s="14" t="n"/>
       <c r="T127" s="14" t="n"/>
-      <c r="U127" s="103" t="n"/>
+      <c r="U127" s="96" t="n"/>
     </row>
     <row r="128" outlineLevel="1" ht="13" customHeight="1">
       <c r="A128" s="43">
@@ -6031,7 +6031,7 @@
       <c r="R128" s="13" t="n"/>
       <c r="S128" s="14" t="n"/>
       <c r="T128" s="14" t="n"/>
-      <c r="U128" s="103" t="n"/>
+      <c r="U128" s="96" t="n"/>
     </row>
     <row r="129" outlineLevel="1" ht="13" customHeight="1">
       <c r="A129" s="43">
@@ -6069,7 +6069,7 @@
       <c r="R129" s="13" t="n"/>
       <c r="S129" s="14" t="n"/>
       <c r="T129" s="14" t="n"/>
-      <c r="U129" s="103" t="n"/>
+      <c r="U129" s="96" t="n"/>
     </row>
     <row r="130" outlineLevel="1" ht="13" customHeight="1">
       <c r="A130" s="43">
@@ -6107,7 +6107,7 @@
       <c r="R130" s="13" t="n"/>
       <c r="S130" s="14" t="n"/>
       <c r="T130" s="14" t="n"/>
-      <c r="U130" s="103" t="n"/>
+      <c r="U130" s="96" t="n"/>
     </row>
     <row r="131" outlineLevel="1" ht="13" customHeight="1">
       <c r="A131" s="43">
@@ -6145,7 +6145,7 @@
       <c r="R131" s="13" t="n"/>
       <c r="S131" s="14" t="n"/>
       <c r="T131" s="14" t="n"/>
-      <c r="U131" s="103" t="n"/>
+      <c r="U131" s="96" t="n"/>
     </row>
     <row r="132" outlineLevel="1" ht="13" customHeight="1">
       <c r="A132" s="43">
@@ -6183,7 +6183,7 @@
       <c r="R132" s="13" t="n"/>
       <c r="S132" s="14" t="n"/>
       <c r="T132" s="14" t="n"/>
-      <c r="U132" s="103" t="n"/>
+      <c r="U132" s="96" t="n"/>
     </row>
     <row r="133" outlineLevel="1" ht="13" customHeight="1">
       <c r="A133" s="43">
@@ -6221,7 +6221,7 @@
       <c r="R133" s="13" t="n"/>
       <c r="S133" s="14" t="n"/>
       <c r="T133" s="14" t="n"/>
-      <c r="U133" s="103" t="n"/>
+      <c r="U133" s="96" t="n"/>
     </row>
     <row r="134" outlineLevel="1" ht="13" customHeight="1">
       <c r="A134" s="43">
@@ -6259,7 +6259,7 @@
       <c r="R134" s="13" t="n"/>
       <c r="S134" s="14" t="n"/>
       <c r="T134" s="14" t="n"/>
-      <c r="U134" s="103" t="n"/>
+      <c r="U134" s="96" t="n"/>
     </row>
     <row r="135" outlineLevel="1" ht="13" customHeight="1">
       <c r="A135" s="43">
@@ -6297,7 +6297,7 @@
       <c r="R135" s="13" t="n"/>
       <c r="S135" s="14" t="n"/>
       <c r="T135" s="14" t="n"/>
-      <c r="U135" s="103" t="n"/>
+      <c r="U135" s="96" t="n"/>
     </row>
     <row r="136" outlineLevel="1" ht="13" customHeight="1">
       <c r="A136" s="43">
@@ -6335,7 +6335,7 @@
       <c r="R136" s="13" t="n"/>
       <c r="S136" s="14" t="n"/>
       <c r="T136" s="14" t="n"/>
-      <c r="U136" s="103" t="n"/>
+      <c r="U136" s="96" t="n"/>
     </row>
     <row r="137" outlineLevel="1" ht="13" customHeight="1">
       <c r="A137" s="43">
@@ -6373,7 +6373,7 @@
       <c r="R137" s="13" t="n"/>
       <c r="S137" s="14" t="n"/>
       <c r="T137" s="14" t="n"/>
-      <c r="U137" s="103" t="n"/>
+      <c r="U137" s="96" t="n"/>
     </row>
     <row r="138" outlineLevel="1" ht="13" customHeight="1">
       <c r="A138" s="43">
@@ -6411,7 +6411,7 @@
       <c r="R138" s="13" t="n"/>
       <c r="S138" s="14" t="n"/>
       <c r="T138" s="14" t="n"/>
-      <c r="U138" s="103" t="n"/>
+      <c r="U138" s="96" t="n"/>
     </row>
     <row r="139" outlineLevel="1" ht="13" customHeight="1">
       <c r="A139" s="43">
@@ -6449,7 +6449,7 @@
       <c r="R139" s="13" t="n"/>
       <c r="S139" s="14" t="n"/>
       <c r="T139" s="14" t="n"/>
-      <c r="U139" s="103" t="n"/>
+      <c r="U139" s="96" t="n"/>
     </row>
     <row r="140" ht="13" customHeight="1">
       <c r="A140" s="43">
@@ -6487,7 +6487,7 @@
       <c r="R140" s="13" t="n"/>
       <c r="S140" s="14" t="n"/>
       <c r="T140" s="14" t="n"/>
-      <c r="U140" s="103" t="n"/>
+      <c r="U140" s="96" t="n"/>
     </row>
     <row r="141" outlineLevel="1" ht="13" customHeight="1">
       <c r="A141" s="43">
@@ -6525,7 +6525,7 @@
       <c r="R141" s="13" t="n"/>
       <c r="S141" s="14" t="n"/>
       <c r="T141" s="14" t="n"/>
-      <c r="U141" s="103" t="n"/>
+      <c r="U141" s="96" t="n"/>
     </row>
     <row r="142" outlineLevel="1" ht="13" customHeight="1">
       <c r="A142" s="43">
@@ -6563,7 +6563,7 @@
       <c r="R142" s="13" t="n"/>
       <c r="S142" s="14" t="n"/>
       <c r="T142" s="14" t="n"/>
-      <c r="U142" s="103" t="n"/>
+      <c r="U142" s="96" t="n"/>
     </row>
     <row r="143" outlineLevel="1" ht="13" customHeight="1">
       <c r="A143" s="43">
@@ -6601,7 +6601,7 @@
       <c r="R143" s="13" t="n"/>
       <c r="S143" s="14" t="n"/>
       <c r="T143" s="14" t="n"/>
-      <c r="U143" s="103" t="n"/>
+      <c r="U143" s="96" t="n"/>
     </row>
     <row r="144" outlineLevel="1" ht="13" customHeight="1">
       <c r="A144" s="43">
@@ -6639,7 +6639,7 @@
       <c r="R144" s="13" t="n"/>
       <c r="S144" s="14" t="n"/>
       <c r="T144" s="14" t="n"/>
-      <c r="U144" s="103" t="n"/>
+      <c r="U144" s="96" t="n"/>
     </row>
     <row r="145" outlineLevel="1" ht="13" customHeight="1">
       <c r="A145" s="43">
@@ -6677,7 +6677,7 @@
       <c r="R145" s="13" t="n"/>
       <c r="S145" s="14" t="n"/>
       <c r="T145" s="14" t="n"/>
-      <c r="U145" s="103" t="n"/>
+      <c r="U145" s="96" t="n"/>
     </row>
     <row r="146" outlineLevel="1" ht="13" customHeight="1">
       <c r="A146" s="43">
@@ -6715,7 +6715,7 @@
       <c r="R146" s="13" t="n"/>
       <c r="S146" s="14" t="n"/>
       <c r="T146" s="14" t="n"/>
-      <c r="U146" s="103" t="n"/>
+      <c r="U146" s="96" t="n"/>
     </row>
     <row r="147" outlineLevel="1" ht="13" customHeight="1">
       <c r="A147" s="43">
@@ -6753,7 +6753,7 @@
       <c r="R147" s="13" t="n"/>
       <c r="S147" s="14" t="n"/>
       <c r="T147" s="14" t="n"/>
-      <c r="U147" s="103" t="n"/>
+      <c r="U147" s="96" t="n"/>
     </row>
     <row r="148" outlineLevel="1" ht="13" customHeight="1">
       <c r="A148" s="43">
@@ -6791,7 +6791,7 @@
       <c r="R148" s="13" t="n"/>
       <c r="S148" s="14" t="n"/>
       <c r="T148" s="14" t="n"/>
-      <c r="U148" s="103" t="n"/>
+      <c r="U148" s="96" t="n"/>
     </row>
     <row r="149" outlineLevel="1" ht="13" customHeight="1">
       <c r="A149" s="43">
@@ -6829,7 +6829,7 @@
       <c r="R149" s="13" t="n"/>
       <c r="S149" s="14" t="n"/>
       <c r="T149" s="14" t="n"/>
-      <c r="U149" s="103" t="n"/>
+      <c r="U149" s="96" t="n"/>
     </row>
     <row r="150" outlineLevel="1" ht="13" customHeight="1">
       <c r="A150" s="43">
@@ -6867,7 +6867,7 @@
       <c r="R150" s="13" t="n"/>
       <c r="S150" s="14" t="n"/>
       <c r="T150" s="14" t="n"/>
-      <c r="U150" s="103" t="n"/>
+      <c r="U150" s="96" t="n"/>
     </row>
     <row r="151" outlineLevel="1" ht="13" customHeight="1">
       <c r="A151" s="43">
@@ -6905,7 +6905,7 @@
       <c r="R151" s="13" t="n"/>
       <c r="S151" s="14" t="n"/>
       <c r="T151" s="14" t="n"/>
-      <c r="U151" s="103" t="n"/>
+      <c r="U151" s="96" t="n"/>
     </row>
     <row r="152" outlineLevel="1" ht="13" customHeight="1">
       <c r="A152" s="43">
@@ -6943,7 +6943,7 @@
       <c r="R152" s="13" t="n"/>
       <c r="S152" s="14" t="n"/>
       <c r="T152" s="14" t="n"/>
-      <c r="U152" s="103" t="n"/>
+      <c r="U152" s="96" t="n"/>
     </row>
     <row r="153" outlineLevel="1" ht="13" customHeight="1">
       <c r="A153" s="43">
@@ -6981,7 +6981,7 @@
       <c r="R153" s="13" t="n"/>
       <c r="S153" s="14" t="n"/>
       <c r="T153" s="14" t="n"/>
-      <c r="U153" s="103" t="n"/>
+      <c r="U153" s="96" t="n"/>
     </row>
     <row r="154" outlineLevel="1" ht="13" customHeight="1">
       <c r="A154" s="43">
@@ -7019,7 +7019,7 @@
       <c r="R154" s="13" t="n"/>
       <c r="S154" s="14" t="n"/>
       <c r="T154" s="14" t="n"/>
-      <c r="U154" s="103" t="n"/>
+      <c r="U154" s="96" t="n"/>
     </row>
     <row r="155" outlineLevel="1" ht="13" customHeight="1">
       <c r="A155" s="43">
@@ -7057,7 +7057,7 @@
       <c r="R155" s="13" t="n"/>
       <c r="S155" s="14" t="n"/>
       <c r="T155" s="14" t="n"/>
-      <c r="U155" s="103" t="n"/>
+      <c r="U155" s="96" t="n"/>
     </row>
     <row r="156" outlineLevel="1" ht="13" customHeight="1">
       <c r="A156" s="43">
@@ -7095,7 +7095,7 @@
       <c r="R156" s="13" t="n"/>
       <c r="S156" s="14" t="n"/>
       <c r="T156" s="14" t="n"/>
-      <c r="U156" s="103" t="n"/>
+      <c r="U156" s="96" t="n"/>
     </row>
     <row r="157" outlineLevel="1" ht="13" customHeight="1">
       <c r="A157" s="43">
@@ -7133,7 +7133,7 @@
       <c r="R157" s="13" t="n"/>
       <c r="S157" s="14" t="n"/>
       <c r="T157" s="14" t="n"/>
-      <c r="U157" s="103" t="n"/>
+      <c r="U157" s="96" t="n"/>
     </row>
     <row r="158" outlineLevel="1" ht="13" customHeight="1">
       <c r="A158" s="43">
@@ -7171,7 +7171,7 @@
       <c r="R158" s="13" t="n"/>
       <c r="S158" s="14" t="n"/>
       <c r="T158" s="14" t="n"/>
-      <c r="U158" s="103" t="n"/>
+      <c r="U158" s="96" t="n"/>
     </row>
     <row r="159" outlineLevel="1" ht="13" customHeight="1">
       <c r="A159" s="43">
@@ -7209,7 +7209,7 @@
       <c r="R159" s="13" t="n"/>
       <c r="S159" s="14" t="n"/>
       <c r="T159" s="14" t="n"/>
-      <c r="U159" s="103" t="n"/>
+      <c r="U159" s="96" t="n"/>
     </row>
     <row r="160" outlineLevel="1" ht="13" customHeight="1">
       <c r="A160" s="43">
@@ -7247,7 +7247,7 @@
       <c r="R160" s="13" t="n"/>
       <c r="S160" s="14" t="n"/>
       <c r="T160" s="14" t="n"/>
-      <c r="U160" s="103" t="n"/>
+      <c r="U160" s="96" t="n"/>
     </row>
     <row r="161" outlineLevel="1" ht="13" customHeight="1">
       <c r="A161" s="43">
@@ -7285,7 +7285,7 @@
       <c r="R161" s="13" t="n"/>
       <c r="S161" s="14" t="n"/>
       <c r="T161" s="14" t="n"/>
-      <c r="U161" s="103" t="n"/>
+      <c r="U161" s="96" t="n"/>
     </row>
     <row r="162" outlineLevel="1" ht="13" customHeight="1">
       <c r="A162" s="43">
@@ -7323,7 +7323,7 @@
       <c r="R162" s="13" t="n"/>
       <c r="S162" s="14" t="n"/>
       <c r="T162" s="14" t="n"/>
-      <c r="U162" s="103" t="n"/>
+      <c r="U162" s="96" t="n"/>
     </row>
     <row r="163" outlineLevel="1" ht="13" customHeight="1">
       <c r="A163" s="43">
@@ -7361,7 +7361,7 @@
       <c r="R163" s="13" t="n"/>
       <c r="S163" s="14" t="n"/>
       <c r="T163" s="14" t="n"/>
-      <c r="U163" s="103" t="n"/>
+      <c r="U163" s="96" t="n"/>
     </row>
     <row r="164" outlineLevel="1" ht="13" customHeight="1">
       <c r="A164" s="43">
@@ -7399,7 +7399,7 @@
       <c r="R164" s="13" t="n"/>
       <c r="S164" s="14" t="n"/>
       <c r="T164" s="14" t="n"/>
-      <c r="U164" s="103" t="n"/>
+      <c r="U164" s="96" t="n"/>
     </row>
     <row r="165" outlineLevel="1" ht="13" customHeight="1">
       <c r="A165" s="43">
@@ -7437,7 +7437,7 @@
       <c r="R165" s="13" t="n"/>
       <c r="S165" s="14" t="n"/>
       <c r="T165" s="14" t="n"/>
-      <c r="U165" s="103" t="n"/>
+      <c r="U165" s="96" t="n"/>
     </row>
     <row r="166" outlineLevel="1" ht="13" customHeight="1">
       <c r="A166" s="43">
@@ -7475,7 +7475,7 @@
       <c r="R166" s="13" t="n"/>
       <c r="S166" s="14" t="n"/>
       <c r="T166" s="14" t="n"/>
-      <c r="U166" s="103" t="n"/>
+      <c r="U166" s="96" t="n"/>
     </row>
     <row r="167" outlineLevel="1" ht="13" customHeight="1">
       <c r="A167" s="43">
@@ -7513,7 +7513,7 @@
       <c r="R167" s="13" t="n"/>
       <c r="S167" s="14" t="n"/>
       <c r="T167" s="14" t="n"/>
-      <c r="U167" s="103" t="n"/>
+      <c r="U167" s="96" t="n"/>
     </row>
     <row r="168" outlineLevel="1" ht="13" customHeight="1">
       <c r="A168" s="43">
@@ -7551,7 +7551,7 @@
       <c r="R168" s="13" t="n"/>
       <c r="S168" s="14" t="n"/>
       <c r="T168" s="14" t="n"/>
-      <c r="U168" s="103" t="n"/>
+      <c r="U168" s="96" t="n"/>
     </row>
     <row r="169" outlineLevel="1" ht="13" customHeight="1">
       <c r="A169" s="43">
@@ -7589,7 +7589,7 @@
       <c r="R169" s="13" t="n"/>
       <c r="S169" s="14" t="n"/>
       <c r="T169" s="14" t="n"/>
-      <c r="U169" s="103" t="n"/>
+      <c r="U169" s="96" t="n"/>
     </row>
     <row r="170" outlineLevel="1" ht="13" customHeight="1">
       <c r="A170" s="43">
@@ -7627,7 +7627,7 @@
       <c r="R170" s="13" t="n"/>
       <c r="S170" s="14" t="n"/>
       <c r="T170" s="14" t="n"/>
-      <c r="U170" s="103" t="n"/>
+      <c r="U170" s="96" t="n"/>
     </row>
     <row r="171" outlineLevel="1" ht="13" customHeight="1">
       <c r="A171" s="43">
@@ -7665,7 +7665,7 @@
       <c r="R171" s="13" t="n"/>
       <c r="S171" s="14" t="n"/>
       <c r="T171" s="14" t="n"/>
-      <c r="U171" s="103" t="n"/>
+      <c r="U171" s="96" t="n"/>
     </row>
     <row r="172" outlineLevel="1" ht="13" customHeight="1">
       <c r="A172" s="43">
@@ -7703,7 +7703,7 @@
       <c r="R172" s="13" t="n"/>
       <c r="S172" s="14" t="n"/>
       <c r="T172" s="14" t="n"/>
-      <c r="U172" s="103" t="n"/>
+      <c r="U172" s="96" t="n"/>
     </row>
     <row r="173" outlineLevel="1" ht="13" customHeight="1">
       <c r="A173" s="43">
@@ -7741,7 +7741,7 @@
       <c r="R173" s="13" t="n"/>
       <c r="S173" s="14" t="n"/>
       <c r="T173" s="14" t="n"/>
-      <c r="U173" s="103" t="n"/>
+      <c r="U173" s="96" t="n"/>
     </row>
     <row r="174" outlineLevel="1" ht="13" customHeight="1">
       <c r="A174" s="43">
@@ -7779,7 +7779,7 @@
       <c r="R174" s="13" t="n"/>
       <c r="S174" s="14" t="n"/>
       <c r="T174" s="14" t="n"/>
-      <c r="U174" s="103" t="n"/>
+      <c r="U174" s="96" t="n"/>
     </row>
     <row r="175" outlineLevel="1" ht="13" customHeight="1">
       <c r="A175" s="43">
@@ -7817,7 +7817,7 @@
       <c r="R175" s="13" t="n"/>
       <c r="S175" s="14" t="n"/>
       <c r="T175" s="14" t="n"/>
-      <c r="U175" s="103" t="n"/>
+      <c r="U175" s="96" t="n"/>
     </row>
     <row r="176" outlineLevel="1" ht="13" customHeight="1">
       <c r="A176" s="43">
@@ -7855,7 +7855,7 @@
       <c r="R176" s="13" t="n"/>
       <c r="S176" s="14" t="n"/>
       <c r="T176" s="14" t="n"/>
-      <c r="U176" s="103" t="n"/>
+      <c r="U176" s="96" t="n"/>
     </row>
     <row r="177" outlineLevel="1" ht="13" customHeight="1">
       <c r="A177" s="43">
@@ -7893,7 +7893,7 @@
       <c r="R177" s="13" t="n"/>
       <c r="S177" s="14" t="n"/>
       <c r="T177" s="14" t="n"/>
-      <c r="U177" s="103" t="n"/>
+      <c r="U177" s="96" t="n"/>
     </row>
     <row r="178" outlineLevel="1" ht="13" customHeight="1">
       <c r="A178" s="43">
@@ -7931,7 +7931,7 @@
       <c r="R178" s="13" t="n"/>
       <c r="S178" s="14" t="n"/>
       <c r="T178" s="14" t="n"/>
-      <c r="U178" s="103" t="n"/>
+      <c r="U178" s="96" t="n"/>
     </row>
     <row r="179" outlineLevel="1" ht="13" customHeight="1">
       <c r="A179" s="43">
@@ -7969,7 +7969,7 @@
       <c r="R179" s="13" t="n"/>
       <c r="S179" s="14" t="n"/>
       <c r="T179" s="14" t="n"/>
-      <c r="U179" s="103" t="n"/>
+      <c r="U179" s="96" t="n"/>
     </row>
     <row r="180" outlineLevel="1" ht="13" customHeight="1">
       <c r="A180" s="43">
@@ -8007,7 +8007,7 @@
       <c r="R180" s="13" t="n"/>
       <c r="S180" s="14" t="n"/>
       <c r="T180" s="14" t="n"/>
-      <c r="U180" s="103" t="n"/>
+      <c r="U180" s="96" t="n"/>
     </row>
     <row r="181" outlineLevel="1" ht="13" customHeight="1">
       <c r="A181" s="43">
@@ -8045,7 +8045,7 @@
       <c r="R181" s="13" t="n"/>
       <c r="S181" s="14" t="n"/>
       <c r="T181" s="14" t="n"/>
-      <c r="U181" s="103" t="n"/>
+      <c r="U181" s="96" t="n"/>
     </row>
     <row r="182" outlineLevel="1" ht="13" customHeight="1">
       <c r="A182" s="43">
@@ -8083,7 +8083,7 @@
       <c r="R182" s="13" t="n"/>
       <c r="S182" s="14" t="n"/>
       <c r="T182" s="14" t="n"/>
-      <c r="U182" s="103" t="n"/>
+      <c r="U182" s="96" t="n"/>
     </row>
     <row r="183" outlineLevel="1" ht="13" customHeight="1">
       <c r="A183" s="43">
@@ -8121,7 +8121,7 @@
       <c r="R183" s="13" t="n"/>
       <c r="S183" s="14" t="n"/>
       <c r="T183" s="14" t="n"/>
-      <c r="U183" s="103" t="n"/>
+      <c r="U183" s="96" t="n"/>
     </row>
     <row r="184" outlineLevel="1" ht="13" customHeight="1">
       <c r="A184" s="43">
@@ -8159,7 +8159,7 @@
       <c r="R184" s="13" t="n"/>
       <c r="S184" s="14" t="n"/>
       <c r="T184" s="14" t="n"/>
-      <c r="U184" s="103" t="n"/>
+      <c r="U184" s="96" t="n"/>
     </row>
     <row r="185" outlineLevel="1" ht="13" customHeight="1">
       <c r="A185" s="43">
@@ -8197,7 +8197,7 @@
       <c r="R185" s="13" t="n"/>
       <c r="S185" s="14" t="n"/>
       <c r="T185" s="14" t="n"/>
-      <c r="U185" s="103" t="n"/>
+      <c r="U185" s="96" t="n"/>
     </row>
     <row r="186" outlineLevel="1" ht="13" customHeight="1">
       <c r="A186" s="43">
@@ -8235,7 +8235,7 @@
       <c r="R186" s="13" t="n"/>
       <c r="S186" s="14" t="n"/>
       <c r="T186" s="14" t="n"/>
-      <c r="U186" s="103" t="n"/>
+      <c r="U186" s="96" t="n"/>
     </row>
     <row r="187" outlineLevel="1" ht="13" customHeight="1">
       <c r="A187" s="43">
@@ -8273,7 +8273,7 @@
       <c r="R187" s="13" t="n"/>
       <c r="S187" s="14" t="n"/>
       <c r="T187" s="14" t="n"/>
-      <c r="U187" s="103" t="n"/>
+      <c r="U187" s="96" t="n"/>
     </row>
     <row r="188" outlineLevel="1" ht="13" customHeight="1">
       <c r="A188" s="43">
@@ -8311,7 +8311,7 @@
       <c r="R188" s="13" t="n"/>
       <c r="S188" s="14" t="n"/>
       <c r="T188" s="14" t="n"/>
-      <c r="U188" s="103" t="n"/>
+      <c r="U188" s="96" t="n"/>
     </row>
     <row r="189" outlineLevel="1" ht="13" customHeight="1">
       <c r="A189" s="43">
@@ -8349,7 +8349,7 @@
       <c r="R189" s="13" t="n"/>
       <c r="S189" s="14" t="n"/>
       <c r="T189" s="14" t="n"/>
-      <c r="U189" s="103" t="n"/>
+      <c r="U189" s="96" t="n"/>
     </row>
     <row r="190" outlineLevel="1" ht="13" customHeight="1">
       <c r="A190" s="43">
@@ -8387,7 +8387,7 @@
       <c r="R190" s="13" t="n"/>
       <c r="S190" s="14" t="n"/>
       <c r="T190" s="14" t="n"/>
-      <c r="U190" s="103" t="n"/>
+      <c r="U190" s="96" t="n"/>
     </row>
     <row r="191" outlineLevel="1" ht="13" customHeight="1">
       <c r="A191" s="43">
@@ -8425,7 +8425,7 @@
       <c r="R191" s="13" t="n"/>
       <c r="S191" s="14" t="n"/>
       <c r="T191" s="14" t="n"/>
-      <c r="U191" s="103" t="n"/>
+      <c r="U191" s="96" t="n"/>
     </row>
     <row r="192" outlineLevel="1" ht="13" customHeight="1">
       <c r="A192" s="43">
@@ -8463,7 +8463,7 @@
       <c r="R192" s="13" t="n"/>
       <c r="S192" s="14" t="n"/>
       <c r="T192" s="14" t="n"/>
-      <c r="U192" s="103" t="n"/>
+      <c r="U192" s="96" t="n"/>
     </row>
     <row r="193" outlineLevel="1" ht="13" customHeight="1">
       <c r="A193" s="43">
@@ -8501,7 +8501,7 @@
       <c r="R193" s="13" t="n"/>
       <c r="S193" s="14" t="n"/>
       <c r="T193" s="14" t="n"/>
-      <c r="U193" s="103" t="n"/>
+      <c r="U193" s="96" t="n"/>
     </row>
     <row r="194" outlineLevel="1" ht="13" customHeight="1">
       <c r="A194" s="43">
@@ -8539,7 +8539,7 @@
       <c r="R194" s="13" t="n"/>
       <c r="S194" s="14" t="n"/>
       <c r="T194" s="14" t="n"/>
-      <c r="U194" s="103" t="n"/>
+      <c r="U194" s="96" t="n"/>
     </row>
     <row r="195" outlineLevel="1" ht="13" customHeight="1">
       <c r="A195" s="43">
@@ -8577,7 +8577,7 @@
       <c r="R195" s="13" t="n"/>
       <c r="S195" s="14" t="n"/>
       <c r="T195" s="14" t="n"/>
-      <c r="U195" s="103" t="n"/>
+      <c r="U195" s="96" t="n"/>
     </row>
     <row r="196" outlineLevel="1" ht="13" customHeight="1">
       <c r="A196" s="43">
@@ -8615,7 +8615,7 @@
       <c r="R196" s="13" t="n"/>
       <c r="S196" s="14" t="n"/>
       <c r="T196" s="14" t="n"/>
-      <c r="U196" s="103" t="n"/>
+      <c r="U196" s="96" t="n"/>
     </row>
     <row r="197" outlineLevel="1" ht="13" customHeight="1">
       <c r="A197" s="43">
@@ -8653,7 +8653,7 @@
       <c r="R197" s="13" t="n"/>
       <c r="S197" s="14" t="n"/>
       <c r="T197" s="14" t="n"/>
-      <c r="U197" s="103" t="n"/>
+      <c r="U197" s="96" t="n"/>
     </row>
     <row r="198" outlineLevel="1" ht="13" customHeight="1">
       <c r="A198" s="43">
@@ -8691,7 +8691,7 @@
       <c r="R198" s="13" t="n"/>
       <c r="S198" s="14" t="n"/>
       <c r="T198" s="14" t="n"/>
-      <c r="U198" s="103" t="n"/>
+      <c r="U198" s="96" t="n"/>
     </row>
     <row r="199" outlineLevel="1" ht="13" customHeight="1">
       <c r="A199" s="43">
@@ -8729,7 +8729,7 @@
       <c r="R199" s="13" t="n"/>
       <c r="S199" s="14" t="n"/>
       <c r="T199" s="14" t="n"/>
-      <c r="U199" s="103" t="n"/>
+      <c r="U199" s="96" t="n"/>
     </row>
     <row r="200" outlineLevel="1" ht="13" customHeight="1">
       <c r="A200" s="43">
@@ -8767,7 +8767,7 @@
       <c r="R200" s="13" t="n"/>
       <c r="S200" s="14" t="n"/>
       <c r="T200" s="14" t="n"/>
-      <c r="U200" s="103" t="n"/>
+      <c r="U200" s="96" t="n"/>
     </row>
     <row r="201" outlineLevel="1" ht="13" customHeight="1">
       <c r="A201" s="43">
@@ -8805,7 +8805,7 @@
       <c r="R201" s="13" t="n"/>
       <c r="S201" s="14" t="n"/>
       <c r="T201" s="14" t="n"/>
-      <c r="U201" s="103" t="n"/>
+      <c r="U201" s="96" t="n"/>
     </row>
     <row r="202" outlineLevel="1" ht="13" customHeight="1">
       <c r="A202" s="43">
@@ -8843,7 +8843,7 @@
       <c r="R202" s="13" t="n"/>
       <c r="S202" s="14" t="n"/>
       <c r="T202" s="14" t="n"/>
-      <c r="U202" s="103" t="n"/>
+      <c r="U202" s="96" t="n"/>
     </row>
     <row r="203" outlineLevel="1" ht="13" customHeight="1">
       <c r="A203" s="43">
@@ -8881,7 +8881,7 @@
       <c r="R203" s="13" t="n"/>
       <c r="S203" s="14" t="n"/>
       <c r="T203" s="14" t="n"/>
-      <c r="U203" s="103" t="n"/>
+      <c r="U203" s="96" t="n"/>
     </row>
     <row r="204" outlineLevel="1" ht="13" customHeight="1">
       <c r="A204" s="43">
@@ -8919,7 +8919,7 @@
       <c r="R204" s="13" t="n"/>
       <c r="S204" s="14" t="n"/>
       <c r="T204" s="14" t="n"/>
-      <c r="U204" s="103" t="n"/>
+      <c r="U204" s="96" t="n"/>
     </row>
     <row r="205" outlineLevel="1" ht="13" customHeight="1">
       <c r="A205" s="43">
@@ -8957,7 +8957,7 @@
       <c r="R205" s="13" t="n"/>
       <c r="S205" s="14" t="n"/>
       <c r="T205" s="14" t="n"/>
-      <c r="U205" s="103" t="n"/>
+      <c r="U205" s="96" t="n"/>
     </row>
     <row r="206" outlineLevel="1" ht="13" customHeight="1">
       <c r="A206" s="43">
@@ -8995,7 +8995,7 @@
       <c r="R206" s="13" t="n"/>
       <c r="S206" s="14" t="n"/>
       <c r="T206" s="14" t="n"/>
-      <c r="U206" s="103" t="n"/>
+      <c r="U206" s="96" t="n"/>
     </row>
     <row r="207" outlineLevel="1" ht="13" customHeight="1">
       <c r="A207" s="43">
@@ -9033,7 +9033,7 @@
       <c r="R207" s="13" t="n"/>
       <c r="S207" s="14" t="n"/>
       <c r="T207" s="14" t="n"/>
-      <c r="U207" s="103" t="n"/>
+      <c r="U207" s="96" t="n"/>
     </row>
     <row r="208" outlineLevel="1" ht="13" customHeight="1">
       <c r="A208" s="43">
@@ -9071,7 +9071,7 @@
       <c r="R208" s="13" t="n"/>
       <c r="S208" s="14" t="n"/>
       <c r="T208" s="14" t="n"/>
-      <c r="U208" s="103" t="n"/>
+      <c r="U208" s="96" t="n"/>
     </row>
     <row r="209" outlineLevel="1" ht="13" customHeight="1">
       <c r="A209" s="43">
@@ -9109,7 +9109,7 @@
       <c r="R209" s="13" t="n"/>
       <c r="S209" s="14" t="n"/>
       <c r="T209" s="14" t="n"/>
-      <c r="U209" s="103" t="n"/>
+      <c r="U209" s="96" t="n"/>
     </row>
     <row r="210" outlineLevel="1" ht="13" customHeight="1">
       <c r="A210" s="43">
@@ -9147,7 +9147,7 @@
       <c r="R210" s="13" t="n"/>
       <c r="S210" s="14" t="n"/>
       <c r="T210" s="14" t="n"/>
-      <c r="U210" s="103" t="n"/>
+      <c r="U210" s="96" t="n"/>
     </row>
     <row r="211" outlineLevel="1" ht="13" customHeight="1">
       <c r="A211" s="43">
@@ -9185,7 +9185,7 @@
       <c r="R211" s="13" t="n"/>
       <c r="S211" s="14" t="n"/>
       <c r="T211" s="14" t="n"/>
-      <c r="U211" s="103" t="n"/>
+      <c r="U211" s="96" t="n"/>
     </row>
     <row r="212" outlineLevel="1" ht="13" customHeight="1">
       <c r="A212" s="43">
@@ -9223,7 +9223,7 @@
       <c r="R212" s="13" t="n"/>
       <c r="S212" s="14" t="n"/>
       <c r="T212" s="14" t="n"/>
-      <c r="U212" s="103" t="n"/>
+      <c r="U212" s="96" t="n"/>
     </row>
     <row r="213" outlineLevel="1" ht="13" customHeight="1">
       <c r="A213" s="43">
@@ -9261,7 +9261,7 @@
       <c r="R213" s="13" t="n"/>
       <c r="S213" s="14" t="n"/>
       <c r="T213" s="14" t="n"/>
-      <c r="U213" s="103" t="n"/>
+      <c r="U213" s="96" t="n"/>
     </row>
     <row r="214" outlineLevel="1" ht="13" customHeight="1">
       <c r="A214" s="43">
@@ -9299,7 +9299,7 @@
       <c r="R214" s="13" t="n"/>
       <c r="S214" s="14" t="n"/>
       <c r="T214" s="14" t="n"/>
-      <c r="U214" s="103" t="n"/>
+      <c r="U214" s="96" t="n"/>
     </row>
     <row r="215" outlineLevel="1" ht="13" customHeight="1">
       <c r="A215" s="43">
@@ -9337,54 +9337,54 @@
       <c r="R215" s="13" t="n"/>
       <c r="S215" s="14" t="n"/>
       <c r="T215" s="14" t="n"/>
-      <c r="U215" s="103" t="n"/>
+      <c r="U215" s="96" t="n"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
-      <c r="A216" s="103" t="n"/>
-      <c r="B216" s="103" t="n"/>
-      <c r="C216" s="103" t="n"/>
-      <c r="D216" s="103" t="n"/>
-      <c r="E216" s="103" t="n"/>
-      <c r="F216" s="103" t="n"/>
-      <c r="G216" s="103" t="n"/>
-      <c r="H216" s="103" t="n"/>
-      <c r="I216" s="103" t="n"/>
-      <c r="J216" s="103" t="n"/>
-      <c r="K216" s="103" t="n"/>
-      <c r="L216" s="103" t="n"/>
-      <c r="M216" s="103" t="n"/>
-      <c r="N216" s="103" t="n"/>
-      <c r="O216" s="103" t="n"/>
-      <c r="P216" s="103" t="n"/>
-      <c r="Q216" s="103" t="n"/>
-      <c r="R216" s="103" t="n"/>
-      <c r="S216" s="103" t="n"/>
-      <c r="T216" s="103" t="n"/>
+      <c r="A216" s="96" t="n"/>
+      <c r="B216" s="96" t="n"/>
+      <c r="C216" s="96" t="n"/>
+      <c r="D216" s="96" t="n"/>
+      <c r="E216" s="96" t="n"/>
+      <c r="F216" s="96" t="n"/>
+      <c r="G216" s="96" t="n"/>
+      <c r="H216" s="96" t="n"/>
+      <c r="I216" s="96" t="n"/>
+      <c r="J216" s="96" t="n"/>
+      <c r="K216" s="96" t="n"/>
+      <c r="L216" s="96" t="n"/>
+      <c r="M216" s="96" t="n"/>
+      <c r="N216" s="96" t="n"/>
+      <c r="O216" s="96" t="n"/>
+      <c r="P216" s="96" t="n"/>
+      <c r="Q216" s="96" t="n"/>
+      <c r="R216" s="96" t="n"/>
+      <c r="S216" s="96" t="n"/>
+      <c r="T216" s="96" t="n"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
-      <c r="A217" s="103" t="n"/>
-      <c r="B217" s="103" t="n"/>
-      <c r="C217" s="103" t="n"/>
-      <c r="D217" s="103" t="n"/>
-      <c r="E217" s="103" t="n"/>
-      <c r="F217" s="103" t="n"/>
-      <c r="G217" s="103" t="n"/>
-      <c r="H217" s="103" t="n"/>
-      <c r="I217" s="103" t="n"/>
-      <c r="J217" s="103" t="n"/>
-      <c r="K217" s="103" t="n"/>
-      <c r="L217" s="103" t="n"/>
-      <c r="M217" s="103" t="n"/>
-      <c r="N217" s="103" t="n"/>
-      <c r="O217" s="103" t="n"/>
-      <c r="P217" s="103" t="n"/>
-      <c r="Q217" s="103" t="n"/>
-      <c r="R217" s="103" t="n"/>
-      <c r="S217" s="103" t="n"/>
-      <c r="T217" s="103" t="n"/>
+      <c r="A217" s="96" t="n"/>
+      <c r="B217" s="96" t="n"/>
+      <c r="C217" s="96" t="n"/>
+      <c r="D217" s="96" t="n"/>
+      <c r="E217" s="96" t="n"/>
+      <c r="F217" s="96" t="n"/>
+      <c r="G217" s="96" t="n"/>
+      <c r="H217" s="96" t="n"/>
+      <c r="I217" s="96" t="n"/>
+      <c r="J217" s="96" t="n"/>
+      <c r="K217" s="96" t="n"/>
+      <c r="L217" s="96" t="n"/>
+      <c r="M217" s="96" t="n"/>
+      <c r="N217" s="96" t="n"/>
+      <c r="O217" s="96" t="n"/>
+      <c r="P217" s="96" t="n"/>
+      <c r="Q217" s="96" t="n"/>
+      <c r="R217" s="96" t="n"/>
+      <c r="S217" s="96" t="n"/>
+      <c r="T217" s="96" t="n"/>
     </row>
     <row r="218" ht="17.5" customFormat="1" customHeight="1" s="18">
-      <c r="A218" s="76" t="inlineStr">
+      <c r="A218" s="90" t="inlineStr">
         <is>
           <t>Test Result Summary</t>
         </is>
@@ -9396,18 +9396,18 @@
       <c r="F218" s="120" t="n"/>
       <c r="G218" s="120" t="n"/>
       <c r="H218" s="120" t="n"/>
-      <c r="I218" s="77" t="n"/>
-      <c r="J218" s="77" t="n"/>
-      <c r="K218" s="103" t="n"/>
-      <c r="L218" s="77" t="n"/>
-      <c r="M218" s="77" t="n"/>
-      <c r="N218" s="103" t="n"/>
-      <c r="O218" s="77" t="n"/>
-      <c r="P218" s="77" t="n"/>
-      <c r="Q218" s="103" t="n"/>
-      <c r="R218" s="77" t="n"/>
-      <c r="S218" s="77" t="n"/>
-      <c r="T218" s="103" t="n"/>
+      <c r="I218" s="91" t="n"/>
+      <c r="J218" s="91" t="n"/>
+      <c r="K218" s="96" t="n"/>
+      <c r="L218" s="91" t="n"/>
+      <c r="M218" s="91" t="n"/>
+      <c r="N218" s="96" t="n"/>
+      <c r="O218" s="91" t="n"/>
+      <c r="P218" s="91" t="n"/>
+      <c r="Q218" s="96" t="n"/>
+      <c r="R218" s="91" t="n"/>
+      <c r="S218" s="91" t="n"/>
+      <c r="T218" s="96" t="n"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="19" t="inlineStr">
@@ -9419,24 +9419,24 @@
         <f>SUM(B220:B222)</f>
         <v/>
       </c>
-      <c r="C219" s="103" t="n"/>
-      <c r="D219" s="103" t="n"/>
-      <c r="E219" s="103" t="n"/>
-      <c r="F219" s="103" t="n"/>
-      <c r="G219" s="103" t="n"/>
-      <c r="H219" s="103" t="n"/>
-      <c r="I219" s="103" t="n"/>
-      <c r="J219" s="103" t="n"/>
-      <c r="K219" s="103" t="n"/>
-      <c r="L219" s="103" t="n"/>
-      <c r="M219" s="103" t="n"/>
-      <c r="N219" s="103" t="n"/>
-      <c r="O219" s="103" t="n"/>
-      <c r="P219" s="103" t="n"/>
-      <c r="Q219" s="103" t="n"/>
-      <c r="R219" s="103" t="n"/>
-      <c r="S219" s="103" t="n"/>
-      <c r="T219" s="103" t="n"/>
+      <c r="C219" s="96" t="n"/>
+      <c r="D219" s="96" t="n"/>
+      <c r="E219" s="96" t="n"/>
+      <c r="F219" s="96" t="n"/>
+      <c r="G219" s="96" t="n"/>
+      <c r="H219" s="96" t="n"/>
+      <c r="I219" s="96" t="n"/>
+      <c r="J219" s="96" t="n"/>
+      <c r="K219" s="96" t="n"/>
+      <c r="L219" s="96" t="n"/>
+      <c r="M219" s="96" t="n"/>
+      <c r="N219" s="96" t="n"/>
+      <c r="O219" s="96" t="n"/>
+      <c r="P219" s="96" t="n"/>
+      <c r="Q219" s="96" t="n"/>
+      <c r="R219" s="96" t="n"/>
+      <c r="S219" s="96" t="n"/>
+      <c r="T219" s="96" t="n"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="19" t="inlineStr">
@@ -9448,24 +9448,24 @@
         <f>COUNTIF(F16:F215,"Pass")</f>
         <v/>
       </c>
-      <c r="C220" s="103" t="n"/>
-      <c r="D220" s="103" t="n"/>
-      <c r="E220" s="103" t="n"/>
-      <c r="F220" s="103" t="n"/>
-      <c r="G220" s="103" t="n"/>
-      <c r="H220" s="103" t="n"/>
-      <c r="I220" s="103" t="n"/>
-      <c r="J220" s="103" t="n"/>
-      <c r="K220" s="103" t="n"/>
-      <c r="L220" s="103" t="n"/>
-      <c r="M220" s="103" t="n"/>
-      <c r="N220" s="103" t="n"/>
-      <c r="O220" s="103" t="n"/>
-      <c r="P220" s="103" t="n"/>
-      <c r="Q220" s="103" t="n"/>
-      <c r="R220" s="103" t="n"/>
-      <c r="S220" s="103" t="n"/>
-      <c r="T220" s="103" t="n"/>
+      <c r="C220" s="96" t="n"/>
+      <c r="D220" s="96" t="n"/>
+      <c r="E220" s="96" t="n"/>
+      <c r="F220" s="96" t="n"/>
+      <c r="G220" s="96" t="n"/>
+      <c r="H220" s="96" t="n"/>
+      <c r="I220" s="96" t="n"/>
+      <c r="J220" s="96" t="n"/>
+      <c r="K220" s="96" t="n"/>
+      <c r="L220" s="96" t="n"/>
+      <c r="M220" s="96" t="n"/>
+      <c r="N220" s="96" t="n"/>
+      <c r="O220" s="96" t="n"/>
+      <c r="P220" s="96" t="n"/>
+      <c r="Q220" s="96" t="n"/>
+      <c r="R220" s="96" t="n"/>
+      <c r="S220" s="96" t="n"/>
+      <c r="T220" s="96" t="n"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="19" t="inlineStr">
@@ -9477,24 +9477,24 @@
         <f>COUNTIF(F16:F215,"Fail")</f>
         <v/>
       </c>
-      <c r="C221" s="103" t="n"/>
-      <c r="D221" s="103" t="n"/>
-      <c r="E221" s="103" t="n"/>
-      <c r="F221" s="103" t="n"/>
-      <c r="G221" s="103" t="n"/>
-      <c r="H221" s="103" t="n"/>
-      <c r="I221" s="103" t="n"/>
-      <c r="J221" s="103" t="n"/>
-      <c r="K221" s="103" t="n"/>
-      <c r="L221" s="103" t="n"/>
-      <c r="M221" s="103" t="n"/>
-      <c r="N221" s="103" t="n"/>
-      <c r="O221" s="103" t="n"/>
-      <c r="P221" s="103" t="n"/>
-      <c r="Q221" s="103" t="n"/>
-      <c r="R221" s="103" t="n"/>
-      <c r="S221" s="103" t="n"/>
-      <c r="T221" s="103" t="n"/>
+      <c r="C221" s="96" t="n"/>
+      <c r="D221" s="96" t="n"/>
+      <c r="E221" s="96" t="n"/>
+      <c r="F221" s="96" t="n"/>
+      <c r="G221" s="96" t="n"/>
+      <c r="H221" s="96" t="n"/>
+      <c r="I221" s="96" t="n"/>
+      <c r="J221" s="96" t="n"/>
+      <c r="K221" s="96" t="n"/>
+      <c r="L221" s="96" t="n"/>
+      <c r="M221" s="96" t="n"/>
+      <c r="N221" s="96" t="n"/>
+      <c r="O221" s="96" t="n"/>
+      <c r="P221" s="96" t="n"/>
+      <c r="Q221" s="96" t="n"/>
+      <c r="R221" s="96" t="n"/>
+      <c r="S221" s="96" t="n"/>
+      <c r="T221" s="96" t="n"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="21" t="inlineStr">
@@ -9506,46 +9506,46 @@
         <f>COUNTIF(F16:F215,"Not Executed")</f>
         <v/>
       </c>
-      <c r="C222" s="103" t="n"/>
-      <c r="D222" s="103" t="n"/>
-      <c r="E222" s="103" t="n"/>
-      <c r="F222" s="103" t="n"/>
-      <c r="G222" s="103" t="n"/>
-      <c r="H222" s="103" t="n"/>
-      <c r="I222" s="103" t="n"/>
-      <c r="J222" s="103" t="n"/>
-      <c r="K222" s="103" t="n"/>
-      <c r="L222" s="103" t="n"/>
-      <c r="M222" s="103" t="n"/>
-      <c r="N222" s="103" t="n"/>
-      <c r="O222" s="103" t="n"/>
-      <c r="P222" s="103" t="n"/>
-      <c r="Q222" s="103" t="n"/>
-      <c r="R222" s="103" t="n"/>
-      <c r="S222" s="103" t="n"/>
-      <c r="T222" s="103" t="n"/>
+      <c r="C222" s="96" t="n"/>
+      <c r="D222" s="96" t="n"/>
+      <c r="E222" s="96" t="n"/>
+      <c r="F222" s="96" t="n"/>
+      <c r="G222" s="96" t="n"/>
+      <c r="H222" s="96" t="n"/>
+      <c r="I222" s="96" t="n"/>
+      <c r="J222" s="96" t="n"/>
+      <c r="K222" s="96" t="n"/>
+      <c r="L222" s="96" t="n"/>
+      <c r="M222" s="96" t="n"/>
+      <c r="N222" s="96" t="n"/>
+      <c r="O222" s="96" t="n"/>
+      <c r="P222" s="96" t="n"/>
+      <c r="Q222" s="96" t="n"/>
+      <c r="R222" s="96" t="n"/>
+      <c r="S222" s="96" t="n"/>
+      <c r="T222" s="96" t="n"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="23" t="n"/>
       <c r="B223" s="23" t="n"/>
-      <c r="C223" s="103" t="n"/>
-      <c r="D223" s="103" t="n"/>
-      <c r="E223" s="103" t="n"/>
-      <c r="F223" s="103" t="n"/>
-      <c r="G223" s="103" t="n"/>
-      <c r="H223" s="103" t="n"/>
-      <c r="I223" s="103" t="n"/>
-      <c r="J223" s="103" t="n"/>
-      <c r="K223" s="103" t="n"/>
-      <c r="L223" s="103" t="n"/>
-      <c r="M223" s="103" t="n"/>
-      <c r="N223" s="103" t="n"/>
-      <c r="O223" s="103" t="n"/>
-      <c r="P223" s="103" t="n"/>
-      <c r="Q223" s="103" t="n"/>
-      <c r="R223" s="103" t="n"/>
-      <c r="S223" s="103" t="n"/>
-      <c r="T223" s="103" t="n"/>
+      <c r="C223" s="96" t="n"/>
+      <c r="D223" s="96" t="n"/>
+      <c r="E223" s="96" t="n"/>
+      <c r="F223" s="96" t="n"/>
+      <c r="G223" s="96" t="n"/>
+      <c r="H223" s="96" t="n"/>
+      <c r="I223" s="96" t="n"/>
+      <c r="J223" s="96" t="n"/>
+      <c r="K223" s="96" t="n"/>
+      <c r="L223" s="96" t="n"/>
+      <c r="M223" s="96" t="n"/>
+      <c r="N223" s="96" t="n"/>
+      <c r="O223" s="96" t="n"/>
+      <c r="P223" s="96" t="n"/>
+      <c r="Q223" s="96" t="n"/>
+      <c r="R223" s="96" t="n"/>
+      <c r="S223" s="96" t="n"/>
+      <c r="T223" s="96" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="A224" s="19" t="inlineStr">
@@ -9558,22 +9558,22 @@
           <t>Number of tests failed</t>
         </is>
       </c>
-      <c r="C224" s="103" t="n"/>
-      <c r="D224" s="103" t="n"/>
-      <c r="E224" s="103" t="n"/>
-      <c r="F224" s="103" t="n"/>
+      <c r="C224" s="96" t="n"/>
+      <c r="D224" s="96" t="n"/>
+      <c r="E224" s="96" t="n"/>
+      <c r="F224" s="96" t="n"/>
       <c r="G224" s="24" t="n"/>
       <c r="H224" s="24" t="n"/>
-      <c r="I224" s="103" t="n"/>
+      <c r="I224" s="96" t="n"/>
       <c r="J224" s="24" t="n"/>
       <c r="K224" s="24" t="n"/>
-      <c r="L224" s="103" t="n"/>
+      <c r="L224" s="96" t="n"/>
       <c r="M224" s="24" t="n"/>
       <c r="N224" s="24" t="n"/>
-      <c r="O224" s="103" t="n"/>
+      <c r="O224" s="96" t="n"/>
       <c r="P224" s="24" t="n"/>
       <c r="Q224" s="24" t="n"/>
-      <c r="R224" s="103" t="n"/>
+      <c r="R224" s="96" t="n"/>
       <c r="S224" s="24" t="n"/>
       <c r="T224" s="24" t="n"/>
       <c r="U224" s="18" t="n"/>
@@ -9588,24 +9588,24 @@
         <f>COUNTIF(G16:G215,"Major")</f>
         <v/>
       </c>
-      <c r="C225" s="103" t="n"/>
-      <c r="D225" s="103" t="n"/>
-      <c r="E225" s="103" t="n"/>
-      <c r="F225" s="103" t="n"/>
-      <c r="G225" s="103" t="n"/>
-      <c r="H225" s="103" t="n"/>
-      <c r="I225" s="103" t="n"/>
-      <c r="J225" s="103" t="n"/>
-      <c r="K225" s="103" t="n"/>
-      <c r="L225" s="103" t="n"/>
-      <c r="M225" s="103" t="n"/>
-      <c r="N225" s="103" t="n"/>
-      <c r="O225" s="103" t="n"/>
-      <c r="P225" s="103" t="n"/>
-      <c r="Q225" s="103" t="n"/>
-      <c r="R225" s="103" t="n"/>
-      <c r="S225" s="103" t="n"/>
-      <c r="T225" s="103" t="n"/>
+      <c r="C225" s="96" t="n"/>
+      <c r="D225" s="96" t="n"/>
+      <c r="E225" s="96" t="n"/>
+      <c r="F225" s="96" t="n"/>
+      <c r="G225" s="96" t="n"/>
+      <c r="H225" s="96" t="n"/>
+      <c r="I225" s="96" t="n"/>
+      <c r="J225" s="96" t="n"/>
+      <c r="K225" s="96" t="n"/>
+      <c r="L225" s="96" t="n"/>
+      <c r="M225" s="96" t="n"/>
+      <c r="N225" s="96" t="n"/>
+      <c r="O225" s="96" t="n"/>
+      <c r="P225" s="96" t="n"/>
+      <c r="Q225" s="96" t="n"/>
+      <c r="R225" s="96" t="n"/>
+      <c r="S225" s="96" t="n"/>
+      <c r="T225" s="96" t="n"/>
       <c r="U225" s="18" t="n"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
@@ -9618,24 +9618,24 @@
         <f>COUNTIF(G16:G215,"Medium")</f>
         <v/>
       </c>
-      <c r="C226" s="103" t="n"/>
-      <c r="D226" s="103" t="n"/>
-      <c r="E226" s="103" t="n"/>
-      <c r="F226" s="103" t="n"/>
-      <c r="G226" s="103" t="n"/>
-      <c r="H226" s="103" t="n"/>
-      <c r="I226" s="103" t="n"/>
-      <c r="J226" s="103" t="n"/>
-      <c r="K226" s="103" t="n"/>
-      <c r="L226" s="103" t="n"/>
-      <c r="M226" s="103" t="n"/>
-      <c r="N226" s="103" t="n"/>
-      <c r="O226" s="103" t="n"/>
-      <c r="P226" s="103" t="n"/>
-      <c r="Q226" s="103" t="n"/>
-      <c r="R226" s="103" t="n"/>
-      <c r="S226" s="103" t="n"/>
-      <c r="T226" s="103" t="n"/>
+      <c r="C226" s="96" t="n"/>
+      <c r="D226" s="96" t="n"/>
+      <c r="E226" s="96" t="n"/>
+      <c r="F226" s="96" t="n"/>
+      <c r="G226" s="96" t="n"/>
+      <c r="H226" s="96" t="n"/>
+      <c r="I226" s="96" t="n"/>
+      <c r="J226" s="96" t="n"/>
+      <c r="K226" s="96" t="n"/>
+      <c r="L226" s="96" t="n"/>
+      <c r="M226" s="96" t="n"/>
+      <c r="N226" s="96" t="n"/>
+      <c r="O226" s="96" t="n"/>
+      <c r="P226" s="96" t="n"/>
+      <c r="Q226" s="96" t="n"/>
+      <c r="R226" s="96" t="n"/>
+      <c r="S226" s="96" t="n"/>
+      <c r="T226" s="96" t="n"/>
       <c r="U226" s="18" t="n"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
@@ -9648,47 +9648,47 @@
         <f>COUNTIF(G15:G215,"Minor")</f>
         <v/>
       </c>
-      <c r="C227" s="103" t="n"/>
-      <c r="D227" s="103" t="n"/>
-      <c r="E227" s="103" t="n"/>
-      <c r="F227" s="103" t="n"/>
-      <c r="G227" s="103" t="n"/>
-      <c r="H227" s="103" t="n"/>
-      <c r="I227" s="103" t="n"/>
-      <c r="J227" s="103" t="n"/>
-      <c r="K227" s="103" t="n"/>
-      <c r="L227" s="103" t="n"/>
-      <c r="M227" s="103" t="n"/>
-      <c r="N227" s="103" t="n"/>
-      <c r="O227" s="103" t="n"/>
-      <c r="P227" s="103" t="n"/>
-      <c r="Q227" s="103" t="n"/>
-      <c r="R227" s="103" t="n"/>
-      <c r="S227" s="103" t="n"/>
-      <c r="T227" s="103" t="n"/>
+      <c r="C227" s="96" t="n"/>
+      <c r="D227" s="96" t="n"/>
+      <c r="E227" s="96" t="n"/>
+      <c r="F227" s="96" t="n"/>
+      <c r="G227" s="96" t="n"/>
+      <c r="H227" s="96" t="n"/>
+      <c r="I227" s="96" t="n"/>
+      <c r="J227" s="96" t="n"/>
+      <c r="K227" s="96" t="n"/>
+      <c r="L227" s="96" t="n"/>
+      <c r="M227" s="96" t="n"/>
+      <c r="N227" s="96" t="n"/>
+      <c r="O227" s="96" t="n"/>
+      <c r="P227" s="96" t="n"/>
+      <c r="Q227" s="96" t="n"/>
+      <c r="R227" s="96" t="n"/>
+      <c r="S227" s="96" t="n"/>
+      <c r="T227" s="96" t="n"/>
       <c r="U227" s="18" t="n"/>
     </row>
     <row r="228" ht="8.25" customHeight="1">
       <c r="A228" s="26" t="n"/>
-      <c r="B228" s="103" t="n"/>
-      <c r="C228" s="103" t="n"/>
-      <c r="D228" s="103" t="n"/>
-      <c r="E228" s="103" t="n"/>
-      <c r="F228" s="103" t="n"/>
-      <c r="G228" s="103" t="n"/>
-      <c r="H228" s="103" t="n"/>
-      <c r="I228" s="103" t="n"/>
-      <c r="J228" s="103" t="n"/>
-      <c r="K228" s="103" t="n"/>
-      <c r="L228" s="103" t="n"/>
-      <c r="M228" s="103" t="n"/>
-      <c r="N228" s="103" t="n"/>
-      <c r="O228" s="103" t="n"/>
-      <c r="P228" s="103" t="n"/>
-      <c r="Q228" s="103" t="n"/>
-      <c r="R228" s="103" t="n"/>
-      <c r="S228" s="103" t="n"/>
-      <c r="T228" s="103" t="n"/>
+      <c r="B228" s="96" t="n"/>
+      <c r="C228" s="96" t="n"/>
+      <c r="D228" s="96" t="n"/>
+      <c r="E228" s="96" t="n"/>
+      <c r="F228" s="96" t="n"/>
+      <c r="G228" s="96" t="n"/>
+      <c r="H228" s="96" t="n"/>
+      <c r="I228" s="96" t="n"/>
+      <c r="J228" s="96" t="n"/>
+      <c r="K228" s="96" t="n"/>
+      <c r="L228" s="96" t="n"/>
+      <c r="M228" s="96" t="n"/>
+      <c r="N228" s="96" t="n"/>
+      <c r="O228" s="96" t="n"/>
+      <c r="P228" s="96" t="n"/>
+      <c r="Q228" s="96" t="n"/>
+      <c r="R228" s="96" t="n"/>
+      <c r="S228" s="96" t="n"/>
+      <c r="T228" s="96" t="n"/>
       <c r="U228" s="18" t="n"/>
     </row>
     <row r="229" ht="0.75" customHeight="1">
@@ -9700,47 +9700,47 @@
         <f>COUNTIF(#REF!,"P")</f>
         <v/>
       </c>
-      <c r="C229" s="103" t="n"/>
-      <c r="D229" s="103" t="n"/>
-      <c r="E229" s="103" t="n"/>
-      <c r="F229" s="103" t="n"/>
-      <c r="G229" s="103" t="n"/>
-      <c r="H229" s="103" t="n"/>
-      <c r="I229" s="103" t="n"/>
-      <c r="J229" s="103" t="n"/>
-      <c r="K229" s="103" t="n"/>
-      <c r="L229" s="103" t="n"/>
-      <c r="M229" s="103" t="n"/>
-      <c r="N229" s="103" t="n"/>
-      <c r="O229" s="103" t="n"/>
-      <c r="P229" s="103" t="n"/>
-      <c r="Q229" s="103" t="n"/>
-      <c r="R229" s="103" t="n"/>
-      <c r="S229" s="103" t="n"/>
-      <c r="T229" s="103" t="n"/>
+      <c r="C229" s="96" t="n"/>
+      <c r="D229" s="96" t="n"/>
+      <c r="E229" s="96" t="n"/>
+      <c r="F229" s="96" t="n"/>
+      <c r="G229" s="96" t="n"/>
+      <c r="H229" s="96" t="n"/>
+      <c r="I229" s="96" t="n"/>
+      <c r="J229" s="96" t="n"/>
+      <c r="K229" s="96" t="n"/>
+      <c r="L229" s="96" t="n"/>
+      <c r="M229" s="96" t="n"/>
+      <c r="N229" s="96" t="n"/>
+      <c r="O229" s="96" t="n"/>
+      <c r="P229" s="96" t="n"/>
+      <c r="Q229" s="96" t="n"/>
+      <c r="R229" s="96" t="n"/>
+      <c r="S229" s="96" t="n"/>
+      <c r="T229" s="96" t="n"/>
       <c r="U229" s="18" t="n"/>
     </row>
     <row r="230" ht="13" customHeight="1">
       <c r="A230" s="29" t="n"/>
-      <c r="B230" s="103" t="n"/>
-      <c r="C230" s="103" t="n"/>
-      <c r="D230" s="103" t="n"/>
-      <c r="E230" s="103" t="n"/>
-      <c r="F230" s="103" t="n"/>
-      <c r="G230" s="103" t="n"/>
-      <c r="H230" s="103" t="n"/>
-      <c r="I230" s="103" t="n"/>
-      <c r="J230" s="103" t="n"/>
-      <c r="K230" s="103" t="n"/>
-      <c r="L230" s="103" t="n"/>
-      <c r="M230" s="103" t="n"/>
-      <c r="N230" s="103" t="n"/>
-      <c r="O230" s="103" t="n"/>
-      <c r="P230" s="103" t="n"/>
-      <c r="Q230" s="103" t="n"/>
-      <c r="R230" s="103" t="n"/>
-      <c r="S230" s="103" t="n"/>
-      <c r="T230" s="103" t="n"/>
+      <c r="B230" s="96" t="n"/>
+      <c r="C230" s="96" t="n"/>
+      <c r="D230" s="96" t="n"/>
+      <c r="E230" s="96" t="n"/>
+      <c r="F230" s="96" t="n"/>
+      <c r="G230" s="96" t="n"/>
+      <c r="H230" s="96" t="n"/>
+      <c r="I230" s="96" t="n"/>
+      <c r="J230" s="96" t="n"/>
+      <c r="K230" s="96" t="n"/>
+      <c r="L230" s="96" t="n"/>
+      <c r="M230" s="96" t="n"/>
+      <c r="N230" s="96" t="n"/>
+      <c r="O230" s="96" t="n"/>
+      <c r="P230" s="96" t="n"/>
+      <c r="Q230" s="96" t="n"/>
+      <c r="R230" s="96" t="n"/>
+      <c r="S230" s="96" t="n"/>
+      <c r="T230" s="96" t="n"/>
       <c r="U230" s="18" t="n"/>
     </row>
     <row r="231" ht="46.5" customHeight="1">
@@ -9750,7 +9750,7 @@
 </t>
         </is>
       </c>
-      <c r="B231" s="75" t="n"/>
+      <c r="B231" s="89" t="n"/>
       <c r="C231" s="118" t="n"/>
       <c r="D231" s="118" t="n"/>
       <c r="E231" s="119" t="n"/>
@@ -9778,7 +9778,7 @@
 Date:</t>
         </is>
       </c>
-      <c r="B232" s="74" t="n"/>
+      <c r="B232" s="88" t="n"/>
       <c r="C232" s="118" t="n"/>
       <c r="D232" s="118" t="n"/>
       <c r="E232" s="119" t="n"/>
@@ -10070,8 +10070,8 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="I14:K14"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I14:K14"/>
     <mergeCell ref="A218:H218"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="B232:E232"/>
@@ -10085,14 +10085,14 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B231:E231"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:H10"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>
   <dataValidations xWindow="466" yWindow="396" count="5">
@@ -10125,10 +10125,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="7.81640625" defaultRowHeight="13" zeroHeight="1"/>
@@ -10166,12 +10166,12 @@
           <t>Component: Multi-Functional Tool Application</t>
         </is>
       </c>
-      <c r="C2" s="80" t="n"/>
-      <c r="D2" s="80" t="n"/>
-      <c r="E2" s="80" t="n"/>
-      <c r="F2" s="80" t="n"/>
-      <c r="G2" s="80" t="n"/>
-      <c r="H2" s="81" t="n"/>
+      <c r="C2" s="86" t="n"/>
+      <c r="D2" s="86" t="n"/>
+      <c r="E2" s="86" t="n"/>
+      <c r="F2" s="86" t="n"/>
+      <c r="G2" s="86" t="n"/>
+      <c r="H2" s="87" t="n"/>
       <c r="I2" s="48" t="n"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click Start button</t>
+          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click on Start Capture button</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click Stop button</t>
+          <t>1. With packet capture running, click on Stop Capture button</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Memory Leak Check section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Run the memory leak check</t>
+          <t>1. Navigate to Memory Leak Check section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Initiate memory leak check</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click Run button</t>
+          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
@@ -10440,7 +10440,7 @@
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click Run button again</t>
+          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button again</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
@@ -10465,7 +10465,7 @@
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details for ECC</t>
+          <t>Verify Diagnostic Code Details - ECC selection</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
@@ -10495,7 +10495,7 @@
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details for Network Protocols</t>
+          <t>Verify Diagnostic Code Details - Network Protocols selection</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details for High Security Mode</t>
+          <t>Verify Diagnostic Code Details - High Security Mode selection</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
@@ -10555,17 +10555,17 @@
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value Get functionality</t>
+          <t>Verify Diagnostic Code Details - commonly used codes</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Click Get button</t>
+          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select commonly used diagnostic codes option&lt;br&gt;3. Choose a specific diagnostic code</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected 08 diagnostic code is displayed</t>
+          <t>Relevant job-specific details for the selected common diagnostic code are displayed</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10585,17 +10585,17 @@
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value Set functionality</t>
+          <t>Verify 08 Diagnostic Code Value - Get functionality</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click Set button</t>
+          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a specific diagnostic code&lt;br&gt;3. Click on Get Value button</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>The 08 diagnostic code value is updated successfully</t>
+          <t>Current value of the selected 08 diagnostic code is displayed</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10615,17 +10615,17 @@
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration Get functionality</t>
+          <t>Verify 08 Diagnostic Code Value - Set functionality</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Click Get button</t>
+          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a specific diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set Value button</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected protocol is displayed</t>
+          <t>The 08 diagnostic code value is updated successfully</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10645,17 +10645,17 @@
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration Set functionality</t>
+          <t>Verify Protocol Configuration - Get functionality</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click Set button</t>
+          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Click on Get Value button</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>Message indicating that Set protocol values operation is not yet implemented</t>
+          <t>Current value of the selected protocol is displayed</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10675,17 +10675,17 @@
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify GUI responsiveness</t>
+          <t>Verify Protocol Configuration - Set functionality placeholder</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application&lt;br&gt;2. Navigate through all sections&lt;br&gt;3. Interact with all UI elements</t>
+          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Attempt to set a value</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>UI responds promptly to all user interactions with no noticeable lag</t>
+          <t>System indicates that Set protocol values operation is not yet implemented</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10705,1279 +10705,251 @@
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify application performance during packet capture</t>
+          <t>Verify GUI responsiveness under normal conditions</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Start packet capture&lt;br&gt;2. Perform other operations in the application simultaneously&lt;br&gt;3. Stop packet capture</t>
+          <t>1. Launch application&lt;br&gt;2. Navigate through different sections&lt;br&gt;3. Interact with various controls</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>Application remains responsive during packet capture with no performance degradation</t>
+          <t>GUI responds promptly to user interactions with no noticeable lag</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
-      <c r="H21" s="59" t="inlineStr"/>
+      <c r="H21" s="59" t="inlineStr">
+        <is>
+          <t>Performance test</t>
+        </is>
+      </c>
       <c r="I21" s="53" t="n"/>
     </row>
-    <row r="22" ht="99.75" customHeight="1">
-      <c r="B22" s="57" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="63" t="n"/>
+      <c r="B22" s="63" t="inlineStr">
         <is>
           <t>TC017</t>
         </is>
       </c>
-      <c r="C22" s="60" t="inlineStr">
+      <c r="C22" s="63" t="inlineStr">
+        <is>
+          <t>Network Packet Capture is running for an extended period</t>
+        </is>
+      </c>
+      <c r="D22" s="63" t="inlineStr">
+        <is>
+          <t>Verify application stability during long operations</t>
+        </is>
+      </c>
+      <c r="E22" s="64" t="inlineStr">
+        <is>
+          <t>1. Start Network Packet Capture&lt;br&gt;2. Let it run for at least 1 hour&lt;br&gt;3. Stop the capture</t>
+        </is>
+      </c>
+      <c r="F22" s="64" t="inlineStr">
+        <is>
+          <t>1. Application remains stable throughout the operation&lt;br&gt;2. No crashes or freezes occur&lt;br&gt;3. Packet capture completes successfully</t>
+        </is>
+      </c>
+      <c r="G22" s="63" t="inlineStr"/>
+      <c r="H22" s="63" t="inlineStr">
+        <is>
+          <t>Performance test</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TC018</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Multiple operations are performed in sequence</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Verify application memory usage</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1. Launch application&lt;br&gt;2. Perform Network Packet Capture&lt;br&gt;3. Perform Memory Leak Check&lt;br&gt;4. Collect Debug Logs&lt;br&gt;5. Check application memory usage</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Application maintains reasonable memory usage without significant memory leaks</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Performance test</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="45" t="inlineStr">
+        <is>
+          <t>TC019</t>
+        </is>
+      </c>
+      <c r="C24" s="67" t="inlineStr">
+        <is>
+          <t>Application is installed on a system with minimum specifications</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Verify performance on low-end systems</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1. Install application on a system with minimum specifications&lt;br&gt;2. Launch application&lt;br&gt;3. Perform all major functions</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Application performs all functions successfully with acceptable response times</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Performance test</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TC020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Application is installed and running</t>
         </is>
       </c>
-      <c r="D22" s="70" t="inlineStr">
-        <is>
-          <t>Verify error handling for invalid inputs</t>
-        </is>
-      </c>
-      <c r="E22" s="61" t="inlineStr">
-        <is>
-          <t>1. Enter invalid values in input fields&lt;br&gt;2. Submit the invalid data</t>
-        </is>
-      </c>
-      <c r="F22" s="62" t="inlineStr">
-        <is>
-          <t>Application displays appropriate error messages without crashing</t>
-        </is>
-      </c>
-      <c r="G22" s="58" t="inlineStr"/>
-      <c r="H22" s="59" t="inlineStr"/>
-      <c r="I22" s="53" t="n"/>
-    </row>
-    <row r="23" ht="99.75" customHeight="1">
-      <c r="B23" s="57" t="inlineStr">
-        <is>
-          <t>TC018</t>
-        </is>
-      </c>
-      <c r="C23" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D23" s="70" t="inlineStr">
-        <is>
-          <t>Verify compatibility with different screen resolutions</t>
-        </is>
-      </c>
-      <c r="E23" s="61" t="inlineStr">
-        <is>
-          <t>1. Run application on displays with different resolutions&lt;br&gt;2. Check UI layout and element visibility</t>
-        </is>
-      </c>
-      <c r="F23" s="62" t="inlineStr">
-        <is>
-          <t>UI elements are properly displayed and accessible on all tested resolutions</t>
-        </is>
-      </c>
-      <c r="G23" s="58" t="inlineStr"/>
-      <c r="H23" s="59" t="inlineStr"/>
-      <c r="I23" s="53" t="n"/>
-    </row>
-    <row r="24" ht="99.75" customHeight="1">
-      <c r="B24" s="57" t="inlineStr">
-        <is>
-          <t>TC019</t>
-        </is>
-      </c>
-      <c r="C24" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D24" s="70" t="inlineStr">
+      <c r="D25" s="45" t="inlineStr">
         <is>
           <t>Verify usability for first-time users</t>
         </is>
       </c>
-      <c r="E24" s="61" t="inlineStr">
-        <is>
-          <t>1. Have a first-time user navigate through the application&lt;br&gt;2. Ask them to perform basic tasks without instructions</t>
-        </is>
-      </c>
-      <c r="F24" s="62" t="inlineStr">
-        <is>
-          <t>User can successfully navigate and perform basic tasks with minimal confusion</t>
-        </is>
-      </c>
-      <c r="G24" s="58" t="inlineStr"/>
-      <c r="H24" s="59" t="inlineStr"/>
-      <c r="I24" s="53" t="n"/>
-    </row>
-    <row r="25" ht="99.75" customHeight="1">
-      <c r="B25" s="57" t="inlineStr">
-        <is>
-          <t>TC020</t>
-        </is>
-      </c>
-      <c r="C25" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D25" s="70" t="inlineStr">
-        <is>
-          <t>Verify time efficiency improvement</t>
-        </is>
-      </c>
-      <c r="E25" s="61" t="inlineStr">
-        <is>
-          <t>1. Measure time to perform diagnostic tasks manually&lt;br&gt;2. Measure time to perform same tasks using the application&lt;br&gt;3. Calculate time savings</t>
-        </is>
-      </c>
-      <c r="F25" s="62" t="inlineStr">
-        <is>
-          <t>Application reduces testing time by approximately 80% compared to manual methods</t>
-        </is>
-      </c>
-      <c r="G25" s="58" t="inlineStr"/>
-      <c r="H25" s="59" t="inlineStr"/>
-      <c r="I25" s="53" t="n"/>
-    </row>
-    <row r="26" ht="99.75" customHeight="1">
-      <c r="B26" s="57" t="n"/>
-      <c r="C26" s="60" t="n"/>
-      <c r="D26" s="70" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="62" t="n"/>
-      <c r="G26" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H26" s="59" t="n"/>
-      <c r="I26" s="53" t="n"/>
-    </row>
-    <row r="27" ht="99.75" customHeight="1">
-      <c r="B27" s="57" t="n"/>
-      <c r="C27" s="60" t="n"/>
-      <c r="D27" s="70" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="62" t="n"/>
-      <c r="G27" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H27" s="59" t="n"/>
-      <c r="I27" s="53" t="n"/>
-    </row>
-    <row r="28" ht="99.75" customHeight="1">
-      <c r="B28" s="57" t="n"/>
-      <c r="C28" s="60" t="n"/>
-      <c r="D28" s="70" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="62" t="n"/>
-      <c r="G28" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H28" s="59" t="n"/>
-      <c r="I28" s="53" t="n"/>
-    </row>
-    <row r="29" ht="99.75" customHeight="1">
-      <c r="B29" s="57" t="n"/>
-      <c r="C29" s="60" t="n"/>
-      <c r="D29" s="70" t="n"/>
-      <c r="E29" s="61" t="n"/>
-      <c r="F29" s="62" t="n"/>
-      <c r="G29" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H29" s="59" t="n"/>
-      <c r="I29" s="53" t="n"/>
-    </row>
-    <row r="30" ht="99.75" customHeight="1">
-      <c r="B30" s="57" t="n"/>
-      <c r="C30" s="60" t="n"/>
-      <c r="D30" s="70" t="n"/>
-      <c r="E30" s="61" t="n"/>
-      <c r="F30" s="62" t="n"/>
-      <c r="G30" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H30" s="59" t="n"/>
-      <c r="I30" s="53" t="n"/>
-    </row>
-    <row r="31" ht="99.75" customHeight="1">
-      <c r="B31" s="57" t="n"/>
-      <c r="C31" s="60" t="n"/>
-      <c r="D31" s="70" t="n"/>
-      <c r="E31" s="61" t="n"/>
-      <c r="F31" s="62" t="n"/>
-      <c r="G31" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H31" s="59" t="n"/>
-      <c r="I31" s="53" t="n"/>
-    </row>
-    <row r="32" ht="99.75" customHeight="1">
-      <c r="B32" s="57" t="n"/>
-      <c r="C32" s="60" t="n"/>
-      <c r="D32" s="70" t="n"/>
-      <c r="E32" s="61" t="n"/>
-      <c r="F32" s="62" t="n"/>
-      <c r="G32" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H32" s="59" t="n"/>
-      <c r="I32" s="53" t="n"/>
-    </row>
-    <row r="33" ht="99.75" customHeight="1">
-      <c r="B33" s="57" t="n"/>
-      <c r="C33" s="60" t="n"/>
-      <c r="D33" s="70" t="n"/>
-      <c r="E33" s="61" t="n"/>
-      <c r="F33" s="62" t="n"/>
-      <c r="G33" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H33" s="59" t="n"/>
-      <c r="I33" s="53" t="n"/>
-    </row>
-    <row r="34" ht="99.75" customHeight="1">
-      <c r="B34" s="57" t="n"/>
-      <c r="C34" s="60" t="n"/>
-      <c r="D34" s="70" t="n"/>
-      <c r="E34" s="61" t="n"/>
-      <c r="F34" s="62" t="n"/>
-      <c r="G34" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H34" s="59" t="n"/>
-      <c r="I34" s="53" t="n"/>
-    </row>
-    <row r="35" ht="99.75" customHeight="1">
-      <c r="B35" s="57" t="n"/>
-      <c r="C35" s="60" t="n"/>
-      <c r="D35" s="70" t="n"/>
-      <c r="E35" s="61" t="n"/>
-      <c r="F35" s="62" t="n"/>
-      <c r="G35" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H35" s="59" t="n"/>
-      <c r="I35" s="53" t="n"/>
-    </row>
-    <row r="36" ht="99.75" customHeight="1">
-      <c r="B36" s="57" t="n"/>
-      <c r="C36" s="60" t="n"/>
-      <c r="D36" s="70" t="n"/>
-      <c r="E36" s="61" t="n"/>
-      <c r="F36" s="62" t="n"/>
-      <c r="G36" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H36" s="59" t="n"/>
-      <c r="I36" s="53" t="n"/>
-    </row>
-    <row r="37" ht="99.75" customHeight="1">
-      <c r="B37" s="57" t="n"/>
-      <c r="C37" s="60" t="n"/>
-      <c r="D37" s="70" t="n"/>
-      <c r="E37" s="61" t="n"/>
-      <c r="F37" s="62" t="n"/>
-      <c r="G37" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H37" s="59" t="n"/>
-      <c r="I37" s="53" t="n"/>
-    </row>
-    <row r="38" ht="99.75" customHeight="1">
-      <c r="B38" s="57" t="n"/>
-      <c r="C38" s="60" t="n"/>
-      <c r="D38" s="70" t="n"/>
-      <c r="E38" s="61" t="n"/>
-      <c r="F38" s="62" t="n"/>
-      <c r="G38" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H38" s="59" t="n"/>
-      <c r="I38" s="53" t="n"/>
-    </row>
-    <row r="39" ht="99.75" customHeight="1">
-      <c r="B39" s="57" t="n"/>
-      <c r="C39" s="60" t="n"/>
-      <c r="D39" s="70" t="n"/>
-      <c r="E39" s="61" t="n"/>
-      <c r="F39" s="62" t="n"/>
-      <c r="G39" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H39" s="59" t="n"/>
-      <c r="I39" s="53" t="n"/>
-    </row>
-    <row r="40" ht="99.75" customHeight="1">
-      <c r="B40" s="57" t="n"/>
-      <c r="C40" s="60" t="n"/>
-      <c r="D40" s="70" t="n"/>
-      <c r="E40" s="61" t="n"/>
-      <c r="F40" s="62" t="n"/>
-      <c r="G40" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H40" s="59" t="n"/>
-      <c r="I40" s="53" t="n"/>
-    </row>
-    <row r="41" ht="99.75" customHeight="1">
-      <c r="B41" s="57" t="n"/>
-      <c r="C41" s="60" t="n"/>
-      <c r="D41" s="70" t="n"/>
-      <c r="E41" s="61" t="n"/>
-      <c r="F41" s="62" t="n"/>
-      <c r="G41" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H41" s="59" t="n"/>
-      <c r="I41" s="53" t="n"/>
-    </row>
-    <row r="42" ht="99.75" customHeight="1">
-      <c r="B42" s="57" t="n"/>
-      <c r="C42" s="60" t="n"/>
-      <c r="D42" s="70" t="n"/>
-      <c r="E42" s="61" t="n"/>
-      <c r="F42" s="62" t="n"/>
-      <c r="G42" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H42" s="59" t="n"/>
-      <c r="I42" s="53" t="n"/>
-    </row>
-    <row r="43" ht="99.75" customHeight="1">
-      <c r="B43" s="57" t="n"/>
-      <c r="C43" s="60" t="n"/>
-      <c r="D43" s="70" t="n"/>
-      <c r="E43" s="61" t="n"/>
-      <c r="F43" s="62" t="n"/>
-      <c r="G43" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H43" s="59" t="n"/>
-      <c r="I43" s="53" t="n"/>
-    </row>
-    <row r="44" ht="99.75" customHeight="1">
-      <c r="B44" s="57" t="n"/>
-      <c r="C44" s="60" t="n"/>
-      <c r="D44" s="70" t="n"/>
-      <c r="E44" s="61" t="n"/>
-      <c r="F44" s="62" t="n"/>
-      <c r="G44" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H44" s="59" t="n"/>
-      <c r="I44" s="53" t="n"/>
-    </row>
-    <row r="45" ht="99.75" customHeight="1">
-      <c r="B45" s="57" t="n"/>
-      <c r="C45" s="60" t="n"/>
-      <c r="D45" s="70" t="n"/>
-      <c r="E45" s="61" t="n"/>
-      <c r="F45" s="62" t="n"/>
-      <c r="G45" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H45" s="59" t="n"/>
-      <c r="I45" s="53" t="n"/>
-    </row>
-    <row r="46" ht="99.75" customHeight="1">
-      <c r="B46" s="57" t="n"/>
-      <c r="C46" s="60" t="n"/>
-      <c r="D46" s="70" t="n"/>
-      <c r="E46" s="61" t="n"/>
-      <c r="F46" s="62" t="n"/>
-      <c r="G46" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H46" s="59" t="n"/>
-      <c r="I46" s="53" t="n"/>
-    </row>
-    <row r="47" ht="99.75" customHeight="1">
-      <c r="B47" s="57" t="n"/>
-      <c r="C47" s="60" t="n"/>
-      <c r="D47" s="70" t="n"/>
-      <c r="E47" s="61" t="n"/>
-      <c r="F47" s="62" t="n"/>
-      <c r="G47" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H47" s="59" t="n"/>
-      <c r="I47" s="53" t="n"/>
-    </row>
-    <row r="48" ht="99.75" customHeight="1">
-      <c r="B48" s="57" t="n"/>
-      <c r="C48" s="60" t="n"/>
-      <c r="D48" s="70" t="n"/>
-      <c r="E48" s="61" t="n"/>
-      <c r="F48" s="62" t="n"/>
-      <c r="G48" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H48" s="59" t="n"/>
-      <c r="I48" s="53" t="n"/>
-    </row>
-    <row r="49" ht="99.75" customHeight="1">
-      <c r="B49" s="57" t="n"/>
-      <c r="C49" s="60" t="n"/>
-      <c r="D49" s="70" t="n"/>
-      <c r="E49" s="61" t="n"/>
-      <c r="F49" s="62" t="n"/>
-      <c r="G49" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H49" s="59" t="n"/>
-      <c r="I49" s="53" t="n"/>
-    </row>
-    <row r="50" ht="99.75" customHeight="1">
-      <c r="B50" s="57" t="n"/>
-      <c r="C50" s="60" t="n"/>
-      <c r="D50" s="70" t="n"/>
-      <c r="E50" s="61" t="n"/>
-      <c r="F50" s="62" t="n"/>
-      <c r="G50" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H50" s="59" t="n"/>
-      <c r="I50" s="53" t="n"/>
-    </row>
-    <row r="51" ht="99.75" customHeight="1">
-      <c r="B51" s="57" t="n"/>
-      <c r="C51" s="60" t="n"/>
-      <c r="D51" s="70" t="n"/>
-      <c r="E51" s="61" t="n"/>
-      <c r="F51" s="62" t="n"/>
-      <c r="G51" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H51" s="59" t="n"/>
-      <c r="I51" s="53" t="n"/>
-    </row>
-    <row r="52" ht="99.75" customHeight="1">
-      <c r="B52" s="57" t="n"/>
-      <c r="C52" s="60" t="n"/>
-      <c r="D52" s="70" t="n"/>
-      <c r="E52" s="61" t="n"/>
-      <c r="F52" s="62" t="n"/>
-      <c r="G52" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H52" s="59" t="n"/>
-      <c r="I52" s="53" t="n"/>
-    </row>
-    <row r="53" ht="99.75" customHeight="1">
-      <c r="B53" s="57" t="n"/>
-      <c r="C53" s="60" t="n"/>
-      <c r="D53" s="70" t="n"/>
-      <c r="E53" s="61" t="n"/>
-      <c r="F53" s="62" t="n"/>
-      <c r="G53" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H53" s="59" t="n"/>
-      <c r="I53" s="53" t="n"/>
-    </row>
-    <row r="54" ht="99.75" customHeight="1">
-      <c r="B54" s="57" t="n"/>
-      <c r="C54" s="60" t="n"/>
-      <c r="D54" s="70" t="n"/>
-      <c r="E54" s="61" t="n"/>
-      <c r="F54" s="62" t="n"/>
-      <c r="G54" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H54" s="59" t="n"/>
-      <c r="I54" s="53" t="n"/>
-    </row>
-    <row r="55" ht="99.75" customHeight="1">
-      <c r="B55" s="57" t="n"/>
-      <c r="C55" s="60" t="n"/>
-      <c r="D55" s="70" t="n"/>
-      <c r="E55" s="61" t="n"/>
-      <c r="F55" s="62" t="n"/>
-      <c r="G55" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H55" s="59" t="n"/>
-      <c r="I55" s="53" t="n"/>
-    </row>
-    <row r="56" ht="99.75" customHeight="1">
-      <c r="B56" s="57" t="n"/>
-      <c r="C56" s="60" t="n"/>
-      <c r="D56" s="70" t="n"/>
-      <c r="E56" s="61" t="n"/>
-      <c r="F56" s="62" t="n"/>
-      <c r="G56" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H56" s="59" t="n"/>
-      <c r="I56" s="53" t="n"/>
-    </row>
-    <row r="57" ht="99.75" customHeight="1">
-      <c r="B57" s="57" t="n"/>
-      <c r="C57" s="60" t="n"/>
-      <c r="D57" s="70" t="n"/>
-      <c r="E57" s="61" t="n"/>
-      <c r="F57" s="62" t="n"/>
-      <c r="G57" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H57" s="59" t="n"/>
-      <c r="I57" s="53" t="n"/>
-    </row>
-    <row r="58" ht="99.75" customHeight="1">
-      <c r="B58" s="57" t="n"/>
-      <c r="C58" s="60" t="n"/>
-      <c r="D58" s="70" t="n"/>
-      <c r="E58" s="61" t="n"/>
-      <c r="F58" s="62" t="n"/>
-      <c r="G58" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H58" s="59" t="n"/>
-      <c r="I58" s="53" t="n"/>
-    </row>
-    <row r="59" ht="99.75" customHeight="1">
-      <c r="B59" s="57" t="n"/>
-      <c r="C59" s="60" t="n"/>
-      <c r="D59" s="70" t="n"/>
-      <c r="E59" s="61" t="n"/>
-      <c r="F59" s="62" t="n"/>
-      <c r="G59" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H59" s="59" t="n"/>
-      <c r="I59" s="53" t="n"/>
-    </row>
-    <row r="60" ht="99.75" customHeight="1">
-      <c r="B60" s="57" t="n"/>
-      <c r="C60" s="60" t="n"/>
-      <c r="D60" s="70" t="n"/>
-      <c r="E60" s="61" t="n"/>
-      <c r="F60" s="62" t="n"/>
-      <c r="G60" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H60" s="59" t="n"/>
-      <c r="I60" s="53" t="n"/>
-    </row>
-    <row r="61" ht="99.75" customHeight="1">
-      <c r="B61" s="57" t="n"/>
-      <c r="C61" s="60" t="n"/>
-      <c r="D61" s="70" t="n"/>
-      <c r="E61" s="61" t="n"/>
-      <c r="F61" s="62" t="n"/>
-      <c r="G61" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H61" s="59" t="n"/>
-      <c r="I61" s="53" t="n"/>
-    </row>
-    <row r="62" ht="99.75" customHeight="1">
-      <c r="B62" s="57" t="n"/>
-      <c r="C62" s="60" t="n"/>
-      <c r="D62" s="70" t="n"/>
-      <c r="E62" s="61" t="n"/>
-      <c r="F62" s="62" t="n"/>
-      <c r="G62" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H62" s="59" t="n"/>
-      <c r="I62" s="53" t="n"/>
-    </row>
-    <row r="63" ht="99.75" customHeight="1">
-      <c r="B63" s="57" t="n"/>
-      <c r="C63" s="60" t="n"/>
-      <c r="D63" s="70" t="n"/>
-      <c r="E63" s="61" t="n"/>
-      <c r="F63" s="62" t="n"/>
-      <c r="G63" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H63" s="59" t="n"/>
-      <c r="I63" s="53" t="n"/>
-    </row>
-    <row r="64" ht="99.75" customHeight="1">
-      <c r="B64" s="57" t="n"/>
-      <c r="C64" s="60" t="n"/>
-      <c r="D64" s="70" t="n"/>
-      <c r="E64" s="61" t="n"/>
-      <c r="F64" s="62" t="n"/>
-      <c r="G64" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H64" s="59" t="n"/>
-      <c r="I64" s="53" t="n"/>
-    </row>
-    <row r="65" ht="99.75" customHeight="1">
-      <c r="B65" s="57" t="n"/>
-      <c r="C65" s="60" t="n"/>
-      <c r="D65" s="70" t="n"/>
-      <c r="E65" s="61" t="n"/>
-      <c r="F65" s="62" t="n"/>
-      <c r="G65" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H65" s="59" t="n"/>
-      <c r="I65" s="53" t="n"/>
-    </row>
-    <row r="66" ht="99.75" customHeight="1">
-      <c r="B66" s="57" t="n"/>
-      <c r="C66" s="60" t="n"/>
-      <c r="D66" s="70" t="n"/>
-      <c r="E66" s="61" t="n"/>
-      <c r="F66" s="62" t="n"/>
-      <c r="G66" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H66" s="59" t="n"/>
-      <c r="I66" s="53" t="n"/>
-    </row>
-    <row r="67" ht="99.75" customHeight="1">
-      <c r="B67" s="57" t="n"/>
-      <c r="C67" s="60" t="n"/>
-      <c r="D67" s="70" t="n"/>
-      <c r="E67" s="61" t="n"/>
-      <c r="F67" s="62" t="n"/>
-      <c r="G67" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H67" s="59" t="n"/>
-      <c r="I67" s="53" t="n"/>
-    </row>
-    <row r="68" ht="99.75" customHeight="1">
-      <c r="B68" s="57" t="n"/>
-      <c r="C68" s="60" t="n"/>
-      <c r="D68" s="70" t="n"/>
-      <c r="E68" s="61" t="n"/>
-      <c r="F68" s="62" t="n"/>
-      <c r="G68" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H68" s="59" t="n"/>
-      <c r="I68" s="53" t="n"/>
-    </row>
-    <row r="69" ht="99.75" customHeight="1">
-      <c r="B69" s="57" t="n"/>
-      <c r="C69" s="60" t="n"/>
-      <c r="D69" s="70" t="n"/>
-      <c r="E69" s="61" t="n"/>
-      <c r="F69" s="62" t="n"/>
-      <c r="G69" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H69" s="59" t="n"/>
-      <c r="I69" s="53" t="n"/>
-    </row>
-    <row r="70" ht="99.75" customHeight="1">
-      <c r="B70" s="57" t="n"/>
-      <c r="C70" s="60" t="n"/>
-      <c r="D70" s="70" t="n"/>
-      <c r="E70" s="61" t="n"/>
-      <c r="F70" s="62" t="n"/>
-      <c r="G70" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H70" s="59" t="n"/>
-      <c r="I70" s="53" t="n"/>
-    </row>
-    <row r="71" ht="99.75" customHeight="1">
-      <c r="B71" s="57" t="n"/>
-      <c r="C71" s="60" t="n"/>
-      <c r="D71" s="70" t="n"/>
-      <c r="E71" s="61" t="n"/>
-      <c r="F71" s="62" t="n"/>
-      <c r="G71" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H71" s="59" t="n"/>
-      <c r="I71" s="53" t="n"/>
-    </row>
-    <row r="72" ht="99.75" customHeight="1">
-      <c r="B72" s="57" t="n"/>
-      <c r="C72" s="60" t="n"/>
-      <c r="D72" s="70" t="n"/>
-      <c r="E72" s="61" t="n"/>
-      <c r="F72" s="62" t="n"/>
-      <c r="G72" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H72" s="59" t="n"/>
-      <c r="I72" s="53" t="n"/>
-    </row>
-    <row r="73" ht="99.75" customHeight="1">
-      <c r="B73" s="57" t="n"/>
-      <c r="C73" s="60" t="n"/>
-      <c r="D73" s="70" t="n"/>
-      <c r="E73" s="61" t="n"/>
-      <c r="F73" s="62" t="n"/>
-      <c r="G73" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H73" s="59" t="n"/>
-      <c r="I73" s="53" t="n"/>
-    </row>
-    <row r="74" ht="99.75" customHeight="1">
-      <c r="B74" s="57" t="n"/>
-      <c r="C74" s="60" t="n"/>
-      <c r="D74" s="70" t="n"/>
-      <c r="E74" s="61" t="n"/>
-      <c r="F74" s="62" t="n"/>
-      <c r="G74" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H74" s="59" t="n"/>
-      <c r="I74" s="53" t="n"/>
-    </row>
-    <row r="75" ht="99.75" customHeight="1">
-      <c r="B75" s="57" t="n"/>
-      <c r="C75" s="60" t="n"/>
-      <c r="D75" s="70" t="n"/>
-      <c r="E75" s="61" t="n"/>
-      <c r="F75" s="62" t="n"/>
-      <c r="G75" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H75" s="59" t="n"/>
-      <c r="I75" s="53" t="n"/>
-    </row>
-    <row r="76" ht="99.75" customHeight="1">
-      <c r="B76" s="57" t="n"/>
-      <c r="C76" s="60" t="n"/>
-      <c r="D76" s="70" t="n"/>
-      <c r="E76" s="61" t="n"/>
-      <c r="F76" s="62" t="n"/>
-      <c r="G76" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H76" s="59" t="n"/>
-      <c r="I76" s="53" t="n"/>
-    </row>
-    <row r="77" ht="99.75" customHeight="1">
-      <c r="B77" s="57" t="n"/>
-      <c r="C77" s="60" t="n"/>
-      <c r="D77" s="70" t="n"/>
-      <c r="E77" s="61" t="n"/>
-      <c r="F77" s="62" t="n"/>
-      <c r="G77" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H77" s="59" t="n"/>
-      <c r="I77" s="53" t="n"/>
-    </row>
-    <row r="78" ht="99.75" customHeight="1">
-      <c r="B78" s="57" t="n"/>
-      <c r="C78" s="60" t="n"/>
-      <c r="D78" s="70" t="n"/>
-      <c r="E78" s="61" t="n"/>
-      <c r="F78" s="62" t="n"/>
-      <c r="G78" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H78" s="59" t="n"/>
-      <c r="I78" s="53" t="n"/>
-    </row>
-    <row r="79" ht="99.75" customHeight="1">
-      <c r="B79" s="57" t="n"/>
-      <c r="C79" s="60" t="n"/>
-      <c r="D79" s="70" t="n"/>
-      <c r="E79" s="61" t="n"/>
-      <c r="F79" s="62" t="n"/>
-      <c r="G79" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H79" s="59" t="n"/>
-      <c r="I79" s="53" t="n"/>
-    </row>
-    <row r="80" ht="99.75" customHeight="1">
-      <c r="B80" s="57" t="n"/>
-      <c r="C80" s="60" t="n"/>
-      <c r="D80" s="70" t="n"/>
-      <c r="E80" s="61" t="n"/>
-      <c r="F80" s="62" t="n"/>
-      <c r="G80" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H80" s="59" t="n"/>
-      <c r="I80" s="53" t="n"/>
-    </row>
-    <row r="81" ht="99.75" customHeight="1">
-      <c r="B81" s="57" t="n"/>
-      <c r="C81" s="60" t="n"/>
-      <c r="D81" s="70" t="n"/>
-      <c r="E81" s="61" t="n"/>
-      <c r="F81" s="62" t="n"/>
-      <c r="G81" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H81" s="59" t="n"/>
-      <c r="I81" s="53" t="n"/>
-    </row>
-    <row r="82" ht="99.75" customHeight="1">
-      <c r="B82" s="57" t="n"/>
-      <c r="C82" s="60" t="n"/>
-      <c r="D82" s="70" t="n"/>
-      <c r="E82" s="61" t="n"/>
-      <c r="F82" s="62" t="n"/>
-      <c r="G82" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H82" s="59" t="n"/>
-      <c r="I82" s="53" t="n"/>
-    </row>
-    <row r="83" ht="99.75" customHeight="1">
-      <c r="B83" s="57" t="n"/>
-      <c r="C83" s="60" t="n"/>
-      <c r="D83" s="70" t="n"/>
-      <c r="E83" s="61" t="n"/>
-      <c r="F83" s="62" t="n"/>
-      <c r="G83" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H83" s="59" t="n"/>
-      <c r="I83" s="53" t="n"/>
-    </row>
-    <row r="84" ht="99.75" customHeight="1">
-      <c r="B84" s="57" t="n"/>
-      <c r="C84" s="60" t="n"/>
-      <c r="D84" s="70" t="n"/>
-      <c r="E84" s="61" t="n"/>
-      <c r="F84" s="62" t="n"/>
-      <c r="G84" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H84" s="59" t="n"/>
-      <c r="I84" s="53" t="n"/>
-    </row>
-    <row r="85" ht="99.75" customHeight="1">
-      <c r="B85" s="57" t="n"/>
-      <c r="C85" s="60" t="n"/>
-      <c r="D85" s="70" t="n"/>
-      <c r="E85" s="61" t="n"/>
-      <c r="F85" s="62" t="n"/>
-      <c r="G85" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H85" s="59" t="n"/>
-      <c r="I85" s="53" t="n"/>
-    </row>
-    <row r="86" ht="99.75" customHeight="1">
-      <c r="B86" s="57" t="n"/>
-      <c r="C86" s="60" t="n"/>
-      <c r="D86" s="70" t="n"/>
-      <c r="E86" s="61" t="n"/>
-      <c r="F86" s="62" t="n"/>
-      <c r="G86" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H86" s="59" t="n"/>
-      <c r="I86" s="53" t="n"/>
-    </row>
-    <row r="87" ht="99.75" customHeight="1">
-      <c r="B87" s="57" t="n"/>
-      <c r="C87" s="60" t="n"/>
-      <c r="D87" s="70" t="n"/>
-      <c r="E87" s="61" t="n"/>
-      <c r="F87" s="62" t="n"/>
-      <c r="G87" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H87" s="59" t="n"/>
-      <c r="I87" s="53" t="n"/>
-    </row>
-    <row r="88" ht="99.75" customHeight="1">
-      <c r="B88" s="57" t="n"/>
-      <c r="C88" s="60" t="n"/>
-      <c r="D88" s="70" t="n"/>
-      <c r="E88" s="61" t="n"/>
-      <c r="F88" s="62" t="n"/>
-      <c r="G88" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H88" s="59" t="n"/>
-      <c r="I88" s="53" t="n"/>
-    </row>
-    <row r="89" ht="99.75" customHeight="1">
-      <c r="B89" s="57" t="n"/>
-      <c r="C89" s="60" t="n"/>
-      <c r="D89" s="70" t="n"/>
-      <c r="E89" s="61" t="n"/>
-      <c r="F89" s="62" t="n"/>
-      <c r="G89" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H89" s="59" t="n"/>
-      <c r="I89" s="53" t="n"/>
-    </row>
-    <row r="90" ht="99.75" customHeight="1">
-      <c r="B90" s="57" t="n"/>
-      <c r="C90" s="60" t="n"/>
-      <c r="D90" s="70" t="n"/>
-      <c r="E90" s="61" t="n"/>
-      <c r="F90" s="62" t="n"/>
-      <c r="G90" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H90" s="59" t="n"/>
-      <c r="I90" s="53" t="n"/>
-    </row>
-    <row r="91" ht="99.75" customHeight="1">
-      <c r="B91" s="57" t="n"/>
-      <c r="C91" s="60" t="n"/>
-      <c r="D91" s="70" t="n"/>
-      <c r="E91" s="61" t="n"/>
-      <c r="F91" s="62" t="n"/>
-      <c r="G91" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H91" s="59" t="n"/>
-      <c r="I91" s="53" t="n"/>
-    </row>
-    <row r="92" ht="99.75" customHeight="1">
-      <c r="B92" s="57" t="n"/>
-      <c r="C92" s="60" t="n"/>
-      <c r="D92" s="70" t="n"/>
-      <c r="E92" s="61" t="n"/>
-      <c r="F92" s="62" t="n"/>
-      <c r="G92" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H92" s="59" t="n"/>
-      <c r="I92" s="53" t="n"/>
-    </row>
-    <row r="93" ht="99.75" customHeight="1">
-      <c r="B93" s="57" t="n"/>
-      <c r="C93" s="60" t="n"/>
-      <c r="D93" s="70" t="n"/>
-      <c r="E93" s="61" t="n"/>
-      <c r="F93" s="62" t="n"/>
-      <c r="G93" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H93" s="59" t="n"/>
-      <c r="I93" s="53" t="n"/>
-    </row>
-    <row r="94" ht="99.75" customHeight="1">
-      <c r="B94" s="57" t="n"/>
-      <c r="C94" s="60" t="n"/>
-      <c r="D94" s="70" t="n"/>
-      <c r="E94" s="61" t="n"/>
-      <c r="F94" s="62" t="n"/>
-      <c r="G94" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H94" s="59" t="n"/>
-      <c r="I94" s="53" t="n"/>
-    </row>
-    <row r="95" ht="99.75" customHeight="1">
-      <c r="B95" s="57" t="n"/>
-      <c r="C95" s="60" t="n"/>
-      <c r="D95" s="70" t="n"/>
-      <c r="E95" s="61" t="n"/>
-      <c r="F95" s="62" t="n"/>
-      <c r="G95" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H95" s="59" t="n"/>
-      <c r="I95" s="53" t="n"/>
-    </row>
-    <row r="96" ht="99.75" customHeight="1">
-      <c r="B96" s="57" t="n"/>
-      <c r="C96" s="60" t="n"/>
-      <c r="D96" s="70" t="n"/>
-      <c r="E96" s="61" t="n"/>
-      <c r="F96" s="62" t="n"/>
-      <c r="G96" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H96" s="59" t="n"/>
-      <c r="I96" s="53" t="n"/>
-    </row>
-    <row r="97" ht="99.75" customHeight="1">
-      <c r="B97" s="57" t="n"/>
-      <c r="C97" s="60" t="n"/>
-      <c r="D97" s="70" t="n"/>
-      <c r="E97" s="61" t="n"/>
-      <c r="F97" s="62" t="n"/>
-      <c r="G97" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H97" s="59" t="n"/>
-      <c r="I97" s="53" t="n"/>
-    </row>
-    <row r="98" ht="99.75" customHeight="1">
-      <c r="B98" s="57" t="n"/>
-      <c r="C98" s="60" t="n"/>
-      <c r="D98" s="70" t="n"/>
-      <c r="E98" s="61" t="n"/>
-      <c r="F98" s="62" t="n"/>
-      <c r="G98" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H98" s="59" t="n"/>
-      <c r="I98" s="53" t="n"/>
-    </row>
-    <row r="99" ht="99.75" customHeight="1">
-      <c r="B99" s="57" t="n"/>
-      <c r="C99" s="60" t="n"/>
-      <c r="D99" s="70" t="n"/>
-      <c r="E99" s="61" t="n"/>
-      <c r="F99" s="62" t="n"/>
-      <c r="G99" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H99" s="59" t="n"/>
-      <c r="I99" s="53" t="n"/>
-    </row>
-    <row r="100" ht="99.75" customHeight="1">
-      <c r="B100" s="57" t="n"/>
-      <c r="C100" s="60" t="n"/>
-      <c r="D100" s="70" t="n"/>
-      <c r="E100" s="61" t="n"/>
-      <c r="F100" s="62" t="n"/>
-      <c r="G100" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H100" s="59" t="n"/>
-      <c r="I100" s="53" t="n"/>
-    </row>
-    <row r="101" ht="99.75" customHeight="1">
-      <c r="B101" s="57" t="n"/>
-      <c r="C101" s="60" t="n"/>
-      <c r="D101" s="70" t="n"/>
-      <c r="E101" s="61" t="n"/>
-      <c r="F101" s="62" t="n"/>
-      <c r="G101" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H101" s="59" t="n"/>
-      <c r="I101" s="53" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="63" t="n"/>
-      <c r="B102" s="63" t="n"/>
-      <c r="C102" s="63" t="n"/>
-      <c r="D102" s="63" t="n"/>
-      <c r="E102" s="64" t="n"/>
-      <c r="F102" s="64" t="n"/>
-      <c r="G102" s="63" t="n"/>
-      <c r="H102" s="63" t="n"/>
-    </row>
-    <row r="104">
-      <c r="B104" s="45" t="inlineStr">
-        <is>
-          <t>Test Summary</t>
-        </is>
-      </c>
-      <c r="C104" s="67" t="n"/>
-    </row>
-    <row r="105">
-      <c r="D105" s="45" t="inlineStr">
-        <is>
-          <t>Test Case Count:</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="D106" s="46" t="inlineStr">
-        <is>
-          <t>Total Test Cases</t>
-        </is>
-      </c>
-      <c r="E106" s="71">
-        <f>COUNTA(B6:B6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107">
-      <c r="D107" s="65" t="inlineStr">
-        <is>
-          <t>Total Test Case Passed</t>
-        </is>
-      </c>
-      <c r="E107" s="71">
-        <f>COUNTIF(G6:G6,"PASS")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108">
-      <c r="D108" s="46" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1. Have a first-time user launch the application&lt;br&gt;2. Ask them to perform basic tasks without instructions&lt;br&gt;3. Observe their interaction</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>User can navigate and perform basic functions with minimal confusion</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Usability test</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TC021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Application is installed on different Windows versions</t>
+        </is>
+      </c>
+      <c r="D26" s="46" t="inlineStr">
+        <is>
+          <t>Verify compatibility across Windows versions</t>
+        </is>
+      </c>
+      <c r="E26" s="71" t="inlineStr">
+        <is>
+          <t>1. Install application on Windows 7, 8, 10, and 11 systems&lt;br&gt;2. Launch application on each system&lt;br&gt;3. Test core functionalities</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Application functions correctly on all supported Windows versions</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Compatibility test</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TC022</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Application is running with different screen resolutions</t>
+        </is>
+      </c>
+      <c r="D27" s="65" t="inlineStr">
+        <is>
+          <t>Verify UI scaling and responsiveness</t>
+        </is>
+      </c>
+      <c r="E27" s="71" t="inlineStr">
+        <is>
+          <t>1. Launch application on systems with different screen resolutions&lt;br&gt;2. Check UI layout and element visibility</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>UI scales appropriately and all elements remain visible and accessible</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Compatibility test</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" s="46" t="inlineStr">
         <is>
           <t>Total Test Case Failed</t>
         </is>
       </c>
-      <c r="E108" s="71">
+      <c r="E28" s="71">
         <f>COUNTIF(G6:G6,"FAIL")</f>
         <v/>
       </c>
     </row>
-    <row r="109">
-      <c r="D109" s="68" t="inlineStr">
+    <row r="29">
+      <c r="D29" s="68" t="inlineStr">
         <is>
           <t>Total Test Case Not  Executed</t>
         </is>
       </c>
-      <c r="E109" s="71">
+      <c r="E29" s="71">
         <f>COUNTIF(G6:G6,"Not Executed")</f>
         <v/>
       </c>
     </row>
-    <row r="111">
-      <c r="D111" s="45" t="n"/>
-      <c r="E111" s="69" t="n"/>
+    <row r="31">
+      <c r="D31" s="45" t="n"/>
+      <c r="E31" s="69" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11988,7 +10960,7 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G103:G107">
+  <conditionalFormatting sqref="G23:G27">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="2" stopIfTrue="1">
       <formula>"PASS"</formula>
     </cfRule>
@@ -12000,10 +10972,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="G6:G101" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="G6:G21" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"PASS,FAIL,Not Executed"</formula1>
     </dataValidation>
-    <dataValidation sqref="H6:H102" showDropDown="0" showInputMessage="1" showErrorMessage="0" allowBlank="1" prompt="Comments by Test Engineer"/>
+    <dataValidation sqref="H6:H22" showDropDown="0" showInputMessage="1" showErrorMessage="0" allowBlank="1" prompt="Comments by Test Engineer"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B1" location="Summary!A1" display="Summary Sheet"/>

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10125,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -10163,7 +10163,11 @@
     <row r="2" ht="81.75" customHeight="1">
       <c r="B2" s="128" t="inlineStr">
         <is>
-          <t>Component: Multi-Functional Tool Application</t>
+          <t xml:space="preserve">Component: MultiFunctionalTool
+MFP: Any
+Build: 
+Date: 
+Target: </t>
         </is>
       </c>
       <c r="C2" s="86" t="n"/>
@@ -10243,686 +10247,274 @@
       <c r="I5" s="53" t="n"/>
     </row>
     <row r="6" ht="99.75" customHeight="1">
-      <c r="B6" s="57" t="inlineStr">
+      <c r="B6" s="57" t="n"/>
+      <c r="C6" s="60" t="n"/>
+      <c r="D6" s="70" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="62" t="n"/>
+      <c r="G6" s="58" t="inlineStr">
         <is>
-          <t>TC001</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="C6" s="60" t="inlineStr">
+      <c r="H6" s="59" t="n"/>
+      <c r="I6" s="53" t="n"/>
+    </row>
+    <row r="7" ht="99.75" customHeight="1">
+      <c r="B7" s="57" t="n"/>
+      <c r="C7" s="60" t="n"/>
+      <c r="D7" s="70" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="62" t="n"/>
+      <c r="G7" s="58" t="inlineStr">
         <is>
-          <t>Application is installed on a desktop computer</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="D6" s="70" t="inlineStr">
+      <c r="H7" s="59" t="n"/>
+      <c r="I7" s="53" t="n"/>
+    </row>
+    <row r="8" ht="99.75" customHeight="1">
+      <c r="B8" s="57" t="n"/>
+      <c r="C8" s="60" t="n"/>
+      <c r="D8" s="70" t="n"/>
+      <c r="E8" s="61" t="n"/>
+      <c r="F8" s="62" t="n"/>
+      <c r="G8" s="58" t="inlineStr">
         <is>
-          <t>Verify application installation on desktop</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="E6" s="61" t="inlineStr">
+      <c r="H8" s="59" t="n"/>
+      <c r="I8" s="53" t="n"/>
+    </row>
+    <row r="9" ht="99.75" customHeight="1">
+      <c r="B9" s="57" t="n"/>
+      <c r="C9" s="60" t="n"/>
+      <c r="D9" s="70" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="62" t="n"/>
+      <c r="G9" s="58" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from specified tec-share location&lt;br&gt;2. Extract contents to preferred location&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="F6" s="62" t="inlineStr">
+      <c r="H9" s="59" t="n"/>
+      <c r="I9" s="53" t="n"/>
+    </row>
+    <row r="10" ht="99.75" customHeight="1">
+      <c r="B10" s="57" t="n"/>
+      <c r="C10" s="60" t="n"/>
+      <c r="D10" s="70" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="62" t="n"/>
+      <c r="G10" s="58" t="inlineStr">
         <is>
-          <t>Application launches successfully with all features accessible</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="G6" s="58" t="inlineStr"/>
-      <c r="H6" s="59" t="inlineStr"/>
-      <c r="I6" s="53" t="n"/>
-    </row>
-    <row r="7" ht="99.75" customHeight="1">
-      <c r="B7" s="57" t="inlineStr">
+      <c r="H10" s="59" t="n"/>
+      <c r="I10" s="53" t="n"/>
+    </row>
+    <row r="11" ht="99.75" customHeight="1">
+      <c r="B11" s="57" t="n"/>
+      <c r="C11" s="60" t="n"/>
+      <c r="D11" s="70" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="62" t="n"/>
+      <c r="G11" s="58" t="inlineStr">
         <is>
-          <t>TC002</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="C7" s="60" t="inlineStr">
+      <c r="H11" s="59" t="n"/>
+      <c r="I11" s="53" t="n"/>
+    </row>
+    <row r="12" ht="99.75" customHeight="1">
+      <c r="B12" s="57" t="n"/>
+      <c r="C12" s="60" t="n"/>
+      <c r="D12" s="70" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="62" t="n"/>
+      <c r="G12" s="58" t="inlineStr">
         <is>
-          <t>Application is installed on a laptop</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="D7" s="70" t="inlineStr">
+      <c r="H12" s="59" t="n"/>
+      <c r="I12" s="53" t="n"/>
+    </row>
+    <row r="13" ht="99.75" customHeight="1">
+      <c r="B13" s="57" t="n"/>
+      <c r="C13" s="60" t="n"/>
+      <c r="D13" s="70" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="62" t="n"/>
+      <c r="G13" s="58" t="inlineStr">
         <is>
-          <t>Verify application installation on laptop</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="E7" s="61" t="inlineStr">
+      <c r="H13" s="59" t="n"/>
+      <c r="I13" s="53" t="n"/>
+    </row>
+    <row r="14" ht="99.75" customHeight="1">
+      <c r="B14" s="57" t="n"/>
+      <c r="C14" s="60" t="n"/>
+      <c r="D14" s="70" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="58" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from specified tec-share location&lt;br&gt;2. Extract contents to preferred location&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="F7" s="62" t="inlineStr">
+      <c r="H14" s="59" t="n"/>
+      <c r="I14" s="53" t="n"/>
+    </row>
+    <row r="15" ht="99.75" customHeight="1">
+      <c r="B15" s="57" t="n"/>
+      <c r="C15" s="60" t="n"/>
+      <c r="D15" s="70" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="62" t="n"/>
+      <c r="G15" s="58" t="inlineStr">
         <is>
-          <t>Application launches successfully with all features accessible</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="G7" s="58" t="inlineStr"/>
-      <c r="H7" s="59" t="inlineStr"/>
-      <c r="I7" s="53" t="n"/>
-    </row>
-    <row r="8" ht="99.75" customHeight="1">
-      <c r="B8" s="57" t="inlineStr">
+      <c r="H15" s="59" t="n"/>
+      <c r="I15" s="53" t="n"/>
+    </row>
+    <row r="16" ht="99.75" customHeight="1">
+      <c r="B16" s="57" t="n"/>
+      <c r="C16" s="60" t="n"/>
+      <c r="D16" s="70" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="62" t="n"/>
+      <c r="G16" s="58" t="inlineStr">
         <is>
-          <t>TC003</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="C8" s="60" t="inlineStr">
+      <c r="H16" s="59" t="n"/>
+      <c r="I16" s="53" t="n"/>
+    </row>
+    <row r="17" ht="99.75" customHeight="1">
+      <c r="B17" s="57" t="n"/>
+      <c r="C17" s="60" t="n"/>
+      <c r="D17" s="70" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="62" t="n"/>
+      <c r="G17" s="58" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="D8" s="70" t="inlineStr">
+      <c r="H17" s="59" t="n"/>
+      <c r="I17" s="53" t="n"/>
+    </row>
+    <row r="18" ht="99.75" customHeight="1">
+      <c r="B18" s="57" t="n"/>
+      <c r="C18" s="60" t="n"/>
+      <c r="D18" s="70" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="62" t="n"/>
+      <c r="G18" s="58" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture start functionality</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="E8" s="61" t="inlineStr">
+      <c r="H18" s="59" t="n"/>
+      <c r="I18" s="53" t="n"/>
+    </row>
+    <row r="19" ht="99.75" customHeight="1">
+      <c r="B19" s="57" t="n"/>
+      <c r="C19" s="60" t="n"/>
+      <c r="D19" s="70" t="n"/>
+      <c r="E19" s="61" t="n"/>
+      <c r="F19" s="62" t="n"/>
+      <c r="G19" s="58" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture section&lt;br&gt;2. Click on Start Capture button</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="F8" s="62" t="inlineStr">
+      <c r="H19" s="59" t="n"/>
+      <c r="I19" s="53" t="n"/>
+    </row>
+    <row r="20" ht="99.75" customHeight="1">
+      <c r="B20" s="57" t="n"/>
+      <c r="C20" s="60" t="n"/>
+      <c r="D20" s="70" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="62" t="n"/>
+      <c r="G20" s="58" t="inlineStr">
         <is>
-          <t>Packet capture begins successfully</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="G8" s="58" t="inlineStr"/>
-      <c r="H8" s="59" t="inlineStr"/>
-      <c r="I8" s="53" t="n"/>
-    </row>
-    <row r="9" ht="99.75" customHeight="1">
-      <c r="B9" s="57" t="inlineStr">
+      <c r="H20" s="59" t="n"/>
+      <c r="I20" s="53" t="n"/>
+    </row>
+    <row r="21" ht="99.75" customHeight="1">
+      <c r="B21" s="57" t="n"/>
+      <c r="C21" s="60" t="n"/>
+      <c r="D21" s="70" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="62" t="n"/>
+      <c r="G21" s="58" t="inlineStr">
         <is>
-          <t>TC004</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="C9" s="60" t="inlineStr">
-        <is>
-          <t>Network Packet Capture is running</t>
-        </is>
-      </c>
-      <c r="D9" s="70" t="inlineStr">
-        <is>
-          <t>Verify Network Packet Capture stop functionality</t>
-        </is>
-      </c>
-      <c r="E9" s="61" t="inlineStr">
-        <is>
-          <t>1. With packet capture running, click on Stop Capture button</t>
-        </is>
-      </c>
-      <c r="F9" s="62" t="inlineStr">
-        <is>
-          <t>1. Packet capture stops&lt;br&gt;2. .pcap file is generated&lt;br&gt;3. File is copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder opens automatically</t>
-        </is>
-      </c>
-      <c r="G9" s="58" t="inlineStr"/>
-      <c r="H9" s="59" t="inlineStr"/>
-      <c r="I9" s="53" t="n"/>
-    </row>
-    <row r="10" ht="99.75" customHeight="1">
-      <c r="B10" s="57" t="inlineStr">
-        <is>
-          <t>TC005</t>
-        </is>
-      </c>
-      <c r="C10" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D10" s="70" t="inlineStr">
-        <is>
-          <t>Verify Memory Leak Check functionality</t>
-        </is>
-      </c>
-      <c r="E10" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Memory Leak Check section&lt;br&gt;2. Select a protocol&lt;br&gt;3. Initiate memory leak check</t>
-        </is>
-      </c>
-      <c r="F10" s="62" t="inlineStr">
-        <is>
-          <t>Memory Leak Comparison Table is displayed with accurate information</t>
-        </is>
-      </c>
-      <c r="G10" s="58" t="inlineStr"/>
-      <c r="H10" s="59" t="inlineStr"/>
-      <c r="I10" s="53" t="n"/>
-    </row>
-    <row r="11" ht="99.75" customHeight="1">
-      <c r="B11" s="57" t="inlineStr">
-        <is>
-          <t>TC006</t>
-        </is>
-      </c>
-      <c r="C11" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D11" s="70" t="inlineStr">
-        <is>
-          <t>Verify Debug Log Collection functionality</t>
-        </is>
-      </c>
-      <c r="E11" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button</t>
-        </is>
-      </c>
-      <c r="F11" s="62" t="inlineStr">
-        <is>
-          <t>1. Script executes successfully&lt;br&gt;2. Logs are collected&lt;br&gt;3. Logs are copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder opens automatically</t>
-        </is>
-      </c>
-      <c r="G11" s="58" t="inlineStr"/>
-      <c r="H11" s="59" t="inlineStr"/>
-      <c r="I11" s="53" t="n"/>
-    </row>
-    <row r="12" ht="99.75" customHeight="1">
-      <c r="B12" s="57" t="inlineStr">
-        <is>
-          <t>TC007</t>
-        </is>
-      </c>
-      <c r="C12" s="60" t="inlineStr">
-        <is>
-          <t>Debug Log Collection has been run once with empty folder result</t>
-        </is>
-      </c>
-      <c r="D12" s="70" t="inlineStr">
-        <is>
-          <t>Verify Debug Log Collection retry functionality</t>
-        </is>
-      </c>
-      <c r="E12" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Debug Log Collection section&lt;br&gt;2. Click on Run button again</t>
-        </is>
-      </c>
-      <c r="F12" s="62" t="inlineStr">
-        <is>
-          <t>1. Script executes successfully&lt;br&gt;2. Logs are collected&lt;br&gt;3. Logs are copied to MFP's Shared Folder&lt;br&gt;4. Shared Folder opens with logs visible</t>
-        </is>
-      </c>
-      <c r="G12" s="58" t="inlineStr"/>
-      <c r="H12" s="59" t="inlineStr"/>
-      <c r="I12" s="53" t="n"/>
-    </row>
-    <row r="13" ht="99.75" customHeight="1">
-      <c r="B13" s="57" t="inlineStr">
-        <is>
-          <t>TC008</t>
-        </is>
-      </c>
-      <c r="C13" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D13" s="70" t="inlineStr">
-        <is>
-          <t>Verify Diagnostic Code Details - ECC selection</t>
-        </is>
-      </c>
-      <c r="E13" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select ECC option&lt;br&gt;3. Choose a specific diagnostic code</t>
-        </is>
-      </c>
-      <c r="F13" s="62" t="inlineStr">
-        <is>
-          <t>Relevant job-specific details for the selected ECC diagnostic code are displayed</t>
-        </is>
-      </c>
-      <c r="G13" s="58" t="inlineStr"/>
-      <c r="H13" s="59" t="inlineStr"/>
-      <c r="I13" s="53" t="n"/>
-    </row>
-    <row r="14" ht="99.75" customHeight="1">
-      <c r="B14" s="57" t="inlineStr">
-        <is>
-          <t>TC009</t>
-        </is>
-      </c>
-      <c r="C14" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D14" s="70" t="inlineStr">
-        <is>
-          <t>Verify Diagnostic Code Details - Network Protocols selection</t>
-        </is>
-      </c>
-      <c r="E14" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select Network Protocols option&lt;br&gt;3. Choose a specific diagnostic code</t>
-        </is>
-      </c>
-      <c r="F14" s="62" t="inlineStr">
-        <is>
-          <t>Relevant job-specific details for the selected Network Protocols diagnostic code are displayed</t>
-        </is>
-      </c>
-      <c r="G14" s="58" t="inlineStr"/>
-      <c r="H14" s="59" t="inlineStr"/>
-      <c r="I14" s="53" t="n"/>
-    </row>
-    <row r="15" ht="99.75" customHeight="1">
-      <c r="B15" s="57" t="inlineStr">
-        <is>
-          <t>TC010</t>
-        </is>
-      </c>
-      <c r="C15" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D15" s="70" t="inlineStr">
-        <is>
-          <t>Verify Diagnostic Code Details - High Security Mode selection</t>
-        </is>
-      </c>
-      <c r="E15" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select High Security Mode option&lt;br&gt;3. Choose a specific diagnostic code</t>
-        </is>
-      </c>
-      <c r="F15" s="62" t="inlineStr">
-        <is>
-          <t>Relevant job-specific details for the selected High Security Mode diagnostic code are displayed</t>
-        </is>
-      </c>
-      <c r="G15" s="58" t="inlineStr"/>
-      <c r="H15" s="59" t="inlineStr"/>
-      <c r="I15" s="53" t="n"/>
-    </row>
-    <row r="16" ht="99.75" customHeight="1">
-      <c r="B16" s="57" t="inlineStr">
-        <is>
-          <t>TC011</t>
-        </is>
-      </c>
-      <c r="C16" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D16" s="70" t="inlineStr">
-        <is>
-          <t>Verify Diagnostic Code Details - commonly used codes</t>
-        </is>
-      </c>
-      <c r="E16" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Diagnostic Code Details section&lt;br&gt;2. Select commonly used diagnostic codes option&lt;br&gt;3. Choose a specific diagnostic code</t>
-        </is>
-      </c>
-      <c r="F16" s="62" t="inlineStr">
-        <is>
-          <t>Relevant job-specific details for the selected common diagnostic code are displayed</t>
-        </is>
-      </c>
-      <c r="G16" s="58" t="inlineStr"/>
-      <c r="H16" s="59" t="inlineStr"/>
-      <c r="I16" s="53" t="n"/>
-    </row>
-    <row r="17" ht="99.75" customHeight="1">
-      <c r="B17" s="57" t="inlineStr">
-        <is>
-          <t>TC012</t>
-        </is>
-      </c>
-      <c r="C17" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D17" s="70" t="inlineStr">
-        <is>
-          <t>Verify 08 Diagnostic Code Value - Get functionality</t>
-        </is>
-      </c>
-      <c r="E17" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a specific diagnostic code&lt;br&gt;3. Click on Get Value button</t>
-        </is>
-      </c>
-      <c r="F17" s="62" t="inlineStr">
-        <is>
-          <t>Current value of the selected 08 diagnostic code is displayed</t>
-        </is>
-      </c>
-      <c r="G17" s="58" t="inlineStr"/>
-      <c r="H17" s="59" t="inlineStr"/>
-      <c r="I17" s="53" t="n"/>
-    </row>
-    <row r="18" ht="99.75" customHeight="1">
-      <c r="B18" s="57" t="inlineStr">
-        <is>
-          <t>TC013</t>
-        </is>
-      </c>
-      <c r="C18" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D18" s="70" t="inlineStr">
-        <is>
-          <t>Verify 08 Diagnostic Code Value - Set functionality</t>
-        </is>
-      </c>
-      <c r="E18" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section&lt;br&gt;2. Select a specific diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set Value button</t>
-        </is>
-      </c>
-      <c r="F18" s="62" t="inlineStr">
-        <is>
-          <t>The 08 diagnostic code value is updated successfully</t>
-        </is>
-      </c>
-      <c r="G18" s="58" t="inlineStr"/>
-      <c r="H18" s="59" t="inlineStr"/>
-      <c r="I18" s="53" t="n"/>
-    </row>
-    <row r="19" ht="99.75" customHeight="1">
-      <c r="B19" s="57" t="inlineStr">
-        <is>
-          <t>TC014</t>
-        </is>
-      </c>
-      <c r="C19" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D19" s="70" t="inlineStr">
-        <is>
-          <t>Verify Protocol Configuration - Get functionality</t>
-        </is>
-      </c>
-      <c r="E19" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Click on Get Value button</t>
-        </is>
-      </c>
-      <c r="F19" s="62" t="inlineStr">
-        <is>
-          <t>Current value of the selected protocol is displayed</t>
-        </is>
-      </c>
-      <c r="G19" s="58" t="inlineStr"/>
-      <c r="H19" s="59" t="inlineStr"/>
-      <c r="I19" s="53" t="n"/>
-    </row>
-    <row r="20" ht="99.75" customHeight="1">
-      <c r="B20" s="57" t="inlineStr">
-        <is>
-          <t>TC015</t>
-        </is>
-      </c>
-      <c r="C20" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D20" s="70" t="inlineStr">
-        <is>
-          <t>Verify Protocol Configuration - Set functionality placeholder</t>
-        </is>
-      </c>
-      <c r="E20" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Protocol Configuration section&lt;br&gt;2. Open Protocol Selection Window&lt;br&gt;3. Select a protocol&lt;br&gt;4. Attempt to set a value</t>
-        </is>
-      </c>
-      <c r="F20" s="62" t="inlineStr">
-        <is>
-          <t>System indicates that Set protocol values operation is not yet implemented</t>
-        </is>
-      </c>
-      <c r="G20" s="58" t="inlineStr"/>
-      <c r="H20" s="59" t="inlineStr"/>
-      <c r="I20" s="53" t="n"/>
-    </row>
-    <row r="21" ht="99.75" customHeight="1">
-      <c r="B21" s="57" t="inlineStr">
-        <is>
-          <t>TC016</t>
-        </is>
-      </c>
-      <c r="C21" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D21" s="70" t="inlineStr">
-        <is>
-          <t>Verify GUI responsiveness under normal conditions</t>
-        </is>
-      </c>
-      <c r="E21" s="61" t="inlineStr">
-        <is>
-          <t>1. Launch application&lt;br&gt;2. Navigate through different sections&lt;br&gt;3. Interact with various controls</t>
-        </is>
-      </c>
-      <c r="F21" s="62" t="inlineStr">
-        <is>
-          <t>GUI responds promptly to user interactions with no noticeable lag</t>
-        </is>
-      </c>
-      <c r="G21" s="58" t="inlineStr"/>
-      <c r="H21" s="59" t="inlineStr">
-        <is>
-          <t>Performance test</t>
-        </is>
-      </c>
+      <c r="H21" s="59" t="n"/>
       <c r="I21" s="53" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="63" t="n"/>
-      <c r="B22" s="63" t="inlineStr">
-        <is>
-          <t>TC017</t>
-        </is>
-      </c>
-      <c r="C22" s="63" t="inlineStr">
-        <is>
-          <t>Network Packet Capture is running for an extended period</t>
-        </is>
-      </c>
-      <c r="D22" s="63" t="inlineStr">
-        <is>
-          <t>Verify application stability during long operations</t>
-        </is>
-      </c>
-      <c r="E22" s="64" t="inlineStr">
-        <is>
-          <t>1. Start Network Packet Capture&lt;br&gt;2. Let it run for at least 1 hour&lt;br&gt;3. Stop the capture</t>
-        </is>
-      </c>
-      <c r="F22" s="64" t="inlineStr">
-        <is>
-          <t>1. Application remains stable throughout the operation&lt;br&gt;2. No crashes or freezes occur&lt;br&gt;3. Packet capture completes successfully</t>
-        </is>
-      </c>
-      <c r="G22" s="63" t="inlineStr"/>
-      <c r="H22" s="63" t="inlineStr">
-        <is>
-          <t>Performance test</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TC018</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Multiple operations are performed in sequence</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Verify application memory usage</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1. Launch application&lt;br&gt;2. Perform Network Packet Capture&lt;br&gt;3. Perform Memory Leak Check&lt;br&gt;4. Collect Debug Logs&lt;br&gt;5. Check application memory usage</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Application maintains reasonable memory usage without significant memory leaks</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Performance test</t>
-        </is>
-      </c>
+      <c r="B22" s="63" t="n"/>
+      <c r="C22" s="63" t="n"/>
+      <c r="D22" s="63" t="n"/>
+      <c r="E22" s="64" t="n"/>
+      <c r="F22" s="64" t="n"/>
+      <c r="G22" s="63" t="n"/>
+      <c r="H22" s="63" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="45" t="inlineStr">
         <is>
-          <t>TC019</t>
+          <t>Test Summary</t>
         </is>
       </c>
-      <c r="C24" s="67" t="inlineStr">
-        <is>
-          <t>Application is installed on a system with minimum specifications</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Verify performance on low-end systems</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1. Install application on a system with minimum specifications&lt;br&gt;2. Launch application&lt;br&gt;3. Perform all major functions</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Application performs all functions successfully with acceptable response times</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Performance test</t>
-        </is>
-      </c>
+      <c r="C24" s="67" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TC020</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
       <c r="D25" s="45" t="inlineStr">
         <is>
-          <t>Verify usability for first-time users</t>
+          <t>Test Case Count:</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1. Have a first-time user launch the application&lt;br&gt;2. Ask them to perform basic tasks without instructions&lt;br&gt;3. Observe their interaction</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>User can navigate and perform basic functions with minimal confusion</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Usability test</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TC021</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Application is installed on different Windows versions</t>
-        </is>
-      </c>
       <c r="D26" s="46" t="inlineStr">
         <is>
-          <t>Verify compatibility across Windows versions</t>
+          <t>Total Test Cases</t>
         </is>
       </c>
-      <c r="E26" s="71" t="inlineStr">
-        <is>
-          <t>1. Install application on Windows 7, 8, 10, and 11 systems&lt;br&gt;2. Launch application on each system&lt;br&gt;3. Test core functionalities</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Application functions correctly on all supported Windows versions</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Compatibility test</t>
-        </is>
+      <c r="E26" s="71">
+        <f>COUNTA(B6:B6)</f>
+        <v/>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TC022</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Application is running with different screen resolutions</t>
-        </is>
-      </c>
       <c r="D27" s="65" t="inlineStr">
         <is>
-          <t>Verify UI scaling and responsiveness</t>
+          <t>Total Test Case Passed</t>
         </is>
       </c>
-      <c r="E27" s="71" t="inlineStr">
-        <is>
-          <t>1. Launch application on systems with different screen resolutions&lt;br&gt;2. Check UI layout and element visibility</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>UI scales appropriately and all elements remain visible and accessible</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Compatibility test</t>
-        </is>
+      <c r="E27" s="71">
+        <f>COUNTIF(G6:G6,"PASS")</f>
+        <v/>
       </c>
     </row>
     <row r="28">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10125,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -10163,11 +10163,7 @@
     <row r="2" ht="81.75" customHeight="1">
       <c r="B2" s="128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Component: MultiFunctionalTool
-MFP: Any
-Build: 
-Date: 
-Target: </t>
+          <t>Component: Multi-Functional Tool Application</t>
         </is>
       </c>
       <c r="C2" s="86" t="n"/>
@@ -10182,7 +10178,11 @@
       <c r="B3" s="49" t="n"/>
       <c r="C3" s="49" t="n"/>
       <c r="D3" s="49" t="n"/>
-      <c r="E3" s="50" t="n"/>
+      <c r="E3" s="50" t="inlineStr">
+        <is>
+          <t>MFP: Any</t>
+        </is>
+      </c>
       <c r="F3" s="50" t="n"/>
       <c r="G3" s="49" t="n"/>
       <c r="H3" s="51" t="n"/>
@@ -10247,251 +10247,660 @@
       <c r="I5" s="53" t="n"/>
     </row>
     <row r="6" ht="99.75" customHeight="1">
-      <c r="B6" s="57" t="n"/>
-      <c r="C6" s="60" t="n"/>
-      <c r="D6" s="70" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="62" t="n"/>
-      <c r="G6" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H6" s="59" t="n"/>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t>TC001</t>
+        </is>
+      </c>
+      <c r="C6" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed on a desktop computer</t>
+        </is>
+      </c>
+      <c r="D6" s="70" t="inlineStr">
+        <is>
+          <t>Verify application installation on desktop</t>
+        </is>
+      </c>
+      <c r="E6" s="61" t="inlineStr">
+        <is>
+          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from specified tec-share location
+2. Extract contents to preferred location
+3. Double-click MultiFunctionalToolApplication</t>
+        </is>
+      </c>
+      <c r="F6" s="62" t="inlineStr">
+        <is>
+          <t>Application launches successfully with all features accessible</t>
+        </is>
+      </c>
+      <c r="G6" s="58" t="inlineStr"/>
+      <c r="H6" s="59" t="inlineStr"/>
       <c r="I6" s="53" t="n"/>
     </row>
     <row r="7" ht="99.75" customHeight="1">
-      <c r="B7" s="57" t="n"/>
-      <c r="C7" s="60" t="n"/>
-      <c r="D7" s="70" t="n"/>
-      <c r="E7" s="61" t="n"/>
-      <c r="F7" s="62" t="n"/>
-      <c r="G7" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H7" s="59" t="n"/>
+      <c r="B7" s="57" t="inlineStr">
+        <is>
+          <t>TC002</t>
+        </is>
+      </c>
+      <c r="C7" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed on a laptop</t>
+        </is>
+      </c>
+      <c r="D7" s="70" t="inlineStr">
+        <is>
+          <t>Verify application installation on laptop</t>
+        </is>
+      </c>
+      <c r="E7" s="61" t="inlineStr">
+        <is>
+          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from specified tec-share location
+2. Extract contents to preferred location
+3. Double-click MultiFunctionalToolApplication</t>
+        </is>
+      </c>
+      <c r="F7" s="62" t="inlineStr">
+        <is>
+          <t>Application launches successfully with all features accessible</t>
+        </is>
+      </c>
+      <c r="G7" s="58" t="inlineStr"/>
+      <c r="H7" s="59" t="inlineStr"/>
       <c r="I7" s="53" t="n"/>
     </row>
     <row r="8" ht="99.75" customHeight="1">
-      <c r="B8" s="57" t="n"/>
-      <c r="C8" s="60" t="n"/>
-      <c r="D8" s="70" t="n"/>
-      <c r="E8" s="61" t="n"/>
-      <c r="F8" s="62" t="n"/>
-      <c r="G8" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H8" s="59" t="n"/>
+      <c r="B8" s="57" t="inlineStr">
+        <is>
+          <t>TC003</t>
+        </is>
+      </c>
+      <c r="C8" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D8" s="70" t="inlineStr">
+        <is>
+          <t>Verify Network Packet Capture start functionality</t>
+        </is>
+      </c>
+      <c r="E8" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Network Packet Capture section
+2. Click Start button</t>
+        </is>
+      </c>
+      <c r="F8" s="62" t="inlineStr">
+        <is>
+          <t>Packet capture begins successfully</t>
+        </is>
+      </c>
+      <c r="G8" s="58" t="inlineStr"/>
+      <c r="H8" s="59" t="inlineStr"/>
       <c r="I8" s="53" t="n"/>
     </row>
     <row r="9" ht="99.75" customHeight="1">
-      <c r="B9" s="57" t="n"/>
-      <c r="C9" s="60" t="n"/>
-      <c r="D9" s="70" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="62" t="n"/>
-      <c r="G9" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H9" s="59" t="n"/>
+      <c r="B9" s="57" t="inlineStr">
+        <is>
+          <t>TC004</t>
+        </is>
+      </c>
+      <c r="C9" s="60" t="inlineStr">
+        <is>
+          <t>Network Packet Capture is running</t>
+        </is>
+      </c>
+      <c r="D9" s="70" t="inlineStr">
+        <is>
+          <t>Verify Network Packet Capture stop functionality</t>
+        </is>
+      </c>
+      <c r="E9" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Network Packet Capture section
+2. Click Stop button</t>
+        </is>
+      </c>
+      <c r="F9" s="62" t="inlineStr">
+        <is>
+          <t>1. Packet capture stops
+2. .pcap file is generated
+3. File is copied to MFP's Shared Folder
+4. Shared Folder opens automatically</t>
+        </is>
+      </c>
+      <c r="G9" s="58" t="inlineStr"/>
+      <c r="H9" s="59" t="inlineStr"/>
       <c r="I9" s="53" t="n"/>
     </row>
     <row r="10" ht="99.75" customHeight="1">
-      <c r="B10" s="57" t="n"/>
-      <c r="C10" s="60" t="n"/>
-      <c r="D10" s="70" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="62" t="n"/>
-      <c r="G10" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H10" s="59" t="n"/>
+      <c r="B10" s="57" t="inlineStr">
+        <is>
+          <t>TC005</t>
+        </is>
+      </c>
+      <c r="C10" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D10" s="70" t="inlineStr">
+        <is>
+          <t>Verify Memory Leak Check functionality</t>
+        </is>
+      </c>
+      <c r="E10" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Memory Leak Check section
+2. Select a protocol
+3. Run the memory leak check</t>
+        </is>
+      </c>
+      <c r="F10" s="62" t="inlineStr">
+        <is>
+          <t>Memory Leak Comparison Table is displayed with accurate information</t>
+        </is>
+      </c>
+      <c r="G10" s="58" t="inlineStr"/>
+      <c r="H10" s="59" t="inlineStr"/>
       <c r="I10" s="53" t="n"/>
     </row>
     <row r="11" ht="99.75" customHeight="1">
-      <c r="B11" s="57" t="n"/>
-      <c r="C11" s="60" t="n"/>
-      <c r="D11" s="70" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="62" t="n"/>
-      <c r="G11" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H11" s="59" t="n"/>
+      <c r="B11" s="57" t="inlineStr">
+        <is>
+          <t>TC006</t>
+        </is>
+      </c>
+      <c r="C11" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D11" s="70" t="inlineStr">
+        <is>
+          <t>Verify Debug Log Collection functionality</t>
+        </is>
+      </c>
+      <c r="E11" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Debug Log Collection section
+2. Click Run button</t>
+        </is>
+      </c>
+      <c r="F11" s="62" t="inlineStr">
+        <is>
+          <t>1. Script executes successfully
+2. Logs are collected
+3. Logs are copied to MFP's Shared Folder
+4. Shared Folder opens automatically</t>
+        </is>
+      </c>
+      <c r="G11" s="58" t="inlineStr"/>
+      <c r="H11" s="59" t="inlineStr"/>
       <c r="I11" s="53" t="n"/>
     </row>
     <row r="12" ht="99.75" customHeight="1">
-      <c r="B12" s="57" t="n"/>
-      <c r="C12" s="60" t="n"/>
-      <c r="D12" s="70" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="62" t="n"/>
-      <c r="G12" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H12" s="59" t="n"/>
+      <c r="B12" s="57" t="inlineStr">
+        <is>
+          <t>TC007</t>
+        </is>
+      </c>
+      <c r="C12" s="60" t="inlineStr">
+        <is>
+          <t>Debug Log Collection has been run once with empty folder result</t>
+        </is>
+      </c>
+      <c r="D12" s="70" t="inlineStr">
+        <is>
+          <t>Verify Debug Log Collection retry functionality</t>
+        </is>
+      </c>
+      <c r="E12" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Debug Log Collection section
+2. Click Run button again</t>
+        </is>
+      </c>
+      <c r="F12" s="62" t="inlineStr">
+        <is>
+          <t>1. Script executes successfully
+2. Logs are collected
+3. Logs are copied to MFP's Shared Folder
+4. Shared Folder opens with logs visible</t>
+        </is>
+      </c>
+      <c r="G12" s="58" t="inlineStr"/>
+      <c r="H12" s="59" t="inlineStr"/>
       <c r="I12" s="53" t="n"/>
     </row>
     <row r="13" ht="99.75" customHeight="1">
-      <c r="B13" s="57" t="n"/>
-      <c r="C13" s="60" t="n"/>
-      <c r="D13" s="70" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="62" t="n"/>
-      <c r="G13" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H13" s="59" t="n"/>
+      <c r="B13" s="57" t="inlineStr">
+        <is>
+          <t>TC008</t>
+        </is>
+      </c>
+      <c r="C13" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D13" s="70" t="inlineStr">
+        <is>
+          <t>Verify Diagnostic Code Details - ECC selection</t>
+        </is>
+      </c>
+      <c r="E13" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details section
+2. Select ECC option
+3. Choose specific diagnostic code</t>
+        </is>
+      </c>
+      <c r="F13" s="62" t="inlineStr">
+        <is>
+          <t>Relevant job-specific details for ECC are displayed correctly</t>
+        </is>
+      </c>
+      <c r="G13" s="58" t="inlineStr"/>
+      <c r="H13" s="59" t="inlineStr"/>
       <c r="I13" s="53" t="n"/>
     </row>
     <row r="14" ht="99.75" customHeight="1">
-      <c r="B14" s="57" t="n"/>
-      <c r="C14" s="60" t="n"/>
-      <c r="D14" s="70" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="62" t="n"/>
-      <c r="G14" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H14" s="59" t="n"/>
+      <c r="B14" s="57" t="inlineStr">
+        <is>
+          <t>TC009</t>
+        </is>
+      </c>
+      <c r="C14" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D14" s="70" t="inlineStr">
+        <is>
+          <t>Verify Diagnostic Code Details - Network Protocols selection</t>
+        </is>
+      </c>
+      <c r="E14" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details section
+2. Select Network Protocols option
+3. Choose specific diagnostic code</t>
+        </is>
+      </c>
+      <c r="F14" s="62" t="inlineStr">
+        <is>
+          <t>Relevant job-specific details for Network Protocols are displayed correctly</t>
+        </is>
+      </c>
+      <c r="G14" s="58" t="inlineStr"/>
+      <c r="H14" s="59" t="inlineStr"/>
       <c r="I14" s="53" t="n"/>
     </row>
     <row r="15" ht="99.75" customHeight="1">
-      <c r="B15" s="57" t="n"/>
-      <c r="C15" s="60" t="n"/>
-      <c r="D15" s="70" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="62" t="n"/>
-      <c r="G15" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H15" s="59" t="n"/>
+      <c r="B15" s="57" t="inlineStr">
+        <is>
+          <t>TC010</t>
+        </is>
+      </c>
+      <c r="C15" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D15" s="70" t="inlineStr">
+        <is>
+          <t>Verify Diagnostic Code Details - High Security Mode selection</t>
+        </is>
+      </c>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details section
+2. Select High Security Mode option
+3. Choose specific diagnostic code</t>
+        </is>
+      </c>
+      <c r="F15" s="62" t="inlineStr">
+        <is>
+          <t>Relevant job-specific details for High Security Mode are displayed correctly</t>
+        </is>
+      </c>
+      <c r="G15" s="58" t="inlineStr"/>
+      <c r="H15" s="59" t="inlineStr"/>
       <c r="I15" s="53" t="n"/>
     </row>
     <row r="16" ht="99.75" customHeight="1">
-      <c r="B16" s="57" t="n"/>
-      <c r="C16" s="60" t="n"/>
-      <c r="D16" s="70" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="62" t="n"/>
-      <c r="G16" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H16" s="59" t="n"/>
+      <c r="B16" s="57" t="inlineStr">
+        <is>
+          <t>TC011</t>
+        </is>
+      </c>
+      <c r="C16" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D16" s="70" t="inlineStr">
+        <is>
+          <t>Verify 08 Diagnostic Code Value - Get functionality</t>
+        </is>
+      </c>
+      <c r="E16" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to 08 Diagnostic Code Value section
+2. Select a diagnostic code
+3. Click Get button</t>
+        </is>
+      </c>
+      <c r="F16" s="62" t="inlineStr">
+        <is>
+          <t>Current value of the selected diagnostic code is displayed</t>
+        </is>
+      </c>
+      <c r="G16" s="58" t="inlineStr"/>
+      <c r="H16" s="59" t="inlineStr"/>
       <c r="I16" s="53" t="n"/>
     </row>
     <row r="17" ht="99.75" customHeight="1">
-      <c r="B17" s="57" t="n"/>
-      <c r="C17" s="60" t="n"/>
-      <c r="D17" s="70" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="62" t="n"/>
-      <c r="G17" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H17" s="59" t="n"/>
+      <c r="B17" s="57" t="inlineStr">
+        <is>
+          <t>TC012</t>
+        </is>
+      </c>
+      <c r="C17" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D17" s="70" t="inlineStr">
+        <is>
+          <t>Verify 08 Diagnostic Code Value - Set functionality</t>
+        </is>
+      </c>
+      <c r="E17" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to 08 Diagnostic Code Value section
+2. Select a diagnostic code
+3. Enter a new value
+4. Click Set button</t>
+        </is>
+      </c>
+      <c r="F17" s="62" t="inlineStr">
+        <is>
+          <t>Diagnostic code value is updated successfully</t>
+        </is>
+      </c>
+      <c r="G17" s="58" t="inlineStr"/>
+      <c r="H17" s="59" t="inlineStr"/>
       <c r="I17" s="53" t="n"/>
     </row>
     <row r="18" ht="99.75" customHeight="1">
-      <c r="B18" s="57" t="n"/>
-      <c r="C18" s="60" t="n"/>
-      <c r="D18" s="70" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="62" t="n"/>
-      <c r="G18" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H18" s="59" t="n"/>
+      <c r="B18" s="57" t="inlineStr">
+        <is>
+          <t>TC013</t>
+        </is>
+      </c>
+      <c r="C18" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D18" s="70" t="inlineStr">
+        <is>
+          <t>Verify Protocol Configuration - Get functionality</t>
+        </is>
+      </c>
+      <c r="E18" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Protocol Configuration section
+2. Select a protocol
+3. Click Get button</t>
+        </is>
+      </c>
+      <c r="F18" s="62" t="inlineStr">
+        <is>
+          <t>Current value of the selected protocol is displayed</t>
+        </is>
+      </c>
+      <c r="G18" s="58" t="inlineStr"/>
+      <c r="H18" s="59" t="inlineStr"/>
       <c r="I18" s="53" t="n"/>
     </row>
     <row r="19" ht="99.75" customHeight="1">
-      <c r="B19" s="57" t="n"/>
-      <c r="C19" s="60" t="n"/>
-      <c r="D19" s="70" t="n"/>
-      <c r="E19" s="61" t="n"/>
-      <c r="F19" s="62" t="n"/>
-      <c r="G19" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H19" s="59" t="n"/>
+      <c r="B19" s="57" t="inlineStr">
+        <is>
+          <t>TC014</t>
+        </is>
+      </c>
+      <c r="C19" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D19" s="70" t="inlineStr">
+        <is>
+          <t>Verify Protocol Configuration - Set functionality placeholder</t>
+        </is>
+      </c>
+      <c r="E19" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Protocol Configuration section
+2. Select a protocol
+3. Attempt to set a value</t>
+        </is>
+      </c>
+      <c r="F19" s="62" t="inlineStr">
+        <is>
+          <t>System indicates that the Set protocol values operation is not yet implemented</t>
+        </is>
+      </c>
+      <c r="G19" s="58" t="inlineStr"/>
+      <c r="H19" s="59" t="inlineStr"/>
       <c r="I19" s="53" t="n"/>
     </row>
     <row r="20" ht="99.75" customHeight="1">
-      <c r="B20" s="57" t="n"/>
-      <c r="C20" s="60" t="n"/>
-      <c r="D20" s="70" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="62" t="n"/>
-      <c r="G20" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H20" s="59" t="n"/>
+      <c r="B20" s="57" t="inlineStr">
+        <is>
+          <t>TC015</t>
+        </is>
+      </c>
+      <c r="C20" s="60" t="inlineStr">
+        <is>
+          <t>Application is running with multiple features</t>
+        </is>
+      </c>
+      <c r="D20" s="70" t="inlineStr">
+        <is>
+          <t>Verify simultaneous operation of multiple features</t>
+        </is>
+      </c>
+      <c r="E20" s="61" t="inlineStr">
+        <is>
+          <t>1. Start Network Packet Capture
+2. While capture is running, perform Memory Leak Check
+3. While both are running, check Diagnostic Code Details</t>
+        </is>
+      </c>
+      <c r="F20" s="62" t="inlineStr">
+        <is>
+          <t>All features operate correctly without interference</t>
+        </is>
+      </c>
+      <c r="G20" s="58" t="inlineStr"/>
+      <c r="H20" s="59" t="inlineStr"/>
       <c r="I20" s="53" t="n"/>
     </row>
     <row r="21" ht="99.75" customHeight="1">
-      <c r="B21" s="57" t="n"/>
-      <c r="C21" s="60" t="n"/>
-      <c r="D21" s="70" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="62" t="n"/>
-      <c r="G21" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H21" s="59" t="n"/>
+      <c r="B21" s="57" t="inlineStr">
+        <is>
+          <t>TC016</t>
+        </is>
+      </c>
+      <c r="C21" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D21" s="70" t="inlineStr">
+        <is>
+          <t>Verify application performance - startup time</t>
+        </is>
+      </c>
+      <c r="E21" s="61" t="inlineStr">
+        <is>
+          <t>1. Close the application if running
+2. Time the startup of the application</t>
+        </is>
+      </c>
+      <c r="F21" s="62" t="inlineStr">
+        <is>
+          <t>Application starts in under 5 seconds</t>
+        </is>
+      </c>
+      <c r="G21" s="58" t="inlineStr"/>
+      <c r="H21" s="59" t="inlineStr">
+        <is>
+          <t>Non-functional test</t>
+        </is>
+      </c>
       <c r="I21" s="53" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="63" t="n"/>
-      <c r="B22" s="63" t="n"/>
-      <c r="C22" s="63" t="n"/>
-      <c r="D22" s="63" t="n"/>
-      <c r="E22" s="64" t="n"/>
-      <c r="F22" s="64" t="n"/>
-      <c r="G22" s="63" t="n"/>
-      <c r="H22" s="63" t="n"/>
+      <c r="B22" s="63" t="inlineStr">
+        <is>
+          <t>TC017</t>
+        </is>
+      </c>
+      <c r="C22" s="63" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D22" s="63" t="inlineStr">
+        <is>
+          <t>Verify application performance - response time</t>
+        </is>
+      </c>
+      <c r="E22" s="64" t="inlineStr">
+        <is>
+          <t>1. Click various buttons and features
+2. Measure response time</t>
+        </is>
+      </c>
+      <c r="F22" s="64" t="inlineStr">
+        <is>
+          <t>UI responds within 1 second to user interactions</t>
+        </is>
+      </c>
+      <c r="G22" s="63" t="inlineStr"/>
+      <c r="H22" s="63" t="inlineStr">
+        <is>
+          <t>Non-functional test</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TC018</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Verify application usability - intuitive interface</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1. Observe the layout of the application
+2. Attempt to use each feature without prior training</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>User can navigate and use all features without confusion</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Non-functional test</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="45" t="inlineStr">
         <is>
-          <t>Test Summary</t>
-        </is>
-      </c>
-      <c r="C24" s="67" t="n"/>
+          <t>TC019</t>
+        </is>
+      </c>
+      <c r="C24" s="67" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Verify application compatibility with different screen resolutions</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1. Run application on monitors with different resolutions
+2. Check if all UI elements are visible and properly sized</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Application displays correctly on all tested resolutions</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Non-functional test</t>
+        </is>
+      </c>
     </row>
     <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TC020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
       <c r="D25" s="45" t="inlineStr">
         <is>
-          <t>Test Case Count:</t>
+          <t>Verify application stability during extended use</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1. Run the application continuously for 8 hours
+2. Periodically perform operations with all features</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Application remains stable without crashes or memory issues</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Non-functional test</t>
         </is>
       </c>
     </row>

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10125,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -10163,7 +10163,11 @@
     <row r="2" ht="81.75" customHeight="1">
       <c r="B2" s="128" t="inlineStr">
         <is>
-          <t>Component: Multi-Functional Tool Application</t>
+          <t xml:space="preserve">Component: MultiFunctionalTool
+MFP: Any
+Build: 
+Date: 
+Target: </t>
         </is>
       </c>
       <c r="C2" s="86" t="n"/>
@@ -10178,11 +10182,7 @@
       <c r="B3" s="49" t="n"/>
       <c r="C3" s="49" t="n"/>
       <c r="D3" s="49" t="n"/>
-      <c r="E3" s="50" t="inlineStr">
-        <is>
-          <t>MFP: Any</t>
-        </is>
-      </c>
+      <c r="E3" s="50" t="n"/>
       <c r="F3" s="50" t="n"/>
       <c r="G3" s="49" t="n"/>
       <c r="H3" s="51" t="n"/>
@@ -10247,660 +10247,251 @@
       <c r="I5" s="53" t="n"/>
     </row>
     <row r="6" ht="99.75" customHeight="1">
-      <c r="B6" s="57" t="inlineStr">
+      <c r="B6" s="57" t="n"/>
+      <c r="C6" s="60" t="n"/>
+      <c r="D6" s="70" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="62" t="n"/>
+      <c r="G6" s="58" t="inlineStr">
         <is>
-          <t>TC001</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="C6" s="60" t="inlineStr">
+      <c r="H6" s="59" t="n"/>
+      <c r="I6" s="53" t="n"/>
+    </row>
+    <row r="7" ht="99.75" customHeight="1">
+      <c r="B7" s="57" t="n"/>
+      <c r="C7" s="60" t="n"/>
+      <c r="D7" s="70" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="62" t="n"/>
+      <c r="G7" s="58" t="inlineStr">
         <is>
-          <t>Application is installed on a desktop computer</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="D6" s="70" t="inlineStr">
+      <c r="H7" s="59" t="n"/>
+      <c r="I7" s="53" t="n"/>
+    </row>
+    <row r="8" ht="99.75" customHeight="1">
+      <c r="B8" s="57" t="n"/>
+      <c r="C8" s="60" t="n"/>
+      <c r="D8" s="70" t="n"/>
+      <c r="E8" s="61" t="n"/>
+      <c r="F8" s="62" t="n"/>
+      <c r="G8" s="58" t="inlineStr">
         <is>
-          <t>Verify application installation on desktop</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="E6" s="61" t="inlineStr">
+      <c r="H8" s="59" t="n"/>
+      <c r="I8" s="53" t="n"/>
+    </row>
+    <row r="9" ht="99.75" customHeight="1">
+      <c r="B9" s="57" t="n"/>
+      <c r="C9" s="60" t="n"/>
+      <c r="D9" s="70" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="62" t="n"/>
+      <c r="G9" s="58" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from specified tec-share location
-2. Extract contents to preferred location
-3. Double-click MultiFunctionalToolApplication</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="F6" s="62" t="inlineStr">
+      <c r="H9" s="59" t="n"/>
+      <c r="I9" s="53" t="n"/>
+    </row>
+    <row r="10" ht="99.75" customHeight="1">
+      <c r="B10" s="57" t="n"/>
+      <c r="C10" s="60" t="n"/>
+      <c r="D10" s="70" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="62" t="n"/>
+      <c r="G10" s="58" t="inlineStr">
         <is>
-          <t>Application launches successfully with all features accessible</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="G6" s="58" t="inlineStr"/>
-      <c r="H6" s="59" t="inlineStr"/>
-      <c r="I6" s="53" t="n"/>
-    </row>
-    <row r="7" ht="99.75" customHeight="1">
-      <c r="B7" s="57" t="inlineStr">
+      <c r="H10" s="59" t="n"/>
+      <c r="I10" s="53" t="n"/>
+    </row>
+    <row r="11" ht="99.75" customHeight="1">
+      <c r="B11" s="57" t="n"/>
+      <c r="C11" s="60" t="n"/>
+      <c r="D11" s="70" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="62" t="n"/>
+      <c r="G11" s="58" t="inlineStr">
         <is>
-          <t>TC002</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="C7" s="60" t="inlineStr">
+      <c r="H11" s="59" t="n"/>
+      <c r="I11" s="53" t="n"/>
+    </row>
+    <row r="12" ht="99.75" customHeight="1">
+      <c r="B12" s="57" t="n"/>
+      <c r="C12" s="60" t="n"/>
+      <c r="D12" s="70" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="62" t="n"/>
+      <c r="G12" s="58" t="inlineStr">
         <is>
-          <t>Application is installed on a laptop</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="D7" s="70" t="inlineStr">
+      <c r="H12" s="59" t="n"/>
+      <c r="I12" s="53" t="n"/>
+    </row>
+    <row r="13" ht="99.75" customHeight="1">
+      <c r="B13" s="57" t="n"/>
+      <c r="C13" s="60" t="n"/>
+      <c r="D13" s="70" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="62" t="n"/>
+      <c r="G13" s="58" t="inlineStr">
         <is>
-          <t>Verify application installation on laptop</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="E7" s="61" t="inlineStr">
+      <c r="H13" s="59" t="n"/>
+      <c r="I13" s="53" t="n"/>
+    </row>
+    <row r="14" ht="99.75" customHeight="1">
+      <c r="B14" s="57" t="n"/>
+      <c r="C14" s="60" t="n"/>
+      <c r="D14" s="70" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="58" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from specified tec-share location
-2. Extract contents to preferred location
-3. Double-click MultiFunctionalToolApplication</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="F7" s="62" t="inlineStr">
+      <c r="H14" s="59" t="n"/>
+      <c r="I14" s="53" t="n"/>
+    </row>
+    <row r="15" ht="99.75" customHeight="1">
+      <c r="B15" s="57" t="n"/>
+      <c r="C15" s="60" t="n"/>
+      <c r="D15" s="70" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="62" t="n"/>
+      <c r="G15" s="58" t="inlineStr">
         <is>
-          <t>Application launches successfully with all features accessible</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="G7" s="58" t="inlineStr"/>
-      <c r="H7" s="59" t="inlineStr"/>
-      <c r="I7" s="53" t="n"/>
-    </row>
-    <row r="8" ht="99.75" customHeight="1">
-      <c r="B8" s="57" t="inlineStr">
+      <c r="H15" s="59" t="n"/>
+      <c r="I15" s="53" t="n"/>
+    </row>
+    <row r="16" ht="99.75" customHeight="1">
+      <c r="B16" s="57" t="n"/>
+      <c r="C16" s="60" t="n"/>
+      <c r="D16" s="70" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="62" t="n"/>
+      <c r="G16" s="58" t="inlineStr">
         <is>
-          <t>TC003</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="C8" s="60" t="inlineStr">
+      <c r="H16" s="59" t="n"/>
+      <c r="I16" s="53" t="n"/>
+    </row>
+    <row r="17" ht="99.75" customHeight="1">
+      <c r="B17" s="57" t="n"/>
+      <c r="C17" s="60" t="n"/>
+      <c r="D17" s="70" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="62" t="n"/>
+      <c r="G17" s="58" t="inlineStr">
         <is>
-          <t>Application is installed and running</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="D8" s="70" t="inlineStr">
+      <c r="H17" s="59" t="n"/>
+      <c r="I17" s="53" t="n"/>
+    </row>
+    <row r="18" ht="99.75" customHeight="1">
+      <c r="B18" s="57" t="n"/>
+      <c r="C18" s="60" t="n"/>
+      <c r="D18" s="70" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="62" t="n"/>
+      <c r="G18" s="58" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture start functionality</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="E8" s="61" t="inlineStr">
+      <c r="H18" s="59" t="n"/>
+      <c r="I18" s="53" t="n"/>
+    </row>
+    <row r="19" ht="99.75" customHeight="1">
+      <c r="B19" s="57" t="n"/>
+      <c r="C19" s="60" t="n"/>
+      <c r="D19" s="70" t="n"/>
+      <c r="E19" s="61" t="n"/>
+      <c r="F19" s="62" t="n"/>
+      <c r="G19" s="58" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture section
-2. Click Start button</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="F8" s="62" t="inlineStr">
+      <c r="H19" s="59" t="n"/>
+      <c r="I19" s="53" t="n"/>
+    </row>
+    <row r="20" ht="99.75" customHeight="1">
+      <c r="B20" s="57" t="n"/>
+      <c r="C20" s="60" t="n"/>
+      <c r="D20" s="70" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="62" t="n"/>
+      <c r="G20" s="58" t="inlineStr">
         <is>
-          <t>Packet capture begins successfully</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="G8" s="58" t="inlineStr"/>
-      <c r="H8" s="59" t="inlineStr"/>
-      <c r="I8" s="53" t="n"/>
-    </row>
-    <row r="9" ht="99.75" customHeight="1">
-      <c r="B9" s="57" t="inlineStr">
+      <c r="H20" s="59" t="n"/>
+      <c r="I20" s="53" t="n"/>
+    </row>
+    <row r="21" ht="99.75" customHeight="1">
+      <c r="B21" s="57" t="n"/>
+      <c r="C21" s="60" t="n"/>
+      <c r="D21" s="70" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="62" t="n"/>
+      <c r="G21" s="58" t="inlineStr">
         <is>
-          <t>TC004</t>
+          <t>Not Executed</t>
         </is>
       </c>
-      <c r="C9" s="60" t="inlineStr">
-        <is>
-          <t>Network Packet Capture is running</t>
-        </is>
-      </c>
-      <c r="D9" s="70" t="inlineStr">
-        <is>
-          <t>Verify Network Packet Capture stop functionality</t>
-        </is>
-      </c>
-      <c r="E9" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Network Packet Capture section
-2. Click Stop button</t>
-        </is>
-      </c>
-      <c r="F9" s="62" t="inlineStr">
-        <is>
-          <t>1. Packet capture stops
-2. .pcap file is generated
-3. File is copied to MFP's Shared Folder
-4. Shared Folder opens automatically</t>
-        </is>
-      </c>
-      <c r="G9" s="58" t="inlineStr"/>
-      <c r="H9" s="59" t="inlineStr"/>
-      <c r="I9" s="53" t="n"/>
-    </row>
-    <row r="10" ht="99.75" customHeight="1">
-      <c r="B10" s="57" t="inlineStr">
-        <is>
-          <t>TC005</t>
-        </is>
-      </c>
-      <c r="C10" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D10" s="70" t="inlineStr">
-        <is>
-          <t>Verify Memory Leak Check functionality</t>
-        </is>
-      </c>
-      <c r="E10" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Memory Leak Check section
-2. Select a protocol
-3. Run the memory leak check</t>
-        </is>
-      </c>
-      <c r="F10" s="62" t="inlineStr">
-        <is>
-          <t>Memory Leak Comparison Table is displayed with accurate information</t>
-        </is>
-      </c>
-      <c r="G10" s="58" t="inlineStr"/>
-      <c r="H10" s="59" t="inlineStr"/>
-      <c r="I10" s="53" t="n"/>
-    </row>
-    <row r="11" ht="99.75" customHeight="1">
-      <c r="B11" s="57" t="inlineStr">
-        <is>
-          <t>TC006</t>
-        </is>
-      </c>
-      <c r="C11" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D11" s="70" t="inlineStr">
-        <is>
-          <t>Verify Debug Log Collection functionality</t>
-        </is>
-      </c>
-      <c r="E11" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Debug Log Collection section
-2. Click Run button</t>
-        </is>
-      </c>
-      <c r="F11" s="62" t="inlineStr">
-        <is>
-          <t>1. Script executes successfully
-2. Logs are collected
-3. Logs are copied to MFP's Shared Folder
-4. Shared Folder opens automatically</t>
-        </is>
-      </c>
-      <c r="G11" s="58" t="inlineStr"/>
-      <c r="H11" s="59" t="inlineStr"/>
-      <c r="I11" s="53" t="n"/>
-    </row>
-    <row r="12" ht="99.75" customHeight="1">
-      <c r="B12" s="57" t="inlineStr">
-        <is>
-          <t>TC007</t>
-        </is>
-      </c>
-      <c r="C12" s="60" t="inlineStr">
-        <is>
-          <t>Debug Log Collection has been run once with empty folder result</t>
-        </is>
-      </c>
-      <c r="D12" s="70" t="inlineStr">
-        <is>
-          <t>Verify Debug Log Collection retry functionality</t>
-        </is>
-      </c>
-      <c r="E12" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Debug Log Collection section
-2. Click Run button again</t>
-        </is>
-      </c>
-      <c r="F12" s="62" t="inlineStr">
-        <is>
-          <t>1. Script executes successfully
-2. Logs are collected
-3. Logs are copied to MFP's Shared Folder
-4. Shared Folder opens with logs visible</t>
-        </is>
-      </c>
-      <c r="G12" s="58" t="inlineStr"/>
-      <c r="H12" s="59" t="inlineStr"/>
-      <c r="I12" s="53" t="n"/>
-    </row>
-    <row r="13" ht="99.75" customHeight="1">
-      <c r="B13" s="57" t="inlineStr">
-        <is>
-          <t>TC008</t>
-        </is>
-      </c>
-      <c r="C13" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D13" s="70" t="inlineStr">
-        <is>
-          <t>Verify Diagnostic Code Details - ECC selection</t>
-        </is>
-      </c>
-      <c r="E13" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Diagnostic Code Details section
-2. Select ECC option
-3. Choose specific diagnostic code</t>
-        </is>
-      </c>
-      <c r="F13" s="62" t="inlineStr">
-        <is>
-          <t>Relevant job-specific details for ECC are displayed correctly</t>
-        </is>
-      </c>
-      <c r="G13" s="58" t="inlineStr"/>
-      <c r="H13" s="59" t="inlineStr"/>
-      <c r="I13" s="53" t="n"/>
-    </row>
-    <row r="14" ht="99.75" customHeight="1">
-      <c r="B14" s="57" t="inlineStr">
-        <is>
-          <t>TC009</t>
-        </is>
-      </c>
-      <c r="C14" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D14" s="70" t="inlineStr">
-        <is>
-          <t>Verify Diagnostic Code Details - Network Protocols selection</t>
-        </is>
-      </c>
-      <c r="E14" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Diagnostic Code Details section
-2. Select Network Protocols option
-3. Choose specific diagnostic code</t>
-        </is>
-      </c>
-      <c r="F14" s="62" t="inlineStr">
-        <is>
-          <t>Relevant job-specific details for Network Protocols are displayed correctly</t>
-        </is>
-      </c>
-      <c r="G14" s="58" t="inlineStr"/>
-      <c r="H14" s="59" t="inlineStr"/>
-      <c r="I14" s="53" t="n"/>
-    </row>
-    <row r="15" ht="99.75" customHeight="1">
-      <c r="B15" s="57" t="inlineStr">
-        <is>
-          <t>TC010</t>
-        </is>
-      </c>
-      <c r="C15" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D15" s="70" t="inlineStr">
-        <is>
-          <t>Verify Diagnostic Code Details - High Security Mode selection</t>
-        </is>
-      </c>
-      <c r="E15" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Diagnostic Code Details section
-2. Select High Security Mode option
-3. Choose specific diagnostic code</t>
-        </is>
-      </c>
-      <c r="F15" s="62" t="inlineStr">
-        <is>
-          <t>Relevant job-specific details for High Security Mode are displayed correctly</t>
-        </is>
-      </c>
-      <c r="G15" s="58" t="inlineStr"/>
-      <c r="H15" s="59" t="inlineStr"/>
-      <c r="I15" s="53" t="n"/>
-    </row>
-    <row r="16" ht="99.75" customHeight="1">
-      <c r="B16" s="57" t="inlineStr">
-        <is>
-          <t>TC011</t>
-        </is>
-      </c>
-      <c r="C16" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D16" s="70" t="inlineStr">
-        <is>
-          <t>Verify 08 Diagnostic Code Value - Get functionality</t>
-        </is>
-      </c>
-      <c r="E16" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section
-2. Select a diagnostic code
-3. Click Get button</t>
-        </is>
-      </c>
-      <c r="F16" s="62" t="inlineStr">
-        <is>
-          <t>Current value of the selected diagnostic code is displayed</t>
-        </is>
-      </c>
-      <c r="G16" s="58" t="inlineStr"/>
-      <c r="H16" s="59" t="inlineStr"/>
-      <c r="I16" s="53" t="n"/>
-    </row>
-    <row r="17" ht="99.75" customHeight="1">
-      <c r="B17" s="57" t="inlineStr">
-        <is>
-          <t>TC012</t>
-        </is>
-      </c>
-      <c r="C17" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D17" s="70" t="inlineStr">
-        <is>
-          <t>Verify 08 Diagnostic Code Value - Set functionality</t>
-        </is>
-      </c>
-      <c r="E17" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section
-2. Select a diagnostic code
-3. Enter a new value
-4. Click Set button</t>
-        </is>
-      </c>
-      <c r="F17" s="62" t="inlineStr">
-        <is>
-          <t>Diagnostic code value is updated successfully</t>
-        </is>
-      </c>
-      <c r="G17" s="58" t="inlineStr"/>
-      <c r="H17" s="59" t="inlineStr"/>
-      <c r="I17" s="53" t="n"/>
-    </row>
-    <row r="18" ht="99.75" customHeight="1">
-      <c r="B18" s="57" t="inlineStr">
-        <is>
-          <t>TC013</t>
-        </is>
-      </c>
-      <c r="C18" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D18" s="70" t="inlineStr">
-        <is>
-          <t>Verify Protocol Configuration - Get functionality</t>
-        </is>
-      </c>
-      <c r="E18" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Protocol Configuration section
-2. Select a protocol
-3. Click Get button</t>
-        </is>
-      </c>
-      <c r="F18" s="62" t="inlineStr">
-        <is>
-          <t>Current value of the selected protocol is displayed</t>
-        </is>
-      </c>
-      <c r="G18" s="58" t="inlineStr"/>
-      <c r="H18" s="59" t="inlineStr"/>
-      <c r="I18" s="53" t="n"/>
-    </row>
-    <row r="19" ht="99.75" customHeight="1">
-      <c r="B19" s="57" t="inlineStr">
-        <is>
-          <t>TC014</t>
-        </is>
-      </c>
-      <c r="C19" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D19" s="70" t="inlineStr">
-        <is>
-          <t>Verify Protocol Configuration - Set functionality placeholder</t>
-        </is>
-      </c>
-      <c r="E19" s="61" t="inlineStr">
-        <is>
-          <t>1. Navigate to Protocol Configuration section
-2. Select a protocol
-3. Attempt to set a value</t>
-        </is>
-      </c>
-      <c r="F19" s="62" t="inlineStr">
-        <is>
-          <t>System indicates that the Set protocol values operation is not yet implemented</t>
-        </is>
-      </c>
-      <c r="G19" s="58" t="inlineStr"/>
-      <c r="H19" s="59" t="inlineStr"/>
-      <c r="I19" s="53" t="n"/>
-    </row>
-    <row r="20" ht="99.75" customHeight="1">
-      <c r="B20" s="57" t="inlineStr">
-        <is>
-          <t>TC015</t>
-        </is>
-      </c>
-      <c r="C20" s="60" t="inlineStr">
-        <is>
-          <t>Application is running with multiple features</t>
-        </is>
-      </c>
-      <c r="D20" s="70" t="inlineStr">
-        <is>
-          <t>Verify simultaneous operation of multiple features</t>
-        </is>
-      </c>
-      <c r="E20" s="61" t="inlineStr">
-        <is>
-          <t>1. Start Network Packet Capture
-2. While capture is running, perform Memory Leak Check
-3. While both are running, check Diagnostic Code Details</t>
-        </is>
-      </c>
-      <c r="F20" s="62" t="inlineStr">
-        <is>
-          <t>All features operate correctly without interference</t>
-        </is>
-      </c>
-      <c r="G20" s="58" t="inlineStr"/>
-      <c r="H20" s="59" t="inlineStr"/>
-      <c r="I20" s="53" t="n"/>
-    </row>
-    <row r="21" ht="99.75" customHeight="1">
-      <c r="B21" s="57" t="inlineStr">
-        <is>
-          <t>TC016</t>
-        </is>
-      </c>
-      <c r="C21" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D21" s="70" t="inlineStr">
-        <is>
-          <t>Verify application performance - startup time</t>
-        </is>
-      </c>
-      <c r="E21" s="61" t="inlineStr">
-        <is>
-          <t>1. Close the application if running
-2. Time the startup of the application</t>
-        </is>
-      </c>
-      <c r="F21" s="62" t="inlineStr">
-        <is>
-          <t>Application starts in under 5 seconds</t>
-        </is>
-      </c>
-      <c r="G21" s="58" t="inlineStr"/>
-      <c r="H21" s="59" t="inlineStr">
-        <is>
-          <t>Non-functional test</t>
-        </is>
-      </c>
+      <c r="H21" s="59" t="n"/>
       <c r="I21" s="53" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="63" t="n"/>
-      <c r="B22" s="63" t="inlineStr">
-        <is>
-          <t>TC017</t>
-        </is>
-      </c>
-      <c r="C22" s="63" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D22" s="63" t="inlineStr">
-        <is>
-          <t>Verify application performance - response time</t>
-        </is>
-      </c>
-      <c r="E22" s="64" t="inlineStr">
-        <is>
-          <t>1. Click various buttons and features
-2. Measure response time</t>
-        </is>
-      </c>
-      <c r="F22" s="64" t="inlineStr">
-        <is>
-          <t>UI responds within 1 second to user interactions</t>
-        </is>
-      </c>
-      <c r="G22" s="63" t="inlineStr"/>
-      <c r="H22" s="63" t="inlineStr">
-        <is>
-          <t>Non-functional test</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TC018</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Verify application usability - intuitive interface</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1. Observe the layout of the application
-2. Attempt to use each feature without prior training</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>User can navigate and use all features without confusion</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Non-functional test</t>
-        </is>
-      </c>
+      <c r="B22" s="63" t="n"/>
+      <c r="C22" s="63" t="n"/>
+      <c r="D22" s="63" t="n"/>
+      <c r="E22" s="64" t="n"/>
+      <c r="F22" s="64" t="n"/>
+      <c r="G22" s="63" t="n"/>
+      <c r="H22" s="63" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="45" t="inlineStr">
         <is>
-          <t>TC019</t>
+          <t>Test Summary</t>
         </is>
       </c>
-      <c r="C24" s="67" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Verify application compatibility with different screen resolutions</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1. Run application on monitors with different resolutions
-2. Check if all UI elements are visible and properly sized</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Application displays correctly on all tested resolutions</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Non-functional test</t>
-        </is>
-      </c>
+      <c r="C24" s="67" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TC020</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Application is installed and running</t>
-        </is>
-      </c>
       <c r="D25" s="45" t="inlineStr">
         <is>
-          <t>Verify application stability during extended use</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1. Run the application continuously for 8 hours
-2. Periodically perform operations with all features</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Application remains stable without crashes or memory issues</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Non-functional test</t>
+          <t>Test Case Count:</t>
         </is>
       </c>
     </row>

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10125,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -10163,11 +10163,7 @@
     <row r="2" ht="81.75" customHeight="1">
       <c r="B2" s="128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Component: MultiFunctionalTool
-MFP: Any
-Build: 
-Date: 
-Target: </t>
+          <t>Component: Multi-Functional Tool Application</t>
         </is>
       </c>
       <c r="C2" s="86" t="n"/>
@@ -10247,297 +10243,793 @@
       <c r="I5" s="53" t="n"/>
     </row>
     <row r="6" ht="99.75" customHeight="1">
-      <c r="B6" s="57" t="n"/>
-      <c r="C6" s="60" t="n"/>
-      <c r="D6" s="70" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="62" t="n"/>
-      <c r="G6" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H6" s="59" t="n"/>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t>TC001</t>
+        </is>
+      </c>
+      <c r="C6" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed on a desktop computer</t>
+        </is>
+      </c>
+      <c r="D6" s="70" t="inlineStr">
+        <is>
+          <t>Verify application installation on desktop</t>
+        </is>
+      </c>
+      <c r="E6" s="61" t="inlineStr">
+        <is>
+          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from specified tec-share location
+2. Extract the contents
+3. Double-click on MultiFunctionalToolApplication</t>
+        </is>
+      </c>
+      <c r="F6" s="62" t="inlineStr">
+        <is>
+          <t>Application launches successfully</t>
+        </is>
+      </c>
+      <c r="G6" s="58" t="inlineStr"/>
+      <c r="H6" s="59" t="inlineStr"/>
       <c r="I6" s="53" t="n"/>
     </row>
     <row r="7" ht="99.75" customHeight="1">
-      <c r="B7" s="57" t="n"/>
-      <c r="C7" s="60" t="n"/>
-      <c r="D7" s="70" t="n"/>
-      <c r="E7" s="61" t="n"/>
-      <c r="F7" s="62" t="n"/>
-      <c r="G7" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H7" s="59" t="n"/>
+      <c r="B7" s="57" t="inlineStr">
+        <is>
+          <t>TC002</t>
+        </is>
+      </c>
+      <c r="C7" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed on a laptop</t>
+        </is>
+      </c>
+      <c r="D7" s="70" t="inlineStr">
+        <is>
+          <t>Verify application installation on laptop</t>
+        </is>
+      </c>
+      <c r="E7" s="61" t="inlineStr">
+        <is>
+          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from specified tec-share location
+2. Extract the contents
+3. Double-click on MultiFunctionalToolApplication</t>
+        </is>
+      </c>
+      <c r="F7" s="62" t="inlineStr">
+        <is>
+          <t>Application launches successfully</t>
+        </is>
+      </c>
+      <c r="G7" s="58" t="inlineStr"/>
+      <c r="H7" s="59" t="inlineStr"/>
       <c r="I7" s="53" t="n"/>
     </row>
     <row r="8" ht="99.75" customHeight="1">
-      <c r="B8" s="57" t="n"/>
-      <c r="C8" s="60" t="n"/>
-      <c r="D8" s="70" t="n"/>
-      <c r="E8" s="61" t="n"/>
-      <c r="F8" s="62" t="n"/>
-      <c r="G8" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H8" s="59" t="n"/>
+      <c r="B8" s="57" t="inlineStr">
+        <is>
+          <t>TC003</t>
+        </is>
+      </c>
+      <c r="C8" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D8" s="70" t="inlineStr">
+        <is>
+          <t>Verify Network Packet Capture start functionality</t>
+        </is>
+      </c>
+      <c r="E8" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Network Packet Capture section
+2. Click on Start button</t>
+        </is>
+      </c>
+      <c r="F8" s="62" t="inlineStr">
+        <is>
+          <t>Packet capture begins successfully</t>
+        </is>
+      </c>
+      <c r="G8" s="58" t="inlineStr"/>
+      <c r="H8" s="59" t="inlineStr"/>
       <c r="I8" s="53" t="n"/>
     </row>
     <row r="9" ht="99.75" customHeight="1">
-      <c r="B9" s="57" t="n"/>
-      <c r="C9" s="60" t="n"/>
-      <c r="D9" s="70" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="62" t="n"/>
-      <c r="G9" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H9" s="59" t="n"/>
+      <c r="B9" s="57" t="inlineStr">
+        <is>
+          <t>TC004</t>
+        </is>
+      </c>
+      <c r="C9" s="60" t="inlineStr">
+        <is>
+          <t>Network Packet Capture is running</t>
+        </is>
+      </c>
+      <c r="D9" s="70" t="inlineStr">
+        <is>
+          <t>Verify Network Packet Capture stop functionality</t>
+        </is>
+      </c>
+      <c r="E9" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Network Packet Capture section
+2. Click on Stop button</t>
+        </is>
+      </c>
+      <c r="F9" s="62" t="inlineStr">
+        <is>
+          <t>1. Packet capture stops
+2. .pcap file is generated
+3. File is copied to MFP's Shared Folder
+4. Shared Folder opens automatically</t>
+        </is>
+      </c>
+      <c r="G9" s="58" t="inlineStr"/>
+      <c r="H9" s="59" t="inlineStr"/>
       <c r="I9" s="53" t="n"/>
     </row>
     <row r="10" ht="99.75" customHeight="1">
-      <c r="B10" s="57" t="n"/>
-      <c r="C10" s="60" t="n"/>
-      <c r="D10" s="70" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="62" t="n"/>
-      <c r="G10" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H10" s="59" t="n"/>
+      <c r="B10" s="57" t="inlineStr">
+        <is>
+          <t>TC005</t>
+        </is>
+      </c>
+      <c r="C10" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D10" s="70" t="inlineStr">
+        <is>
+          <t>Verify Memory Leak Check functionality</t>
+        </is>
+      </c>
+      <c r="E10" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Memory Leak Check section
+2. Select a protocol
+3. Run the memory leak check</t>
+        </is>
+      </c>
+      <c r="F10" s="62" t="inlineStr">
+        <is>
+          <t>Memory Leak Comparison Table is displayed with accurate information</t>
+        </is>
+      </c>
+      <c r="G10" s="58" t="inlineStr"/>
+      <c r="H10" s="59" t="inlineStr"/>
       <c r="I10" s="53" t="n"/>
     </row>
     <row r="11" ht="99.75" customHeight="1">
-      <c r="B11" s="57" t="n"/>
-      <c r="C11" s="60" t="n"/>
-      <c r="D11" s="70" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="62" t="n"/>
-      <c r="G11" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H11" s="59" t="n"/>
+      <c r="B11" s="57" t="inlineStr">
+        <is>
+          <t>TC006</t>
+        </is>
+      </c>
+      <c r="C11" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D11" s="70" t="inlineStr">
+        <is>
+          <t>Verify Debug Log Collection functionality</t>
+        </is>
+      </c>
+      <c r="E11" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Debug Log Collection section
+2. Click on Run button</t>
+        </is>
+      </c>
+      <c r="F11" s="62" t="inlineStr">
+        <is>
+          <t>1. Script executes successfully
+2. Logs are collected
+3. Logs are copied to MFP's Shared Folder
+4. Shared Folder opens automatically</t>
+        </is>
+      </c>
+      <c r="G11" s="58" t="inlineStr"/>
+      <c r="H11" s="59" t="inlineStr"/>
       <c r="I11" s="53" t="n"/>
     </row>
     <row r="12" ht="99.75" customHeight="1">
-      <c r="B12" s="57" t="n"/>
-      <c r="C12" s="60" t="n"/>
-      <c r="D12" s="70" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="62" t="n"/>
-      <c r="G12" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H12" s="59" t="n"/>
+      <c r="B12" s="57" t="inlineStr">
+        <is>
+          <t>TC007</t>
+        </is>
+      </c>
+      <c r="C12" s="60" t="inlineStr">
+        <is>
+          <t>Debug Log Collection has been run once with empty folder</t>
+        </is>
+      </c>
+      <c r="D12" s="70" t="inlineStr">
+        <is>
+          <t>Verify Debug Log Collection retry functionality</t>
+        </is>
+      </c>
+      <c r="E12" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Debug Log Collection section
+2. Click on Run button again</t>
+        </is>
+      </c>
+      <c r="F12" s="62" t="inlineStr">
+        <is>
+          <t>Logs are successfully collected and displayed in the Shared Folder</t>
+        </is>
+      </c>
+      <c r="G12" s="58" t="inlineStr"/>
+      <c r="H12" s="59" t="inlineStr"/>
       <c r="I12" s="53" t="n"/>
     </row>
     <row r="13" ht="99.75" customHeight="1">
-      <c r="B13" s="57" t="n"/>
-      <c r="C13" s="60" t="n"/>
-      <c r="D13" s="70" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="62" t="n"/>
-      <c r="G13" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H13" s="59" t="n"/>
+      <c r="B13" s="57" t="inlineStr">
+        <is>
+          <t>TC008</t>
+        </is>
+      </c>
+      <c r="C13" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D13" s="70" t="inlineStr">
+        <is>
+          <t>Verify Diagnostic Code Details for ECC</t>
+        </is>
+      </c>
+      <c r="E13" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details section
+2. Select ECC option</t>
+        </is>
+      </c>
+      <c r="F13" s="62" t="inlineStr">
+        <is>
+          <t>Relevant ECC diagnostic details are displayed</t>
+        </is>
+      </c>
+      <c r="G13" s="58" t="inlineStr"/>
+      <c r="H13" s="59" t="inlineStr"/>
       <c r="I13" s="53" t="n"/>
     </row>
     <row r="14" ht="99.75" customHeight="1">
-      <c r="B14" s="57" t="n"/>
-      <c r="C14" s="60" t="n"/>
-      <c r="D14" s="70" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="62" t="n"/>
-      <c r="G14" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H14" s="59" t="n"/>
+      <c r="B14" s="57" t="inlineStr">
+        <is>
+          <t>TC009</t>
+        </is>
+      </c>
+      <c r="C14" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D14" s="70" t="inlineStr">
+        <is>
+          <t>Verify Diagnostic Code Details for Network Protocols</t>
+        </is>
+      </c>
+      <c r="E14" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details section
+2. Select Network Protocols option</t>
+        </is>
+      </c>
+      <c r="F14" s="62" t="inlineStr">
+        <is>
+          <t>Relevant Network Protocols diagnostic details are displayed</t>
+        </is>
+      </c>
+      <c r="G14" s="58" t="inlineStr"/>
+      <c r="H14" s="59" t="inlineStr"/>
       <c r="I14" s="53" t="n"/>
     </row>
     <row r="15" ht="99.75" customHeight="1">
-      <c r="B15" s="57" t="n"/>
-      <c r="C15" s="60" t="n"/>
-      <c r="D15" s="70" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="62" t="n"/>
-      <c r="G15" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H15" s="59" t="n"/>
+      <c r="B15" s="57" t="inlineStr">
+        <is>
+          <t>TC010</t>
+        </is>
+      </c>
+      <c r="C15" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D15" s="70" t="inlineStr">
+        <is>
+          <t>Verify Diagnostic Code Details for High Security Mode</t>
+        </is>
+      </c>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details section
+2. Select High Security Mode option</t>
+        </is>
+      </c>
+      <c r="F15" s="62" t="inlineStr">
+        <is>
+          <t>Relevant High Security Mode diagnostic details are displayed</t>
+        </is>
+      </c>
+      <c r="G15" s="58" t="inlineStr"/>
+      <c r="H15" s="59" t="inlineStr"/>
       <c r="I15" s="53" t="n"/>
     </row>
     <row r="16" ht="99.75" customHeight="1">
-      <c r="B16" s="57" t="n"/>
-      <c r="C16" s="60" t="n"/>
-      <c r="D16" s="70" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="62" t="n"/>
-      <c r="G16" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H16" s="59" t="n"/>
+      <c r="B16" s="57" t="inlineStr">
+        <is>
+          <t>TC011</t>
+        </is>
+      </c>
+      <c r="C16" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D16" s="70" t="inlineStr">
+        <is>
+          <t>Verify Diagnostic Code Details for commonly used codes</t>
+        </is>
+      </c>
+      <c r="E16" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Diagnostic Code Details section
+2. Select a commonly used diagnostic code</t>
+        </is>
+      </c>
+      <c r="F16" s="62" t="inlineStr">
+        <is>
+          <t>Relevant job-specific details are displayed</t>
+        </is>
+      </c>
+      <c r="G16" s="58" t="inlineStr"/>
+      <c r="H16" s="59" t="inlineStr"/>
       <c r="I16" s="53" t="n"/>
     </row>
     <row r="17" ht="99.75" customHeight="1">
-      <c r="B17" s="57" t="n"/>
-      <c r="C17" s="60" t="n"/>
-      <c r="D17" s="70" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="62" t="n"/>
-      <c r="G17" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H17" s="59" t="n"/>
+      <c r="B17" s="57" t="inlineStr">
+        <is>
+          <t>TC012</t>
+        </is>
+      </c>
+      <c r="C17" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D17" s="70" t="inlineStr">
+        <is>
+          <t>Verify 08 Diagnostic Code Value Get functionality</t>
+        </is>
+      </c>
+      <c r="E17" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to 08 Diagnostic Code Value section
+2. Select a diagnostic code
+3. Click on Get button</t>
+        </is>
+      </c>
+      <c r="F17" s="62" t="inlineStr">
+        <is>
+          <t>Current value of the selected diagnostic code is displayed</t>
+        </is>
+      </c>
+      <c r="G17" s="58" t="inlineStr"/>
+      <c r="H17" s="59" t="inlineStr"/>
       <c r="I17" s="53" t="n"/>
     </row>
     <row r="18" ht="99.75" customHeight="1">
-      <c r="B18" s="57" t="n"/>
-      <c r="C18" s="60" t="n"/>
-      <c r="D18" s="70" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="62" t="n"/>
-      <c r="G18" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H18" s="59" t="n"/>
+      <c r="B18" s="57" t="inlineStr">
+        <is>
+          <t>TC013</t>
+        </is>
+      </c>
+      <c r="C18" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D18" s="70" t="inlineStr">
+        <is>
+          <t>Verify 08 Diagnostic Code Value Set functionality</t>
+        </is>
+      </c>
+      <c r="E18" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to 08 Diagnostic Code Value section
+2. Select a diagnostic code
+3. Enter a new value
+4. Click on Set button</t>
+        </is>
+      </c>
+      <c r="F18" s="62" t="inlineStr">
+        <is>
+          <t>Diagnostic code value is updated successfully</t>
+        </is>
+      </c>
+      <c r="G18" s="58" t="inlineStr"/>
+      <c r="H18" s="59" t="inlineStr"/>
       <c r="I18" s="53" t="n"/>
     </row>
     <row r="19" ht="99.75" customHeight="1">
-      <c r="B19" s="57" t="n"/>
-      <c r="C19" s="60" t="n"/>
-      <c r="D19" s="70" t="n"/>
-      <c r="E19" s="61" t="n"/>
-      <c r="F19" s="62" t="n"/>
-      <c r="G19" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H19" s="59" t="n"/>
+      <c r="B19" s="57" t="inlineStr">
+        <is>
+          <t>TC014</t>
+        </is>
+      </c>
+      <c r="C19" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D19" s="70" t="inlineStr">
+        <is>
+          <t>Verify Protocol Configuration Get functionality</t>
+        </is>
+      </c>
+      <c r="E19" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Protocol Configuration section
+2. Open Protocol Selection Window
+3. Select a protocol
+4. Click on Get button</t>
+        </is>
+      </c>
+      <c r="F19" s="62" t="inlineStr">
+        <is>
+          <t>Current protocol value is displayed</t>
+        </is>
+      </c>
+      <c r="G19" s="58" t="inlineStr"/>
+      <c r="H19" s="59" t="inlineStr"/>
       <c r="I19" s="53" t="n"/>
     </row>
     <row r="20" ht="99.75" customHeight="1">
-      <c r="B20" s="57" t="n"/>
-      <c r="C20" s="60" t="n"/>
-      <c r="D20" s="70" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="62" t="n"/>
-      <c r="G20" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H20" s="59" t="n"/>
+      <c r="B20" s="57" t="inlineStr">
+        <is>
+          <t>TC015</t>
+        </is>
+      </c>
+      <c r="C20" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D20" s="70" t="inlineStr">
+        <is>
+          <t>Verify Protocol Configuration Set functionality</t>
+        </is>
+      </c>
+      <c r="E20" s="61" t="inlineStr">
+        <is>
+          <t>1. Navigate to Protocol Configuration section
+2. Open Protocol Selection Window
+3. Select a protocol
+4. Enter a new value
+5. Click on Set button</t>
+        </is>
+      </c>
+      <c r="F20" s="62" t="inlineStr">
+        <is>
+          <t>Message indicating "Set protocol values operation still needs to be implemented" is displayed</t>
+        </is>
+      </c>
+      <c r="G20" s="58" t="inlineStr"/>
+      <c r="H20" s="59" t="inlineStr">
+        <is>
+          <t>Feature not yet implemented</t>
+        </is>
+      </c>
       <c r="I20" s="53" t="n"/>
     </row>
     <row r="21" ht="99.75" customHeight="1">
-      <c r="B21" s="57" t="n"/>
-      <c r="C21" s="60" t="n"/>
-      <c r="D21" s="70" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="62" t="n"/>
-      <c r="G21" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H21" s="59" t="n"/>
+      <c r="B21" s="57" t="inlineStr">
+        <is>
+          <t>TC016</t>
+        </is>
+      </c>
+      <c r="C21" s="60" t="inlineStr">
+        <is>
+          <t>Application is running with multiple features active</t>
+        </is>
+      </c>
+      <c r="D21" s="70" t="inlineStr">
+        <is>
+          <t>Verify application performance under load</t>
+        </is>
+      </c>
+      <c r="E21" s="61" t="inlineStr">
+        <is>
+          <t>1. Start Network Packet Capture
+2. Run Memory Leak Check
+3. Collect Debug Logs simultaneously</t>
+        </is>
+      </c>
+      <c r="F21" s="62" t="inlineStr">
+        <is>
+          <t>All operations complete successfully without significant delay or application crash</t>
+        </is>
+      </c>
+      <c r="G21" s="58" t="inlineStr"/>
+      <c r="H21" s="59" t="inlineStr"/>
       <c r="I21" s="53" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="63" t="n"/>
-      <c r="B22" s="63" t="n"/>
-      <c r="C22" s="63" t="n"/>
-      <c r="D22" s="63" t="n"/>
-      <c r="E22" s="64" t="n"/>
-      <c r="F22" s="64" t="n"/>
-      <c r="G22" s="63" t="n"/>
-      <c r="H22" s="63" t="n"/>
+      <c r="B22" s="63" t="inlineStr">
+        <is>
+          <t>TC017</t>
+        </is>
+      </c>
+      <c r="C22" s="63" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D22" s="63" t="inlineStr">
+        <is>
+          <t>Verify GUI responsiveness</t>
+        </is>
+      </c>
+      <c r="E22" s="64" t="inlineStr">
+        <is>
+          <t>1. Navigate through all sections of the application
+2. Click on various buttons and options</t>
+        </is>
+      </c>
+      <c r="F22" s="64" t="inlineStr">
+        <is>
+          <t>GUI responds promptly to all user interactions with no visible lag</t>
+        </is>
+      </c>
+      <c r="G22" s="63" t="inlineStr"/>
+      <c r="H22" s="63" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TC018</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Application is installed on a system with minimum specifications</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Verify application performance on low-end systems</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1. Launch the application
+2. Test all major functionalities</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Application runs without significant performance issues</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="B24" s="45" t="inlineStr">
         <is>
-          <t>Test Summary</t>
-        </is>
-      </c>
-      <c r="C24" s="67" t="n"/>
+          <t>TC019</t>
+        </is>
+      </c>
+      <c r="C24" s="67" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Verify error handling for network disconnection</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1. Start a network-dependent operation
+2. Disconnect from network during operation</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Application displays appropriate error message and handles the disconnection gracefully</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TC020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
       <c r="D25" s="45" t="inlineStr">
         <is>
-          <t>Test Case Count:</t>
-        </is>
-      </c>
+          <t>Verify compatibility with different Linux systems</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1. Install application on different Linux distributions
+2. Test all major functionalities</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Application works consistently across different Linux environments</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TC021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
       <c r="D26" s="46" t="inlineStr">
         <is>
-          <t>Total Test Cases</t>
-        </is>
-      </c>
-      <c r="E26" s="71">
-        <f>COUNTA(B6:B6)</f>
-        <v/>
-      </c>
+          <t>Verify usability for first-time users</t>
+        </is>
+      </c>
+      <c r="E26" s="71" t="inlineStr">
+        <is>
+          <t>1. Have a first-time user navigate through the application
+2. Ask them to perform basic tasks without instructions</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>User can successfully navigate and perform basic tasks with minimal confusion</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TC022</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
       <c r="D27" s="65" t="inlineStr">
         <is>
-          <t>Total Test Case Passed</t>
-        </is>
-      </c>
-      <c r="E27" s="71">
-        <f>COUNTIF(G6:G6,"PASS")</f>
-        <v/>
-      </c>
+          <t>Verify application behavior during long operations</t>
+        </is>
+      </c>
+      <c r="E27" s="71" t="inlineStr">
+        <is>
+          <t>1. Start a time-consuming operation (e.g., extensive packet capture)
+2. Monitor application behavior</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Application remains responsive and provides progress indication</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TC023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
       <c r="D28" s="46" t="inlineStr">
         <is>
-          <t>Total Test Case Failed</t>
-        </is>
-      </c>
-      <c r="E28" s="71">
-        <f>COUNTIF(G6:G6,"FAIL")</f>
-        <v/>
-      </c>
+          <t>Verify data integrity of collected logs</t>
+        </is>
+      </c>
+      <c r="E28" s="71" t="inlineStr">
+        <is>
+          <t>1. Collect debug logs
+2. Verify the content and format of collected logs</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Logs are complete, properly formatted, and contain all required information</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TC024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
       <c r="D29" s="68" t="inlineStr">
         <is>
-          <t>Total Test Case Not  Executed</t>
-        </is>
-      </c>
-      <c r="E29" s="71">
-        <f>COUNTIF(G6:G6,"Not Executed")</f>
-        <v/>
-      </c>
+          <t>Verify memory usage during extended operation</t>
+        </is>
+      </c>
+      <c r="E29" s="71" t="inlineStr">
+        <is>
+          <t>1. Run the application for an extended period (8+ hours)
+2. Monitor memory usage</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Application does not exhibit memory leaks or excessive memory consumption</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TC025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Verify application recovery after crash</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1. Force the application to crash
+2. Restart the application</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Application restarts properly and recovers previous state if applicable</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="D31" s="45" t="n"/>

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10125,10 +10125,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD101"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="7.81640625" defaultRowHeight="13" zeroHeight="1"/>
@@ -10163,11 +10163,7 @@
     <row r="2" ht="81.75" customHeight="1">
       <c r="B2" s="128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Component: MultiFunctionalTool
-MFP: Any
-Build: 
-Date: 
-Target: </t>
+          <t>Component: Multi-Functional Tool Application</t>
         </is>
       </c>
       <c r="C2" s="86" t="n"/>
@@ -10249,27 +10245,34 @@
     <row r="6" ht="99.75" customHeight="1">
       <c r="B6" s="57" t="inlineStr">
         <is>
-          <t>TC_F_001</t>
+          <t>TC001</t>
         </is>
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>Application is installed and launched</t>
+          <t>Application is installed on desktop</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Verify application launches successfully</t>
+          <t>Network Packet Capture functionality</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to the appropriate zip file location&lt;br&gt;2. Extract the contents&lt;br&gt;3. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Launch the application
+2. Navigate to Network Packet Capture section
+3. Click Start button
+4. Perform network operations
+5. Click Stop button</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>The application should launch successfully with all menu options visible</t>
+          <t>1. Packet capture should start
+2. A .pcap file should be generated
+3. File should be copied to MFP's Shared Folder
+4. Shared folder should open automatically</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10279,27 +10282,34 @@
     <row r="7" ht="99.75" customHeight="1">
       <c r="B7" s="57" t="inlineStr">
         <is>
-          <t>TC_F_002</t>
+          <t>TC002</t>
         </is>
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>Application is installed on laptop</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Verify all main features are accessible from the interface</t>
+          <t>Network Packet Capture functionality</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Observe the main interface&lt;br&gt;2. Check for Network Packet Capture&lt;br&gt;3. Check for Memory Leak Check&lt;br&gt;4. Check for Debug Log Collection&lt;br&gt;5. Check for Diagnostic Code Details&lt;br&gt;6. Check for 08 Diagnostic Code Value Access&lt;br&gt;7. Check for Protocol Configuration</t>
+          <t>1. Launch the application
+2. Navigate to Network Packet Capture section
+3. Click Start button
+4. Perform network operations
+5. Click Stop button</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>All six main features should be visible and accessible from the interface</t>
+          <t>1. Packet capture should start
+2. A .pcap file should be generated
+3. File should be copied to MFP's Shared Folder
+4. Shared folder should open automatically</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10309,27 +10319,30 @@
     <row r="8" ht="99.75" customHeight="1">
       <c r="B8" s="57" t="inlineStr">
         <is>
-          <t>TC_F_003</t>
+          <t>TC003</t>
         </is>
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture - Start function</t>
+          <t>Memory Leak Check functionality</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture feature&lt;br&gt;2. Click on Start button</t>
+          <t>1. Launch the application
+2. Navigate to Memory Leak Check section
+3. Select a protocol
+4. View the Memory Leak Comparison Table</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Packet capture should begin with visual indication that capture is in progress</t>
+          <t>Memory Leak Comparison Table should display protocol-specific information to determine if a memory leak has occurred</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10339,27 +10352,32 @@
     <row r="9" ht="99.75" customHeight="1">
       <c r="B9" s="57" t="inlineStr">
         <is>
-          <t>TC_F_004</t>
+          <t>TC004</t>
         </is>
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>Network Packet Capture is in progress</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture - Stop function</t>
+          <t>Debug Log Collection functionality</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. With packet capture in progress&lt;br&gt;2. Click on Stop button</t>
+          <t>1. Launch the application
+2. Navigate to Debug Log Collection section
+3. Click Run button</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>1. Packet capture should stop&lt;br&gt;2. A .pcap file should be generated&lt;br&gt;3. The file should be copied to MFP's Shared Folder&lt;br&gt;4. The shared folder should open automatically</t>
+          <t>1. Script should execute
+2. Logs should be collected
+3. Logs should be copied to MFP's Shared Folder
+4. Shared folder should open automatically</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10369,27 +10387,30 @@
     <row r="10" ht="99.75" customHeight="1">
       <c r="B10" s="57" t="inlineStr">
         <is>
-          <t>TC_F_005</t>
+          <t>TC005</t>
         </is>
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify Memory Leak Check functionality</t>
+          <t>Debug Log Collection retry</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Memory Leak Check feature&lt;br&gt;2. Select a protocol from the available options&lt;br&gt;3. Initiate the memory leak check</t>
+          <t>1. Launch the application
+2. Navigate to Debug Log Collection section
+3. Click Run button
+4. If folder is empty, click Run button again</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>A Memory Leak Comparison Table should be displayed showing whether a memory leak has occurred</t>
+          <t>Logs should be successfully collected and visible in the shared folder after second attempt</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10399,27 +10420,29 @@
     <row r="11" ht="99.75" customHeight="1">
       <c r="B11" s="57" t="inlineStr">
         <is>
-          <t>TC_F_006</t>
+          <t>TC006</t>
         </is>
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify Debug Log Collection functionality</t>
+          <t>Diagnostic Code Details - ECC</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection feature&lt;br&gt;2. Click the Run button</t>
+          <t>1. Launch the application
+2. Navigate to Diagnostic Code Details section
+3. Select ECC option</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>1. Script execution should begin&lt;br&gt;2. Logs should be collected&lt;br&gt;3. Logs should be copied to MFP's Shared Folder&lt;br&gt;4. The shared folder should open automatically</t>
+          <t>Relevant job-specific details for ECC should be displayed</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10429,27 +10452,29 @@
     <row r="12" ht="99.75" customHeight="1">
       <c r="B12" s="57" t="inlineStr">
         <is>
-          <t>TC_F_007</t>
+          <t>TC007</t>
         </is>
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>Debug Log Collection folder is empty on first attempt</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify Debug Log Collection retry functionality</t>
+          <t>Diagnostic Code Details - Network Protocols</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection feature&lt;br&gt;2. Click the Run button&lt;br&gt;3. Observe that the folder is empty&lt;br&gt;4. Run the operation again</t>
+          <t>1. Launch the application
+2. Navigate to Diagnostic Code Details section
+3. Select Network Protocols option</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>After the second attempt, debug logs should appear in the shared folder</t>
+          <t>Relevant job-specific details for Network Protocols should be displayed</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10459,27 +10484,29 @@
     <row r="13" ht="99.75" customHeight="1">
       <c r="B13" s="57" t="inlineStr">
         <is>
-          <t>TC_F_008</t>
+          <t>TC008</t>
         </is>
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - ECC selection</t>
+          <t>Diagnostic Code Details - High Security Mode</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select ECC option&lt;br&gt;3. Choose a specific diagnostic code</t>
+          <t>1. Launch the application
+2. Navigate to Diagnostic Code Details section
+3. Select High Security Mode option</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for the selected ECC diagnostic code should be displayed</t>
+          <t>Relevant job-specific details for High Security Mode should be displayed</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10489,27 +10516,29 @@
     <row r="14" ht="99.75" customHeight="1">
       <c r="B14" s="57" t="inlineStr">
         <is>
-          <t>TC_F_009</t>
+          <t>TC009</t>
         </is>
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - Network Protocols selection</t>
+          <t>Diagnostic Code Details - Common codes</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select Network Protocols option&lt;br&gt;3. Choose a specific diagnostic code</t>
+          <t>1. Launch the application
+2. Navigate to Diagnostic Code Details section
+3. Select commonly used diagnostic codes</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for the selected Network Protocols diagnostic code should be displayed</t>
+          <t>Relevant job-specific details for selected diagnostic codes should be displayed</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10519,27 +10548,30 @@
     <row r="15" ht="99.75" customHeight="1">
       <c r="B15" s="57" t="inlineStr">
         <is>
-          <t>TC_F_010</t>
+          <t>TC010</t>
         </is>
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - High Security Mode selection</t>
+          <t>08 Diagnostic Code Value - Get</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select High Security Mode option&lt;br&gt;3. Choose a specific diagnostic code</t>
+          <t>1. Launch the application
+2. Navigate to 08 Diagnostic Code Value section
+3. Select a diagnostic code
+4. Click Get button</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for the selected High Security Mode diagnostic code should be displayed</t>
+          <t>Current value of the selected 08 diagnostic code should be displayed</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10549,27 +10581,31 @@
     <row r="16" ht="99.75" customHeight="1">
       <c r="B16" s="57" t="inlineStr">
         <is>
-          <t>TC_F_011</t>
+          <t>TC011</t>
         </is>
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details - Common Codes selection</t>
+          <t>08 Diagnostic Code Value - Set</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details feature&lt;br&gt;2. Select Common Codes option&lt;br&gt;3. Choose a specific diagnostic code</t>
+          <t>1. Launch the application
+2. Navigate to 08 Diagnostic Code Value section
+3. Select a diagnostic code
+4. Enter a new value
+5. Click Set button</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for the selected common diagnostic code should be displayed</t>
+          <t>The 08 diagnostic code value should be updated to the new value</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10579,27 +10615,31 @@
     <row r="17" ht="99.75" customHeight="1">
       <c r="B17" s="57" t="inlineStr">
         <is>
-          <t>TC_F_012</t>
+          <t>TC012</t>
         </is>
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value - Get functionality</t>
+          <t>Protocol Configuration - Get</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value Access feature&lt;br&gt;2. Select a specific diagnostic code&lt;br&gt;3. Click on Get button</t>
+          <t>1. Launch the application
+2. Navigate to Protocol Configuration section
+3. Open Protocol Selection Window
+4. Select a protocol
+5. Click Get button</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>The current value of the selected 08 diagnostic code should be displayed</t>
+          <t>Current value of the selected protocol should be displayed</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10609,27 +10649,32 @@
     <row r="18" ht="99.75" customHeight="1">
       <c r="B18" s="57" t="inlineStr">
         <is>
-          <t>TC_F_013</t>
+          <t>TC013</t>
         </is>
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value - Set functionality</t>
+          <t>Protocol Configuration - Set</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value Access feature&lt;br&gt;2. Select a specific diagnostic code&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
+          <t>1. Launch the application
+2. Navigate to Protocol Configuration section
+3. Open Protocol Selection Window
+4. Select a protocol
+5. Enter a new value
+6. Click Set button</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>The selected 08 diagnostic code should be updated with the new value</t>
+          <t>Message indicating that set protocol values operation is not yet implemented should be displayed</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10639,27 +10684,29 @@
     <row r="19" ht="99.75" customHeight="1">
       <c r="B19" s="57" t="inlineStr">
         <is>
-          <t>TC_F_014</t>
+          <t>TC014</t>
         </is>
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>Desktop environment</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration - Get functionality</t>
+          <t>Installation on desktop</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration feature&lt;br&gt;2. Select a protocol from the Protocol Selection Window&lt;br&gt;3. Click on Get button</t>
+          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\
+2. Extract contents
+3. Double-click MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>The current value of the selected protocol should be displayed</t>
+          <t>Application should launch successfully on desktop environment</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10669,27 +10716,29 @@
     <row r="20" ht="99.75" customHeight="1">
       <c r="B20" s="57" t="inlineStr">
         <is>
-          <t>TC_F_015</t>
+          <t>TC015</t>
         </is>
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>Laptop environment</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration - Set functionality (pending implementation)</t>
+          <t>Installation on laptop</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration feature&lt;br&gt;2. Select a protocol from the Protocol Selection Window&lt;br&gt;3. Enter a new value&lt;br&gt;4. Click on Set button</t>
+          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\
+2. Extract contents
+3. Double-click MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>A message should indicate that this feature is pending implementation</t>
+          <t>Application should launch successfully on laptop environment</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10699,1257 +10748,310 @@
     <row r="21" ht="99.75" customHeight="1">
       <c r="B21" s="57" t="inlineStr">
         <is>
-          <t>TC_F_016</t>
+          <t>TC016</t>
         </is>
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on a desktop</t>
+          <t>Application is installed</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify desktop compatibility</t>
+          <t>Performance - Application launch time</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Install the application using MultiFunctionalTool_For_Desktop.zip&lt;br&gt;2. Launch the application&lt;br&gt;3. Test each main feature</t>
+          <t>1. Prepare to measure time
+2. Launch the application
+3. Record the time taken</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>All features should function correctly on a desktop environment</t>
+          <t>Application should launch within 5 seconds</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
       <c r="H21" s="59" t="inlineStr"/>
       <c r="I21" s="53" t="n"/>
     </row>
-    <row r="22" ht="99.75" customHeight="1">
-      <c r="B22" s="57" t="inlineStr">
-        <is>
-          <t>TC_F_017</t>
-        </is>
-      </c>
-      <c r="C22" s="60" t="inlineStr">
-        <is>
-          <t>Application is installed on a laptop</t>
-        </is>
-      </c>
-      <c r="D22" s="70" t="inlineStr">
-        <is>
-          <t>Verify laptop compatibility</t>
-        </is>
-      </c>
-      <c r="E22" s="61" t="inlineStr">
-        <is>
-          <t>1. Install the application using MultiFunctionalTool_For_Laptop.zip&lt;br&gt;2. Launch the application&lt;br&gt;3. Test each main feature</t>
-        </is>
-      </c>
-      <c r="F22" s="62" t="inlineStr">
-        <is>
-          <t>All features should function correctly on a laptop environment</t>
-        </is>
-      </c>
-      <c r="G22" s="58" t="inlineStr"/>
-      <c r="H22" s="59" t="inlineStr"/>
-      <c r="I22" s="53" t="n"/>
-    </row>
-    <row r="23" ht="99.75" customHeight="1">
-      <c r="B23" s="57" t="inlineStr">
-        <is>
-          <t>TC_NF_018</t>
-        </is>
-      </c>
-      <c r="C23" s="60" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="63" t="n"/>
+      <c r="B22" s="63" t="inlineStr">
+        <is>
+          <t>TC017</t>
+        </is>
+      </c>
+      <c r="C22" s="63" t="inlineStr">
         <is>
           <t>Application is running</t>
         </is>
       </c>
-      <c r="D23" s="70" t="inlineStr">
-        <is>
-          <t>Verify application response time</t>
-        </is>
-      </c>
-      <c r="E23" s="61" t="inlineStr">
-        <is>
-          <t>1. Launch the application&lt;br&gt;2. Measure the time taken for the application to start&lt;br&gt;3. Measure the response time when switching between features</t>
-        </is>
-      </c>
-      <c r="F23" s="62" t="inlineStr">
-        <is>
-          <t>1. Application should start within 5 seconds&lt;br&gt;2. Feature switching should occur within 2 seconds</t>
-        </is>
-      </c>
-      <c r="G23" s="58" t="inlineStr"/>
-      <c r="H23" s="59" t="inlineStr"/>
-      <c r="I23" s="53" t="n"/>
-    </row>
-    <row r="24" ht="99.75" customHeight="1">
-      <c r="B24" s="57" t="n"/>
-      <c r="C24" s="60" t="n"/>
-      <c r="D24" s="70" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="62" t="n"/>
-      <c r="G24" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H24" s="59" t="n"/>
-      <c r="I24" s="53" t="n"/>
-    </row>
-    <row r="25" ht="99.75" customHeight="1">
-      <c r="B25" s="57" t="n"/>
-      <c r="C25" s="60" t="n"/>
-      <c r="D25" s="70" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="62" t="n"/>
-      <c r="G25" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H25" s="59" t="n"/>
-      <c r="I25" s="53" t="n"/>
-    </row>
-    <row r="26" ht="99.75" customHeight="1">
-      <c r="B26" s="57" t="n"/>
-      <c r="C26" s="60" t="n"/>
-      <c r="D26" s="70" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="62" t="n"/>
-      <c r="G26" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H26" s="59" t="n"/>
-      <c r="I26" s="53" t="n"/>
-    </row>
-    <row r="27" ht="99.75" customHeight="1">
-      <c r="B27" s="57" t="n"/>
-      <c r="C27" s="60" t="n"/>
-      <c r="D27" s="70" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="62" t="n"/>
-      <c r="G27" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H27" s="59" t="n"/>
-      <c r="I27" s="53" t="n"/>
-    </row>
-    <row r="28" ht="99.75" customHeight="1">
-      <c r="B28" s="57" t="n"/>
-      <c r="C28" s="60" t="n"/>
-      <c r="D28" s="70" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="62" t="n"/>
-      <c r="G28" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H28" s="59" t="n"/>
-      <c r="I28" s="53" t="n"/>
-    </row>
-    <row r="29" ht="99.75" customHeight="1">
-      <c r="B29" s="57" t="n"/>
-      <c r="C29" s="60" t="n"/>
-      <c r="D29" s="70" t="n"/>
-      <c r="E29" s="61" t="n"/>
-      <c r="F29" s="62" t="n"/>
-      <c r="G29" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H29" s="59" t="n"/>
-      <c r="I29" s="53" t="n"/>
-    </row>
-    <row r="30" ht="99.75" customHeight="1">
-      <c r="B30" s="57" t="n"/>
-      <c r="C30" s="60" t="n"/>
-      <c r="D30" s="70" t="n"/>
-      <c r="E30" s="61" t="n"/>
-      <c r="F30" s="62" t="n"/>
-      <c r="G30" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H30" s="59" t="n"/>
-      <c r="I30" s="53" t="n"/>
-    </row>
-    <row r="31" ht="99.75" customHeight="1">
-      <c r="B31" s="57" t="n"/>
-      <c r="C31" s="60" t="n"/>
-      <c r="D31" s="70" t="n"/>
-      <c r="E31" s="61" t="n"/>
-      <c r="F31" s="62" t="n"/>
-      <c r="G31" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H31" s="59" t="n"/>
-      <c r="I31" s="53" t="n"/>
-    </row>
-    <row r="32" ht="99.75" customHeight="1">
-      <c r="B32" s="57" t="n"/>
-      <c r="C32" s="60" t="n"/>
-      <c r="D32" s="70" t="n"/>
-      <c r="E32" s="61" t="n"/>
-      <c r="F32" s="62" t="n"/>
-      <c r="G32" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H32" s="59" t="n"/>
-      <c r="I32" s="53" t="n"/>
-    </row>
-    <row r="33" ht="99.75" customHeight="1">
-      <c r="B33" s="57" t="n"/>
-      <c r="C33" s="60" t="n"/>
-      <c r="D33" s="70" t="n"/>
-      <c r="E33" s="61" t="n"/>
-      <c r="F33" s="62" t="n"/>
-      <c r="G33" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H33" s="59" t="n"/>
-      <c r="I33" s="53" t="n"/>
-    </row>
-    <row r="34" ht="99.75" customHeight="1">
-      <c r="B34" s="57" t="n"/>
-      <c r="C34" s="60" t="n"/>
-      <c r="D34" s="70" t="n"/>
-      <c r="E34" s="61" t="n"/>
-      <c r="F34" s="62" t="n"/>
-      <c r="G34" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H34" s="59" t="n"/>
-      <c r="I34" s="53" t="n"/>
-    </row>
-    <row r="35" ht="99.75" customHeight="1">
-      <c r="B35" s="57" t="n"/>
-      <c r="C35" s="60" t="n"/>
-      <c r="D35" s="70" t="n"/>
-      <c r="E35" s="61" t="n"/>
-      <c r="F35" s="62" t="n"/>
-      <c r="G35" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H35" s="59" t="n"/>
-      <c r="I35" s="53" t="n"/>
-    </row>
-    <row r="36" ht="99.75" customHeight="1">
-      <c r="B36" s="57" t="n"/>
-      <c r="C36" s="60" t="n"/>
-      <c r="D36" s="70" t="n"/>
-      <c r="E36" s="61" t="n"/>
-      <c r="F36" s="62" t="n"/>
-      <c r="G36" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H36" s="59" t="n"/>
-      <c r="I36" s="53" t="n"/>
-    </row>
-    <row r="37" ht="99.75" customHeight="1">
-      <c r="B37" s="57" t="n"/>
-      <c r="C37" s="60" t="n"/>
-      <c r="D37" s="70" t="n"/>
-      <c r="E37" s="61" t="n"/>
-      <c r="F37" s="62" t="n"/>
-      <c r="G37" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H37" s="59" t="n"/>
-      <c r="I37" s="53" t="n"/>
-    </row>
-    <row r="38" ht="99.75" customHeight="1">
-      <c r="B38" s="57" t="n"/>
-      <c r="C38" s="60" t="n"/>
-      <c r="D38" s="70" t="n"/>
-      <c r="E38" s="61" t="n"/>
-      <c r="F38" s="62" t="n"/>
-      <c r="G38" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H38" s="59" t="n"/>
-      <c r="I38" s="53" t="n"/>
-    </row>
-    <row r="39" ht="99.75" customHeight="1">
-      <c r="B39" s="57" t="n"/>
-      <c r="C39" s="60" t="n"/>
-      <c r="D39" s="70" t="n"/>
-      <c r="E39" s="61" t="n"/>
-      <c r="F39" s="62" t="n"/>
-      <c r="G39" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H39" s="59" t="n"/>
-      <c r="I39" s="53" t="n"/>
-    </row>
-    <row r="40" ht="99.75" customHeight="1">
-      <c r="B40" s="57" t="n"/>
-      <c r="C40" s="60" t="n"/>
-      <c r="D40" s="70" t="n"/>
-      <c r="E40" s="61" t="n"/>
-      <c r="F40" s="62" t="n"/>
-      <c r="G40" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H40" s="59" t="n"/>
-      <c r="I40" s="53" t="n"/>
-    </row>
-    <row r="41" ht="99.75" customHeight="1">
-      <c r="B41" s="57" t="n"/>
-      <c r="C41" s="60" t="n"/>
-      <c r="D41" s="70" t="n"/>
-      <c r="E41" s="61" t="n"/>
-      <c r="F41" s="62" t="n"/>
-      <c r="G41" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H41" s="59" t="n"/>
-      <c r="I41" s="53" t="n"/>
-    </row>
-    <row r="42" ht="99.75" customHeight="1">
-      <c r="B42" s="57" t="n"/>
-      <c r="C42" s="60" t="n"/>
-      <c r="D42" s="70" t="n"/>
-      <c r="E42" s="61" t="n"/>
-      <c r="F42" s="62" t="n"/>
-      <c r="G42" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H42" s="59" t="n"/>
-      <c r="I42" s="53" t="n"/>
-    </row>
-    <row r="43" ht="99.75" customHeight="1">
-      <c r="B43" s="57" t="n"/>
-      <c r="C43" s="60" t="n"/>
-      <c r="D43" s="70" t="n"/>
-      <c r="E43" s="61" t="n"/>
-      <c r="F43" s="62" t="n"/>
-      <c r="G43" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H43" s="59" t="n"/>
-      <c r="I43" s="53" t="n"/>
-    </row>
-    <row r="44" ht="99.75" customHeight="1">
-      <c r="B44" s="57" t="n"/>
-      <c r="C44" s="60" t="n"/>
-      <c r="D44" s="70" t="n"/>
-      <c r="E44" s="61" t="n"/>
-      <c r="F44" s="62" t="n"/>
-      <c r="G44" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H44" s="59" t="n"/>
-      <c r="I44" s="53" t="n"/>
-    </row>
-    <row r="45" ht="99.75" customHeight="1">
-      <c r="B45" s="57" t="n"/>
-      <c r="C45" s="60" t="n"/>
-      <c r="D45" s="70" t="n"/>
-      <c r="E45" s="61" t="n"/>
-      <c r="F45" s="62" t="n"/>
-      <c r="G45" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H45" s="59" t="n"/>
-      <c r="I45" s="53" t="n"/>
-    </row>
-    <row r="46" ht="99.75" customHeight="1">
-      <c r="B46" s="57" t="n"/>
-      <c r="C46" s="60" t="n"/>
-      <c r="D46" s="70" t="n"/>
-      <c r="E46" s="61" t="n"/>
-      <c r="F46" s="62" t="n"/>
-      <c r="G46" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H46" s="59" t="n"/>
-      <c r="I46" s="53" t="n"/>
-    </row>
-    <row r="47" ht="99.75" customHeight="1">
-      <c r="B47" s="57" t="n"/>
-      <c r="C47" s="60" t="n"/>
-      <c r="D47" s="70" t="n"/>
-      <c r="E47" s="61" t="n"/>
-      <c r="F47" s="62" t="n"/>
-      <c r="G47" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H47" s="59" t="n"/>
-      <c r="I47" s="53" t="n"/>
-    </row>
-    <row r="48" ht="99.75" customHeight="1">
-      <c r="B48" s="57" t="n"/>
-      <c r="C48" s="60" t="n"/>
-      <c r="D48" s="70" t="n"/>
-      <c r="E48" s="61" t="n"/>
-      <c r="F48" s="62" t="n"/>
-      <c r="G48" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H48" s="59" t="n"/>
-      <c r="I48" s="53" t="n"/>
-    </row>
-    <row r="49" ht="99.75" customHeight="1">
-      <c r="B49" s="57" t="n"/>
-      <c r="C49" s="60" t="n"/>
-      <c r="D49" s="70" t="n"/>
-      <c r="E49" s="61" t="n"/>
-      <c r="F49" s="62" t="n"/>
-      <c r="G49" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H49" s="59" t="n"/>
-      <c r="I49" s="53" t="n"/>
-    </row>
-    <row r="50" ht="99.75" customHeight="1">
-      <c r="B50" s="57" t="n"/>
-      <c r="C50" s="60" t="n"/>
-      <c r="D50" s="70" t="n"/>
-      <c r="E50" s="61" t="n"/>
-      <c r="F50" s="62" t="n"/>
-      <c r="G50" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H50" s="59" t="n"/>
-      <c r="I50" s="53" t="n"/>
-    </row>
-    <row r="51" ht="99.75" customHeight="1">
-      <c r="B51" s="57" t="n"/>
-      <c r="C51" s="60" t="n"/>
-      <c r="D51" s="70" t="n"/>
-      <c r="E51" s="61" t="n"/>
-      <c r="F51" s="62" t="n"/>
-      <c r="G51" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H51" s="59" t="n"/>
-      <c r="I51" s="53" t="n"/>
-    </row>
-    <row r="52" ht="99.75" customHeight="1">
-      <c r="B52" s="57" t="n"/>
-      <c r="C52" s="60" t="n"/>
-      <c r="D52" s="70" t="n"/>
-      <c r="E52" s="61" t="n"/>
-      <c r="F52" s="62" t="n"/>
-      <c r="G52" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H52" s="59" t="n"/>
-      <c r="I52" s="53" t="n"/>
-    </row>
-    <row r="53" ht="99.75" customHeight="1">
-      <c r="B53" s="57" t="n"/>
-      <c r="C53" s="60" t="n"/>
-      <c r="D53" s="70" t="n"/>
-      <c r="E53" s="61" t="n"/>
-      <c r="F53" s="62" t="n"/>
-      <c r="G53" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H53" s="59" t="n"/>
-      <c r="I53" s="53" t="n"/>
-    </row>
-    <row r="54" ht="99.75" customHeight="1">
-      <c r="B54" s="57" t="n"/>
-      <c r="C54" s="60" t="n"/>
-      <c r="D54" s="70" t="n"/>
-      <c r="E54" s="61" t="n"/>
-      <c r="F54" s="62" t="n"/>
-      <c r="G54" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H54" s="59" t="n"/>
-      <c r="I54" s="53" t="n"/>
-    </row>
-    <row r="55" ht="99.75" customHeight="1">
-      <c r="B55" s="57" t="n"/>
-      <c r="C55" s="60" t="n"/>
-      <c r="D55" s="70" t="n"/>
-      <c r="E55" s="61" t="n"/>
-      <c r="F55" s="62" t="n"/>
-      <c r="G55" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H55" s="59" t="n"/>
-      <c r="I55" s="53" t="n"/>
-    </row>
-    <row r="56" ht="99.75" customHeight="1">
-      <c r="B56" s="57" t="n"/>
-      <c r="C56" s="60" t="n"/>
-      <c r="D56" s="70" t="n"/>
-      <c r="E56" s="61" t="n"/>
-      <c r="F56" s="62" t="n"/>
-      <c r="G56" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H56" s="59" t="n"/>
-      <c r="I56" s="53" t="n"/>
-    </row>
-    <row r="57" ht="99.75" customHeight="1">
-      <c r="B57" s="57" t="n"/>
-      <c r="C57" s="60" t="n"/>
-      <c r="D57" s="70" t="n"/>
-      <c r="E57" s="61" t="n"/>
-      <c r="F57" s="62" t="n"/>
-      <c r="G57" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H57" s="59" t="n"/>
-      <c r="I57" s="53" t="n"/>
-    </row>
-    <row r="58" ht="99.75" customHeight="1">
-      <c r="B58" s="57" t="n"/>
-      <c r="C58" s="60" t="n"/>
-      <c r="D58" s="70" t="n"/>
-      <c r="E58" s="61" t="n"/>
-      <c r="F58" s="62" t="n"/>
-      <c r="G58" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H58" s="59" t="n"/>
-      <c r="I58" s="53" t="n"/>
-    </row>
-    <row r="59" ht="99.75" customHeight="1">
-      <c r="B59" s="57" t="n"/>
-      <c r="C59" s="60" t="n"/>
-      <c r="D59" s="70" t="n"/>
-      <c r="E59" s="61" t="n"/>
-      <c r="F59" s="62" t="n"/>
-      <c r="G59" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H59" s="59" t="n"/>
-      <c r="I59" s="53" t="n"/>
-    </row>
-    <row r="60" ht="99.75" customHeight="1">
-      <c r="B60" s="57" t="n"/>
-      <c r="C60" s="60" t="n"/>
-      <c r="D60" s="70" t="n"/>
-      <c r="E60" s="61" t="n"/>
-      <c r="F60" s="62" t="n"/>
-      <c r="G60" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H60" s="59" t="n"/>
-      <c r="I60" s="53" t="n"/>
-    </row>
-    <row r="61" ht="99.75" customHeight="1">
-      <c r="B61" s="57" t="n"/>
-      <c r="C61" s="60" t="n"/>
-      <c r="D61" s="70" t="n"/>
-      <c r="E61" s="61" t="n"/>
-      <c r="F61" s="62" t="n"/>
-      <c r="G61" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H61" s="59" t="n"/>
-      <c r="I61" s="53" t="n"/>
-    </row>
-    <row r="62" ht="99.75" customHeight="1">
-      <c r="B62" s="57" t="n"/>
-      <c r="C62" s="60" t="n"/>
-      <c r="D62" s="70" t="n"/>
-      <c r="E62" s="61" t="n"/>
-      <c r="F62" s="62" t="n"/>
-      <c r="G62" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H62" s="59" t="n"/>
-      <c r="I62" s="53" t="n"/>
-    </row>
-    <row r="63" ht="99.75" customHeight="1">
-      <c r="B63" s="57" t="n"/>
-      <c r="C63" s="60" t="n"/>
-      <c r="D63" s="70" t="n"/>
-      <c r="E63" s="61" t="n"/>
-      <c r="F63" s="62" t="n"/>
-      <c r="G63" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H63" s="59" t="n"/>
-      <c r="I63" s="53" t="n"/>
-    </row>
-    <row r="64" ht="99.75" customHeight="1">
-      <c r="B64" s="57" t="n"/>
-      <c r="C64" s="60" t="n"/>
-      <c r="D64" s="70" t="n"/>
-      <c r="E64" s="61" t="n"/>
-      <c r="F64" s="62" t="n"/>
-      <c r="G64" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H64" s="59" t="n"/>
-      <c r="I64" s="53" t="n"/>
-    </row>
-    <row r="65" ht="99.75" customHeight="1">
-      <c r="B65" s="57" t="n"/>
-      <c r="C65" s="60" t="n"/>
-      <c r="D65" s="70" t="n"/>
-      <c r="E65" s="61" t="n"/>
-      <c r="F65" s="62" t="n"/>
-      <c r="G65" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H65" s="59" t="n"/>
-      <c r="I65" s="53" t="n"/>
-    </row>
-    <row r="66" ht="99.75" customHeight="1">
-      <c r="B66" s="57" t="n"/>
-      <c r="C66" s="60" t="n"/>
-      <c r="D66" s="70" t="n"/>
-      <c r="E66" s="61" t="n"/>
-      <c r="F66" s="62" t="n"/>
-      <c r="G66" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H66" s="59" t="n"/>
-      <c r="I66" s="53" t="n"/>
-    </row>
-    <row r="67" ht="99.75" customHeight="1">
-      <c r="B67" s="57" t="n"/>
-      <c r="C67" s="60" t="n"/>
-      <c r="D67" s="70" t="n"/>
-      <c r="E67" s="61" t="n"/>
-      <c r="F67" s="62" t="n"/>
-      <c r="G67" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H67" s="59" t="n"/>
-      <c r="I67" s="53" t="n"/>
-    </row>
-    <row r="68" ht="99.75" customHeight="1">
-      <c r="B68" s="57" t="n"/>
-      <c r="C68" s="60" t="n"/>
-      <c r="D68" s="70" t="n"/>
-      <c r="E68" s="61" t="n"/>
-      <c r="F68" s="62" t="n"/>
-      <c r="G68" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H68" s="59" t="n"/>
-      <c r="I68" s="53" t="n"/>
-    </row>
-    <row r="69" ht="99.75" customHeight="1">
-      <c r="B69" s="57" t="n"/>
-      <c r="C69" s="60" t="n"/>
-      <c r="D69" s="70" t="n"/>
-      <c r="E69" s="61" t="n"/>
-      <c r="F69" s="62" t="n"/>
-      <c r="G69" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H69" s="59" t="n"/>
-      <c r="I69" s="53" t="n"/>
-    </row>
-    <row r="70" ht="99.75" customHeight="1">
-      <c r="B70" s="57" t="n"/>
-      <c r="C70" s="60" t="n"/>
-      <c r="D70" s="70" t="n"/>
-      <c r="E70" s="61" t="n"/>
-      <c r="F70" s="62" t="n"/>
-      <c r="G70" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H70" s="59" t="n"/>
-      <c r="I70" s="53" t="n"/>
-    </row>
-    <row r="71" ht="99.75" customHeight="1">
-      <c r="B71" s="57" t="n"/>
-      <c r="C71" s="60" t="n"/>
-      <c r="D71" s="70" t="n"/>
-      <c r="E71" s="61" t="n"/>
-      <c r="F71" s="62" t="n"/>
-      <c r="G71" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H71" s="59" t="n"/>
-      <c r="I71" s="53" t="n"/>
-    </row>
-    <row r="72" ht="99.75" customHeight="1">
-      <c r="B72" s="57" t="n"/>
-      <c r="C72" s="60" t="n"/>
-      <c r="D72" s="70" t="n"/>
-      <c r="E72" s="61" t="n"/>
-      <c r="F72" s="62" t="n"/>
-      <c r="G72" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H72" s="59" t="n"/>
-      <c r="I72" s="53" t="n"/>
-    </row>
-    <row r="73" ht="99.75" customHeight="1">
-      <c r="B73" s="57" t="n"/>
-      <c r="C73" s="60" t="n"/>
-      <c r="D73" s="70" t="n"/>
-      <c r="E73" s="61" t="n"/>
-      <c r="F73" s="62" t="n"/>
-      <c r="G73" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H73" s="59" t="n"/>
-      <c r="I73" s="53" t="n"/>
-    </row>
-    <row r="74" ht="99.75" customHeight="1">
-      <c r="B74" s="57" t="n"/>
-      <c r="C74" s="60" t="n"/>
-      <c r="D74" s="70" t="n"/>
-      <c r="E74" s="61" t="n"/>
-      <c r="F74" s="62" t="n"/>
-      <c r="G74" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H74" s="59" t="n"/>
-      <c r="I74" s="53" t="n"/>
-    </row>
-    <row r="75" ht="99.75" customHeight="1">
-      <c r="B75" s="57" t="n"/>
-      <c r="C75" s="60" t="n"/>
-      <c r="D75" s="70" t="n"/>
-      <c r="E75" s="61" t="n"/>
-      <c r="F75" s="62" t="n"/>
-      <c r="G75" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H75" s="59" t="n"/>
-      <c r="I75" s="53" t="n"/>
-    </row>
-    <row r="76" ht="99.75" customHeight="1">
-      <c r="B76" s="57" t="n"/>
-      <c r="C76" s="60" t="n"/>
-      <c r="D76" s="70" t="n"/>
-      <c r="E76" s="61" t="n"/>
-      <c r="F76" s="62" t="n"/>
-      <c r="G76" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H76" s="59" t="n"/>
-      <c r="I76" s="53" t="n"/>
-    </row>
-    <row r="77" ht="99.75" customHeight="1">
-      <c r="B77" s="57" t="n"/>
-      <c r="C77" s="60" t="n"/>
-      <c r="D77" s="70" t="n"/>
-      <c r="E77" s="61" t="n"/>
-      <c r="F77" s="62" t="n"/>
-      <c r="G77" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H77" s="59" t="n"/>
-      <c r="I77" s="53" t="n"/>
-    </row>
-    <row r="78" ht="99.75" customHeight="1">
-      <c r="B78" s="57" t="n"/>
-      <c r="C78" s="60" t="n"/>
-      <c r="D78" s="70" t="n"/>
-      <c r="E78" s="61" t="n"/>
-      <c r="F78" s="62" t="n"/>
-      <c r="G78" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H78" s="59" t="n"/>
-      <c r="I78" s="53" t="n"/>
-    </row>
-    <row r="79" ht="99.75" customHeight="1">
-      <c r="B79" s="57" t="n"/>
-      <c r="C79" s="60" t="n"/>
-      <c r="D79" s="70" t="n"/>
-      <c r="E79" s="61" t="n"/>
-      <c r="F79" s="62" t="n"/>
-      <c r="G79" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H79" s="59" t="n"/>
-      <c r="I79" s="53" t="n"/>
-    </row>
-    <row r="80" ht="99.75" customHeight="1">
-      <c r="B80" s="57" t="n"/>
-      <c r="C80" s="60" t="n"/>
-      <c r="D80" s="70" t="n"/>
-      <c r="E80" s="61" t="n"/>
-      <c r="F80" s="62" t="n"/>
-      <c r="G80" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H80" s="59" t="n"/>
-      <c r="I80" s="53" t="n"/>
-    </row>
-    <row r="81" ht="99.75" customHeight="1">
-      <c r="B81" s="57" t="n"/>
-      <c r="C81" s="60" t="n"/>
-      <c r="D81" s="70" t="n"/>
-      <c r="E81" s="61" t="n"/>
-      <c r="F81" s="62" t="n"/>
-      <c r="G81" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H81" s="59" t="n"/>
-      <c r="I81" s="53" t="n"/>
-    </row>
-    <row r="82" ht="99.75" customHeight="1">
-      <c r="B82" s="57" t="n"/>
-      <c r="C82" s="60" t="n"/>
-      <c r="D82" s="70" t="n"/>
-      <c r="E82" s="61" t="n"/>
-      <c r="F82" s="62" t="n"/>
-      <c r="G82" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H82" s="59" t="n"/>
-      <c r="I82" s="53" t="n"/>
-    </row>
-    <row r="83" ht="99.75" customHeight="1">
-      <c r="B83" s="57" t="n"/>
-      <c r="C83" s="60" t="n"/>
-      <c r="D83" s="70" t="n"/>
-      <c r="E83" s="61" t="n"/>
-      <c r="F83" s="62" t="n"/>
-      <c r="G83" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H83" s="59" t="n"/>
-      <c r="I83" s="53" t="n"/>
-    </row>
-    <row r="84" ht="99.75" customHeight="1">
-      <c r="B84" s="57" t="n"/>
-      <c r="C84" s="60" t="n"/>
-      <c r="D84" s="70" t="n"/>
-      <c r="E84" s="61" t="n"/>
-      <c r="F84" s="62" t="n"/>
-      <c r="G84" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H84" s="59" t="n"/>
-      <c r="I84" s="53" t="n"/>
-    </row>
-    <row r="85" ht="99.75" customHeight="1">
-      <c r="B85" s="57" t="n"/>
-      <c r="C85" s="60" t="n"/>
-      <c r="D85" s="70" t="n"/>
-      <c r="E85" s="61" t="n"/>
-      <c r="F85" s="62" t="n"/>
-      <c r="G85" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H85" s="59" t="n"/>
-      <c r="I85" s="53" t="n"/>
-    </row>
-    <row r="86" ht="99.75" customHeight="1">
-      <c r="B86" s="57" t="n"/>
-      <c r="C86" s="60" t="n"/>
-      <c r="D86" s="70" t="n"/>
-      <c r="E86" s="61" t="n"/>
-      <c r="F86" s="62" t="n"/>
-      <c r="G86" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H86" s="59" t="n"/>
-      <c r="I86" s="53" t="n"/>
-    </row>
-    <row r="87" ht="99.75" customHeight="1">
-      <c r="B87" s="57" t="n"/>
-      <c r="C87" s="60" t="n"/>
-      <c r="D87" s="70" t="n"/>
-      <c r="E87" s="61" t="n"/>
-      <c r="F87" s="62" t="n"/>
-      <c r="G87" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H87" s="59" t="n"/>
-      <c r="I87" s="53" t="n"/>
-    </row>
-    <row r="88" ht="99.75" customHeight="1">
-      <c r="B88" s="57" t="n"/>
-      <c r="C88" s="60" t="n"/>
-      <c r="D88" s="70" t="n"/>
-      <c r="E88" s="61" t="n"/>
-      <c r="F88" s="62" t="n"/>
-      <c r="G88" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H88" s="59" t="n"/>
-      <c r="I88" s="53" t="n"/>
-    </row>
-    <row r="89" ht="99.75" customHeight="1">
-      <c r="B89" s="57" t="n"/>
-      <c r="C89" s="60" t="n"/>
-      <c r="D89" s="70" t="n"/>
-      <c r="E89" s="61" t="n"/>
-      <c r="F89" s="62" t="n"/>
-      <c r="G89" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H89" s="59" t="n"/>
-      <c r="I89" s="53" t="n"/>
-    </row>
-    <row r="90" ht="99.75" customHeight="1">
-      <c r="B90" s="57" t="n"/>
-      <c r="C90" s="60" t="n"/>
-      <c r="D90" s="70" t="n"/>
-      <c r="E90" s="61" t="n"/>
-      <c r="F90" s="62" t="n"/>
-      <c r="G90" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H90" s="59" t="n"/>
-      <c r="I90" s="53" t="n"/>
-    </row>
-    <row r="91" ht="99.75" customHeight="1">
-      <c r="B91" s="57" t="n"/>
-      <c r="C91" s="60" t="n"/>
-      <c r="D91" s="70" t="n"/>
-      <c r="E91" s="61" t="n"/>
-      <c r="F91" s="62" t="n"/>
-      <c r="G91" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H91" s="59" t="n"/>
-      <c r="I91" s="53" t="n"/>
-    </row>
-    <row r="92" ht="99.75" customHeight="1">
-      <c r="B92" s="57" t="n"/>
-      <c r="C92" s="60" t="n"/>
-      <c r="D92" s="70" t="n"/>
-      <c r="E92" s="61" t="n"/>
-      <c r="F92" s="62" t="n"/>
-      <c r="G92" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H92" s="59" t="n"/>
-      <c r="I92" s="53" t="n"/>
-    </row>
-    <row r="93" ht="99.75" customHeight="1">
-      <c r="B93" s="57" t="n"/>
-      <c r="C93" s="60" t="n"/>
-      <c r="D93" s="70" t="n"/>
-      <c r="E93" s="61" t="n"/>
-      <c r="F93" s="62" t="n"/>
-      <c r="G93" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H93" s="59" t="n"/>
-      <c r="I93" s="53" t="n"/>
-    </row>
-    <row r="94" ht="99.75" customHeight="1">
-      <c r="B94" s="57" t="n"/>
-      <c r="C94" s="60" t="n"/>
-      <c r="D94" s="70" t="n"/>
-      <c r="E94" s="61" t="n"/>
-      <c r="F94" s="62" t="n"/>
-      <c r="G94" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H94" s="59" t="n"/>
-      <c r="I94" s="53" t="n"/>
-    </row>
-    <row r="95" ht="99.75" customHeight="1">
-      <c r="B95" s="57" t="n"/>
-      <c r="C95" s="60" t="n"/>
-      <c r="D95" s="70" t="n"/>
-      <c r="E95" s="61" t="n"/>
-      <c r="F95" s="62" t="n"/>
-      <c r="G95" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H95" s="59" t="n"/>
-      <c r="I95" s="53" t="n"/>
-    </row>
-    <row r="96" ht="99.75" customHeight="1">
-      <c r="B96" s="57" t="n"/>
-      <c r="C96" s="60" t="n"/>
-      <c r="D96" s="70" t="n"/>
-      <c r="E96" s="61" t="n"/>
-      <c r="F96" s="62" t="n"/>
-      <c r="G96" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H96" s="59" t="n"/>
-      <c r="I96" s="53" t="n"/>
-    </row>
-    <row r="97" ht="99.75" customHeight="1">
-      <c r="B97" s="57" t="n"/>
-      <c r="C97" s="60" t="n"/>
-      <c r="D97" s="70" t="n"/>
-      <c r="E97" s="61" t="n"/>
-      <c r="F97" s="62" t="n"/>
-      <c r="G97" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H97" s="59" t="n"/>
-      <c r="I97" s="53" t="n"/>
-    </row>
-    <row r="98" ht="99.75" customHeight="1">
-      <c r="B98" s="57" t="n"/>
-      <c r="C98" s="60" t="n"/>
-      <c r="D98" s="70" t="n"/>
-      <c r="E98" s="61" t="n"/>
-      <c r="F98" s="62" t="n"/>
-      <c r="G98" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H98" s="59" t="n"/>
-      <c r="I98" s="53" t="n"/>
-    </row>
-    <row r="99" ht="99.75" customHeight="1">
-      <c r="B99" s="57" t="n"/>
-      <c r="C99" s="60" t="n"/>
-      <c r="D99" s="70" t="n"/>
-      <c r="E99" s="61" t="n"/>
-      <c r="F99" s="62" t="n"/>
-      <c r="G99" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H99" s="59" t="n"/>
-      <c r="I99" s="53" t="n"/>
-    </row>
-    <row r="100" ht="99.75" customHeight="1">
-      <c r="B100" s="57" t="n"/>
-      <c r="C100" s="60" t="n"/>
-      <c r="D100" s="70" t="n"/>
-      <c r="E100" s="61" t="n"/>
-      <c r="F100" s="62" t="n"/>
-      <c r="G100" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H100" s="59" t="n"/>
-      <c r="I100" s="53" t="n"/>
-    </row>
-    <row r="101" ht="99.75" customHeight="1">
-      <c r="B101" s="57" t="n"/>
-      <c r="C101" s="60" t="n"/>
-      <c r="D101" s="70" t="n"/>
-      <c r="E101" s="61" t="n"/>
-      <c r="F101" s="62" t="n"/>
-      <c r="G101" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H101" s="59" t="n"/>
-      <c r="I101" s="53" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="63" t="n"/>
-      <c r="B102" s="63" t="n"/>
-      <c r="C102" s="63" t="n"/>
-      <c r="D102" s="63" t="n"/>
-      <c r="E102" s="64" t="n"/>
-      <c r="F102" s="64" t="n"/>
-      <c r="G102" s="63" t="n"/>
-      <c r="H102" s="63" t="n"/>
-    </row>
-    <row r="104">
-      <c r="B104" s="45" t="inlineStr">
-        <is>
-          <t>Test Summary</t>
-        </is>
-      </c>
-      <c r="C104" s="67" t="n"/>
-    </row>
-    <row r="105">
-      <c r="D105" s="45" t="inlineStr">
-        <is>
-          <t>Test Case Count:</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="D106" s="46" t="inlineStr">
-        <is>
-          <t>Total Test Cases</t>
-        </is>
-      </c>
-      <c r="E106" s="71">
-        <f>COUNTA(B6:B6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107">
-      <c r="D107" s="65" t="inlineStr">
-        <is>
-          <t>Total Test Case Passed</t>
-        </is>
-      </c>
-      <c r="E107" s="71">
-        <f>COUNTIF(G6:G6,"PASS")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108">
-      <c r="D108" s="46" t="inlineStr">
-        <is>
-          <t>Total Test Case Failed</t>
-        </is>
-      </c>
-      <c r="E108" s="71">
-        <f>COUNTIF(G6:G6,"FAIL")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109">
-      <c r="D109" s="68" t="inlineStr">
-        <is>
-          <t>Total Test Case Not  Executed</t>
-        </is>
-      </c>
-      <c r="E109" s="71">
-        <f>COUNTIF(G6:G6,"Not Executed")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111">
-      <c r="D111" s="45" t="n"/>
-      <c r="E111" s="69" t="n"/>
+      <c r="D22" s="63" t="inlineStr">
+        <is>
+          <t>Performance - Network packet capture response</t>
+        </is>
+      </c>
+      <c r="E22" s="64" t="inlineStr">
+        <is>
+          <t>1. Navigate to Network Packet Capture section
+2. Click Start button
+3. Measure response time</t>
+        </is>
+      </c>
+      <c r="F22" s="64" t="inlineStr">
+        <is>
+          <t>Packet capture should start within 2 seconds</t>
+        </is>
+      </c>
+      <c r="G22" s="63" t="inlineStr"/>
+      <c r="H22" s="63" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TC018</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Performance - Memory usage</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1. Launch the application
+2. Monitor memory usage during various operations</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Application should not consume excessive memory (less than 200MB)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="45" t="inlineStr">
+        <is>
+          <t>TC019</t>
+        </is>
+      </c>
+      <c r="C24" s="67" t="inlineStr">
+        <is>
+          <t>Application is installed</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Usability - GUI layout</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1. Launch the application
+2. Observe the layout and organization of elements</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>GUI should be intuitive with clearly labeled buttons and sections</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TC020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D25" s="45" t="inlineStr">
+        <is>
+          <t>Usability - Error handling</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1. Perform operations that might cause errors (e.g., invalid inputs)
+2. Observe application's response</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Application should display clear error messages and not crash</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TC021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Application is installed</t>
+        </is>
+      </c>
+      <c r="D26" s="46" t="inlineStr">
+        <is>
+          <t>Compatibility - Windows 10</t>
+        </is>
+      </c>
+      <c r="E26" s="71" t="inlineStr">
+        <is>
+          <t>1. Install application on Windows 10 system
+2. Launch and test core functionalities</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>All features should work as expected on Windows 10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TC022</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Application is installed</t>
+        </is>
+      </c>
+      <c r="D27" s="65" t="inlineStr">
+        <is>
+          <t>Compatibility - Windows 11</t>
+        </is>
+      </c>
+      <c r="E27" s="71" t="inlineStr">
+        <is>
+          <t>1. Install application on Windows 11 system
+2. Launch and test core functionalities</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>All features should work as expected on Windows 11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TC023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D28" s="46" t="inlineStr">
+        <is>
+          <t>Reliability - Continuous operation</t>
+        </is>
+      </c>
+      <c r="E28" s="71" t="inlineStr">
+        <is>
+          <t>1. Launch the application
+2. Perform multiple operations continuously for 1 hour</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Application should remain stable without crashes or memory leaks</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TC024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Application is running</t>
+        </is>
+      </c>
+      <c r="D29" s="68" t="inlineStr">
+        <is>
+          <t>Security - File access</t>
+        </is>
+      </c>
+      <c r="E29" s="71" t="inlineStr">
+        <is>
+          <t>1. Launch the application
+2. Perform operations that access MFP's Shared Folder</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Application should only access authorized folders and respect permissions</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TC025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Application is installed</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Maintainability - File structure</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1. Examine the extracted application files
+2. Verify organization of files and resources</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Files should be logically organized for easy maintenance</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="45" t="n"/>
+      <c r="E31" s="69" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11960,7 +11062,7 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G103:G107">
+  <conditionalFormatting sqref="G23:G27">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="2" stopIfTrue="1">
       <formula>"PASS"</formula>
     </cfRule>
@@ -11972,10 +11074,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="G6:G101" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="G6:G21" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"PASS,FAIL,Not Executed"</formula1>
     </dataValidation>
-    <dataValidation sqref="H6:H102" showDropDown="0" showInputMessage="1" showErrorMessage="0" allowBlank="1" prompt="Comments by Test Engineer"/>
+    <dataValidation sqref="H6:H22" showDropDown="0" showInputMessage="1" showErrorMessage="0" allowBlank="1" prompt="Comments by Test Engineer"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B1" location="Summary!A1" display="Summary Sheet"/>

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -326,6 +326,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -334,15 +343,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
@@ -612,6 +612,81 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="justify"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0" hidden="0"/>
@@ -636,90 +711,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="justify"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1249,24 +1249,24 @@
       <c r="C1" s="118" t="n"/>
       <c r="D1" s="118" t="n"/>
       <c r="E1" s="119" t="n"/>
-      <c r="F1" s="96" t="n"/>
-      <c r="G1" s="96" t="n"/>
-      <c r="H1" s="96" t="n"/>
-      <c r="I1" s="96" t="n"/>
-      <c r="J1" s="96" t="n"/>
-      <c r="K1" s="96" t="n"/>
-      <c r="L1" s="96" t="n"/>
-      <c r="M1" s="96" t="n"/>
-      <c r="N1" s="96" t="n"/>
-      <c r="O1" s="96" t="n"/>
-      <c r="P1" s="96" t="n"/>
-      <c r="Q1" s="96" t="n"/>
-      <c r="R1" s="96" t="n"/>
-      <c r="S1" s="96" t="n"/>
-      <c r="T1" s="96" t="n"/>
+      <c r="F1" s="103" t="n"/>
+      <c r="G1" s="103" t="n"/>
+      <c r="H1" s="103" t="n"/>
+      <c r="I1" s="103" t="n"/>
+      <c r="J1" s="103" t="n"/>
+      <c r="K1" s="103" t="n"/>
+      <c r="L1" s="103" t="n"/>
+      <c r="M1" s="103" t="n"/>
+      <c r="N1" s="103" t="n"/>
+      <c r="O1" s="103" t="n"/>
+      <c r="P1" s="103" t="n"/>
+      <c r="Q1" s="103" t="n"/>
+      <c r="R1" s="103" t="n"/>
+      <c r="S1" s="103" t="n"/>
+      <c r="T1" s="103" t="n"/>
     </row>
     <row r="2" ht="17.5" customFormat="1" customHeight="1" s="18">
-      <c r="A2" s="95" t="n"/>
+      <c r="A2" s="102" t="n"/>
       <c r="B2" s="120" t="n"/>
       <c r="C2" s="120" t="n"/>
       <c r="D2" s="120" t="n"/>
@@ -1274,206 +1274,206 @@
       <c r="F2" s="120" t="n"/>
       <c r="G2" s="120" t="n"/>
       <c r="H2" s="120" t="n"/>
-      <c r="I2" s="96" t="n"/>
-      <c r="J2" s="96" t="n"/>
-      <c r="K2" s="96" t="n"/>
-      <c r="L2" s="96" t="n"/>
-      <c r="M2" s="96" t="n"/>
-      <c r="N2" s="96" t="n"/>
-      <c r="O2" s="96" t="n"/>
-      <c r="P2" s="96" t="n"/>
-      <c r="Q2" s="96" t="n"/>
-      <c r="R2" s="96" t="n"/>
-      <c r="S2" s="96" t="n"/>
-      <c r="T2" s="96" t="n"/>
+      <c r="I2" s="103" t="n"/>
+      <c r="J2" s="103" t="n"/>
+      <c r="K2" s="103" t="n"/>
+      <c r="L2" s="103" t="n"/>
+      <c r="M2" s="103" t="n"/>
+      <c r="N2" s="103" t="n"/>
+      <c r="O2" s="103" t="n"/>
+      <c r="P2" s="103" t="n"/>
+      <c r="Q2" s="103" t="n"/>
+      <c r="R2" s="103" t="n"/>
+      <c r="S2" s="103" t="n"/>
+      <c r="T2" s="103" t="n"/>
     </row>
     <row r="3" ht="15.5" customFormat="1" customHeight="1" s="18">
-      <c r="A3" s="81" t="inlineStr">
+      <c r="A3" s="101" t="inlineStr">
         <is>
           <t>Test Iteration Number                                                              :</t>
         </is>
       </c>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="120" t="n"/>
-      <c r="D3" s="80" t="inlineStr">
+      <c r="D3" s="88" t="inlineStr">
         <is>
           <t>3rd Iteration</t>
         </is>
       </c>
       <c r="E3" s="121" t="n"/>
-      <c r="F3" s="96" t="n"/>
-      <c r="G3" s="96" t="n"/>
-      <c r="H3" s="96" t="n"/>
-      <c r="I3" s="96" t="n"/>
-      <c r="J3" s="96" t="n"/>
-      <c r="K3" s="96" t="n"/>
-      <c r="L3" s="96" t="n"/>
-      <c r="M3" s="96" t="n"/>
-      <c r="N3" s="96" t="n"/>
-      <c r="O3" s="96" t="n"/>
-      <c r="Q3" s="96" t="n"/>
-      <c r="R3" s="96" t="n"/>
-      <c r="S3" s="96" t="n"/>
-      <c r="T3" s="96" t="n"/>
+      <c r="F3" s="103" t="n"/>
+      <c r="G3" s="103" t="n"/>
+      <c r="H3" s="103" t="n"/>
+      <c r="I3" s="103" t="n"/>
+      <c r="J3" s="103" t="n"/>
+      <c r="K3" s="103" t="n"/>
+      <c r="L3" s="103" t="n"/>
+      <c r="M3" s="103" t="n"/>
+      <c r="N3" s="103" t="n"/>
+      <c r="O3" s="103" t="n"/>
+      <c r="Q3" s="103" t="n"/>
+      <c r="R3" s="103" t="n"/>
+      <c r="S3" s="103" t="n"/>
+      <c r="T3" s="103" t="n"/>
     </row>
     <row r="4" ht="15.5" customFormat="1" customHeight="1" s="18">
-      <c r="A4" s="81" t="inlineStr">
+      <c r="A4" s="101" t="inlineStr">
         <is>
           <t>Test Plan Reference                                                                  :</t>
         </is>
       </c>
       <c r="B4" s="120" t="n"/>
       <c r="C4" s="120" t="n"/>
-      <c r="D4" s="80" t="n"/>
+      <c r="D4" s="88" t="n"/>
       <c r="E4" s="121" t="n"/>
-      <c r="F4" s="96" t="n"/>
-      <c r="G4" s="96" t="n"/>
-      <c r="H4" s="96" t="n"/>
-      <c r="I4" s="96" t="n"/>
-      <c r="J4" s="96" t="n"/>
-      <c r="K4" s="96" t="n"/>
-      <c r="L4" s="96" t="n"/>
-      <c r="M4" s="96" t="n"/>
-      <c r="N4" s="96" t="n"/>
-      <c r="O4" s="96" t="n"/>
-      <c r="P4" s="96" t="n"/>
-      <c r="Q4" s="96" t="n"/>
-      <c r="R4" s="96" t="n"/>
-      <c r="S4" s="96" t="n"/>
-      <c r="T4" s="96" t="n"/>
+      <c r="F4" s="103" t="n"/>
+      <c r="G4" s="103" t="n"/>
+      <c r="H4" s="103" t="n"/>
+      <c r="I4" s="103" t="n"/>
+      <c r="J4" s="103" t="n"/>
+      <c r="K4" s="103" t="n"/>
+      <c r="L4" s="103" t="n"/>
+      <c r="M4" s="103" t="n"/>
+      <c r="N4" s="103" t="n"/>
+      <c r="O4" s="103" t="n"/>
+      <c r="P4" s="103" t="n"/>
+      <c r="Q4" s="103" t="n"/>
+      <c r="R4" s="103" t="n"/>
+      <c r="S4" s="103" t="n"/>
+      <c r="T4" s="103" t="n"/>
     </row>
     <row r="5" ht="13.5" customFormat="1" customHeight="1" s="18">
-      <c r="A5" s="81" t="inlineStr">
+      <c r="A5" s="101" t="inlineStr">
         <is>
           <t>Test hardware and Software environment                                :</t>
         </is>
       </c>
       <c r="B5" s="120" t="n"/>
       <c r="C5" s="120" t="n"/>
-      <c r="D5" s="80" t="n"/>
+      <c r="D5" s="88" t="n"/>
       <c r="E5" s="121" t="n"/>
-      <c r="F5" s="96" t="n"/>
-      <c r="G5" s="96" t="n"/>
-      <c r="H5" s="96" t="n"/>
-      <c r="I5" s="96" t="n"/>
-      <c r="J5" s="96" t="n"/>
-      <c r="K5" s="96" t="n"/>
-      <c r="L5" s="96" t="n"/>
-      <c r="M5" s="96" t="n"/>
-      <c r="N5" s="96" t="n"/>
-      <c r="O5" s="96" t="n"/>
-      <c r="P5" s="96" t="n"/>
-      <c r="Q5" s="96" t="n"/>
-      <c r="R5" s="96" t="n"/>
-      <c r="S5" s="96" t="n"/>
-      <c r="T5" s="96" t="n"/>
+      <c r="F5" s="103" t="n"/>
+      <c r="G5" s="103" t="n"/>
+      <c r="H5" s="103" t="n"/>
+      <c r="I5" s="103" t="n"/>
+      <c r="J5" s="103" t="n"/>
+      <c r="K5" s="103" t="n"/>
+      <c r="L5" s="103" t="n"/>
+      <c r="M5" s="103" t="n"/>
+      <c r="N5" s="103" t="n"/>
+      <c r="O5" s="103" t="n"/>
+      <c r="P5" s="103" t="n"/>
+      <c r="Q5" s="103" t="n"/>
+      <c r="R5" s="103" t="n"/>
+      <c r="S5" s="103" t="n"/>
+      <c r="T5" s="103" t="n"/>
     </row>
     <row r="6" ht="15.5" customFormat="1" customHeight="1" s="18">
-      <c r="A6" s="81" t="inlineStr">
+      <c r="A6" s="101" t="inlineStr">
         <is>
           <t>Constraints If any                                                                       :</t>
         </is>
       </c>
       <c r="B6" s="120" t="n"/>
       <c r="C6" s="120" t="n"/>
-      <c r="D6" s="80" t="n"/>
+      <c r="D6" s="88" t="n"/>
       <c r="E6" s="121" t="n"/>
-      <c r="F6" s="96" t="n"/>
-      <c r="G6" s="96" t="n"/>
-      <c r="H6" s="96" t="n"/>
-      <c r="I6" s="96" t="n"/>
-      <c r="J6" s="96" t="n"/>
-      <c r="K6" s="96" t="n"/>
-      <c r="L6" s="96" t="n"/>
-      <c r="M6" s="96" t="n"/>
-      <c r="N6" s="96" t="n"/>
-      <c r="O6" s="96" t="n"/>
-      <c r="P6" s="96" t="n"/>
-      <c r="Q6" s="96" t="n"/>
-      <c r="R6" s="96" t="n"/>
-      <c r="S6" s="96" t="n"/>
-      <c r="T6" s="96" t="n"/>
+      <c r="F6" s="103" t="n"/>
+      <c r="G6" s="103" t="n"/>
+      <c r="H6" s="103" t="n"/>
+      <c r="I6" s="103" t="n"/>
+      <c r="J6" s="103" t="n"/>
+      <c r="K6" s="103" t="n"/>
+      <c r="L6" s="103" t="n"/>
+      <c r="M6" s="103" t="n"/>
+      <c r="N6" s="103" t="n"/>
+      <c r="O6" s="103" t="n"/>
+      <c r="P6" s="103" t="n"/>
+      <c r="Q6" s="103" t="n"/>
+      <c r="R6" s="103" t="n"/>
+      <c r="S6" s="103" t="n"/>
+      <c r="T6" s="103" t="n"/>
     </row>
     <row r="7" ht="31.5" customFormat="1" customHeight="1" s="18">
-      <c r="A7" s="82" t="inlineStr">
+      <c r="A7" s="94" t="inlineStr">
         <is>
           <t xml:space="preserve">Deviations If any from SRS, SDS/HLD&amp;LLD, Preceding documents                                                                                  :       </t>
         </is>
       </c>
       <c r="B7" s="120" t="n"/>
       <c r="C7" s="120" t="n"/>
-      <c r="D7" s="80" t="n"/>
+      <c r="D7" s="88" t="n"/>
       <c r="E7" s="121" t="n"/>
-      <c r="F7" s="96" t="n"/>
-      <c r="G7" s="96" t="n"/>
-      <c r="H7" s="96" t="n"/>
-      <c r="I7" s="96" t="n"/>
-      <c r="J7" s="96" t="n"/>
-      <c r="K7" s="96" t="n"/>
-      <c r="L7" s="96" t="n"/>
-      <c r="M7" s="96" t="n"/>
-      <c r="N7" s="96" t="n"/>
-      <c r="O7" s="96" t="n"/>
-      <c r="P7" s="96" t="n"/>
-      <c r="Q7" s="96" t="n"/>
-      <c r="R7" s="96" t="n"/>
-      <c r="S7" s="96" t="n"/>
-      <c r="T7" s="96" t="n"/>
+      <c r="F7" s="103" t="n"/>
+      <c r="G7" s="103" t="n"/>
+      <c r="H7" s="103" t="n"/>
+      <c r="I7" s="103" t="n"/>
+      <c r="J7" s="103" t="n"/>
+      <c r="K7" s="103" t="n"/>
+      <c r="L7" s="103" t="n"/>
+      <c r="M7" s="103" t="n"/>
+      <c r="N7" s="103" t="n"/>
+      <c r="O7" s="103" t="n"/>
+      <c r="P7" s="103" t="n"/>
+      <c r="Q7" s="103" t="n"/>
+      <c r="R7" s="103" t="n"/>
+      <c r="S7" s="103" t="n"/>
+      <c r="T7" s="103" t="n"/>
     </row>
     <row r="8" ht="15.5" customFormat="1" customHeight="1" s="18">
-      <c r="A8" s="82" t="inlineStr">
+      <c r="A8" s="94" t="inlineStr">
         <is>
           <t>Effort Spent on Conducting Testing (in Person Days)             :</t>
         </is>
       </c>
       <c r="B8" s="120" t="n"/>
       <c r="C8" s="120" t="n"/>
-      <c r="D8" s="80" t="n"/>
+      <c r="D8" s="88" t="n"/>
       <c r="E8" s="121" t="n"/>
-      <c r="F8" s="96" t="n"/>
-      <c r="G8" s="96" t="n"/>
-      <c r="H8" s="96" t="n"/>
-      <c r="I8" s="96" t="n"/>
-      <c r="J8" s="96" t="n"/>
-      <c r="K8" s="96" t="n"/>
-      <c r="L8" s="96" t="n"/>
-      <c r="M8" s="96" t="n"/>
-      <c r="N8" s="96" t="n"/>
-      <c r="O8" s="96" t="n"/>
-      <c r="P8" s="96" t="n"/>
-      <c r="Q8" s="96" t="n"/>
-      <c r="R8" s="96" t="n"/>
-      <c r="S8" s="96" t="n"/>
-      <c r="T8" s="96" t="n"/>
+      <c r="F8" s="103" t="n"/>
+      <c r="G8" s="103" t="n"/>
+      <c r="H8" s="103" t="n"/>
+      <c r="I8" s="103" t="n"/>
+      <c r="J8" s="103" t="n"/>
+      <c r="K8" s="103" t="n"/>
+      <c r="L8" s="103" t="n"/>
+      <c r="M8" s="103" t="n"/>
+      <c r="N8" s="103" t="n"/>
+      <c r="O8" s="103" t="n"/>
+      <c r="P8" s="103" t="n"/>
+      <c r="Q8" s="103" t="n"/>
+      <c r="R8" s="103" t="n"/>
+      <c r="S8" s="103" t="n"/>
+      <c r="T8" s="103" t="n"/>
     </row>
     <row r="9" ht="15.75" customFormat="1" customHeight="1" s="18">
-      <c r="A9" s="82" t="inlineStr">
+      <c r="A9" s="94" t="inlineStr">
         <is>
           <t>Effort spent on  Preparation of Test Report/Review               :</t>
         </is>
       </c>
       <c r="B9" s="120" t="n"/>
       <c r="C9" s="120" t="n"/>
-      <c r="D9" s="80" t="n"/>
+      <c r="D9" s="88" t="n"/>
       <c r="E9" s="121" t="n"/>
-      <c r="F9" s="96" t="n"/>
-      <c r="G9" s="96" t="n"/>
-      <c r="H9" s="96" t="n"/>
-      <c r="I9" s="96" t="n"/>
-      <c r="J9" s="96" t="n"/>
-      <c r="K9" s="96" t="n"/>
-      <c r="L9" s="96" t="n"/>
-      <c r="M9" s="96" t="n"/>
-      <c r="N9" s="96" t="n"/>
-      <c r="O9" s="96" t="n"/>
-      <c r="P9" s="96" t="n"/>
-      <c r="Q9" s="96" t="n"/>
-      <c r="R9" s="96" t="n"/>
-      <c r="S9" s="96" t="n"/>
-      <c r="T9" s="96" t="n"/>
+      <c r="F9" s="103" t="n"/>
+      <c r="G9" s="103" t="n"/>
+      <c r="H9" s="103" t="n"/>
+      <c r="I9" s="103" t="n"/>
+      <c r="J9" s="103" t="n"/>
+      <c r="K9" s="103" t="n"/>
+      <c r="L9" s="103" t="n"/>
+      <c r="M9" s="103" t="n"/>
+      <c r="N9" s="103" t="n"/>
+      <c r="O9" s="103" t="n"/>
+      <c r="P9" s="103" t="n"/>
+      <c r="Q9" s="103" t="n"/>
+      <c r="R9" s="103" t="n"/>
+      <c r="S9" s="103" t="n"/>
+      <c r="T9" s="103" t="n"/>
     </row>
     <row r="10" ht="25.5" customFormat="1" customHeight="1" s="18">
-      <c r="A10" s="99" t="n"/>
+      <c r="A10" s="92" t="n"/>
       <c r="B10" s="120" t="n"/>
       <c r="C10" s="120" t="n"/>
       <c r="D10" s="120" t="n"/>
@@ -1481,18 +1481,18 @@
       <c r="F10" s="120" t="n"/>
       <c r="G10" s="120" t="n"/>
       <c r="H10" s="120" t="n"/>
-      <c r="I10" s="100" t="n"/>
-      <c r="J10" s="100" t="n"/>
-      <c r="K10" s="96" t="n"/>
-      <c r="L10" s="100" t="n"/>
-      <c r="M10" s="100" t="n"/>
-      <c r="N10" s="96" t="n"/>
-      <c r="O10" s="100" t="n"/>
-      <c r="P10" s="100" t="n"/>
-      <c r="Q10" s="96" t="n"/>
-      <c r="R10" s="100" t="n"/>
-      <c r="S10" s="100" t="n"/>
-      <c r="T10" s="96" t="n"/>
+      <c r="I10" s="93" t="n"/>
+      <c r="J10" s="93" t="n"/>
+      <c r="K10" s="103" t="n"/>
+      <c r="L10" s="93" t="n"/>
+      <c r="M10" s="93" t="n"/>
+      <c r="N10" s="103" t="n"/>
+      <c r="O10" s="93" t="n"/>
+      <c r="P10" s="93" t="n"/>
+      <c r="Q10" s="103" t="n"/>
+      <c r="R10" s="93" t="n"/>
+      <c r="S10" s="93" t="n"/>
+      <c r="T10" s="103" t="n"/>
     </row>
     <row r="11" ht="15.5" customFormat="1" customHeight="1" s="18">
       <c r="A11" s="5" t="inlineStr">
@@ -1500,29 +1500,29 @@
           <t>&lt;&lt;&lt;</t>
         </is>
       </c>
-      <c r="B11" s="99" t="n"/>
-      <c r="C11" s="99" t="n"/>
-      <c r="D11" s="99" t="n"/>
+      <c r="B11" s="92" t="n"/>
+      <c r="C11" s="92" t="n"/>
+      <c r="D11" s="92" t="n"/>
       <c r="E11" s="42" t="n"/>
       <c r="F11" s="6" t="n"/>
-      <c r="G11" s="99" t="n"/>
-      <c r="H11" s="99" t="n"/>
+      <c r="G11" s="92" t="n"/>
+      <c r="H11" s="92" t="n"/>
       <c r="I11" s="6" t="n"/>
-      <c r="J11" s="99" t="n"/>
-      <c r="K11" s="99" t="n"/>
+      <c r="J11" s="92" t="n"/>
+      <c r="K11" s="92" t="n"/>
       <c r="L11" s="6" t="n"/>
-      <c r="M11" s="99" t="n"/>
-      <c r="N11" s="99" t="n"/>
+      <c r="M11" s="92" t="n"/>
+      <c r="N11" s="92" t="n"/>
       <c r="O11" s="6" t="n"/>
-      <c r="P11" s="99" t="n"/>
-      <c r="Q11" s="99" t="n"/>
+      <c r="P11" s="92" t="n"/>
+      <c r="Q11" s="92" t="n"/>
       <c r="R11" s="6" t="n"/>
-      <c r="S11" s="99" t="n"/>
-      <c r="T11" s="99" t="n"/>
+      <c r="S11" s="92" t="n"/>
+      <c r="T11" s="92" t="n"/>
       <c r="U11" s="7" t="n"/>
     </row>
     <row r="12" ht="17.5" customFormat="1" customHeight="1" s="18">
-      <c r="A12" s="90" t="inlineStr">
+      <c r="A12" s="76" t="inlineStr">
         <is>
           <t>Test Case Results</t>
         </is>
@@ -1534,18 +1534,18 @@
       <c r="F12" s="120" t="n"/>
       <c r="G12" s="120" t="n"/>
       <c r="H12" s="120" t="n"/>
-      <c r="I12" s="91" t="n"/>
-      <c r="J12" s="91" t="n"/>
-      <c r="K12" s="96" t="n"/>
-      <c r="L12" s="91" t="n"/>
-      <c r="M12" s="91" t="n"/>
-      <c r="N12" s="96" t="n"/>
-      <c r="O12" s="91" t="n"/>
-      <c r="P12" s="91" t="n"/>
-      <c r="Q12" s="96" t="n"/>
-      <c r="R12" s="91" t="n"/>
-      <c r="S12" s="91" t="n"/>
-      <c r="T12" s="96" t="n"/>
+      <c r="I12" s="77" t="n"/>
+      <c r="J12" s="77" t="n"/>
+      <c r="K12" s="103" t="n"/>
+      <c r="L12" s="77" t="n"/>
+      <c r="M12" s="77" t="n"/>
+      <c r="N12" s="103" t="n"/>
+      <c r="O12" s="77" t="n"/>
+      <c r="P12" s="77" t="n"/>
+      <c r="Q12" s="103" t="n"/>
+      <c r="R12" s="77" t="n"/>
+      <c r="S12" s="77" t="n"/>
+      <c r="T12" s="103" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="122" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="R13" s="8" t="n"/>
       <c r="S13" s="8" t="n"/>
       <c r="T13" s="9" t="n"/>
-      <c r="U13" s="96" t="n"/>
+      <c r="U13" s="103" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="124" t="n"/>
@@ -1585,64 +1585,64 @@
           <t>Preconditions</t>
         </is>
       </c>
-      <c r="C14" s="83" t="inlineStr">
+      <c r="C14" s="78" t="inlineStr">
         <is>
           <t>Verification</t>
         </is>
       </c>
       <c r="D14" s="118" t="n"/>
       <c r="E14" s="118" t="n"/>
-      <c r="F14" s="89" t="inlineStr">
+      <c r="F14" s="75" t="inlineStr">
         <is>
           <t>Iteration 1</t>
         </is>
       </c>
       <c r="G14" s="118" t="n"/>
       <c r="H14" s="119" t="n"/>
-      <c r="I14" s="89" t="inlineStr">
+      <c r="I14" s="75" t="inlineStr">
         <is>
           <t>Iteration 2</t>
         </is>
       </c>
       <c r="J14" s="118" t="n"/>
       <c r="K14" s="119" t="n"/>
-      <c r="L14" s="89" t="inlineStr">
+      <c r="L14" s="75" t="inlineStr">
         <is>
           <t>Iteration 3</t>
         </is>
       </c>
       <c r="M14" s="118" t="n"/>
       <c r="N14" s="119" t="n"/>
-      <c r="O14" s="89" t="inlineStr">
+      <c r="O14" s="75" t="inlineStr">
         <is>
           <t>Iteration 4</t>
         </is>
       </c>
       <c r="P14" s="118" t="n"/>
       <c r="Q14" s="119" t="n"/>
-      <c r="R14" s="89" t="inlineStr">
+      <c r="R14" s="75" t="inlineStr">
         <is>
           <t>Iteration 5</t>
         </is>
       </c>
       <c r="S14" s="118" t="n"/>
       <c r="T14" s="119" t="n"/>
-      <c r="U14" s="96" t="n"/>
+      <c r="U14" s="103" t="n"/>
     </row>
     <row r="15" ht="69.5" customHeight="1">
       <c r="A15" s="126" t="n"/>
       <c r="B15" s="127" t="n"/>
-      <c r="C15" s="89" t="inlineStr">
+      <c r="C15" s="75" t="inlineStr">
         <is>
           <t>Test Condition</t>
         </is>
       </c>
-      <c r="D15" s="89" t="inlineStr">
+      <c r="D15" s="75" t="inlineStr">
         <is>
           <t>Step with description</t>
         </is>
       </c>
-      <c r="E15" s="84" t="inlineStr">
+      <c r="E15" s="79" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
@@ -1737,7 +1737,7 @@
           <t>Remarks</t>
         </is>
       </c>
-      <c r="U15" s="96" t="n"/>
+      <c r="U15" s="103" t="n"/>
     </row>
     <row r="16" outlineLevel="1" ht="13" customHeight="1">
       <c r="A16" s="43">
@@ -1775,7 +1775,7 @@
       <c r="R16" s="13" t="n"/>
       <c r="S16" s="14" t="n"/>
       <c r="T16" s="14" t="n"/>
-      <c r="U16" s="96" t="n"/>
+      <c r="U16" s="103" t="n"/>
     </row>
     <row r="17" outlineLevel="1" ht="13" customHeight="1">
       <c r="A17" s="43">
@@ -1813,7 +1813,7 @@
       <c r="R17" s="13" t="n"/>
       <c r="S17" s="14" t="n"/>
       <c r="T17" s="14" t="n"/>
-      <c r="U17" s="96" t="n"/>
+      <c r="U17" s="103" t="n"/>
     </row>
     <row r="18" outlineLevel="1" ht="13" customFormat="1" customHeight="1" s="41">
       <c r="A18" s="43">
@@ -1889,7 +1889,7 @@
       <c r="R19" s="13" t="n"/>
       <c r="S19" s="14" t="n"/>
       <c r="T19" s="14" t="n"/>
-      <c r="U19" s="96" t="n"/>
+      <c r="U19" s="103" t="n"/>
     </row>
     <row r="20" outlineLevel="1" ht="13" customHeight="1">
       <c r="A20" s="43">
@@ -1927,7 +1927,7 @@
       <c r="R20" s="13" t="n"/>
       <c r="S20" s="14" t="n"/>
       <c r="T20" s="14" t="n"/>
-      <c r="U20" s="96" t="n"/>
+      <c r="U20" s="103" t="n"/>
     </row>
     <row r="21" outlineLevel="1" ht="13" customHeight="1">
       <c r="A21" s="43">
@@ -1965,7 +1965,7 @@
       <c r="R21" s="13" t="n"/>
       <c r="S21" s="14" t="n"/>
       <c r="T21" s="14" t="n"/>
-      <c r="U21" s="96" t="n"/>
+      <c r="U21" s="103" t="n"/>
     </row>
     <row r="22" outlineLevel="1" ht="13" customHeight="1">
       <c r="A22" s="43">
@@ -2003,7 +2003,7 @@
       <c r="R22" s="13" t="n"/>
       <c r="S22" s="14" t="n"/>
       <c r="T22" s="14" t="n"/>
-      <c r="U22" s="96" t="n"/>
+      <c r="U22" s="103" t="n"/>
     </row>
     <row r="23" outlineLevel="1" ht="13" customHeight="1">
       <c r="A23" s="43">
@@ -2041,7 +2041,7 @@
       <c r="R23" s="13" t="n"/>
       <c r="S23" s="14" t="n"/>
       <c r="T23" s="14" t="n"/>
-      <c r="U23" s="96" t="n"/>
+      <c r="U23" s="103" t="n"/>
     </row>
     <row r="24" outlineLevel="1" ht="13" customHeight="1">
       <c r="A24" s="43">
@@ -2079,7 +2079,7 @@
       <c r="R24" s="13" t="n"/>
       <c r="S24" s="14" t="n"/>
       <c r="T24" s="14" t="n"/>
-      <c r="U24" s="96" t="n"/>
+      <c r="U24" s="103" t="n"/>
     </row>
     <row r="25" outlineLevel="1" ht="13" customHeight="1">
       <c r="A25" s="43">
@@ -2117,7 +2117,7 @@
       <c r="R25" s="13" t="n"/>
       <c r="S25" s="14" t="n"/>
       <c r="T25" s="14" t="n"/>
-      <c r="U25" s="96" t="n"/>
+      <c r="U25" s="103" t="n"/>
     </row>
     <row r="26" outlineLevel="1" ht="13" customHeight="1">
       <c r="A26" s="43">
@@ -2155,7 +2155,7 @@
       <c r="R26" s="13" t="n"/>
       <c r="S26" s="14" t="n"/>
       <c r="T26" s="14" t="n"/>
-      <c r="U26" s="96" t="n"/>
+      <c r="U26" s="103" t="n"/>
     </row>
     <row r="27" outlineLevel="1" ht="13" customHeight="1">
       <c r="A27" s="43">
@@ -2193,7 +2193,7 @@
       <c r="R27" s="13" t="n"/>
       <c r="S27" s="14" t="n"/>
       <c r="T27" s="14" t="n"/>
-      <c r="U27" s="96" t="n"/>
+      <c r="U27" s="103" t="n"/>
     </row>
     <row r="28" outlineLevel="1" ht="13" customHeight="1">
       <c r="A28" s="43">
@@ -2231,7 +2231,7 @@
       <c r="R28" s="13" t="n"/>
       <c r="S28" s="14" t="n"/>
       <c r="T28" s="14" t="n"/>
-      <c r="U28" s="96" t="n"/>
+      <c r="U28" s="103" t="n"/>
     </row>
     <row r="29" outlineLevel="1" ht="13" customHeight="1">
       <c r="A29" s="43">
@@ -2269,7 +2269,7 @@
       <c r="R29" s="13" t="n"/>
       <c r="S29" s="14" t="n"/>
       <c r="T29" s="14" t="n"/>
-      <c r="U29" s="96" t="n"/>
+      <c r="U29" s="103" t="n"/>
     </row>
     <row r="30" outlineLevel="1" ht="13" customHeight="1">
       <c r="A30" s="43">
@@ -2307,7 +2307,7 @@
       <c r="R30" s="13" t="n"/>
       <c r="S30" s="14" t="n"/>
       <c r="T30" s="14" t="n"/>
-      <c r="U30" s="96" t="n"/>
+      <c r="U30" s="103" t="n"/>
     </row>
     <row r="31" outlineLevel="1" ht="13" customHeight="1">
       <c r="A31" s="43">
@@ -2345,7 +2345,7 @@
       <c r="R31" s="13" t="n"/>
       <c r="S31" s="14" t="n"/>
       <c r="T31" s="14" t="n"/>
-      <c r="U31" s="96" t="n"/>
+      <c r="U31" s="103" t="n"/>
     </row>
     <row r="32" outlineLevel="1" ht="13" customHeight="1">
       <c r="A32" s="43">
@@ -2383,7 +2383,7 @@
       <c r="R32" s="13" t="n"/>
       <c r="S32" s="14" t="n"/>
       <c r="T32" s="14" t="n"/>
-      <c r="U32" s="96" t="n"/>
+      <c r="U32" s="103" t="n"/>
     </row>
     <row r="33" outlineLevel="1" ht="13" customHeight="1">
       <c r="A33" s="43">
@@ -2421,7 +2421,7 @@
       <c r="R33" s="13" t="n"/>
       <c r="S33" s="14" t="n"/>
       <c r="T33" s="14" t="n"/>
-      <c r="U33" s="96" t="n"/>
+      <c r="U33" s="103" t="n"/>
     </row>
     <row r="34" outlineLevel="1" ht="13" customHeight="1">
       <c r="A34" s="43">
@@ -2459,7 +2459,7 @@
       <c r="R34" s="13" t="n"/>
       <c r="S34" s="14" t="n"/>
       <c r="T34" s="14" t="n"/>
-      <c r="U34" s="96" t="n"/>
+      <c r="U34" s="103" t="n"/>
     </row>
     <row r="35" outlineLevel="1" ht="13" customHeight="1">
       <c r="A35" s="43">
@@ -2497,7 +2497,7 @@
       <c r="R35" s="13" t="n"/>
       <c r="S35" s="14" t="n"/>
       <c r="T35" s="14" t="n"/>
-      <c r="U35" s="96" t="n"/>
+      <c r="U35" s="103" t="n"/>
     </row>
     <row r="36" outlineLevel="1" ht="13" customHeight="1">
       <c r="A36" s="43">
@@ -2535,7 +2535,7 @@
       <c r="R36" s="13" t="n"/>
       <c r="S36" s="14" t="n"/>
       <c r="T36" s="14" t="n"/>
-      <c r="U36" s="96" t="n"/>
+      <c r="U36" s="103" t="n"/>
     </row>
     <row r="37" outlineLevel="1" ht="13" customHeight="1">
       <c r="A37" s="43">
@@ -2573,7 +2573,7 @@
       <c r="R37" s="13" t="n"/>
       <c r="S37" s="14" t="n"/>
       <c r="T37" s="14" t="n"/>
-      <c r="U37" s="96" t="n"/>
+      <c r="U37" s="103" t="n"/>
     </row>
     <row r="38" outlineLevel="1" ht="13" customHeight="1">
       <c r="A38" s="43">
@@ -2611,7 +2611,7 @@
       <c r="R38" s="13" t="n"/>
       <c r="S38" s="14" t="n"/>
       <c r="T38" s="14" t="n"/>
-      <c r="U38" s="96" t="n"/>
+      <c r="U38" s="103" t="n"/>
     </row>
     <row r="39" outlineLevel="1" ht="13" customHeight="1">
       <c r="A39" s="43">
@@ -2649,7 +2649,7 @@
       <c r="R39" s="13" t="n"/>
       <c r="S39" s="14" t="n"/>
       <c r="T39" s="14" t="n"/>
-      <c r="U39" s="96" t="n"/>
+      <c r="U39" s="103" t="n"/>
     </row>
     <row r="40" collapsed="1" ht="13" customHeight="1">
       <c r="A40" s="43">
@@ -2687,7 +2687,7 @@
       <c r="R40" s="13" t="n"/>
       <c r="S40" s="14" t="n"/>
       <c r="T40" s="14" t="n"/>
-      <c r="U40" s="96" t="n"/>
+      <c r="U40" s="103" t="n"/>
     </row>
     <row r="41" outlineLevel="1" ht="13" customHeight="1">
       <c r="A41" s="43">
@@ -2725,7 +2725,7 @@
       <c r="R41" s="13" t="n"/>
       <c r="S41" s="14" t="n"/>
       <c r="T41" s="14" t="n"/>
-      <c r="U41" s="96" t="n"/>
+      <c r="U41" s="103" t="n"/>
     </row>
     <row r="42" outlineLevel="1" collapsed="1" ht="13" customHeight="1">
       <c r="A42" s="43">
@@ -2763,7 +2763,7 @@
       <c r="R42" s="13" t="n"/>
       <c r="S42" s="14" t="n"/>
       <c r="T42" s="14" t="n"/>
-      <c r="U42" s="96" t="n"/>
+      <c r="U42" s="103" t="n"/>
     </row>
     <row r="43" outlineLevel="1" ht="13" customHeight="1">
       <c r="A43" s="43">
@@ -2801,7 +2801,7 @@
       <c r="R43" s="13" t="n"/>
       <c r="S43" s="14" t="n"/>
       <c r="T43" s="14" t="n"/>
-      <c r="U43" s="96" t="n"/>
+      <c r="U43" s="103" t="n"/>
     </row>
     <row r="44" outlineLevel="1" ht="13" customHeight="1">
       <c r="A44" s="43">
@@ -2839,7 +2839,7 @@
       <c r="R44" s="13" t="n"/>
       <c r="S44" s="14" t="n"/>
       <c r="T44" s="14" t="n"/>
-      <c r="U44" s="96" t="n"/>
+      <c r="U44" s="103" t="n"/>
     </row>
     <row r="45" outlineLevel="1" ht="13" customHeight="1">
       <c r="A45" s="43">
@@ -2877,7 +2877,7 @@
       <c r="R45" s="13" t="n"/>
       <c r="S45" s="14" t="n"/>
       <c r="T45" s="14" t="n"/>
-      <c r="U45" s="96" t="n"/>
+      <c r="U45" s="103" t="n"/>
     </row>
     <row r="46" outlineLevel="1" ht="13" customHeight="1">
       <c r="A46" s="43">
@@ -2915,7 +2915,7 @@
       <c r="R46" s="13" t="n"/>
       <c r="S46" s="14" t="n"/>
       <c r="T46" s="14" t="n"/>
-      <c r="U46" s="96" t="n"/>
+      <c r="U46" s="103" t="n"/>
     </row>
     <row r="47" outlineLevel="1" ht="13" customHeight="1">
       <c r="A47" s="43">
@@ -2953,7 +2953,7 @@
       <c r="R47" s="13" t="n"/>
       <c r="S47" s="14" t="n"/>
       <c r="T47" s="14" t="n"/>
-      <c r="U47" s="96" t="n"/>
+      <c r="U47" s="103" t="n"/>
     </row>
     <row r="48" outlineLevel="1" ht="13" customHeight="1">
       <c r="A48" s="43">
@@ -2991,7 +2991,7 @@
       <c r="R48" s="13" t="n"/>
       <c r="S48" s="14" t="n"/>
       <c r="T48" s="14" t="n"/>
-      <c r="U48" s="96" t="n"/>
+      <c r="U48" s="103" t="n"/>
     </row>
     <row r="49" outlineLevel="1" ht="13" customHeight="1">
       <c r="A49" s="43">
@@ -3029,7 +3029,7 @@
       <c r="R49" s="13" t="n"/>
       <c r="S49" s="14" t="n"/>
       <c r="T49" s="14" t="n"/>
-      <c r="U49" s="96" t="n"/>
+      <c r="U49" s="103" t="n"/>
     </row>
     <row r="50" outlineLevel="1" ht="13" customHeight="1">
       <c r="A50" s="43">
@@ -3067,7 +3067,7 @@
       <c r="R50" s="13" t="n"/>
       <c r="S50" s="14" t="n"/>
       <c r="T50" s="14" t="n"/>
-      <c r="U50" s="96" t="n"/>
+      <c r="U50" s="103" t="n"/>
     </row>
     <row r="51" outlineLevel="1" ht="13" customHeight="1">
       <c r="A51" s="43">
@@ -3105,7 +3105,7 @@
       <c r="R51" s="13" t="n"/>
       <c r="S51" s="14" t="n"/>
       <c r="T51" s="14" t="n"/>
-      <c r="U51" s="96" t="n"/>
+      <c r="U51" s="103" t="n"/>
     </row>
     <row r="52" outlineLevel="1" ht="13" customHeight="1">
       <c r="A52" s="43">
@@ -3143,7 +3143,7 @@
       <c r="R52" s="13" t="n"/>
       <c r="S52" s="14" t="n"/>
       <c r="T52" s="14" t="n"/>
-      <c r="U52" s="96" t="n"/>
+      <c r="U52" s="103" t="n"/>
     </row>
     <row r="53" outlineLevel="1" ht="13" customHeight="1">
       <c r="A53" s="43">
@@ -3181,7 +3181,7 @@
       <c r="R53" s="13" t="n"/>
       <c r="S53" s="14" t="n"/>
       <c r="T53" s="14" t="n"/>
-      <c r="U53" s="96" t="n"/>
+      <c r="U53" s="103" t="n"/>
     </row>
     <row r="54" outlineLevel="1" ht="13" customHeight="1">
       <c r="A54" s="43">
@@ -3219,7 +3219,7 @@
       <c r="R54" s="13" t="n"/>
       <c r="S54" s="14" t="n"/>
       <c r="T54" s="14" t="n"/>
-      <c r="U54" s="96" t="n"/>
+      <c r="U54" s="103" t="n"/>
     </row>
     <row r="55" outlineLevel="1" ht="13" customHeight="1">
       <c r="A55" s="43">
@@ -3257,7 +3257,7 @@
       <c r="R55" s="13" t="n"/>
       <c r="S55" s="14" t="n"/>
       <c r="T55" s="14" t="n"/>
-      <c r="U55" s="96" t="n"/>
+      <c r="U55" s="103" t="n"/>
     </row>
     <row r="56" outlineLevel="1" ht="13" customHeight="1">
       <c r="A56" s="43">
@@ -3295,7 +3295,7 @@
       <c r="R56" s="13" t="n"/>
       <c r="S56" s="14" t="n"/>
       <c r="T56" s="14" t="n"/>
-      <c r="U56" s="96" t="n"/>
+      <c r="U56" s="103" t="n"/>
     </row>
     <row r="57" outlineLevel="1" ht="13" customHeight="1">
       <c r="A57" s="43">
@@ -3333,7 +3333,7 @@
       <c r="R57" s="13" t="n"/>
       <c r="S57" s="14" t="n"/>
       <c r="T57" s="14" t="n"/>
-      <c r="U57" s="96" t="n"/>
+      <c r="U57" s="103" t="n"/>
     </row>
     <row r="58" outlineLevel="1" ht="13" customHeight="1">
       <c r="A58" s="43">
@@ -3371,7 +3371,7 @@
       <c r="R58" s="13" t="n"/>
       <c r="S58" s="14" t="n"/>
       <c r="T58" s="14" t="n"/>
-      <c r="U58" s="96" t="n"/>
+      <c r="U58" s="103" t="n"/>
     </row>
     <row r="59" outlineLevel="1" ht="13" customHeight="1">
       <c r="A59" s="43">
@@ -3409,7 +3409,7 @@
       <c r="R59" s="13" t="n"/>
       <c r="S59" s="14" t="n"/>
       <c r="T59" s="14" t="n"/>
-      <c r="U59" s="96" t="n"/>
+      <c r="U59" s="103" t="n"/>
     </row>
     <row r="60" outlineLevel="1" ht="89.25" customHeight="1">
       <c r="A60" s="43">
@@ -3447,7 +3447,7 @@
       <c r="R60" s="13" t="n"/>
       <c r="S60" s="14" t="n"/>
       <c r="T60" s="14" t="n"/>
-      <c r="U60" s="96" t="n"/>
+      <c r="U60" s="103" t="n"/>
     </row>
     <row r="61" outlineLevel="1" ht="87.75" customHeight="1">
       <c r="A61" s="43">
@@ -3485,7 +3485,7 @@
       <c r="R61" s="13" t="n"/>
       <c r="S61" s="14" t="n"/>
       <c r="T61" s="14" t="n"/>
-      <c r="U61" s="96" t="n"/>
+      <c r="U61" s="103" t="n"/>
     </row>
     <row r="62" outlineLevel="1" ht="13" customHeight="1">
       <c r="A62" s="43">
@@ -3523,7 +3523,7 @@
       <c r="R62" s="13" t="n"/>
       <c r="S62" s="14" t="n"/>
       <c r="T62" s="14" t="n"/>
-      <c r="U62" s="96" t="n"/>
+      <c r="U62" s="103" t="n"/>
     </row>
     <row r="63" outlineLevel="1" ht="13" customHeight="1">
       <c r="A63" s="43">
@@ -3561,7 +3561,7 @@
       <c r="R63" s="13" t="n"/>
       <c r="S63" s="14" t="n"/>
       <c r="T63" s="14" t="n"/>
-      <c r="U63" s="96" t="n"/>
+      <c r="U63" s="103" t="n"/>
     </row>
     <row r="64" outlineLevel="1" ht="13" customHeight="1">
       <c r="A64" s="43">
@@ -3599,7 +3599,7 @@
       <c r="R64" s="13" t="n"/>
       <c r="S64" s="14" t="n"/>
       <c r="T64" s="14" t="n"/>
-      <c r="U64" s="96" t="n"/>
+      <c r="U64" s="103" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1">
       <c r="A65" s="43">
@@ -3637,7 +3637,7 @@
       <c r="R65" s="13" t="n"/>
       <c r="S65" s="14" t="n"/>
       <c r="T65" s="14" t="n"/>
-      <c r="U65" s="96" t="n"/>
+      <c r="U65" s="103" t="n"/>
     </row>
     <row r="66" outlineLevel="1" ht="13" customHeight="1">
       <c r="A66" s="43">
@@ -3675,7 +3675,7 @@
       <c r="R66" s="13" t="n"/>
       <c r="S66" s="14" t="n"/>
       <c r="T66" s="14" t="n"/>
-      <c r="U66" s="96" t="n"/>
+      <c r="U66" s="103" t="n"/>
     </row>
     <row r="67" outlineLevel="1" ht="13" customHeight="1">
       <c r="A67" s="43">
@@ -3713,7 +3713,7 @@
       <c r="R67" s="13" t="n"/>
       <c r="S67" s="14" t="n"/>
       <c r="T67" s="14" t="n"/>
-      <c r="U67" s="96" t="n"/>
+      <c r="U67" s="103" t="n"/>
     </row>
     <row r="68" outlineLevel="1" ht="13" customHeight="1">
       <c r="A68" s="43">
@@ -3751,7 +3751,7 @@
       <c r="R68" s="13" t="n"/>
       <c r="S68" s="14" t="n"/>
       <c r="T68" s="14" t="n"/>
-      <c r="U68" s="96" t="n"/>
+      <c r="U68" s="103" t="n"/>
     </row>
     <row r="69" outlineLevel="1" ht="13" customHeight="1">
       <c r="A69" s="43">
@@ -3789,7 +3789,7 @@
       <c r="R69" s="13" t="n"/>
       <c r="S69" s="14" t="n"/>
       <c r="T69" s="14" t="n"/>
-      <c r="U69" s="96" t="n"/>
+      <c r="U69" s="103" t="n"/>
     </row>
     <row r="70" outlineLevel="1" ht="13" customHeight="1">
       <c r="A70" s="43">
@@ -3827,7 +3827,7 @@
       <c r="R70" s="13" t="n"/>
       <c r="S70" s="14" t="n"/>
       <c r="T70" s="14" t="n"/>
-      <c r="U70" s="96" t="n"/>
+      <c r="U70" s="103" t="n"/>
     </row>
     <row r="71" outlineLevel="1" ht="13" customHeight="1">
       <c r="A71" s="43">
@@ -3865,7 +3865,7 @@
       <c r="R71" s="13" t="n"/>
       <c r="S71" s="14" t="n"/>
       <c r="T71" s="14" t="n"/>
-      <c r="U71" s="96" t="n"/>
+      <c r="U71" s="103" t="n"/>
     </row>
     <row r="72" outlineLevel="1" ht="13" customHeight="1">
       <c r="A72" s="43">
@@ -3903,7 +3903,7 @@
       <c r="R72" s="13" t="n"/>
       <c r="S72" s="14" t="n"/>
       <c r="T72" s="14" t="n"/>
-      <c r="U72" s="96" t="n"/>
+      <c r="U72" s="103" t="n"/>
     </row>
     <row r="73" outlineLevel="1" ht="13" customHeight="1">
       <c r="A73" s="43">
@@ -3941,7 +3941,7 @@
       <c r="R73" s="13" t="n"/>
       <c r="S73" s="14" t="n"/>
       <c r="T73" s="14" t="n"/>
-      <c r="U73" s="96" t="n"/>
+      <c r="U73" s="103" t="n"/>
     </row>
     <row r="74" outlineLevel="1" ht="13" customHeight="1">
       <c r="A74" s="43">
@@ -3979,7 +3979,7 @@
       <c r="R74" s="13" t="n"/>
       <c r="S74" s="14" t="n"/>
       <c r="T74" s="14" t="n"/>
-      <c r="U74" s="96" t="n"/>
+      <c r="U74" s="103" t="n"/>
     </row>
     <row r="75" outlineLevel="1" ht="13" customHeight="1">
       <c r="A75" s="43">
@@ -4017,7 +4017,7 @@
       <c r="R75" s="13" t="n"/>
       <c r="S75" s="14" t="n"/>
       <c r="T75" s="14" t="n"/>
-      <c r="U75" s="96" t="n"/>
+      <c r="U75" s="103" t="n"/>
     </row>
     <row r="76" outlineLevel="1" ht="13" customHeight="1">
       <c r="A76" s="43">
@@ -4055,7 +4055,7 @@
       <c r="R76" s="13" t="n"/>
       <c r="S76" s="14" t="n"/>
       <c r="T76" s="14" t="n"/>
-      <c r="U76" s="96" t="n"/>
+      <c r="U76" s="103" t="n"/>
     </row>
     <row r="77" outlineLevel="1" ht="13" customHeight="1">
       <c r="A77" s="43">
@@ -4093,7 +4093,7 @@
       <c r="R77" s="13" t="n"/>
       <c r="S77" s="14" t="n"/>
       <c r="T77" s="14" t="n"/>
-      <c r="U77" s="96" t="n"/>
+      <c r="U77" s="103" t="n"/>
     </row>
     <row r="78" outlineLevel="1" ht="13" customHeight="1">
       <c r="A78" s="43">
@@ -4131,7 +4131,7 @@
       <c r="R78" s="13" t="n"/>
       <c r="S78" s="14" t="n"/>
       <c r="T78" s="14" t="n"/>
-      <c r="U78" s="96" t="n"/>
+      <c r="U78" s="103" t="n"/>
     </row>
     <row r="79" outlineLevel="1" ht="13" customHeight="1">
       <c r="A79" s="43">
@@ -4169,7 +4169,7 @@
       <c r="R79" s="13" t="n"/>
       <c r="S79" s="14" t="n"/>
       <c r="T79" s="14" t="n"/>
-      <c r="U79" s="96" t="n"/>
+      <c r="U79" s="103" t="n"/>
     </row>
     <row r="80" outlineLevel="1" ht="13" customHeight="1">
       <c r="A80" s="43">
@@ -4207,7 +4207,7 @@
       <c r="R80" s="13" t="n"/>
       <c r="S80" s="14" t="n"/>
       <c r="T80" s="14" t="n"/>
-      <c r="U80" s="96" t="n"/>
+      <c r="U80" s="103" t="n"/>
     </row>
     <row r="81" outlineLevel="1" ht="13" customHeight="1">
       <c r="A81" s="43">
@@ -4245,7 +4245,7 @@
       <c r="R81" s="13" t="n"/>
       <c r="S81" s="14" t="n"/>
       <c r="T81" s="14" t="n"/>
-      <c r="U81" s="96" t="n"/>
+      <c r="U81" s="103" t="n"/>
     </row>
     <row r="82" outlineLevel="1" ht="13" customHeight="1">
       <c r="A82" s="43">
@@ -4283,7 +4283,7 @@
       <c r="R82" s="13" t="n"/>
       <c r="S82" s="14" t="n"/>
       <c r="T82" s="14" t="n"/>
-      <c r="U82" s="96" t="n"/>
+      <c r="U82" s="103" t="n"/>
     </row>
     <row r="83" outlineLevel="1" ht="13" customHeight="1">
       <c r="A83" s="43">
@@ -4321,7 +4321,7 @@
       <c r="R83" s="13" t="n"/>
       <c r="S83" s="14" t="n"/>
       <c r="T83" s="14" t="n"/>
-      <c r="U83" s="96" t="n"/>
+      <c r="U83" s="103" t="n"/>
     </row>
     <row r="84" outlineLevel="1" ht="13" customHeight="1">
       <c r="A84" s="43">
@@ -4359,7 +4359,7 @@
       <c r="R84" s="13" t="n"/>
       <c r="S84" s="14" t="n"/>
       <c r="T84" s="14" t="n"/>
-      <c r="U84" s="96" t="n"/>
+      <c r="U84" s="103" t="n"/>
     </row>
     <row r="85" outlineLevel="1" ht="13" customHeight="1">
       <c r="A85" s="43">
@@ -4397,7 +4397,7 @@
       <c r="R85" s="13" t="n"/>
       <c r="S85" s="14" t="n"/>
       <c r="T85" s="14" t="n"/>
-      <c r="U85" s="96" t="n"/>
+      <c r="U85" s="103" t="n"/>
     </row>
     <row r="86" outlineLevel="1" ht="13" customHeight="1">
       <c r="A86" s="43">
@@ -4435,7 +4435,7 @@
       <c r="R86" s="13" t="n"/>
       <c r="S86" s="14" t="n"/>
       <c r="T86" s="14" t="n"/>
-      <c r="U86" s="96" t="n"/>
+      <c r="U86" s="103" t="n"/>
     </row>
     <row r="87" outlineLevel="1" ht="13" customHeight="1">
       <c r="A87" s="43">
@@ -4473,7 +4473,7 @@
       <c r="R87" s="13" t="n"/>
       <c r="S87" s="14" t="n"/>
       <c r="T87" s="14" t="n"/>
-      <c r="U87" s="96" t="n"/>
+      <c r="U87" s="103" t="n"/>
     </row>
     <row r="88" outlineLevel="1" ht="13" customHeight="1">
       <c r="A88" s="43">
@@ -4511,7 +4511,7 @@
       <c r="R88" s="13" t="n"/>
       <c r="S88" s="14" t="n"/>
       <c r="T88" s="14" t="n"/>
-      <c r="U88" s="96" t="n"/>
+      <c r="U88" s="103" t="n"/>
     </row>
     <row r="89" outlineLevel="1" ht="13" customHeight="1">
       <c r="A89" s="43">
@@ -4549,7 +4549,7 @@
       <c r="R89" s="13" t="n"/>
       <c r="S89" s="14" t="n"/>
       <c r="T89" s="14" t="n"/>
-      <c r="U89" s="96" t="n"/>
+      <c r="U89" s="103" t="n"/>
     </row>
     <row r="90" collapsed="1" ht="13" customHeight="1">
       <c r="A90" s="43">
@@ -4587,7 +4587,7 @@
       <c r="R90" s="13" t="n"/>
       <c r="S90" s="14" t="n"/>
       <c r="T90" s="14" t="n"/>
-      <c r="U90" s="96" t="n"/>
+      <c r="U90" s="103" t="n"/>
     </row>
     <row r="91" outlineLevel="1" ht="13" customHeight="1">
       <c r="A91" s="43">
@@ -4625,7 +4625,7 @@
       <c r="R91" s="13" t="n"/>
       <c r="S91" s="14" t="n"/>
       <c r="T91" s="14" t="n"/>
-      <c r="U91" s="96" t="n"/>
+      <c r="U91" s="103" t="n"/>
     </row>
     <row r="92" outlineLevel="1" ht="13" customHeight="1">
       <c r="A92" s="43">
@@ -4663,7 +4663,7 @@
       <c r="R92" s="13" t="n"/>
       <c r="S92" s="14" t="n"/>
       <c r="T92" s="14" t="n"/>
-      <c r="U92" s="96" t="n"/>
+      <c r="U92" s="103" t="n"/>
     </row>
     <row r="93" outlineLevel="1" ht="13" customHeight="1">
       <c r="A93" s="43">
@@ -4701,7 +4701,7 @@
       <c r="R93" s="13" t="n"/>
       <c r="S93" s="14" t="n"/>
       <c r="T93" s="14" t="n"/>
-      <c r="U93" s="96" t="n"/>
+      <c r="U93" s="103" t="n"/>
     </row>
     <row r="94" outlineLevel="1" ht="13" customHeight="1">
       <c r="A94" s="43">
@@ -4739,7 +4739,7 @@
       <c r="R94" s="13" t="n"/>
       <c r="S94" s="14" t="n"/>
       <c r="T94" s="14" t="n"/>
-      <c r="U94" s="96" t="n"/>
+      <c r="U94" s="103" t="n"/>
     </row>
     <row r="95" outlineLevel="1" ht="13" customHeight="1">
       <c r="A95" s="43">
@@ -4777,7 +4777,7 @@
       <c r="R95" s="13" t="n"/>
       <c r="S95" s="14" t="n"/>
       <c r="T95" s="14" t="n"/>
-      <c r="U95" s="96" t="n"/>
+      <c r="U95" s="103" t="n"/>
     </row>
     <row r="96" outlineLevel="1" ht="13" customHeight="1">
       <c r="A96" s="43">
@@ -4815,7 +4815,7 @@
       <c r="R96" s="13" t="n"/>
       <c r="S96" s="14" t="n"/>
       <c r="T96" s="14" t="n"/>
-      <c r="U96" s="96" t="n"/>
+      <c r="U96" s="103" t="n"/>
     </row>
     <row r="97" outlineLevel="1" ht="13" customHeight="1">
       <c r="A97" s="43">
@@ -4853,7 +4853,7 @@
       <c r="R97" s="13" t="n"/>
       <c r="S97" s="14" t="n"/>
       <c r="T97" s="14" t="n"/>
-      <c r="U97" s="96" t="n"/>
+      <c r="U97" s="103" t="n"/>
     </row>
     <row r="98" outlineLevel="1" ht="13" customHeight="1">
       <c r="A98" s="43">
@@ -4891,7 +4891,7 @@
       <c r="R98" s="13" t="n"/>
       <c r="S98" s="14" t="n"/>
       <c r="T98" s="14" t="n"/>
-      <c r="U98" s="96" t="n"/>
+      <c r="U98" s="103" t="n"/>
     </row>
     <row r="99" outlineLevel="1" ht="13" customHeight="1">
       <c r="A99" s="43">
@@ -4929,7 +4929,7 @@
       <c r="R99" s="13" t="n"/>
       <c r="S99" s="14" t="n"/>
       <c r="T99" s="14" t="n"/>
-      <c r="U99" s="96" t="n"/>
+      <c r="U99" s="103" t="n"/>
     </row>
     <row r="100" outlineLevel="1" ht="13" customHeight="1">
       <c r="A100" s="43">
@@ -4967,7 +4967,7 @@
       <c r="R100" s="13" t="n"/>
       <c r="S100" s="14" t="n"/>
       <c r="T100" s="14" t="n"/>
-      <c r="U100" s="96" t="n"/>
+      <c r="U100" s="103" t="n"/>
     </row>
     <row r="101" outlineLevel="1" ht="13" customHeight="1">
       <c r="A101" s="43">
@@ -5005,7 +5005,7 @@
       <c r="R101" s="13" t="n"/>
       <c r="S101" s="14" t="n"/>
       <c r="T101" s="14" t="n"/>
-      <c r="U101" s="96" t="n"/>
+      <c r="U101" s="103" t="n"/>
     </row>
     <row r="102" outlineLevel="1" ht="13" customHeight="1">
       <c r="A102" s="43">
@@ -5043,7 +5043,7 @@
       <c r="R102" s="13" t="n"/>
       <c r="S102" s="14" t="n"/>
       <c r="T102" s="14" t="n"/>
-      <c r="U102" s="96" t="n"/>
+      <c r="U102" s="103" t="n"/>
     </row>
     <row r="103" outlineLevel="1" ht="13" customHeight="1">
       <c r="A103" s="43">
@@ -5081,7 +5081,7 @@
       <c r="R103" s="13" t="n"/>
       <c r="S103" s="14" t="n"/>
       <c r="T103" s="14" t="n"/>
-      <c r="U103" s="96" t="n"/>
+      <c r="U103" s="103" t="n"/>
     </row>
     <row r="104" outlineLevel="1" ht="13" customHeight="1">
       <c r="A104" s="43">
@@ -5119,7 +5119,7 @@
       <c r="R104" s="13" t="n"/>
       <c r="S104" s="14" t="n"/>
       <c r="T104" s="14" t="n"/>
-      <c r="U104" s="96" t="n"/>
+      <c r="U104" s="103" t="n"/>
     </row>
     <row r="105" outlineLevel="1" ht="13" customHeight="1">
       <c r="A105" s="43">
@@ -5157,7 +5157,7 @@
       <c r="R105" s="13" t="n"/>
       <c r="S105" s="14" t="n"/>
       <c r="T105" s="14" t="n"/>
-      <c r="U105" s="96" t="n"/>
+      <c r="U105" s="103" t="n"/>
     </row>
     <row r="106" outlineLevel="1" ht="13" customHeight="1">
       <c r="A106" s="43">
@@ -5195,7 +5195,7 @@
       <c r="R106" s="13" t="n"/>
       <c r="S106" s="14" t="n"/>
       <c r="T106" s="14" t="n"/>
-      <c r="U106" s="96" t="n"/>
+      <c r="U106" s="103" t="n"/>
     </row>
     <row r="107" outlineLevel="1" ht="13" customHeight="1">
       <c r="A107" s="43">
@@ -5233,7 +5233,7 @@
       <c r="R107" s="13" t="n"/>
       <c r="S107" s="14" t="n"/>
       <c r="T107" s="14" t="n"/>
-      <c r="U107" s="96" t="n"/>
+      <c r="U107" s="103" t="n"/>
     </row>
     <row r="108" outlineLevel="1" ht="13" customHeight="1">
       <c r="A108" s="43">
@@ -5271,7 +5271,7 @@
       <c r="R108" s="13" t="n"/>
       <c r="S108" s="14" t="n"/>
       <c r="T108" s="14" t="n"/>
-      <c r="U108" s="96" t="n"/>
+      <c r="U108" s="103" t="n"/>
     </row>
     <row r="109" outlineLevel="1" ht="13" customHeight="1">
       <c r="A109" s="43">
@@ -5309,7 +5309,7 @@
       <c r="R109" s="13" t="n"/>
       <c r="S109" s="14" t="n"/>
       <c r="T109" s="14" t="n"/>
-      <c r="U109" s="96" t="n"/>
+      <c r="U109" s="103" t="n"/>
     </row>
     <row r="110" outlineLevel="1" ht="13" customHeight="1">
       <c r="A110" s="43">
@@ -5347,7 +5347,7 @@
       <c r="R110" s="13" t="n"/>
       <c r="S110" s="14" t="n"/>
       <c r="T110" s="14" t="n"/>
-      <c r="U110" s="96" t="n"/>
+      <c r="U110" s="103" t="n"/>
     </row>
     <row r="111" outlineLevel="1" ht="13" customHeight="1">
       <c r="A111" s="43">
@@ -5385,7 +5385,7 @@
       <c r="R111" s="13" t="n"/>
       <c r="S111" s="14" t="n"/>
       <c r="T111" s="14" t="n"/>
-      <c r="U111" s="96" t="n"/>
+      <c r="U111" s="103" t="n"/>
     </row>
     <row r="112" outlineLevel="1" ht="13" customHeight="1">
       <c r="A112" s="43">
@@ -5423,7 +5423,7 @@
       <c r="R112" s="13" t="n"/>
       <c r="S112" s="14" t="n"/>
       <c r="T112" s="14" t="n"/>
-      <c r="U112" s="96" t="n"/>
+      <c r="U112" s="103" t="n"/>
     </row>
     <row r="113" outlineLevel="1" ht="13" customHeight="1">
       <c r="A113" s="43">
@@ -5461,7 +5461,7 @@
       <c r="R113" s="13" t="n"/>
       <c r="S113" s="14" t="n"/>
       <c r="T113" s="14" t="n"/>
-      <c r="U113" s="96" t="n"/>
+      <c r="U113" s="103" t="n"/>
     </row>
     <row r="114" outlineLevel="1" ht="13" customHeight="1">
       <c r="A114" s="43">
@@ -5499,7 +5499,7 @@
       <c r="R114" s="13" t="n"/>
       <c r="S114" s="14" t="n"/>
       <c r="T114" s="14" t="n"/>
-      <c r="U114" s="96" t="n"/>
+      <c r="U114" s="103" t="n"/>
     </row>
     <row r="115" collapsed="1" ht="13" customHeight="1">
       <c r="A115" s="43">
@@ -5537,7 +5537,7 @@
       <c r="R115" s="13" t="n"/>
       <c r="S115" s="14" t="n"/>
       <c r="T115" s="14" t="n"/>
-      <c r="U115" s="96" t="n"/>
+      <c r="U115" s="103" t="n"/>
     </row>
     <row r="116" outlineLevel="1" ht="13" customHeight="1">
       <c r="A116" s="43">
@@ -5575,7 +5575,7 @@
       <c r="R116" s="13" t="n"/>
       <c r="S116" s="14" t="n"/>
       <c r="T116" s="14" t="n"/>
-      <c r="U116" s="96" t="n"/>
+      <c r="U116" s="103" t="n"/>
     </row>
     <row r="117" outlineLevel="1" ht="13" customHeight="1">
       <c r="A117" s="43">
@@ -5613,7 +5613,7 @@
       <c r="R117" s="13" t="n"/>
       <c r="S117" s="14" t="n"/>
       <c r="T117" s="14" t="n"/>
-      <c r="U117" s="96" t="n"/>
+      <c r="U117" s="103" t="n"/>
     </row>
     <row r="118" outlineLevel="1" ht="13" customHeight="1">
       <c r="A118" s="43">
@@ -5651,7 +5651,7 @@
       <c r="R118" s="13" t="n"/>
       <c r="S118" s="14" t="n"/>
       <c r="T118" s="14" t="n"/>
-      <c r="U118" s="96" t="n"/>
+      <c r="U118" s="103" t="n"/>
     </row>
     <row r="119" outlineLevel="1" ht="13" customHeight="1">
       <c r="A119" s="43">
@@ -5689,7 +5689,7 @@
       <c r="R119" s="13" t="n"/>
       <c r="S119" s="14" t="n"/>
       <c r="T119" s="14" t="n"/>
-      <c r="U119" s="96" t="n"/>
+      <c r="U119" s="103" t="n"/>
     </row>
     <row r="120" outlineLevel="1" ht="13" customHeight="1">
       <c r="A120" s="43">
@@ -5727,7 +5727,7 @@
       <c r="R120" s="13" t="n"/>
       <c r="S120" s="14" t="n"/>
       <c r="T120" s="14" t="n"/>
-      <c r="U120" s="96" t="n"/>
+      <c r="U120" s="103" t="n"/>
     </row>
     <row r="121" outlineLevel="1" ht="13" customHeight="1">
       <c r="A121" s="43">
@@ -5765,7 +5765,7 @@
       <c r="R121" s="13" t="n"/>
       <c r="S121" s="14" t="n"/>
       <c r="T121" s="14" t="n"/>
-      <c r="U121" s="96" t="n"/>
+      <c r="U121" s="103" t="n"/>
     </row>
     <row r="122" outlineLevel="1" ht="13" customHeight="1">
       <c r="A122" s="43">
@@ -5803,7 +5803,7 @@
       <c r="R122" s="13" t="n"/>
       <c r="S122" s="14" t="n"/>
       <c r="T122" s="14" t="n"/>
-      <c r="U122" s="96" t="n"/>
+      <c r="U122" s="103" t="n"/>
     </row>
     <row r="123" outlineLevel="1" ht="13" customHeight="1">
       <c r="A123" s="43">
@@ -5841,7 +5841,7 @@
       <c r="R123" s="13" t="n"/>
       <c r="S123" s="14" t="n"/>
       <c r="T123" s="14" t="n"/>
-      <c r="U123" s="96" t="n"/>
+      <c r="U123" s="103" t="n"/>
     </row>
     <row r="124" outlineLevel="1" ht="13" customHeight="1">
       <c r="A124" s="43">
@@ -5879,7 +5879,7 @@
       <c r="R124" s="13" t="n"/>
       <c r="S124" s="14" t="n"/>
       <c r="T124" s="14" t="n"/>
-      <c r="U124" s="96" t="n"/>
+      <c r="U124" s="103" t="n"/>
     </row>
     <row r="125" outlineLevel="1" ht="13" customHeight="1">
       <c r="A125" s="43">
@@ -5917,7 +5917,7 @@
       <c r="R125" s="13" t="n"/>
       <c r="S125" s="14" t="n"/>
       <c r="T125" s="14" t="n"/>
-      <c r="U125" s="96" t="n"/>
+      <c r="U125" s="103" t="n"/>
     </row>
     <row r="126" outlineLevel="1" ht="13" customHeight="1">
       <c r="A126" s="43">
@@ -5955,7 +5955,7 @@
       <c r="R126" s="13" t="n"/>
       <c r="S126" s="14" t="n"/>
       <c r="T126" s="14" t="n"/>
-      <c r="U126" s="96" t="n"/>
+      <c r="U126" s="103" t="n"/>
     </row>
     <row r="127" outlineLevel="1" ht="13" customHeight="1">
       <c r="A127" s="43">
@@ -5993,7 +5993,7 @@
       <c r="R127" s="13" t="n"/>
       <c r="S127" s="14" t="n"/>
       <c r="T127" s="14" t="n"/>
-      <c r="U127" s="96" t="n"/>
+      <c r="U127" s="103" t="n"/>
     </row>
     <row r="128" outlineLevel="1" ht="13" customHeight="1">
       <c r="A128" s="43">
@@ -6031,7 +6031,7 @@
       <c r="R128" s="13" t="n"/>
       <c r="S128" s="14" t="n"/>
       <c r="T128" s="14" t="n"/>
-      <c r="U128" s="96" t="n"/>
+      <c r="U128" s="103" t="n"/>
     </row>
     <row r="129" outlineLevel="1" ht="13" customHeight="1">
       <c r="A129" s="43">
@@ -6069,7 +6069,7 @@
       <c r="R129" s="13" t="n"/>
       <c r="S129" s="14" t="n"/>
       <c r="T129" s="14" t="n"/>
-      <c r="U129" s="96" t="n"/>
+      <c r="U129" s="103" t="n"/>
     </row>
     <row r="130" outlineLevel="1" ht="13" customHeight="1">
       <c r="A130" s="43">
@@ -6107,7 +6107,7 @@
       <c r="R130" s="13" t="n"/>
       <c r="S130" s="14" t="n"/>
       <c r="T130" s="14" t="n"/>
-      <c r="U130" s="96" t="n"/>
+      <c r="U130" s="103" t="n"/>
     </row>
     <row r="131" outlineLevel="1" ht="13" customHeight="1">
       <c r="A131" s="43">
@@ -6145,7 +6145,7 @@
       <c r="R131" s="13" t="n"/>
       <c r="S131" s="14" t="n"/>
       <c r="T131" s="14" t="n"/>
-      <c r="U131" s="96" t="n"/>
+      <c r="U131" s="103" t="n"/>
     </row>
     <row r="132" outlineLevel="1" ht="13" customHeight="1">
       <c r="A132" s="43">
@@ -6183,7 +6183,7 @@
       <c r="R132" s="13" t="n"/>
       <c r="S132" s="14" t="n"/>
       <c r="T132" s="14" t="n"/>
-      <c r="U132" s="96" t="n"/>
+      <c r="U132" s="103" t="n"/>
     </row>
     <row r="133" outlineLevel="1" ht="13" customHeight="1">
       <c r="A133" s="43">
@@ -6221,7 +6221,7 @@
       <c r="R133" s="13" t="n"/>
       <c r="S133" s="14" t="n"/>
       <c r="T133" s="14" t="n"/>
-      <c r="U133" s="96" t="n"/>
+      <c r="U133" s="103" t="n"/>
     </row>
     <row r="134" outlineLevel="1" ht="13" customHeight="1">
       <c r="A134" s="43">
@@ -6259,7 +6259,7 @@
       <c r="R134" s="13" t="n"/>
       <c r="S134" s="14" t="n"/>
       <c r="T134" s="14" t="n"/>
-      <c r="U134" s="96" t="n"/>
+      <c r="U134" s="103" t="n"/>
     </row>
     <row r="135" outlineLevel="1" ht="13" customHeight="1">
       <c r="A135" s="43">
@@ -6297,7 +6297,7 @@
       <c r="R135" s="13" t="n"/>
       <c r="S135" s="14" t="n"/>
       <c r="T135" s="14" t="n"/>
-      <c r="U135" s="96" t="n"/>
+      <c r="U135" s="103" t="n"/>
     </row>
     <row r="136" outlineLevel="1" ht="13" customHeight="1">
       <c r="A136" s="43">
@@ -6335,7 +6335,7 @@
       <c r="R136" s="13" t="n"/>
       <c r="S136" s="14" t="n"/>
       <c r="T136" s="14" t="n"/>
-      <c r="U136" s="96" t="n"/>
+      <c r="U136" s="103" t="n"/>
     </row>
     <row r="137" outlineLevel="1" ht="13" customHeight="1">
       <c r="A137" s="43">
@@ -6373,7 +6373,7 @@
       <c r="R137" s="13" t="n"/>
       <c r="S137" s="14" t="n"/>
       <c r="T137" s="14" t="n"/>
-      <c r="U137" s="96" t="n"/>
+      <c r="U137" s="103" t="n"/>
     </row>
     <row r="138" outlineLevel="1" ht="13" customHeight="1">
       <c r="A138" s="43">
@@ -6411,7 +6411,7 @@
       <c r="R138" s="13" t="n"/>
       <c r="S138" s="14" t="n"/>
       <c r="T138" s="14" t="n"/>
-      <c r="U138" s="96" t="n"/>
+      <c r="U138" s="103" t="n"/>
     </row>
     <row r="139" outlineLevel="1" ht="13" customHeight="1">
       <c r="A139" s="43">
@@ -6449,7 +6449,7 @@
       <c r="R139" s="13" t="n"/>
       <c r="S139" s="14" t="n"/>
       <c r="T139" s="14" t="n"/>
-      <c r="U139" s="96" t="n"/>
+      <c r="U139" s="103" t="n"/>
     </row>
     <row r="140" ht="13" customHeight="1">
       <c r="A140" s="43">
@@ -6487,7 +6487,7 @@
       <c r="R140" s="13" t="n"/>
       <c r="S140" s="14" t="n"/>
       <c r="T140" s="14" t="n"/>
-      <c r="U140" s="96" t="n"/>
+      <c r="U140" s="103" t="n"/>
     </row>
     <row r="141" outlineLevel="1" ht="13" customHeight="1">
       <c r="A141" s="43">
@@ -6525,7 +6525,7 @@
       <c r="R141" s="13" t="n"/>
       <c r="S141" s="14" t="n"/>
       <c r="T141" s="14" t="n"/>
-      <c r="U141" s="96" t="n"/>
+      <c r="U141" s="103" t="n"/>
     </row>
     <row r="142" outlineLevel="1" ht="13" customHeight="1">
       <c r="A142" s="43">
@@ -6563,7 +6563,7 @@
       <c r="R142" s="13" t="n"/>
       <c r="S142" s="14" t="n"/>
       <c r="T142" s="14" t="n"/>
-      <c r="U142" s="96" t="n"/>
+      <c r="U142" s="103" t="n"/>
     </row>
     <row r="143" outlineLevel="1" ht="13" customHeight="1">
       <c r="A143" s="43">
@@ -6601,7 +6601,7 @@
       <c r="R143" s="13" t="n"/>
       <c r="S143" s="14" t="n"/>
       <c r="T143" s="14" t="n"/>
-      <c r="U143" s="96" t="n"/>
+      <c r="U143" s="103" t="n"/>
     </row>
     <row r="144" outlineLevel="1" ht="13" customHeight="1">
       <c r="A144" s="43">
@@ -6639,7 +6639,7 @@
       <c r="R144" s="13" t="n"/>
       <c r="S144" s="14" t="n"/>
       <c r="T144" s="14" t="n"/>
-      <c r="U144" s="96" t="n"/>
+      <c r="U144" s="103" t="n"/>
     </row>
     <row r="145" outlineLevel="1" ht="13" customHeight="1">
       <c r="A145" s="43">
@@ -6677,7 +6677,7 @@
       <c r="R145" s="13" t="n"/>
       <c r="S145" s="14" t="n"/>
       <c r="T145" s="14" t="n"/>
-      <c r="U145" s="96" t="n"/>
+      <c r="U145" s="103" t="n"/>
     </row>
     <row r="146" outlineLevel="1" ht="13" customHeight="1">
       <c r="A146" s="43">
@@ -6715,7 +6715,7 @@
       <c r="R146" s="13" t="n"/>
       <c r="S146" s="14" t="n"/>
       <c r="T146" s="14" t="n"/>
-      <c r="U146" s="96" t="n"/>
+      <c r="U146" s="103" t="n"/>
     </row>
     <row r="147" outlineLevel="1" ht="13" customHeight="1">
       <c r="A147" s="43">
@@ -6753,7 +6753,7 @@
       <c r="R147" s="13" t="n"/>
       <c r="S147" s="14" t="n"/>
       <c r="T147" s="14" t="n"/>
-      <c r="U147" s="96" t="n"/>
+      <c r="U147" s="103" t="n"/>
     </row>
     <row r="148" outlineLevel="1" ht="13" customHeight="1">
       <c r="A148" s="43">
@@ -6791,7 +6791,7 @@
       <c r="R148" s="13" t="n"/>
       <c r="S148" s="14" t="n"/>
       <c r="T148" s="14" t="n"/>
-      <c r="U148" s="96" t="n"/>
+      <c r="U148" s="103" t="n"/>
     </row>
     <row r="149" outlineLevel="1" ht="13" customHeight="1">
       <c r="A149" s="43">
@@ -6829,7 +6829,7 @@
       <c r="R149" s="13" t="n"/>
       <c r="S149" s="14" t="n"/>
       <c r="T149" s="14" t="n"/>
-      <c r="U149" s="96" t="n"/>
+      <c r="U149" s="103" t="n"/>
     </row>
     <row r="150" outlineLevel="1" ht="13" customHeight="1">
       <c r="A150" s="43">
@@ -6867,7 +6867,7 @@
       <c r="R150" s="13" t="n"/>
       <c r="S150" s="14" t="n"/>
       <c r="T150" s="14" t="n"/>
-      <c r="U150" s="96" t="n"/>
+      <c r="U150" s="103" t="n"/>
     </row>
     <row r="151" outlineLevel="1" ht="13" customHeight="1">
       <c r="A151" s="43">
@@ -6905,7 +6905,7 @@
       <c r="R151" s="13" t="n"/>
       <c r="S151" s="14" t="n"/>
       <c r="T151" s="14" t="n"/>
-      <c r="U151" s="96" t="n"/>
+      <c r="U151" s="103" t="n"/>
     </row>
     <row r="152" outlineLevel="1" ht="13" customHeight="1">
       <c r="A152" s="43">
@@ -6943,7 +6943,7 @@
       <c r="R152" s="13" t="n"/>
       <c r="S152" s="14" t="n"/>
       <c r="T152" s="14" t="n"/>
-      <c r="U152" s="96" t="n"/>
+      <c r="U152" s="103" t="n"/>
     </row>
     <row r="153" outlineLevel="1" ht="13" customHeight="1">
       <c r="A153" s="43">
@@ -6981,7 +6981,7 @@
       <c r="R153" s="13" t="n"/>
       <c r="S153" s="14" t="n"/>
       <c r="T153" s="14" t="n"/>
-      <c r="U153" s="96" t="n"/>
+      <c r="U153" s="103" t="n"/>
     </row>
     <row r="154" outlineLevel="1" ht="13" customHeight="1">
       <c r="A154" s="43">
@@ -7019,7 +7019,7 @@
       <c r="R154" s="13" t="n"/>
       <c r="S154" s="14" t="n"/>
       <c r="T154" s="14" t="n"/>
-      <c r="U154" s="96" t="n"/>
+      <c r="U154" s="103" t="n"/>
     </row>
     <row r="155" outlineLevel="1" ht="13" customHeight="1">
       <c r="A155" s="43">
@@ -7057,7 +7057,7 @@
       <c r="R155" s="13" t="n"/>
       <c r="S155" s="14" t="n"/>
       <c r="T155" s="14" t="n"/>
-      <c r="U155" s="96" t="n"/>
+      <c r="U155" s="103" t="n"/>
     </row>
     <row r="156" outlineLevel="1" ht="13" customHeight="1">
       <c r="A156" s="43">
@@ -7095,7 +7095,7 @@
       <c r="R156" s="13" t="n"/>
       <c r="S156" s="14" t="n"/>
       <c r="T156" s="14" t="n"/>
-      <c r="U156" s="96" t="n"/>
+      <c r="U156" s="103" t="n"/>
     </row>
     <row r="157" outlineLevel="1" ht="13" customHeight="1">
       <c r="A157" s="43">
@@ -7133,7 +7133,7 @@
       <c r="R157" s="13" t="n"/>
       <c r="S157" s="14" t="n"/>
       <c r="T157" s="14" t="n"/>
-      <c r="U157" s="96" t="n"/>
+      <c r="U157" s="103" t="n"/>
     </row>
     <row r="158" outlineLevel="1" ht="13" customHeight="1">
       <c r="A158" s="43">
@@ -7171,7 +7171,7 @@
       <c r="R158" s="13" t="n"/>
       <c r="S158" s="14" t="n"/>
       <c r="T158" s="14" t="n"/>
-      <c r="U158" s="96" t="n"/>
+      <c r="U158" s="103" t="n"/>
     </row>
     <row r="159" outlineLevel="1" ht="13" customHeight="1">
       <c r="A159" s="43">
@@ -7209,7 +7209,7 @@
       <c r="R159" s="13" t="n"/>
       <c r="S159" s="14" t="n"/>
       <c r="T159" s="14" t="n"/>
-      <c r="U159" s="96" t="n"/>
+      <c r="U159" s="103" t="n"/>
     </row>
     <row r="160" outlineLevel="1" ht="13" customHeight="1">
       <c r="A160" s="43">
@@ -7247,7 +7247,7 @@
       <c r="R160" s="13" t="n"/>
       <c r="S160" s="14" t="n"/>
       <c r="T160" s="14" t="n"/>
-      <c r="U160" s="96" t="n"/>
+      <c r="U160" s="103" t="n"/>
     </row>
     <row r="161" outlineLevel="1" ht="13" customHeight="1">
       <c r="A161" s="43">
@@ -7285,7 +7285,7 @@
       <c r="R161" s="13" t="n"/>
       <c r="S161" s="14" t="n"/>
       <c r="T161" s="14" t="n"/>
-      <c r="U161" s="96" t="n"/>
+      <c r="U161" s="103" t="n"/>
     </row>
     <row r="162" outlineLevel="1" ht="13" customHeight="1">
       <c r="A162" s="43">
@@ -7323,7 +7323,7 @@
       <c r="R162" s="13" t="n"/>
       <c r="S162" s="14" t="n"/>
       <c r="T162" s="14" t="n"/>
-      <c r="U162" s="96" t="n"/>
+      <c r="U162" s="103" t="n"/>
     </row>
     <row r="163" outlineLevel="1" ht="13" customHeight="1">
       <c r="A163" s="43">
@@ -7361,7 +7361,7 @@
       <c r="R163" s="13" t="n"/>
       <c r="S163" s="14" t="n"/>
       <c r="T163" s="14" t="n"/>
-      <c r="U163" s="96" t="n"/>
+      <c r="U163" s="103" t="n"/>
     </row>
     <row r="164" outlineLevel="1" ht="13" customHeight="1">
       <c r="A164" s="43">
@@ -7399,7 +7399,7 @@
       <c r="R164" s="13" t="n"/>
       <c r="S164" s="14" t="n"/>
       <c r="T164" s="14" t="n"/>
-      <c r="U164" s="96" t="n"/>
+      <c r="U164" s="103" t="n"/>
     </row>
     <row r="165" outlineLevel="1" ht="13" customHeight="1">
       <c r="A165" s="43">
@@ -7437,7 +7437,7 @@
       <c r="R165" s="13" t="n"/>
       <c r="S165" s="14" t="n"/>
       <c r="T165" s="14" t="n"/>
-      <c r="U165" s="96" t="n"/>
+      <c r="U165" s="103" t="n"/>
     </row>
     <row r="166" outlineLevel="1" ht="13" customHeight="1">
       <c r="A166" s="43">
@@ -7475,7 +7475,7 @@
       <c r="R166" s="13" t="n"/>
       <c r="S166" s="14" t="n"/>
       <c r="T166" s="14" t="n"/>
-      <c r="U166" s="96" t="n"/>
+      <c r="U166" s="103" t="n"/>
     </row>
     <row r="167" outlineLevel="1" ht="13" customHeight="1">
       <c r="A167" s="43">
@@ -7513,7 +7513,7 @@
       <c r="R167" s="13" t="n"/>
       <c r="S167" s="14" t="n"/>
       <c r="T167" s="14" t="n"/>
-      <c r="U167" s="96" t="n"/>
+      <c r="U167" s="103" t="n"/>
     </row>
     <row r="168" outlineLevel="1" ht="13" customHeight="1">
       <c r="A168" s="43">
@@ -7551,7 +7551,7 @@
       <c r="R168" s="13" t="n"/>
       <c r="S168" s="14" t="n"/>
       <c r="T168" s="14" t="n"/>
-      <c r="U168" s="96" t="n"/>
+      <c r="U168" s="103" t="n"/>
     </row>
     <row r="169" outlineLevel="1" ht="13" customHeight="1">
       <c r="A169" s="43">
@@ -7589,7 +7589,7 @@
       <c r="R169" s="13" t="n"/>
       <c r="S169" s="14" t="n"/>
       <c r="T169" s="14" t="n"/>
-      <c r="U169" s="96" t="n"/>
+      <c r="U169" s="103" t="n"/>
     </row>
     <row r="170" outlineLevel="1" ht="13" customHeight="1">
       <c r="A170" s="43">
@@ -7627,7 +7627,7 @@
       <c r="R170" s="13" t="n"/>
       <c r="S170" s="14" t="n"/>
       <c r="T170" s="14" t="n"/>
-      <c r="U170" s="96" t="n"/>
+      <c r="U170" s="103" t="n"/>
     </row>
     <row r="171" outlineLevel="1" ht="13" customHeight="1">
       <c r="A171" s="43">
@@ -7665,7 +7665,7 @@
       <c r="R171" s="13" t="n"/>
       <c r="S171" s="14" t="n"/>
       <c r="T171" s="14" t="n"/>
-      <c r="U171" s="96" t="n"/>
+      <c r="U171" s="103" t="n"/>
     </row>
     <row r="172" outlineLevel="1" ht="13" customHeight="1">
       <c r="A172" s="43">
@@ -7703,7 +7703,7 @@
       <c r="R172" s="13" t="n"/>
       <c r="S172" s="14" t="n"/>
       <c r="T172" s="14" t="n"/>
-      <c r="U172" s="96" t="n"/>
+      <c r="U172" s="103" t="n"/>
     </row>
     <row r="173" outlineLevel="1" ht="13" customHeight="1">
       <c r="A173" s="43">
@@ -7741,7 +7741,7 @@
       <c r="R173" s="13" t="n"/>
       <c r="S173" s="14" t="n"/>
       <c r="T173" s="14" t="n"/>
-      <c r="U173" s="96" t="n"/>
+      <c r="U173" s="103" t="n"/>
     </row>
     <row r="174" outlineLevel="1" ht="13" customHeight="1">
       <c r="A174" s="43">
@@ -7779,7 +7779,7 @@
       <c r="R174" s="13" t="n"/>
       <c r="S174" s="14" t="n"/>
       <c r="T174" s="14" t="n"/>
-      <c r="U174" s="96" t="n"/>
+      <c r="U174" s="103" t="n"/>
     </row>
     <row r="175" outlineLevel="1" ht="13" customHeight="1">
       <c r="A175" s="43">
@@ -7817,7 +7817,7 @@
       <c r="R175" s="13" t="n"/>
       <c r="S175" s="14" t="n"/>
       <c r="T175" s="14" t="n"/>
-      <c r="U175" s="96" t="n"/>
+      <c r="U175" s="103" t="n"/>
     </row>
     <row r="176" outlineLevel="1" ht="13" customHeight="1">
       <c r="A176" s="43">
@@ -7855,7 +7855,7 @@
       <c r="R176" s="13" t="n"/>
       <c r="S176" s="14" t="n"/>
       <c r="T176" s="14" t="n"/>
-      <c r="U176" s="96" t="n"/>
+      <c r="U176" s="103" t="n"/>
     </row>
     <row r="177" outlineLevel="1" ht="13" customHeight="1">
       <c r="A177" s="43">
@@ -7893,7 +7893,7 @@
       <c r="R177" s="13" t="n"/>
       <c r="S177" s="14" t="n"/>
       <c r="T177" s="14" t="n"/>
-      <c r="U177" s="96" t="n"/>
+      <c r="U177" s="103" t="n"/>
     </row>
     <row r="178" outlineLevel="1" ht="13" customHeight="1">
       <c r="A178" s="43">
@@ -7931,7 +7931,7 @@
       <c r="R178" s="13" t="n"/>
       <c r="S178" s="14" t="n"/>
       <c r="T178" s="14" t="n"/>
-      <c r="U178" s="96" t="n"/>
+      <c r="U178" s="103" t="n"/>
     </row>
     <row r="179" outlineLevel="1" ht="13" customHeight="1">
       <c r="A179" s="43">
@@ -7969,7 +7969,7 @@
       <c r="R179" s="13" t="n"/>
       <c r="S179" s="14" t="n"/>
       <c r="T179" s="14" t="n"/>
-      <c r="U179" s="96" t="n"/>
+      <c r="U179" s="103" t="n"/>
     </row>
     <row r="180" outlineLevel="1" ht="13" customHeight="1">
       <c r="A180" s="43">
@@ -8007,7 +8007,7 @@
       <c r="R180" s="13" t="n"/>
       <c r="S180" s="14" t="n"/>
       <c r="T180" s="14" t="n"/>
-      <c r="U180" s="96" t="n"/>
+      <c r="U180" s="103" t="n"/>
     </row>
     <row r="181" outlineLevel="1" ht="13" customHeight="1">
       <c r="A181" s="43">
@@ -8045,7 +8045,7 @@
       <c r="R181" s="13" t="n"/>
       <c r="S181" s="14" t="n"/>
       <c r="T181" s="14" t="n"/>
-      <c r="U181" s="96" t="n"/>
+      <c r="U181" s="103" t="n"/>
     </row>
     <row r="182" outlineLevel="1" ht="13" customHeight="1">
       <c r="A182" s="43">
@@ -8083,7 +8083,7 @@
       <c r="R182" s="13" t="n"/>
       <c r="S182" s="14" t="n"/>
       <c r="T182" s="14" t="n"/>
-      <c r="U182" s="96" t="n"/>
+      <c r="U182" s="103" t="n"/>
     </row>
     <row r="183" outlineLevel="1" ht="13" customHeight="1">
       <c r="A183" s="43">
@@ -8121,7 +8121,7 @@
       <c r="R183" s="13" t="n"/>
       <c r="S183" s="14" t="n"/>
       <c r="T183" s="14" t="n"/>
-      <c r="U183" s="96" t="n"/>
+      <c r="U183" s="103" t="n"/>
     </row>
     <row r="184" outlineLevel="1" ht="13" customHeight="1">
       <c r="A184" s="43">
@@ -8159,7 +8159,7 @@
       <c r="R184" s="13" t="n"/>
       <c r="S184" s="14" t="n"/>
       <c r="T184" s="14" t="n"/>
-      <c r="U184" s="96" t="n"/>
+      <c r="U184" s="103" t="n"/>
     </row>
     <row r="185" outlineLevel="1" ht="13" customHeight="1">
       <c r="A185" s="43">
@@ -8197,7 +8197,7 @@
       <c r="R185" s="13" t="n"/>
       <c r="S185" s="14" t="n"/>
       <c r="T185" s="14" t="n"/>
-      <c r="U185" s="96" t="n"/>
+      <c r="U185" s="103" t="n"/>
     </row>
     <row r="186" outlineLevel="1" ht="13" customHeight="1">
       <c r="A186" s="43">
@@ -8235,7 +8235,7 @@
       <c r="R186" s="13" t="n"/>
       <c r="S186" s="14" t="n"/>
       <c r="T186" s="14" t="n"/>
-      <c r="U186" s="96" t="n"/>
+      <c r="U186" s="103" t="n"/>
     </row>
     <row r="187" outlineLevel="1" ht="13" customHeight="1">
       <c r="A187" s="43">
@@ -8273,7 +8273,7 @@
       <c r="R187" s="13" t="n"/>
       <c r="S187" s="14" t="n"/>
       <c r="T187" s="14" t="n"/>
-      <c r="U187" s="96" t="n"/>
+      <c r="U187" s="103" t="n"/>
     </row>
     <row r="188" outlineLevel="1" ht="13" customHeight="1">
       <c r="A188" s="43">
@@ -8311,7 +8311,7 @@
       <c r="R188" s="13" t="n"/>
       <c r="S188" s="14" t="n"/>
       <c r="T188" s="14" t="n"/>
-      <c r="U188" s="96" t="n"/>
+      <c r="U188" s="103" t="n"/>
     </row>
     <row r="189" outlineLevel="1" ht="13" customHeight="1">
       <c r="A189" s="43">
@@ -8349,7 +8349,7 @@
       <c r="R189" s="13" t="n"/>
       <c r="S189" s="14" t="n"/>
       <c r="T189" s="14" t="n"/>
-      <c r="U189" s="96" t="n"/>
+      <c r="U189" s="103" t="n"/>
     </row>
     <row r="190" outlineLevel="1" ht="13" customHeight="1">
       <c r="A190" s="43">
@@ -8387,7 +8387,7 @@
       <c r="R190" s="13" t="n"/>
       <c r="S190" s="14" t="n"/>
       <c r="T190" s="14" t="n"/>
-      <c r="U190" s="96" t="n"/>
+      <c r="U190" s="103" t="n"/>
     </row>
     <row r="191" outlineLevel="1" ht="13" customHeight="1">
       <c r="A191" s="43">
@@ -8425,7 +8425,7 @@
       <c r="R191" s="13" t="n"/>
       <c r="S191" s="14" t="n"/>
       <c r="T191" s="14" t="n"/>
-      <c r="U191" s="96" t="n"/>
+      <c r="U191" s="103" t="n"/>
     </row>
     <row r="192" outlineLevel="1" ht="13" customHeight="1">
       <c r="A192" s="43">
@@ -8463,7 +8463,7 @@
       <c r="R192" s="13" t="n"/>
       <c r="S192" s="14" t="n"/>
       <c r="T192" s="14" t="n"/>
-      <c r="U192" s="96" t="n"/>
+      <c r="U192" s="103" t="n"/>
     </row>
     <row r="193" outlineLevel="1" ht="13" customHeight="1">
       <c r="A193" s="43">
@@ -8501,7 +8501,7 @@
       <c r="R193" s="13" t="n"/>
       <c r="S193" s="14" t="n"/>
       <c r="T193" s="14" t="n"/>
-      <c r="U193" s="96" t="n"/>
+      <c r="U193" s="103" t="n"/>
     </row>
     <row r="194" outlineLevel="1" ht="13" customHeight="1">
       <c r="A194" s="43">
@@ -8539,7 +8539,7 @@
       <c r="R194" s="13" t="n"/>
       <c r="S194" s="14" t="n"/>
       <c r="T194" s="14" t="n"/>
-      <c r="U194" s="96" t="n"/>
+      <c r="U194" s="103" t="n"/>
     </row>
     <row r="195" outlineLevel="1" ht="13" customHeight="1">
       <c r="A195" s="43">
@@ -8577,7 +8577,7 @@
       <c r="R195" s="13" t="n"/>
       <c r="S195" s="14" t="n"/>
       <c r="T195" s="14" t="n"/>
-      <c r="U195" s="96" t="n"/>
+      <c r="U195" s="103" t="n"/>
     </row>
     <row r="196" outlineLevel="1" ht="13" customHeight="1">
       <c r="A196" s="43">
@@ -8615,7 +8615,7 @@
       <c r="R196" s="13" t="n"/>
       <c r="S196" s="14" t="n"/>
       <c r="T196" s="14" t="n"/>
-      <c r="U196" s="96" t="n"/>
+      <c r="U196" s="103" t="n"/>
     </row>
     <row r="197" outlineLevel="1" ht="13" customHeight="1">
       <c r="A197" s="43">
@@ -8653,7 +8653,7 @@
       <c r="R197" s="13" t="n"/>
       <c r="S197" s="14" t="n"/>
       <c r="T197" s="14" t="n"/>
-      <c r="U197" s="96" t="n"/>
+      <c r="U197" s="103" t="n"/>
     </row>
     <row r="198" outlineLevel="1" ht="13" customHeight="1">
       <c r="A198" s="43">
@@ -8691,7 +8691,7 @@
       <c r="R198" s="13" t="n"/>
       <c r="S198" s="14" t="n"/>
       <c r="T198" s="14" t="n"/>
-      <c r="U198" s="96" t="n"/>
+      <c r="U198" s="103" t="n"/>
     </row>
     <row r="199" outlineLevel="1" ht="13" customHeight="1">
       <c r="A199" s="43">
@@ -8729,7 +8729,7 @@
       <c r="R199" s="13" t="n"/>
       <c r="S199" s="14" t="n"/>
       <c r="T199" s="14" t="n"/>
-      <c r="U199" s="96" t="n"/>
+      <c r="U199" s="103" t="n"/>
     </row>
     <row r="200" outlineLevel="1" ht="13" customHeight="1">
       <c r="A200" s="43">
@@ -8767,7 +8767,7 @@
       <c r="R200" s="13" t="n"/>
       <c r="S200" s="14" t="n"/>
       <c r="T200" s="14" t="n"/>
-      <c r="U200" s="96" t="n"/>
+      <c r="U200" s="103" t="n"/>
     </row>
     <row r="201" outlineLevel="1" ht="13" customHeight="1">
       <c r="A201" s="43">
@@ -8805,7 +8805,7 @@
       <c r="R201" s="13" t="n"/>
       <c r="S201" s="14" t="n"/>
       <c r="T201" s="14" t="n"/>
-      <c r="U201" s="96" t="n"/>
+      <c r="U201" s="103" t="n"/>
     </row>
     <row r="202" outlineLevel="1" ht="13" customHeight="1">
       <c r="A202" s="43">
@@ -8843,7 +8843,7 @@
       <c r="R202" s="13" t="n"/>
       <c r="S202" s="14" t="n"/>
       <c r="T202" s="14" t="n"/>
-      <c r="U202" s="96" t="n"/>
+      <c r="U202" s="103" t="n"/>
     </row>
     <row r="203" outlineLevel="1" ht="13" customHeight="1">
       <c r="A203" s="43">
@@ -8881,7 +8881,7 @@
       <c r="R203" s="13" t="n"/>
       <c r="S203" s="14" t="n"/>
       <c r="T203" s="14" t="n"/>
-      <c r="U203" s="96" t="n"/>
+      <c r="U203" s="103" t="n"/>
     </row>
     <row r="204" outlineLevel="1" ht="13" customHeight="1">
       <c r="A204" s="43">
@@ -8919,7 +8919,7 @@
       <c r="R204" s="13" t="n"/>
       <c r="S204" s="14" t="n"/>
       <c r="T204" s="14" t="n"/>
-      <c r="U204" s="96" t="n"/>
+      <c r="U204" s="103" t="n"/>
     </row>
     <row r="205" outlineLevel="1" ht="13" customHeight="1">
       <c r="A205" s="43">
@@ -8957,7 +8957,7 @@
       <c r="R205" s="13" t="n"/>
       <c r="S205" s="14" t="n"/>
       <c r="T205" s="14" t="n"/>
-      <c r="U205" s="96" t="n"/>
+      <c r="U205" s="103" t="n"/>
     </row>
     <row r="206" outlineLevel="1" ht="13" customHeight="1">
       <c r="A206" s="43">
@@ -8995,7 +8995,7 @@
       <c r="R206" s="13" t="n"/>
       <c r="S206" s="14" t="n"/>
       <c r="T206" s="14" t="n"/>
-      <c r="U206" s="96" t="n"/>
+      <c r="U206" s="103" t="n"/>
     </row>
     <row r="207" outlineLevel="1" ht="13" customHeight="1">
       <c r="A207" s="43">
@@ -9033,7 +9033,7 @@
       <c r="R207" s="13" t="n"/>
       <c r="S207" s="14" t="n"/>
       <c r="T207" s="14" t="n"/>
-      <c r="U207" s="96" t="n"/>
+      <c r="U207" s="103" t="n"/>
     </row>
     <row r="208" outlineLevel="1" ht="13" customHeight="1">
       <c r="A208" s="43">
@@ -9071,7 +9071,7 @@
       <c r="R208" s="13" t="n"/>
       <c r="S208" s="14" t="n"/>
       <c r="T208" s="14" t="n"/>
-      <c r="U208" s="96" t="n"/>
+      <c r="U208" s="103" t="n"/>
     </row>
     <row r="209" outlineLevel="1" ht="13" customHeight="1">
       <c r="A209" s="43">
@@ -9109,7 +9109,7 @@
       <c r="R209" s="13" t="n"/>
       <c r="S209" s="14" t="n"/>
       <c r="T209" s="14" t="n"/>
-      <c r="U209" s="96" t="n"/>
+      <c r="U209" s="103" t="n"/>
     </row>
     <row r="210" outlineLevel="1" ht="13" customHeight="1">
       <c r="A210" s="43">
@@ -9147,7 +9147,7 @@
       <c r="R210" s="13" t="n"/>
       <c r="S210" s="14" t="n"/>
       <c r="T210" s="14" t="n"/>
-      <c r="U210" s="96" t="n"/>
+      <c r="U210" s="103" t="n"/>
     </row>
     <row r="211" outlineLevel="1" ht="13" customHeight="1">
       <c r="A211" s="43">
@@ -9185,7 +9185,7 @@
       <c r="R211" s="13" t="n"/>
       <c r="S211" s="14" t="n"/>
       <c r="T211" s="14" t="n"/>
-      <c r="U211" s="96" t="n"/>
+      <c r="U211" s="103" t="n"/>
     </row>
     <row r="212" outlineLevel="1" ht="13" customHeight="1">
       <c r="A212" s="43">
@@ -9223,7 +9223,7 @@
       <c r="R212" s="13" t="n"/>
       <c r="S212" s="14" t="n"/>
       <c r="T212" s="14" t="n"/>
-      <c r="U212" s="96" t="n"/>
+      <c r="U212" s="103" t="n"/>
     </row>
     <row r="213" outlineLevel="1" ht="13" customHeight="1">
       <c r="A213" s="43">
@@ -9261,7 +9261,7 @@
       <c r="R213" s="13" t="n"/>
       <c r="S213" s="14" t="n"/>
       <c r="T213" s="14" t="n"/>
-      <c r="U213" s="96" t="n"/>
+      <c r="U213" s="103" t="n"/>
     </row>
     <row r="214" outlineLevel="1" ht="13" customHeight="1">
       <c r="A214" s="43">
@@ -9299,7 +9299,7 @@
       <c r="R214" s="13" t="n"/>
       <c r="S214" s="14" t="n"/>
       <c r="T214" s="14" t="n"/>
-      <c r="U214" s="96" t="n"/>
+      <c r="U214" s="103" t="n"/>
     </row>
     <row r="215" outlineLevel="1" ht="13" customHeight="1">
       <c r="A215" s="43">
@@ -9337,54 +9337,54 @@
       <c r="R215" s="13" t="n"/>
       <c r="S215" s="14" t="n"/>
       <c r="T215" s="14" t="n"/>
-      <c r="U215" s="96" t="n"/>
+      <c r="U215" s="103" t="n"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
-      <c r="A216" s="96" t="n"/>
-      <c r="B216" s="96" t="n"/>
-      <c r="C216" s="96" t="n"/>
-      <c r="D216" s="96" t="n"/>
-      <c r="E216" s="96" t="n"/>
-      <c r="F216" s="96" t="n"/>
-      <c r="G216" s="96" t="n"/>
-      <c r="H216" s="96" t="n"/>
-      <c r="I216" s="96" t="n"/>
-      <c r="J216" s="96" t="n"/>
-      <c r="K216" s="96" t="n"/>
-      <c r="L216" s="96" t="n"/>
-      <c r="M216" s="96" t="n"/>
-      <c r="N216" s="96" t="n"/>
-      <c r="O216" s="96" t="n"/>
-      <c r="P216" s="96" t="n"/>
-      <c r="Q216" s="96" t="n"/>
-      <c r="R216" s="96" t="n"/>
-      <c r="S216" s="96" t="n"/>
-      <c r="T216" s="96" t="n"/>
+      <c r="A216" s="103" t="n"/>
+      <c r="B216" s="103" t="n"/>
+      <c r="C216" s="103" t="n"/>
+      <c r="D216" s="103" t="n"/>
+      <c r="E216" s="103" t="n"/>
+      <c r="F216" s="103" t="n"/>
+      <c r="G216" s="103" t="n"/>
+      <c r="H216" s="103" t="n"/>
+      <c r="I216" s="103" t="n"/>
+      <c r="J216" s="103" t="n"/>
+      <c r="K216" s="103" t="n"/>
+      <c r="L216" s="103" t="n"/>
+      <c r="M216" s="103" t="n"/>
+      <c r="N216" s="103" t="n"/>
+      <c r="O216" s="103" t="n"/>
+      <c r="P216" s="103" t="n"/>
+      <c r="Q216" s="103" t="n"/>
+      <c r="R216" s="103" t="n"/>
+      <c r="S216" s="103" t="n"/>
+      <c r="T216" s="103" t="n"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
-      <c r="A217" s="96" t="n"/>
-      <c r="B217" s="96" t="n"/>
-      <c r="C217" s="96" t="n"/>
-      <c r="D217" s="96" t="n"/>
-      <c r="E217" s="96" t="n"/>
-      <c r="F217" s="96" t="n"/>
-      <c r="G217" s="96" t="n"/>
-      <c r="H217" s="96" t="n"/>
-      <c r="I217" s="96" t="n"/>
-      <c r="J217" s="96" t="n"/>
-      <c r="K217" s="96" t="n"/>
-      <c r="L217" s="96" t="n"/>
-      <c r="M217" s="96" t="n"/>
-      <c r="N217" s="96" t="n"/>
-      <c r="O217" s="96" t="n"/>
-      <c r="P217" s="96" t="n"/>
-      <c r="Q217" s="96" t="n"/>
-      <c r="R217" s="96" t="n"/>
-      <c r="S217" s="96" t="n"/>
-      <c r="T217" s="96" t="n"/>
+      <c r="A217" s="103" t="n"/>
+      <c r="B217" s="103" t="n"/>
+      <c r="C217" s="103" t="n"/>
+      <c r="D217" s="103" t="n"/>
+      <c r="E217" s="103" t="n"/>
+      <c r="F217" s="103" t="n"/>
+      <c r="G217" s="103" t="n"/>
+      <c r="H217" s="103" t="n"/>
+      <c r="I217" s="103" t="n"/>
+      <c r="J217" s="103" t="n"/>
+      <c r="K217" s="103" t="n"/>
+      <c r="L217" s="103" t="n"/>
+      <c r="M217" s="103" t="n"/>
+      <c r="N217" s="103" t="n"/>
+      <c r="O217" s="103" t="n"/>
+      <c r="P217" s="103" t="n"/>
+      <c r="Q217" s="103" t="n"/>
+      <c r="R217" s="103" t="n"/>
+      <c r="S217" s="103" t="n"/>
+      <c r="T217" s="103" t="n"/>
     </row>
     <row r="218" ht="17.5" customFormat="1" customHeight="1" s="18">
-      <c r="A218" s="90" t="inlineStr">
+      <c r="A218" s="76" t="inlineStr">
         <is>
           <t>Test Result Summary</t>
         </is>
@@ -9396,18 +9396,18 @@
       <c r="F218" s="120" t="n"/>
       <c r="G218" s="120" t="n"/>
       <c r="H218" s="120" t="n"/>
-      <c r="I218" s="91" t="n"/>
-      <c r="J218" s="91" t="n"/>
-      <c r="K218" s="96" t="n"/>
-      <c r="L218" s="91" t="n"/>
-      <c r="M218" s="91" t="n"/>
-      <c r="N218" s="96" t="n"/>
-      <c r="O218" s="91" t="n"/>
-      <c r="P218" s="91" t="n"/>
-      <c r="Q218" s="96" t="n"/>
-      <c r="R218" s="91" t="n"/>
-      <c r="S218" s="91" t="n"/>
-      <c r="T218" s="96" t="n"/>
+      <c r="I218" s="77" t="n"/>
+      <c r="J218" s="77" t="n"/>
+      <c r="K218" s="103" t="n"/>
+      <c r="L218" s="77" t="n"/>
+      <c r="M218" s="77" t="n"/>
+      <c r="N218" s="103" t="n"/>
+      <c r="O218" s="77" t="n"/>
+      <c r="P218" s="77" t="n"/>
+      <c r="Q218" s="103" t="n"/>
+      <c r="R218" s="77" t="n"/>
+      <c r="S218" s="77" t="n"/>
+      <c r="T218" s="103" t="n"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="19" t="inlineStr">
@@ -9419,24 +9419,24 @@
         <f>SUM(B220:B222)</f>
         <v/>
       </c>
-      <c r="C219" s="96" t="n"/>
-      <c r="D219" s="96" t="n"/>
-      <c r="E219" s="96" t="n"/>
-      <c r="F219" s="96" t="n"/>
-      <c r="G219" s="96" t="n"/>
-      <c r="H219" s="96" t="n"/>
-      <c r="I219" s="96" t="n"/>
-      <c r="J219" s="96" t="n"/>
-      <c r="K219" s="96" t="n"/>
-      <c r="L219" s="96" t="n"/>
-      <c r="M219" s="96" t="n"/>
-      <c r="N219" s="96" t="n"/>
-      <c r="O219" s="96" t="n"/>
-      <c r="P219" s="96" t="n"/>
-      <c r="Q219" s="96" t="n"/>
-      <c r="R219" s="96" t="n"/>
-      <c r="S219" s="96" t="n"/>
-      <c r="T219" s="96" t="n"/>
+      <c r="C219" s="103" t="n"/>
+      <c r="D219" s="103" t="n"/>
+      <c r="E219" s="103" t="n"/>
+      <c r="F219" s="103" t="n"/>
+      <c r="G219" s="103" t="n"/>
+      <c r="H219" s="103" t="n"/>
+      <c r="I219" s="103" t="n"/>
+      <c r="J219" s="103" t="n"/>
+      <c r="K219" s="103" t="n"/>
+      <c r="L219" s="103" t="n"/>
+      <c r="M219" s="103" t="n"/>
+      <c r="N219" s="103" t="n"/>
+      <c r="O219" s="103" t="n"/>
+      <c r="P219" s="103" t="n"/>
+      <c r="Q219" s="103" t="n"/>
+      <c r="R219" s="103" t="n"/>
+      <c r="S219" s="103" t="n"/>
+      <c r="T219" s="103" t="n"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="19" t="inlineStr">
@@ -9448,24 +9448,24 @@
         <f>COUNTIF(F16:F215,"Pass")</f>
         <v/>
       </c>
-      <c r="C220" s="96" t="n"/>
-      <c r="D220" s="96" t="n"/>
-      <c r="E220" s="96" t="n"/>
-      <c r="F220" s="96" t="n"/>
-      <c r="G220" s="96" t="n"/>
-      <c r="H220" s="96" t="n"/>
-      <c r="I220" s="96" t="n"/>
-      <c r="J220" s="96" t="n"/>
-      <c r="K220" s="96" t="n"/>
-      <c r="L220" s="96" t="n"/>
-      <c r="M220" s="96" t="n"/>
-      <c r="N220" s="96" t="n"/>
-      <c r="O220" s="96" t="n"/>
-      <c r="P220" s="96" t="n"/>
-      <c r="Q220" s="96" t="n"/>
-      <c r="R220" s="96" t="n"/>
-      <c r="S220" s="96" t="n"/>
-      <c r="T220" s="96" t="n"/>
+      <c r="C220" s="103" t="n"/>
+      <c r="D220" s="103" t="n"/>
+      <c r="E220" s="103" t="n"/>
+      <c r="F220" s="103" t="n"/>
+      <c r="G220" s="103" t="n"/>
+      <c r="H220" s="103" t="n"/>
+      <c r="I220" s="103" t="n"/>
+      <c r="J220" s="103" t="n"/>
+      <c r="K220" s="103" t="n"/>
+      <c r="L220" s="103" t="n"/>
+      <c r="M220" s="103" t="n"/>
+      <c r="N220" s="103" t="n"/>
+      <c r="O220" s="103" t="n"/>
+      <c r="P220" s="103" t="n"/>
+      <c r="Q220" s="103" t="n"/>
+      <c r="R220" s="103" t="n"/>
+      <c r="S220" s="103" t="n"/>
+      <c r="T220" s="103" t="n"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="19" t="inlineStr">
@@ -9477,24 +9477,24 @@
         <f>COUNTIF(F16:F215,"Fail")</f>
         <v/>
       </c>
-      <c r="C221" s="96" t="n"/>
-      <c r="D221" s="96" t="n"/>
-      <c r="E221" s="96" t="n"/>
-      <c r="F221" s="96" t="n"/>
-      <c r="G221" s="96" t="n"/>
-      <c r="H221" s="96" t="n"/>
-      <c r="I221" s="96" t="n"/>
-      <c r="J221" s="96" t="n"/>
-      <c r="K221" s="96" t="n"/>
-      <c r="L221" s="96" t="n"/>
-      <c r="M221" s="96" t="n"/>
-      <c r="N221" s="96" t="n"/>
-      <c r="O221" s="96" t="n"/>
-      <c r="P221" s="96" t="n"/>
-      <c r="Q221" s="96" t="n"/>
-      <c r="R221" s="96" t="n"/>
-      <c r="S221" s="96" t="n"/>
-      <c r="T221" s="96" t="n"/>
+      <c r="C221" s="103" t="n"/>
+      <c r="D221" s="103" t="n"/>
+      <c r="E221" s="103" t="n"/>
+      <c r="F221" s="103" t="n"/>
+      <c r="G221" s="103" t="n"/>
+      <c r="H221" s="103" t="n"/>
+      <c r="I221" s="103" t="n"/>
+      <c r="J221" s="103" t="n"/>
+      <c r="K221" s="103" t="n"/>
+      <c r="L221" s="103" t="n"/>
+      <c r="M221" s="103" t="n"/>
+      <c r="N221" s="103" t="n"/>
+      <c r="O221" s="103" t="n"/>
+      <c r="P221" s="103" t="n"/>
+      <c r="Q221" s="103" t="n"/>
+      <c r="R221" s="103" t="n"/>
+      <c r="S221" s="103" t="n"/>
+      <c r="T221" s="103" t="n"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="21" t="inlineStr">
@@ -9506,46 +9506,46 @@
         <f>COUNTIF(F16:F215,"Not Executed")</f>
         <v/>
       </c>
-      <c r="C222" s="96" t="n"/>
-      <c r="D222" s="96" t="n"/>
-      <c r="E222" s="96" t="n"/>
-      <c r="F222" s="96" t="n"/>
-      <c r="G222" s="96" t="n"/>
-      <c r="H222" s="96" t="n"/>
-      <c r="I222" s="96" t="n"/>
-      <c r="J222" s="96" t="n"/>
-      <c r="K222" s="96" t="n"/>
-      <c r="L222" s="96" t="n"/>
-      <c r="M222" s="96" t="n"/>
-      <c r="N222" s="96" t="n"/>
-      <c r="O222" s="96" t="n"/>
-      <c r="P222" s="96" t="n"/>
-      <c r="Q222" s="96" t="n"/>
-      <c r="R222" s="96" t="n"/>
-      <c r="S222" s="96" t="n"/>
-      <c r="T222" s="96" t="n"/>
+      <c r="C222" s="103" t="n"/>
+      <c r="D222" s="103" t="n"/>
+      <c r="E222" s="103" t="n"/>
+      <c r="F222" s="103" t="n"/>
+      <c r="G222" s="103" t="n"/>
+      <c r="H222" s="103" t="n"/>
+      <c r="I222" s="103" t="n"/>
+      <c r="J222" s="103" t="n"/>
+      <c r="K222" s="103" t="n"/>
+      <c r="L222" s="103" t="n"/>
+      <c r="M222" s="103" t="n"/>
+      <c r="N222" s="103" t="n"/>
+      <c r="O222" s="103" t="n"/>
+      <c r="P222" s="103" t="n"/>
+      <c r="Q222" s="103" t="n"/>
+      <c r="R222" s="103" t="n"/>
+      <c r="S222" s="103" t="n"/>
+      <c r="T222" s="103" t="n"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="23" t="n"/>
       <c r="B223" s="23" t="n"/>
-      <c r="C223" s="96" t="n"/>
-      <c r="D223" s="96" t="n"/>
-      <c r="E223" s="96" t="n"/>
-      <c r="F223" s="96" t="n"/>
-      <c r="G223" s="96" t="n"/>
-      <c r="H223" s="96" t="n"/>
-      <c r="I223" s="96" t="n"/>
-      <c r="J223" s="96" t="n"/>
-      <c r="K223" s="96" t="n"/>
-      <c r="L223" s="96" t="n"/>
-      <c r="M223" s="96" t="n"/>
-      <c r="N223" s="96" t="n"/>
-      <c r="O223" s="96" t="n"/>
-      <c r="P223" s="96" t="n"/>
-      <c r="Q223" s="96" t="n"/>
-      <c r="R223" s="96" t="n"/>
-      <c r="S223" s="96" t="n"/>
-      <c r="T223" s="96" t="n"/>
+      <c r="C223" s="103" t="n"/>
+      <c r="D223" s="103" t="n"/>
+      <c r="E223" s="103" t="n"/>
+      <c r="F223" s="103" t="n"/>
+      <c r="G223" s="103" t="n"/>
+      <c r="H223" s="103" t="n"/>
+      <c r="I223" s="103" t="n"/>
+      <c r="J223" s="103" t="n"/>
+      <c r="K223" s="103" t="n"/>
+      <c r="L223" s="103" t="n"/>
+      <c r="M223" s="103" t="n"/>
+      <c r="N223" s="103" t="n"/>
+      <c r="O223" s="103" t="n"/>
+      <c r="P223" s="103" t="n"/>
+      <c r="Q223" s="103" t="n"/>
+      <c r="R223" s="103" t="n"/>
+      <c r="S223" s="103" t="n"/>
+      <c r="T223" s="103" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="A224" s="19" t="inlineStr">
@@ -9558,22 +9558,22 @@
           <t>Number of tests failed</t>
         </is>
       </c>
-      <c r="C224" s="96" t="n"/>
-      <c r="D224" s="96" t="n"/>
-      <c r="E224" s="96" t="n"/>
-      <c r="F224" s="96" t="n"/>
+      <c r="C224" s="103" t="n"/>
+      <c r="D224" s="103" t="n"/>
+      <c r="E224" s="103" t="n"/>
+      <c r="F224" s="103" t="n"/>
       <c r="G224" s="24" t="n"/>
       <c r="H224" s="24" t="n"/>
-      <c r="I224" s="96" t="n"/>
+      <c r="I224" s="103" t="n"/>
       <c r="J224" s="24" t="n"/>
       <c r="K224" s="24" t="n"/>
-      <c r="L224" s="96" t="n"/>
+      <c r="L224" s="103" t="n"/>
       <c r="M224" s="24" t="n"/>
       <c r="N224" s="24" t="n"/>
-      <c r="O224" s="96" t="n"/>
+      <c r="O224" s="103" t="n"/>
       <c r="P224" s="24" t="n"/>
       <c r="Q224" s="24" t="n"/>
-      <c r="R224" s="96" t="n"/>
+      <c r="R224" s="103" t="n"/>
       <c r="S224" s="24" t="n"/>
       <c r="T224" s="24" t="n"/>
       <c r="U224" s="18" t="n"/>
@@ -9588,24 +9588,24 @@
         <f>COUNTIF(G16:G215,"Major")</f>
         <v/>
       </c>
-      <c r="C225" s="96" t="n"/>
-      <c r="D225" s="96" t="n"/>
-      <c r="E225" s="96" t="n"/>
-      <c r="F225" s="96" t="n"/>
-      <c r="G225" s="96" t="n"/>
-      <c r="H225" s="96" t="n"/>
-      <c r="I225" s="96" t="n"/>
-      <c r="J225" s="96" t="n"/>
-      <c r="K225" s="96" t="n"/>
-      <c r="L225" s="96" t="n"/>
-      <c r="M225" s="96" t="n"/>
-      <c r="N225" s="96" t="n"/>
-      <c r="O225" s="96" t="n"/>
-      <c r="P225" s="96" t="n"/>
-      <c r="Q225" s="96" t="n"/>
-      <c r="R225" s="96" t="n"/>
-      <c r="S225" s="96" t="n"/>
-      <c r="T225" s="96" t="n"/>
+      <c r="C225" s="103" t="n"/>
+      <c r="D225" s="103" t="n"/>
+      <c r="E225" s="103" t="n"/>
+      <c r="F225" s="103" t="n"/>
+      <c r="G225" s="103" t="n"/>
+      <c r="H225" s="103" t="n"/>
+      <c r="I225" s="103" t="n"/>
+      <c r="J225" s="103" t="n"/>
+      <c r="K225" s="103" t="n"/>
+      <c r="L225" s="103" t="n"/>
+      <c r="M225" s="103" t="n"/>
+      <c r="N225" s="103" t="n"/>
+      <c r="O225" s="103" t="n"/>
+      <c r="P225" s="103" t="n"/>
+      <c r="Q225" s="103" t="n"/>
+      <c r="R225" s="103" t="n"/>
+      <c r="S225" s="103" t="n"/>
+      <c r="T225" s="103" t="n"/>
       <c r="U225" s="18" t="n"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
@@ -9618,24 +9618,24 @@
         <f>COUNTIF(G16:G215,"Medium")</f>
         <v/>
       </c>
-      <c r="C226" s="96" t="n"/>
-      <c r="D226" s="96" t="n"/>
-      <c r="E226" s="96" t="n"/>
-      <c r="F226" s="96" t="n"/>
-      <c r="G226" s="96" t="n"/>
-      <c r="H226" s="96" t="n"/>
-      <c r="I226" s="96" t="n"/>
-      <c r="J226" s="96" t="n"/>
-      <c r="K226" s="96" t="n"/>
-      <c r="L226" s="96" t="n"/>
-      <c r="M226" s="96" t="n"/>
-      <c r="N226" s="96" t="n"/>
-      <c r="O226" s="96" t="n"/>
-      <c r="P226" s="96" t="n"/>
-      <c r="Q226" s="96" t="n"/>
-      <c r="R226" s="96" t="n"/>
-      <c r="S226" s="96" t="n"/>
-      <c r="T226" s="96" t="n"/>
+      <c r="C226" s="103" t="n"/>
+      <c r="D226" s="103" t="n"/>
+      <c r="E226" s="103" t="n"/>
+      <c r="F226" s="103" t="n"/>
+      <c r="G226" s="103" t="n"/>
+      <c r="H226" s="103" t="n"/>
+      <c r="I226" s="103" t="n"/>
+      <c r="J226" s="103" t="n"/>
+      <c r="K226" s="103" t="n"/>
+      <c r="L226" s="103" t="n"/>
+      <c r="M226" s="103" t="n"/>
+      <c r="N226" s="103" t="n"/>
+      <c r="O226" s="103" t="n"/>
+      <c r="P226" s="103" t="n"/>
+      <c r="Q226" s="103" t="n"/>
+      <c r="R226" s="103" t="n"/>
+      <c r="S226" s="103" t="n"/>
+      <c r="T226" s="103" t="n"/>
       <c r="U226" s="18" t="n"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
@@ -9648,47 +9648,47 @@
         <f>COUNTIF(G15:G215,"Minor")</f>
         <v/>
       </c>
-      <c r="C227" s="96" t="n"/>
-      <c r="D227" s="96" t="n"/>
-      <c r="E227" s="96" t="n"/>
-      <c r="F227" s="96" t="n"/>
-      <c r="G227" s="96" t="n"/>
-      <c r="H227" s="96" t="n"/>
-      <c r="I227" s="96" t="n"/>
-      <c r="J227" s="96" t="n"/>
-      <c r="K227" s="96" t="n"/>
-      <c r="L227" s="96" t="n"/>
-      <c r="M227" s="96" t="n"/>
-      <c r="N227" s="96" t="n"/>
-      <c r="O227" s="96" t="n"/>
-      <c r="P227" s="96" t="n"/>
-      <c r="Q227" s="96" t="n"/>
-      <c r="R227" s="96" t="n"/>
-      <c r="S227" s="96" t="n"/>
-      <c r="T227" s="96" t="n"/>
+      <c r="C227" s="103" t="n"/>
+      <c r="D227" s="103" t="n"/>
+      <c r="E227" s="103" t="n"/>
+      <c r="F227" s="103" t="n"/>
+      <c r="G227" s="103" t="n"/>
+      <c r="H227" s="103" t="n"/>
+      <c r="I227" s="103" t="n"/>
+      <c r="J227" s="103" t="n"/>
+      <c r="K227" s="103" t="n"/>
+      <c r="L227" s="103" t="n"/>
+      <c r="M227" s="103" t="n"/>
+      <c r="N227" s="103" t="n"/>
+      <c r="O227" s="103" t="n"/>
+      <c r="P227" s="103" t="n"/>
+      <c r="Q227" s="103" t="n"/>
+      <c r="R227" s="103" t="n"/>
+      <c r="S227" s="103" t="n"/>
+      <c r="T227" s="103" t="n"/>
       <c r="U227" s="18" t="n"/>
     </row>
     <row r="228" ht="8.25" customHeight="1">
       <c r="A228" s="26" t="n"/>
-      <c r="B228" s="96" t="n"/>
-      <c r="C228" s="96" t="n"/>
-      <c r="D228" s="96" t="n"/>
-      <c r="E228" s="96" t="n"/>
-      <c r="F228" s="96" t="n"/>
-      <c r="G228" s="96" t="n"/>
-      <c r="H228" s="96" t="n"/>
-      <c r="I228" s="96" t="n"/>
-      <c r="J228" s="96" t="n"/>
-      <c r="K228" s="96" t="n"/>
-      <c r="L228" s="96" t="n"/>
-      <c r="M228" s="96" t="n"/>
-      <c r="N228" s="96" t="n"/>
-      <c r="O228" s="96" t="n"/>
-      <c r="P228" s="96" t="n"/>
-      <c r="Q228" s="96" t="n"/>
-      <c r="R228" s="96" t="n"/>
-      <c r="S228" s="96" t="n"/>
-      <c r="T228" s="96" t="n"/>
+      <c r="B228" s="103" t="n"/>
+      <c r="C228" s="103" t="n"/>
+      <c r="D228" s="103" t="n"/>
+      <c r="E228" s="103" t="n"/>
+      <c r="F228" s="103" t="n"/>
+      <c r="G228" s="103" t="n"/>
+      <c r="H228" s="103" t="n"/>
+      <c r="I228" s="103" t="n"/>
+      <c r="J228" s="103" t="n"/>
+      <c r="K228" s="103" t="n"/>
+      <c r="L228" s="103" t="n"/>
+      <c r="M228" s="103" t="n"/>
+      <c r="N228" s="103" t="n"/>
+      <c r="O228" s="103" t="n"/>
+      <c r="P228" s="103" t="n"/>
+      <c r="Q228" s="103" t="n"/>
+      <c r="R228" s="103" t="n"/>
+      <c r="S228" s="103" t="n"/>
+      <c r="T228" s="103" t="n"/>
       <c r="U228" s="18" t="n"/>
     </row>
     <row r="229" ht="0.75" customHeight="1">
@@ -9700,47 +9700,47 @@
         <f>COUNTIF(#REF!,"P")</f>
         <v/>
       </c>
-      <c r="C229" s="96" t="n"/>
-      <c r="D229" s="96" t="n"/>
-      <c r="E229" s="96" t="n"/>
-      <c r="F229" s="96" t="n"/>
-      <c r="G229" s="96" t="n"/>
-      <c r="H229" s="96" t="n"/>
-      <c r="I229" s="96" t="n"/>
-      <c r="J229" s="96" t="n"/>
-      <c r="K229" s="96" t="n"/>
-      <c r="L229" s="96" t="n"/>
-      <c r="M229" s="96" t="n"/>
-      <c r="N229" s="96" t="n"/>
-      <c r="O229" s="96" t="n"/>
-      <c r="P229" s="96" t="n"/>
-      <c r="Q229" s="96" t="n"/>
-      <c r="R229" s="96" t="n"/>
-      <c r="S229" s="96" t="n"/>
-      <c r="T229" s="96" t="n"/>
+      <c r="C229" s="103" t="n"/>
+      <c r="D229" s="103" t="n"/>
+      <c r="E229" s="103" t="n"/>
+      <c r="F229" s="103" t="n"/>
+      <c r="G229" s="103" t="n"/>
+      <c r="H229" s="103" t="n"/>
+      <c r="I229" s="103" t="n"/>
+      <c r="J229" s="103" t="n"/>
+      <c r="K229" s="103" t="n"/>
+      <c r="L229" s="103" t="n"/>
+      <c r="M229" s="103" t="n"/>
+      <c r="N229" s="103" t="n"/>
+      <c r="O229" s="103" t="n"/>
+      <c r="P229" s="103" t="n"/>
+      <c r="Q229" s="103" t="n"/>
+      <c r="R229" s="103" t="n"/>
+      <c r="S229" s="103" t="n"/>
+      <c r="T229" s="103" t="n"/>
       <c r="U229" s="18" t="n"/>
     </row>
     <row r="230" ht="13" customHeight="1">
       <c r="A230" s="29" t="n"/>
-      <c r="B230" s="96" t="n"/>
-      <c r="C230" s="96" t="n"/>
-      <c r="D230" s="96" t="n"/>
-      <c r="E230" s="96" t="n"/>
-      <c r="F230" s="96" t="n"/>
-      <c r="G230" s="96" t="n"/>
-      <c r="H230" s="96" t="n"/>
-      <c r="I230" s="96" t="n"/>
-      <c r="J230" s="96" t="n"/>
-      <c r="K230" s="96" t="n"/>
-      <c r="L230" s="96" t="n"/>
-      <c r="M230" s="96" t="n"/>
-      <c r="N230" s="96" t="n"/>
-      <c r="O230" s="96" t="n"/>
-      <c r="P230" s="96" t="n"/>
-      <c r="Q230" s="96" t="n"/>
-      <c r="R230" s="96" t="n"/>
-      <c r="S230" s="96" t="n"/>
-      <c r="T230" s="96" t="n"/>
+      <c r="B230" s="103" t="n"/>
+      <c r="C230" s="103" t="n"/>
+      <c r="D230" s="103" t="n"/>
+      <c r="E230" s="103" t="n"/>
+      <c r="F230" s="103" t="n"/>
+      <c r="G230" s="103" t="n"/>
+      <c r="H230" s="103" t="n"/>
+      <c r="I230" s="103" t="n"/>
+      <c r="J230" s="103" t="n"/>
+      <c r="K230" s="103" t="n"/>
+      <c r="L230" s="103" t="n"/>
+      <c r="M230" s="103" t="n"/>
+      <c r="N230" s="103" t="n"/>
+      <c r="O230" s="103" t="n"/>
+      <c r="P230" s="103" t="n"/>
+      <c r="Q230" s="103" t="n"/>
+      <c r="R230" s="103" t="n"/>
+      <c r="S230" s="103" t="n"/>
+      <c r="T230" s="103" t="n"/>
       <c r="U230" s="18" t="n"/>
     </row>
     <row r="231" ht="46.5" customHeight="1">
@@ -9750,7 +9750,7 @@
 </t>
         </is>
       </c>
-      <c r="B231" s="89" t="n"/>
+      <c r="B231" s="75" t="n"/>
       <c r="C231" s="118" t="n"/>
       <c r="D231" s="118" t="n"/>
       <c r="E231" s="119" t="n"/>
@@ -9778,7 +9778,7 @@
 Date:</t>
         </is>
       </c>
-      <c r="B232" s="88" t="n"/>
+      <c r="B232" s="74" t="n"/>
       <c r="C232" s="118" t="n"/>
       <c r="D232" s="118" t="n"/>
       <c r="E232" s="119" t="n"/>
@@ -10070,8 +10070,8 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="I14:K14"/>
-    <mergeCell ref="F13:H13"/>
     <mergeCell ref="A218:H218"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="B232:E232"/>
@@ -10085,14 +10085,14 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B231:E231"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A10:H10"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>
   <dataValidations xWindow="466" yWindow="396" count="5">
@@ -10125,10 +10125,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="7.81640625" defaultRowHeight="13" zeroHeight="1"/>
@@ -10166,12 +10166,12 @@
           <t>Component: Multi-Functional Tool Application</t>
         </is>
       </c>
-      <c r="C2" s="86" t="n"/>
-      <c r="D2" s="86" t="n"/>
-      <c r="E2" s="86" t="n"/>
-      <c r="F2" s="86" t="n"/>
-      <c r="G2" s="86" t="n"/>
-      <c r="H2" s="87" t="n"/>
+      <c r="C2" s="80" t="n"/>
+      <c r="D2" s="80" t="n"/>
+      <c r="E2" s="80" t="n"/>
+      <c r="F2" s="80" t="n"/>
+      <c r="G2" s="80" t="n"/>
+      <c r="H2" s="81" t="n"/>
       <c r="I2" s="48" t="n"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
@@ -10250,29 +10250,24 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on desktop</t>
+          <t>Application is installed on a desktop computer</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Network Packet Capture functionality</t>
+          <t>Verify application installation on desktop</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to Network Packet Capture section
-3. Click Start button
-4. Perform network operations
-5. Click Stop button</t>
+          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from specified tec-share location
+2. Extract the contents
+3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>1. Packet capture should start
-2. A .pcap file should be generated
-3. File should be copied to MFP's Shared Folder
-4. Shared folder should open automatically</t>
+          <t>Application launches successfully</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10287,29 +10282,24 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on laptop</t>
+          <t>Application is installed on a laptop</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Network Packet Capture functionality</t>
+          <t>Verify application installation on laptop</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to Network Packet Capture section
-3. Click Start button
-4. Perform network operations
-5. Click Stop button</t>
+          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from specified tec-share location
+2. Extract the contents
+3. Double-click on MultiFunctionalToolApplication</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>1. Packet capture should start
-2. A .pcap file should be generated
-3. File should be copied to MFP's Shared Folder
-4. Shared folder should open automatically</t>
+          <t>Application launches successfully</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10324,25 +10314,23 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Memory Leak Check functionality</t>
+          <t>Verify Network Packet Capture start functionality</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to Memory Leak Check section
-3. Select a protocol
-4. View the Memory Leak Comparison Table</t>
+          <t>1. Navigate to Network Packet Capture section
+2. Click Start button</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Memory Leak Comparison Table should display protocol-specific information to determine if a memory leak has occurred</t>
+          <t>Packet capture begins</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10357,27 +10345,26 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Network Packet Capture is running</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Debug Log Collection functionality</t>
+          <t>Verify Network Packet Capture stop functionality</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to Debug Log Collection section
-3. Click Run button</t>
+          <t>1. Navigate to Network Packet Capture section
+2. Click Stop button</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>1. Script should execute
-2. Logs should be collected
-3. Logs should be copied to MFP's Shared Folder
-4. Shared folder should open automatically</t>
+          <t>1. Packet capture stops
+2. .pcap file is generated
+3. File is copied to MFP's Shared Folder
+4. Shared Folder opens automatically</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10392,25 +10379,24 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Debug Log Collection retry</t>
+          <t>Verify Memory Leak Check functionality</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to Debug Log Collection section
-3. Click Run button
-4. If folder is empty, click Run button again</t>
+          <t>1. Navigate to Memory Leak Check section
+2. Select a protocol
+3. Run the check</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>Logs should be successfully collected and visible in the shared folder after second attempt</t>
+          <t>Memory Leak Comparison Table is displayed with accurate information</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10425,24 +10411,26 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Diagnostic Code Details - ECC</t>
+          <t>Verify Debug Log Collection functionality</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to Diagnostic Code Details section
-3. Select ECC option</t>
+          <t>1. Navigate to Debug Log Collection section
+2. Click Run button</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for ECC should be displayed</t>
+          <t>1. Script executes
+2. Logs are collected
+3. Logs are copied to MFP's Shared Folder
+4. Shared Folder opens automatically</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10457,24 +10445,23 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Debug Log Collection has been run once with empty folder result</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Diagnostic Code Details - Network Protocols</t>
+          <t>Verify Debug Log Collection retry functionality</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to Diagnostic Code Details section
-3. Select Network Protocols option</t>
+          <t>1. Navigate to Debug Log Collection section
+2. Click Run button again</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for Network Protocols should be displayed</t>
+          <t>Logs are successfully collected and displayed in the Shared Folder</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10489,24 +10476,24 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Diagnostic Code Details - High Security Mode</t>
+          <t>Verify Diagnostic Code Details for ECC</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to Diagnostic Code Details section
-3. Select High Security Mode option</t>
+          <t>1. Navigate to Diagnostic Code Details section
+2. Select ECC option
+3. Choose a specific diagnostic code</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for High Security Mode should be displayed</t>
+          <t>Relevant job-specific details for the selected ECC diagnostic code are displayed</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10521,24 +10508,24 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Diagnostic Code Details - Common codes</t>
+          <t>Verify Diagnostic Code Details for Network Protocols</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to Diagnostic Code Details section
-3. Select commonly used diagnostic codes</t>
+          <t>1. Navigate to Diagnostic Code Details section
+2. Select Network Protocols option
+3. Choose a specific diagnostic code</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for selected diagnostic codes should be displayed</t>
+          <t>Relevant job-specific details for the selected Network Protocols diagnostic code are displayed</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10553,25 +10540,24 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>08 Diagnostic Code Value - Get</t>
+          <t>Verify Diagnostic Code Details for High Security Mode</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to 08 Diagnostic Code Value section
-3. Select a diagnostic code
-4. Click Get button</t>
+          <t>1. Navigate to Diagnostic Code Details section
+2. Select High Security Mode option
+3. Choose a specific diagnostic code</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected 08 diagnostic code should be displayed</t>
+          <t>Relevant job-specific details for the selected High Security Mode diagnostic code are displayed</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10586,26 +10572,24 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>08 Diagnostic Code Value - Set</t>
+          <t>Verify 08 Diagnostic Code Value Get functionality</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to 08 Diagnostic Code Value section
-3. Select a diagnostic code
-4. Enter a new value
-5. Click Set button</t>
+          <t>1. Navigate to 08 Diagnostic Code Value section
+2. Select a diagnostic code
+3. Click Get button</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>The 08 diagnostic code value should be updated to the new value</t>
+          <t>Current value of the selected 08 diagnostic code is displayed</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10620,26 +10604,25 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Protocol Configuration - Get</t>
+          <t>Verify 08 Diagnostic Code Value Set functionality</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to Protocol Configuration section
-3. Open Protocol Selection Window
-4. Select a protocol
-5. Click Get button</t>
+          <t>1. Navigate to 08 Diagnostic Code Value section
+2. Select a diagnostic code
+3. Enter a new value
+4. Click Set button</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected protocol should be displayed</t>
+          <t>The 08 diagnostic code value is updated to the new value</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10654,27 +10637,25 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Protocol Configuration - Set</t>
+          <t>Verify Protocol Configuration Get functionality</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Launch the application
-2. Navigate to Protocol Configuration section
-3. Open Protocol Selection Window
-4. Select a protocol
-5. Enter a new value
-6. Click Set button</t>
+          <t>1. Navigate to Protocol Configuration section
+2. Open Protocol Selection Window
+3. Select a protocol
+4. Click Get button</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>Message indicating that set protocol values operation is not yet implemented should be displayed</t>
+          <t>Current value of the selected protocol is displayed</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10689,28 +10670,34 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>Desktop environment</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Installation on desktop</t>
+          <t>Verify Protocol Configuration Set functionality</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\
-2. Extract contents
-3. Double-click MultiFunctionalToolApplication</t>
+          <t>1. Navigate to Protocol Configuration section
+2. Open Protocol Selection Window
+3. Select a protocol
+4. Enter a new value
+5. Click Set button</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>Application should launch successfully on desktop environment</t>
+          <t>Message indicating that this feature is not yet implemented is displayed</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
-      <c r="H19" s="59" t="inlineStr"/>
+      <c r="H19" s="59" t="inlineStr">
+        <is>
+          <t>Feature pending implementation</t>
+        </is>
+      </c>
       <c r="I19" s="53" t="n"/>
     </row>
     <row r="20" ht="99.75" customHeight="1">
@@ -10721,24 +10708,24 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>Laptop environment</t>
+          <t>Application is installed and running</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Installation on laptop</t>
+          <t>Verify GUI responsiveness</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from \\tec-share\eBX\eBX_NW\WorkArea\05._Tools\
-2. Extract contents
-3. Double-click MultiFunctionalToolApplication</t>
+          <t>1. Launch the application
+2. Navigate between different sections
+3. Interact with various controls</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>Application should launch successfully on laptop environment</t>
+          <t>GUI responds promptly to user interactions with no noticeable lag</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10753,305 +10740,1291 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>Application is installed</t>
+          <t>Application is running with multiple features active</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Performance - Application launch time</t>
+          <t>Verify application stability</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Prepare to measure time
-2. Launch the application
-3. Record the time taken</t>
+          <t>1. Start Network Packet Capture
+2. While capture is running, perform Memory Leak Check
+3. Navigate to other sections</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>Application should launch within 5 seconds</t>
+          <t>Application remains stable with no crashes or freezes</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
       <c r="H21" s="59" t="inlineStr"/>
       <c r="I21" s="53" t="n"/>
     </row>
-    <row r="22">
-      <c r="A22" s="63" t="n"/>
-      <c r="B22" s="63" t="inlineStr">
+    <row r="22" ht="99.75" customHeight="1">
+      <c r="B22" s="57" t="inlineStr">
         <is>
           <t>TC017</t>
         </is>
       </c>
-      <c r="C22" s="63" t="inlineStr">
-        <is>
-          <t>Application is running</t>
-        </is>
-      </c>
-      <c r="D22" s="63" t="inlineStr">
-        <is>
-          <t>Performance - Network packet capture response</t>
-        </is>
-      </c>
-      <c r="E22" s="64" t="inlineStr">
-        <is>
-          <t>1. Navigate to Network Packet Capture section
-2. Click Start button
-3. Measure response time</t>
-        </is>
-      </c>
-      <c r="F22" s="64" t="inlineStr">
-        <is>
-          <t>Packet capture should start within 2 seconds</t>
-        </is>
-      </c>
-      <c r="G22" s="63" t="inlineStr"/>
-      <c r="H22" s="63" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
+      <c r="C22" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed on a system with minimum requirements</t>
+        </is>
+      </c>
+      <c r="D22" s="70" t="inlineStr">
+        <is>
+          <t>Verify performance on low-resource system</t>
+        </is>
+      </c>
+      <c r="E22" s="61" t="inlineStr">
+        <is>
+          <t>1. Launch application on a system with minimum requirements
+2. Perform all main functions</t>
+        </is>
+      </c>
+      <c r="F22" s="62" t="inlineStr">
+        <is>
+          <t>Application performs all functions without significant delay</t>
+        </is>
+      </c>
+      <c r="G22" s="58" t="inlineStr"/>
+      <c r="H22" s="59" t="inlineStr"/>
+      <c r="I22" s="53" t="n"/>
+    </row>
+    <row r="23" ht="99.75" customHeight="1">
+      <c r="B23" s="57" t="inlineStr">
         <is>
           <t>TC018</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Application is running</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Performance - Memory usage</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1. Launch the application
-2. Monitor memory usage during various operations</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Application should not consume excessive memory (less than 200MB)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="45" t="inlineStr">
+      <c r="C23" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed and running</t>
+        </is>
+      </c>
+      <c r="D23" s="70" t="inlineStr">
+        <is>
+          <t>Verify usability for first-time users</t>
+        </is>
+      </c>
+      <c r="E23" s="61" t="inlineStr">
+        <is>
+          <t>1. Have a first-time user launch the application
+2. Ask them to perform basic tasks without instructions</t>
+        </is>
+      </c>
+      <c r="F23" s="62" t="inlineStr">
+        <is>
+          <t>User should be able to navigate and use basic functions intuitively</t>
+        </is>
+      </c>
+      <c r="G23" s="58" t="inlineStr"/>
+      <c r="H23" s="59" t="inlineStr"/>
+      <c r="I23" s="53" t="n"/>
+    </row>
+    <row r="24" ht="99.75" customHeight="1">
+      <c r="B24" s="57" t="inlineStr">
         <is>
           <t>TC019</t>
         </is>
       </c>
-      <c r="C24" s="67" t="inlineStr">
-        <is>
-          <t>Application is installed</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Usability - GUI layout</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1. Launch the application
-2. Observe the layout and organization of elements</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>GUI should be intuitive with clearly labeled buttons and sections</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
+      <c r="C24" s="60" t="inlineStr">
+        <is>
+          <t>Application is installed on different Windows versions</t>
+        </is>
+      </c>
+      <c r="D24" s="70" t="inlineStr">
+        <is>
+          <t>Verify compatibility across Windows versions</t>
+        </is>
+      </c>
+      <c r="E24" s="61" t="inlineStr">
+        <is>
+          <t>1. Install and run application on Windows 7, 10, and 11
+2. Test core functionalities on each</t>
+        </is>
+      </c>
+      <c r="F24" s="62" t="inlineStr">
+        <is>
+          <t>Application functions correctly on all tested Windows versions</t>
+        </is>
+      </c>
+      <c r="G24" s="58" t="inlineStr"/>
+      <c r="H24" s="59" t="inlineStr"/>
+      <c r="I24" s="53" t="n"/>
+    </row>
+    <row r="25" ht="99.75" customHeight="1">
+      <c r="B25" s="57" t="inlineStr">
         <is>
           <t>TC020</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Application is running</t>
-        </is>
-      </c>
-      <c r="D25" s="45" t="inlineStr">
-        <is>
-          <t>Usability - Error handling</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1. Perform operations that might cause errors (e.g., invalid inputs)
-2. Observe application's response</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Application should display clear error messages and not crash</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TC021</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Application is installed</t>
-        </is>
-      </c>
-      <c r="D26" s="46" t="inlineStr">
-        <is>
-          <t>Compatibility - Windows 10</t>
-        </is>
-      </c>
-      <c r="E26" s="71" t="inlineStr">
-        <is>
-          <t>1. Install application on Windows 10 system
-2. Launch and test core functionalities</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>All features should work as expected on Windows 10</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TC022</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Application is installed</t>
-        </is>
-      </c>
-      <c r="D27" s="65" t="inlineStr">
-        <is>
-          <t>Compatibility - Windows 11</t>
-        </is>
-      </c>
-      <c r="E27" s="71" t="inlineStr">
-        <is>
-          <t>1. Install application on Windows 11 system
-2. Launch and test core functionalities</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>All features should work as expected on Windows 11</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TC023</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Application is running</t>
-        </is>
-      </c>
-      <c r="D28" s="46" t="inlineStr">
-        <is>
-          <t>Reliability - Continuous operation</t>
-        </is>
-      </c>
-      <c r="E28" s="71" t="inlineStr">
-        <is>
-          <t>1. Launch the application
-2. Perform multiple operations continuously for 1 hour</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Application should remain stable without crashes or memory leaks</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>TC024</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Application is running</t>
-        </is>
-      </c>
-      <c r="D29" s="68" t="inlineStr">
-        <is>
-          <t>Security - File access</t>
-        </is>
-      </c>
-      <c r="E29" s="71" t="inlineStr">
-        <is>
-          <t>1. Launch the application
-2. Perform operations that access MFP's Shared Folder</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Application should only access authorized folders and respect permissions</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TC025</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Application is installed</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Maintainability - File structure</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1. Examine the extracted application files
-2. Verify organization of files and resources</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Files should be logically organized for easy maintenance</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="45" t="n"/>
-      <c r="E31" s="69" t="n"/>
+      <c r="C25" s="60" t="inlineStr">
+        <is>
+          <t>MFP is connected to the network</t>
+        </is>
+      </c>
+      <c r="D25" s="70" t="inlineStr">
+        <is>
+          <t>Verify connectivity with MFP</t>
+        </is>
+      </c>
+      <c r="E25" s="61" t="inlineStr">
+        <is>
+          <t>1. Launch application
+2. Attempt to connect to an MFP
+3. Perform operations that interact with the MFP</t>
+        </is>
+      </c>
+      <c r="F25" s="62" t="inlineStr">
+        <is>
+          <t>Application successfully communicates with the MFP for all operations</t>
+        </is>
+      </c>
+      <c r="G25" s="58" t="inlineStr"/>
+      <c r="H25" s="59" t="inlineStr"/>
+      <c r="I25" s="53" t="n"/>
+    </row>
+    <row r="26" ht="99.75" customHeight="1">
+      <c r="B26" s="57" t="n"/>
+      <c r="C26" s="60" t="n"/>
+      <c r="D26" s="70" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="62" t="n"/>
+      <c r="G26" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H26" s="59" t="n"/>
+      <c r="I26" s="53" t="n"/>
+    </row>
+    <row r="27" ht="99.75" customHeight="1">
+      <c r="B27" s="57" t="n"/>
+      <c r="C27" s="60" t="n"/>
+      <c r="D27" s="70" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="62" t="n"/>
+      <c r="G27" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H27" s="59" t="n"/>
+      <c r="I27" s="53" t="n"/>
+    </row>
+    <row r="28" ht="99.75" customHeight="1">
+      <c r="B28" s="57" t="n"/>
+      <c r="C28" s="60" t="n"/>
+      <c r="D28" s="70" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="62" t="n"/>
+      <c r="G28" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H28" s="59" t="n"/>
+      <c r="I28" s="53" t="n"/>
+    </row>
+    <row r="29" ht="99.75" customHeight="1">
+      <c r="B29" s="57" t="n"/>
+      <c r="C29" s="60" t="n"/>
+      <c r="D29" s="70" t="n"/>
+      <c r="E29" s="61" t="n"/>
+      <c r="F29" s="62" t="n"/>
+      <c r="G29" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H29" s="59" t="n"/>
+      <c r="I29" s="53" t="n"/>
+    </row>
+    <row r="30" ht="99.75" customHeight="1">
+      <c r="B30" s="57" t="n"/>
+      <c r="C30" s="60" t="n"/>
+      <c r="D30" s="70" t="n"/>
+      <c r="E30" s="61" t="n"/>
+      <c r="F30" s="62" t="n"/>
+      <c r="G30" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H30" s="59" t="n"/>
+      <c r="I30" s="53" t="n"/>
+    </row>
+    <row r="31" ht="99.75" customHeight="1">
+      <c r="B31" s="57" t="n"/>
+      <c r="C31" s="60" t="n"/>
+      <c r="D31" s="70" t="n"/>
+      <c r="E31" s="61" t="n"/>
+      <c r="F31" s="62" t="n"/>
+      <c r="G31" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H31" s="59" t="n"/>
+      <c r="I31" s="53" t="n"/>
+    </row>
+    <row r="32" ht="99.75" customHeight="1">
+      <c r="B32" s="57" t="n"/>
+      <c r="C32" s="60" t="n"/>
+      <c r="D32" s="70" t="n"/>
+      <c r="E32" s="61" t="n"/>
+      <c r="F32" s="62" t="n"/>
+      <c r="G32" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H32" s="59" t="n"/>
+      <c r="I32" s="53" t="n"/>
+    </row>
+    <row r="33" ht="99.75" customHeight="1">
+      <c r="B33" s="57" t="n"/>
+      <c r="C33" s="60" t="n"/>
+      <c r="D33" s="70" t="n"/>
+      <c r="E33" s="61" t="n"/>
+      <c r="F33" s="62" t="n"/>
+      <c r="G33" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H33" s="59" t="n"/>
+      <c r="I33" s="53" t="n"/>
+    </row>
+    <row r="34" ht="99.75" customHeight="1">
+      <c r="B34" s="57" t="n"/>
+      <c r="C34" s="60" t="n"/>
+      <c r="D34" s="70" t="n"/>
+      <c r="E34" s="61" t="n"/>
+      <c r="F34" s="62" t="n"/>
+      <c r="G34" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H34" s="59" t="n"/>
+      <c r="I34" s="53" t="n"/>
+    </row>
+    <row r="35" ht="99.75" customHeight="1">
+      <c r="B35" s="57" t="n"/>
+      <c r="C35" s="60" t="n"/>
+      <c r="D35" s="70" t="n"/>
+      <c r="E35" s="61" t="n"/>
+      <c r="F35" s="62" t="n"/>
+      <c r="G35" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H35" s="59" t="n"/>
+      <c r="I35" s="53" t="n"/>
+    </row>
+    <row r="36" ht="99.75" customHeight="1">
+      <c r="B36" s="57" t="n"/>
+      <c r="C36" s="60" t="n"/>
+      <c r="D36" s="70" t="n"/>
+      <c r="E36" s="61" t="n"/>
+      <c r="F36" s="62" t="n"/>
+      <c r="G36" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H36" s="59" t="n"/>
+      <c r="I36" s="53" t="n"/>
+    </row>
+    <row r="37" ht="99.75" customHeight="1">
+      <c r="B37" s="57" t="n"/>
+      <c r="C37" s="60" t="n"/>
+      <c r="D37" s="70" t="n"/>
+      <c r="E37" s="61" t="n"/>
+      <c r="F37" s="62" t="n"/>
+      <c r="G37" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H37" s="59" t="n"/>
+      <c r="I37" s="53" t="n"/>
+    </row>
+    <row r="38" ht="99.75" customHeight="1">
+      <c r="B38" s="57" t="n"/>
+      <c r="C38" s="60" t="n"/>
+      <c r="D38" s="70" t="n"/>
+      <c r="E38" s="61" t="n"/>
+      <c r="F38" s="62" t="n"/>
+      <c r="G38" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H38" s="59" t="n"/>
+      <c r="I38" s="53" t="n"/>
+    </row>
+    <row r="39" ht="99.75" customHeight="1">
+      <c r="B39" s="57" t="n"/>
+      <c r="C39" s="60" t="n"/>
+      <c r="D39" s="70" t="n"/>
+      <c r="E39" s="61" t="n"/>
+      <c r="F39" s="62" t="n"/>
+      <c r="G39" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H39" s="59" t="n"/>
+      <c r="I39" s="53" t="n"/>
+    </row>
+    <row r="40" ht="99.75" customHeight="1">
+      <c r="B40" s="57" t="n"/>
+      <c r="C40" s="60" t="n"/>
+      <c r="D40" s="70" t="n"/>
+      <c r="E40" s="61" t="n"/>
+      <c r="F40" s="62" t="n"/>
+      <c r="G40" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H40" s="59" t="n"/>
+      <c r="I40" s="53" t="n"/>
+    </row>
+    <row r="41" ht="99.75" customHeight="1">
+      <c r="B41" s="57" t="n"/>
+      <c r="C41" s="60" t="n"/>
+      <c r="D41" s="70" t="n"/>
+      <c r="E41" s="61" t="n"/>
+      <c r="F41" s="62" t="n"/>
+      <c r="G41" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H41" s="59" t="n"/>
+      <c r="I41" s="53" t="n"/>
+    </row>
+    <row r="42" ht="99.75" customHeight="1">
+      <c r="B42" s="57" t="n"/>
+      <c r="C42" s="60" t="n"/>
+      <c r="D42" s="70" t="n"/>
+      <c r="E42" s="61" t="n"/>
+      <c r="F42" s="62" t="n"/>
+      <c r="G42" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H42" s="59" t="n"/>
+      <c r="I42" s="53" t="n"/>
+    </row>
+    <row r="43" ht="99.75" customHeight="1">
+      <c r="B43" s="57" t="n"/>
+      <c r="C43" s="60" t="n"/>
+      <c r="D43" s="70" t="n"/>
+      <c r="E43" s="61" t="n"/>
+      <c r="F43" s="62" t="n"/>
+      <c r="G43" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H43" s="59" t="n"/>
+      <c r="I43" s="53" t="n"/>
+    </row>
+    <row r="44" ht="99.75" customHeight="1">
+      <c r="B44" s="57" t="n"/>
+      <c r="C44" s="60" t="n"/>
+      <c r="D44" s="70" t="n"/>
+      <c r="E44" s="61" t="n"/>
+      <c r="F44" s="62" t="n"/>
+      <c r="G44" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H44" s="59" t="n"/>
+      <c r="I44" s="53" t="n"/>
+    </row>
+    <row r="45" ht="99.75" customHeight="1">
+      <c r="B45" s="57" t="n"/>
+      <c r="C45" s="60" t="n"/>
+      <c r="D45" s="70" t="n"/>
+      <c r="E45" s="61" t="n"/>
+      <c r="F45" s="62" t="n"/>
+      <c r="G45" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H45" s="59" t="n"/>
+      <c r="I45" s="53" t="n"/>
+    </row>
+    <row r="46" ht="99.75" customHeight="1">
+      <c r="B46" s="57" t="n"/>
+      <c r="C46" s="60" t="n"/>
+      <c r="D46" s="70" t="n"/>
+      <c r="E46" s="61" t="n"/>
+      <c r="F46" s="62" t="n"/>
+      <c r="G46" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H46" s="59" t="n"/>
+      <c r="I46" s="53" t="n"/>
+    </row>
+    <row r="47" ht="99.75" customHeight="1">
+      <c r="B47" s="57" t="n"/>
+      <c r="C47" s="60" t="n"/>
+      <c r="D47" s="70" t="n"/>
+      <c r="E47" s="61" t="n"/>
+      <c r="F47" s="62" t="n"/>
+      <c r="G47" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H47" s="59" t="n"/>
+      <c r="I47" s="53" t="n"/>
+    </row>
+    <row r="48" ht="99.75" customHeight="1">
+      <c r="B48" s="57" t="n"/>
+      <c r="C48" s="60" t="n"/>
+      <c r="D48" s="70" t="n"/>
+      <c r="E48" s="61" t="n"/>
+      <c r="F48" s="62" t="n"/>
+      <c r="G48" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H48" s="59" t="n"/>
+      <c r="I48" s="53" t="n"/>
+    </row>
+    <row r="49" ht="99.75" customHeight="1">
+      <c r="B49" s="57" t="n"/>
+      <c r="C49" s="60" t="n"/>
+      <c r="D49" s="70" t="n"/>
+      <c r="E49" s="61" t="n"/>
+      <c r="F49" s="62" t="n"/>
+      <c r="G49" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H49" s="59" t="n"/>
+      <c r="I49" s="53" t="n"/>
+    </row>
+    <row r="50" ht="99.75" customHeight="1">
+      <c r="B50" s="57" t="n"/>
+      <c r="C50" s="60" t="n"/>
+      <c r="D50" s="70" t="n"/>
+      <c r="E50" s="61" t="n"/>
+      <c r="F50" s="62" t="n"/>
+      <c r="G50" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H50" s="59" t="n"/>
+      <c r="I50" s="53" t="n"/>
+    </row>
+    <row r="51" ht="99.75" customHeight="1">
+      <c r="B51" s="57" t="n"/>
+      <c r="C51" s="60" t="n"/>
+      <c r="D51" s="70" t="n"/>
+      <c r="E51" s="61" t="n"/>
+      <c r="F51" s="62" t="n"/>
+      <c r="G51" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H51" s="59" t="n"/>
+      <c r="I51" s="53" t="n"/>
+    </row>
+    <row r="52" ht="99.75" customHeight="1">
+      <c r="B52" s="57" t="n"/>
+      <c r="C52" s="60" t="n"/>
+      <c r="D52" s="70" t="n"/>
+      <c r="E52" s="61" t="n"/>
+      <c r="F52" s="62" t="n"/>
+      <c r="G52" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H52" s="59" t="n"/>
+      <c r="I52" s="53" t="n"/>
+    </row>
+    <row r="53" ht="99.75" customHeight="1">
+      <c r="B53" s="57" t="n"/>
+      <c r="C53" s="60" t="n"/>
+      <c r="D53" s="70" t="n"/>
+      <c r="E53" s="61" t="n"/>
+      <c r="F53" s="62" t="n"/>
+      <c r="G53" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H53" s="59" t="n"/>
+      <c r="I53" s="53" t="n"/>
+    </row>
+    <row r="54" ht="99.75" customHeight="1">
+      <c r="B54" s="57" t="n"/>
+      <c r="C54" s="60" t="n"/>
+      <c r="D54" s="70" t="n"/>
+      <c r="E54" s="61" t="n"/>
+      <c r="F54" s="62" t="n"/>
+      <c r="G54" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H54" s="59" t="n"/>
+      <c r="I54" s="53" t="n"/>
+    </row>
+    <row r="55" ht="99.75" customHeight="1">
+      <c r="B55" s="57" t="n"/>
+      <c r="C55" s="60" t="n"/>
+      <c r="D55" s="70" t="n"/>
+      <c r="E55" s="61" t="n"/>
+      <c r="F55" s="62" t="n"/>
+      <c r="G55" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H55" s="59" t="n"/>
+      <c r="I55" s="53" t="n"/>
+    </row>
+    <row r="56" ht="99.75" customHeight="1">
+      <c r="B56" s="57" t="n"/>
+      <c r="C56" s="60" t="n"/>
+      <c r="D56" s="70" t="n"/>
+      <c r="E56" s="61" t="n"/>
+      <c r="F56" s="62" t="n"/>
+      <c r="G56" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H56" s="59" t="n"/>
+      <c r="I56" s="53" t="n"/>
+    </row>
+    <row r="57" ht="99.75" customHeight="1">
+      <c r="B57" s="57" t="n"/>
+      <c r="C57" s="60" t="n"/>
+      <c r="D57" s="70" t="n"/>
+      <c r="E57" s="61" t="n"/>
+      <c r="F57" s="62" t="n"/>
+      <c r="G57" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H57" s="59" t="n"/>
+      <c r="I57" s="53" t="n"/>
+    </row>
+    <row r="58" ht="99.75" customHeight="1">
+      <c r="B58" s="57" t="n"/>
+      <c r="C58" s="60" t="n"/>
+      <c r="D58" s="70" t="n"/>
+      <c r="E58" s="61" t="n"/>
+      <c r="F58" s="62" t="n"/>
+      <c r="G58" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H58" s="59" t="n"/>
+      <c r="I58" s="53" t="n"/>
+    </row>
+    <row r="59" ht="99.75" customHeight="1">
+      <c r="B59" s="57" t="n"/>
+      <c r="C59" s="60" t="n"/>
+      <c r="D59" s="70" t="n"/>
+      <c r="E59" s="61" t="n"/>
+      <c r="F59" s="62" t="n"/>
+      <c r="G59" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H59" s="59" t="n"/>
+      <c r="I59" s="53" t="n"/>
+    </row>
+    <row r="60" ht="99.75" customHeight="1">
+      <c r="B60" s="57" t="n"/>
+      <c r="C60" s="60" t="n"/>
+      <c r="D60" s="70" t="n"/>
+      <c r="E60" s="61" t="n"/>
+      <c r="F60" s="62" t="n"/>
+      <c r="G60" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H60" s="59" t="n"/>
+      <c r="I60" s="53" t="n"/>
+    </row>
+    <row r="61" ht="99.75" customHeight="1">
+      <c r="B61" s="57" t="n"/>
+      <c r="C61" s="60" t="n"/>
+      <c r="D61" s="70" t="n"/>
+      <c r="E61" s="61" t="n"/>
+      <c r="F61" s="62" t="n"/>
+      <c r="G61" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H61" s="59" t="n"/>
+      <c r="I61" s="53" t="n"/>
+    </row>
+    <row r="62" ht="99.75" customHeight="1">
+      <c r="B62" s="57" t="n"/>
+      <c r="C62" s="60" t="n"/>
+      <c r="D62" s="70" t="n"/>
+      <c r="E62" s="61" t="n"/>
+      <c r="F62" s="62" t="n"/>
+      <c r="G62" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H62" s="59" t="n"/>
+      <c r="I62" s="53" t="n"/>
+    </row>
+    <row r="63" ht="99.75" customHeight="1">
+      <c r="B63" s="57" t="n"/>
+      <c r="C63" s="60" t="n"/>
+      <c r="D63" s="70" t="n"/>
+      <c r="E63" s="61" t="n"/>
+      <c r="F63" s="62" t="n"/>
+      <c r="G63" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H63" s="59" t="n"/>
+      <c r="I63" s="53" t="n"/>
+    </row>
+    <row r="64" ht="99.75" customHeight="1">
+      <c r="B64" s="57" t="n"/>
+      <c r="C64" s="60" t="n"/>
+      <c r="D64" s="70" t="n"/>
+      <c r="E64" s="61" t="n"/>
+      <c r="F64" s="62" t="n"/>
+      <c r="G64" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H64" s="59" t="n"/>
+      <c r="I64" s="53" t="n"/>
+    </row>
+    <row r="65" ht="99.75" customHeight="1">
+      <c r="B65" s="57" t="n"/>
+      <c r="C65" s="60" t="n"/>
+      <c r="D65" s="70" t="n"/>
+      <c r="E65" s="61" t="n"/>
+      <c r="F65" s="62" t="n"/>
+      <c r="G65" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H65" s="59" t="n"/>
+      <c r="I65" s="53" t="n"/>
+    </row>
+    <row r="66" ht="99.75" customHeight="1">
+      <c r="B66" s="57" t="n"/>
+      <c r="C66" s="60" t="n"/>
+      <c r="D66" s="70" t="n"/>
+      <c r="E66" s="61" t="n"/>
+      <c r="F66" s="62" t="n"/>
+      <c r="G66" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H66" s="59" t="n"/>
+      <c r="I66" s="53" t="n"/>
+    </row>
+    <row r="67" ht="99.75" customHeight="1">
+      <c r="B67" s="57" t="n"/>
+      <c r="C67" s="60" t="n"/>
+      <c r="D67" s="70" t="n"/>
+      <c r="E67" s="61" t="n"/>
+      <c r="F67" s="62" t="n"/>
+      <c r="G67" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H67" s="59" t="n"/>
+      <c r="I67" s="53" t="n"/>
+    </row>
+    <row r="68" ht="99.75" customHeight="1">
+      <c r="B68" s="57" t="n"/>
+      <c r="C68" s="60" t="n"/>
+      <c r="D68" s="70" t="n"/>
+      <c r="E68" s="61" t="n"/>
+      <c r="F68" s="62" t="n"/>
+      <c r="G68" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H68" s="59" t="n"/>
+      <c r="I68" s="53" t="n"/>
+    </row>
+    <row r="69" ht="99.75" customHeight="1">
+      <c r="B69" s="57" t="n"/>
+      <c r="C69" s="60" t="n"/>
+      <c r="D69" s="70" t="n"/>
+      <c r="E69" s="61" t="n"/>
+      <c r="F69" s="62" t="n"/>
+      <c r="G69" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H69" s="59" t="n"/>
+      <c r="I69" s="53" t="n"/>
+    </row>
+    <row r="70" ht="99.75" customHeight="1">
+      <c r="B70" s="57" t="n"/>
+      <c r="C70" s="60" t="n"/>
+      <c r="D70" s="70" t="n"/>
+      <c r="E70" s="61" t="n"/>
+      <c r="F70" s="62" t="n"/>
+      <c r="G70" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H70" s="59" t="n"/>
+      <c r="I70" s="53" t="n"/>
+    </row>
+    <row r="71" ht="99.75" customHeight="1">
+      <c r="B71" s="57" t="n"/>
+      <c r="C71" s="60" t="n"/>
+      <c r="D71" s="70" t="n"/>
+      <c r="E71" s="61" t="n"/>
+      <c r="F71" s="62" t="n"/>
+      <c r="G71" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H71" s="59" t="n"/>
+      <c r="I71" s="53" t="n"/>
+    </row>
+    <row r="72" ht="99.75" customHeight="1">
+      <c r="B72" s="57" t="n"/>
+      <c r="C72" s="60" t="n"/>
+      <c r="D72" s="70" t="n"/>
+      <c r="E72" s="61" t="n"/>
+      <c r="F72" s="62" t="n"/>
+      <c r="G72" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H72" s="59" t="n"/>
+      <c r="I72" s="53" t="n"/>
+    </row>
+    <row r="73" ht="99.75" customHeight="1">
+      <c r="B73" s="57" t="n"/>
+      <c r="C73" s="60" t="n"/>
+      <c r="D73" s="70" t="n"/>
+      <c r="E73" s="61" t="n"/>
+      <c r="F73" s="62" t="n"/>
+      <c r="G73" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H73" s="59" t="n"/>
+      <c r="I73" s="53" t="n"/>
+    </row>
+    <row r="74" ht="99.75" customHeight="1">
+      <c r="B74" s="57" t="n"/>
+      <c r="C74" s="60" t="n"/>
+      <c r="D74" s="70" t="n"/>
+      <c r="E74" s="61" t="n"/>
+      <c r="F74" s="62" t="n"/>
+      <c r="G74" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H74" s="59" t="n"/>
+      <c r="I74" s="53" t="n"/>
+    </row>
+    <row r="75" ht="99.75" customHeight="1">
+      <c r="B75" s="57" t="n"/>
+      <c r="C75" s="60" t="n"/>
+      <c r="D75" s="70" t="n"/>
+      <c r="E75" s="61" t="n"/>
+      <c r="F75" s="62" t="n"/>
+      <c r="G75" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H75" s="59" t="n"/>
+      <c r="I75" s="53" t="n"/>
+    </row>
+    <row r="76" ht="99.75" customHeight="1">
+      <c r="B76" s="57" t="n"/>
+      <c r="C76" s="60" t="n"/>
+      <c r="D76" s="70" t="n"/>
+      <c r="E76" s="61" t="n"/>
+      <c r="F76" s="62" t="n"/>
+      <c r="G76" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H76" s="59" t="n"/>
+      <c r="I76" s="53" t="n"/>
+    </row>
+    <row r="77" ht="99.75" customHeight="1">
+      <c r="B77" s="57" t="n"/>
+      <c r="C77" s="60" t="n"/>
+      <c r="D77" s="70" t="n"/>
+      <c r="E77" s="61" t="n"/>
+      <c r="F77" s="62" t="n"/>
+      <c r="G77" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H77" s="59" t="n"/>
+      <c r="I77" s="53" t="n"/>
+    </row>
+    <row r="78" ht="99.75" customHeight="1">
+      <c r="B78" s="57" t="n"/>
+      <c r="C78" s="60" t="n"/>
+      <c r="D78" s="70" t="n"/>
+      <c r="E78" s="61" t="n"/>
+      <c r="F78" s="62" t="n"/>
+      <c r="G78" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H78" s="59" t="n"/>
+      <c r="I78" s="53" t="n"/>
+    </row>
+    <row r="79" ht="99.75" customHeight="1">
+      <c r="B79" s="57" t="n"/>
+      <c r="C79" s="60" t="n"/>
+      <c r="D79" s="70" t="n"/>
+      <c r="E79" s="61" t="n"/>
+      <c r="F79" s="62" t="n"/>
+      <c r="G79" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H79" s="59" t="n"/>
+      <c r="I79" s="53" t="n"/>
+    </row>
+    <row r="80" ht="99.75" customHeight="1">
+      <c r="B80" s="57" t="n"/>
+      <c r="C80" s="60" t="n"/>
+      <c r="D80" s="70" t="n"/>
+      <c r="E80" s="61" t="n"/>
+      <c r="F80" s="62" t="n"/>
+      <c r="G80" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H80" s="59" t="n"/>
+      <c r="I80" s="53" t="n"/>
+    </row>
+    <row r="81" ht="99.75" customHeight="1">
+      <c r="B81" s="57" t="n"/>
+      <c r="C81" s="60" t="n"/>
+      <c r="D81" s="70" t="n"/>
+      <c r="E81" s="61" t="n"/>
+      <c r="F81" s="62" t="n"/>
+      <c r="G81" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H81" s="59" t="n"/>
+      <c r="I81" s="53" t="n"/>
+    </row>
+    <row r="82" ht="99.75" customHeight="1">
+      <c r="B82" s="57" t="n"/>
+      <c r="C82" s="60" t="n"/>
+      <c r="D82" s="70" t="n"/>
+      <c r="E82" s="61" t="n"/>
+      <c r="F82" s="62" t="n"/>
+      <c r="G82" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H82" s="59" t="n"/>
+      <c r="I82" s="53" t="n"/>
+    </row>
+    <row r="83" ht="99.75" customHeight="1">
+      <c r="B83" s="57" t="n"/>
+      <c r="C83" s="60" t="n"/>
+      <c r="D83" s="70" t="n"/>
+      <c r="E83" s="61" t="n"/>
+      <c r="F83" s="62" t="n"/>
+      <c r="G83" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H83" s="59" t="n"/>
+      <c r="I83" s="53" t="n"/>
+    </row>
+    <row r="84" ht="99.75" customHeight="1">
+      <c r="B84" s="57" t="n"/>
+      <c r="C84" s="60" t="n"/>
+      <c r="D84" s="70" t="n"/>
+      <c r="E84" s="61" t="n"/>
+      <c r="F84" s="62" t="n"/>
+      <c r="G84" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H84" s="59" t="n"/>
+      <c r="I84" s="53" t="n"/>
+    </row>
+    <row r="85" ht="99.75" customHeight="1">
+      <c r="B85" s="57" t="n"/>
+      <c r="C85" s="60" t="n"/>
+      <c r="D85" s="70" t="n"/>
+      <c r="E85" s="61" t="n"/>
+      <c r="F85" s="62" t="n"/>
+      <c r="G85" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H85" s="59" t="n"/>
+      <c r="I85" s="53" t="n"/>
+    </row>
+    <row r="86" ht="99.75" customHeight="1">
+      <c r="B86" s="57" t="n"/>
+      <c r="C86" s="60" t="n"/>
+      <c r="D86" s="70" t="n"/>
+      <c r="E86" s="61" t="n"/>
+      <c r="F86" s="62" t="n"/>
+      <c r="G86" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H86" s="59" t="n"/>
+      <c r="I86" s="53" t="n"/>
+    </row>
+    <row r="87" ht="99.75" customHeight="1">
+      <c r="B87" s="57" t="n"/>
+      <c r="C87" s="60" t="n"/>
+      <c r="D87" s="70" t="n"/>
+      <c r="E87" s="61" t="n"/>
+      <c r="F87" s="62" t="n"/>
+      <c r="G87" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H87" s="59" t="n"/>
+      <c r="I87" s="53" t="n"/>
+    </row>
+    <row r="88" ht="99.75" customHeight="1">
+      <c r="B88" s="57" t="n"/>
+      <c r="C88" s="60" t="n"/>
+      <c r="D88" s="70" t="n"/>
+      <c r="E88" s="61" t="n"/>
+      <c r="F88" s="62" t="n"/>
+      <c r="G88" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H88" s="59" t="n"/>
+      <c r="I88" s="53" t="n"/>
+    </row>
+    <row r="89" ht="99.75" customHeight="1">
+      <c r="B89" s="57" t="n"/>
+      <c r="C89" s="60" t="n"/>
+      <c r="D89" s="70" t="n"/>
+      <c r="E89" s="61" t="n"/>
+      <c r="F89" s="62" t="n"/>
+      <c r="G89" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H89" s="59" t="n"/>
+      <c r="I89" s="53" t="n"/>
+    </row>
+    <row r="90" ht="99.75" customHeight="1">
+      <c r="B90" s="57" t="n"/>
+      <c r="C90" s="60" t="n"/>
+      <c r="D90" s="70" t="n"/>
+      <c r="E90" s="61" t="n"/>
+      <c r="F90" s="62" t="n"/>
+      <c r="G90" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H90" s="59" t="n"/>
+      <c r="I90" s="53" t="n"/>
+    </row>
+    <row r="91" ht="99.75" customHeight="1">
+      <c r="B91" s="57" t="n"/>
+      <c r="C91" s="60" t="n"/>
+      <c r="D91" s="70" t="n"/>
+      <c r="E91" s="61" t="n"/>
+      <c r="F91" s="62" t="n"/>
+      <c r="G91" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H91" s="59" t="n"/>
+      <c r="I91" s="53" t="n"/>
+    </row>
+    <row r="92" ht="99.75" customHeight="1">
+      <c r="B92" s="57" t="n"/>
+      <c r="C92" s="60" t="n"/>
+      <c r="D92" s="70" t="n"/>
+      <c r="E92" s="61" t="n"/>
+      <c r="F92" s="62" t="n"/>
+      <c r="G92" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H92" s="59" t="n"/>
+      <c r="I92" s="53" t="n"/>
+    </row>
+    <row r="93" ht="99.75" customHeight="1">
+      <c r="B93" s="57" t="n"/>
+      <c r="C93" s="60" t="n"/>
+      <c r="D93" s="70" t="n"/>
+      <c r="E93" s="61" t="n"/>
+      <c r="F93" s="62" t="n"/>
+      <c r="G93" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H93" s="59" t="n"/>
+      <c r="I93" s="53" t="n"/>
+    </row>
+    <row r="94" ht="99.75" customHeight="1">
+      <c r="B94" s="57" t="n"/>
+      <c r="C94" s="60" t="n"/>
+      <c r="D94" s="70" t="n"/>
+      <c r="E94" s="61" t="n"/>
+      <c r="F94" s="62" t="n"/>
+      <c r="G94" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H94" s="59" t="n"/>
+      <c r="I94" s="53" t="n"/>
+    </row>
+    <row r="95" ht="99.75" customHeight="1">
+      <c r="B95" s="57" t="n"/>
+      <c r="C95" s="60" t="n"/>
+      <c r="D95" s="70" t="n"/>
+      <c r="E95" s="61" t="n"/>
+      <c r="F95" s="62" t="n"/>
+      <c r="G95" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H95" s="59" t="n"/>
+      <c r="I95" s="53" t="n"/>
+    </row>
+    <row r="96" ht="99.75" customHeight="1">
+      <c r="B96" s="57" t="n"/>
+      <c r="C96" s="60" t="n"/>
+      <c r="D96" s="70" t="n"/>
+      <c r="E96" s="61" t="n"/>
+      <c r="F96" s="62" t="n"/>
+      <c r="G96" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H96" s="59" t="n"/>
+      <c r="I96" s="53" t="n"/>
+    </row>
+    <row r="97" ht="99.75" customHeight="1">
+      <c r="B97" s="57" t="n"/>
+      <c r="C97" s="60" t="n"/>
+      <c r="D97" s="70" t="n"/>
+      <c r="E97" s="61" t="n"/>
+      <c r="F97" s="62" t="n"/>
+      <c r="G97" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H97" s="59" t="n"/>
+      <c r="I97" s="53" t="n"/>
+    </row>
+    <row r="98" ht="99.75" customHeight="1">
+      <c r="B98" s="57" t="n"/>
+      <c r="C98" s="60" t="n"/>
+      <c r="D98" s="70" t="n"/>
+      <c r="E98" s="61" t="n"/>
+      <c r="F98" s="62" t="n"/>
+      <c r="G98" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H98" s="59" t="n"/>
+      <c r="I98" s="53" t="n"/>
+    </row>
+    <row r="99" ht="99.75" customHeight="1">
+      <c r="B99" s="57" t="n"/>
+      <c r="C99" s="60" t="n"/>
+      <c r="D99" s="70" t="n"/>
+      <c r="E99" s="61" t="n"/>
+      <c r="F99" s="62" t="n"/>
+      <c r="G99" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H99" s="59" t="n"/>
+      <c r="I99" s="53" t="n"/>
+    </row>
+    <row r="100" ht="99.75" customHeight="1">
+      <c r="B100" s="57" t="n"/>
+      <c r="C100" s="60" t="n"/>
+      <c r="D100" s="70" t="n"/>
+      <c r="E100" s="61" t="n"/>
+      <c r="F100" s="62" t="n"/>
+      <c r="G100" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H100" s="59" t="n"/>
+      <c r="I100" s="53" t="n"/>
+    </row>
+    <row r="101" ht="99.75" customHeight="1">
+      <c r="B101" s="57" t="n"/>
+      <c r="C101" s="60" t="n"/>
+      <c r="D101" s="70" t="n"/>
+      <c r="E101" s="61" t="n"/>
+      <c r="F101" s="62" t="n"/>
+      <c r="G101" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H101" s="59" t="n"/>
+      <c r="I101" s="53" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="63" t="n"/>
+      <c r="B102" s="63" t="n"/>
+      <c r="C102" s="63" t="n"/>
+      <c r="D102" s="63" t="n"/>
+      <c r="E102" s="64" t="n"/>
+      <c r="F102" s="64" t="n"/>
+      <c r="G102" s="63" t="n"/>
+      <c r="H102" s="63" t="n"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="45" t="inlineStr">
+        <is>
+          <t>Test Summary</t>
+        </is>
+      </c>
+      <c r="C104" s="67" t="n"/>
+    </row>
+    <row r="105">
+      <c r="D105" s="45" t="inlineStr">
+        <is>
+          <t>Test Case Count:</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" s="46" t="inlineStr">
+        <is>
+          <t>Total Test Cases</t>
+        </is>
+      </c>
+      <c r="E106" s="71">
+        <f>COUNTA(B6:B6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="D107" s="65" t="inlineStr">
+        <is>
+          <t>Total Test Case Passed</t>
+        </is>
+      </c>
+      <c r="E107" s="71">
+        <f>COUNTIF(G6:G6,"PASS")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" s="46" t="inlineStr">
+        <is>
+          <t>Total Test Case Failed</t>
+        </is>
+      </c>
+      <c r="E108" s="71">
+        <f>COUNTIF(G6:G6,"FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="D109" s="68" t="inlineStr">
+        <is>
+          <t>Total Test Case Not  Executed</t>
+        </is>
+      </c>
+      <c r="E109" s="71">
+        <f>COUNTIF(G6:G6,"Not Executed")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="D111" s="45" t="n"/>
+      <c r="E111" s="69" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11062,7 +12035,7 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G23:G27">
+  <conditionalFormatting sqref="G103:G107">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="2" stopIfTrue="1">
       <formula>"PASS"</formula>
     </cfRule>
@@ -11074,10 +12047,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="G6:G21" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="G6:G101" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"PASS,FAIL,Not Executed"</formula1>
     </dataValidation>
-    <dataValidation sqref="H6:H22" showDropDown="0" showInputMessage="1" showErrorMessage="0" allowBlank="1" prompt="Comments by Test Engineer"/>
+    <dataValidation sqref="H6:H102" showDropDown="0" showInputMessage="1" showErrorMessage="0" allowBlank="1" prompt="Comments by Test Engineer"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B1" location="Summary!A1" display="Summary Sheet"/>

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10163,7 +10163,7 @@
     <row r="2" ht="81.75" customHeight="1">
       <c r="B2" s="128" t="inlineStr">
         <is>
-          <t>Component: Multi-Functional Tool Application</t>
+          <t>Component: SCC (e-Bridge Cloud Client)</t>
         </is>
       </c>
       <c r="C2" s="80" t="n"/>
@@ -10250,24 +10250,24 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on a desktop computer</t>
+          <t>MFP is powered on and in normal boot-up mode</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Verify application installation on desktop</t>
+          <t>Enabling SCC function</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Desktop.zip from specified tec-share location
-2. Extract contents to preferred location
-3. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Access Self-diagnostic boot-up mode or service UI on panel
+2. Set 08-3820 from 0 (Disable) to 1 (Enable)
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>Application launches successfully with all features accessible</t>
+          <t>SCC function should be enabled and MFP should start SCC process after reboot</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10282,24 +10282,24 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on a laptop</t>
+          <t>SCC function is enabled (08-3820 = 1)</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Verify application installation on laptop</t>
+          <t>SCC Installation Report printing</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Copy MultiFunctionalTool_For_Laptop.zip from specified tec-share location
-2. Extract contents to preferred location
-3. Double-click on MultiFunctionalToolApplication</t>
+          <t>1. Change 08-3820 from 0 (Disable) to 1 (Enable)
+2. Reboot the MFP
+3. Wait for MFP registration processing to complete</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>Application launches successfully with all features accessible</t>
+          <t>Installation report should be automatically printed with correct MFP information including Serial Number, MAC Address, and Registration Status</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10314,23 +10314,23 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture start functionality</t>
+          <t>SCC report printing language</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture section
-2. Click Start button</t>
+          <t>1. Change device language setting
+2. Enable SCC function and trigger installation report</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Packet capture begins successfully</t>
+          <t>Installation report should be printed in English regardless of device language setting</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10345,26 +10345,23 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>Packet capture is in progress</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify Network Packet Capture stop functionality</t>
+          <t>SCC report in job log</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Network Packet Capture section
-2. Click Stop button</t>
+          <t>1. Enable SCC function and trigger installation report
+2. Check job log</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>1. Packet capture stops
-2. .pcap file is generated
-3. File is copied to MFP's Shared Folder
-4. Shared Folder opens automatically</t>
+          <t>SCC report printing should be recorded in Job Log as network print and user counter for built-in Admin should be incremented</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10379,24 +10376,23 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled, network print restriction mode (08-9344) set to "only private"</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify Memory Leak Check functionality</t>
+          <t>SCC report with print restrictions</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Memory Leak Check section
-2. Select a protocol
-3. Run the memory leak check</t>
+          <t>1. Set 08-9344 to 1 (only private)
+2. Enable SCC function and trigger installation report</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>Memory Leak Comparison Table is displayed with accurate information</t>
+          <t>SCC report should not be printed and job log should show error code 4221</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10411,26 +10407,24 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify Debug Log Collection functionality</t>
+          <t>HTTPS communication protocol</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection section
-2. Click Run button</t>
+          <t>1. Enable SCC function
+2. Monitor network traffic during SCC communication
+3. Verify SSL/TLS connection to server</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>1. Script executes successfully
-2. Logs are collected
-3. Logs are copied to MFP's Shared Folder
-4. Shared Folder opens automatically</t>
+          <t>MFP should use HTTPS for all communications with the SCC server</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10445,24 +10439,24 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify Debug Log Collection retry</t>
+          <t>Communication initiation</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Debug Log Collection section
-2. Click Run button when folder is empty
-3. Perform the operation again</t>
+          <t>1. Enable SCC function
+2. Monitor network traffic
+3. Observe communication patterns</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>Logs are successfully collected on the second attempt</t>
+          <t>All communications should be initiated from the MFP side, never from the server side</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10477,23 +10471,24 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled, proxy server required</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details for ECC</t>
+          <t>Proxy server authentication</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section
-2. Select ECC option</t>
+          <t>1. Configure proxy settings (08-3822 to 08-3826)
+2. Set proxy authentication credentials
+3. Trigger SCC communication</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for ECC are displayed</t>
+          <t>MFP should successfully communicate with SCC server through the proxy with authentication</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10508,23 +10503,24 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled, proxy server required without authentication</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details for Network Protocols</t>
+          <t>Proxy server without authentication</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section
-2. Select Network Protocols option</t>
+          <t>1. Configure proxy settings (08-3822 to 08-3826)
+2. Set proxy account ID to NULL
+3. Trigger SCC communication</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for Network Protocols are displayed</t>
+          <t>MFP should communicate with SCC server through proxy without authentication</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10539,23 +10535,24 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details for High Security Mode</t>
+          <t>Port number fallback</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section
-2. Select High Security Mode option</t>
+          <t>1. Block port 443 at firewall
+2. Allow port 8443
+3. Trigger SCC communication</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for High Security Mode are displayed</t>
+          <t>MFP should automatically use port 8443 when port 443 is unavailable</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10570,23 +10567,23 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>MFP is in special startup mode</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify Diagnostic Code Details for commonly used codes</t>
+          <t>SCC process startup</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Diagnostic Code Details section
-2. Select a commonly used diagnostic code</t>
+          <t>1. Boot MFP in special startup mode
+2. Check if SCC process starts</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>Relevant job-specific details for the selected code are displayed</t>
+          <t>SCC process should not start in special startup mode</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10601,24 +10598,24 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value Get functionality</t>
+          <t>Regular communication schedule - daily</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section
-2. Select a diagnostic code
-3. Click Get button</t>
+          <t>1. Set regular communication schedule to daily at specific time
+2. Wait for scheduled time
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected diagnostic code is displayed</t>
+          <t>MFP should initiate communication with SCC server at the specified time</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10633,25 +10630,23 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify 08 Diagnostic Code Value Set functionality</t>
+          <t>Regular communication schedule - interval</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to 08 Diagnostic Code Value section
-2. Select a diagnostic code
-3. Enter a new value
-4. Click Set button</t>
+          <t>1. Set regular communication schedule to interval (e.g., 15 min)
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>The diagnostic code value is updated successfully</t>
+          <t>MFP should initiate communication with SCC server at the specified interval</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10666,24 +10661,23 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration Get functionality</t>
+          <t>Register Device - first time</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration section
-2. Select a protocol
-3. Click Get button</t>
+          <t>1. Enable SCC function on unregistered MFP
+2. Monitor communication with server</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>Current value of the selected protocol is displayed</t>
+          <t>MFP should send registration request with serial number and other required parameters, and receive token from server</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10698,33 +10692,27 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled, MFP already registered</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify Protocol Configuration Set functionality</t>
+          <t>Register Device - authentication</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Navigate to Protocol Configuration section
-2. Select a protocol
-3. Enter a new value
-4. Click Set button</t>
+          <t>1. Trigger communication on previously registered MFP
+2. Monitor communication with server</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>Error message or notification indicating this feature is not yet implemented</t>
+          <t>MFP should authenticate using previously received token</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
-      <c r="H20" s="59" t="inlineStr">
-        <is>
-          <t>Feature pending implementation</t>
-        </is>
-      </c>
+      <c r="H20" s="59" t="inlineStr"/>
       <c r="I20" s="53" t="n"/>
     </row>
     <row r="21" ht="99.75" customHeight="1">
@@ -10735,24 +10723,23 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>Application is running on a system with high CPU load</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify application performance under load</t>
+          <t>Server BUSY handling</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Create high CPU load on system
-2. Launch application
-3. Test all major functions</t>
+          <t>1. Simulate server BUSY response
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>Application remains responsive and functions correctly</t>
+          <t>MFP should retry connection after waiting for the period specified by server, up to 3 retries</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10767,24 +10754,23 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify GUI responsiveness</t>
+          <t>Check for Updates</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Launch application
-2. Rapidly click between different sections
-3. Test multiple features in quick succession</t>
+          <t>1. Trigger regular communication
+2. Monitor Check for Updates request</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>GUI remains responsive with no freezing or significant delays</t>
+          <t>MFP should send firmware version and other parameters to check for available updates</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
@@ -10799,23 +10785,24 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled, update available</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify time efficiency for Network Packet Capture</t>
+          <t>Download Package - firmware</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Measure time to start and stop packet capture
-2. Compare with manual command execution time</t>
+          <t>1. Configure server to provide firmware update
+2. Trigger regular communication
+3. Monitor download process</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>Time reduction of approximately 80% compared to manual method</t>
+          <t>MFP should download update package and verify hash value</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
@@ -10830,23 +10817,23 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled, update available</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Verify time efficiency for Memory Leak Check</t>
+          <t>Install Package - firmware</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Measure time to perform memory leak check
-2. Compare with manual method</t>
+          <t>1. Download firmware update package
+2. Monitor installation process</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>Time reduction of approximately 80% compared to manual method</t>
+          <t>MFP should install firmware update at scheduled time and reboot</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10861,23 +10848,23 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled, update available</t>
         </is>
       </c>
       <c r="D25" s="70" t="inlineStr">
         <is>
-          <t>Verify time efficiency for Debug Log Collection</t>
+          <t>Update Status notification</t>
         </is>
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Measure time to collect debug logs
-2. Compare with manual method</t>
+          <t>1. Install update package
+2. Monitor Update Status communication</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>Time reduction of approximately 80% compared to manual method</t>
+          <t>MFP should notify server of installation status with correct state transitions</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
@@ -10892,23 +10879,23 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>Application is installed on different Windows versions</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D26" s="70" t="inlineStr">
         <is>
-          <t>Verify compatibility across Windows versions</t>
+          <t>Send Baseline Data</t>
         </is>
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Install and run application on Windows 7, 8, 10, and 11
-2. Test all major functions on each OS</t>
+          <t>1. Trigger regular communication
+2. Monitor Send Baseline Data process</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>Application functions correctly on all supported Windows versions</t>
+          <t>MFP should collect and send baseline data according to SendDataConfig settings</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
@@ -10923,23 +10910,23 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Verify error handling for invalid inputs</t>
+          <t>Send Regular Data</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Enter invalid values in input fields
-2. Test application response</t>
+          <t>1. Complete update installation
+2. Monitor Send Regular Data process</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>Application displays appropriate error messages without crashing</t>
+          <t>MFP should collect and send regular data according to SendDataConfig settings</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
@@ -10954,23 +10941,23 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Verify usability for first-time users</t>
+          <t>Device error notification</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Have a first-time user attempt to use each feature
-2. Observe and record any difficulties</t>
+          <t>1. Generate device error (e.g., paper jam)
+2. Monitor Send Device Error communication</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>First-time user can successfully use all features with minimal guidance</t>
+          <t>MFP should notify server of device error with correct error code</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
@@ -10985,23 +10972,24 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>Application is running</t>
+          <t>SCC function is enabled, error previously reported</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Verify memory usage during extended operation</t>
+          <t>Error removal notification</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Run application for extended period (8+ hours)
-2. Monitor memory usage</t>
+          <t>1. Generate device error
+2. Clear the error
+3. Monitor Send Device Error communication</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>Application does not exhibit memory leaks or excessive memory consumption</t>
+          <t>MFP should notify server of error removal with "-" prefix (e.g., -D102)</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
@@ -11009,227 +10997,506 @@
       <c r="I29" s="53" t="n"/>
     </row>
     <row r="30" ht="99.75" customHeight="1">
-      <c r="B30" s="57" t="n"/>
-      <c r="C30" s="60" t="n"/>
-      <c r="D30" s="70" t="n"/>
-      <c r="E30" s="61" t="n"/>
-      <c r="F30" s="62" t="n"/>
-      <c r="G30" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H30" s="59" t="n"/>
+      <c r="B30" s="57" t="inlineStr">
+        <is>
+          <t>TC025</t>
+        </is>
+      </c>
+      <c r="C30" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled</t>
+        </is>
+      </c>
+      <c r="D30" s="70" t="inlineStr">
+        <is>
+          <t>Panel message display</t>
+        </is>
+      </c>
+      <c r="E30" s="61" t="inlineStr">
+        <is>
+          <t>1. Trigger SCC communication
+2. Observe panel display</t>
+        </is>
+      </c>
+      <c r="F30" s="62" t="inlineStr">
+        <is>
+          <t>MFP should display appropriate message with status code during SCC processing</t>
+        </is>
+      </c>
+      <c r="G30" s="58" t="inlineStr"/>
+      <c r="H30" s="59" t="inlineStr"/>
       <c r="I30" s="53" t="n"/>
     </row>
     <row r="31" ht="99.75" customHeight="1">
-      <c r="B31" s="57" t="n"/>
-      <c r="C31" s="60" t="n"/>
-      <c r="D31" s="70" t="n"/>
-      <c r="E31" s="61" t="n"/>
-      <c r="F31" s="62" t="n"/>
-      <c r="G31" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H31" s="59" t="n"/>
+      <c r="B31" s="57" t="inlineStr">
+        <is>
+          <t>TC026</t>
+        </is>
+      </c>
+      <c r="C31" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, MFP in Super Sleep</t>
+        </is>
+      </c>
+      <c r="D31" s="70" t="inlineStr">
+        <is>
+          <t>Super Sleep recovery for scheduled communication</t>
+        </is>
+      </c>
+      <c r="E31" s="61" t="inlineStr">
+        <is>
+          <t>1. Put MFP in Super Sleep mode
+2. Wait for scheduled communication time</t>
+        </is>
+      </c>
+      <c r="F31" s="62" t="inlineStr">
+        <is>
+          <t>MFP should wake from Super Sleep, perform communication, then return to Super Sleep</t>
+        </is>
+      </c>
+      <c r="G31" s="58" t="inlineStr"/>
+      <c r="H31" s="59" t="inlineStr"/>
       <c r="I31" s="53" t="n"/>
     </row>
     <row r="32" ht="99.75" customHeight="1">
-      <c r="B32" s="57" t="n"/>
-      <c r="C32" s="60" t="n"/>
-      <c r="D32" s="70" t="n"/>
-      <c r="E32" s="61" t="n"/>
-      <c r="F32" s="62" t="n"/>
-      <c r="G32" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H32" s="59" t="n"/>
+      <c r="B32" s="57" t="inlineStr">
+        <is>
+          <t>TC027</t>
+        </is>
+      </c>
+      <c r="C32" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled</t>
+        </is>
+      </c>
+      <c r="D32" s="70" t="inlineStr">
+        <is>
+          <t>Communication retry on error</t>
+        </is>
+      </c>
+      <c r="E32" s="61" t="inlineStr">
+        <is>
+          <t>1. Disconnect network during communication
+2. Monitor retry behavior</t>
+        </is>
+      </c>
+      <c r="F32" s="62" t="inlineStr">
+        <is>
+          <t>MFP should retry after 60 seconds, then enter retry mode if unsuccessful</t>
+        </is>
+      </c>
+      <c r="G32" s="58" t="inlineStr"/>
+      <c r="H32" s="59" t="inlineStr"/>
       <c r="I32" s="53" t="n"/>
     </row>
     <row r="33" ht="99.75" customHeight="1">
-      <c r="B33" s="57" t="n"/>
-      <c r="C33" s="60" t="n"/>
-      <c r="D33" s="70" t="n"/>
-      <c r="E33" s="61" t="n"/>
-      <c r="F33" s="62" t="n"/>
-      <c r="G33" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H33" s="59" t="n"/>
+      <c r="B33" s="57" t="inlineStr">
+        <is>
+          <t>TC028</t>
+        </is>
+      </c>
+      <c r="C33" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, in retry mode</t>
+        </is>
+      </c>
+      <c r="D33" s="70" t="inlineStr">
+        <is>
+          <t>Daily retry in retry mode</t>
+        </is>
+      </c>
+      <c r="E33" s="61" t="inlineStr">
+        <is>
+          <t>1. Put MFP in retry mode
+2. Monitor communication attempts</t>
+        </is>
+      </c>
+      <c r="F33" s="62" t="inlineStr">
+        <is>
+          <t>MFP should attempt communication once every 24 hours while in retry mode</t>
+        </is>
+      </c>
+      <c r="G33" s="58" t="inlineStr"/>
+      <c r="H33" s="59" t="inlineStr"/>
       <c r="I33" s="53" t="n"/>
     </row>
     <row r="34" ht="99.75" customHeight="1">
-      <c r="B34" s="57" t="n"/>
-      <c r="C34" s="60" t="n"/>
-      <c r="D34" s="70" t="n"/>
-      <c r="E34" s="61" t="n"/>
-      <c r="F34" s="62" t="n"/>
-      <c r="G34" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H34" s="59" t="n"/>
+      <c r="B34" s="57" t="inlineStr">
+        <is>
+          <t>TC029</t>
+        </is>
+      </c>
+      <c r="C34" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, custom URL configured</t>
+        </is>
+      </c>
+      <c r="D34" s="70" t="inlineStr">
+        <is>
+          <t>First registration URL setting</t>
+        </is>
+      </c>
+      <c r="E34" s="61" t="inlineStr">
+        <is>
+          <t>1. Set custom URL in 08-3827
+2. Enable SCC function
+3. Monitor registration process</t>
+        </is>
+      </c>
+      <c r="F34" s="62" t="inlineStr">
+        <is>
+          <t>MFP should connect to specified custom URL instead of default server</t>
+        </is>
+      </c>
+      <c r="G34" s="58" t="inlineStr"/>
+      <c r="H34" s="59" t="inlineStr"/>
       <c r="I34" s="53" t="n"/>
     </row>
     <row r="35" ht="99.75" customHeight="1">
-      <c r="B35" s="57" t="n"/>
-      <c r="C35" s="60" t="n"/>
-      <c r="D35" s="70" t="n"/>
-      <c r="E35" s="61" t="n"/>
-      <c r="F35" s="62" t="n"/>
-      <c r="G35" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H35" s="59" t="n"/>
+      <c r="B35" s="57" t="inlineStr">
+        <is>
+          <t>TC030</t>
+        </is>
+      </c>
+      <c r="C35" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, URL forward disabled</t>
+        </is>
+      </c>
+      <c r="D35" s="70" t="inlineStr">
+        <is>
+          <t>URL forward setting</t>
+        </is>
+      </c>
+      <c r="E35" s="61" t="inlineStr">
+        <is>
+          <t>1. Set 08-3828 to 0 (Disable)
+2. Configure server to return redirect URL
+3. Monitor registration process</t>
+        </is>
+      </c>
+      <c r="F35" s="62" t="inlineStr">
+        <is>
+          <t>MFP should not follow redirect URL from server</t>
+        </is>
+      </c>
+      <c r="G35" s="58" t="inlineStr"/>
+      <c r="H35" s="59" t="inlineStr"/>
       <c r="I35" s="53" t="n"/>
     </row>
     <row r="36" ht="99.75" customHeight="1">
-      <c r="B36" s="57" t="n"/>
-      <c r="C36" s="60" t="n"/>
-      <c r="D36" s="70" t="n"/>
-      <c r="E36" s="61" t="n"/>
-      <c r="F36" s="62" t="n"/>
-      <c r="G36" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H36" s="59" t="n"/>
+      <c r="B36" s="57" t="inlineStr">
+        <is>
+          <t>TC031</t>
+        </is>
+      </c>
+      <c r="C36" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, persistent policy configured</t>
+        </is>
+      </c>
+      <c r="D36" s="70" t="inlineStr">
+        <is>
+          <t>Persistent policy check</t>
+        </is>
+      </c>
+      <c r="E36" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure persistent policy from server
+2. Change settings locally
+3. Wait for persistent check interval</t>
+        </is>
+      </c>
+      <c r="F36" s="62" t="inlineStr">
+        <is>
+          <t>MFP should revert settings to match policy values</t>
+        </is>
+      </c>
+      <c r="G36" s="58" t="inlineStr"/>
+      <c r="H36" s="59" t="inlineStr"/>
       <c r="I36" s="53" t="n"/>
     </row>
     <row r="37" ht="99.75" customHeight="1">
-      <c r="B37" s="57" t="n"/>
-      <c r="C37" s="60" t="n"/>
-      <c r="D37" s="70" t="n"/>
-      <c r="E37" s="61" t="n"/>
-      <c r="F37" s="62" t="n"/>
-      <c r="G37" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H37" s="59" t="n"/>
+      <c r="B37" s="57" t="inlineStr">
+        <is>
+          <t>TC032</t>
+        </is>
+      </c>
+      <c r="C37" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, time-based settings configured</t>
+        </is>
+      </c>
+      <c r="D37" s="70" t="inlineStr">
+        <is>
+          <t>Time-based device state values</t>
+        </is>
+      </c>
+      <c r="E37" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure time-based settings from server
+2. Monitor settings at different times</t>
+        </is>
+      </c>
+      <c r="F37" s="62" t="inlineStr">
+        <is>
+          <t>MFP should change settings according to configured time periods</t>
+        </is>
+      </c>
+      <c r="G37" s="58" t="inlineStr"/>
+      <c r="H37" s="59" t="inlineStr"/>
       <c r="I37" s="53" t="n"/>
     </row>
     <row r="38" ht="99.75" customHeight="1">
-      <c r="B38" s="57" t="n"/>
-      <c r="C38" s="60" t="n"/>
-      <c r="D38" s="70" t="n"/>
-      <c r="E38" s="61" t="n"/>
-      <c r="F38" s="62" t="n"/>
-      <c r="G38" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H38" s="59" t="n"/>
+      <c r="B38" s="57" t="inlineStr">
+        <is>
+          <t>TC033</t>
+        </is>
+      </c>
+      <c r="C38" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled</t>
+        </is>
+      </c>
+      <c r="D38" s="70" t="inlineStr">
+        <is>
+          <t>IP redirect functionality</t>
+        </is>
+      </c>
+      <c r="E38" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC on new MFP
+2. Monitor GetRedirectURL request
+3. Verify registration to appropriate regional server</t>
+        </is>
+      </c>
+      <c r="F38" s="62" t="inlineStr">
+        <is>
+          <t>MFP should request redirect URL and connect to appropriate regional server</t>
+        </is>
+      </c>
+      <c r="G38" s="58" t="inlineStr"/>
+      <c r="H38" s="59" t="inlineStr"/>
       <c r="I38" s="53" t="n"/>
     </row>
     <row r="39" ht="99.75" customHeight="1">
-      <c r="B39" s="57" t="n"/>
-      <c r="C39" s="60" t="n"/>
-      <c r="D39" s="70" t="n"/>
-      <c r="E39" s="61" t="n"/>
-      <c r="F39" s="62" t="n"/>
-      <c r="G39" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H39" s="59" t="n"/>
+      <c r="B39" s="57" t="inlineStr">
+        <is>
+          <t>TC034</t>
+        </is>
+      </c>
+      <c r="C39" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, communication in progress</t>
+        </is>
+      </c>
+      <c r="D39" s="70" t="inlineStr">
+        <is>
+          <t>Power save prevention</t>
+        </is>
+      </c>
+      <c r="E39" s="61" t="inlineStr">
+        <is>
+          <t>1. Trigger SCC communication
+2. Attempt to enter power save mode</t>
+        </is>
+      </c>
+      <c r="F39" s="62" t="inlineStr">
+        <is>
+          <t>MFP should not enter Power Save, Sleep or Super Sleep during communication cycle</t>
+        </is>
+      </c>
+      <c r="G39" s="58" t="inlineStr"/>
+      <c r="H39" s="59" t="inlineStr"/>
       <c r="I39" s="53" t="n"/>
     </row>
     <row r="40" ht="99.75" customHeight="1">
-      <c r="B40" s="57" t="n"/>
-      <c r="C40" s="60" t="n"/>
-      <c r="D40" s="70" t="n"/>
-      <c r="E40" s="61" t="n"/>
-      <c r="F40" s="62" t="n"/>
-      <c r="G40" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H40" s="59" t="n"/>
+      <c r="B40" s="57" t="inlineStr">
+        <is>
+          <t>TC035</t>
+        </is>
+      </c>
+      <c r="C40" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, communication in progress</t>
+        </is>
+      </c>
+      <c r="D40" s="70" t="inlineStr">
+        <is>
+          <t>Service UI exclusion</t>
+        </is>
+      </c>
+      <c r="E40" s="61" t="inlineStr">
+        <is>
+          <t>1. Start SCC communication
+2. Attempt to access service UI</t>
+        </is>
+      </c>
+      <c r="F40" s="62" t="inlineStr">
+        <is>
+          <t>Service UI should be unavailable during SCC communication</t>
+        </is>
+      </c>
+      <c r="G40" s="58" t="inlineStr"/>
+      <c r="H40" s="59" t="inlineStr"/>
       <c r="I40" s="53" t="n"/>
     </row>
     <row r="41" ht="99.75" customHeight="1">
-      <c r="B41" s="57" t="n"/>
-      <c r="C41" s="60" t="n"/>
-      <c r="D41" s="70" t="n"/>
-      <c r="E41" s="61" t="n"/>
-      <c r="F41" s="62" t="n"/>
-      <c r="G41" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H41" s="59" t="n"/>
+      <c r="B41" s="57" t="inlineStr">
+        <is>
+          <t>TC036</t>
+        </is>
+      </c>
+      <c r="C41" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, RDMS (eBR2) enabled</t>
+        </is>
+      </c>
+      <c r="D41" s="70" t="inlineStr">
+        <is>
+          <t>Compatibility with RDMS</t>
+        </is>
+      </c>
+      <c r="E41" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Enable RDMS (eBR2) function
+3. Test RDMS functionality</t>
+        </is>
+      </c>
+      <c r="F41" s="62" t="inlineStr">
+        <is>
+          <t>RDMS should not work when SCC function is enabled (for versions before L6.02/L6.03)</t>
+        </is>
+      </c>
+      <c r="G41" s="58" t="inlineStr"/>
+      <c r="H41" s="59" t="inlineStr"/>
       <c r="I41" s="53" t="n"/>
     </row>
     <row r="42" ht="99.75" customHeight="1">
-      <c r="B42" s="57" t="n"/>
-      <c r="C42" s="60" t="n"/>
-      <c r="D42" s="70" t="n"/>
-      <c r="E42" s="61" t="n"/>
-      <c r="F42" s="62" t="n"/>
-      <c r="G42" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H42" s="59" t="n"/>
+      <c r="B42" s="57" t="inlineStr">
+        <is>
+          <t>TC037</t>
+        </is>
+      </c>
+      <c r="C42" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, clone data instruction received</t>
+        </is>
+      </c>
+      <c r="D42" s="70" t="inlineStr">
+        <is>
+          <t>Clone data application</t>
+        </is>
+      </c>
+      <c r="E42" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to send clone data instruction
+2. Trigger regular communication
+3. Monitor clone data application</t>
+        </is>
+      </c>
+      <c r="F42" s="62" t="inlineStr">
+        <is>
+          <t>MFP should apply clone data regardless of SendDataConfig parameters</t>
+        </is>
+      </c>
+      <c r="G42" s="58" t="inlineStr"/>
+      <c r="H42" s="59" t="inlineStr"/>
       <c r="I42" s="53" t="n"/>
     </row>
     <row r="43" ht="99.75" customHeight="1">
-      <c r="B43" s="57" t="n"/>
-      <c r="C43" s="60" t="n"/>
-      <c r="D43" s="70" t="n"/>
-      <c r="E43" s="61" t="n"/>
-      <c r="F43" s="62" t="n"/>
-      <c r="G43" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H43" s="59" t="n"/>
+      <c r="B43" s="57" t="inlineStr">
+        <is>
+          <t>TC038</t>
+        </is>
+      </c>
+      <c r="C43" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, invalid certificate</t>
+        </is>
+      </c>
+      <c r="D43" s="70" t="inlineStr">
+        <is>
+          <t>HTTPS certificate validation</t>
+        </is>
+      </c>
+      <c r="E43" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure custom URL with invalid certificate
+2. Trigger SCC communication</t>
+        </is>
+      </c>
+      <c r="F43" s="62" t="inlineStr">
+        <is>
+          <t>Communication should fail due to certificate validation</t>
+        </is>
+      </c>
+      <c r="G43" s="58" t="inlineStr"/>
+      <c r="H43" s="59" t="inlineStr"/>
       <c r="I43" s="53" t="n"/>
     </row>
     <row r="44" ht="99.75" customHeight="1">
-      <c r="B44" s="57" t="n"/>
-      <c r="C44" s="60" t="n"/>
-      <c r="D44" s="70" t="n"/>
-      <c r="E44" s="61" t="n"/>
-      <c r="F44" s="62" t="n"/>
-      <c r="G44" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H44" s="59" t="n"/>
+      <c r="B44" s="57" t="inlineStr">
+        <is>
+          <t>TC039</t>
+        </is>
+      </c>
+      <c r="C44" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, HDD full</t>
+        </is>
+      </c>
+      <c r="D44" s="70" t="inlineStr">
+        <is>
+          <t>HDD full handling</t>
+        </is>
+      </c>
+      <c r="E44" s="61" t="inlineStr">
+        <is>
+          <t>1. Fill HDD to capacity
+2. Trigger package download</t>
+        </is>
+      </c>
+      <c r="F44" s="62" t="inlineStr">
+        <is>
+          <t>MFP should delete downloaded data and exit communication cycle</t>
+        </is>
+      </c>
+      <c r="G44" s="58" t="inlineStr"/>
+      <c r="H44" s="59" t="inlineStr"/>
       <c r="I44" s="53" t="n"/>
     </row>
     <row r="45" ht="99.75" customHeight="1">
-      <c r="B45" s="57" t="n"/>
-      <c r="C45" s="60" t="n"/>
-      <c r="D45" s="70" t="n"/>
-      <c r="E45" s="61" t="n"/>
-      <c r="F45" s="62" t="n"/>
-      <c r="G45" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H45" s="59" t="n"/>
+      <c r="B45" s="57" t="inlineStr">
+        <is>
+          <t>TC040</t>
+        </is>
+      </c>
+      <c r="C45" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, hash mismatch</t>
+        </is>
+      </c>
+      <c r="D45" s="70" t="inlineStr">
+        <is>
+          <t>Hash validation</t>
+        </is>
+      </c>
+      <c r="E45" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to send package with incorrect hash
+2. Trigger download
+3. Monitor hash validation</t>
+        </is>
+      </c>
+      <c r="F45" s="62" t="inlineStr">
+        <is>
+          <t>MFP should delete downloaded data and exit communication cycle</t>
+        </is>
+      </c>
+      <c r="G45" s="58" t="inlineStr"/>
+      <c r="H45" s="59" t="inlineStr"/>
       <c r="I45" s="53" t="n"/>
     </row>
     <row r="46" ht="99.75" customHeight="1">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10163,7 +10163,7 @@
     <row r="2" ht="81.75" customHeight="1">
       <c r="B2" s="128" t="inlineStr">
         <is>
-          <t>Component: SCC (e-Bridge Cloud Client)</t>
+          <t>Component: SCC (Service Cloud Client)</t>
         </is>
       </c>
       <c r="C2" s="80" t="n"/>
@@ -10255,23 +10255,28 @@
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Enabling SCC function</t>
+          <t>Verify enabling/disabling of SCC function</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode or service UI on panel
-2. Set 08-3820 from 0 (Disable) to 1 (Enable)
-3. Reboot the MFP</t>
+          <t>1. Enter Self-diagnostic boot-up mode
+2. Set 08-3820 to 1 (Enable)
+3. Reboot the MFP
+4. Check if SCC function is enabled</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>SCC function should be enabled and MFP should start SCC process after reboot</t>
+          <t>SCC function should be enabled after reboot</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
-      <c r="H6" s="59" t="inlineStr"/>
+      <c r="H6" s="59" t="inlineStr">
+        <is>
+          <t>Default value should be "Disable"</t>
+        </is>
+      </c>
       <c r="I6" s="53" t="n"/>
     </row>
     <row r="7" ht="99.75" customHeight="1">
@@ -10282,24 +10287,24 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled (08-3820 = 1)</t>
+          <t>MFP is powered on and in normal boot-up mode</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>SCC Installation Report printing</t>
+          <t>Verify SCC function cannot be enabled from administrator mode</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Change 08-3820 from 0 (Disable) to 1 (Enable)
-2. Reboot the MFP
-3. Wait for MFP registration processing to complete</t>
+          <t>1. Login as administrator
+2. Try to access SCC settings from TopAccess
+3. Verify no SCC settings are available</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>Installation report should be automatically printed with correct MFP information including Serial Number, MAC Address, and Registration Status</t>
+          <t>Administrator should not be able to enable/disable SCC function from TopAccess</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10314,27 +10319,33 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC disabled</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>SCC report printing language</t>
+          <t>Verify SCC installation report printing</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Change device language setting
-2. Enable SCC function and trigger installation report</t>
+          <t>1. Enter Self-diagnostic boot-up mode
+2. Change 08-3820 from 0 (Disable) to 1 (Enable)
+3. Reboot the MFP
+4. Wait for MFP registration processing to complete</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Installation report should be printed in English regardless of device language setting</t>
+          <t>SCC installation report should be automatically printed after registration processing</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
-      <c r="H8" s="59" t="inlineStr"/>
+      <c r="H8" s="59" t="inlineStr">
+        <is>
+          <t>Report should print only once when SCC is enabled for the first time</t>
+        </is>
+      </c>
       <c r="I8" s="53" t="n"/>
     </row>
     <row r="9" ht="99.75" customHeight="1">
@@ -10345,27 +10356,30 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>SCC report in job log</t>
+          <t>Verify SCC installation report content</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function and trigger installation report
-2. Check job log</t>
+          <t>1. Check the printed installation report</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>SCC report printing should be recorded in Job Log as network print and user counter for built-in Admin should be incremented</t>
+          <t>Report should contain: Serial Number, MAC Address, Model Name, Firmware Version, SCC Version, Registration Status, Registration Time, Server URL</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
-      <c r="H9" s="59" t="inlineStr"/>
+      <c r="H9" s="59" t="inlineStr">
+        <is>
+          <t>Report should be in English only</t>
+        </is>
+      </c>
       <c r="I9" s="53" t="n"/>
     </row>
     <row r="10" ht="99.75" customHeight="1">
@@ -10376,18 +10390,19 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, network print restriction mode (08-9344) set to "only private"</t>
+          <t>MFP with SCC enabled and network print restriction mode enabled</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>SCC report with print restrictions</t>
+          <t>Verify SCC report printing with network print restrictions</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
           <t>1. Set 08-9344 to 1 (only private)
-2. Enable SCC function and trigger installation report</t>
+2. Enable SCC
+3. Check if report is printed</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
@@ -10407,24 +10422,25 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled and user authentication enabled</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>HTTPS communication protocol</t>
+          <t>Verify SCC report printing with quota restrictions</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Monitor network traffic during SCC communication
-3. Verify SSL/TLS connection to server</t>
+          <t>1. Enable user authentication
+2. Set quota for built-in admin to 0
+3. Enable SCC
+4. Check if report is printed</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>MFP should use HTTPS for all communications with the SCC server</t>
+          <t>SCC report should not be printed due to quota error</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10439,24 +10455,25 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Communication initiation</t>
+          <t>Verify proxy server settings</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Monitor network traffic
-3. Observe communication patterns</t>
+          <t>1. Enter Self-diagnostic boot-up mode
+2. Configure proxy settings (08-3822 to 08-3826)
+3. Reboot MFP
+4. Verify SCC communication works through proxy</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>All communications should be initiated from the MFP side, never from the server side</t>
+          <t>SCC should communicate with server through configured proxy</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10471,24 +10488,23 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, proxy server required</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Proxy server authentication</t>
+          <t>Verify communication protocol</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy settings (08-3822 to 08-3826)
-2. Set proxy authentication credentials
-3. Trigger SCC communication</t>
+          <t>1. Monitor network traffic during SCC communication
+2. Verify HTTPS is used</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully communicate with SCC server through the proxy with authentication</t>
+          <t>All SCC communication should use HTTPS protocol</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10503,24 +10519,24 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, proxy server required without authentication</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Proxy server without authentication</t>
+          <t>Verify port number fallback</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy settings (08-3822 to 08-3826)
-2. Set proxy account ID to NULL
-3. Trigger SCC communication</t>
+          <t>1. Block port 443 at firewall
+2. Trigger SCC communication
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate with SCC server through proxy without authentication</t>
+          <t>SCC should automatically use port 8443 when port 443 is not available</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10535,24 +10551,23 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Port number fallback</t>
+          <t>Verify SCC does not start in special startup mode</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Block port 443 at firewall
-2. Allow port 8443
-3. Trigger SCC communication</t>
+          <t>1. Boot MFP in special startup mode
+2. Check if SCC process starts</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>MFP should automatically use port 8443 when port 443 is unavailable</t>
+          <t>SCC process should not start in special startup mode</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10567,27 +10582,31 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>MFP is in special startup mode</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>SCC process startup</t>
+          <t>Verify regular communication loop timing</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Boot MFP in special startup mode
-2. Check if SCC process starts</t>
+          <t>1. Set regular communication schedule
+2. Monitor when SCC communicates with server</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>SCC process should not start in special startup mode</t>
+          <t>SCC should communicate with server according to configured schedule</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
-      <c r="H16" s="59" t="inlineStr"/>
+      <c r="H16" s="59" t="inlineStr">
+        <is>
+          <t>Default schedule is "every day at 0:00"</t>
+        </is>
+      </c>
       <c r="I16" s="53" t="n"/>
     </row>
     <row r="17" ht="99.75" customHeight="1">
@@ -10598,24 +10617,23 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Regular communication schedule - daily</t>
+          <t>Verify first-time device registration</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Set regular communication schedule to daily at specific time
-2. Wait for scheduled time
-3. Monitor network traffic</t>
+          <t>1. Enable SCC for the first time
+2. Monitor registration process</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>MFP should initiate communication with SCC server at the specified time</t>
+          <t>MFP should register with server and receive authentication token</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10630,23 +10648,23 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Regular communication schedule - interval</t>
+          <t>Verify subsequent authentication</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Set regular communication schedule to interval (e.g., 15 min)
-2. Monitor network traffic</t>
+          <t>1. Trigger regular communication after registration
+2. Monitor authentication process</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>MFP should initiate communication with SCC server at the specified interval</t>
+          <t>MFP should authenticate using token received during registration</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10661,27 +10679,31 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Register Device - first time</t>
+          <t>Verify server busy handling</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function on unregistered MFP
-2. Monitor communication with server</t>
+          <t>1. Simulate server BUSY response
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>MFP should send registration request with serial number and other required parameters, and receive token from server</t>
+          <t>MFP should retry connection with increasing intervals as specified by server</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
-      <c r="H19" s="59" t="inlineStr"/>
+      <c r="H19" s="59" t="inlineStr">
+        <is>
+          <t>After 3 retries, MFP should exit communication cycle</t>
+        </is>
+      </c>
       <c r="I19" s="53" t="n"/>
     </row>
     <row r="20" ht="99.75" customHeight="1">
@@ -10692,23 +10714,23 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, MFP already registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Register Device - authentication</t>
+          <t>Verify registration failure handling</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger communication on previously registered MFP
-2. Monitor communication with server</t>
+          <t>1. Simulate registration failure response
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>MFP should authenticate using previously received token</t>
+          <t>After 3 consecutive failures, MFP should print Installation Report and exit communication cycle</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10723,23 +10745,23 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Server BUSY handling</t>
+          <t>Verify Check for Updates functionality</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate server BUSY response
-2. Monitor MFP behavior</t>
+          <t>1. Trigger regular communication
+2. Monitor Check for Updates request</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry connection after waiting for the period specified by server, up to 3 retries</t>
+          <t>MFP should send correct parameters and process server response appropriately</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10754,23 +10776,24 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Check for Updates</t>
+          <t>Verify Download Package functionality</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger regular communication
-2. Monitor Check for Updates request</t>
+          <t>1. Configure server to send update package
+2. Trigger regular communication
+3. Monitor download process</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>MFP should send firmware version and other parameters to check for available updates</t>
+          <t>MFP should download package and verify hash value</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
@@ -10785,24 +10808,24 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, update available</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Download Package - firmware</t>
+          <t>Verify package hash validation</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide firmware update
+          <t>1. Configure server to send package with incorrect hash
 2. Trigger regular communication
-3. Monitor download process</t>
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>MFP should download update package and verify hash value</t>
+          <t>MFP should delete downloaded data and exit communication cycle</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
@@ -10817,23 +10840,23 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, update available</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Install Package - firmware</t>
+          <t>Verify Send Baseline Data functionality</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Download firmware update package
-2. Monitor installation process</t>
+          <t>1. Trigger regular communication
+2. Monitor baseline data transmission</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>MFP should install firmware update at scheduled time and reboot</t>
+          <t>MFP should collect and send all required data according to SendDataConfig setting</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10848,23 +10871,24 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, update available</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D25" s="70" t="inlineStr">
         <is>
-          <t>Update Status notification</t>
+          <t>Verify Install Package for firmware update</t>
         </is>
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Install update package
-2. Monitor Update Status communication</t>
+          <t>1. Configure server to send firmware update package
+2. Trigger regular communication
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify server of installation status with correct state transitions</t>
+          <t>MFP should schedule firmware update according to package instructions</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
@@ -10879,23 +10903,24 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D26" s="70" t="inlineStr">
         <is>
-          <t>Send Baseline Data</t>
+          <t>Verify Install Package for policy violation</t>
         </is>
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger regular communication
-2. Monitor Send Baseline Data process</t>
+          <t>1. Configure server to send policy violation package
+2. Trigger regular communication
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>MFP should collect and send baseline data according to SendDataConfig settings</t>
+          <t>MFP should apply policy settings as specified in package</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
@@ -10910,23 +10935,24 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Send Regular Data</t>
+          <t>Verify Install Package for clone data</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Complete update installation
-2. Monitor Send Regular Data process</t>
+          <t>1. Configure server to send clone data package
+2. Trigger regular communication
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>MFP should collect and send regular data according to SendDataConfig settings</t>
+          <t>MFP should apply clone data as specified in package</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
@@ -10941,23 +10967,24 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Device error notification</t>
+          <t>Verify Update Status functionality</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Generate device error (e.g., paper jam)
-2. Monitor Send Device Error communication</t>
+          <t>1. Configure server to send update package
+2. Trigger regular communication
+3. Monitor update status reporting</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify server of device error with correct error code</t>
+          <t>MFP should report correct update status to server</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
@@ -10972,24 +10999,23 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, error previously reported</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Error removal notification</t>
+          <t>Verify Send Regular Data functionality</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Generate device error
-2. Clear the error
-3. Monitor Send Device Error communication</t>
+          <t>1. Trigger regular communication
+2. Monitor regular data transmission</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify server of error removal with "-" prefix (e.g., -D102)</t>
+          <t>MFP should collect and send all required data according to SendDataConfig setting</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
@@ -11004,12 +11030,12 @@
       </c>
       <c r="C30" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D30" s="70" t="inlineStr">
         <is>
-          <t>Panel message display</t>
+          <t>Verify panel message display during SCC processing</t>
         </is>
       </c>
       <c r="E30" s="61" t="inlineStr">
@@ -11020,7 +11046,7 @@
       </c>
       <c r="F30" s="62" t="inlineStr">
         <is>
-          <t>MFP should display appropriate message with status code during SCC processing</t>
+          <t>Panel should display "Service in progress. Please do not turn off: XX" with appropriate status code</t>
         </is>
       </c>
       <c r="G30" s="58" t="inlineStr"/>
@@ -11035,23 +11061,23 @@
       </c>
       <c r="C31" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, MFP in Super Sleep</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D31" s="70" t="inlineStr">
         <is>
-          <t>Super Sleep recovery for scheduled communication</t>
+          <t>Verify event notification for device errors</t>
         </is>
       </c>
       <c r="E31" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in Super Sleep mode
-2. Wait for scheduled communication time</t>
+          <t>1. Generate device error with error code
+2. Monitor error notification</t>
         </is>
       </c>
       <c r="F31" s="62" t="inlineStr">
         <is>
-          <t>MFP should wake from Super Sleep, perform communication, then return to Super Sleep</t>
+          <t>MFP should send error notification to server</t>
         </is>
       </c>
       <c r="G31" s="58" t="inlineStr"/>
@@ -11066,23 +11092,24 @@
       </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D32" s="70" t="inlineStr">
         <is>
-          <t>Communication retry on error</t>
+          <t>Verify error resolution notification</t>
         </is>
       </c>
       <c r="E32" s="61" t="inlineStr">
         <is>
-          <t>1. Disconnect network during communication
-2. Monitor retry behavior</t>
+          <t>1. Generate device error
+2. Resolve error without power off
+3. Monitor error notification</t>
         </is>
       </c>
       <c r="F32" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry after 60 seconds, then enter retry mode if unsuccessful</t>
+          <t>MFP should send error resolution notification with "-" prefix (e.g., -D102)</t>
         </is>
       </c>
       <c r="G32" s="58" t="inlineStr"/>
@@ -11097,23 +11124,23 @@
       </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, in retry mode</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D33" s="70" t="inlineStr">
         <is>
-          <t>Daily retry in retry mode</t>
+          <t>Verify duplicate error handling</t>
         </is>
       </c>
       <c r="E33" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in retry mode
-2. Monitor communication attempts</t>
+          <t>1. Generate same device error multiple times
+2. Monitor error notifications</t>
         </is>
       </c>
       <c r="F33" s="62" t="inlineStr">
         <is>
-          <t>MFP should attempt communication once every 24 hours while in retry mode</t>
+          <t>MFP should not send duplicate error notifications unless error is resolved</t>
         </is>
       </c>
       <c r="G33" s="58" t="inlineStr"/>
@@ -11128,24 +11155,24 @@
       </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, custom URL configured</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D34" s="70" t="inlineStr">
         <is>
-          <t>First registration URL setting</t>
+          <t>Verify Super Sleep interaction</t>
         </is>
       </c>
       <c r="E34" s="61" t="inlineStr">
         <is>
-          <t>1. Set custom URL in 08-3827
-2. Enable SCC function
-3. Monitor registration process</t>
+          <t>1. Put MFP in Super Sleep state
+2. Wait for scheduled communication time
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F34" s="62" t="inlineStr">
         <is>
-          <t>MFP should connect to specified custom URL instead of default server</t>
+          <t>MFP should wake from Super Sleep, perform communication, then return to Super Sleep</t>
         </is>
       </c>
       <c r="G34" s="58" t="inlineStr"/>
@@ -11160,28 +11187,32 @@
       </c>
       <c r="C35" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, URL forward disabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D35" s="70" t="inlineStr">
         <is>
-          <t>URL forward setting</t>
+          <t>Verify Hibernation interaction</t>
         </is>
       </c>
       <c r="E35" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3828 to 0 (Disable)
-2. Configure server to return redirect URL
-3. Monitor registration process</t>
+          <t>1. Trigger SCC communication
+2. Attempt to put MFP in hibernation
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F35" s="62" t="inlineStr">
         <is>
-          <t>MFP should not follow redirect URL from server</t>
+          <t>MFP should not enter hibernation during communication cycle</t>
         </is>
       </c>
       <c r="G35" s="58" t="inlineStr"/>
-      <c r="H35" s="59" t="inlineStr"/>
+      <c r="H35" s="59" t="inlineStr">
+        <is>
+          <t>Exception: during scheduled firmware update state</t>
+        </is>
+      </c>
       <c r="I35" s="53" t="n"/>
     </row>
     <row r="36" ht="99.75" customHeight="1">
@@ -11192,24 +11223,25 @@
       </c>
       <c r="C36" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, persistent policy configured</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D36" s="70" t="inlineStr">
         <is>
-          <t>Persistent policy check</t>
+          <t>Verify Persistent Policy functionality</t>
         </is>
       </c>
       <c r="E36" s="61" t="inlineStr">
         <is>
-          <t>1. Configure persistent policy from server
+          <t>1. Configure server to set persistent policy
 2. Change settings locally
-3. Wait for persistent check interval</t>
+3. Wait for persistent check interval
+4. Verify settings</t>
         </is>
       </c>
       <c r="F36" s="62" t="inlineStr">
         <is>
-          <t>MFP should revert settings to match policy values</t>
+          <t>Settings should be restored according to persistent policy</t>
         </is>
       </c>
       <c r="G36" s="58" t="inlineStr"/>
@@ -11224,23 +11256,23 @@
       </c>
       <c r="C37" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, time-based settings configured</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D37" s="70" t="inlineStr">
         <is>
-          <t>Time-based device state values</t>
+          <t>Verify Time-based Device State Data Values</t>
         </is>
       </c>
       <c r="E37" s="61" t="inlineStr">
         <is>
-          <t>1. Configure time-based settings from server
+          <t>1. Configure server to set time-based values
 2. Monitor settings at different times</t>
         </is>
       </c>
       <c r="F37" s="62" t="inlineStr">
         <is>
-          <t>MFP should change settings according to configured time periods</t>
+          <t>Settings should change according to time-based configuration</t>
         </is>
       </c>
       <c r="G37" s="58" t="inlineStr"/>
@@ -11255,24 +11287,24 @@
       </c>
       <c r="C38" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D38" s="70" t="inlineStr">
         <is>
-          <t>IP redirect functionality</t>
+          <t>Verify IP Redirect functionality</t>
         </is>
       </c>
       <c r="E38" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC on new MFP
+          <t>1. Configure MFP for first-time connection
 2. Monitor GetRedirectURL request
-3. Verify registration to appropriate regional server</t>
+3. Verify MFP connects to redirected URL</t>
         </is>
       </c>
       <c r="F38" s="62" t="inlineStr">
         <is>
-          <t>MFP should request redirect URL and connect to appropriate regional server</t>
+          <t>MFP should connect to appropriate regional server based on IP address</t>
         </is>
       </c>
       <c r="G38" s="58" t="inlineStr"/>
@@ -11287,23 +11319,25 @@
       </c>
       <c r="C39" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, communication in progress</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D39" s="70" t="inlineStr">
         <is>
-          <t>Power save prevention</t>
+          <t>Verify URL forward setting</t>
         </is>
       </c>
       <c r="E39" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Attempt to enter power save mode</t>
+          <t>1. Set 08-3827 to valid URL
+2. Set 08-3828 to 0 (Disable)
+3. Trigger SCC communication
+4. Monitor connection behavior</t>
         </is>
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter Power Save, Sleep or Super Sleep during communication cycle</t>
+          <t>MFP should not redirect to other servers even if server returns redirect URL</t>
         </is>
       </c>
       <c r="G39" s="58" t="inlineStr"/>
@@ -11318,23 +11352,23 @@
       </c>
       <c r="C40" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, communication in progress</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D40" s="70" t="inlineStr">
         <is>
-          <t>Service UI exclusion</t>
+          <t>Verify retry processing for connection errors</t>
         </is>
       </c>
       <c r="E40" s="61" t="inlineStr">
         <is>
-          <t>1. Start SCC communication
-2. Attempt to access service UI</t>
+          <t>1. Simulate connection error
+2. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F40" s="62" t="inlineStr">
         <is>
-          <t>Service UI should be unavailable during SCC communication</t>
+          <t>MFP should retry in 60 seconds, then enter retry mode if unsuccessful</t>
         </is>
       </c>
       <c r="G40" s="58" t="inlineStr"/>
@@ -11349,24 +11383,23 @@
       </c>
       <c r="C41" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, RDMS (eBR2) enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D41" s="70" t="inlineStr">
         <is>
-          <t>Compatibility with RDMS</t>
+          <t>Verify retry mode behavior</t>
         </is>
       </c>
       <c r="E41" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Enable RDMS (eBR2) function
-3. Test RDMS functionality</t>
+          <t>1. Force MFP into retry mode
+2. Monitor communication attempts</t>
         </is>
       </c>
       <c r="F41" s="62" t="inlineStr">
         <is>
-          <t>RDMS should not work when SCC function is enabled (for versions before L6.02/L6.03)</t>
+          <t>MFP should attempt communication once per day until successful</t>
         </is>
       </c>
       <c r="G41" s="58" t="inlineStr"/>
@@ -11381,24 +11414,24 @@
       </c>
       <c r="C42" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, clone data instruction received</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D42" s="70" t="inlineStr">
         <is>
-          <t>Clone data application</t>
+          <t>Verify invalid URL handling</t>
         </is>
       </c>
       <c r="E42" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send clone data instruction
-2. Trigger regular communication
-3. Monitor clone data application</t>
+          <t>1. Set 08-3827 to invalid URL
+2. Trigger SCC communication
+3. Monitor error handling</t>
         </is>
       </c>
       <c r="F42" s="62" t="inlineStr">
         <is>
-          <t>MFP should apply clone data regardless of SendDataConfig parameters</t>
+          <t>MFP should report network error and not access default server</t>
         </is>
       </c>
       <c r="G42" s="58" t="inlineStr"/>
@@ -11413,23 +11446,24 @@
       </c>
       <c r="C43" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, invalid certificate</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D43" s="70" t="inlineStr">
         <is>
-          <t>HTTPS certificate validation</t>
+          <t>Verify SSL certificate handling</t>
         </is>
       </c>
       <c r="E43" s="61" t="inlineStr">
         <is>
-          <t>1. Configure custom URL with invalid certificate
-2. Trigger SCC communication</t>
+          <t>1. Configure custom HTTPS URL without importing certificate
+2. Trigger SCC communication
+3. Monitor error handling</t>
         </is>
       </c>
       <c r="F43" s="62" t="inlineStr">
         <is>
-          <t>Communication should fail due to certificate validation</t>
+          <t>Communication should fail due to missing certificate</t>
         </is>
       </c>
       <c r="G43" s="58" t="inlineStr"/>
@@ -11444,18 +11478,19 @@
       </c>
       <c r="C44" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, HDD full</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D44" s="70" t="inlineStr">
         <is>
-          <t>HDD full handling</t>
+          <t>Verify HDD full handling during download</t>
         </is>
       </c>
       <c r="E44" s="61" t="inlineStr">
         <is>
           <t>1. Fill HDD to capacity
-2. Trigger package download</t>
+2. Trigger package download
+3. Monitor error handling</t>
         </is>
       </c>
       <c r="F44" s="62" t="inlineStr">
@@ -11475,24 +11510,25 @@
       </c>
       <c r="C45" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, hash mismatch</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D45" s="70" t="inlineStr">
         <is>
-          <t>Hash validation</t>
+          <t>Verify power failure recovery during download</t>
         </is>
       </c>
       <c r="E45" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send package with incorrect hash
-2. Trigger download
-3. Monitor hash validation</t>
+          <t>1. Trigger package download
+2. Simulate power failure during download
+3. Power on MFP
+4. Monitor recovery behavior</t>
         </is>
       </c>
       <c r="F45" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete downloaded data and exit communication cycle</t>
+          <t>MFP should delete incomplete downloaded data before next communication</t>
         </is>
       </c>
       <c r="G45" s="58" t="inlineStr"/>
@@ -11500,45 +11536,103 @@
       <c r="I45" s="53" t="n"/>
     </row>
     <row r="46" ht="99.75" customHeight="1">
-      <c r="B46" s="57" t="n"/>
-      <c r="C46" s="60" t="n"/>
-      <c r="D46" s="70" t="n"/>
-      <c r="E46" s="61" t="n"/>
-      <c r="F46" s="62" t="n"/>
-      <c r="G46" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H46" s="59" t="n"/>
+      <c r="B46" s="57" t="inlineStr">
+        <is>
+          <t>TC041</t>
+        </is>
+      </c>
+      <c r="C46" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D46" s="70" t="inlineStr">
+        <is>
+          <t>Verify unzip failure handling</t>
+        </is>
+      </c>
+      <c r="E46" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to send corrupted ZIP package
+2. Trigger download
+3. Monitor error handling</t>
+        </is>
+      </c>
+      <c r="F46" s="62" t="inlineStr">
+        <is>
+          <t>MFP should delete unzipped data and exit communication cycle</t>
+        </is>
+      </c>
+      <c r="G46" s="58" t="inlineStr"/>
+      <c r="H46" s="59" t="inlineStr"/>
       <c r="I46" s="53" t="n"/>
     </row>
     <row r="47" ht="99.75" customHeight="1">
-      <c r="B47" s="57" t="n"/>
-      <c r="C47" s="60" t="n"/>
-      <c r="D47" s="70" t="n"/>
-      <c r="E47" s="61" t="n"/>
-      <c r="F47" s="62" t="n"/>
-      <c r="G47" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H47" s="59" t="n"/>
+      <c r="B47" s="57" t="inlineStr">
+        <is>
+          <t>TC042</t>
+        </is>
+      </c>
+      <c r="C47" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D47" s="70" t="inlineStr">
+        <is>
+          <t>Verify firmware update scheduling</t>
+        </is>
+      </c>
+      <c r="E47" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to send firmware update with future schedule
+2. Trigger download
+3. Monitor scheduled update</t>
+        </is>
+      </c>
+      <c r="F47" s="62" t="inlineStr">
+        <is>
+          <t>Firmware update should occur at scheduled time</t>
+        </is>
+      </c>
+      <c r="G47" s="58" t="inlineStr"/>
+      <c r="H47" s="59" t="inlineStr"/>
       <c r="I47" s="53" t="n"/>
     </row>
     <row r="48" ht="99.75" customHeight="1">
-      <c r="B48" s="57" t="n"/>
-      <c r="C48" s="60" t="n"/>
-      <c r="D48" s="70" t="n"/>
-      <c r="E48" s="61" t="n"/>
-      <c r="F48" s="62" t="n"/>
-      <c r="G48" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H48" s="59" t="n"/>
+      <c r="B48" s="57" t="inlineStr">
+        <is>
+          <t>TC043</t>
+        </is>
+      </c>
+      <c r="C48" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D48" s="70" t="inlineStr">
+        <is>
+          <t>Verify firmware update failure handling</t>
+        </is>
+      </c>
+      <c r="E48" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to send incompatible firmware
+2. Trigger download
+3. Monitor error handling</t>
+        </is>
+      </c>
+      <c r="F48" s="62" t="inlineStr">
+        <is>
+          <t>MFP should report failure to server and schedule next communication</t>
+        </is>
+      </c>
+      <c r="G48" s="58" t="inlineStr"/>
+      <c r="H48" s="59" t="inlineStr">
+        <is>
+          <t>After 3 failures, server should stop sending update</t>
+        </is>
+      </c>
       <c r="I48" s="53" t="n"/>
     </row>
     <row r="49" ht="99.75" customHeight="1">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10163,7 +10163,7 @@
     <row r="2" ht="81.75" customHeight="1">
       <c r="B2" s="128" t="inlineStr">
         <is>
-          <t>Component: SCC (Service Cloud Client)</t>
+          <t>Component: Unknown</t>
         </is>
       </c>
       <c r="C2" s="80" t="n"/>
@@ -10260,7 +10260,7 @@
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Enter Self-diagnostic boot-up mode
+          <t>1. Access Self-diagnostic boot-up mode or service UI on panel
 2. Set 08-3820 to 1 (Enable)
 3. Reboot the MFP
 4. Check if SCC function is enabled</t>
@@ -10292,19 +10292,19 @@
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC function cannot be enabled from administrator mode</t>
+          <t>Verify administrator cannot enable/disable SCC function</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
           <t>1. Login as administrator
-2. Try to access SCC settings from TopAccess
-3. Verify no SCC settings are available</t>
+2. Try to access SCC function settings via TA or STAGE2 IF
+3. Check if SCC settings are accessible</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>Administrator should not be able to enable/disable SCC function from TopAccess</t>
+          <t>Administrator should not be able to enable/disable SCC function</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10329,21 +10329,21 @@
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Enter Self-diagnostic boot-up mode
-2. Change 08-3820 from 0 (Disable) to 1 (Enable)
-3. Reboot the MFP
-4. Wait for MFP registration processing to complete</t>
+          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
+2. Reboot the MFP
+3. Wait for MFP registration processing
+4. Check if installation report is printed</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>SCC installation report should be automatically printed after registration processing</t>
+          <t>Installation report should be printed automatically after registration</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
       <c r="H8" s="59" t="inlineStr">
         <is>
-          <t>Report should print only once when SCC is enabled for the first time</t>
+          <t>Report should be printed only once when SCC is first enabled</t>
         </is>
       </c>
       <c r="I8" s="53" t="n"/>
@@ -10361,25 +10361,25 @@
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report content</t>
+          <t>Verify SCC installation report is not printed again</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Check the printed installation report</t>
+          <t>1. Disable SCC (set 08-3820 to 0)
+2. Reboot MFP
+3. Enable SCC again (set 08-3820 to 1)
+4. Reboot MFP
+5. Check if installation report is printed</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>Report should contain: Serial Number, MAC Address, Model Name, Firmware Version, SCC Version, Registration Status, Registration Time, Server URL</t>
+          <t>Installation report should not be printed again</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
-      <c r="H9" s="59" t="inlineStr">
-        <is>
-          <t>Report should be in English only</t>
-        </is>
-      </c>
+      <c r="H9" s="59" t="inlineStr"/>
       <c r="I9" s="53" t="n"/>
     </row>
     <row r="10" ht="99.75" customHeight="1">
@@ -10390,28 +10390,31 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled and network print restriction mode enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC report printing with network print restrictions</t>
+          <t>Verify installation report content</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-9344 to 1 (only private)
-2. Enable SCC
-3. Check if report is printed</t>
+          <t>1. Enable SCC for the first time
+2. Check the printed installation report</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>SCC report should not be printed and job log should show error code 4221</t>
+          <t>Report should contain: Model Name, Serial Number, MAC Address, IP Address, Subnet Mask, Gateway, DNS Server, SCC Server URL, Date/Time, Firmware Version</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
-      <c r="H10" s="59" t="inlineStr"/>
+      <c r="H10" s="59" t="inlineStr">
+        <is>
+          <t>Report should be in English only</t>
+        </is>
+      </c>
       <c r="I10" s="53" t="n"/>
     </row>
     <row r="11" ht="99.75" customHeight="1">
@@ -10422,25 +10425,24 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled and user authentication enabled</t>
+          <t>MFP with network print restriction mode enabled</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC report printing with quota restrictions</t>
+          <t>Verify SCC report printing with network print restriction</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Enable user authentication
-2. Set quota for built-in admin to 0
-3. Enable SCC
-4. Check if report is printed</t>
+          <t>1. Set 08-9344 to 1 (only private)
+2. Enable SCC for the first time
+3. Check if installation report is printed</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>SCC report should not be printed due to quota error</t>
+          <t>SCC report should not be printed, job log should show error code 4221</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10455,25 +10457,25 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with user authentication enabled</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify proxy server settings</t>
+          <t>Verify SCC report printing with quota limitation</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Enter Self-diagnostic boot-up mode
-2. Configure proxy settings (08-3822 to 08-3826)
-3. Reboot MFP
-4. Verify SCC communication works through proxy</t>
+          <t>1. Enable user authentication
+2. Set quota limit for built-in admin to 0
+3. Enable SCC for the first time
+4. Check if installation report is printed</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>SCC should communicate with server through configured proxy</t>
+          <t>SCC report should not be printed due to quota error</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10488,23 +10490,25 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with coin controller equipped</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify communication protocol</t>
+          <t>Verify SCC report printing with coin controller</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Monitor network traffic during SCC communication
-2. Verify HTTPS is used</t>
+          <t>1. Equip coin controller
+2. Enable external counter 08 code
+3. Enable SCC for the first time
+4. Check if installation report is printed</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>All SCC communication should use HTTPS protocol</t>
+          <t>SCC report should not be printed until coin is inserted</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10519,24 +10523,24 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with job full (1000 jobs)</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify port number fallback</t>
+          <t>Verify SCC report printing with job full</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Block port 443 at firewall
-2. Trigger SCC communication
-3. Monitor network traffic</t>
+          <t>1. Fill job queue with 1000 jobs
+2. Enable SCC for the first time
+3. Check if installation report is printed</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>SCC should automatically use port 8443 when port 443 is not available</t>
+          <t>SCC report should not be printed</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10556,18 +10560,19 @@
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC does not start in special startup mode</t>
+          <t>Verify HTTPS communication protocol</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Boot MFP in special startup mode
-2. Check if SCC process starts</t>
+          <t>1. Enable SCC
+2. Monitor network traffic during SCC communication
+3. Verify protocol used</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>SCC process should not start in special startup mode</t>
+          <t>MFP should use HTTPS for communication with servers</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10587,26 +10592,23 @@
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication loop timing</t>
+          <t>Verify client-side communication initiation</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Set regular communication schedule
-2. Monitor when SCC communicates with server</t>
+          <t>1. Enable SCC
+2. Monitor network traffic
+3. Check direction of communication initiation</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>SCC should communicate with server according to configured schedule</t>
+          <t>Communication should always start from MFP side, never from server side</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
-      <c r="H16" s="59" t="inlineStr">
-        <is>
-          <t>Default schedule is "every day at 0:00"</t>
-        </is>
-      </c>
+      <c r="H16" s="59" t="inlineStr"/>
       <c r="I16" s="53" t="n"/>
     </row>
     <row r="17" ht="99.75" customHeight="1">
@@ -10622,22 +10624,26 @@
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify first-time device registration</t>
+          <t>Verify SSL certificate usage</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC for the first time
-2. Monitor registration process</t>
+          <t>1. Enable SCC
+2. Check certificate used for SSL communication</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>MFP should register with server and receive authentication token</t>
+          <t>Server certificate should be pre-installed and from Go Daddy</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
-      <c r="H17" s="59" t="inlineStr"/>
+      <c r="H17" s="59" t="inlineStr">
+        <is>
+          <t>Client certificate should not be used</t>
+        </is>
+      </c>
       <c r="I17" s="53" t="n"/>
     </row>
     <row r="18" ht="99.75" customHeight="1">
@@ -10648,23 +10654,25 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with proxy server in network</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify subsequent authentication</t>
+          <t>Verify proxy server settings</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger regular communication after registration
-2. Monitor authentication process</t>
+          <t>1. Configure proxy server in network
+2. Set 08-3822 to 08-3826 for proxy settings
+3. Enable SCC
+4. Check if communication works through proxy</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>MFP should authenticate using token received during registration</t>
+          <t>MFP should communicate with SCC server through proxy server</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10679,31 +10687,29 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with proxy server requiring authentication</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify server busy handling</t>
+          <t>Verify proxy authentication</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate server BUSY response
-2. Monitor MFP behavior</t>
+          <t>1. Configure proxy server with authentication
+2. Set proxy authentication in 08-3822 to 08-3826
+3. Enable SCC
+4. Check if communication works</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry connection with increasing intervals as specified by server</t>
+          <t>MFP should authenticate with proxy and communicate with SCC server</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
-      <c r="H19" s="59" t="inlineStr">
-        <is>
-          <t>After 3 retries, MFP should exit communication cycle</t>
-        </is>
-      </c>
+      <c r="H19" s="59" t="inlineStr"/>
       <c r="I19" s="53" t="n"/>
     </row>
     <row r="20" ht="99.75" customHeight="1">
@@ -10714,23 +10720,25 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with proxy server but NULL account ID</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify registration failure handling</t>
+          <t>Verify proxy behavior with NULL account ID</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate registration failure response
-2. Monitor MFP behavior</t>
+          <t>1. Configure proxy server
+2. Set proxy settings with NULL account ID
+3. Enable SCC
+4. Check communication behavior</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>After 3 consecutive failures, MFP should print Installation Report and exit communication cycle</t>
+          <t>MFP should behave as without proxy authentication</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10745,23 +10753,24 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with firewall blocking port 443</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify Check for Updates functionality</t>
+          <t>Verify alternate port usage</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger regular communication
-2. Monitor Check for Updates request</t>
+          <t>1. Configure firewall to block port 443
+2. Enable SCC
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>MFP should send correct parameters and process server response appropriately</t>
+          <t>MFP should automatically use port 8443</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10776,24 +10785,23 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP in special startup mode</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify Download Package functionality</t>
+          <t>Verify SCC process startup</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send update package
-2. Trigger regular communication
-3. Monitor download process</t>
+          <t>1. Boot MFP in special startup mode
+2. Check if SCC process starts</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>MFP should download package and verify hash value</t>
+          <t>SCC process should not start in special startup mode</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
@@ -10813,23 +10821,27 @@
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify package hash validation</t>
+          <t>Verify regular communication loop timing</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send package with incorrect hash
-2. Trigger regular communication
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC
+2. Reboot MFP
+3. Monitor when communication with server occurs</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete downloaded data and exit communication cycle</t>
+          <t>MFP should communicate at SCC process startup and according to regular communication schedule</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
-      <c r="H23" s="59" t="inlineStr"/>
+      <c r="H23" s="59" t="inlineStr">
+        <is>
+          <t>Default schedule is "every day at 0:00"</t>
+        </is>
+      </c>
       <c r="I23" s="53" t="n"/>
     </row>
     <row r="24" ht="99.75" customHeight="1">
@@ -10845,18 +10857,18 @@
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Baseline Data functionality</t>
+          <t>Verify regular communication schedule - daily</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger regular communication
-2. Monitor baseline data transmission</t>
+          <t>1. Set regular communication schedule to specific time daily
+2. Monitor communication timing</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>MFP should collect and send all required data according to SendDataConfig setting</t>
+          <t>MFP should communicate at the specified time every day</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10876,19 +10888,18 @@
       </c>
       <c r="D25" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package for firmware update</t>
+          <t>Verify regular communication schedule - weekly</t>
         </is>
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send firmware update package
-2. Trigger regular communication
-3. Monitor installation process</t>
+          <t>1. Set regular communication schedule to specific day and time weekly
+2. Monitor communication timing</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>MFP should schedule firmware update according to package instructions</t>
+          <t>MFP should communicate at the specified day and time every week</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
@@ -10908,23 +10919,26 @@
       </c>
       <c r="D26" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package for policy violation</t>
+          <t>Verify regular communication schedule - interval</t>
         </is>
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send policy violation package
-2. Trigger regular communication
-3. Monitor installation process</t>
+          <t>1. Set regular communication schedule to specific interval (e.g., 30 min)
+2. Monitor communication timing</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>MFP should apply policy settings as specified in package</t>
+          <t>MFP should communicate at the specified interval</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
-      <c r="H26" s="59" t="inlineStr"/>
+      <c r="H26" s="59" t="inlineStr">
+        <is>
+          <t>Valid intervals are 5-60 minutes</t>
+        </is>
+      </c>
       <c r="I26" s="53" t="n"/>
     </row>
     <row r="27" ht="99.75" customHeight="1">
@@ -10940,19 +10954,18 @@
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package for clone data</t>
+          <t>Verify communication sequence</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send clone data package
-2. Trigger regular communication
-3. Monitor installation process</t>
+          <t>1. Enable SCC
+2. Monitor communication sequence with server</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>MFP should apply clone data as specified in package</t>
+          <t>Communication should follow sequence: Register Device → Check for Updates → Download Package → Send Baseline Data → Install Package → Update Status → Send Regular Data</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
@@ -10967,24 +10980,23 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP not registered with server</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Verify Update Status functionality</t>
+          <t>Verify first-time MFP registration</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send update package
-2. Trigger regular communication
-3. Monitor update status reporting</t>
+          <t>1. Enable SCC on unregistered MFP
+2. Monitor registration process</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>MFP should report correct update status to server</t>
+          <t>MFP should send serial number, receive secret question, answer correctly, and complete registration</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
@@ -10999,23 +11011,23 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP already registered with server</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Regular Data functionality</t>
+          <t>Verify subsequent MFP authentication</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger regular communication
-2. Monitor regular data transmission</t>
+          <t>1. Enable SCC on previously registered MFP
+2. Monitor authentication process</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>MFP should collect and send all required data according to SendDataConfig setting</t>
+          <t>MFP should connect using token from previous registration</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
@@ -11030,23 +11042,24 @@
       </c>
       <c r="C30" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with invalid token</t>
         </is>
       </c>
       <c r="D30" s="70" t="inlineStr">
         <is>
-          <t>Verify panel message display during SCC processing</t>
+          <t>Verify re-registration with invalid token</t>
         </is>
       </c>
       <c r="E30" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Observe panel display</t>
+          <t>1. Cause token to become invalid
+2. Enable SCC
+3. Monitor registration process</t>
         </is>
       </c>
       <c r="F30" s="62" t="inlineStr">
         <is>
-          <t>Panel should display "Service in progress. Please do not turn off: XX" with appropriate status code</t>
+          <t>When server judges token invalid, registration sequence should be performed again</t>
         </is>
       </c>
       <c r="G30" s="58" t="inlineStr"/>
@@ -11061,27 +11074,32 @@
       </c>
       <c r="C31" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>Server is BUSY</t>
         </is>
       </c>
       <c r="D31" s="70" t="inlineStr">
         <is>
-          <t>Verify event notification for device errors</t>
+          <t>Verify server BUSY handling</t>
         </is>
       </c>
       <c r="E31" s="61" t="inlineStr">
         <is>
-          <t>1. Generate device error with error code
-2. Monitor error notification</t>
+          <t>1. Simulate server BUSY condition
+2. Enable SCC
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F31" s="62" t="inlineStr">
         <is>
-          <t>MFP should send error notification to server</t>
+          <t>MFP should finish connection, wait for specified period, and retry with incremented retry count</t>
         </is>
       </c>
       <c r="G31" s="58" t="inlineStr"/>
-      <c r="H31" s="59" t="inlineStr"/>
+      <c r="H31" s="59" t="inlineStr">
+        <is>
+          <t>MFP should exit communication cycle after 3rd retry</t>
+        </is>
+      </c>
       <c r="I31" s="53" t="n"/>
     </row>
     <row r="32" ht="99.75" customHeight="1">
@@ -11092,24 +11110,23 @@
       </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with unregistered serial number</t>
         </is>
       </c>
       <c r="D32" s="70" t="inlineStr">
         <is>
-          <t>Verify error resolution notification</t>
+          <t>Verify unregistered serial number handling</t>
         </is>
       </c>
       <c r="E32" s="61" t="inlineStr">
         <is>
-          <t>1. Generate device error
-2. Resolve error without power off
-3. Monitor error notification</t>
+          <t>1. Try to register MFP with unregistered serial number
+2. Monitor registration process</t>
         </is>
       </c>
       <c r="F32" s="62" t="inlineStr">
         <is>
-          <t>MFP should send error resolution notification with "-" prefix (e.g., -D102)</t>
+          <t>Registration should fail, installation report should be printed, MFP should exit communication cycle</t>
         </is>
       </c>
       <c r="G32" s="58" t="inlineStr"/>
@@ -11124,23 +11141,23 @@
       </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with incorrect question answer</t>
         </is>
       </c>
       <c r="D33" s="70" t="inlineStr">
         <is>
-          <t>Verify duplicate error handling</t>
+          <t>Verify failed authentication handling</t>
         </is>
       </c>
       <c r="E33" s="61" t="inlineStr">
         <is>
-          <t>1. Generate same device error multiple times
-2. Monitor error notifications</t>
+          <t>1. Simulate incorrect answer to secret question
+2. Monitor registration process</t>
         </is>
       </c>
       <c r="F33" s="62" t="inlineStr">
         <is>
-          <t>MFP should not send duplicate error notifications unless error is resolved</t>
+          <t>Registration should fail, installation report should be printed, MFP should exit communication cycle</t>
         </is>
       </c>
       <c r="G33" s="58" t="inlineStr"/>
@@ -11155,24 +11172,23 @@
       </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with consecutive registration failures</t>
         </is>
       </c>
       <c r="D34" s="70" t="inlineStr">
         <is>
-          <t>Verify Super Sleep interaction</t>
+          <t>Verify STATUS_LOCK handling</t>
         </is>
       </c>
       <c r="E34" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in Super Sleep state
-2. Wait for scheduled communication time
-3. Monitor MFP behavior</t>
+          <t>1. Cause 3 consecutive registration failures
+2. Monitor server response</t>
         </is>
       </c>
       <c r="F34" s="62" t="inlineStr">
         <is>
-          <t>MFP should wake from Super Sleep, perform communication, then return to Super Sleep</t>
+          <t>Server should respond with STATUS_LOCK, installation report should be printed, MFP should exit communication cycle</t>
         </is>
       </c>
       <c r="G34" s="58" t="inlineStr"/>
@@ -11187,32 +11203,27 @@
       </c>
       <c r="C35" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP during Register Device</t>
         </is>
       </c>
       <c r="D35" s="70" t="inlineStr">
         <is>
-          <t>Verify Hibernation interaction</t>
+          <t>Verify communication error handling</t>
         </is>
       </c>
       <c r="E35" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Attempt to put MFP in hibernation
-3. Monitor MFP behavior</t>
+          <t>1. Cause communication error during Register Device
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F35" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter hibernation during communication cycle</t>
+          <t>MFP should enter retry processing</t>
         </is>
       </c>
       <c r="G35" s="58" t="inlineStr"/>
-      <c r="H35" s="59" t="inlineStr">
-        <is>
-          <t>Exception: during scheduled firmware update state</t>
-        </is>
-      </c>
+      <c r="H35" s="59" t="inlineStr"/>
       <c r="I35" s="53" t="n"/>
     </row>
     <row r="36" ht="99.75" customHeight="1">
@@ -11223,25 +11234,24 @@
       </c>
       <c r="C36" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP during power failure in Register Device</t>
         </is>
       </c>
       <c r="D36" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy functionality</t>
+          <t>Verify power failure handling</t>
         </is>
       </c>
       <c r="E36" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to set persistent policy
-2. Change settings locally
-3. Wait for persistent check interval
-4. Verify settings</t>
+          <t>1. Cause power failure during Register Device
+2. Restore power
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F36" s="62" t="inlineStr">
         <is>
-          <t>Settings should be restored according to persistent policy</t>
+          <t>MFP should communicate with server at next power on without recovery processing</t>
         </is>
       </c>
       <c r="G36" s="58" t="inlineStr"/>
@@ -11261,18 +11271,19 @@
       </c>
       <c r="D37" s="70" t="inlineStr">
         <is>
-          <t>Verify Time-based Device State Data Values</t>
+          <t>Verify Check for Updates functionality</t>
         </is>
       </c>
       <c r="E37" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to set time-based values
-2. Monitor settings at different times</t>
+          <t>1. Enable SCC
+2. Complete Register Device
+3. Monitor Check for Updates process</t>
         </is>
       </c>
       <c r="F37" s="62" t="inlineStr">
         <is>
-          <t>Settings should change according to time-based configuration</t>
+          <t>MFP should call Check for Updates interface and receive appropriate response</t>
         </is>
       </c>
       <c r="G37" s="58" t="inlineStr"/>
@@ -11287,24 +11298,24 @@
       </c>
       <c r="C38" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with update available</t>
         </is>
       </c>
       <c r="D38" s="70" t="inlineStr">
         <is>
-          <t>Verify IP Redirect functionality</t>
+          <t>Verify update detection</t>
         </is>
       </c>
       <c r="E38" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP for first-time connection
-2. Monitor GetRedirectURL request
-3. Verify MFP connects to redirected URL</t>
+          <t>1. Make update available on server
+2. Enable SCC
+3. Monitor Check for Updates response</t>
         </is>
       </c>
       <c r="F38" s="62" t="inlineStr">
         <is>
-          <t>MFP should connect to appropriate regional server based on IP address</t>
+          <t>MFP should detect update is available and proceed to Download Package</t>
         </is>
       </c>
       <c r="G38" s="58" t="inlineStr"/>
@@ -11319,25 +11330,24 @@
       </c>
       <c r="C39" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with no update available</t>
         </is>
       </c>
       <c r="D39" s="70" t="inlineStr">
         <is>
-          <t>Verify URL forward setting</t>
+          <t>Verify no update handling</t>
         </is>
       </c>
       <c r="E39" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to valid URL
-2. Set 08-3828 to 0 (Disable)
-3. Trigger SCC communication
-4. Monitor connection behavior</t>
+          <t>1. Ensure no update is available
+2. Enable SCC
+3. Monitor Check for Updates response</t>
         </is>
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>MFP should not redirect to other servers even if server returns redirect URL</t>
+          <t>MFP should detect no update is needed and proceed to Send Baseline Data</t>
         </is>
       </c>
       <c r="G39" s="58" t="inlineStr"/>
@@ -11352,23 +11362,23 @@
       </c>
       <c r="C40" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP during Check for Updates</t>
         </is>
       </c>
       <c r="D40" s="70" t="inlineStr">
         <is>
-          <t>Verify retry processing for connection errors</t>
+          <t>Verify STATUS_INVALID_TOKEN handling</t>
         </is>
       </c>
       <c r="E40" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate connection error
-2. Monitor retry behavior</t>
+          <t>1. Cause INVALID_TOKEN response during Check for Updates
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F40" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry in 60 seconds, then enter retry mode if unsuccessful</t>
+          <t>MFP should exit communication cycle and wait for next schedule</t>
         </is>
       </c>
       <c r="G40" s="58" t="inlineStr"/>
@@ -11383,23 +11393,23 @@
       </c>
       <c r="C41" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP during Check for Updates</t>
         </is>
       </c>
       <c r="D41" s="70" t="inlineStr">
         <is>
-          <t>Verify retry mode behavior</t>
+          <t>Verify communication error handling</t>
         </is>
       </c>
       <c r="E41" s="61" t="inlineStr">
         <is>
-          <t>1. Force MFP into retry mode
-2. Monitor communication attempts</t>
+          <t>1. Cause communication error during Check for Updates
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F41" s="62" t="inlineStr">
         <is>
-          <t>MFP should attempt communication once per day until successful</t>
+          <t>MFP should enter retry processing</t>
         </is>
       </c>
       <c r="G41" s="58" t="inlineStr"/>
@@ -11414,24 +11424,24 @@
       </c>
       <c r="C42" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP during power failure in Check for Updates</t>
         </is>
       </c>
       <c r="D42" s="70" t="inlineStr">
         <is>
-          <t>Verify invalid URL handling</t>
+          <t>Verify power failure handling</t>
         </is>
       </c>
       <c r="E42" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to invalid URL
-2. Trigger SCC communication
-3. Monitor error handling</t>
+          <t>1. Cause power failure during Check for Updates
+2. Restore power
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F42" s="62" t="inlineStr">
         <is>
-          <t>MFP should report network error and not access default server</t>
+          <t>MFP should communicate with server at next power on without recovery processing</t>
         </is>
       </c>
       <c r="G42" s="58" t="inlineStr"/>
@@ -11446,24 +11456,25 @@
       </c>
       <c r="C43" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with update available</t>
         </is>
       </c>
       <c r="D43" s="70" t="inlineStr">
         <is>
-          <t>Verify SSL certificate handling</t>
+          <t>Verify Download Package functionality</t>
         </is>
       </c>
       <c r="E43" s="61" t="inlineStr">
         <is>
-          <t>1. Configure custom HTTPS URL without importing certificate
-2. Trigger SCC communication
-3. Monitor error handling</t>
+          <t>1. Make update available on server
+2. Enable SCC
+3. Complete Check for Updates
+4. Monitor Download Package process</t>
         </is>
       </c>
       <c r="F43" s="62" t="inlineStr">
         <is>
-          <t>Communication should fail due to missing certificate</t>
+          <t>MFP should download package using Package ID from Check for Updates</t>
         </is>
       </c>
       <c r="G43" s="58" t="inlineStr"/>
@@ -11478,24 +11489,23 @@
       </c>
       <c r="C44" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP downloading package</t>
         </is>
       </c>
       <c r="D44" s="70" t="inlineStr">
         <is>
-          <t>Verify HDD full handling during download</t>
+          <t>Verify hash value validation</t>
         </is>
       </c>
       <c r="E44" s="61" t="inlineStr">
         <is>
-          <t>1. Fill HDD to capacity
-2. Trigger package download
-3. Monitor error handling</t>
+          <t>1. Download package with valid hash value
+2. Verify hash validation process</t>
         </is>
       </c>
       <c r="F44" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete downloaded data and exit communication cycle</t>
+          <t>MFP should calculate MD5 hash and compare with value from Check for Updates</t>
         </is>
       </c>
       <c r="G44" s="58" t="inlineStr"/>
@@ -11510,25 +11520,23 @@
       </c>
       <c r="C45" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with EOL instruction</t>
         </is>
       </c>
       <c r="D45" s="70" t="inlineStr">
         <is>
-          <t>Verify power failure recovery during download</t>
+          <t>Verify EOL instruction handling</t>
         </is>
       </c>
       <c r="E45" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger package download
-2. Simulate power failure during download
-3. Power on MFP
-4. Monitor recovery behavior</t>
+          <t>1. Send EOL instruction from server
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F45" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete incomplete downloaded data before next communication</t>
+          <t>MFP should process EOL instruction according to specification</t>
         </is>
       </c>
       <c r="G45" s="58" t="inlineStr"/>
@@ -11543,24 +11551,23 @@
       </c>
       <c r="C46" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with firmware update instruction</t>
         </is>
       </c>
       <c r="D46" s="70" t="inlineStr">
         <is>
-          <t>Verify unzip failure handling</t>
+          <t>Verify firmware update instruction handling</t>
         </is>
       </c>
       <c r="E46" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send corrupted ZIP package
-2. Trigger download
-3. Monitor error handling</t>
+          <t>1. Send firmware update instruction from server
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F46" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete unzipped data and exit communication cycle</t>
+          <t>MFP should process firmware update instruction according to specification</t>
         </is>
       </c>
       <c r="G46" s="58" t="inlineStr"/>
@@ -11568,71 +11575,31 @@
       <c r="I46" s="53" t="n"/>
     </row>
     <row r="47" ht="99.75" customHeight="1">
-      <c r="B47" s="57" t="inlineStr">
-        <is>
-          <t>TC042</t>
-        </is>
-      </c>
-      <c r="C47" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D47" s="70" t="inlineStr">
-        <is>
-          <t>Verify firmware update scheduling</t>
-        </is>
-      </c>
-      <c r="E47" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure server to send firmware update with future schedule
-2. Trigger download
-3. Monitor scheduled update</t>
-        </is>
-      </c>
-      <c r="F47" s="62" t="inlineStr">
-        <is>
-          <t>Firmware update should occur at scheduled time</t>
-        </is>
-      </c>
-      <c r="G47" s="58" t="inlineStr"/>
-      <c r="H47" s="59" t="inlineStr"/>
+      <c r="B47" s="57" t="n"/>
+      <c r="C47" s="60" t="n"/>
+      <c r="D47" s="70" t="n"/>
+      <c r="E47" s="61" t="n"/>
+      <c r="F47" s="62" t="n"/>
+      <c r="G47" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H47" s="59" t="n"/>
       <c r="I47" s="53" t="n"/>
     </row>
     <row r="48" ht="99.75" customHeight="1">
-      <c r="B48" s="57" t="inlineStr">
-        <is>
-          <t>TC043</t>
-        </is>
-      </c>
-      <c r="C48" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D48" s="70" t="inlineStr">
-        <is>
-          <t>Verify firmware update failure handling</t>
-        </is>
-      </c>
-      <c r="E48" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure server to send incompatible firmware
-2. Trigger download
-3. Monitor error handling</t>
-        </is>
-      </c>
-      <c r="F48" s="62" t="inlineStr">
-        <is>
-          <t>MFP should report failure to server and schedule next communication</t>
-        </is>
-      </c>
-      <c r="G48" s="58" t="inlineStr"/>
-      <c r="H48" s="59" t="inlineStr">
-        <is>
-          <t>After 3 failures, server should stop sending update</t>
-        </is>
-      </c>
+      <c r="B48" s="57" t="n"/>
+      <c r="C48" s="60" t="n"/>
+      <c r="D48" s="70" t="n"/>
+      <c r="E48" s="61" t="n"/>
+      <c r="F48" s="62" t="n"/>
+      <c r="G48" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H48" s="59" t="n"/>
       <c r="I48" s="53" t="n"/>
     </row>
     <row r="49" ht="99.75" customHeight="1">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10255,20 +10255,23 @@
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Verify enabling/disabling of SCC function</t>
+          <t>Verify SCC function can be enabled/disabled through Self-diagnostic boot-up mode</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode or service UI on panel
+          <t>1. Enter Self-diagnostic boot-up mode
 2. Set 08-3820 to 1 (Enable)
 3. Reboot the MFP
-4. Check if SCC function is enabled</t>
+4. Verify SCC function is enabled
+5. Enter Self-diagnostic boot-up mode again
+6. Set 08-3820 to 0 (Disable)
+7. Reboot the MFP</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>SCC function should be enabled after reboot</t>
+          <t>SCC function should be enabled when 08-3820 is set to 1 and disabled when set to 0</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10292,19 +10295,19 @@
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Verify administrator cannot enable/disable SCC function</t>
+          <t>Verify SCC function cannot be enabled/disabled from TA or STAGE2 IF</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Login as administrator
-2. Try to access SCC function settings via TA or STAGE2 IF
-3. Check if SCC settings are accessible</t>
+          <t>1. Log in to TopAccess as administrator
+2. Check if there is any option to enable/disable SCC
+3. Try to enable/disable SCC via STAGE2 IF</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>Administrator should not be able to enable/disable SCC function</t>
+          <t>No option to enable/disable SCC should be available in TopAccess or via STAGE2 IF</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10319,31 +10322,31 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC disabled</t>
+          <t>MFP is powered on and in normal boot-up mode</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report printing</t>
+          <t>Verify SCC Proxy Server Setting can be configured</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
-2. Reboot the MFP
-3. Wait for MFP registration processing
-4. Check if installation report is printed</t>
+          <t>1. Enter Self-diagnostic boot-up mode
+2. Configure SCC Proxy Server settings (08-3822 to 08-3826)
+3. Reboot the MFP
+4. Verify proxy settings are applied</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Installation report should be printed automatically after registration</t>
+          <t>Proxy server settings should be configurable only through Self-diagnostic mode</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
       <c r="H8" s="59" t="inlineStr">
         <is>
-          <t>Report should be printed only once when SCC is first enabled</t>
+          <t>Default value should be "Disable"</t>
         </is>
       </c>
       <c r="I8" s="53" t="n"/>
@@ -10356,30 +10359,33 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP is powered on and in normal boot-up mode</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report is not printed again</t>
+          <t>Verify SCC first registration URL can be configured</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Disable SCC (set 08-3820 to 0)
-2. Reboot MFP
-3. Enable SCC again (set 08-3820 to 1)
-4. Reboot MFP
-5. Check if installation report is printed</t>
+          <t>1. Enter Self-diagnostic boot-up mode
+2. Set 08-3827 to a valid URL
+3. Reboot the MFP
+4. Verify the MFP attempts to connect to the specified URL</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>Installation report should not be printed again</t>
+          <t>MFP should attempt to connect to the specified URL for first registration</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
-      <c r="H9" s="59" t="inlineStr"/>
+      <c r="H9" s="59" t="inlineStr">
+        <is>
+          <t>Default value should be NULL string</t>
+        </is>
+      </c>
       <c r="I9" s="53" t="n"/>
     </row>
     <row r="10" ht="99.75" customHeight="1">
@@ -10390,31 +10396,29 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP is powered on and in normal boot-up mode</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify installation report content</t>
+          <t>Verify URL forward setting can be configured</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC for the first time
-2. Check the printed installation report</t>
+          <t>1. Enter Self-diagnostic boot-up mode
+2. Set 08-3828 to 0 (Disable)
+3. Reboot the MFP
+4. Verify the MFP does not redirect to another URL</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>Report should contain: Model Name, Serial Number, MAC Address, IP Address, Subnet Mask, Gateway, DNS Server, SCC Server URL, Date/Time, Firmware Version</t>
+          <t>MFP should not redirect to another URL when URL forward setting is disabled</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
-      <c r="H10" s="59" t="inlineStr">
-        <is>
-          <t>Report should be in English only</t>
-        </is>
-      </c>
+      <c r="H10" s="59" t="inlineStr"/>
       <c r="I10" s="53" t="n"/>
     </row>
     <row r="11" ht="99.75" customHeight="1">
@@ -10425,28 +10429,33 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>MFP with network print restriction mode enabled</t>
+          <t>SCC function is disabled</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC report printing with network print restriction</t>
+          <t>Verify SCC Installation Report is printed when SCC function is enabled for the first time</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-9344 to 1 (only private)
-2. Enable SCC for the first time
-3. Check if installation report is printed</t>
+          <t>1. Enter Self-diagnostic boot-up mode
+2. Set 08-3820 from 0 (Disable) to 1 (Enable)
+3. Reboot the MFP
+4. Wait for MFP registration processing to complete</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>SCC report should not be printed, job log should show error code 4221</t>
+          <t>Installation report should be automatically printed after MFP registration processing is executed</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
-      <c r="H11" s="59" t="inlineStr"/>
+      <c r="H11" s="59" t="inlineStr">
+        <is>
+          <t>Report should include: Model Name, Serial Number, IP Address, MAC Address, SCC Version, Date/Time</t>
+        </is>
+      </c>
       <c r="I11" s="53" t="n"/>
     </row>
     <row r="12" ht="99.75" customHeight="1">
@@ -10457,25 +10466,23 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>MFP with user authentication enabled</t>
+          <t>SCC function is already enabled</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC report printing with quota limitation</t>
+          <t>Verify SCC Installation Report is not printed when SCC is already enabled</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Enable user authentication
-2. Set quota limit for built-in admin to 0
-3. Enable SCC for the first time
-4. Check if installation report is printed</t>
+          <t>1. With SCC already enabled, reboot the MFP
+2. Observe if installation report is printed</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>SCC report should not be printed due to quota error</t>
+          <t>Installation report should not be printed when SCC is already enabled</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10490,25 +10497,25 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>MFP with coin controller equipped</t>
+          <t>SCC function is enabled, network print restriction mode is set to "only private"</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC report printing with coin controller</t>
+          <t>Verify SCC Installation Report behavior with print restrictions</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Equip coin controller
-2. Enable external counter 08 code
-3. Enable SCC for the first time
+          <t>1. Set 08-9344 (network print restriction mode) to 1 (only private)
+2. Disable SCC function
+3. Enable SCC function
 4. Check if installation report is printed</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>SCC report should not be printed until coin is inserted</t>
+          <t>Installation report should not be printed, and job log should show error code 4221</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10523,24 +10530,24 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>MFP with job full (1000 jobs)</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC report printing with job full</t>
+          <t>Verify HTTPS communication protocol is used for server communication</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Fill job queue with 1000 jobs
-2. Enable SCC for the first time
-3. Check if installation report is printed</t>
+          <t>1. Enable network packet capture
+2. Trigger SCC communication with server
+3. Analyze captured packets</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>SCC report should not be printed</t>
+          <t>All communication between MFP and server should use HTTPS protocol</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10555,24 +10562,25 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, proxy server is configured</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify HTTPS communication protocol</t>
+          <t>Verify communication through proxy server</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Monitor network traffic during SCC communication
-3. Verify protocol used</t>
+          <t>1. Configure proxy server settings (08-3822 to 08-3826)
+2. Configure firewall to require proxy for outbound connections
+3. Trigger SCC communication
+4. Verify communication succeeds through proxy</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>MFP should use HTTPS for communication with servers</t>
+          <t>MFP should successfully communicate with SCC server through the configured proxy</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10587,24 +10595,24 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, port 443 is blocked</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify client-side communication initiation</t>
+          <t>Verify automatic fallback to port 8443</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Monitor network traffic
-3. Check direction of communication initiation</t>
+          <t>1. Block port 443 on the firewall
+2. Trigger SCC communication
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>Communication should always start from MFP side, never from server side</t>
+          <t>MFP should automatically use port 8443 when port 443 is not available</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10619,31 +10627,27 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify SSL certificate usage</t>
+          <t>Verify SCC process does not start in special startup mode</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Check certificate used for SSL communication</t>
+          <t>1. Boot the MFP in special startup mode
+2. Check if SCC process is running</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>Server certificate should be pre-installed and from Go Daddy</t>
+          <t>SCC process should not start in special startup mode</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
-      <c r="H17" s="59" t="inlineStr">
-        <is>
-          <t>Client certificate should not be used</t>
-        </is>
-      </c>
+      <c r="H17" s="59" t="inlineStr"/>
       <c r="I17" s="53" t="n"/>
     </row>
     <row r="18" ht="99.75" customHeight="1">
@@ -10654,29 +10658,31 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>MFP with proxy server in network</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify proxy server settings</t>
+          <t>Verify regular communication loop operates according to schedule</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy server in network
-2. Set 08-3822 to 08-3826 for proxy settings
-3. Enable SCC
-4. Check if communication works through proxy</t>
+          <t>1. Set regular communication schedule to a specific time
+2. Monitor network traffic at the scheduled time</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate with SCC server through proxy server</t>
+          <t>MFP should initiate communication with the server at the scheduled time</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
-      <c r="H18" s="59" t="inlineStr"/>
+      <c r="H18" s="59" t="inlineStr">
+        <is>
+          <t>Default schedule is "every day at 0:00"</t>
+        </is>
+      </c>
       <c r="I18" s="53" t="n"/>
     </row>
     <row r="19" ht="99.75" customHeight="1">
@@ -10687,25 +10693,23 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>MFP with proxy server requiring authentication</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify proxy authentication</t>
+          <t>Verify event notification loop operates when an event occurs</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy server with authentication
-2. Set proxy authentication in 08-3822 to 08-3826
-3. Enable SCC
-4. Check if communication works</t>
+          <t>1. Trigger a device error event
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>MFP should authenticate with proxy and communicate with SCC server</t>
+          <t>MFP should immediately initiate communication with the server to notify the event</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10720,25 +10724,23 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>MFP with proxy server but NULL account ID</t>
+          <t>SCC function is enabled, MFP not registered</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify proxy behavior with NULL account ID</t>
+          <t>Verify first-time MFP registration sequence</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy server
-2. Set proxy settings with NULL account ID
-3. Enable SCC
-4. Check communication behavior</t>
+          <t>1. Enable SCC on an unregistered MFP
+2. Monitor registration communication sequence</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>MFP should behave as without proxy authentication</t>
+          <t>MFP should send registration request, receive secret question, answer correctly, and complete registration</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10753,24 +10755,23 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>MFP with firewall blocking port 443</t>
+          <t>SCC function is enabled, MFP already registered</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify alternate port usage</t>
+          <t>Verify authentication sequence for registered MFP</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Configure firewall to block port 443
-2. Enable SCC
-3. Monitor network traffic</t>
+          <t>1. Trigger communication with server on a registered MFP
+2. Monitor authentication sequence</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>MFP should automatically use port 8443</t>
+          <t>MFP should connect using the token received during registration</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10785,23 +10786,24 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>MFP in special startup mode</t>
+          <t>SCC function is enabled, server is busy</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC process startup</t>
+          <t>Verify retry behavior when server is busy</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Boot MFP in special startup mode
-2. Check if SCC process starts</t>
+          <t>1. Simulate server busy condition
+2. Trigger communication with server
+3. Monitor retry attempts</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>SCC process should not start in special startup mode</t>
+          <t>MFP should retry connection with increasing intervals up to 3 times</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
@@ -10816,32 +10818,28 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication loop timing</t>
+          <t>Verify Check for Updates functionality</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Reboot MFP
-3. Monitor when communication with server occurs</t>
+          <t>1. Trigger regular communication cycle
+2. Monitor Check for Updates request
+3. Verify MFP sends correct parameters</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate at SCC process startup and according to regular communication schedule</t>
+          <t>MFP should send correct parameters and process server response appropriately</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
-      <c r="H23" s="59" t="inlineStr">
-        <is>
-          <t>Default schedule is "every day at 0:00"</t>
-        </is>
-      </c>
+      <c r="H23" s="59" t="inlineStr"/>
       <c r="I23" s="53" t="n"/>
     </row>
     <row r="24" ht="99.75" customHeight="1">
@@ -10852,23 +10850,24 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, update package available</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication schedule - daily</t>
+          <t>Verify Download Package functionality</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Set regular communication schedule to specific time daily
-2. Monitor communication timing</t>
+          <t>1. Configure server to provide an update package
+2. Trigger regular communication cycle
+3. Monitor package download</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate at the specified time every day</t>
+          <t>MFP should download the package and verify its hash value</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10883,23 +10882,23 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, firmware update package downloaded</t>
         </is>
       </c>
       <c r="D25" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication schedule - weekly</t>
+          <t>Verify firmware update installation</t>
         </is>
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Set regular communication schedule to specific day and time weekly
-2. Monitor communication timing</t>
+          <t>1. Download firmware update package
+2. Monitor installation process</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate at the specified day and time every week</t>
+          <t>MFP should install the firmware update at the scheduled time and reboot</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
@@ -10914,31 +10913,27 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, policy violation data package downloaded</t>
         </is>
       </c>
       <c r="D26" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication schedule - interval</t>
+          <t>Verify policy violation data installation</t>
         </is>
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Set regular communication schedule to specific interval (e.g., 30 min)
-2. Monitor communication timing</t>
+          <t>1. Download policy violation data package
+2. Monitor installation process</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate at the specified interval</t>
+          <t>MFP should apply the policy settings correctly</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
-      <c r="H26" s="59" t="inlineStr">
-        <is>
-          <t>Valid intervals are 5-60 minutes</t>
-        </is>
-      </c>
+      <c r="H26" s="59" t="inlineStr"/>
       <c r="I26" s="53" t="n"/>
     </row>
     <row r="27" ht="99.75" customHeight="1">
@@ -10949,23 +10944,23 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, restore data package downloaded</t>
         </is>
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Verify communication sequence</t>
+          <t>Verify restore data installation</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Monitor communication sequence with server</t>
+          <t>1. Download restore data package
+2. Monitor installation process</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>Communication should follow sequence: Register Device → Check for Updates → Download Package → Send Baseline Data → Install Package → Update Status → Send Regular Data</t>
+          <t>MFP should restore the specified settings correctly</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
@@ -10980,23 +10975,23 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>MFP not registered with server</t>
+          <t>SCC function is enabled, clone file package downloaded</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Verify first-time MFP registration</t>
+          <t>Verify clone file installation</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC on unregistered MFP
-2. Monitor registration process</t>
+          <t>1. Download clone file package
+2. Monitor installation process</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>MFP should send serial number, receive secret question, answer correctly, and complete registration</t>
+          <t>MFP should apply the clone settings correctly</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
@@ -11011,23 +11006,23 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>MFP already registered with server</t>
+          <t>SCC function is enabled, customized UI package downloaded</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Verify subsequent MFP authentication</t>
+          <t>Verify customized UI installation</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC on previously registered MFP
-2. Monitor authentication process</t>
+          <t>1. Download customized UI package
+2. Monitor installation process</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>MFP should connect using token from previous registration</t>
+          <t>MFP should install the customized UI correctly</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
@@ -11042,24 +11037,23 @@
       </c>
       <c r="C30" s="60" t="inlineStr">
         <is>
-          <t>MFP with invalid token</t>
+          <t>SCC function is enabled, application package downloaded</t>
         </is>
       </c>
       <c r="D30" s="70" t="inlineStr">
         <is>
-          <t>Verify re-registration with invalid token</t>
+          <t>Verify application installation</t>
         </is>
       </c>
       <c r="E30" s="61" t="inlineStr">
         <is>
-          <t>1. Cause token to become invalid
-2. Enable SCC
-3. Monitor registration process</t>
+          <t>1. Download application package
+2. Monitor installation process</t>
         </is>
       </c>
       <c r="F30" s="62" t="inlineStr">
         <is>
-          <t>When server judges token invalid, registration sequence should be performed again</t>
+          <t>MFP should install the application correctly</t>
         </is>
       </c>
       <c r="G30" s="58" t="inlineStr"/>
@@ -11074,32 +11068,27 @@
       </c>
       <c r="C31" s="60" t="inlineStr">
         <is>
-          <t>Server is BUSY</t>
+          <t>SCC function is enabled, license package downloaded</t>
         </is>
       </c>
       <c r="D31" s="70" t="inlineStr">
         <is>
-          <t>Verify server BUSY handling</t>
+          <t>Verify license installation</t>
         </is>
       </c>
       <c r="E31" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate server BUSY condition
-2. Enable SCC
-3. Monitor MFP behavior</t>
+          <t>1. Download license package
+2. Monitor installation process</t>
         </is>
       </c>
       <c r="F31" s="62" t="inlineStr">
         <is>
-          <t>MFP should finish connection, wait for specified period, and retry with incremented retry count</t>
+          <t>MFP should install the license correctly</t>
         </is>
       </c>
       <c r="G31" s="58" t="inlineStr"/>
-      <c r="H31" s="59" t="inlineStr">
-        <is>
-          <t>MFP should exit communication cycle after 3rd retry</t>
-        </is>
-      </c>
+      <c r="H31" s="59" t="inlineStr"/>
       <c r="I31" s="53" t="n"/>
     </row>
     <row r="32" ht="99.75" customHeight="1">
@@ -11110,23 +11099,23 @@
       </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
-          <t>MFP with unregistered serial number</t>
+          <t>SCC function is enabled, custom user paper type package downloaded</t>
         </is>
       </c>
       <c r="D32" s="70" t="inlineStr">
         <is>
-          <t>Verify unregistered serial number handling</t>
+          <t>Verify custom user paper type installation</t>
         </is>
       </c>
       <c r="E32" s="61" t="inlineStr">
         <is>
-          <t>1. Try to register MFP with unregistered serial number
-2. Monitor registration process</t>
+          <t>1. Download custom user paper type package
+2. Monitor installation process</t>
         </is>
       </c>
       <c r="F32" s="62" t="inlineStr">
         <is>
-          <t>Registration should fail, installation report should be printed, MFP should exit communication cycle</t>
+          <t>MFP should install the custom user paper type correctly</t>
         </is>
       </c>
       <c r="G32" s="58" t="inlineStr"/>
@@ -11141,23 +11130,23 @@
       </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
-          <t>MFP with incorrect question answer</t>
+          <t>SCC function is enabled, update package downloaded</t>
         </is>
       </c>
       <c r="D33" s="70" t="inlineStr">
         <is>
-          <t>Verify failed authentication handling</t>
+          <t>Verify Update Status notification</t>
         </is>
       </c>
       <c r="E33" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate incorrect answer to secret question
-2. Monitor registration process</t>
+          <t>1. Install an update package
+2. Monitor Update Status notification</t>
         </is>
       </c>
       <c r="F33" s="62" t="inlineStr">
         <is>
-          <t>Registration should fail, installation report should be printed, MFP should exit communication cycle</t>
+          <t>MFP should send correct update status to server</t>
         </is>
       </c>
       <c r="G33" s="58" t="inlineStr"/>
@@ -11172,23 +11161,23 @@
       </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>MFP with consecutive registration failures</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D34" s="70" t="inlineStr">
         <is>
-          <t>Verify STATUS_LOCK handling</t>
+          <t>Verify Send Baseline Data functionality</t>
         </is>
       </c>
       <c r="E34" s="61" t="inlineStr">
         <is>
-          <t>1. Cause 3 consecutive registration failures
-2. Monitor server response</t>
+          <t>1. Trigger regular communication cycle
+2. Monitor Baseline Data transmission</t>
         </is>
       </c>
       <c r="F34" s="62" t="inlineStr">
         <is>
-          <t>Server should respond with STATUS_LOCK, installation report should be printed, MFP should exit communication cycle</t>
+          <t>MFP should collect and send all required baseline data to server</t>
         </is>
       </c>
       <c r="G34" s="58" t="inlineStr"/>
@@ -11203,23 +11192,23 @@
       </c>
       <c r="C35" s="60" t="inlineStr">
         <is>
-          <t>MFP during Register Device</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D35" s="70" t="inlineStr">
         <is>
-          <t>Verify communication error handling</t>
+          <t>Verify Send Regular Data functionality</t>
         </is>
       </c>
       <c r="E35" s="61" t="inlineStr">
         <is>
-          <t>1. Cause communication error during Register Device
-2. Monitor MFP behavior</t>
+          <t>1. Trigger regular communication cycle
+2. Monitor Regular Data transmission</t>
         </is>
       </c>
       <c r="F35" s="62" t="inlineStr">
         <is>
-          <t>MFP should enter retry processing</t>
+          <t>MFP should collect and send all required regular data to server</t>
         </is>
       </c>
       <c r="G35" s="58" t="inlineStr"/>
@@ -11234,24 +11223,23 @@
       </c>
       <c r="C36" s="60" t="inlineStr">
         <is>
-          <t>MFP during power failure in Register Device</t>
+          <t>SCC function is enabled, device error occurs</t>
         </is>
       </c>
       <c r="D36" s="70" t="inlineStr">
         <is>
-          <t>Verify power failure handling</t>
+          <t>Verify Send Device Error functionality</t>
         </is>
       </c>
       <c r="E36" s="61" t="inlineStr">
         <is>
-          <t>1. Cause power failure during Register Device
-2. Restore power
-3. Monitor MFP behavior</t>
+          <t>1. Trigger a device error
+2. Monitor Device Error notification</t>
         </is>
       </c>
       <c r="F36" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate with server at next power on without recovery processing</t>
+          <t>MFP should send error details to server immediately</t>
         </is>
       </c>
       <c r="G36" s="58" t="inlineStr"/>
@@ -11266,24 +11254,23 @@
       </c>
       <c r="C37" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, same device error occurs multiple times</t>
         </is>
       </c>
       <c r="D37" s="70" t="inlineStr">
         <is>
-          <t>Verify Check for Updates functionality</t>
+          <t>Verify duplicate error handling</t>
         </is>
       </c>
       <c r="E37" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Complete Register Device
-3. Monitor Check for Updates process</t>
+          <t>1. Trigger the same device error multiple times
+2. Monitor Device Error notifications</t>
         </is>
       </c>
       <c r="F37" s="62" t="inlineStr">
         <is>
-          <t>MFP should call Check for Updates interface and receive appropriate response</t>
+          <t>MFP should not send duplicate error notifications for the same error</t>
         </is>
       </c>
       <c r="G37" s="58" t="inlineStr"/>
@@ -11298,24 +11285,24 @@
       </c>
       <c r="C38" s="60" t="inlineStr">
         <is>
-          <t>MFP with update available</t>
+          <t>SCC function is enabled, device error is resolved</t>
         </is>
       </c>
       <c r="D38" s="70" t="inlineStr">
         <is>
-          <t>Verify update detection</t>
+          <t>Verify error resolution notification</t>
         </is>
       </c>
       <c r="E38" s="61" t="inlineStr">
         <is>
-          <t>1. Make update available on server
-2. Enable SCC
-3. Monitor Check for Updates response</t>
+          <t>1. Trigger a device error
+2. Resolve the error without power off
+3. Monitor Device Error notifications</t>
         </is>
       </c>
       <c r="F38" s="62" t="inlineStr">
         <is>
-          <t>MFP should detect update is available and proceed to Download Package</t>
+          <t>MFP should notify server of error resolution with "-" prefix (e.g., -D102)</t>
         </is>
       </c>
       <c r="G38" s="58" t="inlineStr"/>
@@ -11330,24 +11317,24 @@
       </c>
       <c r="C39" s="60" t="inlineStr">
         <is>
-          <t>MFP with no update available</t>
+          <t>SCC function is enabled, server requests service files</t>
         </is>
       </c>
       <c r="D39" s="70" t="inlineStr">
         <is>
-          <t>Verify no update handling</t>
+          <t>Verify Send Service File functionality</t>
         </is>
       </c>
       <c r="E39" s="61" t="inlineStr">
         <is>
-          <t>1. Ensure no update is available
-2. Enable SCC
-3. Monitor Check for Updates response</t>
+          <t>1. Configure server to request service files
+2. Trigger device error notification
+3. Monitor Service File transmission</t>
         </is>
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>MFP should detect no update is needed and proceed to Send Baseline Data</t>
+          <t>MFP should send ZIP file containing service files to server</t>
         </is>
       </c>
       <c r="G39" s="58" t="inlineStr"/>
@@ -11362,23 +11349,24 @@
       </c>
       <c r="C40" s="60" t="inlineStr">
         <is>
-          <t>MFP during Check for Updates</t>
+          <t>SCC function is enabled, MFP in Super Sleep</t>
         </is>
       </c>
       <c r="D40" s="70" t="inlineStr">
         <is>
-          <t>Verify STATUS_INVALID_TOKEN handling</t>
+          <t>Verify MFP wakes from Super Sleep for scheduled communication</t>
         </is>
       </c>
       <c r="E40" s="61" t="inlineStr">
         <is>
-          <t>1. Cause INVALID_TOKEN response during Check for Updates
-2. Monitor MFP behavior</t>
+          <t>1. Put MFP in Super Sleep state
+2. Wait for scheduled communication time
+3. Observe MFP behavior</t>
         </is>
       </c>
       <c r="F40" s="62" t="inlineStr">
         <is>
-          <t>MFP should exit communication cycle and wait for next schedule</t>
+          <t>MFP should wake from Super Sleep, perform communication, then return to Super Sleep</t>
         </is>
       </c>
       <c r="G40" s="58" t="inlineStr"/>
@@ -11393,23 +11381,24 @@
       </c>
       <c r="C41" s="60" t="inlineStr">
         <is>
-          <t>MFP during Check for Updates</t>
+          <t>SCC function is enabled, MFP about to enter Super Sleep</t>
         </is>
       </c>
       <c r="D41" s="70" t="inlineStr">
         <is>
-          <t>Verify communication error handling</t>
+          <t>Verify MFP does not enter Super Sleep during communication</t>
         </is>
       </c>
       <c r="E41" s="61" t="inlineStr">
         <is>
-          <t>1. Cause communication error during Check for Updates
-2. Monitor MFP behavior</t>
+          <t>1. Trigger SCC communication
+2. Attempt to put MFP in Super Sleep state
+3. Observe MFP behavior</t>
         </is>
       </c>
       <c r="F41" s="62" t="inlineStr">
         <is>
-          <t>MFP should enter retry processing</t>
+          <t>MFP should not enter Super Sleep during communication cycle</t>
         </is>
       </c>
       <c r="G41" s="58" t="inlineStr"/>
@@ -11424,24 +11413,25 @@
       </c>
       <c r="C42" s="60" t="inlineStr">
         <is>
-          <t>MFP during power failure in Check for Updates</t>
+          <t>SCC function is enabled, persistent policy configured</t>
         </is>
       </c>
       <c r="D42" s="70" t="inlineStr">
         <is>
-          <t>Verify power failure handling</t>
+          <t>Verify persistent policy check functionality</t>
         </is>
       </c>
       <c r="E42" s="61" t="inlineStr">
         <is>
-          <t>1. Cause power failure during Check for Updates
-2. Restore power
-3. Monitor MFP behavior</t>
+          <t>1. Configure persistent policy with interval
+2. Change settings locally
+3. Wait for persistent policy check
+4. Verify settings</t>
         </is>
       </c>
       <c r="F42" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate with server at next power on without recovery processing</t>
+          <t>Settings should be restored to policy values after local changes</t>
         </is>
       </c>
       <c r="G42" s="58" t="inlineStr"/>
@@ -11456,25 +11446,23 @@
       </c>
       <c r="C43" s="60" t="inlineStr">
         <is>
-          <t>MFP with update available</t>
+          <t>SCC function is enabled, time-based device state configured</t>
         </is>
       </c>
       <c r="D43" s="70" t="inlineStr">
         <is>
-          <t>Verify Download Package functionality</t>
+          <t>Verify time-based device state functionality</t>
         </is>
       </c>
       <c r="E43" s="61" t="inlineStr">
         <is>
-          <t>1. Make update available on server
-2. Enable SCC
-3. Complete Check for Updates
-4. Monitor Download Package process</t>
+          <t>1. Configure time-based values for settings
+2. Observe setting changes at specified times</t>
         </is>
       </c>
       <c r="F43" s="62" t="inlineStr">
         <is>
-          <t>MFP should download package using Package ID from Check for Updates</t>
+          <t>Settings should change automatically at the specified times</t>
         </is>
       </c>
       <c r="G43" s="58" t="inlineStr"/>
@@ -11489,23 +11477,24 @@
       </c>
       <c r="C44" s="60" t="inlineStr">
         <is>
-          <t>MFP downloading package</t>
+          <t>SCC function is enabled, first-time connection</t>
         </is>
       </c>
       <c r="D44" s="70" t="inlineStr">
         <is>
-          <t>Verify hash value validation</t>
+          <t>Verify IP Redirect functionality</t>
         </is>
       </c>
       <c r="E44" s="61" t="inlineStr">
         <is>
-          <t>1. Download package with valid hash value
-2. Verify hash validation process</t>
+          <t>1. Configure MFP for first-time connection
+2. Monitor GetRedirectURL request
+3. Verify MFP follows redirect</t>
         </is>
       </c>
       <c r="F44" s="62" t="inlineStr">
         <is>
-          <t>MFP should calculate MD5 hash and compare with value from Check for Updates</t>
+          <t>MFP should request redirect URL and connect to appropriate regional server</t>
         </is>
       </c>
       <c r="G44" s="58" t="inlineStr"/>
@@ -11520,23 +11509,24 @@
       </c>
       <c r="C45" s="60" t="inlineStr">
         <is>
-          <t>MFP with EOL instruction</t>
+          <t>SCC function is enabled, communication error occurs</t>
         </is>
       </c>
       <c r="D45" s="70" t="inlineStr">
         <is>
-          <t>Verify EOL instruction handling</t>
+          <t>Verify retry behavior for communication errors</t>
         </is>
       </c>
       <c r="E45" s="61" t="inlineStr">
         <is>
-          <t>1. Send EOL instruction from server
-2. Monitor MFP behavior</t>
+          <t>1. Simulate network error during communication
+2. Monitor retry attempts
+3. Verify retry mode behavior</t>
         </is>
       </c>
       <c r="F45" s="62" t="inlineStr">
         <is>
-          <t>MFP should process EOL instruction according to specification</t>
+          <t>MFP should retry after 60 seconds, then enter retry mode with daily attempts</t>
         </is>
       </c>
       <c r="G45" s="58" t="inlineStr"/>
@@ -11551,23 +11541,24 @@
       </c>
       <c r="C46" s="60" t="inlineStr">
         <is>
-          <t>MFP with firmware update instruction</t>
+          <t>SCC function is enabled, HTTP error occurs</t>
         </is>
       </c>
       <c r="D46" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update instruction handling</t>
+          <t>Verify retry behavior for HTTP errors</t>
         </is>
       </c>
       <c r="E46" s="61" t="inlineStr">
         <is>
-          <t>1. Send firmware update instruction from server
-2. Monitor MFP behavior</t>
+          <t>1. Simulate HTTP error from server
+2. Monitor retry attempts
+3. Verify retry mode behavior</t>
         </is>
       </c>
       <c r="F46" s="62" t="inlineStr">
         <is>
-          <t>MFP should process firmware update instruction according to specification</t>
+          <t>MFP should retry after 60 seconds, then enter retry mode with daily attempts</t>
         </is>
       </c>
       <c r="G46" s="58" t="inlineStr"/>
@@ -11575,269 +11566,613 @@
       <c r="I46" s="53" t="n"/>
     </row>
     <row r="47" ht="99.75" customHeight="1">
-      <c r="B47" s="57" t="n"/>
-      <c r="C47" s="60" t="n"/>
-      <c r="D47" s="70" t="n"/>
-      <c r="E47" s="61" t="n"/>
-      <c r="F47" s="62" t="n"/>
-      <c r="G47" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H47" s="59" t="n"/>
+      <c r="B47" s="57" t="inlineStr">
+        <is>
+          <t>TC042</t>
+        </is>
+      </c>
+      <c r="C47" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, power failure during communication</t>
+        </is>
+      </c>
+      <c r="D47" s="70" t="inlineStr">
+        <is>
+          <t>Verify recovery from power failure</t>
+        </is>
+      </c>
+      <c r="E47" s="61" t="inlineStr">
+        <is>
+          <t>1. Trigger SCC communication
+2. Simulate power failure during communication
+3. Restore power
+4. Observe MFP behavior</t>
+        </is>
+      </c>
+      <c r="F47" s="62" t="inlineStr">
+        <is>
+          <t>MFP should start normal communication cycle after power restoration</t>
+        </is>
+      </c>
+      <c r="G47" s="58" t="inlineStr"/>
+      <c r="H47" s="59" t="inlineStr"/>
       <c r="I47" s="53" t="n"/>
     </row>
     <row r="48" ht="99.75" customHeight="1">
-      <c r="B48" s="57" t="n"/>
-      <c r="C48" s="60" t="n"/>
-      <c r="D48" s="70" t="n"/>
-      <c r="E48" s="61" t="n"/>
-      <c r="F48" s="62" t="n"/>
-      <c r="G48" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H48" s="59" t="n"/>
+      <c r="B48" s="57" t="inlineStr">
+        <is>
+          <t>TC043</t>
+        </is>
+      </c>
+      <c r="C48" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, HDD full during package download</t>
+        </is>
+      </c>
+      <c r="D48" s="70" t="inlineStr">
+        <is>
+          <t>Verify behavior when HDD is full</t>
+        </is>
+      </c>
+      <c r="E48" s="61" t="inlineStr">
+        <is>
+          <t>1. Fill MFP HDD to capacity
+2. Trigger package download
+3. Observe MFP behavior</t>
+        </is>
+      </c>
+      <c r="F48" s="62" t="inlineStr">
+        <is>
+          <t>MFP should delete downloaded data and exit communication cycle</t>
+        </is>
+      </c>
+      <c r="G48" s="58" t="inlineStr"/>
+      <c r="H48" s="59" t="inlineStr"/>
       <c r="I48" s="53" t="n"/>
     </row>
     <row r="49" ht="99.75" customHeight="1">
-      <c r="B49" s="57" t="n"/>
-      <c r="C49" s="60" t="n"/>
-      <c r="D49" s="70" t="n"/>
-      <c r="E49" s="61" t="n"/>
-      <c r="F49" s="62" t="n"/>
-      <c r="G49" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H49" s="59" t="n"/>
+      <c r="B49" s="57" t="inlineStr">
+        <is>
+          <t>TC044</t>
+        </is>
+      </c>
+      <c r="C49" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, hash value mismatch</t>
+        </is>
+      </c>
+      <c r="D49" s="70" t="inlineStr">
+        <is>
+          <t>Verify behavior when package hash value is incorrect</t>
+        </is>
+      </c>
+      <c r="E49" s="61" t="inlineStr">
+        <is>
+          <t>1. Simulate package with incorrect hash value
+2. Trigger package download
+3. Observe MFP behavior</t>
+        </is>
+      </c>
+      <c r="F49" s="62" t="inlineStr">
+        <is>
+          <t>MFP should delete downloaded data and exit communication cycle</t>
+        </is>
+      </c>
+      <c r="G49" s="58" t="inlineStr"/>
+      <c r="H49" s="59" t="inlineStr"/>
       <c r="I49" s="53" t="n"/>
     </row>
     <row r="50" ht="99.75" customHeight="1">
-      <c r="B50" s="57" t="n"/>
-      <c r="C50" s="60" t="n"/>
-      <c r="D50" s="70" t="n"/>
-      <c r="E50" s="61" t="n"/>
-      <c r="F50" s="62" t="n"/>
-      <c r="G50" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H50" s="59" t="n"/>
+      <c r="B50" s="57" t="inlineStr">
+        <is>
+          <t>TC045</t>
+        </is>
+      </c>
+      <c r="C50" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, unzip failure</t>
+        </is>
+      </c>
+      <c r="D50" s="70" t="inlineStr">
+        <is>
+          <t>Verify behavior when package unzip fails</t>
+        </is>
+      </c>
+      <c r="E50" s="61" t="inlineStr">
+        <is>
+          <t>1. Simulate package that cannot be unzipped
+2. Trigger package download
+3. Observe MFP behavior</t>
+        </is>
+      </c>
+      <c r="F50" s="62" t="inlineStr">
+        <is>
+          <t>MFP should delete unzipped data and exit communication cycle</t>
+        </is>
+      </c>
+      <c r="G50" s="58" t="inlineStr"/>
+      <c r="H50" s="59" t="inlineStr"/>
       <c r="I50" s="53" t="n"/>
     </row>
     <row r="51" ht="99.75" customHeight="1">
-      <c r="B51" s="57" t="n"/>
-      <c r="C51" s="60" t="n"/>
-      <c r="D51" s="70" t="n"/>
-      <c r="E51" s="61" t="n"/>
-      <c r="F51" s="62" t="n"/>
-      <c r="G51" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H51" s="59" t="n"/>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t>TC046</t>
+        </is>
+      </c>
+      <c r="C51" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, installation failure</t>
+        </is>
+      </c>
+      <c r="D51" s="70" t="inlineStr">
+        <is>
+          <t>Verify behavior when installation fails</t>
+        </is>
+      </c>
+      <c r="E51" s="61" t="inlineStr">
+        <is>
+          <t>1. Simulate installation failure
+2. Observe MFP behavior</t>
+        </is>
+      </c>
+      <c r="F51" s="62" t="inlineStr">
+        <is>
+          <t>MFP should notify update result to server and schedule regular communication after 1 hour</t>
+        </is>
+      </c>
+      <c r="G51" s="58" t="inlineStr"/>
+      <c r="H51" s="59" t="inlineStr"/>
       <c r="I51" s="53" t="n"/>
     </row>
     <row r="52" ht="99.75" customHeight="1">
-      <c r="B52" s="57" t="n"/>
-      <c r="C52" s="60" t="n"/>
-      <c r="D52" s="70" t="n"/>
-      <c r="E52" s="61" t="n"/>
-      <c r="F52" s="62" t="n"/>
-      <c r="G52" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H52" s="59" t="n"/>
+      <c r="B52" s="57" t="inlineStr">
+        <is>
+          <t>TC047</t>
+        </is>
+      </c>
+      <c r="C52" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, SSD model</t>
+        </is>
+      </c>
+      <c r="D52" s="70" t="inlineStr">
+        <is>
+          <t>Verify firmware update behavior on SSD model</t>
+        </is>
+      </c>
+      <c r="E52" s="61" t="inlineStr">
+        <is>
+          <t>1. Attempt firmware update on SSD model
+2. Observe MFP behavior</t>
+        </is>
+      </c>
+      <c r="F52" s="62" t="inlineStr">
+        <is>
+          <t>Firmware update should fail, and MFP should notify server of failure</t>
+        </is>
+      </c>
+      <c r="G52" s="58" t="inlineStr"/>
+      <c r="H52" s="59" t="inlineStr"/>
       <c r="I52" s="53" t="n"/>
     </row>
     <row r="53" ht="99.75" customHeight="1">
-      <c r="B53" s="57" t="n"/>
-      <c r="C53" s="60" t="n"/>
-      <c r="D53" s="70" t="n"/>
-      <c r="E53" s="61" t="n"/>
-      <c r="F53" s="62" t="n"/>
-      <c r="G53" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H53" s="59" t="n"/>
+      <c r="B53" s="57" t="inlineStr">
+        <is>
+          <t>TC048</t>
+        </is>
+      </c>
+      <c r="C53" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, multiple updates with partial failure</t>
+        </is>
+      </c>
+      <c r="D53" s="70" t="inlineStr">
+        <is>
+          <t>Verify behavior when some updates fail</t>
+        </is>
+      </c>
+      <c r="E53" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure multiple updates with one set to fail
+2. Trigger update installation
+3. Observe MFP behavior</t>
+        </is>
+      </c>
+      <c r="F53" s="62" t="inlineStr">
+        <is>
+          <t>MFP should continue processing all updates and report results to server</t>
+        </is>
+      </c>
+      <c r="G53" s="58" t="inlineStr"/>
+      <c r="H53" s="59" t="inlineStr"/>
       <c r="I53" s="53" t="n"/>
     </row>
     <row r="54" ht="99.75" customHeight="1">
-      <c r="B54" s="57" t="n"/>
-      <c r="C54" s="60" t="n"/>
-      <c r="D54" s="70" t="n"/>
-      <c r="E54" s="61" t="n"/>
-      <c r="F54" s="62" t="n"/>
-      <c r="G54" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H54" s="59" t="n"/>
+      <c r="B54" s="57" t="inlineStr">
+        <is>
+          <t>TC049</t>
+        </is>
+      </c>
+      <c r="C54" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled</t>
+        </is>
+      </c>
+      <c r="D54" s="70" t="inlineStr">
+        <is>
+          <t>Verify panel message display during SCC processing</t>
+        </is>
+      </c>
+      <c r="E54" s="61" t="inlineStr">
+        <is>
+          <t>1. Trigger SCC communication
+2. Observe panel display</t>
+        </is>
+      </c>
+      <c r="F54" s="62" t="inlineStr">
+        <is>
+          <t>Panel should display "Service in progress. Please do not turn off: XX" with appropriate status code</t>
+        </is>
+      </c>
+      <c r="G54" s="58" t="inlineStr"/>
+      <c r="H54" s="59" t="inlineStr"/>
       <c r="I54" s="53" t="n"/>
     </row>
     <row r="55" ht="99.75" customHeight="1">
-      <c r="B55" s="57" t="n"/>
-      <c r="C55" s="60" t="n"/>
-      <c r="D55" s="70" t="n"/>
-      <c r="E55" s="61" t="n"/>
-      <c r="F55" s="62" t="n"/>
-      <c r="G55" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H55" s="59" t="n"/>
+      <c r="B55" s="57" t="inlineStr">
+        <is>
+          <t>TC050</t>
+        </is>
+      </c>
+      <c r="C55" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, firmware update in progress</t>
+        </is>
+      </c>
+      <c r="D55" s="70" t="inlineStr">
+        <is>
+          <t>Verify popup window display during firmware update</t>
+        </is>
+      </c>
+      <c r="E55" s="61" t="inlineStr">
+        <is>
+          <t>1. Trigger firmware update
+2. Observe panel display</t>
+        </is>
+      </c>
+      <c r="F55" s="62" t="inlineStr">
+        <is>
+          <t>Panel should display popup window with sand clock and progress bar</t>
+        </is>
+      </c>
+      <c r="G55" s="58" t="inlineStr"/>
+      <c r="H55" s="59" t="inlineStr"/>
       <c r="I55" s="53" t="n"/>
     </row>
     <row r="56" ht="99.75" customHeight="1">
-      <c r="B56" s="57" t="n"/>
-      <c r="C56" s="60" t="n"/>
-      <c r="D56" s="70" t="n"/>
-      <c r="E56" s="61" t="n"/>
-      <c r="F56" s="62" t="n"/>
-      <c r="G56" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H56" s="59" t="n"/>
+      <c r="B56" s="57" t="inlineStr">
+        <is>
+          <t>TC051</t>
+        </is>
+      </c>
+      <c r="C56" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, RDMS (BBR2) function is enabled</t>
+        </is>
+      </c>
+      <c r="D56" s="70" t="inlineStr">
+        <is>
+          <t>Verify SCC and RDMS exclusivity</t>
+        </is>
+      </c>
+      <c r="E56" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Enable RDMS (BBR2) function
+3. Attempt to use RDMS</t>
+        </is>
+      </c>
+      <c r="F56" s="62" t="inlineStr">
+        <is>
+          <t>RDMS should not work when SCC function is enabled</t>
+        </is>
+      </c>
+      <c r="G56" s="58" t="inlineStr"/>
+      <c r="H56" s="59" t="inlineStr">
+        <is>
+          <t>This limitation is removed from L6.02/L6.03</t>
+        </is>
+      </c>
       <c r="I56" s="53" t="n"/>
     </row>
     <row r="57" ht="99.75" customHeight="1">
-      <c r="B57" s="57" t="n"/>
-      <c r="C57" s="60" t="n"/>
-      <c r="D57" s="70" t="n"/>
-      <c r="E57" s="61" t="n"/>
-      <c r="F57" s="62" t="n"/>
-      <c r="G57" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H57" s="59" t="n"/>
+      <c r="B57" s="57" t="inlineStr">
+        <is>
+          <t>TC052</t>
+        </is>
+      </c>
+      <c r="C57" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, service UI in use</t>
+        </is>
+      </c>
+      <c r="D57" s="70" t="inlineStr">
+        <is>
+          <t>Verify exclusivity between SCC and service UI</t>
+        </is>
+      </c>
+      <c r="E57" s="61" t="inlineStr">
+        <is>
+          <t>1. Access service UI
+2. Trigger SCC communication
+3. Attempt to use service UI</t>
+        </is>
+      </c>
+      <c r="F57" s="62" t="inlineStr">
+        <is>
+          <t>Service UI should not be usable while device is communicating with SCC server</t>
+        </is>
+      </c>
+      <c r="G57" s="58" t="inlineStr"/>
+      <c r="H57" s="59" t="inlineStr"/>
       <c r="I57" s="53" t="n"/>
     </row>
     <row r="58" ht="99.75" customHeight="1">
-      <c r="B58" s="57" t="n"/>
-      <c r="C58" s="60" t="n"/>
-      <c r="D58" s="70" t="n"/>
-      <c r="E58" s="61" t="n"/>
-      <c r="F58" s="62" t="n"/>
-      <c r="G58" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H58" s="59" t="n"/>
+      <c r="B58" s="57" t="inlineStr">
+        <is>
+          <t>TC053</t>
+        </is>
+      </c>
+      <c r="C58" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, invalid URL in 08-3827</t>
+        </is>
+      </c>
+      <c r="D58" s="70" t="inlineStr">
+        <is>
+          <t>Verify behavior with invalid URL</t>
+        </is>
+      </c>
+      <c r="E58" s="61" t="inlineStr">
+        <is>
+          <t>1. Set 08-3827 to an invalid URL format
+2. Trigger SCC communication
+3. Observe MFP behavior</t>
+        </is>
+      </c>
+      <c r="F58" s="62" t="inlineStr">
+        <is>
+          <t>Network error should occur, and MFP should not access NA server</t>
+        </is>
+      </c>
+      <c r="G58" s="58" t="inlineStr"/>
+      <c r="H58" s="59" t="inlineStr"/>
       <c r="I58" s="53" t="n"/>
     </row>
     <row r="59" ht="99.75" customHeight="1">
-      <c r="B59" s="57" t="n"/>
-      <c r="C59" s="60" t="n"/>
-      <c r="D59" s="70" t="n"/>
-      <c r="E59" s="61" t="n"/>
-      <c r="F59" s="62" t="n"/>
-      <c r="G59" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H59" s="59" t="n"/>
+      <c r="B59" s="57" t="inlineStr">
+        <is>
+          <t>TC054</t>
+        </is>
+      </c>
+      <c r="C59" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, URL without http/https prefix</t>
+        </is>
+      </c>
+      <c r="D59" s="70" t="inlineStr">
+        <is>
+          <t>Verify behavior with URL missing protocol</t>
+        </is>
+      </c>
+      <c r="E59" s="61" t="inlineStr">
+        <is>
+          <t>1. Set 08-3827 to URL without http/https prefix
+2. Trigger SCC communication
+3. Observe MFP behavior</t>
+        </is>
+      </c>
+      <c r="F59" s="62" t="inlineStr">
+        <is>
+          <t>Network error should occur, and MFP should not access NA server</t>
+        </is>
+      </c>
+      <c r="G59" s="58" t="inlineStr"/>
+      <c r="H59" s="59" t="inlineStr"/>
       <c r="I59" s="53" t="n"/>
     </row>
     <row r="60" ht="99.75" customHeight="1">
-      <c r="B60" s="57" t="n"/>
-      <c r="C60" s="60" t="n"/>
-      <c r="D60" s="70" t="n"/>
-      <c r="E60" s="61" t="n"/>
-      <c r="F60" s="62" t="n"/>
-      <c r="G60" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H60" s="59" t="n"/>
+      <c r="B60" s="57" t="inlineStr">
+        <is>
+          <t>TC055</t>
+        </is>
+      </c>
+      <c r="C60" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, HTTPS URL without imported certificate</t>
+        </is>
+      </c>
+      <c r="D60" s="70" t="inlineStr">
+        <is>
+          <t>Verify behavior with HTTPS URL lacking certificate</t>
+        </is>
+      </c>
+      <c r="E60" s="61" t="inlineStr">
+        <is>
+          <t>1. Set 08-3827 to HTTPS URL without importing certificate
+2. Trigger SCC communication
+3. Observe MFP behavior</t>
+        </is>
+      </c>
+      <c r="F60" s="62" t="inlineStr">
+        <is>
+          <t>Communication should fail due to missing certificate</t>
+        </is>
+      </c>
+      <c r="G60" s="58" t="inlineStr"/>
+      <c r="H60" s="59" t="inlineStr"/>
       <c r="I60" s="53" t="n"/>
     </row>
     <row r="61" ht="99.75" customHeight="1">
-      <c r="B61" s="57" t="n"/>
-      <c r="C61" s="60" t="n"/>
-      <c r="D61" s="70" t="n"/>
-      <c r="E61" s="61" t="n"/>
-      <c r="F61" s="62" t="n"/>
-      <c r="G61" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H61" s="59" t="n"/>
+      <c r="B61" s="57" t="inlineStr">
+        <is>
+          <t>TC056</t>
+        </is>
+      </c>
+      <c r="C61" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, power failure during firmware update wait</t>
+        </is>
+      </c>
+      <c r="D61" s="70" t="inlineStr">
+        <is>
+          <t>Verify firmware update behavior after power failure</t>
+        </is>
+      </c>
+      <c r="E61" s="61" t="inlineStr">
+        <is>
+          <t>1. Schedule firmware update
+2. Power off MFP before scheduled time
+3. Power on MFP after scheduled time
+4. Observe MFP behavior</t>
+        </is>
+      </c>
+      <c r="F61" s="62" t="inlineStr">
+        <is>
+          <t>For L6.15+: Firmware update should be rescheduled for same time next day
+Before L6.15: Firmware update should execute 1 hour after reboot</t>
+        </is>
+      </c>
+      <c r="G61" s="58" t="inlineStr"/>
+      <c r="H61" s="59" t="inlineStr"/>
       <c r="I61" s="53" t="n"/>
     </row>
     <row r="62" ht="99.75" customHeight="1">
-      <c r="B62" s="57" t="n"/>
-      <c r="C62" s="60" t="n"/>
-      <c r="D62" s="70" t="n"/>
-      <c r="E62" s="61" t="n"/>
-      <c r="F62" s="62" t="n"/>
-      <c r="G62" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H62" s="59" t="n"/>
+      <c r="B62" s="57" t="inlineStr">
+        <is>
+          <t>TC057</t>
+        </is>
+      </c>
+      <c r="C62" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, hibernation about to occur</t>
+        </is>
+      </c>
+      <c r="D62" s="70" t="inlineStr">
+        <is>
+          <t>Verify MFP does not enter hibernation during communication</t>
+        </is>
+      </c>
+      <c r="E62" s="61" t="inlineStr">
+        <is>
+          <t>1. Trigger SCC communication
+2. Attempt to put MFP in hibernation state
+3. Observe MFP behavior</t>
+        </is>
+      </c>
+      <c r="F62" s="62" t="inlineStr">
+        <is>
+          <t>MFP should not enter hibernation during communication cycle</t>
+        </is>
+      </c>
+      <c r="G62" s="58" t="inlineStr"/>
+      <c r="H62" s="59" t="inlineStr"/>
       <c r="I62" s="53" t="n"/>
     </row>
     <row r="63" ht="99.75" customHeight="1">
-      <c r="B63" s="57" t="n"/>
-      <c r="C63" s="60" t="n"/>
-      <c r="D63" s="70" t="n"/>
-      <c r="E63" s="61" t="n"/>
-      <c r="F63" s="62" t="n"/>
-      <c r="G63" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H63" s="59" t="n"/>
+      <c r="B63" s="57" t="inlineStr">
+        <is>
+          <t>TC058</t>
+        </is>
+      </c>
+      <c r="C63" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, persistent policy expiration configured</t>
+        </is>
+      </c>
+      <c r="D63" s="70" t="inlineStr">
+        <is>
+          <t>Verify persistent policy expiration functionality</t>
+        </is>
+      </c>
+      <c r="E63" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure persistent policy with expiration
+2. Wait for expiration period
+3. Change settings locally
+4. Verify if settings are restored</t>
+        </is>
+      </c>
+      <c r="F63" s="62" t="inlineStr">
+        <is>
+          <t>Settings should not be restored after persistent policy expiration</t>
+        </is>
+      </c>
+      <c r="G63" s="58" t="inlineStr"/>
+      <c r="H63" s="59" t="inlineStr"/>
       <c r="I63" s="53" t="n"/>
     </row>
     <row r="64" ht="99.75" customHeight="1">
-      <c r="B64" s="57" t="n"/>
-      <c r="C64" s="60" t="n"/>
-      <c r="D64" s="70" t="n"/>
-      <c r="E64" s="61" t="n"/>
-      <c r="F64" s="62" t="n"/>
-      <c r="G64" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H64" s="59" t="n"/>
+      <c r="B64" s="57" t="inlineStr">
+        <is>
+          <t>TC059</t>
+        </is>
+      </c>
+      <c r="C64" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, event occurs and cancels immediately</t>
+        </is>
+      </c>
+      <c r="D64" s="70" t="inlineStr">
+        <is>
+          <t>Verify event notification behavior for quickly canceled events</t>
+        </is>
+      </c>
+      <c r="E64" s="61" t="inlineStr">
+        <is>
+          <t>1. Trigger an event that cancels immediately
+2. Observe if event is notified to server</t>
+        </is>
+      </c>
+      <c r="F64" s="62" t="inlineStr">
+        <is>
+          <t>Event may not be notified if SCC error notification process is in busy state</t>
+        </is>
+      </c>
+      <c r="G64" s="58" t="inlineStr"/>
+      <c r="H64" s="59" t="inlineStr"/>
       <c r="I64" s="53" t="n"/>
     </row>
     <row r="65" ht="99.75" customHeight="1">
-      <c r="B65" s="57" t="n"/>
-      <c r="C65" s="60" t="n"/>
-      <c r="D65" s="70" t="n"/>
-      <c r="E65" s="61" t="n"/>
-      <c r="F65" s="62" t="n"/>
-      <c r="G65" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H65" s="59" t="n"/>
+      <c r="B65" s="57" t="inlineStr">
+        <is>
+          <t>TC060</t>
+        </is>
+      </c>
+      <c r="C65" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, F-category error occurs</t>
+        </is>
+      </c>
+      <c r="D65" s="70" t="inlineStr">
+        <is>
+          <t>Verify behavior when F-category error occurs</t>
+        </is>
+      </c>
+      <c r="E65" s="61" t="inlineStr">
+        <is>
+          <t>1. Trigger F-category error
+2. Observe if error is sent to server</t>
+        </is>
+      </c>
+      <c r="F65" s="62" t="inlineStr">
+        <is>
+          <t>Device should not be able to send error to server due to network unavailability</t>
+        </is>
+      </c>
+      <c r="G65" s="58" t="inlineStr"/>
+      <c r="H65" s="59" t="inlineStr"/>
       <c r="I65" s="53" t="n"/>
     </row>
     <row r="66" ht="99.75" customHeight="1">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10250,28 +10250,25 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on and in normal boot-up mode</t>
+          <t>MFP is in normal boot-up mode</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC function can be enabled/disabled through Self-diagnostic boot-up mode</t>
+          <t>Verify SCC function enable/disable setting</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
           <t>1. Enter Self-diagnostic boot-up mode
-2. Set 08-3820 to 1 (Enable)
-3. Reboot the MFP
-4. Verify SCC function is enabled
-5. Enter Self-diagnostic boot-up mode again
-6. Set 08-3820 to 0 (Disable)
-7. Reboot the MFP</t>
+2. Navigate to SCC function setting (08-3820)
+3. Change setting from "Disable" to "Enable"
+4. Reboot the MFP</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>SCC function should be enabled when 08-3820 is set to 1 and disabled when set to 0</t>
+          <t>SCC function should be enabled after reboot</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10290,24 +10287,22 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on and in normal boot-up mode</t>
+          <t>SCC function is disabled</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC function cannot be enabled/disabled from TA or STAGE2 IF</t>
+          <t>Verify SCC function can't be enabled from normal mode</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Log in to TopAccess as administrator
-2. Check if there is any option to enable/disable SCC
-3. Try to enable/disable SCC via STAGE2 IF</t>
+          <t>1. Try to enable SCC function from TA or STAGE2 IF in normal boot-up mode</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>No option to enable/disable SCC should be available in TopAccess or via STAGE2 IF</t>
+          <t>Administrator should not be able to enable/disable SCC from normal mode</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10322,31 +10317,31 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on and in normal boot-up mode</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC Proxy Server Setting can be configured</t>
+          <t>Verify SCC Proxy Server setting</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
           <t>1. Enter Self-diagnostic boot-up mode
-2. Configure SCC Proxy Server settings (08-3822 to 08-3826)
-3. Reboot the MFP
-4. Verify proxy settings are applied</t>
+2. Navigate to SCC Proxy Server setting (08-3822 to 08-3826)
+3. Configure proxy settings
+4. Reboot the MFP</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Proxy server settings should be configurable only through Self-diagnostic mode</t>
+          <t>Proxy settings should be applied correctly</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
       <c r="H8" s="59" t="inlineStr">
         <is>
-          <t>Default value should be "Disable"</t>
+          <t>Default should be "Disable"</t>
         </is>
       </c>
       <c r="I8" s="53" t="n"/>
@@ -10359,20 +10354,19 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on and in normal boot-up mode</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC first registration URL can be configured</t>
+          <t>Verify SCC first registration URL setting</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
           <t>1. Enter Self-diagnostic boot-up mode
-2. Set 08-3827 to a valid URL
-3. Reboot the MFP
-4. Verify the MFP attempts to connect to the specified URL</t>
+2. Set 08-3827 to a custom URL
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
@@ -10383,7 +10377,7 @@
       <c r="G9" s="58" t="inlineStr"/>
       <c r="H9" s="59" t="inlineStr">
         <is>
-          <t>Default value should be NULL string</t>
+          <t>Default value should be NULL</t>
         </is>
       </c>
       <c r="I9" s="53" t="n"/>
@@ -10396,25 +10390,24 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on and in normal boot-up mode</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify URL forward setting can be configured</t>
+          <t>Verify URL forward setting</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
           <t>1. Enter Self-diagnostic boot-up mode
-2. Set 08-3828 to 0 (Disable)
-3. Reboot the MFP
-4. Verify the MFP does not redirect to another URL</t>
+2. Set 08-3828 to "0" (Disable)
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>MFP should not redirect to another URL when URL forward setting is disabled</t>
+          <t>MFP should not connect to a server specified by redirect</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10434,26 +10427,26 @@
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC Installation Report is printed when SCC function is enabled for the first time</t>
+          <t>Verify SCC installation report printing</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
           <t>1. Enter Self-diagnostic boot-up mode
-2. Set 08-3820 from 0 (Disable) to 1 (Enable)
+2. Change 08-3820 from "0" (Disable) to "1" (Enable)
 3. Reboot the MFP
-4. Wait for MFP registration processing to complete</t>
+4. Wait for MFP registration processing</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>Installation report should be automatically printed after MFP registration processing is executed</t>
+          <t>Installation report should be printed automatically after registration</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
       <c r="H11" s="59" t="inlineStr">
         <is>
-          <t>Report should include: Model Name, Serial Number, IP Address, MAC Address, SCC Version, Date/Time</t>
+          <t>Report should print only once when enabling SCC</t>
         </is>
       </c>
       <c r="I11" s="53" t="n"/>
@@ -10466,23 +10459,24 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>SCC function is already enabled</t>
+          <t>SCC function is enabled, MFP is registered</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC Installation Report is not printed when SCC is already enabled</t>
+          <t>Verify SCC installation report is not printed again</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. With SCC already enabled, reboot the MFP
-2. Observe if installation report is printed</t>
+          <t>1. Disable SCC function
+2. Re-enable SCC function
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>Installation report should not be printed when SCC is already enabled</t>
+          <t>Installation report should not be printed again</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10497,29 +10491,32 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, network print restriction mode is set to "only private"</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC Installation Report behavior with print restrictions</t>
+          <t>Verify installation report content</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-9344 (network print restriction mode) to 1 (only private)
-2. Disable SCC function
-3. Enable SCC function
-4. Check if installation report is printed</t>
+          <t>1. Enable SCC function
+2. Wait for installation report to print
+3. Check the printed report</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>Installation report should not be printed, and job log should show error code 4221</t>
+          <t>Report should contain: SCC Module, Serial Number, MAC Address, IP Address, Subnet Mask, Gateway, Date/Time, and Registration Status</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
-      <c r="H13" s="59" t="inlineStr"/>
+      <c r="H13" s="59" t="inlineStr">
+        <is>
+          <t>Report should be in English only</t>
+        </is>
+      </c>
       <c r="I13" s="53" t="n"/>
     </row>
     <row r="14" ht="99.75" customHeight="1">
@@ -10530,24 +10527,23 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>SCC function is enabled, network print restriction mode (08-9344) set to "1" (only private)</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify HTTPS communication protocol is used for server communication</t>
+          <t>Verify installation report with print restriction</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Enable network packet capture
-2. Trigger SCC communication with server
-3. Analyze captured packets</t>
+          <t>1. Enable SCC function
+2. Wait for installation report to print</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>All communication between MFP and server should use HTTPS protocol</t>
+          <t>SCC report should not be printed, job log should show error code 4221</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10562,25 +10558,23 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, proxy server is configured</t>
+          <t>SCC function is enabled, user authentication enabled, quota for built-in admin exhausted</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify communication through proxy server</t>
+          <t>Verify installation report with quota restriction</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy server settings (08-3822 to 08-3826)
-2. Configure firewall to require proxy for outbound connections
-3. Trigger SCC communication
-4. Verify communication succeeds through proxy</t>
+          <t>1. Enable SCC function
+2. Wait for installation report to print</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully communicate with SCC server through the configured proxy</t>
+          <t>SCC report should not be printed due to quota error</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10595,24 +10589,24 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, port 443 is blocked</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify automatic fallback to port 8443</t>
+          <t>Verify HTTPS communication protocol</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Block port 443 on the firewall
-2. Trigger SCC communication
-3. Monitor network traffic</t>
+          <t>1. Enable SCC function
+2. Monitor network traffic during SCC communication
+3. Verify protocol used</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>MFP should automatically use port 8443 when port 443 is not available</t>
+          <t>MFP should use HTTPS for communication with servers</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10632,18 +10626,19 @@
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC process does not start in special startup mode</t>
+          <t>Verify SSL certificate validation</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Boot the MFP in special startup mode
-2. Check if SCC process is running</t>
+          <t>1. Enable SCC function
+2. Configure MFP to connect to a server with invalid certificate
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>SCC process should not start in special startup mode</t>
+          <t>MFP should reject connection with invalid certificate</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10658,31 +10653,28 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>SCC function is enabled, proxy server requires authentication</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication loop operates according to schedule</t>
+          <t>Verify proxy authentication</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Set regular communication schedule to a specific time
-2. Monitor network traffic at the scheduled time</t>
+          <t>1. Configure proxy server settings with authentication
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>MFP should initiate communication with the server at the scheduled time</t>
+          <t>MFP should authenticate with proxy server successfully</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
-      <c r="H18" s="59" t="inlineStr">
-        <is>
-          <t>Default schedule is "every day at 0:00"</t>
-        </is>
-      </c>
+      <c r="H18" s="59" t="inlineStr"/>
       <c r="I18" s="53" t="n"/>
     </row>
     <row r="19" ht="99.75" customHeight="1">
@@ -10693,23 +10685,24 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>SCC function is enabled, port 443 is blocked</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify event notification loop operates when an event occurs</t>
+          <t>Verify alternate port usage</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger a device error event
-2. Monitor network traffic</t>
+          <t>1. Block port 443 on firewall
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>MFP should immediately initiate communication with the server to notify the event</t>
+          <t>MFP should automatically use port 8443</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10724,23 +10717,23 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, MFP not registered</t>
+          <t>MFP is in special startup mode</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify first-time MFP registration sequence</t>
+          <t>Verify SCC process startup</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC on an unregistered MFP
-2. Monitor registration communication sequence</t>
+          <t>1. Boot MFP in special startup mode
+2. Check if SCC process starts</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>MFP should send registration request, receive secret question, answer correctly, and complete registration</t>
+          <t>SCC process should not start in special startup mode</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10755,27 +10748,31 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, MFP already registered</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify authentication sequence for registered MFP</t>
+          <t>Verify regular communication loop timing</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger communication with server on a registered MFP
-2. Monitor authentication sequence</t>
+          <t>1. Enable SCC function
+2. Monitor communication at specified schedule time</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>MFP should connect using the token received during registration</t>
+          <t>MFP should communicate with server at scheduled time</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
-      <c r="H21" s="59" t="inlineStr"/>
+      <c r="H21" s="59" t="inlineStr">
+        <is>
+          <t>Default schedule is "every day at 0:00"</t>
+        </is>
+      </c>
       <c r="I21" s="53" t="n"/>
     </row>
     <row r="22" ht="99.75" customHeight="1">
@@ -10786,24 +10783,24 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, server is busy</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify retry behavior when server is busy</t>
+          <t>Verify event notification loop</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate server busy condition
-2. Trigger communication with server
-3. Monitor retry attempts</t>
+          <t>1. Enable SCC function
+2. Trigger a device error
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry connection with increasing intervals up to 3 times</t>
+          <t>MFP should immediately notify server of the error event</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
@@ -10818,24 +10815,23 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>SCC function is enabled, MFP not registered</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify Check for Updates functionality</t>
+          <t>Verify first-time registration sequence</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger regular communication cycle
-2. Monitor Check for Updates request
-3. Verify MFP sends correct parameters</t>
+          <t>1. Enable SCC function on unregistered MFP
+2. Monitor registration process</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>MFP should send correct parameters and process server response appropriately</t>
+          <t>MFP should register with server using proper authentication sequence</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
@@ -10850,24 +10846,23 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, update package available</t>
+          <t>SCC function is enabled, MFP already registered</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Verify Download Package functionality</t>
+          <t>Verify authentication sequence</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide an update package
-2. Trigger regular communication cycle
-3. Monitor package download</t>
+          <t>1. Enable SCC function on registered MFP
+2. Monitor authentication process</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>MFP should download the package and verify its hash value</t>
+          <t>MFP should authenticate with server using token</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10882,27 +10877,32 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, firmware update package downloaded</t>
+          <t>SCC function is enabled, server is busy</t>
         </is>
       </c>
       <c r="D25" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update installation</t>
+          <t>Verify server busy handling</t>
         </is>
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Download firmware update package
-2. Monitor installation process</t>
+          <t>1. Simulate server busy condition
+2. Enable SCC function
+3. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>MFP should install the firmware update at the scheduled time and reboot</t>
+          <t>MFP should retry connection with increasing intervals</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
-      <c r="H25" s="59" t="inlineStr"/>
+      <c r="H25" s="59" t="inlineStr">
+        <is>
+          <t>MFP should retry up to 3 times</t>
+        </is>
+      </c>
       <c r="I25" s="53" t="n"/>
     </row>
     <row r="26" ht="99.75" customHeight="1">
@@ -10913,23 +10913,23 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, policy violation data package downloaded</t>
+          <t>SCC function is enabled, MFP serial number not registered to server</t>
         </is>
       </c>
       <c r="D26" s="70" t="inlineStr">
         <is>
-          <t>Verify policy violation data installation</t>
+          <t>Verify registration failure handling</t>
         </is>
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Download policy violation data package
-2. Monitor installation process</t>
+          <t>1. Enable SCC function with unregistered serial number
+2. Monitor registration process</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>MFP should apply the policy settings correctly</t>
+          <t>Registration should fail, installation report should print</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
@@ -10944,23 +10944,23 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, restore data package downloaded</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Verify restore data installation</t>
+          <t>Verify Check for Updates functionality</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Download restore data package
-2. Monitor installation process</t>
+          <t>1. Enable SCC function
+2. Monitor Check for Updates process</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>MFP should restore the specified settings correctly</t>
+          <t>MFP should check for updates after successful registration</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
@@ -10975,23 +10975,24 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, clone file package downloaded</t>
+          <t>SCC function is enabled, update available</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Verify clone file installation</t>
+          <t>Verify Download Package functionality</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Download clone file package
-2. Monitor installation process</t>
+          <t>1. Enable SCC function
+2. Simulate update available
+3. Monitor download process</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>MFP should apply the clone settings correctly</t>
+          <t>MFP should download update package</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
@@ -11006,23 +11007,24 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, customized UI package downloaded</t>
+          <t>SCC function is enabled, download in progress</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Verify customized UI installation</t>
+          <t>Verify hash validation</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Download customized UI package
-2. Monitor installation process</t>
+          <t>1. Enable SCC function
+2. Simulate update with incorrect hash
+3. Monitor download process</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>MFP should install the customized UI correctly</t>
+          <t>MFP should delete downloaded data and exit communication cycle</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
@@ -11037,23 +11039,23 @@
       </c>
       <c r="C30" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, application package downloaded</t>
+          <t>SCC function is enabled, update package downloaded</t>
         </is>
       </c>
       <c r="D30" s="70" t="inlineStr">
         <is>
-          <t>Verify application installation</t>
+          <t>Verify Send Baseline Data functionality</t>
         </is>
       </c>
       <c r="E30" s="61" t="inlineStr">
         <is>
-          <t>1. Download application package
-2. Monitor installation process</t>
+          <t>1. Enable SCC function
+2. Monitor Send Baseline Data process</t>
         </is>
       </c>
       <c r="F30" s="62" t="inlineStr">
         <is>
-          <t>MFP should install the application correctly</t>
+          <t>MFP should send baseline data to server</t>
         </is>
       </c>
       <c r="G30" s="58" t="inlineStr"/>
@@ -11068,23 +11070,24 @@
       </c>
       <c r="C31" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, license package downloaded</t>
+          <t>SCC function is enabled, firmware update package downloaded</t>
         </is>
       </c>
       <c r="D31" s="70" t="inlineStr">
         <is>
-          <t>Verify license installation</t>
+          <t>Verify firmware update installation</t>
         </is>
       </c>
       <c r="E31" s="61" t="inlineStr">
         <is>
-          <t>1. Download license package
-2. Monitor installation process</t>
+          <t>1. Enable SCC function
+2. Simulate firmware update package
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F31" s="62" t="inlineStr">
         <is>
-          <t>MFP should install the license correctly</t>
+          <t>MFP should install firmware update at scheduled time</t>
         </is>
       </c>
       <c r="G31" s="58" t="inlineStr"/>
@@ -11099,23 +11102,24 @@
       </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, custom user paper type package downloaded</t>
+          <t>SCC function is enabled, clone file update package downloaded</t>
         </is>
       </c>
       <c r="D32" s="70" t="inlineStr">
         <is>
-          <t>Verify custom user paper type installation</t>
+          <t>Verify clone file installation</t>
         </is>
       </c>
       <c r="E32" s="61" t="inlineStr">
         <is>
-          <t>1. Download custom user paper type package
-2. Monitor installation process</t>
+          <t>1. Enable SCC function
+2. Simulate clone file update package
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F32" s="62" t="inlineStr">
         <is>
-          <t>MFP should install the custom user paper type correctly</t>
+          <t>MFP should apply clone settings</t>
         </is>
       </c>
       <c r="G32" s="58" t="inlineStr"/>
@@ -11130,7 +11134,7 @@
       </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, update package downloaded</t>
+          <t>SCC function is enabled, update installed</t>
         </is>
       </c>
       <c r="D33" s="70" t="inlineStr">
@@ -11140,13 +11144,14 @@
       </c>
       <c r="E33" s="61" t="inlineStr">
         <is>
-          <t>1. Install an update package
-2. Monitor Update Status notification</t>
+          <t>1. Enable SCC function
+2. Simulate update installation
+3. Monitor Update Status process</t>
         </is>
       </c>
       <c r="F33" s="62" t="inlineStr">
         <is>
-          <t>MFP should send correct update status to server</t>
+          <t>MFP should notify server of installation status</t>
         </is>
       </c>
       <c r="G33" s="58" t="inlineStr"/>
@@ -11161,23 +11166,23 @@
       </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>SCC function is enabled, update status sent</t>
         </is>
       </c>
       <c r="D34" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Baseline Data functionality</t>
+          <t>Verify Send Regular Data functionality</t>
         </is>
       </c>
       <c r="E34" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger regular communication cycle
-2. Monitor Baseline Data transmission</t>
+          <t>1. Enable SCC function
+2. Monitor Send Regular Data process</t>
         </is>
       </c>
       <c r="F34" s="62" t="inlineStr">
         <is>
-          <t>MFP should collect and send all required baseline data to server</t>
+          <t>MFP should send regular data to server</t>
         </is>
       </c>
       <c r="G34" s="58" t="inlineStr"/>
@@ -11192,23 +11197,24 @@
       </c>
       <c r="C35" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>SCC function is enabled, device error occurs</t>
         </is>
       </c>
       <c r="D35" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Regular Data functionality</t>
+          <t>Verify Send Device Error functionality</t>
         </is>
       </c>
       <c r="E35" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger regular communication cycle
-2. Monitor Regular Data transmission</t>
+          <t>1. Enable SCC function
+2. Trigger device error
+3. Monitor Send Device Error process</t>
         </is>
       </c>
       <c r="F35" s="62" t="inlineStr">
         <is>
-          <t>MFP should collect and send all required regular data to server</t>
+          <t>MFP should send error information to server</t>
         </is>
       </c>
       <c r="G35" s="58" t="inlineStr"/>
@@ -11223,23 +11229,24 @@
       </c>
       <c r="C36" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, device error occurs</t>
+          <t>SCC function is enabled, same error occurs multiple times</t>
         </is>
       </c>
       <c r="D36" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Device Error functionality</t>
+          <t>Verify duplicate error handling</t>
         </is>
       </c>
       <c r="E36" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger a device error
-2. Monitor Device Error notification</t>
+          <t>1. Enable SCC function
+2. Trigger same device error multiple times
+3. Monitor Send Device Error process</t>
         </is>
       </c>
       <c r="F36" s="62" t="inlineStr">
         <is>
-          <t>MFP should send error details to server immediately</t>
+          <t>MFP should not send duplicate errors unless they are removed</t>
         </is>
       </c>
       <c r="G36" s="58" t="inlineStr"/>
@@ -11254,27 +11261,33 @@
       </c>
       <c r="C37" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, same device error occurs multiple times</t>
+          <t>SCC function is enabled, error resolved without power off</t>
         </is>
       </c>
       <c r="D37" s="70" t="inlineStr">
         <is>
-          <t>Verify duplicate error handling</t>
+          <t>Verify error resolution notification</t>
         </is>
       </c>
       <c r="E37" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger the same device error multiple times
-2. Monitor Device Error notifications</t>
+          <t>1. Enable SCC function
+2. Trigger device error
+3. Resolve error without power off
+4. Monitor Send Device Error process</t>
         </is>
       </c>
       <c r="F37" s="62" t="inlineStr">
         <is>
-          <t>MFP should not send duplicate error notifications for the same error</t>
+          <t>MFP should notify server of error resolution with "-" prefix</t>
         </is>
       </c>
       <c r="G37" s="58" t="inlineStr"/>
-      <c r="H37" s="59" t="inlineStr"/>
+      <c r="H37" s="59" t="inlineStr">
+        <is>
+          <t>Example: -D102</t>
+        </is>
+      </c>
       <c r="I37" s="53" t="n"/>
     </row>
     <row r="38" ht="99.75" customHeight="1">
@@ -11285,24 +11298,24 @@
       </c>
       <c r="C38" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, device error is resolved</t>
+          <t>SCC function is enabled, RequestServiceFiles=true received</t>
         </is>
       </c>
       <c r="D38" s="70" t="inlineStr">
         <is>
-          <t>Verify error resolution notification</t>
+          <t>Verify Send Service File functionality</t>
         </is>
       </c>
       <c r="E38" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger a device error
-2. Resolve the error without power off
-3. Monitor Device Error notifications</t>
+          <t>1. Enable SCC function
+2. Simulate RequestServiceFiles=true response
+3. Monitor Send Service File process</t>
         </is>
       </c>
       <c r="F38" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify server of error resolution with "-" prefix (e.g., -D102)</t>
+          <t>MFP should send service files to server</t>
         </is>
       </c>
       <c r="G38" s="58" t="inlineStr"/>
@@ -11317,24 +11330,24 @@
       </c>
       <c r="C39" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, server requests service files</t>
+          <t>SCC function is enabled, SCC process active</t>
         </is>
       </c>
       <c r="D39" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Service File functionality</t>
+          <t>Verify Super Sleep interaction</t>
         </is>
       </c>
       <c r="E39" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to request service files
-2. Trigger device error notification
-3. Monitor Service File transmission</t>
+          <t>1. Enable SCC function
+2. Start SCC communication
+3. Try to enter Super Sleep</t>
         </is>
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>MFP should send ZIP file containing service files to server</t>
+          <t>MFP should not enter Power save, Sleep or Super Sleep during communication</t>
         </is>
       </c>
       <c r="G39" s="58" t="inlineStr"/>
@@ -11354,19 +11367,19 @@
       </c>
       <c r="D40" s="70" t="inlineStr">
         <is>
-          <t>Verify MFP wakes from Super Sleep for scheduled communication</t>
+          <t>Verify Super Sleep recovery for scheduled communication</t>
         </is>
       </c>
       <c r="E40" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in Super Sleep state
-2. Wait for scheduled communication time
-3. Observe MFP behavior</t>
+          <t>1. Enable SCC function
+2. Put MFP in Super Sleep
+3. Wait for scheduled communication time</t>
         </is>
       </c>
       <c r="F40" s="62" t="inlineStr">
         <is>
-          <t>MFP should wake from Super Sleep, perform communication, then return to Super Sleep</t>
+          <t>MFP should wake up from Super Sleep and communicate with server</t>
         </is>
       </c>
       <c r="G40" s="58" t="inlineStr"/>
@@ -11381,24 +11394,24 @@
       </c>
       <c r="C41" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, MFP about to enter Super Sleep</t>
+          <t>SCC function is enabled, MFP in Super Sleep</t>
         </is>
       </c>
       <c r="D41" s="70" t="inlineStr">
         <is>
-          <t>Verify MFP does not enter Super Sleep during communication</t>
+          <t>Verify event detection during Super Sleep</t>
         </is>
       </c>
       <c r="E41" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Attempt to put MFP in Super Sleep state
-3. Observe MFP behavior</t>
+          <t>1. Enable SCC function
+2. Put MFP in Super Sleep
+3. Trigger an event</t>
         </is>
       </c>
       <c r="F41" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter Super Sleep during communication cycle</t>
+          <t>MFP should not detect events during Super Sleep</t>
         </is>
       </c>
       <c r="G41" s="58" t="inlineStr"/>
@@ -11413,25 +11426,24 @@
       </c>
       <c r="C42" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, persistent policy configured</t>
+          <t>SCC function is enabled, SCC process active</t>
         </is>
       </c>
       <c r="D42" s="70" t="inlineStr">
         <is>
-          <t>Verify persistent policy check functionality</t>
+          <t>Verify Hibernation interaction</t>
         </is>
       </c>
       <c r="E42" s="61" t="inlineStr">
         <is>
-          <t>1. Configure persistent policy with interval
-2. Change settings locally
-3. Wait for persistent policy check
-4. Verify settings</t>
+          <t>1. Enable SCC function
+2. Start SCC communication
+3. Try to enter Hibernation</t>
         </is>
       </c>
       <c r="F42" s="62" t="inlineStr">
         <is>
-          <t>Settings should be restored to policy values after local changes</t>
+          <t>MFP should not enter Hibernation during communication</t>
         </is>
       </c>
       <c r="G42" s="58" t="inlineStr"/>
@@ -11446,23 +11458,24 @@
       </c>
       <c r="C43" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, time-based device state configured</t>
+          <t>SCC function is enabled, Persistent Policy enabled</t>
         </is>
       </c>
       <c r="D43" s="70" t="inlineStr">
         <is>
-          <t>Verify time-based device state functionality</t>
+          <t>Verify Persistent Policy check</t>
         </is>
       </c>
       <c r="E43" s="61" t="inlineStr">
         <is>
-          <t>1. Configure time-based values for settings
-2. Observe setting changes at specified times</t>
+          <t>1. Enable SCC function with Persistent Policy
+2. Change 08/05/13 settings locally
+3. Wait for persistent check interval</t>
         </is>
       </c>
       <c r="F43" s="62" t="inlineStr">
         <is>
-          <t>Settings should change automatically at the specified times</t>
+          <t>MFP should revert settings to policy values</t>
         </is>
       </c>
       <c r="G43" s="58" t="inlineStr"/>
@@ -11477,24 +11490,24 @@
       </c>
       <c r="C44" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, first-time connection</t>
+          <t>SCC function is enabled, Persistent Policy enabled with expiration</t>
         </is>
       </c>
       <c r="D44" s="70" t="inlineStr">
         <is>
-          <t>Verify IP Redirect functionality</t>
+          <t>Verify Persistent Policy expiration</t>
         </is>
       </c>
       <c r="E44" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP for first-time connection
-2. Monitor GetRedirectURL request
-3. Verify MFP follows redirect</t>
+          <t>1. Enable SCC function with Persistent Policy and expiration
+2. Wait for expiration period
+3. Change 08/05/13 settings locally</t>
         </is>
       </c>
       <c r="F44" s="62" t="inlineStr">
         <is>
-          <t>MFP should request redirect URL and connect to appropriate regional server</t>
+          <t>Persistent policy check should stop after expiration</t>
         </is>
       </c>
       <c r="G44" s="58" t="inlineStr"/>
@@ -11509,24 +11522,23 @@
       </c>
       <c r="C45" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, communication error occurs</t>
+          <t>SCC function is enabled, Time-based Device State enabled</t>
         </is>
       </c>
       <c r="D45" s="70" t="inlineStr">
         <is>
-          <t>Verify retry behavior for communication errors</t>
+          <t>Verify Time-based value changes</t>
         </is>
       </c>
       <c r="E45" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate network error during communication
-2. Monitor retry attempts
-3. Verify retry mode behavior</t>
+          <t>1. Enable SCC function with Time-based values
+2. Monitor 08/05/13 code values at different times</t>
         </is>
       </c>
       <c r="F45" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry after 60 seconds, then enter retry mode with daily attempts</t>
+          <t>Values should change according to time schedule</t>
         </is>
       </c>
       <c r="G45" s="58" t="inlineStr"/>
@@ -11541,24 +11553,24 @@
       </c>
       <c r="C46" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, HTTP error occurs</t>
+          <t>SCC function is enabled, first-time connection</t>
         </is>
       </c>
       <c r="D46" s="70" t="inlineStr">
         <is>
-          <t>Verify retry behavior for HTTP errors</t>
+          <t>Verify IP Redirect functionality</t>
         </is>
       </c>
       <c r="E46" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate HTTP error from server
-2. Monitor retry attempts
-3. Verify retry mode behavior</t>
+          <t>1. Enable SCC function for first time
+2. Monitor GetRedirectURL request
+3. Verify redirection to appropriate regional server</t>
         </is>
       </c>
       <c r="F46" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry after 60 seconds, then enter retry mode with daily attempts</t>
+          <t>MFP should connect to appropriate regional server based on IP</t>
         </is>
       </c>
       <c r="G46" s="58" t="inlineStr"/>
@@ -11573,25 +11585,24 @@
       </c>
       <c r="C47" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, power failure during communication</t>
+          <t>SCC function is enabled, URL forward setting disabled</t>
         </is>
       </c>
       <c r="D47" s="70" t="inlineStr">
         <is>
-          <t>Verify recovery from power failure</t>
+          <t>Verify URL forward behavior when disabled</t>
         </is>
       </c>
       <c r="E47" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Simulate power failure during communication
-3. Restore power
-4. Observe MFP behavior</t>
+          <t>1. Set 08-3828 to "0" (Disable)
+2. Enable SCC function
+3. Monitor registration process</t>
         </is>
       </c>
       <c r="F47" s="62" t="inlineStr">
         <is>
-          <t>MFP should start normal communication cycle after power restoration</t>
+          <t>MFP should not follow URL redirects from server</t>
         </is>
       </c>
       <c r="G47" s="58" t="inlineStr"/>
@@ -11606,24 +11617,24 @@
       </c>
       <c r="C48" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, HDD full during package download</t>
+          <t>SCC function is enabled, communication error occurs</t>
         </is>
       </c>
       <c r="D48" s="70" t="inlineStr">
         <is>
-          <t>Verify behavior when HDD is full</t>
+          <t>Verify retry behavior</t>
         </is>
       </c>
       <c r="E48" s="61" t="inlineStr">
         <is>
-          <t>1. Fill MFP HDD to capacity
-2. Trigger package download
-3. Observe MFP behavior</t>
+          <t>1. Enable SCC function
+2. Simulate communication error
+3. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F48" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete downloaded data and exit communication cycle</t>
+          <t>MFP should retry after 60 seconds, then enter retry mode</t>
         </is>
       </c>
       <c r="G48" s="58" t="inlineStr"/>
@@ -11638,24 +11649,23 @@
       </c>
       <c r="C49" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, hash value mismatch</t>
+          <t>SCC function is enabled, in retry mode</t>
         </is>
       </c>
       <c r="D49" s="70" t="inlineStr">
         <is>
-          <t>Verify behavior when package hash value is incorrect</t>
+          <t>Verify daily retry in retry mode</t>
         </is>
       </c>
       <c r="E49" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate package with incorrect hash value
-2. Trigger package download
-3. Observe MFP behavior</t>
+          <t>1. Put MFP in retry mode
+2. Monitor communication attempts</t>
         </is>
       </c>
       <c r="F49" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete downloaded data and exit communication cycle</t>
+          <t>MFP should try to communicate once every 24 hours</t>
         </is>
       </c>
       <c r="G49" s="58" t="inlineStr"/>
@@ -11670,24 +11680,25 @@
       </c>
       <c r="C50" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, unzip failure</t>
+          <t>SCC function is enabled, in retry mode</t>
         </is>
       </c>
       <c r="D50" s="70" t="inlineStr">
         <is>
-          <t>Verify behavior when package unzip fails</t>
+          <t>Verify power failure during retry mode</t>
         </is>
       </c>
       <c r="E50" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate package that cannot be unzipped
-2. Trigger package download
-3. Observe MFP behavior</t>
+          <t>1. Put MFP in retry mode
+2. Simulate power failure
+3. Power on MFP
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F50" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete unzipped data and exit communication cycle</t>
+          <t>Retry mode should be cancelled, normal communication should resume</t>
         </is>
       </c>
       <c r="G50" s="58" t="inlineStr"/>
@@ -11702,23 +11713,24 @@
       </c>
       <c r="C51" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, installation failure</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D51" s="70" t="inlineStr">
         <is>
-          <t>Verify behavior when installation fails</t>
+          <t>Verify message log recording</t>
         </is>
       </c>
       <c r="E51" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate installation failure
-2. Observe MFP behavior</t>
+          <t>1. Enable SCC function
+2. Trigger various SCC events and errors
+3. Check message logs</t>
         </is>
       </c>
       <c r="F51" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify update result to server and schedule regular communication after 1 hour</t>
+          <t>Appropriate message logs should be recorded</t>
         </is>
       </c>
       <c r="G51" s="58" t="inlineStr"/>
@@ -11733,23 +11745,24 @@
       </c>
       <c r="C52" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, SSD model</t>
+          <t>SCC function is enabled, HDD nearly full</t>
         </is>
       </c>
       <c r="D52" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update behavior on SSD model</t>
+          <t>Verify HDD full handling</t>
         </is>
       </c>
       <c r="E52" s="61" t="inlineStr">
         <is>
-          <t>1. Attempt firmware update on SSD model
-2. Observe MFP behavior</t>
+          <t>1. Enable SCC function
+2. Fill HDD to near capacity
+3. Trigger download package</t>
         </is>
       </c>
       <c r="F52" s="62" t="inlineStr">
         <is>
-          <t>Firmware update should fail, and MFP should notify server of failure</t>
+          <t>MFP should delete downloaded data and exit communication cycle</t>
         </is>
       </c>
       <c r="G52" s="58" t="inlineStr"/>
@@ -11764,24 +11777,24 @@
       </c>
       <c r="C53" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, multiple updates with partial failure</t>
+          <t>SCC function is enabled, RDMS (BBR2) enabled</t>
         </is>
       </c>
       <c r="D53" s="70" t="inlineStr">
         <is>
-          <t>Verify behavior when some updates fail</t>
+          <t>Verify RDMS compatibility</t>
         </is>
       </c>
       <c r="E53" s="61" t="inlineStr">
         <is>
-          <t>1. Configure multiple updates with one set to fail
-2. Trigger update installation
-3. Observe MFP behavior</t>
+          <t>1. Enable SCC function
+2. Enable RDMS (BBR2)
+3. Test RDMS functionality</t>
         </is>
       </c>
       <c r="F53" s="62" t="inlineStr">
         <is>
-          <t>MFP should continue processing all updates and report results to server</t>
+          <t>RDMS should not work when SCC is enabled (for versions before L6.02/L6.03)</t>
         </is>
       </c>
       <c r="G53" s="58" t="inlineStr"/>
@@ -11796,23 +11809,24 @@
       </c>
       <c r="C54" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>SCC function is enabled, service UI in use</t>
         </is>
       </c>
       <c r="D54" s="70" t="inlineStr">
         <is>
-          <t>Verify panel message display during SCC processing</t>
+          <t>Verify service UI exclusivity</t>
         </is>
       </c>
       <c r="E54" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Observe panel display</t>
+          <t>1. Enable SCC function
+2. Access service UI
+3. Trigger SCC communication</t>
         </is>
       </c>
       <c r="F54" s="62" t="inlineStr">
         <is>
-          <t>Panel should display "Service in progress. Please do not turn off: XX" with appropriate status code</t>
+          <t>Service UI should not be usable during SCC communication</t>
         </is>
       </c>
       <c r="G54" s="58" t="inlineStr"/>
@@ -11827,23 +11841,24 @@
       </c>
       <c r="C55" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, firmware update in progress</t>
+          <t>SCC function is enabled, 08-3827 value doesn't start with "http://" or "https://"</t>
         </is>
       </c>
       <c r="D55" s="70" t="inlineStr">
         <is>
-          <t>Verify popup window display during firmware update</t>
+          <t>Verify invalid URL handling</t>
         </is>
       </c>
       <c r="E55" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger firmware update
-2. Observe panel display</t>
+          <t>1. Set 08-3827 to invalid URL format
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F55" s="62" t="inlineStr">
         <is>
-          <t>Panel should display popup window with sand clock and progress bar</t>
+          <t>Network error should occur, MFP should not access default server</t>
         </is>
       </c>
       <c r="G55" s="58" t="inlineStr"/>
@@ -11858,32 +11873,28 @@
       </c>
       <c r="C56" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, RDMS (BBR2) function is enabled</t>
+          <t>SCC function is enabled, 08-3827 set to valid URL but server unreachable</t>
         </is>
       </c>
       <c r="D56" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC and RDMS exclusivity</t>
+          <t>Verify unreachable server handling</t>
         </is>
       </c>
       <c r="E56" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Enable RDMS (BBR2) function
-3. Attempt to use RDMS</t>
+          <t>1. Set 08-3827 to valid but unreachable URL
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F56" s="62" t="inlineStr">
         <is>
-          <t>RDMS should not work when SCC function is enabled</t>
+          <t>MFP should not fall back to default server</t>
         </is>
       </c>
       <c r="G56" s="58" t="inlineStr"/>
-      <c r="H56" s="59" t="inlineStr">
-        <is>
-          <t>This limitation is removed from L6.02/L6.03</t>
-        </is>
-      </c>
+      <c r="H56" s="59" t="inlineStr"/>
       <c r="I56" s="53" t="n"/>
     </row>
     <row r="57" ht="99.75" customHeight="1">
@@ -11894,24 +11905,24 @@
       </c>
       <c r="C57" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, service UI in use</t>
+          <t>SCC function is enabled, HTTPS URL set without importing CA certificate</t>
         </is>
       </c>
       <c r="D57" s="70" t="inlineStr">
         <is>
-          <t>Verify exclusivity between SCC and service UI</t>
+          <t>Verify certificate requirement</t>
         </is>
       </c>
       <c r="E57" s="61" t="inlineStr">
         <is>
-          <t>1. Access service UI
-2. Trigger SCC communication
-3. Attempt to use service UI</t>
+          <t>1. Set 08-3827 to HTTPS URL requiring custom certificate
+2. Don't import certificate
+3. Enable SCC function</t>
         </is>
       </c>
       <c r="F57" s="62" t="inlineStr">
         <is>
-          <t>Service UI should not be usable while device is communicating with SCC server</t>
+          <t>Communication should fail</t>
         </is>
       </c>
       <c r="G57" s="58" t="inlineStr"/>
@@ -11926,28 +11937,32 @@
       </c>
       <c r="C58" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, invalid URL in 08-3827</t>
+          <t>SCC function is enabled, panel message display</t>
         </is>
       </c>
       <c r="D58" s="70" t="inlineStr">
         <is>
-          <t>Verify behavior with invalid URL</t>
+          <t>Verify panel message during SCC processing</t>
         </is>
       </c>
       <c r="E58" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to an invalid URL format
+          <t>1. Enable SCC function
 2. Trigger SCC communication
-3. Observe MFP behavior</t>
+3. Observe panel messages</t>
         </is>
       </c>
       <c r="F58" s="62" t="inlineStr">
         <is>
-          <t>Network error should occur, and MFP should not access NA server</t>
+          <t>Status window should display "Service in progress. Please do not turn off: XX"</t>
         </is>
       </c>
       <c r="G58" s="58" t="inlineStr"/>
-      <c r="H58" s="59" t="inlineStr"/>
+      <c r="H58" s="59" t="inlineStr">
+        <is>
+          <t>XX is 2-digit numerical value</t>
+        </is>
+      </c>
       <c r="I58" s="53" t="n"/>
     </row>
     <row r="59" ht="99.75" customHeight="1">
@@ -11958,24 +11973,24 @@
       </c>
       <c r="C59" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, URL without http/https prefix</t>
+          <t>SCC function is enabled, firmware update in progress</t>
         </is>
       </c>
       <c r="D59" s="70" t="inlineStr">
         <is>
-          <t>Verify behavior with URL missing protocol</t>
+          <t>Verify popup window during firmware update</t>
         </is>
       </c>
       <c r="E59" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to URL without http/https prefix
-2. Trigger SCC communication
-3. Observe MFP behavior</t>
+          <t>1. Enable SCC function
+2. Trigger firmware update
+3. Observe panel</t>
         </is>
       </c>
       <c r="F59" s="62" t="inlineStr">
         <is>
-          <t>Network error should occur, and MFP should not access NA server</t>
+          <t>Popup window with sand clock and progress bar should be displayed</t>
         </is>
       </c>
       <c r="G59" s="58" t="inlineStr"/>
@@ -11990,24 +12005,25 @@
       </c>
       <c r="C60" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, HTTPS URL without imported certificate</t>
+          <t>SCC function is enabled, power failure during package download</t>
         </is>
       </c>
       <c r="D60" s="70" t="inlineStr">
         <is>
-          <t>Verify behavior with HTTPS URL lacking certificate</t>
+          <t>Verify recovery after power failure during download</t>
         </is>
       </c>
       <c r="E60" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to HTTPS URL without importing certificate
-2. Trigger SCC communication
-3. Observe MFP behavior</t>
+          <t>1. Enable SCC function
+2. Trigger package download
+3. Simulate power failure during download
+4. Power on MFP</t>
         </is>
       </c>
       <c r="F60" s="62" t="inlineStr">
         <is>
-          <t>Communication should fail due to missing certificate</t>
+          <t>Downloaded data should be deleted before next communication</t>
         </is>
       </c>
       <c r="G60" s="58" t="inlineStr"/>
@@ -12022,26 +12038,25 @@
       </c>
       <c r="C61" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, power failure during firmware update wait</t>
+          <t>SCC function is enabled, power failure during baseline data transmission</t>
         </is>
       </c>
       <c r="D61" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update behavior after power failure</t>
+          <t>Verify recovery after power failure during baseline transmission</t>
         </is>
       </c>
       <c r="E61" s="61" t="inlineStr">
         <is>
-          <t>1. Schedule firmware update
-2. Power off MFP before scheduled time
-3. Power on MFP after scheduled time
-4. Observe MFP behavior</t>
+          <t>1. Enable SCC function
+2. Trigger baseline data transmission
+3. Simulate power failure during transmission
+4. Power on MFP</t>
         </is>
       </c>
       <c r="F61" s="62" t="inlineStr">
         <is>
-          <t>For L6.15+: Firmware update should be rescheduled for same time next day
-Before L6.15: Firmware update should execute 1 hour after reboot</t>
+          <t>Baseline data should be deleted before next communication</t>
         </is>
       </c>
       <c r="G61" s="58" t="inlineStr"/>
@@ -12056,24 +12071,25 @@
       </c>
       <c r="C62" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, hibernation about to occur</t>
+          <t>SCC function is enabled, power failure during installation</t>
         </is>
       </c>
       <c r="D62" s="70" t="inlineStr">
         <is>
-          <t>Verify MFP does not enter hibernation during communication</t>
+          <t>Verify recovery after power failure during installation</t>
         </is>
       </c>
       <c r="E62" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Attempt to put MFP in hibernation state
-3. Observe MFP behavior</t>
+          <t>1. Enable SCC function
+2. Trigger package installation
+3. Simulate power failure during installation
+4. Power on MFP</t>
         </is>
       </c>
       <c r="F62" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter hibernation during communication cycle</t>
+          <t>Update package data should be deleted before next communication</t>
         </is>
       </c>
       <c r="G62" s="58" t="inlineStr"/>
@@ -12088,25 +12104,25 @@
       </c>
       <c r="C63" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, persistent policy expiration configured</t>
+          <t>SCC function is enabled, power failure while waiting for firmware update schedule</t>
         </is>
       </c>
       <c r="D63" s="70" t="inlineStr">
         <is>
-          <t>Verify persistent policy expiration functionality</t>
+          <t>Verify firmware update rescheduling</t>
         </is>
       </c>
       <c r="E63" s="61" t="inlineStr">
         <is>
-          <t>1. Configure persistent policy with expiration
-2. Wait for expiration period
-3. Change settings locally
-4. Verify if settings are restored</t>
+          <t>1. Enable SCC function
+2. Schedule firmware update
+3. Simulate power failure before scheduled time
+4. Power on MFP after scheduled time</t>
         </is>
       </c>
       <c r="F63" s="62" t="inlineStr">
         <is>
-          <t>Settings should not be restored after persistent policy expiration</t>
+          <t>Firmware update should be rescheduled to same time next day (L6.15+)</t>
         </is>
       </c>
       <c r="G63" s="58" t="inlineStr"/>
@@ -12121,23 +12137,24 @@
       </c>
       <c r="C64" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, event occurs and cancels immediately</t>
+          <t>SCC function is enabled, installation failure</t>
         </is>
       </c>
       <c r="D64" s="70" t="inlineStr">
         <is>
-          <t>Verify event notification behavior for quickly canceled events</t>
+          <t>Verify installation failure handling</t>
         </is>
       </c>
       <c r="E64" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger an event that cancels immediately
-2. Observe if event is notified to server</t>
+          <t>1. Enable SCC function
+2. Simulate installation failure
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F64" s="62" t="inlineStr">
         <is>
-          <t>Event may not be notified if SCC error notification process is in busy state</t>
+          <t>Regular communication should be scheduled after 1 hour</t>
         </is>
       </c>
       <c r="G64" s="58" t="inlineStr"/>
@@ -12152,23 +12169,24 @@
       </c>
       <c r="C65" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, F-category error occurs</t>
+          <t>SCC function is enabled, SSD model</t>
         </is>
       </c>
       <c r="D65" s="70" t="inlineStr">
         <is>
-          <t>Verify behavior when F-category error occurs</t>
+          <t>Verify firmware update on SSD model</t>
         </is>
       </c>
       <c r="E65" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger F-category error
-2. Observe if error is sent to server</t>
+          <t>1. Enable SCC function on SSD model
+2. Trigger firmware update
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F65" s="62" t="inlineStr">
         <is>
-          <t>Device should not be able to send error to server due to network unavailability</t>
+          <t>Firmware update should fail on SSD models</t>
         </is>
       </c>
       <c r="G65" s="58" t="inlineStr"/>
@@ -12176,531 +12194,1294 @@
       <c r="I65" s="53" t="n"/>
     </row>
     <row r="66" ht="99.75" customHeight="1">
-      <c r="B66" s="57" t="n"/>
-      <c r="C66" s="60" t="n"/>
-      <c r="D66" s="70" t="n"/>
-      <c r="E66" s="61" t="n"/>
-      <c r="F66" s="62" t="n"/>
-      <c r="G66" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H66" s="59" t="n"/>
+      <c r="B66" s="57" t="inlineStr">
+        <is>
+          <t>TC061</t>
+        </is>
+      </c>
+      <c r="C66" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, multiple update instructions with partial failure</t>
+        </is>
+      </c>
+      <c r="D66" s="70" t="inlineStr">
+        <is>
+          <t>Verify partial update failure handling</t>
+        </is>
+      </c>
+      <c r="E66" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate multiple update instructions
+3. Make one update fail
+4. Monitor installation process</t>
+        </is>
+      </c>
+      <c r="F66" s="62" t="inlineStr">
+        <is>
+          <t>Update installation should continue for all instructions</t>
+        </is>
+      </c>
+      <c r="G66" s="58" t="inlineStr"/>
+      <c r="H66" s="59" t="inlineStr"/>
       <c r="I66" s="53" t="n"/>
     </row>
     <row r="67" ht="99.75" customHeight="1">
-      <c r="B67" s="57" t="n"/>
-      <c r="C67" s="60" t="n"/>
-      <c r="D67" s="70" t="n"/>
-      <c r="E67" s="61" t="n"/>
-      <c r="F67" s="62" t="n"/>
-      <c r="G67" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H67" s="59" t="n"/>
+      <c r="B67" s="57" t="inlineStr">
+        <is>
+          <t>TC062</t>
+        </is>
+      </c>
+      <c r="C67" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, special instruction only</t>
+        </is>
+      </c>
+      <c r="D67" s="70" t="inlineStr">
+        <is>
+          <t>Verify reboot behavior with special instruction</t>
+        </is>
+      </c>
+      <c r="E67" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate special instruction only
+3. Monitor reboot behavior</t>
+        </is>
+      </c>
+      <c r="F67" s="62" t="inlineStr">
+        <is>
+          <t>MFP should not reboot after special instruction</t>
+        </is>
+      </c>
+      <c r="G67" s="58" t="inlineStr"/>
+      <c r="H67" s="59" t="inlineStr"/>
       <c r="I67" s="53" t="n"/>
     </row>
     <row r="68" ht="99.75" customHeight="1">
-      <c r="B68" s="57" t="n"/>
-      <c r="C68" s="60" t="n"/>
-      <c r="D68" s="70" t="n"/>
-      <c r="E68" s="61" t="n"/>
-      <c r="F68" s="62" t="n"/>
-      <c r="G68" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H68" s="59" t="n"/>
+      <c r="B68" s="57" t="inlineStr">
+        <is>
+          <t>TC063</t>
+        </is>
+      </c>
+      <c r="C68" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, failing to obtain MFP setting value</t>
+        </is>
+      </c>
+      <c r="D68" s="70" t="inlineStr">
+        <is>
+          <t>Verify baseline data with missing settings</t>
+        </is>
+      </c>
+      <c r="E68" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate failure to obtain some setting values
+3. Monitor baseline data transmission</t>
+        </is>
+      </c>
+      <c r="F68" s="62" t="inlineStr">
+        <is>
+          <t>Transmission should proceed with missing values</t>
+        </is>
+      </c>
+      <c r="G68" s="58" t="inlineStr"/>
+      <c r="H68" s="59" t="inlineStr"/>
       <c r="I68" s="53" t="n"/>
     </row>
     <row r="69" ht="99.75" customHeight="1">
-      <c r="B69" s="57" t="n"/>
-      <c r="C69" s="60" t="n"/>
-      <c r="D69" s="70" t="n"/>
-      <c r="E69" s="61" t="n"/>
-      <c r="F69" s="62" t="n"/>
-      <c r="G69" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H69" s="59" t="n"/>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t>TC064</t>
+        </is>
+      </c>
+      <c r="C69" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, F-categorized error</t>
+        </is>
+      </c>
+      <c r="D69" s="70" t="inlineStr">
+        <is>
+          <t>Verify error notification for network-related errors</t>
+        </is>
+      </c>
+      <c r="E69" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger F-categorized error
+3. Monitor error notification</t>
+        </is>
+      </c>
+      <c r="F69" s="62" t="inlineStr">
+        <is>
+          <t>Device should not be able to send error to server</t>
+        </is>
+      </c>
+      <c r="G69" s="58" t="inlineStr"/>
+      <c r="H69" s="59" t="inlineStr"/>
       <c r="I69" s="53" t="n"/>
     </row>
     <row r="70" ht="99.75" customHeight="1">
-      <c r="B70" s="57" t="n"/>
-      <c r="C70" s="60" t="n"/>
-      <c r="D70" s="70" t="n"/>
-      <c r="E70" s="61" t="n"/>
-      <c r="F70" s="62" t="n"/>
-      <c r="G70" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H70" s="59" t="n"/>
+      <c r="B70" s="57" t="inlineStr">
+        <is>
+          <t>TC065</t>
+        </is>
+      </c>
+      <c r="C70" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, event occurs and cancels immediately</t>
+        </is>
+      </c>
+      <c r="D70" s="70" t="inlineStr">
+        <is>
+          <t>Verify event notification for quickly resolved events</t>
+        </is>
+      </c>
+      <c r="E70" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger event that resolves immediately
+3. Monitor event notification</t>
+        </is>
+      </c>
+      <c r="F70" s="62" t="inlineStr">
+        <is>
+          <t>Event may not be notified if SCC is in busy state</t>
+        </is>
+      </c>
+      <c r="G70" s="58" t="inlineStr"/>
+      <c r="H70" s="59" t="inlineStr"/>
       <c r="I70" s="53" t="n"/>
     </row>
     <row r="71" ht="99.75" customHeight="1">
-      <c r="B71" s="57" t="n"/>
-      <c r="C71" s="60" t="n"/>
-      <c r="D71" s="70" t="n"/>
-      <c r="E71" s="61" t="n"/>
-      <c r="F71" s="62" t="n"/>
-      <c r="G71" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H71" s="59" t="n"/>
+      <c r="B71" s="57" t="inlineStr">
+        <is>
+          <t>TC066</t>
+        </is>
+      </c>
+      <c r="C71" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, 08-3827 is NULL</t>
+        </is>
+      </c>
+      <c r="D71" s="70" t="inlineStr">
+        <is>
+          <t>Verify default server connection</t>
+        </is>
+      </c>
+      <c r="E71" s="61" t="inlineStr">
+        <is>
+          <t>1. Set 08-3827 to NULL
+2. Enable SCC function
+3. Monitor connection</t>
+        </is>
+      </c>
+      <c r="F71" s="62" t="inlineStr">
+        <is>
+          <t>MFP should connect to NA server (edevice.Tprinters-solutions.com)</t>
+        </is>
+      </c>
+      <c r="G71" s="58" t="inlineStr"/>
+      <c r="H71" s="59" t="inlineStr"/>
       <c r="I71" s="53" t="n"/>
     </row>
     <row r="72" ht="99.75" customHeight="1">
-      <c r="B72" s="57" t="n"/>
-      <c r="C72" s="60" t="n"/>
-      <c r="D72" s="70" t="n"/>
-      <c r="E72" s="61" t="n"/>
-      <c r="F72" s="62" t="n"/>
-      <c r="G72" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H72" s="59" t="n"/>
+      <c r="B72" s="57" t="inlineStr">
+        <is>
+          <t>TC067</t>
+        </is>
+      </c>
+      <c r="C72" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, device registered on server</t>
+        </is>
+      </c>
+      <c r="D72" s="70" t="inlineStr">
+        <is>
+          <t>Verify GetRedirectURL behavior for registered device</t>
+        </is>
+      </c>
+      <c r="E72" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function for registered device
+2. Monitor GetRedirectURL request</t>
+        </is>
+      </c>
+      <c r="F72" s="62" t="inlineStr">
+        <is>
+          <t>MFP should connect to specified URL and communicate with server</t>
+        </is>
+      </c>
+      <c r="G72" s="58" t="inlineStr"/>
+      <c r="H72" s="59" t="inlineStr"/>
       <c r="I72" s="53" t="n"/>
     </row>
     <row r="73" ht="99.75" customHeight="1">
-      <c r="B73" s="57" t="n"/>
-      <c r="C73" s="60" t="n"/>
-      <c r="D73" s="70" t="n"/>
-      <c r="E73" s="61" t="n"/>
-      <c r="F73" s="62" t="n"/>
-      <c r="G73" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H73" s="59" t="n"/>
+      <c r="B73" s="57" t="inlineStr">
+        <is>
+          <t>TC068</t>
+        </is>
+      </c>
+      <c r="C73" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, device not registered on server</t>
+        </is>
+      </c>
+      <c r="D73" s="70" t="inlineStr">
+        <is>
+          <t>Verify registration error handling</t>
+        </is>
+      </c>
+      <c r="E73" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function for unregistered device
+2. Monitor registration process</t>
+        </is>
+      </c>
+      <c r="F73" s="62" t="inlineStr">
+        <is>
+          <t>Registration error (STATUS_FAILED) should occur</t>
+        </is>
+      </c>
+      <c r="G73" s="58" t="inlineStr"/>
+      <c r="H73" s="59" t="inlineStr"/>
       <c r="I73" s="53" t="n"/>
     </row>
     <row r="74" ht="99.75" customHeight="1">
-      <c r="B74" s="57" t="n"/>
-      <c r="C74" s="60" t="n"/>
-      <c r="D74" s="70" t="n"/>
-      <c r="E74" s="61" t="n"/>
-      <c r="F74" s="62" t="n"/>
-      <c r="G74" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H74" s="59" t="n"/>
+      <c r="B74" s="57" t="inlineStr">
+        <is>
+          <t>TC069</t>
+        </is>
+      </c>
+      <c r="C74" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, server returns different URL, URL forward enabled</t>
+        </is>
+      </c>
+      <c r="D74" s="70" t="inlineStr">
+        <is>
+          <t>Verify URL forwarding when enabled</t>
+        </is>
+      </c>
+      <c r="E74" s="61" t="inlineStr">
+        <is>
+          <t>1. Set 08-3828 to "1" (Enable)
+2. Enable SCC function
+3. Simulate server returning different URL
+4. Monitor connection</t>
+        </is>
+      </c>
+      <c r="F74" s="62" t="inlineStr">
+        <is>
+          <t>MFP should connect to returned URL</t>
+        </is>
+      </c>
+      <c r="G74" s="58" t="inlineStr"/>
+      <c r="H74" s="59" t="inlineStr"/>
       <c r="I74" s="53" t="n"/>
     </row>
     <row r="75" ht="99.75" customHeight="1">
-      <c r="B75" s="57" t="n"/>
-      <c r="C75" s="60" t="n"/>
-      <c r="D75" s="70" t="n"/>
-      <c r="E75" s="61" t="n"/>
-      <c r="F75" s="62" t="n"/>
-      <c r="G75" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H75" s="59" t="n"/>
+      <c r="B75" s="57" t="inlineStr">
+        <is>
+          <t>TC070</t>
+        </is>
+      </c>
+      <c r="C75" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, server returns different URL, URL forward disabled</t>
+        </is>
+      </c>
+      <c r="D75" s="70" t="inlineStr">
+        <is>
+          <t>Verify URL forwarding when disabled</t>
+        </is>
+      </c>
+      <c r="E75" s="61" t="inlineStr">
+        <is>
+          <t>1. Set 08-3828 to "0" (Disable)
+2. Enable SCC function
+3. Simulate server returning different URL
+4. Monitor connection</t>
+        </is>
+      </c>
+      <c r="F75" s="62" t="inlineStr">
+        <is>
+          <t>Registration error should occur</t>
+        </is>
+      </c>
+      <c r="G75" s="58" t="inlineStr"/>
+      <c r="H75" s="59" t="inlineStr"/>
       <c r="I75" s="53" t="n"/>
     </row>
     <row r="76" ht="99.75" customHeight="1">
-      <c r="B76" s="57" t="n"/>
-      <c r="C76" s="60" t="n"/>
-      <c r="D76" s="70" t="n"/>
-      <c r="E76" s="61" t="n"/>
-      <c r="F76" s="62" t="n"/>
-      <c r="G76" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H76" s="59" t="n"/>
+      <c r="B76" s="57" t="inlineStr">
+        <is>
+          <t>TC071</t>
+        </is>
+      </c>
+      <c r="C76" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, SendDataConfig parameters set to "on"</t>
+        </is>
+      </c>
+      <c r="D76" s="70" t="inlineStr">
+        <is>
+          <t>Verify data collection based on SendDataConfig</t>
+        </is>
+      </c>
+      <c r="E76" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Set SendDataConfig parameters to "on"
+3. Monitor data collection</t>
+        </is>
+      </c>
+      <c r="F76" s="62" t="inlineStr">
+        <is>
+          <t>MFP should collect all specified data types</t>
+        </is>
+      </c>
+      <c r="G76" s="58" t="inlineStr"/>
+      <c r="H76" s="59" t="inlineStr"/>
       <c r="I76" s="53" t="n"/>
     </row>
     <row r="77" ht="99.75" customHeight="1">
-      <c r="B77" s="57" t="n"/>
-      <c r="C77" s="60" t="n"/>
-      <c r="D77" s="70" t="n"/>
-      <c r="E77" s="61" t="n"/>
-      <c r="F77" s="62" t="n"/>
-      <c r="G77" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H77" s="59" t="n"/>
+      <c r="B77" s="57" t="inlineStr">
+        <is>
+          <t>TC072</t>
+        </is>
+      </c>
+      <c r="C77" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, SendDataConfig parameters set to "off"</t>
+        </is>
+      </c>
+      <c r="D77" s="70" t="inlineStr">
+        <is>
+          <t>Verify data collection based on SendDataConfig</t>
+        </is>
+      </c>
+      <c r="E77" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Set SendDataConfig parameters to "off"
+3. Monitor data collection</t>
+        </is>
+      </c>
+      <c r="F77" s="62" t="inlineStr">
+        <is>
+          <t>MFP should not collect specified data types</t>
+        </is>
+      </c>
+      <c r="G77" s="58" t="inlineStr"/>
+      <c r="H77" s="59" t="inlineStr"/>
       <c r="I77" s="53" t="n"/>
     </row>
     <row r="78" ht="99.75" customHeight="1">
-      <c r="B78" s="57" t="n"/>
-      <c r="C78" s="60" t="n"/>
-      <c r="D78" s="70" t="n"/>
-      <c r="E78" s="61" t="n"/>
-      <c r="F78" s="62" t="n"/>
-      <c r="G78" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H78" s="59" t="n"/>
+      <c r="B78" s="57" t="inlineStr">
+        <is>
+          <t>TC073</t>
+        </is>
+      </c>
+      <c r="C78" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, cloning data instruction received</t>
+        </is>
+      </c>
+      <c r="D78" s="70" t="inlineStr">
+        <is>
+          <t>Verify cloning data application</t>
+        </is>
+      </c>
+      <c r="E78" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate cloning data instruction
+3. Monitor application process</t>
+        </is>
+      </c>
+      <c r="F78" s="62" t="inlineStr">
+        <is>
+          <t>MFP should apply cloning data regardless of SendDataConfig settings</t>
+        </is>
+      </c>
+      <c r="G78" s="58" t="inlineStr"/>
+      <c r="H78" s="59" t="inlineStr"/>
       <c r="I78" s="53" t="n"/>
     </row>
     <row r="79" ht="99.75" customHeight="1">
-      <c r="B79" s="57" t="n"/>
-      <c r="C79" s="60" t="n"/>
-      <c r="D79" s="70" t="n"/>
-      <c r="E79" s="61" t="n"/>
-      <c r="F79" s="62" t="n"/>
-      <c r="G79" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H79" s="59" t="n"/>
+      <c r="B79" s="57" t="inlineStr">
+        <is>
+          <t>TC074</t>
+        </is>
+      </c>
+      <c r="C79" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, HTTP error received</t>
+        </is>
+      </c>
+      <c r="D79" s="70" t="inlineStr">
+        <is>
+          <t>Verify HTTP error handling</t>
+        </is>
+      </c>
+      <c r="E79" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate HTTP error response
+3. Monitor retry behavior</t>
+        </is>
+      </c>
+      <c r="F79" s="62" t="inlineStr">
+        <is>
+          <t>MFP should retry in 60 seconds, then enter retry mode after second failure</t>
+        </is>
+      </c>
+      <c r="G79" s="58" t="inlineStr"/>
+      <c r="H79" s="59" t="inlineStr"/>
       <c r="I79" s="53" t="n"/>
     </row>
     <row r="80" ht="99.75" customHeight="1">
-      <c r="B80" s="57" t="n"/>
-      <c r="C80" s="60" t="n"/>
-      <c r="D80" s="70" t="n"/>
-      <c r="E80" s="61" t="n"/>
-      <c r="F80" s="62" t="n"/>
-      <c r="G80" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H80" s="59" t="n"/>
+      <c r="B80" s="57" t="inlineStr">
+        <is>
+          <t>TC075</t>
+        </is>
+      </c>
+      <c r="C80" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, communication error during device error notification</t>
+        </is>
+      </c>
+      <c r="D80" s="70" t="inlineStr">
+        <is>
+          <t>Verify device error notification retry</t>
+        </is>
+      </c>
+      <c r="E80" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger device error
+3. Simulate communication error during notification
+4. Monitor retry behavior</t>
+        </is>
+      </c>
+      <c r="F80" s="62" t="inlineStr">
+        <is>
+          <t>MFP should retry with 60-minute intervals without entering retry mode</t>
+        </is>
+      </c>
+      <c r="G80" s="58" t="inlineStr"/>
+      <c r="H80" s="59" t="inlineStr"/>
       <c r="I80" s="53" t="n"/>
     </row>
     <row r="81" ht="99.75" customHeight="1">
-      <c r="B81" s="57" t="n"/>
-      <c r="C81" s="60" t="n"/>
-      <c r="D81" s="70" t="n"/>
-      <c r="E81" s="61" t="n"/>
-      <c r="F81" s="62" t="n"/>
-      <c r="G81" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H81" s="59" t="n"/>
+      <c r="B81" s="57" t="inlineStr">
+        <is>
+          <t>TC076</t>
+        </is>
+      </c>
+      <c r="C81" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, power failure during service file transmission</t>
+        </is>
+      </c>
+      <c r="D81" s="70" t="inlineStr">
+        <is>
+          <t>Verify recovery after power failure during service file transmission</t>
+        </is>
+      </c>
+      <c r="E81" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger service file transmission
+3. Simulate power failure during transmission
+4. Power on MFP</t>
+        </is>
+      </c>
+      <c r="F81" s="62" t="inlineStr">
+        <is>
+          <t>Created data should be deleted before next communication</t>
+        </is>
+      </c>
+      <c r="G81" s="58" t="inlineStr"/>
+      <c r="H81" s="59" t="inlineStr"/>
       <c r="I81" s="53" t="n"/>
     </row>
     <row r="82" ht="99.75" customHeight="1">
-      <c r="B82" s="57" t="n"/>
-      <c r="C82" s="60" t="n"/>
-      <c r="D82" s="70" t="n"/>
-      <c r="E82" s="61" t="n"/>
-      <c r="F82" s="62" t="n"/>
-      <c r="G82" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H82" s="59" t="n"/>
+      <c r="B82" s="57" t="inlineStr">
+        <is>
+          <t>TC077</t>
+        </is>
+      </c>
+      <c r="C82" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, unzip failure</t>
+        </is>
+      </c>
+      <c r="D82" s="70" t="inlineStr">
+        <is>
+          <t>Verify unzip failure handling</t>
+        </is>
+      </c>
+      <c r="E82" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate corrupted ZIP file download
+3. Monitor unzip process</t>
+        </is>
+      </c>
+      <c r="F82" s="62" t="inlineStr">
+        <is>
+          <t>MFP should delete unzipped data and exit communication cycle</t>
+        </is>
+      </c>
+      <c r="G82" s="58" t="inlineStr"/>
+      <c r="H82" s="59" t="inlineStr"/>
       <c r="I82" s="53" t="n"/>
     </row>
     <row r="83" ht="99.75" customHeight="1">
-      <c r="B83" s="57" t="n"/>
-      <c r="C83" s="60" t="n"/>
-      <c r="D83" s="70" t="n"/>
-      <c r="E83" s="61" t="n"/>
-      <c r="F83" s="62" t="n"/>
-      <c r="G83" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H83" s="59" t="n"/>
+      <c r="B83" s="57" t="inlineStr">
+        <is>
+          <t>TC078</t>
+        </is>
+      </c>
+      <c r="C83" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, registration fails 3 consecutive times</t>
+        </is>
+      </c>
+      <c r="D83" s="70" t="inlineStr">
+        <is>
+          <t>Verify registration lock</t>
+        </is>
+      </c>
+      <c r="E83" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate 3 consecutive registration failures
+3. Monitor registration process</t>
+        </is>
+      </c>
+      <c r="F83" s="62" t="inlineStr">
+        <is>
+          <t>Server should respond with STATUS_LOCK</t>
+        </is>
+      </c>
+      <c r="G83" s="58" t="inlineStr"/>
+      <c r="H83" s="59" t="inlineStr"/>
       <c r="I83" s="53" t="n"/>
     </row>
     <row r="84" ht="99.75" customHeight="1">
-      <c r="B84" s="57" t="n"/>
-      <c r="C84" s="60" t="n"/>
-      <c r="D84" s="70" t="n"/>
-      <c r="E84" s="61" t="n"/>
-      <c r="F84" s="62" t="n"/>
-      <c r="G84" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H84" s="59" t="n"/>
+      <c r="B84" s="57" t="inlineStr">
+        <is>
+          <t>TC079</t>
+        </is>
+      </c>
+      <c r="C84" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, STATUS_INVALID_TOKEN received</t>
+        </is>
+      </c>
+      <c r="D84" s="70" t="inlineStr">
+        <is>
+          <t>Verify invalid token handling</t>
+        </is>
+      </c>
+      <c r="E84" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate STATUS_INVALID_TOKEN response
+3. Monitor communication</t>
+        </is>
+      </c>
+      <c r="F84" s="62" t="inlineStr">
+        <is>
+          <t>MFP should exit communication cycle and wait for next schedule</t>
+        </is>
+      </c>
+      <c r="G84" s="58" t="inlineStr"/>
+      <c r="H84" s="59" t="inlineStr"/>
       <c r="I84" s="53" t="n"/>
     </row>
     <row r="85" ht="99.75" customHeight="1">
-      <c r="B85" s="57" t="n"/>
-      <c r="C85" s="60" t="n"/>
-      <c r="D85" s="70" t="n"/>
-      <c r="E85" s="61" t="n"/>
-      <c r="F85" s="62" t="n"/>
-      <c r="G85" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H85" s="59" t="n"/>
+      <c r="B85" s="57" t="inlineStr">
+        <is>
+          <t>TC080</t>
+        </is>
+      </c>
+      <c r="C85" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, STATUS_FAILED_DATAINTEGRITY received</t>
+        </is>
+      </c>
+      <c r="D85" s="70" t="inlineStr">
+        <is>
+          <t>Verify data integrity failure handling</t>
+        </is>
+      </c>
+      <c r="E85" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate STATUS_FAILED_DATAINTEGRITY response
+3. Monitor communication</t>
+        </is>
+      </c>
+      <c r="F85" s="62" t="inlineStr">
+        <is>
+          <t>MFP should delete created data and exit communication cycle</t>
+        </is>
+      </c>
+      <c r="G85" s="58" t="inlineStr"/>
+      <c r="H85" s="59" t="inlineStr"/>
       <c r="I85" s="53" t="n"/>
     </row>
     <row r="86" ht="99.75" customHeight="1">
-      <c r="B86" s="57" t="n"/>
-      <c r="C86" s="60" t="n"/>
-      <c r="D86" s="70" t="n"/>
-      <c r="E86" s="61" t="n"/>
-      <c r="F86" s="62" t="n"/>
-      <c r="G86" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H86" s="59" t="n"/>
+      <c r="B86" s="57" t="inlineStr">
+        <is>
+          <t>TC081</t>
+        </is>
+      </c>
+      <c r="C86" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, installation cannot start due to exclusion</t>
+        </is>
+      </c>
+      <c r="D86" s="70" t="inlineStr">
+        <is>
+          <t>Verify installation exclusion handling</t>
+        </is>
+      </c>
+      <c r="E86" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Create exclusion condition
+3. Trigger installation
+4. Monitor installation process</t>
+        </is>
+      </c>
+      <c r="F86" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle as installation failure</t>
+        </is>
+      </c>
+      <c r="G86" s="58" t="inlineStr"/>
+      <c r="H86" s="59" t="inlineStr"/>
       <c r="I86" s="53" t="n"/>
     </row>
     <row r="87" ht="99.75" customHeight="1">
-      <c r="B87" s="57" t="n"/>
-      <c r="C87" s="60" t="n"/>
-      <c r="D87" s="70" t="n"/>
-      <c r="E87" s="61" t="n"/>
-      <c r="F87" s="62" t="n"/>
-      <c r="G87" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H87" s="59" t="n"/>
+      <c r="B87" s="57" t="inlineStr">
+        <is>
+          <t>TC082</t>
+        </is>
+      </c>
+      <c r="C87" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, firmware update fails 3 times</t>
+        </is>
+      </c>
+      <c r="D87" s="70" t="inlineStr">
+        <is>
+          <t>Verify repeated firmware update failure</t>
+        </is>
+      </c>
+      <c r="E87" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate 3 consecutive firmware update failures
+3. Monitor update instructions</t>
+        </is>
+      </c>
+      <c r="F87" s="62" t="inlineStr">
+        <is>
+          <t>Server should stop sending update instructions after 3 failures</t>
+        </is>
+      </c>
+      <c r="G87" s="58" t="inlineStr"/>
+      <c r="H87" s="59" t="inlineStr"/>
       <c r="I87" s="53" t="n"/>
     </row>
     <row r="88" ht="99.75" customHeight="1">
-      <c r="B88" s="57" t="n"/>
-      <c r="C88" s="60" t="n"/>
-      <c r="D88" s="70" t="n"/>
-      <c r="E88" s="61" t="n"/>
-      <c r="F88" s="62" t="n"/>
-      <c r="G88" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H88" s="59" t="n"/>
+      <c r="B88" s="57" t="inlineStr">
+        <is>
+          <t>TC083</t>
+        </is>
+      </c>
+      <c r="C88" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, package size exceeds maximum</t>
+        </is>
+      </c>
+      <c r="D88" s="70" t="inlineStr">
+        <is>
+          <t>Verify oversized package handling</t>
+        </is>
+      </c>
+      <c r="E88" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate oversized update package
+3. Monitor download process</t>
+        </is>
+      </c>
+      <c r="F88" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle download failure appropriately</t>
+        </is>
+      </c>
+      <c r="G88" s="58" t="inlineStr"/>
+      <c r="H88" s="59" t="inlineStr"/>
       <c r="I88" s="53" t="n"/>
     </row>
     <row r="89" ht="99.75" customHeight="1">
-      <c r="B89" s="57" t="n"/>
-      <c r="C89" s="60" t="n"/>
-      <c r="D89" s="70" t="n"/>
-      <c r="E89" s="61" t="n"/>
-      <c r="F89" s="62" t="n"/>
-      <c r="G89" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H89" s="59" t="n"/>
+      <c r="B89" s="57" t="inlineStr">
+        <is>
+          <t>TC084</t>
+        </is>
+      </c>
+      <c r="C89" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, baseline data size exceeds maximum</t>
+        </is>
+      </c>
+      <c r="D89" s="70" t="inlineStr">
+        <is>
+          <t>Verify oversized baseline data handling</t>
+        </is>
+      </c>
+      <c r="E89" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Create conditions for oversized baseline data
+3. Monitor transmission process</t>
+        </is>
+      </c>
+      <c r="F89" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle transmission failure appropriately</t>
+        </is>
+      </c>
+      <c r="G89" s="58" t="inlineStr"/>
+      <c r="H89" s="59" t="inlineStr"/>
       <c r="I89" s="53" t="n"/>
     </row>
     <row r="90" ht="99.75" customHeight="1">
-      <c r="B90" s="57" t="n"/>
-      <c r="C90" s="60" t="n"/>
-      <c r="D90" s="70" t="n"/>
-      <c r="E90" s="61" t="n"/>
-      <c r="F90" s="62" t="n"/>
-      <c r="G90" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H90" s="59" t="n"/>
+      <c r="B90" s="57" t="inlineStr">
+        <is>
+          <t>TC085</t>
+        </is>
+      </c>
+      <c r="C90" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, factory default performed</t>
+        </is>
+      </c>
+      <c r="D90" s="70" t="inlineStr">
+        <is>
+          <t>Verify settings persistence after factory default</t>
+        </is>
+      </c>
+      <c r="E90" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Perform factory default
+3. Check SCC settings</t>
+        </is>
+      </c>
+      <c r="F90" s="62" t="inlineStr">
+        <is>
+          <t>08-3827 should not be initialized by Factory Default</t>
+        </is>
+      </c>
+      <c r="G90" s="58" t="inlineStr"/>
+      <c r="H90" s="59" t="inlineStr"/>
       <c r="I90" s="53" t="n"/>
     </row>
     <row r="91" ht="99.75" customHeight="1">
-      <c r="B91" s="57" t="n"/>
-      <c r="C91" s="60" t="n"/>
-      <c r="D91" s="70" t="n"/>
-      <c r="E91" s="61" t="n"/>
-      <c r="F91" s="62" t="n"/>
-      <c r="G91" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H91" s="59" t="n"/>
+      <c r="B91" s="57" t="inlineStr">
+        <is>
+          <t>TC086</t>
+        </is>
+      </c>
+      <c r="C91" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, HDD clear performed</t>
+        </is>
+      </c>
+      <c r="D91" s="70" t="inlineStr">
+        <is>
+          <t>Verify settings after HDD clear</t>
+        </is>
+      </c>
+      <c r="E91" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Perform HDD clear
+3. Check SCC settings</t>
+        </is>
+      </c>
+      <c r="F91" s="62" t="inlineStr">
+        <is>
+          <t>08-3827 should be initialized by HDD clear</t>
+        </is>
+      </c>
+      <c r="G91" s="58" t="inlineStr"/>
+      <c r="H91" s="59" t="inlineStr"/>
       <c r="I91" s="53" t="n"/>
     </row>
     <row r="92" ht="99.75" customHeight="1">
-      <c r="B92" s="57" t="n"/>
-      <c r="C92" s="60" t="n"/>
-      <c r="D92" s="70" t="n"/>
-      <c r="E92" s="61" t="n"/>
-      <c r="F92" s="62" t="n"/>
-      <c r="G92" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H92" s="59" t="n"/>
+      <c r="B92" s="57" t="inlineStr">
+        <is>
+          <t>TC087</t>
+        </is>
+      </c>
+      <c r="C92" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, decommission performed</t>
+        </is>
+      </c>
+      <c r="D92" s="70" t="inlineStr">
+        <is>
+          <t>Verify settings after decommission</t>
+        </is>
+      </c>
+      <c r="E92" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Perform decommission
+3. Check SCC settings</t>
+        </is>
+      </c>
+      <c r="F92" s="62" t="inlineStr">
+        <is>
+          <t>08-3827 and 08-3828 should be initialized by decommission</t>
+        </is>
+      </c>
+      <c r="G92" s="58" t="inlineStr"/>
+      <c r="H92" s="59" t="inlineStr"/>
       <c r="I92" s="53" t="n"/>
     </row>
     <row r="93" ht="99.75" customHeight="1">
-      <c r="B93" s="57" t="n"/>
-      <c r="C93" s="60" t="n"/>
-      <c r="D93" s="70" t="n"/>
-      <c r="E93" s="61" t="n"/>
-      <c r="F93" s="62" t="n"/>
-      <c r="G93" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H93" s="59" t="n"/>
+      <c r="B93" s="57" t="inlineStr">
+        <is>
+          <t>TC088</t>
+        </is>
+      </c>
+      <c r="C93" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, clone operation performed</t>
+        </is>
+      </c>
+      <c r="D93" s="70" t="inlineStr">
+        <is>
+          <t>Verify settings after clone operation</t>
+        </is>
+      </c>
+      <c r="E93" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Perform clone operation
+3. Check SCC settings</t>
+        </is>
+      </c>
+      <c r="F93" s="62" t="inlineStr">
+        <is>
+          <t>08-3820, 08-3827, and 08-3828 should not be cloned</t>
+        </is>
+      </c>
+      <c r="G93" s="58" t="inlineStr"/>
+      <c r="H93" s="59" t="inlineStr"/>
       <c r="I93" s="53" t="n"/>
     </row>
     <row r="94" ht="99.75" customHeight="1">
-      <c r="B94" s="57" t="n"/>
-      <c r="C94" s="60" t="n"/>
-      <c r="D94" s="70" t="n"/>
-      <c r="E94" s="61" t="n"/>
-      <c r="F94" s="62" t="n"/>
-      <c r="G94" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H94" s="59" t="n"/>
+      <c r="B94" s="57" t="inlineStr">
+        <is>
+          <t>TC089</t>
+        </is>
+      </c>
+      <c r="C94" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, performance test</t>
+        </is>
+      </c>
+      <c r="D94" s="70" t="inlineStr">
+        <is>
+          <t>Verify performance impact</t>
+        </is>
+      </c>
+      <c r="E94" s="61" t="inlineStr">
+        <is>
+          <t>1. Measure MFP performance with SCC disabled
+2. Enable SCC function
+3. Measure performance again</t>
+        </is>
+      </c>
+      <c r="F94" s="62" t="inlineStr">
+        <is>
+          <t>Performance should not be degraded beyond accumulated time of individual functions</t>
+        </is>
+      </c>
+      <c r="G94" s="58" t="inlineStr"/>
+      <c r="H94" s="59" t="inlineStr"/>
       <c r="I94" s="53" t="n"/>
     </row>
     <row r="95" ht="99.75" customHeight="1">
-      <c r="B95" s="57" t="n"/>
-      <c r="C95" s="60" t="n"/>
-      <c r="D95" s="70" t="n"/>
-      <c r="E95" s="61" t="n"/>
-      <c r="F95" s="62" t="n"/>
-      <c r="G95" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H95" s="59" t="n"/>
+      <c r="B95" s="57" t="inlineStr">
+        <is>
+          <t>TC090</t>
+        </is>
+      </c>
+      <c r="C95" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, startup time test</t>
+        </is>
+      </c>
+      <c r="D95" s="70" t="inlineStr">
+        <is>
+          <t>Verify startup time impact</t>
+        </is>
+      </c>
+      <c r="E95" s="61" t="inlineStr">
+        <is>
+          <t>1. Measure startup time with SCC disabled
+2. Enable SCC function
+3. Measure startup time again</t>
+        </is>
+      </c>
+      <c r="F95" s="62" t="inlineStr">
+        <is>
+          <t>Startup time should not be impacted</t>
+        </is>
+      </c>
+      <c r="G95" s="58" t="inlineStr"/>
+      <c r="H95" s="59" t="inlineStr"/>
       <c r="I95" s="53" t="n"/>
     </row>
     <row r="96" ht="99.75" customHeight="1">
-      <c r="B96" s="57" t="n"/>
-      <c r="C96" s="60" t="n"/>
-      <c r="D96" s="70" t="n"/>
-      <c r="E96" s="61" t="n"/>
-      <c r="F96" s="62" t="n"/>
-      <c r="G96" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H96" s="59" t="n"/>
+      <c r="B96" s="57" t="inlineStr">
+        <is>
+          <t>TC091</t>
+        </is>
+      </c>
+      <c r="C96" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, multiple errors occur simultaneously</t>
+        </is>
+      </c>
+      <c r="D96" s="70" t="inlineStr">
+        <is>
+          <t>Verify multiple error handling</t>
+        </is>
+      </c>
+      <c r="E96" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger multiple device errors simultaneously
+3. Monitor error notifications</t>
+        </is>
+      </c>
+      <c r="F96" s="62" t="inlineStr">
+        <is>
+          <t>All errors should be reported to server</t>
+        </is>
+      </c>
+      <c r="G96" s="58" t="inlineStr"/>
+      <c r="H96" s="59" t="inlineStr"/>
       <c r="I96" s="53" t="n"/>
     </row>
     <row r="97" ht="99.75" customHeight="1">
-      <c r="B97" s="57" t="n"/>
-      <c r="C97" s="60" t="n"/>
-      <c r="D97" s="70" t="n"/>
-      <c r="E97" s="61" t="n"/>
-      <c r="F97" s="62" t="n"/>
-      <c r="G97" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H97" s="59" t="n"/>
+      <c r="B97" s="57" t="inlineStr">
+        <is>
+          <t>TC092</t>
+        </is>
+      </c>
+      <c r="C97" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, error occurs during Super Sleep</t>
+        </is>
+      </c>
+      <c r="D97" s="70" t="inlineStr">
+        <is>
+          <t>Verify error detection during Super Sleep</t>
+        </is>
+      </c>
+      <c r="E97" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Put MFP in Super Sleep
+3. Trigger device error
+4. Monitor error notification</t>
+        </is>
+      </c>
+      <c r="F97" s="62" t="inlineStr">
+        <is>
+          <t>Error should be detected and reported after waking from Super Sleep</t>
+        </is>
+      </c>
+      <c r="G97" s="58" t="inlineStr"/>
+      <c r="H97" s="59" t="inlineStr"/>
       <c r="I97" s="53" t="n"/>
     </row>
     <row r="98" ht="99.75" customHeight="1">
-      <c r="B98" s="57" t="n"/>
-      <c r="C98" s="60" t="n"/>
-      <c r="D98" s="70" t="n"/>
-      <c r="E98" s="61" t="n"/>
-      <c r="F98" s="62" t="n"/>
-      <c r="G98" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H98" s="59" t="n"/>
+      <c r="B98" s="57" t="inlineStr">
+        <is>
+          <t>TC093</t>
+        </is>
+      </c>
+      <c r="C98" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, firmware update scheduled</t>
+        </is>
+      </c>
+      <c r="D98" s="70" t="inlineStr">
+        <is>
+          <t>Verify Super Sleep behavior with scheduled update</t>
+        </is>
+      </c>
+      <c r="E98" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Schedule firmware update
+3. Attempt to enter Super Sleep</t>
+        </is>
+      </c>
+      <c r="F98" s="62" t="inlineStr">
+        <is>
+          <t>MFP should be able to enter Super Sleep while waiting for scheduled update</t>
+        </is>
+      </c>
+      <c r="G98" s="58" t="inlineStr"/>
+      <c r="H98" s="59" t="inlineStr"/>
       <c r="I98" s="53" t="n"/>
     </row>
     <row r="99" ht="99.75" customHeight="1">
-      <c r="B99" s="57" t="n"/>
-      <c r="C99" s="60" t="n"/>
-      <c r="D99" s="70" t="n"/>
-      <c r="E99" s="61" t="n"/>
-      <c r="F99" s="62" t="n"/>
-      <c r="G99" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H99" s="59" t="n"/>
+      <c r="B99" s="57" t="inlineStr">
+        <is>
+          <t>TC094</t>
+        </is>
+      </c>
+      <c r="C99" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, firmware update scheduled</t>
+        </is>
+      </c>
+      <c r="D99" s="70" t="inlineStr">
+        <is>
+          <t>Verify Hibernation behavior with scheduled update</t>
+        </is>
+      </c>
+      <c r="E99" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Schedule firmware update
+3. Attempt to enter Hibernation</t>
+        </is>
+      </c>
+      <c r="F99" s="62" t="inlineStr">
+        <is>
+          <t>MFP should be able to enter Hibernation while waiting for scheduled update</t>
+        </is>
+      </c>
+      <c r="G99" s="58" t="inlineStr"/>
+      <c r="H99" s="59" t="inlineStr"/>
       <c r="I99" s="53" t="n"/>
     </row>
     <row r="100" ht="99.75" customHeight="1">
-      <c r="B100" s="57" t="n"/>
-      <c r="C100" s="60" t="n"/>
-      <c r="D100" s="70" t="n"/>
-      <c r="E100" s="61" t="n"/>
-      <c r="F100" s="62" t="n"/>
-      <c r="G100" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H100" s="59" t="n"/>
+      <c r="B100" s="57" t="inlineStr">
+        <is>
+          <t>TC095</t>
+        </is>
+      </c>
+      <c r="C100" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, sync communication schedule &gt; Persistent Policy Check Expiration</t>
+        </is>
+      </c>
+      <c r="D100" s="70" t="inlineStr">
+        <is>
+          <t>Verify Persistent Policy expiration behavior</t>
+        </is>
+      </c>
+      <c r="E100" s="61" t="inlineStr">
+        <is>
+          <t>1. Set sync schedule to 7 days
+2. Set Persistent Policy Check Expiration to 1 day
+3. Wait for expiration
+4. Change 08/05/13 settings</t>
+        </is>
+      </c>
+      <c r="F100" s="62" t="inlineStr">
+        <is>
+          <t>Persistent policy check should stop after expiration</t>
+        </is>
+      </c>
+      <c r="G100" s="58" t="inlineStr"/>
+      <c r="H100" s="59" t="inlineStr"/>
       <c r="I100" s="53" t="n"/>
     </row>
     <row r="101" ht="99.75" customHeight="1">
-      <c r="B101" s="57" t="n"/>
-      <c r="C101" s="60" t="n"/>
-      <c r="D101" s="70" t="n"/>
-      <c r="E101" s="61" t="n"/>
-      <c r="F101" s="62" t="n"/>
-      <c r="G101" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H101" s="59" t="n"/>
+      <c r="B101" s="57" t="inlineStr">
+        <is>
+          <t>TC096</t>
+        </is>
+      </c>
+      <c r="C101" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, sync communication schedule &lt; Persistent Policy Check Expiration</t>
+        </is>
+      </c>
+      <c r="D101" s="70" t="inlineStr">
+        <is>
+          <t>Verify Persistent Policy continuous behavior</t>
+        </is>
+      </c>
+      <c r="E101" s="61" t="inlineStr">
+        <is>
+          <t>1. Set sync schedule to 1 day
+2. Set Persistent Policy Check Expiration to 7 days
+3. Wait for multiple sync communications
+4. Change 08/05/13 settings</t>
+        </is>
+      </c>
+      <c r="F101" s="62" t="inlineStr">
+        <is>
+          <t>Persistent policy check should continue indefinitely</t>
+        </is>
+      </c>
+      <c r="G101" s="58" t="inlineStr"/>
+      <c r="H101" s="59" t="inlineStr"/>
       <c r="I101" s="53" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="63" t="n"/>
-      <c r="B102" s="63" t="n"/>
-      <c r="C102" s="63" t="n"/>
-      <c r="D102" s="63" t="n"/>
-      <c r="E102" s="64" t="n"/>
-      <c r="F102" s="64" t="n"/>
-      <c r="G102" s="63" t="n"/>
-      <c r="H102" s="63" t="n"/>
+      <c r="B102" s="63" t="inlineStr">
+        <is>
+          <t>TC097</t>
+        </is>
+      </c>
+      <c r="C102" s="63" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, PersistentExpiration = 0</t>
+        </is>
+      </c>
+      <c r="D102" s="63" t="inlineStr">
+        <is>
+          <t>Verify no Persistent Check behavior</t>
+        </is>
+      </c>
+      <c r="E102" s="64" t="inlineStr">
+        <is>
+          <t>1. Set PersistentExpiration to 0
+2. Enable SCC function
+3. Change 08/05/13 settings</t>
+        </is>
+      </c>
+      <c r="F102" s="64" t="inlineStr">
+        <is>
+          <t>No persistent policy check should occur</t>
+        </is>
+      </c>
+      <c r="G102" s="63" t="inlineStr"/>
+      <c r="H102" s="63" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TC098</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, time-based values configured</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Verify time-based value transitions</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1. Configure time-based values for energy save timer
+2. Monitor value changes at transition times</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Values should change at specified times</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Example: 10 min during day, 1 min at night</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="B104" s="45" t="inlineStr">
         <is>
-          <t>Test Summary</t>
-        </is>
-      </c>
-      <c r="C104" s="67" t="n"/>
+          <t>TC099</t>
+        </is>
+      </c>
+      <c r="C104" s="67" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, communication with custom HTTPS server</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Verify CA certificate requirement</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1. Configure 08-3827 to custom HTTPS server
+2. Import CA certificate via TA
+3. Enable SCC function
+4. Monitor communication</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Communication should succeed with imported certificate</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TC100</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SCC function is enabled, communication with standard SCC server</t>
+        </is>
+      </c>
       <c r="D105" s="45" t="inlineStr">
         <is>
-          <t>Test Case Count:</t>
+          <t>Verify pre-installed certificates</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1. Configure 08-3827 to standard SCC server
+2. Enable SCC function
+3. Monitor communication</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Communication should succeed without importing certificates</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Pre-implemented certificates in ROM data</t>
         </is>
       </c>
     </row>

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10250,20 +10250,20 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>MFP is in normal boot-up mode</t>
+          <t>MFP is powered on and in normal boot-up mode</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC function enable/disable setting</t>
+          <t>Verify enabling/disabling of SCC function</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Enter Self-diagnostic boot-up mode
-2. Navigate to SCC function setting (08-3820)
-3. Change setting from "Disable" to "Enable"
-4. Reboot the MFP</t>
+          <t>1. Access Self-diagnostic boot-up mode or service UI on panel
+2. Set 08-3820 to 1 (Enable)
+3. Reboot the MFP
+4. Check if SCC function is enabled</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
@@ -10287,22 +10287,24 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>SCC function is disabled</t>
+          <t>MFP is powered on and in normal boot-up mode</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC function can't be enabled from normal mode</t>
+          <t>Verify administrator cannot enable/disable SCC function</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Try to enable SCC function from TA or STAGE2 IF in normal boot-up mode</t>
+          <t>1. Login as administrator
+2. Access TA or STAGE2 IF
+3. Try to find SCC enable/disable setting</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>Administrator should not be able to enable/disable SCC from normal mode</t>
+          <t>Administrator should not be able to access SCC enable/disable setting</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10317,7 +10319,7 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP is powered on and in normal boot-up mode</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
@@ -10327,21 +10329,21 @@
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Enter Self-diagnostic boot-up mode
-2. Navigate to SCC Proxy Server setting (08-3822 to 08-3826)
-3. Configure proxy settings
-4. Reboot the MFP</t>
+          <t>1. Access Self-diagnostic boot-up mode or service UI on panel
+2. Configure 08-3822 to 08-3826 (SCC Proxy Server setting group)
+3. Reboot the MFP
+4. Check if proxy settings are applied</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Proxy settings should be applied correctly</t>
+          <t>Proxy settings should be applied after reboot</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
       <c r="H8" s="59" t="inlineStr">
         <is>
-          <t>Default should be "Disable"</t>
+          <t>Default value should be "Disable"</t>
         </is>
       </c>
       <c r="I8" s="53" t="n"/>
@@ -10354,7 +10356,7 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP is powered on and in normal boot-up mode</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
@@ -10364,20 +10366,21 @@
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Enter Self-diagnostic boot-up mode
+          <t>1. Access Self-diagnostic boot-up mode
 2. Set 08-3827 to a custom URL
-3. Reboot the MFP</t>
+3. Reboot the MFP
+4. Check if the MFP connects to the specified URL</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>MFP should attempt to connect to the specified URL for first registration</t>
+          <t>MFP should connect to the specified URL for first registration</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
       <c r="H9" s="59" t="inlineStr">
         <is>
-          <t>Default value should be NULL</t>
+          <t>Default value should be NULL string</t>
         </is>
       </c>
       <c r="I9" s="53" t="n"/>
@@ -10390,7 +10393,7 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP is powered on and in normal boot-up mode</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
@@ -10400,14 +10403,15 @@
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Enter Self-diagnostic boot-up mode
-2. Set 08-3828 to "0" (Disable)
-3. Reboot the MFP</t>
+          <t>1. Access Self-diagnostic boot-up mode
+2. Set 08-3828 to 0 (Disable)
+3. Reboot the MFP
+4. Check if the MFP connects only to the specified URL</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>MFP should not connect to a server specified by redirect</t>
+          <t>MFP should not connect to any redirected URL</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10422,31 +10426,30 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>SCC function is disabled</t>
+          <t>MFP is powered on with SCC disabled</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report printing</t>
+          <t>Verify installation report printing when enabling SCC</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Enter Self-diagnostic boot-up mode
-2. Change 08-3820 from "0" (Disable) to "1" (Enable)
-3. Reboot the MFP
-4. Wait for MFP registration processing</t>
+          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
+2. Reboot the MFP
+3. Wait for MFP registration processing to complete</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>Installation report should be printed automatically after registration</t>
+          <t>Installation report should be automatically printed after registration processing</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
       <c r="H11" s="59" t="inlineStr">
         <is>
-          <t>Report should print only once when enabling SCC</t>
+          <t>Report should be printed only once when enabling SCC for the first time</t>
         </is>
       </c>
       <c r="I11" s="53" t="n"/>
@@ -10459,28 +10462,30 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, MFP is registered</t>
+          <t>MFP is powered on with SCC enabled</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report is not printed again</t>
+          <t>Verify installation report content</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Disable SCC function
-2. Re-enable SCC function
-3. Reboot the MFP</t>
+          <t>1. Check the printed installation report</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>Installation report should not be printed again</t>
+          <t>Report should contain: SCC Module Version, Device Serial Number, Device Model, Device MAC Address, Registration Status, Registration Date, and Registration Time</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
-      <c r="H12" s="59" t="inlineStr"/>
+      <c r="H12" s="59" t="inlineStr">
+        <is>
+          <t>Report should be in English only</t>
+        </is>
+      </c>
       <c r="I12" s="53" t="n"/>
     </row>
     <row r="13" ht="99.75" customHeight="1">
@@ -10491,32 +10496,28 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP is powered on with SCC enabled and network print restriction mode enabled</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify installation report content</t>
+          <t>Verify installation report printing with network print restriction</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Wait for installation report to print
-3. Check the printed report</t>
+          <t>1. Set 08-9344 to 1 (only private)
+2. Set 08-3820 from 0 (Disable) to 1 (Enable)
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>Report should contain: SCC Module, Serial Number, MAC Address, IP Address, Subnet Mask, Gateway, Date/Time, and Registration Status</t>
+          <t>Installation report should not be printed and job log should show error code 4221</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
-      <c r="H13" s="59" t="inlineStr">
-        <is>
-          <t>Report should be in English only</t>
-        </is>
-      </c>
+      <c r="H13" s="59" t="inlineStr"/>
       <c r="I13" s="53" t="n"/>
     </row>
     <row r="14" ht="99.75" customHeight="1">
@@ -10527,23 +10528,23 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, network print restriction mode (08-9344) set to "1" (only private)</t>
+          <t>MFP is powered on with SCC enabled</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify installation report with print restriction</t>
+          <t>Verify HTTPS communication protocol</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Wait for installation report to print</t>
+          <t>1. Monitor network traffic during SCC communication
+2. Check if HTTPS protocol is used</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>SCC report should not be printed, job log should show error code 4221</t>
+          <t>All communication with servers should use HTTPS protocol</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10558,23 +10559,23 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, user authentication enabled, quota for built-in admin exhausted</t>
+          <t>MFP is powered on with SCC enabled</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify installation report with quota restriction</t>
+          <t>Verify port number for SCC communication</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Wait for installation report to print</t>
+          <t>1. Configure firewall to block port 443
+2. Monitor network traffic during SCC communication</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>SCC report should not be printed due to quota error</t>
+          <t>MFP should automatically use port 8443 when port 443 is not available</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10589,24 +10590,23 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP is powered on with SCC enabled</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify HTTPS communication protocol</t>
+          <t>Verify SCC process does not start in special startup mode</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Monitor network traffic during SCC communication
-3. Verify protocol used</t>
+          <t>1. Boot MFP in special startup mode
+2. Check if SCC process starts</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>MFP should use HTTPS for communication with servers</t>
+          <t>SCC process should not start in special startup mode</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10621,28 +10621,32 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP is powered on with SCC enabled</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify SSL certificate validation</t>
+          <t>Verify regular communication loop timing</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Configure MFP to connect to a server with invalid certificate
-3. Monitor communication</t>
+          <t>1. Set regular communication schedule to specific time
+2. Wait for that time
+3. Monitor if MFP initiates communication with server</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>MFP should reject connection with invalid certificate</t>
+          <t>MFP should initiate communication at the specified schedule time</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
-      <c r="H17" s="59" t="inlineStr"/>
+      <c r="H17" s="59" t="inlineStr">
+        <is>
+          <t>Default schedule is "every day at 0:00"</t>
+        </is>
+      </c>
       <c r="I17" s="53" t="n"/>
     </row>
     <row r="18" ht="99.75" customHeight="1">
@@ -10653,28 +10657,31 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, proxy server requires authentication</t>
+          <t>MFP is powered on with SCC enabled</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify proxy authentication</t>
+          <t>Verify regular communication loop with interval setting</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy server settings with authentication
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Set regular communication schedule to interval (e.g., 15 min)
+2. Monitor if MFP initiates communication at the specified intervals</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>MFP should authenticate with proxy server successfully</t>
+          <t>MFP should initiate communication at the specified intervals</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
-      <c r="H18" s="59" t="inlineStr"/>
+      <c r="H18" s="59" t="inlineStr">
+        <is>
+          <t>Intervals can be set from 5 min to 60 min</t>
+        </is>
+      </c>
       <c r="I18" s="53" t="n"/>
     </row>
     <row r="19" ht="99.75" customHeight="1">
@@ -10685,24 +10692,23 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, port 443 is blocked</t>
+          <t>MFP is powered on with SCC enabled</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify alternate port usage</t>
+          <t>Verify first-time MFP registration</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Block port 443 on firewall
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Enable SCC on an unregistered MFP
+2. Monitor communication with server</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>MFP should automatically use port 8443</t>
+          <t>MFP should register with the server using the Register Device interface</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10717,23 +10723,23 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>MFP is in special startup mode</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC process startup</t>
+          <t>Verify MFP authentication after registration</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Boot MFP in special startup mode
-2. Check if SCC process starts</t>
+          <t>1. Reboot a registered MFP
+2. Monitor communication with server</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>SCC process should not start in special startup mode</t>
+          <t>MFP should authenticate with the server using the token received during registration</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10748,29 +10754,29 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP is powered on with SCC enabled</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication loop timing</t>
+          <t>Verify server BUSY handling</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Monitor communication at specified schedule time</t>
+          <t>1. Simulate server BUSY response
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate with server at scheduled time</t>
+          <t>MFP should retry connection after waiting for the period specified by the server</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
       <c r="H21" s="59" t="inlineStr">
         <is>
-          <t>Default schedule is "every day at 0:00"</t>
+          <t>MFP should retry up to 3 times</t>
         </is>
       </c>
       <c r="I21" s="53" t="n"/>
@@ -10783,28 +10789,31 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP is powered on with SCC enabled</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify event notification loop</t>
+          <t>Verify MFP registration failure handling</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger a device error
-3. Monitor communication</t>
+          <t>1. Simulate registration failure response from server
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>MFP should immediately notify server of the error event</t>
+          <t>After 3 consecutive failures, MFP should exit communication cycle and wait for next schedule</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
-      <c r="H22" s="59" t="inlineStr"/>
+      <c r="H22" s="59" t="inlineStr">
+        <is>
+          <t>Installation Report should be printed</t>
+        </is>
+      </c>
       <c r="I22" s="53" t="n"/>
     </row>
     <row r="23" ht="99.75" customHeight="1">
@@ -10815,23 +10824,24 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, MFP not registered</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify first-time registration sequence</t>
+          <t>Verify Check for Updates functionality</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function on unregistered MFP
-2. Monitor registration process</t>
+          <t>1. Configure server to specify an update
+2. Trigger regular communication
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>MFP should register with server using proper authentication sequence</t>
+          <t>MFP should detect update and proceed to Download Package</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
@@ -10846,23 +10856,24 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, MFP already registered</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Verify authentication sequence</t>
+          <t>Verify Download Package functionality</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function on registered MFP
-2. Monitor authentication process</t>
+          <t>1. Configure server to provide an update package
+2. Trigger regular communication
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>MFP should authenticate with server using token</t>
+          <t>MFP should download the package and verify its hash value with MD5</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10877,32 +10888,28 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, server is busy</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D25" s="70" t="inlineStr">
         <is>
-          <t>Verify server busy handling</t>
+          <t>Verify hash value mismatch handling</t>
         </is>
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate server busy condition
-2. Enable SCC function
-3. Monitor retry behavior</t>
+          <t>1. Configure server to provide an update package with incorrect hash value
+2. Trigger regular communication
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry connection with increasing intervals</t>
+          <t>MFP should delete the downloaded data and exit communication cycle</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
-      <c r="H25" s="59" t="inlineStr">
-        <is>
-          <t>MFP should retry up to 3 times</t>
-        </is>
-      </c>
+      <c r="H25" s="59" t="inlineStr"/>
       <c r="I25" s="53" t="n"/>
     </row>
     <row r="26" ht="99.75" customHeight="1">
@@ -10913,23 +10920,23 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, MFP serial number not registered to server</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D26" s="70" t="inlineStr">
         <is>
-          <t>Verify registration failure handling</t>
+          <t>Verify Send Baseline Data functionality</t>
         </is>
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function with unregistered serial number
-2. Monitor registration process</t>
+          <t>1. Trigger regular communication
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>Registration should fail, installation report should print</t>
+          <t>MFP should send baseline data to server based on SendDataConfig setting</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
@@ -10944,23 +10951,24 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Verify Check for Updates functionality</t>
+          <t>Verify Install Package for firmware update</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Monitor Check for Updates process</t>
+          <t>1. Configure server to provide firmware update package
+2. Trigger regular communication
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>MFP should check for updates after successful registration</t>
+          <t>MFP should install firmware update at scheduled time and reboot</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
@@ -10975,24 +10983,24 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, update available</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Verify Download Package functionality</t>
+          <t>Verify Install Package for policy violation data</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate update available
-3. Monitor download process</t>
+          <t>1. Configure server to provide policy violation data package
+2. Trigger regular communication
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>MFP should download update package</t>
+          <t>MFP should apply policy settings</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
@@ -11007,24 +11015,24 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, download in progress</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Verify hash validation</t>
+          <t>Verify Update Status notification</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate update with incorrect hash
-3. Monitor download process</t>
+          <t>1. Configure server to provide an update package
+2. Trigger regular communication
+3. Monitor MFP behavior during and after installation</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete downloaded data and exit communication cycle</t>
+          <t>MFP should notify server of installation status</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
@@ -11039,23 +11047,23 @@
       </c>
       <c r="C30" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, update package downloaded</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D30" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Baseline Data functionality</t>
+          <t>Verify Send Regular Data functionality</t>
         </is>
       </c>
       <c r="E30" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Monitor Send Baseline Data process</t>
+          <t>1. Trigger regular communication
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F30" s="62" t="inlineStr">
         <is>
-          <t>MFP should send baseline data to server</t>
+          <t>MFP should send regular data to server based on SendDataConfig setting</t>
         </is>
       </c>
       <c r="G30" s="58" t="inlineStr"/>
@@ -11070,24 +11078,23 @@
       </c>
       <c r="C31" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, firmware update package downloaded</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D31" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update installation</t>
+          <t>Verify Event Notification Loop for device errors</t>
         </is>
       </c>
       <c r="E31" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate firmware update package
-3. Monitor installation process</t>
+          <t>1. Generate a device error with error code
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F31" s="62" t="inlineStr">
         <is>
-          <t>MFP should install firmware update at scheduled time</t>
+          <t>MFP should notify server of the error via Send Device Error interface</t>
         </is>
       </c>
       <c r="G31" s="58" t="inlineStr"/>
@@ -11102,24 +11109,24 @@
       </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, clone file update package downloaded</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D32" s="70" t="inlineStr">
         <is>
-          <t>Verify clone file installation</t>
+          <t>Verify error removal notification</t>
         </is>
       </c>
       <c r="E32" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate clone file update package
-3. Monitor installation process</t>
+          <t>1. Generate a device error
+2. Clear the error without power off
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F32" s="62" t="inlineStr">
         <is>
-          <t>MFP should apply clone settings</t>
+          <t>MFP should notify server of error removal with '-' prefix (e.g., -D102)</t>
         </is>
       </c>
       <c r="G32" s="58" t="inlineStr"/>
@@ -11134,24 +11141,23 @@
       </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, update installed</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D33" s="70" t="inlineStr">
         <is>
-          <t>Verify Update Status notification</t>
+          <t>Verify duplicate error handling</t>
         </is>
       </c>
       <c r="E33" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate update installation
-3. Monitor Update Status process</t>
+          <t>1. Generate the same device error multiple times
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F33" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify server of installation status</t>
+          <t>MFP should not send the same error to server unless it is removed</t>
         </is>
       </c>
       <c r="G33" s="58" t="inlineStr"/>
@@ -11166,23 +11172,24 @@
       </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, update status sent</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D34" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Regular Data functionality</t>
+          <t>Verify Send Service File functionality</t>
         </is>
       </c>
       <c r="E34" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Monitor Send Regular Data process</t>
+          <t>1. Configure server to request service files
+2. Generate a device error
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F34" s="62" t="inlineStr">
         <is>
-          <t>MFP should send regular data to server</t>
+          <t>MFP should send service files to server when requested</t>
         </is>
       </c>
       <c r="G34" s="58" t="inlineStr"/>
@@ -11197,24 +11204,24 @@
       </c>
       <c r="C35" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, device error occurs</t>
+          <t>MFP is in Super Sleep mode with SCC enabled</t>
         </is>
       </c>
       <c r="D35" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Device Error functionality</t>
+          <t>Verify Super Sleep recovery for regular communication</t>
         </is>
       </c>
       <c r="E35" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger device error
-3. Monitor Send Device Error process</t>
+          <t>1. Put MFP in Super Sleep mode
+2. Wait until regular communication time
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F35" s="62" t="inlineStr">
         <is>
-          <t>MFP should send error information to server</t>
+          <t>MFP should recover from Super Sleep, communicate with server, then return to Super Sleep</t>
         </is>
       </c>
       <c r="G35" s="58" t="inlineStr"/>
@@ -11229,24 +11236,25 @@
       </c>
       <c r="C36" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, same error occurs multiple times</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D36" s="70" t="inlineStr">
         <is>
-          <t>Verify duplicate error handling</t>
+          <t>Verify Persistent Policy functionality</t>
         </is>
       </c>
       <c r="E36" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger same device error multiple times
-3. Monitor Send Device Error process</t>
+          <t>1. Configure server to set persistent policy
+2. Change settings locally
+3. Wait for persistent policy check interval
+4. Check if settings are restored</t>
         </is>
       </c>
       <c r="F36" s="62" t="inlineStr">
         <is>
-          <t>MFP should not send duplicate errors unless they are removed</t>
+          <t>Settings should be restored to policy values</t>
         </is>
       </c>
       <c r="G36" s="58" t="inlineStr"/>
@@ -11261,33 +11269,28 @@
       </c>
       <c r="C37" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, error resolved without power off</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D37" s="70" t="inlineStr">
         <is>
-          <t>Verify error resolution notification</t>
+          <t>Verify Time-based Device State Data Values</t>
         </is>
       </c>
       <c r="E37" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger device error
-3. Resolve error without power off
-4. Monitor Send Device Error process</t>
+          <t>1. Configure server to set time-based values
+2. Monitor settings at different times
+3. Check if settings change according to schedule</t>
         </is>
       </c>
       <c r="F37" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify server of error resolution with "-" prefix</t>
+          <t>Settings should change according to time-based schedule</t>
         </is>
       </c>
       <c r="G37" s="58" t="inlineStr"/>
-      <c r="H37" s="59" t="inlineStr">
-        <is>
-          <t>Example: -D102</t>
-        </is>
-      </c>
+      <c r="H37" s="59" t="inlineStr"/>
       <c r="I37" s="53" t="n"/>
     </row>
     <row r="38" ht="99.75" customHeight="1">
@@ -11298,24 +11301,23 @@
       </c>
       <c r="C38" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, RequestServiceFiles=true received</t>
+          <t>MFP is powered on with SCC enabled but not registered</t>
         </is>
       </c>
       <c r="D38" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Service File functionality</t>
+          <t>Verify IP Redirect functionality</t>
         </is>
       </c>
       <c r="E38" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate RequestServiceFiles=true response
-3. Monitor Send Service File process</t>
+          <t>1. Enable SCC on an unregistered MFP
+2. Monitor communication with server</t>
         </is>
       </c>
       <c r="F38" s="62" t="inlineStr">
         <is>
-          <t>MFP should send service files to server</t>
+          <t>MFP should get appropriate regional URL from NA server and redirect to it</t>
         </is>
       </c>
       <c r="G38" s="58" t="inlineStr"/>
@@ -11330,24 +11332,23 @@
       </c>
       <c r="C39" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, SCC process active</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D39" s="70" t="inlineStr">
         <is>
-          <t>Verify Super Sleep interaction</t>
+          <t>Verify retry processing for connection errors</t>
         </is>
       </c>
       <c r="E39" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Start SCC communication
-3. Try to enter Super Sleep</t>
+          <t>1. Simulate connection error
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter Power save, Sleep or Super Sleep during communication</t>
+          <t>MFP should retry in 60 seconds, then enter retry mode if first retry fails</t>
         </is>
       </c>
       <c r="G39" s="58" t="inlineStr"/>
@@ -11362,24 +11363,23 @@
       </c>
       <c r="C40" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, MFP in Super Sleep</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D40" s="70" t="inlineStr">
         <is>
-          <t>Verify Super Sleep recovery for scheduled communication</t>
+          <t>Verify retry mode behavior</t>
         </is>
       </c>
       <c r="E40" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Put MFP in Super Sleep
-3. Wait for scheduled communication time</t>
+          <t>1. Force MFP into retry mode
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F40" s="62" t="inlineStr">
         <is>
-          <t>MFP should wake up from Super Sleep and communicate with server</t>
+          <t>MFP should try to communicate once a day, starting from Register Device</t>
         </is>
       </c>
       <c r="G40" s="58" t="inlineStr"/>
@@ -11394,24 +11394,23 @@
       </c>
       <c r="C41" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, MFP in Super Sleep</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D41" s="70" t="inlineStr">
         <is>
-          <t>Verify event detection during Super Sleep</t>
+          <t>Verify panel message display during SCC processing</t>
         </is>
       </c>
       <c r="E41" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Put MFP in Super Sleep
-3. Trigger an event</t>
+          <t>1. Trigger regular communication
+2. Observe panel display</t>
         </is>
       </c>
       <c r="F41" s="62" t="inlineStr">
         <is>
-          <t>MFP should not detect events during Super Sleep</t>
+          <t>Panel should display "Service in progress. Please do not turn off: XX" with appropriate status code</t>
         </is>
       </c>
       <c r="G41" s="58" t="inlineStr"/>
@@ -11426,24 +11425,23 @@
       </c>
       <c r="C42" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, SCC process active</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D42" s="70" t="inlineStr">
         <is>
-          <t>Verify Hibernation interaction</t>
+          <t>Verify popup window display during specific operations</t>
         </is>
       </c>
       <c r="E42" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Start SCC communication
-3. Try to enter Hibernation</t>
+          <t>1. Trigger firmware update or restore operation
+2. Observe panel display</t>
         </is>
       </c>
       <c r="F42" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter Hibernation during communication</t>
+          <t>Popup window with sand clock should be displayed</t>
         </is>
       </c>
       <c r="G42" s="58" t="inlineStr"/>
@@ -11458,24 +11456,23 @@
       </c>
       <c r="C43" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, Persistent Policy enabled</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D43" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy check</t>
+          <t>Verify firmware update with progress bar</t>
         </is>
       </c>
       <c r="E43" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function with Persistent Policy
-2. Change 08/05/13 settings locally
-3. Wait for persistent check interval</t>
+          <t>1. Trigger firmware update
+2. Observe panel display</t>
         </is>
       </c>
       <c r="F43" s="62" t="inlineStr">
         <is>
-          <t>MFP should revert settings to policy values</t>
+          <t>Popup window with sand clock and progress bar should be displayed</t>
         </is>
       </c>
       <c r="G43" s="58" t="inlineStr"/>
@@ -11490,24 +11487,24 @@
       </c>
       <c r="C44" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, Persistent Policy enabled with expiration</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D44" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy expiration</t>
+          <t>Verify invalid URL handling in first registration URL</t>
         </is>
       </c>
       <c r="E44" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function with Persistent Policy and expiration
-2. Wait for expiration period
-3. Change 08/05/13 settings locally</t>
+          <t>1. Set 08-3827 to an invalid URL format
+2. Reboot the MFP
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F44" s="62" t="inlineStr">
         <is>
-          <t>Persistent policy check should stop after expiration</t>
+          <t>Network error should occur and MFP should not access NA server</t>
         </is>
       </c>
       <c r="G44" s="58" t="inlineStr"/>
@@ -11522,23 +11519,24 @@
       </c>
       <c r="C45" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, Time-based Device State enabled</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D45" s="70" t="inlineStr">
         <is>
-          <t>Verify Time-based value changes</t>
+          <t>Verify HTTPS certificate handling</t>
         </is>
       </c>
       <c r="E45" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function with Time-based values
-2. Monitor 08/05/13 code values at different times</t>
+          <t>1. Set 08-3827 to a custom HTTPS URL without importing certificate
+2. Reboot the MFP
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F45" s="62" t="inlineStr">
         <is>
-          <t>Values should change according to time schedule</t>
+          <t>Communication should fail due to missing certificate</t>
         </is>
       </c>
       <c r="G45" s="58" t="inlineStr"/>
@@ -11553,24 +11551,25 @@
       </c>
       <c r="C46" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, first-time connection</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D46" s="70" t="inlineStr">
         <is>
-          <t>Verify IP Redirect functionality</t>
+          <t>Verify power failure during package download</t>
         </is>
       </c>
       <c r="E46" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function for first time
-2. Monitor GetRedirectURL request
-3. Verify redirection to appropriate regional server</t>
+          <t>1. Trigger package download
+2. Power off MFP during download
+3. Power on MFP
+4. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F46" s="62" t="inlineStr">
         <is>
-          <t>MFP should connect to appropriate regional server based on IP</t>
+          <t>MFP should delete downloaded data before next communication</t>
         </is>
       </c>
       <c r="G46" s="58" t="inlineStr"/>
@@ -11585,24 +11584,24 @@
       </c>
       <c r="C47" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, URL forward setting disabled</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D47" s="70" t="inlineStr">
         <is>
-          <t>Verify URL forward behavior when disabled</t>
+          <t>Verify HDD full handling during download</t>
         </is>
       </c>
       <c r="E47" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3828 to "0" (Disable)
-2. Enable SCC function
-3. Monitor registration process</t>
+          <t>1. Fill HDD to capacity
+2. Trigger package download
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F47" s="62" t="inlineStr">
         <is>
-          <t>MFP should not follow URL redirects from server</t>
+          <t>MFP should delete downloaded data and exit communication cycle</t>
         </is>
       </c>
       <c r="G47" s="58" t="inlineStr"/>
@@ -11617,24 +11616,24 @@
       </c>
       <c r="C48" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, communication error occurs</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D48" s="70" t="inlineStr">
         <is>
-          <t>Verify retry behavior</t>
+          <t>Verify unzip failure handling</t>
         </is>
       </c>
       <c r="E48" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate communication error
-3. Monitor retry behavior</t>
+          <t>1. Configure server to provide corrupted ZIP package
+2. Trigger package download
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F48" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry after 60 seconds, then enter retry mode</t>
+          <t>MFP should delete unzipped data and exit communication cycle</t>
         </is>
       </c>
       <c r="G48" s="58" t="inlineStr"/>
@@ -11649,23 +11648,24 @@
       </c>
       <c r="C49" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, in retry mode</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D49" s="70" t="inlineStr">
         <is>
-          <t>Verify daily retry in retry mode</t>
+          <t>Verify firmware update failure handling</t>
         </is>
       </c>
       <c r="E49" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in retry mode
-2. Monitor communication attempts</t>
+          <t>1. Configure server to provide incompatible firmware
+2. Trigger firmware update
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F49" s="62" t="inlineStr">
         <is>
-          <t>MFP should try to communicate once every 24 hours</t>
+          <t>MFP should notify update failure to server and schedule regular communication after 1 hour</t>
         </is>
       </c>
       <c r="G49" s="58" t="inlineStr"/>
@@ -11680,25 +11680,24 @@
       </c>
       <c r="C50" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, in retry mode</t>
+          <t>MFP is SSD model with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D50" s="70" t="inlineStr">
         <is>
-          <t>Verify power failure during retry mode</t>
+          <t>Verify firmware update handling on SSD models</t>
         </is>
       </c>
       <c r="E50" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in retry mode
-2. Simulate power failure
-3. Power on MFP
-4. Monitor communication</t>
+          <t>1. Configure server to provide firmware update to SSD model
+2. Trigger firmware update
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F50" s="62" t="inlineStr">
         <is>
-          <t>Retry mode should be cancelled, normal communication should resume</t>
+          <t>Firmware update should fail and MFP should notify server of failure</t>
         </is>
       </c>
       <c r="G50" s="58" t="inlineStr"/>
@@ -11713,24 +11712,24 @@
       </c>
       <c r="C51" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D51" s="70" t="inlineStr">
         <is>
-          <t>Verify message log recording</t>
+          <t>Verify multiple update instruction handling</t>
         </is>
       </c>
       <c r="E51" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger various SCC events and errors
-3. Check message logs</t>
+          <t>1. Configure server to provide multiple update instructions
+2. Make one instruction fail
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F51" s="62" t="inlineStr">
         <is>
-          <t>Appropriate message logs should be recorded</t>
+          <t>MFP should continue with other instructions and notify results to server</t>
         </is>
       </c>
       <c r="G51" s="58" t="inlineStr"/>
@@ -11745,28 +11744,33 @@
       </c>
       <c r="C52" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, HDD nearly full</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D52" s="70" t="inlineStr">
         <is>
-          <t>Verify HDD full handling</t>
+          <t>Verify scheduled firmware update after power failure</t>
         </is>
       </c>
       <c r="E52" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Fill HDD to near capacity
-3. Trigger download package</t>
+          <t>1. Configure server to provide firmware update with schedule
+2. Power off MFP before scheduled time
+3. Power on MFP after scheduled time
+4. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F52" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete downloaded data and exit communication cycle</t>
+          <t>Firmware update should be rescheduled to same time next day</t>
         </is>
       </c>
       <c r="G52" s="58" t="inlineStr"/>
-      <c r="H52" s="59" t="inlineStr"/>
+      <c r="H52" s="59" t="inlineStr">
+        <is>
+          <t>Applies to L6.15 and later</t>
+        </is>
+      </c>
       <c r="I52" s="53" t="n"/>
     </row>
     <row r="53" ht="99.75" customHeight="1">
@@ -11777,28 +11781,33 @@
       </c>
       <c r="C53" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, RDMS (BBR2) enabled</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D53" s="70" t="inlineStr">
         <is>
-          <t>Verify RDMS compatibility</t>
+          <t>Verify scheduled firmware update after power failure (legacy)</t>
         </is>
       </c>
       <c r="E53" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Enable RDMS (BBR2)
-3. Test RDMS functionality</t>
+          <t>1. Configure server to provide firmware update with schedule
+2. Power off MFP before scheduled time
+3. Power on MFP after scheduled time
+4. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F53" s="62" t="inlineStr">
         <is>
-          <t>RDMS should not work when SCC is enabled (for versions before L6.02/L6.03)</t>
+          <t>Firmware update should execute 1 hour after reboot</t>
         </is>
       </c>
       <c r="G53" s="58" t="inlineStr"/>
-      <c r="H53" s="59" t="inlineStr"/>
+      <c r="H53" s="59" t="inlineStr">
+        <is>
+          <t>Applies to before L6.15</t>
+        </is>
+      </c>
       <c r="I53" s="53" t="n"/>
     </row>
     <row r="54" ht="99.75" customHeight="1">
@@ -11809,24 +11818,24 @@
       </c>
       <c r="C54" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, service UI in use</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D54" s="70" t="inlineStr">
         <is>
-          <t>Verify service UI exclusivity</t>
+          <t>Verify hibernation prevention during communication</t>
         </is>
       </c>
       <c r="E54" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Access service UI
-3. Trigger SCC communication</t>
+          <t>1. Configure MFP to enter hibernation
+2. Trigger SCC communication
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F54" s="62" t="inlineStr">
         <is>
-          <t>Service UI should not be usable during SCC communication</t>
+          <t>MFP should not enter hibernation during communication cycle</t>
         </is>
       </c>
       <c r="G54" s="58" t="inlineStr"/>
@@ -11841,24 +11850,25 @@
       </c>
       <c r="C55" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, 08-3827 value doesn't start with "http://" or "https://"</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D55" s="70" t="inlineStr">
         <is>
-          <t>Verify invalid URL handling</t>
+          <t>Verify persistent policy expiration</t>
         </is>
       </c>
       <c r="E55" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to invalid URL format
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Configure server to set persistent policy with expiration
+2. Wait until expiration period
+3. Change settings locally
+4. Check if settings remain changed</t>
         </is>
       </c>
       <c r="F55" s="62" t="inlineStr">
         <is>
-          <t>Network error should occur, MFP should not access default server</t>
+          <t>Settings should remain changed after persistent policy expiration</t>
         </is>
       </c>
       <c r="G55" s="58" t="inlineStr"/>
@@ -11873,24 +11883,23 @@
       </c>
       <c r="C56" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, 08-3827 set to valid URL but server unreachable</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D56" s="70" t="inlineStr">
         <is>
-          <t>Verify unreachable server handling</t>
+          <t>Verify message log recording</t>
         </is>
       </c>
       <c r="E56" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to valid but unreachable URL
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Generate various SCC-related events and errors
+2. Check message logs</t>
         </is>
       </c>
       <c r="F56" s="62" t="inlineStr">
         <is>
-          <t>MFP should not fall back to default server</t>
+          <t>Message logs should be recorded with appropriate error codes</t>
         </is>
       </c>
       <c r="G56" s="58" t="inlineStr"/>
@@ -11905,24 +11914,24 @@
       </c>
       <c r="C57" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, HTTPS URL set without importing CA certificate</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D57" s="70" t="inlineStr">
         <is>
-          <t>Verify certificate requirement</t>
+          <t>Verify maximum package size handling</t>
         </is>
       </c>
       <c r="E57" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to HTTPS URL requiring custom certificate
-2. Don't import certificate
-3. Enable SCC function</t>
+          <t>1. Configure server to provide package exceeding maximum size
+2. Trigger package download
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F57" s="62" t="inlineStr">
         <is>
-          <t>Communication should fail</t>
+          <t>MFP should handle the oversized package appropriately</t>
         </is>
       </c>
       <c r="G57" s="58" t="inlineStr"/>
@@ -11937,32 +11946,28 @@
       </c>
       <c r="C58" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, panel message display</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D58" s="70" t="inlineStr">
         <is>
-          <t>Verify panel message during SCC processing</t>
+          <t>Verify maximum baseline/regular data size handling</t>
         </is>
       </c>
       <c r="E58" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger SCC communication
-3. Observe panel messages</t>
+          <t>1. Generate conditions for oversized baseline/regular data
+2. Trigger data transmission
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F58" s="62" t="inlineStr">
         <is>
-          <t>Status window should display "Service in progress. Please do not turn off: XX"</t>
+          <t>MFP should handle the oversized data appropriately</t>
         </is>
       </c>
       <c r="G58" s="58" t="inlineStr"/>
-      <c r="H58" s="59" t="inlineStr">
-        <is>
-          <t>XX is 2-digit numerical value</t>
-        </is>
-      </c>
+      <c r="H58" s="59" t="inlineStr"/>
       <c r="I58" s="53" t="n"/>
     </row>
     <row r="59" ht="99.75" customHeight="1">
@@ -11973,24 +11978,23 @@
       </c>
       <c r="C59" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, firmware update in progress</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D59" s="70" t="inlineStr">
         <is>
-          <t>Verify popup window during firmware update</t>
+          <t>Verify HTTP error handling</t>
         </is>
       </c>
       <c r="E59" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger firmware update
-3. Observe panel</t>
+          <t>1. Simulate HTTP error response from server
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F59" s="62" t="inlineStr">
         <is>
-          <t>Popup window with sand clock and progress bar should be displayed</t>
+          <t>MFP should retry in 60 seconds, then enter retry mode if second retry fails</t>
         </is>
       </c>
       <c r="G59" s="58" t="inlineStr"/>
@@ -12005,25 +12009,25 @@
       </c>
       <c r="C60" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, power failure during package download</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D60" s="70" t="inlineStr">
         <is>
-          <t>Verify recovery after power failure during download</t>
+          <t>Verify power failure during retry mode</t>
         </is>
       </c>
       <c r="E60" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger package download
-3. Simulate power failure during download
-4. Power on MFP</t>
+          <t>1. Force MFP into retry mode
+2. Power off MFP
+3. Power on MFP
+4. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F60" s="62" t="inlineStr">
         <is>
-          <t>Downloaded data should be deleted before next communication</t>
+          <t>Retry mode should be cancelled and normal communication should start</t>
         </is>
       </c>
       <c r="G60" s="58" t="inlineStr"/>
@@ -12038,25 +12042,23 @@
       </c>
       <c r="C61" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, power failure during baseline data transmission</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D61" s="70" t="inlineStr">
         <is>
-          <t>Verify recovery after power failure during baseline transmission</t>
+          <t>Verify event notification during busy state</t>
         </is>
       </c>
       <c r="E61" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger baseline data transmission
-3. Simulate power failure during transmission
-4. Power on MFP</t>
+          <t>1. Generate event during SCC startup
+2. Monitor if event is notified to server</t>
         </is>
       </c>
       <c r="F61" s="62" t="inlineStr">
         <is>
-          <t>Baseline data should be deleted before next communication</t>
+          <t>Event may not be notified if SCC is in busy state</t>
         </is>
       </c>
       <c r="G61" s="58" t="inlineStr"/>
@@ -12071,25 +12073,23 @@
       </c>
       <c r="C62" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, power failure during installation</t>
+          <t>MFP is powered on with SCC and RDMS (BBR2) enabled</t>
         </is>
       </c>
       <c r="D62" s="70" t="inlineStr">
         <is>
-          <t>Verify recovery after power failure during installation</t>
+          <t>Verify SCC and RDMS compatibility</t>
         </is>
       </c>
       <c r="E62" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger package installation
-3. Simulate power failure during installation
-4. Power on MFP</t>
+          <t>1. Enable both SCC and RDMS
+2. Check if both functions work</t>
         </is>
       </c>
       <c r="F62" s="62" t="inlineStr">
         <is>
-          <t>Update package data should be deleted before next communication</t>
+          <t>RDMS should not work if SCC is enabled (for versions before L6.02/L6.03)</t>
         </is>
       </c>
       <c r="G62" s="58" t="inlineStr"/>
@@ -12104,25 +12104,23 @@
       </c>
       <c r="C63" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, power failure while waiting for firmware update schedule</t>
+          <t>MFP is in self-diagnostic boot-up mode</t>
         </is>
       </c>
       <c r="D63" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update rescheduling</t>
+          <t>Verify network functionality in self-diagnostic mode</t>
         </is>
       </c>
       <c r="E63" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Schedule firmware update
-3. Simulate power failure before scheduled time
-4. Power on MFP after scheduled time</t>
+          <t>1. Boot MFP in self-diagnostic mode
+2. Check network functionality</t>
         </is>
       </c>
       <c r="F63" s="62" t="inlineStr">
         <is>
-          <t>Firmware update should be rescheduled to same time next day (L6.15+)</t>
+          <t>Network should not work in self-diagnostic boot-up mode</t>
         </is>
       </c>
       <c r="G63" s="58" t="inlineStr"/>
@@ -12137,24 +12135,24 @@
       </c>
       <c r="C64" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, installation failure</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D64" s="70" t="inlineStr">
         <is>
-          <t>Verify installation failure handling</t>
+          <t>Verify service UI during SCC communication</t>
         </is>
       </c>
       <c r="E64" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate installation failure
-3. Monitor communication</t>
+          <t>1. Trigger SCC communication
+2. Try to access service UI
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F64" s="62" t="inlineStr">
         <is>
-          <t>Regular communication should be scheduled after 1 hour</t>
+          <t>Service UI should not be accessible during SCC communication</t>
         </is>
       </c>
       <c r="G64" s="58" t="inlineStr"/>
@@ -12169,24 +12167,24 @@
       </c>
       <c r="C65" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, SSD model</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D65" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update on SSD model</t>
+          <t>Verify ad-hoc scenario: rapid power cycling</t>
         </is>
       </c>
       <c r="E65" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function on SSD model
-2. Trigger firmware update
-3. Monitor installation process</t>
+          <t>1. Trigger SCC communication
+2. Perform rapid power cycling
+3. Monitor MFP behavior after restart</t>
         </is>
       </c>
       <c r="F65" s="62" t="inlineStr">
         <is>
-          <t>Firmware update should fail on SSD models</t>
+          <t>MFP should recover and resume normal SCC operation</t>
         </is>
       </c>
       <c r="G65" s="58" t="inlineStr"/>
@@ -12201,25 +12199,25 @@
       </c>
       <c r="C66" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, multiple update instructions with partial failure</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D66" s="70" t="inlineStr">
         <is>
-          <t>Verify partial update failure handling</t>
+          <t>Verify ad-hoc scenario: network interruption</t>
         </is>
       </c>
       <c r="E66" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate multiple update instructions
-3. Make one update fail
-4. Monitor installation process</t>
+          <t>1. Trigger SCC communication
+2. Interrupt network connection
+3. Restore network connection
+4. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F66" s="62" t="inlineStr">
         <is>
-          <t>Update installation should continue for all instructions</t>
+          <t>MFP should enter retry mode and recover when connection is restored</t>
         </is>
       </c>
       <c r="G66" s="58" t="inlineStr"/>
@@ -12234,24 +12232,24 @@
       </c>
       <c r="C67" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, special instruction only</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D67" s="70" t="inlineStr">
         <is>
-          <t>Verify reboot behavior with special instruction</t>
+          <t>Verify ad-hoc scenario: server certificate expiration</t>
         </is>
       </c>
       <c r="E67" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate special instruction only
-3. Monitor reboot behavior</t>
+          <t>1. Simulate server certificate expiration
+2. Trigger SCC communication
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F67" s="62" t="inlineStr">
         <is>
-          <t>MFP should not reboot after special instruction</t>
+          <t>MFP should handle certificate expiration appropriately</t>
         </is>
       </c>
       <c r="G67" s="58" t="inlineStr"/>
@@ -12266,24 +12264,23 @@
       </c>
       <c r="C68" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, failing to obtain MFP setting value</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D68" s="70" t="inlineStr">
         <is>
-          <t>Verify baseline data with missing settings</t>
+          <t>Verify ad-hoc scenario: random data corruption</t>
         </is>
       </c>
       <c r="E68" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate failure to obtain some setting values
-3. Monitor baseline data transmission</t>
+          <t>1. Simulate data corruption during transmission
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F68" s="62" t="inlineStr">
         <is>
-          <t>Transmission should proceed with missing values</t>
+          <t>MFP should detect corruption and handle it appropriately</t>
         </is>
       </c>
       <c r="G68" s="58" t="inlineStr"/>
@@ -12298,24 +12295,24 @@
       </c>
       <c r="C69" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, F-categorized error</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D69" s="70" t="inlineStr">
         <is>
-          <t>Verify error notification for network-related errors</t>
+          <t>Verify ad-hoc scenario: extreme network latency</t>
         </is>
       </c>
       <c r="E69" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger F-categorized error
-3. Monitor error notification</t>
+          <t>1. Simulate extreme network latency
+2. Trigger SCC communication
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F69" s="62" t="inlineStr">
         <is>
-          <t>Device should not be able to send error to server</t>
+          <t>MFP should handle high latency appropriately</t>
         </is>
       </c>
       <c r="G69" s="58" t="inlineStr"/>
@@ -12330,24 +12327,24 @@
       </c>
       <c r="C70" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled, event occurs and cancels immediately</t>
+          <t>MFP is powered on with SCC enabled and registered</t>
         </is>
       </c>
       <c r="D70" s="70" t="inlineStr">
         <is>
-          <t>Verify event notification for quickly resolved events</t>
+          <t>Verify ad-hoc scenario: concurrent operations</t>
         </is>
       </c>
       <c r="E70" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger event that resolves immediately
-3. Monitor event notification</t>
+          <t>1. Trigger SCC communication
+2. Perform multiple concurrent operations on MFP
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F70" s="62" t="inlineStr">
         <is>
-          <t>Event may not be notified if SCC is in busy state</t>
+          <t>MFP should handle concurrent operations appropriately</t>
         </is>
       </c>
       <c r="G70" s="58" t="inlineStr"/>
@@ -12355,1133 +12352,461 @@
       <c r="I70" s="53" t="n"/>
     </row>
     <row r="71" ht="99.75" customHeight="1">
-      <c r="B71" s="57" t="inlineStr">
-        <is>
-          <t>TC066</t>
-        </is>
-      </c>
-      <c r="C71" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, 08-3827 is NULL</t>
-        </is>
-      </c>
-      <c r="D71" s="70" t="inlineStr">
-        <is>
-          <t>Verify default server connection</t>
-        </is>
-      </c>
-      <c r="E71" s="61" t="inlineStr">
-        <is>
-          <t>1. Set 08-3827 to NULL
-2. Enable SCC function
-3. Monitor connection</t>
-        </is>
-      </c>
-      <c r="F71" s="62" t="inlineStr">
-        <is>
-          <t>MFP should connect to NA server (edevice.Tprinters-solutions.com)</t>
-        </is>
-      </c>
-      <c r="G71" s="58" t="inlineStr"/>
-      <c r="H71" s="59" t="inlineStr"/>
+      <c r="B71" s="57" t="n"/>
+      <c r="C71" s="60" t="n"/>
+      <c r="D71" s="70" t="n"/>
+      <c r="E71" s="61" t="n"/>
+      <c r="F71" s="62" t="n"/>
+      <c r="G71" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H71" s="59" t="n"/>
       <c r="I71" s="53" t="n"/>
     </row>
     <row r="72" ht="99.75" customHeight="1">
-      <c r="B72" s="57" t="inlineStr">
-        <is>
-          <t>TC067</t>
-        </is>
-      </c>
-      <c r="C72" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, device registered on server</t>
-        </is>
-      </c>
-      <c r="D72" s="70" t="inlineStr">
-        <is>
-          <t>Verify GetRedirectURL behavior for registered device</t>
-        </is>
-      </c>
-      <c r="E72" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function for registered device
-2. Monitor GetRedirectURL request</t>
-        </is>
-      </c>
-      <c r="F72" s="62" t="inlineStr">
-        <is>
-          <t>MFP should connect to specified URL and communicate with server</t>
-        </is>
-      </c>
-      <c r="G72" s="58" t="inlineStr"/>
-      <c r="H72" s="59" t="inlineStr"/>
+      <c r="B72" s="57" t="n"/>
+      <c r="C72" s="60" t="n"/>
+      <c r="D72" s="70" t="n"/>
+      <c r="E72" s="61" t="n"/>
+      <c r="F72" s="62" t="n"/>
+      <c r="G72" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H72" s="59" t="n"/>
       <c r="I72" s="53" t="n"/>
     </row>
     <row r="73" ht="99.75" customHeight="1">
-      <c r="B73" s="57" t="inlineStr">
-        <is>
-          <t>TC068</t>
-        </is>
-      </c>
-      <c r="C73" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, device not registered on server</t>
-        </is>
-      </c>
-      <c r="D73" s="70" t="inlineStr">
-        <is>
-          <t>Verify registration error handling</t>
-        </is>
-      </c>
-      <c r="E73" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function for unregistered device
-2. Monitor registration process</t>
-        </is>
-      </c>
-      <c r="F73" s="62" t="inlineStr">
-        <is>
-          <t>Registration error (STATUS_FAILED) should occur</t>
-        </is>
-      </c>
-      <c r="G73" s="58" t="inlineStr"/>
-      <c r="H73" s="59" t="inlineStr"/>
+      <c r="B73" s="57" t="n"/>
+      <c r="C73" s="60" t="n"/>
+      <c r="D73" s="70" t="n"/>
+      <c r="E73" s="61" t="n"/>
+      <c r="F73" s="62" t="n"/>
+      <c r="G73" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H73" s="59" t="n"/>
       <c r="I73" s="53" t="n"/>
     </row>
     <row r="74" ht="99.75" customHeight="1">
-      <c r="B74" s="57" t="inlineStr">
-        <is>
-          <t>TC069</t>
-        </is>
-      </c>
-      <c r="C74" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, server returns different URL, URL forward enabled</t>
-        </is>
-      </c>
-      <c r="D74" s="70" t="inlineStr">
-        <is>
-          <t>Verify URL forwarding when enabled</t>
-        </is>
-      </c>
-      <c r="E74" s="61" t="inlineStr">
-        <is>
-          <t>1. Set 08-3828 to "1" (Enable)
-2. Enable SCC function
-3. Simulate server returning different URL
-4. Monitor connection</t>
-        </is>
-      </c>
-      <c r="F74" s="62" t="inlineStr">
-        <is>
-          <t>MFP should connect to returned URL</t>
-        </is>
-      </c>
-      <c r="G74" s="58" t="inlineStr"/>
-      <c r="H74" s="59" t="inlineStr"/>
+      <c r="B74" s="57" t="n"/>
+      <c r="C74" s="60" t="n"/>
+      <c r="D74" s="70" t="n"/>
+      <c r="E74" s="61" t="n"/>
+      <c r="F74" s="62" t="n"/>
+      <c r="G74" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H74" s="59" t="n"/>
       <c r="I74" s="53" t="n"/>
     </row>
     <row r="75" ht="99.75" customHeight="1">
-      <c r="B75" s="57" t="inlineStr">
-        <is>
-          <t>TC070</t>
-        </is>
-      </c>
-      <c r="C75" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, server returns different URL, URL forward disabled</t>
-        </is>
-      </c>
-      <c r="D75" s="70" t="inlineStr">
-        <is>
-          <t>Verify URL forwarding when disabled</t>
-        </is>
-      </c>
-      <c r="E75" s="61" t="inlineStr">
-        <is>
-          <t>1. Set 08-3828 to "0" (Disable)
-2. Enable SCC function
-3. Simulate server returning different URL
-4. Monitor connection</t>
-        </is>
-      </c>
-      <c r="F75" s="62" t="inlineStr">
-        <is>
-          <t>Registration error should occur</t>
-        </is>
-      </c>
-      <c r="G75" s="58" t="inlineStr"/>
-      <c r="H75" s="59" t="inlineStr"/>
+      <c r="B75" s="57" t="n"/>
+      <c r="C75" s="60" t="n"/>
+      <c r="D75" s="70" t="n"/>
+      <c r="E75" s="61" t="n"/>
+      <c r="F75" s="62" t="n"/>
+      <c r="G75" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H75" s="59" t="n"/>
       <c r="I75" s="53" t="n"/>
     </row>
     <row r="76" ht="99.75" customHeight="1">
-      <c r="B76" s="57" t="inlineStr">
-        <is>
-          <t>TC071</t>
-        </is>
-      </c>
-      <c r="C76" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, SendDataConfig parameters set to "on"</t>
-        </is>
-      </c>
-      <c r="D76" s="70" t="inlineStr">
-        <is>
-          <t>Verify data collection based on SendDataConfig</t>
-        </is>
-      </c>
-      <c r="E76" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Set SendDataConfig parameters to "on"
-3. Monitor data collection</t>
-        </is>
-      </c>
-      <c r="F76" s="62" t="inlineStr">
-        <is>
-          <t>MFP should collect all specified data types</t>
-        </is>
-      </c>
-      <c r="G76" s="58" t="inlineStr"/>
-      <c r="H76" s="59" t="inlineStr"/>
+      <c r="B76" s="57" t="n"/>
+      <c r="C76" s="60" t="n"/>
+      <c r="D76" s="70" t="n"/>
+      <c r="E76" s="61" t="n"/>
+      <c r="F76" s="62" t="n"/>
+      <c r="G76" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H76" s="59" t="n"/>
       <c r="I76" s="53" t="n"/>
     </row>
     <row r="77" ht="99.75" customHeight="1">
-      <c r="B77" s="57" t="inlineStr">
-        <is>
-          <t>TC072</t>
-        </is>
-      </c>
-      <c r="C77" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, SendDataConfig parameters set to "off"</t>
-        </is>
-      </c>
-      <c r="D77" s="70" t="inlineStr">
-        <is>
-          <t>Verify data collection based on SendDataConfig</t>
-        </is>
-      </c>
-      <c r="E77" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Set SendDataConfig parameters to "off"
-3. Monitor data collection</t>
-        </is>
-      </c>
-      <c r="F77" s="62" t="inlineStr">
-        <is>
-          <t>MFP should not collect specified data types</t>
-        </is>
-      </c>
-      <c r="G77" s="58" t="inlineStr"/>
-      <c r="H77" s="59" t="inlineStr"/>
+      <c r="B77" s="57" t="n"/>
+      <c r="C77" s="60" t="n"/>
+      <c r="D77" s="70" t="n"/>
+      <c r="E77" s="61" t="n"/>
+      <c r="F77" s="62" t="n"/>
+      <c r="G77" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H77" s="59" t="n"/>
       <c r="I77" s="53" t="n"/>
     </row>
     <row r="78" ht="99.75" customHeight="1">
-      <c r="B78" s="57" t="inlineStr">
-        <is>
-          <t>TC073</t>
-        </is>
-      </c>
-      <c r="C78" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, cloning data instruction received</t>
-        </is>
-      </c>
-      <c r="D78" s="70" t="inlineStr">
-        <is>
-          <t>Verify cloning data application</t>
-        </is>
-      </c>
-      <c r="E78" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Simulate cloning data instruction
-3. Monitor application process</t>
-        </is>
-      </c>
-      <c r="F78" s="62" t="inlineStr">
-        <is>
-          <t>MFP should apply cloning data regardless of SendDataConfig settings</t>
-        </is>
-      </c>
-      <c r="G78" s="58" t="inlineStr"/>
-      <c r="H78" s="59" t="inlineStr"/>
+      <c r="B78" s="57" t="n"/>
+      <c r="C78" s="60" t="n"/>
+      <c r="D78" s="70" t="n"/>
+      <c r="E78" s="61" t="n"/>
+      <c r="F78" s="62" t="n"/>
+      <c r="G78" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H78" s="59" t="n"/>
       <c r="I78" s="53" t="n"/>
     </row>
     <row r="79" ht="99.75" customHeight="1">
-      <c r="B79" s="57" t="inlineStr">
-        <is>
-          <t>TC074</t>
-        </is>
-      </c>
-      <c r="C79" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, HTTP error received</t>
-        </is>
-      </c>
-      <c r="D79" s="70" t="inlineStr">
-        <is>
-          <t>Verify HTTP error handling</t>
-        </is>
-      </c>
-      <c r="E79" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Simulate HTTP error response
-3. Monitor retry behavior</t>
-        </is>
-      </c>
-      <c r="F79" s="62" t="inlineStr">
-        <is>
-          <t>MFP should retry in 60 seconds, then enter retry mode after second failure</t>
-        </is>
-      </c>
-      <c r="G79" s="58" t="inlineStr"/>
-      <c r="H79" s="59" t="inlineStr"/>
+      <c r="B79" s="57" t="n"/>
+      <c r="C79" s="60" t="n"/>
+      <c r="D79" s="70" t="n"/>
+      <c r="E79" s="61" t="n"/>
+      <c r="F79" s="62" t="n"/>
+      <c r="G79" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H79" s="59" t="n"/>
       <c r="I79" s="53" t="n"/>
     </row>
     <row r="80" ht="99.75" customHeight="1">
-      <c r="B80" s="57" t="inlineStr">
-        <is>
-          <t>TC075</t>
-        </is>
-      </c>
-      <c r="C80" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, communication error during device error notification</t>
-        </is>
-      </c>
-      <c r="D80" s="70" t="inlineStr">
-        <is>
-          <t>Verify device error notification retry</t>
-        </is>
-      </c>
-      <c r="E80" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Trigger device error
-3. Simulate communication error during notification
-4. Monitor retry behavior</t>
-        </is>
-      </c>
-      <c r="F80" s="62" t="inlineStr">
-        <is>
-          <t>MFP should retry with 60-minute intervals without entering retry mode</t>
-        </is>
-      </c>
-      <c r="G80" s="58" t="inlineStr"/>
-      <c r="H80" s="59" t="inlineStr"/>
+      <c r="B80" s="57" t="n"/>
+      <c r="C80" s="60" t="n"/>
+      <c r="D80" s="70" t="n"/>
+      <c r="E80" s="61" t="n"/>
+      <c r="F80" s="62" t="n"/>
+      <c r="G80" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H80" s="59" t="n"/>
       <c r="I80" s="53" t="n"/>
     </row>
     <row r="81" ht="99.75" customHeight="1">
-      <c r="B81" s="57" t="inlineStr">
-        <is>
-          <t>TC076</t>
-        </is>
-      </c>
-      <c r="C81" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, power failure during service file transmission</t>
-        </is>
-      </c>
-      <c r="D81" s="70" t="inlineStr">
-        <is>
-          <t>Verify recovery after power failure during service file transmission</t>
-        </is>
-      </c>
-      <c r="E81" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Trigger service file transmission
-3. Simulate power failure during transmission
-4. Power on MFP</t>
-        </is>
-      </c>
-      <c r="F81" s="62" t="inlineStr">
-        <is>
-          <t>Created data should be deleted before next communication</t>
-        </is>
-      </c>
-      <c r="G81" s="58" t="inlineStr"/>
-      <c r="H81" s="59" t="inlineStr"/>
+      <c r="B81" s="57" t="n"/>
+      <c r="C81" s="60" t="n"/>
+      <c r="D81" s="70" t="n"/>
+      <c r="E81" s="61" t="n"/>
+      <c r="F81" s="62" t="n"/>
+      <c r="G81" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H81" s="59" t="n"/>
       <c r="I81" s="53" t="n"/>
     </row>
     <row r="82" ht="99.75" customHeight="1">
-      <c r="B82" s="57" t="inlineStr">
-        <is>
-          <t>TC077</t>
-        </is>
-      </c>
-      <c r="C82" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, unzip failure</t>
-        </is>
-      </c>
-      <c r="D82" s="70" t="inlineStr">
-        <is>
-          <t>Verify unzip failure handling</t>
-        </is>
-      </c>
-      <c r="E82" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Simulate corrupted ZIP file download
-3. Monitor unzip process</t>
-        </is>
-      </c>
-      <c r="F82" s="62" t="inlineStr">
-        <is>
-          <t>MFP should delete unzipped data and exit communication cycle</t>
-        </is>
-      </c>
-      <c r="G82" s="58" t="inlineStr"/>
-      <c r="H82" s="59" t="inlineStr"/>
+      <c r="B82" s="57" t="n"/>
+      <c r="C82" s="60" t="n"/>
+      <c r="D82" s="70" t="n"/>
+      <c r="E82" s="61" t="n"/>
+      <c r="F82" s="62" t="n"/>
+      <c r="G82" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H82" s="59" t="n"/>
       <c r="I82" s="53" t="n"/>
     </row>
     <row r="83" ht="99.75" customHeight="1">
-      <c r="B83" s="57" t="inlineStr">
-        <is>
-          <t>TC078</t>
-        </is>
-      </c>
-      <c r="C83" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, registration fails 3 consecutive times</t>
-        </is>
-      </c>
-      <c r="D83" s="70" t="inlineStr">
-        <is>
-          <t>Verify registration lock</t>
-        </is>
-      </c>
-      <c r="E83" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Simulate 3 consecutive registration failures
-3. Monitor registration process</t>
-        </is>
-      </c>
-      <c r="F83" s="62" t="inlineStr">
-        <is>
-          <t>Server should respond with STATUS_LOCK</t>
-        </is>
-      </c>
-      <c r="G83" s="58" t="inlineStr"/>
-      <c r="H83" s="59" t="inlineStr"/>
+      <c r="B83" s="57" t="n"/>
+      <c r="C83" s="60" t="n"/>
+      <c r="D83" s="70" t="n"/>
+      <c r="E83" s="61" t="n"/>
+      <c r="F83" s="62" t="n"/>
+      <c r="G83" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H83" s="59" t="n"/>
       <c r="I83" s="53" t="n"/>
     </row>
     <row r="84" ht="99.75" customHeight="1">
-      <c r="B84" s="57" t="inlineStr">
-        <is>
-          <t>TC079</t>
-        </is>
-      </c>
-      <c r="C84" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, STATUS_INVALID_TOKEN received</t>
-        </is>
-      </c>
-      <c r="D84" s="70" t="inlineStr">
-        <is>
-          <t>Verify invalid token handling</t>
-        </is>
-      </c>
-      <c r="E84" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Simulate STATUS_INVALID_TOKEN response
-3. Monitor communication</t>
-        </is>
-      </c>
-      <c r="F84" s="62" t="inlineStr">
-        <is>
-          <t>MFP should exit communication cycle and wait for next schedule</t>
-        </is>
-      </c>
-      <c r="G84" s="58" t="inlineStr"/>
-      <c r="H84" s="59" t="inlineStr"/>
+      <c r="B84" s="57" t="n"/>
+      <c r="C84" s="60" t="n"/>
+      <c r="D84" s="70" t="n"/>
+      <c r="E84" s="61" t="n"/>
+      <c r="F84" s="62" t="n"/>
+      <c r="G84" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H84" s="59" t="n"/>
       <c r="I84" s="53" t="n"/>
     </row>
     <row r="85" ht="99.75" customHeight="1">
-      <c r="B85" s="57" t="inlineStr">
-        <is>
-          <t>TC080</t>
-        </is>
-      </c>
-      <c r="C85" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, STATUS_FAILED_DATAINTEGRITY received</t>
-        </is>
-      </c>
-      <c r="D85" s="70" t="inlineStr">
-        <is>
-          <t>Verify data integrity failure handling</t>
-        </is>
-      </c>
-      <c r="E85" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Simulate STATUS_FAILED_DATAINTEGRITY response
-3. Monitor communication</t>
-        </is>
-      </c>
-      <c r="F85" s="62" t="inlineStr">
-        <is>
-          <t>MFP should delete created data and exit communication cycle</t>
-        </is>
-      </c>
-      <c r="G85" s="58" t="inlineStr"/>
-      <c r="H85" s="59" t="inlineStr"/>
+      <c r="B85" s="57" t="n"/>
+      <c r="C85" s="60" t="n"/>
+      <c r="D85" s="70" t="n"/>
+      <c r="E85" s="61" t="n"/>
+      <c r="F85" s="62" t="n"/>
+      <c r="G85" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H85" s="59" t="n"/>
       <c r="I85" s="53" t="n"/>
     </row>
     <row r="86" ht="99.75" customHeight="1">
-      <c r="B86" s="57" t="inlineStr">
-        <is>
-          <t>TC081</t>
-        </is>
-      </c>
-      <c r="C86" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, installation cannot start due to exclusion</t>
-        </is>
-      </c>
-      <c r="D86" s="70" t="inlineStr">
-        <is>
-          <t>Verify installation exclusion handling</t>
-        </is>
-      </c>
-      <c r="E86" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Create exclusion condition
-3. Trigger installation
-4. Monitor installation process</t>
-        </is>
-      </c>
-      <c r="F86" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle as installation failure</t>
-        </is>
-      </c>
-      <c r="G86" s="58" t="inlineStr"/>
-      <c r="H86" s="59" t="inlineStr"/>
+      <c r="B86" s="57" t="n"/>
+      <c r="C86" s="60" t="n"/>
+      <c r="D86" s="70" t="n"/>
+      <c r="E86" s="61" t="n"/>
+      <c r="F86" s="62" t="n"/>
+      <c r="G86" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H86" s="59" t="n"/>
       <c r="I86" s="53" t="n"/>
     </row>
     <row r="87" ht="99.75" customHeight="1">
-      <c r="B87" s="57" t="inlineStr">
-        <is>
-          <t>TC082</t>
-        </is>
-      </c>
-      <c r="C87" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, firmware update fails 3 times</t>
-        </is>
-      </c>
-      <c r="D87" s="70" t="inlineStr">
-        <is>
-          <t>Verify repeated firmware update failure</t>
-        </is>
-      </c>
-      <c r="E87" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Simulate 3 consecutive firmware update failures
-3. Monitor update instructions</t>
-        </is>
-      </c>
-      <c r="F87" s="62" t="inlineStr">
-        <is>
-          <t>Server should stop sending update instructions after 3 failures</t>
-        </is>
-      </c>
-      <c r="G87" s="58" t="inlineStr"/>
-      <c r="H87" s="59" t="inlineStr"/>
+      <c r="B87" s="57" t="n"/>
+      <c r="C87" s="60" t="n"/>
+      <c r="D87" s="70" t="n"/>
+      <c r="E87" s="61" t="n"/>
+      <c r="F87" s="62" t="n"/>
+      <c r="G87" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H87" s="59" t="n"/>
       <c r="I87" s="53" t="n"/>
     </row>
     <row r="88" ht="99.75" customHeight="1">
-      <c r="B88" s="57" t="inlineStr">
-        <is>
-          <t>TC083</t>
-        </is>
-      </c>
-      <c r="C88" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, package size exceeds maximum</t>
-        </is>
-      </c>
-      <c r="D88" s="70" t="inlineStr">
-        <is>
-          <t>Verify oversized package handling</t>
-        </is>
-      </c>
-      <c r="E88" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Simulate oversized update package
-3. Monitor download process</t>
-        </is>
-      </c>
-      <c r="F88" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle download failure appropriately</t>
-        </is>
-      </c>
-      <c r="G88" s="58" t="inlineStr"/>
-      <c r="H88" s="59" t="inlineStr"/>
+      <c r="B88" s="57" t="n"/>
+      <c r="C88" s="60" t="n"/>
+      <c r="D88" s="70" t="n"/>
+      <c r="E88" s="61" t="n"/>
+      <c r="F88" s="62" t="n"/>
+      <c r="G88" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H88" s="59" t="n"/>
       <c r="I88" s="53" t="n"/>
     </row>
     <row r="89" ht="99.75" customHeight="1">
-      <c r="B89" s="57" t="inlineStr">
-        <is>
-          <t>TC084</t>
-        </is>
-      </c>
-      <c r="C89" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, baseline data size exceeds maximum</t>
-        </is>
-      </c>
-      <c r="D89" s="70" t="inlineStr">
-        <is>
-          <t>Verify oversized baseline data handling</t>
-        </is>
-      </c>
-      <c r="E89" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Create conditions for oversized baseline data
-3. Monitor transmission process</t>
-        </is>
-      </c>
-      <c r="F89" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle transmission failure appropriately</t>
-        </is>
-      </c>
-      <c r="G89" s="58" t="inlineStr"/>
-      <c r="H89" s="59" t="inlineStr"/>
+      <c r="B89" s="57" t="n"/>
+      <c r="C89" s="60" t="n"/>
+      <c r="D89" s="70" t="n"/>
+      <c r="E89" s="61" t="n"/>
+      <c r="F89" s="62" t="n"/>
+      <c r="G89" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H89" s="59" t="n"/>
       <c r="I89" s="53" t="n"/>
     </row>
     <row r="90" ht="99.75" customHeight="1">
-      <c r="B90" s="57" t="inlineStr">
-        <is>
-          <t>TC085</t>
-        </is>
-      </c>
-      <c r="C90" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, factory default performed</t>
-        </is>
-      </c>
-      <c r="D90" s="70" t="inlineStr">
-        <is>
-          <t>Verify settings persistence after factory default</t>
-        </is>
-      </c>
-      <c r="E90" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Perform factory default
-3. Check SCC settings</t>
-        </is>
-      </c>
-      <c r="F90" s="62" t="inlineStr">
-        <is>
-          <t>08-3827 should not be initialized by Factory Default</t>
-        </is>
-      </c>
-      <c r="G90" s="58" t="inlineStr"/>
-      <c r="H90" s="59" t="inlineStr"/>
+      <c r="B90" s="57" t="n"/>
+      <c r="C90" s="60" t="n"/>
+      <c r="D90" s="70" t="n"/>
+      <c r="E90" s="61" t="n"/>
+      <c r="F90" s="62" t="n"/>
+      <c r="G90" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H90" s="59" t="n"/>
       <c r="I90" s="53" t="n"/>
     </row>
     <row r="91" ht="99.75" customHeight="1">
-      <c r="B91" s="57" t="inlineStr">
-        <is>
-          <t>TC086</t>
-        </is>
-      </c>
-      <c r="C91" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, HDD clear performed</t>
-        </is>
-      </c>
-      <c r="D91" s="70" t="inlineStr">
-        <is>
-          <t>Verify settings after HDD clear</t>
-        </is>
-      </c>
-      <c r="E91" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Perform HDD clear
-3. Check SCC settings</t>
-        </is>
-      </c>
-      <c r="F91" s="62" t="inlineStr">
-        <is>
-          <t>08-3827 should be initialized by HDD clear</t>
-        </is>
-      </c>
-      <c r="G91" s="58" t="inlineStr"/>
-      <c r="H91" s="59" t="inlineStr"/>
+      <c r="B91" s="57" t="n"/>
+      <c r="C91" s="60" t="n"/>
+      <c r="D91" s="70" t="n"/>
+      <c r="E91" s="61" t="n"/>
+      <c r="F91" s="62" t="n"/>
+      <c r="G91" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H91" s="59" t="n"/>
       <c r="I91" s="53" t="n"/>
     </row>
     <row r="92" ht="99.75" customHeight="1">
-      <c r="B92" s="57" t="inlineStr">
-        <is>
-          <t>TC087</t>
-        </is>
-      </c>
-      <c r="C92" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, decommission performed</t>
-        </is>
-      </c>
-      <c r="D92" s="70" t="inlineStr">
-        <is>
-          <t>Verify settings after decommission</t>
-        </is>
-      </c>
-      <c r="E92" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Perform decommission
-3. Check SCC settings</t>
-        </is>
-      </c>
-      <c r="F92" s="62" t="inlineStr">
-        <is>
-          <t>08-3827 and 08-3828 should be initialized by decommission</t>
-        </is>
-      </c>
-      <c r="G92" s="58" t="inlineStr"/>
-      <c r="H92" s="59" t="inlineStr"/>
+      <c r="B92" s="57" t="n"/>
+      <c r="C92" s="60" t="n"/>
+      <c r="D92" s="70" t="n"/>
+      <c r="E92" s="61" t="n"/>
+      <c r="F92" s="62" t="n"/>
+      <c r="G92" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H92" s="59" t="n"/>
       <c r="I92" s="53" t="n"/>
     </row>
     <row r="93" ht="99.75" customHeight="1">
-      <c r="B93" s="57" t="inlineStr">
-        <is>
-          <t>TC088</t>
-        </is>
-      </c>
-      <c r="C93" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, clone operation performed</t>
-        </is>
-      </c>
-      <c r="D93" s="70" t="inlineStr">
-        <is>
-          <t>Verify settings after clone operation</t>
-        </is>
-      </c>
-      <c r="E93" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Perform clone operation
-3. Check SCC settings</t>
-        </is>
-      </c>
-      <c r="F93" s="62" t="inlineStr">
-        <is>
-          <t>08-3820, 08-3827, and 08-3828 should not be cloned</t>
-        </is>
-      </c>
-      <c r="G93" s="58" t="inlineStr"/>
-      <c r="H93" s="59" t="inlineStr"/>
+      <c r="B93" s="57" t="n"/>
+      <c r="C93" s="60" t="n"/>
+      <c r="D93" s="70" t="n"/>
+      <c r="E93" s="61" t="n"/>
+      <c r="F93" s="62" t="n"/>
+      <c r="G93" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H93" s="59" t="n"/>
       <c r="I93" s="53" t="n"/>
     </row>
     <row r="94" ht="99.75" customHeight="1">
-      <c r="B94" s="57" t="inlineStr">
-        <is>
-          <t>TC089</t>
-        </is>
-      </c>
-      <c r="C94" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, performance test</t>
-        </is>
-      </c>
-      <c r="D94" s="70" t="inlineStr">
-        <is>
-          <t>Verify performance impact</t>
-        </is>
-      </c>
-      <c r="E94" s="61" t="inlineStr">
-        <is>
-          <t>1. Measure MFP performance with SCC disabled
-2. Enable SCC function
-3. Measure performance again</t>
-        </is>
-      </c>
-      <c r="F94" s="62" t="inlineStr">
-        <is>
-          <t>Performance should not be degraded beyond accumulated time of individual functions</t>
-        </is>
-      </c>
-      <c r="G94" s="58" t="inlineStr"/>
-      <c r="H94" s="59" t="inlineStr"/>
+      <c r="B94" s="57" t="n"/>
+      <c r="C94" s="60" t="n"/>
+      <c r="D94" s="70" t="n"/>
+      <c r="E94" s="61" t="n"/>
+      <c r="F94" s="62" t="n"/>
+      <c r="G94" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H94" s="59" t="n"/>
       <c r="I94" s="53" t="n"/>
     </row>
     <row r="95" ht="99.75" customHeight="1">
-      <c r="B95" s="57" t="inlineStr">
-        <is>
-          <t>TC090</t>
-        </is>
-      </c>
-      <c r="C95" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, startup time test</t>
-        </is>
-      </c>
-      <c r="D95" s="70" t="inlineStr">
-        <is>
-          <t>Verify startup time impact</t>
-        </is>
-      </c>
-      <c r="E95" s="61" t="inlineStr">
-        <is>
-          <t>1. Measure startup time with SCC disabled
-2. Enable SCC function
-3. Measure startup time again</t>
-        </is>
-      </c>
-      <c r="F95" s="62" t="inlineStr">
-        <is>
-          <t>Startup time should not be impacted</t>
-        </is>
-      </c>
-      <c r="G95" s="58" t="inlineStr"/>
-      <c r="H95" s="59" t="inlineStr"/>
+      <c r="B95" s="57" t="n"/>
+      <c r="C95" s="60" t="n"/>
+      <c r="D95" s="70" t="n"/>
+      <c r="E95" s="61" t="n"/>
+      <c r="F95" s="62" t="n"/>
+      <c r="G95" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H95" s="59" t="n"/>
       <c r="I95" s="53" t="n"/>
     </row>
     <row r="96" ht="99.75" customHeight="1">
-      <c r="B96" s="57" t="inlineStr">
-        <is>
-          <t>TC091</t>
-        </is>
-      </c>
-      <c r="C96" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, multiple errors occur simultaneously</t>
-        </is>
-      </c>
-      <c r="D96" s="70" t="inlineStr">
-        <is>
-          <t>Verify multiple error handling</t>
-        </is>
-      </c>
-      <c r="E96" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Trigger multiple device errors simultaneously
-3. Monitor error notifications</t>
-        </is>
-      </c>
-      <c r="F96" s="62" t="inlineStr">
-        <is>
-          <t>All errors should be reported to server</t>
-        </is>
-      </c>
-      <c r="G96" s="58" t="inlineStr"/>
-      <c r="H96" s="59" t="inlineStr"/>
+      <c r="B96" s="57" t="n"/>
+      <c r="C96" s="60" t="n"/>
+      <c r="D96" s="70" t="n"/>
+      <c r="E96" s="61" t="n"/>
+      <c r="F96" s="62" t="n"/>
+      <c r="G96" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H96" s="59" t="n"/>
       <c r="I96" s="53" t="n"/>
     </row>
     <row r="97" ht="99.75" customHeight="1">
-      <c r="B97" s="57" t="inlineStr">
-        <is>
-          <t>TC092</t>
-        </is>
-      </c>
-      <c r="C97" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, error occurs during Super Sleep</t>
-        </is>
-      </c>
-      <c r="D97" s="70" t="inlineStr">
-        <is>
-          <t>Verify error detection during Super Sleep</t>
-        </is>
-      </c>
-      <c r="E97" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Put MFP in Super Sleep
-3. Trigger device error
-4. Monitor error notification</t>
-        </is>
-      </c>
-      <c r="F97" s="62" t="inlineStr">
-        <is>
-          <t>Error should be detected and reported after waking from Super Sleep</t>
-        </is>
-      </c>
-      <c r="G97" s="58" t="inlineStr"/>
-      <c r="H97" s="59" t="inlineStr"/>
+      <c r="B97" s="57" t="n"/>
+      <c r="C97" s="60" t="n"/>
+      <c r="D97" s="70" t="n"/>
+      <c r="E97" s="61" t="n"/>
+      <c r="F97" s="62" t="n"/>
+      <c r="G97" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H97" s="59" t="n"/>
       <c r="I97" s="53" t="n"/>
     </row>
     <row r="98" ht="99.75" customHeight="1">
-      <c r="B98" s="57" t="inlineStr">
-        <is>
-          <t>TC093</t>
-        </is>
-      </c>
-      <c r="C98" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, firmware update scheduled</t>
-        </is>
-      </c>
-      <c r="D98" s="70" t="inlineStr">
-        <is>
-          <t>Verify Super Sleep behavior with scheduled update</t>
-        </is>
-      </c>
-      <c r="E98" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Schedule firmware update
-3. Attempt to enter Super Sleep</t>
-        </is>
-      </c>
-      <c r="F98" s="62" t="inlineStr">
-        <is>
-          <t>MFP should be able to enter Super Sleep while waiting for scheduled update</t>
-        </is>
-      </c>
-      <c r="G98" s="58" t="inlineStr"/>
-      <c r="H98" s="59" t="inlineStr"/>
+      <c r="B98" s="57" t="n"/>
+      <c r="C98" s="60" t="n"/>
+      <c r="D98" s="70" t="n"/>
+      <c r="E98" s="61" t="n"/>
+      <c r="F98" s="62" t="n"/>
+      <c r="G98" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H98" s="59" t="n"/>
       <c r="I98" s="53" t="n"/>
     </row>
     <row r="99" ht="99.75" customHeight="1">
-      <c r="B99" s="57" t="inlineStr">
-        <is>
-          <t>TC094</t>
-        </is>
-      </c>
-      <c r="C99" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, firmware update scheduled</t>
-        </is>
-      </c>
-      <c r="D99" s="70" t="inlineStr">
-        <is>
-          <t>Verify Hibernation behavior with scheduled update</t>
-        </is>
-      </c>
-      <c r="E99" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Schedule firmware update
-3. Attempt to enter Hibernation</t>
-        </is>
-      </c>
-      <c r="F99" s="62" t="inlineStr">
-        <is>
-          <t>MFP should be able to enter Hibernation while waiting for scheduled update</t>
-        </is>
-      </c>
-      <c r="G99" s="58" t="inlineStr"/>
-      <c r="H99" s="59" t="inlineStr"/>
+      <c r="B99" s="57" t="n"/>
+      <c r="C99" s="60" t="n"/>
+      <c r="D99" s="70" t="n"/>
+      <c r="E99" s="61" t="n"/>
+      <c r="F99" s="62" t="n"/>
+      <c r="G99" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H99" s="59" t="n"/>
       <c r="I99" s="53" t="n"/>
     </row>
     <row r="100" ht="99.75" customHeight="1">
-      <c r="B100" s="57" t="inlineStr">
-        <is>
-          <t>TC095</t>
-        </is>
-      </c>
-      <c r="C100" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, sync communication schedule &gt; Persistent Policy Check Expiration</t>
-        </is>
-      </c>
-      <c r="D100" s="70" t="inlineStr">
-        <is>
-          <t>Verify Persistent Policy expiration behavior</t>
-        </is>
-      </c>
-      <c r="E100" s="61" t="inlineStr">
-        <is>
-          <t>1. Set sync schedule to 7 days
-2. Set Persistent Policy Check Expiration to 1 day
-3. Wait for expiration
-4. Change 08/05/13 settings</t>
-        </is>
-      </c>
-      <c r="F100" s="62" t="inlineStr">
-        <is>
-          <t>Persistent policy check should stop after expiration</t>
-        </is>
-      </c>
-      <c r="G100" s="58" t="inlineStr"/>
-      <c r="H100" s="59" t="inlineStr"/>
+      <c r="B100" s="57" t="n"/>
+      <c r="C100" s="60" t="n"/>
+      <c r="D100" s="70" t="n"/>
+      <c r="E100" s="61" t="n"/>
+      <c r="F100" s="62" t="n"/>
+      <c r="G100" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H100" s="59" t="n"/>
       <c r="I100" s="53" t="n"/>
     </row>
     <row r="101" ht="99.75" customHeight="1">
-      <c r="B101" s="57" t="inlineStr">
-        <is>
-          <t>TC096</t>
-        </is>
-      </c>
-      <c r="C101" s="60" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, sync communication schedule &lt; Persistent Policy Check Expiration</t>
-        </is>
-      </c>
-      <c r="D101" s="70" t="inlineStr">
-        <is>
-          <t>Verify Persistent Policy continuous behavior</t>
-        </is>
-      </c>
-      <c r="E101" s="61" t="inlineStr">
-        <is>
-          <t>1. Set sync schedule to 1 day
-2. Set Persistent Policy Check Expiration to 7 days
-3. Wait for multiple sync communications
-4. Change 08/05/13 settings</t>
-        </is>
-      </c>
-      <c r="F101" s="62" t="inlineStr">
-        <is>
-          <t>Persistent policy check should continue indefinitely</t>
-        </is>
-      </c>
-      <c r="G101" s="58" t="inlineStr"/>
-      <c r="H101" s="59" t="inlineStr"/>
+      <c r="B101" s="57" t="n"/>
+      <c r="C101" s="60" t="n"/>
+      <c r="D101" s="70" t="n"/>
+      <c r="E101" s="61" t="n"/>
+      <c r="F101" s="62" t="n"/>
+      <c r="G101" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H101" s="59" t="n"/>
       <c r="I101" s="53" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="63" t="n"/>
-      <c r="B102" s="63" t="inlineStr">
-        <is>
-          <t>TC097</t>
-        </is>
-      </c>
-      <c r="C102" s="63" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, PersistentExpiration = 0</t>
-        </is>
-      </c>
-      <c r="D102" s="63" t="inlineStr">
-        <is>
-          <t>Verify no Persistent Check behavior</t>
-        </is>
-      </c>
-      <c r="E102" s="64" t="inlineStr">
-        <is>
-          <t>1. Set PersistentExpiration to 0
-2. Enable SCC function
-3. Change 08/05/13 settings</t>
-        </is>
-      </c>
-      <c r="F102" s="64" t="inlineStr">
-        <is>
-          <t>No persistent policy check should occur</t>
-        </is>
-      </c>
-      <c r="G102" s="63" t="inlineStr"/>
-      <c r="H102" s="63" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>TC098</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, time-based values configured</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Verify time-based value transitions</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1. Configure time-based values for energy save timer
-2. Monitor value changes at transition times</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Values should change at specified times</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Example: 10 min during day, 1 min at night</t>
-        </is>
-      </c>
+      <c r="B102" s="63" t="n"/>
+      <c r="C102" s="63" t="n"/>
+      <c r="D102" s="63" t="n"/>
+      <c r="E102" s="64" t="n"/>
+      <c r="F102" s="64" t="n"/>
+      <c r="G102" s="63" t="n"/>
+      <c r="H102" s="63" t="n"/>
     </row>
     <row r="104">
       <c r="B104" s="45" t="inlineStr">
         <is>
-          <t>TC099</t>
-        </is>
-      </c>
-      <c r="C104" s="67" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, communication with custom HTTPS server</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Verify CA certificate requirement</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>1. Configure 08-3827 to custom HTTPS server
-2. Import CA certificate via TA
-3. Enable SCC function
-4. Monitor communication</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Communication should succeed with imported certificate</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+          <t>Test Summary</t>
+        </is>
+      </c>
+      <c r="C104" s="67" t="n"/>
     </row>
     <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>TC100</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>SCC function is enabled, communication with standard SCC server</t>
-        </is>
-      </c>
       <c r="D105" s="45" t="inlineStr">
         <is>
-          <t>Verify pre-installed certificates</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>1. Configure 08-3827 to standard SCC server
-2. Enable SCC function
-3. Monitor communication</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Communication should succeed without importing certificates</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Pre-implemented certificates in ROM data</t>
+          <t>Test Case Count:</t>
         </is>
       </c>
     </row>

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10263,18 +10263,22 @@
           <t>1. Access Self-diagnostic boot-up mode or service UI on panel
 2. Set 08-3820 to 1 (Enable)
 3. Reboot the MFP
-4. Check if SCC function is enabled</t>
+4. Check if SCC function is enabled
+5. Set 08-3820 to 0 (Disable)
+6. Reboot the MFP</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>SCC function should be enabled after reboot</t>
+          <t>1. SCC function should be enabled when 08-3820 is set to 1
+2. SCC function should be disabled when 08-3820 is set to 0
+3. Default value should be "Disable"</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
       <c r="H6" s="59" t="inlineStr">
         <is>
-          <t>Default value should be "Disable"</t>
+          <t>Default setting should be "Disable"</t>
         </is>
       </c>
       <c r="I6" s="53" t="n"/>
@@ -10292,19 +10296,20 @@
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Verify administrator cannot enable/disable SCC function</t>
+          <t>Verify SCC Proxy Server Setting</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Login as administrator
-2. Access TA or STAGE2 IF
-3. Try to find SCC enable/disable setting</t>
+          <t>1. Access Self-diagnostic boot-up mode or service UI on panel
+2. Configure SCC Proxy server settings (08-3822 to 08-3826)
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>Administrator should not be able to access SCC enable/disable setting</t>
+          <t>1. Proxy server settings should be applied
+2. Default value should be "Disable"</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10324,28 +10329,24 @@
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC Proxy Server setting</t>
+          <t>Verify SCC first registration URL setting</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode or service UI on panel
-2. Configure 08-3822 to 08-3826 (SCC Proxy Server setting group)
-3. Reboot the MFP
-4. Check if proxy settings are applied</t>
+          <t>1. Access Self-diagnostic boot-up mode
+2. Set 08-3827 to a custom URL
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Proxy settings should be applied after reboot</t>
+          <t>1. MFP should use the specified URL for first registration
+2. Default value should be NULL (for non-AUD regions) or https://gsidevice-ap.Tprinters-solutions.com:443 (for AUD)</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
-      <c r="H8" s="59" t="inlineStr">
-        <is>
-          <t>Default value should be "Disable"</t>
-        </is>
-      </c>
+      <c r="H8" s="59" t="inlineStr"/>
       <c r="I8" s="53" t="n"/>
     </row>
     <row r="9" ht="99.75" customHeight="1">
@@ -10361,28 +10362,24 @@
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC first registration URL setting</t>
+          <t>Verify URL forward setting</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
           <t>1. Access Self-diagnostic boot-up mode
-2. Set 08-3827 to a custom URL
-3. Reboot the MFP
-4. Check if the MFP connects to the specified URL</t>
+2. Set 08-3828 to 0 (Disable)
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>MFP should connect to the specified URL for first registration</t>
+          <t>1. MFP should not connect to a server specified by redirect URL
+2. Default value should be "Enable"</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
-      <c r="H9" s="59" t="inlineStr">
-        <is>
-          <t>Default value should be NULL string</t>
-        </is>
-      </c>
+      <c r="H9" s="59" t="inlineStr"/>
       <c r="I9" s="53" t="n"/>
     </row>
     <row r="10" ht="99.75" customHeight="1">
@@ -10393,65 +10390,67 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on and in normal boot-up mode</t>
+          <t>1. MFP is powered on
+2. SCC function is disabled (08-3820 = 0)</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify URL forward setting</t>
+          <t>Verify automatic printing of installation report</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
-        <is>
-          <t>1. Access Self-diagnostic boot-up mode
-2. Set 08-3828 to 0 (Disable)
-3. Reboot the MFP
-4. Check if the MFP connects only to the specified URL</t>
-        </is>
-      </c>
-      <c r="F10" s="62" t="inlineStr">
-        <is>
-          <t>MFP should not connect to any redirected URL</t>
-        </is>
-      </c>
-      <c r="G10" s="58" t="inlineStr"/>
-      <c r="H10" s="59" t="inlineStr"/>
-      <c r="I10" s="53" t="n"/>
-    </row>
-    <row r="11" ht="99.75" customHeight="1">
-      <c r="B11" s="57" t="inlineStr">
-        <is>
-          <t>TC006</t>
-        </is>
-      </c>
-      <c r="C11" s="60" t="inlineStr">
-        <is>
-          <t>MFP is powered on with SCC disabled</t>
-        </is>
-      </c>
-      <c r="D11" s="70" t="inlineStr">
-        <is>
-          <t>Verify installation report printing when enabling SCC</t>
-        </is>
-      </c>
-      <c r="E11" s="61" t="inlineStr">
         <is>
           <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
 2. Reboot the MFP
 3. Wait for MFP registration processing to complete</t>
         </is>
       </c>
+      <c r="F10" s="62" t="inlineStr">
+        <is>
+          <t>Installation report should be automatically printed after MFP registration processing is executed</t>
+        </is>
+      </c>
+      <c r="G10" s="58" t="inlineStr"/>
+      <c r="H10" s="59" t="inlineStr">
+        <is>
+          <t>Report should be printed only once when SCC is first enabled</t>
+        </is>
+      </c>
+      <c r="I10" s="53" t="n"/>
+    </row>
+    <row r="11" ht="99.75" customHeight="1">
+      <c r="B11" s="57" t="inlineStr">
+        <is>
+          <t>TC006</t>
+        </is>
+      </c>
+      <c r="C11" s="60" t="inlineStr">
+        <is>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Network print restriction mode is set to "only private" (08-9344 = 1)</t>
+        </is>
+      </c>
+      <c r="D11" s="70" t="inlineStr">
+        <is>
+          <t>Verify installation report printing with network print restriction</t>
+        </is>
+      </c>
+      <c r="E11" s="61" t="inlineStr">
+        <is>
+          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
+2. Reboot the MFP
+3. Wait for MFP registration processing to complete</t>
+        </is>
+      </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>Installation report should be automatically printed after registration processing</t>
+          <t>Installation report should not be printed and job log error record (error code = 4221) should be created</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
-      <c r="H11" s="59" t="inlineStr">
-        <is>
-          <t>Report should be printed only once when enabling SCC for the first time</t>
-        </is>
-      </c>
+      <c r="H11" s="59" t="inlineStr"/>
       <c r="I11" s="53" t="n"/>
     </row>
     <row r="12" ht="99.75" customHeight="1">
@@ -10462,30 +10461,30 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Network print restriction mode is set to "only hold" (08-9344 = 2)</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify installation report content</t>
+          <t>Verify installation report printing with hold print restriction</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Check the printed installation report</t>
+          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
+2. Reboot the MFP
+3. Wait for MFP registration processing to complete</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>Report should contain: SCC Module Version, Device Serial Number, Device Model, Device MAC Address, Registration Status, Registration Date, and Registration Time</t>
+          <t>Installation report should be registered as hold print</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
-      <c r="H12" s="59" t="inlineStr">
-        <is>
-          <t>Report should be in English only</t>
-        </is>
-      </c>
+      <c r="H12" s="59" t="inlineStr"/>
       <c r="I12" s="53" t="n"/>
     </row>
     <row r="13" ht="99.75" customHeight="1">
@@ -10496,24 +10495,27 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and network print restriction mode enabled</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. User authentication is enabled
+4. Built-in admin quota is exhausted</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify installation report printing with network print restriction</t>
+          <t>Verify installation report printing with quota restriction</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-9344 to 1 (only private)
-2. Set 08-3820 from 0 (Disable) to 1 (Enable)
-3. Reboot the MFP</t>
+          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
+2. Reboot the MFP
+3. Wait for MFP registration processing to complete</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>Installation report should not be printed and job log should show error code 4221</t>
+          <t>Installation report should not be printed with quota error</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10528,23 +10530,26 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. HTTPS communication is configured</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify HTTPS communication protocol</t>
+          <t>Verify HTTPS communication with server</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Monitor network traffic during SCC communication
-2. Check if HTTPS protocol is used</t>
+          <t>1. Enable SCC function
+2. Monitor network traffic
+3. Wait for MFP to communicate with server</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>All communication with servers should use HTTPS protocol</t>
+          <t>MFP should use HTTPS for communication with servers</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10559,23 +10564,26 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Proxy server is configured</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify port number for SCC communication</t>
+          <t>Verify proxy authentication</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Configure firewall to block port 443
-2. Monitor network traffic during SCC communication</t>
+          <t>1. Configure proxy server settings (08-3822 to 08-3826) with authentication
+2. Reboot the MFP
+3. Wait for MFP to communicate with server</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>MFP should automatically use port 8443 when port 443 is not available</t>
+          <t>MFP should successfully authenticate with proxy server and communicate with SCC server</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10590,23 +10598,26 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Port 443 is blocked on firewall</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC process does not start in special startup mode</t>
+          <t>Verify automatic port switching</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Boot MFP in special startup mode
-2. Check if SCC process starts</t>
+          <t>1. Block port 443 on firewall
+2. Enable SCC function
+3. Wait for MFP to communicate with server</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>SCC process should not start in special startup mode</t>
+          <t>MFP should automatically use port 8443 when port 443 is not available</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10621,32 +10632,28 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled</t>
+          <t>1. MFP is in special startup mode
+2. SCC function is enabled</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication loop timing</t>
+          <t>Verify SCC process in special startup mode</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Set regular communication schedule to specific time
-2. Wait for that time
-3. Monitor if MFP initiates communication with server</t>
+          <t>1. Boot MFP in special startup mode
+2. Check if SCC process starts</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>MFP should initiate communication at the specified schedule time</t>
+          <t>SCC process should not start up in special startup mode</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
-      <c r="H17" s="59" t="inlineStr">
-        <is>
-          <t>Default schedule is "every day at 0:00"</t>
-        </is>
-      </c>
+      <c r="H17" s="59" t="inlineStr"/>
       <c r="I17" s="53" t="n"/>
     </row>
     <row r="18" ht="99.75" customHeight="1">
@@ -10657,29 +10664,31 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication loop with interval setting</t>
+          <t>Verify regular communication loop timing</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Set regular communication schedule to interval (e.g., 15 min)
-2. Monitor if MFP initiates communication at the specified intervals</t>
+          <t>1. Enable SCC function
+2. Set regular communication schedule
+3. Monitor communication with server</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>MFP should initiate communication at the specified intervals</t>
+          <t>MFP should communicate with server at SCC process startup and according to regular communication schedule</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
       <c r="H18" s="59" t="inlineStr">
         <is>
-          <t>Intervals can be set from 5 min to 60 min</t>
+          <t>Default schedule is "every day at 0:00"</t>
         </is>
       </c>
       <c r="I18" s="53" t="n"/>
@@ -10692,23 +10701,27 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is not registered with server</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify first-time MFP registration</t>
+          <t>Verify first-time device registration</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC on an unregistered MFP
+          <t>1. Enable SCC function for the first time
 2. Monitor communication with server</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>MFP should register with the server using the Register Device interface</t>
+          <t>1. MFP should call "Register Device" interface
+2. MFP should be registered in the server
+3. Installation report should be printed</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10723,23 +10736,26 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is already registered with server</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify MFP authentication after registration</t>
+          <t>Verify subsequent device authentication</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Reboot a registered MFP
+          <t>1. Reboot MFP
 2. Monitor communication with server</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>MFP should authenticate with the server using the token received during registration</t>
+          <t>1. MFP should call "Register Device" interface
+2. MFP should be authenticated using token</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10754,31 +10770,31 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Server is busy</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify server BUSY handling</t>
+          <t>Verify server busy handling</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate server BUSY response
-2. Monitor MFP behavior</t>
+          <t>1. Simulate server busy condition
+2. Enable SCC function
+3. Monitor communication with server</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry connection after waiting for the period specified by the server</t>
+          <t>1. MFP should retry connection after waiting for the period specified by server
+2. MFP should exit communication cycle after 3 retries if server is still busy</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
-      <c r="H21" s="59" t="inlineStr">
-        <is>
-          <t>MFP should retry up to 3 times</t>
-        </is>
-      </c>
+      <c r="H21" s="59" t="inlineStr"/>
       <c r="I21" s="53" t="n"/>
     </row>
     <row r="22" ht="99.75" customHeight="1">
@@ -10789,31 +10805,32 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP registration fails</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify MFP registration failure handling</t>
+          <t>Verify registration failure handling</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate registration failure response from server
-2. Monitor MFP behavior</t>
+          <t>1. Simulate registration failure condition
+2. Enable SCC function
+3. Monitor communication with server</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>After 3 consecutive failures, MFP should exit communication cycle and wait for next schedule</t>
+          <t>1. After 3 consecutive failures, server should respond with STATUS_LOCK
+2. Installation Report should be printed
+3. MFP should exit communication cycle</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
-      <c r="H22" s="59" t="inlineStr">
-        <is>
-          <t>Installation Report should be printed</t>
-        </is>
-      </c>
+      <c r="H22" s="59" t="inlineStr"/>
       <c r="I22" s="53" t="n"/>
     </row>
     <row r="23" ht="99.75" customHeight="1">
@@ -10824,7 +10841,9 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is registered with server</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
@@ -10834,14 +10853,14 @@
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to specify an update
-2. Trigger regular communication
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Wait for MFP to register with server
+3. Monitor "Check for Updates" call</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>MFP should detect update and proceed to Download Package</t>
+          <t>MFP should call "Check for Updates" interface after successful registration</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
@@ -10856,7 +10875,10 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is registered with server
+4. Update is available</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
@@ -10866,14 +10888,17 @@
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide an update package
-2. Trigger regular communication
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Wait for MFP to register with server
+3. Simulate update availability
+4. Monitor "Download Package" call</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>MFP should download the package and verify its hash value with MD5</t>
+          <t>1. MFP should call "Download Package" interface
+2. MFP should download the update package
+3. MFP should verify package hash value</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10888,7 +10913,10 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is registered with server
+4. Downloaded package hash value is incorrect</t>
         </is>
       </c>
       <c r="D25" s="70" t="inlineStr">
@@ -10898,14 +10926,17 @@
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide an update package with incorrect hash value
-2. Trigger regular communication
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Wait for MFP to register with server
+3. Simulate update with incorrect hash value
+4. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete the downloaded data and exit communication cycle</t>
+          <t>1. MFP should delete the downloaded data
+2. MFP should exit communication cycle
+3. MFP should wait for next communication schedule</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
@@ -10920,7 +10951,9 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is registered with server</t>
         </is>
       </c>
       <c r="D26" s="70" t="inlineStr">
@@ -10930,13 +10963,15 @@
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger regular communication
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Wait for MFP to register with server
+3. Monitor "Send Zip (isBaseline=true)" call</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>MFP should send baseline data to server based on SendDataConfig setting</t>
+          <t>1. MFP should call "Send Zip (isBaseline=true)" interface
+2. MFP should send baseline data according to SendDataConfig setting</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
@@ -10951,24 +10986,27 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is registered with server
+4. Update package is downloaded</t>
         </is>
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package for firmware update</t>
+          <t>Verify Install Package functionality</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide firmware update package
-2. Trigger regular communication
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Wait for MFP to download update package
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>MFP should install firmware update at scheduled time and reboot</t>
+          <t>MFP should install the update package according to the instructions</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
@@ -10983,24 +11021,28 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is registered with server
+4. Firmware update is scheduled</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package for policy violation data</t>
+          <t>Verify firmware update scheduling</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide policy violation data package
-2. Trigger regular communication
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Wait for MFP to download firmware update package
+3. Monitor firmware update process</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>MFP should apply policy settings</t>
+          <t>1. MFP should schedule firmware update according to instructions
+2. MFP should execute firmware update at scheduled time</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
@@ -11015,24 +11057,28 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is registered with server
+4. Update package is installed</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Verify Update Status notification</t>
+          <t>Verify Update Status functionality</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide an update package
-2. Trigger regular communication
-3. Monitor MFP behavior during and after installation</t>
+          <t>1. Enable SCC function
+2. Wait for MFP to install update package
+3. Monitor "Update Status" call</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify server of installation status</t>
+          <t>1. MFP should call "Update Status" interface
+2. MFP should notify installation status to server</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
@@ -11047,7 +11093,9 @@
       </c>
       <c r="C30" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is registered with server</t>
         </is>
       </c>
       <c r="D30" s="70" t="inlineStr">
@@ -11057,13 +11105,15 @@
       </c>
       <c r="E30" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger regular communication
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Wait for MFP to complete update status notification
+3. Monitor "Send Zip (isBaseline=false)" call</t>
         </is>
       </c>
       <c r="F30" s="62" t="inlineStr">
         <is>
-          <t>MFP should send regular data to server based on SendDataConfig setting</t>
+          <t>1. MFP should call "Send Zip (isBaseline=false)" interface
+2. MFP should send regular data according to SendDataConfig setting</t>
         </is>
       </c>
       <c r="G30" s="58" t="inlineStr"/>
@@ -11078,23 +11128,27 @@
       </c>
       <c r="C31" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Device error occurs</t>
         </is>
       </c>
       <c r="D31" s="70" t="inlineStr">
         <is>
-          <t>Verify Event Notification Loop for device errors</t>
+          <t>Verify Send Device Error functionality</t>
         </is>
       </c>
       <c r="E31" s="61" t="inlineStr">
         <is>
-          <t>1. Generate a device error with error code
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Simulate device error
+3. Monitor "Send Device Error" call</t>
         </is>
       </c>
       <c r="F31" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify server of the error via Send Device Error interface</t>
+          <t>1. MFP should call "Send Device Error" interface
+2. MFP should notify error to server</t>
         </is>
       </c>
       <c r="G31" s="58" t="inlineStr"/>
@@ -11109,24 +11163,28 @@
       </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Device error is resolved</t>
         </is>
       </c>
       <c r="D32" s="70" t="inlineStr">
         <is>
-          <t>Verify error removal notification</t>
+          <t>Verify error resolution notification</t>
         </is>
       </c>
       <c r="E32" s="61" t="inlineStr">
         <is>
-          <t>1. Generate a device error
-2. Clear the error without power off
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Simulate device error
+3. Resolve error without power off
+4. Monitor "Send Device Error" call</t>
         </is>
       </c>
       <c r="F32" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify server of error removal with '-' prefix (e.g., -D102)</t>
+          <t>1. MFP should call "Send Device Error" interface
+2. MFP should notify error resolution with "-" prefix (e.g., -D102)</t>
         </is>
       </c>
       <c r="G32" s="58" t="inlineStr"/>
@@ -11141,7 +11199,9 @@
       </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Same error occurs multiple times</t>
         </is>
       </c>
       <c r="D33" s="70" t="inlineStr">
@@ -11151,8 +11211,9 @@
       </c>
       <c r="E33" s="61" t="inlineStr">
         <is>
-          <t>1. Generate the same device error multiple times
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Simulate same device error multiple times
+3. Monitor "Send Device Error" calls</t>
         </is>
       </c>
       <c r="F33" s="62" t="inlineStr">
@@ -11172,7 +11233,9 @@
       </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. RequestServiceFiles=true in response to Send Device Error</t>
         </is>
       </c>
       <c r="D34" s="70" t="inlineStr">
@@ -11182,14 +11245,15 @@
       </c>
       <c r="E34" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to request service files
-2. Generate a device error
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Simulate device error with RequestServiceFiles=true response
+3. Monitor "Send Service Files" call</t>
         </is>
       </c>
       <c r="F34" s="62" t="inlineStr">
         <is>
-          <t>MFP should send service files to server when requested</t>
+          <t>1. MFP should call "Send Service Files" interface
+2. MFP should send ZIP file with service files</t>
         </is>
       </c>
       <c r="G34" s="58" t="inlineStr"/>
@@ -11204,28 +11268,34 @@
       </c>
       <c r="C35" s="60" t="inlineStr">
         <is>
-          <t>MFP is in Super Sleep mode with SCC enabled</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is about to enter Super Sleep</t>
         </is>
       </c>
       <c r="D35" s="70" t="inlineStr">
         <is>
-          <t>Verify Super Sleep recovery for regular communication</t>
+          <t>Verify Super Sleep behavior during communication</t>
         </is>
       </c>
       <c r="E35" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in Super Sleep mode
-2. Wait until regular communication time
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Start communication with server
+3. Attempt to enter Super Sleep</t>
         </is>
       </c>
       <c r="F35" s="62" t="inlineStr">
         <is>
-          <t>MFP should recover from Super Sleep, communicate with server, then return to Super Sleep</t>
+          <t>MFP should not enter Power save, Sleep, or Super Sleep during communication cycle period</t>
         </is>
       </c>
       <c r="G35" s="58" t="inlineStr"/>
-      <c r="H35" s="59" t="inlineStr"/>
+      <c r="H35" s="59" t="inlineStr">
+        <is>
+          <t>Exception: scheduling firmware update state</t>
+        </is>
+      </c>
       <c r="I35" s="53" t="n"/>
     </row>
     <row r="36" ht="99.75" customHeight="1">
@@ -11236,25 +11306,28 @@
       </c>
       <c r="C36" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is in Super Sleep state
+2. SCC function is enabled
+3. Regular communication time arrives</t>
         </is>
       </c>
       <c r="D36" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy functionality</t>
+          <t>Verify Super Sleep recovery for communication</t>
         </is>
       </c>
       <c r="E36" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to set persistent policy
-2. Change settings locally
-3. Wait for persistent policy check interval
-4. Check if settings are restored</t>
+          <t>1. Put MFP in Super Sleep state
+2. Wait for regular communication time
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F36" s="62" t="inlineStr">
         <is>
-          <t>Settings should be restored to policy values</t>
+          <t>1. MFP should recover from Super Sleep state
+2. MFP should start communication with server
+3. MFP should return to Super Sleep after communication</t>
         </is>
       </c>
       <c r="G36" s="58" t="inlineStr"/>
@@ -11269,28 +11342,34 @@
       </c>
       <c r="C37" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is about to enter hibernation</t>
         </is>
       </c>
       <c r="D37" s="70" t="inlineStr">
         <is>
-          <t>Verify Time-based Device State Data Values</t>
+          <t>Verify hibernation behavior during communication</t>
         </is>
       </c>
       <c r="E37" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to set time-based values
-2. Monitor settings at different times
-3. Check if settings change according to schedule</t>
+          <t>1. Enable SCC function
+2. Start communication with server
+3. Attempt to enter hibernation</t>
         </is>
       </c>
       <c r="F37" s="62" t="inlineStr">
         <is>
-          <t>Settings should change according to time-based schedule</t>
+          <t>MFP should not enter hibernation during communication cycle</t>
         </is>
       </c>
       <c r="G37" s="58" t="inlineStr"/>
-      <c r="H37" s="59" t="inlineStr"/>
+      <c r="H37" s="59" t="inlineStr">
+        <is>
+          <t>Exception: scheduling firmware update state</t>
+        </is>
+      </c>
       <c r="I37" s="53" t="n"/>
     </row>
     <row r="38" ht="99.75" customHeight="1">
@@ -11301,23 +11380,27 @@
       </c>
       <c r="C38" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled but not registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Persistent Policy is configured</t>
         </is>
       </c>
       <c r="D38" s="70" t="inlineStr">
         <is>
-          <t>Verify IP Redirect functionality</t>
+          <t>Verify Persistent Policy functionality</t>
         </is>
       </c>
       <c r="E38" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC on an unregistered MFP
-2. Monitor communication with server</t>
+          <t>1. Enable SCC function
+2. Configure Persistent Policy from server
+3. Change 08/05/13 settings locally
+4. Wait for Persistent Policy check</t>
         </is>
       </c>
       <c r="F38" s="62" t="inlineStr">
         <is>
-          <t>MFP should get appropriate regional URL from NA server and redirect to it</t>
+          <t>MFP should restore 08/05/13 settings according to Persistent Policy</t>
         </is>
       </c>
       <c r="G38" s="58" t="inlineStr"/>
@@ -11332,23 +11415,26 @@
       </c>
       <c r="C39" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Time-based Device State Data is configured</t>
         </is>
       </c>
       <c r="D39" s="70" t="inlineStr">
         <is>
-          <t>Verify retry processing for connection errors</t>
+          <t>Verify Time-based Device State Data functionality</t>
         </is>
       </c>
       <c r="E39" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate connection error
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Configure Time-based Device State Data from server
+3. Monitor 08/05/13 code values at different times</t>
         </is>
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry in 60 seconds, then enter retry mode if first retry fails</t>
+          <t>MFP should change 08/05/13 code values according to time-based settings</t>
         </is>
       </c>
       <c r="G39" s="58" t="inlineStr"/>
@@ -11363,23 +11449,27 @@
       </c>
       <c r="C40" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is not registered with server</t>
         </is>
       </c>
       <c r="D40" s="70" t="inlineStr">
         <is>
-          <t>Verify retry mode behavior</t>
+          <t>Verify IP Redirect functionality</t>
         </is>
       </c>
       <c r="E40" s="61" t="inlineStr">
         <is>
-          <t>1. Force MFP into retry mode
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC function for first time
+2. Monitor "GetRedirectURL" call
+3. Monitor subsequent registration request</t>
         </is>
       </c>
       <c r="F40" s="62" t="inlineStr">
         <is>
-          <t>MFP should try to communicate once a day, starting from Register Device</t>
+          <t>1. MFP should call "GetRedirectURL" interface
+2. MFP should use redirected URL for registration if URL forward setting is enabled</t>
         </is>
       </c>
       <c r="G40" s="58" t="inlineStr"/>
@@ -11394,23 +11484,27 @@
       </c>
       <c r="C41" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Communication error occurs</t>
         </is>
       </c>
       <c r="D41" s="70" t="inlineStr">
         <is>
-          <t>Verify panel message display during SCC processing</t>
+          <t>Verify retry processing at communication error</t>
         </is>
       </c>
       <c r="E41" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger regular communication
-2. Observe panel display</t>
+          <t>1. Enable SCC function
+2. Simulate communication error
+3. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F41" s="62" t="inlineStr">
         <is>
-          <t>Panel should display "Service in progress. Please do not turn off: XX" with appropriate status code</t>
+          <t>1. MFP should retry communication in 60 seconds
+2. If first retry fails, MFP should enter Retry Mode</t>
         </is>
       </c>
       <c r="G41" s="58" t="inlineStr"/>
@@ -11425,23 +11519,27 @@
       </c>
       <c r="C42" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. HTTP error occurs</t>
         </is>
       </c>
       <c r="D42" s="70" t="inlineStr">
         <is>
-          <t>Verify popup window display during specific operations</t>
+          <t>Verify retry processing at HTTP error</t>
         </is>
       </c>
       <c r="E42" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger firmware update or restore operation
-2. Observe panel display</t>
+          <t>1. Enable SCC function
+2. Simulate HTTP error
+3. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F42" s="62" t="inlineStr">
         <is>
-          <t>Popup window with sand clock should be displayed</t>
+          <t>1. MFP should retry communication in 60 seconds
+2. If second retry fails, MFP should enter Retry Mode</t>
         </is>
       </c>
       <c r="G42" s="58" t="inlineStr"/>
@@ -11456,23 +11554,27 @@
       </c>
       <c r="C43" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is in Retry Mode</t>
         </is>
       </c>
       <c r="D43" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update with progress bar</t>
+          <t>Verify Retry Mode behavior</t>
         </is>
       </c>
       <c r="E43" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger firmware update
-2. Observe panel display</t>
+          <t>1. Enable SCC function
+2. Force MFP into Retry Mode
+3. Monitor communication attempts</t>
         </is>
       </c>
       <c r="F43" s="62" t="inlineStr">
         <is>
-          <t>Popup window with sand clock and progress bar should be displayed</t>
+          <t>1. MFP should try to communicate with server once a day
+2. Communication should start from Register Device</t>
         </is>
       </c>
       <c r="G43" s="58" t="inlineStr"/>
@@ -11487,24 +11589,30 @@
       </c>
       <c r="C44" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is in Retry Mode
+4. Power failure occurs</t>
         </is>
       </c>
       <c r="D44" s="70" t="inlineStr">
         <is>
-          <t>Verify invalid URL handling in first registration URL</t>
+          <t>Verify Retry Mode after power failure</t>
         </is>
       </c>
       <c r="E44" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to an invalid URL format
-2. Reboot the MFP
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Force MFP into Retry Mode
+3. Simulate power failure
+4. Power on MFP
+5. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F44" s="62" t="inlineStr">
         <is>
-          <t>Network error should occur and MFP should not access NA server</t>
+          <t>1. Retry Mode should be cancelled
+2. MFP should start normal regular communication cycle</t>
         </is>
       </c>
       <c r="G44" s="58" t="inlineStr"/>
@@ -11519,24 +11627,27 @@
       </c>
       <c r="C45" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. SCC processing is active</t>
         </is>
       </c>
       <c r="D45" s="70" t="inlineStr">
         <is>
-          <t>Verify HTTPS certificate handling</t>
+          <t>Verify panel message display</t>
         </is>
       </c>
       <c r="E45" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to a custom HTTPS URL without importing certificate
-2. Reboot the MFP
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Start SCC processing
+3. Check panel display</t>
         </is>
       </c>
       <c r="F45" s="62" t="inlineStr">
         <is>
-          <t>Communication should fail due to missing certificate</t>
+          <t>1. MFP should display "Service in progress. Please do not turn off: XX" on status window
+2. Numerical value should correspond to current status</t>
         </is>
       </c>
       <c r="G45" s="58" t="inlineStr"/>
@@ -11551,29 +11662,34 @@
       </c>
       <c r="C46" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. RDMS (BBR2) function is enabled</t>
         </is>
       </c>
       <c r="D46" s="70" t="inlineStr">
         <is>
-          <t>Verify power failure during package download</t>
+          <t>Verify SCC and RDMS exclusivity</t>
         </is>
       </c>
       <c r="E46" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger package download
-2. Power off MFP during download
-3. Power on MFP
-4. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Enable RDMS (BBR2) function
+3. Check if both functions work</t>
         </is>
       </c>
       <c r="F46" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete downloaded data before next communication</t>
+          <t>If SCC function is enabled, RDMS (BBR2) should not work</t>
         </is>
       </c>
       <c r="G46" s="58" t="inlineStr"/>
-      <c r="H46" s="59" t="inlineStr"/>
+      <c r="H46" s="59" t="inlineStr">
+        <is>
+          <t>This limitation is removed from L6.02/L6.03 development</t>
+        </is>
+      </c>
       <c r="I46" s="53" t="n"/>
     </row>
     <row r="47" ht="99.75" customHeight="1">
@@ -11584,24 +11700,26 @@
       </c>
       <c r="C47" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Service UI is accessed</t>
         </is>
       </c>
       <c r="D47" s="70" t="inlineStr">
         <is>
-          <t>Verify HDD full handling during download</t>
+          <t>Verify service UI exclusivity</t>
         </is>
       </c>
       <c r="E47" s="61" t="inlineStr">
         <is>
-          <t>1. Fill HDD to capacity
-2. Trigger package download
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Start communication with server
+3. Attempt to access service UI</t>
         </is>
       </c>
       <c r="F47" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete downloaded data and exit communication cycle</t>
+          <t>Service UI should not be accessible while device is communicating with server</t>
         </is>
       </c>
       <c r="G47" s="58" t="inlineStr"/>
@@ -11616,24 +11734,26 @@
       </c>
       <c r="C48" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. 08-3827 is set to invalid URL</t>
         </is>
       </c>
       <c r="D48" s="70" t="inlineStr">
         <is>
-          <t>Verify unzip failure handling</t>
+          <t>Verify invalid URL handling</t>
         </is>
       </c>
       <c r="E48" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide corrupted ZIP package
-2. Trigger package download
-3. Monitor MFP behavior</t>
+          <t>1. Set 08-3827 to invalid URL
+2. Enable SCC function
+3. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F48" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete unzipped data and exit communication cycle</t>
+          <t>Network error should occur and device should not access NA server</t>
         </is>
       </c>
       <c r="G48" s="58" t="inlineStr"/>
@@ -11648,24 +11768,27 @@
       </c>
       <c r="C49" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. 08-3827 is set to valid URL but device is not registered</t>
         </is>
       </c>
       <c r="D49" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update failure handling</t>
+          <t>Verify registration error handling</t>
         </is>
       </c>
       <c r="E49" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide incompatible firmware
-2. Trigger firmware update
-3. Monitor MFP behavior</t>
+          <t>1. Set 08-3827 to valid URL
+2. Enable SCC function
+3. Simulate registration error
+4. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F49" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify update failure to server and schedule regular communication after 1 hour</t>
+          <t>Registration error (STATUS_FAILED) should occur</t>
         </is>
       </c>
       <c r="G49" s="58" t="inlineStr"/>
@@ -11680,24 +11803,30 @@
       </c>
       <c r="C50" s="60" t="inlineStr">
         <is>
-          <t>MFP is SSD model with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. 08-3827 is set to valid URL
+4. Server returns other URL
+5. 08-3828 is set to 0 (Disable)</t>
         </is>
       </c>
       <c r="D50" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update handling on SSD models</t>
+          <t>Verify URL forward disable behavior</t>
         </is>
       </c>
       <c r="E50" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide firmware update to SSD model
-2. Trigger firmware update
-3. Monitor MFP behavior</t>
+          <t>1. Set 08-3827 to valid URL
+2. Set 08-3828 to 0 (Disable)
+3. Enable SCC function
+4. Simulate server returning other URL
+5. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F50" s="62" t="inlineStr">
         <is>
-          <t>Firmware update should fail and MFP should notify server of failure</t>
+          <t>Registration error should occur</t>
         </is>
       </c>
       <c r="G50" s="58" t="inlineStr"/>
@@ -11712,24 +11841,30 @@
       </c>
       <c r="C51" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. 08-3827 is set to valid URL
+4. Server returns other URL
+5. 08-3828 is set to 1 (Enable)</t>
         </is>
       </c>
       <c r="D51" s="70" t="inlineStr">
         <is>
-          <t>Verify multiple update instruction handling</t>
+          <t>Verify URL forward enable behavior</t>
         </is>
       </c>
       <c r="E51" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide multiple update instructions
-2. Make one instruction fail
-3. Monitor MFP behavior</t>
+          <t>1. Set 08-3827 to valid URL
+2. Set 08-3828 to 1 (Enable)
+3. Enable SCC function
+4. Simulate server returning other URL
+5. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F51" s="62" t="inlineStr">
         <is>
-          <t>MFP should continue with other instructions and notify results to server</t>
+          <t>Device should access returned URL and continue registration process</t>
         </is>
       </c>
       <c r="G51" s="58" t="inlineStr"/>
@@ -11744,33 +11879,32 @@
       </c>
       <c r="C52" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. HTTPS is used
+4. CA certificate is not imported</t>
         </is>
       </c>
       <c r="D52" s="70" t="inlineStr">
         <is>
-          <t>Verify scheduled firmware update after power failure</t>
+          <t>Verify HTTPS without CA certificate</t>
         </is>
       </c>
       <c r="E52" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide firmware update with schedule
-2. Power off MFP before scheduled time
-3. Power on MFP after scheduled time
-4. Monitor MFP behavior</t>
+          <t>1. Set 08-3827 to HTTPS URL requiring custom CA certificate
+2. Do not import CA certificate
+3. Enable SCC function
+4. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F52" s="62" t="inlineStr">
         <is>
-          <t>Firmware update should be rescheduled to same time next day</t>
+          <t>Communication should fail</t>
         </is>
       </c>
       <c r="G52" s="58" t="inlineStr"/>
-      <c r="H52" s="59" t="inlineStr">
-        <is>
-          <t>Applies to L6.15 and later</t>
-        </is>
-      </c>
+      <c r="H52" s="59" t="inlineStr"/>
       <c r="I52" s="53" t="n"/>
     </row>
     <row r="53" ht="99.75" customHeight="1">
@@ -11781,33 +11915,32 @@
       </c>
       <c r="C53" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Power failure occurs during package download</t>
         </is>
       </c>
       <c r="D53" s="70" t="inlineStr">
         <is>
-          <t>Verify scheduled firmware update after power failure (legacy)</t>
+          <t>Verify power failure during download</t>
         </is>
       </c>
       <c r="E53" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide firmware update with schedule
-2. Power off MFP before scheduled time
-3. Power on MFP after scheduled time
-4. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Start package download
+3. Simulate power failure
+4. Power on MFP
+5. Monitor behavior</t>
         </is>
       </c>
       <c r="F53" s="62" t="inlineStr">
         <is>
-          <t>Firmware update should execute 1 hour after reboot</t>
+          <t>Downloaded data should be deleted before next communication</t>
         </is>
       </c>
       <c r="G53" s="58" t="inlineStr"/>
-      <c r="H53" s="59" t="inlineStr">
-        <is>
-          <t>Applies to before L6.15</t>
-        </is>
-      </c>
+      <c r="H53" s="59" t="inlineStr"/>
       <c r="I53" s="53" t="n"/>
     </row>
     <row r="54" ht="99.75" customHeight="1">
@@ -11818,24 +11951,29 @@
       </c>
       <c r="C54" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. HDD is full during package download</t>
         </is>
       </c>
       <c r="D54" s="70" t="inlineStr">
         <is>
-          <t>Verify hibernation prevention during communication</t>
+          <t>Verify HDD full during download</t>
         </is>
       </c>
       <c r="E54" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP to enter hibernation
-2. Trigger SCC communication
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Fill HDD to capacity
+3. Start package download
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F54" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter hibernation during communication cycle</t>
+          <t>1. Downloaded data should be deleted
+2. MFP should exit communication cycle
+3. MFP should wait for next communication schedule</t>
         </is>
       </c>
       <c r="G54" s="58" t="inlineStr"/>
@@ -11850,25 +11988,28 @@
       </c>
       <c r="C55" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Power failure occurs during installation</t>
         </is>
       </c>
       <c r="D55" s="70" t="inlineStr">
         <is>
-          <t>Verify persistent policy expiration</t>
+          <t>Verify power failure during installation</t>
         </is>
       </c>
       <c r="E55" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to set persistent policy with expiration
-2. Wait until expiration period
-3. Change settings locally
-4. Check if settings remain changed</t>
+          <t>1. Enable SCC function
+2. Start package installation
+3. Simulate power failure
+4. Power on MFP
+5. Monitor behavior</t>
         </is>
       </c>
       <c r="F55" s="62" t="inlineStr">
         <is>
-          <t>Settings should remain changed after persistent policy expiration</t>
+          <t>Update package data or firmware data should be deleted before next communication</t>
         </is>
       </c>
       <c r="G55" s="58" t="inlineStr"/>
@@ -11883,23 +12024,27 @@
       </c>
       <c r="C56" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Installation fails</t>
         </is>
       </c>
       <c r="D56" s="70" t="inlineStr">
         <is>
-          <t>Verify message log recording</t>
+          <t>Verify installation failure handling</t>
         </is>
       </c>
       <c r="E56" s="61" t="inlineStr">
         <is>
-          <t>1. Generate various SCC-related events and errors
-2. Check message logs</t>
+          <t>1. Enable SCC function
+2. Simulate installation failure
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F56" s="62" t="inlineStr">
         <is>
-          <t>Message logs should be recorded with appropriate error codes</t>
+          <t>1. MFP should notify update result to server
+2. Regular communication should be scheduled after 1 hour</t>
         </is>
       </c>
       <c r="G56" s="58" t="inlineStr"/>
@@ -11914,24 +12059,27 @@
       </c>
       <c r="C57" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. SSD model
+4. Firmware update is attempted</t>
         </is>
       </c>
       <c r="D57" s="70" t="inlineStr">
         <is>
-          <t>Verify maximum package size handling</t>
+          <t>Verify firmware update on SSD model</t>
         </is>
       </c>
       <c r="E57" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide package exceeding maximum size
-2. Trigger package download
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function on SSD model
+2. Attempt firmware update
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F57" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle the oversized package appropriately</t>
+          <t>Firmware update should fail</t>
         </is>
       </c>
       <c r="G57" s="58" t="inlineStr"/>
@@ -11946,24 +12094,30 @@
       </c>
       <c r="C58" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Multiple updates are received
+4. One update fails</t>
         </is>
       </c>
       <c r="D58" s="70" t="inlineStr">
         <is>
-          <t>Verify maximum baseline/regular data size handling</t>
+          <t>Verify partial update failure handling</t>
         </is>
       </c>
       <c r="E58" s="61" t="inlineStr">
         <is>
-          <t>1. Generate conditions for oversized baseline/regular data
-2. Trigger data transmission
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Receive multiple update instructions
+3. Simulate failure of one update
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F58" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle the oversized data appropriately</t>
+          <t>1. Update installation should continue for remaining updates
+2. MFP should notify update results to server
+3. MFP should continue regular cycle</t>
         </is>
       </c>
       <c r="G58" s="58" t="inlineStr"/>
@@ -11978,23 +12132,26 @@
       </c>
       <c r="C59" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. SendDataConfig parameters are changed</t>
         </is>
       </c>
       <c r="D59" s="70" t="inlineStr">
         <is>
-          <t>Verify HTTP error handling</t>
+          <t>Verify SendDataConfig parameter application</t>
         </is>
       </c>
       <c r="E59" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate HTTP error response from server
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Change SendDataConfig parameters in server response
+3. Monitor data collection behavior</t>
         </is>
       </c>
       <c r="F59" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry in 60 seconds, then enter retry mode if second retry fails</t>
+          <t>MFP should apply SendDataConfig parameters immediately</t>
         </is>
       </c>
       <c r="G59" s="58" t="inlineStr"/>
@@ -12009,25 +12166,30 @@
       </c>
       <c r="C60" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Firmware update is scheduled
+4. Power failure occurs before scheduled time</t>
         </is>
       </c>
       <c r="D60" s="70" t="inlineStr">
         <is>
-          <t>Verify power failure during retry mode</t>
+          <t>Verify firmware update after power failure</t>
         </is>
       </c>
       <c r="E60" s="61" t="inlineStr">
         <is>
-          <t>1. Force MFP into retry mode
-2. Power off MFP
-3. Power on MFP
-4. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Schedule firmware update
+3. Simulate power failure before scheduled time
+4. Power on MFP
+5. Monitor behavior</t>
         </is>
       </c>
       <c r="F60" s="62" t="inlineStr">
         <is>
-          <t>Retry mode should be cancelled and normal communication should start</t>
+          <t>1. From L6.15: Firmware update should execute at scheduled time
+2. Before L6.15: Firmware update should execute 1 hour after reboot</t>
         </is>
       </c>
       <c r="G60" s="58" t="inlineStr"/>
@@ -12042,23 +12204,29 @@
       </c>
       <c r="C61" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Firmware update is scheduled
+4. Scheduled time has passed when MFP powers on</t>
         </is>
       </c>
       <c r="D61" s="70" t="inlineStr">
         <is>
-          <t>Verify event notification during busy state</t>
+          <t>Verify firmware update after missed schedule</t>
         </is>
       </c>
       <c r="E61" s="61" t="inlineStr">
         <is>
-          <t>1. Generate event during SCC startup
-2. Monitor if event is notified to server</t>
+          <t>1. Enable SCC function
+2. Schedule firmware update
+3. Power off MFP before scheduled time
+4. Power on MFP after scheduled time
+5. Monitor behavior</t>
         </is>
       </c>
       <c r="F61" s="62" t="inlineStr">
         <is>
-          <t>Event may not be notified if SCC is in busy state</t>
+          <t>From L6.15: Firmware update should be scheduled for same time next day</t>
         </is>
       </c>
       <c r="G61" s="58" t="inlineStr"/>
@@ -12073,23 +12241,28 @@
       </c>
       <c r="C62" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC and RDMS (BBR2) enabled</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Persistent Policy is configured
+4. Persistent Expiration is set to 0</t>
         </is>
       </c>
       <c r="D62" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC and RDMS compatibility</t>
+          <t>Verify Persistent Policy with zero expiration</t>
         </is>
       </c>
       <c r="E62" s="61" t="inlineStr">
         <is>
-          <t>1. Enable both SCC and RDMS
-2. Check if both functions work</t>
+          <t>1. Enable SCC function
+2. Configure Persistent Policy with PersistentExpiration = 0
+3. Change 08/05/13 settings locally
+4. Wait for Persistent Policy check</t>
         </is>
       </c>
       <c r="F62" s="62" t="inlineStr">
         <is>
-          <t>RDMS should not work if SCC is enabled (for versions before L6.02/L6.03)</t>
+          <t>No Persistent Policy check should occur</t>
         </is>
       </c>
       <c r="G62" s="58" t="inlineStr"/>
@@ -12104,23 +12277,29 @@
       </c>
       <c r="C63" s="60" t="inlineStr">
         <is>
-          <t>MFP is in self-diagnostic boot-up mode</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Persistent Policy is configured
+4. Persistent Expiration is shorter than sync schedule</t>
         </is>
       </c>
       <c r="D63" s="70" t="inlineStr">
         <is>
-          <t>Verify network functionality in self-diagnostic mode</t>
+          <t>Verify Persistent Policy with short expiration</t>
         </is>
       </c>
       <c r="E63" s="61" t="inlineStr">
         <is>
-          <t>1. Boot MFP in self-diagnostic mode
-2. Check network functionality</t>
+          <t>1. Enable SCC function
+2. Configure Persistent Policy with PersistentExpiration = 1 day
+3. Set sync schedule to 7 days
+4. Change 08/05/13 settings locally
+5. Wait more than 1 day</t>
         </is>
       </c>
       <c r="F63" s="62" t="inlineStr">
         <is>
-          <t>Network should not work in self-diagnostic boot-up mode</t>
+          <t>Persistent Policy check should stop after expiration period</t>
         </is>
       </c>
       <c r="G63" s="58" t="inlineStr"/>
@@ -12135,24 +12314,29 @@
       </c>
       <c r="C64" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Persistent Policy is configured
+4. Persistent Expiration is longer than sync schedule</t>
         </is>
       </c>
       <c r="D64" s="70" t="inlineStr">
         <is>
-          <t>Verify service UI during SCC communication</t>
+          <t>Verify Persistent Policy with long expiration</t>
         </is>
       </c>
       <c r="E64" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Try to access service UI
-3. Monitor behavior</t>
+          <t>1. Enable SCC function
+2. Configure Persistent Policy with PersistentExpiration = 7 days
+3. Set sync schedule to 1 day
+4. Change 08/05/13 settings locally
+5. Wait for sync communication</t>
         </is>
       </c>
       <c r="F64" s="62" t="inlineStr">
         <is>
-          <t>Service UI should not be accessible during SCC communication</t>
+          <t>Persistent Policy check should continue indefinitely as timer resets with each sync</t>
         </is>
       </c>
       <c r="G64" s="58" t="inlineStr"/>
@@ -12167,24 +12351,26 @@
       </c>
       <c r="C65" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Time-based Device State Data is configured</t>
         </is>
       </c>
       <c r="D65" s="70" t="inlineStr">
         <is>
-          <t>Verify ad-hoc scenario: rapid power cycling</t>
+          <t>Verify Time-based Device State Data value changes</t>
         </is>
       </c>
       <c r="E65" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Perform rapid power cycling
-3. Monitor MFP behavior after restart</t>
+          <t>1. Enable SCC function
+2. Configure Time-based Device State Data for energy save timer
+3. Monitor value changes at specified times</t>
         </is>
       </c>
       <c r="F65" s="62" t="inlineStr">
         <is>
-          <t>MFP should recover and resume normal SCC operation</t>
+          <t>Energy save timer should change according to time-based settings</t>
         </is>
       </c>
       <c r="G65" s="58" t="inlineStr"/>
@@ -12199,25 +12385,28 @@
       </c>
       <c r="C66" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. MFP is not registered with server
+4. URL forward setting is disabled</t>
         </is>
       </c>
       <c r="D66" s="70" t="inlineStr">
         <is>
-          <t>Verify ad-hoc scenario: network interruption</t>
+          <t>Verify IP Redirect with URL forward disabled</t>
         </is>
       </c>
       <c r="E66" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Interrupt network connection
-3. Restore network connection
-4. Monitor MFP behavior</t>
+          <t>1. Set 08-3828 to 0 (Disable)
+2. Enable SCC function
+3. Monitor "GetRedirectURL" call
+4. Monitor subsequent registration request</t>
         </is>
       </c>
       <c r="F66" s="62" t="inlineStr">
         <is>
-          <t>MFP should enter retry mode and recover when connection is restored</t>
+          <t>MFP should not redirect to URL returned by GetRedirectURL</t>
         </is>
       </c>
       <c r="G66" s="58" t="inlineStr"/>
@@ -12232,24 +12421,27 @@
       </c>
       <c r="C67" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Communication error occurs during Send Device Error</t>
         </is>
       </c>
       <c r="D67" s="70" t="inlineStr">
         <is>
-          <t>Verify ad-hoc scenario: server certificate expiration</t>
+          <t>Verify retry for Send Device Error</t>
         </is>
       </c>
       <c r="E67" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate server certificate expiration
-2. Trigger SCC communication
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Simulate device error
+3. Simulate communication error during Send Device Error
+4. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F67" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle certificate expiration appropriately</t>
+          <t>MFP should retry communication with 60-minute intervals but not enter retry mode</t>
         </is>
       </c>
       <c r="G67" s="58" t="inlineStr"/>
@@ -12264,23 +12456,26 @@
       </c>
       <c r="C68" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Fxxx categorized error occurs</t>
         </is>
       </c>
       <c r="D68" s="70" t="inlineStr">
         <is>
-          <t>Verify ad-hoc scenario: random data corruption</t>
+          <t>Verify error notification for network-related errors</t>
         </is>
       </c>
       <c r="E68" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate data corruption during transmission
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Simulate Fxxx categorized error
+3. Monitor error notification behavior</t>
         </is>
       </c>
       <c r="F68" s="62" t="inlineStr">
         <is>
-          <t>MFP should detect corruption and handle it appropriately</t>
+          <t>Device should not be able to send error to server due to network unavailability</t>
         </is>
       </c>
       <c r="G68" s="58" t="inlineStr"/>
@@ -12295,24 +12490,27 @@
       </c>
       <c r="C69" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Communication error occurs during Send Service File</t>
         </is>
       </c>
       <c r="D69" s="70" t="inlineStr">
         <is>
-          <t>Verify ad-hoc scenario: extreme network latency</t>
+          <t>Verify retry for Send Service File</t>
         </is>
       </c>
       <c r="E69" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate extreme network latency
-2. Trigger SCC communication
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Simulate condition requiring service file transmission
+3. Simulate communication error during Send Service File
+4. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F69" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle high latency appropriately</t>
+          <t>MFP should retry communication with 60-minute intervals but not enter retry mode</t>
         </is>
       </c>
       <c r="G69" s="58" t="inlineStr"/>
@@ -12327,24 +12525,28 @@
       </c>
       <c r="C70" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled and registered</t>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Power failure occurs during Send Service File</t>
         </is>
       </c>
       <c r="D70" s="70" t="inlineStr">
         <is>
-          <t>Verify ad-hoc scenario: concurrent operations</t>
+          <t>Verify power failure during Send Service File</t>
         </is>
       </c>
       <c r="E70" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Perform multiple concurrent operations on MFP
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Start service file transmission
+3. Simulate power failure
+4. Power on MFP
+5. Monitor behavior</t>
         </is>
       </c>
       <c r="F70" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle concurrent operations appropriately</t>
+          <t>Created data should be deleted before next communication</t>
         </is>
       </c>
       <c r="G70" s="58" t="inlineStr"/>
@@ -12352,73 +12554,177 @@
       <c r="I70" s="53" t="n"/>
     </row>
     <row r="71" ht="99.75" customHeight="1">
-      <c r="B71" s="57" t="n"/>
-      <c r="C71" s="60" t="n"/>
-      <c r="D71" s="70" t="n"/>
-      <c r="E71" s="61" t="n"/>
-      <c r="F71" s="62" t="n"/>
-      <c r="G71" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H71" s="59" t="n"/>
+      <c r="B71" s="57" t="inlineStr">
+        <is>
+          <t>TC066</t>
+        </is>
+      </c>
+      <c r="C71" s="60" t="inlineStr">
+        <is>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Clone file update is received</t>
+        </is>
+      </c>
+      <c r="D71" s="70" t="inlineStr">
+        <is>
+          <t>Verify Clone file update</t>
+        </is>
+      </c>
+      <c r="E71" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Receive clone file update instruction
+3. Monitor installation process</t>
+        </is>
+      </c>
+      <c r="F71" s="62" t="inlineStr">
+        <is>
+          <t>MFP should apply clone data regardless of SendDataConfig parameters</t>
+        </is>
+      </c>
+      <c r="G71" s="58" t="inlineStr"/>
+      <c r="H71" s="59" t="inlineStr"/>
       <c r="I71" s="53" t="n"/>
     </row>
     <row r="72" ht="99.75" customHeight="1">
-      <c r="B72" s="57" t="n"/>
-      <c r="C72" s="60" t="n"/>
-      <c r="D72" s="70" t="n"/>
-      <c r="E72" s="61" t="n"/>
-      <c r="F72" s="62" t="n"/>
-      <c r="G72" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H72" s="59" t="n"/>
+      <c r="B72" s="57" t="inlineStr">
+        <is>
+          <t>TC067</t>
+        </is>
+      </c>
+      <c r="C72" s="60" t="inlineStr">
+        <is>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Special instruction is received</t>
+        </is>
+      </c>
+      <c r="D72" s="70" t="inlineStr">
+        <is>
+          <t>Verify Special instruction handling</t>
+        </is>
+      </c>
+      <c r="E72" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Receive special instruction
+3. Monitor MFP behavior</t>
+        </is>
+      </c>
+      <c r="F72" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should execute special instruction
+2. MFP should not reboot
+3. MFP should proceed to Send Regular Data</t>
+        </is>
+      </c>
+      <c r="G72" s="58" t="inlineStr"/>
+      <c r="H72" s="59" t="inlineStr"/>
       <c r="I72" s="53" t="n"/>
     </row>
     <row r="73" ht="99.75" customHeight="1">
-      <c r="B73" s="57" t="n"/>
-      <c r="C73" s="60" t="n"/>
-      <c r="D73" s="70" t="n"/>
-      <c r="E73" s="61" t="n"/>
-      <c r="F73" s="62" t="n"/>
-      <c r="G73" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H73" s="59" t="n"/>
+      <c r="B73" s="57" t="inlineStr">
+        <is>
+          <t>TC068</t>
+        </is>
+      </c>
+      <c r="C73" s="60" t="inlineStr">
+        <is>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Event occurs and is cancelled immediately</t>
+        </is>
+      </c>
+      <c r="D73" s="70" t="inlineStr">
+        <is>
+          <t>Verify event notification for quickly cancelled events</t>
+        </is>
+      </c>
+      <c r="E73" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate event that is cancelled immediately
+3. Monitor event notification behavior</t>
+        </is>
+      </c>
+      <c r="F73" s="62" t="inlineStr">
+        <is>
+          <t>Event may not be notified to server if SCC error notification process is in busy state</t>
+        </is>
+      </c>
+      <c r="G73" s="58" t="inlineStr"/>
+      <c r="H73" s="59" t="inlineStr"/>
       <c r="I73" s="53" t="n"/>
     </row>
     <row r="74" ht="99.75" customHeight="1">
-      <c r="B74" s="57" t="n"/>
-      <c r="C74" s="60" t="n"/>
-      <c r="D74" s="70" t="n"/>
-      <c r="E74" s="61" t="n"/>
-      <c r="F74" s="62" t="n"/>
-      <c r="G74" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H74" s="59" t="n"/>
+      <c r="B74" s="57" t="inlineStr">
+        <is>
+          <t>TC069</t>
+        </is>
+      </c>
+      <c r="C74" s="60" t="inlineStr">
+        <is>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. Factory Default is performed</t>
+        </is>
+      </c>
+      <c r="D74" s="70" t="inlineStr">
+        <is>
+          <t>Verify settings persistence after Factory Default</t>
+        </is>
+      </c>
+      <c r="E74" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Set 08-3827 to custom URL
+3. Perform Factory Default
+4. Check 08-3827 value</t>
+        </is>
+      </c>
+      <c r="F74" s="62" t="inlineStr">
+        <is>
+          <t>08-3827 should not be initialized by Factory Default</t>
+        </is>
+      </c>
+      <c r="G74" s="58" t="inlineStr"/>
+      <c r="H74" s="59" t="inlineStr"/>
       <c r="I74" s="53" t="n"/>
     </row>
     <row r="75" ht="99.75" customHeight="1">
-      <c r="B75" s="57" t="n"/>
-      <c r="C75" s="60" t="n"/>
-      <c r="D75" s="70" t="n"/>
-      <c r="E75" s="61" t="n"/>
-      <c r="F75" s="62" t="n"/>
-      <c r="G75" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H75" s="59" t="n"/>
+      <c r="B75" s="57" t="inlineStr">
+        <is>
+          <t>TC070</t>
+        </is>
+      </c>
+      <c r="C75" s="60" t="inlineStr">
+        <is>
+          <t>1. MFP is powered on
+2. SCC function is enabled
+3. HDD clear is performed</t>
+        </is>
+      </c>
+      <c r="D75" s="70" t="inlineStr">
+        <is>
+          <t>Verify settings reset after HDD clear</t>
+        </is>
+      </c>
+      <c r="E75" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Set 08-3827 to custom URL
+3. Perform HDD clear
+4. Check 08-3827 value</t>
+        </is>
+      </c>
+      <c r="F75" s="62" t="inlineStr">
+        <is>
+          <t>08-3827 should be initialized by HDD clear</t>
+        </is>
+      </c>
+      <c r="G75" s="58" t="inlineStr"/>
+      <c r="H75" s="59" t="inlineStr"/>
       <c r="I75" s="53" t="n"/>
     </row>
     <row r="76" ht="99.75" customHeight="1">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10250,7 +10250,7 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on and in normal boot-up mode</t>
+          <t>MFP is in normal boot-up mode</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
@@ -10263,9 +10263,8 @@
           <t>1. Access Self-diagnostic boot-up mode or service UI on panel
 2. Set 08-3820 to 1 (Enable)
 3. Reboot the MFP
-4. Check if SCC function is enabled
-5. Set 08-3820 to 0 (Disable)
-6. Reboot the MFP</t>
+4. Set 08-3820 to 0 (Disable)
+5. Reboot the MFP</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
@@ -10276,11 +10275,7 @@
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
-      <c r="H6" s="59" t="inlineStr">
-        <is>
-          <t>Default setting should be "Disable"</t>
-        </is>
-      </c>
+      <c r="H6" s="59" t="inlineStr"/>
       <c r="I6" s="53" t="n"/>
     </row>
     <row r="7" ht="99.75" customHeight="1">
@@ -10291,58 +10286,55 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on and in normal boot-up mode</t>
+          <t>MFP is in normal boot-up mode</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
+          <t>Verify administrator cannot enable/disable SCC function</t>
+        </is>
+      </c>
+      <c r="E7" s="61" t="inlineStr">
+        <is>
+          <t>1. Login as administrator
+2. Try to access SCC enable/disable setting from TA or via STAGE2 IF</t>
+        </is>
+      </c>
+      <c r="F7" s="62" t="inlineStr">
+        <is>
+          <t>Administrator should not be able to access or modify SCC enable/disable setting</t>
+        </is>
+      </c>
+      <c r="G7" s="58" t="inlineStr"/>
+      <c r="H7" s="59" t="inlineStr"/>
+      <c r="I7" s="53" t="n"/>
+    </row>
+    <row r="8" ht="99.75" customHeight="1">
+      <c r="B8" s="57" t="inlineStr">
+        <is>
+          <t>TC003</t>
+        </is>
+      </c>
+      <c r="C8" s="60" t="inlineStr">
+        <is>
+          <t>MFP is in normal boot-up mode</t>
+        </is>
+      </c>
+      <c r="D8" s="70" t="inlineStr">
+        <is>
           <t>Verify SCC Proxy Server Setting</t>
         </is>
       </c>
-      <c r="E7" s="61" t="inlineStr">
+      <c r="E8" s="61" t="inlineStr">
         <is>
           <t>1. Access Self-diagnostic boot-up mode or service UI on panel
 2. Configure SCC Proxy server settings (08-3822 to 08-3826)
 3. Reboot the MFP</t>
         </is>
       </c>
-      <c r="F7" s="62" t="inlineStr">
-        <is>
-          <t>1. Proxy server settings should be applied
-2. Default value should be "Disable"</t>
-        </is>
-      </c>
-      <c r="G7" s="58" t="inlineStr"/>
-      <c r="H7" s="59" t="inlineStr"/>
-      <c r="I7" s="53" t="n"/>
-    </row>
-    <row r="8" ht="99.75" customHeight="1">
-      <c r="B8" s="57" t="inlineStr">
-        <is>
-          <t>TC003</t>
-        </is>
-      </c>
-      <c r="C8" s="60" t="inlineStr">
-        <is>
-          <t>MFP is powered on and in normal boot-up mode</t>
-        </is>
-      </c>
-      <c r="D8" s="70" t="inlineStr">
-        <is>
-          <t>Verify SCC first registration URL setting</t>
-        </is>
-      </c>
-      <c r="E8" s="61" t="inlineStr">
-        <is>
-          <t>1. Access Self-diagnostic boot-up mode
-2. Set 08-3827 to a custom URL
-3. Reboot the MFP</t>
-        </is>
-      </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should use the specified URL for first registration
-2. Default value should be NULL (for non-AUD regions) or https://gsidevice-ap.Tprinters-solutions.com:443 (for AUD)</t>
+          <t>Proxy server settings should be applied correctly</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10357,25 +10349,23 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on and in normal boot-up mode</t>
+          <t>MFP is in normal boot-up mode</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify URL forward setting</t>
+          <t>Verify administrator cannot set SCC Proxy Server</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode
-2. Set 08-3828 to 0 (Disable)
-3. Reboot the MFP</t>
+          <t>1. Login as administrator
+2. Try to access SCC Proxy server settings from TA or via STAGE2 IF</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should not connect to a server specified by redirect URL
-2. Default value should be "Enable"</t>
+          <t>Administrator should not be able to access or modify SCC Proxy server settings</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10390,97 +10380,90 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is disabled (08-3820 = 0)</t>
+          <t>MFP is in normal boot-up mode</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify automatic printing of installation report</t>
+          <t>Verify SCC first registration URL setting</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
+        <is>
+          <t>1. Access Self-diagnostic boot-up mode
+2. Set 08-3827 to a valid URL
+3. Reboot the MFP
+4. Enable SCC function</t>
+        </is>
+      </c>
+      <c r="F10" s="62" t="inlineStr">
+        <is>
+          <t>MFP should connect to the specified URL for first registration</t>
+        </is>
+      </c>
+      <c r="G10" s="58" t="inlineStr"/>
+      <c r="H10" s="59" t="inlineStr"/>
+      <c r="I10" s="53" t="n"/>
+    </row>
+    <row r="11" ht="99.75" customHeight="1">
+      <c r="B11" s="57" t="inlineStr">
+        <is>
+          <t>TC006</t>
+        </is>
+      </c>
+      <c r="C11" s="60" t="inlineStr">
+        <is>
+          <t>MFP is in normal boot-up mode</t>
+        </is>
+      </c>
+      <c r="D11" s="70" t="inlineStr">
+        <is>
+          <t>Verify URL forward setting</t>
+        </is>
+      </c>
+      <c r="E11" s="61" t="inlineStr">
+        <is>
+          <t>1. Access Self-diagnostic boot-up mode
+2. Set 08-3828 to 0 (Disable)
+3. Reboot the MFP
+4. Enable SCC function</t>
+        </is>
+      </c>
+      <c r="F11" s="62" t="inlineStr">
+        <is>
+          <t>MFP should not connect to a server specified by URL redirection</t>
+        </is>
+      </c>
+      <c r="G11" s="58" t="inlineStr"/>
+      <c r="H11" s="59" t="inlineStr"/>
+      <c r="I11" s="53" t="n"/>
+    </row>
+    <row r="12" ht="99.75" customHeight="1">
+      <c r="B12" s="57" t="inlineStr">
+        <is>
+          <t>TC007</t>
+        </is>
+      </c>
+      <c r="C12" s="60" t="inlineStr">
+        <is>
+          <t>SCC function is disabled</t>
+        </is>
+      </c>
+      <c r="D12" s="70" t="inlineStr">
+        <is>
+          <t>Verify installation report printing when enabling SCC</t>
+        </is>
+      </c>
+      <c r="E12" s="61" t="inlineStr">
         <is>
           <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
 2. Reboot the MFP
 3. Wait for MFP registration processing to complete</t>
         </is>
       </c>
-      <c r="F10" s="62" t="inlineStr">
-        <is>
-          <t>Installation report should be automatically printed after MFP registration processing is executed</t>
-        </is>
-      </c>
-      <c r="G10" s="58" t="inlineStr"/>
-      <c r="H10" s="59" t="inlineStr">
-        <is>
-          <t>Report should be printed only once when SCC is first enabled</t>
-        </is>
-      </c>
-      <c r="I10" s="53" t="n"/>
-    </row>
-    <row r="11" ht="99.75" customHeight="1">
-      <c r="B11" s="57" t="inlineStr">
-        <is>
-          <t>TC006</t>
-        </is>
-      </c>
-      <c r="C11" s="60" t="inlineStr">
-        <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Network print restriction mode is set to "only private" (08-9344 = 1)</t>
-        </is>
-      </c>
-      <c r="D11" s="70" t="inlineStr">
-        <is>
-          <t>Verify installation report printing with network print restriction</t>
-        </is>
-      </c>
-      <c r="E11" s="61" t="inlineStr">
-        <is>
-          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
-2. Reboot the MFP
-3. Wait for MFP registration processing to complete</t>
-        </is>
-      </c>
-      <c r="F11" s="62" t="inlineStr">
-        <is>
-          <t>Installation report should not be printed and job log error record (error code = 4221) should be created</t>
-        </is>
-      </c>
-      <c r="G11" s="58" t="inlineStr"/>
-      <c r="H11" s="59" t="inlineStr"/>
-      <c r="I11" s="53" t="n"/>
-    </row>
-    <row r="12" ht="99.75" customHeight="1">
-      <c r="B12" s="57" t="inlineStr">
-        <is>
-          <t>TC007</t>
-        </is>
-      </c>
-      <c r="C12" s="60" t="inlineStr">
-        <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Network print restriction mode is set to "only hold" (08-9344 = 2)</t>
-        </is>
-      </c>
-      <c r="D12" s="70" t="inlineStr">
-        <is>
-          <t>Verify installation report printing with hold print restriction</t>
-        </is>
-      </c>
-      <c r="E12" s="61" t="inlineStr">
-        <is>
-          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
-2. Reboot the MFP
-3. Wait for MFP registration processing to complete</t>
-        </is>
-      </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>Installation report should be registered as hold print</t>
+          <t>Installation report should be automatically printed after successful registration</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10495,27 +10478,26 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. User authentication is enabled
-4. Built-in admin quota is exhausted</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify installation report printing with quota restriction</t>
+          <t>Verify installation report is printed only once</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
-2. Reboot the MFP
-3. Wait for MFP registration processing to complete</t>
+          <t>1. Disable SCC function
+2. Enable SCC function again
+3. Reboot the MFP
+4. Wait for MFP registration processing to complete
+5. Repeat steps 1-4</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>Installation report should not be printed with quota error</t>
+          <t>Installation report should be printed only after the first successful registration</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10530,26 +10512,24 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. HTTPS communication is configured</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify HTTPS communication with server</t>
+          <t>Verify installation report content</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Monitor network traffic
-3. Wait for MFP to communicate with server</t>
+2. Wait for installation report to print
+3. Check the printed report</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>MFP should use HTTPS for communication with servers</t>
+          <t>Report should contain: Model Name, Serial Number, MAC Address, IP Address, Subnet Mask, Gateway, DNS Server, and Registration Status</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10564,26 +10544,24 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Proxy server is configured</t>
+          <t>Network print restriction mode is enabled</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify proxy authentication</t>
+          <t>Verify installation report printing with network print restrictions</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy server settings (08-3822 to 08-3826) with authentication
-2. Reboot the MFP
-3. Wait for MFP to communicate with server</t>
+          <t>1. Set 08-9344 to 1 (only private)
+2. Enable SCC function
+3. Wait for registration process</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully authenticate with proxy server and communicate with SCC server</t>
+          <t>Installation report should not be printed and job log should show error code 4221</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10598,26 +10576,25 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Port 443 is blocked on firewall</t>
+          <t>User authentication is enabled</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify automatic port switching</t>
+          <t>Verify installation report printing with quota restrictions</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Block port 443 on firewall
-2. Enable SCC function
-3. Wait for MFP to communicate with server</t>
+          <t>1. Enable user authentication
+2. Set quota for built-in admin to 0
+3. Enable SCC function
+4. Wait for registration process</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>MFP should automatically use port 8443 when port 443 is not available</t>
+          <t>Installation report should not be printed due to quota error</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10632,24 +10609,24 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is in special startup mode
-2. SCC function is enabled</t>
+          <t>MFP is in normal boot-up mode</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC process in special startup mode</t>
+          <t>Verify HTTPS communication protocol</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Boot MFP in special startup mode
-2. Check if SCC process starts</t>
+          <t>1. Enable SCC function
+2. Monitor network traffic during SCC communication
+3. Check the protocol used</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>SCC process should not start up in special startup mode</t>
+          <t>MFP should use HTTPS for communication with servers</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10664,33 +10641,28 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled</t>
+          <t>MFP is connected via proxy server</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication loop timing</t>
+          <t>Verify proxy authentication</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Set regular communication schedule
-3. Monitor communication with server</t>
+          <t>1. Configure proxy server settings (08-3822 to 08-3826) with authentication
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate with server at SCC process startup and according to regular communication schedule</t>
+          <t>MFP should successfully authenticate with the proxy server</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
-      <c r="H18" s="59" t="inlineStr">
-        <is>
-          <t>Default schedule is "every day at 0:00"</t>
-        </is>
-      </c>
+      <c r="H18" s="59" t="inlineStr"/>
       <c r="I18" s="53" t="n"/>
     </row>
     <row r="19" ht="99.75" customHeight="1">
@@ -10701,27 +10673,24 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is not registered with server</t>
+          <t>MFP is connected via proxy server without authentication</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify first-time device registration</t>
+          <t>Verify proxy without authentication</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function for the first time
-2. Monitor communication with server</t>
+          <t>1. Configure proxy server settings with NULL account ID
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should call "Register Device" interface
-2. MFP should be registered in the server
-3. Installation report should be printed</t>
+          <t>MFP should communicate through proxy without authentication</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10736,26 +10705,24 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is already registered with server</t>
+          <t>Port 443 is blocked</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify subsequent device authentication</t>
+          <t>Verify fallback to port 8443</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Reboot MFP
-2. Monitor communication with server</t>
+          <t>1. Block port 443 on firewall
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should call "Register Device" interface
-2. MFP should be authenticated using token</t>
+          <t>MFP should automatically use port 8443 for communication</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10770,27 +10737,23 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Server is busy</t>
+          <t>MFP is in special startup mode</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify server busy handling</t>
+          <t>Verify SCC process startup</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate server busy condition
-2. Enable SCC function
-3. Monitor communication with server</t>
+          <t>1. Boot MFP in special startup mode
+2. Check if SCC process starts</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should retry connection after waiting for the period specified by server
-2. MFP should exit communication cycle after 3 retries if server is still busy</t>
+          <t>SCC process should not start in special startup mode</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10805,28 +10768,24 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP registration fails</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify registration failure handling</t>
+          <t>Verify regular communication loop timing</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate registration failure condition
-2. Enable SCC function
-3. Monitor communication with server</t>
+          <t>1. Enable SCC function
+2. Set regular communication schedule
+3. Monitor communication timing</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>1. After 3 consecutive failures, server should respond with STATUS_LOCK
-2. Installation Report should be printed
-3. MFP should exit communication cycle</t>
+          <t>MFP should communicate with server according to the schedule</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
@@ -10841,26 +10800,24 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is registered with server</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify Check for Updates functionality</t>
+          <t>Verify event notification loop timing</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Wait for MFP to register with server
-3. Monitor "Check for Updates" call</t>
+2. Trigger an event (e.g., device error)
+3. Monitor communication timing</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>MFP should call "Check for Updates" interface after successful registration</t>
+          <t>MFP should immediately communicate with server when event occurs</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
@@ -10875,30 +10832,24 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is registered with server
-4. Update is available</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Verify Download Package functionality</t>
+          <t>Verify URL setting with valid HTTPS URL</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Wait for MFP to register with server
-3. Simulate update availability
-4. Monitor "Download Package" call</t>
+          <t>1. Set 08-3827 to a valid HTTPS URL with port
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should call "Download Package" interface
-2. MFP should download the update package
-3. MFP should verify package hash value</t>
+          <t>MFP should connect to the specified URL</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10913,30 +10864,24 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is registered with server
-4. Downloaded package hash value is incorrect</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D25" s="70" t="inlineStr">
         <is>
-          <t>Verify hash value mismatch handling</t>
+          <t>Verify URL setting with invalid URL format</t>
         </is>
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Wait for MFP to register with server
-3. Simulate update with incorrect hash value
-4. Monitor MFP behavior</t>
+          <t>1. Set 08-3827 to an invalid URL format
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should delete the downloaded data
-2. MFP should exit communication cycle
-3. MFP should wait for next communication schedule</t>
+          <t>Network error should occur and MFP should not access default server</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
@@ -10951,27 +10896,24 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is registered with server</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D26" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Baseline Data functionality</t>
+          <t>Verify URL setting with NULL string</t>
         </is>
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Wait for MFP to register with server
-3. Monitor "Send Zip (isBaseline=true)" call</t>
+          <t>1. Set 08-3827 to NULL string
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should call "Send Zip (isBaseline=true)" interface
-2. MFP should send baseline data according to SendDataConfig setting</t>
+          <t>MFP should connect to NA server (edevice.Tprinters-solutions.com)</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
@@ -10986,27 +10928,23 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is registered with server
-4. Update package is downloaded</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package functionality</t>
+          <t>Verify first-time MFP registration</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Wait for MFP to download update package
-3. Monitor installation process</t>
+          <t>1. Enable SCC function for first time
+2. Monitor registration process</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>MFP should install the update package according to the instructions</t>
+          <t>MFP should register with server and receive token</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
@@ -11021,28 +10959,23 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is registered with server
-4. Firmware update is scheduled</t>
+          <t>SCC is enabled and MFP is registered</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update scheduling</t>
+          <t>Verify subsequent MFP authentication</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Wait for MFP to download firmware update package
-3. Monitor firmware update process</t>
+          <t>1. Reboot MFP with SCC enabled
+2. Monitor authentication process</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should schedule firmware update according to instructions
-2. MFP should execute firmware update at scheduled time</t>
+          <t>MFP should authenticate using token from previous registration</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
@@ -11057,28 +10990,23 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is registered with server
-4. Update package is installed</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Verify Update Status functionality</t>
+          <t>Verify server BUSY handling</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Wait for MFP to install update package
-3. Monitor "Update Status" call</t>
+          <t>1. Simulate server BUSY response
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should call "Update Status" interface
-2. MFP should notify installation status to server</t>
+          <t>MFP should retry connection with increasing intervals</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
@@ -11093,27 +11021,23 @@
       </c>
       <c r="C30" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is registered with server</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D30" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Regular Data functionality</t>
+          <t>Verify MFP registration failure handling</t>
         </is>
       </c>
       <c r="E30" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Wait for MFP to complete update status notification
-3. Monitor "Send Zip (isBaseline=false)" call</t>
+          <t>1. Simulate registration failure response
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F30" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should call "Send Zip (isBaseline=false)" interface
-2. MFP should send regular data according to SendDataConfig setting</t>
+          <t>After 3 consecutive failures, MFP should receive STATUS_LOCK and print Installation Report</t>
         </is>
       </c>
       <c r="G30" s="58" t="inlineStr"/>
@@ -11128,27 +11052,23 @@
       </c>
       <c r="C31" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Device error occurs</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D31" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Device Error functionality</t>
+          <t>Verify Check for Updates functionality</t>
         </is>
       </c>
       <c r="E31" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Simulate device error
-3. Monitor "Send Device Error" call</t>
+2. Monitor Check for Updates process</t>
         </is>
       </c>
       <c r="F31" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should call "Send Device Error" interface
-2. MFP should notify error to server</t>
+          <t>MFP should successfully check for updates with server</t>
         </is>
       </c>
       <c r="G31" s="58" t="inlineStr"/>
@@ -11163,28 +11083,24 @@
       </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Device error is resolved</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D32" s="70" t="inlineStr">
         <is>
-          <t>Verify error resolution notification</t>
+          <t>Verify Download Package functionality</t>
         </is>
       </c>
       <c r="E32" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Simulate device error
-3. Resolve error without power off
-4. Monitor "Send Device Error" call</t>
+2. Trigger update package download
+3. Monitor download process</t>
         </is>
       </c>
       <c r="F32" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should call "Send Device Error" interface
-2. MFP should notify error resolution with "-" prefix (e.g., -D102)</t>
+          <t>MFP should download package and verify hash value</t>
         </is>
       </c>
       <c r="G32" s="58" t="inlineStr"/>
@@ -11199,26 +11115,23 @@
       </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Same error occurs multiple times</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D33" s="70" t="inlineStr">
         <is>
-          <t>Verify duplicate error handling</t>
+          <t>Verify hash value mismatch handling</t>
         </is>
       </c>
       <c r="E33" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate same device error multiple times
-3. Monitor "Send Device Error" calls</t>
+          <t>1. Simulate hash value mismatch during download
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F33" s="62" t="inlineStr">
         <is>
-          <t>MFP should not send the same error to server unless it is removed</t>
+          <t>MFP should delete downloaded data and exit communication cycle</t>
         </is>
       </c>
       <c r="G33" s="58" t="inlineStr"/>
@@ -11233,27 +11146,23 @@
       </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. RequestServiceFiles=true in response to Send Device Error</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D34" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Service File functionality</t>
+          <t>Verify Send Baseline Data functionality</t>
         </is>
       </c>
       <c r="E34" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Simulate device error with RequestServiceFiles=true response
-3. Monitor "Send Service Files" call</t>
+2. Monitor Send Baseline Data process</t>
         </is>
       </c>
       <c r="F34" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should call "Send Service Files" interface
-2. MFP should send ZIP file with service files</t>
+          <t>MFP should collect and send baseline data to server</t>
         </is>
       </c>
       <c r="G34" s="58" t="inlineStr"/>
@@ -11268,34 +11177,28 @@
       </c>
       <c r="C35" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is about to enter Super Sleep</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D35" s="70" t="inlineStr">
         <is>
-          <t>Verify Super Sleep behavior during communication</t>
+          <t>Verify Install Package functionality</t>
         </is>
       </c>
       <c r="E35" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Start communication with server
-3. Attempt to enter Super Sleep</t>
+2. Trigger package installation
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F35" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter Power save, Sleep, or Super Sleep during communication cycle period</t>
+          <t>MFP should install package successfully</t>
         </is>
       </c>
       <c r="G35" s="58" t="inlineStr"/>
-      <c r="H35" s="59" t="inlineStr">
-        <is>
-          <t>Exception: scheduling firmware update state</t>
-        </is>
-      </c>
+      <c r="H35" s="59" t="inlineStr"/>
       <c r="I35" s="53" t="n"/>
     </row>
     <row r="36" ht="99.75" customHeight="1">
@@ -11306,28 +11209,24 @@
       </c>
       <c r="C36" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is in Super Sleep state
-2. SCC function is enabled
-3. Regular communication time arrives</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D36" s="70" t="inlineStr">
         <is>
-          <t>Verify Super Sleep recovery for communication</t>
+          <t>Verify firmware update installation</t>
         </is>
       </c>
       <c r="E36" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in Super Sleep state
-2. Wait for regular communication time
-3. Monitor MFP behavior</t>
+          <t>1. Enable SCC function
+2. Trigger firmware update
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F36" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should recover from Super Sleep state
-2. MFP should start communication with server
-3. MFP should return to Super Sleep after communication</t>
+          <t>MFP should schedule and perform firmware update</t>
         </is>
       </c>
       <c r="G36" s="58" t="inlineStr"/>
@@ -11342,34 +11241,28 @@
       </c>
       <c r="C37" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is about to enter hibernation</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D37" s="70" t="inlineStr">
         <is>
-          <t>Verify hibernation behavior during communication</t>
+          <t>Verify Update Status notification</t>
         </is>
       </c>
       <c r="E37" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Start communication with server
-3. Attempt to enter hibernation</t>
+2. Trigger package installation
+3. Monitor Update Status notification</t>
         </is>
       </c>
       <c r="F37" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter hibernation during communication cycle</t>
+          <t>MFP should notify server of installation status</t>
         </is>
       </c>
       <c r="G37" s="58" t="inlineStr"/>
-      <c r="H37" s="59" t="inlineStr">
-        <is>
-          <t>Exception: scheduling firmware update state</t>
-        </is>
-      </c>
+      <c r="H37" s="59" t="inlineStr"/>
       <c r="I37" s="53" t="n"/>
     </row>
     <row r="38" ht="99.75" customHeight="1">
@@ -11380,27 +11273,23 @@
       </c>
       <c r="C38" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Persistent Policy is configured</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D38" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy functionality</t>
+          <t>Verify Send Regular Data functionality</t>
         </is>
       </c>
       <c r="E38" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Configure Persistent Policy from server
-3. Change 08/05/13 settings locally
-4. Wait for Persistent Policy check</t>
+2. Monitor Send Regular Data process</t>
         </is>
       </c>
       <c r="F38" s="62" t="inlineStr">
         <is>
-          <t>MFP should restore 08/05/13 settings according to Persistent Policy</t>
+          <t>MFP should collect and send regular data to server</t>
         </is>
       </c>
       <c r="G38" s="58" t="inlineStr"/>
@@ -11415,26 +11304,24 @@
       </c>
       <c r="C39" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Time-based Device State Data is configured</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D39" s="70" t="inlineStr">
         <is>
-          <t>Verify Time-based Device State Data functionality</t>
+          <t>Verify Send Device Error functionality</t>
         </is>
       </c>
       <c r="E39" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Configure Time-based Device State Data from server
-3. Monitor 08/05/13 code values at different times</t>
+2. Trigger device error
+3. Monitor error notification</t>
         </is>
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>MFP should change 08/05/13 code values according to time-based settings</t>
+          <t>MFP should notify server of device error</t>
         </is>
       </c>
       <c r="G39" s="58" t="inlineStr"/>
@@ -11449,27 +11336,25 @@
       </c>
       <c r="C40" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is not registered with server</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D40" s="70" t="inlineStr">
         <is>
-          <t>Verify IP Redirect functionality</t>
+          <t>Verify error removal notification</t>
         </is>
       </c>
       <c r="E40" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function for first time
-2. Monitor "GetRedirectURL" call
-3. Monitor subsequent registration request</t>
+          <t>1. Enable SCC function
+2. Trigger device error
+3. Resolve error without power off
+4. Monitor error notification</t>
         </is>
       </c>
       <c r="F40" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should call "GetRedirectURL" interface
-2. MFP should use redirected URL for registration if URL forward setting is enabled</t>
+          <t>MFP should notify server of error removal with '-' prefix</t>
         </is>
       </c>
       <c r="G40" s="58" t="inlineStr"/>
@@ -11484,242 +11369,215 @@
       </c>
       <c r="C41" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Communication error occurs</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D41" s="70" t="inlineStr">
         <is>
+          <t>Verify duplicate error handling</t>
+        </is>
+      </c>
+      <c r="E41" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger same device error multiple times
+3. Monitor error notifications</t>
+        </is>
+      </c>
+      <c r="F41" s="62" t="inlineStr">
+        <is>
+          <t>Same error should not be sent to server unless removed first</t>
+        </is>
+      </c>
+      <c r="G41" s="58" t="inlineStr"/>
+      <c r="H41" s="59" t="inlineStr"/>
+      <c r="I41" s="53" t="n"/>
+    </row>
+    <row r="42" ht="99.75" customHeight="1">
+      <c r="B42" s="57" t="inlineStr">
+        <is>
+          <t>TC037</t>
+        </is>
+      </c>
+      <c r="C42" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D42" s="70" t="inlineStr">
+        <is>
+          <t>Verify Super Sleep interaction</t>
+        </is>
+      </c>
+      <c r="E42" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Put MFP in Super Sleep state
+3. Wait for scheduled communication time</t>
+        </is>
+      </c>
+      <c r="F42" s="62" t="inlineStr">
+        <is>
+          <t>MFP should wake from Super Sleep for communication and return to Super Sleep after</t>
+        </is>
+      </c>
+      <c r="G42" s="58" t="inlineStr"/>
+      <c r="H42" s="59" t="inlineStr"/>
+      <c r="I42" s="53" t="n"/>
+    </row>
+    <row r="43" ht="99.75" customHeight="1">
+      <c r="B43" s="57" t="inlineStr">
+        <is>
+          <t>TC038</t>
+        </is>
+      </c>
+      <c r="C43" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D43" s="70" t="inlineStr">
+        <is>
+          <t>Verify Hibernation interaction</t>
+        </is>
+      </c>
+      <c r="E43" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Initiate communication cycle
+3. Try to put MFP in hibernation</t>
+        </is>
+      </c>
+      <c r="F43" s="62" t="inlineStr">
+        <is>
+          <t>MFP should not enter hibernation during communication cycle</t>
+        </is>
+      </c>
+      <c r="G43" s="58" t="inlineStr"/>
+      <c r="H43" s="59" t="inlineStr"/>
+      <c r="I43" s="53" t="n"/>
+    </row>
+    <row r="44" ht="99.75" customHeight="1">
+      <c r="B44" s="57" t="inlineStr">
+        <is>
+          <t>TC039</t>
+        </is>
+      </c>
+      <c r="C44" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled with Persistent Policy</t>
+        </is>
+      </c>
+      <c r="D44" s="70" t="inlineStr">
+        <is>
+          <t>Verify Persistent Policy functionality</t>
+        </is>
+      </c>
+      <c r="E44" s="61" t="inlineStr">
+        <is>
+          <t>1. Set policy from cloud server with persistent settings
+2. Change settings locally
+3. Wait for persistent check interval</t>
+        </is>
+      </c>
+      <c r="F44" s="62" t="inlineStr">
+        <is>
+          <t>MFP should revert to policy settings based on persistent interval</t>
+        </is>
+      </c>
+      <c r="G44" s="58" t="inlineStr"/>
+      <c r="H44" s="59" t="inlineStr"/>
+      <c r="I44" s="53" t="n"/>
+    </row>
+    <row r="45" ht="99.75" customHeight="1">
+      <c r="B45" s="57" t="inlineStr">
+        <is>
+          <t>TC040</t>
+        </is>
+      </c>
+      <c r="C45" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled with Time-based settings</t>
+        </is>
+      </c>
+      <c r="D45" s="70" t="inlineStr">
+        <is>
+          <t>Verify Time-based Device State Data Values</t>
+        </is>
+      </c>
+      <c r="E45" s="61" t="inlineStr">
+        <is>
+          <t>1. Set time-based values for settings
+2. Monitor setting changes at specified times</t>
+        </is>
+      </c>
+      <c r="F45" s="62" t="inlineStr">
+        <is>
+          <t>Settings should change according to time-based schedule</t>
+        </is>
+      </c>
+      <c r="G45" s="58" t="inlineStr"/>
+      <c r="H45" s="59" t="inlineStr"/>
+      <c r="I45" s="53" t="n"/>
+    </row>
+    <row r="46" ht="99.75" customHeight="1">
+      <c r="B46" s="57" t="inlineStr">
+        <is>
+          <t>TC041</t>
+        </is>
+      </c>
+      <c r="C46" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D46" s="70" t="inlineStr">
+        <is>
+          <t>Verify IP Redirect functionality</t>
+        </is>
+      </c>
+      <c r="E46" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function for first time
+2. Monitor GetRedirectURL request
+3. Check if MFP connects to redirected URL</t>
+        </is>
+      </c>
+      <c r="F46" s="62" t="inlineStr">
+        <is>
+          <t>MFP should connect to appropriate regional server based on IP address</t>
+        </is>
+      </c>
+      <c r="G46" s="58" t="inlineStr"/>
+      <c r="H46" s="59" t="inlineStr"/>
+      <c r="I46" s="53" t="n"/>
+    </row>
+    <row r="47" ht="99.75" customHeight="1">
+      <c r="B47" s="57" t="inlineStr">
+        <is>
+          <t>TC042</t>
+        </is>
+      </c>
+      <c r="C47" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D47" s="70" t="inlineStr">
+        <is>
           <t>Verify retry processing at communication error</t>
         </is>
       </c>
-      <c r="E41" s="61" t="inlineStr">
+      <c r="E47" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
 2. Simulate communication error
 3. Monitor retry behavior</t>
         </is>
       </c>
-      <c r="F41" s="62" t="inlineStr">
-        <is>
-          <t>1. MFP should retry communication in 60 seconds
-2. If first retry fails, MFP should enter Retry Mode</t>
-        </is>
-      </c>
-      <c r="G41" s="58" t="inlineStr"/>
-      <c r="H41" s="59" t="inlineStr"/>
-      <c r="I41" s="53" t="n"/>
-    </row>
-    <row r="42" ht="99.75" customHeight="1">
-      <c r="B42" s="57" t="inlineStr">
-        <is>
-          <t>TC037</t>
-        </is>
-      </c>
-      <c r="C42" s="60" t="inlineStr">
-        <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. HTTP error occurs</t>
-        </is>
-      </c>
-      <c r="D42" s="70" t="inlineStr">
-        <is>
-          <t>Verify retry processing at HTTP error</t>
-        </is>
-      </c>
-      <c r="E42" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Simulate HTTP error
-3. Monitor retry behavior</t>
-        </is>
-      </c>
-      <c r="F42" s="62" t="inlineStr">
-        <is>
-          <t>1. MFP should retry communication in 60 seconds
-2. If second retry fails, MFP should enter Retry Mode</t>
-        </is>
-      </c>
-      <c r="G42" s="58" t="inlineStr"/>
-      <c r="H42" s="59" t="inlineStr"/>
-      <c r="I42" s="53" t="n"/>
-    </row>
-    <row r="43" ht="99.75" customHeight="1">
-      <c r="B43" s="57" t="inlineStr">
-        <is>
-          <t>TC038</t>
-        </is>
-      </c>
-      <c r="C43" s="60" t="inlineStr">
-        <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is in Retry Mode</t>
-        </is>
-      </c>
-      <c r="D43" s="70" t="inlineStr">
-        <is>
-          <t>Verify Retry Mode behavior</t>
-        </is>
-      </c>
-      <c r="E43" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Force MFP into Retry Mode
-3. Monitor communication attempts</t>
-        </is>
-      </c>
-      <c r="F43" s="62" t="inlineStr">
-        <is>
-          <t>1. MFP should try to communicate with server once a day
-2. Communication should start from Register Device</t>
-        </is>
-      </c>
-      <c r="G43" s="58" t="inlineStr"/>
-      <c r="H43" s="59" t="inlineStr"/>
-      <c r="I43" s="53" t="n"/>
-    </row>
-    <row r="44" ht="99.75" customHeight="1">
-      <c r="B44" s="57" t="inlineStr">
-        <is>
-          <t>TC039</t>
-        </is>
-      </c>
-      <c r="C44" s="60" t="inlineStr">
-        <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is in Retry Mode
-4. Power failure occurs</t>
-        </is>
-      </c>
-      <c r="D44" s="70" t="inlineStr">
-        <is>
-          <t>Verify Retry Mode after power failure</t>
-        </is>
-      </c>
-      <c r="E44" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Force MFP into Retry Mode
-3. Simulate power failure
-4. Power on MFP
-5. Monitor communication behavior</t>
-        </is>
-      </c>
-      <c r="F44" s="62" t="inlineStr">
-        <is>
-          <t>1. Retry Mode should be cancelled
-2. MFP should start normal regular communication cycle</t>
-        </is>
-      </c>
-      <c r="G44" s="58" t="inlineStr"/>
-      <c r="H44" s="59" t="inlineStr"/>
-      <c r="I44" s="53" t="n"/>
-    </row>
-    <row r="45" ht="99.75" customHeight="1">
-      <c r="B45" s="57" t="inlineStr">
-        <is>
-          <t>TC040</t>
-        </is>
-      </c>
-      <c r="C45" s="60" t="inlineStr">
-        <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. SCC processing is active</t>
-        </is>
-      </c>
-      <c r="D45" s="70" t="inlineStr">
-        <is>
-          <t>Verify panel message display</t>
-        </is>
-      </c>
-      <c r="E45" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Start SCC processing
-3. Check panel display</t>
-        </is>
-      </c>
-      <c r="F45" s="62" t="inlineStr">
-        <is>
-          <t>1. MFP should display "Service in progress. Please do not turn off: XX" on status window
-2. Numerical value should correspond to current status</t>
-        </is>
-      </c>
-      <c r="G45" s="58" t="inlineStr"/>
-      <c r="H45" s="59" t="inlineStr"/>
-      <c r="I45" s="53" t="n"/>
-    </row>
-    <row r="46" ht="99.75" customHeight="1">
-      <c r="B46" s="57" t="inlineStr">
-        <is>
-          <t>TC041</t>
-        </is>
-      </c>
-      <c r="C46" s="60" t="inlineStr">
-        <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. RDMS (BBR2) function is enabled</t>
-        </is>
-      </c>
-      <c r="D46" s="70" t="inlineStr">
-        <is>
-          <t>Verify SCC and RDMS exclusivity</t>
-        </is>
-      </c>
-      <c r="E46" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Enable RDMS (BBR2) function
-3. Check if both functions work</t>
-        </is>
-      </c>
-      <c r="F46" s="62" t="inlineStr">
-        <is>
-          <t>If SCC function is enabled, RDMS (BBR2) should not work</t>
-        </is>
-      </c>
-      <c r="G46" s="58" t="inlineStr"/>
-      <c r="H46" s="59" t="inlineStr">
-        <is>
-          <t>This limitation is removed from L6.02/L6.03 development</t>
-        </is>
-      </c>
-      <c r="I46" s="53" t="n"/>
-    </row>
-    <row r="47" ht="99.75" customHeight="1">
-      <c r="B47" s="57" t="inlineStr">
-        <is>
-          <t>TC042</t>
-        </is>
-      </c>
-      <c r="C47" s="60" t="inlineStr">
-        <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Service UI is accessed</t>
-        </is>
-      </c>
-      <c r="D47" s="70" t="inlineStr">
-        <is>
-          <t>Verify service UI exclusivity</t>
-        </is>
-      </c>
-      <c r="E47" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Start communication with server
-3. Attempt to access service UI</t>
-        </is>
-      </c>
       <c r="F47" s="62" t="inlineStr">
         <is>
-          <t>Service UI should not be accessible while device is communicating with server</t>
+          <t>MFP should retry after 60 seconds, then enter retry mode if still failing</t>
         </is>
       </c>
       <c r="G47" s="58" t="inlineStr"/>
@@ -11734,26 +11592,23 @@
       </c>
       <c r="C48" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. 08-3827 is set to invalid URL</t>
+          <t>SCC is enabled in retry mode</t>
         </is>
       </c>
       <c r="D48" s="70" t="inlineStr">
         <is>
-          <t>Verify invalid URL handling</t>
+          <t>Verify retry mode behavior</t>
         </is>
       </c>
       <c r="E48" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to invalid URL
-2. Enable SCC function
-3. Monitor communication behavior</t>
+          <t>1. Put MFP in retry mode
+2. Monitor communication attempts</t>
         </is>
       </c>
       <c r="F48" s="62" t="inlineStr">
         <is>
-          <t>Network error should occur and device should not access NA server</t>
+          <t>MFP should try to communicate once every 24 hours</t>
         </is>
       </c>
       <c r="G48" s="58" t="inlineStr"/>
@@ -11768,27 +11623,24 @@
       </c>
       <c r="C49" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. 08-3827 is set to valid URL but device is not registered</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D49" s="70" t="inlineStr">
         <is>
-          <t>Verify registration error handling</t>
+          <t>Verify message log recording</t>
         </is>
       </c>
       <c r="E49" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to valid URL
-2. Enable SCC function
-3. Simulate registration error
-4. Monitor communication behavior</t>
+          <t>1. Enable SCC function
+2. Trigger various SCC operations and errors
+3. Check message logs</t>
         </is>
       </c>
       <c r="F49" s="62" t="inlineStr">
         <is>
-          <t>Registration error (STATUS_FAILED) should occur</t>
+          <t>Appropriate message logs should be recorded for SCC operations</t>
         </is>
       </c>
       <c r="G49" s="58" t="inlineStr"/>
@@ -11803,30 +11655,24 @@
       </c>
       <c r="C50" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. 08-3827 is set to valid URL
-4. Server returns other URL
-5. 08-3828 is set to 0 (Disable)</t>
+          <t>SCC is enabled with RDMS (BBR2)</t>
         </is>
       </c>
       <c r="D50" s="70" t="inlineStr">
         <is>
-          <t>Verify URL forward disable behavior</t>
+          <t>Verify RDMS compatibility</t>
         </is>
       </c>
       <c r="E50" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to valid URL
-2. Set 08-3828 to 0 (Disable)
-3. Enable SCC function
-4. Simulate server returning other URL
-5. Monitor communication behavior</t>
+          <t>1. Enable SCC function
+2. Enable RDMS (BBR2) function
+3. Check RDMS functionality</t>
         </is>
       </c>
       <c r="F50" s="62" t="inlineStr">
         <is>
-          <t>Registration error should occur</t>
+          <t>RDMS should not work when SCC is enabled</t>
         </is>
       </c>
       <c r="G50" s="58" t="inlineStr"/>
@@ -11841,30 +11687,24 @@
       </c>
       <c r="C51" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. 08-3827 is set to valid URL
-4. Server returns other URL
-5. 08-3828 is set to 1 (Enable)</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D51" s="70" t="inlineStr">
         <is>
-          <t>Verify URL forward enable behavior</t>
+          <t>Verify panel message display</t>
         </is>
       </c>
       <c r="E51" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to valid URL
-2. Set 08-3828 to 1 (Enable)
-3. Enable SCC function
-4. Simulate server returning other URL
-5. Monitor communication behavior</t>
+          <t>1. Enable SCC function
+2. Initiate SCC processing
+3. Check panel display</t>
         </is>
       </c>
       <c r="F51" s="62" t="inlineStr">
         <is>
-          <t>Device should access returned URL and continue registration process</t>
+          <t>Panel should display appropriate message with numerical value</t>
         </is>
       </c>
       <c r="G51" s="58" t="inlineStr"/>
@@ -11879,28 +11719,24 @@
       </c>
       <c r="C52" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. HTTPS is used
-4. CA certificate is not imported</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D52" s="70" t="inlineStr">
         <is>
-          <t>Verify HTTPS without CA certificate</t>
+          <t>Verify IPv4 connectivity</t>
         </is>
       </c>
       <c r="E52" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to HTTPS URL requiring custom CA certificate
-2. Do not import CA certificate
-3. Enable SCC function
-4. Monitor communication behavior</t>
+          <t>1. Configure MFP with IPv4 address only
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F52" s="62" t="inlineStr">
         <is>
-          <t>Communication should fail</t>
+          <t>MFP should successfully communicate with server using IPv4</t>
         </is>
       </c>
       <c r="G52" s="58" t="inlineStr"/>
@@ -11915,28 +11751,24 @@
       </c>
       <c r="C53" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Power failure occurs during package download</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D53" s="70" t="inlineStr">
         <is>
-          <t>Verify power failure during download</t>
+          <t>Verify IPv6 connectivity</t>
         </is>
       </c>
       <c r="E53" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Start package download
-3. Simulate power failure
-4. Power on MFP
-5. Monitor behavior</t>
+          <t>1. Configure MFP with IPv6 address only
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F53" s="62" t="inlineStr">
         <is>
-          <t>Downloaded data should be deleted before next communication</t>
+          <t>MFP should successfully communicate with server using IPv6</t>
         </is>
       </c>
       <c r="G53" s="58" t="inlineStr"/>
@@ -11951,29 +11783,24 @@
       </c>
       <c r="C54" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. HDD is full during package download</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D54" s="70" t="inlineStr">
         <is>
-          <t>Verify HDD full during download</t>
+          <t>Verify dual-stack IPv4/IPv6 behavior</t>
         </is>
       </c>
       <c r="E54" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Fill HDD to capacity
-3. Start package download
-4. Monitor behavior</t>
+          <t>1. Configure MFP with both IPv4 and IPv6 addresses
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F54" s="62" t="inlineStr">
         <is>
-          <t>1. Downloaded data should be deleted
-2. MFP should exit communication cycle
-3. MFP should wait for next communication schedule</t>
+          <t>MFP should use appropriate protocol for communication</t>
         </is>
       </c>
       <c r="G54" s="58" t="inlineStr"/>
@@ -11988,28 +11815,25 @@
       </c>
       <c r="C55" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Power failure occurs during installation</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D55" s="70" t="inlineStr">
         <is>
-          <t>Verify power failure during installation</t>
+          <t>Verify IPv4 to IPv6 fallback</t>
         </is>
       </c>
       <c r="E55" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Start package installation
-3. Simulate power failure
-4. Power on MFP
-5. Monitor behavior</t>
+          <t>1. Configure MFP with both IPv4 and IPv6
+2. Block IPv4 communication
+3. Enable SCC function
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F55" s="62" t="inlineStr">
         <is>
-          <t>Update package data or firmware data should be deleted before next communication</t>
+          <t>MFP should fall back to IPv6 when IPv4 fails</t>
         </is>
       </c>
       <c r="G55" s="58" t="inlineStr"/>
@@ -12024,27 +11848,25 @@
       </c>
       <c r="C56" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Installation fails</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D56" s="70" t="inlineStr">
         <is>
-          <t>Verify installation failure handling</t>
+          <t>Verify IPv6 to IPv4 fallback</t>
         </is>
       </c>
       <c r="E56" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate installation failure
-3. Monitor behavior</t>
+          <t>1. Configure MFP with both IPv4 and IPv6
+2. Block IPv6 communication
+3. Enable SCC function
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F56" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should notify update result to server
-2. Regular communication should be scheduled after 1 hour</t>
+          <t>MFP should fall back to IPv4 when IPv6 fails</t>
         </is>
       </c>
       <c r="G56" s="58" t="inlineStr"/>
@@ -12059,27 +11881,24 @@
       </c>
       <c r="C57" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. SSD model
-4. Firmware update is attempted</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D57" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update on SSD model</t>
+          <t>Verify invalid IPv4 input handling</t>
         </is>
       </c>
       <c r="E57" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function on SSD model
-2. Attempt firmware update
-3. Monitor behavior</t>
+          <t>1. Configure MFP with invalid IPv4 address
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F57" s="62" t="inlineStr">
         <is>
-          <t>Firmware update should fail</t>
+          <t>MFP should handle invalid IPv4 address appropriately</t>
         </is>
       </c>
       <c r="G57" s="58" t="inlineStr"/>
@@ -12094,30 +11913,24 @@
       </c>
       <c r="C58" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Multiple updates are received
-4. One update fails</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D58" s="70" t="inlineStr">
         <is>
-          <t>Verify partial update failure handling</t>
+          <t>Verify invalid IPv6 input handling</t>
         </is>
       </c>
       <c r="E58" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Receive multiple update instructions
-3. Simulate failure of one update
-4. Monitor behavior</t>
+          <t>1. Configure MFP with invalid IPv6 address
+2. Enable SCC function
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F58" s="62" t="inlineStr">
         <is>
-          <t>1. Update installation should continue for remaining updates
-2. MFP should notify update results to server
-3. MFP should continue regular cycle</t>
+          <t>MFP should handle invalid IPv6 address appropriately</t>
         </is>
       </c>
       <c r="G58" s="58" t="inlineStr"/>
@@ -12132,26 +11945,24 @@
       </c>
       <c r="C59" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. SendDataConfig parameters are changed</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D59" s="70" t="inlineStr">
         <is>
-          <t>Verify SendDataConfig parameter application</t>
+          <t>Verify IPv4 performance</t>
         </is>
       </c>
       <c r="E59" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Change SendDataConfig parameters in server response
-3. Monitor data collection behavior</t>
+          <t>1. Configure MFP with IPv4 address
+2. Enable SCC function
+3. Measure communication performance</t>
         </is>
       </c>
       <c r="F59" s="62" t="inlineStr">
         <is>
-          <t>MFP should apply SendDataConfig parameters immediately</t>
+          <t>Communication performance should meet requirements</t>
         </is>
       </c>
       <c r="G59" s="58" t="inlineStr"/>
@@ -12166,30 +11977,24 @@
       </c>
       <c r="C60" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Firmware update is scheduled
-4. Power failure occurs before scheduled time</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D60" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update after power failure</t>
+          <t>Verify IPv6 performance</t>
         </is>
       </c>
       <c r="E60" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Schedule firmware update
-3. Simulate power failure before scheduled time
-4. Power on MFP
-5. Monitor behavior</t>
+          <t>1. Configure MFP with IPv6 address
+2. Enable SCC function
+3. Measure communication performance</t>
         </is>
       </c>
       <c r="F60" s="62" t="inlineStr">
         <is>
-          <t>1. From L6.15: Firmware update should execute at scheduled time
-2. Before L6.15: Firmware update should execute 1 hour after reboot</t>
+          <t>Communication performance should meet requirements</t>
         </is>
       </c>
       <c r="G60" s="58" t="inlineStr"/>
@@ -12204,29 +12009,24 @@
       </c>
       <c r="C61" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Firmware update is scheduled
-4. Scheduled time has passed when MFP powers on</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D61" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update after missed schedule</t>
+          <t>Verify IPv4 security</t>
         </is>
       </c>
       <c r="E61" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Schedule firmware update
-3. Power off MFP before scheduled time
-4. Power on MFP after scheduled time
-5. Monitor behavior</t>
+          <t>1. Configure MFP with IPv4 address
+2. Enable SCC function
+3. Attempt security exploits</t>
         </is>
       </c>
       <c r="F61" s="62" t="inlineStr">
         <is>
-          <t>From L6.15: Firmware update should be scheduled for same time next day</t>
+          <t>MFP should maintain secure communication</t>
         </is>
       </c>
       <c r="G61" s="58" t="inlineStr"/>
@@ -12241,28 +12041,24 @@
       </c>
       <c r="C62" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Persistent Policy is configured
-4. Persistent Expiration is set to 0</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D62" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy with zero expiration</t>
+          <t>Verify IPv6 security</t>
         </is>
       </c>
       <c r="E62" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Configure Persistent Policy with PersistentExpiration = 0
-3. Change 08/05/13 settings locally
-4. Wait for Persistent Policy check</t>
+          <t>1. Configure MFP with IPv6 address
+2. Enable SCC function
+3. Attempt security exploits</t>
         </is>
       </c>
       <c r="F62" s="62" t="inlineStr">
         <is>
-          <t>No Persistent Policy check should occur</t>
+          <t>MFP should maintain secure communication</t>
         </is>
       </c>
       <c r="G62" s="58" t="inlineStr"/>
@@ -12277,29 +12073,24 @@
       </c>
       <c r="C63" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Persistent Policy is configured
-4. Persistent Expiration is shorter than sync schedule</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D63" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy with short expiration</t>
+          <t>Verify firmware update with maximum package size</t>
         </is>
       </c>
       <c r="E63" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Configure Persistent Policy with PersistentExpiration = 1 day
-3. Set sync schedule to 7 days
-4. Change 08/05/13 settings locally
-5. Wait more than 1 day</t>
+          <t>1. Create firmware update package of maximum allowed size
+2. Trigger firmware update
+3. Monitor update process</t>
         </is>
       </c>
       <c r="F63" s="62" t="inlineStr">
         <is>
-          <t>Persistent Policy check should stop after expiration period</t>
+          <t>MFP should handle maximum size package correctly</t>
         </is>
       </c>
       <c r="G63" s="58" t="inlineStr"/>
@@ -12314,29 +12105,24 @@
       </c>
       <c r="C64" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Persistent Policy is configured
-4. Persistent Expiration is longer than sync schedule</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D64" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy with long expiration</t>
+          <t>Verify baseline data with maximum size</t>
         </is>
       </c>
       <c r="E64" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Configure Persistent Policy with PersistentExpiration = 7 days
-3. Set sync schedule to 1 day
-4. Change 08/05/13 settings locally
-5. Wait for sync communication</t>
+          <t>1. Configure MFP to generate maximum size baseline data
+2. Enable SCC function
+3. Monitor data transmission</t>
         </is>
       </c>
       <c r="F64" s="62" t="inlineStr">
         <is>
-          <t>Persistent Policy check should continue indefinitely as timer resets with each sync</t>
+          <t>MFP should handle maximum size baseline data correctly</t>
         </is>
       </c>
       <c r="G64" s="58" t="inlineStr"/>
@@ -12351,26 +12137,25 @@
       </c>
       <c r="C65" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Time-based Device State Data is configured</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D65" s="70" t="inlineStr">
         <is>
-          <t>Verify Time-based Device State Data value changes</t>
+          <t>Verify power failure during package download</t>
         </is>
       </c>
       <c r="E65" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Configure Time-based Device State Data for energy save timer
-3. Monitor value changes at specified times</t>
+2. Trigger package download
+3. Simulate power failure during download
+4. Restore power</t>
         </is>
       </c>
       <c r="F65" s="62" t="inlineStr">
         <is>
-          <t>Energy save timer should change according to time-based settings</t>
+          <t>MFP should delete downloaded data and restart communication</t>
         </is>
       </c>
       <c r="G65" s="58" t="inlineStr"/>
@@ -12385,28 +12170,25 @@
       </c>
       <c r="C66" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. MFP is not registered with server
-4. URL forward setting is disabled</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D66" s="70" t="inlineStr">
         <is>
-          <t>Verify IP Redirect with URL forward disabled</t>
+          <t>Verify power failure during installation</t>
         </is>
       </c>
       <c r="E66" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3828 to 0 (Disable)
-2. Enable SCC function
-3. Monitor "GetRedirectURL" call
-4. Monitor subsequent registration request</t>
+          <t>1. Enable SCC function
+2. Trigger package installation
+3. Simulate power failure during installation
+4. Restore power</t>
         </is>
       </c>
       <c r="F66" s="62" t="inlineStr">
         <is>
-          <t>MFP should not redirect to URL returned by GetRedirectURL</t>
+          <t>MFP should delete package data and restart communication</t>
         </is>
       </c>
       <c r="G66" s="58" t="inlineStr"/>
@@ -12421,27 +12203,24 @@
       </c>
       <c r="C67" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Communication error occurs during Send Device Error</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D67" s="70" t="inlineStr">
         <is>
-          <t>Verify retry for Send Device Error</t>
+          <t>Verify HDD full during download</t>
         </is>
       </c>
       <c r="E67" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate device error
-3. Simulate communication error during Send Device Error
-4. Monitor retry behavior</t>
+          <t>1. Fill MFP storage to near capacity
+2. Enable SCC function
+3. Trigger package download</t>
         </is>
       </c>
       <c r="F67" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry communication with 60-minute intervals but not enter retry mode</t>
+          <t>MFP should handle HDD full condition appropriately</t>
         </is>
       </c>
       <c r="G67" s="58" t="inlineStr"/>
@@ -12456,26 +12235,24 @@
       </c>
       <c r="C68" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Fxxx categorized error occurs</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D68" s="70" t="inlineStr">
         <is>
-          <t>Verify error notification for network-related errors</t>
+          <t>Verify unzip failure handling</t>
         </is>
       </c>
       <c r="E68" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Simulate Fxxx categorized error
-3. Monitor error notification behavior</t>
+2. Simulate corrupted ZIP package
+3. Trigger package download and installation</t>
         </is>
       </c>
       <c r="F68" s="62" t="inlineStr">
         <is>
-          <t>Device should not be able to send error to server due to network unavailability</t>
+          <t>MFP should delete unzipped data and exit communication cycle</t>
         </is>
       </c>
       <c r="G68" s="58" t="inlineStr"/>
@@ -12490,27 +12267,25 @@
       </c>
       <c r="C69" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Communication error occurs during Send Service File</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D69" s="70" t="inlineStr">
         <is>
-          <t>Verify retry for Send Service File</t>
+          <t>Verify multiple update instructions handling</t>
         </is>
       </c>
       <c r="E69" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Simulate condition requiring service file transmission
-3. Simulate communication error during Send Service File
-4. Monitor retry behavior</t>
+2. Trigger multiple update instructions
+3. Simulate failure in one instruction
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F69" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry communication with 60-minute intervals but not enter retry mode</t>
+          <t>MFP should continue processing remaining instructions</t>
         </is>
       </c>
       <c r="G69" s="58" t="inlineStr"/>
@@ -12525,28 +12300,24 @@
       </c>
       <c r="C70" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Power failure occurs during Send Service File</t>
+          <t>SCC is enabled on SSD model</t>
         </is>
       </c>
       <c r="D70" s="70" t="inlineStr">
         <is>
-          <t>Verify power failure during Send Service File</t>
+          <t>Verify firmware update on SSD model</t>
         </is>
       </c>
       <c r="E70" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Start service file transmission
-3. Simulate power failure
-4. Power on MFP
-5. Monitor behavior</t>
+          <t>1. Enable SCC function on SSD model
+2. Trigger firmware update
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F70" s="62" t="inlineStr">
         <is>
-          <t>Created data should be deleted before next communication</t>
+          <t>Firmware update should fail and MFP should notify server</t>
         </is>
       </c>
       <c r="G70" s="58" t="inlineStr"/>
@@ -12561,26 +12332,24 @@
       </c>
       <c r="C71" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Clone file update is received</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D71" s="70" t="inlineStr">
         <is>
-          <t>Verify Clone file update</t>
+          <t>Verify EOL instruction handling</t>
         </is>
       </c>
       <c r="E71" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Receive clone file update instruction
-3. Monitor installation process</t>
+2. Trigger EOL instruction
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F71" s="62" t="inlineStr">
         <is>
-          <t>MFP should apply clone data regardless of SendDataConfig parameters</t>
+          <t>MFP should process EOL instruction correctly</t>
         </is>
       </c>
       <c r="G71" s="58" t="inlineStr"/>
@@ -12595,28 +12364,24 @@
       </c>
       <c r="C72" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Special instruction is received</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D72" s="70" t="inlineStr">
         <is>
-          <t>Verify Special instruction handling</t>
+          <t>Verify BOL instruction handling</t>
         </is>
       </c>
       <c r="E72" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Receive special instruction
-3. Monitor MFP behavior</t>
+2. Trigger BOL instruction
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F72" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should execute special instruction
-2. MFP should not reboot
-3. MFP should proceed to Send Regular Data</t>
+          <t>MFP should process BOL instruction correctly</t>
         </is>
       </c>
       <c r="G72" s="58" t="inlineStr"/>
@@ -12631,26 +12396,24 @@
       </c>
       <c r="C73" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Event occurs and is cancelled immediately</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D73" s="70" t="inlineStr">
         <is>
-          <t>Verify event notification for quickly cancelled events</t>
+          <t>Verify SSL certificate validation</t>
         </is>
       </c>
       <c r="E73" s="61" t="inlineStr">
         <is>
           <t>1. Enable SCC function
-2. Simulate event that is cancelled immediately
-3. Monitor event notification behavior</t>
+2. Use server with invalid SSL certificate
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F73" s="62" t="inlineStr">
         <is>
-          <t>Event may not be notified to server if SCC error notification process is in busy state</t>
+          <t>MFP should reject connection with invalid certificate</t>
         </is>
       </c>
       <c r="G73" s="58" t="inlineStr"/>
@@ -12665,27 +12428,24 @@
       </c>
       <c r="C74" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. Factory Default is performed</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D74" s="70" t="inlineStr">
         <is>
-          <t>Verify settings persistence after Factory Default</t>
+          <t>Verify custom CA certificate import</t>
         </is>
       </c>
       <c r="E74" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Set 08-3827 to custom URL
-3. Perform Factory Default
-4. Check 08-3827 value</t>
+          <t>1. Import custom CA certificate via TA
+2. Enable SCC function with custom HTTPS server
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F74" s="62" t="inlineStr">
         <is>
-          <t>08-3827 should not be initialized by Factory Default</t>
+          <t>MFP should establish secure connection with custom certificate</t>
         </is>
       </c>
       <c r="G74" s="58" t="inlineStr"/>
@@ -12700,27 +12460,24 @@
       </c>
       <c r="C75" s="60" t="inlineStr">
         <is>
-          <t>1. MFP is powered on
-2. SCC function is enabled
-3. HDD clear is performed</t>
+          <t>SCC is enabled</t>
         </is>
       </c>
       <c r="D75" s="70" t="inlineStr">
         <is>
-          <t>Verify settings reset after HDD clear</t>
+          <t>Verify performance impact</t>
         </is>
       </c>
       <c r="E75" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Set 08-3827 to custom URL
-3. Perform HDD clear
-4. Check 08-3827 value</t>
+          <t>1. Measure MFP performance without SCC
+2. Enable SCC function
+3. Measure MFP performance with SCC</t>
         </is>
       </c>
       <c r="F75" s="62" t="inlineStr">
         <is>
-          <t>08-3827 should be initialized by HDD clear</t>
+          <t>Performance should not be significantly degraded</t>
         </is>
       </c>
       <c r="G75" s="58" t="inlineStr"/>
@@ -12728,393 +12485,964 @@
       <c r="I75" s="53" t="n"/>
     </row>
     <row r="76" ht="99.75" customHeight="1">
-      <c r="B76" s="57" t="n"/>
-      <c r="C76" s="60" t="n"/>
-      <c r="D76" s="70" t="n"/>
-      <c r="E76" s="61" t="n"/>
-      <c r="F76" s="62" t="n"/>
-      <c r="G76" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H76" s="59" t="n"/>
+      <c r="B76" s="57" t="inlineStr">
+        <is>
+          <t>TC071</t>
+        </is>
+      </c>
+      <c r="C76" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D76" s="70" t="inlineStr">
+        <is>
+          <t>Verify startup time impact</t>
+        </is>
+      </c>
+      <c r="E76" s="61" t="inlineStr">
+        <is>
+          <t>1. Measure startup time without SCC
+2. Enable SCC function
+3. Measure startup time with SCC</t>
+        </is>
+      </c>
+      <c r="F76" s="62" t="inlineStr">
+        <is>
+          <t>Startup time should not be significantly impacted</t>
+        </is>
+      </c>
+      <c r="G76" s="58" t="inlineStr"/>
+      <c r="H76" s="59" t="inlineStr"/>
       <c r="I76" s="53" t="n"/>
     </row>
     <row r="77" ht="99.75" customHeight="1">
-      <c r="B77" s="57" t="n"/>
-      <c r="C77" s="60" t="n"/>
-      <c r="D77" s="70" t="n"/>
-      <c r="E77" s="61" t="n"/>
-      <c r="F77" s="62" t="n"/>
-      <c r="G77" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H77" s="59" t="n"/>
+      <c r="B77" s="57" t="inlineStr">
+        <is>
+          <t>TC072</t>
+        </is>
+      </c>
+      <c r="C77" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D77" s="70" t="inlineStr">
+        <is>
+          <t>Verify event cancellation handling</t>
+        </is>
+      </c>
+      <c r="E77" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger event while SCC is in busy state
+3. Cancel event immediately
+4. Monitor notification</t>
+        </is>
+      </c>
+      <c r="F77" s="62" t="inlineStr">
+        <is>
+          <t>Event may not be notified to server if cancelled during busy state</t>
+        </is>
+      </c>
+      <c r="G77" s="58" t="inlineStr"/>
+      <c r="H77" s="59" t="inlineStr"/>
       <c r="I77" s="53" t="n"/>
     </row>
     <row r="78" ht="99.75" customHeight="1">
-      <c r="B78" s="57" t="n"/>
-      <c r="C78" s="60" t="n"/>
-      <c r="D78" s="70" t="n"/>
-      <c r="E78" s="61" t="n"/>
-      <c r="F78" s="62" t="n"/>
-      <c r="G78" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H78" s="59" t="n"/>
+      <c r="B78" s="57" t="inlineStr">
+        <is>
+          <t>TC073</t>
+        </is>
+      </c>
+      <c r="C78" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D78" s="70" t="inlineStr">
+        <is>
+          <t>Verify service UI exclusivity</t>
+        </is>
+      </c>
+      <c r="E78" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Initiate SCC communication
+3. Try to access service UI</t>
+        </is>
+      </c>
+      <c r="F78" s="62" t="inlineStr">
+        <is>
+          <t>Service UI should not be accessible during SCC communication</t>
+        </is>
+      </c>
+      <c r="G78" s="58" t="inlineStr"/>
+      <c r="H78" s="59" t="inlineStr"/>
       <c r="I78" s="53" t="n"/>
     </row>
     <row r="79" ht="99.75" customHeight="1">
-      <c r="B79" s="57" t="n"/>
-      <c r="C79" s="60" t="n"/>
-      <c r="D79" s="70" t="n"/>
-      <c r="E79" s="61" t="n"/>
-      <c r="F79" s="62" t="n"/>
-      <c r="G79" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H79" s="59" t="n"/>
+      <c r="B79" s="57" t="inlineStr">
+        <is>
+          <t>TC074</t>
+        </is>
+      </c>
+      <c r="C79" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D79" s="70" t="inlineStr">
+        <is>
+          <t>Verify network unavailability during Fxxx error</t>
+        </is>
+      </c>
+      <c r="E79" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger Fxxx categorized error
+3. Monitor error notification</t>
+        </is>
+      </c>
+      <c r="F79" s="62" t="inlineStr">
+        <is>
+          <t>Device should not be able to send error to server due to network unavailability</t>
+        </is>
+      </c>
+      <c r="G79" s="58" t="inlineStr"/>
+      <c r="H79" s="59" t="inlineStr"/>
       <c r="I79" s="53" t="n"/>
     </row>
     <row r="80" ht="99.75" customHeight="1">
-      <c r="B80" s="57" t="n"/>
-      <c r="C80" s="60" t="n"/>
-      <c r="D80" s="70" t="n"/>
-      <c r="E80" s="61" t="n"/>
-      <c r="F80" s="62" t="n"/>
-      <c r="G80" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H80" s="59" t="n"/>
+      <c r="B80" s="57" t="inlineStr">
+        <is>
+          <t>TC075</t>
+        </is>
+      </c>
+      <c r="C80" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D80" s="70" t="inlineStr">
+        <is>
+          <t>Verify customized UI instructions</t>
+        </is>
+      </c>
+      <c r="E80" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger customized UI instruction
+3. Monitor installation</t>
+        </is>
+      </c>
+      <c r="F80" s="62" t="inlineStr">
+        <is>
+          <t>MFP should correctly install customized UI</t>
+        </is>
+      </c>
+      <c r="G80" s="58" t="inlineStr"/>
+      <c r="H80" s="59" t="inlineStr"/>
       <c r="I80" s="53" t="n"/>
     </row>
     <row r="81" ht="99.75" customHeight="1">
-      <c r="B81" s="57" t="n"/>
-      <c r="C81" s="60" t="n"/>
-      <c r="D81" s="70" t="n"/>
-      <c r="E81" s="61" t="n"/>
-      <c r="F81" s="62" t="n"/>
-      <c r="G81" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H81" s="59" t="n"/>
+      <c r="B81" s="57" t="inlineStr">
+        <is>
+          <t>TC076</t>
+        </is>
+      </c>
+      <c r="C81" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D81" s="70" t="inlineStr">
+        <is>
+          <t>Verify application instructions</t>
+        </is>
+      </c>
+      <c r="E81" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger application instruction
+3. Monitor installation</t>
+        </is>
+      </c>
+      <c r="F81" s="62" t="inlineStr">
+        <is>
+          <t>MFP should correctly install application</t>
+        </is>
+      </c>
+      <c r="G81" s="58" t="inlineStr"/>
+      <c r="H81" s="59" t="inlineStr"/>
       <c r="I81" s="53" t="n"/>
     </row>
     <row r="82" ht="99.75" customHeight="1">
-      <c r="B82" s="57" t="n"/>
-      <c r="C82" s="60" t="n"/>
-      <c r="D82" s="70" t="n"/>
-      <c r="E82" s="61" t="n"/>
-      <c r="F82" s="62" t="n"/>
-      <c r="G82" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H82" s="59" t="n"/>
+      <c r="B82" s="57" t="inlineStr">
+        <is>
+          <t>TC077</t>
+        </is>
+      </c>
+      <c r="C82" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D82" s="70" t="inlineStr">
+        <is>
+          <t>Verify license instructions</t>
+        </is>
+      </c>
+      <c r="E82" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger license instruction
+3. Monitor installation</t>
+        </is>
+      </c>
+      <c r="F82" s="62" t="inlineStr">
+        <is>
+          <t>MFP should correctly install license</t>
+        </is>
+      </c>
+      <c r="G82" s="58" t="inlineStr"/>
+      <c r="H82" s="59" t="inlineStr"/>
       <c r="I82" s="53" t="n"/>
     </row>
     <row r="83" ht="99.75" customHeight="1">
-      <c r="B83" s="57" t="n"/>
-      <c r="C83" s="60" t="n"/>
-      <c r="D83" s="70" t="n"/>
-      <c r="E83" s="61" t="n"/>
-      <c r="F83" s="62" t="n"/>
-      <c r="G83" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H83" s="59" t="n"/>
+      <c r="B83" s="57" t="inlineStr">
+        <is>
+          <t>TC078</t>
+        </is>
+      </c>
+      <c r="C83" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D83" s="70" t="inlineStr">
+        <is>
+          <t>Verify custom user paper type instructions</t>
+        </is>
+      </c>
+      <c r="E83" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger custom user paper type instruction
+3. Monitor installation</t>
+        </is>
+      </c>
+      <c r="F83" s="62" t="inlineStr">
+        <is>
+          <t>MFP should correctly install custom user paper type</t>
+        </is>
+      </c>
+      <c r="G83" s="58" t="inlineStr"/>
+      <c r="H83" s="59" t="inlineStr"/>
       <c r="I83" s="53" t="n"/>
     </row>
     <row r="84" ht="99.75" customHeight="1">
-      <c r="B84" s="57" t="n"/>
-      <c r="C84" s="60" t="n"/>
-      <c r="D84" s="70" t="n"/>
-      <c r="E84" s="61" t="n"/>
-      <c r="F84" s="62" t="n"/>
-      <c r="G84" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H84" s="59" t="n"/>
+      <c r="B84" s="57" t="inlineStr">
+        <is>
+          <t>TC079</t>
+        </is>
+      </c>
+      <c r="C84" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D84" s="70" t="inlineStr">
+        <is>
+          <t>Verify policy violation data instruction</t>
+        </is>
+      </c>
+      <c r="E84" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger policy violation data instruction
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F84" s="62" t="inlineStr">
+        <is>
+          <t>MFP should correctly handle policy violation data</t>
+        </is>
+      </c>
+      <c r="G84" s="58" t="inlineStr"/>
+      <c r="H84" s="59" t="inlineStr"/>
       <c r="I84" s="53" t="n"/>
     </row>
     <row r="85" ht="99.75" customHeight="1">
-      <c r="B85" s="57" t="n"/>
-      <c r="C85" s="60" t="n"/>
-      <c r="D85" s="70" t="n"/>
-      <c r="E85" s="61" t="n"/>
-      <c r="F85" s="62" t="n"/>
-      <c r="G85" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H85" s="59" t="n"/>
+      <c r="B85" s="57" t="inlineStr">
+        <is>
+          <t>TC080</t>
+        </is>
+      </c>
+      <c r="C85" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D85" s="70" t="inlineStr">
+        <is>
+          <t>Verify restore data instruction</t>
+        </is>
+      </c>
+      <c r="E85" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger restore data instruction
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F85" s="62" t="inlineStr">
+        <is>
+          <t>MFP should correctly restore data</t>
+        </is>
+      </c>
+      <c r="G85" s="58" t="inlineStr"/>
+      <c r="H85" s="59" t="inlineStr"/>
       <c r="I85" s="53" t="n"/>
     </row>
     <row r="86" ht="99.75" customHeight="1">
-      <c r="B86" s="57" t="n"/>
-      <c r="C86" s="60" t="n"/>
-      <c r="D86" s="70" t="n"/>
-      <c r="E86" s="61" t="n"/>
-      <c r="F86" s="62" t="n"/>
-      <c r="G86" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H86" s="59" t="n"/>
+      <c r="B86" s="57" t="inlineStr">
+        <is>
+          <t>TC081</t>
+        </is>
+      </c>
+      <c r="C86" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D86" s="70" t="inlineStr">
+        <is>
+          <t>Verify special instruction</t>
+        </is>
+      </c>
+      <c r="E86" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger special instruction
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F86" s="62" t="inlineStr">
+        <is>
+          <t>MFP should correctly handle special instruction without reboot</t>
+        </is>
+      </c>
+      <c r="G86" s="58" t="inlineStr"/>
+      <c r="H86" s="59" t="inlineStr"/>
       <c r="I86" s="53" t="n"/>
     </row>
     <row r="87" ht="99.75" customHeight="1">
-      <c r="B87" s="57" t="n"/>
-      <c r="C87" s="60" t="n"/>
-      <c r="D87" s="70" t="n"/>
-      <c r="E87" s="61" t="n"/>
-      <c r="F87" s="62" t="n"/>
-      <c r="G87" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H87" s="59" t="n"/>
+      <c r="B87" s="57" t="inlineStr">
+        <is>
+          <t>TC082</t>
+        </is>
+      </c>
+      <c r="C87" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D87" s="70" t="inlineStr">
+        <is>
+          <t>Verify clone file instruction</t>
+        </is>
+      </c>
+      <c r="E87" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger clone file instruction
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F87" s="62" t="inlineStr">
+        <is>
+          <t>MFP should correctly apply clone file</t>
+        </is>
+      </c>
+      <c r="G87" s="58" t="inlineStr"/>
+      <c r="H87" s="59" t="inlineStr"/>
       <c r="I87" s="53" t="n"/>
     </row>
     <row r="88" ht="99.75" customHeight="1">
-      <c r="B88" s="57" t="n"/>
-      <c r="C88" s="60" t="n"/>
-      <c r="D88" s="70" t="n"/>
-      <c r="E88" s="61" t="n"/>
-      <c r="F88" s="62" t="n"/>
-      <c r="G88" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H88" s="59" t="n"/>
+      <c r="B88" s="57" t="inlineStr">
+        <is>
+          <t>TC083</t>
+        </is>
+      </c>
+      <c r="C88" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D88" s="70" t="inlineStr">
+        <is>
+          <t>Verify persistent policy with expiration</t>
+        </is>
+      </c>
+      <c r="E88" s="61" t="inlineStr">
+        <is>
+          <t>1. Set persistent policy with expiration
+2. Wait for expiration period
+3. Change settings locally</t>
+        </is>
+      </c>
+      <c r="F88" s="62" t="inlineStr">
+        <is>
+          <t>After expiration, persistent policy check should stop</t>
+        </is>
+      </c>
+      <c r="G88" s="58" t="inlineStr"/>
+      <c r="H88" s="59" t="inlineStr"/>
       <c r="I88" s="53" t="n"/>
     </row>
     <row r="89" ht="99.75" customHeight="1">
-      <c r="B89" s="57" t="n"/>
-      <c r="C89" s="60" t="n"/>
-      <c r="D89" s="70" t="n"/>
-      <c r="E89" s="61" t="n"/>
-      <c r="F89" s="62" t="n"/>
-      <c r="G89" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H89" s="59" t="n"/>
+      <c r="B89" s="57" t="inlineStr">
+        <is>
+          <t>TC084</t>
+        </is>
+      </c>
+      <c r="C89" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D89" s="70" t="inlineStr">
+        <is>
+          <t>Verify persistent policy without expiration</t>
+        </is>
+      </c>
+      <c r="E89" s="61" t="inlineStr">
+        <is>
+          <t>1. Set persistent policy without expiration
+2. Change settings locally
+3. Monitor settings</t>
+        </is>
+      </c>
+      <c r="F89" s="62" t="inlineStr">
+        <is>
+          <t>Settings should be reverted according to policy indefinitely</t>
+        </is>
+      </c>
+      <c r="G89" s="58" t="inlineStr"/>
+      <c r="H89" s="59" t="inlineStr"/>
       <c r="I89" s="53" t="n"/>
     </row>
     <row r="90" ht="99.75" customHeight="1">
-      <c r="B90" s="57" t="n"/>
-      <c r="C90" s="60" t="n"/>
-      <c r="D90" s="70" t="n"/>
-      <c r="E90" s="61" t="n"/>
-      <c r="F90" s="62" t="n"/>
-      <c r="G90" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H90" s="59" t="n"/>
+      <c r="B90" s="57" t="inlineStr">
+        <is>
+          <t>TC085</t>
+        </is>
+      </c>
+      <c r="C90" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D90" s="70" t="inlineStr">
+        <is>
+          <t>Verify time-based settings with day/night values</t>
+        </is>
+      </c>
+      <c r="E90" s="61" t="inlineStr">
+        <is>
+          <t>1. Set time-based values for day and night
+2. Monitor settings during day and night periods</t>
+        </is>
+      </c>
+      <c r="F90" s="62" t="inlineStr">
+        <is>
+          <t>Settings should change according to time periods</t>
+        </is>
+      </c>
+      <c r="G90" s="58" t="inlineStr"/>
+      <c r="H90" s="59" t="inlineStr"/>
       <c r="I90" s="53" t="n"/>
     </row>
     <row r="91" ht="99.75" customHeight="1">
-      <c r="B91" s="57" t="n"/>
-      <c r="C91" s="60" t="n"/>
-      <c r="D91" s="70" t="n"/>
-      <c r="E91" s="61" t="n"/>
-      <c r="F91" s="62" t="n"/>
-      <c r="G91" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H91" s="59" t="n"/>
+      <c r="B91" s="57" t="inlineStr">
+        <is>
+          <t>TC086</t>
+        </is>
+      </c>
+      <c r="C91" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D91" s="70" t="inlineStr">
+        <is>
+          <t>Verify stress test with multiple events</t>
+        </is>
+      </c>
+      <c r="E91" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger multiple events simultaneously
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F91" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle multiple events appropriately</t>
+        </is>
+      </c>
+      <c r="G91" s="58" t="inlineStr"/>
+      <c r="H91" s="59" t="inlineStr"/>
       <c r="I91" s="53" t="n"/>
     </row>
     <row r="92" ht="99.75" customHeight="1">
-      <c r="B92" s="57" t="n"/>
-      <c r="C92" s="60" t="n"/>
-      <c r="D92" s="70" t="n"/>
-      <c r="E92" s="61" t="n"/>
-      <c r="F92" s="62" t="n"/>
-      <c r="G92" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H92" s="59" t="n"/>
+      <c r="B92" s="57" t="inlineStr">
+        <is>
+          <t>TC087</t>
+        </is>
+      </c>
+      <c r="C92" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D92" s="70" t="inlineStr">
+        <is>
+          <t>Verify recovery from network outage</t>
+        </is>
+      </c>
+      <c r="E92" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Disconnect network during communication
+3. Restore network
+4. Monitor recovery</t>
+        </is>
+      </c>
+      <c r="F92" s="62" t="inlineStr">
+        <is>
+          <t>MFP should recover and resume communication</t>
+        </is>
+      </c>
+      <c r="G92" s="58" t="inlineStr"/>
+      <c r="H92" s="59" t="inlineStr"/>
       <c r="I92" s="53" t="n"/>
     </row>
     <row r="93" ht="99.75" customHeight="1">
-      <c r="B93" s="57" t="n"/>
-      <c r="C93" s="60" t="n"/>
-      <c r="D93" s="70" t="n"/>
-      <c r="E93" s="61" t="n"/>
-      <c r="F93" s="62" t="n"/>
-      <c r="G93" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H93" s="59" t="n"/>
+      <c r="B93" s="57" t="inlineStr">
+        <is>
+          <t>TC088</t>
+        </is>
+      </c>
+      <c r="C93" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D93" s="70" t="inlineStr">
+        <is>
+          <t>Verify behavior with invalid token</t>
+        </is>
+      </c>
+      <c r="E93" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate invalid token response
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F93" s="62" t="inlineStr">
+        <is>
+          <t>MFP should exit communication cycle and wait for next schedule</t>
+        </is>
+      </c>
+      <c r="G93" s="58" t="inlineStr"/>
+      <c r="H93" s="59" t="inlineStr"/>
       <c r="I93" s="53" t="n"/>
     </row>
     <row r="94" ht="99.75" customHeight="1">
-      <c r="B94" s="57" t="n"/>
-      <c r="C94" s="60" t="n"/>
-      <c r="D94" s="70" t="n"/>
-      <c r="E94" s="61" t="n"/>
-      <c r="F94" s="62" t="n"/>
-      <c r="G94" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H94" s="59" t="n"/>
+      <c r="B94" s="57" t="inlineStr">
+        <is>
+          <t>TC089</t>
+        </is>
+      </c>
+      <c r="C94" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D94" s="70" t="inlineStr">
+        <is>
+          <t>Verify behavior with data integrity failure</t>
+        </is>
+      </c>
+      <c r="E94" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate STATUS_FAILED_DATAINTEGRITY response
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F94" s="62" t="inlineStr">
+        <is>
+          <t>MFP should delete created data and exit communication cycle</t>
+        </is>
+      </c>
+      <c r="G94" s="58" t="inlineStr"/>
+      <c r="H94" s="59" t="inlineStr"/>
       <c r="I94" s="53" t="n"/>
     </row>
     <row r="95" ht="99.75" customHeight="1">
-      <c r="B95" s="57" t="n"/>
-      <c r="C95" s="60" t="n"/>
-      <c r="D95" s="70" t="n"/>
-      <c r="E95" s="61" t="n"/>
-      <c r="F95" s="62" t="n"/>
-      <c r="G95" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H95" s="59" t="n"/>
+      <c r="B95" s="57" t="inlineStr">
+        <is>
+          <t>TC090</t>
+        </is>
+      </c>
+      <c r="C95" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D95" s="70" t="inlineStr">
+        <is>
+          <t>Verify scheduled firmware update</t>
+        </is>
+      </c>
+      <c r="E95" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger scheduled firmware update
+3. Monitor update at scheduled time</t>
+        </is>
+      </c>
+      <c r="F95" s="62" t="inlineStr">
+        <is>
+          <t>Firmware update should execute at scheduled time</t>
+        </is>
+      </c>
+      <c r="G95" s="58" t="inlineStr"/>
+      <c r="H95" s="59" t="inlineStr"/>
       <c r="I95" s="53" t="n"/>
     </row>
     <row r="96" ht="99.75" customHeight="1">
-      <c r="B96" s="57" t="n"/>
-      <c r="C96" s="60" t="n"/>
-      <c r="D96" s="70" t="n"/>
-      <c r="E96" s="61" t="n"/>
-      <c r="F96" s="62" t="n"/>
-      <c r="G96" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H96" s="59" t="n"/>
+      <c r="B96" s="57" t="inlineStr">
+        <is>
+          <t>TC091</t>
+        </is>
+      </c>
+      <c r="C96" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D96" s="70" t="inlineStr">
+        <is>
+          <t>Verify firmware update after power failure</t>
+        </is>
+      </c>
+      <c r="E96" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger scheduled firmware update
+3. Simulate power failure before scheduled time
+4. Restore power after scheduled time</t>
+        </is>
+      </c>
+      <c r="F96" s="62" t="inlineStr">
+        <is>
+          <t>Firmware update should be rescheduled for same time next day</t>
+        </is>
+      </c>
+      <c r="G96" s="58" t="inlineStr"/>
+      <c r="H96" s="59" t="inlineStr"/>
       <c r="I96" s="53" t="n"/>
     </row>
     <row r="97" ht="99.75" customHeight="1">
-      <c r="B97" s="57" t="n"/>
-      <c r="C97" s="60" t="n"/>
-      <c r="D97" s="70" t="n"/>
-      <c r="E97" s="61" t="n"/>
-      <c r="F97" s="62" t="n"/>
-      <c r="G97" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H97" s="59" t="n"/>
+      <c r="B97" s="57" t="inlineStr">
+        <is>
+          <t>TC092</t>
+        </is>
+      </c>
+      <c r="C97" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D97" s="70" t="inlineStr">
+        <is>
+          <t>Verify installation failure handling</t>
+        </is>
+      </c>
+      <c r="E97" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger installation that will fail
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F97" s="62" t="inlineStr">
+        <is>
+          <t>Regular communication should be scheduled after 1 hour</t>
+        </is>
+      </c>
+      <c r="G97" s="58" t="inlineStr"/>
+      <c r="H97" s="59" t="inlineStr"/>
       <c r="I97" s="53" t="n"/>
     </row>
     <row r="98" ht="99.75" customHeight="1">
-      <c r="B98" s="57" t="n"/>
-      <c r="C98" s="60" t="n"/>
-      <c r="D98" s="70" t="n"/>
-      <c r="E98" s="61" t="n"/>
-      <c r="F98" s="62" t="n"/>
-      <c r="G98" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H98" s="59" t="n"/>
+      <c r="B98" s="57" t="inlineStr">
+        <is>
+          <t>TC093</t>
+        </is>
+      </c>
+      <c r="C98" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D98" s="70" t="inlineStr">
+        <is>
+          <t>Verify repeated installation failures</t>
+        </is>
+      </c>
+      <c r="E98" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger installation that will fail repeatedly
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F98" s="62" t="inlineStr">
+        <is>
+          <t>After 3 failures, server should stop sending update instruction</t>
+        </is>
+      </c>
+      <c r="G98" s="58" t="inlineStr"/>
+      <c r="H98" s="59" t="inlineStr"/>
       <c r="I98" s="53" t="n"/>
     </row>
     <row r="99" ht="99.75" customHeight="1">
-      <c r="B99" s="57" t="n"/>
-      <c r="C99" s="60" t="n"/>
-      <c r="D99" s="70" t="n"/>
-      <c r="E99" s="61" t="n"/>
-      <c r="F99" s="62" t="n"/>
-      <c r="G99" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H99" s="59" t="n"/>
+      <c r="B99" s="57" t="inlineStr">
+        <is>
+          <t>TC094</t>
+        </is>
+      </c>
+      <c r="C99" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D99" s="70" t="inlineStr">
+        <is>
+          <t>Verify panel message during processing</t>
+        </is>
+      </c>
+      <c r="E99" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger SCC processing
+3. Check panel messages</t>
+        </is>
+      </c>
+      <c r="F99" s="62" t="inlineStr">
+        <is>
+          <t>Panel should display appropriate messages with numerical values</t>
+        </is>
+      </c>
+      <c r="G99" s="58" t="inlineStr"/>
+      <c r="H99" s="59" t="inlineStr"/>
       <c r="I99" s="53" t="n"/>
     </row>
     <row r="100" ht="99.75" customHeight="1">
-      <c r="B100" s="57" t="n"/>
-      <c r="C100" s="60" t="n"/>
-      <c r="D100" s="70" t="n"/>
-      <c r="E100" s="61" t="n"/>
-      <c r="F100" s="62" t="n"/>
-      <c r="G100" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H100" s="59" t="n"/>
+      <c r="B100" s="57" t="inlineStr">
+        <is>
+          <t>TC095</t>
+        </is>
+      </c>
+      <c r="C100" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D100" s="70" t="inlineStr">
+        <is>
+          <t>Verify popup window during critical operations</t>
+        </is>
+      </c>
+      <c r="E100" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Trigger operations that require popup window
+3. Check panel display</t>
+        </is>
+      </c>
+      <c r="F100" s="62" t="inlineStr">
+        <is>
+          <t>Popup window with sand clock should be displayed for critical operations</t>
+        </is>
+      </c>
+      <c r="G100" s="58" t="inlineStr"/>
+      <c r="H100" s="59" t="inlineStr"/>
       <c r="I100" s="53" t="n"/>
     </row>
     <row r="101" ht="99.75" customHeight="1">
-      <c r="B101" s="57" t="n"/>
-      <c r="C101" s="60" t="n"/>
-      <c r="D101" s="70" t="n"/>
-      <c r="E101" s="61" t="n"/>
-      <c r="F101" s="62" t="n"/>
-      <c r="G101" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H101" s="59" t="n"/>
+      <c r="B101" s="57" t="inlineStr">
+        <is>
+          <t>TC096</t>
+        </is>
+      </c>
+      <c r="C101" s="60" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D101" s="70" t="inlineStr">
+        <is>
+          <t>Verify random network disconnections</t>
+        </is>
+      </c>
+      <c r="E101" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Randomly disconnect network during various SCC operations
+3. Monitor recovery behavior</t>
+        </is>
+      </c>
+      <c r="F101" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle random disconnections appropriately</t>
+        </is>
+      </c>
+      <c r="G101" s="58" t="inlineStr"/>
+      <c r="H101" s="59" t="inlineStr"/>
       <c r="I101" s="53" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="63" t="n"/>
-      <c r="B102" s="63" t="n"/>
-      <c r="C102" s="63" t="n"/>
-      <c r="D102" s="63" t="n"/>
-      <c r="E102" s="64" t="n"/>
-      <c r="F102" s="64" t="n"/>
-      <c r="G102" s="63" t="n"/>
-      <c r="H102" s="63" t="n"/>
+      <c r="B102" s="63" t="inlineStr">
+        <is>
+          <t>TC097</t>
+        </is>
+      </c>
+      <c r="C102" s="63" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D102" s="63" t="inlineStr">
+        <is>
+          <t>Verify behavior with corrupted data</t>
+        </is>
+      </c>
+      <c r="E102" s="64" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Simulate corrupted data during transmission
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F102" s="64" t="inlineStr">
+        <is>
+          <t>MFP should handle corrupted data appropriately</t>
+        </is>
+      </c>
+      <c r="G102" s="63" t="inlineStr"/>
+      <c r="H102" s="63" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TC098</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Verify behavior with extremely slow network</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Configure network with extreme latency and low bandwidth
+3. Monitor communication</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>MFP should handle slow network conditions appropriately</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="B104" s="45" t="inlineStr">
         <is>
-          <t>Test Summary</t>
-        </is>
-      </c>
-      <c r="C104" s="67" t="n"/>
+          <t>TC099</t>
+        </is>
+      </c>
+      <c r="C104" s="67" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Verify behavior during heavy MFP usage</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1. Enable SCC function
+2. Generate heavy workload on MFP (printing, scanning, etc.)
+3. Trigger SCC communication
+4. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>SCC should function correctly during heavy MFP usage</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TC100</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SCC is enabled</t>
+        </is>
+      </c>
       <c r="D105" s="45" t="inlineStr">
         <is>
-          <t>Test Case Count:</t>
-        </is>
-      </c>
+          <t>Verify behavior with invalid IP configuration</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1. Configure MFP with invalid network settings
+2. Enable SCC function
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>MFP should handle invalid network configuration appropriately</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="D106" s="46" t="inlineStr">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10250,32 +10250,36 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>MFP is in normal boot-up mode</t>
+          <t>MFP with SCC module installed</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Verify enabling/disabling of SCC function</t>
+          <t>Verify SCC function enabling/disabling</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode or service UI on panel
-2. Set 08-3820 to 1 (Enable)
-3. Reboot the MFP
-4. Set 08-3820 to 0 (Disable)
-5. Reboot the MFP</t>
+          <t>1. Access Self-diagnostic boot-up mode
+2. Set 08-3820 to 0 (Disable)
+3. Reboot MFP
+4. Set 08-3820 to 1 (Enable)
+5. Reboot MFP</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>1. SCC function should be enabled when 08-3820 is set to 1
-2. SCC function should be disabled when 08-3820 is set to 0
-3. Default value should be "Disable"</t>
+          <t>1. SCC function should be disabled when 08-3820 is set to 0
+2. SCC function should be enabled when 08-3820 is set to 1
+3. Installation report should be printed when enabled for the first time</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
-      <c r="H6" s="59" t="inlineStr"/>
+      <c r="H6" s="59" t="inlineStr">
+        <is>
+          <t>Default value should be "Disable"</t>
+        </is>
+      </c>
       <c r="I6" s="53" t="n"/>
     </row>
     <row r="7" ht="99.75" customHeight="1">
@@ -10286,27 +10290,34 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>MFP is in normal boot-up mode</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Verify administrator cannot enable/disable SCC function</t>
+          <t>Verify SCC installation report printing</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Login as administrator
-2. Try to access SCC enable/disable setting from TA or via STAGE2 IF</t>
+          <t>1. Set 08-3820 from 0 to 1
+2. Reboot MFP
+3. Wait for MFP registration processing to complete</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>Administrator should not be able to access or modify SCC enable/disable setting</t>
+          <t>1. Installation report should be printed automatically after registration
+2. Report should include: SCC Module Version, Device Serial Number, Device Model, Registration Status, Registration Date/Time, and Server URL
+3. Report should be in English only</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
-      <c r="H7" s="59" t="inlineStr"/>
+      <c r="H7" s="59" t="inlineStr">
+        <is>
+          <t>Report should be printed only once when SCC is first enabled</t>
+        </is>
+      </c>
       <c r="I7" s="53" t="n"/>
     </row>
     <row r="8" ht="99.75" customHeight="1">
@@ -10317,24 +10328,24 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>MFP is in normal boot-up mode</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC Proxy Server Setting</t>
+          <t>Verify SCC report printing in job log</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode or service UI on panel
-2. Configure SCC Proxy server settings (08-3822 to 08-3826)
-3. Reboot the MFP</t>
+          <t>1. Enable SCC
+2. Check job log after installation report is printed</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Proxy server settings should be applied correctly</t>
+          <t>1. SCC report printing should be recorded in Job Log as network print
+2. User counter for built-in Admin should be incremented</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10349,23 +10360,24 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>MFP is in normal boot-up mode</t>
+          <t>MFP with SCC enabled, network print restriction mode enabled</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify administrator cannot set SCC Proxy Server</t>
+          <t>Verify SCC report printing with network print restrictions</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Login as administrator
-2. Try to access SCC Proxy server settings from TA or via STAGE2 IF</t>
+          <t>1. Set 08-9344 to 1 (only private)
+2. Enable SCC
+3. Check if report is printed</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>Administrator should not be able to access or modify SCC Proxy server settings</t>
+          <t>SCC report should not be printed, and job log should show error code 4221</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10380,25 +10392,25 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>MFP is in normal boot-up mode</t>
+          <t>MFP with SCC enabled, user authentication enabled</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC first registration URL setting</t>
+          <t>Verify SCC report printing with quota restrictions</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode
-2. Set 08-3827 to a valid URL
-3. Reboot the MFP
-4. Enable SCC function</t>
+          <t>1. Enable user authentication
+2. Set quota for built-in admin to zero
+3. Enable SCC
+4. Check if report is printed</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>MFP should connect to the specified URL for first registration</t>
+          <t>SCC report should not be printed due to quota error</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10413,25 +10425,26 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>MFP is in normal boot-up mode</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify URL forward setting</t>
+          <t>Verify HTTPS communication protocol</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode
-2. Set 08-3828 to 0 (Disable)
-3. Reboot the MFP
-4. Enable SCC function</t>
+          <t>1. Enable SCC
+2. Monitor network traffic during SCC communication
+3. Check port number used</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>MFP should not connect to a server specified by URL redirection</t>
+          <t>1. MFP should use HTTPS for communication with servers
+2. Communication should always start from MFP side
+3. Default port should be 443</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10446,24 +10459,24 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>SCC function is disabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify installation report printing when enabling SCC</t>
+          <t>Verify port fallback mechanism</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
-2. Reboot the MFP
-3. Wait for MFP registration processing to complete</t>
+          <t>1. Block port 443 on firewall
+2. Enable SCC
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>Installation report should be automatically printed after successful registration</t>
+          <t>MFP should automatically use port 8443 when port 443 is not available</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10478,26 +10491,25 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify installation report is printed only once</t>
+          <t>Verify proxy server settings</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Disable SCC function
-2. Enable SCC function again
-3. Reboot the MFP
-4. Wait for MFP registration processing to complete
-5. Repeat steps 1-4</t>
+          <t>1. Configure proxy server in network
+2. Set 08-3822 to 08-3826 with proxy server details
+3. Enable SCC
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>Installation report should be printed only after the first successful registration</t>
+          <t>MFP should successfully communicate with SCC server through the proxy</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10512,24 +10524,25 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>SCC function is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify installation report content</t>
+          <t>Verify proxy authentication</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Wait for installation report to print
-3. Check the printed report</t>
+          <t>1. Configure proxy server requiring authentication
+2. Set proxy server details including account ID and password
+3. Enable SCC
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>Report should contain: Model Name, Serial Number, MAC Address, IP Address, Subnet Mask, Gateway, DNS Server, and Registration Status</t>
+          <t>MFP should successfully authenticate with proxy server and communicate with SCC server</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10544,24 +10557,23 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>Network print restriction mode is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify installation report printing with network print restrictions</t>
+          <t>Verify SCC behavior in special startup mode</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-9344 to 1 (only private)
-2. Enable SCC function
-3. Wait for registration process</t>
+          <t>1. Boot MFP in special startup mode
+2. Check if SCC process starts</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>Installation report should not be printed and job log should show error code 4221</t>
+          <t>SCC process should not start in special startup mode</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10576,29 +10588,32 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>User authentication is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify installation report printing with quota restrictions</t>
+          <t>Verify regular communication loop timing</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Enable user authentication
-2. Set quota for built-in admin to 0
-3. Enable SCC function
-4. Wait for registration process</t>
+          <t>1. Enable SCC
+2. Monitor communication at SCC process startup
+3. Monitor communication at scheduled time</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>Installation report should not be printed due to quota error</t>
+          <t>MFP should communicate with server at both SCC process startup and at scheduled time</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
-      <c r="H16" s="59" t="inlineStr"/>
+      <c r="H16" s="59" t="inlineStr">
+        <is>
+          <t>Default schedule is "every day at 0:00"</t>
+        </is>
+      </c>
       <c r="I16" s="53" t="n"/>
     </row>
     <row r="17" ht="99.75" customHeight="1">
@@ -10609,24 +10624,23 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>MFP is in normal boot-up mode</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify HTTPS communication protocol</t>
+          <t>Verify communication sequence</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Monitor network traffic during SCC communication
-3. Check the protocol used</t>
+          <t>1. Enable SCC
+2. Monitor complete communication cycle</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>MFP should use HTTPS for communication with servers</t>
+          <t>Communication should follow sequence: Register Device → Check for Updates → Download Package → Send Baseline Data → Install Package → Update Status → Send Regular Data</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10641,24 +10655,26 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>MFP is connected via proxy server</t>
+          <t>MFP with SCC enabled, first time registration</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify proxy authentication</t>
+          <t>Verify first-time MFP registration</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy server settings (08-3822 to 08-3826) with authentication
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Enable SCC for first time
+2. Monitor registration process</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully authenticate with the proxy server</t>
+          <t>1. MFP should send serial number to server
+2. Server should send secret question
+3. MFP should answer correctly
+4. Registration should complete successfully</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10673,24 +10689,24 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>MFP is connected via proxy server without authentication</t>
+          <t>MFP with SCC enabled, already registered</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify proxy without authentication</t>
+          <t>Verify MFP authentication after registration</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy server settings with NULL account ID
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Reboot MFP with SCC enabled
+2. Monitor authentication process</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate through proxy without authentication</t>
+          <t>1. MFP should connect using token from previous registration
+2. Authentication should complete successfully</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10705,24 +10721,25 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>Port 443 is blocked</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify fallback to port 8443</t>
+          <t>Verify server BUSY handling</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Block port 443 on firewall
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Simulate server BUSY response
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>MFP should automatically use port 8443 for communication</t>
+          <t>1. MFP should disconnect and retry after waiting period
+2. MFP should retry up to 3 times
+3. If 4th reconnection request is received, MFP should exit cycle and wait for next schedule</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10737,23 +10754,25 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>MFP is in special startup mode</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC process startup</t>
+          <t>Verify registration failure handling</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Boot MFP in special startup mode
-2. Check if SCC process starts</t>
+          <t>1. Simulate registration failure response
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>SCC process should not start in special startup mode</t>
+          <t>1. After 3 consecutive failures, server should respond with STATUS_LOCK
+2. Installation Report should be printed
+3. MFP should exit communication cycle</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10768,24 +10787,25 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication loop timing</t>
+          <t>Verify Check for Updates functionality</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Set regular communication schedule
-3. Monitor communication timing</t>
+          <t>1. Enable SCC
+2. Monitor Check for Updates process</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate with server according to the schedule</t>
+          <t>1. MFP should send device information to server
+2. Server should respond with update status
+3. If update available, response should include Package ID</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
@@ -10800,24 +10820,26 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify event notification loop timing</t>
+          <t>Verify Download Package functionality</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger an event (e.g., device error)
-3. Monitor communication timing</t>
+          <t>1. Enable SCC
+2. Trigger update from server
+3. Monitor download process</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>MFP should immediately communicate with server when event occurs</t>
+          <t>1. MFP should download package using Package ID
+2. MFP should calculate MD5 hash and compare with server value
+3. Package should be unzipped successfully</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
@@ -10832,24 +10854,25 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Verify URL setting with valid HTTPS URL</t>
+          <t>Verify Send Baseline Data functionality</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to a valid HTTPS URL with port
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Enable SCC
+2. Monitor Send Baseline Data process</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>MFP should connect to the specified URL</t>
+          <t>1. MFP should collect data based on SendDataConfig setting
+2. Data should be zipped and sent to server
+3. Server should acknowledge receipt</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10864,24 +10887,26 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D25" s="70" t="inlineStr">
         <is>
-          <t>Verify URL setting with invalid URL format</t>
+          <t>Verify Install Package functionality (non-firmware)</t>
         </is>
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to an invalid URL format
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Enable SCC
+2. Trigger non-firmware update from server
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>Network error should occur and MFP should not access default server</t>
+          <t>1. MFP should install package successfully
+2. MFP should not reboot after installation
+3. MFP should proceed to Update Status</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
@@ -10896,24 +10921,26 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D26" s="70" t="inlineStr">
         <is>
-          <t>Verify URL setting with NULL string</t>
+          <t>Verify Install Package functionality (firmware)</t>
         </is>
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to NULL string
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Enable SCC
+2. Trigger firmware update from server
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>MFP should connect to NA server (edevice.Tprinters-solutions.com)</t>
+          <t>1. MFP should schedule firmware update
+2. Firmware should be installed at scheduled time
+3. MFP should reboot after installation</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
@@ -10928,23 +10955,26 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Verify first-time MFP registration</t>
+          <t>Verify Update Status functionality</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function for first time
-2. Monitor registration process</t>
+          <t>1. Enable SCC
+2. Trigger update from server
+3. Monitor Update Status process</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>MFP should register with server and receive token</t>
+          <t>1. MFP should notify installation status to server
+2. Status should transition correctly (SCHEDULED → DOWNLOADING → DOWNLOADED → INSTALLING → INSTALLED)
+3. MFP should reboot after receiving response (except for SPECIAL_INSTRUCTION)</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
@@ -10959,23 +10989,25 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled and MFP is registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Verify subsequent MFP authentication</t>
+          <t>Verify Send Regular Data functionality</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Reboot MFP with SCC enabled
-2. Monitor authentication process</t>
+          <t>1. Enable SCC
+2. Monitor Send Regular Data process</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>MFP should authenticate using token from previous registration</t>
+          <t>1. MFP should collect data based on SendDataConfig setting
+2. Data should be zipped and sent to server
+3. Server should acknowledge receipt</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
@@ -10990,23 +11022,26 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Verify server BUSY handling</t>
+          <t>Verify Event Notification Loop</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate server BUSY response
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC
+2. Trigger device error
+3. Monitor event notification</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry connection with increasing intervals</t>
+          <t>1. MFP should detect error
+2. MFP should notify server via Send Device Error
+3. Server should acknowledge receipt</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
@@ -11021,23 +11056,27 @@
       </c>
       <c r="C30" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D30" s="70" t="inlineStr">
         <is>
-          <t>Verify MFP registration failure handling</t>
+          <t>Verify error removal notification</t>
         </is>
       </c>
       <c r="E30" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate registration failure response
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC
+2. Trigger device error
+3. Resolve error without power off
+4. Monitor event notification</t>
         </is>
       </c>
       <c r="F30" s="62" t="inlineStr">
         <is>
-          <t>After 3 consecutive failures, MFP should receive STATUS_LOCK and print Installation Report</t>
+          <t>1. MFP should detect error removal
+2. MFP should notify server with "-" prefix (e.g., -D102)
+3. Server should acknowledge receipt</t>
         </is>
       </c>
       <c r="G30" s="58" t="inlineStr"/>
@@ -11052,23 +11091,24 @@
       </c>
       <c r="C31" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D31" s="70" t="inlineStr">
         <is>
-          <t>Verify Check for Updates functionality</t>
+          <t>Verify duplicate error handling</t>
         </is>
       </c>
       <c r="E31" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Monitor Check for Updates process</t>
+          <t>1. Enable SCC
+2. Trigger same device error multiple times
+3. Monitor event notifications</t>
         </is>
       </c>
       <c r="F31" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully check for updates with server</t>
+          <t>MFP should not send the same error to server unless it is removed first</t>
         </is>
       </c>
       <c r="G31" s="58" t="inlineStr"/>
@@ -11083,24 +11123,27 @@
       </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D32" s="70" t="inlineStr">
         <is>
-          <t>Verify Download Package functionality</t>
+          <t>Verify Send Service File functionality</t>
         </is>
       </c>
       <c r="E32" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger update package download
-3. Monitor download process</t>
+          <t>1. Enable SCC
+2. Trigger device error
+3. Server responds with RequestServiceFiles=true
+4. Monitor file transfer</t>
         </is>
       </c>
       <c r="F32" s="62" t="inlineStr">
         <is>
-          <t>MFP should download package and verify hash value</t>
+          <t>1. MFP should collect service files (9S+300, FUNCTION LIST, NIC CONFIGURATION LIST)
+2. Files should be zipped and sent to server
+3. Server should acknowledge receipt</t>
         </is>
       </c>
       <c r="G32" s="58" t="inlineStr"/>
@@ -11115,27 +11158,32 @@
       </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D33" s="70" t="inlineStr">
         <is>
-          <t>Verify hash value mismatch handling</t>
+          <t>Verify Super Sleep interaction</t>
         </is>
       </c>
       <c r="E33" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate hash value mismatch during download
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC
+2. Start SCC communication
+3. Try to enter Super Sleep</t>
         </is>
       </c>
       <c r="F33" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete downloaded data and exit communication cycle</t>
+          <t>MFP should not enter Power Save, Sleep, or Super Sleep during communication cycle</t>
         </is>
       </c>
       <c r="G33" s="58" t="inlineStr"/>
-      <c r="H33" s="59" t="inlineStr"/>
+      <c r="H33" s="59" t="inlineStr">
+        <is>
+          <t>Exception: during scheduled firmware update state</t>
+        </is>
+      </c>
       <c r="I33" s="53" t="n"/>
     </row>
     <row r="34" ht="99.75" customHeight="1">
@@ -11146,23 +11194,26 @@
       </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP in Super Sleep with SCC enabled</t>
         </is>
       </c>
       <c r="D34" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Baseline Data functionality</t>
+          <t>Verify Super Sleep recovery for scheduled communication</t>
         </is>
       </c>
       <c r="E34" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Monitor Send Baseline Data process</t>
+          <t>1. Put MFP in Super Sleep
+2. Wait for scheduled communication time
+3. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F34" s="62" t="inlineStr">
         <is>
-          <t>MFP should collect and send baseline data to server</t>
+          <t>1. MFP should wake up from Super Sleep
+2. MFP should communicate with server
+3. MFP should return to Super Sleep after communication</t>
         </is>
       </c>
       <c r="G34" s="58" t="inlineStr"/>
@@ -11177,28 +11228,32 @@
       </c>
       <c r="C35" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D35" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package functionality</t>
+          <t>Verify Hibernation interaction</t>
         </is>
       </c>
       <c r="E35" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger package installation
-3. Monitor installation process</t>
+          <t>1. Enable SCC
+2. Start SCC communication
+3. Try to enter Hibernation</t>
         </is>
       </c>
       <c r="F35" s="62" t="inlineStr">
         <is>
-          <t>MFP should install package successfully</t>
+          <t>MFP should not enter Hibernation during communication cycle</t>
         </is>
       </c>
       <c r="G35" s="58" t="inlineStr"/>
-      <c r="H35" s="59" t="inlineStr"/>
+      <c r="H35" s="59" t="inlineStr">
+        <is>
+          <t>Exception: during scheduled firmware update state</t>
+        </is>
+      </c>
       <c r="I35" s="53" t="n"/>
     </row>
     <row r="36" ht="99.75" customHeight="1">
@@ -11209,24 +11264,25 @@
       </c>
       <c r="C36" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D36" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update installation</t>
+          <t>Verify Persistent Policy functionality</t>
         </is>
       </c>
       <c r="E36" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger firmware update
-3. Monitor installation process</t>
+          <t>1. Enable SCC
+2. Server sets policy for 08/05/13 settings
+3. Change settings locally via Top Access
+4. Wait for persistent policy check interval</t>
         </is>
       </c>
       <c r="F36" s="62" t="inlineStr">
         <is>
-          <t>MFP should schedule and perform firmware update</t>
+          <t>MFP should revert changes to maintain policy settings from cloud</t>
         </is>
       </c>
       <c r="G36" s="58" t="inlineStr"/>
@@ -11241,24 +11297,25 @@
       </c>
       <c r="C37" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D37" s="70" t="inlineStr">
         <is>
-          <t>Verify Update Status notification</t>
+          <t>Verify Persistent Policy expiration</t>
         </is>
       </c>
       <c r="E37" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger package installation
-3. Monitor Update Status notification</t>
+          <t>1. Enable SCC
+2. Server sets policy with PersistentExpiration = 7 days
+3. Wait for expiration period
+4. Change settings locally</t>
         </is>
       </c>
       <c r="F37" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify server of installation status</t>
+          <t>After expiration period, local changes should not be reverted</t>
         </is>
       </c>
       <c r="G37" s="58" t="inlineStr"/>
@@ -11273,23 +11330,24 @@
       </c>
       <c r="C38" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D38" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Regular Data functionality</t>
+          <t>Verify Time-based Device State Data Values</t>
         </is>
       </c>
       <c r="E38" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Monitor Send Regular Data process</t>
+          <t>1. Enable SCC
+2. Server sets time-based values for energy save timer
+3. Monitor setting changes at specified times</t>
         </is>
       </c>
       <c r="F38" s="62" t="inlineStr">
         <is>
-          <t>MFP should collect and send regular data to server</t>
+          <t>MFP should change energy save timer settings based on time of day</t>
         </is>
       </c>
       <c r="G38" s="58" t="inlineStr"/>
@@ -11304,24 +11362,26 @@
       </c>
       <c r="C39" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D39" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Device Error functionality</t>
+          <t>Verify IP Redirect functionality</t>
         </is>
       </c>
       <c r="E39" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger device error
-3. Monitor error notification</t>
+          <t>1. Enable SCC for first time
+2. Monitor GetRedirectURL request
+3. Check if MFP redirects to appropriate regional server</t>
         </is>
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify server of device error</t>
+          <t>1. MFP should send GetRedirectURL request to NA server
+2. MFP should receive appropriate regional URL
+3. MFP should redirect to that URL for registration</t>
         </is>
       </c>
       <c r="G39" s="58" t="inlineStr"/>
@@ -11336,25 +11396,25 @@
       </c>
       <c r="C40" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D40" s="70" t="inlineStr">
         <is>
-          <t>Verify error removal notification</t>
+          <t>Verify retry processing for connection errors</t>
         </is>
       </c>
       <c r="E40" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger device error
-3. Resolve error without power off
-4. Monitor error notification</t>
+          <t>1. Enable SCC
+2. Simulate connection error
+3. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F40" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify server of error removal with '-' prefix</t>
+          <t>1. MFP should retry in 60 seconds
+2. If first retry fails, MFP should enter Retry Mode</t>
         </is>
       </c>
       <c r="G40" s="58" t="inlineStr"/>
@@ -11369,24 +11429,25 @@
       </c>
       <c r="C41" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D41" s="70" t="inlineStr">
         <is>
-          <t>Verify duplicate error handling</t>
+          <t>Verify retry processing for HTTP errors</t>
         </is>
       </c>
       <c r="E41" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger same device error multiple times
-3. Monitor error notifications</t>
+          <t>1. Enable SCC
+2. Simulate HTTP error
+3. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F41" s="62" t="inlineStr">
         <is>
-          <t>Same error should not be sent to server unless removed first</t>
+          <t>1. MFP should retry in 60 seconds
+2. If second retry fails, MFP should enter Retry Mode</t>
         </is>
       </c>
       <c r="G41" s="58" t="inlineStr"/>
@@ -11401,24 +11462,26 @@
       </c>
       <c r="C42" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D42" s="70" t="inlineStr">
         <is>
-          <t>Verify Super Sleep interaction</t>
+          <t>Verify Retry Mode behavior</t>
         </is>
       </c>
       <c r="E42" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Put MFP in Super Sleep state
-3. Wait for scheduled communication time</t>
+          <t>1. Enable SCC
+2. Force MFP into Retry Mode
+3. Monitor communication attempts</t>
         </is>
       </c>
       <c r="F42" s="62" t="inlineStr">
         <is>
-          <t>MFP should wake from Super Sleep for communication and return to Super Sleep after</t>
+          <t>1. MFP should try to communicate once every 24 hours
+2. Communication should start from Register Device
+3. Retry Mode should continue until successful communication</t>
         </is>
       </c>
       <c r="G42" s="58" t="inlineStr"/>
@@ -11433,24 +11496,24 @@
       </c>
       <c r="C43" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled in Retry Mode</t>
         </is>
       </c>
       <c r="D43" s="70" t="inlineStr">
         <is>
-          <t>Verify Hibernation interaction</t>
+          <t>Verify power failure during Retry Mode</t>
         </is>
       </c>
       <c r="E43" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Initiate communication cycle
-3. Try to put MFP in hibernation</t>
+          <t>1. Put MFP in Retry Mode
+2. Power off and on
+3. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F43" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter hibernation during communication cycle</t>
+          <t>After power on, Retry Mode should be cancelled and normal communication cycle should start</t>
         </is>
       </c>
       <c r="G43" s="58" t="inlineStr"/>
@@ -11465,24 +11528,24 @@
       </c>
       <c r="C44" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled with Persistent Policy</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D44" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy functionality</t>
+          <t>Verify message log recording</t>
         </is>
       </c>
       <c r="E44" s="61" t="inlineStr">
         <is>
-          <t>1. Set policy from cloud server with persistent settings
-2. Change settings locally
-3. Wait for persistent check interval</t>
+          <t>1. Enable SCC
+2. Trigger various SCC events and errors
+3. Check message logs</t>
         </is>
       </c>
       <c r="F44" s="62" t="inlineStr">
         <is>
-          <t>MFP should revert to policy settings based on persistent interval</t>
+          <t>Message logs should be recorded for SCC events and errors with appropriate error codes</t>
         </is>
       </c>
       <c r="G44" s="58" t="inlineStr"/>
@@ -11497,23 +11560,26 @@
       </c>
       <c r="C45" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled with Time-based settings</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D45" s="70" t="inlineStr">
         <is>
-          <t>Verify Time-based Device State Data Values</t>
+          <t>Verify panel message display during SCC processing</t>
         </is>
       </c>
       <c r="E45" s="61" t="inlineStr">
         <is>
-          <t>1. Set time-based values for settings
-2. Monitor setting changes at specified times</t>
+          <t>1. Enable SCC
+2. Initiate SCC communication
+3. Check panel display</t>
         </is>
       </c>
       <c r="F45" s="62" t="inlineStr">
         <is>
-          <t>Settings should change according to time-based schedule</t>
+          <t>1. Status window should display "Service in progress. Please do not turn off: XX"
+2. XX should correspond to current processing state
+3. Popup window should appear for certain states</t>
         </is>
       </c>
       <c r="G45" s="58" t="inlineStr"/>
@@ -11528,24 +11594,24 @@
       </c>
       <c r="C46" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D46" s="70" t="inlineStr">
         <is>
-          <t>Verify IP Redirect functionality</t>
+          <t>Verify custom URL setting</t>
         </is>
       </c>
       <c r="E46" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function for first time
-2. Monitor GetRedirectURL request
-3. Check if MFP connects to redirected URL</t>
+          <t>1. Set 08-3827 to custom URL
+2. Enable SCC
+3. Monitor connection attempts</t>
         </is>
       </c>
       <c r="F46" s="62" t="inlineStr">
         <is>
-          <t>MFP should connect to appropriate regional server based on IP address</t>
+          <t>MFP should connect to specified custom URL instead of default server</t>
         </is>
       </c>
       <c r="G46" s="58" t="inlineStr"/>
@@ -11560,24 +11626,26 @@
       </c>
       <c r="C47" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D47" s="70" t="inlineStr">
         <is>
-          <t>Verify retry processing at communication error</t>
+          <t>Verify URL forward setting</t>
         </is>
       </c>
       <c r="E47" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate communication error
-3. Monitor retry behavior</t>
+          <t>1. Set 08-3828 to 0 (Disable)
+2. Set 08-3827 to custom URL
+3. Enable SCC
+4. Server returns redirect URL
+5. Monitor connection behavior</t>
         </is>
       </c>
       <c r="F47" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry after 60 seconds, then enter retry mode if still failing</t>
+          <t>MFP should not follow redirect URL when URL forward setting is disabled</t>
         </is>
       </c>
       <c r="G47" s="58" t="inlineStr"/>
@@ -11592,23 +11660,25 @@
       </c>
       <c r="C48" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled in retry mode</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D48" s="70" t="inlineStr">
         <is>
-          <t>Verify retry mode behavior</t>
+          <t>Verify firmware update scheduling</t>
         </is>
       </c>
       <c r="E48" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in retry mode
-2. Monitor communication attempts</t>
+          <t>1. Enable SCC
+2. Trigger firmware update from server
+3. Monitor scheduling behavior</t>
         </is>
       </c>
       <c r="F48" s="62" t="inlineStr">
         <is>
-          <t>MFP should try to communicate once every 24 hours</t>
+          <t>1. Firmware update should be scheduled at specified time
+2. If scheduled time has passed during power off, update should be rescheduled for same time next day</t>
         </is>
       </c>
       <c r="G48" s="58" t="inlineStr"/>
@@ -11623,24 +11693,27 @@
       </c>
       <c r="C49" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D49" s="70" t="inlineStr">
         <is>
-          <t>Verify message log recording</t>
+          <t>Verify firmware update failure handling</t>
         </is>
       </c>
       <c r="E49" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger various SCC operations and errors
-3. Check message logs</t>
+          <t>1. Enable SCC
+2. Trigger firmware update from server
+3. Force update to fail
+4. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F49" s="62" t="inlineStr">
         <is>
-          <t>Appropriate message logs should be recorded for SCC operations</t>
+          <t>1. MFP should notify update failure to server
+2. Regular communication should be scheduled after 1 hour
+3. Server should retry update up to 3 times before stopping</t>
         </is>
       </c>
       <c r="G49" s="58" t="inlineStr"/>
@@ -11655,24 +11728,24 @@
       </c>
       <c r="C50" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled with RDMS (BBR2)</t>
+          <t>MFP with SCC enabled (SSD model)</t>
         </is>
       </c>
       <c r="D50" s="70" t="inlineStr">
         <is>
-          <t>Verify RDMS compatibility</t>
+          <t>Verify firmware update on SSD model</t>
         </is>
       </c>
       <c r="E50" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Enable RDMS (BBR2) function
-3. Check RDMS functionality</t>
+          <t>1. Enable SCC on SSD model
+2. Trigger firmware update from server
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F50" s="62" t="inlineStr">
         <is>
-          <t>RDMS should not work when SCC is enabled</t>
+          <t>Firmware update should fail and be handled as update failure</t>
         </is>
       </c>
       <c r="G50" s="58" t="inlineStr"/>
@@ -11687,24 +11760,27 @@
       </c>
       <c r="C51" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D51" s="70" t="inlineStr">
         <is>
-          <t>Verify panel message display</t>
+          <t>Verify multiple update instruction handling</t>
         </is>
       </c>
       <c r="E51" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Initiate SCC processing
-3. Check panel display</t>
+          <t>1. Enable SCC
+2. Server sends multiple update instructions
+3. Force one update to fail
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F51" s="62" t="inlineStr">
         <is>
-          <t>Panel should display appropriate message with numerical value</t>
+          <t>1. Update installation should continue for all instructions
+2. MFP should notify all update results to server
+3. Regular cycle should continue</t>
         </is>
       </c>
       <c r="G51" s="58" t="inlineStr"/>
@@ -11719,24 +11795,27 @@
       </c>
       <c r="C52" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D52" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 connectivity</t>
+          <t>Verify hash value mismatch handling</t>
         </is>
       </c>
       <c r="E52" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv4 address only
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Enable SCC
+2. Trigger update from server
+3. Simulate hash value mismatch
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F52" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully communicate with server using IPv4</t>
+          <t>1. MFP should delete downloaded data
+2. MFP should exit communication cycle
+3. MFP should wait for next scheduled communication</t>
         </is>
       </c>
       <c r="G52" s="58" t="inlineStr"/>
@@ -11751,24 +11830,27 @@
       </c>
       <c r="C53" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D53" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 connectivity</t>
+          <t>Verify unzip failure handling</t>
         </is>
       </c>
       <c r="E53" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv6 address only
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Enable SCC
+2. Trigger update from server
+3. Simulate unzip failure
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F53" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully communicate with server using IPv6</t>
+          <t>1. MFP should delete unzipped data
+2. MFP should exit communication cycle
+3. MFP should wait for next scheduled communication</t>
         </is>
       </c>
       <c r="G53" s="58" t="inlineStr"/>
@@ -11783,24 +11865,27 @@
       </c>
       <c r="C54" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D54" s="70" t="inlineStr">
         <is>
-          <t>Verify dual-stack IPv4/IPv6 behavior</t>
+          <t>Verify HDD full handling during download</t>
         </is>
       </c>
       <c r="E54" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with both IPv4 and IPv6 addresses
-2. Enable SCC function
-3. Monitor communication</t>
+          <t>1. Enable SCC
+2. Trigger large update from server
+3. Fill HDD to capacity
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F54" s="62" t="inlineStr">
         <is>
-          <t>MFP should use appropriate protocol for communication</t>
+          <t>1. MFP should delete downloaded data
+2. MFP should exit communication cycle
+3. MFP should wait for next scheduled communication</t>
         </is>
       </c>
       <c r="G54" s="58" t="inlineStr"/>
@@ -11815,25 +11900,26 @@
       </c>
       <c r="C55" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D55" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 to IPv6 fallback</t>
+          <t>Verify power failure during download</t>
         </is>
       </c>
       <c r="E55" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with both IPv4 and IPv6
-2. Block IPv4 communication
-3. Enable SCC function
-4. Monitor communication</t>
+          <t>1. Enable SCC
+2. Trigger update from server
+3. Power off during download
+4. Power on
+5. Monitor behavior</t>
         </is>
       </c>
       <c r="F55" s="62" t="inlineStr">
         <is>
-          <t>MFP should fall back to IPv6 when IPv4 fails</t>
+          <t>MFP should delete downloaded data before next communication</t>
         </is>
       </c>
       <c r="G55" s="58" t="inlineStr"/>
@@ -11848,25 +11934,25 @@
       </c>
       <c r="C56" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D56" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 to IPv4 fallback</t>
+          <t>Verify IPv4-only connectivity</t>
         </is>
       </c>
       <c r="E56" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with both IPv4 and IPv6
-2. Block IPv6 communication
-3. Enable SCC function
-4. Monitor communication</t>
+          <t>1. Configure network for IPv4 only
+2. Enable SCC
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F56" s="62" t="inlineStr">
         <is>
-          <t>MFP should fall back to IPv4 when IPv6 fails</t>
+          <t>1. MFP should successfully register and communicate with server over IPv4
+2. All SCC functions should work properly</t>
         </is>
       </c>
       <c r="G56" s="58" t="inlineStr"/>
@@ -11881,24 +11967,25 @@
       </c>
       <c r="C57" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D57" s="70" t="inlineStr">
         <is>
-          <t>Verify invalid IPv4 input handling</t>
+          <t>Verify IPv6-only connectivity</t>
         </is>
       </c>
       <c r="E57" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with invalid IPv4 address
-2. Enable SCC function
+          <t>1. Configure network for IPv6 only
+2. Enable SCC
 3. Monitor communication</t>
         </is>
       </c>
       <c r="F57" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle invalid IPv4 address appropriately</t>
+          <t>1. MFP should successfully register and communicate with server over IPv6
+2. All SCC functions should work properly</t>
         </is>
       </c>
       <c r="G57" s="58" t="inlineStr"/>
@@ -11913,24 +12000,25 @@
       </c>
       <c r="C58" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D58" s="70" t="inlineStr">
         <is>
-          <t>Verify invalid IPv6 input handling</t>
+          <t>Verify dual-stack (IPv4+IPv6) connectivity</t>
         </is>
       </c>
       <c r="E58" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with invalid IPv6 address
-2. Enable SCC function
+          <t>1. Configure network for both IPv4 and IPv6
+2. Enable SCC
 3. Monitor communication</t>
         </is>
       </c>
       <c r="F58" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle invalid IPv6 address appropriately</t>
+          <t>1. MFP should successfully register and communicate with server
+2. MFP should prefer IPv6 for communication when available</t>
         </is>
       </c>
       <c r="G58" s="58" t="inlineStr"/>
@@ -11945,24 +12033,25 @@
       </c>
       <c r="C59" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D59" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 performance</t>
+          <t>Verify IPv4 to IPv6 fallback</t>
         </is>
       </c>
       <c r="E59" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv4 address
-2. Enable SCC function
-3. Measure communication performance</t>
+          <t>1. Configure dual-stack network
+2. Enable SCC
+3. Block IPv6 traffic during communication
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F59" s="62" t="inlineStr">
         <is>
-          <t>Communication performance should meet requirements</t>
+          <t>MFP should automatically fall back to IPv4 when IPv6 becomes unavailable</t>
         </is>
       </c>
       <c r="G59" s="58" t="inlineStr"/>
@@ -11977,24 +12066,25 @@
       </c>
       <c r="C60" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D60" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 performance</t>
+          <t>Verify IPv6 to IPv4 fallback</t>
         </is>
       </c>
       <c r="E60" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv6 address
-2. Enable SCC function
-3. Measure communication performance</t>
+          <t>1. Configure dual-stack network
+2. Enable SCC
+3. Block IPv4 traffic during communication
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F60" s="62" t="inlineStr">
         <is>
-          <t>Communication performance should meet requirements</t>
+          <t>MFP should automatically fall back to IPv6 when IPv4 becomes unavailable</t>
         </is>
       </c>
       <c r="G60" s="58" t="inlineStr"/>
@@ -12009,24 +12099,24 @@
       </c>
       <c r="C61" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D61" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 security</t>
+          <t>Verify IPv4 edge case (0.0.0.0)</t>
         </is>
       </c>
       <c r="E61" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv4 address
-2. Enable SCC function
-3. Attempt security exploits</t>
+          <t>1. Configure MFP with IPv4 address 0.0.0.0
+2. Enable SCC
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F61" s="62" t="inlineStr">
         <is>
-          <t>MFP should maintain secure communication</t>
+          <t>MFP should handle invalid address appropriately and not crash</t>
         </is>
       </c>
       <c r="G61" s="58" t="inlineStr"/>
@@ -12041,24 +12131,24 @@
       </c>
       <c r="C62" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D62" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 security</t>
+          <t>Verify IPv4 edge case (255.255.255.255)</t>
         </is>
       </c>
       <c r="E62" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv6 address
-2. Enable SCC function
-3. Attempt security exploits</t>
+          <t>1. Configure MFP with IPv4 address 255.255.255.255
+2. Enable SCC
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F62" s="62" t="inlineStr">
         <is>
-          <t>MFP should maintain secure communication</t>
+          <t>MFP should handle broadcast address appropriately and not crash</t>
         </is>
       </c>
       <c r="G62" s="58" t="inlineStr"/>
@@ -12073,24 +12163,24 @@
       </c>
       <c r="C63" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D63" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update with maximum package size</t>
+          <t>Verify IPv6 edge case (::)</t>
         </is>
       </c>
       <c r="E63" s="61" t="inlineStr">
         <is>
-          <t>1. Create firmware update package of maximum allowed size
-2. Trigger firmware update
-3. Monitor update process</t>
+          <t>1. Configure MFP with IPv6 address ::
+2. Enable SCC
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F63" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle maximum size package correctly</t>
+          <t>MFP should handle unspecified address appropriately and not crash</t>
         </is>
       </c>
       <c r="G63" s="58" t="inlineStr"/>
@@ -12105,24 +12195,24 @@
       </c>
       <c r="C64" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D64" s="70" t="inlineStr">
         <is>
-          <t>Verify baseline data with maximum size</t>
+          <t>Verify IPv6 edge case (::1)</t>
         </is>
       </c>
       <c r="E64" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP to generate maximum size baseline data
-2. Enable SCC function
-3. Monitor data transmission</t>
+          <t>1. Configure MFP with IPv6 address ::1
+2. Enable SCC
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F64" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle maximum size baseline data correctly</t>
+          <t>MFP should handle loopback address appropriately and not crash</t>
         </is>
       </c>
       <c r="G64" s="58" t="inlineStr"/>
@@ -12137,25 +12227,26 @@
       </c>
       <c r="C65" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D65" s="70" t="inlineStr">
         <is>
-          <t>Verify power failure during package download</t>
+          <t>Verify IPv4 vs IPv6 performance</t>
         </is>
       </c>
       <c r="E65" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger package download
-3. Simulate power failure during download
-4. Restore power</t>
+          <t>1. Configure dual-stack network
+2. Enable SCC
+3. Measure communication time over IPv4
+4. Measure communication time over IPv6
+5. Compare results</t>
         </is>
       </c>
       <c r="F65" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete downloaded data and restart communication</t>
+          <t>Performance metrics should be collected and compared between IPv4 and IPv6</t>
         </is>
       </c>
       <c r="G65" s="58" t="inlineStr"/>
@@ -12170,25 +12261,27 @@
       </c>
       <c r="C66" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D66" s="70" t="inlineStr">
         <is>
-          <t>Verify power failure during installation</t>
+          <t>Verify IPv4 security</t>
         </is>
       </c>
       <c r="E66" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger package installation
-3. Simulate power failure during installation
-4. Restore power</t>
+          <t>1. Configure IPv4 network
+2. Enable SCC
+3. Attempt various security attacks (MITM, spoofing)
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F66" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete package data and restart communication</t>
+          <t>1. SSL certificate validation should prevent MITM attacks
+2. MFP should not accept invalid certificates
+3. Communication should remain secure</t>
         </is>
       </c>
       <c r="G66" s="58" t="inlineStr"/>
@@ -12203,24 +12296,27 @@
       </c>
       <c r="C67" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D67" s="70" t="inlineStr">
         <is>
-          <t>Verify HDD full during download</t>
+          <t>Verify IPv6 security</t>
         </is>
       </c>
       <c r="E67" s="61" t="inlineStr">
         <is>
-          <t>1. Fill MFP storage to near capacity
-2. Enable SCC function
-3. Trigger package download</t>
+          <t>1. Configure IPv6 network
+2. Enable SCC
+3. Attempt various security attacks (MITM, spoofing)
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F67" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle HDD full condition appropriately</t>
+          <t>1. SSL certificate validation should prevent MITM attacks
+2. MFP should not accept invalid certificates
+3. Communication should remain secure</t>
         </is>
       </c>
       <c r="G67" s="58" t="inlineStr"/>
@@ -12235,24 +12331,24 @@
       </c>
       <c r="C68" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D68" s="70" t="inlineStr">
         <is>
-          <t>Verify unzip failure handling</t>
+          <t>Verify malformed IPv4 address handling</t>
         </is>
       </c>
       <c r="E68" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate corrupted ZIP package
-3. Trigger package download and installation</t>
+          <t>1. Configure MFP with malformed IPv4 address
+2. Enable SCC
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F68" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete unzipped data and exit communication cycle</t>
+          <t>MFP should handle malformed address appropriately and not crash</t>
         </is>
       </c>
       <c r="G68" s="58" t="inlineStr"/>
@@ -12267,25 +12363,24 @@
       </c>
       <c r="C69" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D69" s="70" t="inlineStr">
         <is>
-          <t>Verify multiple update instructions handling</t>
+          <t>Verify malformed IPv6 address handling</t>
         </is>
       </c>
       <c r="E69" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger multiple update instructions
-3. Simulate failure in one instruction
-4. Monitor behavior</t>
+          <t>1. Configure MFP with malformed IPv6 address
+2. Enable SCC
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F69" s="62" t="inlineStr">
         <is>
-          <t>MFP should continue processing remaining instructions</t>
+          <t>MFP should handle malformed address appropriately and not crash</t>
         </is>
       </c>
       <c r="G69" s="58" t="inlineStr"/>
@@ -12300,24 +12395,25 @@
       </c>
       <c r="C70" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled on SSD model</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D70" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update on SSD model</t>
+          <t>Verify IPv4 proxy authentication</t>
         </is>
       </c>
       <c r="E70" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function on SSD model
-2. Trigger firmware update
-3. Monitor behavior</t>
+          <t>1. Configure IPv4 network with proxy requiring authentication
+2. Set proxy server details
+3. Enable SCC
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F70" s="62" t="inlineStr">
         <is>
-          <t>Firmware update should fail and MFP should notify server</t>
+          <t>MFP should successfully authenticate with proxy and communicate with server</t>
         </is>
       </c>
       <c r="G70" s="58" t="inlineStr"/>
@@ -12332,24 +12428,25 @@
       </c>
       <c r="C71" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D71" s="70" t="inlineStr">
         <is>
-          <t>Verify EOL instruction handling</t>
+          <t>Verify IPv6 proxy authentication</t>
         </is>
       </c>
       <c r="E71" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger EOL instruction
-3. Monitor behavior</t>
+          <t>1. Configure IPv6 network with proxy requiring authentication
+2. Set proxy server details
+3. Enable SCC
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F71" s="62" t="inlineStr">
         <is>
-          <t>MFP should process EOL instruction correctly</t>
+          <t>MFP should successfully authenticate with proxy and communicate with server</t>
         </is>
       </c>
       <c r="G71" s="58" t="inlineStr"/>
@@ -12364,24 +12461,24 @@
       </c>
       <c r="C72" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D72" s="70" t="inlineStr">
         <is>
-          <t>Verify BOL instruction handling</t>
+          <t>Verify IPv4 to IPv6 transition during communication</t>
         </is>
       </c>
       <c r="E72" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger BOL instruction
-3. Monitor behavior</t>
+          <t>1. Start communication over IPv4
+2. Switch network to IPv6 only
+3. Monitor behavior at next communication cycle</t>
         </is>
       </c>
       <c r="F72" s="62" t="inlineStr">
         <is>
-          <t>MFP should process BOL instruction correctly</t>
+          <t>MFP should detect network change and use IPv6 for next communication cycle</t>
         </is>
       </c>
       <c r="G72" s="58" t="inlineStr"/>
@@ -12396,24 +12493,24 @@
       </c>
       <c r="C73" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D73" s="70" t="inlineStr">
         <is>
-          <t>Verify SSL certificate validation</t>
+          <t>Verify IPv6 to IPv4 transition during communication</t>
         </is>
       </c>
       <c r="E73" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Use server with invalid SSL certificate
-3. Monitor communication</t>
+          <t>1. Start communication over IPv6
+2. Switch network to IPv4 only
+3. Monitor behavior at next communication cycle</t>
         </is>
       </c>
       <c r="F73" s="62" t="inlineStr">
         <is>
-          <t>MFP should reject connection with invalid certificate</t>
+          <t>MFP should detect network change and use IPv4 for next communication cycle</t>
         </is>
       </c>
       <c r="G73" s="58" t="inlineStr"/>
@@ -12428,24 +12525,25 @@
       </c>
       <c r="C74" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D74" s="70" t="inlineStr">
         <is>
-          <t>Verify custom CA certificate import</t>
+          <t>Verify IPv4 network interruption handling</t>
         </is>
       </c>
       <c r="E74" s="61" t="inlineStr">
         <is>
-          <t>1. Import custom CA certificate via TA
-2. Enable SCC function with custom HTTPS server
-3. Monitor communication</t>
+          <t>1. Configure IPv4 network
+2. Start SCC communication
+3. Interrupt network connection
+4. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F74" s="62" t="inlineStr">
         <is>
-          <t>MFP should establish secure connection with custom certificate</t>
+          <t>MFP should follow retry protocol and enter Retry Mode if connection cannot be restored</t>
         </is>
       </c>
       <c r="G74" s="58" t="inlineStr"/>
@@ -12460,24 +12558,25 @@
       </c>
       <c r="C75" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D75" s="70" t="inlineStr">
         <is>
-          <t>Verify performance impact</t>
+          <t>Verify IPv6 network interruption handling</t>
         </is>
       </c>
       <c r="E75" s="61" t="inlineStr">
         <is>
-          <t>1. Measure MFP performance without SCC
-2. Enable SCC function
-3. Measure MFP performance with SCC</t>
+          <t>1. Configure IPv6 network
+2. Start SCC communication
+3. Interrupt network connection
+4. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F75" s="62" t="inlineStr">
         <is>
-          <t>Performance should not be significantly degraded</t>
+          <t>MFP should follow retry protocol and enter Retry Mode if connection cannot be restored</t>
         </is>
       </c>
       <c r="G75" s="58" t="inlineStr"/>
@@ -12492,24 +12591,24 @@
       </c>
       <c r="C76" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D76" s="70" t="inlineStr">
         <is>
-          <t>Verify startup time impact</t>
+          <t>Verify SendDataConfig parameter handling</t>
         </is>
       </c>
       <c r="E76" s="61" t="inlineStr">
         <is>
-          <t>1. Measure startup time without SCC
-2. Enable SCC function
-3. Measure startup time with SCC</t>
+          <t>1. Enable SCC
+2. Server sets various SendDataConfig parameters
+3. Monitor data collection behavior</t>
         </is>
       </c>
       <c r="F76" s="62" t="inlineStr">
         <is>
-          <t>Startup time should not be significantly impacted</t>
+          <t>MFP should collect and send only the data types specified in SendDataConfig</t>
         </is>
       </c>
       <c r="G76" s="58" t="inlineStr"/>
@@ -12524,25 +12623,25 @@
       </c>
       <c r="C77" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D77" s="70" t="inlineStr">
         <is>
-          <t>Verify event cancellation handling</t>
+          <t>Verify policy violation handling</t>
         </is>
       </c>
       <c r="E77" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger event while SCC is in busy state
-3. Cancel event immediately
-4. Monitor notification</t>
+          <t>1. Enable SCC
+2. Server sets policy
+3. Violate policy locally
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F77" s="62" t="inlineStr">
         <is>
-          <t>Event may not be notified to server if cancelled during busy state</t>
+          <t>MFP should detect policy violation and report to server</t>
         </is>
       </c>
       <c r="G77" s="58" t="inlineStr"/>
@@ -12557,24 +12656,24 @@
       </c>
       <c r="C78" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D78" s="70" t="inlineStr">
         <is>
-          <t>Verify service UI exclusivity</t>
+          <t>Verify customized UI instruction handling</t>
         </is>
       </c>
       <c r="E78" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Initiate SCC communication
-3. Try to access service UI</t>
+          <t>1. Enable SCC
+2. Server sends customized UI instruction
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F78" s="62" t="inlineStr">
         <is>
-          <t>Service UI should not be accessible during SCC communication</t>
+          <t>MFP should download and install customized UI data correctly</t>
         </is>
       </c>
       <c r="G78" s="58" t="inlineStr"/>
@@ -12589,24 +12688,24 @@
       </c>
       <c r="C79" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D79" s="70" t="inlineStr">
         <is>
-          <t>Verify network unavailability during Fxxx error</t>
+          <t>Verify application instruction handling</t>
         </is>
       </c>
       <c r="E79" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger Fxxx categorized error
-3. Monitor error notification</t>
+          <t>1. Enable SCC
+2. Server sends application instruction
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F79" s="62" t="inlineStr">
         <is>
-          <t>Device should not be able to send error to server due to network unavailability</t>
+          <t>MFP should download and install application correctly</t>
         </is>
       </c>
       <c r="G79" s="58" t="inlineStr"/>
@@ -12621,24 +12720,24 @@
       </c>
       <c r="C80" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D80" s="70" t="inlineStr">
         <is>
-          <t>Verify customized UI instructions</t>
+          <t>Verify license instruction handling</t>
         </is>
       </c>
       <c r="E80" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger customized UI instruction
-3. Monitor installation</t>
+          <t>1. Enable SCC
+2. Server sends license instruction
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F80" s="62" t="inlineStr">
         <is>
-          <t>MFP should correctly install customized UI</t>
+          <t>MFP should download and install license correctly</t>
         </is>
       </c>
       <c r="G80" s="58" t="inlineStr"/>
@@ -12653,24 +12752,24 @@
       </c>
       <c r="C81" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D81" s="70" t="inlineStr">
         <is>
-          <t>Verify application instructions</t>
+          <t>Verify custom user paper type instruction handling</t>
         </is>
       </c>
       <c r="E81" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger application instruction
-3. Monitor installation</t>
+          <t>1. Enable SCC
+2. Server sends custom user paper type instruction
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F81" s="62" t="inlineStr">
         <is>
-          <t>MFP should correctly install application</t>
+          <t>MFP should download and install custom user paper type correctly</t>
         </is>
       </c>
       <c r="G81" s="58" t="inlineStr"/>
@@ -12685,24 +12784,26 @@
       </c>
       <c r="C82" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D82" s="70" t="inlineStr">
         <is>
-          <t>Verify license instructions</t>
+          <t>Verify special instruction handling</t>
         </is>
       </c>
       <c r="E82" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger license instruction
-3. Monitor installation</t>
+          <t>1. Enable SCC
+2. Server sends special instruction
+3. Monitor execution</t>
         </is>
       </c>
       <c r="F82" s="62" t="inlineStr">
         <is>
-          <t>MFP should correctly install license</t>
+          <t>1. MFP should execute special instruction correctly
+2. MFP should not reboot after execution
+3. MFP should proceed to Send Regular Data</t>
         </is>
       </c>
       <c r="G82" s="58" t="inlineStr"/>
@@ -12717,24 +12818,24 @@
       </c>
       <c r="C83" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D83" s="70" t="inlineStr">
         <is>
-          <t>Verify custom user paper type instructions</t>
+          <t>Verify clone file instruction handling</t>
         </is>
       </c>
       <c r="E83" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger custom user paper type instruction
-3. Monitor installation</t>
+          <t>1. Enable SCC
+2. Server sends clone file instruction
+3. Monitor installation process</t>
         </is>
       </c>
       <c r="F83" s="62" t="inlineStr">
         <is>
-          <t>MFP should correctly install custom user paper type</t>
+          <t>MFP should apply clone data correctly regardless of SendDataConfig parameters</t>
         </is>
       </c>
       <c r="G83" s="58" t="inlineStr"/>
@@ -12749,24 +12850,24 @@
       </c>
       <c r="C84" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D84" s="70" t="inlineStr">
         <is>
-          <t>Verify policy violation data instruction</t>
+          <t>Verify restore data instruction handling</t>
         </is>
       </c>
       <c r="E84" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger policy violation data instruction
-3. Monitor behavior</t>
+          <t>1. Enable SCC
+2. Server sends restore data instruction
+3. Monitor restoration process</t>
         </is>
       </c>
       <c r="F84" s="62" t="inlineStr">
         <is>
-          <t>MFP should correctly handle policy violation data</t>
+          <t>MFP should restore data correctly</t>
         </is>
       </c>
       <c r="G84" s="58" t="inlineStr"/>
@@ -12781,24 +12882,24 @@
       </c>
       <c r="C85" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D85" s="70" t="inlineStr">
         <is>
-          <t>Verify restore data instruction</t>
+          <t>Verify stress test with large data transfer</t>
         </is>
       </c>
       <c r="E85" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger restore data instruction
+          <t>1. Enable SCC
+2. Trigger large baseline data collection
 3. Monitor behavior</t>
         </is>
       </c>
       <c r="F85" s="62" t="inlineStr">
         <is>
-          <t>MFP should correctly restore data</t>
+          <t>MFP should handle large data collection and transfer without crashing</t>
         </is>
       </c>
       <c r="G85" s="58" t="inlineStr"/>
@@ -12813,24 +12914,24 @@
       </c>
       <c r="C86" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D86" s="70" t="inlineStr">
         <is>
-          <t>Verify special instruction</t>
+          <t>Verify stress test with rapid event notifications</t>
         </is>
       </c>
       <c r="E86" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger special instruction
-3. Monitor behavior</t>
+          <t>1. Enable SCC
+2. Trigger multiple device errors in rapid succession
+3. Monitor event notification behavior</t>
         </is>
       </c>
       <c r="F86" s="62" t="inlineStr">
         <is>
-          <t>MFP should correctly handle special instruction without reboot</t>
+          <t>MFP should handle multiple event notifications correctly without losing events</t>
         </is>
       </c>
       <c r="G86" s="58" t="inlineStr"/>
@@ -12845,24 +12946,25 @@
       </c>
       <c r="C87" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D87" s="70" t="inlineStr">
         <is>
-          <t>Verify clone file instruction</t>
+          <t>Verify stress test with concurrent operations</t>
         </is>
       </c>
       <c r="E87" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger clone file instruction
-3. Monitor behavior</t>
+          <t>1. Enable SCC
+2. Start SCC communication
+3. Perform heavy printing/scanning jobs
+4. Monitor system performance</t>
         </is>
       </c>
       <c r="F87" s="62" t="inlineStr">
         <is>
-          <t>MFP should correctly apply clone file</t>
+          <t>MFP should handle concurrent operations without significant performance degradation</t>
         </is>
       </c>
       <c r="G87" s="58" t="inlineStr"/>
@@ -12877,24 +12979,25 @@
       </c>
       <c r="C88" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D88" s="70" t="inlineStr">
         <is>
-          <t>Verify persistent policy with expiration</t>
+          <t>Verify random power cycles during various SCC operations</t>
         </is>
       </c>
       <c r="E88" s="61" t="inlineStr">
         <is>
-          <t>1. Set persistent policy with expiration
-2. Wait for expiration period
-3. Change settings locally</t>
+          <t>1. Enable SCC
+2. Start various SCC operations
+3. Randomly power cycle MFP
+4. Monitor recovery behavior</t>
         </is>
       </c>
       <c r="F88" s="62" t="inlineStr">
         <is>
-          <t>After expiration, persistent policy check should stop</t>
+          <t>MFP should recover gracefully from power cycles during SCC operations</t>
         </is>
       </c>
       <c r="G88" s="58" t="inlineStr"/>
@@ -12909,24 +13012,24 @@
       </c>
       <c r="C89" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D89" s="70" t="inlineStr">
         <is>
-          <t>Verify persistent policy without expiration</t>
+          <t>Verify behavior with invalid server certificate</t>
         </is>
       </c>
       <c r="E89" s="61" t="inlineStr">
         <is>
-          <t>1. Set persistent policy without expiration
-2. Change settings locally
-3. Monitor settings</t>
+          <t>1. Enable SCC
+2. Configure custom URL with invalid SSL certificate
+3. Monitor communication attempts</t>
         </is>
       </c>
       <c r="F89" s="62" t="inlineStr">
         <is>
-          <t>Settings should be reverted according to policy indefinitely</t>
+          <t>MFP should reject invalid certificate and fail to communicate</t>
         </is>
       </c>
       <c r="G89" s="58" t="inlineStr"/>
@@ -12941,23 +13044,24 @@
       </c>
       <c r="C90" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D90" s="70" t="inlineStr">
         <is>
-          <t>Verify time-based settings with day/night values</t>
+          <t>Verify behavior with expired server certificate</t>
         </is>
       </c>
       <c r="E90" s="61" t="inlineStr">
         <is>
-          <t>1. Set time-based values for day and night
-2. Monitor settings during day and night periods</t>
+          <t>1. Enable SCC
+2. Configure custom URL with expired SSL certificate
+3. Monitor communication attempts</t>
         </is>
       </c>
       <c r="F90" s="62" t="inlineStr">
         <is>
-          <t>Settings should change according to time periods</t>
+          <t>MFP should reject expired certificate and fail to communicate</t>
         </is>
       </c>
       <c r="G90" s="58" t="inlineStr"/>
@@ -12972,24 +13076,24 @@
       </c>
       <c r="C91" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D91" s="70" t="inlineStr">
         <is>
-          <t>Verify stress test with multiple events</t>
+          <t>Verify behavior with network latency</t>
         </is>
       </c>
       <c r="E91" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger multiple events simultaneously
-3. Monitor behavior</t>
+          <t>1. Enable SCC
+2. Introduce network latency (500ms+)
+3. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F91" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle multiple events appropriately</t>
+          <t>MFP should handle network latency gracefully without timing out prematurely</t>
         </is>
       </c>
       <c r="G91" s="58" t="inlineStr"/>
@@ -13004,25 +13108,24 @@
       </c>
       <c r="C92" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D92" s="70" t="inlineStr">
         <is>
-          <t>Verify recovery from network outage</t>
+          <t>Verify behavior with packet loss</t>
         </is>
       </c>
       <c r="E92" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Disconnect network during communication
-3. Restore network
-4. Monitor recovery</t>
+          <t>1. Enable SCC
+2. Introduce packet loss (5-10%)
+3. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F92" s="62" t="inlineStr">
         <is>
-          <t>MFP should recover and resume communication</t>
+          <t>MFP should handle packet loss gracefully and retry as needed</t>
         </is>
       </c>
       <c r="G92" s="58" t="inlineStr"/>
@@ -13037,24 +13140,24 @@
       </c>
       <c r="C93" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D93" s="70" t="inlineStr">
         <is>
-          <t>Verify behavior with invalid token</t>
+          <t>Verify behavior with limited bandwidth</t>
         </is>
       </c>
       <c r="E93" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate invalid token response
-3. Monitor behavior</t>
+          <t>1. Enable SCC
+2. Limit network bandwidth (e.g., 56Kbps)
+3. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F93" s="62" t="inlineStr">
         <is>
-          <t>MFP should exit communication cycle and wait for next schedule</t>
+          <t>MFP should handle limited bandwidth gracefully without timing out</t>
         </is>
       </c>
       <c r="G93" s="58" t="inlineStr"/>
@@ -13069,24 +13172,24 @@
       </c>
       <c r="C94" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D94" s="70" t="inlineStr">
         <is>
-          <t>Verify behavior with data integrity failure</t>
+          <t>Verify behavior with DNS resolution issues</t>
         </is>
       </c>
       <c r="E94" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate STATUS_FAILED_DATAINTEGRITY response
-3. Monitor behavior</t>
+          <t>1. Enable SCC
+2. Introduce DNS resolution problems
+3. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F94" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete created data and exit communication cycle</t>
+          <t>MFP should handle DNS issues appropriately and enter retry mode</t>
         </is>
       </c>
       <c r="G94" s="58" t="inlineStr"/>
@@ -13101,24 +13204,24 @@
       </c>
       <c r="C95" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D95" s="70" t="inlineStr">
         <is>
-          <t>Verify scheduled firmware update</t>
+          <t>Verify behavior with intermittent connectivity</t>
         </is>
       </c>
       <c r="E95" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger scheduled firmware update
-3. Monitor update at scheduled time</t>
+          <t>1. Enable SCC
+2. Configure network with intermittent connectivity
+3. Monitor communication over extended period</t>
         </is>
       </c>
       <c r="F95" s="62" t="inlineStr">
         <is>
-          <t>Firmware update should execute at scheduled time</t>
+          <t>MFP should handle intermittent connectivity gracefully and maintain communication when possible</t>
         </is>
       </c>
       <c r="G95" s="58" t="inlineStr"/>
@@ -13133,25 +13236,25 @@
       </c>
       <c r="C96" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D96" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update after power failure</t>
+          <t>Verify IPv4 DNS resolution</t>
         </is>
       </c>
       <c r="E96" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger scheduled firmware update
-3. Simulate power failure before scheduled time
-4. Restore power after scheduled time</t>
+          <t>1. Configure IPv4 network
+2. Set SCC server by hostname
+3. Enable SCC
+4. Monitor DNS resolution</t>
         </is>
       </c>
       <c r="F96" s="62" t="inlineStr">
         <is>
-          <t>Firmware update should be rescheduled for same time next day</t>
+          <t>MFP should correctly resolve hostname to IPv4 address</t>
         </is>
       </c>
       <c r="G96" s="58" t="inlineStr"/>
@@ -13166,24 +13269,25 @@
       </c>
       <c r="C97" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D97" s="70" t="inlineStr">
         <is>
-          <t>Verify installation failure handling</t>
+          <t>Verify IPv6 DNS resolution</t>
         </is>
       </c>
       <c r="E97" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger installation that will fail
-3. Monitor behavior</t>
+          <t>1. Configure IPv6 network
+2. Set SCC server by hostname
+3. Enable SCC
+4. Monitor DNS resolution</t>
         </is>
       </c>
       <c r="F97" s="62" t="inlineStr">
         <is>
-          <t>Regular communication should be scheduled after 1 hour</t>
+          <t>MFP should correctly resolve hostname to IPv6 address</t>
         </is>
       </c>
       <c r="G97" s="58" t="inlineStr"/>
@@ -13198,24 +13302,25 @@
       </c>
       <c r="C98" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D98" s="70" t="inlineStr">
         <is>
-          <t>Verify repeated installation failures</t>
+          <t>Verify dual-stack DNS resolution preference</t>
         </is>
       </c>
       <c r="E98" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger installation that will fail repeatedly
-3. Monitor behavior</t>
+          <t>1. Configure dual-stack network
+2. Set SCC server by hostname with both A and AAAA records
+3. Enable SCC
+4. Monitor DNS resolution</t>
         </is>
       </c>
       <c r="F98" s="62" t="inlineStr">
         <is>
-          <t>After 3 failures, server should stop sending update instruction</t>
+          <t>MFP should prefer IPv6 address when both IPv4 and IPv6 addresses are available</t>
         </is>
       </c>
       <c r="G98" s="58" t="inlineStr"/>
@@ -13230,24 +13335,25 @@
       </c>
       <c r="C99" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D99" s="70" t="inlineStr">
         <is>
-          <t>Verify panel message during processing</t>
+          <t>Verify IPv4 fragmentation handling</t>
         </is>
       </c>
       <c r="E99" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger SCC processing
-3. Check panel messages</t>
+          <t>1. Configure IPv4 network
+2. Force large packets that require fragmentation
+3. Enable SCC
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F99" s="62" t="inlineStr">
         <is>
-          <t>Panel should display appropriate messages with numerical values</t>
+          <t>MFP should handle IPv4 fragmentation correctly</t>
         </is>
       </c>
       <c r="G99" s="58" t="inlineStr"/>
@@ -13262,24 +13368,25 @@
       </c>
       <c r="C100" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D100" s="70" t="inlineStr">
         <is>
-          <t>Verify popup window during critical operations</t>
+          <t>Verify IPv6 jumbo frames</t>
         </is>
       </c>
       <c r="E100" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Trigger operations that require popup window
-3. Check panel display</t>
+          <t>1. Configure IPv6 network with jumbo frames support
+2. Force large packets
+3. Enable SCC
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F100" s="62" t="inlineStr">
         <is>
-          <t>Popup window with sand clock should be displayed for critical operations</t>
+          <t>MFP should handle IPv6 jumbo frames correctly if supported</t>
         </is>
       </c>
       <c r="G100" s="58" t="inlineStr"/>
@@ -13294,24 +13401,24 @@
       </c>
       <c r="C101" s="60" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D101" s="70" t="inlineStr">
         <is>
-          <t>Verify random network disconnections</t>
+          <t>Verify IPv4 TTL handling</t>
         </is>
       </c>
       <c r="E101" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Randomly disconnect network during various SCC operations
-3. Monitor recovery behavior</t>
+          <t>1. Configure IPv4 network with limited TTL
+2. Enable SCC
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F101" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle random disconnections appropriately</t>
+          <t>MFP should set appropriate TTL values for IPv4 packets</t>
         </is>
       </c>
       <c r="G101" s="58" t="inlineStr"/>
@@ -13327,24 +13434,24 @@
       </c>
       <c r="C102" s="63" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D102" s="63" t="inlineStr">
         <is>
-          <t>Verify behavior with corrupted data</t>
+          <t>Verify IPv6 hop limit handling</t>
         </is>
       </c>
       <c r="E102" s="64" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Simulate corrupted data during transmission
-3. Monitor behavior</t>
+          <t>1. Configure IPv6 network
+2. Enable SCC
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F102" s="64" t="inlineStr">
         <is>
-          <t>MFP should handle corrupted data appropriately</t>
+          <t>MFP should set appropriate hop limit values for IPv6 packets</t>
         </is>
       </c>
       <c r="G102" s="63" t="inlineStr"/>
@@ -13358,24 +13465,25 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SCC is enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Verify behavior with extremely slow network</t>
+          <t>Verify IPv4 DHCP address change during communication</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Configure network with extreme latency and low bandwidth
-3. Monitor communication</t>
+          <t>1. Configure IPv4 network with DHCP
+2. Enable SCC
+3. Force DHCP address change during communication
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>MFP should handle slow network conditions appropriately</t>
+          <t>MFP should handle IPv4 address change gracefully</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -13384,65 +13492,17 @@
     <row r="104">
       <c r="B104" s="45" t="inlineStr">
         <is>
-          <t>TC099</t>
-        </is>
-      </c>
-      <c r="C104" s="67" t="inlineStr">
-        <is>
-          <t>SCC is enabled</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Verify behavior during heavy MFP usage</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>1. Enable SCC function
-2. Generate heavy workload on MFP (printing, scanning, etc.)
-3. Trigger SCC communication
-4. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>SCC should function correctly during heavy MFP usage</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+          <t>Test Summary</t>
+        </is>
+      </c>
+      <c r="C104" s="67" t="n"/>
     </row>
     <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>TC100</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>SCC is enabled</t>
-        </is>
-      </c>
       <c r="D105" s="45" t="inlineStr">
         <is>
-          <t>Verify behavior with invalid IP configuration</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>1. Configure MFP with invalid network settings
-2. Enable SCC function
-3. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>MFP should handle invalid network configuration appropriately</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+          <t>Test Case Count:</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="D106" s="46" t="inlineStr">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10255,29 +10255,25 @@
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC function enabling/disabling</t>
+          <t>Enable SCC function</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode
-2. Set 08-3820 to 0 (Disable)
-3. Reboot MFP
-4. Set 08-3820 to 1 (Enable)
-5. Reboot MFP</t>
+          <t>1. Enter Self-diagnostic boot-up mode
+2. Set 08-3820 from 0 (Disable) to 1 (Enable)
+3. Reboot MFP</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>1. SCC function should be disabled when 08-3820 is set to 0
-2. SCC function should be enabled when 08-3820 is set to 1
-3. Installation report should be printed when enabled for the first time</t>
+          <t>SCC function is enabled and MFP registers with server</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
       <c r="H6" s="59" t="inlineStr">
         <is>
-          <t>Default value should be "Disable"</t>
+          <t>Verify basic functionality</t>
         </is>
       </c>
       <c r="I6" s="53" t="n"/>
@@ -10290,34 +10286,26 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function disabled</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report printing</t>
+          <t>Verify default state</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3820 from 0 to 1
-2. Reboot MFP
-3. Wait for MFP registration processing to complete</t>
+          <t>1. Check the default value of 08-3820</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>1. Installation report should be printed automatically after registration
-2. Report should include: SCC Module Version, Device Serial Number, Device Model, Registration Status, Registration Date/Time, and Server URL
-3. Report should be in English only</t>
+          <t>Default value should be 0 (Disable)</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
-      <c r="H7" s="59" t="inlineStr">
-        <is>
-          <t>Report should be printed only once when SCC is first enabled</t>
-        </is>
-      </c>
+      <c r="H7" s="59" t="inlineStr"/>
       <c r="I7" s="53" t="n"/>
     </row>
     <row r="8" ht="99.75" customHeight="1">
@@ -10328,28 +10316,32 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC report printing in job log</t>
+          <t>Installation report printing</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Check job log after installation report is printed</t>
+          <t>1. Enable SCC function (08-3820 set to 1)
+2. Reboot MFP
+3. Wait for MFP registration to complete</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>1. SCC report printing should be recorded in Job Log as network print
-2. User counter for built-in Admin should be incremented</t>
+          <t>Installation report is automatically printed with correct information</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
-      <c r="H8" s="59" t="inlineStr"/>
+      <c r="H8" s="59" t="inlineStr">
+        <is>
+          <t>Verify report contains all required fields</t>
+        </is>
+      </c>
       <c r="I8" s="53" t="n"/>
     </row>
     <row r="9" ht="99.75" customHeight="1">
@@ -10360,28 +10352,32 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled, network print restriction mode enabled</t>
+          <t>SCC function previously enabled</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC report printing with network print restrictions</t>
+          <t>Verify one-time report printing</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-9344 to 1 (only private)
-2. Enable SCC
-3. Check if report is printed</t>
+          <t>1. Disable SCC function
+2. Re-enable SCC function
+3. Reboot MFP</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>SCC report should not be printed, and job log should show error code 4221</t>
+          <t>Installation report should not print again</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
-      <c r="H9" s="59" t="inlineStr"/>
+      <c r="H9" s="59" t="inlineStr">
+        <is>
+          <t>Report should only print once</t>
+        </is>
+      </c>
       <c r="I9" s="53" t="n"/>
     </row>
     <row r="10" ht="99.75" customHeight="1">
@@ -10392,29 +10388,32 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled, user authentication enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC report printing with quota restrictions</t>
+          <t>Report printing with network restrictions</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Enable user authentication
-2. Set quota for built-in admin to zero
-3. Enable SCC
-4. Check if report is printed</t>
+          <t>1. Set 08-9344 (network print restriction) to 1 (only private)
+2. Enable SCC function
+3. Reboot MFP</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>SCC report should not be printed due to quota error</t>
+          <t>SCC report is not printed, job log shows error code 4221</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
-      <c r="H10" s="59" t="inlineStr"/>
+      <c r="H10" s="59" t="inlineStr">
+        <is>
+          <t>Verify error handling</t>
+        </is>
+      </c>
       <c r="I10" s="53" t="n"/>
     </row>
     <row r="11" ht="99.75" customHeight="1">
@@ -10425,30 +10424,33 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify HTTPS communication protocol</t>
+          <t>Report printing with quota restrictions</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Monitor network traffic during SCC communication
-3. Check port number used</t>
+          <t>1. Enable user authentication
+2. Set quota for built-in admin to minimum
+3. Enable SCC function
+4. Reboot MFP</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should use HTTPS for communication with servers
-2. Communication should always start from MFP side
-3. Default port should be 443</t>
+          <t>SCC report is not printed due to quota error</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
-      <c r="H11" s="59" t="inlineStr"/>
+      <c r="H11" s="59" t="inlineStr">
+        <is>
+          <t>Verify error handling</t>
+        </is>
+      </c>
       <c r="I11" s="53" t="n"/>
     </row>
     <row r="12" ht="99.75" customHeight="1">
@@ -10459,28 +10461,33 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify port fallback mechanism</t>
+          <t>Proxy server configuration</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Block port 443 on firewall
-2. Enable SCC
-3. Monitor network traffic</t>
+          <t>1. Enter Self-diagnostic boot-up mode
+2. Configure 08-3822 to 08-3826 (Proxy settings)
+3. Reboot MFP
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>MFP should automatically use port 8443 when port 443 is not available</t>
+          <t>MFP should communicate with server through proxy</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
-      <c r="H12" s="59" t="inlineStr"/>
+      <c r="H12" s="59" t="inlineStr">
+        <is>
+          <t>Verify proxy functionality</t>
+        </is>
+      </c>
       <c r="I12" s="53" t="n"/>
     </row>
     <row r="13" ht="99.75" customHeight="1">
@@ -10491,29 +10498,32 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify proxy server settings</t>
+          <t>Communication protocol verification</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy server in network
-2. Set 08-3822 to 08-3826 with proxy server details
-3. Enable SCC
-4. Monitor communication</t>
+          <t>1. Enable SCC
+2. Use network analyzer to capture traffic
+3. Wait for communication cycle</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully communicate with SCC server through the proxy</t>
+          <t>Traffic should use HTTPS protocol</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
-      <c r="H13" s="59" t="inlineStr"/>
+      <c r="H13" s="59" t="inlineStr">
+        <is>
+          <t>Security verification</t>
+        </is>
+      </c>
       <c r="I13" s="53" t="n"/>
     </row>
     <row r="14" ht="99.75" customHeight="1">
@@ -10524,29 +10534,32 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify proxy authentication</t>
+          <t>Port fallback test</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy server requiring authentication
-2. Set proxy server details including account ID and password
-3. Enable SCC
-4. Monitor communication</t>
+          <t>1. Block port 443 at firewall
+2. Enable SCC
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully authenticate with proxy server and communicate with SCC server</t>
+          <t>MFP should automatically use port 8443</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
-      <c r="H14" s="59" t="inlineStr"/>
+      <c r="H14" s="59" t="inlineStr">
+        <is>
+          <t>Verify fallback mechanism</t>
+        </is>
+      </c>
       <c r="I14" s="53" t="n"/>
     </row>
     <row r="15" ht="99.75" customHeight="1">
@@ -10557,27 +10570,31 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC behavior in special startup mode</t>
+          <t>Regular communication schedule</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Boot MFP in special startup mode
-2. Check if SCC process starts</t>
+          <t>1. Set regular communication schedule to specific time
+2. Monitor communication</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>SCC process should not start in special startup mode</t>
+          <t>MFP should communicate with server at scheduled time</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
-      <c r="H15" s="59" t="inlineStr"/>
+      <c r="H15" s="59" t="inlineStr">
+        <is>
+          <t>Verify scheduling</t>
+        </is>
+      </c>
       <c r="I15" s="53" t="n"/>
     </row>
     <row r="16" ht="99.75" customHeight="1">
@@ -10588,30 +10605,29 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication loop timing</t>
+          <t>Register device - first time</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Monitor communication at SCC process startup
-3. Monitor communication at scheduled time</t>
+          <t>1. Enable SCC on unregistered MFP
+2. Monitor communication</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate with server at both SCC process startup and at scheduled time</t>
+          <t>MFP should register with server and receive token</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
       <c r="H16" s="59" t="inlineStr">
         <is>
-          <t>Default schedule is "every day at 0:00"</t>
+          <t>Verify registration process</t>
         </is>
       </c>
       <c r="I16" s="53" t="n"/>
@@ -10624,27 +10640,31 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled, MFP registered</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify communication sequence</t>
+          <t>Register device - authentication</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Monitor complete communication cycle</t>
+          <t>1. Wait for next communication cycle
+2. Monitor communication</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>Communication should follow sequence: Register Device → Check for Updates → Download Package → Send Baseline Data → Install Package → Update Status → Send Regular Data</t>
+          <t>MFP should authenticate using token</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
-      <c r="H17" s="59" t="inlineStr"/>
+      <c r="H17" s="59" t="inlineStr">
+        <is>
+          <t>Verify authentication</t>
+        </is>
+      </c>
       <c r="I17" s="53" t="n"/>
     </row>
     <row r="18" ht="99.75" customHeight="1">
@@ -10655,30 +10675,31 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled, first time registration</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify first-time MFP registration</t>
+          <t>Server busy response</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC for first time
-2. Monitor registration process</t>
+          <t>1. Simulate server BUSY response
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should send serial number to server
-2. Server should send secret question
-3. MFP should answer correctly
-4. Registration should complete successfully</t>
+          <t>MFP should retry after waiting period specified by server</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
-      <c r="H18" s="59" t="inlineStr"/>
+      <c r="H18" s="59" t="inlineStr">
+        <is>
+          <t>Verify retry mechanism</t>
+        </is>
+      </c>
       <c r="I18" s="53" t="n"/>
     </row>
     <row r="19" ht="99.75" customHeight="1">
@@ -10689,28 +10710,31 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled, already registered</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify MFP authentication after registration</t>
+          <t>Registration failure</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Reboot MFP with SCC enabled
-2. Monitor authentication process</t>
+          <t>1. Simulate registration failure response
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should connect using token from previous registration
-2. Authentication should complete successfully</t>
+          <t>After 3 consecutive failures, MFP should exit communication cycle</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
-      <c r="H19" s="59" t="inlineStr"/>
+      <c r="H19" s="59" t="inlineStr">
+        <is>
+          <t>Verify error handling</t>
+        </is>
+      </c>
       <c r="I19" s="53" t="n"/>
     </row>
     <row r="20" ht="99.75" customHeight="1">
@@ -10721,29 +10745,31 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled, MFP registered</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify server BUSY handling</t>
+          <t>Check for updates</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate server BUSY response
-2. Monitor MFP behavior</t>
+          <t>1. Wait for communication cycle
+2. Monitor communication</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should disconnect and retry after waiting period
-2. MFP should retry up to 3 times
-3. If 4th reconnection request is received, MFP should exit cycle and wait for next schedule</t>
+          <t>MFP should check for updates from server</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
-      <c r="H20" s="59" t="inlineStr"/>
+      <c r="H20" s="59" t="inlineStr">
+        <is>
+          <t>Verify update check</t>
+        </is>
+      </c>
       <c r="I20" s="53" t="n"/>
     </row>
     <row r="21" ht="99.75" customHeight="1">
@@ -10754,29 +10780,32 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled, update available</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify registration failure handling</t>
+          <t>Download package</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate registration failure response
-2. Monitor MFP behavior</t>
+          <t>1. Configure server to send update package
+2. Wait for communication cycle
+3. Monitor download</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>1. After 3 consecutive failures, server should respond with STATUS_LOCK
-2. Installation Report should be printed
-3. MFP should exit communication cycle</t>
+          <t>MFP should download package and verify hash</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
-      <c r="H21" s="59" t="inlineStr"/>
+      <c r="H21" s="59" t="inlineStr">
+        <is>
+          <t>Verify package download</t>
+        </is>
+      </c>
       <c r="I21" s="53" t="n"/>
     </row>
     <row r="22" ht="99.75" customHeight="1">
@@ -10787,29 +10816,32 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled, package downloaded</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify Check for Updates functionality</t>
+          <t>Send baseline data</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Monitor Check for Updates process</t>
+          <t>1. Configure SendDataConfig parameters
+2. Wait for communication cycle
+3. Monitor data transmission</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should send device information to server
-2. Server should respond with update status
-3. If update available, response should include Package ID</t>
+          <t>MFP should send baseline data according to configuration</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
-      <c r="H22" s="59" t="inlineStr"/>
+      <c r="H22" s="59" t="inlineStr">
+        <is>
+          <t>Verify data transmission</t>
+        </is>
+      </c>
       <c r="I22" s="53" t="n"/>
     </row>
     <row r="23" ht="99.75" customHeight="1">
@@ -10820,30 +10852,32 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled, baseline data sent</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify Download Package functionality</t>
+          <t>Install package - firmware</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Trigger update from server
-3. Monitor download process</t>
+          <t>1. Configure server to send firmware update
+2. Wait for communication cycle
+3. Monitor installation</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should download package using Package ID
-2. MFP should calculate MD5 hash and compare with server value
-3. Package should be unzipped successfully</t>
+          <t>MFP should install firmware at scheduled time</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
-      <c r="H23" s="59" t="inlineStr"/>
+      <c r="H23" s="59" t="inlineStr">
+        <is>
+          <t>Verify firmware update</t>
+        </is>
+      </c>
       <c r="I23" s="53" t="n"/>
     </row>
     <row r="24" ht="99.75" customHeight="1">
@@ -10854,29 +10888,31 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled, package installed</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Baseline Data functionality</t>
+          <t>Update status</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Monitor Send Baseline Data process</t>
+          <t>1. Wait for package installation
+2. Monitor status update</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should collect data based on SendDataConfig setting
-2. Data should be zipped and sent to server
-3. Server should acknowledge receipt</t>
+          <t>MFP should send correct status to server</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
-      <c r="H24" s="59" t="inlineStr"/>
+      <c r="H24" s="59" t="inlineStr">
+        <is>
+          <t>Verify status reporting</t>
+        </is>
+      </c>
       <c r="I24" s="53" t="n"/>
     </row>
     <row r="25" ht="99.75" customHeight="1">
@@ -10887,30 +10923,31 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled, status updated</t>
         </is>
       </c>
       <c r="D25" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package functionality (non-firmware)</t>
+          <t>Send regular data</t>
         </is>
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Trigger non-firmware update from server
-3. Monitor installation process</t>
+          <t>1. Wait for communication cycle
+2. Monitor data transmission</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should install package successfully
-2. MFP should not reboot after installation
-3. MFP should proceed to Update Status</t>
+          <t>MFP should send regular data according to configuration</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
-      <c r="H25" s="59" t="inlineStr"/>
+      <c r="H25" s="59" t="inlineStr">
+        <is>
+          <t>Verify regular data transmission</t>
+        </is>
+      </c>
       <c r="I25" s="53" t="n"/>
     </row>
     <row r="26" ht="99.75" customHeight="1">
@@ -10921,30 +10958,31 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D26" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package functionality (firmware)</t>
+          <t>Device error notification</t>
         </is>
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Trigger firmware update from server
-3. Monitor installation process</t>
+          <t>1. Generate device error
+2. Monitor error notification</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should schedule firmware update
-2. Firmware should be installed at scheduled time
-3. MFP should reboot after installation</t>
+          <t>MFP should send error to server</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
-      <c r="H26" s="59" t="inlineStr"/>
+      <c r="H26" s="59" t="inlineStr">
+        <is>
+          <t>Verify error notification</t>
+        </is>
+      </c>
       <c r="I26" s="53" t="n"/>
     </row>
     <row r="27" ht="99.75" customHeight="1">
@@ -10955,30 +10993,32 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled, error occurred</t>
         </is>
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Verify Update Status functionality</t>
+          <t>Service file transmission</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Trigger update from server
-3. Monitor Update Status process</t>
+          <t>1. Configure server to request service files
+2. Generate device error
+3. Monitor file transmission</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should notify installation status to server
-2. Status should transition correctly (SCHEDULED → DOWNLOADING → DOWNLOADED → INSTALLING → INSTALLED)
-3. MFP should reboot after receiving response (except for SPECIAL_INSTRUCTION)</t>
+          <t>MFP should send service files to server</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
-      <c r="H27" s="59" t="inlineStr"/>
+      <c r="H27" s="59" t="inlineStr">
+        <is>
+          <t>Verify service file transmission</t>
+        </is>
+      </c>
       <c r="I27" s="53" t="n"/>
     </row>
     <row r="28" ht="99.75" customHeight="1">
@@ -10989,29 +11029,32 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Regular Data functionality</t>
+          <t>Super sleep interaction</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Monitor Send Regular Data process</t>
+          <t>1. Put MFP in super sleep
+2. Wait for communication schedule
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should collect data based on SendDataConfig setting
-2. Data should be zipped and sent to server
-3. Server should acknowledge receipt</t>
+          <t>MFP should wake up, communicate, then return to super sleep</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
-      <c r="H28" s="59" t="inlineStr"/>
+      <c r="H28" s="59" t="inlineStr">
+        <is>
+          <t>Verify power management</t>
+        </is>
+      </c>
       <c r="I28" s="53" t="n"/>
     </row>
     <row r="29" ht="99.75" customHeight="1">
@@ -11022,30 +11065,32 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Verify Event Notification Loop</t>
+          <t>Hibernation interaction</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Trigger device error
-3. Monitor event notification</t>
+          <t>1. Put MFP in hibernation
+2. Wait for communication schedule
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should detect error
-2. MFP should notify server via Send Device Error
-3. Server should acknowledge receipt</t>
+          <t>MFP should not enter hibernation during communication cycle</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
-      <c r="H29" s="59" t="inlineStr"/>
+      <c r="H29" s="59" t="inlineStr">
+        <is>
+          <t>Verify power management</t>
+        </is>
+      </c>
       <c r="I29" s="53" t="n"/>
     </row>
     <row r="30" ht="99.75" customHeight="1">
@@ -11056,31 +11101,32 @@
       </c>
       <c r="C30" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D30" s="70" t="inlineStr">
         <is>
-          <t>Verify error removal notification</t>
+          <t>Persistent policy</t>
         </is>
       </c>
       <c r="E30" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Trigger device error
-3. Resolve error without power off
-4. Monitor event notification</t>
+          <t>1. Configure persistent policy from server
+2. Change settings locally
+3. Wait for policy check</t>
         </is>
       </c>
       <c r="F30" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should detect error removal
-2. MFP should notify server with "-" prefix (e.g., -D102)
-3. Server should acknowledge receipt</t>
+          <t>Settings should revert to policy values</t>
         </is>
       </c>
       <c r="G30" s="58" t="inlineStr"/>
-      <c r="H30" s="59" t="inlineStr"/>
+      <c r="H30" s="59" t="inlineStr">
+        <is>
+          <t>Verify policy enforcement</t>
+        </is>
+      </c>
       <c r="I30" s="53" t="n"/>
     </row>
     <row r="31" ht="99.75" customHeight="1">
@@ -11091,28 +11137,31 @@
       </c>
       <c r="C31" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D31" s="70" t="inlineStr">
         <is>
-          <t>Verify duplicate error handling</t>
+          <t>Time-based settings</t>
         </is>
       </c>
       <c r="E31" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Trigger same device error multiple times
-3. Monitor event notifications</t>
+          <t>1. Configure time-based settings from server
+2. Monitor setting changes at specified times</t>
         </is>
       </c>
       <c r="F31" s="62" t="inlineStr">
         <is>
-          <t>MFP should not send the same error to server unless it is removed first</t>
+          <t>Settings should change at configured times</t>
         </is>
       </c>
       <c r="G31" s="58" t="inlineStr"/>
-      <c r="H31" s="59" t="inlineStr"/>
+      <c r="H31" s="59" t="inlineStr">
+        <is>
+          <t>Verify time-based settings</t>
+        </is>
+      </c>
       <c r="I31" s="53" t="n"/>
     </row>
     <row r="32" ht="99.75" customHeight="1">
@@ -11123,31 +11172,32 @@
       </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D32" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Service File functionality</t>
+          <t>IP redirect</t>
         </is>
       </c>
       <c r="E32" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Trigger device error
-3. Server responds with RequestServiceFiles=true
-4. Monitor file transfer</t>
+          <t>1. Configure MFP in different region
+2. Enable SCC
+3. Monitor initial communication</t>
         </is>
       </c>
       <c r="F32" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should collect service files (9S+300, FUNCTION LIST, NIC CONFIGURATION LIST)
-2. Files should be zipped and sent to server
-3. Server should acknowledge receipt</t>
+          <t>MFP should be redirected to appropriate regional server</t>
         </is>
       </c>
       <c r="G32" s="58" t="inlineStr"/>
-      <c r="H32" s="59" t="inlineStr"/>
+      <c r="H32" s="59" t="inlineStr">
+        <is>
+          <t>Verify region detection</t>
+        </is>
+      </c>
       <c r="I32" s="53" t="n"/>
     </row>
     <row r="33" ht="99.75" customHeight="1">
@@ -11158,30 +11208,29 @@
       </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D33" s="70" t="inlineStr">
         <is>
-          <t>Verify Super Sleep interaction</t>
+          <t>Communication retry</t>
         </is>
       </c>
       <c r="E33" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Start SCC communication
-3. Try to enter Super Sleep</t>
+          <t>1. Interrupt network during communication
+2. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F33" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter Power Save, Sleep, or Super Sleep during communication cycle</t>
+          <t>MFP should retry after 60 seconds, then enter retry mode</t>
         </is>
       </c>
       <c r="G33" s="58" t="inlineStr"/>
       <c r="H33" s="59" t="inlineStr">
         <is>
-          <t>Exception: during scheduled firmware update state</t>
+          <t>Verify error recovery</t>
         </is>
       </c>
       <c r="I33" s="53" t="n"/>
@@ -11194,30 +11243,31 @@
       </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>MFP in Super Sleep with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D34" s="70" t="inlineStr">
         <is>
-          <t>Verify Super Sleep recovery for scheduled communication</t>
+          <t>HTTP error handling</t>
         </is>
       </c>
       <c r="E34" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in Super Sleep
-2. Wait for scheduled communication time
-3. Monitor MFP behavior</t>
+          <t>1. Simulate HTTP error from server
+2. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F34" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should wake up from Super Sleep
-2. MFP should communicate with server
-3. MFP should return to Super Sleep after communication</t>
+          <t>MFP should retry after 60 seconds, then enter retry mode</t>
         </is>
       </c>
       <c r="G34" s="58" t="inlineStr"/>
-      <c r="H34" s="59" t="inlineStr"/>
+      <c r="H34" s="59" t="inlineStr">
+        <is>
+          <t>Verify error recovery</t>
+        </is>
+      </c>
       <c r="I34" s="53" t="n"/>
     </row>
     <row r="35" ht="99.75" customHeight="1">
@@ -11228,30 +11278,29 @@
       </c>
       <c r="C35" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled, in retry mode</t>
         </is>
       </c>
       <c r="D35" s="70" t="inlineStr">
         <is>
-          <t>Verify Hibernation interaction</t>
+          <t>Daily retry</t>
         </is>
       </c>
       <c r="E35" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Start SCC communication
-3. Try to enter Hibernation</t>
+          <t>1. Put MFP in retry mode
+2. Monitor communication attempts</t>
         </is>
       </c>
       <c r="F35" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter Hibernation during communication cycle</t>
+          <t>MFP should attempt communication once every 24 hours</t>
         </is>
       </c>
       <c r="G35" s="58" t="inlineStr"/>
       <c r="H35" s="59" t="inlineStr">
         <is>
-          <t>Exception: during scheduled firmware update state</t>
+          <t>Verify retry schedule</t>
         </is>
       </c>
       <c r="I35" s="53" t="n"/>
@@ -11264,29 +11313,31 @@
       </c>
       <c r="C36" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D36" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy functionality</t>
+          <t>Exclusive control</t>
         </is>
       </c>
       <c r="E36" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Server sets policy for 08/05/13 settings
-3. Change settings locally via Top Access
-4. Wait for persistent policy check interval</t>
+          <t>1. Start SCC communication
+2. Attempt to use service UI</t>
         </is>
       </c>
       <c r="F36" s="62" t="inlineStr">
         <is>
-          <t>MFP should revert changes to maintain policy settings from cloud</t>
+          <t>Service UI should be unavailable during communication</t>
         </is>
       </c>
       <c r="G36" s="58" t="inlineStr"/>
-      <c r="H36" s="59" t="inlineStr"/>
+      <c r="H36" s="59" t="inlineStr">
+        <is>
+          <t>Verify exclusive control</t>
+        </is>
+      </c>
       <c r="I36" s="53" t="n"/>
     </row>
     <row r="37" ht="99.75" customHeight="1">
@@ -11297,29 +11348,31 @@
       </c>
       <c r="C37" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D37" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy expiration</t>
+          <t>Special startup mode</t>
         </is>
       </c>
       <c r="E37" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Server sets policy with PersistentExpiration = 7 days
-3. Wait for expiration period
-4. Change settings locally</t>
+          <t>1. Boot MFP in special startup mode
+2. Check SCC process</t>
         </is>
       </c>
       <c r="F37" s="62" t="inlineStr">
         <is>
-          <t>After expiration period, local changes should not be reverted</t>
+          <t>SCC process should not start in special startup mode</t>
         </is>
       </c>
       <c r="G37" s="58" t="inlineStr"/>
-      <c r="H37" s="59" t="inlineStr"/>
+      <c r="H37" s="59" t="inlineStr">
+        <is>
+          <t>Verify startup conditions</t>
+        </is>
+      </c>
       <c r="I37" s="53" t="n"/>
     </row>
     <row r="38" ht="99.75" customHeight="1">
@@ -11330,28 +11383,32 @@
       </c>
       <c r="C38" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D38" s="70" t="inlineStr">
         <is>
-          <t>Verify Time-based Device State Data Values</t>
+          <t>URL setting</t>
         </is>
       </c>
       <c r="E38" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Server sets time-based values for energy save timer
-3. Monitor setting changes at specified times</t>
+          <t>1. Configure custom URL in 08-3827
+2. Reboot MFP
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F38" s="62" t="inlineStr">
         <is>
-          <t>MFP should change energy save timer settings based on time of day</t>
+          <t>MFP should connect to specified URL</t>
         </is>
       </c>
       <c r="G38" s="58" t="inlineStr"/>
-      <c r="H38" s="59" t="inlineStr"/>
+      <c r="H38" s="59" t="inlineStr">
+        <is>
+          <t>Verify URL configuration</t>
+        </is>
+      </c>
       <c r="I38" s="53" t="n"/>
     </row>
     <row r="39" ht="99.75" customHeight="1">
@@ -11362,30 +11419,32 @@
       </c>
       <c r="C39" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D39" s="70" t="inlineStr">
         <is>
-          <t>Verify IP Redirect functionality</t>
+          <t>URL forward setting</t>
         </is>
       </c>
       <c r="E39" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC for first time
-2. Monitor GetRedirectURL request
-3. Check if MFP redirects to appropriate regional server</t>
+          <t>1. Set 08-3828 to 0 (Disable)
+2. Configure server to return redirect URL
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should send GetRedirectURL request to NA server
-2. MFP should receive appropriate regional URL
-3. MFP should redirect to that URL for registration</t>
+          <t>MFP should not follow redirect URL</t>
         </is>
       </c>
       <c r="G39" s="58" t="inlineStr"/>
-      <c r="H39" s="59" t="inlineStr"/>
+      <c r="H39" s="59" t="inlineStr">
+        <is>
+          <t>Verify URL forward control</t>
+        </is>
+      </c>
       <c r="I39" s="53" t="n"/>
     </row>
     <row r="40" ht="99.75" customHeight="1">
@@ -11396,29 +11455,31 @@
       </c>
       <c r="C40" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D40" s="70" t="inlineStr">
         <is>
-          <t>Verify retry processing for connection errors</t>
+          <t>Panel message display</t>
         </is>
       </c>
       <c r="E40" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Simulate connection error
-3. Monitor retry behavior</t>
+          <t>1. Trigger SCC communication
+2. Observe panel display</t>
         </is>
       </c>
       <c r="F40" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should retry in 60 seconds
-2. If first retry fails, MFP should enter Retry Mode</t>
+          <t>Panel should display appropriate status message</t>
         </is>
       </c>
       <c r="G40" s="58" t="inlineStr"/>
-      <c r="H40" s="59" t="inlineStr"/>
+      <c r="H40" s="59" t="inlineStr">
+        <is>
+          <t>Verify user interface</t>
+        </is>
+      </c>
       <c r="I40" s="53" t="n"/>
     </row>
     <row r="41" ht="99.75" customHeight="1">
@@ -11429,29 +11490,31 @@
       </c>
       <c r="C41" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D41" s="70" t="inlineStr">
         <is>
-          <t>Verify retry processing for HTTP errors</t>
+          <t>Popup window display</t>
         </is>
       </c>
       <c r="E41" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Simulate HTTP error
-3. Monitor retry behavior</t>
+          <t>1. Trigger firmware update
+2. Observe panel display</t>
         </is>
       </c>
       <c r="F41" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should retry in 60 seconds
-2. If second retry fails, MFP should enter Retry Mode</t>
+          <t>Popup with sand clock and progress bar should appear</t>
         </is>
       </c>
       <c r="G41" s="58" t="inlineStr"/>
-      <c r="H41" s="59" t="inlineStr"/>
+      <c r="H41" s="59" t="inlineStr">
+        <is>
+          <t>Verify user interface</t>
+        </is>
+      </c>
       <c r="I41" s="53" t="n"/>
     </row>
     <row r="42" ht="99.75" customHeight="1">
@@ -11462,30 +11525,32 @@
       </c>
       <c r="C42" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D42" s="70" t="inlineStr">
         <is>
-          <t>Verify Retry Mode behavior</t>
+          <t>HDD full condition</t>
         </is>
       </c>
       <c r="E42" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Force MFP into Retry Mode
-3. Monitor communication attempts</t>
+          <t>1. Fill HDD to capacity
+2. Trigger package download
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F42" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should try to communicate once every 24 hours
-2. Communication should start from Register Device
-3. Retry Mode should continue until successful communication</t>
+          <t>MFP should handle HDD full condition gracefully</t>
         </is>
       </c>
       <c r="G42" s="58" t="inlineStr"/>
-      <c r="H42" s="59" t="inlineStr"/>
+      <c r="H42" s="59" t="inlineStr">
+        <is>
+          <t>Verify error handling</t>
+        </is>
+      </c>
       <c r="I42" s="53" t="n"/>
     </row>
     <row r="43" ht="99.75" customHeight="1">
@@ -11496,28 +11561,31 @@
       </c>
       <c r="C43" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled in Retry Mode</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D43" s="70" t="inlineStr">
         <is>
-          <t>Verify power failure during Retry Mode</t>
+          <t>Hash value mismatch</t>
         </is>
       </c>
       <c r="E43" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in Retry Mode
-2. Power off and on
-3. Monitor communication behavior</t>
+          <t>1. Simulate hash value mismatch in downloaded package
+2. Monitor behavior</t>
         </is>
       </c>
       <c r="F43" s="62" t="inlineStr">
         <is>
-          <t>After power on, Retry Mode should be cancelled and normal communication cycle should start</t>
+          <t>MFP should delete downloaded data and exit communication cycle</t>
         </is>
       </c>
       <c r="G43" s="58" t="inlineStr"/>
-      <c r="H43" s="59" t="inlineStr"/>
+      <c r="H43" s="59" t="inlineStr">
+        <is>
+          <t>Verify data integrity</t>
+        </is>
+      </c>
       <c r="I43" s="53" t="n"/>
     </row>
     <row r="44" ht="99.75" customHeight="1">
@@ -11528,28 +11596,31 @@
       </c>
       <c r="C44" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D44" s="70" t="inlineStr">
         <is>
-          <t>Verify message log recording</t>
+          <t>Unzip failure</t>
         </is>
       </c>
       <c r="E44" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Trigger various SCC events and errors
-3. Check message logs</t>
+          <t>1. Simulate unzip failure of package
+2. Monitor behavior</t>
         </is>
       </c>
       <c r="F44" s="62" t="inlineStr">
         <is>
-          <t>Message logs should be recorded for SCC events and errors with appropriate error codes</t>
+          <t>MFP should delete unzipped data and exit communication cycle</t>
         </is>
       </c>
       <c r="G44" s="58" t="inlineStr"/>
-      <c r="H44" s="59" t="inlineStr"/>
+      <c r="H44" s="59" t="inlineStr">
+        <is>
+          <t>Verify error handling</t>
+        </is>
+      </c>
       <c r="I44" s="53" t="n"/>
     </row>
     <row r="45" ht="99.75" customHeight="1">
@@ -11560,30 +11631,33 @@
       </c>
       <c r="C45" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D45" s="70" t="inlineStr">
         <is>
-          <t>Verify panel message display during SCC processing</t>
+          <t>Power failure during download</t>
         </is>
       </c>
       <c r="E45" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Initiate SCC communication
-3. Check panel display</t>
+          <t>1. Trigger package download
+2. Interrupt power during download
+3. Restore power
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F45" s="62" t="inlineStr">
         <is>
-          <t>1. Status window should display "Service in progress. Please do not turn off: XX"
-2. XX should correspond to current processing state
-3. Popup window should appear for certain states</t>
+          <t>MFP should delete incomplete download and restart communication</t>
         </is>
       </c>
       <c r="G45" s="58" t="inlineStr"/>
-      <c r="H45" s="59" t="inlineStr"/>
+      <c r="H45" s="59" t="inlineStr">
+        <is>
+          <t>Verify recovery</t>
+        </is>
+      </c>
       <c r="I45" s="53" t="n"/>
     </row>
     <row r="46" ht="99.75" customHeight="1">
@@ -11594,435 +11668,457 @@
       </c>
       <c r="C46" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D46" s="70" t="inlineStr">
         <is>
-          <t>Verify custom URL setting</t>
+          <t>IPv4 only connectivity</t>
         </is>
       </c>
       <c r="E46" s="61" t="inlineStr">
-        <is>
-          <t>1. Set 08-3827 to custom URL
-2. Enable SCC
-3. Monitor connection attempts</t>
-        </is>
-      </c>
-      <c r="F46" s="62" t="inlineStr">
-        <is>
-          <t>MFP should connect to specified custom URL instead of default server</t>
-        </is>
-      </c>
-      <c r="G46" s="58" t="inlineStr"/>
-      <c r="H46" s="59" t="inlineStr"/>
-      <c r="I46" s="53" t="n"/>
-    </row>
-    <row r="47" ht="99.75" customHeight="1">
-      <c r="B47" s="57" t="inlineStr">
-        <is>
-          <t>TC042</t>
-        </is>
-      </c>
-      <c r="C47" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D47" s="70" t="inlineStr">
-        <is>
-          <t>Verify URL forward setting</t>
-        </is>
-      </c>
-      <c r="E47" s="61" t="inlineStr">
-        <is>
-          <t>1. Set 08-3828 to 0 (Disable)
-2. Set 08-3827 to custom URL
-3. Enable SCC
-4. Server returns redirect URL
-5. Monitor connection behavior</t>
-        </is>
-      </c>
-      <c r="F47" s="62" t="inlineStr">
-        <is>
-          <t>MFP should not follow redirect URL when URL forward setting is disabled</t>
-        </is>
-      </c>
-      <c r="G47" s="58" t="inlineStr"/>
-      <c r="H47" s="59" t="inlineStr"/>
-      <c r="I47" s="53" t="n"/>
-    </row>
-    <row r="48" ht="99.75" customHeight="1">
-      <c r="B48" s="57" t="inlineStr">
-        <is>
-          <t>TC043</t>
-        </is>
-      </c>
-      <c r="C48" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D48" s="70" t="inlineStr">
-        <is>
-          <t>Verify firmware update scheduling</t>
-        </is>
-      </c>
-      <c r="E48" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Trigger firmware update from server
-3. Monitor scheduling behavior</t>
-        </is>
-      </c>
-      <c r="F48" s="62" t="inlineStr">
-        <is>
-          <t>1. Firmware update should be scheduled at specified time
-2. If scheduled time has passed during power off, update should be rescheduled for same time next day</t>
-        </is>
-      </c>
-      <c r="G48" s="58" t="inlineStr"/>
-      <c r="H48" s="59" t="inlineStr"/>
-      <c r="I48" s="53" t="n"/>
-    </row>
-    <row r="49" ht="99.75" customHeight="1">
-      <c r="B49" s="57" t="inlineStr">
-        <is>
-          <t>TC044</t>
-        </is>
-      </c>
-      <c r="C49" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D49" s="70" t="inlineStr">
-        <is>
-          <t>Verify firmware update failure handling</t>
-        </is>
-      </c>
-      <c r="E49" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Trigger firmware update from server
-3. Force update to fail
-4. Monitor retry behavior</t>
-        </is>
-      </c>
-      <c r="F49" s="62" t="inlineStr">
-        <is>
-          <t>1. MFP should notify update failure to server
-2. Regular communication should be scheduled after 1 hour
-3. Server should retry update up to 3 times before stopping</t>
-        </is>
-      </c>
-      <c r="G49" s="58" t="inlineStr"/>
-      <c r="H49" s="59" t="inlineStr"/>
-      <c r="I49" s="53" t="n"/>
-    </row>
-    <row r="50" ht="99.75" customHeight="1">
-      <c r="B50" s="57" t="inlineStr">
-        <is>
-          <t>TC045</t>
-        </is>
-      </c>
-      <c r="C50" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled (SSD model)</t>
-        </is>
-      </c>
-      <c r="D50" s="70" t="inlineStr">
-        <is>
-          <t>Verify firmware update on SSD model</t>
-        </is>
-      </c>
-      <c r="E50" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC on SSD model
-2. Trigger firmware update from server
-3. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F50" s="62" t="inlineStr">
-        <is>
-          <t>Firmware update should fail and be handled as update failure</t>
-        </is>
-      </c>
-      <c r="G50" s="58" t="inlineStr"/>
-      <c r="H50" s="59" t="inlineStr"/>
-      <c r="I50" s="53" t="n"/>
-    </row>
-    <row r="51" ht="99.75" customHeight="1">
-      <c r="B51" s="57" t="inlineStr">
-        <is>
-          <t>TC046</t>
-        </is>
-      </c>
-      <c r="C51" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D51" s="70" t="inlineStr">
-        <is>
-          <t>Verify multiple update instruction handling</t>
-        </is>
-      </c>
-      <c r="E51" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Server sends multiple update instructions
-3. Force one update to fail
-4. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F51" s="62" t="inlineStr">
-        <is>
-          <t>1. Update installation should continue for all instructions
-2. MFP should notify all update results to server
-3. Regular cycle should continue</t>
-        </is>
-      </c>
-      <c r="G51" s="58" t="inlineStr"/>
-      <c r="H51" s="59" t="inlineStr"/>
-      <c r="I51" s="53" t="n"/>
-    </row>
-    <row r="52" ht="99.75" customHeight="1">
-      <c r="B52" s="57" t="inlineStr">
-        <is>
-          <t>TC047</t>
-        </is>
-      </c>
-      <c r="C52" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D52" s="70" t="inlineStr">
-        <is>
-          <t>Verify hash value mismatch handling</t>
-        </is>
-      </c>
-      <c r="E52" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Trigger update from server
-3. Simulate hash value mismatch
-4. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F52" s="62" t="inlineStr">
-        <is>
-          <t>1. MFP should delete downloaded data
-2. MFP should exit communication cycle
-3. MFP should wait for next scheduled communication</t>
-        </is>
-      </c>
-      <c r="G52" s="58" t="inlineStr"/>
-      <c r="H52" s="59" t="inlineStr"/>
-      <c r="I52" s="53" t="n"/>
-    </row>
-    <row r="53" ht="99.75" customHeight="1">
-      <c r="B53" s="57" t="inlineStr">
-        <is>
-          <t>TC048</t>
-        </is>
-      </c>
-      <c r="C53" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D53" s="70" t="inlineStr">
-        <is>
-          <t>Verify unzip failure handling</t>
-        </is>
-      </c>
-      <c r="E53" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Trigger update from server
-3. Simulate unzip failure
-4. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F53" s="62" t="inlineStr">
-        <is>
-          <t>1. MFP should delete unzipped data
-2. MFP should exit communication cycle
-3. MFP should wait for next scheduled communication</t>
-        </is>
-      </c>
-      <c r="G53" s="58" t="inlineStr"/>
-      <c r="H53" s="59" t="inlineStr"/>
-      <c r="I53" s="53" t="n"/>
-    </row>
-    <row r="54" ht="99.75" customHeight="1">
-      <c r="B54" s="57" t="inlineStr">
-        <is>
-          <t>TC049</t>
-        </is>
-      </c>
-      <c r="C54" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D54" s="70" t="inlineStr">
-        <is>
-          <t>Verify HDD full handling during download</t>
-        </is>
-      </c>
-      <c r="E54" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Trigger large update from server
-3. Fill HDD to capacity
-4. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F54" s="62" t="inlineStr">
-        <is>
-          <t>1. MFP should delete downloaded data
-2. MFP should exit communication cycle
-3. MFP should wait for next scheduled communication</t>
-        </is>
-      </c>
-      <c r="G54" s="58" t="inlineStr"/>
-      <c r="H54" s="59" t="inlineStr"/>
-      <c r="I54" s="53" t="n"/>
-    </row>
-    <row r="55" ht="99.75" customHeight="1">
-      <c r="B55" s="57" t="inlineStr">
-        <is>
-          <t>TC050</t>
-        </is>
-      </c>
-      <c r="C55" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D55" s="70" t="inlineStr">
-        <is>
-          <t>Verify power failure during download</t>
-        </is>
-      </c>
-      <c r="E55" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Trigger update from server
-3. Power off during download
-4. Power on
-5. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F55" s="62" t="inlineStr">
-        <is>
-          <t>MFP should delete downloaded data before next communication</t>
-        </is>
-      </c>
-      <c r="G55" s="58" t="inlineStr"/>
-      <c r="H55" s="59" t="inlineStr"/>
-      <c r="I55" s="53" t="n"/>
-    </row>
-    <row r="56" ht="99.75" customHeight="1">
-      <c r="B56" s="57" t="inlineStr">
-        <is>
-          <t>TC051</t>
-        </is>
-      </c>
-      <c r="C56" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D56" s="70" t="inlineStr">
-        <is>
-          <t>Verify IPv4-only connectivity</t>
-        </is>
-      </c>
-      <c r="E56" s="61" t="inlineStr">
         <is>
           <t>1. Configure network for IPv4 only
 2. Enable SCC
 3. Monitor communication</t>
         </is>
       </c>
-      <c r="F56" s="62" t="inlineStr">
-        <is>
-          <t>1. MFP should successfully register and communicate with server over IPv4
-2. All SCC functions should work properly</t>
-        </is>
-      </c>
-      <c r="G56" s="58" t="inlineStr"/>
-      <c r="H56" s="59" t="inlineStr"/>
-      <c r="I56" s="53" t="n"/>
-    </row>
-    <row r="57" ht="99.75" customHeight="1">
-      <c r="B57" s="57" t="inlineStr">
-        <is>
-          <t>TC052</t>
-        </is>
-      </c>
-      <c r="C57" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D57" s="70" t="inlineStr">
-        <is>
-          <t>Verify IPv6-only connectivity</t>
-        </is>
-      </c>
-      <c r="E57" s="61" t="inlineStr">
+      <c r="F46" s="62" t="inlineStr">
+        <is>
+          <t>SCC should function properly over IPv4</t>
+        </is>
+      </c>
+      <c r="G46" s="58" t="inlineStr"/>
+      <c r="H46" s="59" t="inlineStr">
+        <is>
+          <t>IPv4 verification</t>
+        </is>
+      </c>
+      <c r="I46" s="53" t="n"/>
+    </row>
+    <row r="47" ht="99.75" customHeight="1">
+      <c r="B47" s="57" t="inlineStr">
+        <is>
+          <t>TC042</t>
+        </is>
+      </c>
+      <c r="C47" s="60" t="inlineStr">
+        <is>
+          <t>SCC function enabled</t>
+        </is>
+      </c>
+      <c r="D47" s="70" t="inlineStr">
+        <is>
+          <t>IPv6 only connectivity</t>
+        </is>
+      </c>
+      <c r="E47" s="61" t="inlineStr">
         <is>
           <t>1. Configure network for IPv6 only
 2. Enable SCC
 3. Monitor communication</t>
         </is>
       </c>
-      <c r="F57" s="62" t="inlineStr">
-        <is>
-          <t>1. MFP should successfully register and communicate with server over IPv6
-2. All SCC functions should work properly</t>
-        </is>
-      </c>
-      <c r="G57" s="58" t="inlineStr"/>
-      <c r="H57" s="59" t="inlineStr"/>
-      <c r="I57" s="53" t="n"/>
-    </row>
-    <row r="58" ht="99.75" customHeight="1">
-      <c r="B58" s="57" t="inlineStr">
-        <is>
-          <t>TC053</t>
-        </is>
-      </c>
-      <c r="C58" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D58" s="70" t="inlineStr">
-        <is>
-          <t>Verify dual-stack (IPv4+IPv6) connectivity</t>
-        </is>
-      </c>
-      <c r="E58" s="61" t="inlineStr">
+      <c r="F47" s="62" t="inlineStr">
+        <is>
+          <t>SCC should function properly over IPv6</t>
+        </is>
+      </c>
+      <c r="G47" s="58" t="inlineStr"/>
+      <c r="H47" s="59" t="inlineStr">
+        <is>
+          <t>IPv6 verification</t>
+        </is>
+      </c>
+      <c r="I47" s="53" t="n"/>
+    </row>
+    <row r="48" ht="99.75" customHeight="1">
+      <c r="B48" s="57" t="inlineStr">
+        <is>
+          <t>TC043</t>
+        </is>
+      </c>
+      <c r="C48" s="60" t="inlineStr">
+        <is>
+          <t>SCC function enabled</t>
+        </is>
+      </c>
+      <c r="D48" s="70" t="inlineStr">
+        <is>
+          <t>Dual-stack operation</t>
+        </is>
+      </c>
+      <c r="E48" s="61" t="inlineStr">
         <is>
           <t>1. Configure network for both IPv4 and IPv6
 2. Enable SCC
 3. Monitor communication</t>
         </is>
       </c>
+      <c r="F48" s="62" t="inlineStr">
+        <is>
+          <t>SCC should function properly using preferred protocol</t>
+        </is>
+      </c>
+      <c r="G48" s="58" t="inlineStr"/>
+      <c r="H48" s="59" t="inlineStr">
+        <is>
+          <t>Dual-stack verification</t>
+        </is>
+      </c>
+      <c r="I48" s="53" t="n"/>
+    </row>
+    <row r="49" ht="99.75" customHeight="1">
+      <c r="B49" s="57" t="inlineStr">
+        <is>
+          <t>TC044</t>
+        </is>
+      </c>
+      <c r="C49" s="60" t="inlineStr">
+        <is>
+          <t>SCC function enabled, dual-stack configured</t>
+        </is>
+      </c>
+      <c r="D49" s="70" t="inlineStr">
+        <is>
+          <t>IPv4 to IPv6 fallback</t>
+        </is>
+      </c>
+      <c r="E49" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure dual-stack with IPv4 preferred
+2. Disable IPv4 during communication
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F49" s="62" t="inlineStr">
+        <is>
+          <t>MFP should fall back to IPv6</t>
+        </is>
+      </c>
+      <c r="G49" s="58" t="inlineStr"/>
+      <c r="H49" s="59" t="inlineStr">
+        <is>
+          <t>Protocol fallback</t>
+        </is>
+      </c>
+      <c r="I49" s="53" t="n"/>
+    </row>
+    <row r="50" ht="99.75" customHeight="1">
+      <c r="B50" s="57" t="inlineStr">
+        <is>
+          <t>TC045</t>
+        </is>
+      </c>
+      <c r="C50" s="60" t="inlineStr">
+        <is>
+          <t>SCC function enabled, dual-stack configured</t>
+        </is>
+      </c>
+      <c r="D50" s="70" t="inlineStr">
+        <is>
+          <t>IPv6 to IPv4 fallback</t>
+        </is>
+      </c>
+      <c r="E50" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure dual-stack with IPv6 preferred
+2. Disable IPv6 during communication
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F50" s="62" t="inlineStr">
+        <is>
+          <t>MFP should fall back to IPv4</t>
+        </is>
+      </c>
+      <c r="G50" s="58" t="inlineStr"/>
+      <c r="H50" s="59" t="inlineStr">
+        <is>
+          <t>Protocol fallback</t>
+        </is>
+      </c>
+      <c r="I50" s="53" t="n"/>
+    </row>
+    <row r="51" ht="99.75" customHeight="1">
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t>TC046</t>
+        </is>
+      </c>
+      <c r="C51" s="60" t="inlineStr">
+        <is>
+          <t>SCC function enabled</t>
+        </is>
+      </c>
+      <c r="D51" s="70" t="inlineStr">
+        <is>
+          <t>Invalid IPv4 address</t>
+        </is>
+      </c>
+      <c r="E51" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure proxy with invalid IPv4 address (e.g., 0.0.0.0)
+2. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F51" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle invalid address properly</t>
+        </is>
+      </c>
+      <c r="G51" s="58" t="inlineStr"/>
+      <c r="H51" s="59" t="inlineStr">
+        <is>
+          <t>IPv4 edge case</t>
+        </is>
+      </c>
+      <c r="I51" s="53" t="n"/>
+    </row>
+    <row r="52" ht="99.75" customHeight="1">
+      <c r="B52" s="57" t="inlineStr">
+        <is>
+          <t>TC047</t>
+        </is>
+      </c>
+      <c r="C52" s="60" t="inlineStr">
+        <is>
+          <t>SCC function enabled</t>
+        </is>
+      </c>
+      <c r="D52" s="70" t="inlineStr">
+        <is>
+          <t>Invalid IPv6 address</t>
+        </is>
+      </c>
+      <c r="E52" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure proxy with invalid IPv6 address
+2. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F52" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle invalid address properly</t>
+        </is>
+      </c>
+      <c r="G52" s="58" t="inlineStr"/>
+      <c r="H52" s="59" t="inlineStr">
+        <is>
+          <t>IPv6 edge case</t>
+        </is>
+      </c>
+      <c r="I52" s="53" t="n"/>
+    </row>
+    <row r="53" ht="99.75" customHeight="1">
+      <c r="B53" s="57" t="inlineStr">
+        <is>
+          <t>TC048</t>
+        </is>
+      </c>
+      <c r="C53" s="60" t="inlineStr">
+        <is>
+          <t>SCC function enabled</t>
+        </is>
+      </c>
+      <c r="D53" s="70" t="inlineStr">
+        <is>
+          <t>IPv4 broadcast address</t>
+        </is>
+      </c>
+      <c r="E53" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure with IPv4 broadcast address (255.255.255.255)
+2. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F53" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle broadcast address properly</t>
+        </is>
+      </c>
+      <c r="G53" s="58" t="inlineStr"/>
+      <c r="H53" s="59" t="inlineStr">
+        <is>
+          <t>IPv4 edge case</t>
+        </is>
+      </c>
+      <c r="I53" s="53" t="n"/>
+    </row>
+    <row r="54" ht="99.75" customHeight="1">
+      <c r="B54" s="57" t="inlineStr">
+        <is>
+          <t>TC049</t>
+        </is>
+      </c>
+      <c r="C54" s="60" t="inlineStr">
+        <is>
+          <t>SCC function enabled</t>
+        </is>
+      </c>
+      <c r="D54" s="70" t="inlineStr">
+        <is>
+          <t>IPv6 loopback address</t>
+        </is>
+      </c>
+      <c r="E54" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure with IPv6 loopback address (::1)
+2. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F54" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle loopback address properly</t>
+        </is>
+      </c>
+      <c r="G54" s="58" t="inlineStr"/>
+      <c r="H54" s="59" t="inlineStr">
+        <is>
+          <t>IPv6 edge case</t>
+        </is>
+      </c>
+      <c r="I54" s="53" t="n"/>
+    </row>
+    <row r="55" ht="99.75" customHeight="1">
+      <c r="B55" s="57" t="inlineStr">
+        <is>
+          <t>TC050</t>
+        </is>
+      </c>
+      <c r="C55" s="60" t="inlineStr">
+        <is>
+          <t>SCC function enabled</t>
+        </is>
+      </c>
+      <c r="D55" s="70" t="inlineStr">
+        <is>
+          <t>IPv4 vs IPv6 performance</t>
+        </is>
+      </c>
+      <c r="E55" s="61" t="inlineStr">
+        <is>
+          <t>1. Measure communication time over IPv4
+2. Measure communication time over IPv6
+3. Compare results</t>
+        </is>
+      </c>
+      <c r="F55" s="62" t="inlineStr">
+        <is>
+          <t>Performance metrics should be documented</t>
+        </is>
+      </c>
+      <c r="G55" s="58" t="inlineStr"/>
+      <c r="H55" s="59" t="inlineStr">
+        <is>
+          <t>Performance comparison</t>
+        </is>
+      </c>
+      <c r="I55" s="53" t="n"/>
+    </row>
+    <row r="56" ht="99.75" customHeight="1">
+      <c r="B56" s="57" t="inlineStr">
+        <is>
+          <t>TC051</t>
+        </is>
+      </c>
+      <c r="C56" s="60" t="inlineStr">
+        <is>
+          <t>SCC function enabled</t>
+        </is>
+      </c>
+      <c r="D56" s="70" t="inlineStr">
+        <is>
+          <t>IPv4 security check</t>
+        </is>
+      </c>
+      <c r="E56" s="61" t="inlineStr">
+        <is>
+          <t>1. Perform security scan on IPv4 communication
+2. Check for vulnerabilities</t>
+        </is>
+      </c>
+      <c r="F56" s="62" t="inlineStr">
+        <is>
+          <t>No security vulnerabilities should be found</t>
+        </is>
+      </c>
+      <c r="G56" s="58" t="inlineStr"/>
+      <c r="H56" s="59" t="inlineStr">
+        <is>
+          <t>Security verification</t>
+        </is>
+      </c>
+      <c r="I56" s="53" t="n"/>
+    </row>
+    <row r="57" ht="99.75" customHeight="1">
+      <c r="B57" s="57" t="inlineStr">
+        <is>
+          <t>TC052</t>
+        </is>
+      </c>
+      <c r="C57" s="60" t="inlineStr">
+        <is>
+          <t>SCC function enabled</t>
+        </is>
+      </c>
+      <c r="D57" s="70" t="inlineStr">
+        <is>
+          <t>IPv6 security check</t>
+        </is>
+      </c>
+      <c r="E57" s="61" t="inlineStr">
+        <is>
+          <t>1. Perform security scan on IPv6 communication
+2. Check for vulnerabilities</t>
+        </is>
+      </c>
+      <c r="F57" s="62" t="inlineStr">
+        <is>
+          <t>No security vulnerabilities should be found</t>
+        </is>
+      </c>
+      <c r="G57" s="58" t="inlineStr"/>
+      <c r="H57" s="59" t="inlineStr">
+        <is>
+          <t>Security verification</t>
+        </is>
+      </c>
+      <c r="I57" s="53" t="n"/>
+    </row>
+    <row r="58" ht="99.75" customHeight="1">
+      <c r="B58" s="57" t="inlineStr">
+        <is>
+          <t>TC053</t>
+        </is>
+      </c>
+      <c r="C58" s="60" t="inlineStr">
+        <is>
+          <t>SCC function enabled</t>
+        </is>
+      </c>
+      <c r="D58" s="70" t="inlineStr">
+        <is>
+          <t>IPv4 packet fragmentation</t>
+        </is>
+      </c>
+      <c r="E58" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure network to force IPv4 packet fragmentation
+2. Monitor communication</t>
+        </is>
+      </c>
       <c r="F58" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should successfully register and communicate with server
-2. MFP should prefer IPv6 for communication when available</t>
+          <t>Communication should handle fragmentation properly</t>
         </is>
       </c>
       <c r="G58" s="58" t="inlineStr"/>
-      <c r="H58" s="59" t="inlineStr"/>
+      <c r="H58" s="59" t="inlineStr">
+        <is>
+          <t>IPv4 robustness</t>
+        </is>
+      </c>
       <c r="I58" s="53" t="n"/>
     </row>
     <row r="59" ht="99.75" customHeight="1">
@@ -12033,29 +12129,31 @@
       </c>
       <c r="C59" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D59" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 to IPv6 fallback</t>
+          <t>IPv6 jumbo packets</t>
         </is>
       </c>
       <c r="E59" s="61" t="inlineStr">
         <is>
-          <t>1. Configure dual-stack network
-2. Enable SCC
-3. Block IPv6 traffic during communication
-4. Monitor behavior</t>
+          <t>1. Configure network to use IPv6 jumbo packets
+2. Monitor communication</t>
         </is>
       </c>
       <c r="F59" s="62" t="inlineStr">
         <is>
-          <t>MFP should automatically fall back to IPv4 when IPv6 becomes unavailable</t>
+          <t>Communication should handle jumbo packets properly</t>
         </is>
       </c>
       <c r="G59" s="58" t="inlineStr"/>
-      <c r="H59" s="59" t="inlineStr"/>
+      <c r="H59" s="59" t="inlineStr">
+        <is>
+          <t>IPv6 robustness</t>
+        </is>
+      </c>
       <c r="I59" s="53" t="n"/>
     </row>
     <row r="60" ht="99.75" customHeight="1">
@@ -12066,29 +12164,31 @@
       </c>
       <c r="C60" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D60" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 to IPv4 fallback</t>
+          <t>SSL certificate validation</t>
         </is>
       </c>
       <c r="E60" s="61" t="inlineStr">
         <is>
-          <t>1. Configure dual-stack network
-2. Enable SCC
-3. Block IPv4 traffic during communication
-4. Monitor behavior</t>
+          <t>1. Present invalid SSL certificate
+2. Monitor communication</t>
         </is>
       </c>
       <c r="F60" s="62" t="inlineStr">
         <is>
-          <t>MFP should automatically fall back to IPv6 when IPv4 becomes unavailable</t>
+          <t>MFP should reject invalid certificate</t>
         </is>
       </c>
       <c r="G60" s="58" t="inlineStr"/>
-      <c r="H60" s="59" t="inlineStr"/>
+      <c r="H60" s="59" t="inlineStr">
+        <is>
+          <t>Security verification</t>
+        </is>
+      </c>
       <c r="I60" s="53" t="n"/>
     </row>
     <row r="61" ht="99.75" customHeight="1">
@@ -12099,28 +12199,32 @@
       </c>
       <c r="C61" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D61" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 edge case (0.0.0.0)</t>
+          <t>Custom CA certificate</t>
         </is>
       </c>
       <c r="E61" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv4 address 0.0.0.0
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Import custom CA certificate via TA
+2. Configure custom HTTPS server
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F61" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle invalid address appropriately and not crash</t>
+          <t>MFP should accept custom certificate</t>
         </is>
       </c>
       <c r="G61" s="58" t="inlineStr"/>
-      <c r="H61" s="59" t="inlineStr"/>
+      <c r="H61" s="59" t="inlineStr">
+        <is>
+          <t>Security verification</t>
+        </is>
+      </c>
       <c r="I61" s="53" t="n"/>
     </row>
     <row r="62" ht="99.75" customHeight="1">
@@ -12131,28 +12235,31 @@
       </c>
       <c r="C62" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D62" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 edge case (255.255.255.255)</t>
+          <t>Network latency test</t>
         </is>
       </c>
       <c r="E62" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv4 address 255.255.255.255
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Introduce network latency
+2. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F62" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle broadcast address appropriately and not crash</t>
+          <t>MFP should handle latency gracefully</t>
         </is>
       </c>
       <c r="G62" s="58" t="inlineStr"/>
-      <c r="H62" s="59" t="inlineStr"/>
+      <c r="H62" s="59" t="inlineStr">
+        <is>
+          <t>Performance verification</t>
+        </is>
+      </c>
       <c r="I62" s="53" t="n"/>
     </row>
     <row r="63" ht="99.75" customHeight="1">
@@ -12163,28 +12270,31 @@
       </c>
       <c r="C63" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D63" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 edge case (::)</t>
+          <t>Network packet loss test</t>
         </is>
       </c>
       <c r="E63" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv6 address ::
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Introduce packet loss
+2. Monitor communication behavior</t>
         </is>
       </c>
       <c r="F63" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle unspecified address appropriately and not crash</t>
+          <t>MFP should handle packet loss gracefully</t>
         </is>
       </c>
       <c r="G63" s="58" t="inlineStr"/>
-      <c r="H63" s="59" t="inlineStr"/>
+      <c r="H63" s="59" t="inlineStr">
+        <is>
+          <t>Robustness verification</t>
+        </is>
+      </c>
       <c r="I63" s="53" t="n"/>
     </row>
     <row r="64" ht="99.75" customHeight="1">
@@ -12195,28 +12305,31 @@
       </c>
       <c r="C64" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D64" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 edge case (::1)</t>
+          <t>Firmware update scheduling</t>
         </is>
       </c>
       <c r="E64" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv6 address ::1
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Configure firmware update with future schedule
+2. Monitor behavior at scheduled time</t>
         </is>
       </c>
       <c r="F64" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle loopback address appropriately and not crash</t>
+          <t>Firmware should update at scheduled time</t>
         </is>
       </c>
       <c r="G64" s="58" t="inlineStr"/>
-      <c r="H64" s="59" t="inlineStr"/>
+      <c r="H64" s="59" t="inlineStr">
+        <is>
+          <t>Scheduling verification</t>
+        </is>
+      </c>
       <c r="I64" s="53" t="n"/>
     </row>
     <row r="65" ht="99.75" customHeight="1">
@@ -12227,30 +12340,31 @@
       </c>
       <c r="C65" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D65" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 vs IPv6 performance</t>
+          <t>Multiple consecutive errors</t>
         </is>
       </c>
       <c r="E65" s="61" t="inlineStr">
         <is>
-          <t>1. Configure dual-stack network
-2. Enable SCC
-3. Measure communication time over IPv4
-4. Measure communication time over IPv6
-5. Compare results</t>
+          <t>1. Generate multiple device errors in quick succession
+2. Monitor error notifications</t>
         </is>
       </c>
       <c r="F65" s="62" t="inlineStr">
         <is>
-          <t>Performance metrics should be collected and compared between IPv4 and IPv6</t>
+          <t>All errors should be reported correctly</t>
         </is>
       </c>
       <c r="G65" s="58" t="inlineStr"/>
-      <c r="H65" s="59" t="inlineStr"/>
+      <c r="H65" s="59" t="inlineStr">
+        <is>
+          <t>Error handling verification</t>
+        </is>
+      </c>
       <c r="I65" s="53" t="n"/>
     </row>
     <row r="66" ht="99.75" customHeight="1">
@@ -12261,31 +12375,32 @@
       </c>
       <c r="C66" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D66" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 security</t>
+          <t>Error removal notification</t>
         </is>
       </c>
       <c r="E66" s="61" t="inlineStr">
         <is>
-          <t>1. Configure IPv4 network
-2. Enable SCC
-3. Attempt various security attacks (MITM, spoofing)
-4. Monitor behavior</t>
+          <t>1. Generate device error
+2. Clear error without power cycle
+3. Monitor notification</t>
         </is>
       </c>
       <c r="F66" s="62" t="inlineStr">
         <is>
-          <t>1. SSL certificate validation should prevent MITM attacks
-2. MFP should not accept invalid certificates
-3. Communication should remain secure</t>
+          <t>Error removal should be reported with "-" prefix</t>
         </is>
       </c>
       <c r="G66" s="58" t="inlineStr"/>
-      <c r="H66" s="59" t="inlineStr"/>
+      <c r="H66" s="59" t="inlineStr">
+        <is>
+          <t>Error handling verification</t>
+        </is>
+      </c>
       <c r="I66" s="53" t="n"/>
     </row>
     <row r="67" ht="99.75" customHeight="1">
@@ -12296,31 +12411,32 @@
       </c>
       <c r="C67" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D67" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 security</t>
+          <t>Cloning data application</t>
         </is>
       </c>
       <c r="E67" s="61" t="inlineStr">
         <is>
-          <t>1. Configure IPv6 network
-2. Enable SCC
-3. Attempt various security attacks (MITM, spoofing)
-4. Monitor behavior</t>
+          <t>1. Configure server to send cloning data
+2. Wait for communication cycle
+3. Verify settings after installation</t>
         </is>
       </c>
       <c r="F67" s="62" t="inlineStr">
         <is>
-          <t>1. SSL certificate validation should prevent MITM attacks
-2. MFP should not accept invalid certificates
-3. Communication should remain secure</t>
+          <t>Settings should match cloning data</t>
         </is>
       </c>
       <c r="G67" s="58" t="inlineStr"/>
-      <c r="H67" s="59" t="inlineStr"/>
+      <c r="H67" s="59" t="inlineStr">
+        <is>
+          <t>Cloning verification</t>
+        </is>
+      </c>
       <c r="I67" s="53" t="n"/>
     </row>
     <row r="68" ht="99.75" customHeight="1">
@@ -12331,28 +12447,31 @@
       </c>
       <c r="C68" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D68" s="70" t="inlineStr">
         <is>
-          <t>Verify malformed IPv4 address handling</t>
+          <t>SendDataConfig parameter test</t>
         </is>
       </c>
       <c r="E68" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with malformed IPv4 address
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Configure different combinations of SendDataConfig parameters
+2. Monitor data transmission</t>
         </is>
       </c>
       <c r="F68" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle malformed address appropriately and not crash</t>
+          <t>Only configured data types should be sent</t>
         </is>
       </c>
       <c r="G68" s="58" t="inlineStr"/>
-      <c r="H68" s="59" t="inlineStr"/>
+      <c r="H68" s="59" t="inlineStr">
+        <is>
+          <t>Configuration verification</t>
+        </is>
+      </c>
       <c r="I68" s="53" t="n"/>
     </row>
     <row r="69" ht="99.75" customHeight="1">
@@ -12363,28 +12482,31 @@
       </c>
       <c r="C69" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D69" s="70" t="inlineStr">
         <is>
-          <t>Verify malformed IPv6 address handling</t>
+          <t>Maximum package size</t>
         </is>
       </c>
       <c r="E69" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with malformed IPv6 address
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Configure server to send maximum size package
+2. Monitor download and installation</t>
         </is>
       </c>
       <c r="F69" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle malformed address appropriately and not crash</t>
+          <t>Package should download and install correctly</t>
         </is>
       </c>
       <c r="G69" s="58" t="inlineStr"/>
-      <c r="H69" s="59" t="inlineStr"/>
+      <c r="H69" s="59" t="inlineStr">
+        <is>
+          <t>Boundary verification</t>
+        </is>
+      </c>
       <c r="I69" s="53" t="n"/>
     </row>
     <row r="70" ht="99.75" customHeight="1">
@@ -12395,29 +12517,31 @@
       </c>
       <c r="C70" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D70" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 proxy authentication</t>
+          <t>Installation failure retry</t>
         </is>
       </c>
       <c r="E70" s="61" t="inlineStr">
         <is>
-          <t>1. Configure IPv4 network with proxy requiring authentication
-2. Set proxy server details
-3. Enable SCC
-4. Monitor communication</t>
+          <t>1. Configure server to send package that will fail installation
+2. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F70" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully authenticate with proxy and communicate with server</t>
+          <t>MFP should notify failure and retry after 1 hour</t>
         </is>
       </c>
       <c r="G70" s="58" t="inlineStr"/>
-      <c r="H70" s="59" t="inlineStr"/>
+      <c r="H70" s="59" t="inlineStr">
+        <is>
+          <t>Error recovery verification</t>
+        </is>
+      </c>
       <c r="I70" s="53" t="n"/>
     </row>
     <row r="71" ht="99.75" customHeight="1">
@@ -12428,29 +12552,32 @@
       </c>
       <c r="C71" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D71" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 proxy authentication</t>
+          <t>Multiple update instructions</t>
         </is>
       </c>
       <c r="E71" s="61" t="inlineStr">
         <is>
-          <t>1. Configure IPv6 network with proxy requiring authentication
-2. Set proxy server details
-3. Enable SCC
-4. Monitor communication</t>
+          <t>1. Configure server to send multiple update instructions
+2. Force failure of one instruction
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F71" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully authenticate with proxy and communicate with server</t>
+          <t>MFP should continue with remaining instructions</t>
         </is>
       </c>
       <c r="G71" s="58" t="inlineStr"/>
-      <c r="H71" s="59" t="inlineStr"/>
+      <c r="H71" s="59" t="inlineStr">
+        <is>
+          <t>Robustness verification</t>
+        </is>
+      </c>
       <c r="I71" s="53" t="n"/>
     </row>
     <row r="72" ht="99.75" customHeight="1">
@@ -12461,28 +12588,32 @@
       </c>
       <c r="C72" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D72" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 to IPv6 transition during communication</t>
+          <t>SSD model firmware update</t>
         </is>
       </c>
       <c r="E72" s="61" t="inlineStr">
         <is>
-          <t>1. Start communication over IPv4
-2. Switch network to IPv6 only
-3. Monitor behavior at next communication cycle</t>
+          <t>1. Configure SSD model MFP
+2. Send firmware update instruction
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F72" s="62" t="inlineStr">
         <is>
-          <t>MFP should detect network change and use IPv6 for next communication cycle</t>
+          <t>MFP should handle firmware update appropriately for SSD model</t>
         </is>
       </c>
       <c r="G72" s="58" t="inlineStr"/>
-      <c r="H72" s="59" t="inlineStr"/>
+      <c r="H72" s="59" t="inlineStr">
+        <is>
+          <t>Model-specific verification</t>
+        </is>
+      </c>
       <c r="I72" s="53" t="n"/>
     </row>
     <row r="73" ht="99.75" customHeight="1">
@@ -12493,28 +12624,31 @@
       </c>
       <c r="C73" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D73" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 to IPv4 transition during communication</t>
+          <t>Random data exploration</t>
         </is>
       </c>
       <c r="E73" s="61" t="inlineStr">
         <is>
-          <t>1. Start communication over IPv6
-2. Switch network to IPv4 only
-3. Monitor behavior at next communication cycle</t>
+          <t>1. Send random/unexpected data in server responses
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F73" s="62" t="inlineStr">
         <is>
-          <t>MFP should detect network change and use IPv4 for next communication cycle</t>
+          <t>MFP should handle unexpected data gracefully</t>
         </is>
       </c>
       <c r="G73" s="58" t="inlineStr"/>
-      <c r="H73" s="59" t="inlineStr"/>
+      <c r="H73" s="59" t="inlineStr">
+        <is>
+          <t>Exploratory testing</t>
+        </is>
+      </c>
       <c r="I73" s="53" t="n"/>
     </row>
     <row r="74" ht="99.75" customHeight="1">
@@ -12525,29 +12659,31 @@
       </c>
       <c r="C74" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D74" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 network interruption handling</t>
+          <t>Stress test - rapid communication</t>
         </is>
       </c>
       <c r="E74" s="61" t="inlineStr">
         <is>
-          <t>1. Configure IPv4 network
-2. Start SCC communication
-3. Interrupt network connection
-4. Monitor retry behavior</t>
+          <t>1. Configure very frequent communication schedule
+2. Monitor MFP behavior over extended period</t>
         </is>
       </c>
       <c r="F74" s="62" t="inlineStr">
         <is>
-          <t>MFP should follow retry protocol and enter Retry Mode if connection cannot be restored</t>
+          <t>MFP should maintain stability</t>
         </is>
       </c>
       <c r="G74" s="58" t="inlineStr"/>
-      <c r="H74" s="59" t="inlineStr"/>
+      <c r="H74" s="59" t="inlineStr">
+        <is>
+          <t>Stress testing</t>
+        </is>
+      </c>
       <c r="I74" s="53" t="n"/>
     </row>
     <row r="75" ht="99.75" customHeight="1">
@@ -12558,936 +12694,407 @@
       </c>
       <c r="C75" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function enabled</t>
         </is>
       </c>
       <c r="D75" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 network interruption handling</t>
+          <t>Long-term reliability</t>
         </is>
       </c>
       <c r="E75" s="61" t="inlineStr">
         <is>
-          <t>1. Configure IPv6 network
-2. Start SCC communication
-3. Interrupt network connection
-4. Monitor retry behavior</t>
+          <t>1. Configure normal operation
+2. Monitor over extended period (days/weeks)
+3. Check for memory leaks or performance degradation</t>
         </is>
       </c>
       <c r="F75" s="62" t="inlineStr">
         <is>
-          <t>MFP should follow retry protocol and enter Retry Mode if connection cannot be restored</t>
+          <t>MFP should maintain stable performance</t>
         </is>
       </c>
       <c r="G75" s="58" t="inlineStr"/>
-      <c r="H75" s="59" t="inlineStr"/>
+      <c r="H75" s="59" t="inlineStr">
+        <is>
+          <t>Reliability testing</t>
+        </is>
+      </c>
       <c r="I75" s="53" t="n"/>
     </row>
     <row r="76" ht="99.75" customHeight="1">
-      <c r="B76" s="57" t="inlineStr">
-        <is>
-          <t>TC071</t>
-        </is>
-      </c>
-      <c r="C76" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D76" s="70" t="inlineStr">
-        <is>
-          <t>Verify SendDataConfig parameter handling</t>
-        </is>
-      </c>
-      <c r="E76" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Server sets various SendDataConfig parameters
-3. Monitor data collection behavior</t>
-        </is>
-      </c>
-      <c r="F76" s="62" t="inlineStr">
-        <is>
-          <t>MFP should collect and send only the data types specified in SendDataConfig</t>
-        </is>
-      </c>
-      <c r="G76" s="58" t="inlineStr"/>
-      <c r="H76" s="59" t="inlineStr"/>
+      <c r="B76" s="57" t="n"/>
+      <c r="C76" s="60" t="n"/>
+      <c r="D76" s="70" t="n"/>
+      <c r="E76" s="61" t="n"/>
+      <c r="F76" s="62" t="n"/>
+      <c r="G76" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H76" s="59" t="n"/>
       <c r="I76" s="53" t="n"/>
     </row>
     <row r="77" ht="99.75" customHeight="1">
-      <c r="B77" s="57" t="inlineStr">
-        <is>
-          <t>TC072</t>
-        </is>
-      </c>
-      <c r="C77" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D77" s="70" t="inlineStr">
-        <is>
-          <t>Verify policy violation handling</t>
-        </is>
-      </c>
-      <c r="E77" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Server sets policy
-3. Violate policy locally
-4. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F77" s="62" t="inlineStr">
-        <is>
-          <t>MFP should detect policy violation and report to server</t>
-        </is>
-      </c>
-      <c r="G77" s="58" t="inlineStr"/>
-      <c r="H77" s="59" t="inlineStr"/>
+      <c r="B77" s="57" t="n"/>
+      <c r="C77" s="60" t="n"/>
+      <c r="D77" s="70" t="n"/>
+      <c r="E77" s="61" t="n"/>
+      <c r="F77" s="62" t="n"/>
+      <c r="G77" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H77" s="59" t="n"/>
       <c r="I77" s="53" t="n"/>
     </row>
     <row r="78" ht="99.75" customHeight="1">
-      <c r="B78" s="57" t="inlineStr">
-        <is>
-          <t>TC073</t>
-        </is>
-      </c>
-      <c r="C78" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D78" s="70" t="inlineStr">
-        <is>
-          <t>Verify customized UI instruction handling</t>
-        </is>
-      </c>
-      <c r="E78" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Server sends customized UI instruction
-3. Monitor installation process</t>
-        </is>
-      </c>
-      <c r="F78" s="62" t="inlineStr">
-        <is>
-          <t>MFP should download and install customized UI data correctly</t>
-        </is>
-      </c>
-      <c r="G78" s="58" t="inlineStr"/>
-      <c r="H78" s="59" t="inlineStr"/>
+      <c r="B78" s="57" t="n"/>
+      <c r="C78" s="60" t="n"/>
+      <c r="D78" s="70" t="n"/>
+      <c r="E78" s="61" t="n"/>
+      <c r="F78" s="62" t="n"/>
+      <c r="G78" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H78" s="59" t="n"/>
       <c r="I78" s="53" t="n"/>
     </row>
     <row r="79" ht="99.75" customHeight="1">
-      <c r="B79" s="57" t="inlineStr">
-        <is>
-          <t>TC074</t>
-        </is>
-      </c>
-      <c r="C79" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D79" s="70" t="inlineStr">
-        <is>
-          <t>Verify application instruction handling</t>
-        </is>
-      </c>
-      <c r="E79" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Server sends application instruction
-3. Monitor installation process</t>
-        </is>
-      </c>
-      <c r="F79" s="62" t="inlineStr">
-        <is>
-          <t>MFP should download and install application correctly</t>
-        </is>
-      </c>
-      <c r="G79" s="58" t="inlineStr"/>
-      <c r="H79" s="59" t="inlineStr"/>
+      <c r="B79" s="57" t="n"/>
+      <c r="C79" s="60" t="n"/>
+      <c r="D79" s="70" t="n"/>
+      <c r="E79" s="61" t="n"/>
+      <c r="F79" s="62" t="n"/>
+      <c r="G79" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H79" s="59" t="n"/>
       <c r="I79" s="53" t="n"/>
     </row>
     <row r="80" ht="99.75" customHeight="1">
-      <c r="B80" s="57" t="inlineStr">
-        <is>
-          <t>TC075</t>
-        </is>
-      </c>
-      <c r="C80" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D80" s="70" t="inlineStr">
-        <is>
-          <t>Verify license instruction handling</t>
-        </is>
-      </c>
-      <c r="E80" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Server sends license instruction
-3. Monitor installation process</t>
-        </is>
-      </c>
-      <c r="F80" s="62" t="inlineStr">
-        <is>
-          <t>MFP should download and install license correctly</t>
-        </is>
-      </c>
-      <c r="G80" s="58" t="inlineStr"/>
-      <c r="H80" s="59" t="inlineStr"/>
+      <c r="B80" s="57" t="n"/>
+      <c r="C80" s="60" t="n"/>
+      <c r="D80" s="70" t="n"/>
+      <c r="E80" s="61" t="n"/>
+      <c r="F80" s="62" t="n"/>
+      <c r="G80" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H80" s="59" t="n"/>
       <c r="I80" s="53" t="n"/>
     </row>
     <row r="81" ht="99.75" customHeight="1">
-      <c r="B81" s="57" t="inlineStr">
-        <is>
-          <t>TC076</t>
-        </is>
-      </c>
-      <c r="C81" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D81" s="70" t="inlineStr">
-        <is>
-          <t>Verify custom user paper type instruction handling</t>
-        </is>
-      </c>
-      <c r="E81" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Server sends custom user paper type instruction
-3. Monitor installation process</t>
-        </is>
-      </c>
-      <c r="F81" s="62" t="inlineStr">
-        <is>
-          <t>MFP should download and install custom user paper type correctly</t>
-        </is>
-      </c>
-      <c r="G81" s="58" t="inlineStr"/>
-      <c r="H81" s="59" t="inlineStr"/>
+      <c r="B81" s="57" t="n"/>
+      <c r="C81" s="60" t="n"/>
+      <c r="D81" s="70" t="n"/>
+      <c r="E81" s="61" t="n"/>
+      <c r="F81" s="62" t="n"/>
+      <c r="G81" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H81" s="59" t="n"/>
       <c r="I81" s="53" t="n"/>
     </row>
     <row r="82" ht="99.75" customHeight="1">
-      <c r="B82" s="57" t="inlineStr">
-        <is>
-          <t>TC077</t>
-        </is>
-      </c>
-      <c r="C82" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D82" s="70" t="inlineStr">
-        <is>
-          <t>Verify special instruction handling</t>
-        </is>
-      </c>
-      <c r="E82" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Server sends special instruction
-3. Monitor execution</t>
-        </is>
-      </c>
-      <c r="F82" s="62" t="inlineStr">
-        <is>
-          <t>1. MFP should execute special instruction correctly
-2. MFP should not reboot after execution
-3. MFP should proceed to Send Regular Data</t>
-        </is>
-      </c>
-      <c r="G82" s="58" t="inlineStr"/>
-      <c r="H82" s="59" t="inlineStr"/>
+      <c r="B82" s="57" t="n"/>
+      <c r="C82" s="60" t="n"/>
+      <c r="D82" s="70" t="n"/>
+      <c r="E82" s="61" t="n"/>
+      <c r="F82" s="62" t="n"/>
+      <c r="G82" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H82" s="59" t="n"/>
       <c r="I82" s="53" t="n"/>
     </row>
     <row r="83" ht="99.75" customHeight="1">
-      <c r="B83" s="57" t="inlineStr">
-        <is>
-          <t>TC078</t>
-        </is>
-      </c>
-      <c r="C83" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D83" s="70" t="inlineStr">
-        <is>
-          <t>Verify clone file instruction handling</t>
-        </is>
-      </c>
-      <c r="E83" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Server sends clone file instruction
-3. Monitor installation process</t>
-        </is>
-      </c>
-      <c r="F83" s="62" t="inlineStr">
-        <is>
-          <t>MFP should apply clone data correctly regardless of SendDataConfig parameters</t>
-        </is>
-      </c>
-      <c r="G83" s="58" t="inlineStr"/>
-      <c r="H83" s="59" t="inlineStr"/>
+      <c r="B83" s="57" t="n"/>
+      <c r="C83" s="60" t="n"/>
+      <c r="D83" s="70" t="n"/>
+      <c r="E83" s="61" t="n"/>
+      <c r="F83" s="62" t="n"/>
+      <c r="G83" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H83" s="59" t="n"/>
       <c r="I83" s="53" t="n"/>
     </row>
     <row r="84" ht="99.75" customHeight="1">
-      <c r="B84" s="57" t="inlineStr">
-        <is>
-          <t>TC079</t>
-        </is>
-      </c>
-      <c r="C84" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D84" s="70" t="inlineStr">
-        <is>
-          <t>Verify restore data instruction handling</t>
-        </is>
-      </c>
-      <c r="E84" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Server sends restore data instruction
-3. Monitor restoration process</t>
-        </is>
-      </c>
-      <c r="F84" s="62" t="inlineStr">
-        <is>
-          <t>MFP should restore data correctly</t>
-        </is>
-      </c>
-      <c r="G84" s="58" t="inlineStr"/>
-      <c r="H84" s="59" t="inlineStr"/>
+      <c r="B84" s="57" t="n"/>
+      <c r="C84" s="60" t="n"/>
+      <c r="D84" s="70" t="n"/>
+      <c r="E84" s="61" t="n"/>
+      <c r="F84" s="62" t="n"/>
+      <c r="G84" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H84" s="59" t="n"/>
       <c r="I84" s="53" t="n"/>
     </row>
     <row r="85" ht="99.75" customHeight="1">
-      <c r="B85" s="57" t="inlineStr">
-        <is>
-          <t>TC080</t>
-        </is>
-      </c>
-      <c r="C85" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D85" s="70" t="inlineStr">
-        <is>
-          <t>Verify stress test with large data transfer</t>
-        </is>
-      </c>
-      <c r="E85" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Trigger large baseline data collection
-3. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F85" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle large data collection and transfer without crashing</t>
-        </is>
-      </c>
-      <c r="G85" s="58" t="inlineStr"/>
-      <c r="H85" s="59" t="inlineStr"/>
+      <c r="B85" s="57" t="n"/>
+      <c r="C85" s="60" t="n"/>
+      <c r="D85" s="70" t="n"/>
+      <c r="E85" s="61" t="n"/>
+      <c r="F85" s="62" t="n"/>
+      <c r="G85" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H85" s="59" t="n"/>
       <c r="I85" s="53" t="n"/>
     </row>
     <row r="86" ht="99.75" customHeight="1">
-      <c r="B86" s="57" t="inlineStr">
-        <is>
-          <t>TC081</t>
-        </is>
-      </c>
-      <c r="C86" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D86" s="70" t="inlineStr">
-        <is>
-          <t>Verify stress test with rapid event notifications</t>
-        </is>
-      </c>
-      <c r="E86" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Trigger multiple device errors in rapid succession
-3. Monitor event notification behavior</t>
-        </is>
-      </c>
-      <c r="F86" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle multiple event notifications correctly without losing events</t>
-        </is>
-      </c>
-      <c r="G86" s="58" t="inlineStr"/>
-      <c r="H86" s="59" t="inlineStr"/>
+      <c r="B86" s="57" t="n"/>
+      <c r="C86" s="60" t="n"/>
+      <c r="D86" s="70" t="n"/>
+      <c r="E86" s="61" t="n"/>
+      <c r="F86" s="62" t="n"/>
+      <c r="G86" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H86" s="59" t="n"/>
       <c r="I86" s="53" t="n"/>
     </row>
     <row r="87" ht="99.75" customHeight="1">
-      <c r="B87" s="57" t="inlineStr">
-        <is>
-          <t>TC082</t>
-        </is>
-      </c>
-      <c r="C87" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D87" s="70" t="inlineStr">
-        <is>
-          <t>Verify stress test with concurrent operations</t>
-        </is>
-      </c>
-      <c r="E87" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Start SCC communication
-3. Perform heavy printing/scanning jobs
-4. Monitor system performance</t>
-        </is>
-      </c>
-      <c r="F87" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle concurrent operations without significant performance degradation</t>
-        </is>
-      </c>
-      <c r="G87" s="58" t="inlineStr"/>
-      <c r="H87" s="59" t="inlineStr"/>
+      <c r="B87" s="57" t="n"/>
+      <c r="C87" s="60" t="n"/>
+      <c r="D87" s="70" t="n"/>
+      <c r="E87" s="61" t="n"/>
+      <c r="F87" s="62" t="n"/>
+      <c r="G87" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H87" s="59" t="n"/>
       <c r="I87" s="53" t="n"/>
     </row>
     <row r="88" ht="99.75" customHeight="1">
-      <c r="B88" s="57" t="inlineStr">
-        <is>
-          <t>TC083</t>
-        </is>
-      </c>
-      <c r="C88" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D88" s="70" t="inlineStr">
-        <is>
-          <t>Verify random power cycles during various SCC operations</t>
-        </is>
-      </c>
-      <c r="E88" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Start various SCC operations
-3. Randomly power cycle MFP
-4. Monitor recovery behavior</t>
-        </is>
-      </c>
-      <c r="F88" s="62" t="inlineStr">
-        <is>
-          <t>MFP should recover gracefully from power cycles during SCC operations</t>
-        </is>
-      </c>
-      <c r="G88" s="58" t="inlineStr"/>
-      <c r="H88" s="59" t="inlineStr"/>
+      <c r="B88" s="57" t="n"/>
+      <c r="C88" s="60" t="n"/>
+      <c r="D88" s="70" t="n"/>
+      <c r="E88" s="61" t="n"/>
+      <c r="F88" s="62" t="n"/>
+      <c r="G88" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H88" s="59" t="n"/>
       <c r="I88" s="53" t="n"/>
     </row>
     <row r="89" ht="99.75" customHeight="1">
-      <c r="B89" s="57" t="inlineStr">
-        <is>
-          <t>TC084</t>
-        </is>
-      </c>
-      <c r="C89" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D89" s="70" t="inlineStr">
-        <is>
-          <t>Verify behavior with invalid server certificate</t>
-        </is>
-      </c>
-      <c r="E89" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Configure custom URL with invalid SSL certificate
-3. Monitor communication attempts</t>
-        </is>
-      </c>
-      <c r="F89" s="62" t="inlineStr">
-        <is>
-          <t>MFP should reject invalid certificate and fail to communicate</t>
-        </is>
-      </c>
-      <c r="G89" s="58" t="inlineStr"/>
-      <c r="H89" s="59" t="inlineStr"/>
+      <c r="B89" s="57" t="n"/>
+      <c r="C89" s="60" t="n"/>
+      <c r="D89" s="70" t="n"/>
+      <c r="E89" s="61" t="n"/>
+      <c r="F89" s="62" t="n"/>
+      <c r="G89" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H89" s="59" t="n"/>
       <c r="I89" s="53" t="n"/>
     </row>
     <row r="90" ht="99.75" customHeight="1">
-      <c r="B90" s="57" t="inlineStr">
-        <is>
-          <t>TC085</t>
-        </is>
-      </c>
-      <c r="C90" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D90" s="70" t="inlineStr">
-        <is>
-          <t>Verify behavior with expired server certificate</t>
-        </is>
-      </c>
-      <c r="E90" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Configure custom URL with expired SSL certificate
-3. Monitor communication attempts</t>
-        </is>
-      </c>
-      <c r="F90" s="62" t="inlineStr">
-        <is>
-          <t>MFP should reject expired certificate and fail to communicate</t>
-        </is>
-      </c>
-      <c r="G90" s="58" t="inlineStr"/>
-      <c r="H90" s="59" t="inlineStr"/>
+      <c r="B90" s="57" t="n"/>
+      <c r="C90" s="60" t="n"/>
+      <c r="D90" s="70" t="n"/>
+      <c r="E90" s="61" t="n"/>
+      <c r="F90" s="62" t="n"/>
+      <c r="G90" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H90" s="59" t="n"/>
       <c r="I90" s="53" t="n"/>
     </row>
     <row r="91" ht="99.75" customHeight="1">
-      <c r="B91" s="57" t="inlineStr">
-        <is>
-          <t>TC086</t>
-        </is>
-      </c>
-      <c r="C91" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D91" s="70" t="inlineStr">
-        <is>
-          <t>Verify behavior with network latency</t>
-        </is>
-      </c>
-      <c r="E91" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Introduce network latency (500ms+)
-3. Monitor communication behavior</t>
-        </is>
-      </c>
-      <c r="F91" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle network latency gracefully without timing out prematurely</t>
-        </is>
-      </c>
-      <c r="G91" s="58" t="inlineStr"/>
-      <c r="H91" s="59" t="inlineStr"/>
+      <c r="B91" s="57" t="n"/>
+      <c r="C91" s="60" t="n"/>
+      <c r="D91" s="70" t="n"/>
+      <c r="E91" s="61" t="n"/>
+      <c r="F91" s="62" t="n"/>
+      <c r="G91" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H91" s="59" t="n"/>
       <c r="I91" s="53" t="n"/>
     </row>
     <row r="92" ht="99.75" customHeight="1">
-      <c r="B92" s="57" t="inlineStr">
-        <is>
-          <t>TC087</t>
-        </is>
-      </c>
-      <c r="C92" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D92" s="70" t="inlineStr">
-        <is>
-          <t>Verify behavior with packet loss</t>
-        </is>
-      </c>
-      <c r="E92" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Introduce packet loss (5-10%)
-3. Monitor communication behavior</t>
-        </is>
-      </c>
-      <c r="F92" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle packet loss gracefully and retry as needed</t>
-        </is>
-      </c>
-      <c r="G92" s="58" t="inlineStr"/>
-      <c r="H92" s="59" t="inlineStr"/>
+      <c r="B92" s="57" t="n"/>
+      <c r="C92" s="60" t="n"/>
+      <c r="D92" s="70" t="n"/>
+      <c r="E92" s="61" t="n"/>
+      <c r="F92" s="62" t="n"/>
+      <c r="G92" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H92" s="59" t="n"/>
       <c r="I92" s="53" t="n"/>
     </row>
     <row r="93" ht="99.75" customHeight="1">
-      <c r="B93" s="57" t="inlineStr">
-        <is>
-          <t>TC088</t>
-        </is>
-      </c>
-      <c r="C93" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D93" s="70" t="inlineStr">
-        <is>
-          <t>Verify behavior with limited bandwidth</t>
-        </is>
-      </c>
-      <c r="E93" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Limit network bandwidth (e.g., 56Kbps)
-3. Monitor communication behavior</t>
-        </is>
-      </c>
-      <c r="F93" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle limited bandwidth gracefully without timing out</t>
-        </is>
-      </c>
-      <c r="G93" s="58" t="inlineStr"/>
-      <c r="H93" s="59" t="inlineStr"/>
+      <c r="B93" s="57" t="n"/>
+      <c r="C93" s="60" t="n"/>
+      <c r="D93" s="70" t="n"/>
+      <c r="E93" s="61" t="n"/>
+      <c r="F93" s="62" t="n"/>
+      <c r="G93" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H93" s="59" t="n"/>
       <c r="I93" s="53" t="n"/>
     </row>
     <row r="94" ht="99.75" customHeight="1">
-      <c r="B94" s="57" t="inlineStr">
-        <is>
-          <t>TC089</t>
-        </is>
-      </c>
-      <c r="C94" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D94" s="70" t="inlineStr">
-        <is>
-          <t>Verify behavior with DNS resolution issues</t>
-        </is>
-      </c>
-      <c r="E94" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Introduce DNS resolution problems
-3. Monitor communication behavior</t>
-        </is>
-      </c>
-      <c r="F94" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle DNS issues appropriately and enter retry mode</t>
-        </is>
-      </c>
-      <c r="G94" s="58" t="inlineStr"/>
-      <c r="H94" s="59" t="inlineStr"/>
+      <c r="B94" s="57" t="n"/>
+      <c r="C94" s="60" t="n"/>
+      <c r="D94" s="70" t="n"/>
+      <c r="E94" s="61" t="n"/>
+      <c r="F94" s="62" t="n"/>
+      <c r="G94" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H94" s="59" t="n"/>
       <c r="I94" s="53" t="n"/>
     </row>
     <row r="95" ht="99.75" customHeight="1">
-      <c r="B95" s="57" t="inlineStr">
-        <is>
-          <t>TC090</t>
-        </is>
-      </c>
-      <c r="C95" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D95" s="70" t="inlineStr">
-        <is>
-          <t>Verify behavior with intermittent connectivity</t>
-        </is>
-      </c>
-      <c r="E95" s="61" t="inlineStr">
-        <is>
-          <t>1. Enable SCC
-2. Configure network with intermittent connectivity
-3. Monitor communication over extended period</t>
-        </is>
-      </c>
-      <c r="F95" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle intermittent connectivity gracefully and maintain communication when possible</t>
-        </is>
-      </c>
-      <c r="G95" s="58" t="inlineStr"/>
-      <c r="H95" s="59" t="inlineStr"/>
+      <c r="B95" s="57" t="n"/>
+      <c r="C95" s="60" t="n"/>
+      <c r="D95" s="70" t="n"/>
+      <c r="E95" s="61" t="n"/>
+      <c r="F95" s="62" t="n"/>
+      <c r="G95" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H95" s="59" t="n"/>
       <c r="I95" s="53" t="n"/>
     </row>
     <row r="96" ht="99.75" customHeight="1">
-      <c r="B96" s="57" t="inlineStr">
-        <is>
-          <t>TC091</t>
-        </is>
-      </c>
-      <c r="C96" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D96" s="70" t="inlineStr">
-        <is>
-          <t>Verify IPv4 DNS resolution</t>
-        </is>
-      </c>
-      <c r="E96" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure IPv4 network
-2. Set SCC server by hostname
-3. Enable SCC
-4. Monitor DNS resolution</t>
-        </is>
-      </c>
-      <c r="F96" s="62" t="inlineStr">
-        <is>
-          <t>MFP should correctly resolve hostname to IPv4 address</t>
-        </is>
-      </c>
-      <c r="G96" s="58" t="inlineStr"/>
-      <c r="H96" s="59" t="inlineStr"/>
+      <c r="B96" s="57" t="n"/>
+      <c r="C96" s="60" t="n"/>
+      <c r="D96" s="70" t="n"/>
+      <c r="E96" s="61" t="n"/>
+      <c r="F96" s="62" t="n"/>
+      <c r="G96" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H96" s="59" t="n"/>
       <c r="I96" s="53" t="n"/>
     </row>
     <row r="97" ht="99.75" customHeight="1">
-      <c r="B97" s="57" t="inlineStr">
-        <is>
-          <t>TC092</t>
-        </is>
-      </c>
-      <c r="C97" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D97" s="70" t="inlineStr">
-        <is>
-          <t>Verify IPv6 DNS resolution</t>
-        </is>
-      </c>
-      <c r="E97" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure IPv6 network
-2. Set SCC server by hostname
-3. Enable SCC
-4. Monitor DNS resolution</t>
-        </is>
-      </c>
-      <c r="F97" s="62" t="inlineStr">
-        <is>
-          <t>MFP should correctly resolve hostname to IPv6 address</t>
-        </is>
-      </c>
-      <c r="G97" s="58" t="inlineStr"/>
-      <c r="H97" s="59" t="inlineStr"/>
+      <c r="B97" s="57" t="n"/>
+      <c r="C97" s="60" t="n"/>
+      <c r="D97" s="70" t="n"/>
+      <c r="E97" s="61" t="n"/>
+      <c r="F97" s="62" t="n"/>
+      <c r="G97" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H97" s="59" t="n"/>
       <c r="I97" s="53" t="n"/>
     </row>
     <row r="98" ht="99.75" customHeight="1">
-      <c r="B98" s="57" t="inlineStr">
-        <is>
-          <t>TC093</t>
-        </is>
-      </c>
-      <c r="C98" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D98" s="70" t="inlineStr">
-        <is>
-          <t>Verify dual-stack DNS resolution preference</t>
-        </is>
-      </c>
-      <c r="E98" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure dual-stack network
-2. Set SCC server by hostname with both A and AAAA records
-3. Enable SCC
-4. Monitor DNS resolution</t>
-        </is>
-      </c>
-      <c r="F98" s="62" t="inlineStr">
-        <is>
-          <t>MFP should prefer IPv6 address when both IPv4 and IPv6 addresses are available</t>
-        </is>
-      </c>
-      <c r="G98" s="58" t="inlineStr"/>
-      <c r="H98" s="59" t="inlineStr"/>
+      <c r="B98" s="57" t="n"/>
+      <c r="C98" s="60" t="n"/>
+      <c r="D98" s="70" t="n"/>
+      <c r="E98" s="61" t="n"/>
+      <c r="F98" s="62" t="n"/>
+      <c r="G98" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H98" s="59" t="n"/>
       <c r="I98" s="53" t="n"/>
     </row>
     <row r="99" ht="99.75" customHeight="1">
-      <c r="B99" s="57" t="inlineStr">
-        <is>
-          <t>TC094</t>
-        </is>
-      </c>
-      <c r="C99" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D99" s="70" t="inlineStr">
-        <is>
-          <t>Verify IPv4 fragmentation handling</t>
-        </is>
-      </c>
-      <c r="E99" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure IPv4 network
-2. Force large packets that require fragmentation
-3. Enable SCC
-4. Monitor communication</t>
-        </is>
-      </c>
-      <c r="F99" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle IPv4 fragmentation correctly</t>
-        </is>
-      </c>
-      <c r="G99" s="58" t="inlineStr"/>
-      <c r="H99" s="59" t="inlineStr"/>
+      <c r="B99" s="57" t="n"/>
+      <c r="C99" s="60" t="n"/>
+      <c r="D99" s="70" t="n"/>
+      <c r="E99" s="61" t="n"/>
+      <c r="F99" s="62" t="n"/>
+      <c r="G99" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H99" s="59" t="n"/>
       <c r="I99" s="53" t="n"/>
     </row>
     <row r="100" ht="99.75" customHeight="1">
-      <c r="B100" s="57" t="inlineStr">
-        <is>
-          <t>TC095</t>
-        </is>
-      </c>
-      <c r="C100" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D100" s="70" t="inlineStr">
-        <is>
-          <t>Verify IPv6 jumbo frames</t>
-        </is>
-      </c>
-      <c r="E100" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure IPv6 network with jumbo frames support
-2. Force large packets
-3. Enable SCC
-4. Monitor communication</t>
-        </is>
-      </c>
-      <c r="F100" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle IPv6 jumbo frames correctly if supported</t>
-        </is>
-      </c>
-      <c r="G100" s="58" t="inlineStr"/>
-      <c r="H100" s="59" t="inlineStr"/>
+      <c r="B100" s="57" t="n"/>
+      <c r="C100" s="60" t="n"/>
+      <c r="D100" s="70" t="n"/>
+      <c r="E100" s="61" t="n"/>
+      <c r="F100" s="62" t="n"/>
+      <c r="G100" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H100" s="59" t="n"/>
       <c r="I100" s="53" t="n"/>
     </row>
     <row r="101" ht="99.75" customHeight="1">
-      <c r="B101" s="57" t="inlineStr">
-        <is>
-          <t>TC096</t>
-        </is>
-      </c>
-      <c r="C101" s="60" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D101" s="70" t="inlineStr">
-        <is>
-          <t>Verify IPv4 TTL handling</t>
-        </is>
-      </c>
-      <c r="E101" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure IPv4 network with limited TTL
-2. Enable SCC
-3. Monitor communication</t>
-        </is>
-      </c>
-      <c r="F101" s="62" t="inlineStr">
-        <is>
-          <t>MFP should set appropriate TTL values for IPv4 packets</t>
-        </is>
-      </c>
-      <c r="G101" s="58" t="inlineStr"/>
-      <c r="H101" s="59" t="inlineStr"/>
+      <c r="B101" s="57" t="n"/>
+      <c r="C101" s="60" t="n"/>
+      <c r="D101" s="70" t="n"/>
+      <c r="E101" s="61" t="n"/>
+      <c r="F101" s="62" t="n"/>
+      <c r="G101" s="58" t="inlineStr">
+        <is>
+          <t>Not Executed</t>
+        </is>
+      </c>
+      <c r="H101" s="59" t="n"/>
       <c r="I101" s="53" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="63" t="n"/>
-      <c r="B102" s="63" t="inlineStr">
-        <is>
-          <t>TC097</t>
-        </is>
-      </c>
-      <c r="C102" s="63" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D102" s="63" t="inlineStr">
-        <is>
-          <t>Verify IPv6 hop limit handling</t>
-        </is>
-      </c>
-      <c r="E102" s="64" t="inlineStr">
-        <is>
-          <t>1. Configure IPv6 network
-2. Enable SCC
-3. Monitor communication</t>
-        </is>
-      </c>
-      <c r="F102" s="64" t="inlineStr">
-        <is>
-          <t>MFP should set appropriate hop limit values for IPv6 packets</t>
-        </is>
-      </c>
-      <c r="G102" s="63" t="inlineStr"/>
-      <c r="H102" s="63" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>TC098</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>MFP with SCC enabled</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Verify IPv4 DHCP address change during communication</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1. Configure IPv4 network with DHCP
-2. Enable SCC
-3. Force DHCP address change during communication
-4. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>MFP should handle IPv4 address change gracefully</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
+      <c r="B102" s="63" t="n"/>
+      <c r="C102" s="63" t="n"/>
+      <c r="D102" s="63" t="n"/>
+      <c r="E102" s="64" t="n"/>
+      <c r="F102" s="64" t="n"/>
+      <c r="G102" s="63" t="n"/>
+      <c r="H102" s="63" t="n"/>
     </row>
     <row r="104">
       <c r="B104" s="45" t="inlineStr">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10250,32 +10250,33 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC module installed</t>
+          <t>MFP is powered on and in normal boot-up mode</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Enable SCC function</t>
+          <t>Verify enabling/disabling of SCC function</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Enter Self-diagnostic boot-up mode
-2. Set 08-3820 from 0 (Disable) to 1 (Enable)
-3. Reboot MFP</t>
+          <t>1. Access Self-diagnostic boot-up mode or service UI on panel
+2. Set 08-3820 to 1 (Enable)
+3. Reboot the MFP
+4. Verify SCC function is enabled
+5. Set 08-3820 to 0 (Disable)
+6. Reboot the MFP</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>SCC function is enabled and MFP registers with server</t>
+          <t>1. SCC function should be enabled when 08-3820 is set to 1
+2. SCC function should be disabled when 08-3820 is set to 0
+3. Default value should be "Disable"</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
-      <c r="H6" s="59" t="inlineStr">
-        <is>
-          <t>Verify basic functionality</t>
-        </is>
-      </c>
+      <c r="H6" s="59" t="inlineStr"/>
       <c r="I6" s="53" t="n"/>
     </row>
     <row r="7" ht="99.75" customHeight="1">
@@ -10286,22 +10287,25 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>SCC function disabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Verify default state</t>
+          <t>Verify SCC installation report printing</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Check the default value of 08-3820</t>
+          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
+2. Reboot the MFP
+3. Wait for MFP registration processing to complete</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>Default value should be 0 (Disable)</t>
+          <t>1. Installation report should be automatically printed
+2. Report should include: SCC Module Version, MFP Serial Number, MFP Model Name, MFP IP Address, Date/Time, Registration Status</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10316,32 +10320,30 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Installation report printing</t>
+          <t>Verify SCC installation report is printed only once</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function (08-3820 set to 1)
-2. Reboot MFP
-3. Wait for MFP registration to complete</t>
+          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
+2. Reboot the MFP
+3. Wait for installation report to print
+4. Disable and re-enable SCC function</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Installation report is automatically printed with correct information</t>
+          <t>1. Installation report should print only after the first enable
+2. Report should not print again when re-enabling</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
-      <c r="H8" s="59" t="inlineStr">
-        <is>
-          <t>Verify report contains all required fields</t>
-        </is>
-      </c>
+      <c r="H8" s="59" t="inlineStr"/>
       <c r="I8" s="53" t="n"/>
     </row>
     <row r="9" ht="99.75" customHeight="1">
@@ -10352,32 +10354,28 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>SCC function previously enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify one-time report printing</t>
+          <t>Verify SCC installation report language</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Disable SCC function
-2. Re-enable SCC function
-3. Reboot MFP</t>
+          <t>1. Change MFP display language to non-English
+2. Disable and re-enable SCC
+3. Check installation report language</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>Installation report should not print again</t>
+          <t>1. Installation report should be printed in English only regardless of MFP language setting</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
-      <c r="H9" s="59" t="inlineStr">
-        <is>
-          <t>Report should only print once</t>
-        </is>
-      </c>
+      <c r="H9" s="59" t="inlineStr"/>
       <c r="I9" s="53" t="n"/>
     </row>
     <row r="10" ht="99.75" customHeight="1">
@@ -10388,32 +10386,29 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Report printing with network restrictions</t>
+          <t>Verify SCC installation report job log</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-9344 (network print restriction) to 1 (only private)
-2. Enable SCC function
-3. Reboot MFP</t>
+          <t>1. Enable SCC function
+2. Wait for installation report to print
+3. Check job log</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>SCC report is not printed, job log shows error code 4221</t>
+          <t>1. SCC report printing should be recorded in Job Log as network print
+2. User counter for built-in Admin should be incremented</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
-      <c r="H10" s="59" t="inlineStr">
-        <is>
-          <t>Verify error handling</t>
-        </is>
-      </c>
+      <c r="H10" s="59" t="inlineStr"/>
       <c r="I10" s="53" t="n"/>
     </row>
     <row r="11" ht="99.75" customHeight="1">
@@ -10424,70 +10419,62 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with network print restriction mode enabled</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Report printing with quota restrictions</t>
+          <t>Verify SCC installation report with print restrictions</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
+        <is>
+          <t>1. Set 08-9344 to 1 (only private)
+2. Enable SCC function
+3. Check if report prints</t>
+        </is>
+      </c>
+      <c r="F11" s="62" t="inlineStr">
+        <is>
+          <t>1. SCC report should not be printed
+2. Job log should show error record (error code = 4221)</t>
+        </is>
+      </c>
+      <c r="G11" s="58" t="inlineStr"/>
+      <c r="H11" s="59" t="inlineStr"/>
+      <c r="I11" s="53" t="n"/>
+    </row>
+    <row r="12" ht="99.75" customHeight="1">
+      <c r="B12" s="57" t="inlineStr">
+        <is>
+          <t>TC007</t>
+        </is>
+      </c>
+      <c r="C12" s="60" t="inlineStr">
+        <is>
+          <t>MFP with user authentication enabled</t>
+        </is>
+      </c>
+      <c r="D12" s="70" t="inlineStr">
+        <is>
+          <t>Verify SCC installation report with quota restrictions</t>
+        </is>
+      </c>
+      <c r="E12" s="61" t="inlineStr">
         <is>
           <t>1. Enable user authentication
 2. Set quota for built-in admin to minimum
 3. Enable SCC function
-4. Reboot MFP</t>
-        </is>
-      </c>
-      <c r="F11" s="62" t="inlineStr">
-        <is>
-          <t>SCC report is not printed due to quota error</t>
-        </is>
-      </c>
-      <c r="G11" s="58" t="inlineStr"/>
-      <c r="H11" s="59" t="inlineStr">
-        <is>
-          <t>Verify error handling</t>
-        </is>
-      </c>
-      <c r="I11" s="53" t="n"/>
-    </row>
-    <row r="12" ht="99.75" customHeight="1">
-      <c r="B12" s="57" t="inlineStr">
-        <is>
-          <t>TC007</t>
-        </is>
-      </c>
-      <c r="C12" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D12" s="70" t="inlineStr">
-        <is>
-          <t>Proxy server configuration</t>
-        </is>
-      </c>
-      <c r="E12" s="61" t="inlineStr">
-        <is>
-          <t>1. Enter Self-diagnostic boot-up mode
-2. Configure 08-3822 to 08-3826 (Proxy settings)
-3. Reboot MFP
-4. Monitor communication</t>
+4. Check if report prints</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate with server through proxy</t>
+          <t>1. SCC report should not be printed due to quota error</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
-      <c r="H12" s="59" t="inlineStr">
-        <is>
-          <t>Verify proxy functionality</t>
-        </is>
-      </c>
+      <c r="H12" s="59" t="inlineStr"/>
       <c r="I12" s="53" t="n"/>
     </row>
     <row r="13" ht="99.75" customHeight="1">
@@ -10498,32 +10485,29 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with coin controller equipped</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Communication protocol verification</t>
+          <t>Verify SCC installation report with coin controller</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Use network analyzer to capture traffic
-3. Wait for communication cycle</t>
+          <t>1. Equip coin controller
+2. Enable external counter 08 code
+3. Enable SCC function
+4. Check if report prints</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>Traffic should use HTTPS protocol</t>
+          <t>1. SCC report should not be printed until coin is inserted</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
-      <c r="H13" s="59" t="inlineStr">
-        <is>
-          <t>Security verification</t>
-        </is>
-      </c>
+      <c r="H13" s="59" t="inlineStr"/>
       <c r="I13" s="53" t="n"/>
     </row>
     <row r="14" ht="99.75" customHeight="1">
@@ -10534,32 +10518,28 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with job queue full</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Port fallback test</t>
+          <t>Verify SCC installation report with job queue full</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Block port 443 at firewall
-2. Enable SCC
-3. Monitor communication</t>
+          <t>1. Fill job queue with 1000 jobs
+2. Enable SCC function
+3. Check if report prints</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>MFP should automatically use port 8443</t>
+          <t>1. SCC report should not be printed</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
-      <c r="H14" s="59" t="inlineStr">
-        <is>
-          <t>Verify fallback mechanism</t>
-        </is>
-      </c>
+      <c r="H14" s="59" t="inlineStr"/>
       <c r="I14" s="53" t="n"/>
     </row>
     <row r="15" ht="99.75" customHeight="1">
@@ -10570,31 +10550,28 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Regular communication schedule</t>
+          <t>Verify HTTPS communication protocol</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Set regular communication schedule to specific time
-2. Monitor communication</t>
+          <t>1. Monitor network traffic during SCC communication
+2. Verify protocol used</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate with server at scheduled time</t>
+          <t>1. MFP should use HTTPS for communication with servers
+2. Communication should always start from MFP side</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
-      <c r="H15" s="59" t="inlineStr">
-        <is>
-          <t>Verify scheduling</t>
-        </is>
-      </c>
+      <c r="H15" s="59" t="inlineStr"/>
       <c r="I15" s="53" t="n"/>
     </row>
     <row r="16" ht="99.75" customHeight="1">
@@ -10605,31 +10582,30 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Register device - first time</t>
+          <t>Verify SSL certificate validation</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC on unregistered MFP
-2. Monitor communication</t>
+          <t>1. Configure MFP to communicate with test server with invalid certificate
+2. Monitor communication
+3. Configure with valid certificate
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>MFP should register with server and receive token</t>
+          <t>1. Communication should fail with invalid certificate
+2. Communication should succeed with valid certificate</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
-      <c r="H16" s="59" t="inlineStr">
-        <is>
-          <t>Verify registration process</t>
-        </is>
-      </c>
+      <c r="H16" s="59" t="inlineStr"/>
       <c r="I16" s="53" t="n"/>
     </row>
     <row r="17" ht="99.75" customHeight="1">
@@ -10640,31 +10616,31 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled, MFP registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Register device - authentication</t>
+          <t>Verify proxy server settings</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Wait for next communication cycle
-2. Monitor communication</t>
+          <t>1. Configure proxy server settings (08-3822 to 08-3826)
+2. Set valid proxy authentication credentials
+3. Verify SCC communication
+4. Set NULL account ID
+5. Verify SCC communication</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>MFP should authenticate using token</t>
+          <t>1. MFP should communicate through proxy with authentication
+2. MFP should communicate through proxy without authentication when account ID is NULL</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
-      <c r="H17" s="59" t="inlineStr">
-        <is>
-          <t>Verify authentication</t>
-        </is>
-      </c>
+      <c r="H17" s="59" t="inlineStr"/>
       <c r="I17" s="53" t="n"/>
     </row>
     <row r="18" ht="99.75" customHeight="1">
@@ -10675,31 +10651,29 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Server busy response</t>
+          <t>Verify port number fallback</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate server BUSY response
-2. Monitor MFP behavior</t>
+          <t>1. Block port 443 on firewall
+2. Allow port 8443
+3. Trigger SCC communication
+4. Monitor network traffic</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry after waiting period specified by server</t>
+          <t>1. MFP should automatically use port 8443 when port 443 is not available</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
-      <c r="H18" s="59" t="inlineStr">
-        <is>
-          <t>Verify retry mechanism</t>
-        </is>
-      </c>
+      <c r="H18" s="59" t="inlineStr"/>
       <c r="I18" s="53" t="n"/>
     </row>
     <row r="19" ht="99.75" customHeight="1">
@@ -10710,31 +10684,27 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP in special startup mode</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Registration failure</t>
+          <t>Verify SCC process startup</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate registration failure response
-2. Monitor MFP behavior</t>
+          <t>1. Boot MFP in special startup mode
+2. Check if SCC process starts</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>After 3 consecutive failures, MFP should exit communication cycle</t>
+          <t>1. SCC process should not start in special startup mode</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
-      <c r="H19" s="59" t="inlineStr">
-        <is>
-          <t>Verify error handling</t>
-        </is>
-      </c>
+      <c r="H19" s="59" t="inlineStr"/>
       <c r="I19" s="53" t="n"/>
     </row>
     <row r="20" ht="99.75" customHeight="1">
@@ -10745,31 +10715,30 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled, MFP registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Check for updates</t>
+          <t>Verify regular communication loop timing</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Wait for communication cycle
-2. Monitor communication</t>
+          <t>1. Configure SCC communication schedule to specific time
+2. Monitor network traffic at scheduled time
+3. Change to interval-based schedule (e.g., every 30 min)
+4. Monitor network traffic</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>MFP should check for updates from server</t>
+          <t>1. MFP should communicate with server at specified time
+2. MFP should communicate at specified intervals</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
-      <c r="H20" s="59" t="inlineStr">
-        <is>
-          <t>Verify update check</t>
-        </is>
-      </c>
+      <c r="H20" s="59" t="inlineStr"/>
       <c r="I20" s="53" t="n"/>
     </row>
     <row r="21" ht="99.75" customHeight="1">
@@ -10780,32 +10749,30 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled, update available</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Download package</t>
+          <t>Verify event notification loop</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send update package
-2. Wait for communication cycle
-3. Monitor download</t>
+          <t>1. Trigger device error event
+2. Monitor network traffic
+3. Clear error
+4. Monitor network traffic</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>MFP should download package and verify hash</t>
+          <t>1. MFP should immediately notify server of error event
+2. MFP should notify server when error is cleared</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
-      <c r="H21" s="59" t="inlineStr">
-        <is>
-          <t>Verify package download</t>
-        </is>
-      </c>
+      <c r="H21" s="59" t="inlineStr"/>
       <c r="I21" s="53" t="n"/>
     </row>
     <row r="22" ht="99.75" customHeight="1">
@@ -10816,32 +10783,31 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled, package downloaded</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Send baseline data</t>
+          <t>Verify first-time device registration</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Configure SendDataConfig parameters
-2. Wait for communication cycle
-3. Monitor data transmission</t>
+          <t>1. Enable SCC on unregistered MFP
+2. Monitor registration sequence
+3. Verify installation report</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>MFP should send baseline data according to configuration</t>
+          <t>1. MFP should register with server
+2. Server should send secret question
+3. MFP should answer correctly
+4. Registration should complete successfully</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
-      <c r="H22" s="59" t="inlineStr">
-        <is>
-          <t>Verify data transmission</t>
-        </is>
-      </c>
+      <c r="H22" s="59" t="inlineStr"/>
       <c r="I22" s="53" t="n"/>
     </row>
     <row r="23" ht="99.75" customHeight="1">
@@ -10852,32 +10818,28 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled, baseline data sent</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Install package - firmware</t>
+          <t>Verify subsequent device authentication</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send firmware update
-2. Wait for communication cycle
-3. Monitor installation</t>
+          <t>1. Trigger SCC communication on registered MFP
+2. Monitor authentication sequence</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>MFP should install firmware at scheduled time</t>
+          <t>1. MFP should authenticate using token
+2. Authentication should complete successfully</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
-      <c r="H23" s="59" t="inlineStr">
-        <is>
-          <t>Verify firmware update</t>
-        </is>
-      </c>
+      <c r="H23" s="59" t="inlineStr"/>
       <c r="I23" s="53" t="n"/>
     </row>
     <row r="24" ht="99.75" customHeight="1">
@@ -10888,31 +10850,30 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled, package installed</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Update status</t>
+          <t>Verify server busy handling</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Wait for package installation
-2. Monitor status update</t>
+          <t>1. Configure test server to respond with BUSY status
+2. Trigger SCC communication
+3. Monitor retry behavior</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>MFP should send correct status to server</t>
+          <t>1. MFP should retry after waiting period specified by server
+2. MFP should retry up to 3 times
+3. MFP should exit communication cycle after 4th BUSY response</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
-      <c r="H24" s="59" t="inlineStr">
-        <is>
-          <t>Verify status reporting</t>
-        </is>
-      </c>
+      <c r="H24" s="59" t="inlineStr"/>
       <c r="I24" s="53" t="n"/>
     </row>
     <row r="25" ht="99.75" customHeight="1">
@@ -10923,31 +10884,30 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled, status updated</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D25" s="70" t="inlineStr">
         <is>
-          <t>Send regular data</t>
+          <t>Verify registration failure handling</t>
         </is>
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Wait for communication cycle
-2. Monitor data transmission</t>
+          <t>1. Configure test environment for registration failure
+2. Trigger SCC communication
+3. Monitor behavior after 3 consecutive failures</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>MFP should send regular data according to configuration</t>
+          <t>1. After 3 consecutive failures, server should respond with STATUS_LOCK
+2. Installation Report should be printed
+3. MFP should exit communication cycle</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
-      <c r="H25" s="59" t="inlineStr">
-        <is>
-          <t>Verify regular data transmission</t>
-        </is>
-      </c>
+      <c r="H25" s="59" t="inlineStr"/>
       <c r="I25" s="53" t="n"/>
     </row>
     <row r="26" ht="99.75" customHeight="1">
@@ -10958,31 +10918,30 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D26" s="70" t="inlineStr">
         <is>
-          <t>Device error notification</t>
+          <t>Verify Check for Updates functionality</t>
         </is>
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Generate device error
-2. Monitor error notification</t>
+          <t>1. Configure server to indicate updates available
+2. Trigger SCC communication
+3. Monitor Check for Updates sequence</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>MFP should send error to server</t>
+          <t>1. MFP should call Check for Updates interface
+2. MFP should receive update information
+3. MFP should proceed to Download Package</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
-      <c r="H26" s="59" t="inlineStr">
-        <is>
-          <t>Verify error notification</t>
-        </is>
-      </c>
+      <c r="H26" s="59" t="inlineStr"/>
       <c r="I26" s="53" t="n"/>
     </row>
     <row r="27" ht="99.75" customHeight="1">
@@ -10993,32 +10952,30 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled, error occurred</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Service file transmission</t>
+          <t>Verify Download Package functionality</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to request service files
-2. Generate device error
-3. Monitor file transmission</t>
+          <t>1. Configure server to provide update package
+2. Trigger SCC communication
+3. Monitor Download Package sequence</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>MFP should send service files to server</t>
+          <t>1. MFP should download package using Package ID
+2. MFP should verify hash value with MD5
+3. MFP should unzip package successfully</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
-      <c r="H27" s="59" t="inlineStr">
-        <is>
-          <t>Verify service file transmission</t>
-        </is>
-      </c>
+      <c r="H27" s="59" t="inlineStr"/>
       <c r="I27" s="53" t="n"/>
     </row>
     <row r="28" ht="99.75" customHeight="1">
@@ -11029,32 +10986,31 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Super sleep interaction</t>
+          <t>Verify Send Baseline Data functionality</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in super sleep
-2. Wait for communication schedule
-3. Monitor behavior</t>
+          <t>1. Configure SendDataConfig parameters
+2. Trigger SCC communication
+3. Monitor Send Baseline Data sequence</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>MFP should wake up, communicate, then return to super sleep</t>
+          <t>1. MFP should collect data according to SendDataConfig
+2. MFP should create ZIP file with collected data
+3. MFP should send ZIP file to server
+4. MFP should calculate and send MD5 hash</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
-      <c r="H28" s="59" t="inlineStr">
-        <is>
-          <t>Verify power management</t>
-        </is>
-      </c>
+      <c r="H28" s="59" t="inlineStr"/>
       <c r="I28" s="53" t="n"/>
     </row>
     <row r="29" ht="99.75" customHeight="1">
@@ -11065,32 +11021,31 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Hibernation interaction</t>
+          <t>Verify Install Package for firmware update</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in hibernation
-2. Wait for communication schedule
-3. Monitor behavior</t>
+          <t>1. Configure server to provide firmware update package
+2. Trigger SCC communication
+3. Monitor Install Package sequence</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter hibernation during communication cycle</t>
+          <t>1. MFP should schedule firmware update
+2. MFP should display message during update
+3. MFP should reboot after update
+4. MFP should notify update status to server</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
-      <c r="H29" s="59" t="inlineStr">
-        <is>
-          <t>Verify power management</t>
-        </is>
-      </c>
+      <c r="H29" s="59" t="inlineStr"/>
       <c r="I29" s="53" t="n"/>
     </row>
     <row r="30" ht="99.75" customHeight="1">
@@ -11101,32 +11056,29 @@
       </c>
       <c r="C30" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D30" s="70" t="inlineStr">
         <is>
-          <t>Persistent policy</t>
+          <t>Verify Install Package for policy violation</t>
         </is>
       </c>
       <c r="E30" s="61" t="inlineStr">
         <is>
-          <t>1. Configure persistent policy from server
-2. Change settings locally
-3. Wait for policy check</t>
+          <t>1. Configure server to provide policy violation package
+2. Trigger SCC communication
+3. Monitor Install Package sequence</t>
         </is>
       </c>
       <c r="F30" s="62" t="inlineStr">
         <is>
-          <t>Settings should revert to policy values</t>
+          <t>1. MFP should apply policy settings
+2. MFP should notify update status to server</t>
         </is>
       </c>
       <c r="G30" s="58" t="inlineStr"/>
-      <c r="H30" s="59" t="inlineStr">
-        <is>
-          <t>Verify policy enforcement</t>
-        </is>
-      </c>
+      <c r="H30" s="59" t="inlineStr"/>
       <c r="I30" s="53" t="n"/>
     </row>
     <row r="31" ht="99.75" customHeight="1">
@@ -11137,31 +11089,29 @@
       </c>
       <c r="C31" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D31" s="70" t="inlineStr">
         <is>
-          <t>Time-based settings</t>
+          <t>Verify Install Package for clone data</t>
         </is>
       </c>
       <c r="E31" s="61" t="inlineStr">
         <is>
-          <t>1. Configure time-based settings from server
-2. Monitor setting changes at specified times</t>
+          <t>1. Configure server to provide clone data package
+2. Trigger SCC communication
+3. Monitor Install Package sequence</t>
         </is>
       </c>
       <c r="F31" s="62" t="inlineStr">
         <is>
-          <t>Settings should change at configured times</t>
+          <t>1. MFP should apply clone data
+2. MFP should notify update status to server</t>
         </is>
       </c>
       <c r="G31" s="58" t="inlineStr"/>
-      <c r="H31" s="59" t="inlineStr">
-        <is>
-          <t>Verify time-based settings</t>
-        </is>
-      </c>
+      <c r="H31" s="59" t="inlineStr"/>
       <c r="I31" s="53" t="n"/>
     </row>
     <row r="32" ht="99.75" customHeight="1">
@@ -11172,32 +11122,31 @@
       </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D32" s="70" t="inlineStr">
         <is>
-          <t>IP redirect</t>
+          <t>Verify Send Regular Data functionality</t>
         </is>
       </c>
       <c r="E32" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP in different region
-2. Enable SCC
-3. Monitor initial communication</t>
+          <t>1. Configure SendDataConfig parameters
+2. Trigger SCC communication
+3. Monitor Send Regular Data sequence</t>
         </is>
       </c>
       <c r="F32" s="62" t="inlineStr">
         <is>
-          <t>MFP should be redirected to appropriate regional server</t>
+          <t>1. MFP should collect data according to SendDataConfig
+2. MFP should create ZIP file with collected data
+3. MFP should send ZIP file to server
+4. MFP should calculate and send MD5 hash</t>
         </is>
       </c>
       <c r="G32" s="58" t="inlineStr"/>
-      <c r="H32" s="59" t="inlineStr">
-        <is>
-          <t>Verify region detection</t>
-        </is>
-      </c>
+      <c r="H32" s="59" t="inlineStr"/>
       <c r="I32" s="53" t="n"/>
     </row>
     <row r="33" ht="99.75" customHeight="1">
@@ -11208,31 +11157,31 @@
       </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D33" s="70" t="inlineStr">
         <is>
-          <t>Communication retry</t>
+          <t>Verify Send Device Error functionality</t>
         </is>
       </c>
       <c r="E33" s="61" t="inlineStr">
         <is>
-          <t>1. Interrupt network during communication
-2. Monitor retry behavior</t>
+          <t>1. Trigger device error
+2. Monitor Send Device Error sequence
+3. Clear error
+4. Monitor Send Device Error sequence</t>
         </is>
       </c>
       <c r="F33" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry after 60 seconds, then enter retry mode</t>
+          <t>1. MFP should notify error to server with error code
+2. MFP should not send same error again unless cleared
+3. MFP should notify error removal with "-" prefix (e.g., -D102)</t>
         </is>
       </c>
       <c r="G33" s="58" t="inlineStr"/>
-      <c r="H33" s="59" t="inlineStr">
-        <is>
-          <t>Verify error recovery</t>
-        </is>
-      </c>
+      <c r="H33" s="59" t="inlineStr"/>
       <c r="I33" s="53" t="n"/>
     </row>
     <row r="34" ht="99.75" customHeight="1">
@@ -11243,31 +11192,29 @@
       </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D34" s="70" t="inlineStr">
         <is>
-          <t>HTTP error handling</t>
+          <t>Verify panel message display during SCC processing</t>
         </is>
       </c>
       <c r="E34" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate HTTP error from server
-2. Monitor retry behavior</t>
+          <t>1. Trigger SCC communication
+2. Observe panel display during different stages</t>
         </is>
       </c>
       <c r="F34" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry after 60 seconds, then enter retry mode</t>
+          <t>1. MFP should display "Service in progress. Please do not turn off: XX" message
+2. Numerical value should change according to processing stage
+3. Popup window with sand clock should appear during certain stages</t>
         </is>
       </c>
       <c r="G34" s="58" t="inlineStr"/>
-      <c r="H34" s="59" t="inlineStr">
-        <is>
-          <t>Verify error recovery</t>
-        </is>
-      </c>
+      <c r="H34" s="59" t="inlineStr"/>
       <c r="I34" s="53" t="n"/>
     </row>
     <row r="35" ht="99.75" customHeight="1">
@@ -11278,31 +11225,31 @@
       </c>
       <c r="C35" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled, in retry mode</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D35" s="70" t="inlineStr">
         <is>
-          <t>Daily retry</t>
+          <t>Verify Super Sleep behavior during SCC processing</t>
         </is>
       </c>
       <c r="E35" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in retry mode
-2. Monitor communication attempts</t>
+          <t>1. Start SCC communication
+2. Attempt to enter Super Sleep
+3. Put MFP in Super Sleep
+4. Wait for scheduled communication time</t>
         </is>
       </c>
       <c r="F35" s="62" t="inlineStr">
         <is>
-          <t>MFP should attempt communication once every 24 hours</t>
+          <t>1. MFP should not enter Super Sleep during communication cycle
+2. MFP should wake up from Super Sleep at scheduled communication time
+3. MFP should return to Super Sleep after communication</t>
         </is>
       </c>
       <c r="G35" s="58" t="inlineStr"/>
-      <c r="H35" s="59" t="inlineStr">
-        <is>
-          <t>Verify retry schedule</t>
-        </is>
-      </c>
+      <c r="H35" s="59" t="inlineStr"/>
       <c r="I35" s="53" t="n"/>
     </row>
     <row r="36" ht="99.75" customHeight="1">
@@ -11313,31 +11260,27 @@
       </c>
       <c r="C36" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D36" s="70" t="inlineStr">
         <is>
-          <t>Exclusive control</t>
+          <t>Verify Hibernation behavior during SCC processing</t>
         </is>
       </c>
       <c r="E36" s="61" t="inlineStr">
         <is>
           <t>1. Start SCC communication
-2. Attempt to use service UI</t>
+2. Attempt to enter Hibernation</t>
         </is>
       </c>
       <c r="F36" s="62" t="inlineStr">
         <is>
-          <t>Service UI should be unavailable during communication</t>
+          <t>1. MFP should not enter Hibernation during communication cycle</t>
         </is>
       </c>
       <c r="G36" s="58" t="inlineStr"/>
-      <c r="H36" s="59" t="inlineStr">
-        <is>
-          <t>Verify exclusive control</t>
-        </is>
-      </c>
+      <c r="H36" s="59" t="inlineStr"/>
       <c r="I36" s="53" t="n"/>
     </row>
     <row r="37" ht="99.75" customHeight="1">
@@ -11348,31 +11291,30 @@
       </c>
       <c r="C37" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D37" s="70" t="inlineStr">
         <is>
-          <t>Special startup mode</t>
+          <t>Verify Persistent Policy functionality</t>
         </is>
       </c>
       <c r="E37" s="61" t="inlineStr">
         <is>
-          <t>1. Boot MFP in special startup mode
-2. Check SCC process</t>
+          <t>1. Configure Persistent Policy from server
+2. Change 08/05/13 settings locally
+3. Wait for persistent check interval
+4. Observe settings</t>
         </is>
       </c>
       <c r="F37" s="62" t="inlineStr">
         <is>
-          <t>SCC process should not start in special startup mode</t>
+          <t>1. MFP should restore 08/05/13 settings according to policy
+2. Persistent check should respect expiration setting</t>
         </is>
       </c>
       <c r="G37" s="58" t="inlineStr"/>
-      <c r="H37" s="59" t="inlineStr">
-        <is>
-          <t>Verify startup conditions</t>
-        </is>
-      </c>
+      <c r="H37" s="59" t="inlineStr"/>
       <c r="I37" s="53" t="n"/>
     </row>
     <row r="38" ht="99.75" customHeight="1">
@@ -11383,32 +11325,27 @@
       </c>
       <c r="C38" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D38" s="70" t="inlineStr">
         <is>
-          <t>URL setting</t>
+          <t>Verify Time-based Device State Data Values</t>
         </is>
       </c>
       <c r="E38" s="61" t="inlineStr">
         <is>
-          <t>1. Configure custom URL in 08-3827
-2. Reboot MFP
-3. Monitor communication</t>
+          <t>1. Configure time-based settings from server
+2. Observe settings at different times</t>
         </is>
       </c>
       <c r="F38" s="62" t="inlineStr">
         <is>
-          <t>MFP should connect to specified URL</t>
+          <t>1. MFP should change settings according to time-based configuration</t>
         </is>
       </c>
       <c r="G38" s="58" t="inlineStr"/>
-      <c r="H38" s="59" t="inlineStr">
-        <is>
-          <t>Verify URL configuration</t>
-        </is>
-      </c>
+      <c r="H38" s="59" t="inlineStr"/>
       <c r="I38" s="53" t="n"/>
     </row>
     <row r="39" ht="99.75" customHeight="1">
@@ -11419,32 +11356,29 @@
       </c>
       <c r="C39" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D39" s="70" t="inlineStr">
         <is>
-          <t>URL forward setting</t>
+          <t>Verify IP Redirect functionality</t>
         </is>
       </c>
       <c r="E39" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3828 to 0 (Disable)
-2. Configure server to return redirect URL
-3. Monitor communication</t>
+          <t>1. Configure MFP for first-time connection
+2. Monitor GetRedirectURL request
+3. Observe server selection</t>
         </is>
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>MFP should not follow redirect URL</t>
+          <t>1. MFP should request redirect URL from NA server
+2. MFP should connect to appropriate regional server based on response</t>
         </is>
       </c>
       <c r="G39" s="58" t="inlineStr"/>
-      <c r="H39" s="59" t="inlineStr">
-        <is>
-          <t>Verify URL forward control</t>
-        </is>
-      </c>
+      <c r="H39" s="59" t="inlineStr"/>
       <c r="I39" s="53" t="n"/>
     </row>
     <row r="40" ht="99.75" customHeight="1">
@@ -11455,31 +11389,34 @@
       </c>
       <c r="C40" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D40" s="70" t="inlineStr">
         <is>
-          <t>Panel message display</t>
+          <t>Verify retry processing at communication error</t>
         </is>
       </c>
       <c r="E40" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Observe panel display</t>
+          <t>1. Simulate connection error
+2. Monitor retry behavior
+3. Simulate HTTP error
+4. Monitor retry behavior
+5. Simulate persistent failure
+6. Monitor retry mode behavior</t>
         </is>
       </c>
       <c r="F40" s="62" t="inlineStr">
         <is>
-          <t>Panel should display appropriate status message</t>
+          <t>1. MFP should retry in 60 seconds after connection error
+2. MFP should retry in 60 seconds after HTTP error
+3. MFP should enter retry mode after persistent failures
+4. In retry mode, MFP should try once per day</t>
         </is>
       </c>
       <c r="G40" s="58" t="inlineStr"/>
-      <c r="H40" s="59" t="inlineStr">
-        <is>
-          <t>Verify user interface</t>
-        </is>
-      </c>
+      <c r="H40" s="59" t="inlineStr"/>
       <c r="I40" s="53" t="n"/>
     </row>
     <row r="41" ht="99.75" customHeight="1">
@@ -11490,31 +11427,27 @@
       </c>
       <c r="C41" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D41" s="70" t="inlineStr">
         <is>
-          <t>Popup window display</t>
+          <t>Verify message logging</t>
         </is>
       </c>
       <c r="E41" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger firmware update
-2. Observe panel display</t>
+          <t>1. Trigger various SCC events and errors
+2. Check message logs</t>
         </is>
       </c>
       <c r="F41" s="62" t="inlineStr">
         <is>
-          <t>Popup with sand clock and progress bar should appear</t>
+          <t>1. Appropriate message logs should be recorded for SCC events and errors</t>
         </is>
       </c>
       <c r="G41" s="58" t="inlineStr"/>
-      <c r="H41" s="59" t="inlineStr">
-        <is>
-          <t>Verify user interface</t>
-        </is>
-      </c>
+      <c r="H41" s="59" t="inlineStr"/>
       <c r="I41" s="53" t="n"/>
     </row>
     <row r="42" ht="99.75" customHeight="1">
@@ -11525,139 +11458,136 @@
       </c>
       <c r="C42" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D42" s="70" t="inlineStr">
         <is>
-          <t>HDD full condition</t>
+          <t>Verify URL setting functionality</t>
         </is>
       </c>
       <c r="E42" s="61" t="inlineStr">
         <is>
-          <t>1. Fill HDD to capacity
+          <t>1. Configure 08-3827 with valid HTTPS URL
+2. Trigger SCC communication
+3. Configure 08-3827 with invalid URL
+4. Trigger SCC communication
+5. Set 08-3827 to NULL
+6. Trigger SCC communication</t>
+        </is>
+      </c>
+      <c r="F42" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should connect to specified URL when valid
+2. MFP should report network error with invalid URL
+3. MFP should connect to default server (NA) when NULL</t>
+        </is>
+      </c>
+      <c r="G42" s="58" t="inlineStr"/>
+      <c r="H42" s="59" t="inlineStr"/>
+      <c r="I42" s="53" t="n"/>
+    </row>
+    <row r="43" ht="99.75" customHeight="1">
+      <c r="B43" s="57" t="inlineStr">
+        <is>
+          <t>TC038</t>
+        </is>
+      </c>
+      <c r="C43" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D43" s="70" t="inlineStr">
+        <is>
+          <t>Verify URL forward setting</t>
+        </is>
+      </c>
+      <c r="E43" s="61" t="inlineStr">
+        <is>
+          <t>1. Set 08-3828 to 0 (Disable)
+2. Configure 08-3827 with valid URL
+3. Trigger SCC communication
+4. Set 08-3828 to 1 (Enable)
+5. Trigger SCC communication</t>
+        </is>
+      </c>
+      <c r="F43" s="62" t="inlineStr">
+        <is>
+          <t>1. With 08-3828=0, MFP should not forward to other URL
+2. With 08-3828=1, MFP should follow URL forwarding from server</t>
+        </is>
+      </c>
+      <c r="G43" s="58" t="inlineStr"/>
+      <c r="H43" s="59" t="inlineStr"/>
+      <c r="I43" s="53" t="n"/>
+    </row>
+    <row r="44" ht="99.75" customHeight="1">
+      <c r="B44" s="57" t="inlineStr">
+        <is>
+          <t>TC039</t>
+        </is>
+      </c>
+      <c r="C44" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC registered</t>
+        </is>
+      </c>
+      <c r="D44" s="70" t="inlineStr">
+        <is>
+          <t>Verify handling of power failure during package download</t>
+        </is>
+      </c>
+      <c r="E44" s="61" t="inlineStr">
+        <is>
+          <t>1. Start package download
+2. Simulate power failure during download
+3. Power on MFP
+4. Check download behavior</t>
+        </is>
+      </c>
+      <c r="F44" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should delete downloaded data before next communication
+2. MFP should restart download process</t>
+        </is>
+      </c>
+      <c r="G44" s="58" t="inlineStr"/>
+      <c r="H44" s="59" t="inlineStr"/>
+      <c r="I44" s="53" t="n"/>
+    </row>
+    <row r="45" ht="99.75" customHeight="1">
+      <c r="B45" s="57" t="inlineStr">
+        <is>
+          <t>TC040</t>
+        </is>
+      </c>
+      <c r="C45" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC registered</t>
+        </is>
+      </c>
+      <c r="D45" s="70" t="inlineStr">
+        <is>
+          <t>Verify handling of HDD full during package download</t>
+        </is>
+      </c>
+      <c r="E45" s="61" t="inlineStr">
+        <is>
+          <t>1. Fill HDD to near capacity
 2. Trigger package download
 3. Monitor behavior</t>
         </is>
       </c>
-      <c r="F42" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle HDD full condition gracefully</t>
-        </is>
-      </c>
-      <c r="G42" s="58" t="inlineStr"/>
-      <c r="H42" s="59" t="inlineStr">
-        <is>
-          <t>Verify error handling</t>
-        </is>
-      </c>
-      <c r="I42" s="53" t="n"/>
-    </row>
-    <row r="43" ht="99.75" customHeight="1">
-      <c r="B43" s="57" t="inlineStr">
-        <is>
-          <t>TC038</t>
-        </is>
-      </c>
-      <c r="C43" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D43" s="70" t="inlineStr">
-        <is>
-          <t>Hash value mismatch</t>
-        </is>
-      </c>
-      <c r="E43" s="61" t="inlineStr">
-        <is>
-          <t>1. Simulate hash value mismatch in downloaded package
-2. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F43" s="62" t="inlineStr">
-        <is>
-          <t>MFP should delete downloaded data and exit communication cycle</t>
-        </is>
-      </c>
-      <c r="G43" s="58" t="inlineStr"/>
-      <c r="H43" s="59" t="inlineStr">
-        <is>
-          <t>Verify data integrity</t>
-        </is>
-      </c>
-      <c r="I43" s="53" t="n"/>
-    </row>
-    <row r="44" ht="99.75" customHeight="1">
-      <c r="B44" s="57" t="inlineStr">
-        <is>
-          <t>TC039</t>
-        </is>
-      </c>
-      <c r="C44" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D44" s="70" t="inlineStr">
-        <is>
-          <t>Unzip failure</t>
-        </is>
-      </c>
-      <c r="E44" s="61" t="inlineStr">
-        <is>
-          <t>1. Simulate unzip failure of package
-2. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F44" s="62" t="inlineStr">
-        <is>
-          <t>MFP should delete unzipped data and exit communication cycle</t>
-        </is>
-      </c>
-      <c r="G44" s="58" t="inlineStr"/>
-      <c r="H44" s="59" t="inlineStr">
-        <is>
-          <t>Verify error handling</t>
-        </is>
-      </c>
-      <c r="I44" s="53" t="n"/>
-    </row>
-    <row r="45" ht="99.75" customHeight="1">
-      <c r="B45" s="57" t="inlineStr">
-        <is>
-          <t>TC040</t>
-        </is>
-      </c>
-      <c r="C45" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D45" s="70" t="inlineStr">
-        <is>
-          <t>Power failure during download</t>
-        </is>
-      </c>
-      <c r="E45" s="61" t="inlineStr">
-        <is>
-          <t>1. Trigger package download
-2. Interrupt power during download
-3. Restore power
-4. Monitor behavior</t>
-        </is>
-      </c>
       <c r="F45" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete incomplete download and restart communication</t>
+          <t>1. MFP should delete downloaded data
+2. MFP should exit communication cycle
+3. MFP should wait for next scheduled communication</t>
         </is>
       </c>
       <c r="G45" s="58" t="inlineStr"/>
-      <c r="H45" s="59" t="inlineStr">
-        <is>
-          <t>Verify recovery</t>
-        </is>
-      </c>
+      <c r="H45" s="59" t="inlineStr"/>
       <c r="I45" s="53" t="n"/>
     </row>
     <row r="46" ht="99.75" customHeight="1">
@@ -11668,455 +11598,441 @@
       </c>
       <c r="C46" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC registered</t>
         </is>
       </c>
       <c r="D46" s="70" t="inlineStr">
         <is>
-          <t>IPv4 only connectivity</t>
+          <t>Verify handling of hash value mismatch</t>
         </is>
       </c>
       <c r="E46" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure test environment to cause hash mismatch
+2. Trigger package download
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F46" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should delete downloaded data
+2. MFP should exit communication cycle
+3. MFP should wait for next scheduled communication</t>
+        </is>
+      </c>
+      <c r="G46" s="58" t="inlineStr"/>
+      <c r="H46" s="59" t="inlineStr"/>
+      <c r="I46" s="53" t="n"/>
+    </row>
+    <row r="47" ht="99.75" customHeight="1">
+      <c r="B47" s="57" t="inlineStr">
+        <is>
+          <t>TC042</t>
+        </is>
+      </c>
+      <c r="C47" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC registered</t>
+        </is>
+      </c>
+      <c r="D47" s="70" t="inlineStr">
+        <is>
+          <t>Verify handling of unzip failure</t>
+        </is>
+      </c>
+      <c r="E47" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure test environment to cause unzip failure
+2. Trigger package download
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F47" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should delete unzipped data
+2. MFP should exit communication cycle
+3. MFP should wait for next scheduled communication</t>
+        </is>
+      </c>
+      <c r="G47" s="58" t="inlineStr"/>
+      <c r="H47" s="59" t="inlineStr"/>
+      <c r="I47" s="53" t="n"/>
+    </row>
+    <row r="48" ht="99.75" customHeight="1">
+      <c r="B48" s="57" t="inlineStr">
+        <is>
+          <t>TC043</t>
+        </is>
+      </c>
+      <c r="C48" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC registered</t>
+        </is>
+      </c>
+      <c r="D48" s="70" t="inlineStr">
+        <is>
+          <t>Verify firmware update scheduling</t>
+        </is>
+      </c>
+      <c r="E48" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to provide firmware update
+2. Set update schedule for future time
+3. Observe MFP behavior at scheduled time
+4. Power off MFP before scheduled time
+5. Power on after scheduled time</t>
+        </is>
+      </c>
+      <c r="F48" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should update firmware at scheduled time
+2. If scheduled time is missed due to power off, update should be rescheduled for same time next day</t>
+        </is>
+      </c>
+      <c r="G48" s="58" t="inlineStr"/>
+      <c r="H48" s="59" t="inlineStr"/>
+      <c r="I48" s="53" t="n"/>
+    </row>
+    <row r="49" ht="99.75" customHeight="1">
+      <c r="B49" s="57" t="inlineStr">
+        <is>
+          <t>TC044</t>
+        </is>
+      </c>
+      <c r="C49" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC registered</t>
+        </is>
+      </c>
+      <c r="D49" s="70" t="inlineStr">
+        <is>
+          <t>Verify handling of installation failure</t>
+        </is>
+      </c>
+      <c r="E49" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure test environment to cause installation failure
+2. Trigger package installation
+3. Monitor behavior
+4. Check retry behavior</t>
+        </is>
+      </c>
+      <c r="F49" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should notify update result to server
+2. Regular communication should be scheduled after 1 hour
+3. Server should retry update up to 3 times</t>
+        </is>
+      </c>
+      <c r="G49" s="58" t="inlineStr"/>
+      <c r="H49" s="59" t="inlineStr"/>
+      <c r="I49" s="53" t="n"/>
+    </row>
+    <row r="50" ht="99.75" customHeight="1">
+      <c r="B50" s="57" t="inlineStr">
+        <is>
+          <t>TC045</t>
+        </is>
+      </c>
+      <c r="C50" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC registered</t>
+        </is>
+      </c>
+      <c r="D50" s="70" t="inlineStr">
+        <is>
+          <t>Verify handling of multiple update instructions</t>
+        </is>
+      </c>
+      <c r="E50" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to provide multiple update instructions
+2. Cause one update to fail
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F50" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should continue processing all updates even if one fails
+2. MFP should notify all update results to server</t>
+        </is>
+      </c>
+      <c r="G50" s="58" t="inlineStr"/>
+      <c r="H50" s="59" t="inlineStr"/>
+      <c r="I50" s="53" t="n"/>
+    </row>
+    <row r="51" ht="99.75" customHeight="1">
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t>TC046</t>
+        </is>
+      </c>
+      <c r="C51" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC registered</t>
+        </is>
+      </c>
+      <c r="D51" s="70" t="inlineStr">
+        <is>
+          <t>Verify SSD model firmware update handling</t>
+        </is>
+      </c>
+      <c r="E51" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure SSD model MFP
+2. Trigger firmware update
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F51" s="62" t="inlineStr">
+        <is>
+          <t>1. Firmware update should be recognized as impossible
+2. MFP should notify update failure to server</t>
+        </is>
+      </c>
+      <c r="G51" s="58" t="inlineStr"/>
+      <c r="H51" s="59" t="inlineStr"/>
+      <c r="I51" s="53" t="n"/>
+    </row>
+    <row r="52" ht="99.75" customHeight="1">
+      <c r="B52" s="57" t="inlineStr">
+        <is>
+          <t>TC047</t>
+        </is>
+      </c>
+      <c r="C52" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC registered</t>
+        </is>
+      </c>
+      <c r="D52" s="70" t="inlineStr">
+        <is>
+          <t>Verify customized UI installation</t>
+        </is>
+      </c>
+      <c r="E52" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to provide customized UI package
+2. Trigger SCC communication
+3. Monitor installation process</t>
+        </is>
+      </c>
+      <c r="F52" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should download and install customized UI data
+2. MFP should notify update status to server</t>
+        </is>
+      </c>
+      <c r="G52" s="58" t="inlineStr"/>
+      <c r="H52" s="59" t="inlineStr"/>
+      <c r="I52" s="53" t="n"/>
+    </row>
+    <row r="53" ht="99.75" customHeight="1">
+      <c r="B53" s="57" t="inlineStr">
+        <is>
+          <t>TC048</t>
+        </is>
+      </c>
+      <c r="C53" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC registered</t>
+        </is>
+      </c>
+      <c r="D53" s="70" t="inlineStr">
+        <is>
+          <t>Verify embedded application installation</t>
+        </is>
+      </c>
+      <c r="E53" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to provide embedded application package
+2. Trigger SCC communication
+3. Monitor installation process</t>
+        </is>
+      </c>
+      <c r="F53" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should download and install embedded application
+2. MFP should notify update status to server</t>
+        </is>
+      </c>
+      <c r="G53" s="58" t="inlineStr"/>
+      <c r="H53" s="59" t="inlineStr"/>
+      <c r="I53" s="53" t="n"/>
+    </row>
+    <row r="54" ht="99.75" customHeight="1">
+      <c r="B54" s="57" t="inlineStr">
+        <is>
+          <t>TC049</t>
+        </is>
+      </c>
+      <c r="C54" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC registered</t>
+        </is>
+      </c>
+      <c r="D54" s="70" t="inlineStr">
+        <is>
+          <t>Verify license data installation</t>
+        </is>
+      </c>
+      <c r="E54" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to provide license data package
+2. Trigger SCC communication
+3. Monitor installation process</t>
+        </is>
+      </c>
+      <c r="F54" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should download and install license data
+2. MFP should notify update status to server</t>
+        </is>
+      </c>
+      <c r="G54" s="58" t="inlineStr"/>
+      <c r="H54" s="59" t="inlineStr"/>
+      <c r="I54" s="53" t="n"/>
+    </row>
+    <row r="55" ht="99.75" customHeight="1">
+      <c r="B55" s="57" t="inlineStr">
+        <is>
+          <t>TC050</t>
+        </is>
+      </c>
+      <c r="C55" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC registered</t>
+        </is>
+      </c>
+      <c r="D55" s="70" t="inlineStr">
+        <is>
+          <t>Verify custom user paper type installation</t>
+        </is>
+      </c>
+      <c r="E55" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to provide custom user paper type package
+2. Trigger SCC communication
+3. Monitor installation process</t>
+        </is>
+      </c>
+      <c r="F55" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should download and install custom user paper type data
+2. MFP should notify update status to server</t>
+        </is>
+      </c>
+      <c r="G55" s="58" t="inlineStr"/>
+      <c r="H55" s="59" t="inlineStr"/>
+      <c r="I55" s="53" t="n"/>
+    </row>
+    <row r="56" ht="99.75" customHeight="1">
+      <c r="B56" s="57" t="inlineStr">
+        <is>
+          <t>TC051</t>
+        </is>
+      </c>
+      <c r="C56" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D56" s="70" t="inlineStr">
+        <is>
+          <t>Verify IPv4-only connectivity</t>
+        </is>
+      </c>
+      <c r="E56" s="61" t="inlineStr">
         <is>
           <t>1. Configure network for IPv4 only
 2. Enable SCC
-3. Monitor communication</t>
-        </is>
-      </c>
-      <c r="F46" s="62" t="inlineStr">
-        <is>
-          <t>SCC should function properly over IPv4</t>
-        </is>
-      </c>
-      <c r="G46" s="58" t="inlineStr"/>
-      <c r="H46" s="59" t="inlineStr">
-        <is>
-          <t>IPv4 verification</t>
-        </is>
-      </c>
-      <c r="I46" s="53" t="n"/>
-    </row>
-    <row r="47" ht="99.75" customHeight="1">
-      <c r="B47" s="57" t="inlineStr">
-        <is>
-          <t>TC042</t>
-        </is>
-      </c>
-      <c r="C47" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D47" s="70" t="inlineStr">
-        <is>
-          <t>IPv6 only connectivity</t>
-        </is>
-      </c>
-      <c r="E47" s="61" t="inlineStr">
+3. Monitor SCC communication</t>
+        </is>
+      </c>
+      <c r="F56" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should successfully register and communicate with server using IPv4
+2. All SCC functions should work properly over IPv4</t>
+        </is>
+      </c>
+      <c r="G56" s="58" t="inlineStr"/>
+      <c r="H56" s="59" t="inlineStr">
+        <is>
+          <t>IPv4 specific test</t>
+        </is>
+      </c>
+      <c r="I56" s="53" t="n"/>
+    </row>
+    <row r="57" ht="99.75" customHeight="1">
+      <c r="B57" s="57" t="inlineStr">
+        <is>
+          <t>TC052</t>
+        </is>
+      </c>
+      <c r="C57" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D57" s="70" t="inlineStr">
+        <is>
+          <t>Verify IPv6-only connectivity</t>
+        </is>
+      </c>
+      <c r="E57" s="61" t="inlineStr">
         <is>
           <t>1. Configure network for IPv6 only
 2. Enable SCC
-3. Monitor communication</t>
-        </is>
-      </c>
-      <c r="F47" s="62" t="inlineStr">
-        <is>
-          <t>SCC should function properly over IPv6</t>
-        </is>
-      </c>
-      <c r="G47" s="58" t="inlineStr"/>
-      <c r="H47" s="59" t="inlineStr">
-        <is>
-          <t>IPv6 verification</t>
-        </is>
-      </c>
-      <c r="I47" s="53" t="n"/>
-    </row>
-    <row r="48" ht="99.75" customHeight="1">
-      <c r="B48" s="57" t="inlineStr">
-        <is>
-          <t>TC043</t>
-        </is>
-      </c>
-      <c r="C48" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D48" s="70" t="inlineStr">
-        <is>
-          <t>Dual-stack operation</t>
-        </is>
-      </c>
-      <c r="E48" s="61" t="inlineStr">
+3. Monitor SCC communication</t>
+        </is>
+      </c>
+      <c r="F57" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should successfully register and communicate with server using IPv6
+2. All SCC functions should work properly over IPv6</t>
+        </is>
+      </c>
+      <c r="G57" s="58" t="inlineStr"/>
+      <c r="H57" s="59" t="inlineStr">
+        <is>
+          <t>IPv6 specific test</t>
+        </is>
+      </c>
+      <c r="I57" s="53" t="n"/>
+    </row>
+    <row r="58" ht="99.75" customHeight="1">
+      <c r="B58" s="57" t="inlineStr">
+        <is>
+          <t>TC053</t>
+        </is>
+      </c>
+      <c r="C58" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D58" s="70" t="inlineStr">
+        <is>
+          <t>Verify dual-stack (IPv4+IPv6) connectivity</t>
+        </is>
+      </c>
+      <c r="E58" s="61" t="inlineStr">
         <is>
           <t>1. Configure network for both IPv4 and IPv6
 2. Enable SCC
-3. Monitor communication</t>
-        </is>
-      </c>
-      <c r="F48" s="62" t="inlineStr">
-        <is>
-          <t>SCC should function properly using preferred protocol</t>
-        </is>
-      </c>
-      <c r="G48" s="58" t="inlineStr"/>
-      <c r="H48" s="59" t="inlineStr">
-        <is>
-          <t>Dual-stack verification</t>
-        </is>
-      </c>
-      <c r="I48" s="53" t="n"/>
-    </row>
-    <row r="49" ht="99.75" customHeight="1">
-      <c r="B49" s="57" t="inlineStr">
-        <is>
-          <t>TC044</t>
-        </is>
-      </c>
-      <c r="C49" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled, dual-stack configured</t>
-        </is>
-      </c>
-      <c r="D49" s="70" t="inlineStr">
-        <is>
-          <t>IPv4 to IPv6 fallback</t>
-        </is>
-      </c>
-      <c r="E49" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure dual-stack with IPv4 preferred
-2. Disable IPv4 during communication
-3. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F49" s="62" t="inlineStr">
-        <is>
-          <t>MFP should fall back to IPv6</t>
-        </is>
-      </c>
-      <c r="G49" s="58" t="inlineStr"/>
-      <c r="H49" s="59" t="inlineStr">
-        <is>
-          <t>Protocol fallback</t>
-        </is>
-      </c>
-      <c r="I49" s="53" t="n"/>
-    </row>
-    <row r="50" ht="99.75" customHeight="1">
-      <c r="B50" s="57" t="inlineStr">
-        <is>
-          <t>TC045</t>
-        </is>
-      </c>
-      <c r="C50" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled, dual-stack configured</t>
-        </is>
-      </c>
-      <c r="D50" s="70" t="inlineStr">
-        <is>
-          <t>IPv6 to IPv4 fallback</t>
-        </is>
-      </c>
-      <c r="E50" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure dual-stack with IPv6 preferred
-2. Disable IPv6 during communication
-3. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F50" s="62" t="inlineStr">
-        <is>
-          <t>MFP should fall back to IPv4</t>
-        </is>
-      </c>
-      <c r="G50" s="58" t="inlineStr"/>
-      <c r="H50" s="59" t="inlineStr">
-        <is>
-          <t>Protocol fallback</t>
-        </is>
-      </c>
-      <c r="I50" s="53" t="n"/>
-    </row>
-    <row r="51" ht="99.75" customHeight="1">
-      <c r="B51" s="57" t="inlineStr">
-        <is>
-          <t>TC046</t>
-        </is>
-      </c>
-      <c r="C51" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D51" s="70" t="inlineStr">
-        <is>
-          <t>Invalid IPv4 address</t>
-        </is>
-      </c>
-      <c r="E51" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure proxy with invalid IPv4 address (e.g., 0.0.0.0)
-2. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F51" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle invalid address properly</t>
-        </is>
-      </c>
-      <c r="G51" s="58" t="inlineStr"/>
-      <c r="H51" s="59" t="inlineStr">
-        <is>
-          <t>IPv4 edge case</t>
-        </is>
-      </c>
-      <c r="I51" s="53" t="n"/>
-    </row>
-    <row r="52" ht="99.75" customHeight="1">
-      <c r="B52" s="57" t="inlineStr">
-        <is>
-          <t>TC047</t>
-        </is>
-      </c>
-      <c r="C52" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D52" s="70" t="inlineStr">
-        <is>
-          <t>Invalid IPv6 address</t>
-        </is>
-      </c>
-      <c r="E52" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure proxy with invalid IPv6 address
-2. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F52" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle invalid address properly</t>
-        </is>
-      </c>
-      <c r="G52" s="58" t="inlineStr"/>
-      <c r="H52" s="59" t="inlineStr">
-        <is>
-          <t>IPv6 edge case</t>
-        </is>
-      </c>
-      <c r="I52" s="53" t="n"/>
-    </row>
-    <row r="53" ht="99.75" customHeight="1">
-      <c r="B53" s="57" t="inlineStr">
-        <is>
-          <t>TC048</t>
-        </is>
-      </c>
-      <c r="C53" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D53" s="70" t="inlineStr">
-        <is>
-          <t>IPv4 broadcast address</t>
-        </is>
-      </c>
-      <c r="E53" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure with IPv4 broadcast address (255.255.255.255)
-2. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F53" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle broadcast address properly</t>
-        </is>
-      </c>
-      <c r="G53" s="58" t="inlineStr"/>
-      <c r="H53" s="59" t="inlineStr">
-        <is>
-          <t>IPv4 edge case</t>
-        </is>
-      </c>
-      <c r="I53" s="53" t="n"/>
-    </row>
-    <row r="54" ht="99.75" customHeight="1">
-      <c r="B54" s="57" t="inlineStr">
-        <is>
-          <t>TC049</t>
-        </is>
-      </c>
-      <c r="C54" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D54" s="70" t="inlineStr">
-        <is>
-          <t>IPv6 loopback address</t>
-        </is>
-      </c>
-      <c r="E54" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure with IPv6 loopback address (::1)
-2. Monitor behavior</t>
-        </is>
-      </c>
-      <c r="F54" s="62" t="inlineStr">
-        <is>
-          <t>MFP should handle loopback address properly</t>
-        </is>
-      </c>
-      <c r="G54" s="58" t="inlineStr"/>
-      <c r="H54" s="59" t="inlineStr">
-        <is>
-          <t>IPv6 edge case</t>
-        </is>
-      </c>
-      <c r="I54" s="53" t="n"/>
-    </row>
-    <row r="55" ht="99.75" customHeight="1">
-      <c r="B55" s="57" t="inlineStr">
-        <is>
-          <t>TC050</t>
-        </is>
-      </c>
-      <c r="C55" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D55" s="70" t="inlineStr">
-        <is>
-          <t>IPv4 vs IPv6 performance</t>
-        </is>
-      </c>
-      <c r="E55" s="61" t="inlineStr">
-        <is>
-          <t>1. Measure communication time over IPv4
-2. Measure communication time over IPv6
-3. Compare results</t>
-        </is>
-      </c>
-      <c r="F55" s="62" t="inlineStr">
-        <is>
-          <t>Performance metrics should be documented</t>
-        </is>
-      </c>
-      <c r="G55" s="58" t="inlineStr"/>
-      <c r="H55" s="59" t="inlineStr">
-        <is>
-          <t>Performance comparison</t>
-        </is>
-      </c>
-      <c r="I55" s="53" t="n"/>
-    </row>
-    <row r="56" ht="99.75" customHeight="1">
-      <c r="B56" s="57" t="inlineStr">
-        <is>
-          <t>TC051</t>
-        </is>
-      </c>
-      <c r="C56" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D56" s="70" t="inlineStr">
-        <is>
-          <t>IPv4 security check</t>
-        </is>
-      </c>
-      <c r="E56" s="61" t="inlineStr">
-        <is>
-          <t>1. Perform security scan on IPv4 communication
-2. Check for vulnerabilities</t>
-        </is>
-      </c>
-      <c r="F56" s="62" t="inlineStr">
-        <is>
-          <t>No security vulnerabilities should be found</t>
-        </is>
-      </c>
-      <c r="G56" s="58" t="inlineStr"/>
-      <c r="H56" s="59" t="inlineStr">
-        <is>
-          <t>Security verification</t>
-        </is>
-      </c>
-      <c r="I56" s="53" t="n"/>
-    </row>
-    <row r="57" ht="99.75" customHeight="1">
-      <c r="B57" s="57" t="inlineStr">
-        <is>
-          <t>TC052</t>
-        </is>
-      </c>
-      <c r="C57" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D57" s="70" t="inlineStr">
-        <is>
-          <t>IPv6 security check</t>
-        </is>
-      </c>
-      <c r="E57" s="61" t="inlineStr">
-        <is>
-          <t>1. Perform security scan on IPv6 communication
-2. Check for vulnerabilities</t>
-        </is>
-      </c>
-      <c r="F57" s="62" t="inlineStr">
-        <is>
-          <t>No security vulnerabilities should be found</t>
-        </is>
-      </c>
-      <c r="G57" s="58" t="inlineStr"/>
-      <c r="H57" s="59" t="inlineStr">
-        <is>
-          <t>Security verification</t>
-        </is>
-      </c>
-      <c r="I57" s="53" t="n"/>
-    </row>
-    <row r="58" ht="99.75" customHeight="1">
-      <c r="B58" s="57" t="inlineStr">
-        <is>
-          <t>TC053</t>
-        </is>
-      </c>
-      <c r="C58" s="60" t="inlineStr">
-        <is>
-          <t>SCC function enabled</t>
-        </is>
-      </c>
-      <c r="D58" s="70" t="inlineStr">
-        <is>
-          <t>IPv4 packet fragmentation</t>
-        </is>
-      </c>
-      <c r="E58" s="61" t="inlineStr">
-        <is>
-          <t>1. Configure network to force IPv4 packet fragmentation
-2. Monitor communication</t>
+3. Monitor SCC communication</t>
         </is>
       </c>
       <c r="F58" s="62" t="inlineStr">
         <is>
-          <t>Communication should handle fragmentation properly</t>
+          <t>1. MFP should successfully register and communicate with server
+2. All SCC functions should work properly in dual-stack environment</t>
         </is>
       </c>
       <c r="G58" s="58" t="inlineStr"/>
       <c r="H58" s="59" t="inlineStr">
         <is>
-          <t>IPv4 robustness</t>
+          <t>IPv4/IPv6 dual-stack test</t>
         </is>
       </c>
       <c r="I58" s="53" t="n"/>
@@ -12129,29 +12045,32 @@
       </c>
       <c r="C59" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled in dual-stack environment</t>
         </is>
       </c>
       <c r="D59" s="70" t="inlineStr">
         <is>
-          <t>IPv6 jumbo packets</t>
+          <t>Verify IPv4 to IPv6 fallback</t>
         </is>
       </c>
       <c r="E59" s="61" t="inlineStr">
         <is>
-          <t>1. Configure network to use IPv6 jumbo packets
-2. Monitor communication</t>
+          <t>1. Configure dual-stack environment
+2. Start SCC communication over IPv4
+3. Disable IPv4 connectivity
+4. Monitor fallback behavior</t>
         </is>
       </c>
       <c r="F59" s="62" t="inlineStr">
         <is>
-          <t>Communication should handle jumbo packets properly</t>
+          <t>1. MFP should fallback to IPv6 when IPv4 becomes unavailable
+2. SCC communication should continue without interruption</t>
         </is>
       </c>
       <c r="G59" s="58" t="inlineStr"/>
       <c r="H59" s="59" t="inlineStr">
         <is>
-          <t>IPv6 robustness</t>
+          <t>IPv4/IPv6 fallback test</t>
         </is>
       </c>
       <c r="I59" s="53" t="n"/>
@@ -12164,29 +12083,32 @@
       </c>
       <c r="C60" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled in dual-stack environment</t>
         </is>
       </c>
       <c r="D60" s="70" t="inlineStr">
         <is>
-          <t>SSL certificate validation</t>
+          <t>Verify IPv6 to IPv4 fallback</t>
         </is>
       </c>
       <c r="E60" s="61" t="inlineStr">
         <is>
-          <t>1. Present invalid SSL certificate
-2. Monitor communication</t>
+          <t>1. Configure dual-stack environment
+2. Start SCC communication over IPv6
+3. Disable IPv6 connectivity
+4. Monitor fallback behavior</t>
         </is>
       </c>
       <c r="F60" s="62" t="inlineStr">
         <is>
-          <t>MFP should reject invalid certificate</t>
+          <t>1. MFP should fallback to IPv4 when IPv6 becomes unavailable
+2. SCC communication should continue without interruption</t>
         </is>
       </c>
       <c r="G60" s="58" t="inlineStr"/>
       <c r="H60" s="59" t="inlineStr">
         <is>
-          <t>Security verification</t>
+          <t>IPv6/IPv4 fallback test</t>
         </is>
       </c>
       <c r="I60" s="53" t="n"/>
@@ -12199,30 +12121,31 @@
       </c>
       <c r="C61" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D61" s="70" t="inlineStr">
         <is>
-          <t>Custom CA certificate</t>
+          <t>Verify IPv4 edge case handling</t>
         </is>
       </c>
       <c r="E61" s="61" t="inlineStr">
         <is>
-          <t>1. Import custom CA certificate via TA
-2. Configure custom HTTPS server
-3. Monitor communication</t>
+          <t>1. Configure MFP with edge case IPv4 addresses (0.0.0.0, 127.0.0.1, 255.255.255.255)
+2. Attempt SCC communication
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F61" s="62" t="inlineStr">
         <is>
-          <t>MFP should accept custom certificate</t>
+          <t>1. MFP should handle edge case IPv4 addresses appropriately
+2. Error handling should be triggered for invalid addresses</t>
         </is>
       </c>
       <c r="G61" s="58" t="inlineStr"/>
       <c r="H61" s="59" t="inlineStr">
         <is>
-          <t>Security verification</t>
+          <t>IPv4 edge case test</t>
         </is>
       </c>
       <c r="I61" s="53" t="n"/>
@@ -12235,29 +12158,31 @@
       </c>
       <c r="C62" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D62" s="70" t="inlineStr">
         <is>
-          <t>Network latency test</t>
+          <t>Verify IPv6 edge case handling</t>
         </is>
       </c>
       <c r="E62" s="61" t="inlineStr">
         <is>
-          <t>1. Introduce network latency
-2. Monitor communication behavior</t>
+          <t>1. Configure MFP with edge case IPv6 addresses (::, ::1, fe80::)
+2. Attempt SCC communication
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F62" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle latency gracefully</t>
+          <t>1. MFP should handle edge case IPv6 addresses appropriately
+2. Error handling should be triggered for invalid addresses</t>
         </is>
       </c>
       <c r="G62" s="58" t="inlineStr"/>
       <c r="H62" s="59" t="inlineStr">
         <is>
-          <t>Performance verification</t>
+          <t>IPv6 edge case test</t>
         </is>
       </c>
       <c r="I62" s="53" t="n"/>
@@ -12270,29 +12195,33 @@
       </c>
       <c r="C63" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D63" s="70" t="inlineStr">
         <is>
-          <t>Network packet loss test</t>
+          <t>Verify IPv4 performance</t>
         </is>
       </c>
       <c r="E63" s="61" t="inlineStr">
         <is>
-          <t>1. Introduce packet loss
-2. Monitor communication behavior</t>
+          <t>1. Configure network for IPv4 only
+2. Measure performance metrics during SCC communication:
+- Registration time
+- Package download speed
+- Data upload speed
+- Communication latency</t>
         </is>
       </c>
       <c r="F63" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle packet loss gracefully</t>
+          <t>1. Performance metrics should be within acceptable ranges for IPv4</t>
         </is>
       </c>
       <c r="G63" s="58" t="inlineStr"/>
       <c r="H63" s="59" t="inlineStr">
         <is>
-          <t>Robustness verification</t>
+          <t>IPv4 performance test</t>
         </is>
       </c>
       <c r="I63" s="53" t="n"/>
@@ -12305,29 +12234,33 @@
       </c>
       <c r="C64" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D64" s="70" t="inlineStr">
         <is>
-          <t>Firmware update scheduling</t>
+          <t>Verify IPv6 performance</t>
         </is>
       </c>
       <c r="E64" s="61" t="inlineStr">
         <is>
-          <t>1. Configure firmware update with future schedule
-2. Monitor behavior at scheduled time</t>
+          <t>1. Configure network for IPv6 only
+2. Measure performance metrics during SCC communication:
+- Registration time
+- Package download speed
+- Data upload speed
+- Communication latency</t>
         </is>
       </c>
       <c r="F64" s="62" t="inlineStr">
         <is>
-          <t>Firmware should update at scheduled time</t>
+          <t>1. Performance metrics should be within acceptable ranges for IPv6</t>
         </is>
       </c>
       <c r="G64" s="58" t="inlineStr"/>
       <c r="H64" s="59" t="inlineStr">
         <is>
-          <t>Scheduling verification</t>
+          <t>IPv6 performance test</t>
         </is>
       </c>
       <c r="I64" s="53" t="n"/>
@@ -12340,29 +12273,31 @@
       </c>
       <c r="C65" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D65" s="70" t="inlineStr">
         <is>
-          <t>Multiple consecutive errors</t>
+          <t>Compare IPv4 vs IPv6 performance</t>
         </is>
       </c>
       <c r="E65" s="61" t="inlineStr">
         <is>
-          <t>1. Generate multiple device errors in quick succession
-2. Monitor error notifications</t>
+          <t>1. Measure performance metrics in IPv4-only environment
+2. Measure performance metrics in IPv6-only environment
+3. Compare results</t>
         </is>
       </c>
       <c r="F65" s="62" t="inlineStr">
         <is>
-          <t>All errors should be reported correctly</t>
+          <t>1. Performance differences between IPv4 and IPv6 should be documented
+2. Both should meet minimum performance requirements</t>
         </is>
       </c>
       <c r="G65" s="58" t="inlineStr"/>
       <c r="H65" s="59" t="inlineStr">
         <is>
-          <t>Error handling verification</t>
+          <t>IPv4/IPv6 performance comparison</t>
         </is>
       </c>
       <c r="I65" s="53" t="n"/>
@@ -12375,30 +12310,34 @@
       </c>
       <c r="C66" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D66" s="70" t="inlineStr">
         <is>
-          <t>Error removal notification</t>
+          <t>Verify IPv4 security</t>
         </is>
       </c>
       <c r="E66" s="61" t="inlineStr">
         <is>
-          <t>1. Generate device error
-2. Clear error without power cycle
-3. Monitor notification</t>
+          <t>1. Perform security tests on IPv4 connection:
+- Man-in-the-middle attack
+- IP spoofing
+- Port scanning
+- DoS attack</t>
         </is>
       </c>
       <c r="F66" s="62" t="inlineStr">
         <is>
-          <t>Error removal should be reported with "-" prefix</t>
+          <t>1. SCC should maintain security during IPv4 attacks
+2. Communication should remain encrypted
+3. Authentication should remain secure</t>
         </is>
       </c>
       <c r="G66" s="58" t="inlineStr"/>
       <c r="H66" s="59" t="inlineStr">
         <is>
-          <t>Error handling verification</t>
+          <t>IPv4 security test</t>
         </is>
       </c>
       <c r="I66" s="53" t="n"/>
@@ -12411,30 +12350,34 @@
       </c>
       <c r="C67" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D67" s="70" t="inlineStr">
         <is>
-          <t>Cloning data application</t>
+          <t>Verify IPv6 security</t>
         </is>
       </c>
       <c r="E67" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send cloning data
-2. Wait for communication cycle
-3. Verify settings after installation</t>
+          <t>1. Perform security tests on IPv6 connection:
+- Man-in-the-middle attack
+- IP spoofing
+- Port scanning
+- DoS attack</t>
         </is>
       </c>
       <c r="F67" s="62" t="inlineStr">
         <is>
-          <t>Settings should match cloning data</t>
+          <t>1. SCC should maintain security during IPv6 attacks
+2. Communication should remain encrypted
+3. Authentication should remain secure</t>
         </is>
       </c>
       <c r="G67" s="58" t="inlineStr"/>
       <c r="H67" s="59" t="inlineStr">
         <is>
-          <t>Cloning verification</t>
+          <t>IPv6 security test</t>
         </is>
       </c>
       <c r="I67" s="53" t="n"/>
@@ -12447,29 +12390,31 @@
       </c>
       <c r="C68" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D68" s="70" t="inlineStr">
         <is>
-          <t>SendDataConfig parameter test</t>
+          <t>Verify IPv4 proxy authentication</t>
         </is>
       </c>
       <c r="E68" s="61" t="inlineStr">
         <is>
-          <t>1. Configure different combinations of SendDataConfig parameters
-2. Monitor data transmission</t>
+          <t>1. Configure IPv4 proxy with authentication
+2. Enable SCC
+3. Monitor SCC communication</t>
         </is>
       </c>
       <c r="F68" s="62" t="inlineStr">
         <is>
-          <t>Only configured data types should be sent</t>
+          <t>1. MFP should successfully authenticate with proxy
+2. SCC communication should work through authenticated proxy</t>
         </is>
       </c>
       <c r="G68" s="58" t="inlineStr"/>
       <c r="H68" s="59" t="inlineStr">
         <is>
-          <t>Configuration verification</t>
+          <t>IPv4 proxy test</t>
         </is>
       </c>
       <c r="I68" s="53" t="n"/>
@@ -12482,29 +12427,31 @@
       </c>
       <c r="C69" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D69" s="70" t="inlineStr">
         <is>
-          <t>Maximum package size</t>
+          <t>Verify IPv6 proxy authentication</t>
         </is>
       </c>
       <c r="E69" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send maximum size package
-2. Monitor download and installation</t>
+          <t>1. Configure IPv6 proxy with authentication
+2. Enable SCC
+3. Monitor SCC communication</t>
         </is>
       </c>
       <c r="F69" s="62" t="inlineStr">
         <is>
-          <t>Package should download and install correctly</t>
+          <t>1. MFP should successfully authenticate with proxy
+2. SCC communication should work through authenticated proxy</t>
         </is>
       </c>
       <c r="G69" s="58" t="inlineStr"/>
       <c r="H69" s="59" t="inlineStr">
         <is>
-          <t>Boundary verification</t>
+          <t>IPv6 proxy test</t>
         </is>
       </c>
       <c r="I69" s="53" t="n"/>
@@ -12517,29 +12464,30 @@
       </c>
       <c r="C70" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D70" s="70" t="inlineStr">
         <is>
-          <t>Installation failure retry</t>
+          <t>Verify malformed IPv4 address handling</t>
         </is>
       </c>
       <c r="E70" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send package that will fail installation
-2. Monitor retry behavior</t>
+          <t>1. Configure MFP with malformed IPv4 addresses
+2. Attempt SCC communication
+3. Monitor error handling</t>
         </is>
       </c>
       <c r="F70" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify failure and retry after 1 hour</t>
+          <t>1. MFP should properly handle and report errors for malformed IPv4 addresses</t>
         </is>
       </c>
       <c r="G70" s="58" t="inlineStr"/>
       <c r="H70" s="59" t="inlineStr">
         <is>
-          <t>Error recovery verification</t>
+          <t>IPv4 error handling test</t>
         </is>
       </c>
       <c r="I70" s="53" t="n"/>
@@ -12552,30 +12500,30 @@
       </c>
       <c r="C71" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D71" s="70" t="inlineStr">
         <is>
-          <t>Multiple update instructions</t>
+          <t>Verify malformed IPv6 address handling</t>
         </is>
       </c>
       <c r="E71" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to send multiple update instructions
-2. Force failure of one instruction
-3. Monitor behavior</t>
+          <t>1. Configure MFP with malformed IPv6 addresses
+2. Attempt SCC communication
+3. Monitor error handling</t>
         </is>
       </c>
       <c r="F71" s="62" t="inlineStr">
         <is>
-          <t>MFP should continue with remaining instructions</t>
+          <t>1. MFP should properly handle and report errors for malformed IPv6 addresses</t>
         </is>
       </c>
       <c r="G71" s="58" t="inlineStr"/>
       <c r="H71" s="59" t="inlineStr">
         <is>
-          <t>Robustness verification</t>
+          <t>IPv6 error handling test</t>
         </is>
       </c>
       <c r="I71" s="53" t="n"/>
@@ -12588,30 +12536,33 @@
       </c>
       <c r="C72" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D72" s="70" t="inlineStr">
         <is>
-          <t>SSD model firmware update</t>
+          <t>Verify IPv4 network interruption recovery</t>
         </is>
       </c>
       <c r="E72" s="61" t="inlineStr">
         <is>
-          <t>1. Configure SSD model MFP
-2. Send firmware update instruction
-3. Monitor behavior</t>
+          <t>1. Start SCC communication over IPv4
+2. Interrupt network connection
+3. Restore connection
+4. Monitor recovery behavior</t>
         </is>
       </c>
       <c r="F72" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle firmware update appropriately for SSD model</t>
+          <t>1. MFP should detect network interruption
+2. MFP should enter retry mode
+3. MFP should recover when connection is restored</t>
         </is>
       </c>
       <c r="G72" s="58" t="inlineStr"/>
       <c r="H72" s="59" t="inlineStr">
         <is>
-          <t>Model-specific verification</t>
+          <t>IPv4 recovery test</t>
         </is>
       </c>
       <c r="I72" s="53" t="n"/>
@@ -12624,29 +12575,33 @@
       </c>
       <c r="C73" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D73" s="70" t="inlineStr">
         <is>
-          <t>Random data exploration</t>
+          <t>Verify IPv6 network interruption recovery</t>
         </is>
       </c>
       <c r="E73" s="61" t="inlineStr">
         <is>
-          <t>1. Send random/unexpected data in server responses
-2. Monitor MFP behavior</t>
+          <t>1. Start SCC communication over IPv6
+2. Interrupt network connection
+3. Restore connection
+4. Monitor recovery behavior</t>
         </is>
       </c>
       <c r="F73" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle unexpected data gracefully</t>
+          <t>1. MFP should detect network interruption
+2. MFP should enter retry mode
+3. MFP should recover when connection is restored</t>
         </is>
       </c>
       <c r="G73" s="58" t="inlineStr"/>
       <c r="H73" s="59" t="inlineStr">
         <is>
-          <t>Exploratory testing</t>
+          <t>IPv6 recovery test</t>
         </is>
       </c>
       <c r="I73" s="53" t="n"/>
@@ -12659,29 +12614,31 @@
       </c>
       <c r="C74" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D74" s="70" t="inlineStr">
         <is>
-          <t>Stress test - rapid communication</t>
+          <t>Verify IPv4 DNS resolution</t>
         </is>
       </c>
       <c r="E74" s="61" t="inlineStr">
         <is>
-          <t>1. Configure very frequent communication schedule
-2. Monitor MFP behavior over extended period</t>
+          <t>1. Configure IPv4 DNS settings
+2. Use hostname in SCC URL setting
+3. Monitor DNS resolution during SCC communication</t>
         </is>
       </c>
       <c r="F74" s="62" t="inlineStr">
         <is>
-          <t>MFP should maintain stability</t>
+          <t>1. MFP should properly resolve hostname to IPv4 address
+2. SCC communication should work with hostname</t>
         </is>
       </c>
       <c r="G74" s="58" t="inlineStr"/>
       <c r="H74" s="59" t="inlineStr">
         <is>
-          <t>Stress testing</t>
+          <t>IPv4 DNS test</t>
         </is>
       </c>
       <c r="I74" s="53" t="n"/>
@@ -12694,200 +12651,483 @@
       </c>
       <c r="C75" s="60" t="inlineStr">
         <is>
-          <t>SCC function enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D75" s="70" t="inlineStr">
         <is>
-          <t>Long-term reliability</t>
+          <t>Verify IPv6 DNS resolution</t>
         </is>
       </c>
       <c r="E75" s="61" t="inlineStr">
         <is>
-          <t>1. Configure normal operation
-2. Monitor over extended period (days/weeks)
-3. Check for memory leaks or performance degradation</t>
+          <t>1. Configure IPv6 DNS settings
+2. Use hostname in SCC URL setting
+3. Monitor DNS resolution during SCC communication</t>
         </is>
       </c>
       <c r="F75" s="62" t="inlineStr">
         <is>
-          <t>MFP should maintain stable performance</t>
+          <t>1. MFP should properly resolve hostname to IPv6 address
+2. SCC communication should work with hostname</t>
         </is>
       </c>
       <c r="G75" s="58" t="inlineStr"/>
       <c r="H75" s="59" t="inlineStr">
         <is>
-          <t>Reliability testing</t>
+          <t>IPv6 DNS test</t>
         </is>
       </c>
       <c r="I75" s="53" t="n"/>
     </row>
     <row r="76" ht="99.75" customHeight="1">
-      <c r="B76" s="57" t="n"/>
-      <c r="C76" s="60" t="n"/>
-      <c r="D76" s="70" t="n"/>
-      <c r="E76" s="61" t="n"/>
-      <c r="F76" s="62" t="n"/>
-      <c r="G76" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H76" s="59" t="n"/>
+      <c r="B76" s="57" t="inlineStr">
+        <is>
+          <t>TC071</t>
+        </is>
+      </c>
+      <c r="C76" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D76" s="70" t="inlineStr">
+        <is>
+          <t>Verify IPv4 firewall traversal</t>
+        </is>
+      </c>
+      <c r="E76" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure firewall with IPv4 restrictions
+2. Enable SCC
+3. Monitor SCC communication through firewall</t>
+        </is>
+      </c>
+      <c r="F76" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should communicate through firewall using allowed ports
+2. MFP should fallback to alternative port if primary port is blocked</t>
+        </is>
+      </c>
+      <c r="G76" s="58" t="inlineStr"/>
+      <c r="H76" s="59" t="inlineStr">
+        <is>
+          <t>IPv4 firewall test</t>
+        </is>
+      </c>
       <c r="I76" s="53" t="n"/>
     </row>
     <row r="77" ht="99.75" customHeight="1">
-      <c r="B77" s="57" t="n"/>
-      <c r="C77" s="60" t="n"/>
-      <c r="D77" s="70" t="n"/>
-      <c r="E77" s="61" t="n"/>
-      <c r="F77" s="62" t="n"/>
-      <c r="G77" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H77" s="59" t="n"/>
+      <c r="B77" s="57" t="inlineStr">
+        <is>
+          <t>TC072</t>
+        </is>
+      </c>
+      <c r="C77" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D77" s="70" t="inlineStr">
+        <is>
+          <t>Verify IPv6 firewall traversal</t>
+        </is>
+      </c>
+      <c r="E77" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure firewall with IPv6 restrictions
+2. Enable SCC
+3. Monitor SCC communication through firewall</t>
+        </is>
+      </c>
+      <c r="F77" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should communicate through firewall using allowed ports
+2. MFP should fallback to alternative port if primary port is blocked</t>
+        </is>
+      </c>
+      <c r="G77" s="58" t="inlineStr"/>
+      <c r="H77" s="59" t="inlineStr">
+        <is>
+          <t>IPv6 firewall test</t>
+        </is>
+      </c>
       <c r="I77" s="53" t="n"/>
     </row>
     <row r="78" ht="99.75" customHeight="1">
-      <c r="B78" s="57" t="n"/>
-      <c r="C78" s="60" t="n"/>
-      <c r="D78" s="70" t="n"/>
-      <c r="E78" s="61" t="n"/>
-      <c r="F78" s="62" t="n"/>
-      <c r="G78" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H78" s="59" t="n"/>
+      <c r="B78" s="57" t="inlineStr">
+        <is>
+          <t>TC073</t>
+        </is>
+      </c>
+      <c r="C78" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D78" s="70" t="inlineStr">
+        <is>
+          <t>Verify stress test with multiple IPv4 connections</t>
+        </is>
+      </c>
+      <c r="E78" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure multiple MFPs with IPv4
+2. Enable SCC on all MFPs simultaneously
+3. Monitor server and MFP behavior</t>
+        </is>
+      </c>
+      <c r="F78" s="62" t="inlineStr">
+        <is>
+          <t>1. Server should handle multiple IPv4 connections
+2. MFPs should handle server BUSY responses appropriately</t>
+        </is>
+      </c>
+      <c r="G78" s="58" t="inlineStr"/>
+      <c r="H78" s="59" t="inlineStr">
+        <is>
+          <t>IPv4 stress test</t>
+        </is>
+      </c>
       <c r="I78" s="53" t="n"/>
     </row>
     <row r="79" ht="99.75" customHeight="1">
-      <c r="B79" s="57" t="n"/>
-      <c r="C79" s="60" t="n"/>
-      <c r="D79" s="70" t="n"/>
-      <c r="E79" s="61" t="n"/>
-      <c r="F79" s="62" t="n"/>
-      <c r="G79" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H79" s="59" t="n"/>
+      <c r="B79" s="57" t="inlineStr">
+        <is>
+          <t>TC074</t>
+        </is>
+      </c>
+      <c r="C79" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D79" s="70" t="inlineStr">
+        <is>
+          <t>Verify stress test with multiple IPv6 connections</t>
+        </is>
+      </c>
+      <c r="E79" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure multiple MFPs with IPv6
+2. Enable SCC on all MFPs simultaneously
+3. Monitor server and MFP behavior</t>
+        </is>
+      </c>
+      <c r="F79" s="62" t="inlineStr">
+        <is>
+          <t>1. Server should handle multiple IPv6 connections
+2. MFPs should handle server BUSY responses appropriately</t>
+        </is>
+      </c>
+      <c r="G79" s="58" t="inlineStr"/>
+      <c r="H79" s="59" t="inlineStr">
+        <is>
+          <t>IPv6 stress test</t>
+        </is>
+      </c>
       <c r="I79" s="53" t="n"/>
     </row>
     <row r="80" ht="99.75" customHeight="1">
-      <c r="B80" s="57" t="n"/>
-      <c r="C80" s="60" t="n"/>
-      <c r="D80" s="70" t="n"/>
-      <c r="E80" s="61" t="n"/>
-      <c r="F80" s="62" t="n"/>
-      <c r="G80" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H80" s="59" t="n"/>
+      <c r="B80" s="57" t="inlineStr">
+        <is>
+          <t>TC075</t>
+        </is>
+      </c>
+      <c r="C80" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D80" s="70" t="inlineStr">
+        <is>
+          <t>Verify IPv4 URL redirection</t>
+        </is>
+      </c>
+      <c r="E80" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure MFP with IPv4
+2. Set 08-3827 to NULL
+3. Enable SCC
+4. Monitor GetRedirectURL request</t>
+        </is>
+      </c>
+      <c r="F80" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should send GetRedirectURL request to NA server
+2. MFP should follow redirection based on IPv4 address</t>
+        </is>
+      </c>
+      <c r="G80" s="58" t="inlineStr"/>
+      <c r="H80" s="59" t="inlineStr">
+        <is>
+          <t>IPv4 redirection test</t>
+        </is>
+      </c>
       <c r="I80" s="53" t="n"/>
     </row>
     <row r="81" ht="99.75" customHeight="1">
-      <c r="B81" s="57" t="n"/>
-      <c r="C81" s="60" t="n"/>
-      <c r="D81" s="70" t="n"/>
-      <c r="E81" s="61" t="n"/>
-      <c r="F81" s="62" t="n"/>
-      <c r="G81" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H81" s="59" t="n"/>
+      <c r="B81" s="57" t="inlineStr">
+        <is>
+          <t>TC076</t>
+        </is>
+      </c>
+      <c r="C81" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D81" s="70" t="inlineStr">
+        <is>
+          <t>Verify IPv6 URL redirection</t>
+        </is>
+      </c>
+      <c r="E81" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure MFP with IPv6
+2. Set 08-3827 to NULL
+3. Enable SCC
+4. Monitor GetRedirectURL request</t>
+        </is>
+      </c>
+      <c r="F81" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should send GetRedirectURL request to NA server
+2. MFP should follow redirection based on IPv6 address</t>
+        </is>
+      </c>
+      <c r="G81" s="58" t="inlineStr"/>
+      <c r="H81" s="59" t="inlineStr">
+        <is>
+          <t>IPv6 redirection test</t>
+        </is>
+      </c>
       <c r="I81" s="53" t="n"/>
     </row>
     <row r="82" ht="99.75" customHeight="1">
-      <c r="B82" s="57" t="n"/>
-      <c r="C82" s="60" t="n"/>
-      <c r="D82" s="70" t="n"/>
-      <c r="E82" s="61" t="n"/>
-      <c r="F82" s="62" t="n"/>
-      <c r="G82" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H82" s="59" t="n"/>
+      <c r="B82" s="57" t="inlineStr">
+        <is>
+          <t>TC077</t>
+        </is>
+      </c>
+      <c r="C82" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D82" s="70" t="inlineStr">
+        <is>
+          <t>Verify compatibility with IPv4 NAT</t>
+        </is>
+      </c>
+      <c r="E82" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure network with IPv4 NAT
+2. Enable SCC
+3. Monitor SCC communication through NAT</t>
+        </is>
+      </c>
+      <c r="F82" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should communicate successfully through NAT
+2. All SCC functions should work properly</t>
+        </is>
+      </c>
+      <c r="G82" s="58" t="inlineStr"/>
+      <c r="H82" s="59" t="inlineStr">
+        <is>
+          <t>IPv4 NAT test</t>
+        </is>
+      </c>
       <c r="I82" s="53" t="n"/>
     </row>
     <row r="83" ht="99.75" customHeight="1">
-      <c r="B83" s="57" t="n"/>
-      <c r="C83" s="60" t="n"/>
-      <c r="D83" s="70" t="n"/>
-      <c r="E83" s="61" t="n"/>
-      <c r="F83" s="62" t="n"/>
-      <c r="G83" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H83" s="59" t="n"/>
+      <c r="B83" s="57" t="inlineStr">
+        <is>
+          <t>TC078</t>
+        </is>
+      </c>
+      <c r="C83" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D83" s="70" t="inlineStr">
+        <is>
+          <t>Verify compatibility with IPv6 NAT</t>
+        </is>
+      </c>
+      <c r="E83" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure network with IPv6 NAT
+2. Enable SCC
+3. Monitor SCC communication through NAT</t>
+        </is>
+      </c>
+      <c r="F83" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should communicate successfully through NAT
+2. All SCC functions should work properly</t>
+        </is>
+      </c>
+      <c r="G83" s="58" t="inlineStr"/>
+      <c r="H83" s="59" t="inlineStr">
+        <is>
+          <t>IPv6 NAT test</t>
+        </is>
+      </c>
       <c r="I83" s="53" t="n"/>
     </row>
     <row r="84" ht="99.75" customHeight="1">
-      <c r="B84" s="57" t="n"/>
-      <c r="C84" s="60" t="n"/>
-      <c r="D84" s="70" t="n"/>
-      <c r="E84" s="61" t="n"/>
-      <c r="F84" s="62" t="n"/>
-      <c r="G84" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H84" s="59" t="n"/>
+      <c r="B84" s="57" t="inlineStr">
+        <is>
+          <t>TC079</t>
+        </is>
+      </c>
+      <c r="C84" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D84" s="70" t="inlineStr">
+        <is>
+          <t>Verify IPv4 communication with limited bandwidth</t>
+        </is>
+      </c>
+      <c r="E84" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure network with limited IPv4 bandwidth
+2. Enable SCC
+3. Monitor SCC communication
+4. Measure download/upload times</t>
+        </is>
+      </c>
+      <c r="F84" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should successfully complete all SCC operations
+2. Performance may be degraded but operations should complete</t>
+        </is>
+      </c>
+      <c r="G84" s="58" t="inlineStr"/>
+      <c r="H84" s="59" t="inlineStr">
+        <is>
+          <t>IPv4 bandwidth test</t>
+        </is>
+      </c>
       <c r="I84" s="53" t="n"/>
     </row>
     <row r="85" ht="99.75" customHeight="1">
-      <c r="B85" s="57" t="n"/>
-      <c r="C85" s="60" t="n"/>
-      <c r="D85" s="70" t="n"/>
-      <c r="E85" s="61" t="n"/>
-      <c r="F85" s="62" t="n"/>
-      <c r="G85" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H85" s="59" t="n"/>
+      <c r="B85" s="57" t="inlineStr">
+        <is>
+          <t>TC080</t>
+        </is>
+      </c>
+      <c r="C85" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D85" s="70" t="inlineStr">
+        <is>
+          <t>Verify IPv6 communication with limited bandwidth</t>
+        </is>
+      </c>
+      <c r="E85" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure network with limited IPv6 bandwidth
+2. Enable SCC
+3. Monitor SCC communication
+4. Measure download/upload times</t>
+        </is>
+      </c>
+      <c r="F85" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should successfully complete all SCC operations
+2. Performance may be degraded but operations should complete</t>
+        </is>
+      </c>
+      <c r="G85" s="58" t="inlineStr"/>
+      <c r="H85" s="59" t="inlineStr">
+        <is>
+          <t>IPv6 bandwidth test</t>
+        </is>
+      </c>
       <c r="I85" s="53" t="n"/>
     </row>
     <row r="86" ht="99.75" customHeight="1">
-      <c r="B86" s="57" t="n"/>
-      <c r="C86" s="60" t="n"/>
-      <c r="D86" s="70" t="n"/>
-      <c r="E86" s="61" t="n"/>
-      <c r="F86" s="62" t="n"/>
-      <c r="G86" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H86" s="59" t="n"/>
+      <c r="B86" s="57" t="inlineStr">
+        <is>
+          <t>TC081</t>
+        </is>
+      </c>
+      <c r="C86" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D86" s="70" t="inlineStr">
+        <is>
+          <t>Verify IPv4 communication with high latency</t>
+        </is>
+      </c>
+      <c r="E86" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure network with high IPv4 latency
+2. Enable SCC
+3. Monitor SCC communication
+4. Measure response times</t>
+        </is>
+      </c>
+      <c r="F86" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should successfully complete all SCC operations
+2. Performance may be degraded but operations should complete</t>
+        </is>
+      </c>
+      <c r="G86" s="58" t="inlineStr"/>
+      <c r="H86" s="59" t="inlineStr">
+        <is>
+          <t>IPv4 latency test</t>
+        </is>
+      </c>
       <c r="I86" s="53" t="n"/>
     </row>
     <row r="87" ht="99.75" customHeight="1">
-      <c r="B87" s="57" t="n"/>
-      <c r="C87" s="60" t="n"/>
-      <c r="D87" s="70" t="n"/>
-      <c r="E87" s="61" t="n"/>
-      <c r="F87" s="62" t="n"/>
-      <c r="G87" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H87" s="59" t="n"/>
+      <c r="B87" s="57" t="inlineStr">
+        <is>
+          <t>TC082</t>
+        </is>
+      </c>
+      <c r="C87" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D87" s="70" t="inlineStr">
+        <is>
+          <t>Verify IPv6 communication with high latency</t>
+        </is>
+      </c>
+      <c r="E87" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure network with high IPv6 latency
+2. Enable SCC
+3. Monitor SCC communication
+4. Measure response times</t>
+        </is>
+      </c>
+      <c r="F87" s="62" t="inlineStr">
+        <is>
+          <t>1. MFP should successfully complete all SCC operations
+2. Performance may be degraded but operations should complete</t>
+        </is>
+      </c>
+      <c r="G87" s="58" t="inlineStr"/>
+      <c r="H87" s="59" t="inlineStr">
+        <is>
+          <t>IPv6 latency test</t>
+        </is>
+      </c>
       <c r="I87" s="53" t="n"/>
     </row>
     <row r="88" ht="99.75" customHeight="1">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10125,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H2"/>
@@ -10250,29 +10250,24 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on and in normal boot-up mode</t>
+          <t>MFP is powered on with SCC disabled</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Verify enabling/disabling of SCC function</t>
+          <t>Verify SCC function can be enabled</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode or service UI on panel
+          <t>1. Access Self-diagnostic boot-up mode
 2. Set 08-3820 to 1 (Enable)
-3. Reboot the MFP
-4. Verify SCC function is enabled
-5. Set 08-3820 to 0 (Disable)
-6. Reboot the MFP</t>
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>1. SCC function should be enabled when 08-3820 is set to 1
-2. SCC function should be disabled when 08-3820 is set to 0
-3. Default value should be "Disable"</t>
+          <t>SCC function should be enabled after reboot</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10287,25 +10282,24 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP is powered on with SCC enabled</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report printing</t>
+          <t>Verify SCC function can be disabled</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
-2. Reboot the MFP
-3. Wait for MFP registration processing to complete</t>
+          <t>1. Access Self-diagnostic boot-up mode
+2. Set 08-3820 to 0 (Disable)
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>1. Installation report should be automatically printed
-2. Report should include: SCC Module Version, MFP Serial Number, MFP Model Name, MFP IP Address, Date/Time, Registration Status</t>
+          <t>SCC function should be disabled after reboot</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10320,26 +10314,24 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with SCC disabled</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report is printed only once</t>
+          <t>Verify SCC installation report is printed when enabled</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
           <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
 2. Reboot the MFP
-3. Wait for installation report to print
-4. Disable and re-enable SCC function</t>
+3. Wait for MFP registration processing</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>1. Installation report should print only after the first enable
-2. Report should not print again when re-enabling</t>
+          <t>Installation report should be automatically printed after registration</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10359,19 +10351,19 @@
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report language</t>
+          <t>Verify SCC installation report is printed only once</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Change MFP display language to non-English
-2. Disable and re-enable SCC
-3. Check installation report language</t>
+          <t>1. Set 08-3820 from 0 to 1
+2. Reboot and wait for installation report
+3. Disable and re-enable SCC again</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>1. Installation report should be printed in English only regardless of MFP language setting</t>
+          <t>Installation report should print only after the first enable, not subsequent enables</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10391,20 +10383,18 @@
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report job log</t>
+          <t>Verify SCC installation report content</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC function
-2. Wait for installation report to print
-3. Check job log</t>
+          <t>1. Enable SCC and wait for installation report
+2. Check the printed report</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>1. SCC report printing should be recorded in Job Log as network print
-2. User counter for built-in Admin should be incremented</t>
+          <t>Report should contain: Serial Number, MAC Address, IP Address, Subnet Mask, Gateway, DNS Server, Registration Status, Date, Time</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10419,25 +10409,23 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>MFP with network print restriction mode enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report with print restrictions</t>
+          <t>Verify SCC report is recorded in job log</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-9344 to 1 (only private)
-2. Enable SCC function
-3. Check if report prints</t>
+          <t>1. Enable SCC and wait for installation report
+2. Check job log</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>1. SCC report should not be printed
-2. Job log should show error record (error code = 4221)</t>
+          <t>SCC report should be recorded in job log as network print</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10452,25 +10440,23 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>MFP with user authentication enabled</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report with quota restrictions</t>
+          <t>Verify user counter for built-in admin is incremented</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Enable user authentication
-2. Set quota for built-in admin to minimum
-3. Enable SCC function
-4. Check if report prints</t>
+          <t>1. Enable SCC and wait for installation report
+2. Check user counter for built-in admin</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>1. SCC report should not be printed due to quota error</t>
+          <t>User counter for built-in admin should be incremented after SCC report printing</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10485,25 +10471,24 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>MFP with coin controller equipped</t>
+          <t>MFP with SCC enabled and network print restriction mode (08-9344) set to 1 (only private)</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report with coin controller</t>
+          <t>Verify SCC report handling with print restrictions</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Equip coin controller
-2. Enable external counter 08 code
-3. Enable SCC function
-4. Check if report prints</t>
+          <t>1. Set 08-9344 to 1 (only private)
+2. Enable SCC
+3. Wait for installation report</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>1. SCC report should not be printed until coin is inserted</t>
+          <t>SCC report should not be printed and job log should show error code 4221</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10518,24 +10503,24 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>MFP with job queue full</t>
+          <t>MFP with SCC enabled and user authentication enabled</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report with job queue full</t>
+          <t>Verify SCC report with quota exceeded</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Fill job queue with 1000 jobs
-2. Enable SCC function
-3. Check if report prints</t>
+          <t>1. Enable user authentication
+2. Set quota for built-in admin to minimum
+3. Enable SCC</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>1. SCC report should not be printed</t>
+          <t>SCC report should not be printed due to quota error</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10555,19 +10540,20 @@
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify HTTPS communication protocol</t>
+          <t>Verify SCC proxy server settings</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Monitor network traffic during SCC communication
-2. Verify protocol used</t>
+          <t>1. Access Self-diagnostic boot-up mode
+2. Configure 08-3822 to 08-3826 (proxy settings)
+3. Reboot the MFP
+4. Verify communication with server</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should use HTTPS for communication with servers
-2. Communication should always start from MFP side</t>
+          <t>MFP should communicate with server through configured proxy</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10587,21 +10573,19 @@
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify SSL certificate validation</t>
+          <t>Verify SCC communication with port 443</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP to communicate with test server with invalid certificate
-2. Monitor communication
-3. Configure with valid certificate
-4. Monitor communication</t>
+          <t>1. Configure firewall to allow port 443
+2. Enable SCC
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>1. Communication should fail with invalid certificate
-2. Communication should succeed with valid certificate</t>
+          <t>MFP should communicate with server using port 443</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10616,27 +10600,24 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with SCC enabled and port 443 blocked</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify proxy server settings</t>
+          <t>Verify SCC fallback to port 8443</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy server settings (08-3822 to 08-3826)
-2. Set valid proxy authentication credentials
-3. Verify SCC communication
-4. Set NULL account ID
-5. Verify SCC communication</t>
+          <t>1. Configure firewall to block port 443 but allow 8443
+2. Enable SCC
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should communicate through proxy with authentication
-2. MFP should communicate through proxy without authentication when account ID is NULL</t>
+          <t>MFP should automatically use port 8443 for communication</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10656,20 +10637,18 @@
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify port number fallback</t>
+          <t>Verify SCC does not start in special startup mode</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Block port 443 on firewall
-2. Allow port 8443
-3. Trigger SCC communication
-4. Monitor network traffic</t>
+          <t>1. Boot MFP in special startup mode
+2. Check if SCC process starts</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should automatically use port 8443 when port 443 is not available</t>
+          <t>SCC process should not start in special startup mode</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10684,23 +10663,24 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>MFP in special startup mode</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC process startup</t>
+          <t>Verify service UI unavailability during SCC communication</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Boot MFP in special startup mode
-2. Check if SCC process starts</t>
+          <t>1. Enable SCC
+2. Trigger SCC communication
+3. Try to access service UI</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>1. SCC process should not start in special startup mode</t>
+          <t>Service UI should be unavailable during SCC communication</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10720,21 +10700,19 @@
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication loop timing</t>
+          <t>Verify regular communication loop timing at startup</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Configure SCC communication schedule to specific time
-2. Monitor network traffic at scheduled time
-3. Change to interval-based schedule (e.g., every 30 min)
-4. Monitor network traffic</t>
+          <t>1. Enable SCC
+2. Reboot MFP
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should communicate with server at specified time
-2. MFP should communicate at specified intervals</t>
+          <t>MFP should initiate communication with server after normal startup</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10754,21 +10732,19 @@
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify event notification loop</t>
+          <t>Verify regular communication with daily schedule</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger device error event
-2. Monitor network traffic
-3. Clear error
-4. Monitor network traffic</t>
+          <t>1. Set communication schedule to daily at specific time
+2. Wait for scheduled time
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should immediately notify server of error event
-2. MFP should notify server when error is cleared</t>
+          <t>MFP should initiate communication at the specified time</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10788,22 +10764,18 @@
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify first-time device registration</t>
+          <t>Verify regular communication with interval schedule</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC on unregistered MFP
-2. Monitor registration sequence
-3. Verify installation report</t>
+          <t>1. Set communication schedule to interval (e.g., 15 min)
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should register with server
-2. Server should send secret question
-3. MFP should answer correctly
-4. Registration should complete successfully</t>
+          <t>MFP should initiate communication at the specified interval</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
@@ -10818,24 +10790,23 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify subsequent device authentication</t>
+          <t>Verify communication sequence</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication on registered MFP
-2. Monitor authentication sequence</t>
+          <t>1. Trigger SCC communication
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should authenticate using token
-2. Authentication should complete successfully</t>
+          <t>Communication should follow sequence: Register Device → Check for Updates → Download Package → Send Baseline Data → Install Package → Update Status → Send Regular Data</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
@@ -10850,26 +10821,23 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with SCC enabled, first time registration</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Verify server busy handling</t>
+          <t>Verify first-time MFP registration</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Configure test server to respond with BUSY status
-2. Trigger SCC communication
-3. Monitor retry behavior</t>
+          <t>1. Enable SCC on unregistered MFP
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should retry after waiting period specified by server
-2. MFP should retry up to 3 times
-3. MFP should exit communication cycle after 4th BUSY response</t>
+          <t>MFP should send registration request and be registered with server</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10884,26 +10852,23 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP with SCC enabled, already registered</t>
         </is>
       </c>
       <c r="D25" s="70" t="inlineStr">
         <is>
-          <t>Verify registration failure handling</t>
+          <t>Verify MFP authentication after registration</t>
         </is>
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Configure test environment for registration failure
-2. Trigger SCC communication
-3. Monitor behavior after 3 consecutive failures</t>
+          <t>1. Trigger SCC communication on registered MFP
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>1. After 3 consecutive failures, server should respond with STATUS_LOCK
-2. Installation Report should be printed
-3. MFP should exit communication cycle</t>
+          <t>MFP should authenticate with server using token</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
@@ -10918,26 +10883,23 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D26" s="70" t="inlineStr">
         <is>
-          <t>Verify Check for Updates functionality</t>
+          <t>Verify server BUSY handling</t>
         </is>
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to indicate updates available
-2. Trigger SCC communication
-3. Monitor Check for Updates sequence</t>
+          <t>1. Simulate server BUSY response
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should call Check for Updates interface
-2. MFP should receive update information
-3. MFP should proceed to Download Package</t>
+          <t>MFP should retry connection with increasing intervals as specified by server</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
@@ -10952,26 +10914,23 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Verify Download Package functionality</t>
+          <t>Verify MFP registration failure handling</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide update package
-2. Trigger SCC communication
-3. Monitor Download Package sequence</t>
+          <t>1. Simulate registration failure response
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should download package using Package ID
-2. MFP should verify hash value with MD5
-3. MFP should unzip package successfully</t>
+          <t>After 3 consecutive failures, MFP should exit communication cycle and wait for next schedule</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
@@ -10986,27 +10945,23 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Baseline Data functionality</t>
+          <t>Verify Check for Updates functionality</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Configure SendDataConfig parameters
-2. Trigger SCC communication
-3. Monitor Send Baseline Data sequence</t>
+          <t>1. Trigger SCC communication
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should collect data according to SendDataConfig
-2. MFP should create ZIP file with collected data
-3. MFP should send ZIP file to server
-4. MFP should calculate and send MD5 hash</t>
+          <t>MFP should call Check for Updates after Register Device</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
@@ -11021,27 +10976,24 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package for firmware update</t>
+          <t>Verify Download Package functionality</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide firmware update package
+          <t>1. Configure server to provide update package
 2. Trigger SCC communication
-3. Monitor Install Package sequence</t>
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should schedule firmware update
-2. MFP should display message during update
-3. MFP should reboot after update
-4. MFP should notify update status to server</t>
+          <t>MFP should download package after Check for Updates</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
@@ -11056,25 +11008,23 @@
       </c>
       <c r="C30" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D30" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package for policy violation</t>
+          <t>Verify package hash validation</t>
         </is>
       </c>
       <c r="E30" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide policy violation package
-2. Trigger SCC communication
-3. Monitor Install Package sequence</t>
+          <t>1. Configure server to provide update package with incorrect hash
+2. Trigger SCC communication</t>
         </is>
       </c>
       <c r="F30" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should apply policy settings
-2. MFP should notify update status to server</t>
+          <t>MFP should delete downloaded data and exit communication cycle</t>
         </is>
       </c>
       <c r="G30" s="58" t="inlineStr"/>
@@ -11089,25 +11039,23 @@
       </c>
       <c r="C31" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D31" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package for clone data</t>
+          <t>Verify Send Baseline Data functionality</t>
         </is>
       </c>
       <c r="E31" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide clone data package
-2. Trigger SCC communication
-3. Monitor Install Package sequence</t>
+          <t>1. Trigger SCC communication
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F31" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should apply clone data
-2. MFP should notify update status to server</t>
+          <t>MFP should send baseline data after Download Package</t>
         </is>
       </c>
       <c r="G31" s="58" t="inlineStr"/>
@@ -11122,27 +11070,24 @@
       </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D32" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Regular Data functionality</t>
+          <t>Verify Install Package functionality</t>
         </is>
       </c>
       <c r="E32" s="61" t="inlineStr">
         <is>
-          <t>1. Configure SendDataConfig parameters
+          <t>1. Configure server to provide update package
 2. Trigger SCC communication
-3. Monitor Send Regular Data sequence</t>
+3. Monitor installation</t>
         </is>
       </c>
       <c r="F32" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should collect data according to SendDataConfig
-2. MFP should create ZIP file with collected data
-3. MFP should send ZIP file to server
-4. MFP should calculate and send MD5 hash</t>
+          <t>MFP should install package after Send Baseline Data</t>
         </is>
       </c>
       <c r="G32" s="58" t="inlineStr"/>
@@ -11157,27 +11102,24 @@
       </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D33" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Device Error functionality</t>
+          <t>Verify firmware update installation</t>
         </is>
       </c>
       <c r="E33" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger device error
-2. Monitor Send Device Error sequence
-3. Clear error
-4. Monitor Send Device Error sequence</t>
+          <t>1. Configure server to provide firmware update
+2. Trigger SCC communication
+3. Monitor installation</t>
         </is>
       </c>
       <c r="F33" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should notify error to server with error code
-2. MFP should not send same error again unless cleared
-3. MFP should notify error removal with "-" prefix (e.g., -D102)</t>
+          <t>MFP should install firmware at scheduled time</t>
         </is>
       </c>
       <c r="G33" s="58" t="inlineStr"/>
@@ -11192,25 +11134,24 @@
       </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D34" s="70" t="inlineStr">
         <is>
-          <t>Verify panel message display during SCC processing</t>
+          <t>Verify Update Status notification</t>
         </is>
       </c>
       <c r="E34" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Observe panel display during different stages</t>
+          <t>1. Configure server to provide update package
+2. Trigger SCC communication
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F34" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should display "Service in progress. Please do not turn off: XX" message
-2. Numerical value should change according to processing stage
-3. Popup window with sand clock should appear during certain stages</t>
+          <t>MFP should notify installation status to server after Install Package</t>
         </is>
       </c>
       <c r="G34" s="58" t="inlineStr"/>
@@ -11225,27 +11166,23 @@
       </c>
       <c r="C35" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D35" s="70" t="inlineStr">
         <is>
-          <t>Verify Super Sleep behavior during SCC processing</t>
+          <t>Verify Send Regular Data functionality</t>
         </is>
       </c>
       <c r="E35" s="61" t="inlineStr">
         <is>
-          <t>1. Start SCC communication
-2. Attempt to enter Super Sleep
-3. Put MFP in Super Sleep
-4. Wait for scheduled communication time</t>
+          <t>1. Trigger SCC communication
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F35" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should not enter Super Sleep during communication cycle
-2. MFP should wake up from Super Sleep at scheduled communication time
-3. MFP should return to Super Sleep after communication</t>
+          <t>MFP should send regular data after Update Status</t>
         </is>
       </c>
       <c r="G35" s="58" t="inlineStr"/>
@@ -11260,23 +11197,23 @@
       </c>
       <c r="C36" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D36" s="70" t="inlineStr">
         <is>
-          <t>Verify Hibernation behavior during SCC processing</t>
+          <t>Verify event notification loop</t>
         </is>
       </c>
       <c r="E36" s="61" t="inlineStr">
         <is>
-          <t>1. Start SCC communication
-2. Attempt to enter Hibernation</t>
+          <t>1. Trigger device error
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F36" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should not enter Hibernation during communication cycle</t>
+          <t>MFP should notify error to server through event notification loop</t>
         </is>
       </c>
       <c r="G36" s="58" t="inlineStr"/>
@@ -11291,26 +11228,23 @@
       </c>
       <c r="C37" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D37" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy functionality</t>
+          <t>Verify Send Device Error functionality</t>
         </is>
       </c>
       <c r="E37" s="61" t="inlineStr">
         <is>
-          <t>1. Configure Persistent Policy from server
-2. Change 08/05/13 settings locally
-3. Wait for persistent check interval
-4. Observe settings</t>
+          <t>1. Trigger device error
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F37" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should restore 08/05/13 settings according to policy
-2. Persistent check should respect expiration setting</t>
+          <t>MFP should call Send Device Error to notify server</t>
         </is>
       </c>
       <c r="G37" s="58" t="inlineStr"/>
@@ -11325,23 +11259,23 @@
       </c>
       <c r="C38" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D38" s="70" t="inlineStr">
         <is>
-          <t>Verify Time-based Device State Data Values</t>
+          <t>Verify duplicate error handling</t>
         </is>
       </c>
       <c r="E38" s="61" t="inlineStr">
         <is>
-          <t>1. Configure time-based settings from server
-2. Observe settings at different times</t>
+          <t>1. Trigger same device error multiple times
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F38" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should change settings according to time-based configuration</t>
+          <t>MFP should not send duplicate errors unless they are removed</t>
         </is>
       </c>
       <c r="G38" s="58" t="inlineStr"/>
@@ -11361,20 +11295,19 @@
       </c>
       <c r="D39" s="70" t="inlineStr">
         <is>
-          <t>Verify IP Redirect functionality</t>
+          <t>Verify error removal notification</t>
         </is>
       </c>
       <c r="E39" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP for first-time connection
-2. Monitor GetRedirectURL request
-3. Observe server selection</t>
+          <t>1. Trigger device error
+2. Resolve error without power off
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should request redirect URL from NA server
-2. MFP should connect to appropriate regional server based on response</t>
+          <t>MFP should notify error removal with "-" prefix (e.g., -D102)</t>
         </is>
       </c>
       <c r="G39" s="58" t="inlineStr"/>
@@ -11389,30 +11322,23 @@
       </c>
       <c r="C40" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D40" s="70" t="inlineStr">
         <is>
-          <t>Verify retry processing at communication error</t>
+          <t>Verify Super Sleep interaction</t>
         </is>
       </c>
       <c r="E40" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate connection error
-2. Monitor retry behavior
-3. Simulate HTTP error
-4. Monitor retry behavior
-5. Simulate persistent failure
-6. Monitor retry mode behavior</t>
+          <t>1. Start SCC communication
+2. Observe power state</t>
         </is>
       </c>
       <c r="F40" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should retry in 60 seconds after connection error
-2. MFP should retry in 60 seconds after HTTP error
-3. MFP should enter retry mode after persistent failures
-4. In retry mode, MFP should try once per day</t>
+          <t>MFP should not enter Power Save, Sleep, or Super Sleep during communication cycle</t>
         </is>
       </c>
       <c r="G40" s="58" t="inlineStr"/>
@@ -11427,23 +11353,24 @@
       </c>
       <c r="C41" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP in Super Sleep with SCC enabled</t>
         </is>
       </c>
       <c r="D41" s="70" t="inlineStr">
         <is>
-          <t>Verify message logging</t>
+          <t>Verify Super Sleep recovery for scheduled communication</t>
         </is>
       </c>
       <c r="E41" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger various SCC events and errors
-2. Check message logs</t>
+          <t>1. Put MFP in Super Sleep
+2. Wait for scheduled communication time
+3. Observe behavior</t>
         </is>
       </c>
       <c r="F41" s="62" t="inlineStr">
         <is>
-          <t>1. Appropriate message logs should be recorded for SCC events and errors</t>
+          <t>MFP should wake up from Super Sleep to perform scheduled communication</t>
         </is>
       </c>
       <c r="G41" s="58" t="inlineStr"/>
@@ -11463,24 +11390,18 @@
       </c>
       <c r="D42" s="70" t="inlineStr">
         <is>
-          <t>Verify URL setting functionality</t>
+          <t>Verify Hibernation interaction</t>
         </is>
       </c>
       <c r="E42" s="61" t="inlineStr">
         <is>
-          <t>1. Configure 08-3827 with valid HTTPS URL
-2. Trigger SCC communication
-3. Configure 08-3827 with invalid URL
-4. Trigger SCC communication
-5. Set 08-3827 to NULL
-6. Trigger SCC communication</t>
+          <t>1. Start SCC communication
+2. Observe power state</t>
         </is>
       </c>
       <c r="F42" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should connect to specified URL when valid
-2. MFP should report network error with invalid URL
-3. MFP should connect to default server (NA) when NULL</t>
+          <t>MFP should not enter Hibernation during communication cycle</t>
         </is>
       </c>
       <c r="G42" s="58" t="inlineStr"/>
@@ -11500,22 +11421,20 @@
       </c>
       <c r="D43" s="70" t="inlineStr">
         <is>
-          <t>Verify URL forward setting</t>
+          <t>Verify Persistent Policy functionality</t>
         </is>
       </c>
       <c r="E43" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3828 to 0 (Disable)
-2. Configure 08-3827 with valid URL
-3. Trigger SCC communication
-4. Set 08-3828 to 1 (Enable)
-5. Trigger SCC communication</t>
+          <t>1. Configure server to set Persistent Policy
+2. Change settings locally
+3. Wait for persistent check interval
+4. Observe settings</t>
         </is>
       </c>
       <c r="F43" s="62" t="inlineStr">
         <is>
-          <t>1. With 08-3828=0, MFP should not forward to other URL
-2. With 08-3828=1, MFP should follow URL forwarding from server</t>
+          <t>Settings should be restored according to Persistent Policy</t>
         </is>
       </c>
       <c r="G43" s="58" t="inlineStr"/>
@@ -11530,26 +11449,23 @@
       </c>
       <c r="C44" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D44" s="70" t="inlineStr">
         <is>
-          <t>Verify handling of power failure during package download</t>
+          <t>Verify Time-based Device State Data Values</t>
         </is>
       </c>
       <c r="E44" s="61" t="inlineStr">
         <is>
-          <t>1. Start package download
-2. Simulate power failure during download
-3. Power on MFP
-4. Check download behavior</t>
+          <t>1. Configure server to set time-based values
+2. Observe settings at different times</t>
         </is>
       </c>
       <c r="F44" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should delete downloaded data before next communication
-2. MFP should restart download process</t>
+          <t>Settings should change according to configured time periods</t>
         </is>
       </c>
       <c r="G44" s="58" t="inlineStr"/>
@@ -11564,26 +11480,23 @@
       </c>
       <c r="C45" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled, first registration</t>
         </is>
       </c>
       <c r="D45" s="70" t="inlineStr">
         <is>
-          <t>Verify handling of HDD full during package download</t>
+          <t>Verify IP Redirect functionality</t>
         </is>
       </c>
       <c r="E45" s="61" t="inlineStr">
         <is>
-          <t>1. Fill HDD to near capacity
-2. Trigger package download
-3. Monitor behavior</t>
+          <t>1. Enable SCC on unregistered MFP
+2. Monitor network traffic</t>
         </is>
       </c>
       <c r="F45" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should delete downloaded data
-2. MFP should exit communication cycle
-3. MFP should wait for next scheduled communication</t>
+          <t>MFP should request redirect URL and connect to appropriate regional server</t>
         </is>
       </c>
       <c r="G45" s="58" t="inlineStr"/>
@@ -11598,26 +11511,23 @@
       </c>
       <c r="C46" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D46" s="70" t="inlineStr">
         <is>
-          <t>Verify handling of hash value mismatch</t>
+          <t>Verify retry processing on connection error</t>
         </is>
       </c>
       <c r="E46" s="61" t="inlineStr">
         <is>
-          <t>1. Configure test environment to cause hash mismatch
-2. Trigger package download
-3. Monitor behavior</t>
+          <t>1. Simulate connection error
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F46" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should delete downloaded data
-2. MFP should exit communication cycle
-3. MFP should wait for next scheduled communication</t>
+          <t>MFP should retry in 60 seconds, then enter retry mode if unsuccessful</t>
         </is>
       </c>
       <c r="G46" s="58" t="inlineStr"/>
@@ -11632,26 +11542,23 @@
       </c>
       <c r="C47" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D47" s="70" t="inlineStr">
         <is>
-          <t>Verify handling of unzip failure</t>
+          <t>Verify retry processing on HTTP error</t>
         </is>
       </c>
       <c r="E47" s="61" t="inlineStr">
         <is>
-          <t>1. Configure test environment to cause unzip failure
-2. Trigger package download
-3. Monitor behavior</t>
+          <t>1. Simulate HTTP error
+2. Monitor MFP behavior</t>
         </is>
       </c>
       <c r="F47" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should delete unzipped data
-2. MFP should exit communication cycle
-3. MFP should wait for next scheduled communication</t>
+          <t>MFP should retry in 60 seconds, then enter retry mode if second retry fails</t>
         </is>
       </c>
       <c r="G47" s="58" t="inlineStr"/>
@@ -11666,27 +11573,23 @@
       </c>
       <c r="C48" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled in retry mode</t>
         </is>
       </c>
       <c r="D48" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update scheduling</t>
+          <t>Verify retry mode behavior</t>
         </is>
       </c>
       <c r="E48" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide firmware update
-2. Set update schedule for future time
-3. Observe MFP behavior at scheduled time
-4. Power off MFP before scheduled time
-5. Power on after scheduled time</t>
+          <t>1. Put MFP in retry mode
+2. Monitor communication attempts</t>
         </is>
       </c>
       <c r="F48" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should update firmware at scheduled time
-2. If scheduled time is missed due to power off, update should be rescheduled for same time next day</t>
+          <t>MFP should try to communicate once every 24 hours until successful</t>
         </is>
       </c>
       <c r="G48" s="58" t="inlineStr"/>
@@ -11701,27 +11604,23 @@
       </c>
       <c r="C49" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D49" s="70" t="inlineStr">
         <is>
-          <t>Verify handling of installation failure</t>
+          <t>Verify panel message display during SCC processing</t>
         </is>
       </c>
       <c r="E49" s="61" t="inlineStr">
         <is>
-          <t>1. Configure test environment to cause installation failure
-2. Trigger package installation
-3. Monitor behavior
-4. Check retry behavior</t>
+          <t>1. Trigger SCC communication
+2. Observe panel display</t>
         </is>
       </c>
       <c r="F49" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should notify update result to server
-2. Regular communication should be scheduled after 1 hour
-3. Server should retry update up to 3 times</t>
+          <t>Panel should display "Service in progress. Please do not turn off: XX" with appropriate status code</t>
         </is>
       </c>
       <c r="G49" s="58" t="inlineStr"/>
@@ -11736,25 +11635,23 @@
       </c>
       <c r="C50" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D50" s="70" t="inlineStr">
         <is>
-          <t>Verify handling of multiple update instructions</t>
+          <t>Verify popup window display during specific operations</t>
         </is>
       </c>
       <c r="E50" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide multiple update instructions
-2. Cause one update to fail
-3. Monitor behavior</t>
+          <t>1. Trigger operations that require popup (e.g., RESTORING, UPGRADINGFIRMWARE)
+2. Observe panel display</t>
         </is>
       </c>
       <c r="F50" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should continue processing all updates even if one fails
-2. MFP should notify all update results to server</t>
+          <t>Popup window with sand clock should be displayed</t>
         </is>
       </c>
       <c r="G50" s="58" t="inlineStr"/>
@@ -11769,25 +11666,23 @@
       </c>
       <c r="C51" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D51" s="70" t="inlineStr">
         <is>
-          <t>Verify SSD model firmware update handling</t>
+          <t>Verify message log recording</t>
         </is>
       </c>
       <c r="E51" s="61" t="inlineStr">
         <is>
-          <t>1. Configure SSD model MFP
-2. Trigger firmware update
-3. Monitor behavior</t>
+          <t>1. Trigger various SCC operations and errors
+2. Check message logs</t>
         </is>
       </c>
       <c r="F51" s="62" t="inlineStr">
         <is>
-          <t>1. Firmware update should be recognized as impossible
-2. MFP should notify update failure to server</t>
+          <t>Appropriate message logs should be recorded for SCC operations and errors</t>
         </is>
       </c>
       <c r="G51" s="58" t="inlineStr"/>
@@ -11802,25 +11697,24 @@
       </c>
       <c r="C52" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D52" s="70" t="inlineStr">
         <is>
-          <t>Verify customized UI installation</t>
+          <t>Verify SCC first registration URL setting</t>
         </is>
       </c>
       <c r="E52" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide customized UI package
-2. Trigger SCC communication
-3. Monitor installation process</t>
+          <t>1. Set 08-3827 to custom URL
+2. Enable SCC
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F52" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should download and install customized UI data
-2. MFP should notify update status to server</t>
+          <t>MFP should connect to specified URL for first registration</t>
         </is>
       </c>
       <c r="G52" s="58" t="inlineStr"/>
@@ -11835,25 +11729,24 @@
       </c>
       <c r="C53" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D53" s="70" t="inlineStr">
         <is>
-          <t>Verify embedded application installation</t>
+          <t>Verify URL forward setting</t>
         </is>
       </c>
       <c r="E53" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide embedded application package
-2. Trigger SCC communication
-3. Monitor installation process</t>
+          <t>1. Set 08-3828 to 0 (Disable)
+2. Enable SCC
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F53" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should download and install embedded application
-2. MFP should notify update status to server</t>
+          <t>MFP should not connect to redirected URL</t>
         </is>
       </c>
       <c r="G53" s="58" t="inlineStr"/>
@@ -11868,25 +11761,24 @@
       </c>
       <c r="C54" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D54" s="70" t="inlineStr">
         <is>
-          <t>Verify license data installation</t>
+          <t>Verify invalid URL handling</t>
         </is>
       </c>
       <c r="E54" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide license data package
-2. Trigger SCC communication
-3. Monitor installation process</t>
+          <t>1. Set 08-3827 to invalid URL
+2. Enable SCC
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F54" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should download and install license data
-2. MFP should notify update status to server</t>
+          <t>Network error should occur and MFP should not access default server</t>
         </is>
       </c>
       <c r="G54" s="58" t="inlineStr"/>
@@ -11901,25 +11793,24 @@
       </c>
       <c r="C55" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC registered</t>
+          <t>MFP with SCC enabled</t>
         </is>
       </c>
       <c r="D55" s="70" t="inlineStr">
         <is>
-          <t>Verify custom user paper type installation</t>
+          <t>Verify HTTPS certificate handling</t>
         </is>
       </c>
       <c r="E55" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide custom user paper type package
-2. Trigger SCC communication
-3. Monitor installation process</t>
+          <t>1. Set 08-3827 to HTTPS URL without importing certificate
+2. Enable SCC
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F55" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should download and install custom user paper type data
-2. MFP should notify update status to server</t>
+          <t>Communication should fail due to missing certificate</t>
         </is>
       </c>
       <c r="G55" s="58" t="inlineStr"/>
@@ -11939,20 +11830,19 @@
       </c>
       <c r="D56" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4-only connectivity</t>
+          <t>Verify IPv4 connectivity</t>
         </is>
       </c>
       <c r="E56" s="61" t="inlineStr">
         <is>
-          <t>1. Configure network for IPv4 only
+          <t>1. Configure MFP with IPv4 only
 2. Enable SCC
-3. Monitor SCC communication</t>
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F56" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should successfully register and communicate with server using IPv4
-2. All SCC functions should work properly over IPv4</t>
+          <t>MFP should successfully communicate with server using IPv4</t>
         </is>
       </c>
       <c r="G56" s="58" t="inlineStr"/>
@@ -11976,20 +11866,19 @@
       </c>
       <c r="D57" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6-only connectivity</t>
+          <t>Verify IPv6 connectivity</t>
         </is>
       </c>
       <c r="E57" s="61" t="inlineStr">
         <is>
-          <t>1. Configure network for IPv6 only
+          <t>1. Configure MFP with IPv6 only
 2. Enable SCC
-3. Monitor SCC communication</t>
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F57" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should successfully register and communicate with server using IPv6
-2. All SCC functions should work properly over IPv6</t>
+          <t>MFP should successfully communicate with server using IPv6</t>
         </is>
       </c>
       <c r="G57" s="58" t="inlineStr"/>
@@ -12013,26 +11902,25 @@
       </c>
       <c r="D58" s="70" t="inlineStr">
         <is>
-          <t>Verify dual-stack (IPv4+IPv6) connectivity</t>
+          <t>Verify dual-stack (IPv4+IPv6) operation</t>
         </is>
       </c>
       <c r="E58" s="61" t="inlineStr">
         <is>
-          <t>1. Configure network for both IPv4 and IPv6
+          <t>1. Configure MFP with both IPv4 and IPv6
 2. Enable SCC
-3. Monitor SCC communication</t>
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F58" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should successfully register and communicate with server
-2. All SCC functions should work properly in dual-stack environment</t>
+          <t>MFP should successfully communicate with server using preferred protocol</t>
         </is>
       </c>
       <c r="G58" s="58" t="inlineStr"/>
       <c r="H58" s="59" t="inlineStr">
         <is>
-          <t>IPv4/IPv6 dual-stack test</t>
+          <t>Dual-stack test</t>
         </is>
       </c>
       <c r="I58" s="53" t="n"/>
@@ -12045,32 +11933,31 @@
       </c>
       <c r="C59" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled in dual-stack environment</t>
+          <t>MFP with SCC enabled in dual-stack mode</t>
         </is>
       </c>
       <c r="D59" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 to IPv6 fallback</t>
+          <t>Verify fallback from IPv6 to IPv4</t>
         </is>
       </c>
       <c r="E59" s="61" t="inlineStr">
         <is>
-          <t>1. Configure dual-stack environment
-2. Start SCC communication over IPv4
-3. Disable IPv4 connectivity
-4. Monitor fallback behavior</t>
+          <t>1. Configure MFP with both IPv4 and IPv6
+2. Block IPv6 traffic
+3. Enable SCC
+4. Monitor network traffic</t>
         </is>
       </c>
       <c r="F59" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should fallback to IPv6 when IPv4 becomes unavailable
-2. SCC communication should continue without interruption</t>
+          <t>MFP should fall back to IPv4 when IPv6 is unavailable</t>
         </is>
       </c>
       <c r="G59" s="58" t="inlineStr"/>
       <c r="H59" s="59" t="inlineStr">
         <is>
-          <t>IPv4/IPv6 fallback test</t>
+          <t>Protocol fallback test</t>
         </is>
       </c>
       <c r="I59" s="53" t="n"/>
@@ -12083,32 +11970,31 @@
       </c>
       <c r="C60" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled in dual-stack environment</t>
+          <t>MFP with SCC enabled in dual-stack mode</t>
         </is>
       </c>
       <c r="D60" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 to IPv4 fallback</t>
+          <t>Verify fallback from IPv4 to IPv6</t>
         </is>
       </c>
       <c r="E60" s="61" t="inlineStr">
         <is>
-          <t>1. Configure dual-stack environment
-2. Start SCC communication over IPv6
-3. Disable IPv6 connectivity
-4. Monitor fallback behavior</t>
+          <t>1. Configure MFP with both IPv4 and IPv6
+2. Block IPv4 traffic
+3. Enable SCC
+4. Monitor network traffic</t>
         </is>
       </c>
       <c r="F60" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should fallback to IPv4 when IPv6 becomes unavailable
-2. SCC communication should continue without interruption</t>
+          <t>MFP should fall back to IPv6 when IPv4 is unavailable</t>
         </is>
       </c>
       <c r="G60" s="58" t="inlineStr"/>
       <c r="H60" s="59" t="inlineStr">
         <is>
-          <t>IPv6/IPv4 fallback test</t>
+          <t>Protocol fallback test</t>
         </is>
       </c>
       <c r="I60" s="53" t="n"/>
@@ -12126,26 +12012,25 @@
       </c>
       <c r="D61" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 edge case handling</t>
+          <t>Test with invalid IPv4 address (0.0.0.0)</t>
         </is>
       </c>
       <c r="E61" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with edge case IPv4 addresses (0.0.0.0, 127.0.0.1, 255.255.255.255)
-2. Attempt SCC communication
+          <t>1. Configure MFP with IPv4 address 0.0.0.0
+2. Enable SCC
 3. Monitor behavior</t>
         </is>
       </c>
       <c r="F61" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should handle edge case IPv4 addresses appropriately
-2. Error handling should be triggered for invalid addresses</t>
+          <t>MFP should handle invalid address appropriately</t>
         </is>
       </c>
       <c r="G61" s="58" t="inlineStr"/>
       <c r="H61" s="59" t="inlineStr">
         <is>
-          <t>IPv4 edge case test</t>
+          <t>IPv4 edge case</t>
         </is>
       </c>
       <c r="I61" s="53" t="n"/>
@@ -12163,26 +12048,25 @@
       </c>
       <c r="D62" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 edge case handling</t>
+          <t>Test with broadcast IPv4 address (255.255.255.255)</t>
         </is>
       </c>
       <c r="E62" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with edge case IPv6 addresses (::, ::1, fe80::)
-2. Attempt SCC communication
+          <t>1. Configure MFP with IPv4 address 255.255.255.255
+2. Enable SCC
 3. Monitor behavior</t>
         </is>
       </c>
       <c r="F62" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should handle edge case IPv6 addresses appropriately
-2. Error handling should be triggered for invalid addresses</t>
+          <t>MFP should handle broadcast address appropriately</t>
         </is>
       </c>
       <c r="G62" s="58" t="inlineStr"/>
       <c r="H62" s="59" t="inlineStr">
         <is>
-          <t>IPv6 edge case test</t>
+          <t>IPv4 edge case</t>
         </is>
       </c>
       <c r="I62" s="53" t="n"/>
@@ -12200,28 +12084,25 @@
       </c>
       <c r="D63" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 performance</t>
+          <t>Test with loopback IPv6 address (::1)</t>
         </is>
       </c>
       <c r="E63" s="61" t="inlineStr">
         <is>
-          <t>1. Configure network for IPv4 only
-2. Measure performance metrics during SCC communication:
-- Registration time
-- Package download speed
-- Data upload speed
-- Communication latency</t>
+          <t>1. Configure MFP with IPv6 address ::1
+2. Enable SCC
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F63" s="62" t="inlineStr">
         <is>
-          <t>1. Performance metrics should be within acceptable ranges for IPv4</t>
+          <t>MFP should handle loopback address appropriately</t>
         </is>
       </c>
       <c r="G63" s="58" t="inlineStr"/>
       <c r="H63" s="59" t="inlineStr">
         <is>
-          <t>IPv4 performance test</t>
+          <t>IPv6 edge case</t>
         </is>
       </c>
       <c r="I63" s="53" t="n"/>
@@ -12239,28 +12120,25 @@
       </c>
       <c r="D64" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 performance</t>
+          <t>Test with unspecified IPv6 address (::)</t>
         </is>
       </c>
       <c r="E64" s="61" t="inlineStr">
         <is>
-          <t>1. Configure network for IPv6 only
-2. Measure performance metrics during SCC communication:
-- Registration time
-- Package download speed
-- Data upload speed
-- Communication latency</t>
+          <t>1. Configure MFP with IPv6 address ::
+2. Enable SCC
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F64" s="62" t="inlineStr">
         <is>
-          <t>1. Performance metrics should be within acceptable ranges for IPv6</t>
+          <t>MFP should handle unspecified address appropriately</t>
         </is>
       </c>
       <c r="G64" s="58" t="inlineStr"/>
       <c r="H64" s="59" t="inlineStr">
         <is>
-          <t>IPv6 performance test</t>
+          <t>IPv6 edge case</t>
         </is>
       </c>
       <c r="I64" s="53" t="n"/>
@@ -12278,26 +12156,25 @@
       </c>
       <c r="D65" s="70" t="inlineStr">
         <is>
-          <t>Compare IPv4 vs IPv6 performance</t>
+          <t>Test with malformed IPv6 address</t>
         </is>
       </c>
       <c r="E65" s="61" t="inlineStr">
         <is>
-          <t>1. Measure performance metrics in IPv4-only environment
-2. Measure performance metrics in IPv6-only environment
-3. Compare results</t>
+          <t>1. Configure MFP with malformed IPv6 address
+2. Enable SCC
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F65" s="62" t="inlineStr">
         <is>
-          <t>1. Performance differences between IPv4 and IPv6 should be documented
-2. Both should meet minimum performance requirements</t>
+          <t>MFP should handle malformed address appropriately</t>
         </is>
       </c>
       <c r="G65" s="58" t="inlineStr"/>
       <c r="H65" s="59" t="inlineStr">
         <is>
-          <t>IPv4/IPv6 performance comparison</t>
+          <t>IPv6 edge case</t>
         </is>
       </c>
       <c r="I65" s="53" t="n"/>
@@ -12315,29 +12192,27 @@
       </c>
       <c r="D66" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 security</t>
+          <t>Compare IPv4 vs IPv6 performance</t>
         </is>
       </c>
       <c r="E66" s="61" t="inlineStr">
         <is>
-          <t>1. Perform security tests on IPv4 connection:
-- Man-in-the-middle attack
-- IP spoofing
-- Port scanning
-- DoS attack</t>
+          <t>1. Configure MFP with IPv4 only
+2. Measure communication time
+3. Configure MFP with IPv6 only
+4. Measure communication time
+5. Compare results</t>
         </is>
       </c>
       <c r="F66" s="62" t="inlineStr">
         <is>
-          <t>1. SCC should maintain security during IPv4 attacks
-2. Communication should remain encrypted
-3. Authentication should remain secure</t>
+          <t>Performance metrics should be collected and compared</t>
         </is>
       </c>
       <c r="G66" s="58" t="inlineStr"/>
       <c r="H66" s="59" t="inlineStr">
         <is>
-          <t>IPv4 security test</t>
+          <t>Performance comparison</t>
         </is>
       </c>
       <c r="I66" s="53" t="n"/>
@@ -12355,29 +12230,25 @@
       </c>
       <c r="D67" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 security</t>
+          <t>Verify IPv4 security</t>
         </is>
       </c>
       <c r="E67" s="61" t="inlineStr">
         <is>
-          <t>1. Perform security tests on IPv6 connection:
-- Man-in-the-middle attack
-- IP spoofing
-- Port scanning
-- DoS attack</t>
+          <t>1. Configure MFP with IPv4 only
+2. Perform security scan
+3. Check for vulnerabilities</t>
         </is>
       </c>
       <c r="F67" s="62" t="inlineStr">
         <is>
-          <t>1. SCC should maintain security during IPv6 attacks
-2. Communication should remain encrypted
-3. Authentication should remain secure</t>
+          <t>No IPv4-specific vulnerabilities should be found</t>
         </is>
       </c>
       <c r="G67" s="58" t="inlineStr"/>
       <c r="H67" s="59" t="inlineStr">
         <is>
-          <t>IPv6 security test</t>
+          <t>Security test</t>
         </is>
       </c>
       <c r="I67" s="53" t="n"/>
@@ -12395,26 +12266,25 @@
       </c>
       <c r="D68" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 proxy authentication</t>
+          <t>Verify IPv6 security</t>
         </is>
       </c>
       <c r="E68" s="61" t="inlineStr">
         <is>
-          <t>1. Configure IPv4 proxy with authentication
-2. Enable SCC
-3. Monitor SCC communication</t>
+          <t>1. Configure MFP with IPv6 only
+2. Perform security scan
+3. Check for vulnerabilities</t>
         </is>
       </c>
       <c r="F68" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should successfully authenticate with proxy
-2. SCC communication should work through authenticated proxy</t>
+          <t>No IPv6-specific vulnerabilities should be found</t>
         </is>
       </c>
       <c r="G68" s="58" t="inlineStr"/>
       <c r="H68" s="59" t="inlineStr">
         <is>
-          <t>IPv4 proxy test</t>
+          <t>Security test</t>
         </is>
       </c>
       <c r="I68" s="53" t="n"/>
@@ -12432,26 +12302,26 @@
       </c>
       <c r="D69" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 proxy authentication</t>
+          <t>Verify communication with proxy using IPv4</t>
         </is>
       </c>
       <c r="E69" s="61" t="inlineStr">
         <is>
-          <t>1. Configure IPv6 proxy with authentication
-2. Enable SCC
-3. Monitor SCC communication</t>
+          <t>1. Configure proxy with IPv4
+2. Configure MFP to use proxy
+3. Enable SCC
+4. Monitor network traffic</t>
         </is>
       </c>
       <c r="F69" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should successfully authenticate with proxy
-2. SCC communication should work through authenticated proxy</t>
+          <t>MFP should successfully communicate through IPv4 proxy</t>
         </is>
       </c>
       <c r="G69" s="58" t="inlineStr"/>
       <c r="H69" s="59" t="inlineStr">
         <is>
-          <t>IPv6 proxy test</t>
+          <t>IPv4 proxy test</t>
         </is>
       </c>
       <c r="I69" s="53" t="n"/>
@@ -12469,25 +12339,26 @@
       </c>
       <c r="D70" s="70" t="inlineStr">
         <is>
-          <t>Verify malformed IPv4 address handling</t>
+          <t>Verify communication with proxy using IPv6</t>
         </is>
       </c>
       <c r="E70" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with malformed IPv4 addresses
-2. Attempt SCC communication
-3. Monitor error handling</t>
+          <t>1. Configure proxy with IPv6
+2. Configure MFP to use proxy
+3. Enable SCC
+4. Monitor network traffic</t>
         </is>
       </c>
       <c r="F70" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should properly handle and report errors for malformed IPv4 addresses</t>
+          <t>MFP should successfully communicate through IPv6 proxy</t>
         </is>
       </c>
       <c r="G70" s="58" t="inlineStr"/>
       <c r="H70" s="59" t="inlineStr">
         <is>
-          <t>IPv4 error handling test</t>
+          <t>IPv6 proxy test</t>
         </is>
       </c>
       <c r="I70" s="53" t="n"/>
@@ -12505,25 +12376,26 @@
       </c>
       <c r="D71" s="70" t="inlineStr">
         <is>
-          <t>Verify malformed IPv6 address handling</t>
+          <t>Verify firmware update with IPv4</t>
         </is>
       </c>
       <c r="E71" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with malformed IPv6 addresses
-2. Attempt SCC communication
-3. Monitor error handling</t>
+          <t>1. Configure MFP with IPv4 only
+2. Configure server to provide firmware update
+3. Trigger SCC communication
+4. Monitor installation</t>
         </is>
       </c>
       <c r="F71" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should properly handle and report errors for malformed IPv6 addresses</t>
+          <t>Firmware should be downloaded and installed successfully using IPv4</t>
         </is>
       </c>
       <c r="G71" s="58" t="inlineStr"/>
       <c r="H71" s="59" t="inlineStr">
         <is>
-          <t>IPv6 error handling test</t>
+          <t>IPv4 specific test</t>
         </is>
       </c>
       <c r="I71" s="53" t="n"/>
@@ -12541,28 +12413,26 @@
       </c>
       <c r="D72" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 network interruption recovery</t>
+          <t>Verify firmware update with IPv6</t>
         </is>
       </c>
       <c r="E72" s="61" t="inlineStr">
         <is>
-          <t>1. Start SCC communication over IPv4
-2. Interrupt network connection
-3. Restore connection
-4. Monitor recovery behavior</t>
+          <t>1. Configure MFP with IPv6 only
+2. Configure server to provide firmware update
+3. Trigger SCC communication
+4. Monitor installation</t>
         </is>
       </c>
       <c r="F72" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should detect network interruption
-2. MFP should enter retry mode
-3. MFP should recover when connection is restored</t>
+          <t>Firmware should be downloaded and installed successfully using IPv6</t>
         </is>
       </c>
       <c r="G72" s="58" t="inlineStr"/>
       <c r="H72" s="59" t="inlineStr">
         <is>
-          <t>IPv4 recovery test</t>
+          <t>IPv6 specific test</t>
         </is>
       </c>
       <c r="I72" s="53" t="n"/>
@@ -12580,28 +12450,25 @@
       </c>
       <c r="D73" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 network interruption recovery</t>
+          <t>Verify error notification with IPv4</t>
         </is>
       </c>
       <c r="E73" s="61" t="inlineStr">
         <is>
-          <t>1. Start SCC communication over IPv6
-2. Interrupt network connection
-3. Restore connection
-4. Monitor recovery behavior</t>
+          <t>1. Configure MFP with IPv4 only
+2. Trigger device error
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F73" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should detect network interruption
-2. MFP should enter retry mode
-3. MFP should recover when connection is restored</t>
+          <t>Error should be successfully notified to server using IPv4</t>
         </is>
       </c>
       <c r="G73" s="58" t="inlineStr"/>
       <c r="H73" s="59" t="inlineStr">
         <is>
-          <t>IPv6 recovery test</t>
+          <t>IPv4 specific test</t>
         </is>
       </c>
       <c r="I73" s="53" t="n"/>
@@ -12619,26 +12486,25 @@
       </c>
       <c r="D74" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 DNS resolution</t>
+          <t>Verify error notification with IPv6</t>
         </is>
       </c>
       <c r="E74" s="61" t="inlineStr">
         <is>
-          <t>1. Configure IPv4 DNS settings
-2. Use hostname in SCC URL setting
-3. Monitor DNS resolution during SCC communication</t>
+          <t>1. Configure MFP with IPv6 only
+2. Trigger device error
+3. Monitor network traffic</t>
         </is>
       </c>
       <c r="F74" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should properly resolve hostname to IPv4 address
-2. SCC communication should work with hostname</t>
+          <t>Error should be successfully notified to server using IPv6</t>
         </is>
       </c>
       <c r="G74" s="58" t="inlineStr"/>
       <c r="H74" s="59" t="inlineStr">
         <is>
-          <t>IPv4 DNS test</t>
+          <t>IPv6 specific test</t>
         </is>
       </c>
       <c r="I74" s="53" t="n"/>
@@ -12656,26 +12522,26 @@
       </c>
       <c r="D75" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 DNS resolution</t>
+          <t>Verify policy application with IPv4</t>
         </is>
       </c>
       <c r="E75" s="61" t="inlineStr">
         <is>
-          <t>1. Configure IPv6 DNS settings
-2. Use hostname in SCC URL setting
-3. Monitor DNS resolution during SCC communication</t>
+          <t>1. Configure MFP with IPv4 only
+2. Configure server to send policy
+3. Trigger SCC communication
+4. Monitor policy application</t>
         </is>
       </c>
       <c r="F75" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should properly resolve hostname to IPv6 address
-2. SCC communication should work with hostname</t>
+          <t>Policy should be successfully applied using IPv4</t>
         </is>
       </c>
       <c r="G75" s="58" t="inlineStr"/>
       <c r="H75" s="59" t="inlineStr">
         <is>
-          <t>IPv6 DNS test</t>
+          <t>IPv4 specific test</t>
         </is>
       </c>
       <c r="I75" s="53" t="n"/>
@@ -12693,26 +12559,26 @@
       </c>
       <c r="D76" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 firewall traversal</t>
+          <t>Verify policy application with IPv6</t>
         </is>
       </c>
       <c r="E76" s="61" t="inlineStr">
         <is>
-          <t>1. Configure firewall with IPv4 restrictions
-2. Enable SCC
-3. Monitor SCC communication through firewall</t>
+          <t>1. Configure MFP with IPv6 only
+2. Configure server to send policy
+3. Trigger SCC communication
+4. Monitor policy application</t>
         </is>
       </c>
       <c r="F76" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should communicate through firewall using allowed ports
-2. MFP should fallback to alternative port if primary port is blocked</t>
+          <t>Policy should be successfully applied using IPv6</t>
         </is>
       </c>
       <c r="G76" s="58" t="inlineStr"/>
       <c r="H76" s="59" t="inlineStr">
         <is>
-          <t>IPv4 firewall test</t>
+          <t>IPv6 specific test</t>
         </is>
       </c>
       <c r="I76" s="53" t="n"/>
@@ -12730,26 +12596,25 @@
       </c>
       <c r="D77" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 firewall traversal</t>
+          <t>Verify handling of network transition during communication</t>
         </is>
       </c>
       <c r="E77" s="61" t="inlineStr">
         <is>
-          <t>1. Configure firewall with IPv6 restrictions
-2. Enable SCC
-3. Monitor SCC communication through firewall</t>
+          <t>1. Start SCC communication over IPv4
+2. Switch network to IPv6 during communication
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F77" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should communicate through firewall using allowed ports
-2. MFP should fallback to alternative port if primary port is blocked</t>
+          <t>MFP should handle network transition appropriately</t>
         </is>
       </c>
       <c r="G77" s="58" t="inlineStr"/>
       <c r="H77" s="59" t="inlineStr">
         <is>
-          <t>IPv6 firewall test</t>
+          <t>Network transition test</t>
         </is>
       </c>
       <c r="I77" s="53" t="n"/>
@@ -12767,26 +12632,25 @@
       </c>
       <c r="D78" s="70" t="inlineStr">
         <is>
-          <t>Verify stress test with multiple IPv4 connections</t>
+          <t>Verify handling of network loss during communication</t>
         </is>
       </c>
       <c r="E78" s="61" t="inlineStr">
         <is>
-          <t>1. Configure multiple MFPs with IPv4
-2. Enable SCC on all MFPs simultaneously
-3. Monitor server and MFP behavior</t>
+          <t>1. Start SCC communication
+2. Disconnect network during communication
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F78" s="62" t="inlineStr">
         <is>
-          <t>1. Server should handle multiple IPv4 connections
-2. MFPs should handle server BUSY responses appropriately</t>
+          <t>MFP should enter retry mode according to specifications</t>
         </is>
       </c>
       <c r="G78" s="58" t="inlineStr"/>
       <c r="H78" s="59" t="inlineStr">
         <is>
-          <t>IPv4 stress test</t>
+          <t>Network loss test</t>
         </is>
       </c>
       <c r="I78" s="53" t="n"/>
@@ -12804,26 +12668,26 @@
       </c>
       <c r="D79" s="70" t="inlineStr">
         <is>
-          <t>Verify stress test with multiple IPv6 connections</t>
+          <t>Verify handling of power failure during communication</t>
         </is>
       </c>
       <c r="E79" s="61" t="inlineStr">
         <is>
-          <t>1. Configure multiple MFPs with IPv6
-2. Enable SCC on all MFPs simultaneously
-3. Monitor server and MFP behavior</t>
+          <t>1. Start SCC communication
+2. Power off MFP during communication
+3. Power on MFP
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F79" s="62" t="inlineStr">
         <is>
-          <t>1. Server should handle multiple IPv6 connections
-2. MFPs should handle server BUSY responses appropriately</t>
+          <t>MFP should handle power failure recovery according to specifications</t>
         </is>
       </c>
       <c r="G79" s="58" t="inlineStr"/>
       <c r="H79" s="59" t="inlineStr">
         <is>
-          <t>IPv6 stress test</t>
+          <t>Power failure test</t>
         </is>
       </c>
       <c r="I79" s="53" t="n"/>
@@ -12841,27 +12705,26 @@
       </c>
       <c r="D80" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 URL redirection</t>
+          <t>Verify handling of HDD full during download</t>
         </is>
       </c>
       <c r="E80" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv4
-2. Set 08-3827 to NULL
-3. Enable SCC
-4. Monitor GetRedirectURL request</t>
+          <t>1. Fill MFP storage to near capacity
+2. Configure server to provide large update package
+3. Trigger SCC communication
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F80" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should send GetRedirectURL request to NA server
-2. MFP should follow redirection based on IPv4 address</t>
+          <t>MFP should handle HDD full condition according to specifications</t>
         </is>
       </c>
       <c r="G80" s="58" t="inlineStr"/>
       <c r="H80" s="59" t="inlineStr">
         <is>
-          <t>IPv4 redirection test</t>
+          <t>Storage capacity test</t>
         </is>
       </c>
       <c r="I80" s="53" t="n"/>
@@ -12879,27 +12742,25 @@
       </c>
       <c r="D81" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 URL redirection</t>
+          <t>Verify handling of unzip failure</t>
         </is>
       </c>
       <c r="E81" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv6
-2. Set 08-3827 to NULL
-3. Enable SCC
-4. Monitor GetRedirectURL request</t>
+          <t>1. Configure server to provide corrupted ZIP package
+2. Trigger SCC communication
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F81" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should send GetRedirectURL request to NA server
-2. MFP should follow redirection based on IPv6 address</t>
+          <t>MFP should delete unzipped data and exit communication cycle</t>
         </is>
       </c>
       <c r="G81" s="58" t="inlineStr"/>
       <c r="H81" s="59" t="inlineStr">
         <is>
-          <t>IPv6 redirection test</t>
+          <t>Error handling test</t>
         </is>
       </c>
       <c r="I81" s="53" t="n"/>
@@ -12917,26 +12778,25 @@
       </c>
       <c r="D82" s="70" t="inlineStr">
         <is>
-          <t>Verify compatibility with IPv4 NAT</t>
+          <t>Verify handling of installation failure</t>
         </is>
       </c>
       <c r="E82" s="61" t="inlineStr">
         <is>
-          <t>1. Configure network with IPv4 NAT
-2. Enable SCC
-3. Monitor SCC communication through NAT</t>
+          <t>1. Configure server to provide package that will fail installation
+2. Trigger SCC communication
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F82" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should communicate successfully through NAT
-2. All SCC functions should work properly</t>
+          <t>MFP should notify update result to server and schedule next communication</t>
         </is>
       </c>
       <c r="G82" s="58" t="inlineStr"/>
       <c r="H82" s="59" t="inlineStr">
         <is>
-          <t>IPv4 NAT test</t>
+          <t>Error handling test</t>
         </is>
       </c>
       <c r="I82" s="53" t="n"/>
@@ -12954,26 +12814,25 @@
       </c>
       <c r="D83" s="70" t="inlineStr">
         <is>
-          <t>Verify compatibility with IPv6 NAT</t>
+          <t>Verify handling of multiple update instructions with partial failure</t>
         </is>
       </c>
       <c r="E83" s="61" t="inlineStr">
         <is>
-          <t>1. Configure network with IPv6 NAT
-2. Enable SCC
-3. Monitor SCC communication through NAT</t>
+          <t>1. Configure server to provide multiple updates with one that will fail
+2. Trigger SCC communication
+3. Monitor behavior</t>
         </is>
       </c>
       <c r="F83" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should communicate successfully through NAT
-2. All SCC functions should work properly</t>
+          <t>MFP should continue processing all updates and notify results to server</t>
         </is>
       </c>
       <c r="G83" s="58" t="inlineStr"/>
       <c r="H83" s="59" t="inlineStr">
         <is>
-          <t>IPv6 NAT test</t>
+          <t>Error handling test</t>
         </is>
       </c>
       <c r="I83" s="53" t="n"/>
@@ -12991,27 +12850,26 @@
       </c>
       <c r="D84" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 communication with limited bandwidth</t>
+          <t>Verify handling of firmware update on SSD model</t>
         </is>
       </c>
       <c r="E84" s="61" t="inlineStr">
         <is>
-          <t>1. Configure network with limited IPv4 bandwidth
-2. Enable SCC
-3. Monitor SCC communication
-4. Measure download/upload times</t>
+          <t>1. Configure SSD model MFP
+2. Configure server to provide firmware update
+3. Trigger SCC communication
+4. Monitor behavior</t>
         </is>
       </c>
       <c r="F84" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should successfully complete all SCC operations
-2. Performance may be degraded but operations should complete</t>
+          <t>MFP should handle firmware update appropriately for SSD model</t>
         </is>
       </c>
       <c r="G84" s="58" t="inlineStr"/>
       <c r="H84" s="59" t="inlineStr">
         <is>
-          <t>IPv4 bandwidth test</t>
+          <t>Model-specific test</t>
         </is>
       </c>
       <c r="I84" s="53" t="n"/>
@@ -13029,27 +12887,24 @@
       </c>
       <c r="D85" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 communication with limited bandwidth</t>
+          <t>Verify message log recording for various errors</t>
         </is>
       </c>
       <c r="E85" s="61" t="inlineStr">
         <is>
-          <t>1. Configure network with limited IPv6 bandwidth
-2. Enable SCC
-3. Monitor SCC communication
-4. Measure download/upload times</t>
+          <t>1. Trigger various SCC errors
+2. Check message logs</t>
         </is>
       </c>
       <c r="F85" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should successfully complete all SCC operations
-2. Performance may be degraded but operations should complete</t>
+          <t>Appropriate message logs should be recorded with correct error codes</t>
         </is>
       </c>
       <c r="G85" s="58" t="inlineStr"/>
       <c r="H85" s="59" t="inlineStr">
         <is>
-          <t>IPv6 bandwidth test</t>
+          <t>Error logging test</t>
         </is>
       </c>
       <c r="I85" s="53" t="n"/>
@@ -13067,27 +12922,26 @@
       </c>
       <c r="D86" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 communication with high latency</t>
+          <t>Verify performance impact of SCC</t>
         </is>
       </c>
       <c r="E86" s="61" t="inlineStr">
         <is>
-          <t>1. Configure network with high IPv4 latency
+          <t>1. Measure MFP performance with SCC disabled
 2. Enable SCC
-3. Monitor SCC communication
-4. Measure response times</t>
+3. Measure MFP performance
+4. Compare results</t>
         </is>
       </c>
       <c r="F86" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should successfully complete all SCC operations
-2. Performance may be degraded but operations should complete</t>
+          <t>SCC should not significantly degrade MFP performance</t>
         </is>
       </c>
       <c r="G86" s="58" t="inlineStr"/>
       <c r="H86" s="59" t="inlineStr">
         <is>
-          <t>IPv4 latency test</t>
+          <t>Performance test</t>
         </is>
       </c>
       <c r="I86" s="53" t="n"/>
@@ -13105,299 +12959,1188 @@
       </c>
       <c r="D87" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 communication with high latency</t>
+          <t>Verify start-up time impact</t>
         </is>
       </c>
       <c r="E87" s="61" t="inlineStr">
         <is>
-          <t>1. Configure network with high IPv6 latency
+          <t>1. Measure start-up time with SCC disabled
 2. Enable SCC
-3. Monitor SCC communication
-4. Measure response times</t>
+3. Measure start-up time
+4. Compare results</t>
         </is>
       </c>
       <c r="F87" s="62" t="inlineStr">
         <is>
-          <t>1. MFP should successfully complete all SCC operations
-2. Performance may be degraded but operations should complete</t>
+          <t>SCC should not significantly impact start-up time</t>
         </is>
       </c>
       <c r="G87" s="58" t="inlineStr"/>
       <c r="H87" s="59" t="inlineStr">
         <is>
-          <t>IPv6 latency test</t>
+          <t>Performance test</t>
         </is>
       </c>
       <c r="I87" s="53" t="n"/>
     </row>
     <row r="88" ht="99.75" customHeight="1">
-      <c r="B88" s="57" t="n"/>
-      <c r="C88" s="60" t="n"/>
-      <c r="D88" s="70" t="n"/>
-      <c r="E88" s="61" t="n"/>
-      <c r="F88" s="62" t="n"/>
-      <c r="G88" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H88" s="59" t="n"/>
+      <c r="B88" s="57" t="inlineStr">
+        <is>
+          <t>TC083</t>
+        </is>
+      </c>
+      <c r="C88" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D88" s="70" t="inlineStr">
+        <is>
+          <t>Verify handling of event during busy state</t>
+        </is>
+      </c>
+      <c r="E88" s="61" t="inlineStr">
+        <is>
+          <t>1. Put SCC in busy state (e.g., during startup)
+2. Trigger and immediately cancel an event
+3. Monitor network traffic</t>
+        </is>
+      </c>
+      <c r="F88" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle event appropriately according to specifications</t>
+        </is>
+      </c>
+      <c r="G88" s="58" t="inlineStr"/>
+      <c r="H88" s="59" t="inlineStr">
+        <is>
+          <t>Edge case test</t>
+        </is>
+      </c>
       <c r="I88" s="53" t="n"/>
     </row>
     <row r="89" ht="99.75" customHeight="1">
-      <c r="B89" s="57" t="n"/>
-      <c r="C89" s="60" t="n"/>
-      <c r="D89" s="70" t="n"/>
-      <c r="E89" s="61" t="n"/>
-      <c r="F89" s="62" t="n"/>
-      <c r="G89" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H89" s="59" t="n"/>
+      <c r="B89" s="57" t="inlineStr">
+        <is>
+          <t>TC084</t>
+        </is>
+      </c>
+      <c r="C89" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC and RDMS (BBR2) enabled</t>
+        </is>
+      </c>
+      <c r="D89" s="70" t="inlineStr">
+        <is>
+          <t>Verify exclusivity with RDMS</t>
+        </is>
+      </c>
+      <c r="E89" s="61" t="inlineStr">
+        <is>
+          <t>1. Enable SCC
+2. Enable RDMS (BBR2)
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F89" s="62" t="inlineStr">
+        <is>
+          <t>RDMS should not work when SCC is enabled</t>
+        </is>
+      </c>
+      <c r="G89" s="58" t="inlineStr"/>
+      <c r="H89" s="59" t="inlineStr">
+        <is>
+          <t>Compatibility test</t>
+        </is>
+      </c>
       <c r="I89" s="53" t="n"/>
     </row>
     <row r="90" ht="99.75" customHeight="1">
-      <c r="B90" s="57" t="n"/>
-      <c r="C90" s="60" t="n"/>
-      <c r="D90" s="70" t="n"/>
-      <c r="E90" s="61" t="n"/>
-      <c r="F90" s="62" t="n"/>
-      <c r="G90" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H90" s="59" t="n"/>
+      <c r="B90" s="57" t="inlineStr">
+        <is>
+          <t>TC085</t>
+        </is>
+      </c>
+      <c r="C90" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D90" s="70" t="inlineStr">
+        <is>
+          <t>Verify SCC behavior in self-diagnostic boot-up mode</t>
+        </is>
+      </c>
+      <c r="E90" s="61" t="inlineStr">
+        <is>
+          <t>1. Boot MFP in self-diagnostic mode
+2. Check network functionality</t>
+        </is>
+      </c>
+      <c r="F90" s="62" t="inlineStr">
+        <is>
+          <t>Network should not work in self-diagnostic boot-up mode</t>
+        </is>
+      </c>
+      <c r="G90" s="58" t="inlineStr"/>
+      <c r="H90" s="59" t="inlineStr">
+        <is>
+          <t>Boot mode test</t>
+        </is>
+      </c>
       <c r="I90" s="53" t="n"/>
     </row>
     <row r="91" ht="99.75" customHeight="1">
-      <c r="B91" s="57" t="n"/>
-      <c r="C91" s="60" t="n"/>
-      <c r="D91" s="70" t="n"/>
-      <c r="E91" s="61" t="n"/>
-      <c r="F91" s="62" t="n"/>
-      <c r="G91" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H91" s="59" t="n"/>
+      <c r="B91" s="57" t="inlineStr">
+        <is>
+          <t>TC086</t>
+        </is>
+      </c>
+      <c r="C91" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D91" s="70" t="inlineStr">
+        <is>
+          <t>Verify service UI availability during SCC communication</t>
+        </is>
+      </c>
+      <c r="E91" s="61" t="inlineStr">
+        <is>
+          <t>1. Trigger SCC communication
+2. Try to access service UI</t>
+        </is>
+      </c>
+      <c r="F91" s="62" t="inlineStr">
+        <is>
+          <t>Service UI should be unavailable during SCC communication</t>
+        </is>
+      </c>
+      <c r="G91" s="58" t="inlineStr"/>
+      <c r="H91" s="59" t="inlineStr">
+        <is>
+          <t>UI test</t>
+        </is>
+      </c>
       <c r="I91" s="53" t="n"/>
     </row>
     <row r="92" ht="99.75" customHeight="1">
-      <c r="B92" s="57" t="n"/>
-      <c r="C92" s="60" t="n"/>
-      <c r="D92" s="70" t="n"/>
-      <c r="E92" s="61" t="n"/>
-      <c r="F92" s="62" t="n"/>
-      <c r="G92" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H92" s="59" t="n"/>
+      <c r="B92" s="57" t="inlineStr">
+        <is>
+          <t>TC087</t>
+        </is>
+      </c>
+      <c r="C92" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D92" s="70" t="inlineStr">
+        <is>
+          <t>Verify SCC function in special boot mode</t>
+        </is>
+      </c>
+      <c r="E92" s="61" t="inlineStr">
+        <is>
+          <t>1. Boot MFP in special boot mode
+2. Check SCC functionality</t>
+        </is>
+      </c>
+      <c r="F92" s="62" t="inlineStr">
+        <is>
+          <t>SCC function should not work in special boot mode</t>
+        </is>
+      </c>
+      <c r="G92" s="58" t="inlineStr"/>
+      <c r="H92" s="59" t="inlineStr">
+        <is>
+          <t>Boot mode test</t>
+        </is>
+      </c>
       <c r="I92" s="53" t="n"/>
     </row>
     <row r="93" ht="99.75" customHeight="1">
-      <c r="B93" s="57" t="n"/>
-      <c r="C93" s="60" t="n"/>
-      <c r="D93" s="70" t="n"/>
-      <c r="E93" s="61" t="n"/>
-      <c r="F93" s="62" t="n"/>
-      <c r="G93" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H93" s="59" t="n"/>
+      <c r="B93" s="57" t="inlineStr">
+        <is>
+          <t>TC088</t>
+        </is>
+      </c>
+      <c r="C93" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D93" s="70" t="inlineStr">
+        <is>
+          <t>Verify handling of persistent policy with expiration</t>
+        </is>
+      </c>
+      <c r="E93" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to set persistent policy with expiration
+2. Wait for expiration period
+3. Change settings locally
+4. Observe behavior</t>
+        </is>
+      </c>
+      <c r="F93" s="62" t="inlineStr">
+        <is>
+          <t>Persistent policy check should stop after expiration period</t>
+        </is>
+      </c>
+      <c r="G93" s="58" t="inlineStr"/>
+      <c r="H93" s="59" t="inlineStr">
+        <is>
+          <t>Policy test</t>
+        </is>
+      </c>
       <c r="I93" s="53" t="n"/>
     </row>
     <row r="94" ht="99.75" customHeight="1">
-      <c r="B94" s="57" t="n"/>
-      <c r="C94" s="60" t="n"/>
-      <c r="D94" s="70" t="n"/>
-      <c r="E94" s="61" t="n"/>
-      <c r="F94" s="62" t="n"/>
-      <c r="G94" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H94" s="59" t="n"/>
+      <c r="B94" s="57" t="inlineStr">
+        <is>
+          <t>TC089</t>
+        </is>
+      </c>
+      <c r="C94" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D94" s="70" t="inlineStr">
+        <is>
+          <t>Verify handling of time-based device state values</t>
+        </is>
+      </c>
+      <c r="E94" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to set time-based values
+2. Observe settings at transition times</t>
+        </is>
+      </c>
+      <c r="F94" s="62" t="inlineStr">
+        <is>
+          <t>Settings should change at configured transition times</t>
+        </is>
+      </c>
+      <c r="G94" s="58" t="inlineStr"/>
+      <c r="H94" s="59" t="inlineStr">
+        <is>
+          <t>Time-based test</t>
+        </is>
+      </c>
       <c r="I94" s="53" t="n"/>
     </row>
     <row r="95" ht="99.75" customHeight="1">
-      <c r="B95" s="57" t="n"/>
-      <c r="C95" s="60" t="n"/>
-      <c r="D95" s="70" t="n"/>
-      <c r="E95" s="61" t="n"/>
-      <c r="F95" s="62" t="n"/>
-      <c r="G95" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H95" s="59" t="n"/>
+      <c r="B95" s="57" t="inlineStr">
+        <is>
+          <t>TC090</t>
+        </is>
+      </c>
+      <c r="C95" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D95" s="70" t="inlineStr">
+        <is>
+          <t>Verify IP redirect with different regions</t>
+        </is>
+      </c>
+      <c r="E95" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure MFP with IP addresses from different regions
+2. Enable SCC
+3. Monitor network traffic</t>
+        </is>
+      </c>
+      <c r="F95" s="62" t="inlineStr">
+        <is>
+          <t>MFP should be redirected to appropriate regional server</t>
+        </is>
+      </c>
+      <c r="G95" s="58" t="inlineStr"/>
+      <c r="H95" s="59" t="inlineStr">
+        <is>
+          <t>Regional test</t>
+        </is>
+      </c>
       <c r="I95" s="53" t="n"/>
     </row>
     <row r="96" ht="99.75" customHeight="1">
-      <c r="B96" s="57" t="n"/>
-      <c r="C96" s="60" t="n"/>
-      <c r="D96" s="70" t="n"/>
-      <c r="E96" s="61" t="n"/>
-      <c r="F96" s="62" t="n"/>
-      <c r="G96" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H96" s="59" t="n"/>
+      <c r="B96" s="57" t="inlineStr">
+        <is>
+          <t>TC091</t>
+        </is>
+      </c>
+      <c r="C96" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D96" s="70" t="inlineStr">
+        <is>
+          <t>Verify handling of maximum update package size</t>
+        </is>
+      </c>
+      <c r="E96" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to provide update package at maximum size
+2. Trigger SCC communication
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F96" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle maximum size package successfully</t>
+        </is>
+      </c>
+      <c r="G96" s="58" t="inlineStr"/>
+      <c r="H96" s="59" t="inlineStr">
+        <is>
+          <t>Boundary test</t>
+        </is>
+      </c>
       <c r="I96" s="53" t="n"/>
     </row>
     <row r="97" ht="99.75" customHeight="1">
-      <c r="B97" s="57" t="n"/>
-      <c r="C97" s="60" t="n"/>
-      <c r="D97" s="70" t="n"/>
-      <c r="E97" s="61" t="n"/>
-      <c r="F97" s="62" t="n"/>
-      <c r="G97" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H97" s="59" t="n"/>
+      <c r="B97" s="57" t="inlineStr">
+        <is>
+          <t>TC092</t>
+        </is>
+      </c>
+      <c r="C97" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D97" s="70" t="inlineStr">
+        <is>
+          <t>Verify handling of oversized update package</t>
+        </is>
+      </c>
+      <c r="E97" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to provide update package exceeding maximum size
+2. Trigger SCC communication
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F97" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle oversized package according to specifications</t>
+        </is>
+      </c>
+      <c r="G97" s="58" t="inlineStr"/>
+      <c r="H97" s="59" t="inlineStr">
+        <is>
+          <t>Boundary test</t>
+        </is>
+      </c>
       <c r="I97" s="53" t="n"/>
     </row>
     <row r="98" ht="99.75" customHeight="1">
-      <c r="B98" s="57" t="n"/>
-      <c r="C98" s="60" t="n"/>
-      <c r="D98" s="70" t="n"/>
-      <c r="E98" s="61" t="n"/>
-      <c r="F98" s="62" t="n"/>
-      <c r="G98" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H98" s="59" t="n"/>
+      <c r="B98" s="57" t="inlineStr">
+        <is>
+          <t>TC093</t>
+        </is>
+      </c>
+      <c r="C98" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D98" s="70" t="inlineStr">
+        <is>
+          <t>Verify handling of maximum baseline/regular data size</t>
+        </is>
+      </c>
+      <c r="E98" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure MFP to generate maximum size baseline/regular data
+2. Trigger SCC communication
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F98" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle maximum size data successfully</t>
+        </is>
+      </c>
+      <c r="G98" s="58" t="inlineStr"/>
+      <c r="H98" s="59" t="inlineStr">
+        <is>
+          <t>Boundary test</t>
+        </is>
+      </c>
       <c r="I98" s="53" t="n"/>
     </row>
     <row r="99" ht="99.75" customHeight="1">
-      <c r="B99" s="57" t="n"/>
-      <c r="C99" s="60" t="n"/>
-      <c r="D99" s="70" t="n"/>
-      <c r="E99" s="61" t="n"/>
-      <c r="F99" s="62" t="n"/>
-      <c r="G99" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H99" s="59" t="n"/>
+      <c r="B99" s="57" t="inlineStr">
+        <is>
+          <t>TC094</t>
+        </is>
+      </c>
+      <c r="C99" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D99" s="70" t="inlineStr">
+        <is>
+          <t>Verify handling of oversized baseline/regular data</t>
+        </is>
+      </c>
+      <c r="E99" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure MFP to generate oversized baseline/regular data
+2. Trigger SCC communication
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F99" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle oversized data according to specifications</t>
+        </is>
+      </c>
+      <c r="G99" s="58" t="inlineStr"/>
+      <c r="H99" s="59" t="inlineStr">
+        <is>
+          <t>Boundary test</t>
+        </is>
+      </c>
       <c r="I99" s="53" t="n"/>
     </row>
     <row r="100" ht="99.75" customHeight="1">
-      <c r="B100" s="57" t="n"/>
-      <c r="C100" s="60" t="n"/>
-      <c r="D100" s="70" t="n"/>
-      <c r="E100" s="61" t="n"/>
-      <c r="F100" s="62" t="n"/>
-      <c r="G100" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H100" s="59" t="n"/>
+      <c r="B100" s="57" t="inlineStr">
+        <is>
+          <t>TC095</t>
+        </is>
+      </c>
+      <c r="C100" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D100" s="70" t="inlineStr">
+        <is>
+          <t>Verify stress test with frequent communications</t>
+        </is>
+      </c>
+      <c r="E100" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure communication schedule to minimum interval
+2. Monitor MFP behavior over extended period</t>
+        </is>
+      </c>
+      <c r="F100" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle frequent communications without issues</t>
+        </is>
+      </c>
+      <c r="G100" s="58" t="inlineStr"/>
+      <c r="H100" s="59" t="inlineStr">
+        <is>
+          <t>Stress test</t>
+        </is>
+      </c>
       <c r="I100" s="53" t="n"/>
     </row>
     <row r="101" ht="99.75" customHeight="1">
-      <c r="B101" s="57" t="n"/>
-      <c r="C101" s="60" t="n"/>
-      <c r="D101" s="70" t="n"/>
-      <c r="E101" s="61" t="n"/>
-      <c r="F101" s="62" t="n"/>
-      <c r="G101" s="58" t="inlineStr">
-        <is>
-          <t>Not Executed</t>
-        </is>
-      </c>
-      <c r="H101" s="59" t="n"/>
+      <c r="B101" s="57" t="inlineStr">
+        <is>
+          <t>TC096</t>
+        </is>
+      </c>
+      <c r="C101" s="60" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D101" s="70" t="inlineStr">
+        <is>
+          <t>Verify stress test with large data transfers</t>
+        </is>
+      </c>
+      <c r="E101" s="61" t="inlineStr">
+        <is>
+          <t>1. Configure server to provide large update packages
+2. Configure MFP to generate large baseline/regular data
+3. Trigger frequent communications
+4. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F101" s="62" t="inlineStr">
+        <is>
+          <t>MFP should handle large data transfers without issues</t>
+        </is>
+      </c>
+      <c r="G101" s="58" t="inlineStr"/>
+      <c r="H101" s="59" t="inlineStr">
+        <is>
+          <t>Stress test</t>
+        </is>
+      </c>
       <c r="I101" s="53" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="63" t="n"/>
-      <c r="B102" s="63" t="n"/>
-      <c r="C102" s="63" t="n"/>
-      <c r="D102" s="63" t="n"/>
-      <c r="E102" s="64" t="n"/>
-      <c r="F102" s="64" t="n"/>
-      <c r="G102" s="63" t="n"/>
-      <c r="H102" s="63" t="n"/>
+      <c r="B102" s="63" t="inlineStr">
+        <is>
+          <t>TC097</t>
+        </is>
+      </c>
+      <c r="C102" s="63" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D102" s="63" t="inlineStr">
+        <is>
+          <t>Verify stress test with multiple events</t>
+        </is>
+      </c>
+      <c r="E102" s="64" t="inlineStr">
+        <is>
+          <t>1. Trigger multiple device errors in rapid succession
+2. Monitor network traffic</t>
+        </is>
+      </c>
+      <c r="F102" s="64" t="inlineStr">
+        <is>
+          <t>MFP should handle multiple events appropriately</t>
+        </is>
+      </c>
+      <c r="G102" s="63" t="inlineStr"/>
+      <c r="H102" s="63" t="inlineStr">
+        <is>
+          <t>Stress test</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TC098</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Verify accessibility of SCC installation report</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1. Enable SCC
+2. Wait for installation report
+3. Test report with screen reader</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Installation report should be accessible with screen reader</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Accessibility test</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="B104" s="45" t="inlineStr">
         <is>
-          <t>Test Summary</t>
-        </is>
-      </c>
-      <c r="C104" s="67" t="n"/>
+          <t>TC099</t>
+        </is>
+      </c>
+      <c r="C104" s="67" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Verify accessibility of panel messages</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1. Trigger SCC communication
+2. Test panel messages with screen reader</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Panel messages should be accessible with screen reader</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Accessibility test</t>
+        </is>
+      </c>
     </row>
     <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TC100</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
       <c r="D105" s="45" t="inlineStr">
         <is>
-          <t>Test Case Count:</t>
+          <t>Verify compatibility with different firmware versions</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1. Test SCC on MFP with different firmware versions
+2. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>SCC should work correctly across supported firmware versions</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Compatibility test</t>
         </is>
       </c>
     </row>
     <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TC101</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
       <c r="D106" s="46" t="inlineStr">
         <is>
-          <t>Total Test Cases</t>
-        </is>
-      </c>
-      <c r="E106" s="71">
-        <f>COUNTA(B6:B6)</f>
-        <v/>
+          <t>Verify compatibility with different MFP models</t>
+        </is>
+      </c>
+      <c r="E106" s="71" t="inlineStr">
+        <is>
+          <t>1. Test SCC on different MFP models
+2. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>SCC should work correctly across supported MFP models</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Compatibility test</t>
+        </is>
       </c>
     </row>
     <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TC102</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
       <c r="D107" s="65" t="inlineStr">
         <is>
-          <t>Total Test Case Passed</t>
-        </is>
-      </c>
-      <c r="E107" s="71">
-        <f>COUNTIF(G6:G6,"PASS")</f>
-        <v/>
+          <t>Verify regression test after firmware update</t>
+        </is>
+      </c>
+      <c r="E107" s="71" t="inlineStr">
+        <is>
+          <t>1. Update firmware via SCC
+2. Test all MFP functions
+3. Verify SCC functionality</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>All functions should work correctly after firmware update</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Regression test</t>
+        </is>
       </c>
     </row>
     <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TC103</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
       <c r="D108" s="46" t="inlineStr">
         <is>
-          <t>Total Test Case Failed</t>
-        </is>
-      </c>
-      <c r="E108" s="71">
-        <f>COUNTIF(G6:G6,"FAIL")</f>
-        <v/>
+          <t>Verify regression test after policy application</t>
+        </is>
+      </c>
+      <c r="E108" s="71" t="inlineStr">
+        <is>
+          <t>1. Apply policy via SCC
+2. Test affected MFP functions
+3. Verify SCC functionality</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>All functions should work correctly after policy application</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Regression test</t>
+        </is>
       </c>
     </row>
     <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TC104</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
       <c r="D109" s="68" t="inlineStr">
         <is>
-          <t>Total Test Case Not  Executed</t>
-        </is>
-      </c>
-      <c r="E109" s="71">
-        <f>COUNTIF(G6:G6,"Not Executed")</f>
-        <v/>
+          <t>Verify security of communication</t>
+        </is>
+      </c>
+      <c r="E109" s="71" t="inlineStr">
+        <is>
+          <t>1. Capture network traffic during SCC communication
+2. Analyze captured data</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>All sensitive data should be encrypted</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Security test</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TC105</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Verify security of stored data</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1. Enable SCC
+2. Examine stored data on MFP
+3. Check for sensitive information</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sensitive data should be stored securely</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Security test</t>
+        </is>
       </c>
     </row>
     <row r="111">
-      <c r="D111" s="45" t="n"/>
-      <c r="E111" s="69" t="n"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TC106</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D111" s="45" t="inlineStr">
+        <is>
+          <t>Verify random data input handling</t>
+        </is>
+      </c>
+      <c r="E111" s="69" t="inlineStr">
+        <is>
+          <t>1. Configure server to send random/unexpected data
+2. Trigger SCC communication
+3. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>MFP should handle unexpected data gracefully</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Ad-hoc test</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TC107</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Verify unusual user flow handling</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1. Perform unusual sequence of operations during SCC communication
+2. Monitor behavior</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>MFP should handle unusual user flows gracefully</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Ad-hoc test</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TC108</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Verify data validation for proxy settings</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1. Enter various valid and invalid proxy settings
+2. Observe behavior</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>MFP should validate proxy settings appropriately</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Data validation test</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TC109</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Verify data validation for URL settings</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1. Enter various valid and invalid URL settings
+2. Observe behavior</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>MFP should validate URL settings appropriately</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Data validation test</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TC110</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Verify integration with power management</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1. Enable SCC
+2. Test various power management scenarios
+3. Verify SCC behavior</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>SCC should integrate correctly with power management</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Integration test</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TC111</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Verify integration with job management</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1. Enable SCC
+2. Test various job management scenarios
+3. Verify SCC behavior</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>SCC should integrate correctly with job management</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Integration test</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TC112</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Verify integration with network management</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1. Enable SCC
+2. Test various network management scenarios
+3. Verify SCC behavior</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>SCC should integrate correctly with network management</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Integration test</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TC113</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Verify integration with security management</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1. Enable SCC
+2. Test various security management scenarios
+3. Verify SCC behavior</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>SCC should integrate correctly with security management</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Integration test</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>TC114</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Verify recovery from corrupted state</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1. Simulate corrupted SCC state
+2. Reboot MFP
+3. Verify recovery</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>MFP should recover from corrupted state</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Recovery test</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>TC115</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MFP with SCC enabled</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Verify recovery from interrupted update</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1. Interrupt update process
+2. Reboot MFP
+3. Verify recovery</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>MFP should recover from interrupted update</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Recovery test</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Generated_TestCases.xlsx
+++ b/Generated_TestCases.xlsx
@@ -10125,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H2"/>
@@ -10250,24 +10250,23 @@
       </c>
       <c r="C6" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC disabled</t>
+          <t>MFP is in normal boot-up mode</t>
         </is>
       </c>
       <c r="D6" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC function can be enabled</t>
+          <t>Verify default state of SCC function</t>
         </is>
       </c>
       <c r="E6" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode
-2. Set 08-3820 to 1 (Enable)
-3. Reboot the MFP</t>
+          <t>1. Boot up the MFP
+2. Check the status of SCC function</t>
         </is>
       </c>
       <c r="F6" s="62" t="inlineStr">
         <is>
-          <t>SCC function should be enabled after reboot</t>
+          <t>SCC function should be disabled by default</t>
         </is>
       </c>
       <c r="G6" s="58" t="inlineStr"/>
@@ -10282,24 +10281,24 @@
       </c>
       <c r="C7" s="60" t="inlineStr">
         <is>
-          <t>MFP is powered on with SCC enabled</t>
+          <t>MFP is in self-diagnostic boot-up mode</t>
         </is>
       </c>
       <c r="D7" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC function can be disabled</t>
+          <t>Enable SCC function</t>
         </is>
       </c>
       <c r="E7" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode
-2. Set 08-3820 to 0 (Disable)
+          <t>1. Enter self-diagnostic boot-up mode
+2. Set 08-3820 to 1 (Enable)
 3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F7" s="62" t="inlineStr">
         <is>
-          <t>SCC function should be disabled after reboot</t>
+          <t>SCC function should be enabled after reboot</t>
         </is>
       </c>
       <c r="G7" s="58" t="inlineStr"/>
@@ -10314,24 +10313,24 @@
       </c>
       <c r="C8" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC disabled</t>
+          <t>MFP is in service UI on panel</t>
         </is>
       </c>
       <c r="D8" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report is printed when enabled</t>
+          <t>Enable SCC function</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3820 from 0 (Disable) to 1 (Enable)
-2. Reboot the MFP
-3. Wait for MFP registration processing</t>
+          <t>1. Access service UI on panel
+2. Set 08-3820 to 1 (Enable)
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>Installation report should be automatically printed after registration</t>
+          <t>SCC function should be enabled after reboot</t>
         </is>
       </c>
       <c r="G8" s="58" t="inlineStr"/>
@@ -10346,24 +10345,23 @@
       </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP is in normal boot-up mode</t>
         </is>
       </c>
       <c r="D9" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report is printed only once</t>
+          <t>Attempt to enable SCC from TA</t>
         </is>
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3820 from 0 to 1
-2. Reboot and wait for installation report
-3. Disable and re-enable SCC again</t>
+          <t>1. Access TopAccess
+2. Try to find SCC enable/disable setting</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>Installation report should print only after the first enable, not subsequent enables</t>
+          <t>SCC enable/disable setting should not be available in TopAccess</t>
         </is>
       </c>
       <c r="G9" s="58" t="inlineStr"/>
@@ -10378,23 +10376,22 @@
       </c>
       <c r="C10" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP is in normal boot-up mode</t>
         </is>
       </c>
       <c r="D10" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC installation report content</t>
+          <t>Attempt to enable SCC via STAGE2 IF</t>
         </is>
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC and wait for installation report
-2. Check the printed report</t>
+          <t>1. Try to enable SCC via STAGE2 interface</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>Report should contain: Serial Number, MAC Address, IP Address, Subnet Mask, Gateway, DNS Server, Registration Status, Date, Time</t>
+          <t>SCC enable/disable setting should not be configurable via STAGE2 interface</t>
         </is>
       </c>
       <c r="G10" s="58" t="inlineStr"/>
@@ -10409,23 +10406,23 @@
       </c>
       <c r="C11" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D11" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC report is recorded in job log</t>
+          <t>Verify SCC function after cloning</t>
         </is>
       </c>
       <c r="E11" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC and wait for installation report
-2. Check job log</t>
+          <t>1. Create a clone file
+2. Apply clone file to another device</t>
         </is>
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>SCC report should be recorded in job log as network print</t>
+          <t>SCC enable/disable setting should not be cloned</t>
         </is>
       </c>
       <c r="G11" s="58" t="inlineStr"/>
@@ -10440,23 +10437,24 @@
       </c>
       <c r="C12" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP is in self-diagnostic boot-up mode</t>
         </is>
       </c>
       <c r="D12" s="70" t="inlineStr">
         <is>
-          <t>Verify user counter for built-in admin is incremented</t>
+          <t>Configure SCC proxy server</t>
         </is>
       </c>
       <c r="E12" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC and wait for installation report
-2. Check user counter for built-in admin</t>
+          <t>1. Enter self-diagnostic boot-up mode
+2. Set 08-3822 to 08-3826 (SCC Proxy Server settings)
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>User counter for built-in admin should be incremented after SCC report printing</t>
+          <t>SCC proxy server settings should be configured correctly</t>
         </is>
       </c>
       <c r="G12" s="58" t="inlineStr"/>
@@ -10471,24 +10469,24 @@
       </c>
       <c r="C13" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled and network print restriction mode (08-9344) set to 1 (only private)</t>
+          <t>MFP is in service UI on panel</t>
         </is>
       </c>
       <c r="D13" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC report handling with print restrictions</t>
+          <t>Configure SCC proxy server</t>
         </is>
       </c>
       <c r="E13" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-9344 to 1 (only private)
-2. Enable SCC
-3. Wait for installation report</t>
+          <t>1. Access service UI on panel
+2. Set 08-3822 to 08-3826 (SCC Proxy Server settings)
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F13" s="62" t="inlineStr">
         <is>
-          <t>SCC report should not be printed and job log should show error code 4221</t>
+          <t>SCC proxy server settings should be configured correctly</t>
         </is>
       </c>
       <c r="G13" s="58" t="inlineStr"/>
@@ -10503,24 +10501,23 @@
       </c>
       <c r="C14" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled and user authentication enabled</t>
+          <t>MFP is in normal boot-up mode</t>
         </is>
       </c>
       <c r="D14" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC report with quota exceeded</t>
+          <t>Attempt to configure SCC proxy server from TA</t>
         </is>
       </c>
       <c r="E14" s="61" t="inlineStr">
         <is>
-          <t>1. Enable user authentication
-2. Set quota for built-in admin to minimum
-3. Enable SCC</t>
+          <t>1. Access TopAccess
+2. Try to find SCC proxy server settings</t>
         </is>
       </c>
       <c r="F14" s="62" t="inlineStr">
         <is>
-          <t>SCC report should not be printed due to quota error</t>
+          <t>SCC proxy server settings should not be available in TopAccess</t>
         </is>
       </c>
       <c r="G14" s="58" t="inlineStr"/>
@@ -10535,25 +10532,23 @@
       </c>
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC proxy server is configured</t>
         </is>
       </c>
       <c r="D15" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC proxy server settings</t>
+          <t>Verify SCC proxy server settings after cloning</t>
         </is>
       </c>
       <c r="E15" s="61" t="inlineStr">
         <is>
-          <t>1. Access Self-diagnostic boot-up mode
-2. Configure 08-3822 to 08-3826 (proxy settings)
-3. Reboot the MFP
-4. Verify communication with server</t>
+          <t>1. Create a clone file
+2. Apply clone file to another device</t>
         </is>
       </c>
       <c r="F15" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate with server through configured proxy</t>
+          <t>SCC proxy server settings should not be cloned</t>
         </is>
       </c>
       <c r="G15" s="58" t="inlineStr"/>
@@ -10568,24 +10563,24 @@
       </c>
       <c r="C16" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP is in self-diagnostic boot-up mode</t>
         </is>
       </c>
       <c r="D16" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC communication with port 443</t>
+          <t>Configure SCC first registration URL</t>
         </is>
       </c>
       <c r="E16" s="61" t="inlineStr">
         <is>
-          <t>1. Configure firewall to allow port 443
-2. Enable SCC
-3. Monitor network traffic</t>
+          <t>1. Enter self-diagnostic boot-up mode
+2. Set 08-3827 to a valid URL
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F16" s="62" t="inlineStr">
         <is>
-          <t>MFP should communicate with server using port 443</t>
+          <t>SCC first registration URL should be configured correctly</t>
         </is>
       </c>
       <c r="G16" s="58" t="inlineStr"/>
@@ -10600,24 +10595,23 @@
       </c>
       <c r="C17" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled and port 443 blocked</t>
+          <t>SCC first registration URL is configured</t>
         </is>
       </c>
       <c r="D17" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC fallback to port 8443</t>
+          <t>Verify SCC first registration URL after factory default</t>
         </is>
       </c>
       <c r="E17" s="61" t="inlineStr">
         <is>
-          <t>1. Configure firewall to block port 443 but allow 8443
-2. Enable SCC
-3. Monitor network traffic</t>
+          <t>1. Perform factory default
+2. Check 08-3827 value</t>
         </is>
       </c>
       <c r="F17" s="62" t="inlineStr">
         <is>
-          <t>MFP should automatically use port 8443 for communication</t>
+          <t>SCC first registration URL should not be initialized by Factory Default</t>
         </is>
       </c>
       <c r="G17" s="58" t="inlineStr"/>
@@ -10632,23 +10626,23 @@
       </c>
       <c r="C18" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC first registration URL is configured</t>
         </is>
       </c>
       <c r="D18" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC does not start in special startup mode</t>
+          <t>Verify SCC first registration URL after HDD clear</t>
         </is>
       </c>
       <c r="E18" s="61" t="inlineStr">
         <is>
-          <t>1. Boot MFP in special startup mode
-2. Check if SCC process starts</t>
+          <t>1. Perform HDD clear
+2. Check 08-3827 value</t>
         </is>
       </c>
       <c r="F18" s="62" t="inlineStr">
         <is>
-          <t>SCC process should not start in special startup mode</t>
+          <t>SCC first registration URL should be initialized by HDD clear</t>
         </is>
       </c>
       <c r="G18" s="58" t="inlineStr"/>
@@ -10663,24 +10657,23 @@
       </c>
       <c r="C19" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC first registration URL is configured</t>
         </is>
       </c>
       <c r="D19" s="70" t="inlineStr">
         <is>
-          <t>Verify service UI unavailability during SCC communication</t>
+          <t>Verify SCC first registration URL after decommission</t>
         </is>
       </c>
       <c r="E19" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Trigger SCC communication
-3. Try to access service UI</t>
+          <t>1. Perform decommission
+2. Check 08-3827 value</t>
         </is>
       </c>
       <c r="F19" s="62" t="inlineStr">
         <is>
-          <t>Service UI should be unavailable during SCC communication</t>
+          <t>SCC first registration URL should be initialized by decommission</t>
         </is>
       </c>
       <c r="G19" s="58" t="inlineStr"/>
@@ -10695,24 +10688,23 @@
       </c>
       <c r="C20" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC first registration URL is configured</t>
         </is>
       </c>
       <c r="D20" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication loop timing at startup</t>
+          <t>Verify SCC first registration URL after cloning</t>
         </is>
       </c>
       <c r="E20" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC
-2. Reboot MFP
-3. Monitor network traffic</t>
+          <t>1. Create a clone file
+2. Apply clone file to another device</t>
         </is>
       </c>
       <c r="F20" s="62" t="inlineStr">
         <is>
-          <t>MFP should initiate communication with server after normal startup</t>
+          <t>SCC first registration URL should not be cloned</t>
         </is>
       </c>
       <c r="G20" s="58" t="inlineStr"/>
@@ -10727,24 +10719,24 @@
       </c>
       <c r="C21" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>MFP is in self-diagnostic boot-up mode</t>
         </is>
       </c>
       <c r="D21" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication with daily schedule</t>
+          <t>Configure URL forward setting</t>
         </is>
       </c>
       <c r="E21" s="61" t="inlineStr">
         <is>
-          <t>1. Set communication schedule to daily at specific time
-2. Wait for scheduled time
-3. Monitor network traffic</t>
+          <t>1. Enter self-diagnostic boot-up mode
+2. Set 08-3828 to 0 (Disable)
+3. Reboot the MFP</t>
         </is>
       </c>
       <c r="F21" s="62" t="inlineStr">
         <is>
-          <t>MFP should initiate communication at the specified time</t>
+          <t>URL forward setting should be configured correctly</t>
         </is>
       </c>
       <c r="G21" s="58" t="inlineStr"/>
@@ -10759,23 +10751,23 @@
       </c>
       <c r="C22" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>URL forward setting is configured</t>
         </is>
       </c>
       <c r="D22" s="70" t="inlineStr">
         <is>
-          <t>Verify regular communication with interval schedule</t>
+          <t>Verify URL forward setting after factory default</t>
         </is>
       </c>
       <c r="E22" s="61" t="inlineStr">
         <is>
-          <t>1. Set communication schedule to interval (e.g., 15 min)
-2. Monitor network traffic</t>
+          <t>1. Perform factory default
+2. Check 08-3828 value</t>
         </is>
       </c>
       <c r="F22" s="62" t="inlineStr">
         <is>
-          <t>MFP should initiate communication at the specified interval</t>
+          <t>URL forward setting should not be initialized by Factory Default</t>
         </is>
       </c>
       <c r="G22" s="58" t="inlineStr"/>
@@ -10790,23 +10782,23 @@
       </c>
       <c r="C23" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>URL forward setting is configured</t>
         </is>
       </c>
       <c r="D23" s="70" t="inlineStr">
         <is>
-          <t>Verify communication sequence</t>
+          <t>Verify URL forward setting after decommission</t>
         </is>
       </c>
       <c r="E23" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Monitor network traffic</t>
+          <t>1. Perform decommission
+2. Check 08-3828 value</t>
         </is>
       </c>
       <c r="F23" s="62" t="inlineStr">
         <is>
-          <t>Communication should follow sequence: Register Device → Check for Updates → Download Package → Send Baseline Data → Install Package → Update Status → Send Regular Data</t>
+          <t>URL forward setting should be initialized by decommission</t>
         </is>
       </c>
       <c r="G23" s="58" t="inlineStr"/>
@@ -10821,23 +10813,23 @@
       </c>
       <c r="C24" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled, first time registration</t>
+          <t>URL forward setting is configured</t>
         </is>
       </c>
       <c r="D24" s="70" t="inlineStr">
         <is>
-          <t>Verify first-time MFP registration</t>
+          <t>Verify URL forward setting after cloning</t>
         </is>
       </c>
       <c r="E24" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC on unregistered MFP
-2. Monitor network traffic</t>
+          <t>1. Create a clone file
+2. Apply clone file to another device</t>
         </is>
       </c>
       <c r="F24" s="62" t="inlineStr">
         <is>
-          <t>MFP should send registration request and be registered with server</t>
+          <t>URL forward setting should not be cloned</t>
         </is>
       </c>
       <c r="G24" s="58" t="inlineStr"/>
@@ -10852,23 +10844,24 @@
       </c>
       <c r="C25" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled, already registered</t>
+          <t>SCC function is disabled</t>
         </is>
       </c>
       <c r="D25" s="70" t="inlineStr">
         <is>
-          <t>Verify MFP authentication after registration</t>
+          <t>Enable SCC function for the first time</t>
         </is>
       </c>
       <c r="E25" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication on registered MFP
-2. Monitor network traffic</t>
+          <t>1. Set 08-3820 from 0 to 1
+2. Reboot the MFP
+3. Wait for MFP registration processing</t>
         </is>
       </c>
       <c r="F25" s="62" t="inlineStr">
         <is>
-          <t>MFP should authenticate with server using token</t>
+          <t>Installation report should be printed automatically after MFP registration</t>
         </is>
       </c>
       <c r="G25" s="58" t="inlineStr"/>
@@ -10883,23 +10876,25 @@
       </c>
       <c r="C26" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled and MFP is registered</t>
         </is>
       </c>
       <c r="D26" s="70" t="inlineStr">
         <is>
-          <t>Verify server BUSY handling</t>
+          <t>Disable and re-enable SCC function</t>
         </is>
       </c>
       <c r="E26" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate server BUSY response
-2. Monitor MFP behavior</t>
+          <t>1. Set 08-3820 from 1 to 0
+2. Reboot the MFP
+3. Set 08-3820 from 0 to 1
+4. Reboot the MFP</t>
         </is>
       </c>
       <c r="F26" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry connection with increasing intervals as specified by server</t>
+          <t>Installation report should not be printed again</t>
         </is>
       </c>
       <c r="G26" s="58" t="inlineStr"/>
@@ -10914,23 +10909,23 @@
       </c>
       <c r="C27" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D27" s="70" t="inlineStr">
         <is>
-          <t>Verify MFP registration failure handling</t>
+          <t>Verify installation report content</t>
         </is>
       </c>
       <c r="E27" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate registration failure response
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC for the first time
+2. Check the printed installation report</t>
         </is>
       </c>
       <c r="F27" s="62" t="inlineStr">
         <is>
-          <t>After 3 consecutive failures, MFP should exit communication cycle and wait for next schedule</t>
+          <t>Report should contain: Model Name, Serial Number, IP Address, MAC Address, Date/Time, SCC Status</t>
         </is>
       </c>
       <c r="G27" s="58" t="inlineStr"/>
@@ -10945,23 +10940,23 @@
       </c>
       <c r="C28" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D28" s="70" t="inlineStr">
         <is>
-          <t>Verify Check for Updates functionality</t>
+          <t>Verify installation report language</t>
         </is>
       </c>
       <c r="E28" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Monitor network traffic</t>
+          <t>1. Enable SCC for the first time
+2. Check the printed installation report</t>
         </is>
       </c>
       <c r="F28" s="62" t="inlineStr">
         <is>
-          <t>MFP should call Check for Updates after Register Device</t>
+          <t>Report should be in English only regardless of MFP language setting</t>
         </is>
       </c>
       <c r="G28" s="58" t="inlineStr"/>
@@ -10976,24 +10971,23 @@
       </c>
       <c r="C29" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D29" s="70" t="inlineStr">
         <is>
-          <t>Verify Download Package functionality</t>
+          <t>Verify installation report in job log</t>
         </is>
       </c>
       <c r="E29" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide update package
-2. Trigger SCC communication
-3. Monitor network traffic</t>
+          <t>1. Enable SCC for the first time
+2. Check job log</t>
         </is>
       </c>
       <c r="F29" s="62" t="inlineStr">
         <is>
-          <t>MFP should download package after Check for Updates</t>
+          <t>Installation report should be recorded in Job Log as network print</t>
         </is>
       </c>
       <c r="G29" s="58" t="inlineStr"/>
@@ -11008,23 +11002,23 @@
       </c>
       <c r="C30" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D30" s="70" t="inlineStr">
         <is>
-          <t>Verify package hash validation</t>
+          <t>Verify user counter for installation report</t>
         </is>
       </c>
       <c r="E30" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide update package with incorrect hash
-2. Trigger SCC communication</t>
+          <t>1. Enable SCC for the first time
+2. Check user counter for built-in Admin</t>
         </is>
       </c>
       <c r="F30" s="62" t="inlineStr">
         <is>
-          <t>MFP should delete downloaded data and exit communication cycle</t>
+          <t>User counter for built-in Admin should be incremented after installation report printing</t>
         </is>
       </c>
       <c r="G30" s="58" t="inlineStr"/>
@@ -11039,23 +11033,24 @@
       </c>
       <c r="C31" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, power failure during report printing</t>
         </is>
       </c>
       <c r="D31" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Baseline Data functionality</t>
+          <t>Verify installation report behavior after power recovery</t>
         </is>
       </c>
       <c r="E31" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Monitor network traffic</t>
+          <t>1. Enable SCC for the first time
+2. Cause power failure during blinking LED (during RIP processing)
+3. Power on the MFP</t>
         </is>
       </c>
       <c r="F31" s="62" t="inlineStr">
         <is>
-          <t>MFP should send baseline data after Download Package</t>
+          <t>Installation report should not be printed after power-on recovery</t>
         </is>
       </c>
       <c r="G31" s="58" t="inlineStr"/>
@@ -11070,24 +11065,23 @@
       </c>
       <c r="C32" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, network print restriction mode set to "only private"</t>
         </is>
       </c>
       <c r="D32" s="70" t="inlineStr">
         <is>
-          <t>Verify Install Package functionality</t>
+          <t>Verify installation report with print restriction</t>
         </is>
       </c>
       <c r="E32" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide update package
-2. Trigger SCC communication
-3. Monitor installation</t>
+          <t>1. Set 08-9344 to 1 (only private)
+2. Enable SCC for the first time</t>
         </is>
       </c>
       <c r="F32" s="62" t="inlineStr">
         <is>
-          <t>MFP should install package after Send Baseline Data</t>
+          <t>Installation report should not be printed, job log should show error code 4221</t>
         </is>
       </c>
       <c r="G32" s="58" t="inlineStr"/>
@@ -11102,24 +11096,23 @@
       </c>
       <c r="C33" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, network print restriction mode set to "only hold"</t>
         </is>
       </c>
       <c r="D33" s="70" t="inlineStr">
         <is>
-          <t>Verify firmware update installation</t>
+          <t>Verify installation report with print restriction</t>
         </is>
       </c>
       <c r="E33" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide firmware update
-2. Trigger SCC communication
-3. Monitor installation</t>
+          <t>1. Set 08-9344 to 2 (only hold)
+2. Enable SCC for the first time</t>
         </is>
       </c>
       <c r="F33" s="62" t="inlineStr">
         <is>
-          <t>MFP should install firmware at scheduled time</t>
+          <t>Installation report should be registered as hold print</t>
         </is>
       </c>
       <c r="G33" s="58" t="inlineStr"/>
@@ -11134,24 +11127,25 @@
       </c>
       <c r="C34" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, user authentication enabled, quota for built-in admin exhausted</t>
         </is>
       </c>
       <c r="D34" s="70" t="inlineStr">
         <is>
-          <t>Verify Update Status notification</t>
+          <t>Verify installation report with quota restriction</t>
         </is>
       </c>
       <c r="E34" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to provide update package
-2. Trigger SCC communication
-3. Monitor network traffic</t>
+          <t>1. Enable user authentication
+2. Set quota for built-in admin to minimum
+3. Exhaust the quota
+4. Enable SCC for the first time</t>
         </is>
       </c>
       <c r="F34" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify installation status to server after Install Package</t>
+          <t>Installation report should not be printed due to quota error</t>
         </is>
       </c>
       <c r="G34" s="58" t="inlineStr"/>
@@ -11166,23 +11160,24 @@
       </c>
       <c r="C35" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, coin controller equipped, external counter 08 code enabled</t>
         </is>
       </c>
       <c r="D35" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Regular Data functionality</t>
+          <t>Verify installation report with coin controller</t>
         </is>
       </c>
       <c r="E35" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Monitor network traffic</t>
+          <t>1. Equip coin controller
+2. Enable external counter 08 code
+3. Enable SCC for the first time</t>
         </is>
       </c>
       <c r="F35" s="62" t="inlineStr">
         <is>
-          <t>MFP should send regular data after Update Status</t>
+          <t>Installation report should not be printed until coin is inserted</t>
         </is>
       </c>
       <c r="G35" s="58" t="inlineStr"/>
@@ -11197,23 +11192,23 @@
       </c>
       <c r="C36" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, job full (1000 jobs registered)</t>
         </is>
       </c>
       <c r="D36" s="70" t="inlineStr">
         <is>
-          <t>Verify event notification loop</t>
+          <t>Verify installation report with job full</t>
         </is>
       </c>
       <c r="E36" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger device error
-2. Monitor network traffic</t>
+          <t>1. Register 1000 jobs
+2. Enable SCC for the first time</t>
         </is>
       </c>
       <c r="F36" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify error to server through event notification loop</t>
+          <t>Installation report should not be printed</t>
         </is>
       </c>
       <c r="G36" s="58" t="inlineStr"/>
@@ -11228,23 +11223,23 @@
       </c>
       <c r="C37" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, print enabler not equipped in monochrome machine</t>
         </is>
       </c>
       <c r="D37" s="70" t="inlineStr">
         <is>
-          <t>Verify Send Device Error functionality</t>
+          <t>Verify installation report without print enabler</t>
         </is>
       </c>
       <c r="E37" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger device error
-2. Monitor network traffic</t>
+          <t>1. Use monochrome machine without print enabler
+2. Enable SCC for the first time</t>
         </is>
       </c>
       <c r="F37" s="62" t="inlineStr">
         <is>
-          <t>MFP should call Send Device Error to notify server</t>
+          <t>Installation report should not be printed</t>
         </is>
       </c>
       <c r="G37" s="58" t="inlineStr"/>
@@ -11259,23 +11254,23 @@
       </c>
       <c r="C38" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D38" s="70" t="inlineStr">
         <is>
-          <t>Verify duplicate error handling</t>
+          <t>Verify HTTPS communication</t>
         </is>
       </c>
       <c r="E38" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger same device error multiple times
-2. Monitor network traffic</t>
+          <t>1. Enable SCC
+2. Monitor network traffic during SCC communication</t>
         </is>
       </c>
       <c r="F38" s="62" t="inlineStr">
         <is>
-          <t>MFP should not send duplicate errors unless they are removed</t>
+          <t>MFP should use HTTPS for communication with servers</t>
         </is>
       </c>
       <c r="G38" s="58" t="inlineStr"/>
@@ -11290,24 +11285,23 @@
       </c>
       <c r="C39" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D39" s="70" t="inlineStr">
         <is>
-          <t>Verify error removal notification</t>
+          <t>Verify communication direction</t>
         </is>
       </c>
       <c r="E39" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger device error
-2. Resolve error without power off
-3. Monitor network traffic</t>
+          <t>1. Enable SCC
+2. Monitor network traffic during SCC communication</t>
         </is>
       </c>
       <c r="F39" s="62" t="inlineStr">
         <is>
-          <t>MFP should notify error removal with "-" prefix (e.g., -D102)</t>
+          <t>Communication should always start from MFP side, never from server side</t>
         </is>
       </c>
       <c r="G39" s="58" t="inlineStr"/>
@@ -11322,23 +11316,23 @@
       </c>
       <c r="C40" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D40" s="70" t="inlineStr">
         <is>
-          <t>Verify Super Sleep interaction</t>
+          <t>Verify SSL certificate</t>
         </is>
       </c>
       <c r="E40" s="61" t="inlineStr">
         <is>
-          <t>1. Start SCC communication
-2. Observe power state</t>
+          <t>1. Enable SCC
+2. Check certificate used for SSL communication</t>
         </is>
       </c>
       <c r="F40" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter Power Save, Sleep, or Super Sleep during communication cycle</t>
+          <t>Server certificate should be previously installed to the MFP at SCC module installation</t>
         </is>
       </c>
       <c r="G40" s="58" t="inlineStr"/>
@@ -11353,24 +11347,24 @@
       </c>
       <c r="C41" s="60" t="inlineStr">
         <is>
-          <t>MFP in Super Sleep with SCC enabled</t>
+          <t>SCC function is enabled, MFP connected via proxy server</t>
         </is>
       </c>
       <c r="D41" s="70" t="inlineStr">
         <is>
-          <t>Verify Super Sleep recovery for scheduled communication</t>
+          <t>Verify proxy server settings</t>
         </is>
       </c>
       <c r="E41" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in Super Sleep
-2. Wait for scheduled communication time
-3. Observe behavior</t>
+          <t>1. Configure proxy server settings (08-3822 to 08-3826)
+2. Enable SCC
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F41" s="62" t="inlineStr">
         <is>
-          <t>MFP should wake up from Super Sleep to perform scheduled communication</t>
+          <t>MFP should communicate with server through proxy server</t>
         </is>
       </c>
       <c r="G41" s="58" t="inlineStr"/>
@@ -11385,23 +11379,25 @@
       </c>
       <c r="C42" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, proxy server with authentication</t>
         </is>
       </c>
       <c r="D42" s="70" t="inlineStr">
         <is>
-          <t>Verify Hibernation interaction</t>
+          <t>Verify proxy authentication</t>
         </is>
       </c>
       <c r="E42" s="61" t="inlineStr">
         <is>
-          <t>1. Start SCC communication
-2. Observe power state</t>
+          <t>1. Configure proxy server with authentication
+2. Set account ID and password in 08-3822 to 08-3826
+3. Enable SCC
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F42" s="62" t="inlineStr">
         <is>
-          <t>MFP should not enter Hibernation during communication cycle</t>
+          <t>MFP should authenticate with proxy server</t>
         </is>
       </c>
       <c r="G42" s="58" t="inlineStr"/>
@@ -11416,25 +11412,25 @@
       </c>
       <c r="C43" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, proxy server without authentication</t>
         </is>
       </c>
       <c r="D43" s="70" t="inlineStr">
         <is>
-          <t>Verify Persistent Policy functionality</t>
+          <t>Verify proxy without authentication</t>
         </is>
       </c>
       <c r="E43" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to set Persistent Policy
-2. Change settings locally
-3. Wait for persistent check interval
-4. Observe settings</t>
+          <t>1. Configure proxy server without authentication
+2. Set account ID to NULL in proxy settings
+3. Enable SCC
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F43" s="62" t="inlineStr">
         <is>
-          <t>Settings should be restored according to Persistent Policy</t>
+          <t>MFP should behave as without proxy authentication</t>
         </is>
       </c>
       <c r="G43" s="58" t="inlineStr"/>
@@ -11449,23 +11445,24 @@
       </c>
       <c r="C44" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, firewall blocks port 443</t>
         </is>
       </c>
       <c r="D44" s="70" t="inlineStr">
         <is>
-          <t>Verify Time-based Device State Data Values</t>
+          <t>Verify port fallback</t>
         </is>
       </c>
       <c r="E44" s="61" t="inlineStr">
         <is>
-          <t>1. Configure server to set time-based values
-2. Observe settings at different times</t>
+          <t>1. Configure firewall to block port 443
+2. Enable SCC
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F44" s="62" t="inlineStr">
         <is>
-          <t>Settings should change according to configured time periods</t>
+          <t>SCC module should automatically use port 8443</t>
         </is>
       </c>
       <c r="G44" s="58" t="inlineStr"/>
@@ -11480,23 +11477,23 @@
       </c>
       <c r="C45" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled, first registration</t>
+          <t>MFP is in special startup mode</t>
         </is>
       </c>
       <c r="D45" s="70" t="inlineStr">
         <is>
-          <t>Verify IP Redirect functionality</t>
+          <t>Verify SCC in special startup</t>
         </is>
       </c>
       <c r="E45" s="61" t="inlineStr">
         <is>
-          <t>1. Enable SCC on unregistered MFP
-2. Monitor network traffic</t>
+          <t>1. Boot MFP in special startup mode
+2. Check if SCC process starts</t>
         </is>
       </c>
       <c r="F45" s="62" t="inlineStr">
         <is>
-          <t>MFP should request redirect URL and connect to appropriate regional server</t>
+          <t>SCC process should not start in special startup mode</t>
         </is>
       </c>
       <c r="G45" s="58" t="inlineStr"/>
@@ -11511,23 +11508,24 @@
       </c>
       <c r="C46" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D46" s="70" t="inlineStr">
         <is>
-          <t>Verify retry processing on connection error</t>
+          <t>Verify regular communication loop</t>
         </is>
       </c>
       <c r="E46" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate connection error
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC
+2. Monitor communication
+3. Wait for scheduled time</t>
         </is>
       </c>
       <c r="F46" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry in 60 seconds, then enter retry mode if unsuccessful</t>
+          <t>MFP should periodically communicate with server according to schedule</t>
         </is>
       </c>
       <c r="G46" s="58" t="inlineStr"/>
@@ -11542,23 +11540,24 @@
       </c>
       <c r="C47" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D47" s="70" t="inlineStr">
         <is>
-          <t>Verify retry processing on HTTP error</t>
+          <t>Verify event notification loop</t>
         </is>
       </c>
       <c r="E47" s="61" t="inlineStr">
         <is>
-          <t>1. Simulate HTTP error
-2. Monitor MFP behavior</t>
+          <t>1. Enable SCC
+2. Trigger an event (e.g., device error)
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F47" s="62" t="inlineStr">
         <is>
-          <t>MFP should retry in 60 seconds, then enter retry mode if second retry fails</t>
+          <t>MFP should immediately notify event to server</t>
         </is>
       </c>
       <c r="G47" s="58" t="inlineStr"/>
@@ -11573,23 +11572,24 @@
       </c>
       <c r="C48" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled in retry mode</t>
+          <t>SCC function is enabled, 08-3827 set to NULL</t>
         </is>
       </c>
       <c r="D48" s="70" t="inlineStr">
         <is>
-          <t>Verify retry mode behavior</t>
+          <t>Verify default server connection</t>
         </is>
       </c>
       <c r="E48" s="61" t="inlineStr">
         <is>
-          <t>1. Put MFP in retry mode
-2. Monitor communication attempts</t>
+          <t>1. Set 08-3827 to NULL
+2. Enable SCC
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F48" s="62" t="inlineStr">
         <is>
-          <t>MFP should try to communicate once every 24 hours until successful</t>
+          <t>MFP should connect to NA server (edevice.Tprinters-solutions.com)</t>
         </is>
       </c>
       <c r="G48" s="58" t="inlineStr"/>
@@ -11604,23 +11604,24 @@
       </c>
       <c r="C49" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, 08-3827 set to valid URL</t>
         </is>
       </c>
       <c r="D49" s="70" t="inlineStr">
         <is>
-          <t>Verify panel message display during SCC processing</t>
+          <t>Verify custom server connection</t>
         </is>
       </c>
       <c r="E49" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger SCC communication
-2. Observe panel display</t>
+          <t>1. Set 08-3827 to valid URL
+2. Enable SCC
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F49" s="62" t="inlineStr">
         <is>
-          <t>Panel should display "Service in progress. Please do not turn off: XX" with appropriate status code</t>
+          <t>MFP should connect to specified URL</t>
         </is>
       </c>
       <c r="G49" s="58" t="inlineStr"/>
@@ -11635,23 +11636,24 @@
       </c>
       <c r="C50" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, 08-3827 set to invalid URL format</t>
         </is>
       </c>
       <c r="D50" s="70" t="inlineStr">
         <is>
-          <t>Verify popup window display during specific operations</t>
+          <t>Verify invalid URL handling</t>
         </is>
       </c>
       <c r="E50" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger operations that require popup (e.g., RESTORING, UPGRADINGFIRMWARE)
-2. Observe panel display</t>
+          <t>1. Set 08-3827 to value not starting with "http://" or "https://"
+2. Enable SCC
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F50" s="62" t="inlineStr">
         <is>
-          <t>Popup window with sand clock should be displayed</t>
+          <t>Network error should occur, MFP should not access NA server</t>
         </is>
       </c>
       <c r="G50" s="58" t="inlineStr"/>
@@ -11666,23 +11668,24 @@
       </c>
       <c r="C51" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, 08-3827 set to unreachable URL</t>
         </is>
       </c>
       <c r="D51" s="70" t="inlineStr">
         <is>
-          <t>Verify message log recording</t>
+          <t>Verify unreachable URL handling</t>
         </is>
       </c>
       <c r="E51" s="61" t="inlineStr">
         <is>
-          <t>1. Trigger various SCC operations and errors
-2. Check message logs</t>
+          <t>1. Set 08-3827 to valid but unreachable URL
+2. Enable SCC
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F51" s="62" t="inlineStr">
         <is>
-          <t>Appropriate message logs should be recorded for SCC operations and errors</t>
+          <t>Network error should occur, MFP should not access NA server</t>
         </is>
       </c>
       <c r="G51" s="58" t="inlineStr"/>
@@ -11697,24 +11700,24 @@
       </c>
       <c r="C52" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, 08-3827 set to NULL, device not registered</t>
         </is>
       </c>
       <c r="D52" s="70" t="inlineStr">
         <is>
-          <t>Verify SCC first registration URL setting</t>
+          <t>Verify registration error handling</t>
         </is>
       </c>
       <c r="E52" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to custom URL
-2. Enable SCC
-3. Monitor network traffic</t>
+          <t>1. Set 08-3827 to NULL
+2. Enable SCC for unregistered device
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F52" s="62" t="inlineStr">
         <is>
-          <t>MFP should connect to specified URL for first registration</t>
+          <t>Registration error (STATUS_FAILED) should occur</t>
         </is>
       </c>
       <c r="G52" s="58" t="inlineStr"/>
@@ -11729,24 +11732,25 @@
       </c>
       <c r="C53" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, 08-3827 set to NULL, server returns other URL, 08-3828=0</t>
         </is>
       </c>
       <c r="D53" s="70" t="inlineStr">
         <is>
-          <t>Verify URL forward setting</t>
+          <t>Verify URL forward disabled</t>
         </is>
       </c>
       <c r="E53" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3828 to 0 (Disable)
-2. Enable SCC
-3. Monitor network traffic</t>
+          <t>1. Set 08-3827 to NULL
+2. Set 08-3828 to 0 (Disable)
+3. Enable SCC
+4. Server returns other URL</t>
         </is>
       </c>
       <c r="F53" s="62" t="inlineStr">
         <is>
-          <t>MFP should not connect to redirected URL</t>
+          <t>Registration error should occur</t>
         </is>
       </c>
       <c r="G53" s="58" t="inlineStr"/>
@@ -11761,24 +11765,25 @@
       </c>
       <c r="C54" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, 08-3827 set to NULL, server returns other URL, 08-3828=1</t>
         </is>
       </c>
       <c r="D54" s="70" t="inlineStr">
         <is>
-          <t>Verify invalid URL handling</t>
+          <t>Verify URL forward enabled</t>
         </is>
       </c>
       <c r="E54" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to invalid URL
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Set 08-3827 to NULL
+2. Set 08-3828 to 1 (Enable)
+3. Enable SCC
+4. Server returns other URL</t>
         </is>
       </c>
       <c r="F54" s="62" t="inlineStr">
         <is>
-          <t>Network error should occur and MFP should not access default server</t>
+          <t>MFP should access returned URL</t>
         </is>
       </c>
       <c r="G54" s="58" t="inlineStr"/>
@@ -11793,24 +11798,24 @@
       </c>
       <c r="C55" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, HTTPS used for communication</t>
         </is>
       </c>
       <c r="D55" s="70" t="inlineStr">
         <is>
-          <t>Verify HTTPS certificate handling</t>
+          <t>Verify CA certification</t>
         </is>
       </c>
       <c r="E55" s="61" t="inlineStr">
         <is>
-          <t>1. Set 08-3827 to HTTPS URL without importing certificate
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Set 08-3827 to HTTPS URL requiring custom CA cert
+2. Don't import CA cert
+3. Enable SCC</t>
         </is>
       </c>
       <c r="F55" s="62" t="inlineStr">
         <is>
-          <t>Communication should fail due to missing certificate</t>
+          <t>Communication should fail</t>
         </is>
       </c>
       <c r="G55" s="58" t="inlineStr"/>
@@ -11825,32 +11830,28 @@
       </c>
       <c r="C56" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled</t>
         </is>
       </c>
       <c r="D56" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 connectivity</t>
+          <t>Verify communication start timing</t>
         </is>
       </c>
       <c r="E56" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv4 only
-2. Enable SCC
-3. Monitor network traffic</t>
+          <t>1. Enable SCC
+2. Reboot MFP
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F56" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully communicate with server using IPv4</t>
+          <t>MFP should communicate with server after normal startup</t>
         </is>
       </c>
       <c r="G56" s="58" t="inlineStr"/>
-      <c r="H56" s="59" t="inlineStr">
-        <is>
-          <t>IPv4 specific test</t>
-        </is>
-      </c>
+      <c r="H56" s="59" t="inlineStr"/>
       <c r="I56" s="53" t="n"/>
     </row>
     <row r="57" ht="99.75" customHeight="1">
@@ -11861,32 +11862,29 @@
       </c>
       <c r="C57" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, regular communication schedule set to specific time</t>
         </is>
       </c>
       <c r="D57" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 connectivity</t>
+          <t>Verify scheduled communication</t>
         </is>
       </c>
       <c r="E57" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv6 only
+          <t>1. Set regular communication schedule to specific time
 2. Enable SCC
-3. Monitor network traffic</t>
+3. Wait for scheduled time
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F57" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully communicate with server using IPv6</t>
+          <t>MFP should communicate with server at specified time</t>
         </is>
       </c>
       <c r="G57" s="58" t="inlineStr"/>
-      <c r="H57" s="59" t="inlineStr">
-        <is>
-          <t>IPv6 specific test</t>
-        </is>
-      </c>
+      <c r="H57" s="59" t="inlineStr"/>
       <c r="I57" s="53" t="n"/>
     </row>
     <row r="58" ht="99.75" customHeight="1">
@@ -11897,32 +11895,29 @@
       </c>
       <c r="C58" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, regular communication schedule set to intervals</t>
         </is>
       </c>
       <c r="D58" s="70" t="inlineStr">
         <is>
-          <t>Verify dual-stack (IPv4+IPv6) operation</t>
+          <t>Verify interval communication</t>
         </is>
       </c>
       <c r="E58" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with both IPv4 and IPv6
+          <t>1. Set regular communication schedule to intervals (e.g., 15 min)
 2. Enable SCC
-3. Monitor network traffic</t>
+3. Wait for interval
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F58" s="62" t="inlineStr">
         <is>
-          <t>MFP should successfully communicate with server using preferred protocol</t>
+          <t>MFP should communicate with server at specified intervals</t>
         </is>
       </c>
       <c r="G58" s="58" t="inlineStr"/>
-      <c r="H58" s="59" t="inlineStr">
-        <is>
-          <t>Dual-stack test</t>
-        </is>
-      </c>
+      <c r="H58" s="59" t="inlineStr"/>
       <c r="I58" s="53" t="n"/>
     </row>
     <row r="59" ht="99.75" customHeight="1">
@@ -11933,33 +11928,27 @@
       </c>
       <c r="C59" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled in dual-stack mode</t>
+          <t>SCC function is enabled, first time registration</t>
         </is>
       </c>
       <c r="D59" s="70" t="inlineStr">
         <is>
-          <t>Verify fallback from IPv6 to IPv4</t>
+          <t>Verify first registration sequence</t>
         </is>
       </c>
       <c r="E59" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with both IPv4 and IPv6
-2. Block IPv6 traffic
-3. Enable SCC
-4. Monitor network traffic</t>
+          <t>1. Enable SCC for unregistered MFP
+2. Monitor communication</t>
         </is>
       </c>
       <c r="F59" s="62" t="inlineStr">
         <is>
-          <t>MFP should fall back to IPv4 when IPv6 is unavailable</t>
+          <t>Server should check MFP serial number, send secret question, MFP should answer, and be registered if correct</t>
         </is>
       </c>
       <c r="G59" s="58" t="inlineStr"/>
-      <c r="H59" s="59" t="inlineStr">
-        <is>
-          <t>Protocol fallback test</t>
-        </is>
-      </c>
+      <c r="H59" s="59" t="inlineStr"/>
       <c r="I59" s="53" t="n"/>
     </row>
     <row r="60" ht="99.75" customHeight="1">
@@ -11970,33 +11959,27 @@
       </c>
       <c r="C60" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled in dual-stack mode</t>
+          <t>SCC function is enabled, MFP already registered</t>
         </is>
       </c>
       <c r="D60" s="70" t="inlineStr">
         <is>
-          <t>Verify fallback from IPv4 to IPv6</t>
+          <t>Verify authentication sequence</t>
         </is>
       </c>
       <c r="E60" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with both IPv4 and IPv6
-2. Block IPv4 traffic
-3. Enable SCC
-4. Monitor network traffic</t>
+          <t>1. Enable SCC for already registered MFP
+2. Monitor communication</t>
         </is>
       </c>
       <c r="F60" s="62" t="inlineStr">
         <is>
-          <t>MFP should fall back to IPv6 when IPv4 is unavailable</t>
+          <t>MFP should connect using token responded from server at registration</t>
         </is>
       </c>
       <c r="G60" s="58" t="inlineStr"/>
-      <c r="H60" s="59" t="inlineStr">
-        <is>
-          <t>Protocol fallback test</t>
-        </is>
-      </c>
+      <c r="H60" s="59" t="inlineStr"/>
       <c r="I60" s="53" t="n"/>
     </row>
     <row r="61" ht="99.75" customHeight="1">
@@ -12007,32 +11990,28 @@
       </c>
       <c r="C61" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, server is BUSY</t>
         </is>
       </c>
       <c r="D61" s="70" t="inlineStr">
         <is>
-          <t>Test with invalid IPv4 address (0.0.0.0)</t>
+          <t>Verify server BUSY handling</t>
         </is>
       </c>
       <c r="E61" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv4 address 0.0.0.0
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Enable SCC
+2. Simulate server BUSY response
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F61" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle invalid address appropriately</t>
+          <t>MFP should finish connection, wait for specified period, and retry with incremented retry number</t>
         </is>
       </c>
       <c r="G61" s="58" t="inlineStr"/>
-      <c r="H61" s="59" t="inlineStr">
-        <is>
-          <t>IPv4 edge case</t>
-        </is>
-      </c>
+      <c r="H61" s="59" t="inlineStr"/>
       <c r="I61" s="53" t="n"/>
     </row>
     <row r="62" ht="99.75" customHeight="1">
@@ -12043,32 +12022,28 @@
       </c>
       <c r="C62" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, server is BUSY for 3 retries</t>
         </is>
       </c>
       <c r="D62" s="70" t="inlineStr">
         <is>
-          <t>Test with broadcast IPv4 address (255.255.255.255)</t>
+          <t>Verify server BUSY handling after 3 retries</t>
         </is>
       </c>
       <c r="E62" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv4 address 255.255.255.255
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Enable SCC
+2. Simulate server BUSY response for 3 retries
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F62" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle broadcast address appropriately</t>
+          <t>Server should inevitably receive MFP request at 3rd retry</t>
         </is>
       </c>
       <c r="G62" s="58" t="inlineStr"/>
-      <c r="H62" s="59" t="inlineStr">
-        <is>
-          <t>IPv4 edge case</t>
-        </is>
-      </c>
+      <c r="H62" s="59" t="inlineStr"/>
       <c r="I62" s="53" t="n"/>
     </row>
     <row r="63" ht="99.75" customHeight="1">
@@ -12079,32 +12054,28 @@
       </c>
       <c r="C63" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, server is BUSY for 4 retries</t>
         </is>
       </c>
       <c r="D63" s="70" t="inlineStr">
         <is>
-          <t>Test with loopback IPv6 address (::1)</t>
+          <t>Verify server BUSY handling after 4 retries</t>
         </is>
       </c>
       <c r="E63" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv6 address ::1
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Enable SCC
+2. Simulate server BUSY response for 4 retries
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F63" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle loopback address appropriately</t>
+          <t>MFP should exit communication cycle and wait for next communication schedule</t>
         </is>
       </c>
       <c r="G63" s="58" t="inlineStr"/>
-      <c r="H63" s="59" t="inlineStr">
-        <is>
-          <t>IPv6 edge case</t>
-        </is>
-      </c>
+      <c r="H63" s="59" t="inlineStr"/>
       <c r="I63" s="53" t="n"/>
     </row>
     <row r="64" ht="99.75" customHeight="1">
@@ -12115,32 +12086,28 @@
       </c>
       <c r="C64" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, MFP registration fails</t>
         </is>
       </c>
       <c r="D64" s="70" t="inlineStr">
         <is>
-          <t>Test with unspecified IPv6 address (::)</t>
+          <t>Verify registration failure handling</t>
         </is>
       </c>
       <c r="E64" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv6 address ::
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Enable SCC
+2. Simulate registration failure
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F64" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle unspecified address appropriately</t>
+          <t>Installation Report should be printed, MFP should exit communication cycle</t>
         </is>
       </c>
       <c r="G64" s="58" t="inlineStr"/>
-      <c r="H64" s="59" t="inlineStr">
-        <is>
-          <t>IPv6 edge case</t>
-        </is>
-      </c>
+      <c r="H64" s="59" t="inlineStr"/>
       <c r="I64" s="53" t="n"/>
     </row>
     <row r="65" ht="99.75" customHeight="1">
@@ -12151,32 +12118,28 @@
       </c>
       <c r="C65" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, MFP registration fails 3 consecutive times</t>
         </is>
       </c>
       <c r="D65" s="70" t="inlineStr">
         <is>
-          <t>Test with malformed IPv6 address</t>
+          <t>Verify registration lock handling</t>
         </is>
       </c>
       <c r="E65" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with malformed IPv6 address
-2. Enable SCC
-3. Monitor behavior</t>
+          <t>1. Enable SCC
+2. Simulate 3 consecutive registration failures
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F65" s="62" t="inlineStr">
         <is>
-          <t>MFP should handle malformed address appropriately</t>
+          <t>Server should respond STATUS_LOCK, Installation Report should be printed, MFP should exit communication cycle</t>
         </is>
       </c>
       <c r="G65" s="58" t="inlineStr"/>
-      <c r="H65" s="59" t="inlineStr">
-        <is>
-          <t>IPv6 edge case</t>
-        </is>
-      </c>
+      <c r="H65" s="59" t="inlineStr"/>
       <c r="I65" s="53" t="n"/>
     </row>
     <row r="66" ht="99.75" customHeight="1">
@@ -12187,34 +12150,28 @@
       </c>
       <c r="C66" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, communication error during Register Device</t>
         </is>
       </c>
       <c r="D66" s="70" t="inlineStr">
         <is>
-          <t>Compare IPv4 vs IPv6 performance</t>
+          <t>Verify retry processing</t>
         </is>
       </c>
       <c r="E66" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv4 only
-2. Measure communication time
-3. Configure MFP with IPv6 only
-4. Measure communication time
-5. Compare results</t>
+          <t>1. Enable SCC
+2. Simulate communication error during Register Device
+3. Monitor communication</t>
         </is>
       </c>
       <c r="F66" s="62" t="inlineStr">
         <is>
-          <t>Performance metrics should be collected and compared</t>
+          <t>MFP should perform retry processing</t>
         </is>
       </c>
       <c r="G66" s="58" t="inlineStr"/>
-      <c r="H66" s="59" t="inlineStr">
-        <is>
-          <t>Performance comparison</t>
-        </is>
-      </c>
+      <c r="H66" s="59" t="inlineStr"/>
       <c r="I66" s="53" t="n"/>
     </row>
     <row r="67" ht="99.75" customHeight="1">
@@ -12225,32 +12182,29 @@
       </c>
       <c r="C67" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, power failure during Register Device</t>
         </is>
       </c>
       <c r="D67" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv4 security</t>
+          <t>Verify power failure handling</t>
         </is>
       </c>
       <c r="E67" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv4 only
-2. Perform security scan
-3. Check for vulnerabilities</t>
+          <t>1. Enable SCC
+2. Cause power failure during Register Device
+3. Power on MFP
+4. Monitor communication</t>
         </is>
       </c>
       <c r="F67" s="62" t="inlineStr">
         <is>
-          <t>No IPv4-specific vulnerabilities should be found</t>
+          <t>MFP should communicate with server at next power on without recovery processing</t>
         </is>
       </c>
       <c r="G67" s="58" t="inlineStr"/>
-      <c r="H67" s="59" t="inlineStr">
-        <is>
-          <t>Security test</t>
-        </is>
-      </c>
+      <c r="H67" s="59" t="inlineStr"/>
       <c r="I67" s="53" t="n"/>
     </row>
     <row r="68" ht="99.75" customHeight="1">
@@ -12261,32 +12215,27 @@
       </c>
       <c r="C68" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, MFP registered</t>
         </is>
       </c>
       <c r="D68" s="70" t="inlineStr">
         <is>
-          <t>Verify IPv6 security</t>
+          <t>Verify Check for Updates</t>
         </is>
       </c>
       <c r="E68" s="61" t="inlineStr">
         <is>
-          <t>1. Configure MFP with IPv6 only
-2. Perform security scan
-3. Check for vulnerabilities</t>
+          <t>1. Enable SCC for registered MFP
+2. Monitor communication</t>
         </is>
       </c>
       <c r="F68" s="62" t="inlineStr">
         <is>
-          <t>No IPv6-specific vulnerabilities should be found</t>
+          <t>MFP should call Check for Updates interface after Register Device</t>
         </is>
       </c>
       <c r="G68" s="58" t="inlineStr"/>
-      <c r="H68" s="59" t="inlineStr">
-        <is>
-          <t>Security test</t>
-        </is>
-      </c>
+      <c r="H68" s="59" t="inlineStr"/>
       <c r="I68" s="53" t="n"/>
     </row>
     <row r="69" ht="99.75" customHeight="1">
@@ -12297,33 +12246,28 @@
       </c>
       <c r="C69" s="60" t="inlineStr">
         <is>
-          <t>MFP with SCC enabled</t>
+          <t>SCC function is enabled, update specified</t>
         </is>
       </c>
       <c r="D69" s="70" t="inlineStr">
         <is>
-          <t>Verify communication with proxy using IPv4</t>
+          <t>Verify update handling</t>
         </is>
       </c>
       <c r="E69" s="61" t="inlineStr">
         <is>
-          <t>1. Configure proxy with IPv4
-2. Configure MFP to use proxy
-3. Enable SCC
-4. Monitor network traffic</t>
+          <t>1. Enable SCC
+2. Server specifies upda